--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33743230-0757-4591-A264-E30C5168A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48CDC0E-731B-4FAD-B6E4-D619A71A590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HappinessIndex2025" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="201">
   <si>
     <t>Amazing Day</t>
   </si>
@@ -1402,30 +1402,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,6 +1435,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,6 +1474,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1484,15 +1493,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2817,7 +2817,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7</c:v>
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,7 +3128,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.7749999999999995</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,13 +3436,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -12196,7 +12205,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>478361</xdr:colOff>
+      <xdr:colOff>478360</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>12096</xdr:rowOff>
     </xdr:to>
@@ -12620,8 +12629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6CF7-CA58-448E-9A43-748C25428E75}">
   <dimension ref="A1:T367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="53" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView topLeftCell="A2" zoomScale="53" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -12660,11 +12669,11 @@
       <c r="F1" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" s="63">
@@ -12673,20 +12682,20 @@
       <c r="B2" s="51">
         <v>2.5</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="87">
         <f>AVERAGE(B2:B32)</f>
-        <v>4.7749999999999995</v>
-      </c>
-      <c r="D2" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="D2" s="82"/>
       <c r="E2" s="62">
         <v>1</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" s="56">
@@ -12695,8 +12704,8 @@
       <c r="B3" s="2">
         <v>2.8</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="72"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="62">
         <v>1</v>
       </c>
@@ -12711,8 +12720,8 @@
       <c r="B4" s="2">
         <v>4.8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="72"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="62">
         <v>1</v>
       </c>
@@ -12762,8 +12771,8 @@
       <c r="B5" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="62">
         <v>1</v>
       </c>
@@ -12785,11 +12794,11 @@
       </c>
       <c r="L5" s="32">
         <f>C2</f>
-        <v>4.7749999999999995</v>
-      </c>
-      <c r="M5" s="83">
+        <v>5</v>
+      </c>
+      <c r="M5" s="75">
         <f>AVERAGE(L5:L16)</f>
-        <v>4.7749999999999995</v>
+        <v>5</v>
       </c>
       <c r="N5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -12797,15 +12806,15 @@
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=8", B2:B32,"&lt;10")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=6", B2:B32,"&lt;8")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=4", B2:B32,"&lt;6")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=2", B2:B32,"&lt;4")</f>
@@ -12824,8 +12833,8 @@
       <c r="B6" s="2">
         <v>6.2</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="62">
         <v>1</v>
       </c>
@@ -12840,13 +12849,13 @@
       </c>
       <c r="I6" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=8", B2:B366,"&lt;10")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="60" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="32"/>
-      <c r="M6" s="84"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="61"/>
       <c r="O6" s="61"/>
       <c r="P6" s="61"/>
@@ -12862,8 +12871,8 @@
       <c r="B7" s="2">
         <v>6.1</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="72"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="62">
         <v>1</v>
       </c>
@@ -12878,13 +12887,13 @@
       </c>
       <c r="I7" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=6", B2:B366,"&lt;8")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="32"/>
-      <c r="M7" s="84"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="61"/>
       <c r="O7" s="61"/>
       <c r="P7" s="61"/>
@@ -12900,8 +12909,8 @@
       <c r="B8" s="2">
         <v>3.5</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="62">
         <v>1</v>
       </c>
@@ -12916,13 +12925,13 @@
       </c>
       <c r="I8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" s="60" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="32"/>
-      <c r="M8" s="84"/>
+      <c r="M8" s="76"/>
       <c r="N8" s="61"/>
       <c r="O8" s="61"/>
       <c r="P8" s="61"/>
@@ -12938,8 +12947,8 @@
       <c r="B9" s="2">
         <v>1.2</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="62">
         <v>1</v>
       </c>
@@ -12960,7 +12969,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="32"/>
-      <c r="M9" s="84"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
@@ -12976,8 +12985,8 @@
       <c r="B10" s="2">
         <v>5.6</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="62">
         <v>1</v>
       </c>
@@ -12998,7 +13007,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="32"/>
-      <c r="M10" s="84"/>
+      <c r="M10" s="76"/>
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
@@ -13014,27 +13023,27 @@
       <c r="B11" s="2">
         <v>4.3</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="72"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="62">
         <v>1</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="80"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="17">
         <f>SUM(I5:I10)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K11" s="60" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="32"/>
-      <c r="M11" s="84"/>
+      <c r="M11" s="76"/>
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
@@ -13050,8 +13059,8 @@
       <c r="B12" s="2">
         <v>5.4</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="72"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="62">
         <v>1</v>
       </c>
@@ -13062,7 +13071,7 @@
         <v>15</v>
       </c>
       <c r="L12" s="32"/>
-      <c r="M12" s="84"/>
+      <c r="M12" s="76"/>
       <c r="N12" s="61"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
@@ -13078,27 +13087,27 @@
       <c r="B13" s="2">
         <v>7.2</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="72"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="62">
         <v>1</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82">
+      <c r="H13" s="73"/>
+      <c r="I13" s="74">
         <f>I11/3.65</f>
-        <v>7.6712328767123292</v>
+        <v>8.493150684931507</v>
       </c>
       <c r="K13" s="60" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="32"/>
-      <c r="M13" s="84"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
@@ -13114,22 +13123,22 @@
       <c r="B14" s="2">
         <v>3.9</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="62">
         <v>0.8</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
       <c r="K14" s="60" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="32"/>
-      <c r="M14" s="84"/>
+      <c r="M14" s="76"/>
       <c r="N14" s="61"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
@@ -13145,8 +13154,8 @@
       <c r="B15" s="2">
         <v>1.5</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="62">
         <v>1</v>
       </c>
@@ -13157,7 +13166,7 @@
         <v>18</v>
       </c>
       <c r="L15" s="32"/>
-      <c r="M15" s="84"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="61"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
@@ -13173,8 +13182,8 @@
       <c r="B16" s="2">
         <v>5.2</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="72"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="62">
         <v>1</v>
       </c>
@@ -13185,7 +13194,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="32"/>
-      <c r="M16" s="85"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="61"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
@@ -13201,8 +13210,8 @@
       <c r="B17" s="2">
         <v>6.5</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="72"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="62">
         <v>1</v>
       </c>
@@ -13217,8 +13226,8 @@
       <c r="B18" s="2">
         <v>2.9</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="62">
         <v>0.6</v>
       </c>
@@ -13233,8 +13242,8 @@
       <c r="B19" s="2">
         <v>3.3</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="72"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="62">
         <v>0</v>
       </c>
@@ -13249,8 +13258,8 @@
       <c r="B20" s="2">
         <v>6.2</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="72"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="62">
         <v>1</v>
       </c>
@@ -13265,8 +13274,8 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="72"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="62">
         <v>1</v>
       </c>
@@ -13281,8 +13290,8 @@
       <c r="B22" s="2">
         <v>4.3</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="62">
         <v>0</v>
       </c>
@@ -13297,8 +13306,8 @@
       <c r="B23" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="72"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="62">
         <v>0</v>
       </c>
@@ -13313,8 +13322,8 @@
       <c r="B24" s="2">
         <v>1.2</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="62">
         <v>1</v>
       </c>
@@ -13329,8 +13338,8 @@
       <c r="B25" s="2">
         <v>6.2</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="62">
         <v>1</v>
       </c>
@@ -13345,8 +13354,8 @@
       <c r="B26" s="2">
         <v>8.1</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="72"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="62">
         <v>0</v>
       </c>
@@ -13361,8 +13370,8 @@
       <c r="B27" s="2">
         <v>6.8</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="72"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="62">
         <v>0</v>
       </c>
@@ -13377,8 +13386,8 @@
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="72"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="62">
         <v>1</v>
       </c>
@@ -13391,10 +13400,10 @@
         <v>45685</v>
       </c>
       <c r="B29" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="72"/>
+        <v>5.8</v>
+      </c>
+      <c r="C29" s="88"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="62">
         <v>1</v>
       </c>
@@ -13406,2697 +13415,2721 @@
       <c r="A30" s="56">
         <v>45686</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="72"/>
+      <c r="B30" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="62">
+        <v>0</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="56">
         <v>45687</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="72"/>
+      <c r="B31" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="62">
+        <v>1</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="57">
         <v>45688</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="72"/>
+      <c r="B32" s="58">
+        <v>8.5</v>
+      </c>
+      <c r="C32" s="89"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="62">
+        <v>1</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="55">
         <v>45689</v>
       </c>
       <c r="B33" s="51"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="73"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="84"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>45690</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="73"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="84"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>45691</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="73"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="84"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>45692</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="73"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="84"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>45693</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="73"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="84"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>45694</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="84"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>45695</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="73"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="84"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>45696</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="73"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="84"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>45697</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="73"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="84"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>45698</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="73"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="84"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>45699</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="73"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="84"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>45700</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="73"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="84"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>45701</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="73"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="84"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>45702</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="73"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="84"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>45703</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="73"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="84"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>45704</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="73"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="84"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>45705</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="73"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="84"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>45706</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="73"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="84"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>45707</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="73"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="84"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>45708</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="73"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="84"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>45709</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="73"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="84"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>45710</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="73"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="84"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>45711</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="73"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="84"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>45712</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="73"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="84"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>45713</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="73"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="84"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>45714</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="73"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="84"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>45715</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="73"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="84"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>45716</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="73"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="84"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>45717</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="73"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="84"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>45718</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="73"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="84"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>45719</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="73"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="84"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>45720</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="73"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="84"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>45721</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="73"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="84"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>45722</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="73"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="84"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>45723</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="73"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="84"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>45724</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="73"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="84"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>45725</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="73"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="84"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>45726</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="73"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="84"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>45727</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="73"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="84"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>45728</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="73"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="84"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>45729</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="73"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="84"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>45730</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="73"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="84"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>45731</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="73"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="84"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>45732</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="73"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="84"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>45733</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="73"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="84"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>45734</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="73"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="84"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>45735</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="73"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="84"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>45736</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="73"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="84"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>45737</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="75"/>
-      <c r="D81" s="73"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="84"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>45738</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="73"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="84"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>45739</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="73"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="84"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>45740</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="73"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="84"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>45741</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="73"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="84"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>45742</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="73"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="84"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>45743</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="73"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="84"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>45744</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="73"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="84"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>45745</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="73"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="84"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>45746</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="73"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="84"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>45747</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="73"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="84"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>45748</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="73"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="84"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>45749</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="73"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="84"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>45750</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="73"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="84"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>45751</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="73"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="84"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>45752</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="73"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="84"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>45753</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="73"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="84"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>45754</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="73"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="84"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>45755</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="73"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="84"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>45756</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="73"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="84"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>45757</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="73"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="84"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>45758</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="73"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="84"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
         <v>45759</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="73"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="84"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
         <v>45760</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="73"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="84"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
         <v>45761</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="73"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="84"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
         <v>45762</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="75"/>
-      <c r="D106" s="73"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="84"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
         <v>45763</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="75"/>
-      <c r="D107" s="73"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="84"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
         <v>45764</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="75"/>
-      <c r="D108" s="73"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="84"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
         <v>45765</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="75"/>
-      <c r="D109" s="73"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="84"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
         <v>45766</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="75"/>
-      <c r="D110" s="73"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="84"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
         <v>45767</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="75"/>
-      <c r="D111" s="73"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="84"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
         <v>45768</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="75"/>
-      <c r="D112" s="73"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="84"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
         <v>45769</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="75"/>
-      <c r="D113" s="73"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="84"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>45770</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="75"/>
-      <c r="D114" s="73"/>
+      <c r="C114" s="86"/>
+      <c r="D114" s="84"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>45771</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="75"/>
-      <c r="D115" s="73"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="84"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>45772</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="75"/>
-      <c r="D116" s="73"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="84"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>45773</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="75"/>
-      <c r="D117" s="73"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="84"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>45774</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="75"/>
-      <c r="D118" s="73"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="84"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>45775</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="75"/>
-      <c r="D119" s="73"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="84"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>45776</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="75"/>
-      <c r="D120" s="73"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="84"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>45777</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="73"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="84"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>45778</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="75"/>
-      <c r="D122" s="73"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="84"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>45779</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="73"/>
+      <c r="C123" s="86"/>
+      <c r="D123" s="84"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>45780</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="75"/>
-      <c r="D124" s="73"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="84"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>45781</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="73"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="84"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>45782</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="75"/>
-      <c r="D126" s="73"/>
+      <c r="C126" s="86"/>
+      <c r="D126" s="84"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>45783</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="75"/>
-      <c r="D127" s="73"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="84"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>45784</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="73"/>
+      <c r="C128" s="86"/>
+      <c r="D128" s="84"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>45785</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="75"/>
-      <c r="D129" s="73"/>
+      <c r="C129" s="86"/>
+      <c r="D129" s="84"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>45786</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="75"/>
-      <c r="D130" s="73"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="84"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>45787</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="75"/>
-      <c r="D131" s="73"/>
+      <c r="C131" s="86"/>
+      <c r="D131" s="84"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>45788</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="75"/>
-      <c r="D132" s="73"/>
+      <c r="C132" s="86"/>
+      <c r="D132" s="84"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>45789</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="73"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="84"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>45790</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="73"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="84"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>45791</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="75"/>
-      <c r="D135" s="73"/>
+      <c r="C135" s="86"/>
+      <c r="D135" s="84"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>45792</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="75"/>
-      <c r="D136" s="73"/>
+      <c r="C136" s="86"/>
+      <c r="D136" s="84"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>45793</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="75"/>
-      <c r="D137" s="73"/>
+      <c r="C137" s="86"/>
+      <c r="D137" s="84"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>45794</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="75"/>
-      <c r="D138" s="73"/>
+      <c r="C138" s="86"/>
+      <c r="D138" s="84"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>45795</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="75"/>
-      <c r="D139" s="73"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="84"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>45796</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="75"/>
-      <c r="D140" s="73"/>
+      <c r="C140" s="86"/>
+      <c r="D140" s="84"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>45797</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="75"/>
-      <c r="D141" s="73"/>
+      <c r="C141" s="86"/>
+      <c r="D141" s="84"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>45798</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="75"/>
-      <c r="D142" s="73"/>
+      <c r="C142" s="86"/>
+      <c r="D142" s="84"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>45799</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="75"/>
-      <c r="D143" s="73"/>
+      <c r="C143" s="86"/>
+      <c r="D143" s="84"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>45800</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="75"/>
-      <c r="D144" s="73"/>
+      <c r="C144" s="86"/>
+      <c r="D144" s="84"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>45801</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="75"/>
-      <c r="D145" s="73"/>
+      <c r="C145" s="86"/>
+      <c r="D145" s="84"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>45802</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="75"/>
-      <c r="D146" s="73"/>
+      <c r="C146" s="86"/>
+      <c r="D146" s="84"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>45803</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="73"/>
+      <c r="C147" s="86"/>
+      <c r="D147" s="84"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>45804</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="75"/>
-      <c r="D148" s="73"/>
+      <c r="C148" s="86"/>
+      <c r="D148" s="84"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>45805</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="75"/>
-      <c r="D149" s="73"/>
+      <c r="C149" s="86"/>
+      <c r="D149" s="84"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>45806</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="75"/>
-      <c r="D150" s="73"/>
+      <c r="C150" s="86"/>
+      <c r="D150" s="84"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>45807</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="75"/>
-      <c r="D151" s="73"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="84"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>45808</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="73"/>
+      <c r="C152" s="86"/>
+      <c r="D152" s="84"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>45809</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="75"/>
-      <c r="D153" s="73"/>
+      <c r="C153" s="86"/>
+      <c r="D153" s="84"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>45810</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="75"/>
-      <c r="D154" s="73"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="84"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>45811</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="75"/>
-      <c r="D155" s="73"/>
+      <c r="C155" s="86"/>
+      <c r="D155" s="84"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>45812</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="73"/>
+      <c r="C156" s="86"/>
+      <c r="D156" s="84"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>45813</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="75"/>
-      <c r="D157" s="73"/>
+      <c r="C157" s="86"/>
+      <c r="D157" s="84"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A158" s="1">
         <v>45814</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="73"/>
+      <c r="C158" s="86"/>
+      <c r="D158" s="84"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A159" s="1">
         <v>45815</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="75"/>
-      <c r="D159" s="73"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="84"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A160" s="1">
         <v>45816</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="73"/>
+      <c r="C160" s="86"/>
+      <c r="D160" s="84"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A161" s="1">
         <v>45817</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="75"/>
-      <c r="D161" s="73"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="84"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A162" s="1">
         <v>45818</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="75"/>
-      <c r="D162" s="73"/>
+      <c r="C162" s="86"/>
+      <c r="D162" s="84"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A163" s="1">
         <v>45819</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="75"/>
-      <c r="D163" s="73"/>
+      <c r="C163" s="86"/>
+      <c r="D163" s="84"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A164" s="1">
         <v>45820</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="75"/>
-      <c r="D164" s="73"/>
+      <c r="C164" s="86"/>
+      <c r="D164" s="84"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A165" s="1">
         <v>45821</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="75"/>
-      <c r="D165" s="73"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="84"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A166" s="1">
         <v>45822</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="75"/>
-      <c r="D166" s="73"/>
+      <c r="C166" s="86"/>
+      <c r="D166" s="84"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A167" s="1">
         <v>45823</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="75"/>
-      <c r="D167" s="73"/>
+      <c r="C167" s="86"/>
+      <c r="D167" s="84"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A168" s="1">
         <v>45824</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="75"/>
-      <c r="D168" s="73"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="84"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A169" s="1">
         <v>45825</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="75"/>
-      <c r="D169" s="73"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="84"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A170" s="1">
         <v>45826</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="73"/>
+      <c r="C170" s="86"/>
+      <c r="D170" s="84"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A171" s="1">
         <v>45827</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="73"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="84"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A172" s="1">
         <v>45828</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="73"/>
+      <c r="C172" s="86"/>
+      <c r="D172" s="84"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A173" s="1">
         <v>45829</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="75"/>
-      <c r="D173" s="73"/>
+      <c r="C173" s="86"/>
+      <c r="D173" s="84"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A174" s="1">
         <v>45830</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="75"/>
-      <c r="D174" s="73"/>
+      <c r="C174" s="86"/>
+      <c r="D174" s="84"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A175" s="1">
         <v>45831</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="75"/>
-      <c r="D175" s="73"/>
+      <c r="C175" s="86"/>
+      <c r="D175" s="84"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A176" s="1">
         <v>45832</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="75"/>
-      <c r="D176" s="73"/>
+      <c r="C176" s="86"/>
+      <c r="D176" s="84"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A177" s="1">
         <v>45833</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="75"/>
-      <c r="D177" s="73"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="84"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A178" s="1">
         <v>45834</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="75"/>
-      <c r="D178" s="73"/>
+      <c r="C178" s="86"/>
+      <c r="D178" s="84"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A179" s="1">
         <v>45835</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="75"/>
-      <c r="D179" s="73"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="84"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A180" s="1">
         <v>45836</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="75"/>
-      <c r="D180" s="73"/>
+      <c r="C180" s="86"/>
+      <c r="D180" s="84"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A181" s="1">
         <v>45837</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="75"/>
-      <c r="D181" s="73"/>
+      <c r="C181" s="86"/>
+      <c r="D181" s="84"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A182" s="1">
         <v>45838</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="75"/>
-      <c r="D182" s="73"/>
+      <c r="C182" s="86"/>
+      <c r="D182" s="84"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A183" s="1">
         <v>45839</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="75"/>
-      <c r="D183" s="73"/>
+      <c r="C183" s="86"/>
+      <c r="D183" s="84"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A184" s="1">
         <v>45840</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="75"/>
-      <c r="D184" s="73"/>
+      <c r="C184" s="86"/>
+      <c r="D184" s="84"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A185" s="1">
         <v>45841</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="75"/>
-      <c r="D185" s="73"/>
+      <c r="C185" s="86"/>
+      <c r="D185" s="84"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A186" s="1">
         <v>45842</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="73"/>
+      <c r="C186" s="86"/>
+      <c r="D186" s="84"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A187" s="1">
         <v>45843</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="75"/>
-      <c r="D187" s="73"/>
+      <c r="C187" s="86"/>
+      <c r="D187" s="84"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A188" s="1">
         <v>45844</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="75"/>
-      <c r="D188" s="73"/>
+      <c r="C188" s="86"/>
+      <c r="D188" s="84"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A189" s="1">
         <v>45845</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="75"/>
-      <c r="D189" s="73"/>
+      <c r="C189" s="86"/>
+      <c r="D189" s="84"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A190" s="1">
         <v>45846</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="75"/>
-      <c r="D190" s="73"/>
+      <c r="C190" s="86"/>
+      <c r="D190" s="84"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A191" s="1">
         <v>45847</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="75"/>
-      <c r="D191" s="73"/>
+      <c r="C191" s="86"/>
+      <c r="D191" s="84"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A192" s="1">
         <v>45848</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="75"/>
-      <c r="D192" s="73"/>
+      <c r="C192" s="86"/>
+      <c r="D192" s="84"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A193" s="1">
         <v>45849</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="75"/>
-      <c r="D193" s="73"/>
+      <c r="C193" s="86"/>
+      <c r="D193" s="84"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A194" s="1">
         <v>45850</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="75"/>
-      <c r="D194" s="73"/>
+      <c r="C194" s="86"/>
+      <c r="D194" s="84"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A195" s="1">
         <v>45851</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="75"/>
-      <c r="D195" s="73"/>
+      <c r="C195" s="86"/>
+      <c r="D195" s="84"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A196" s="1">
         <v>45852</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="75"/>
-      <c r="D196" s="73"/>
+      <c r="C196" s="86"/>
+      <c r="D196" s="84"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A197" s="1">
         <v>45853</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="75"/>
-      <c r="D197" s="73"/>
+      <c r="C197" s="86"/>
+      <c r="D197" s="84"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A198" s="1">
         <v>45854</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="75"/>
-      <c r="D198" s="73"/>
+      <c r="C198" s="86"/>
+      <c r="D198" s="84"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A199" s="1">
         <v>45855</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="75"/>
-      <c r="D199" s="73"/>
+      <c r="C199" s="86"/>
+      <c r="D199" s="84"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A200" s="1">
         <v>45856</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="75"/>
-      <c r="D200" s="73"/>
+      <c r="C200" s="86"/>
+      <c r="D200" s="84"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A201" s="1">
         <v>45857</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="75"/>
-      <c r="D201" s="73"/>
+      <c r="C201" s="86"/>
+      <c r="D201" s="84"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A202" s="1">
         <v>45858</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="75"/>
-      <c r="D202" s="73"/>
+      <c r="C202" s="86"/>
+      <c r="D202" s="84"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A203" s="1">
         <v>45859</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="75"/>
-      <c r="D203" s="73"/>
+      <c r="C203" s="86"/>
+      <c r="D203" s="84"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A204" s="1">
         <v>45860</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="75"/>
-      <c r="D204" s="73"/>
+      <c r="C204" s="86"/>
+      <c r="D204" s="84"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A205" s="1">
         <v>45861</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="75"/>
-      <c r="D205" s="73"/>
+      <c r="C205" s="86"/>
+      <c r="D205" s="84"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A206" s="1">
         <v>45862</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="75"/>
-      <c r="D206" s="73"/>
+      <c r="C206" s="86"/>
+      <c r="D206" s="84"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A207" s="1">
         <v>45863</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="75"/>
-      <c r="D207" s="73"/>
+      <c r="C207" s="86"/>
+      <c r="D207" s="84"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A208" s="1">
         <v>45864</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="75"/>
-      <c r="D208" s="73"/>
+      <c r="C208" s="86"/>
+      <c r="D208" s="84"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A209" s="1">
         <v>45865</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="75"/>
-      <c r="D209" s="73"/>
+      <c r="C209" s="86"/>
+      <c r="D209" s="84"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A210" s="1">
         <v>45866</v>
       </c>
       <c r="B210" s="2"/>
-      <c r="C210" s="75"/>
-      <c r="D210" s="73"/>
+      <c r="C210" s="86"/>
+      <c r="D210" s="84"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A211" s="1">
         <v>45867</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="75"/>
-      <c r="D211" s="73"/>
+      <c r="C211" s="86"/>
+      <c r="D211" s="84"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A212" s="1">
         <v>45868</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="75"/>
-      <c r="D212" s="73"/>
+      <c r="C212" s="86"/>
+      <c r="D212" s="84"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A213" s="1">
         <v>45869</v>
       </c>
       <c r="B213" s="2"/>
-      <c r="C213" s="75"/>
-      <c r="D213" s="73"/>
+      <c r="C213" s="86"/>
+      <c r="D213" s="84"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A214" s="1">
         <v>45870</v>
       </c>
       <c r="B214" s="2"/>
-      <c r="C214" s="75"/>
-      <c r="D214" s="73"/>
+      <c r="C214" s="86"/>
+      <c r="D214" s="84"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A215" s="1">
         <v>45871</v>
       </c>
       <c r="B215" s="2"/>
-      <c r="C215" s="75"/>
-      <c r="D215" s="73"/>
+      <c r="C215" s="86"/>
+      <c r="D215" s="84"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A216" s="1">
         <v>45872</v>
       </c>
       <c r="B216" s="2"/>
-      <c r="C216" s="75"/>
-      <c r="D216" s="73"/>
+      <c r="C216" s="86"/>
+      <c r="D216" s="84"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A217" s="1">
         <v>45873</v>
       </c>
       <c r="B217" s="2"/>
-      <c r="C217" s="75"/>
-      <c r="D217" s="73"/>
+      <c r="C217" s="86"/>
+      <c r="D217" s="84"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A218" s="1">
         <v>45874</v>
       </c>
       <c r="B218" s="2"/>
-      <c r="C218" s="75"/>
-      <c r="D218" s="73"/>
+      <c r="C218" s="86"/>
+      <c r="D218" s="84"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A219" s="1">
         <v>45875</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="75"/>
-      <c r="D219" s="73"/>
+      <c r="C219" s="86"/>
+      <c r="D219" s="84"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A220" s="1">
         <v>45876</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="75"/>
-      <c r="D220" s="73"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="84"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A221" s="1">
         <v>45877</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="75"/>
-      <c r="D221" s="73"/>
+      <c r="C221" s="86"/>
+      <c r="D221" s="84"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A222" s="1">
         <v>45878</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="75"/>
-      <c r="D222" s="73"/>
+      <c r="C222" s="86"/>
+      <c r="D222" s="84"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A223" s="1">
         <v>45879</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="75"/>
-      <c r="D223" s="73"/>
+      <c r="C223" s="86"/>
+      <c r="D223" s="84"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A224" s="1">
         <v>45880</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="75"/>
-      <c r="D224" s="73"/>
+      <c r="C224" s="86"/>
+      <c r="D224" s="84"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A225" s="1">
         <v>45881</v>
       </c>
       <c r="B225" s="2"/>
-      <c r="C225" s="75"/>
-      <c r="D225" s="73"/>
+      <c r="C225" s="86"/>
+      <c r="D225" s="84"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A226" s="1">
         <v>45882</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="75"/>
-      <c r="D226" s="73"/>
+      <c r="C226" s="86"/>
+      <c r="D226" s="84"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A227" s="1">
         <v>45883</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="75"/>
-      <c r="D227" s="73"/>
+      <c r="C227" s="86"/>
+      <c r="D227" s="84"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A228" s="1">
         <v>45884</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="75"/>
-      <c r="D228" s="73"/>
+      <c r="C228" s="86"/>
+      <c r="D228" s="84"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A229" s="1">
         <v>45885</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="75"/>
-      <c r="D229" s="73"/>
+      <c r="C229" s="86"/>
+      <c r="D229" s="84"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A230" s="1">
         <v>45886</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="75"/>
-      <c r="D230" s="73"/>
+      <c r="C230" s="86"/>
+      <c r="D230" s="84"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A231" s="1">
         <v>45887</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="75"/>
-      <c r="D231" s="73"/>
+      <c r="C231" s="86"/>
+      <c r="D231" s="84"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A232" s="1">
         <v>45888</v>
       </c>
       <c r="B232" s="2"/>
-      <c r="C232" s="75"/>
-      <c r="D232" s="73"/>
+      <c r="C232" s="86"/>
+      <c r="D232" s="84"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A233" s="1">
         <v>45889</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="75"/>
-      <c r="D233" s="73"/>
+      <c r="C233" s="86"/>
+      <c r="D233" s="84"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A234" s="1">
         <v>45890</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="75"/>
-      <c r="D234" s="73"/>
+      <c r="C234" s="86"/>
+      <c r="D234" s="84"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A235" s="1">
         <v>45891</v>
       </c>
       <c r="B235" s="2"/>
-      <c r="C235" s="75"/>
-      <c r="D235" s="73"/>
+      <c r="C235" s="86"/>
+      <c r="D235" s="84"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A236" s="1">
         <v>45892</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="75"/>
-      <c r="D236" s="73"/>
+      <c r="C236" s="86"/>
+      <c r="D236" s="84"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A237" s="1">
         <v>45893</v>
       </c>
       <c r="B237" s="2"/>
-      <c r="C237" s="75"/>
-      <c r="D237" s="73"/>
+      <c r="C237" s="86"/>
+      <c r="D237" s="84"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A238" s="1">
         <v>45894</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="75"/>
-      <c r="D238" s="73"/>
+      <c r="C238" s="86"/>
+      <c r="D238" s="84"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A239" s="1">
         <v>45895</v>
       </c>
       <c r="B239" s="2"/>
-      <c r="C239" s="75"/>
-      <c r="D239" s="73"/>
+      <c r="C239" s="86"/>
+      <c r="D239" s="84"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A240" s="1">
         <v>45896</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="75"/>
-      <c r="D240" s="73"/>
+      <c r="C240" s="86"/>
+      <c r="D240" s="84"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A241" s="1">
         <v>45897</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="75"/>
-      <c r="D241" s="73"/>
+      <c r="C241" s="86"/>
+      <c r="D241" s="84"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A242" s="1">
         <v>45898</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="75"/>
-      <c r="D242" s="73"/>
+      <c r="C242" s="86"/>
+      <c r="D242" s="84"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A243" s="1">
         <v>45899</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="75"/>
-      <c r="D243" s="73"/>
+      <c r="C243" s="86"/>
+      <c r="D243" s="84"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A244" s="1">
         <v>45900</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="75"/>
-      <c r="D244" s="73"/>
+      <c r="C244" s="86"/>
+      <c r="D244" s="84"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A245" s="1">
         <v>45901</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="75"/>
-      <c r="D245" s="73"/>
+      <c r="C245" s="86"/>
+      <c r="D245" s="84"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A246" s="1">
         <v>45902</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="75"/>
-      <c r="D246" s="73"/>
+      <c r="C246" s="86"/>
+      <c r="D246" s="84"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A247" s="1">
         <v>45903</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="75"/>
-      <c r="D247" s="73"/>
+      <c r="C247" s="86"/>
+      <c r="D247" s="84"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A248" s="1">
         <v>45904</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="75"/>
-      <c r="D248" s="73"/>
+      <c r="C248" s="86"/>
+      <c r="D248" s="84"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A249" s="1">
         <v>45905</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="75"/>
-      <c r="D249" s="73"/>
+      <c r="C249" s="86"/>
+      <c r="D249" s="84"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A250" s="1">
         <v>45906</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="75"/>
-      <c r="D250" s="73"/>
+      <c r="C250" s="86"/>
+      <c r="D250" s="84"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A251" s="1">
         <v>45907</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="75"/>
-      <c r="D251" s="73"/>
+      <c r="C251" s="86"/>
+      <c r="D251" s="84"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A252" s="1">
         <v>45908</v>
       </c>
       <c r="B252" s="2"/>
-      <c r="C252" s="75"/>
-      <c r="D252" s="73"/>
+      <c r="C252" s="86"/>
+      <c r="D252" s="84"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A253" s="1">
         <v>45909</v>
       </c>
       <c r="B253" s="2"/>
-      <c r="C253" s="75"/>
-      <c r="D253" s="73"/>
+      <c r="C253" s="86"/>
+      <c r="D253" s="84"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A254" s="1">
         <v>45910</v>
       </c>
       <c r="B254" s="2"/>
-      <c r="C254" s="75"/>
-      <c r="D254" s="73"/>
+      <c r="C254" s="86"/>
+      <c r="D254" s="84"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A255" s="1">
         <v>45911</v>
       </c>
       <c r="B255" s="2"/>
-      <c r="C255" s="75"/>
-      <c r="D255" s="73"/>
+      <c r="C255" s="86"/>
+      <c r="D255" s="84"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A256" s="1">
         <v>45912</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="75"/>
-      <c r="D256" s="73"/>
+      <c r="C256" s="86"/>
+      <c r="D256" s="84"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A257" s="1">
         <v>45913</v>
       </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="75"/>
-      <c r="D257" s="73"/>
+      <c r="C257" s="86"/>
+      <c r="D257" s="84"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A258" s="1">
         <v>45914</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="75"/>
-      <c r="D258" s="73"/>
+      <c r="C258" s="86"/>
+      <c r="D258" s="84"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A259" s="1">
         <v>45915</v>
       </c>
       <c r="B259" s="2"/>
-      <c r="C259" s="75"/>
-      <c r="D259" s="73"/>
+      <c r="C259" s="86"/>
+      <c r="D259" s="84"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A260" s="1">
         <v>45916</v>
       </c>
       <c r="B260" s="2"/>
-      <c r="C260" s="75"/>
-      <c r="D260" s="73"/>
+      <c r="C260" s="86"/>
+      <c r="D260" s="84"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A261" s="1">
         <v>45917</v>
       </c>
       <c r="B261" s="2"/>
-      <c r="C261" s="75"/>
-      <c r="D261" s="73"/>
+      <c r="C261" s="86"/>
+      <c r="D261" s="84"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A262" s="1">
         <v>45918</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="75"/>
-      <c r="D262" s="73"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="84"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A263" s="1">
         <v>45919</v>
       </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="75"/>
-      <c r="D263" s="73"/>
+      <c r="C263" s="86"/>
+      <c r="D263" s="84"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A264" s="1">
         <v>45920</v>
       </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="75"/>
-      <c r="D264" s="73"/>
+      <c r="C264" s="86"/>
+      <c r="D264" s="84"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A265" s="1">
         <v>45921</v>
       </c>
       <c r="B265" s="2"/>
-      <c r="C265" s="75"/>
-      <c r="D265" s="73"/>
+      <c r="C265" s="86"/>
+      <c r="D265" s="84"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A266" s="1">
         <v>45922</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="75"/>
-      <c r="D266" s="73"/>
+      <c r="C266" s="86"/>
+      <c r="D266" s="84"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A267" s="1">
         <v>45923</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="75"/>
-      <c r="D267" s="73"/>
+      <c r="C267" s="86"/>
+      <c r="D267" s="84"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A268" s="1">
         <v>45924</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="75"/>
-      <c r="D268" s="73"/>
+      <c r="C268" s="86"/>
+      <c r="D268" s="84"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A269" s="1">
         <v>45925</v>
       </c>
       <c r="B269" s="2"/>
-      <c r="C269" s="75"/>
-      <c r="D269" s="73"/>
+      <c r="C269" s="86"/>
+      <c r="D269" s="84"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A270" s="1">
         <v>45926</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270" s="75"/>
-      <c r="D270" s="73"/>
+      <c r="C270" s="86"/>
+      <c r="D270" s="84"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A271" s="1">
         <v>45927</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="75"/>
-      <c r="D271" s="73"/>
+      <c r="C271" s="86"/>
+      <c r="D271" s="84"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A272" s="1">
         <v>45928</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="75"/>
-      <c r="D272" s="73"/>
+      <c r="C272" s="86"/>
+      <c r="D272" s="84"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A273" s="1">
         <v>45929</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="75"/>
-      <c r="D273" s="73"/>
+      <c r="C273" s="86"/>
+      <c r="D273" s="84"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A274" s="1">
         <v>45930</v>
       </c>
       <c r="B274" s="2"/>
-      <c r="C274" s="75"/>
-      <c r="D274" s="73"/>
+      <c r="C274" s="86"/>
+      <c r="D274" s="84"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A275" s="1">
         <v>45931</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="75"/>
-      <c r="D275" s="73"/>
+      <c r="C275" s="86"/>
+      <c r="D275" s="84"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A276" s="1">
         <v>45932</v>
       </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="75"/>
-      <c r="D276" s="73"/>
+      <c r="C276" s="86"/>
+      <c r="D276" s="84"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A277" s="1">
         <v>45933</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="75"/>
-      <c r="D277" s="73"/>
+      <c r="C277" s="86"/>
+      <c r="D277" s="84"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A278" s="1">
         <v>45934</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="75"/>
-      <c r="D278" s="73"/>
+      <c r="C278" s="86"/>
+      <c r="D278" s="84"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A279" s="1">
         <v>45935</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="75"/>
-      <c r="D279" s="73"/>
+      <c r="C279" s="86"/>
+      <c r="D279" s="84"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A280" s="1">
         <v>45936</v>
       </c>
       <c r="B280" s="2"/>
-      <c r="C280" s="75"/>
-      <c r="D280" s="73"/>
+      <c r="C280" s="86"/>
+      <c r="D280" s="84"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A281" s="1">
         <v>45937</v>
       </c>
       <c r="B281" s="2"/>
-      <c r="C281" s="75"/>
-      <c r="D281" s="73"/>
+      <c r="C281" s="86"/>
+      <c r="D281" s="84"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A282" s="1">
         <v>45938</v>
       </c>
       <c r="B282" s="2"/>
-      <c r="C282" s="75"/>
-      <c r="D282" s="73"/>
+      <c r="C282" s="86"/>
+      <c r="D282" s="84"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A283" s="1">
         <v>45939</v>
       </c>
       <c r="B283" s="2"/>
-      <c r="C283" s="75"/>
-      <c r="D283" s="73"/>
+      <c r="C283" s="86"/>
+      <c r="D283" s="84"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A284" s="1">
         <v>45940</v>
       </c>
       <c r="B284" s="2"/>
-      <c r="C284" s="75"/>
-      <c r="D284" s="73"/>
+      <c r="C284" s="86"/>
+      <c r="D284" s="84"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A285" s="1">
         <v>45941</v>
       </c>
       <c r="B285" s="2"/>
-      <c r="C285" s="75"/>
-      <c r="D285" s="73"/>
+      <c r="C285" s="86"/>
+      <c r="D285" s="84"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A286" s="1">
         <v>45942</v>
       </c>
       <c r="B286" s="2"/>
-      <c r="C286" s="75"/>
-      <c r="D286" s="73"/>
+      <c r="C286" s="86"/>
+      <c r="D286" s="84"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A287" s="1">
         <v>45943</v>
       </c>
       <c r="B287" s="2"/>
-      <c r="C287" s="75"/>
-      <c r="D287" s="73"/>
+      <c r="C287" s="86"/>
+      <c r="D287" s="84"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A288" s="1">
         <v>45944</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="75"/>
-      <c r="D288" s="73"/>
+      <c r="C288" s="86"/>
+      <c r="D288" s="84"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A289" s="1">
         <v>45945</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="75"/>
-      <c r="D289" s="73"/>
+      <c r="C289" s="86"/>
+      <c r="D289" s="84"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A290" s="1">
         <v>45946</v>
       </c>
       <c r="B290" s="2"/>
-      <c r="C290" s="75"/>
-      <c r="D290" s="73"/>
+      <c r="C290" s="86"/>
+      <c r="D290" s="84"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A291" s="1">
         <v>45947</v>
       </c>
       <c r="B291" s="2"/>
-      <c r="C291" s="75"/>
-      <c r="D291" s="73"/>
+      <c r="C291" s="86"/>
+      <c r="D291" s="84"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A292" s="1">
         <v>45948</v>
       </c>
       <c r="B292" s="2"/>
-      <c r="C292" s="75"/>
-      <c r="D292" s="73"/>
+      <c r="C292" s="86"/>
+      <c r="D292" s="84"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A293" s="1">
         <v>45949</v>
       </c>
       <c r="B293" s="2"/>
-      <c r="C293" s="75"/>
-      <c r="D293" s="73"/>
+      <c r="C293" s="86"/>
+      <c r="D293" s="84"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A294" s="1">
         <v>45950</v>
       </c>
       <c r="B294" s="2"/>
-      <c r="C294" s="75"/>
-      <c r="D294" s="73"/>
+      <c r="C294" s="86"/>
+      <c r="D294" s="84"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A295" s="1">
         <v>45951</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="75"/>
-      <c r="D295" s="73"/>
+      <c r="C295" s="86"/>
+      <c r="D295" s="84"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A296" s="1">
         <v>45952</v>
       </c>
       <c r="B296" s="2"/>
-      <c r="C296" s="75"/>
-      <c r="D296" s="73"/>
+      <c r="C296" s="86"/>
+      <c r="D296" s="84"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A297" s="1">
         <v>45953</v>
       </c>
       <c r="B297" s="2"/>
-      <c r="C297" s="75"/>
-      <c r="D297" s="73"/>
+      <c r="C297" s="86"/>
+      <c r="D297" s="84"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A298" s="1">
         <v>45954</v>
       </c>
       <c r="B298" s="2"/>
-      <c r="C298" s="75"/>
-      <c r="D298" s="73"/>
+      <c r="C298" s="86"/>
+      <c r="D298" s="84"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A299" s="1">
         <v>45955</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="75"/>
-      <c r="D299" s="73"/>
+      <c r="C299" s="86"/>
+      <c r="D299" s="84"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A300" s="1">
         <v>45956</v>
       </c>
       <c r="B300" s="2"/>
-      <c r="C300" s="75"/>
-      <c r="D300" s="73"/>
+      <c r="C300" s="86"/>
+      <c r="D300" s="84"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A301" s="1">
         <v>45957</v>
       </c>
       <c r="B301" s="2"/>
-      <c r="C301" s="75"/>
-      <c r="D301" s="73"/>
+      <c r="C301" s="86"/>
+      <c r="D301" s="84"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A302" s="1">
         <v>45958</v>
       </c>
       <c r="B302" s="2"/>
-      <c r="C302" s="75"/>
-      <c r="D302" s="73"/>
+      <c r="C302" s="86"/>
+      <c r="D302" s="84"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A303" s="1">
         <v>45959</v>
       </c>
       <c r="B303" s="2"/>
-      <c r="C303" s="75"/>
-      <c r="D303" s="73"/>
+      <c r="C303" s="86"/>
+      <c r="D303" s="84"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A304" s="1">
         <v>45960</v>
       </c>
       <c r="B304" s="2"/>
-      <c r="C304" s="75"/>
-      <c r="D304" s="73"/>
+      <c r="C304" s="86"/>
+      <c r="D304" s="84"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A305" s="1">
         <v>45961</v>
       </c>
       <c r="B305" s="2"/>
-      <c r="C305" s="75"/>
-      <c r="D305" s="73"/>
+      <c r="C305" s="86"/>
+      <c r="D305" s="84"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A306" s="1">
         <v>45962</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="75"/>
-      <c r="D306" s="73"/>
+      <c r="C306" s="86"/>
+      <c r="D306" s="84"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A307" s="1">
         <v>45963</v>
       </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="75"/>
-      <c r="D307" s="73"/>
+      <c r="C307" s="86"/>
+      <c r="D307" s="84"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A308" s="1">
         <v>45964</v>
       </c>
       <c r="B308" s="2"/>
-      <c r="C308" s="75"/>
-      <c r="D308" s="73"/>
+      <c r="C308" s="86"/>
+      <c r="D308" s="84"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A309" s="1">
         <v>45965</v>
       </c>
       <c r="B309" s="2"/>
-      <c r="C309" s="75"/>
-      <c r="D309" s="73"/>
+      <c r="C309" s="86"/>
+      <c r="D309" s="84"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A310" s="1">
         <v>45966</v>
       </c>
       <c r="B310" s="2"/>
-      <c r="C310" s="75"/>
-      <c r="D310" s="73"/>
+      <c r="C310" s="86"/>
+      <c r="D310" s="84"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A311" s="1">
         <v>45967</v>
       </c>
       <c r="B311" s="2"/>
-      <c r="C311" s="75"/>
-      <c r="D311" s="73"/>
+      <c r="C311" s="86"/>
+      <c r="D311" s="84"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A312" s="1">
         <v>45968</v>
       </c>
       <c r="B312" s="2"/>
-      <c r="C312" s="75"/>
-      <c r="D312" s="73"/>
+      <c r="C312" s="86"/>
+      <c r="D312" s="84"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A313" s="1">
         <v>45969</v>
       </c>
       <c r="B313" s="2"/>
-      <c r="C313" s="75"/>
-      <c r="D313" s="73"/>
+      <c r="C313" s="86"/>
+      <c r="D313" s="84"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A314" s="1">
         <v>45970</v>
       </c>
       <c r="B314" s="2"/>
-      <c r="C314" s="75"/>
-      <c r="D314" s="73"/>
+      <c r="C314" s="86"/>
+      <c r="D314" s="84"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A315" s="1">
         <v>45971</v>
       </c>
       <c r="B315" s="2"/>
-      <c r="C315" s="75"/>
-      <c r="D315" s="73"/>
+      <c r="C315" s="86"/>
+      <c r="D315" s="84"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A316" s="1">
         <v>45972</v>
       </c>
       <c r="B316" s="2"/>
-      <c r="C316" s="75"/>
-      <c r="D316" s="73"/>
+      <c r="C316" s="86"/>
+      <c r="D316" s="84"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A317" s="1">
         <v>45973</v>
       </c>
       <c r="B317" s="2"/>
-      <c r="C317" s="75"/>
-      <c r="D317" s="73"/>
+      <c r="C317" s="86"/>
+      <c r="D317" s="84"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A318" s="1">
         <v>45974</v>
       </c>
       <c r="B318" s="2"/>
-      <c r="C318" s="75"/>
-      <c r="D318" s="73"/>
+      <c r="C318" s="86"/>
+      <c r="D318" s="84"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A319" s="1">
         <v>45975</v>
       </c>
       <c r="B319" s="2"/>
-      <c r="C319" s="75"/>
-      <c r="D319" s="73"/>
+      <c r="C319" s="86"/>
+      <c r="D319" s="84"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A320" s="1">
         <v>45976</v>
       </c>
       <c r="B320" s="2"/>
-      <c r="C320" s="75"/>
-      <c r="D320" s="73"/>
+      <c r="C320" s="86"/>
+      <c r="D320" s="84"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A321" s="1">
         <v>45977</v>
       </c>
       <c r="B321" s="2"/>
-      <c r="C321" s="75"/>
-      <c r="D321" s="73"/>
+      <c r="C321" s="86"/>
+      <c r="D321" s="84"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A322" s="1">
         <v>45978</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="75"/>
-      <c r="D322" s="73"/>
+      <c r="C322" s="86"/>
+      <c r="D322" s="84"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A323" s="1">
         <v>45979</v>
       </c>
       <c r="B323" s="2"/>
-      <c r="C323" s="75"/>
-      <c r="D323" s="73"/>
+      <c r="C323" s="86"/>
+      <c r="D323" s="84"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A324" s="1">
         <v>45980</v>
       </c>
       <c r="B324" s="2"/>
-      <c r="C324" s="75"/>
-      <c r="D324" s="73"/>
+      <c r="C324" s="86"/>
+      <c r="D324" s="84"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A325" s="1">
         <v>45981</v>
       </c>
       <c r="B325" s="2"/>
-      <c r="C325" s="75"/>
-      <c r="D325" s="73"/>
+      <c r="C325" s="86"/>
+      <c r="D325" s="84"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A326" s="1">
         <v>45982</v>
       </c>
       <c r="B326" s="2"/>
-      <c r="C326" s="75"/>
-      <c r="D326" s="73"/>
+      <c r="C326" s="86"/>
+      <c r="D326" s="84"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A327" s="1">
         <v>45983</v>
       </c>
       <c r="B327" s="2"/>
-      <c r="C327" s="75"/>
-      <c r="D327" s="73"/>
+      <c r="C327" s="86"/>
+      <c r="D327" s="84"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A328" s="1">
         <v>45984</v>
       </c>
       <c r="B328" s="2"/>
-      <c r="C328" s="75"/>
-      <c r="D328" s="73"/>
+      <c r="C328" s="86"/>
+      <c r="D328" s="84"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A329" s="1">
         <v>45985</v>
       </c>
       <c r="B329" s="2"/>
-      <c r="C329" s="75"/>
-      <c r="D329" s="73"/>
+      <c r="C329" s="86"/>
+      <c r="D329" s="84"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A330" s="1">
         <v>45986</v>
       </c>
       <c r="B330" s="2"/>
-      <c r="C330" s="75"/>
-      <c r="D330" s="73"/>
+      <c r="C330" s="86"/>
+      <c r="D330" s="84"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A331" s="1">
         <v>45987</v>
       </c>
       <c r="B331" s="2"/>
-      <c r="C331" s="75"/>
-      <c r="D331" s="73"/>
+      <c r="C331" s="86"/>
+      <c r="D331" s="84"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A332" s="1">
         <v>45988</v>
       </c>
       <c r="B332" s="2"/>
-      <c r="C332" s="75"/>
-      <c r="D332" s="73"/>
+      <c r="C332" s="86"/>
+      <c r="D332" s="84"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A333" s="1">
         <v>45989</v>
       </c>
       <c r="B333" s="2"/>
-      <c r="C333" s="75"/>
-      <c r="D333" s="73"/>
+      <c r="C333" s="86"/>
+      <c r="D333" s="84"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A334" s="1">
         <v>45990</v>
       </c>
       <c r="B334" s="2"/>
-      <c r="C334" s="75"/>
-      <c r="D334" s="73"/>
+      <c r="C334" s="86"/>
+      <c r="D334" s="84"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A335" s="1">
         <v>45991</v>
       </c>
       <c r="B335" s="2"/>
-      <c r="C335" s="75"/>
-      <c r="D335" s="73"/>
+      <c r="C335" s="86"/>
+      <c r="D335" s="84"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A336" s="1">
         <v>45992</v>
       </c>
       <c r="B336" s="2"/>
-      <c r="C336" s="75"/>
-      <c r="D336" s="73"/>
+      <c r="C336" s="86"/>
+      <c r="D336" s="84"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A337" s="1">
         <v>45993</v>
       </c>
       <c r="B337" s="2"/>
-      <c r="C337" s="75"/>
-      <c r="D337" s="73"/>
+      <c r="C337" s="86"/>
+      <c r="D337" s="84"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A338" s="1">
         <v>45994</v>
       </c>
       <c r="B338" s="2"/>
-      <c r="C338" s="75"/>
-      <c r="D338" s="73"/>
+      <c r="C338" s="86"/>
+      <c r="D338" s="84"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A339" s="1">
         <v>45995</v>
       </c>
       <c r="B339" s="2"/>
-      <c r="C339" s="75"/>
-      <c r="D339" s="73"/>
+      <c r="C339" s="86"/>
+      <c r="D339" s="84"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A340" s="1">
         <v>45996</v>
       </c>
       <c r="B340" s="2"/>
-      <c r="C340" s="75"/>
-      <c r="D340" s="73"/>
+      <c r="C340" s="86"/>
+      <c r="D340" s="84"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A341" s="1">
         <v>45997</v>
       </c>
       <c r="B341" s="2"/>
-      <c r="C341" s="75"/>
-      <c r="D341" s="73"/>
+      <c r="C341" s="86"/>
+      <c r="D341" s="84"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A342" s="1">
         <v>45998</v>
       </c>
       <c r="B342" s="2"/>
-      <c r="C342" s="75"/>
-      <c r="D342" s="73"/>
+      <c r="C342" s="86"/>
+      <c r="D342" s="84"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A343" s="1">
         <v>45999</v>
       </c>
       <c r="B343" s="2"/>
-      <c r="C343" s="75"/>
-      <c r="D343" s="73"/>
+      <c r="C343" s="86"/>
+      <c r="D343" s="84"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A344" s="1">
         <v>46000</v>
       </c>
       <c r="B344" s="2"/>
-      <c r="C344" s="75"/>
-      <c r="D344" s="73"/>
+      <c r="C344" s="86"/>
+      <c r="D344" s="84"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A345" s="1">
         <v>46001</v>
       </c>
       <c r="B345" s="2"/>
-      <c r="C345" s="75"/>
-      <c r="D345" s="73"/>
+      <c r="C345" s="86"/>
+      <c r="D345" s="84"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A346" s="1">
         <v>46002</v>
       </c>
       <c r="B346" s="2"/>
-      <c r="C346" s="75"/>
-      <c r="D346" s="73"/>
+      <c r="C346" s="86"/>
+      <c r="D346" s="84"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A347" s="1">
         <v>46003</v>
       </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="75"/>
-      <c r="D347" s="73"/>
+      <c r="C347" s="86"/>
+      <c r="D347" s="84"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A348" s="1">
         <v>46004</v>
       </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="75"/>
-      <c r="D348" s="73"/>
+      <c r="C348" s="86"/>
+      <c r="D348" s="84"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A349" s="1">
         <v>46005</v>
       </c>
       <c r="B349" s="2"/>
-      <c r="C349" s="75"/>
-      <c r="D349" s="73"/>
+      <c r="C349" s="86"/>
+      <c r="D349" s="84"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A350" s="1">
         <v>46006</v>
       </c>
       <c r="B350" s="2"/>
-      <c r="C350" s="75"/>
-      <c r="D350" s="73"/>
+      <c r="C350" s="86"/>
+      <c r="D350" s="84"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A351" s="1">
         <v>46007</v>
       </c>
       <c r="B351" s="2"/>
-      <c r="C351" s="75"/>
-      <c r="D351" s="73"/>
+      <c r="C351" s="86"/>
+      <c r="D351" s="84"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A352" s="1">
         <v>46008</v>
       </c>
       <c r="B352" s="2"/>
-      <c r="C352" s="75"/>
-      <c r="D352" s="73"/>
+      <c r="C352" s="86"/>
+      <c r="D352" s="84"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A353" s="1">
         <v>46009</v>
       </c>
       <c r="B353" s="2"/>
-      <c r="C353" s="75"/>
-      <c r="D353" s="73"/>
+      <c r="C353" s="86"/>
+      <c r="D353" s="84"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A354" s="1">
         <v>46010</v>
       </c>
       <c r="B354" s="2"/>
-      <c r="C354" s="75"/>
-      <c r="D354" s="73"/>
+      <c r="C354" s="86"/>
+      <c r="D354" s="84"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A355" s="1">
         <v>46011</v>
       </c>
       <c r="B355" s="2"/>
-      <c r="C355" s="75"/>
-      <c r="D355" s="73"/>
+      <c r="C355" s="86"/>
+      <c r="D355" s="84"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A356" s="1">
         <v>46012</v>
       </c>
       <c r="B356" s="2"/>
-      <c r="C356" s="75"/>
-      <c r="D356" s="73"/>
+      <c r="C356" s="86"/>
+      <c r="D356" s="84"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A357" s="1">
         <v>46013</v>
       </c>
       <c r="B357" s="2"/>
-      <c r="C357" s="75"/>
-      <c r="D357" s="73"/>
+      <c r="C357" s="86"/>
+      <c r="D357" s="84"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A358" s="1">
         <v>46014</v>
       </c>
       <c r="B358" s="2"/>
-      <c r="C358" s="75"/>
-      <c r="D358" s="73"/>
+      <c r="C358" s="86"/>
+      <c r="D358" s="84"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A359" s="1">
         <v>46015</v>
       </c>
       <c r="B359" s="2"/>
-      <c r="C359" s="75"/>
-      <c r="D359" s="73"/>
+      <c r="C359" s="86"/>
+      <c r="D359" s="84"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A360" s="1">
         <v>46016</v>
       </c>
       <c r="B360" s="2"/>
-      <c r="C360" s="75"/>
-      <c r="D360" s="73"/>
+      <c r="C360" s="86"/>
+      <c r="D360" s="84"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A361" s="1">
         <v>46017</v>
       </c>
       <c r="B361" s="2"/>
-      <c r="C361" s="75"/>
-      <c r="D361" s="73"/>
+      <c r="C361" s="86"/>
+      <c r="D361" s="84"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A362" s="1">
         <v>46018</v>
       </c>
       <c r="B362" s="2"/>
-      <c r="C362" s="75"/>
-      <c r="D362" s="73"/>
+      <c r="C362" s="86"/>
+      <c r="D362" s="84"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A363" s="1">
         <v>46019</v>
       </c>
       <c r="B363" s="2"/>
-      <c r="C363" s="75"/>
-      <c r="D363" s="73"/>
+      <c r="C363" s="86"/>
+      <c r="D363" s="84"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A364" s="1">
         <v>46020</v>
       </c>
       <c r="B364" s="2"/>
-      <c r="C364" s="75"/>
-      <c r="D364" s="73"/>
+      <c r="C364" s="86"/>
+      <c r="D364" s="84"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A365" s="1">
         <v>46021</v>
       </c>
       <c r="B365" s="2"/>
-      <c r="C365" s="75"/>
-      <c r="D365" s="73"/>
+      <c r="C365" s="86"/>
+      <c r="D365" s="84"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A366" s="1">
         <v>46022</v>
       </c>
       <c r="B366" s="2"/>
-      <c r="C366" s="75"/>
-      <c r="D366" s="73"/>
+      <c r="C366" s="86"/>
+      <c r="D366" s="84"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A367" s="52"/>
@@ -16105,11 +16138,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="M5:M16"/>
-    <mergeCell ref="G1:I2"/>
     <mergeCell ref="D2:D366"/>
     <mergeCell ref="C33:C60"/>
     <mergeCell ref="C61:C91"/>
@@ -16123,6 +16151,11 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="M5:M16"/>
+    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B367">
@@ -16137,8 +16170,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2 C33 C61 C92">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C2:C366">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16149,8 +16182,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C366">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C33 C2 C61 C92">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16356,13 +16389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S366"/>
   <sheetViews>
-    <sheetView zoomScale="43" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.29296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5859375" style="5" customWidth="1"/>
     <col min="2" max="2" width="2.76171875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.76171875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.76171875" style="3" bestFit="1" customWidth="1"/>
@@ -16390,11 +16423,11 @@
       <c r="B1" s="2">
         <v>6</v>
       </c>
-      <c r="C1" s="75">
+      <c r="C1" s="86">
         <f>AVERAGE(B1:B31)</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="D1" s="99">
+      <c r="D1" s="95">
         <f>AVERAGE(B1:B366)</f>
         <v>5.1967213114754101</v>
       </c>
@@ -16406,8 +16439,8 @@
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="99"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="95"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -16416,8 +16449,8 @@
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="99"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="95"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -16426,8 +16459,8 @@
       <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="99"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="95"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -16436,8 +16469,8 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="99"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="95"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -16446,8 +16479,8 @@
       <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="99"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="95"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -16456,8 +16489,8 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="99"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="95"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -16466,8 +16499,8 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="99"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="95"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -16476,8 +16509,8 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="99"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="95"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -16486,8 +16519,8 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="99"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="95"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -16496,8 +16529,8 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="99"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -16506,8 +16539,8 @@
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="99"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -16516,8 +16549,8 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="99"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -16526,8 +16559,8 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="99"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -16536,8 +16569,8 @@
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="99"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -16546,8 +16579,8 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -16556,8 +16589,8 @@
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="99"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="95"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
         <v>24</v>
@@ -16573,8 +16606,8 @@
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="99"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="95"/>
       <c r="F18" s="24" t="s">
         <v>0</v>
       </c>
@@ -16625,8 +16658,8 @@
       <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="99"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="95"/>
       <c r="F19" s="7" t="s">
         <v>1</v>
       </c>
@@ -16672,7 +16705,7 @@
         <f>COUNTIF(B1:B31,G23)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="96">
+      <c r="S19" s="99">
         <f>AVERAGE(K19:K22)</f>
         <v>4.9297923618835746</v>
       </c>
@@ -16684,8 +16717,8 @@
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="99"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="95"/>
       <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
@@ -16728,7 +16761,7 @@
         <f>COUNTIF(B32:B60,G23)</f>
         <v>2</v>
       </c>
-      <c r="S20" s="75"/>
+      <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -16737,8 +16770,8 @@
       <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="99"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="95"/>
       <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
@@ -16781,7 +16814,7 @@
         <f>COUNTIF(B61:B91,G23)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="75"/>
+      <c r="S21" s="86"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -16790,8 +16823,8 @@
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="99"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="95"/>
       <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
@@ -16834,7 +16867,7 @@
         <f>COUNTIF(B92:B121,G23)</f>
         <v>2</v>
       </c>
-      <c r="S22" s="75"/>
+      <c r="S22" s="86"/>
     </row>
     <row r="23" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
@@ -16843,8 +16876,8 @@
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="99"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="95"/>
       <c r="F23" s="14" t="s">
         <v>5</v>
       </c>
@@ -16887,7 +16920,7 @@
         <f>COUNTIF(B122:B152,G23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="96">
+      <c r="S23" s="99">
         <f>AVERAGE(K23:K26)</f>
         <v>5.365591397849462</v>
       </c>
@@ -16899,12 +16932,12 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="99"/>
-      <c r="F24" s="79" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="95"/>
+      <c r="F24" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="80"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="17">
         <f>SUM(H18:H23)</f>
         <v>366</v>
@@ -16941,7 +16974,7 @@
         <f>COUNTIF(B153:B182,G23)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="75"/>
+      <c r="S24" s="86"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -16950,8 +16983,8 @@
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="99"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="95"/>
       <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
@@ -16984,7 +17017,7 @@
         <f>COUNTIF(B183:B213,G23)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="75"/>
+      <c r="S25" s="86"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -16993,8 +17026,8 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="99"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="95"/>
       <c r="J26" s="10" t="s">
         <v>15</v>
       </c>
@@ -17027,7 +17060,7 @@
         <f>COUNTIF(B214:B244,G23)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="75"/>
+      <c r="S26" s="86"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -17036,13 +17069,13 @@
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="99"/>
-      <c r="F27" s="95" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="95"/>
+      <c r="F27" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
       <c r="J27" s="10" t="s">
         <v>16</v>
       </c>
@@ -17075,7 +17108,7 @@
         <f>COUNTIF(B245:B274,G23)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="96">
+      <c r="S27" s="99">
         <f>AVERAGE(K27:K30)</f>
         <v>5.2806451612903231</v>
       </c>
@@ -17087,13 +17120,13 @@
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="99"/>
-      <c r="F28" s="97">
+      <c r="C28" s="86"/>
+      <c r="D28" s="95"/>
+      <c r="F28" s="100">
         <v>2024</v>
       </c>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
       <c r="J28" s="10" t="s">
         <v>17</v>
       </c>
@@ -17126,7 +17159,7 @@
         <f>COUNTIF(B275:B305,G23)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="75"/>
+      <c r="S28" s="86"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -17135,8 +17168,8 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="99"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="95"/>
       <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
@@ -17169,7 +17202,7 @@
         <f>COUNTIF(B306:B335,G23)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="75"/>
+      <c r="S29" s="86"/>
     </row>
     <row r="30" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
@@ -17178,8 +17211,8 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="99"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="95"/>
       <c r="J30" s="18" t="s">
         <v>19</v>
       </c>
@@ -17187,7 +17220,7 @@
         <f>C336</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="L30" s="98"/>
+      <c r="L30" s="101"/>
       <c r="M30" s="21">
         <f>COUNTIF(B336:B366,G18)</f>
         <v>1</v>
@@ -17212,7 +17245,7 @@
         <f>COUNTIF(B336:B366,G23)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="75"/>
+      <c r="S30" s="86"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -17221,8 +17254,8 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="99"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="95"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -17231,11 +17264,11 @@
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="75">
+      <c r="C32" s="86">
         <f>AVERAGE(B32:B60)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="D32" s="99"/>
+      <c r="D32" s="95"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -17244,8 +17277,8 @@
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="99"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -17254,8 +17287,8 @@
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="99"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -17264,8 +17297,8 @@
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="99"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -17274,8 +17307,8 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="99"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="95"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -17284,8 +17317,8 @@
       <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="99"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="95"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
@@ -17294,8 +17327,8 @@
       <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="99"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="95"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -17304,8 +17337,8 @@
       <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="99"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="95"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -17314,8 +17347,8 @@
       <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="99"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="95"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -17324,8 +17357,8 @@
       <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="99"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="95"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -17334,8 +17367,8 @@
       <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="99"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="95"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -17344,8 +17377,8 @@
       <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="99"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="95"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -17354,8 +17387,8 @@
       <c r="B44" s="2">
         <v>6</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="99"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="95"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
@@ -17364,8 +17397,8 @@
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="99"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="95"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -17374,8 +17407,8 @@
       <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="99"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="95"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -17384,8 +17417,8 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="99"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="95"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -17394,8 +17427,8 @@
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="C48" s="75"/>
-      <c r="D48" s="99"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="95"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -17404,8 +17437,8 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="99"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="95"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -17414,8 +17447,8 @@
       <c r="B50" s="2">
         <v>4</v>
       </c>
-      <c r="C50" s="75"/>
-      <c r="D50" s="99"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="95"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -17424,8 +17457,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="99"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="95"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -17434,8 +17467,8 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="99"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="95"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -17444,8 +17477,8 @@
       <c r="B53" s="2">
         <v>2</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="99"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="95"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -17454,8 +17487,8 @@
       <c r="B54" s="2">
         <v>4</v>
       </c>
-      <c r="C54" s="75"/>
-      <c r="D54" s="99"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="95"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -17464,8 +17497,8 @@
       <c r="B55" s="2">
         <v>4</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="99"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="95"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -17474,8 +17507,8 @@
       <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="99"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="95"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -17484,8 +17517,8 @@
       <c r="B57" s="2">
         <v>4</v>
       </c>
-      <c r="C57" s="75"/>
-      <c r="D57" s="99"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="95"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -17494,8 +17527,8 @@
       <c r="B58" s="2">
         <v>4</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="99"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="95"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -17504,8 +17537,8 @@
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="99"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="95"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -17514,8 +17547,8 @@
       <c r="B60" s="2">
         <v>6</v>
       </c>
-      <c r="C60" s="75"/>
-      <c r="D60" s="99"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="95"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -17524,11 +17557,11 @@
       <c r="B61" s="2">
         <v>6</v>
       </c>
-      <c r="C61" s="75">
+      <c r="C61" s="86">
         <f>AVERAGE(B61:B91)</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="D61" s="99"/>
+      <c r="D61" s="95"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
@@ -17537,8 +17570,8 @@
       <c r="B62" s="2">
         <v>6</v>
       </c>
-      <c r="C62" s="75"/>
-      <c r="D62" s="99"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="95"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -17547,8 +17580,8 @@
       <c r="B63" s="2">
         <v>8</v>
       </c>
-      <c r="C63" s="75"/>
-      <c r="D63" s="99"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="95"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
@@ -17557,8 +17590,8 @@
       <c r="B64" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="75"/>
-      <c r="D64" s="99"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="95"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
@@ -17567,8 +17600,8 @@
       <c r="B65" s="2">
         <v>4</v>
       </c>
-      <c r="C65" s="75"/>
-      <c r="D65" s="99"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="95"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -17577,8 +17610,8 @@
       <c r="B66" s="2">
         <v>4</v>
       </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="99"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="95"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -17587,8 +17620,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="75"/>
-      <c r="D67" s="99"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="95"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
@@ -17597,8 +17630,8 @@
       <c r="B68" s="2">
         <v>6</v>
       </c>
-      <c r="C68" s="75"/>
-      <c r="D68" s="99"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="95"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
@@ -17607,8 +17640,8 @@
       <c r="B69" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="75"/>
-      <c r="D69" s="99"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="95"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
@@ -17617,8 +17650,8 @@
       <c r="B70" s="2">
         <v>6</v>
       </c>
-      <c r="C70" s="75"/>
-      <c r="D70" s="99"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="95"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
@@ -17627,8 +17660,8 @@
       <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="75"/>
-      <c r="D71" s="99"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="95"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
@@ -17637,8 +17670,8 @@
       <c r="B72" s="2">
         <v>6</v>
       </c>
-      <c r="C72" s="75"/>
-      <c r="D72" s="99"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="95"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
@@ -17647,8 +17680,8 @@
       <c r="B73" s="2">
         <v>6</v>
       </c>
-      <c r="C73" s="75"/>
-      <c r="D73" s="99"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="95"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -17657,8 +17690,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="75"/>
-      <c r="D74" s="99"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="95"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -17667,8 +17700,8 @@
       <c r="B75" s="2">
         <v>6</v>
       </c>
-      <c r="C75" s="75"/>
-      <c r="D75" s="99"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="95"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -17677,8 +17710,8 @@
       <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C76" s="75"/>
-      <c r="D76" s="99"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="95"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
@@ -17687,8 +17720,8 @@
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="75"/>
-      <c r="D77" s="99"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="95"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -17697,8 +17730,8 @@
       <c r="B78" s="2">
         <v>6</v>
       </c>
-      <c r="C78" s="75"/>
-      <c r="D78" s="99"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="95"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
@@ -17707,8 +17740,8 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="75"/>
-      <c r="D79" s="99"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="95"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
@@ -17717,8 +17750,8 @@
       <c r="B80" s="2">
         <v>8</v>
       </c>
-      <c r="C80" s="75"/>
-      <c r="D80" s="99"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="95"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
@@ -17727,8 +17760,8 @@
       <c r="B81" s="2">
         <v>6</v>
       </c>
-      <c r="C81" s="75"/>
-      <c r="D81" s="99"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="95"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
@@ -17737,8 +17770,8 @@
       <c r="B82" s="2">
         <v>8</v>
       </c>
-      <c r="C82" s="75"/>
-      <c r="D82" s="99"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="95"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -17747,8 +17780,8 @@
       <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="C83" s="75"/>
-      <c r="D83" s="99"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="95"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
@@ -17757,8 +17790,8 @@
       <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="75"/>
-      <c r="D84" s="99"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="95"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -17767,8 +17800,8 @@
       <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C85" s="75"/>
-      <c r="D85" s="99"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="95"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -17777,8 +17810,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="75"/>
-      <c r="D86" s="99"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="95"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -17787,8 +17820,8 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
-      <c r="C87" s="75"/>
-      <c r="D87" s="99"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="95"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -17797,8 +17830,8 @@
       <c r="B88" s="2">
         <v>6</v>
       </c>
-      <c r="C88" s="75"/>
-      <c r="D88" s="99"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="95"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -17807,8 +17840,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="75"/>
-      <c r="D89" s="99"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="95"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -17817,8 +17850,8 @@
       <c r="B90" s="2">
         <v>6</v>
       </c>
-      <c r="C90" s="75"/>
-      <c r="D90" s="99"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="95"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -17827,8 +17860,8 @@
       <c r="B91" s="2">
         <v>6</v>
       </c>
-      <c r="C91" s="75"/>
-      <c r="D91" s="99"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="95"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -17837,11 +17870,11 @@
       <c r="B92" s="2">
         <v>4</v>
       </c>
-      <c r="C92" s="75">
+      <c r="C92" s="86">
         <f>AVERAGE(B92:B121)</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="D92" s="99"/>
+      <c r="D92" s="95"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -17850,8 +17883,8 @@
       <c r="B93" s="2">
         <v>4</v>
       </c>
-      <c r="C93" s="75"/>
-      <c r="D93" s="99"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="95"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -17860,8 +17893,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="75"/>
-      <c r="D94" s="99"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="95"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -17870,8 +17903,8 @@
       <c r="B95" s="2">
         <v>4</v>
       </c>
-      <c r="C95" s="75"/>
-      <c r="D95" s="99"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="95"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -17880,8 +17913,8 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96" s="75"/>
-      <c r="D96" s="99"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="95"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
@@ -17890,8 +17923,8 @@
       <c r="B97" s="2">
         <v>2</v>
       </c>
-      <c r="C97" s="75"/>
-      <c r="D97" s="99"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="95"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -17900,8 +17933,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="75"/>
-      <c r="D98" s="99"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="95"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -17910,8 +17943,8 @@
       <c r="B99" s="2">
         <v>4</v>
       </c>
-      <c r="C99" s="75"/>
-      <c r="D99" s="99"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="95"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
@@ -17920,8 +17953,8 @@
       <c r="B100" s="2">
         <v>6</v>
       </c>
-      <c r="C100" s="75"/>
-      <c r="D100" s="99"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="95"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -17930,8 +17963,8 @@
       <c r="B101" s="2">
         <v>2</v>
       </c>
-      <c r="C101" s="75"/>
-      <c r="D101" s="99"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="95"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
@@ -17940,8 +17973,8 @@
       <c r="B102" s="2">
         <v>0</v>
       </c>
-      <c r="C102" s="75"/>
-      <c r="D102" s="99"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="95"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
@@ -17950,8 +17983,8 @@
       <c r="B103" s="2">
         <v>6</v>
       </c>
-      <c r="C103" s="75"/>
-      <c r="D103" s="99"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="95"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
@@ -17960,8 +17993,8 @@
       <c r="B104" s="2">
         <v>6</v>
       </c>
-      <c r="C104" s="75"/>
-      <c r="D104" s="99"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="95"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
@@ -17970,8 +18003,8 @@
       <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="75"/>
-      <c r="D105" s="99"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="95"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
@@ -17980,8 +18013,8 @@
       <c r="B106" s="2">
         <v>6</v>
       </c>
-      <c r="C106" s="75"/>
-      <c r="D106" s="99"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="95"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
@@ -17990,8 +18023,8 @@
       <c r="B107" s="2">
         <v>4</v>
       </c>
-      <c r="C107" s="75"/>
-      <c r="D107" s="99"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="95"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
@@ -18000,8 +18033,8 @@
       <c r="B108" s="2">
         <v>8</v>
       </c>
-      <c r="C108" s="75"/>
-      <c r="D108" s="99"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="95"/>
       <c r="J108" s="3" t="s">
         <v>22</v>
       </c>
@@ -18013,8 +18046,8 @@
       <c r="B109" s="2">
         <v>6</v>
       </c>
-      <c r="C109" s="75"/>
-      <c r="D109" s="99"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="95"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
@@ -18023,8 +18056,8 @@
       <c r="B110" s="2">
         <v>6</v>
       </c>
-      <c r="C110" s="75"/>
-      <c r="D110" s="99"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="95"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
@@ -18033,8 +18066,8 @@
       <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C111" s="75"/>
-      <c r="D111" s="99"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="95"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
@@ -18043,8 +18076,8 @@
       <c r="B112" s="2">
         <v>6</v>
       </c>
-      <c r="C112" s="75"/>
-      <c r="D112" s="99"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="95"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
@@ -18053,8 +18086,8 @@
       <c r="B113" s="2">
         <v>6</v>
       </c>
-      <c r="C113" s="75"/>
-      <c r="D113" s="99"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="95"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
@@ -18063,8 +18096,8 @@
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" s="75"/>
-      <c r="D114" s="99"/>
+      <c r="C114" s="86"/>
+      <c r="D114" s="95"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
@@ -18073,8 +18106,8 @@
       <c r="B115" s="2">
         <v>6</v>
       </c>
-      <c r="C115" s="75"/>
-      <c r="D115" s="99"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="95"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
@@ -18083,8 +18116,8 @@
       <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="75"/>
-      <c r="D116" s="99"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="95"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
@@ -18093,8 +18126,8 @@
       <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C117" s="75"/>
-      <c r="D117" s="99"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="95"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
@@ -18103,8 +18136,8 @@
       <c r="B118" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="75"/>
-      <c r="D118" s="99"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="95"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
@@ -18113,8 +18146,8 @@
       <c r="B119" s="2">
         <v>4</v>
       </c>
-      <c r="C119" s="75"/>
-      <c r="D119" s="99"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="95"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
@@ -18123,8 +18156,8 @@
       <c r="B120" s="2">
         <v>6</v>
       </c>
-      <c r="C120" s="75"/>
-      <c r="D120" s="99"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="95"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
@@ -18133,8 +18166,8 @@
       <c r="B121" s="2">
         <v>6</v>
       </c>
-      <c r="C121" s="75"/>
-      <c r="D121" s="99"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="95"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
@@ -18143,11 +18176,11 @@
       <c r="B122" s="2">
         <v>8</v>
       </c>
-      <c r="C122" s="100">
+      <c r="C122" s="96">
         <f>AVERAGE(B122:B152)</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="D122" s="99"/>
+      <c r="D122" s="95"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
@@ -18156,8 +18189,8 @@
       <c r="B123" s="2">
         <v>6</v>
       </c>
-      <c r="C123" s="101"/>
-      <c r="D123" s="99"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="95"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
@@ -18166,8 +18199,8 @@
       <c r="B124" s="2">
         <v>6</v>
       </c>
-      <c r="C124" s="101"/>
-      <c r="D124" s="99"/>
+      <c r="C124" s="97"/>
+      <c r="D124" s="95"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
@@ -18176,8 +18209,8 @@
       <c r="B125" s="2">
         <v>10</v>
       </c>
-      <c r="C125" s="101"/>
-      <c r="D125" s="99"/>
+      <c r="C125" s="97"/>
+      <c r="D125" s="95"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
@@ -18186,8 +18219,8 @@
       <c r="B126" s="2">
         <v>6</v>
       </c>
-      <c r="C126" s="101"/>
-      <c r="D126" s="99"/>
+      <c r="C126" s="97"/>
+      <c r="D126" s="95"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
@@ -18196,8 +18229,8 @@
       <c r="B127" s="2">
         <v>4</v>
       </c>
-      <c r="C127" s="101"/>
-      <c r="D127" s="99"/>
+      <c r="C127" s="97"/>
+      <c r="D127" s="95"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
@@ -18206,8 +18239,8 @@
       <c r="B128" s="2">
         <v>6</v>
       </c>
-      <c r="C128" s="101"/>
-      <c r="D128" s="99"/>
+      <c r="C128" s="97"/>
+      <c r="D128" s="95"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
@@ -18216,8 +18249,8 @@
       <c r="B129" s="2">
         <v>6</v>
       </c>
-      <c r="C129" s="101"/>
-      <c r="D129" s="99"/>
+      <c r="C129" s="97"/>
+      <c r="D129" s="95"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
@@ -18226,8 +18259,8 @@
       <c r="B130" s="2">
         <v>6</v>
       </c>
-      <c r="C130" s="101"/>
-      <c r="D130" s="99"/>
+      <c r="C130" s="97"/>
+      <c r="D130" s="95"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
@@ -18236,8 +18269,8 @@
       <c r="B131" s="2">
         <v>8</v>
       </c>
-      <c r="C131" s="101"/>
-      <c r="D131" s="99"/>
+      <c r="C131" s="97"/>
+      <c r="D131" s="95"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
@@ -18246,8 +18279,8 @@
       <c r="B132" s="2">
         <v>8</v>
       </c>
-      <c r="C132" s="101"/>
-      <c r="D132" s="99"/>
+      <c r="C132" s="97"/>
+      <c r="D132" s="95"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
@@ -18256,8 +18289,8 @@
       <c r="B133" s="2">
         <v>6</v>
       </c>
-      <c r="C133" s="101"/>
-      <c r="D133" s="99"/>
+      <c r="C133" s="97"/>
+      <c r="D133" s="95"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
@@ -18266,8 +18299,8 @@
       <c r="B134" s="2">
         <v>6</v>
       </c>
-      <c r="C134" s="101"/>
-      <c r="D134" s="99"/>
+      <c r="C134" s="97"/>
+      <c r="D134" s="95"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
@@ -18276,8 +18309,8 @@
       <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="C135" s="101"/>
-      <c r="D135" s="99"/>
+      <c r="C135" s="97"/>
+      <c r="D135" s="95"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
@@ -18286,8 +18319,8 @@
       <c r="B136" s="2">
         <v>6</v>
       </c>
-      <c r="C136" s="101"/>
-      <c r="D136" s="99"/>
+      <c r="C136" s="97"/>
+      <c r="D136" s="95"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
@@ -18296,8 +18329,8 @@
       <c r="B137" s="2">
         <v>4</v>
       </c>
-      <c r="C137" s="101"/>
-      <c r="D137" s="99"/>
+      <c r="C137" s="97"/>
+      <c r="D137" s="95"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
@@ -18306,8 +18339,8 @@
       <c r="B138" s="2">
         <v>4</v>
       </c>
-      <c r="C138" s="101"/>
-      <c r="D138" s="99"/>
+      <c r="C138" s="97"/>
+      <c r="D138" s="95"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
@@ -18316,8 +18349,8 @@
       <c r="B139" s="2">
         <v>6</v>
       </c>
-      <c r="C139" s="101"/>
-      <c r="D139" s="99"/>
+      <c r="C139" s="97"/>
+      <c r="D139" s="95"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
@@ -18326,8 +18359,8 @@
       <c r="B140" s="2">
         <v>4</v>
       </c>
-      <c r="C140" s="101"/>
-      <c r="D140" s="99"/>
+      <c r="C140" s="97"/>
+      <c r="D140" s="95"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
@@ -18336,8 +18369,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="101"/>
-      <c r="D141" s="99"/>
+      <c r="C141" s="97"/>
+      <c r="D141" s="95"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
@@ -18346,8 +18379,8 @@
       <c r="B142" s="2">
         <v>6</v>
       </c>
-      <c r="C142" s="101"/>
-      <c r="D142" s="99"/>
+      <c r="C142" s="97"/>
+      <c r="D142" s="95"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
@@ -18356,8 +18389,8 @@
       <c r="B143" s="2">
         <v>6</v>
       </c>
-      <c r="C143" s="101"/>
-      <c r="D143" s="99"/>
+      <c r="C143" s="97"/>
+      <c r="D143" s="95"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
@@ -18366,8 +18399,8 @@
       <c r="B144" s="2">
         <v>8</v>
       </c>
-      <c r="C144" s="101"/>
-      <c r="D144" s="99"/>
+      <c r="C144" s="97"/>
+      <c r="D144" s="95"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
@@ -18376,8 +18409,8 @@
       <c r="B145" s="2">
         <v>8</v>
       </c>
-      <c r="C145" s="101"/>
-      <c r="D145" s="99"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="95"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
@@ -18386,8 +18419,8 @@
       <c r="B146" s="2">
         <v>8</v>
       </c>
-      <c r="C146" s="101"/>
-      <c r="D146" s="99"/>
+      <c r="C146" s="97"/>
+      <c r="D146" s="95"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
@@ -18396,8 +18429,8 @@
       <c r="B147" s="2">
         <v>6</v>
       </c>
-      <c r="C147" s="101"/>
-      <c r="D147" s="99"/>
+      <c r="C147" s="97"/>
+      <c r="D147" s="95"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
@@ -18406,8 +18439,8 @@
       <c r="B148" s="2">
         <v>4</v>
       </c>
-      <c r="C148" s="101"/>
-      <c r="D148" s="99"/>
+      <c r="C148" s="97"/>
+      <c r="D148" s="95"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
@@ -18416,8 +18449,8 @@
       <c r="B149" s="2">
         <v>6</v>
       </c>
-      <c r="C149" s="101"/>
-      <c r="D149" s="99"/>
+      <c r="C149" s="97"/>
+      <c r="D149" s="95"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
@@ -18426,8 +18459,8 @@
       <c r="B150" s="2">
         <v>6</v>
       </c>
-      <c r="C150" s="101"/>
-      <c r="D150" s="99"/>
+      <c r="C150" s="97"/>
+      <c r="D150" s="95"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
@@ -18436,8 +18469,8 @@
       <c r="B151" s="2">
         <v>6</v>
       </c>
-      <c r="C151" s="101"/>
-      <c r="D151" s="99"/>
+      <c r="C151" s="97"/>
+      <c r="D151" s="95"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
@@ -18446,8 +18479,8 @@
       <c r="B152" s="2">
         <v>6</v>
       </c>
-      <c r="C152" s="74"/>
-      <c r="D152" s="99"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="95"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
@@ -18456,11 +18489,11 @@
       <c r="B153" s="2">
         <v>6</v>
       </c>
-      <c r="C153" s="100">
+      <c r="C153" s="96">
         <f>AVERAGE(B153:B182)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D153" s="99"/>
+      <c r="D153" s="95"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
@@ -18469,8 +18502,8 @@
       <c r="B154" s="2">
         <v>6</v>
       </c>
-      <c r="C154" s="101"/>
-      <c r="D154" s="99"/>
+      <c r="C154" s="97"/>
+      <c r="D154" s="95"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
@@ -18479,8 +18512,8 @@
       <c r="B155" s="2">
         <v>4</v>
       </c>
-      <c r="C155" s="101"/>
-      <c r="D155" s="99"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="95"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
@@ -18489,8 +18522,8 @@
       <c r="B156" s="2">
         <v>8</v>
       </c>
-      <c r="C156" s="101"/>
-      <c r="D156" s="99"/>
+      <c r="C156" s="97"/>
+      <c r="D156" s="95"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
@@ -18499,8 +18532,8 @@
       <c r="B157" s="2">
         <v>10</v>
       </c>
-      <c r="C157" s="101"/>
-      <c r="D157" s="99"/>
+      <c r="C157" s="97"/>
+      <c r="D157" s="95"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
@@ -18509,8 +18542,8 @@
       <c r="B158" s="2">
         <v>6</v>
       </c>
-      <c r="C158" s="101"/>
-      <c r="D158" s="99"/>
+      <c r="C158" s="97"/>
+      <c r="D158" s="95"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
@@ -18519,8 +18552,8 @@
       <c r="B159" s="2">
         <v>4</v>
       </c>
-      <c r="C159" s="101"/>
-      <c r="D159" s="99"/>
+      <c r="C159" s="97"/>
+      <c r="D159" s="95"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
@@ -18529,8 +18562,8 @@
       <c r="B160" s="2">
         <v>6</v>
       </c>
-      <c r="C160" s="101"/>
-      <c r="D160" s="99"/>
+      <c r="C160" s="97"/>
+      <c r="D160" s="95"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
@@ -18539,8 +18572,8 @@
       <c r="B161" s="2">
         <v>6</v>
       </c>
-      <c r="C161" s="101"/>
-      <c r="D161" s="99"/>
+      <c r="C161" s="97"/>
+      <c r="D161" s="95"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
@@ -18549,8 +18582,8 @@
       <c r="B162" s="2">
         <v>6</v>
       </c>
-      <c r="C162" s="101"/>
-      <c r="D162" s="99"/>
+      <c r="C162" s="97"/>
+      <c r="D162" s="95"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
@@ -18559,8 +18592,8 @@
       <c r="B163" s="2">
         <v>0</v>
       </c>
-      <c r="C163" s="101"/>
-      <c r="D163" s="99"/>
+      <c r="C163" s="97"/>
+      <c r="D163" s="95"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
@@ -18569,8 +18602,8 @@
       <c r="B164" s="2">
         <v>4</v>
       </c>
-      <c r="C164" s="101"/>
-      <c r="D164" s="99"/>
+      <c r="C164" s="97"/>
+      <c r="D164" s="95"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
@@ -18579,8 +18612,8 @@
       <c r="B165" s="2">
         <v>4</v>
       </c>
-      <c r="C165" s="101"/>
-      <c r="D165" s="99"/>
+      <c r="C165" s="97"/>
+      <c r="D165" s="95"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
@@ -18589,8 +18622,8 @@
       <c r="B166" s="2">
         <v>4</v>
       </c>
-      <c r="C166" s="101"/>
-      <c r="D166" s="99"/>
+      <c r="C166" s="97"/>
+      <c r="D166" s="95"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
@@ -18599,8 +18632,8 @@
       <c r="B167" s="2">
         <v>6</v>
       </c>
-      <c r="C167" s="101"/>
-      <c r="D167" s="99"/>
+      <c r="C167" s="97"/>
+      <c r="D167" s="95"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
@@ -18609,8 +18642,8 @@
       <c r="B168" s="2">
         <v>6</v>
       </c>
-      <c r="C168" s="101"/>
-      <c r="D168" s="99"/>
+      <c r="C168" s="97"/>
+      <c r="D168" s="95"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
@@ -18619,8 +18652,8 @@
       <c r="B169" s="2">
         <v>4</v>
       </c>
-      <c r="C169" s="101"/>
-      <c r="D169" s="99"/>
+      <c r="C169" s="97"/>
+      <c r="D169" s="95"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
@@ -18629,8 +18662,8 @@
       <c r="B170" s="2">
         <v>4</v>
       </c>
-      <c r="C170" s="101"/>
-      <c r="D170" s="99"/>
+      <c r="C170" s="97"/>
+      <c r="D170" s="95"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
@@ -18639,8 +18672,8 @@
       <c r="B171" s="2">
         <v>10</v>
       </c>
-      <c r="C171" s="101"/>
-      <c r="D171" s="99"/>
+      <c r="C171" s="97"/>
+      <c r="D171" s="95"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
@@ -18649,8 +18682,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="101"/>
-      <c r="D172" s="99"/>
+      <c r="C172" s="97"/>
+      <c r="D172" s="95"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
@@ -18659,8 +18692,8 @@
       <c r="B173" s="2">
         <v>2</v>
       </c>
-      <c r="C173" s="101"/>
-      <c r="D173" s="99"/>
+      <c r="C173" s="97"/>
+      <c r="D173" s="95"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
@@ -18669,8 +18702,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="101"/>
-      <c r="D174" s="99"/>
+      <c r="C174" s="97"/>
+      <c r="D174" s="95"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
@@ -18679,8 +18712,8 @@
       <c r="B175" s="2">
         <v>4</v>
       </c>
-      <c r="C175" s="101"/>
-      <c r="D175" s="99"/>
+      <c r="C175" s="97"/>
+      <c r="D175" s="95"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
@@ -18689,8 +18722,8 @@
       <c r="B176" s="2">
         <v>6</v>
       </c>
-      <c r="C176" s="101"/>
-      <c r="D176" s="99"/>
+      <c r="C176" s="97"/>
+      <c r="D176" s="95"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
@@ -18699,8 +18732,8 @@
       <c r="B177" s="2">
         <v>4</v>
       </c>
-      <c r="C177" s="101"/>
-      <c r="D177" s="99"/>
+      <c r="C177" s="97"/>
+      <c r="D177" s="95"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
@@ -18709,8 +18742,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="101"/>
-      <c r="D178" s="99"/>
+      <c r="C178" s="97"/>
+      <c r="D178" s="95"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
@@ -18719,8 +18752,8 @@
       <c r="B179" s="2">
         <v>6</v>
       </c>
-      <c r="C179" s="101"/>
-      <c r="D179" s="99"/>
+      <c r="C179" s="97"/>
+      <c r="D179" s="95"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
@@ -18729,8 +18762,8 @@
       <c r="B180" s="2">
         <v>10</v>
       </c>
-      <c r="C180" s="101"/>
-      <c r="D180" s="99"/>
+      <c r="C180" s="97"/>
+      <c r="D180" s="95"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
@@ -18739,8 +18772,8 @@
       <c r="B181" s="2">
         <v>8</v>
       </c>
-      <c r="C181" s="101"/>
-      <c r="D181" s="99"/>
+      <c r="C181" s="97"/>
+      <c r="D181" s="95"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
@@ -18749,8 +18782,8 @@
       <c r="B182" s="2">
         <v>6</v>
       </c>
-      <c r="C182" s="74"/>
-      <c r="D182" s="99"/>
+      <c r="C182" s="85"/>
+      <c r="D182" s="95"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
@@ -18759,11 +18792,11 @@
       <c r="B183" s="2">
         <v>6</v>
       </c>
-      <c r="C183" s="100">
+      <c r="C183" s="96">
         <f>AVERAGE(B183:B213)</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="D183" s="99"/>
+      <c r="D183" s="95"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
@@ -18772,8 +18805,8 @@
       <c r="B184" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="101"/>
-      <c r="D184" s="99"/>
+      <c r="C184" s="97"/>
+      <c r="D184" s="95"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
@@ -18782,8 +18815,8 @@
       <c r="B185" s="2">
         <v>2</v>
       </c>
-      <c r="C185" s="101"/>
-      <c r="D185" s="99"/>
+      <c r="C185" s="97"/>
+      <c r="D185" s="95"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
@@ -18792,8 +18825,8 @@
       <c r="B186" s="2">
         <v>4</v>
       </c>
-      <c r="C186" s="101"/>
-      <c r="D186" s="99"/>
+      <c r="C186" s="97"/>
+      <c r="D186" s="95"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
@@ -18802,8 +18835,8 @@
       <c r="B187" s="2">
         <v>4</v>
       </c>
-      <c r="C187" s="101"/>
-      <c r="D187" s="99"/>
+      <c r="C187" s="97"/>
+      <c r="D187" s="95"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
@@ -18812,8 +18845,8 @@
       <c r="B188" s="2">
         <v>10</v>
       </c>
-      <c r="C188" s="101"/>
-      <c r="D188" s="99"/>
+      <c r="C188" s="97"/>
+      <c r="D188" s="95"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
@@ -18822,8 +18855,8 @@
       <c r="B189" s="2">
         <v>6</v>
       </c>
-      <c r="C189" s="101"/>
-      <c r="D189" s="99"/>
+      <c r="C189" s="97"/>
+      <c r="D189" s="95"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
@@ -18832,8 +18865,8 @@
       <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C190" s="101"/>
-      <c r="D190" s="99"/>
+      <c r="C190" s="97"/>
+      <c r="D190" s="95"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
@@ -18842,8 +18875,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="101"/>
-      <c r="D191" s="99"/>
+      <c r="C191" s="97"/>
+      <c r="D191" s="95"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
@@ -18852,8 +18885,8 @@
       <c r="B192" s="2">
         <v>4</v>
       </c>
-      <c r="C192" s="101"/>
-      <c r="D192" s="99"/>
+      <c r="C192" s="97"/>
+      <c r="D192" s="95"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
@@ -18862,8 +18895,8 @@
       <c r="B193" s="2">
         <v>6</v>
       </c>
-      <c r="C193" s="101"/>
-      <c r="D193" s="99"/>
+      <c r="C193" s="97"/>
+      <c r="D193" s="95"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
@@ -18872,8 +18905,8 @@
       <c r="B194" s="2">
         <v>4</v>
       </c>
-      <c r="C194" s="101"/>
-      <c r="D194" s="99"/>
+      <c r="C194" s="97"/>
+      <c r="D194" s="95"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
@@ -18882,8 +18915,8 @@
       <c r="B195" s="2">
         <v>10</v>
       </c>
-      <c r="C195" s="101"/>
-      <c r="D195" s="99"/>
+      <c r="C195" s="97"/>
+      <c r="D195" s="95"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
@@ -18892,8 +18925,8 @@
       <c r="B196" s="2">
         <v>6</v>
       </c>
-      <c r="C196" s="101"/>
-      <c r="D196" s="99"/>
+      <c r="C196" s="97"/>
+      <c r="D196" s="95"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
@@ -18902,8 +18935,8 @@
       <c r="B197" s="2">
         <v>4</v>
       </c>
-      <c r="C197" s="101"/>
-      <c r="D197" s="99"/>
+      <c r="C197" s="97"/>
+      <c r="D197" s="95"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
@@ -18912,8 +18945,8 @@
       <c r="B198" s="2">
         <v>4</v>
       </c>
-      <c r="C198" s="101"/>
-      <c r="D198" s="99"/>
+      <c r="C198" s="97"/>
+      <c r="D198" s="95"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
@@ -18922,8 +18955,8 @@
       <c r="B199" s="2">
         <v>6</v>
       </c>
-      <c r="C199" s="101"/>
-      <c r="D199" s="99"/>
+      <c r="C199" s="97"/>
+      <c r="D199" s="95"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
@@ -18932,8 +18965,8 @@
       <c r="B200" s="2">
         <v>4</v>
       </c>
-      <c r="C200" s="101"/>
-      <c r="D200" s="99"/>
+      <c r="C200" s="97"/>
+      <c r="D200" s="95"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
@@ -18942,8 +18975,8 @@
       <c r="B201" s="2">
         <v>2</v>
       </c>
-      <c r="C201" s="101"/>
-      <c r="D201" s="99"/>
+      <c r="C201" s="97"/>
+      <c r="D201" s="95"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
@@ -18952,8 +18985,8 @@
       <c r="B202" s="2">
         <v>8</v>
       </c>
-      <c r="C202" s="101"/>
-      <c r="D202" s="99"/>
+      <c r="C202" s="97"/>
+      <c r="D202" s="95"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
@@ -18962,8 +18995,8 @@
       <c r="B203" s="2">
         <v>6</v>
       </c>
-      <c r="C203" s="101"/>
-      <c r="D203" s="99"/>
+      <c r="C203" s="97"/>
+      <c r="D203" s="95"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
@@ -18972,8 +19005,8 @@
       <c r="B204" s="2">
         <v>4</v>
       </c>
-      <c r="C204" s="101"/>
-      <c r="D204" s="99"/>
+      <c r="C204" s="97"/>
+      <c r="D204" s="95"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
@@ -18982,8 +19015,8 @@
       <c r="B205" s="2">
         <v>4</v>
       </c>
-      <c r="C205" s="101"/>
-      <c r="D205" s="99"/>
+      <c r="C205" s="97"/>
+      <c r="D205" s="95"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
@@ -18992,8 +19025,8 @@
       <c r="B206" s="2">
         <v>2</v>
       </c>
-      <c r="C206" s="101"/>
-      <c r="D206" s="99"/>
+      <c r="C206" s="97"/>
+      <c r="D206" s="95"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
@@ -19002,8 +19035,8 @@
       <c r="B207" s="2">
         <v>4</v>
       </c>
-      <c r="C207" s="101"/>
-      <c r="D207" s="99"/>
+      <c r="C207" s="97"/>
+      <c r="D207" s="95"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
@@ -19012,8 +19045,8 @@
       <c r="B208" s="2">
         <v>4</v>
       </c>
-      <c r="C208" s="101"/>
-      <c r="D208" s="99"/>
+      <c r="C208" s="97"/>
+      <c r="D208" s="95"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
@@ -19022,8 +19055,8 @@
       <c r="B209" s="2">
         <v>6</v>
       </c>
-      <c r="C209" s="101"/>
-      <c r="D209" s="99"/>
+      <c r="C209" s="97"/>
+      <c r="D209" s="95"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
@@ -19032,8 +19065,8 @@
       <c r="B210" s="2">
         <v>6</v>
       </c>
-      <c r="C210" s="101"/>
-      <c r="D210" s="99"/>
+      <c r="C210" s="97"/>
+      <c r="D210" s="95"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
@@ -19042,8 +19075,8 @@
       <c r="B211" s="2">
         <v>6</v>
       </c>
-      <c r="C211" s="101"/>
-      <c r="D211" s="99"/>
+      <c r="C211" s="97"/>
+      <c r="D211" s="95"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
@@ -19052,8 +19085,8 @@
       <c r="B212" s="2">
         <v>6</v>
       </c>
-      <c r="C212" s="101"/>
-      <c r="D212" s="99"/>
+      <c r="C212" s="97"/>
+      <c r="D212" s="95"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
@@ -19062,8 +19095,8 @@
       <c r="B213" s="2">
         <v>6</v>
       </c>
-      <c r="C213" s="74"/>
-      <c r="D213" s="99"/>
+      <c r="C213" s="85"/>
+      <c r="D213" s="95"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
@@ -19072,11 +19105,11 @@
       <c r="B214" s="2">
         <v>6</v>
       </c>
-      <c r="C214" s="100">
+      <c r="C214" s="96">
         <f>AVERAGE(B214:B244)</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="D214" s="99"/>
+      <c r="D214" s="95"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
@@ -19085,8 +19118,8 @@
       <c r="B215" s="2">
         <v>6</v>
       </c>
-      <c r="C215" s="101"/>
-      <c r="D215" s="99"/>
+      <c r="C215" s="97"/>
+      <c r="D215" s="95"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
@@ -19095,8 +19128,8 @@
       <c r="B216" s="2">
         <v>6</v>
       </c>
-      <c r="C216" s="101"/>
-      <c r="D216" s="99"/>
+      <c r="C216" s="97"/>
+      <c r="D216" s="95"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
@@ -19105,8 +19138,8 @@
       <c r="B217" s="2">
         <v>8</v>
       </c>
-      <c r="C217" s="101"/>
-      <c r="D217" s="99"/>
+      <c r="C217" s="97"/>
+      <c r="D217" s="95"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
@@ -19115,8 +19148,8 @@
       <c r="B218" s="2">
         <v>4</v>
       </c>
-      <c r="C218" s="101"/>
-      <c r="D218" s="99"/>
+      <c r="C218" s="97"/>
+      <c r="D218" s="95"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
@@ -19125,8 +19158,8 @@
       <c r="B219" s="2">
         <v>4</v>
       </c>
-      <c r="C219" s="101"/>
-      <c r="D219" s="99"/>
+      <c r="C219" s="97"/>
+      <c r="D219" s="95"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
@@ -19135,8 +19168,8 @@
       <c r="B220" s="2">
         <v>6</v>
       </c>
-      <c r="C220" s="101"/>
-      <c r="D220" s="99"/>
+      <c r="C220" s="97"/>
+      <c r="D220" s="95"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
@@ -19145,8 +19178,8 @@
       <c r="B221" s="2">
         <v>4</v>
       </c>
-      <c r="C221" s="101"/>
-      <c r="D221" s="99"/>
+      <c r="C221" s="97"/>
+      <c r="D221" s="95"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
@@ -19155,8 +19188,8 @@
       <c r="B222" s="2">
         <v>6</v>
       </c>
-      <c r="C222" s="101"/>
-      <c r="D222" s="99"/>
+      <c r="C222" s="97"/>
+      <c r="D222" s="95"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
@@ -19165,8 +19198,8 @@
       <c r="B223" s="2">
         <v>6</v>
       </c>
-      <c r="C223" s="101"/>
-      <c r="D223" s="99"/>
+      <c r="C223" s="97"/>
+      <c r="D223" s="95"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
@@ -19175,8 +19208,8 @@
       <c r="B224" s="2">
         <v>6</v>
       </c>
-      <c r="C224" s="101"/>
-      <c r="D224" s="99"/>
+      <c r="C224" s="97"/>
+      <c r="D224" s="95"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
@@ -19185,8 +19218,8 @@
       <c r="B225" s="2">
         <v>6</v>
       </c>
-      <c r="C225" s="101"/>
-      <c r="D225" s="99"/>
+      <c r="C225" s="97"/>
+      <c r="D225" s="95"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
@@ -19195,8 +19228,8 @@
       <c r="B226" s="2">
         <v>4</v>
       </c>
-      <c r="C226" s="101"/>
-      <c r="D226" s="99"/>
+      <c r="C226" s="97"/>
+      <c r="D226" s="95"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
@@ -19205,8 +19238,8 @@
       <c r="B227" s="2">
         <v>2</v>
       </c>
-      <c r="C227" s="101"/>
-      <c r="D227" s="99"/>
+      <c r="C227" s="97"/>
+      <c r="D227" s="95"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
@@ -19215,8 +19248,8 @@
       <c r="B228" s="2">
         <v>2</v>
       </c>
-      <c r="C228" s="101"/>
-      <c r="D228" s="99"/>
+      <c r="C228" s="97"/>
+      <c r="D228" s="95"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
@@ -19225,8 +19258,8 @@
       <c r="B229" s="2">
         <v>4</v>
       </c>
-      <c r="C229" s="101"/>
-      <c r="D229" s="99"/>
+      <c r="C229" s="97"/>
+      <c r="D229" s="95"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
@@ -19235,8 +19268,8 @@
       <c r="B230" s="2">
         <v>6</v>
       </c>
-      <c r="C230" s="101"/>
-      <c r="D230" s="99"/>
+      <c r="C230" s="97"/>
+      <c r="D230" s="95"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
@@ -19245,8 +19278,8 @@
       <c r="B231" s="2">
         <v>8</v>
       </c>
-      <c r="C231" s="101"/>
-      <c r="D231" s="99"/>
+      <c r="C231" s="97"/>
+      <c r="D231" s="95"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
@@ -19255,8 +19288,8 @@
       <c r="B232" s="2">
         <v>4</v>
       </c>
-      <c r="C232" s="101"/>
-      <c r="D232" s="99"/>
+      <c r="C232" s="97"/>
+      <c r="D232" s="95"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
@@ -19265,8 +19298,8 @@
       <c r="B233" s="2">
         <v>4</v>
       </c>
-      <c r="C233" s="101"/>
-      <c r="D233" s="99"/>
+      <c r="C233" s="97"/>
+      <c r="D233" s="95"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
@@ -19275,8 +19308,8 @@
       <c r="B234" s="2">
         <v>4</v>
       </c>
-      <c r="C234" s="101"/>
-      <c r="D234" s="99"/>
+      <c r="C234" s="97"/>
+      <c r="D234" s="95"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
@@ -19285,8 +19318,8 @@
       <c r="B235" s="2">
         <v>4</v>
       </c>
-      <c r="C235" s="101"/>
-      <c r="D235" s="99"/>
+      <c r="C235" s="97"/>
+      <c r="D235" s="95"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
@@ -19295,8 +19328,8 @@
       <c r="B236" s="2">
         <v>6</v>
       </c>
-      <c r="C236" s="101"/>
-      <c r="D236" s="99"/>
+      <c r="C236" s="97"/>
+      <c r="D236" s="95"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
@@ -19305,8 +19338,8 @@
       <c r="B237" s="2">
         <v>4</v>
       </c>
-      <c r="C237" s="101"/>
-      <c r="D237" s="99"/>
+      <c r="C237" s="97"/>
+      <c r="D237" s="95"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
@@ -19315,8 +19348,8 @@
       <c r="B238" s="2">
         <v>4</v>
       </c>
-      <c r="C238" s="101"/>
-      <c r="D238" s="99"/>
+      <c r="C238" s="97"/>
+      <c r="D238" s="95"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
@@ -19325,8 +19358,8 @@
       <c r="B239" s="2">
         <v>6</v>
       </c>
-      <c r="C239" s="101"/>
-      <c r="D239" s="99"/>
+      <c r="C239" s="97"/>
+      <c r="D239" s="95"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
@@ -19335,8 +19368,8 @@
       <c r="B240" s="2">
         <v>2</v>
       </c>
-      <c r="C240" s="101"/>
-      <c r="D240" s="99"/>
+      <c r="C240" s="97"/>
+      <c r="D240" s="95"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
@@ -19345,8 +19378,8 @@
       <c r="B241" s="2">
         <v>6</v>
       </c>
-      <c r="C241" s="101"/>
-      <c r="D241" s="99"/>
+      <c r="C241" s="97"/>
+      <c r="D241" s="95"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
@@ -19355,8 +19388,8 @@
       <c r="B242" s="2">
         <v>6</v>
       </c>
-      <c r="C242" s="101"/>
-      <c r="D242" s="99"/>
+      <c r="C242" s="97"/>
+      <c r="D242" s="95"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
@@ -19365,8 +19398,8 @@
       <c r="B243" s="2">
         <v>4</v>
       </c>
-      <c r="C243" s="101"/>
-      <c r="D243" s="99"/>
+      <c r="C243" s="97"/>
+      <c r="D243" s="95"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
@@ -19375,8 +19408,8 @@
       <c r="B244" s="2">
         <v>6</v>
       </c>
-      <c r="C244" s="74"/>
-      <c r="D244" s="99"/>
+      <c r="C244" s="85"/>
+      <c r="D244" s="95"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
@@ -19385,11 +19418,11 @@
       <c r="B245" s="2">
         <v>4</v>
       </c>
-      <c r="C245" s="100">
+      <c r="C245" s="96">
         <f>AVERAGE(B245:B274)</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="D245" s="99"/>
+      <c r="D245" s="95"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
@@ -19398,8 +19431,8 @@
       <c r="B246" s="2">
         <v>4</v>
       </c>
-      <c r="C246" s="101"/>
-      <c r="D246" s="99"/>
+      <c r="C246" s="97"/>
+      <c r="D246" s="95"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
@@ -19408,8 +19441,8 @@
       <c r="B247" s="2">
         <v>6</v>
       </c>
-      <c r="C247" s="101"/>
-      <c r="D247" s="99"/>
+      <c r="C247" s="97"/>
+      <c r="D247" s="95"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
@@ -19418,8 +19451,8 @@
       <c r="B248" s="2">
         <v>4</v>
       </c>
-      <c r="C248" s="101"/>
-      <c r="D248" s="99"/>
+      <c r="C248" s="97"/>
+      <c r="D248" s="95"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
@@ -19428,8 +19461,8 @@
       <c r="B249" s="2">
         <v>6</v>
       </c>
-      <c r="C249" s="101"/>
-      <c r="D249" s="99"/>
+      <c r="C249" s="97"/>
+      <c r="D249" s="95"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
@@ -19438,8 +19471,8 @@
       <c r="B250" s="2">
         <v>4</v>
       </c>
-      <c r="C250" s="101"/>
-      <c r="D250" s="99"/>
+      <c r="C250" s="97"/>
+      <c r="D250" s="95"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
@@ -19448,8 +19481,8 @@
       <c r="B251" s="2">
         <v>4</v>
       </c>
-      <c r="C251" s="101"/>
-      <c r="D251" s="99"/>
+      <c r="C251" s="97"/>
+      <c r="D251" s="95"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
@@ -19458,8 +19491,8 @@
       <c r="B252" s="2">
         <v>6</v>
       </c>
-      <c r="C252" s="101"/>
-      <c r="D252" s="99"/>
+      <c r="C252" s="97"/>
+      <c r="D252" s="95"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
@@ -19468,8 +19501,8 @@
       <c r="B253" s="2">
         <v>4</v>
       </c>
-      <c r="C253" s="101"/>
-      <c r="D253" s="99"/>
+      <c r="C253" s="97"/>
+      <c r="D253" s="95"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
@@ -19478,8 +19511,8 @@
       <c r="B254" s="2">
         <v>4</v>
       </c>
-      <c r="C254" s="101"/>
-      <c r="D254" s="99"/>
+      <c r="C254" s="97"/>
+      <c r="D254" s="95"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
@@ -19488,8 +19521,8 @@
       <c r="B255" s="2">
         <v>6</v>
       </c>
-      <c r="C255" s="101"/>
-      <c r="D255" s="99"/>
+      <c r="C255" s="97"/>
+      <c r="D255" s="95"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
@@ -19498,8 +19531,8 @@
       <c r="B256" s="2">
         <v>6</v>
       </c>
-      <c r="C256" s="101"/>
-      <c r="D256" s="99"/>
+      <c r="C256" s="97"/>
+      <c r="D256" s="95"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
@@ -19508,8 +19541,8 @@
       <c r="B257" s="2">
         <v>10</v>
       </c>
-      <c r="C257" s="101"/>
-      <c r="D257" s="99"/>
+      <c r="C257" s="97"/>
+      <c r="D257" s="95"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
@@ -19518,8 +19551,8 @@
       <c r="B258" s="2">
         <v>8</v>
       </c>
-      <c r="C258" s="101"/>
-      <c r="D258" s="99"/>
+      <c r="C258" s="97"/>
+      <c r="D258" s="95"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
@@ -19528,8 +19561,8 @@
       <c r="B259" s="2">
         <v>6</v>
       </c>
-      <c r="C259" s="101"/>
-      <c r="D259" s="99"/>
+      <c r="C259" s="97"/>
+      <c r="D259" s="95"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
@@ -19538,8 +19571,8 @@
       <c r="B260" s="2">
         <v>6</v>
       </c>
-      <c r="C260" s="101"/>
-      <c r="D260" s="99"/>
+      <c r="C260" s="97"/>
+      <c r="D260" s="95"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
@@ -19548,8 +19581,8 @@
       <c r="B261" s="2">
         <v>4</v>
       </c>
-      <c r="C261" s="101"/>
-      <c r="D261" s="99"/>
+      <c r="C261" s="97"/>
+      <c r="D261" s="95"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
@@ -19558,8 +19591,8 @@
       <c r="B262" s="2">
         <v>2</v>
       </c>
-      <c r="C262" s="101"/>
-      <c r="D262" s="99"/>
+      <c r="C262" s="97"/>
+      <c r="D262" s="95"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
@@ -19568,8 +19601,8 @@
       <c r="B263" s="2">
         <v>4</v>
       </c>
-      <c r="C263" s="101"/>
-      <c r="D263" s="99"/>
+      <c r="C263" s="97"/>
+      <c r="D263" s="95"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
@@ -19578,8 +19611,8 @@
       <c r="B264" s="2">
         <v>4</v>
       </c>
-      <c r="C264" s="101"/>
-      <c r="D264" s="99"/>
+      <c r="C264" s="97"/>
+      <c r="D264" s="95"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
@@ -19588,8 +19621,8 @@
       <c r="B265" s="2">
         <v>6</v>
       </c>
-      <c r="C265" s="101"/>
-      <c r="D265" s="99"/>
+      <c r="C265" s="97"/>
+      <c r="D265" s="95"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
@@ -19598,8 +19631,8 @@
       <c r="B266" s="2">
         <v>6</v>
       </c>
-      <c r="C266" s="101"/>
-      <c r="D266" s="99"/>
+      <c r="C266" s="97"/>
+      <c r="D266" s="95"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
@@ -19608,8 +19641,8 @@
       <c r="B267" s="2">
         <v>4</v>
       </c>
-      <c r="C267" s="101"/>
-      <c r="D267" s="99"/>
+      <c r="C267" s="97"/>
+      <c r="D267" s="95"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
@@ -19618,8 +19651,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="101"/>
-      <c r="D268" s="99"/>
+      <c r="C268" s="97"/>
+      <c r="D268" s="95"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
@@ -19628,8 +19661,8 @@
       <c r="B269" s="2">
         <v>6</v>
       </c>
-      <c r="C269" s="101"/>
-      <c r="D269" s="99"/>
+      <c r="C269" s="97"/>
+      <c r="D269" s="95"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
@@ -19638,8 +19671,8 @@
       <c r="B270" s="2">
         <v>8</v>
       </c>
-      <c r="C270" s="101"/>
-      <c r="D270" s="99"/>
+      <c r="C270" s="97"/>
+      <c r="D270" s="95"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
@@ -19648,8 +19681,8 @@
       <c r="B271" s="2">
         <v>4</v>
       </c>
-      <c r="C271" s="101"/>
-      <c r="D271" s="99"/>
+      <c r="C271" s="97"/>
+      <c r="D271" s="95"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
@@ -19658,8 +19691,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="101"/>
-      <c r="D272" s="99"/>
+      <c r="C272" s="97"/>
+      <c r="D272" s="95"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
@@ -19668,8 +19701,8 @@
       <c r="B273" s="2">
         <v>8</v>
       </c>
-      <c r="C273" s="101"/>
-      <c r="D273" s="99"/>
+      <c r="C273" s="97"/>
+      <c r="D273" s="95"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
@@ -19678,8 +19711,8 @@
       <c r="B274" s="2">
         <v>6</v>
       </c>
-      <c r="C274" s="74"/>
-      <c r="D274" s="99"/>
+      <c r="C274" s="85"/>
+      <c r="D274" s="95"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
@@ -19688,11 +19721,11 @@
       <c r="B275" s="2">
         <v>4</v>
       </c>
-      <c r="C275" s="100">
+      <c r="C275" s="96">
         <f>AVERAGE(B275:B305)</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="D275" s="99"/>
+      <c r="D275" s="95"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
@@ -19701,8 +19734,8 @@
       <c r="B276" s="2">
         <v>6</v>
       </c>
-      <c r="C276" s="101"/>
-      <c r="D276" s="99"/>
+      <c r="C276" s="97"/>
+      <c r="D276" s="95"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
@@ -19711,8 +19744,8 @@
       <c r="B277" s="2">
         <v>6</v>
       </c>
-      <c r="C277" s="101"/>
-      <c r="D277" s="99"/>
+      <c r="C277" s="97"/>
+      <c r="D277" s="95"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
@@ -19721,8 +19754,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="101"/>
-      <c r="D278" s="99"/>
+      <c r="C278" s="97"/>
+      <c r="D278" s="95"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
@@ -19731,8 +19764,8 @@
       <c r="B279" s="2">
         <v>2</v>
       </c>
-      <c r="C279" s="101"/>
-      <c r="D279" s="99"/>
+      <c r="C279" s="97"/>
+      <c r="D279" s="95"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
@@ -19741,8 +19774,8 @@
       <c r="B280" s="2">
         <v>4</v>
       </c>
-      <c r="C280" s="101"/>
-      <c r="D280" s="99"/>
+      <c r="C280" s="97"/>
+      <c r="D280" s="95"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
@@ -19751,8 +19784,8 @@
       <c r="B281" s="2">
         <v>0</v>
       </c>
-      <c r="C281" s="101"/>
-      <c r="D281" s="99"/>
+      <c r="C281" s="97"/>
+      <c r="D281" s="95"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
@@ -19761,8 +19794,8 @@
       <c r="B282" s="2">
         <v>2</v>
       </c>
-      <c r="C282" s="101"/>
-      <c r="D282" s="99"/>
+      <c r="C282" s="97"/>
+      <c r="D282" s="95"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
@@ -19771,8 +19804,8 @@
       <c r="B283" s="2">
         <v>6</v>
       </c>
-      <c r="C283" s="101"/>
-      <c r="D283" s="99"/>
+      <c r="C283" s="97"/>
+      <c r="D283" s="95"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
@@ -19781,8 +19814,8 @@
       <c r="B284" s="2">
         <v>6</v>
       </c>
-      <c r="C284" s="101"/>
-      <c r="D284" s="99"/>
+      <c r="C284" s="97"/>
+      <c r="D284" s="95"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
@@ -19791,8 +19824,8 @@
       <c r="B285" s="2">
         <v>8</v>
       </c>
-      <c r="C285" s="101"/>
-      <c r="D285" s="99"/>
+      <c r="C285" s="97"/>
+      <c r="D285" s="95"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
@@ -19801,8 +19834,8 @@
       <c r="B286" s="2">
         <v>8</v>
       </c>
-      <c r="C286" s="101"/>
-      <c r="D286" s="99"/>
+      <c r="C286" s="97"/>
+      <c r="D286" s="95"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
@@ -19811,8 +19844,8 @@
       <c r="B287" s="2">
         <v>6</v>
       </c>
-      <c r="C287" s="101"/>
-      <c r="D287" s="99"/>
+      <c r="C287" s="97"/>
+      <c r="D287" s="95"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
@@ -19821,8 +19854,8 @@
       <c r="B288" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="101"/>
-      <c r="D288" s="99"/>
+      <c r="C288" s="97"/>
+      <c r="D288" s="95"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
@@ -19831,8 +19864,8 @@
       <c r="B289" s="2">
         <v>6</v>
       </c>
-      <c r="C289" s="101"/>
-      <c r="D289" s="99"/>
+      <c r="C289" s="97"/>
+      <c r="D289" s="95"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
@@ -19841,8 +19874,8 @@
       <c r="B290" s="2">
         <v>4</v>
       </c>
-      <c r="C290" s="101"/>
-      <c r="D290" s="99"/>
+      <c r="C290" s="97"/>
+      <c r="D290" s="95"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
@@ -19851,8 +19884,8 @@
       <c r="B291" s="2">
         <v>6</v>
       </c>
-      <c r="C291" s="101"/>
-      <c r="D291" s="99"/>
+      <c r="C291" s="97"/>
+      <c r="D291" s="95"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
@@ -19861,8 +19894,8 @@
       <c r="B292" s="2">
         <v>8</v>
       </c>
-      <c r="C292" s="101"/>
-      <c r="D292" s="99"/>
+      <c r="C292" s="97"/>
+      <c r="D292" s="95"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
@@ -19871,8 +19904,8 @@
       <c r="B293" s="2">
         <v>6</v>
       </c>
-      <c r="C293" s="101"/>
-      <c r="D293" s="99"/>
+      <c r="C293" s="97"/>
+      <c r="D293" s="95"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
@@ -19881,8 +19914,8 @@
       <c r="B294" s="2">
         <v>6</v>
       </c>
-      <c r="C294" s="101"/>
-      <c r="D294" s="99"/>
+      <c r="C294" s="97"/>
+      <c r="D294" s="95"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
@@ -19891,8 +19924,8 @@
       <c r="B295" s="2">
         <v>6</v>
       </c>
-      <c r="C295" s="101"/>
-      <c r="D295" s="99"/>
+      <c r="C295" s="97"/>
+      <c r="D295" s="95"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
@@ -19901,8 +19934,8 @@
       <c r="B296" s="2">
         <v>6</v>
       </c>
-      <c r="C296" s="101"/>
-      <c r="D296" s="99"/>
+      <c r="C296" s="97"/>
+      <c r="D296" s="95"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
@@ -19911,8 +19944,8 @@
       <c r="B297" s="2">
         <v>4</v>
       </c>
-      <c r="C297" s="101"/>
-      <c r="D297" s="99"/>
+      <c r="C297" s="97"/>
+      <c r="D297" s="95"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
@@ -19921,8 +19954,8 @@
       <c r="B298" s="2">
         <v>4</v>
       </c>
-      <c r="C298" s="101"/>
-      <c r="D298" s="99"/>
+      <c r="C298" s="97"/>
+      <c r="D298" s="95"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
@@ -19931,8 +19964,8 @@
       <c r="B299" s="2">
         <v>6</v>
       </c>
-      <c r="C299" s="101"/>
-      <c r="D299" s="99"/>
+      <c r="C299" s="97"/>
+      <c r="D299" s="95"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
@@ -19941,8 +19974,8 @@
       <c r="B300" s="2">
         <v>6</v>
       </c>
-      <c r="C300" s="101"/>
-      <c r="D300" s="99"/>
+      <c r="C300" s="97"/>
+      <c r="D300" s="95"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
@@ -19951,8 +19984,8 @@
       <c r="B301" s="2">
         <v>4</v>
       </c>
-      <c r="C301" s="101"/>
-      <c r="D301" s="99"/>
+      <c r="C301" s="97"/>
+      <c r="D301" s="95"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
@@ -19961,8 +19994,8 @@
       <c r="B302" s="2">
         <v>6</v>
       </c>
-      <c r="C302" s="101"/>
-      <c r="D302" s="99"/>
+      <c r="C302" s="97"/>
+      <c r="D302" s="95"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
@@ -19971,8 +20004,8 @@
       <c r="B303" s="2">
         <v>8</v>
       </c>
-      <c r="C303" s="101"/>
-      <c r="D303" s="99"/>
+      <c r="C303" s="97"/>
+      <c r="D303" s="95"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
@@ -19981,8 +20014,8 @@
       <c r="B304" s="2">
         <v>8</v>
       </c>
-      <c r="C304" s="101"/>
-      <c r="D304" s="99"/>
+      <c r="C304" s="97"/>
+      <c r="D304" s="95"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
@@ -19991,8 +20024,8 @@
       <c r="B305" s="2">
         <v>10</v>
       </c>
-      <c r="C305" s="74"/>
-      <c r="D305" s="99"/>
+      <c r="C305" s="85"/>
+      <c r="D305" s="95"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
@@ -20001,11 +20034,11 @@
       <c r="B306" s="2">
         <v>6</v>
       </c>
-      <c r="C306" s="100">
+      <c r="C306" s="96">
         <f>AVERAGE(B306:B335)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="D306" s="99"/>
+      <c r="D306" s="95"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
@@ -20014,8 +20047,8 @@
       <c r="B307" s="2">
         <v>2</v>
       </c>
-      <c r="C307" s="101"/>
-      <c r="D307" s="99"/>
+      <c r="C307" s="97"/>
+      <c r="D307" s="95"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
@@ -20024,8 +20057,8 @@
       <c r="B308" s="2">
         <v>0</v>
       </c>
-      <c r="C308" s="101"/>
-      <c r="D308" s="99"/>
+      <c r="C308" s="97"/>
+      <c r="D308" s="95"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
@@ -20034,8 +20067,8 @@
       <c r="B309" s="2">
         <v>4</v>
       </c>
-      <c r="C309" s="101"/>
-      <c r="D309" s="99"/>
+      <c r="C309" s="97"/>
+      <c r="D309" s="95"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
@@ -20044,8 +20077,8 @@
       <c r="B310" s="2">
         <v>6</v>
       </c>
-      <c r="C310" s="101"/>
-      <c r="D310" s="99"/>
+      <c r="C310" s="97"/>
+      <c r="D310" s="95"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
@@ -20054,8 +20087,8 @@
       <c r="B311" s="2">
         <v>6</v>
       </c>
-      <c r="C311" s="101"/>
-      <c r="D311" s="99"/>
+      <c r="C311" s="97"/>
+      <c r="D311" s="95"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
@@ -20064,8 +20097,8 @@
       <c r="B312" s="2">
         <v>6</v>
       </c>
-      <c r="C312" s="101"/>
-      <c r="D312" s="99"/>
+      <c r="C312" s="97"/>
+      <c r="D312" s="95"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
@@ -20074,8 +20107,8 @@
       <c r="B313" s="2">
         <v>8</v>
       </c>
-      <c r="C313" s="101"/>
-      <c r="D313" s="99"/>
+      <c r="C313" s="97"/>
+      <c r="D313" s="95"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
@@ -20084,8 +20117,8 @@
       <c r="B314" s="2">
         <v>6</v>
       </c>
-      <c r="C314" s="101"/>
-      <c r="D314" s="99"/>
+      <c r="C314" s="97"/>
+      <c r="D314" s="95"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
@@ -20094,8 +20127,8 @@
       <c r="B315" s="2">
         <v>8</v>
       </c>
-      <c r="C315" s="101"/>
-      <c r="D315" s="99"/>
+      <c r="C315" s="97"/>
+      <c r="D315" s="95"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
@@ -20104,8 +20137,8 @@
       <c r="B316" s="2">
         <v>8</v>
       </c>
-      <c r="C316" s="101"/>
-      <c r="D316" s="99"/>
+      <c r="C316" s="97"/>
+      <c r="D316" s="95"/>
       <c r="M316" s="3"/>
       <c r="O316" s="3"/>
     </row>
@@ -20116,8 +20149,8 @@
       <c r="B317" s="2">
         <v>2</v>
       </c>
-      <c r="C317" s="101"/>
-      <c r="D317" s="99"/>
+      <c r="C317" s="97"/>
+      <c r="D317" s="95"/>
       <c r="M317" s="3"/>
       <c r="O317" s="3"/>
     </row>
@@ -20128,8 +20161,8 @@
       <c r="B318" s="2">
         <v>6</v>
       </c>
-      <c r="C318" s="101"/>
-      <c r="D318" s="99"/>
+      <c r="C318" s="97"/>
+      <c r="D318" s="95"/>
       <c r="M318" s="3"/>
       <c r="O318" s="3"/>
     </row>
@@ -20140,8 +20173,8 @@
       <c r="B319" s="2">
         <v>8</v>
       </c>
-      <c r="C319" s="101"/>
-      <c r="D319" s="99"/>
+      <c r="C319" s="97"/>
+      <c r="D319" s="95"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
@@ -20150,8 +20183,8 @@
       <c r="B320" s="2">
         <v>8</v>
       </c>
-      <c r="C320" s="101"/>
-      <c r="D320" s="99"/>
+      <c r="C320" s="97"/>
+      <c r="D320" s="95"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
@@ -20160,8 +20193,8 @@
       <c r="B321" s="2">
         <v>6</v>
       </c>
-      <c r="C321" s="101"/>
-      <c r="D321" s="99"/>
+      <c r="C321" s="97"/>
+      <c r="D321" s="95"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
@@ -20170,8 +20203,8 @@
       <c r="B322" s="2">
         <v>6</v>
       </c>
-      <c r="C322" s="101"/>
-      <c r="D322" s="99"/>
+      <c r="C322" s="97"/>
+      <c r="D322" s="95"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
@@ -20180,8 +20213,8 @@
       <c r="B323" s="2">
         <v>4</v>
       </c>
-      <c r="C323" s="101"/>
-      <c r="D323" s="99"/>
+      <c r="C323" s="97"/>
+      <c r="D323" s="95"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
@@ -20190,8 +20223,8 @@
       <c r="B324" s="2">
         <v>8</v>
       </c>
-      <c r="C324" s="101"/>
-      <c r="D324" s="99"/>
+      <c r="C324" s="97"/>
+      <c r="D324" s="95"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
@@ -20200,8 +20233,8 @@
       <c r="B325" s="2">
         <v>6</v>
       </c>
-      <c r="C325" s="101"/>
-      <c r="D325" s="99"/>
+      <c r="C325" s="97"/>
+      <c r="D325" s="95"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
@@ -20210,8 +20243,8 @@
       <c r="B326" s="2">
         <v>4</v>
       </c>
-      <c r="C326" s="101"/>
-      <c r="D326" s="99"/>
+      <c r="C326" s="97"/>
+      <c r="D326" s="95"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
@@ -20220,8 +20253,8 @@
       <c r="B327" s="2">
         <v>4</v>
       </c>
-      <c r="C327" s="101"/>
-      <c r="D327" s="99"/>
+      <c r="C327" s="97"/>
+      <c r="D327" s="95"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
@@ -20230,8 +20263,8 @@
       <c r="B328" s="2">
         <v>6</v>
       </c>
-      <c r="C328" s="101"/>
-      <c r="D328" s="99"/>
+      <c r="C328" s="97"/>
+      <c r="D328" s="95"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
@@ -20240,8 +20273,8 @@
       <c r="B329" s="2">
         <v>8</v>
       </c>
-      <c r="C329" s="101"/>
-      <c r="D329" s="99"/>
+      <c r="C329" s="97"/>
+      <c r="D329" s="95"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
@@ -20250,8 +20283,8 @@
       <c r="B330" s="2">
         <v>4</v>
       </c>
-      <c r="C330" s="101"/>
-      <c r="D330" s="99"/>
+      <c r="C330" s="97"/>
+      <c r="D330" s="95"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
@@ -20260,8 +20293,8 @@
       <c r="B331" s="2">
         <v>6</v>
       </c>
-      <c r="C331" s="101"/>
-      <c r="D331" s="99"/>
+      <c r="C331" s="97"/>
+      <c r="D331" s="95"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
@@ -20270,8 +20303,8 @@
       <c r="B332" s="2">
         <v>6</v>
       </c>
-      <c r="C332" s="101"/>
-      <c r="D332" s="99"/>
+      <c r="C332" s="97"/>
+      <c r="D332" s="95"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
@@ -20280,8 +20313,8 @@
       <c r="B333" s="2">
         <v>2</v>
       </c>
-      <c r="C333" s="101"/>
-      <c r="D333" s="99"/>
+      <c r="C333" s="97"/>
+      <c r="D333" s="95"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
@@ -20290,8 +20323,8 @@
       <c r="B334" s="2">
         <v>6</v>
       </c>
-      <c r="C334" s="101"/>
-      <c r="D334" s="99"/>
+      <c r="C334" s="97"/>
+      <c r="D334" s="95"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
@@ -20300,8 +20333,8 @@
       <c r="B335" s="2">
         <v>6</v>
       </c>
-      <c r="C335" s="74"/>
-      <c r="D335" s="99"/>
+      <c r="C335" s="85"/>
+      <c r="D335" s="95"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
@@ -20310,11 +20343,11 @@
       <c r="B336" s="2">
         <v>6</v>
       </c>
-      <c r="C336" s="100">
+      <c r="C336" s="96">
         <f>AVERAGE(B336:B366)</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="D336" s="99"/>
+      <c r="D336" s="95"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
@@ -20323,8 +20356,8 @@
       <c r="B337" s="2">
         <v>4</v>
       </c>
-      <c r="C337" s="101"/>
-      <c r="D337" s="99"/>
+      <c r="C337" s="97"/>
+      <c r="D337" s="95"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
@@ -20333,8 +20366,8 @@
       <c r="B338" s="2">
         <v>4</v>
       </c>
-      <c r="C338" s="101"/>
-      <c r="D338" s="99"/>
+      <c r="C338" s="97"/>
+      <c r="D338" s="95"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
@@ -20343,8 +20376,8 @@
       <c r="B339" s="2">
         <v>6</v>
       </c>
-      <c r="C339" s="101"/>
-      <c r="D339" s="99"/>
+      <c r="C339" s="97"/>
+      <c r="D339" s="95"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
@@ -20353,8 +20386,8 @@
       <c r="B340" s="2">
         <v>6</v>
       </c>
-      <c r="C340" s="101"/>
-      <c r="D340" s="99"/>
+      <c r="C340" s="97"/>
+      <c r="D340" s="95"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
@@ -20363,8 +20396,8 @@
       <c r="B341" s="2">
         <v>6</v>
       </c>
-      <c r="C341" s="101"/>
-      <c r="D341" s="99"/>
+      <c r="C341" s="97"/>
+      <c r="D341" s="95"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
@@ -20373,8 +20406,8 @@
       <c r="B342" s="2">
         <v>6</v>
       </c>
-      <c r="C342" s="101"/>
-      <c r="D342" s="99"/>
+      <c r="C342" s="97"/>
+      <c r="D342" s="95"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
@@ -20383,8 +20416,8 @@
       <c r="B343" s="2">
         <v>4</v>
       </c>
-      <c r="C343" s="101"/>
-      <c r="D343" s="99"/>
+      <c r="C343" s="97"/>
+      <c r="D343" s="95"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
@@ -20393,8 +20426,8 @@
       <c r="B344" s="2">
         <v>4</v>
       </c>
-      <c r="C344" s="101"/>
-      <c r="D344" s="99"/>
+      <c r="C344" s="97"/>
+      <c r="D344" s="95"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
@@ -20403,8 +20436,8 @@
       <c r="B345" s="2">
         <v>4</v>
       </c>
-      <c r="C345" s="101"/>
-      <c r="D345" s="99"/>
+      <c r="C345" s="97"/>
+      <c r="D345" s="95"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
@@ -20413,8 +20446,8 @@
       <c r="B346" s="2">
         <v>4</v>
       </c>
-      <c r="C346" s="101"/>
-      <c r="D346" s="99"/>
+      <c r="C346" s="97"/>
+      <c r="D346" s="95"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
@@ -20423,8 +20456,8 @@
       <c r="B347" s="2">
         <v>6</v>
       </c>
-      <c r="C347" s="101"/>
-      <c r="D347" s="99"/>
+      <c r="C347" s="97"/>
+      <c r="D347" s="95"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
@@ -20433,8 +20466,8 @@
       <c r="B348" s="2">
         <v>4</v>
       </c>
-      <c r="C348" s="101"/>
-      <c r="D348" s="99"/>
+      <c r="C348" s="97"/>
+      <c r="D348" s="95"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
@@ -20443,8 +20476,8 @@
       <c r="B349" s="2">
         <v>6</v>
       </c>
-      <c r="C349" s="101"/>
-      <c r="D349" s="99"/>
+      <c r="C349" s="97"/>
+      <c r="D349" s="95"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
@@ -20453,8 +20486,8 @@
       <c r="B350" s="2">
         <v>4</v>
       </c>
-      <c r="C350" s="101"/>
-      <c r="D350" s="99"/>
+      <c r="C350" s="97"/>
+      <c r="D350" s="95"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
@@ -20463,8 +20496,8 @@
       <c r="B351" s="2">
         <v>4</v>
       </c>
-      <c r="C351" s="101"/>
-      <c r="D351" s="99"/>
+      <c r="C351" s="97"/>
+      <c r="D351" s="95"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
@@ -20473,8 +20506,8 @@
       <c r="B352" s="2">
         <v>2</v>
       </c>
-      <c r="C352" s="101"/>
-      <c r="D352" s="99"/>
+      <c r="C352" s="97"/>
+      <c r="D352" s="95"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
@@ -20483,8 +20516,8 @@
       <c r="B353" s="2">
         <v>4</v>
       </c>
-      <c r="C353" s="101"/>
-      <c r="D353" s="99"/>
+      <c r="C353" s="97"/>
+      <c r="D353" s="95"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
@@ -20493,8 +20526,8 @@
       <c r="B354" s="2">
         <v>2</v>
       </c>
-      <c r="C354" s="101"/>
-      <c r="D354" s="99"/>
+      <c r="C354" s="97"/>
+      <c r="D354" s="95"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
@@ -20503,8 +20536,8 @@
       <c r="B355" s="2">
         <v>4</v>
       </c>
-      <c r="C355" s="101"/>
-      <c r="D355" s="99"/>
+      <c r="C355" s="97"/>
+      <c r="D355" s="95"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
@@ -20513,8 +20546,8 @@
       <c r="B356" s="2">
         <v>4</v>
       </c>
-      <c r="C356" s="101"/>
-      <c r="D356" s="99"/>
+      <c r="C356" s="97"/>
+      <c r="D356" s="95"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
@@ -20523,8 +20556,8 @@
       <c r="B357" s="2">
         <v>4</v>
       </c>
-      <c r="C357" s="101"/>
-      <c r="D357" s="99"/>
+      <c r="C357" s="97"/>
+      <c r="D357" s="95"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
@@ -20533,8 +20566,8 @@
       <c r="B358" s="2">
         <v>4</v>
       </c>
-      <c r="C358" s="101"/>
-      <c r="D358" s="99"/>
+      <c r="C358" s="97"/>
+      <c r="D358" s="95"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
@@ -20543,8 +20576,8 @@
       <c r="B359" s="2">
         <v>10</v>
       </c>
-      <c r="C359" s="101"/>
-      <c r="D359" s="99"/>
+      <c r="C359" s="97"/>
+      <c r="D359" s="95"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
@@ -20553,8 +20586,8 @@
       <c r="B360" s="2">
         <v>6</v>
       </c>
-      <c r="C360" s="101"/>
-      <c r="D360" s="99"/>
+      <c r="C360" s="97"/>
+      <c r="D360" s="95"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
@@ -20563,8 +20596,8 @@
       <c r="B361" s="2">
         <v>4</v>
       </c>
-      <c r="C361" s="101"/>
-      <c r="D361" s="99"/>
+      <c r="C361" s="97"/>
+      <c r="D361" s="95"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
@@ -20573,8 +20606,8 @@
       <c r="B362" s="2">
         <v>4</v>
       </c>
-      <c r="C362" s="101"/>
-      <c r="D362" s="99"/>
+      <c r="C362" s="97"/>
+      <c r="D362" s="95"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
@@ -20583,8 +20616,8 @@
       <c r="B363" s="2">
         <v>4</v>
       </c>
-      <c r="C363" s="101"/>
-      <c r="D363" s="99"/>
+      <c r="C363" s="97"/>
+      <c r="D363" s="95"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
@@ -20593,8 +20626,8 @@
       <c r="B364" s="2">
         <v>6</v>
       </c>
-      <c r="C364" s="101"/>
-      <c r="D364" s="99"/>
+      <c r="C364" s="97"/>
+      <c r="D364" s="95"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
@@ -20603,8 +20636,8 @@
       <c r="B365" s="2">
         <v>4</v>
       </c>
-      <c r="C365" s="101"/>
-      <c r="D365" s="99"/>
+      <c r="C365" s="97"/>
+      <c r="D365" s="95"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
@@ -20613,11 +20646,20 @@
       <c r="B366" s="2">
         <v>6</v>
       </c>
-      <c r="C366" s="74"/>
-      <c r="D366" s="99"/>
+      <c r="C366" s="85"/>
+      <c r="D366" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C1:C31"/>
+    <mergeCell ref="C32:C60"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L19:L30"/>
     <mergeCell ref="C61:C91"/>
     <mergeCell ref="D1:D366"/>
     <mergeCell ref="C92:C121"/>
@@ -20629,15 +20671,6 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C1:C31"/>
-    <mergeCell ref="C32:C60"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="L19:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
@@ -20711,11 +20744,11 @@
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
       <c r="D1" s="102"/>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="31" t="s">

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E082F-4F99-4F7C-9912-9E7DC28B848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD642F24-6B31-46CF-85F1-74539F81738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,6 +1546,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1579,30 +1603,6 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1611,15 +1611,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1634,6 +1625,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3090,6 +3090,12 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3734,7 +3740,7 @@
                   <c:v>4.7571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.361538461538462</c:v>
+                  <c:v>5.1800000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,7 +4054,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
@@ -15442,8 +15448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6CF7-CA58-448E-9A43-748C25428E75}">
   <dimension ref="A1:BA367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -15492,11 +15498,11 @@
       <c r="G1" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
       <c r="AK1" t="s">
         <v>214</v>
       </c>
@@ -15514,13 +15520,13 @@
       <c r="B2" s="76">
         <v>2.5</v>
       </c>
-      <c r="C2" s="97">
+      <c r="C2" s="86">
         <f>AVERAGE(B2:B32)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="92">
+      <c r="D2" s="81">
         <f>AVERAGE(C2:C366)</f>
-        <v>5.0395604395604394</v>
+        <v>4.9790476190476189</v>
       </c>
       <c r="E2" s="62">
         <v>1</v>
@@ -15528,9 +15534,9 @@
       <c r="F2" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
       <c r="AK2" s="75">
         <v>45658</v>
       </c>
@@ -15604,8 +15610,8 @@
       <c r="B3" s="2">
         <v>2.8</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="93"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="62">
         <v>1</v>
       </c>
@@ -15686,8 +15692,8 @@
       <c r="B4" s="2">
         <v>4.8</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="62">
         <v>1</v>
       </c>
@@ -15802,8 +15808,8 @@
       <c r="B5" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="62">
         <v>1</v>
       </c>
@@ -15828,9 +15834,9 @@
         <f>C2</f>
         <v>5</v>
       </c>
-      <c r="N5" s="85">
+      <c r="N5" s="93">
         <f>AVERAGE(M5:M16)</f>
-        <v>5.0395604395604394</v>
+        <v>4.9790476190476189</v>
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -15930,8 +15936,8 @@
       <c r="B6" s="2">
         <v>6.2</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="93"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="62">
         <v>1</v>
       </c>
@@ -15955,7 +15961,7 @@
         <f>C33</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="N6" s="86"/>
+      <c r="N6" s="94"/>
       <c r="O6" s="61">
         <f>COUNTIFS(B33:B60,"&gt;=10")</f>
         <v>0</v>
@@ -16054,8 +16060,8 @@
       <c r="B7" s="2">
         <v>6.1</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="93"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="62">
         <v>1</v>
       </c>
@@ -16078,9 +16084,9 @@
       </c>
       <c r="M7" s="32">
         <f>C61</f>
-        <v>5.361538461538462</v>
-      </c>
-      <c r="N7" s="86"/>
+        <v>5.1800000000000006</v>
+      </c>
+      <c r="N7" s="94"/>
       <c r="O7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=10")</f>
         <v>0</v>
@@ -16095,7 +16101,7 @@
       </c>
       <c r="R7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=4", B61:B91,"&lt;6")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=2", B61:B91,"&lt;4")</f>
@@ -16179,8 +16185,8 @@
       <c r="B8" s="2">
         <v>3.5</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="93"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="62">
         <v>1</v>
       </c>
@@ -16195,13 +16201,13 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L8" s="60" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="32"/>
-      <c r="N8" s="86"/>
+      <c r="N8" s="94"/>
       <c r="O8" s="61"/>
       <c r="P8" s="61"/>
       <c r="Q8" s="61"/>
@@ -16282,8 +16288,8 @@
       <c r="B9" s="2">
         <v>1.2</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="93"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="62">
         <v>1</v>
       </c>
@@ -16307,7 +16313,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="32"/>
-      <c r="N9" s="86"/>
+      <c r="N9" s="94"/>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="61"/>
@@ -16388,8 +16394,8 @@
       <c r="B10" s="2">
         <v>5.6</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="93"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="62">
         <v>1</v>
       </c>
@@ -16410,7 +16416,7 @@
         <v>13</v>
       </c>
       <c r="M10" s="32"/>
-      <c r="N10" s="86"/>
+      <c r="N10" s="94"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
       <c r="Q10" s="61"/>
@@ -16491,8 +16497,8 @@
       <c r="B11" s="2">
         <v>4.3</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="93"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="62">
         <v>1</v>
       </c>
@@ -16500,19 +16506,19 @@
         <v>180</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="81" t="s">
+      <c r="H11" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="82"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="32"/>
-      <c r="N11" s="86"/>
+      <c r="N11" s="94"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="61"/>
@@ -16593,8 +16599,8 @@
       <c r="B12" s="2">
         <v>5.4</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="93"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="62">
         <v>1</v>
       </c>
@@ -16605,7 +16611,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="86"/>
+      <c r="N12" s="94"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
@@ -16686,8 +16692,8 @@
       <c r="B13" s="2">
         <v>7.2</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="93"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="62">
         <v>1</v>
       </c>
@@ -16695,19 +16701,19 @@
         <v>180</v>
       </c>
       <c r="G13" s="78"/>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84">
+      <c r="I13" s="91"/>
+      <c r="J13" s="92">
         <f>J11/3.65</f>
-        <v>19.726027397260275</v>
+        <v>20.273972602739725</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="32"/>
-      <c r="N13" s="86"/>
+      <c r="N13" s="94"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
       <c r="Q13" s="61"/>
@@ -16804,22 +16810,22 @@
       <c r="B14" s="2">
         <v>3.9</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="93"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="62">
         <v>0.8</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
       <c r="L14" s="60" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="32"/>
-      <c r="N14" s="86"/>
+      <c r="N14" s="94"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
       <c r="Q14" s="61"/>
@@ -16921,8 +16927,8 @@
       <c r="B15" s="2">
         <v>1.5</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="62">
         <v>1</v>
       </c>
@@ -16936,7 +16942,7 @@
         <v>18</v>
       </c>
       <c r="M15" s="32"/>
-      <c r="N15" s="86"/>
+      <c r="N15" s="94"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="61"/>
@@ -17038,8 +17044,8 @@
       <c r="B16" s="2">
         <v>5.2</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="62">
         <v>1</v>
       </c>
@@ -17050,7 +17056,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="32"/>
-      <c r="N16" s="87"/>
+      <c r="N16" s="95"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="61"/>
@@ -17063,7 +17069,7 @@
       </c>
       <c r="AE16" s="31">
         <f>AVERAGE(E61:E91)*100</f>
-        <v>83.870967741935488</v>
+        <v>77.41935483870968</v>
       </c>
       <c r="AG16" t="str">
         <f>TRIM(MID(SUBSTITUTE($F37, ",", REPT(" ", 100)), (COLUMNS($AH$2:AL37)-1)*100+1, 100))</f>
@@ -17152,8 +17158,8 @@
       <c r="B17" s="2">
         <v>6.5</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="93"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="62">
         <v>1</v>
       </c>
@@ -17252,8 +17258,8 @@
       <c r="B18" s="2">
         <v>2.9</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="93"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="62">
         <v>0.6</v>
       </c>
@@ -17351,8 +17357,8 @@
       <c r="B19" s="2">
         <v>3.3</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="93"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="62">
         <v>0</v>
       </c>
@@ -17451,8 +17457,8 @@
       <c r="B20" s="2">
         <v>6.2</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="93"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="62">
         <v>1</v>
       </c>
@@ -17548,8 +17554,8 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="93"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="62">
         <v>1</v>
       </c>
@@ -17646,8 +17652,8 @@
       <c r="B22" s="2">
         <v>4.3</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="93"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="62">
         <v>0</v>
       </c>
@@ -17731,8 +17737,8 @@
       <c r="B23" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="93"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="62">
         <v>0</v>
       </c>
@@ -17817,8 +17823,8 @@
       <c r="B24" s="2">
         <v>1.2</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="93"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="62">
         <v>1</v>
       </c>
@@ -17902,8 +17908,8 @@
       <c r="B25" s="2">
         <v>6.2</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="93"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="62">
         <v>1</v>
       </c>
@@ -17988,8 +17994,8 @@
       <c r="B26" s="2">
         <v>8.1</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="93"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="62">
         <v>0</v>
       </c>
@@ -18069,8 +18075,8 @@
       <c r="B27" s="2">
         <v>6.8</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="93"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="62">
         <v>0</v>
       </c>
@@ -18151,8 +18157,8 @@
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="93"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="62">
         <v>1</v>
       </c>
@@ -18232,8 +18238,8 @@
       <c r="B29" s="2">
         <v>5.8</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="93"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="62">
         <v>1</v>
       </c>
@@ -18314,8 +18320,8 @@
       <c r="B30" s="2">
         <v>5.3</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="93"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="62">
         <v>0</v>
       </c>
@@ -18395,8 +18401,8 @@
       <c r="B31" s="2">
         <v>7.4</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="93"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="62">
         <v>1</v>
       </c>
@@ -18477,8 +18483,8 @@
       <c r="B32" s="58">
         <v>8.5</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="62">
         <v>1</v>
       </c>
@@ -18565,11 +18571,11 @@
       <c r="B33" s="51">
         <v>4.8</v>
       </c>
-      <c r="C33" s="95">
+      <c r="C33" s="84">
         <f>AVERAGE(B33:B60)</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="D33" s="94"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="62">
         <v>1</v>
       </c>
@@ -18651,8 +18657,8 @@
       <c r="B34" s="2">
         <v>4.5</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="94"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="62">
         <v>0</v>
       </c>
@@ -18729,8 +18735,8 @@
       <c r="B35" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="94"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="62">
         <v>1</v>
       </c>
@@ -18808,8 +18814,8 @@
       <c r="B36" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="94"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="62">
         <v>1</v>
       </c>
@@ -18886,8 +18892,8 @@
       <c r="B37" s="2">
         <v>3.3</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="94"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="62">
         <v>0</v>
       </c>
@@ -18964,8 +18970,8 @@
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="94"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="62">
         <v>1</v>
       </c>
@@ -19042,8 +19048,8 @@
       <c r="B39" s="2">
         <v>1.3</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="94"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="62">
         <v>0</v>
       </c>
@@ -19120,8 +19126,8 @@
       <c r="B40" s="2">
         <v>8.5</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="94"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="62">
         <v>1</v>
       </c>
@@ -19201,8 +19207,8 @@
       <c r="B41" s="2">
         <v>4.5</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="94"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="62">
         <v>0</v>
       </c>
@@ -19279,8 +19285,8 @@
       <c r="B42" s="2">
         <v>3.8</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="94"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="62">
         <v>1</v>
       </c>
@@ -19357,8 +19363,8 @@
       <c r="B43" s="2">
         <v>5.5</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="94"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="83"/>
       <c r="E43" s="62">
         <v>1</v>
       </c>
@@ -19439,8 +19445,8 @@
       <c r="B44" s="2">
         <v>5.8</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="94"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="83"/>
       <c r="E44" s="62">
         <v>1</v>
       </c>
@@ -19521,8 +19527,8 @@
       <c r="B45" s="2">
         <v>5.5</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="94"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="62">
         <v>0</v>
       </c>
@@ -19603,8 +19609,8 @@
       <c r="B46" s="2">
         <v>0</v>
       </c>
-      <c r="C46" s="96"/>
-      <c r="D46" s="94"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="62">
         <v>0</v>
       </c>
@@ -19688,8 +19694,8 @@
       <c r="B47" s="2">
         <v>4.5</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="94"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="62">
         <v>1</v>
       </c>
@@ -19770,8 +19776,8 @@
       <c r="B48" s="2">
         <v>6.6</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="94"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="83"/>
       <c r="E48" s="62">
         <v>1</v>
       </c>
@@ -19852,8 +19858,8 @@
       <c r="B49" s="2">
         <v>7.5</v>
       </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="94"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="62">
         <v>1</v>
       </c>
@@ -19934,8 +19940,8 @@
       <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="96"/>
-      <c r="D50" s="94"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="62">
         <v>1</v>
       </c>
@@ -20016,8 +20022,8 @@
       <c r="B51" s="2">
         <v>4.8</v>
       </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="94"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="83"/>
       <c r="E51" s="62">
         <v>0</v>
       </c>
@@ -20098,8 +20104,8 @@
       <c r="B52" s="2">
         <v>6.8</v>
       </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="94"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="83"/>
       <c r="E52" s="62">
         <v>1</v>
       </c>
@@ -20180,8 +20186,8 @@
       <c r="B53" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C53" s="96"/>
-      <c r="D53" s="94"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="83"/>
       <c r="E53" s="62">
         <v>1</v>
       </c>
@@ -20262,8 +20268,8 @@
       <c r="B54" s="2">
         <v>5.5</v>
       </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="94"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="62">
         <v>0</v>
       </c>
@@ -20344,8 +20350,8 @@
       <c r="B55" s="2">
         <v>4.5</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="94"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="62">
         <v>1</v>
       </c>
@@ -20426,8 +20432,8 @@
       <c r="B56" s="2">
         <v>6.5</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="94"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="62">
         <v>1</v>
       </c>
@@ -20508,8 +20514,8 @@
       <c r="B57" s="2">
         <v>4.5</v>
       </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="94"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="62">
         <v>1</v>
       </c>
@@ -20590,8 +20596,8 @@
       <c r="B58" s="2">
         <v>7.5</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="94"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="62">
         <v>0</v>
       </c>
@@ -20672,8 +20678,8 @@
       <c r="B59" s="2">
         <v>5</v>
       </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="94"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="83"/>
       <c r="E59" s="62">
         <v>1</v>
       </c>
@@ -20754,8 +20760,8 @@
       <c r="B60" s="2">
         <v>5.5</v>
       </c>
-      <c r="C60" s="96"/>
-      <c r="D60" s="94"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="83"/>
       <c r="E60" s="62">
         <v>1</v>
       </c>
@@ -20836,11 +20842,11 @@
       <c r="B61" s="2">
         <v>5</v>
       </c>
-      <c r="C61" s="96">
+      <c r="C61" s="85">
         <f>AVERAGE(B61:B91)</f>
-        <v>5.361538461538462</v>
-      </c>
-      <c r="D61" s="94"/>
+        <v>5.1800000000000006</v>
+      </c>
+      <c r="D61" s="83"/>
       <c r="E61" s="62">
         <v>0</v>
       </c>
@@ -20924,8 +20930,8 @@
       <c r="B62" s="2">
         <v>4.8</v>
       </c>
-      <c r="C62" s="96"/>
-      <c r="D62" s="94"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="62">
         <v>0</v>
       </c>
@@ -21009,8 +21015,8 @@
       <c r="B63" s="2">
         <v>3</v>
       </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="94"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="62">
         <v>1</v>
       </c>
@@ -21094,8 +21100,8 @@
       <c r="B64" s="2">
         <v>4</v>
       </c>
-      <c r="C64" s="96"/>
-      <c r="D64" s="94"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="83"/>
       <c r="E64" s="62">
         <v>1</v>
       </c>
@@ -21179,8 +21185,8 @@
       <c r="B65" s="2">
         <v>5</v>
       </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="94"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="62">
         <v>0</v>
       </c>
@@ -21264,8 +21270,8 @@
       <c r="B66" s="2">
         <v>6.5</v>
       </c>
-      <c r="C66" s="96"/>
-      <c r="D66" s="94"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="62">
         <v>0</v>
       </c>
@@ -21349,8 +21355,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="94"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="62">
         <v>1</v>
       </c>
@@ -21433,8 +21439,8 @@
       <c r="B68" s="2">
         <v>6.1</v>
       </c>
-      <c r="C68" s="96"/>
-      <c r="D68" s="94"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="62">
         <v>1</v>
       </c>
@@ -21517,8 +21523,8 @@
       <c r="B69" s="2">
         <v>8</v>
       </c>
-      <c r="C69" s="96"/>
-      <c r="D69" s="94"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="83"/>
       <c r="E69" s="62">
         <v>0</v>
       </c>
@@ -21601,8 +21607,8 @@
       <c r="B70" s="2">
         <v>4.5</v>
       </c>
-      <c r="C70" s="96"/>
-      <c r="D70" s="94"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="83"/>
       <c r="E70" s="62">
         <v>1</v>
       </c>
@@ -21685,8 +21691,8 @@
       <c r="B71" s="2">
         <v>7</v>
       </c>
-      <c r="C71" s="96"/>
-      <c r="D71" s="94"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="62">
         <v>1</v>
       </c>
@@ -21769,8 +21775,8 @@
       <c r="B72" s="2">
         <v>4.8</v>
       </c>
-      <c r="C72" s="96"/>
-      <c r="D72" s="94"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="62">
         <v>1</v>
       </c>
@@ -21853,8 +21859,8 @@
       <c r="B73" s="2">
         <v>5</v>
       </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="94"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="62">
         <v>1</v>
       </c>
@@ -21934,11 +21940,13 @@
       <c r="A74" s="1">
         <v>45730</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="94"/>
+      <c r="B74" s="2">
+        <v>4</v>
+      </c>
+      <c r="C74" s="85"/>
+      <c r="D74" s="83"/>
       <c r="E74" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="38" t="s">
         <v>180</v>
@@ -22016,11 +22024,13 @@
       <c r="A75" s="1">
         <v>45731</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="94"/>
+      <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75" s="85"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="38" t="s">
         <v>180</v>
@@ -22099,8 +22109,8 @@
         <v>45732</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="94"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="83"/>
       <c r="E76" s="62">
         <v>1</v>
       </c>
@@ -22181,8 +22191,8 @@
         <v>45733</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="94"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="62">
         <v>1</v>
       </c>
@@ -22263,8 +22273,8 @@
         <v>45734</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="94"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="62">
         <v>1</v>
       </c>
@@ -22345,8 +22355,8 @@
         <v>45735</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="94"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="83"/>
       <c r="E79" s="62">
         <v>1</v>
       </c>
@@ -22427,8 +22437,8 @@
         <v>45736</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="96"/>
-      <c r="D80" s="94"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="83"/>
       <c r="E80" s="62">
         <v>1</v>
       </c>
@@ -22509,8 +22519,8 @@
         <v>45737</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="94"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="83"/>
       <c r="E81" s="62">
         <v>1</v>
       </c>
@@ -22591,8 +22601,8 @@
         <v>45738</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="94"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="83"/>
       <c r="E82" s="62">
         <v>1</v>
       </c>
@@ -22673,8 +22683,8 @@
         <v>45739</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="94"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="62">
         <v>1</v>
       </c>
@@ -22755,8 +22765,8 @@
         <v>45740</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="94"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="83"/>
       <c r="E84" s="62">
         <v>1</v>
       </c>
@@ -22837,8 +22847,8 @@
         <v>45741</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="94"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="83"/>
       <c r="E85" s="62">
         <v>1</v>
       </c>
@@ -22919,8 +22929,8 @@
         <v>45742</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="94"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="83"/>
       <c r="E86" s="62">
         <v>1</v>
       </c>
@@ -23001,8 +23011,8 @@
         <v>45743</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="94"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="62">
         <v>1</v>
       </c>
@@ -23083,8 +23093,8 @@
         <v>45744</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="96"/>
-      <c r="D88" s="94"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="62">
         <v>1</v>
       </c>
@@ -23165,8 +23175,8 @@
         <v>45745</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="96"/>
-      <c r="D89" s="94"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="83"/>
       <c r="E89" s="62">
         <v>1</v>
       </c>
@@ -23247,8 +23257,8 @@
         <v>45746</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="94"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="83"/>
       <c r="E90" s="62">
         <v>1</v>
       </c>
@@ -23329,8 +23339,8 @@
         <v>45747</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="94"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="83"/>
       <c r="E91" s="62">
         <v>1</v>
       </c>
@@ -23411,8 +23421,8 @@
         <v>45748</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="94"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="83"/>
       <c r="AJ92" t="str">
         <f>TRIM(MID(SUBSTITUTE($F92, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ92)-1)*100+1, 100))</f>
         <v/>
@@ -23487,8 +23497,8 @@
         <v>45749</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="94"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="83"/>
       <c r="AJ93" t="str">
         <f>TRIM(MID(SUBSTITUTE($F93, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ93)-1)*100+1, 100))</f>
         <v/>
@@ -23563,8 +23573,8 @@
         <v>45750</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="94"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="83"/>
       <c r="AJ94" t="str">
         <f>TRIM(MID(SUBSTITUTE($F94, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ94)-1)*100+1, 100))</f>
         <v/>
@@ -23639,8 +23649,8 @@
         <v>45751</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="94"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="83"/>
       <c r="AJ95" t="str">
         <f>TRIM(MID(SUBSTITUTE($F95, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ95)-1)*100+1, 100))</f>
         <v/>
@@ -23715,8 +23725,8 @@
         <v>45752</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="94"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="83"/>
       <c r="AJ96" t="str">
         <f>TRIM(MID(SUBSTITUTE($F96, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ96)-1)*100+1, 100))</f>
         <v/>
@@ -23791,8 +23801,8 @@
         <v>45753</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="96"/>
-      <c r="D97" s="94"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="83"/>
       <c r="AJ97" t="str">
         <f>TRIM(MID(SUBSTITUTE($F97, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ97)-1)*100+1, 100))</f>
         <v/>
@@ -23867,8 +23877,8 @@
         <v>45754</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="94"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="83"/>
       <c r="AJ98" t="str">
         <f>TRIM(MID(SUBSTITUTE($F98, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ98)-1)*100+1, 100))</f>
         <v/>
@@ -23943,8 +23953,8 @@
         <v>45755</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="94"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="83"/>
       <c r="AJ99" t="str">
         <f>TRIM(MID(SUBSTITUTE($F99, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ99)-1)*100+1, 100))</f>
         <v/>
@@ -24019,8 +24029,8 @@
         <v>45756</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="96"/>
-      <c r="D100" s="94"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="83"/>
       <c r="AJ100" t="str">
         <f>TRIM(MID(SUBSTITUTE($F100, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ100)-1)*100+1, 100))</f>
         <v/>
@@ -24095,8 +24105,8 @@
         <v>45757</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="94"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="83"/>
       <c r="AJ101" t="str">
         <f>TRIM(MID(SUBSTITUTE($F101, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ101)-1)*100+1, 100))</f>
         <v/>
@@ -24171,8 +24181,8 @@
         <v>45758</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="94"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="83"/>
       <c r="AJ102" t="str">
         <f>TRIM(MID(SUBSTITUTE($F102, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ102)-1)*100+1, 100))</f>
         <v/>
@@ -24247,8 +24257,8 @@
         <v>45759</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="96"/>
-      <c r="D103" s="94"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="83"/>
       <c r="AJ103" t="str">
         <f>TRIM(MID(SUBSTITUTE($F103, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ103)-1)*100+1, 100))</f>
         <v/>
@@ -24323,8 +24333,8 @@
         <v>45760</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="94"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="83"/>
       <c r="AJ104" t="str">
         <f>TRIM(MID(SUBSTITUTE($F104, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ104)-1)*100+1, 100))</f>
         <v/>
@@ -24399,8 +24409,8 @@
         <v>45761</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="96"/>
-      <c r="D105" s="94"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="83"/>
       <c r="AJ105" t="str">
         <f>TRIM(MID(SUBSTITUTE($F105, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ105)-1)*100+1, 100))</f>
         <v/>
@@ -24475,8 +24485,8 @@
         <v>45762</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="94"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="83"/>
       <c r="AJ106" t="str">
         <f>TRIM(MID(SUBSTITUTE($F106, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ106)-1)*100+1, 100))</f>
         <v/>
@@ -24551,8 +24561,8 @@
         <v>45763</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="96"/>
-      <c r="D107" s="94"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="83"/>
       <c r="AJ107" t="str">
         <f>TRIM(MID(SUBSTITUTE($F107, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ107)-1)*100+1, 100))</f>
         <v/>
@@ -24627,8 +24637,8 @@
         <v>45764</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="96"/>
-      <c r="D108" s="94"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="83"/>
       <c r="AJ108" t="str">
         <f>TRIM(MID(SUBSTITUTE($F108, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ108)-1)*100+1, 100))</f>
         <v/>
@@ -24703,8 +24713,8 @@
         <v>45765</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="96"/>
-      <c r="D109" s="94"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="83"/>
       <c r="AJ109" t="str">
         <f>TRIM(MID(SUBSTITUTE($F109, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ109)-1)*100+1, 100))</f>
         <v/>
@@ -24779,8 +24789,8 @@
         <v>45766</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="96"/>
-      <c r="D110" s="94"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="83"/>
       <c r="AJ110" t="str">
         <f>TRIM(MID(SUBSTITUTE($F110, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ110)-1)*100+1, 100))</f>
         <v/>
@@ -24855,8 +24865,8 @@
         <v>45767</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="96"/>
-      <c r="D111" s="94"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="83"/>
       <c r="AJ111" t="str">
         <f>TRIM(MID(SUBSTITUTE($F111, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ111)-1)*100+1, 100))</f>
         <v/>
@@ -24931,8 +24941,8 @@
         <v>45768</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="94"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="83"/>
       <c r="AJ112" t="str">
         <f>TRIM(MID(SUBSTITUTE($F112, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ112)-1)*100+1, 100))</f>
         <v/>
@@ -25007,8 +25017,8 @@
         <v>45769</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="96"/>
-      <c r="D113" s="94"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="83"/>
       <c r="AJ113" t="str">
         <f>TRIM(MID(SUBSTITUTE($F113, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ113)-1)*100+1, 100))</f>
         <v/>
@@ -25083,8 +25093,8 @@
         <v>45770</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="96"/>
-      <c r="D114" s="94"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="83"/>
       <c r="AJ114" t="str">
         <f>TRIM(MID(SUBSTITUTE($F114, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ114)-1)*100+1, 100))</f>
         <v/>
@@ -25159,8 +25169,8 @@
         <v>45771</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="96"/>
-      <c r="D115" s="94"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="83"/>
       <c r="AJ115" t="str">
         <f>TRIM(MID(SUBSTITUTE($F115, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ115)-1)*100+1, 100))</f>
         <v/>
@@ -25235,8 +25245,8 @@
         <v>45772</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="96"/>
-      <c r="D116" s="94"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="83"/>
       <c r="AJ116" t="str">
         <f>TRIM(MID(SUBSTITUTE($F116, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ116)-1)*100+1, 100))</f>
         <v/>
@@ -25311,8 +25321,8 @@
         <v>45773</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="96"/>
-      <c r="D117" s="94"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="83"/>
       <c r="AJ117" t="str">
         <f>TRIM(MID(SUBSTITUTE($F117, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ117)-1)*100+1, 100))</f>
         <v/>
@@ -25387,8 +25397,8 @@
         <v>45774</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="96"/>
-      <c r="D118" s="94"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="83"/>
       <c r="AJ118" t="str">
         <f>TRIM(MID(SUBSTITUTE($F118, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ118)-1)*100+1, 100))</f>
         <v/>
@@ -25463,8 +25473,8 @@
         <v>45775</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="96"/>
-      <c r="D119" s="94"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="83"/>
       <c r="AJ119" t="str">
         <f>TRIM(MID(SUBSTITUTE($F119, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ119)-1)*100+1, 100))</f>
         <v/>
@@ -25539,8 +25549,8 @@
         <v>45776</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="96"/>
-      <c r="D120" s="94"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="83"/>
       <c r="AJ120" t="str">
         <f>TRIM(MID(SUBSTITUTE($F120, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ120)-1)*100+1, 100))</f>
         <v/>
@@ -25615,8 +25625,8 @@
         <v>45777</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="96"/>
-      <c r="D121" s="94"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="83"/>
       <c r="AJ121" t="str">
         <f>TRIM(MID(SUBSTITUTE($F121, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ121)-1)*100+1, 100))</f>
         <v/>
@@ -25691,8 +25701,8 @@
         <v>45778</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="96"/>
-      <c r="D122" s="94"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="83"/>
       <c r="AJ122" t="str">
         <f>TRIM(MID(SUBSTITUTE($F122, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ122)-1)*100+1, 100))</f>
         <v/>
@@ -25767,8 +25777,8 @@
         <v>45779</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="96"/>
-      <c r="D123" s="94"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="83"/>
       <c r="AJ123" t="str">
         <f>TRIM(MID(SUBSTITUTE($F123, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ123)-1)*100+1, 100))</f>
         <v/>
@@ -25843,8 +25853,8 @@
         <v>45780</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="96"/>
-      <c r="D124" s="94"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="83"/>
       <c r="AJ124" t="str">
         <f>TRIM(MID(SUBSTITUTE($F124, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ124)-1)*100+1, 100))</f>
         <v/>
@@ -25919,8 +25929,8 @@
         <v>45781</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="96"/>
-      <c r="D125" s="94"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="83"/>
       <c r="AJ125" t="str">
         <f>TRIM(MID(SUBSTITUTE($F125, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ125)-1)*100+1, 100))</f>
         <v/>
@@ -25995,8 +26005,8 @@
         <v>45782</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="96"/>
-      <c r="D126" s="94"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="83"/>
       <c r="AJ126" t="str">
         <f>TRIM(MID(SUBSTITUTE($F126, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ126)-1)*100+1, 100))</f>
         <v/>
@@ -26071,8 +26081,8 @@
         <v>45783</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="96"/>
-      <c r="D127" s="94"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="83"/>
       <c r="AJ127" t="str">
         <f>TRIM(MID(SUBSTITUTE($F127, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ127)-1)*100+1, 100))</f>
         <v/>
@@ -26147,8 +26157,8 @@
         <v>45784</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="96"/>
-      <c r="D128" s="94"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="83"/>
       <c r="AJ128" t="str">
         <f>TRIM(MID(SUBSTITUTE($F128, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ128)-1)*100+1, 100))</f>
         <v/>
@@ -26223,8 +26233,8 @@
         <v>45785</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="96"/>
-      <c r="D129" s="94"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="83"/>
       <c r="AJ129" t="str">
         <f>TRIM(MID(SUBSTITUTE($F129, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ129)-1)*100+1, 100))</f>
         <v/>
@@ -26299,8 +26309,8 @@
         <v>45786</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="96"/>
-      <c r="D130" s="94"/>
+      <c r="C130" s="85"/>
+      <c r="D130" s="83"/>
       <c r="AJ130" t="str">
         <f>TRIM(MID(SUBSTITUTE($F130, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ130)-1)*100+1, 100))</f>
         <v/>
@@ -26375,8 +26385,8 @@
         <v>45787</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="96"/>
-      <c r="D131" s="94"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="83"/>
       <c r="AJ131" t="str">
         <f>TRIM(MID(SUBSTITUTE($F131, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ131)-1)*100+1, 100))</f>
         <v/>
@@ -26451,8 +26461,8 @@
         <v>45788</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="94"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="83"/>
       <c r="AJ132" t="str">
         <f>TRIM(MID(SUBSTITUTE($F132, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ132)-1)*100+1, 100))</f>
         <v/>
@@ -26527,8 +26537,8 @@
         <v>45789</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="96"/>
-      <c r="D133" s="94"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="83"/>
       <c r="AJ133" t="str">
         <f>TRIM(MID(SUBSTITUTE($F133, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ133)-1)*100+1, 100))</f>
         <v/>
@@ -26603,8 +26613,8 @@
         <v>45790</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="96"/>
-      <c r="D134" s="94"/>
+      <c r="C134" s="85"/>
+      <c r="D134" s="83"/>
       <c r="AJ134" t="str">
         <f>TRIM(MID(SUBSTITUTE($F134, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ134)-1)*100+1, 100))</f>
         <v/>
@@ -26679,8 +26689,8 @@
         <v>45791</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="96"/>
-      <c r="D135" s="94"/>
+      <c r="C135" s="85"/>
+      <c r="D135" s="83"/>
       <c r="AJ135" t="str">
         <f>TRIM(MID(SUBSTITUTE($F135, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ135)-1)*100+1, 100))</f>
         <v/>
@@ -26755,8 +26765,8 @@
         <v>45792</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="96"/>
-      <c r="D136" s="94"/>
+      <c r="C136" s="85"/>
+      <c r="D136" s="83"/>
       <c r="AJ136" t="str">
         <f>TRIM(MID(SUBSTITUTE($F136, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ136)-1)*100+1, 100))</f>
         <v/>
@@ -26831,8 +26841,8 @@
         <v>45793</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="96"/>
-      <c r="D137" s="94"/>
+      <c r="C137" s="85"/>
+      <c r="D137" s="83"/>
       <c r="AJ137" t="str">
         <f>TRIM(MID(SUBSTITUTE($F137, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ137)-1)*100+1, 100))</f>
         <v/>
@@ -26907,8 +26917,8 @@
         <v>45794</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="96"/>
-      <c r="D138" s="94"/>
+      <c r="C138" s="85"/>
+      <c r="D138" s="83"/>
       <c r="AJ138" t="str">
         <f>TRIM(MID(SUBSTITUTE($F138, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ138)-1)*100+1, 100))</f>
         <v/>
@@ -26983,8 +26993,8 @@
         <v>45795</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="96"/>
-      <c r="D139" s="94"/>
+      <c r="C139" s="85"/>
+      <c r="D139" s="83"/>
       <c r="AJ139" t="str">
         <f>TRIM(MID(SUBSTITUTE($F139, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ139)-1)*100+1, 100))</f>
         <v/>
@@ -27059,8 +27069,8 @@
         <v>45796</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="96"/>
-      <c r="D140" s="94"/>
+      <c r="C140" s="85"/>
+      <c r="D140" s="83"/>
       <c r="AJ140" t="str">
         <f>TRIM(MID(SUBSTITUTE($F140, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ140)-1)*100+1, 100))</f>
         <v/>
@@ -27135,8 +27145,8 @@
         <v>45797</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="96"/>
-      <c r="D141" s="94"/>
+      <c r="C141" s="85"/>
+      <c r="D141" s="83"/>
       <c r="AJ141" t="str">
         <f>TRIM(MID(SUBSTITUTE($F141, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ141)-1)*100+1, 100))</f>
         <v/>
@@ -27211,8 +27221,8 @@
         <v>45798</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="96"/>
-      <c r="D142" s="94"/>
+      <c r="C142" s="85"/>
+      <c r="D142" s="83"/>
       <c r="AJ142" t="str">
         <f>TRIM(MID(SUBSTITUTE($F142, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ142)-1)*100+1, 100))</f>
         <v/>
@@ -27287,8 +27297,8 @@
         <v>45799</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="96"/>
-      <c r="D143" s="94"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="83"/>
       <c r="AJ143" t="str">
         <f>TRIM(MID(SUBSTITUTE($F143, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ143)-1)*100+1, 100))</f>
         <v/>
@@ -27363,8 +27373,8 @@
         <v>45800</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="96"/>
-      <c r="D144" s="94"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="83"/>
       <c r="AJ144" t="str">
         <f>TRIM(MID(SUBSTITUTE($F144, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ144)-1)*100+1, 100))</f>
         <v/>
@@ -27439,8 +27449,8 @@
         <v>45801</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="96"/>
-      <c r="D145" s="94"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="83"/>
       <c r="AJ145" t="str">
         <f>TRIM(MID(SUBSTITUTE($F145, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ145)-1)*100+1, 100))</f>
         <v/>
@@ -27515,8 +27525,8 @@
         <v>45802</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="96"/>
-      <c r="D146" s="94"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="83"/>
       <c r="AJ146" t="str">
         <f>TRIM(MID(SUBSTITUTE($F146, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ146)-1)*100+1, 100))</f>
         <v/>
@@ -27591,8 +27601,8 @@
         <v>45803</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="96"/>
-      <c r="D147" s="94"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="83"/>
       <c r="AJ147" t="str">
         <f>TRIM(MID(SUBSTITUTE($F147, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ147)-1)*100+1, 100))</f>
         <v/>
@@ -27667,8 +27677,8 @@
         <v>45804</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="96"/>
-      <c r="D148" s="94"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="83"/>
       <c r="AJ148" t="str">
         <f>TRIM(MID(SUBSTITUTE($F148, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ148)-1)*100+1, 100))</f>
         <v/>
@@ -27743,8 +27753,8 @@
         <v>45805</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="96"/>
-      <c r="D149" s="94"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="83"/>
       <c r="AJ149" t="str">
         <f>TRIM(MID(SUBSTITUTE($F149, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ149)-1)*100+1, 100))</f>
         <v/>
@@ -27819,8 +27829,8 @@
         <v>45806</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="96"/>
-      <c r="D150" s="94"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="83"/>
       <c r="AJ150" t="str">
         <f>TRIM(MID(SUBSTITUTE($F150, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ150)-1)*100+1, 100))</f>
         <v/>
@@ -27895,8 +27905,8 @@
         <v>45807</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="96"/>
-      <c r="D151" s="94"/>
+      <c r="C151" s="85"/>
+      <c r="D151" s="83"/>
       <c r="AJ151" t="str">
         <f>TRIM(MID(SUBSTITUTE($F151, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ151)-1)*100+1, 100))</f>
         <v/>
@@ -27971,8 +27981,8 @@
         <v>45808</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="96"/>
-      <c r="D152" s="94"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="83"/>
       <c r="AJ152" t="str">
         <f>TRIM(MID(SUBSTITUTE($F152, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ152)-1)*100+1, 100))</f>
         <v/>
@@ -28047,8 +28057,8 @@
         <v>45809</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="96"/>
-      <c r="D153" s="94"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="83"/>
       <c r="AJ153" t="str">
         <f>TRIM(MID(SUBSTITUTE($F153, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ153)-1)*100+1, 100))</f>
         <v/>
@@ -28123,8 +28133,8 @@
         <v>45810</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="96"/>
-      <c r="D154" s="94"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="83"/>
       <c r="AJ154" t="str">
         <f>TRIM(MID(SUBSTITUTE($F154, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ154)-1)*100+1, 100))</f>
         <v/>
@@ -28199,8 +28209,8 @@
         <v>45811</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="96"/>
-      <c r="D155" s="94"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="83"/>
       <c r="AJ155" t="str">
         <f>TRIM(MID(SUBSTITUTE($F155, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ155)-1)*100+1, 100))</f>
         <v/>
@@ -28275,8 +28285,8 @@
         <v>45812</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="96"/>
-      <c r="D156" s="94"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="83"/>
       <c r="AJ156" t="str">
         <f>TRIM(MID(SUBSTITUTE($F156, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ156)-1)*100+1, 100))</f>
         <v/>
@@ -28351,8 +28361,8 @@
         <v>45813</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="96"/>
-      <c r="D157" s="94"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="83"/>
       <c r="AJ157" t="str">
         <f>TRIM(MID(SUBSTITUTE($F157, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ157)-1)*100+1, 100))</f>
         <v/>
@@ -28427,8 +28437,8 @@
         <v>45814</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="96"/>
-      <c r="D158" s="94"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="83"/>
       <c r="AJ158" t="str">
         <f>TRIM(MID(SUBSTITUTE($F158, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ158)-1)*100+1, 100))</f>
         <v/>
@@ -28503,8 +28513,8 @@
         <v>45815</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="96"/>
-      <c r="D159" s="94"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="83"/>
       <c r="AJ159" t="str">
         <f>TRIM(MID(SUBSTITUTE($F159, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ159)-1)*100+1, 100))</f>
         <v/>
@@ -28579,8 +28589,8 @@
         <v>45816</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="96"/>
-      <c r="D160" s="94"/>
+      <c r="C160" s="85"/>
+      <c r="D160" s="83"/>
       <c r="AJ160" t="str">
         <f>TRIM(MID(SUBSTITUTE($F160, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ160)-1)*100+1, 100))</f>
         <v/>
@@ -28655,8 +28665,8 @@
         <v>45817</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="96"/>
-      <c r="D161" s="94"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="83"/>
       <c r="AJ161" t="str">
         <f>TRIM(MID(SUBSTITUTE($F161, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ161)-1)*100+1, 100))</f>
         <v/>
@@ -28731,8 +28741,8 @@
         <v>45818</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="96"/>
-      <c r="D162" s="94"/>
+      <c r="C162" s="85"/>
+      <c r="D162" s="83"/>
       <c r="AJ162" t="str">
         <f>TRIM(MID(SUBSTITUTE($F162, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ162)-1)*100+1, 100))</f>
         <v/>
@@ -28807,8 +28817,8 @@
         <v>45819</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="96"/>
-      <c r="D163" s="94"/>
+      <c r="C163" s="85"/>
+      <c r="D163" s="83"/>
       <c r="AJ163" t="str">
         <f>TRIM(MID(SUBSTITUTE($F163, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ163)-1)*100+1, 100))</f>
         <v/>
@@ -28883,8 +28893,8 @@
         <v>45820</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="96"/>
-      <c r="D164" s="94"/>
+      <c r="C164" s="85"/>
+      <c r="D164" s="83"/>
       <c r="AJ164" t="str">
         <f>TRIM(MID(SUBSTITUTE($F164, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ164)-1)*100+1, 100))</f>
         <v/>
@@ -28959,8 +28969,8 @@
         <v>45821</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="96"/>
-      <c r="D165" s="94"/>
+      <c r="C165" s="85"/>
+      <c r="D165" s="83"/>
       <c r="AJ165" t="str">
         <f>TRIM(MID(SUBSTITUTE($F165, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ165)-1)*100+1, 100))</f>
         <v/>
@@ -29035,8 +29045,8 @@
         <v>45822</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="96"/>
-      <c r="D166" s="94"/>
+      <c r="C166" s="85"/>
+      <c r="D166" s="83"/>
       <c r="AJ166" t="str">
         <f>TRIM(MID(SUBSTITUTE($F166, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ166)-1)*100+1, 100))</f>
         <v/>
@@ -29111,8 +29121,8 @@
         <v>45823</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="96"/>
-      <c r="D167" s="94"/>
+      <c r="C167" s="85"/>
+      <c r="D167" s="83"/>
       <c r="AJ167" t="str">
         <f>TRIM(MID(SUBSTITUTE($F167, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ167)-1)*100+1, 100))</f>
         <v/>
@@ -29187,8 +29197,8 @@
         <v>45824</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="96"/>
-      <c r="D168" s="94"/>
+      <c r="C168" s="85"/>
+      <c r="D168" s="83"/>
       <c r="AJ168" t="str">
         <f>TRIM(MID(SUBSTITUTE($F168, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ168)-1)*100+1, 100))</f>
         <v/>
@@ -29263,8 +29273,8 @@
         <v>45825</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="96"/>
-      <c r="D169" s="94"/>
+      <c r="C169" s="85"/>
+      <c r="D169" s="83"/>
       <c r="AJ169" t="str">
         <f>TRIM(MID(SUBSTITUTE($F169, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ169)-1)*100+1, 100))</f>
         <v/>
@@ -29339,8 +29349,8 @@
         <v>45826</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="96"/>
-      <c r="D170" s="94"/>
+      <c r="C170" s="85"/>
+      <c r="D170" s="83"/>
       <c r="AJ170" t="str">
         <f>TRIM(MID(SUBSTITUTE($F170, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ170)-1)*100+1, 100))</f>
         <v/>
@@ -29415,8 +29425,8 @@
         <v>45827</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="96"/>
-      <c r="D171" s="94"/>
+      <c r="C171" s="85"/>
+      <c r="D171" s="83"/>
       <c r="AJ171" t="str">
         <f>TRIM(MID(SUBSTITUTE($F171, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ171)-1)*100+1, 100))</f>
         <v/>
@@ -29491,8 +29501,8 @@
         <v>45828</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="96"/>
-      <c r="D172" s="94"/>
+      <c r="C172" s="85"/>
+      <c r="D172" s="83"/>
       <c r="AJ172" t="str">
         <f>TRIM(MID(SUBSTITUTE($F172, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ172)-1)*100+1, 100))</f>
         <v/>
@@ -29567,8 +29577,8 @@
         <v>45829</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="96"/>
-      <c r="D173" s="94"/>
+      <c r="C173" s="85"/>
+      <c r="D173" s="83"/>
       <c r="AJ173" t="str">
         <f>TRIM(MID(SUBSTITUTE($F173, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ173)-1)*100+1, 100))</f>
         <v/>
@@ -29643,8 +29653,8 @@
         <v>45830</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="96"/>
-      <c r="D174" s="94"/>
+      <c r="C174" s="85"/>
+      <c r="D174" s="83"/>
       <c r="AJ174" t="str">
         <f>TRIM(MID(SUBSTITUTE($F174, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ174)-1)*100+1, 100))</f>
         <v/>
@@ -29719,8 +29729,8 @@
         <v>45831</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="96"/>
-      <c r="D175" s="94"/>
+      <c r="C175" s="85"/>
+      <c r="D175" s="83"/>
       <c r="AJ175" t="str">
         <f>TRIM(MID(SUBSTITUTE($F175, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ175)-1)*100+1, 100))</f>
         <v/>
@@ -29795,8 +29805,8 @@
         <v>45832</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="96"/>
-      <c r="D176" s="94"/>
+      <c r="C176" s="85"/>
+      <c r="D176" s="83"/>
       <c r="AJ176" t="str">
         <f>TRIM(MID(SUBSTITUTE($F176, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ176)-1)*100+1, 100))</f>
         <v/>
@@ -29871,8 +29881,8 @@
         <v>45833</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="96"/>
-      <c r="D177" s="94"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="83"/>
       <c r="AJ177" t="str">
         <f>TRIM(MID(SUBSTITUTE($F177, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ177)-1)*100+1, 100))</f>
         <v/>
@@ -29947,8 +29957,8 @@
         <v>45834</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="96"/>
-      <c r="D178" s="94"/>
+      <c r="C178" s="85"/>
+      <c r="D178" s="83"/>
       <c r="AJ178" t="str">
         <f>TRIM(MID(SUBSTITUTE($F178, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ178)-1)*100+1, 100))</f>
         <v/>
@@ -30023,8 +30033,8 @@
         <v>45835</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="96"/>
-      <c r="D179" s="94"/>
+      <c r="C179" s="85"/>
+      <c r="D179" s="83"/>
       <c r="AJ179" t="str">
         <f>TRIM(MID(SUBSTITUTE($F179, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ179)-1)*100+1, 100))</f>
         <v/>
@@ -30099,8 +30109,8 @@
         <v>45836</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="96"/>
-      <c r="D180" s="94"/>
+      <c r="C180" s="85"/>
+      <c r="D180" s="83"/>
       <c r="AJ180" t="str">
         <f>TRIM(MID(SUBSTITUTE($F180, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ180)-1)*100+1, 100))</f>
         <v/>
@@ -30175,8 +30185,8 @@
         <v>45837</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="96"/>
-      <c r="D181" s="94"/>
+      <c r="C181" s="85"/>
+      <c r="D181" s="83"/>
       <c r="AJ181" t="str">
         <f>TRIM(MID(SUBSTITUTE($F181, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ181)-1)*100+1, 100))</f>
         <v/>
@@ -30251,8 +30261,8 @@
         <v>45838</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="96"/>
-      <c r="D182" s="94"/>
+      <c r="C182" s="85"/>
+      <c r="D182" s="83"/>
       <c r="AJ182" t="str">
         <f>TRIM(MID(SUBSTITUTE($F182, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ182)-1)*100+1, 100))</f>
         <v/>
@@ -30327,8 +30337,8 @@
         <v>45839</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="96"/>
-      <c r="D183" s="94"/>
+      <c r="C183" s="85"/>
+      <c r="D183" s="83"/>
       <c r="AJ183" t="str">
         <f>TRIM(MID(SUBSTITUTE($F183, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ183)-1)*100+1, 100))</f>
         <v/>
@@ -30403,8 +30413,8 @@
         <v>45840</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="96"/>
-      <c r="D184" s="94"/>
+      <c r="C184" s="85"/>
+      <c r="D184" s="83"/>
       <c r="AJ184" t="str">
         <f>TRIM(MID(SUBSTITUTE($F184, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ184)-1)*100+1, 100))</f>
         <v/>
@@ -30479,8 +30489,8 @@
         <v>45841</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="96"/>
-      <c r="D185" s="94"/>
+      <c r="C185" s="85"/>
+      <c r="D185" s="83"/>
       <c r="AJ185" t="str">
         <f>TRIM(MID(SUBSTITUTE($F185, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ185)-1)*100+1, 100))</f>
         <v/>
@@ -30555,8 +30565,8 @@
         <v>45842</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="96"/>
-      <c r="D186" s="94"/>
+      <c r="C186" s="85"/>
+      <c r="D186" s="83"/>
       <c r="AJ186" t="str">
         <f>TRIM(MID(SUBSTITUTE($F186, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ186)-1)*100+1, 100))</f>
         <v/>
@@ -30631,8 +30641,8 @@
         <v>45843</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="96"/>
-      <c r="D187" s="94"/>
+      <c r="C187" s="85"/>
+      <c r="D187" s="83"/>
       <c r="AJ187" t="str">
         <f>TRIM(MID(SUBSTITUTE($F187, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ187)-1)*100+1, 100))</f>
         <v/>
@@ -30707,8 +30717,8 @@
         <v>45844</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="96"/>
-      <c r="D188" s="94"/>
+      <c r="C188" s="85"/>
+      <c r="D188" s="83"/>
       <c r="AJ188" t="str">
         <f>TRIM(MID(SUBSTITUTE($F188, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ188)-1)*100+1, 100))</f>
         <v/>
@@ -30783,8 +30793,8 @@
         <v>45845</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="96"/>
-      <c r="D189" s="94"/>
+      <c r="C189" s="85"/>
+      <c r="D189" s="83"/>
       <c r="AJ189" t="str">
         <f>TRIM(MID(SUBSTITUTE($F189, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ189)-1)*100+1, 100))</f>
         <v/>
@@ -30859,8 +30869,8 @@
         <v>45846</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="96"/>
-      <c r="D190" s="94"/>
+      <c r="C190" s="85"/>
+      <c r="D190" s="83"/>
       <c r="AJ190" t="str">
         <f>TRIM(MID(SUBSTITUTE($F190, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ190)-1)*100+1, 100))</f>
         <v/>
@@ -30935,8 +30945,8 @@
         <v>45847</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="96"/>
-      <c r="D191" s="94"/>
+      <c r="C191" s="85"/>
+      <c r="D191" s="83"/>
       <c r="AJ191" t="str">
         <f>TRIM(MID(SUBSTITUTE($F191, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ191)-1)*100+1, 100))</f>
         <v/>
@@ -31011,8 +31021,8 @@
         <v>45848</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="96"/>
-      <c r="D192" s="94"/>
+      <c r="C192" s="85"/>
+      <c r="D192" s="83"/>
       <c r="AJ192" t="str">
         <f>TRIM(MID(SUBSTITUTE($F192, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ192)-1)*100+1, 100))</f>
         <v/>
@@ -31087,8 +31097,8 @@
         <v>45849</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="96"/>
-      <c r="D193" s="94"/>
+      <c r="C193" s="85"/>
+      <c r="D193" s="83"/>
       <c r="AJ193" t="str">
         <f>TRIM(MID(SUBSTITUTE($F193, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ193)-1)*100+1, 100))</f>
         <v/>
@@ -31163,8 +31173,8 @@
         <v>45850</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="96"/>
-      <c r="D194" s="94"/>
+      <c r="C194" s="85"/>
+      <c r="D194" s="83"/>
       <c r="AJ194" t="str">
         <f>TRIM(MID(SUBSTITUTE($F194, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ194)-1)*100+1, 100))</f>
         <v/>
@@ -31239,8 +31249,8 @@
         <v>45851</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="96"/>
-      <c r="D195" s="94"/>
+      <c r="C195" s="85"/>
+      <c r="D195" s="83"/>
       <c r="AJ195" t="str">
         <f>TRIM(MID(SUBSTITUTE($F195, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ195)-1)*100+1, 100))</f>
         <v/>
@@ -31315,8 +31325,8 @@
         <v>45852</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="96"/>
-      <c r="D196" s="94"/>
+      <c r="C196" s="85"/>
+      <c r="D196" s="83"/>
       <c r="AJ196" t="str">
         <f>TRIM(MID(SUBSTITUTE($F196, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ196)-1)*100+1, 100))</f>
         <v/>
@@ -31391,8 +31401,8 @@
         <v>45853</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="96"/>
-      <c r="D197" s="94"/>
+      <c r="C197" s="85"/>
+      <c r="D197" s="83"/>
       <c r="AJ197" t="str">
         <f>TRIM(MID(SUBSTITUTE($F197, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ197)-1)*100+1, 100))</f>
         <v/>
@@ -31467,8 +31477,8 @@
         <v>45854</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="96"/>
-      <c r="D198" s="94"/>
+      <c r="C198" s="85"/>
+      <c r="D198" s="83"/>
       <c r="AJ198" t="str">
         <f>TRIM(MID(SUBSTITUTE($F198, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ198)-1)*100+1, 100))</f>
         <v/>
@@ -31543,8 +31553,8 @@
         <v>45855</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="96"/>
-      <c r="D199" s="94"/>
+      <c r="C199" s="85"/>
+      <c r="D199" s="83"/>
       <c r="AJ199" t="str">
         <f>TRIM(MID(SUBSTITUTE($F199, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ199)-1)*100+1, 100))</f>
         <v/>
@@ -31619,8 +31629,8 @@
         <v>45856</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="96"/>
-      <c r="D200" s="94"/>
+      <c r="C200" s="85"/>
+      <c r="D200" s="83"/>
       <c r="AJ200" t="str">
         <f>TRIM(MID(SUBSTITUTE($F200, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ200)-1)*100+1, 100))</f>
         <v/>
@@ -31695,8 +31705,8 @@
         <v>45857</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="96"/>
-      <c r="D201" s="94"/>
+      <c r="C201" s="85"/>
+      <c r="D201" s="83"/>
       <c r="AJ201" t="str">
         <f>TRIM(MID(SUBSTITUTE($F201, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ201)-1)*100+1, 100))</f>
         <v/>
@@ -31771,8 +31781,8 @@
         <v>45858</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="96"/>
-      <c r="D202" s="94"/>
+      <c r="C202" s="85"/>
+      <c r="D202" s="83"/>
       <c r="AJ202" t="str">
         <f>TRIM(MID(SUBSTITUTE($F202, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ202)-1)*100+1, 100))</f>
         <v/>
@@ -31847,8 +31857,8 @@
         <v>45859</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="96"/>
-      <c r="D203" s="94"/>
+      <c r="C203" s="85"/>
+      <c r="D203" s="83"/>
       <c r="AJ203" t="str">
         <f>TRIM(MID(SUBSTITUTE($F203, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ203)-1)*100+1, 100))</f>
         <v/>
@@ -31923,8 +31933,8 @@
         <v>45860</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="96"/>
-      <c r="D204" s="94"/>
+      <c r="C204" s="85"/>
+      <c r="D204" s="83"/>
       <c r="AJ204" t="str">
         <f>TRIM(MID(SUBSTITUTE($F204, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ204)-1)*100+1, 100))</f>
         <v/>
@@ -31999,8 +32009,8 @@
         <v>45861</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="96"/>
-      <c r="D205" s="94"/>
+      <c r="C205" s="85"/>
+      <c r="D205" s="83"/>
       <c r="AJ205" t="str">
         <f>TRIM(MID(SUBSTITUTE($F205, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ205)-1)*100+1, 100))</f>
         <v/>
@@ -32075,8 +32085,8 @@
         <v>45862</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="96"/>
-      <c r="D206" s="94"/>
+      <c r="C206" s="85"/>
+      <c r="D206" s="83"/>
       <c r="AJ206" t="str">
         <f>TRIM(MID(SUBSTITUTE($F206, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ206)-1)*100+1, 100))</f>
         <v/>
@@ -32151,8 +32161,8 @@
         <v>45863</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="96"/>
-      <c r="D207" s="94"/>
+      <c r="C207" s="85"/>
+      <c r="D207" s="83"/>
       <c r="AJ207" t="str">
         <f>TRIM(MID(SUBSTITUTE($F207, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ207)-1)*100+1, 100))</f>
         <v/>
@@ -32227,8 +32237,8 @@
         <v>45864</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="96"/>
-      <c r="D208" s="94"/>
+      <c r="C208" s="85"/>
+      <c r="D208" s="83"/>
       <c r="AJ208" t="str">
         <f>TRIM(MID(SUBSTITUTE($F208, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ208)-1)*100+1, 100))</f>
         <v/>
@@ -32303,8 +32313,8 @@
         <v>45865</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="96"/>
-      <c r="D209" s="94"/>
+      <c r="C209" s="85"/>
+      <c r="D209" s="83"/>
       <c r="AJ209" t="str">
         <f>TRIM(MID(SUBSTITUTE($F209, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ209)-1)*100+1, 100))</f>
         <v/>
@@ -32379,8 +32389,8 @@
         <v>45866</v>
       </c>
       <c r="B210" s="2"/>
-      <c r="C210" s="96"/>
-      <c r="D210" s="94"/>
+      <c r="C210" s="85"/>
+      <c r="D210" s="83"/>
       <c r="AJ210" t="str">
         <f>TRIM(MID(SUBSTITUTE($F210, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ210)-1)*100+1, 100))</f>
         <v/>
@@ -32455,8 +32465,8 @@
         <v>45867</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="96"/>
-      <c r="D211" s="94"/>
+      <c r="C211" s="85"/>
+      <c r="D211" s="83"/>
       <c r="AJ211" t="str">
         <f>TRIM(MID(SUBSTITUTE($F211, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ211)-1)*100+1, 100))</f>
         <v/>
@@ -32531,8 +32541,8 @@
         <v>45868</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="96"/>
-      <c r="D212" s="94"/>
+      <c r="C212" s="85"/>
+      <c r="D212" s="83"/>
       <c r="AJ212" t="str">
         <f>TRIM(MID(SUBSTITUTE($F212, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ212)-1)*100+1, 100))</f>
         <v/>
@@ -32607,8 +32617,8 @@
         <v>45869</v>
       </c>
       <c r="B213" s="2"/>
-      <c r="C213" s="96"/>
-      <c r="D213" s="94"/>
+      <c r="C213" s="85"/>
+      <c r="D213" s="83"/>
       <c r="AJ213" t="str">
         <f>TRIM(MID(SUBSTITUTE($F213, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ213)-1)*100+1, 100))</f>
         <v/>
@@ -32683,8 +32693,8 @@
         <v>45870</v>
       </c>
       <c r="B214" s="2"/>
-      <c r="C214" s="96"/>
-      <c r="D214" s="94"/>
+      <c r="C214" s="85"/>
+      <c r="D214" s="83"/>
       <c r="AJ214" t="str">
         <f>TRIM(MID(SUBSTITUTE($F214, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ214)-1)*100+1, 100))</f>
         <v/>
@@ -32759,8 +32769,8 @@
         <v>45871</v>
       </c>
       <c r="B215" s="2"/>
-      <c r="C215" s="96"/>
-      <c r="D215" s="94"/>
+      <c r="C215" s="85"/>
+      <c r="D215" s="83"/>
       <c r="AJ215" t="str">
         <f>TRIM(MID(SUBSTITUTE($F215, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ215)-1)*100+1, 100))</f>
         <v/>
@@ -32835,8 +32845,8 @@
         <v>45872</v>
       </c>
       <c r="B216" s="2"/>
-      <c r="C216" s="96"/>
-      <c r="D216" s="94"/>
+      <c r="C216" s="85"/>
+      <c r="D216" s="83"/>
       <c r="AJ216" t="str">
         <f>TRIM(MID(SUBSTITUTE($F216, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ216)-1)*100+1, 100))</f>
         <v/>
@@ -32911,8 +32921,8 @@
         <v>45873</v>
       </c>
       <c r="B217" s="2"/>
-      <c r="C217" s="96"/>
-      <c r="D217" s="94"/>
+      <c r="C217" s="85"/>
+      <c r="D217" s="83"/>
       <c r="AJ217" t="str">
         <f>TRIM(MID(SUBSTITUTE($F217, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ217)-1)*100+1, 100))</f>
         <v/>
@@ -32987,8 +32997,8 @@
         <v>45874</v>
       </c>
       <c r="B218" s="2"/>
-      <c r="C218" s="96"/>
-      <c r="D218" s="94"/>
+      <c r="C218" s="85"/>
+      <c r="D218" s="83"/>
       <c r="AJ218" t="str">
         <f>TRIM(MID(SUBSTITUTE($F218, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ218)-1)*100+1, 100))</f>
         <v/>
@@ -33063,8 +33073,8 @@
         <v>45875</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="96"/>
-      <c r="D219" s="94"/>
+      <c r="C219" s="85"/>
+      <c r="D219" s="83"/>
       <c r="AJ219" t="str">
         <f>TRIM(MID(SUBSTITUTE($F219, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ219)-1)*100+1, 100))</f>
         <v/>
@@ -33139,8 +33149,8 @@
         <v>45876</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="96"/>
-      <c r="D220" s="94"/>
+      <c r="C220" s="85"/>
+      <c r="D220" s="83"/>
       <c r="AJ220" t="str">
         <f>TRIM(MID(SUBSTITUTE($F220, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ220)-1)*100+1, 100))</f>
         <v/>
@@ -33215,8 +33225,8 @@
         <v>45877</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="96"/>
-      <c r="D221" s="94"/>
+      <c r="C221" s="85"/>
+      <c r="D221" s="83"/>
       <c r="AJ221" t="str">
         <f>TRIM(MID(SUBSTITUTE($F221, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ221)-1)*100+1, 100))</f>
         <v/>
@@ -33291,8 +33301,8 @@
         <v>45878</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="96"/>
-      <c r="D222" s="94"/>
+      <c r="C222" s="85"/>
+      <c r="D222" s="83"/>
       <c r="AJ222" t="str">
         <f>TRIM(MID(SUBSTITUTE($F222, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ222)-1)*100+1, 100))</f>
         <v/>
@@ -33367,8 +33377,8 @@
         <v>45879</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="96"/>
-      <c r="D223" s="94"/>
+      <c r="C223" s="85"/>
+      <c r="D223" s="83"/>
       <c r="AJ223" t="str">
         <f>TRIM(MID(SUBSTITUTE($F223, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ223)-1)*100+1, 100))</f>
         <v/>
@@ -33443,8 +33453,8 @@
         <v>45880</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="96"/>
-      <c r="D224" s="94"/>
+      <c r="C224" s="85"/>
+      <c r="D224" s="83"/>
       <c r="AJ224" t="str">
         <f>TRIM(MID(SUBSTITUTE($F224, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ224)-1)*100+1, 100))</f>
         <v/>
@@ -33519,8 +33529,8 @@
         <v>45881</v>
       </c>
       <c r="B225" s="2"/>
-      <c r="C225" s="96"/>
-      <c r="D225" s="94"/>
+      <c r="C225" s="85"/>
+      <c r="D225" s="83"/>
       <c r="AJ225" t="str">
         <f>TRIM(MID(SUBSTITUTE($F225, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ225)-1)*100+1, 100))</f>
         <v/>
@@ -33595,8 +33605,8 @@
         <v>45882</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="96"/>
-      <c r="D226" s="94"/>
+      <c r="C226" s="85"/>
+      <c r="D226" s="83"/>
       <c r="AJ226" t="str">
         <f>TRIM(MID(SUBSTITUTE($F226, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ226)-1)*100+1, 100))</f>
         <v/>
@@ -33671,8 +33681,8 @@
         <v>45883</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="96"/>
-      <c r="D227" s="94"/>
+      <c r="C227" s="85"/>
+      <c r="D227" s="83"/>
       <c r="AJ227" t="str">
         <f>TRIM(MID(SUBSTITUTE($F227, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ227)-1)*100+1, 100))</f>
         <v/>
@@ -33747,8 +33757,8 @@
         <v>45884</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="96"/>
-      <c r="D228" s="94"/>
+      <c r="C228" s="85"/>
+      <c r="D228" s="83"/>
       <c r="AJ228" t="str">
         <f>TRIM(MID(SUBSTITUTE($F228, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ228)-1)*100+1, 100))</f>
         <v/>
@@ -33823,8 +33833,8 @@
         <v>45885</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="96"/>
-      <c r="D229" s="94"/>
+      <c r="C229" s="85"/>
+      <c r="D229" s="83"/>
       <c r="AJ229" t="str">
         <f>TRIM(MID(SUBSTITUTE($F229, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ229)-1)*100+1, 100))</f>
         <v/>
@@ -33899,8 +33909,8 @@
         <v>45886</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="96"/>
-      <c r="D230" s="94"/>
+      <c r="C230" s="85"/>
+      <c r="D230" s="83"/>
       <c r="AJ230" t="str">
         <f>TRIM(MID(SUBSTITUTE($F230, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ230)-1)*100+1, 100))</f>
         <v/>
@@ -33975,8 +33985,8 @@
         <v>45887</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="96"/>
-      <c r="D231" s="94"/>
+      <c r="C231" s="85"/>
+      <c r="D231" s="83"/>
       <c r="AJ231" t="str">
         <f>TRIM(MID(SUBSTITUTE($F231, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ231)-1)*100+1, 100))</f>
         <v/>
@@ -34051,8 +34061,8 @@
         <v>45888</v>
       </c>
       <c r="B232" s="2"/>
-      <c r="C232" s="96"/>
-      <c r="D232" s="94"/>
+      <c r="C232" s="85"/>
+      <c r="D232" s="83"/>
       <c r="AJ232" t="str">
         <f>TRIM(MID(SUBSTITUTE($F232, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ232)-1)*100+1, 100))</f>
         <v/>
@@ -34127,8 +34137,8 @@
         <v>45889</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="96"/>
-      <c r="D233" s="94"/>
+      <c r="C233" s="85"/>
+      <c r="D233" s="83"/>
       <c r="AJ233" t="str">
         <f>TRIM(MID(SUBSTITUTE($F233, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ233)-1)*100+1, 100))</f>
         <v/>
@@ -34203,8 +34213,8 @@
         <v>45890</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="96"/>
-      <c r="D234" s="94"/>
+      <c r="C234" s="85"/>
+      <c r="D234" s="83"/>
       <c r="AJ234" t="str">
         <f>TRIM(MID(SUBSTITUTE($F234, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ234)-1)*100+1, 100))</f>
         <v/>
@@ -34279,8 +34289,8 @@
         <v>45891</v>
       </c>
       <c r="B235" s="2"/>
-      <c r="C235" s="96"/>
-      <c r="D235" s="94"/>
+      <c r="C235" s="85"/>
+      <c r="D235" s="83"/>
       <c r="AJ235" t="str">
         <f>TRIM(MID(SUBSTITUTE($F235, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ235)-1)*100+1, 100))</f>
         <v/>
@@ -34355,8 +34365,8 @@
         <v>45892</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="96"/>
-      <c r="D236" s="94"/>
+      <c r="C236" s="85"/>
+      <c r="D236" s="83"/>
       <c r="AJ236" t="str">
         <f>TRIM(MID(SUBSTITUTE($F236, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ236)-1)*100+1, 100))</f>
         <v/>
@@ -34431,8 +34441,8 @@
         <v>45893</v>
       </c>
       <c r="B237" s="2"/>
-      <c r="C237" s="96"/>
-      <c r="D237" s="94"/>
+      <c r="C237" s="85"/>
+      <c r="D237" s="83"/>
       <c r="AJ237" t="str">
         <f>TRIM(MID(SUBSTITUTE($F237, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ237)-1)*100+1, 100))</f>
         <v/>
@@ -34507,8 +34517,8 @@
         <v>45894</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="96"/>
-      <c r="D238" s="94"/>
+      <c r="C238" s="85"/>
+      <c r="D238" s="83"/>
       <c r="AJ238" t="str">
         <f>TRIM(MID(SUBSTITUTE($F238, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ238)-1)*100+1, 100))</f>
         <v/>
@@ -34583,8 +34593,8 @@
         <v>45895</v>
       </c>
       <c r="B239" s="2"/>
-      <c r="C239" s="96"/>
-      <c r="D239" s="94"/>
+      <c r="C239" s="85"/>
+      <c r="D239" s="83"/>
       <c r="AJ239" t="str">
         <f>TRIM(MID(SUBSTITUTE($F239, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ239)-1)*100+1, 100))</f>
         <v/>
@@ -34659,8 +34669,8 @@
         <v>45896</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="96"/>
-      <c r="D240" s="94"/>
+      <c r="C240" s="85"/>
+      <c r="D240" s="83"/>
       <c r="AJ240" t="str">
         <f>TRIM(MID(SUBSTITUTE($F240, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ240)-1)*100+1, 100))</f>
         <v/>
@@ -34735,8 +34745,8 @@
         <v>45897</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="96"/>
-      <c r="D241" s="94"/>
+      <c r="C241" s="85"/>
+      <c r="D241" s="83"/>
       <c r="AJ241" t="str">
         <f>TRIM(MID(SUBSTITUTE($F241, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ241)-1)*100+1, 100))</f>
         <v/>
@@ -34811,8 +34821,8 @@
         <v>45898</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="96"/>
-      <c r="D242" s="94"/>
+      <c r="C242" s="85"/>
+      <c r="D242" s="83"/>
       <c r="AJ242" t="str">
         <f>TRIM(MID(SUBSTITUTE($F242, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ242)-1)*100+1, 100))</f>
         <v/>
@@ -34887,8 +34897,8 @@
         <v>45899</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="96"/>
-      <c r="D243" s="94"/>
+      <c r="C243" s="85"/>
+      <c r="D243" s="83"/>
       <c r="AJ243" t="str">
         <f>TRIM(MID(SUBSTITUTE($F243, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ243)-1)*100+1, 100))</f>
         <v/>
@@ -34963,8 +34973,8 @@
         <v>45900</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="96"/>
-      <c r="D244" s="94"/>
+      <c r="C244" s="85"/>
+      <c r="D244" s="83"/>
       <c r="AJ244" t="str">
         <f>TRIM(MID(SUBSTITUTE($F244, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ244)-1)*100+1, 100))</f>
         <v/>
@@ -35039,8 +35049,8 @@
         <v>45901</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="96"/>
-      <c r="D245" s="94"/>
+      <c r="C245" s="85"/>
+      <c r="D245" s="83"/>
       <c r="AJ245" t="str">
         <f>TRIM(MID(SUBSTITUTE($F245, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ245)-1)*100+1, 100))</f>
         <v/>
@@ -35115,8 +35125,8 @@
         <v>45902</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="96"/>
-      <c r="D246" s="94"/>
+      <c r="C246" s="85"/>
+      <c r="D246" s="83"/>
       <c r="AJ246" t="str">
         <f>TRIM(MID(SUBSTITUTE($F246, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ246)-1)*100+1, 100))</f>
         <v/>
@@ -35191,8 +35201,8 @@
         <v>45903</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="96"/>
-      <c r="D247" s="94"/>
+      <c r="C247" s="85"/>
+      <c r="D247" s="83"/>
       <c r="AJ247" t="str">
         <f>TRIM(MID(SUBSTITUTE($F247, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ247)-1)*100+1, 100))</f>
         <v/>
@@ -35267,8 +35277,8 @@
         <v>45904</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="96"/>
-      <c r="D248" s="94"/>
+      <c r="C248" s="85"/>
+      <c r="D248" s="83"/>
       <c r="AJ248" t="str">
         <f>TRIM(MID(SUBSTITUTE($F248, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ248)-1)*100+1, 100))</f>
         <v/>
@@ -35343,8 +35353,8 @@
         <v>45905</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="96"/>
-      <c r="D249" s="94"/>
+      <c r="C249" s="85"/>
+      <c r="D249" s="83"/>
       <c r="AJ249" t="str">
         <f>TRIM(MID(SUBSTITUTE($F249, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ249)-1)*100+1, 100))</f>
         <v/>
@@ -35419,8 +35429,8 @@
         <v>45906</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="96"/>
-      <c r="D250" s="94"/>
+      <c r="C250" s="85"/>
+      <c r="D250" s="83"/>
       <c r="AJ250" t="str">
         <f>TRIM(MID(SUBSTITUTE($F250, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ250)-1)*100+1, 100))</f>
         <v/>
@@ -35495,8 +35505,8 @@
         <v>45907</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="96"/>
-      <c r="D251" s="94"/>
+      <c r="C251" s="85"/>
+      <c r="D251" s="83"/>
       <c r="AJ251" t="str">
         <f>TRIM(MID(SUBSTITUTE($F251, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ251)-1)*100+1, 100))</f>
         <v/>
@@ -35571,8 +35581,8 @@
         <v>45908</v>
       </c>
       <c r="B252" s="2"/>
-      <c r="C252" s="96"/>
-      <c r="D252" s="94"/>
+      <c r="C252" s="85"/>
+      <c r="D252" s="83"/>
       <c r="AJ252" t="str">
         <f>TRIM(MID(SUBSTITUTE($F252, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ252)-1)*100+1, 100))</f>
         <v/>
@@ -35647,8 +35657,8 @@
         <v>45909</v>
       </c>
       <c r="B253" s="2"/>
-      <c r="C253" s="96"/>
-      <c r="D253" s="94"/>
+      <c r="C253" s="85"/>
+      <c r="D253" s="83"/>
       <c r="AJ253" t="str">
         <f>TRIM(MID(SUBSTITUTE($F253, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ253)-1)*100+1, 100))</f>
         <v/>
@@ -35723,8 +35733,8 @@
         <v>45910</v>
       </c>
       <c r="B254" s="2"/>
-      <c r="C254" s="96"/>
-      <c r="D254" s="94"/>
+      <c r="C254" s="85"/>
+      <c r="D254" s="83"/>
       <c r="AJ254" t="str">
         <f>TRIM(MID(SUBSTITUTE($F254, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ254)-1)*100+1, 100))</f>
         <v/>
@@ -35799,8 +35809,8 @@
         <v>45911</v>
       </c>
       <c r="B255" s="2"/>
-      <c r="C255" s="96"/>
-      <c r="D255" s="94"/>
+      <c r="C255" s="85"/>
+      <c r="D255" s="83"/>
       <c r="AJ255" t="str">
         <f>TRIM(MID(SUBSTITUTE($F255, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ255)-1)*100+1, 100))</f>
         <v/>
@@ -35875,8 +35885,8 @@
         <v>45912</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="96"/>
-      <c r="D256" s="94"/>
+      <c r="C256" s="85"/>
+      <c r="D256" s="83"/>
       <c r="AJ256" t="str">
         <f>TRIM(MID(SUBSTITUTE($F256, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ256)-1)*100+1, 100))</f>
         <v/>
@@ -35951,8 +35961,8 @@
         <v>45913</v>
       </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="96"/>
-      <c r="D257" s="94"/>
+      <c r="C257" s="85"/>
+      <c r="D257" s="83"/>
       <c r="AJ257" t="str">
         <f>TRIM(MID(SUBSTITUTE($F257, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ257)-1)*100+1, 100))</f>
         <v/>
@@ -36027,8 +36037,8 @@
         <v>45914</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="96"/>
-      <c r="D258" s="94"/>
+      <c r="C258" s="85"/>
+      <c r="D258" s="83"/>
       <c r="AJ258" t="str">
         <f>TRIM(MID(SUBSTITUTE($F258, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ258)-1)*100+1, 100))</f>
         <v/>
@@ -36103,8 +36113,8 @@
         <v>45915</v>
       </c>
       <c r="B259" s="2"/>
-      <c r="C259" s="96"/>
-      <c r="D259" s="94"/>
+      <c r="C259" s="85"/>
+      <c r="D259" s="83"/>
       <c r="AJ259" t="str">
         <f>TRIM(MID(SUBSTITUTE($F259, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ259)-1)*100+1, 100))</f>
         <v/>
@@ -36179,8 +36189,8 @@
         <v>45916</v>
       </c>
       <c r="B260" s="2"/>
-      <c r="C260" s="96"/>
-      <c r="D260" s="94"/>
+      <c r="C260" s="85"/>
+      <c r="D260" s="83"/>
       <c r="AJ260" t="str">
         <f>TRIM(MID(SUBSTITUTE($F260, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ260)-1)*100+1, 100))</f>
         <v/>
@@ -36255,8 +36265,8 @@
         <v>45917</v>
       </c>
       <c r="B261" s="2"/>
-      <c r="C261" s="96"/>
-      <c r="D261" s="94"/>
+      <c r="C261" s="85"/>
+      <c r="D261" s="83"/>
       <c r="AJ261" t="str">
         <f>TRIM(MID(SUBSTITUTE($F261, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ261)-1)*100+1, 100))</f>
         <v/>
@@ -36331,8 +36341,8 @@
         <v>45918</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="96"/>
-      <c r="D262" s="94"/>
+      <c r="C262" s="85"/>
+      <c r="D262" s="83"/>
       <c r="AJ262" t="str">
         <f>TRIM(MID(SUBSTITUTE($F262, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ262)-1)*100+1, 100))</f>
         <v/>
@@ -36407,8 +36417,8 @@
         <v>45919</v>
       </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="96"/>
-      <c r="D263" s="94"/>
+      <c r="C263" s="85"/>
+      <c r="D263" s="83"/>
       <c r="AJ263" t="str">
         <f>TRIM(MID(SUBSTITUTE($F263, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ263)-1)*100+1, 100))</f>
         <v/>
@@ -36483,8 +36493,8 @@
         <v>45920</v>
       </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="96"/>
-      <c r="D264" s="94"/>
+      <c r="C264" s="85"/>
+      <c r="D264" s="83"/>
       <c r="AJ264" t="str">
         <f>TRIM(MID(SUBSTITUTE($F264, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ264)-1)*100+1, 100))</f>
         <v/>
@@ -36559,8 +36569,8 @@
         <v>45921</v>
       </c>
       <c r="B265" s="2"/>
-      <c r="C265" s="96"/>
-      <c r="D265" s="94"/>
+      <c r="C265" s="85"/>
+      <c r="D265" s="83"/>
       <c r="AJ265" t="str">
         <f>TRIM(MID(SUBSTITUTE($F265, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ265)-1)*100+1, 100))</f>
         <v/>
@@ -36635,8 +36645,8 @@
         <v>45922</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="96"/>
-      <c r="D266" s="94"/>
+      <c r="C266" s="85"/>
+      <c r="D266" s="83"/>
       <c r="AJ266" t="str">
         <f>TRIM(MID(SUBSTITUTE($F266, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ266)-1)*100+1, 100))</f>
         <v/>
@@ -36711,8 +36721,8 @@
         <v>45923</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="96"/>
-      <c r="D267" s="94"/>
+      <c r="C267" s="85"/>
+      <c r="D267" s="83"/>
       <c r="AJ267" t="str">
         <f>TRIM(MID(SUBSTITUTE($F267, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ267)-1)*100+1, 100))</f>
         <v/>
@@ -36787,8 +36797,8 @@
         <v>45924</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="96"/>
-      <c r="D268" s="94"/>
+      <c r="C268" s="85"/>
+      <c r="D268" s="83"/>
       <c r="AJ268" t="str">
         <f>TRIM(MID(SUBSTITUTE($F268, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ268)-1)*100+1, 100))</f>
         <v/>
@@ -36863,8 +36873,8 @@
         <v>45925</v>
       </c>
       <c r="B269" s="2"/>
-      <c r="C269" s="96"/>
-      <c r="D269" s="94"/>
+      <c r="C269" s="85"/>
+      <c r="D269" s="83"/>
       <c r="AJ269" t="str">
         <f>TRIM(MID(SUBSTITUTE($F269, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ269)-1)*100+1, 100))</f>
         <v/>
@@ -36939,8 +36949,8 @@
         <v>45926</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270" s="96"/>
-      <c r="D270" s="94"/>
+      <c r="C270" s="85"/>
+      <c r="D270" s="83"/>
       <c r="AJ270" t="str">
         <f>TRIM(MID(SUBSTITUTE($F270, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ270)-1)*100+1, 100))</f>
         <v/>
@@ -37015,8 +37025,8 @@
         <v>45927</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="96"/>
-      <c r="D271" s="94"/>
+      <c r="C271" s="85"/>
+      <c r="D271" s="83"/>
       <c r="AJ271" t="str">
         <f>TRIM(MID(SUBSTITUTE($F271, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ271)-1)*100+1, 100))</f>
         <v/>
@@ -37091,8 +37101,8 @@
         <v>45928</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="96"/>
-      <c r="D272" s="94"/>
+      <c r="C272" s="85"/>
+      <c r="D272" s="83"/>
       <c r="AJ272" t="str">
         <f>TRIM(MID(SUBSTITUTE($F272, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ272)-1)*100+1, 100))</f>
         <v/>
@@ -37167,8 +37177,8 @@
         <v>45929</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="96"/>
-      <c r="D273" s="94"/>
+      <c r="C273" s="85"/>
+      <c r="D273" s="83"/>
       <c r="AJ273" t="str">
         <f>TRIM(MID(SUBSTITUTE($F273, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ273)-1)*100+1, 100))</f>
         <v/>
@@ -37243,8 +37253,8 @@
         <v>45930</v>
       </c>
       <c r="B274" s="2"/>
-      <c r="C274" s="96"/>
-      <c r="D274" s="94"/>
+      <c r="C274" s="85"/>
+      <c r="D274" s="83"/>
       <c r="AJ274" t="str">
         <f>TRIM(MID(SUBSTITUTE($F274, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ274)-1)*100+1, 100))</f>
         <v/>
@@ -37319,8 +37329,8 @@
         <v>45931</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="96"/>
-      <c r="D275" s="94"/>
+      <c r="C275" s="85"/>
+      <c r="D275" s="83"/>
       <c r="AJ275" t="str">
         <f>TRIM(MID(SUBSTITUTE($F275, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ275)-1)*100+1, 100))</f>
         <v/>
@@ -37395,8 +37405,8 @@
         <v>45932</v>
       </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="96"/>
-      <c r="D276" s="94"/>
+      <c r="C276" s="85"/>
+      <c r="D276" s="83"/>
       <c r="AJ276" t="str">
         <f>TRIM(MID(SUBSTITUTE($F276, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ276)-1)*100+1, 100))</f>
         <v/>
@@ -37471,8 +37481,8 @@
         <v>45933</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="96"/>
-      <c r="D277" s="94"/>
+      <c r="C277" s="85"/>
+      <c r="D277" s="83"/>
       <c r="AJ277" t="str">
         <f>TRIM(MID(SUBSTITUTE($F277, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ277)-1)*100+1, 100))</f>
         <v/>
@@ -37547,8 +37557,8 @@
         <v>45934</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="96"/>
-      <c r="D278" s="94"/>
+      <c r="C278" s="85"/>
+      <c r="D278" s="83"/>
       <c r="AJ278" t="str">
         <f>TRIM(MID(SUBSTITUTE($F278, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ278)-1)*100+1, 100))</f>
         <v/>
@@ -37623,8 +37633,8 @@
         <v>45935</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="96"/>
-      <c r="D279" s="94"/>
+      <c r="C279" s="85"/>
+      <c r="D279" s="83"/>
       <c r="AJ279" t="str">
         <f>TRIM(MID(SUBSTITUTE($F279, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ279)-1)*100+1, 100))</f>
         <v/>
@@ -37699,8 +37709,8 @@
         <v>45936</v>
       </c>
       <c r="B280" s="2"/>
-      <c r="C280" s="96"/>
-      <c r="D280" s="94"/>
+      <c r="C280" s="85"/>
+      <c r="D280" s="83"/>
       <c r="AJ280" t="str">
         <f>TRIM(MID(SUBSTITUTE($F280, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ280)-1)*100+1, 100))</f>
         <v/>
@@ -37775,8 +37785,8 @@
         <v>45937</v>
       </c>
       <c r="B281" s="2"/>
-      <c r="C281" s="96"/>
-      <c r="D281" s="94"/>
+      <c r="C281" s="85"/>
+      <c r="D281" s="83"/>
       <c r="AJ281" t="str">
         <f>TRIM(MID(SUBSTITUTE($F281, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ281)-1)*100+1, 100))</f>
         <v/>
@@ -37851,8 +37861,8 @@
         <v>45938</v>
       </c>
       <c r="B282" s="2"/>
-      <c r="C282" s="96"/>
-      <c r="D282" s="94"/>
+      <c r="C282" s="85"/>
+      <c r="D282" s="83"/>
       <c r="AJ282" t="str">
         <f>TRIM(MID(SUBSTITUTE($F282, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ282)-1)*100+1, 100))</f>
         <v/>
@@ -37927,8 +37937,8 @@
         <v>45939</v>
       </c>
       <c r="B283" s="2"/>
-      <c r="C283" s="96"/>
-      <c r="D283" s="94"/>
+      <c r="C283" s="85"/>
+      <c r="D283" s="83"/>
       <c r="AJ283" t="str">
         <f>TRIM(MID(SUBSTITUTE($F283, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ283)-1)*100+1, 100))</f>
         <v/>
@@ -38003,8 +38013,8 @@
         <v>45940</v>
       </c>
       <c r="B284" s="2"/>
-      <c r="C284" s="96"/>
-      <c r="D284" s="94"/>
+      <c r="C284" s="85"/>
+      <c r="D284" s="83"/>
       <c r="AJ284" t="str">
         <f>TRIM(MID(SUBSTITUTE($F284, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ284)-1)*100+1, 100))</f>
         <v/>
@@ -38079,8 +38089,8 @@
         <v>45941</v>
       </c>
       <c r="B285" s="2"/>
-      <c r="C285" s="96"/>
-      <c r="D285" s="94"/>
+      <c r="C285" s="85"/>
+      <c r="D285" s="83"/>
       <c r="AJ285" t="str">
         <f>TRIM(MID(SUBSTITUTE($F285, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ285)-1)*100+1, 100))</f>
         <v/>
@@ -38155,8 +38165,8 @@
         <v>45942</v>
       </c>
       <c r="B286" s="2"/>
-      <c r="C286" s="96"/>
-      <c r="D286" s="94"/>
+      <c r="C286" s="85"/>
+      <c r="D286" s="83"/>
       <c r="AJ286" t="str">
         <f>TRIM(MID(SUBSTITUTE($F286, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ286)-1)*100+1, 100))</f>
         <v/>
@@ -38231,8 +38241,8 @@
         <v>45943</v>
       </c>
       <c r="B287" s="2"/>
-      <c r="C287" s="96"/>
-      <c r="D287" s="94"/>
+      <c r="C287" s="85"/>
+      <c r="D287" s="83"/>
       <c r="AJ287" t="str">
         <f>TRIM(MID(SUBSTITUTE($F287, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ287)-1)*100+1, 100))</f>
         <v/>
@@ -38307,8 +38317,8 @@
         <v>45944</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="96"/>
-      <c r="D288" s="94"/>
+      <c r="C288" s="85"/>
+      <c r="D288" s="83"/>
       <c r="AJ288" t="str">
         <f>TRIM(MID(SUBSTITUTE($F288, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ288)-1)*100+1, 100))</f>
         <v/>
@@ -38383,8 +38393,8 @@
         <v>45945</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="96"/>
-      <c r="D289" s="94"/>
+      <c r="C289" s="85"/>
+      <c r="D289" s="83"/>
       <c r="AJ289" t="str">
         <f>TRIM(MID(SUBSTITUTE($F289, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ289)-1)*100+1, 100))</f>
         <v/>
@@ -38459,8 +38469,8 @@
         <v>45946</v>
       </c>
       <c r="B290" s="2"/>
-      <c r="C290" s="96"/>
-      <c r="D290" s="94"/>
+      <c r="C290" s="85"/>
+      <c r="D290" s="83"/>
       <c r="AJ290" t="str">
         <f>TRIM(MID(SUBSTITUTE($F290, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ290)-1)*100+1, 100))</f>
         <v/>
@@ -38535,8 +38545,8 @@
         <v>45947</v>
       </c>
       <c r="B291" s="2"/>
-      <c r="C291" s="96"/>
-      <c r="D291" s="94"/>
+      <c r="C291" s="85"/>
+      <c r="D291" s="83"/>
       <c r="AJ291" t="str">
         <f>TRIM(MID(SUBSTITUTE($F291, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ291)-1)*100+1, 100))</f>
         <v/>
@@ -38611,8 +38621,8 @@
         <v>45948</v>
       </c>
       <c r="B292" s="2"/>
-      <c r="C292" s="96"/>
-      <c r="D292" s="94"/>
+      <c r="C292" s="85"/>
+      <c r="D292" s="83"/>
       <c r="AJ292" t="str">
         <f>TRIM(MID(SUBSTITUTE($F292, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ292)-1)*100+1, 100))</f>
         <v/>
@@ -38687,8 +38697,8 @@
         <v>45949</v>
       </c>
       <c r="B293" s="2"/>
-      <c r="C293" s="96"/>
-      <c r="D293" s="94"/>
+      <c r="C293" s="85"/>
+      <c r="D293" s="83"/>
       <c r="AJ293" t="str">
         <f>TRIM(MID(SUBSTITUTE($F293, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ293)-1)*100+1, 100))</f>
         <v/>
@@ -38763,8 +38773,8 @@
         <v>45950</v>
       </c>
       <c r="B294" s="2"/>
-      <c r="C294" s="96"/>
-      <c r="D294" s="94"/>
+      <c r="C294" s="85"/>
+      <c r="D294" s="83"/>
       <c r="AJ294" t="str">
         <f>TRIM(MID(SUBSTITUTE($F294, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ294)-1)*100+1, 100))</f>
         <v/>
@@ -38839,8 +38849,8 @@
         <v>45951</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="96"/>
-      <c r="D295" s="94"/>
+      <c r="C295" s="85"/>
+      <c r="D295" s="83"/>
       <c r="AJ295" t="str">
         <f>TRIM(MID(SUBSTITUTE($F295, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ295)-1)*100+1, 100))</f>
         <v/>
@@ -38915,8 +38925,8 @@
         <v>45952</v>
       </c>
       <c r="B296" s="2"/>
-      <c r="C296" s="96"/>
-      <c r="D296" s="94"/>
+      <c r="C296" s="85"/>
+      <c r="D296" s="83"/>
       <c r="AJ296" t="str">
         <f>TRIM(MID(SUBSTITUTE($F296, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ296)-1)*100+1, 100))</f>
         <v/>
@@ -38991,8 +39001,8 @@
         <v>45953</v>
       </c>
       <c r="B297" s="2"/>
-      <c r="C297" s="96"/>
-      <c r="D297" s="94"/>
+      <c r="C297" s="85"/>
+      <c r="D297" s="83"/>
       <c r="AJ297" t="str">
         <f>TRIM(MID(SUBSTITUTE($F297, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ297)-1)*100+1, 100))</f>
         <v/>
@@ -39067,8 +39077,8 @@
         <v>45954</v>
       </c>
       <c r="B298" s="2"/>
-      <c r="C298" s="96"/>
-      <c r="D298" s="94"/>
+      <c r="C298" s="85"/>
+      <c r="D298" s="83"/>
       <c r="AJ298" t="str">
         <f>TRIM(MID(SUBSTITUTE($F298, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ298)-1)*100+1, 100))</f>
         <v/>
@@ -39143,8 +39153,8 @@
         <v>45955</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="96"/>
-      <c r="D299" s="94"/>
+      <c r="C299" s="85"/>
+      <c r="D299" s="83"/>
       <c r="AJ299" t="str">
         <f>TRIM(MID(SUBSTITUTE($F299, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ299)-1)*100+1, 100))</f>
         <v/>
@@ -39219,8 +39229,8 @@
         <v>45956</v>
       </c>
       <c r="B300" s="2"/>
-      <c r="C300" s="96"/>
-      <c r="D300" s="94"/>
+      <c r="C300" s="85"/>
+      <c r="D300" s="83"/>
       <c r="AJ300" t="str">
         <f>TRIM(MID(SUBSTITUTE($F300, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ300)-1)*100+1, 100))</f>
         <v/>
@@ -39295,8 +39305,8 @@
         <v>45957</v>
       </c>
       <c r="B301" s="2"/>
-      <c r="C301" s="96"/>
-      <c r="D301" s="94"/>
+      <c r="C301" s="85"/>
+      <c r="D301" s="83"/>
       <c r="AJ301" t="str">
         <f>TRIM(MID(SUBSTITUTE($F301, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ301)-1)*100+1, 100))</f>
         <v/>
@@ -39371,8 +39381,8 @@
         <v>45958</v>
       </c>
       <c r="B302" s="2"/>
-      <c r="C302" s="96"/>
-      <c r="D302" s="94"/>
+      <c r="C302" s="85"/>
+      <c r="D302" s="83"/>
       <c r="AJ302" t="str">
         <f>TRIM(MID(SUBSTITUTE($F302, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ302)-1)*100+1, 100))</f>
         <v/>
@@ -39447,8 +39457,8 @@
         <v>45959</v>
       </c>
       <c r="B303" s="2"/>
-      <c r="C303" s="96"/>
-      <c r="D303" s="94"/>
+      <c r="C303" s="85"/>
+      <c r="D303" s="83"/>
       <c r="AJ303" t="str">
         <f>TRIM(MID(SUBSTITUTE($F303, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ303)-1)*100+1, 100))</f>
         <v/>
@@ -39523,8 +39533,8 @@
         <v>45960</v>
       </c>
       <c r="B304" s="2"/>
-      <c r="C304" s="96"/>
-      <c r="D304" s="94"/>
+      <c r="C304" s="85"/>
+      <c r="D304" s="83"/>
       <c r="AJ304" t="str">
         <f>TRIM(MID(SUBSTITUTE($F304, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ304)-1)*100+1, 100))</f>
         <v/>
@@ -39599,8 +39609,8 @@
         <v>45961</v>
       </c>
       <c r="B305" s="2"/>
-      <c r="C305" s="96"/>
-      <c r="D305" s="94"/>
+      <c r="C305" s="85"/>
+      <c r="D305" s="83"/>
       <c r="AJ305" t="str">
         <f>TRIM(MID(SUBSTITUTE($F305, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ305)-1)*100+1, 100))</f>
         <v/>
@@ -39675,8 +39685,8 @@
         <v>45962</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="96"/>
-      <c r="D306" s="94"/>
+      <c r="C306" s="85"/>
+      <c r="D306" s="83"/>
       <c r="AJ306" t="str">
         <f>TRIM(MID(SUBSTITUTE($F306, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ306)-1)*100+1, 100))</f>
         <v/>
@@ -39751,8 +39761,8 @@
         <v>45963</v>
       </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="96"/>
-      <c r="D307" s="94"/>
+      <c r="C307" s="85"/>
+      <c r="D307" s="83"/>
       <c r="AJ307" t="str">
         <f>TRIM(MID(SUBSTITUTE($F307, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ307)-1)*100+1, 100))</f>
         <v/>
@@ -39827,8 +39837,8 @@
         <v>45964</v>
       </c>
       <c r="B308" s="2"/>
-      <c r="C308" s="96"/>
-      <c r="D308" s="94"/>
+      <c r="C308" s="85"/>
+      <c r="D308" s="83"/>
       <c r="AJ308" t="str">
         <f>TRIM(MID(SUBSTITUTE($F308, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ308)-1)*100+1, 100))</f>
         <v/>
@@ -39903,8 +39913,8 @@
         <v>45965</v>
       </c>
       <c r="B309" s="2"/>
-      <c r="C309" s="96"/>
-      <c r="D309" s="94"/>
+      <c r="C309" s="85"/>
+      <c r="D309" s="83"/>
       <c r="AJ309" t="str">
         <f>TRIM(MID(SUBSTITUTE($F309, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ309)-1)*100+1, 100))</f>
         <v/>
@@ -39979,8 +39989,8 @@
         <v>45966</v>
       </c>
       <c r="B310" s="2"/>
-      <c r="C310" s="96"/>
-      <c r="D310" s="94"/>
+      <c r="C310" s="85"/>
+      <c r="D310" s="83"/>
       <c r="AJ310" t="str">
         <f>TRIM(MID(SUBSTITUTE($F310, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ310)-1)*100+1, 100))</f>
         <v/>
@@ -40055,8 +40065,8 @@
         <v>45967</v>
       </c>
       <c r="B311" s="2"/>
-      <c r="C311" s="96"/>
-      <c r="D311" s="94"/>
+      <c r="C311" s="85"/>
+      <c r="D311" s="83"/>
       <c r="AJ311" t="str">
         <f>TRIM(MID(SUBSTITUTE($F311, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ311)-1)*100+1, 100))</f>
         <v/>
@@ -40131,8 +40141,8 @@
         <v>45968</v>
       </c>
       <c r="B312" s="2"/>
-      <c r="C312" s="96"/>
-      <c r="D312" s="94"/>
+      <c r="C312" s="85"/>
+      <c r="D312" s="83"/>
       <c r="AJ312" t="str">
         <f>TRIM(MID(SUBSTITUTE($F312, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ312)-1)*100+1, 100))</f>
         <v/>
@@ -40207,8 +40217,8 @@
         <v>45969</v>
       </c>
       <c r="B313" s="2"/>
-      <c r="C313" s="96"/>
-      <c r="D313" s="94"/>
+      <c r="C313" s="85"/>
+      <c r="D313" s="83"/>
       <c r="AJ313" t="str">
         <f>TRIM(MID(SUBSTITUTE($F313, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ313)-1)*100+1, 100))</f>
         <v/>
@@ -40283,8 +40293,8 @@
         <v>45970</v>
       </c>
       <c r="B314" s="2"/>
-      <c r="C314" s="96"/>
-      <c r="D314" s="94"/>
+      <c r="C314" s="85"/>
+      <c r="D314" s="83"/>
       <c r="AJ314" t="str">
         <f>TRIM(MID(SUBSTITUTE($F314, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ314)-1)*100+1, 100))</f>
         <v/>
@@ -40359,8 +40369,8 @@
         <v>45971</v>
       </c>
       <c r="B315" s="2"/>
-      <c r="C315" s="96"/>
-      <c r="D315" s="94"/>
+      <c r="C315" s="85"/>
+      <c r="D315" s="83"/>
       <c r="AJ315" t="str">
         <f>TRIM(MID(SUBSTITUTE($F315, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ315)-1)*100+1, 100))</f>
         <v/>
@@ -40435,8 +40445,8 @@
         <v>45972</v>
       </c>
       <c r="B316" s="2"/>
-      <c r="C316" s="96"/>
-      <c r="D316" s="94"/>
+      <c r="C316" s="85"/>
+      <c r="D316" s="83"/>
       <c r="AJ316" t="str">
         <f>TRIM(MID(SUBSTITUTE($F316, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ316)-1)*100+1, 100))</f>
         <v/>
@@ -40511,8 +40521,8 @@
         <v>45973</v>
       </c>
       <c r="B317" s="2"/>
-      <c r="C317" s="96"/>
-      <c r="D317" s="94"/>
+      <c r="C317" s="85"/>
+      <c r="D317" s="83"/>
       <c r="AJ317" t="str">
         <f>TRIM(MID(SUBSTITUTE($F317, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ317)-1)*100+1, 100))</f>
         <v/>
@@ -40587,8 +40597,8 @@
         <v>45974</v>
       </c>
       <c r="B318" s="2"/>
-      <c r="C318" s="96"/>
-      <c r="D318" s="94"/>
+      <c r="C318" s="85"/>
+      <c r="D318" s="83"/>
       <c r="AJ318" t="str">
         <f>TRIM(MID(SUBSTITUTE($F318, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ318)-1)*100+1, 100))</f>
         <v/>
@@ -40663,8 +40673,8 @@
         <v>45975</v>
       </c>
       <c r="B319" s="2"/>
-      <c r="C319" s="96"/>
-      <c r="D319" s="94"/>
+      <c r="C319" s="85"/>
+      <c r="D319" s="83"/>
       <c r="AJ319" t="str">
         <f>TRIM(MID(SUBSTITUTE($F319, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ319)-1)*100+1, 100))</f>
         <v/>
@@ -40739,8 +40749,8 @@
         <v>45976</v>
       </c>
       <c r="B320" s="2"/>
-      <c r="C320" s="96"/>
-      <c r="D320" s="94"/>
+      <c r="C320" s="85"/>
+      <c r="D320" s="83"/>
       <c r="AJ320" t="str">
         <f>TRIM(MID(SUBSTITUTE($F320, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ320)-1)*100+1, 100))</f>
         <v/>
@@ -40815,8 +40825,8 @@
         <v>45977</v>
       </c>
       <c r="B321" s="2"/>
-      <c r="C321" s="96"/>
-      <c r="D321" s="94"/>
+      <c r="C321" s="85"/>
+      <c r="D321" s="83"/>
       <c r="AJ321" t="str">
         <f>TRIM(MID(SUBSTITUTE($F321, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ321)-1)*100+1, 100))</f>
         <v/>
@@ -40891,8 +40901,8 @@
         <v>45978</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="96"/>
-      <c r="D322" s="94"/>
+      <c r="C322" s="85"/>
+      <c r="D322" s="83"/>
       <c r="AJ322" t="str">
         <f>TRIM(MID(SUBSTITUTE($F322, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ322)-1)*100+1, 100))</f>
         <v/>
@@ -40967,8 +40977,8 @@
         <v>45979</v>
       </c>
       <c r="B323" s="2"/>
-      <c r="C323" s="96"/>
-      <c r="D323" s="94"/>
+      <c r="C323" s="85"/>
+      <c r="D323" s="83"/>
       <c r="AJ323" t="str">
         <f>TRIM(MID(SUBSTITUTE($F323, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ323)-1)*100+1, 100))</f>
         <v/>
@@ -41043,8 +41053,8 @@
         <v>45980</v>
       </c>
       <c r="B324" s="2"/>
-      <c r="C324" s="96"/>
-      <c r="D324" s="94"/>
+      <c r="C324" s="85"/>
+      <c r="D324" s="83"/>
       <c r="AJ324" t="str">
         <f>TRIM(MID(SUBSTITUTE($F324, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ324)-1)*100+1, 100))</f>
         <v/>
@@ -41119,8 +41129,8 @@
         <v>45981</v>
       </c>
       <c r="B325" s="2"/>
-      <c r="C325" s="96"/>
-      <c r="D325" s="94"/>
+      <c r="C325" s="85"/>
+      <c r="D325" s="83"/>
       <c r="AJ325" t="str">
         <f>TRIM(MID(SUBSTITUTE($F325, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ325)-1)*100+1, 100))</f>
         <v/>
@@ -41195,8 +41205,8 @@
         <v>45982</v>
       </c>
       <c r="B326" s="2"/>
-      <c r="C326" s="96"/>
-      <c r="D326" s="94"/>
+      <c r="C326" s="85"/>
+      <c r="D326" s="83"/>
       <c r="AJ326" t="str">
         <f>TRIM(MID(SUBSTITUTE($F326, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ326)-1)*100+1, 100))</f>
         <v/>
@@ -41271,8 +41281,8 @@
         <v>45983</v>
       </c>
       <c r="B327" s="2"/>
-      <c r="C327" s="96"/>
-      <c r="D327" s="94"/>
+      <c r="C327" s="85"/>
+      <c r="D327" s="83"/>
       <c r="AJ327" t="str">
         <f>TRIM(MID(SUBSTITUTE($F327, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ327)-1)*100+1, 100))</f>
         <v/>
@@ -41347,8 +41357,8 @@
         <v>45984</v>
       </c>
       <c r="B328" s="2"/>
-      <c r="C328" s="96"/>
-      <c r="D328" s="94"/>
+      <c r="C328" s="85"/>
+      <c r="D328" s="83"/>
       <c r="AJ328" t="str">
         <f>TRIM(MID(SUBSTITUTE($F328, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ328)-1)*100+1, 100))</f>
         <v/>
@@ -41423,8 +41433,8 @@
         <v>45985</v>
       </c>
       <c r="B329" s="2"/>
-      <c r="C329" s="96"/>
-      <c r="D329" s="94"/>
+      <c r="C329" s="85"/>
+      <c r="D329" s="83"/>
       <c r="AJ329" t="str">
         <f>TRIM(MID(SUBSTITUTE($F329, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ329)-1)*100+1, 100))</f>
         <v/>
@@ -41499,8 +41509,8 @@
         <v>45986</v>
       </c>
       <c r="B330" s="2"/>
-      <c r="C330" s="96"/>
-      <c r="D330" s="94"/>
+      <c r="C330" s="85"/>
+      <c r="D330" s="83"/>
       <c r="AJ330" t="str">
         <f>TRIM(MID(SUBSTITUTE($F330, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ330)-1)*100+1, 100))</f>
         <v/>
@@ -41575,8 +41585,8 @@
         <v>45987</v>
       </c>
       <c r="B331" s="2"/>
-      <c r="C331" s="96"/>
-      <c r="D331" s="94"/>
+      <c r="C331" s="85"/>
+      <c r="D331" s="83"/>
       <c r="AJ331" t="str">
         <f>TRIM(MID(SUBSTITUTE($F331, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ331)-1)*100+1, 100))</f>
         <v/>
@@ -41651,8 +41661,8 @@
         <v>45988</v>
       </c>
       <c r="B332" s="2"/>
-      <c r="C332" s="96"/>
-      <c r="D332" s="94"/>
+      <c r="C332" s="85"/>
+      <c r="D332" s="83"/>
       <c r="AJ332" t="str">
         <f>TRIM(MID(SUBSTITUTE($F332, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ332)-1)*100+1, 100))</f>
         <v/>
@@ -41727,8 +41737,8 @@
         <v>45989</v>
       </c>
       <c r="B333" s="2"/>
-      <c r="C333" s="96"/>
-      <c r="D333" s="94"/>
+      <c r="C333" s="85"/>
+      <c r="D333" s="83"/>
       <c r="AJ333" t="str">
         <f>TRIM(MID(SUBSTITUTE($F333, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ333)-1)*100+1, 100))</f>
         <v/>
@@ -41803,8 +41813,8 @@
         <v>45990</v>
       </c>
       <c r="B334" s="2"/>
-      <c r="C334" s="96"/>
-      <c r="D334" s="94"/>
+      <c r="C334" s="85"/>
+      <c r="D334" s="83"/>
       <c r="AJ334" t="str">
         <f>TRIM(MID(SUBSTITUTE($F334, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ334)-1)*100+1, 100))</f>
         <v/>
@@ -41879,8 +41889,8 @@
         <v>45991</v>
       </c>
       <c r="B335" s="2"/>
-      <c r="C335" s="96"/>
-      <c r="D335" s="94"/>
+      <c r="C335" s="85"/>
+      <c r="D335" s="83"/>
       <c r="AJ335" t="str">
         <f>TRIM(MID(SUBSTITUTE($F335, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ335)-1)*100+1, 100))</f>
         <v/>
@@ -41955,8 +41965,8 @@
         <v>45992</v>
       </c>
       <c r="B336" s="2"/>
-      <c r="C336" s="96"/>
-      <c r="D336" s="94"/>
+      <c r="C336" s="85"/>
+      <c r="D336" s="83"/>
       <c r="AJ336" t="str">
         <f>TRIM(MID(SUBSTITUTE($F336, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ336)-1)*100+1, 100))</f>
         <v/>
@@ -42031,8 +42041,8 @@
         <v>45993</v>
       </c>
       <c r="B337" s="2"/>
-      <c r="C337" s="96"/>
-      <c r="D337" s="94"/>
+      <c r="C337" s="85"/>
+      <c r="D337" s="83"/>
       <c r="AJ337" t="str">
         <f>TRIM(MID(SUBSTITUTE($F337, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ337)-1)*100+1, 100))</f>
         <v/>
@@ -42107,8 +42117,8 @@
         <v>45994</v>
       </c>
       <c r="B338" s="2"/>
-      <c r="C338" s="96"/>
-      <c r="D338" s="94"/>
+      <c r="C338" s="85"/>
+      <c r="D338" s="83"/>
       <c r="AJ338" t="str">
         <f>TRIM(MID(SUBSTITUTE($F338, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ338)-1)*100+1, 100))</f>
         <v/>
@@ -42183,8 +42193,8 @@
         <v>45995</v>
       </c>
       <c r="B339" s="2"/>
-      <c r="C339" s="96"/>
-      <c r="D339" s="94"/>
+      <c r="C339" s="85"/>
+      <c r="D339" s="83"/>
       <c r="AJ339" t="str">
         <f>TRIM(MID(SUBSTITUTE($F339, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ339)-1)*100+1, 100))</f>
         <v/>
@@ -42259,8 +42269,8 @@
         <v>45996</v>
       </c>
       <c r="B340" s="2"/>
-      <c r="C340" s="96"/>
-      <c r="D340" s="94"/>
+      <c r="C340" s="85"/>
+      <c r="D340" s="83"/>
       <c r="AJ340" t="str">
         <f>TRIM(MID(SUBSTITUTE($F340, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ340)-1)*100+1, 100))</f>
         <v/>
@@ -42335,8 +42345,8 @@
         <v>45997</v>
       </c>
       <c r="B341" s="2"/>
-      <c r="C341" s="96"/>
-      <c r="D341" s="94"/>
+      <c r="C341" s="85"/>
+      <c r="D341" s="83"/>
       <c r="AJ341" t="str">
         <f>TRIM(MID(SUBSTITUTE($F341, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ341)-1)*100+1, 100))</f>
         <v/>
@@ -42411,8 +42421,8 @@
         <v>45998</v>
       </c>
       <c r="B342" s="2"/>
-      <c r="C342" s="96"/>
-      <c r="D342" s="94"/>
+      <c r="C342" s="85"/>
+      <c r="D342" s="83"/>
       <c r="AJ342" t="str">
         <f>TRIM(MID(SUBSTITUTE($F342, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ342)-1)*100+1, 100))</f>
         <v/>
@@ -42487,8 +42497,8 @@
         <v>45999</v>
       </c>
       <c r="B343" s="2"/>
-      <c r="C343" s="96"/>
-      <c r="D343" s="94"/>
+      <c r="C343" s="85"/>
+      <c r="D343" s="83"/>
       <c r="AJ343" t="str">
         <f>TRIM(MID(SUBSTITUTE($F343, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ343)-1)*100+1, 100))</f>
         <v/>
@@ -42563,8 +42573,8 @@
         <v>46000</v>
       </c>
       <c r="B344" s="2"/>
-      <c r="C344" s="96"/>
-      <c r="D344" s="94"/>
+      <c r="C344" s="85"/>
+      <c r="D344" s="83"/>
       <c r="AJ344" t="str">
         <f>TRIM(MID(SUBSTITUTE($F344, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ344)-1)*100+1, 100))</f>
         <v/>
@@ -42639,8 +42649,8 @@
         <v>46001</v>
       </c>
       <c r="B345" s="2"/>
-      <c r="C345" s="96"/>
-      <c r="D345" s="94"/>
+      <c r="C345" s="85"/>
+      <c r="D345" s="83"/>
       <c r="AJ345" t="str">
         <f>TRIM(MID(SUBSTITUTE($F345, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ345)-1)*100+1, 100))</f>
         <v/>
@@ -42715,8 +42725,8 @@
         <v>46002</v>
       </c>
       <c r="B346" s="2"/>
-      <c r="C346" s="96"/>
-      <c r="D346" s="94"/>
+      <c r="C346" s="85"/>
+      <c r="D346" s="83"/>
       <c r="AJ346" t="str">
         <f>TRIM(MID(SUBSTITUTE($F346, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ346)-1)*100+1, 100))</f>
         <v/>
@@ -42791,8 +42801,8 @@
         <v>46003</v>
       </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="96"/>
-      <c r="D347" s="94"/>
+      <c r="C347" s="85"/>
+      <c r="D347" s="83"/>
       <c r="AJ347" t="str">
         <f>TRIM(MID(SUBSTITUTE($F347, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ347)-1)*100+1, 100))</f>
         <v/>
@@ -42867,8 +42877,8 @@
         <v>46004</v>
       </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="96"/>
-      <c r="D348" s="94"/>
+      <c r="C348" s="85"/>
+      <c r="D348" s="83"/>
       <c r="AJ348" t="str">
         <f>TRIM(MID(SUBSTITUTE($F348, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ348)-1)*100+1, 100))</f>
         <v/>
@@ -42943,8 +42953,8 @@
         <v>46005</v>
       </c>
       <c r="B349" s="2"/>
-      <c r="C349" s="96"/>
-      <c r="D349" s="94"/>
+      <c r="C349" s="85"/>
+      <c r="D349" s="83"/>
       <c r="AJ349" t="str">
         <f>TRIM(MID(SUBSTITUTE($F349, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ349)-1)*100+1, 100))</f>
         <v/>
@@ -43019,8 +43029,8 @@
         <v>46006</v>
       </c>
       <c r="B350" s="2"/>
-      <c r="C350" s="96"/>
-      <c r="D350" s="94"/>
+      <c r="C350" s="85"/>
+      <c r="D350" s="83"/>
       <c r="AJ350" t="str">
         <f>TRIM(MID(SUBSTITUTE($F350, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ350)-1)*100+1, 100))</f>
         <v/>
@@ -43095,8 +43105,8 @@
         <v>46007</v>
       </c>
       <c r="B351" s="2"/>
-      <c r="C351" s="96"/>
-      <c r="D351" s="94"/>
+      <c r="C351" s="85"/>
+      <c r="D351" s="83"/>
       <c r="AJ351" t="str">
         <f>TRIM(MID(SUBSTITUTE($F351, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ351)-1)*100+1, 100))</f>
         <v/>
@@ -43171,8 +43181,8 @@
         <v>46008</v>
       </c>
       <c r="B352" s="2"/>
-      <c r="C352" s="96"/>
-      <c r="D352" s="94"/>
+      <c r="C352" s="85"/>
+      <c r="D352" s="83"/>
       <c r="AJ352" t="str">
         <f>TRIM(MID(SUBSTITUTE($F352, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ352)-1)*100+1, 100))</f>
         <v/>
@@ -43247,8 +43257,8 @@
         <v>46009</v>
       </c>
       <c r="B353" s="2"/>
-      <c r="C353" s="96"/>
-      <c r="D353" s="94"/>
+      <c r="C353" s="85"/>
+      <c r="D353" s="83"/>
       <c r="AJ353" t="str">
         <f>TRIM(MID(SUBSTITUTE($F353, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ353)-1)*100+1, 100))</f>
         <v/>
@@ -43323,8 +43333,8 @@
         <v>46010</v>
       </c>
       <c r="B354" s="2"/>
-      <c r="C354" s="96"/>
-      <c r="D354" s="94"/>
+      <c r="C354" s="85"/>
+      <c r="D354" s="83"/>
       <c r="AJ354" t="str">
         <f>TRIM(MID(SUBSTITUTE($F354, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ354)-1)*100+1, 100))</f>
         <v/>
@@ -43399,8 +43409,8 @@
         <v>46011</v>
       </c>
       <c r="B355" s="2"/>
-      <c r="C355" s="96"/>
-      <c r="D355" s="94"/>
+      <c r="C355" s="85"/>
+      <c r="D355" s="83"/>
       <c r="AJ355" t="str">
         <f>TRIM(MID(SUBSTITUTE($F355, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ355)-1)*100+1, 100))</f>
         <v/>
@@ -43475,8 +43485,8 @@
         <v>46012</v>
       </c>
       <c r="B356" s="2"/>
-      <c r="C356" s="96"/>
-      <c r="D356" s="94"/>
+      <c r="C356" s="85"/>
+      <c r="D356" s="83"/>
       <c r="AJ356" t="str">
         <f>TRIM(MID(SUBSTITUTE($F356, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ356)-1)*100+1, 100))</f>
         <v/>
@@ -43551,8 +43561,8 @@
         <v>46013</v>
       </c>
       <c r="B357" s="2"/>
-      <c r="C357" s="96"/>
-      <c r="D357" s="94"/>
+      <c r="C357" s="85"/>
+      <c r="D357" s="83"/>
       <c r="AJ357" t="str">
         <f>TRIM(MID(SUBSTITUTE($F357, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ357)-1)*100+1, 100))</f>
         <v/>
@@ -43627,8 +43637,8 @@
         <v>46014</v>
       </c>
       <c r="B358" s="2"/>
-      <c r="C358" s="96"/>
-      <c r="D358" s="94"/>
+      <c r="C358" s="85"/>
+      <c r="D358" s="83"/>
       <c r="AJ358" t="str">
         <f>TRIM(MID(SUBSTITUTE($F358, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ358)-1)*100+1, 100))</f>
         <v/>
@@ -43703,8 +43713,8 @@
         <v>46015</v>
       </c>
       <c r="B359" s="2"/>
-      <c r="C359" s="96"/>
-      <c r="D359" s="94"/>
+      <c r="C359" s="85"/>
+      <c r="D359" s="83"/>
       <c r="AJ359" t="str">
         <f>TRIM(MID(SUBSTITUTE($F359, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ359)-1)*100+1, 100))</f>
         <v/>
@@ -43779,8 +43789,8 @@
         <v>46016</v>
       </c>
       <c r="B360" s="2"/>
-      <c r="C360" s="96"/>
-      <c r="D360" s="94"/>
+      <c r="C360" s="85"/>
+      <c r="D360" s="83"/>
       <c r="AJ360" t="str">
         <f>TRIM(MID(SUBSTITUTE($F360, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ360)-1)*100+1, 100))</f>
         <v/>
@@ -43855,8 +43865,8 @@
         <v>46017</v>
       </c>
       <c r="B361" s="2"/>
-      <c r="C361" s="96"/>
-      <c r="D361" s="94"/>
+      <c r="C361" s="85"/>
+      <c r="D361" s="83"/>
       <c r="AJ361" t="str">
         <f>TRIM(MID(SUBSTITUTE($F361, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ361)-1)*100+1, 100))</f>
         <v/>
@@ -43931,8 +43941,8 @@
         <v>46018</v>
       </c>
       <c r="B362" s="2"/>
-      <c r="C362" s="96"/>
-      <c r="D362" s="94"/>
+      <c r="C362" s="85"/>
+      <c r="D362" s="83"/>
       <c r="AJ362" t="str">
         <f>TRIM(MID(SUBSTITUTE($F362, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ362)-1)*100+1, 100))</f>
         <v/>
@@ -44007,8 +44017,8 @@
         <v>46019</v>
       </c>
       <c r="B363" s="2"/>
-      <c r="C363" s="96"/>
-      <c r="D363" s="94"/>
+      <c r="C363" s="85"/>
+      <c r="D363" s="83"/>
       <c r="AJ363" t="str">
         <f>TRIM(MID(SUBSTITUTE($F363, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ363)-1)*100+1, 100))</f>
         <v/>
@@ -44083,8 +44093,8 @@
         <v>46020</v>
       </c>
       <c r="B364" s="2"/>
-      <c r="C364" s="96"/>
-      <c r="D364" s="94"/>
+      <c r="C364" s="85"/>
+      <c r="D364" s="83"/>
       <c r="AJ364" t="str">
         <f>TRIM(MID(SUBSTITUTE($F364, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ364)-1)*100+1, 100))</f>
         <v/>
@@ -44159,8 +44169,8 @@
         <v>46021</v>
       </c>
       <c r="B365" s="2"/>
-      <c r="C365" s="96"/>
-      <c r="D365" s="94"/>
+      <c r="C365" s="85"/>
+      <c r="D365" s="83"/>
       <c r="AJ365" t="str">
         <f>TRIM(MID(SUBSTITUTE($F365, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ365)-1)*100+1, 100))</f>
         <v/>
@@ -44235,8 +44245,8 @@
         <v>46022</v>
       </c>
       <c r="B366" s="2"/>
-      <c r="C366" s="96"/>
-      <c r="D366" s="94"/>
+      <c r="C366" s="85"/>
+      <c r="D366" s="83"/>
       <c r="AJ366" t="str">
         <f>TRIM(MID(SUBSTITUTE($F366, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ366)-1)*100+1, 100))</f>
         <v/>
@@ -44313,6 +44323,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N5:N16"/>
+    <mergeCell ref="H1:J2"/>
     <mergeCell ref="D2:D366"/>
     <mergeCell ref="C33:C60"/>
     <mergeCell ref="C61:C91"/>
@@ -44326,11 +44341,6 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N5:N16"/>
-    <mergeCell ref="H1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B367">
@@ -44345,8 +44355,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2 C33 C61 C92">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="C2:C366">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44357,8 +44367,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C366">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="C33 C2 C61 C92">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44806,11 +44816,11 @@
       <c r="B1" s="2">
         <v>6</v>
       </c>
-      <c r="C1" s="96">
+      <c r="C1" s="85">
         <f>AVERAGE(B1:B31)</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="D1" s="103">
+      <c r="D1" s="108">
         <f>AVERAGE(B1:B366)</f>
         <v>5.1967213114754101</v>
       </c>
@@ -44822,8 +44832,8 @@
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="103"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -44832,8 +44842,8 @@
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="103"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -44842,8 +44852,8 @@
       <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="103"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="108"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -44852,8 +44862,8 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="108"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -44862,8 +44872,8 @@
       <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="103"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="108"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -44872,8 +44882,8 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="103"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="108"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -44882,8 +44892,8 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="108"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -44892,8 +44902,8 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="108"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -44902,8 +44912,8 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="103"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="108"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -44912,8 +44922,8 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="108"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -44922,8 +44932,8 @@
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="108"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -44932,8 +44942,8 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="108"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -44942,8 +44952,8 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="108"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -44952,8 +44962,8 @@
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="108"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -44962,8 +44972,8 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="103"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="108"/>
     </row>
     <row r="17" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -44972,8 +44982,8 @@
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="103"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="108"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
         <v>24</v>
@@ -44989,8 +44999,8 @@
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="103"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="108"/>
       <c r="F18" s="24" t="s">
         <v>0</v>
       </c>
@@ -45040,8 +45050,8 @@
       <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="103"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="108"/>
       <c r="F19" s="7" t="s">
         <v>1</v>
       </c>
@@ -45058,7 +45068,7 @@
         <f>C1</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="L19" s="109">
+      <c r="L19" s="106">
         <f>AVERAGE(K19:K30)</f>
         <v>5.1920096403411202</v>
       </c>
@@ -45086,7 +45096,7 @@
         <f>COUNTIF(B1:B31,G23)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="107">
+      <c r="S19" s="104">
         <f>AVERAGE(K19:K22)</f>
         <v>4.9297923618835746</v>
       </c>
@@ -45098,8 +45108,8 @@
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="108"/>
       <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
@@ -45116,7 +45126,7 @@
         <f>C32</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="L20" s="109"/>
+      <c r="L20" s="106"/>
       <c r="M20" s="21">
         <f>COUNTIF(B32:B60,G18)</f>
         <v>1</v>
@@ -45141,7 +45151,7 @@
         <f>COUNTIF(B32:B60,G23)</f>
         <v>2</v>
       </c>
-      <c r="S20" s="96"/>
+      <c r="S20" s="85"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -45150,8 +45160,8 @@
       <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="108"/>
       <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
@@ -45168,7 +45178,7 @@
         <f>C61</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="L21" s="109"/>
+      <c r="L21" s="106"/>
       <c r="M21" s="21">
         <f>COUNTIF(B61:B91,G18)</f>
         <v>0</v>
@@ -45193,7 +45203,7 @@
         <f>COUNTIF(B61:B91,G23)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="96"/>
+      <c r="S21" s="85"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -45202,8 +45212,8 @@
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="103"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="108"/>
       <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
@@ -45220,7 +45230,7 @@
         <f>C92</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="L22" s="109"/>
+      <c r="L22" s="106"/>
       <c r="M22" s="21">
         <f>COUNTIF(B92:B121,G18)</f>
         <v>0</v>
@@ -45245,7 +45255,7 @@
         <f>COUNTIF(B92:B121,G23)</f>
         <v>2</v>
       </c>
-      <c r="S22" s="96"/>
+      <c r="S22" s="85"/>
     </row>
     <row r="23" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
@@ -45254,8 +45264,8 @@
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="103"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="108"/>
       <c r="F23" s="14" t="s">
         <v>5</v>
       </c>
@@ -45272,7 +45282,7 @@
         <f>C122</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="L23" s="109"/>
+      <c r="L23" s="106"/>
       <c r="M23" s="21">
         <f>COUNTIF(B122:B152,G18)</f>
         <v>1</v>
@@ -45297,7 +45307,7 @@
         <f>COUNTIF(B122:B152,G23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="107">
+      <c r="S23" s="104">
         <f>AVERAGE(K23:K26)</f>
         <v>5.365591397849462</v>
       </c>
@@ -45309,12 +45319,12 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="103"/>
-      <c r="F24" s="81" t="s">
+      <c r="C24" s="85"/>
+      <c r="D24" s="108"/>
+      <c r="F24" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="82"/>
+      <c r="G24" s="90"/>
       <c r="H24" s="17">
         <f>SUM(H18:H23)</f>
         <v>366</v>
@@ -45326,7 +45336,7 @@
         <f>C153</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="L24" s="109"/>
+      <c r="L24" s="106"/>
       <c r="M24" s="21">
         <f>COUNTIF(B153:B182,G18)</f>
         <v>3</v>
@@ -45351,7 +45361,7 @@
         <f>COUNTIF(B153:B182,G23)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="96"/>
+      <c r="S24" s="85"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -45360,8 +45370,8 @@
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="103"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="108"/>
       <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
@@ -45369,7 +45379,7 @@
         <f>C183</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="L25" s="109"/>
+      <c r="L25" s="106"/>
       <c r="M25" s="21">
         <f>COUNTIF(B183:B213,G18)</f>
         <v>2</v>
@@ -45394,7 +45404,7 @@
         <f>COUNTIF(B183:B213,G23)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="96"/>
+      <c r="S25" s="85"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -45403,8 +45413,8 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="103"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="108"/>
       <c r="J26" s="10" t="s">
         <v>15</v>
       </c>
@@ -45412,7 +45422,7 @@
         <f>C214</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="L26" s="109"/>
+      <c r="L26" s="106"/>
       <c r="M26" s="21">
         <f>COUNTIF(B214:B244,G18)</f>
         <v>0</v>
@@ -45437,7 +45447,7 @@
         <f>COUNTIF(B214:B244,G23)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="96"/>
+      <c r="S26" s="85"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -45446,13 +45456,13 @@
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="103"/>
-      <c r="F27" s="106" t="s">
+      <c r="C27" s="85"/>
+      <c r="D27" s="108"/>
+      <c r="F27" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
       <c r="J27" s="10" t="s">
         <v>16</v>
       </c>
@@ -45460,7 +45470,7 @@
         <f>C245</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="L27" s="109"/>
+      <c r="L27" s="106"/>
       <c r="M27" s="21">
         <f>COUNTIF(B245:B274,G18)</f>
         <v>1</v>
@@ -45485,7 +45495,7 @@
         <f>COUNTIF(B245:B274,G23)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="107">
+      <c r="S27" s="104">
         <f>AVERAGE(K27:K30)</f>
         <v>5.2806451612903231</v>
       </c>
@@ -45497,13 +45507,13 @@
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="103"/>
-      <c r="F28" s="108">
+      <c r="C28" s="85"/>
+      <c r="D28" s="108"/>
+      <c r="F28" s="105">
         <v>2024</v>
       </c>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
       <c r="J28" s="10" t="s">
         <v>17</v>
       </c>
@@ -45511,7 +45521,7 @@
         <f>C275</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="L28" s="109"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="21">
         <f>COUNTIF(B275:B305,G18)</f>
         <v>1</v>
@@ -45536,7 +45546,7 @@
         <f>COUNTIF(B275:B305,G23)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="96"/>
+      <c r="S28" s="85"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -45545,8 +45555,8 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="103"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="108"/>
       <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
@@ -45554,7 +45564,7 @@
         <f>C306</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="L29" s="109"/>
+      <c r="L29" s="106"/>
       <c r="M29" s="21">
         <f>COUNTIF(B306:B335,G18)</f>
         <v>0</v>
@@ -45579,7 +45589,7 @@
         <f>COUNTIF(B306:B335,G23)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="96"/>
+      <c r="S29" s="85"/>
     </row>
     <row r="30" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
@@ -45588,8 +45598,8 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="103"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="108"/>
       <c r="J30" s="18" t="s">
         <v>19</v>
       </c>
@@ -45597,7 +45607,7 @@
         <f>C336</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="L30" s="110"/>
+      <c r="L30" s="107"/>
       <c r="M30" s="21">
         <f>COUNTIF(B336:B366,G18)</f>
         <v>1</v>
@@ -45622,7 +45632,7 @@
         <f>COUNTIF(B336:B366,G23)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="96"/>
+      <c r="S30" s="85"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -45631,8 +45641,8 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="103"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="108"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -45641,11 +45651,11 @@
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="96">
+      <c r="C32" s="85">
         <f>AVERAGE(B32:B60)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="D32" s="103"/>
+      <c r="D32" s="108"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -45654,8 +45664,8 @@
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="103"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="108"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -45664,8 +45674,8 @@
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="103"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="108"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -45674,8 +45684,8 @@
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="103"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="108"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -45684,8 +45694,8 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="103"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="108"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -45694,8 +45704,8 @@
       <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="103"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="108"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
@@ -45704,8 +45714,8 @@
       <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="103"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="108"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -45714,8 +45724,8 @@
       <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="103"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="108"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -45724,8 +45734,8 @@
       <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="103"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="108"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -45734,8 +45744,8 @@
       <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="103"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="108"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -45744,8 +45754,8 @@
       <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="103"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="108"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -45754,8 +45764,8 @@
       <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="103"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="108"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -45764,8 +45774,8 @@
       <c r="B44" s="2">
         <v>6</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="103"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="108"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
@@ -45774,8 +45784,8 @@
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="103"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="108"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -45784,8 +45794,8 @@
       <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="96"/>
-      <c r="D46" s="103"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="108"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -45794,8 +45804,8 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="103"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="108"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -45804,8 +45814,8 @@
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="103"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="108"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -45814,8 +45824,8 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="103"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="108"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -45824,8 +45834,8 @@
       <c r="B50" s="2">
         <v>4</v>
       </c>
-      <c r="C50" s="96"/>
-      <c r="D50" s="103"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="108"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -45834,8 +45844,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="103"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="108"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -45844,8 +45854,8 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="103"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="108"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -45854,8 +45864,8 @@
       <c r="B53" s="2">
         <v>2</v>
       </c>
-      <c r="C53" s="96"/>
-      <c r="D53" s="103"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="108"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -45864,8 +45874,8 @@
       <c r="B54" s="2">
         <v>4</v>
       </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="103"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="108"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -45874,8 +45884,8 @@
       <c r="B55" s="2">
         <v>4</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="103"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="108"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -45884,8 +45894,8 @@
       <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="103"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="108"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -45894,8 +45904,8 @@
       <c r="B57" s="2">
         <v>4</v>
       </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="103"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="108"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -45904,8 +45914,8 @@
       <c r="B58" s="2">
         <v>4</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="103"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="108"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -45914,8 +45924,8 @@
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="103"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="108"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -45924,8 +45934,8 @@
       <c r="B60" s="2">
         <v>6</v>
       </c>
-      <c r="C60" s="96"/>
-      <c r="D60" s="103"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="108"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -45934,11 +45944,11 @@
       <c r="B61" s="2">
         <v>6</v>
       </c>
-      <c r="C61" s="96">
+      <c r="C61" s="85">
         <f>AVERAGE(B61:B91)</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="D61" s="103"/>
+      <c r="D61" s="108"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
@@ -45947,8 +45957,8 @@
       <c r="B62" s="2">
         <v>6</v>
       </c>
-      <c r="C62" s="96"/>
-      <c r="D62" s="103"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="108"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -45957,8 +45967,8 @@
       <c r="B63" s="2">
         <v>8</v>
       </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="103"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="108"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
@@ -45967,8 +45977,8 @@
       <c r="B64" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="96"/>
-      <c r="D64" s="103"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="108"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
@@ -45977,8 +45987,8 @@
       <c r="B65" s="2">
         <v>4</v>
       </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="103"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="108"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -45987,8 +45997,8 @@
       <c r="B66" s="2">
         <v>4</v>
       </c>
-      <c r="C66" s="96"/>
-      <c r="D66" s="103"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="108"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -45997,8 +46007,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="103"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="108"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
@@ -46007,8 +46017,8 @@
       <c r="B68" s="2">
         <v>6</v>
       </c>
-      <c r="C68" s="96"/>
-      <c r="D68" s="103"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="108"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
@@ -46017,8 +46027,8 @@
       <c r="B69" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="96"/>
-      <c r="D69" s="103"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="108"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
@@ -46027,8 +46037,8 @@
       <c r="B70" s="2">
         <v>6</v>
       </c>
-      <c r="C70" s="96"/>
-      <c r="D70" s="103"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="108"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
@@ -46037,8 +46047,8 @@
       <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="96"/>
-      <c r="D71" s="103"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="108"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
@@ -46047,8 +46057,8 @@
       <c r="B72" s="2">
         <v>6</v>
       </c>
-      <c r="C72" s="96"/>
-      <c r="D72" s="103"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="108"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
@@ -46057,8 +46067,8 @@
       <c r="B73" s="2">
         <v>6</v>
       </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="103"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="108"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -46067,8 +46077,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="103"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="108"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -46077,8 +46087,8 @@
       <c r="B75" s="2">
         <v>6</v>
       </c>
-      <c r="C75" s="96"/>
-      <c r="D75" s="103"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="108"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -46087,8 +46097,8 @@
       <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C76" s="96"/>
-      <c r="D76" s="103"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="108"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
@@ -46097,8 +46107,8 @@
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="96"/>
-      <c r="D77" s="103"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="108"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -46107,8 +46117,8 @@
       <c r="B78" s="2">
         <v>6</v>
       </c>
-      <c r="C78" s="96"/>
-      <c r="D78" s="103"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="108"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
@@ -46117,8 +46127,8 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="96"/>
-      <c r="D79" s="103"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="108"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
@@ -46127,8 +46137,8 @@
       <c r="B80" s="2">
         <v>8</v>
       </c>
-      <c r="C80" s="96"/>
-      <c r="D80" s="103"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="108"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
@@ -46137,8 +46147,8 @@
       <c r="B81" s="2">
         <v>6</v>
       </c>
-      <c r="C81" s="96"/>
-      <c r="D81" s="103"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="108"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
@@ -46147,8 +46157,8 @@
       <c r="B82" s="2">
         <v>8</v>
       </c>
-      <c r="C82" s="96"/>
-      <c r="D82" s="103"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="108"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -46157,8 +46167,8 @@
       <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="C83" s="96"/>
-      <c r="D83" s="103"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="108"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
@@ -46167,8 +46177,8 @@
       <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="96"/>
-      <c r="D84" s="103"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="108"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -46177,8 +46187,8 @@
       <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C85" s="96"/>
-      <c r="D85" s="103"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="108"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -46187,8 +46197,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="96"/>
-      <c r="D86" s="103"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="108"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -46197,8 +46207,8 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
-      <c r="C87" s="96"/>
-      <c r="D87" s="103"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="108"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -46207,8 +46217,8 @@
       <c r="B88" s="2">
         <v>6</v>
       </c>
-      <c r="C88" s="96"/>
-      <c r="D88" s="103"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="108"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -46217,8 +46227,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="96"/>
-      <c r="D89" s="103"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="108"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -46227,8 +46237,8 @@
       <c r="B90" s="2">
         <v>6</v>
       </c>
-      <c r="C90" s="96"/>
-      <c r="D90" s="103"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="108"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -46237,8 +46247,8 @@
       <c r="B91" s="2">
         <v>6</v>
       </c>
-      <c r="C91" s="96"/>
-      <c r="D91" s="103"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="108"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -46247,11 +46257,11 @@
       <c r="B92" s="2">
         <v>4</v>
       </c>
-      <c r="C92" s="96">
+      <c r="C92" s="85">
         <f>AVERAGE(B92:B121)</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="D92" s="103"/>
+      <c r="D92" s="108"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -46260,8 +46270,8 @@
       <c r="B93" s="2">
         <v>4</v>
       </c>
-      <c r="C93" s="96"/>
-      <c r="D93" s="103"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="108"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -46270,8 +46280,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="96"/>
-      <c r="D94" s="103"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="108"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -46280,8 +46290,8 @@
       <c r="B95" s="2">
         <v>4</v>
       </c>
-      <c r="C95" s="96"/>
-      <c r="D95" s="103"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="108"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -46290,8 +46300,8 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96" s="96"/>
-      <c r="D96" s="103"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="108"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
@@ -46300,8 +46310,8 @@
       <c r="B97" s="2">
         <v>2</v>
       </c>
-      <c r="C97" s="96"/>
-      <c r="D97" s="103"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="108"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -46310,8 +46320,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="96"/>
-      <c r="D98" s="103"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="108"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -46320,8 +46330,8 @@
       <c r="B99" s="2">
         <v>4</v>
       </c>
-      <c r="C99" s="96"/>
-      <c r="D99" s="103"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="108"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
@@ -46330,8 +46340,8 @@
       <c r="B100" s="2">
         <v>6</v>
       </c>
-      <c r="C100" s="96"/>
-      <c r="D100" s="103"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="108"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -46340,8 +46350,8 @@
       <c r="B101" s="2">
         <v>2</v>
       </c>
-      <c r="C101" s="96"/>
-      <c r="D101" s="103"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="108"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
@@ -46350,8 +46360,8 @@
       <c r="B102" s="2">
         <v>0</v>
       </c>
-      <c r="C102" s="96"/>
-      <c r="D102" s="103"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="108"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
@@ -46360,8 +46370,8 @@
       <c r="B103" s="2">
         <v>6</v>
       </c>
-      <c r="C103" s="96"/>
-      <c r="D103" s="103"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="108"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
@@ -46370,8 +46380,8 @@
       <c r="B104" s="2">
         <v>6</v>
       </c>
-      <c r="C104" s="96"/>
-      <c r="D104" s="103"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="108"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
@@ -46380,8 +46390,8 @@
       <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="96"/>
-      <c r="D105" s="103"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="108"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
@@ -46390,8 +46400,8 @@
       <c r="B106" s="2">
         <v>6</v>
       </c>
-      <c r="C106" s="96"/>
-      <c r="D106" s="103"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="108"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
@@ -46400,8 +46410,8 @@
       <c r="B107" s="2">
         <v>4</v>
       </c>
-      <c r="C107" s="96"/>
-      <c r="D107" s="103"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="108"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
@@ -46410,8 +46420,8 @@
       <c r="B108" s="2">
         <v>8</v>
       </c>
-      <c r="C108" s="96"/>
-      <c r="D108" s="103"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="108"/>
       <c r="J108" s="3" t="s">
         <v>22</v>
       </c>
@@ -46423,8 +46433,8 @@
       <c r="B109" s="2">
         <v>6</v>
       </c>
-      <c r="C109" s="96"/>
-      <c r="D109" s="103"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="108"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
@@ -46433,8 +46443,8 @@
       <c r="B110" s="2">
         <v>6</v>
       </c>
-      <c r="C110" s="96"/>
-      <c r="D110" s="103"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="108"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
@@ -46443,8 +46453,8 @@
       <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C111" s="96"/>
-      <c r="D111" s="103"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="108"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
@@ -46453,8 +46463,8 @@
       <c r="B112" s="2">
         <v>6</v>
       </c>
-      <c r="C112" s="96"/>
-      <c r="D112" s="103"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="108"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
@@ -46463,8 +46473,8 @@
       <c r="B113" s="2">
         <v>6</v>
       </c>
-      <c r="C113" s="96"/>
-      <c r="D113" s="103"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="108"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
@@ -46473,8 +46483,8 @@
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" s="96"/>
-      <c r="D114" s="103"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="108"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
@@ -46483,8 +46493,8 @@
       <c r="B115" s="2">
         <v>6</v>
       </c>
-      <c r="C115" s="96"/>
-      <c r="D115" s="103"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="108"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
@@ -46493,8 +46503,8 @@
       <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="96"/>
-      <c r="D116" s="103"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="108"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
@@ -46503,8 +46513,8 @@
       <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C117" s="96"/>
-      <c r="D117" s="103"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="108"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
@@ -46513,8 +46523,8 @@
       <c r="B118" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="96"/>
-      <c r="D118" s="103"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="108"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
@@ -46523,8 +46533,8 @@
       <c r="B119" s="2">
         <v>4</v>
       </c>
-      <c r="C119" s="96"/>
-      <c r="D119" s="103"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="108"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
@@ -46533,8 +46543,8 @@
       <c r="B120" s="2">
         <v>6</v>
       </c>
-      <c r="C120" s="96"/>
-      <c r="D120" s="103"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="108"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
@@ -46543,8 +46553,8 @@
       <c r="B121" s="2">
         <v>6</v>
       </c>
-      <c r="C121" s="96"/>
-      <c r="D121" s="103"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="108"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
@@ -46553,11 +46563,11 @@
       <c r="B122" s="2">
         <v>8</v>
       </c>
-      <c r="C122" s="104">
+      <c r="C122" s="109">
         <f>AVERAGE(B122:B152)</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="D122" s="103"/>
+      <c r="D122" s="108"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
@@ -46566,8 +46576,8 @@
       <c r="B123" s="2">
         <v>6</v>
       </c>
-      <c r="C123" s="105"/>
-      <c r="D123" s="103"/>
+      <c r="C123" s="110"/>
+      <c r="D123" s="108"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
@@ -46576,8 +46586,8 @@
       <c r="B124" s="2">
         <v>6</v>
       </c>
-      <c r="C124" s="105"/>
-      <c r="D124" s="103"/>
+      <c r="C124" s="110"/>
+      <c r="D124" s="108"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
@@ -46586,8 +46596,8 @@
       <c r="B125" s="2">
         <v>10</v>
       </c>
-      <c r="C125" s="105"/>
-      <c r="D125" s="103"/>
+      <c r="C125" s="110"/>
+      <c r="D125" s="108"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
@@ -46596,8 +46606,8 @@
       <c r="B126" s="2">
         <v>6</v>
       </c>
-      <c r="C126" s="105"/>
-      <c r="D126" s="103"/>
+      <c r="C126" s="110"/>
+      <c r="D126" s="108"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
@@ -46606,8 +46616,8 @@
       <c r="B127" s="2">
         <v>4</v>
       </c>
-      <c r="C127" s="105"/>
-      <c r="D127" s="103"/>
+      <c r="C127" s="110"/>
+      <c r="D127" s="108"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
@@ -46616,8 +46626,8 @@
       <c r="B128" s="2">
         <v>6</v>
       </c>
-      <c r="C128" s="105"/>
-      <c r="D128" s="103"/>
+      <c r="C128" s="110"/>
+      <c r="D128" s="108"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
@@ -46626,8 +46636,8 @@
       <c r="B129" s="2">
         <v>6</v>
       </c>
-      <c r="C129" s="105"/>
-      <c r="D129" s="103"/>
+      <c r="C129" s="110"/>
+      <c r="D129" s="108"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
@@ -46636,8 +46646,8 @@
       <c r="B130" s="2">
         <v>6</v>
       </c>
-      <c r="C130" s="105"/>
-      <c r="D130" s="103"/>
+      <c r="C130" s="110"/>
+      <c r="D130" s="108"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
@@ -46646,8 +46656,8 @@
       <c r="B131" s="2">
         <v>8</v>
       </c>
-      <c r="C131" s="105"/>
-      <c r="D131" s="103"/>
+      <c r="C131" s="110"/>
+      <c r="D131" s="108"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
@@ -46656,8 +46666,8 @@
       <c r="B132" s="2">
         <v>8</v>
       </c>
-      <c r="C132" s="105"/>
-      <c r="D132" s="103"/>
+      <c r="C132" s="110"/>
+      <c r="D132" s="108"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
@@ -46666,8 +46676,8 @@
       <c r="B133" s="2">
         <v>6</v>
       </c>
-      <c r="C133" s="105"/>
-      <c r="D133" s="103"/>
+      <c r="C133" s="110"/>
+      <c r="D133" s="108"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
@@ -46676,8 +46686,8 @@
       <c r="B134" s="2">
         <v>6</v>
       </c>
-      <c r="C134" s="105"/>
-      <c r="D134" s="103"/>
+      <c r="C134" s="110"/>
+      <c r="D134" s="108"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
@@ -46686,8 +46696,8 @@
       <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="C135" s="105"/>
-      <c r="D135" s="103"/>
+      <c r="C135" s="110"/>
+      <c r="D135" s="108"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
@@ -46696,8 +46706,8 @@
       <c r="B136" s="2">
         <v>6</v>
       </c>
-      <c r="C136" s="105"/>
-      <c r="D136" s="103"/>
+      <c r="C136" s="110"/>
+      <c r="D136" s="108"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
@@ -46706,8 +46716,8 @@
       <c r="B137" s="2">
         <v>4</v>
       </c>
-      <c r="C137" s="105"/>
-      <c r="D137" s="103"/>
+      <c r="C137" s="110"/>
+      <c r="D137" s="108"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
@@ -46716,8 +46726,8 @@
       <c r="B138" s="2">
         <v>4</v>
       </c>
-      <c r="C138" s="105"/>
-      <c r="D138" s="103"/>
+      <c r="C138" s="110"/>
+      <c r="D138" s="108"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
@@ -46726,8 +46736,8 @@
       <c r="B139" s="2">
         <v>6</v>
       </c>
-      <c r="C139" s="105"/>
-      <c r="D139" s="103"/>
+      <c r="C139" s="110"/>
+      <c r="D139" s="108"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
@@ -46736,8 +46746,8 @@
       <c r="B140" s="2">
         <v>4</v>
       </c>
-      <c r="C140" s="105"/>
-      <c r="D140" s="103"/>
+      <c r="C140" s="110"/>
+      <c r="D140" s="108"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
@@ -46746,8 +46756,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="105"/>
-      <c r="D141" s="103"/>
+      <c r="C141" s="110"/>
+      <c r="D141" s="108"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
@@ -46756,8 +46766,8 @@
       <c r="B142" s="2">
         <v>6</v>
       </c>
-      <c r="C142" s="105"/>
-      <c r="D142" s="103"/>
+      <c r="C142" s="110"/>
+      <c r="D142" s="108"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
@@ -46766,8 +46776,8 @@
       <c r="B143" s="2">
         <v>6</v>
       </c>
-      <c r="C143" s="105"/>
-      <c r="D143" s="103"/>
+      <c r="C143" s="110"/>
+      <c r="D143" s="108"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
@@ -46776,8 +46786,8 @@
       <c r="B144" s="2">
         <v>8</v>
       </c>
-      <c r="C144" s="105"/>
-      <c r="D144" s="103"/>
+      <c r="C144" s="110"/>
+      <c r="D144" s="108"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
@@ -46786,8 +46796,8 @@
       <c r="B145" s="2">
         <v>8</v>
       </c>
-      <c r="C145" s="105"/>
-      <c r="D145" s="103"/>
+      <c r="C145" s="110"/>
+      <c r="D145" s="108"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
@@ -46796,8 +46806,8 @@
       <c r="B146" s="2">
         <v>8</v>
       </c>
-      <c r="C146" s="105"/>
-      <c r="D146" s="103"/>
+      <c r="C146" s="110"/>
+      <c r="D146" s="108"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
@@ -46806,8 +46816,8 @@
       <c r="B147" s="2">
         <v>6</v>
       </c>
-      <c r="C147" s="105"/>
-      <c r="D147" s="103"/>
+      <c r="C147" s="110"/>
+      <c r="D147" s="108"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
@@ -46816,8 +46826,8 @@
       <c r="B148" s="2">
         <v>4</v>
       </c>
-      <c r="C148" s="105"/>
-      <c r="D148" s="103"/>
+      <c r="C148" s="110"/>
+      <c r="D148" s="108"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
@@ -46826,8 +46836,8 @@
       <c r="B149" s="2">
         <v>6</v>
       </c>
-      <c r="C149" s="105"/>
-      <c r="D149" s="103"/>
+      <c r="C149" s="110"/>
+      <c r="D149" s="108"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
@@ -46836,8 +46846,8 @@
       <c r="B150" s="2">
         <v>6</v>
       </c>
-      <c r="C150" s="105"/>
-      <c r="D150" s="103"/>
+      <c r="C150" s="110"/>
+      <c r="D150" s="108"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
@@ -46846,8 +46856,8 @@
       <c r="B151" s="2">
         <v>6</v>
       </c>
-      <c r="C151" s="105"/>
-      <c r="D151" s="103"/>
+      <c r="C151" s="110"/>
+      <c r="D151" s="108"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
@@ -46856,8 +46866,8 @@
       <c r="B152" s="2">
         <v>6</v>
       </c>
-      <c r="C152" s="95"/>
-      <c r="D152" s="103"/>
+      <c r="C152" s="84"/>
+      <c r="D152" s="108"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
@@ -46866,11 +46876,11 @@
       <c r="B153" s="2">
         <v>6</v>
       </c>
-      <c r="C153" s="104">
+      <c r="C153" s="109">
         <f>AVERAGE(B153:B182)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D153" s="103"/>
+      <c r="D153" s="108"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
@@ -46879,8 +46889,8 @@
       <c r="B154" s="2">
         <v>6</v>
       </c>
-      <c r="C154" s="105"/>
-      <c r="D154" s="103"/>
+      <c r="C154" s="110"/>
+      <c r="D154" s="108"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
@@ -46889,8 +46899,8 @@
       <c r="B155" s="2">
         <v>4</v>
       </c>
-      <c r="C155" s="105"/>
-      <c r="D155" s="103"/>
+      <c r="C155" s="110"/>
+      <c r="D155" s="108"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
@@ -46899,8 +46909,8 @@
       <c r="B156" s="2">
         <v>8</v>
       </c>
-      <c r="C156" s="105"/>
-      <c r="D156" s="103"/>
+      <c r="C156" s="110"/>
+      <c r="D156" s="108"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
@@ -46909,8 +46919,8 @@
       <c r="B157" s="2">
         <v>10</v>
       </c>
-      <c r="C157" s="105"/>
-      <c r="D157" s="103"/>
+      <c r="C157" s="110"/>
+      <c r="D157" s="108"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
@@ -46919,8 +46929,8 @@
       <c r="B158" s="2">
         <v>6</v>
       </c>
-      <c r="C158" s="105"/>
-      <c r="D158" s="103"/>
+      <c r="C158" s="110"/>
+      <c r="D158" s="108"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
@@ -46929,8 +46939,8 @@
       <c r="B159" s="2">
         <v>4</v>
       </c>
-      <c r="C159" s="105"/>
-      <c r="D159" s="103"/>
+      <c r="C159" s="110"/>
+      <c r="D159" s="108"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
@@ -46939,8 +46949,8 @@
       <c r="B160" s="2">
         <v>6</v>
       </c>
-      <c r="C160" s="105"/>
-      <c r="D160" s="103"/>
+      <c r="C160" s="110"/>
+      <c r="D160" s="108"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
@@ -46949,8 +46959,8 @@
       <c r="B161" s="2">
         <v>6</v>
       </c>
-      <c r="C161" s="105"/>
-      <c r="D161" s="103"/>
+      <c r="C161" s="110"/>
+      <c r="D161" s="108"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
@@ -46959,8 +46969,8 @@
       <c r="B162" s="2">
         <v>6</v>
       </c>
-      <c r="C162" s="105"/>
-      <c r="D162" s="103"/>
+      <c r="C162" s="110"/>
+      <c r="D162" s="108"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
@@ -46969,8 +46979,8 @@
       <c r="B163" s="2">
         <v>0</v>
       </c>
-      <c r="C163" s="105"/>
-      <c r="D163" s="103"/>
+      <c r="C163" s="110"/>
+      <c r="D163" s="108"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
@@ -46979,8 +46989,8 @@
       <c r="B164" s="2">
         <v>4</v>
       </c>
-      <c r="C164" s="105"/>
-      <c r="D164" s="103"/>
+      <c r="C164" s="110"/>
+      <c r="D164" s="108"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
@@ -46989,8 +46999,8 @@
       <c r="B165" s="2">
         <v>4</v>
       </c>
-      <c r="C165" s="105"/>
-      <c r="D165" s="103"/>
+      <c r="C165" s="110"/>
+      <c r="D165" s="108"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
@@ -46999,8 +47009,8 @@
       <c r="B166" s="2">
         <v>4</v>
       </c>
-      <c r="C166" s="105"/>
-      <c r="D166" s="103"/>
+      <c r="C166" s="110"/>
+      <c r="D166" s="108"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
@@ -47009,8 +47019,8 @@
       <c r="B167" s="2">
         <v>6</v>
       </c>
-      <c r="C167" s="105"/>
-      <c r="D167" s="103"/>
+      <c r="C167" s="110"/>
+      <c r="D167" s="108"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
@@ -47019,8 +47029,8 @@
       <c r="B168" s="2">
         <v>6</v>
       </c>
-      <c r="C168" s="105"/>
-      <c r="D168" s="103"/>
+      <c r="C168" s="110"/>
+      <c r="D168" s="108"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
@@ -47029,8 +47039,8 @@
       <c r="B169" s="2">
         <v>4</v>
       </c>
-      <c r="C169" s="105"/>
-      <c r="D169" s="103"/>
+      <c r="C169" s="110"/>
+      <c r="D169" s="108"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
@@ -47039,8 +47049,8 @@
       <c r="B170" s="2">
         <v>4</v>
       </c>
-      <c r="C170" s="105"/>
-      <c r="D170" s="103"/>
+      <c r="C170" s="110"/>
+      <c r="D170" s="108"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
@@ -47049,8 +47059,8 @@
       <c r="B171" s="2">
         <v>10</v>
       </c>
-      <c r="C171" s="105"/>
-      <c r="D171" s="103"/>
+      <c r="C171" s="110"/>
+      <c r="D171" s="108"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
@@ -47059,8 +47069,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="105"/>
-      <c r="D172" s="103"/>
+      <c r="C172" s="110"/>
+      <c r="D172" s="108"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
@@ -47069,8 +47079,8 @@
       <c r="B173" s="2">
         <v>2</v>
       </c>
-      <c r="C173" s="105"/>
-      <c r="D173" s="103"/>
+      <c r="C173" s="110"/>
+      <c r="D173" s="108"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
@@ -47079,8 +47089,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="105"/>
-      <c r="D174" s="103"/>
+      <c r="C174" s="110"/>
+      <c r="D174" s="108"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
@@ -47089,8 +47099,8 @@
       <c r="B175" s="2">
         <v>4</v>
       </c>
-      <c r="C175" s="105"/>
-      <c r="D175" s="103"/>
+      <c r="C175" s="110"/>
+      <c r="D175" s="108"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
@@ -47099,8 +47109,8 @@
       <c r="B176" s="2">
         <v>6</v>
       </c>
-      <c r="C176" s="105"/>
-      <c r="D176" s="103"/>
+      <c r="C176" s="110"/>
+      <c r="D176" s="108"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
@@ -47109,8 +47119,8 @@
       <c r="B177" s="2">
         <v>4</v>
       </c>
-      <c r="C177" s="105"/>
-      <c r="D177" s="103"/>
+      <c r="C177" s="110"/>
+      <c r="D177" s="108"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
@@ -47119,8 +47129,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="105"/>
-      <c r="D178" s="103"/>
+      <c r="C178" s="110"/>
+      <c r="D178" s="108"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
@@ -47129,8 +47139,8 @@
       <c r="B179" s="2">
         <v>6</v>
       </c>
-      <c r="C179" s="105"/>
-      <c r="D179" s="103"/>
+      <c r="C179" s="110"/>
+      <c r="D179" s="108"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
@@ -47139,8 +47149,8 @@
       <c r="B180" s="2">
         <v>10</v>
       </c>
-      <c r="C180" s="105"/>
-      <c r="D180" s="103"/>
+      <c r="C180" s="110"/>
+      <c r="D180" s="108"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
@@ -47149,8 +47159,8 @@
       <c r="B181" s="2">
         <v>8</v>
       </c>
-      <c r="C181" s="105"/>
-      <c r="D181" s="103"/>
+      <c r="C181" s="110"/>
+      <c r="D181" s="108"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
@@ -47159,8 +47169,8 @@
       <c r="B182" s="2">
         <v>6</v>
       </c>
-      <c r="C182" s="95"/>
-      <c r="D182" s="103"/>
+      <c r="C182" s="84"/>
+      <c r="D182" s="108"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
@@ -47169,11 +47179,11 @@
       <c r="B183" s="2">
         <v>6</v>
       </c>
-      <c r="C183" s="104">
+      <c r="C183" s="109">
         <f>AVERAGE(B183:B213)</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="D183" s="103"/>
+      <c r="D183" s="108"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
@@ -47182,8 +47192,8 @@
       <c r="B184" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="105"/>
-      <c r="D184" s="103"/>
+      <c r="C184" s="110"/>
+      <c r="D184" s="108"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
@@ -47192,8 +47202,8 @@
       <c r="B185" s="2">
         <v>2</v>
       </c>
-      <c r="C185" s="105"/>
-      <c r="D185" s="103"/>
+      <c r="C185" s="110"/>
+      <c r="D185" s="108"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
@@ -47202,8 +47212,8 @@
       <c r="B186" s="2">
         <v>4</v>
       </c>
-      <c r="C186" s="105"/>
-      <c r="D186" s="103"/>
+      <c r="C186" s="110"/>
+      <c r="D186" s="108"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
@@ -47212,8 +47222,8 @@
       <c r="B187" s="2">
         <v>4</v>
       </c>
-      <c r="C187" s="105"/>
-      <c r="D187" s="103"/>
+      <c r="C187" s="110"/>
+      <c r="D187" s="108"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
@@ -47222,8 +47232,8 @@
       <c r="B188" s="2">
         <v>10</v>
       </c>
-      <c r="C188" s="105"/>
-      <c r="D188" s="103"/>
+      <c r="C188" s="110"/>
+      <c r="D188" s="108"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
@@ -47232,8 +47242,8 @@
       <c r="B189" s="2">
         <v>6</v>
       </c>
-      <c r="C189" s="105"/>
-      <c r="D189" s="103"/>
+      <c r="C189" s="110"/>
+      <c r="D189" s="108"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
@@ -47242,8 +47252,8 @@
       <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C190" s="105"/>
-      <c r="D190" s="103"/>
+      <c r="C190" s="110"/>
+      <c r="D190" s="108"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
@@ -47252,8 +47262,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="105"/>
-      <c r="D191" s="103"/>
+      <c r="C191" s="110"/>
+      <c r="D191" s="108"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
@@ -47262,8 +47272,8 @@
       <c r="B192" s="2">
         <v>4</v>
       </c>
-      <c r="C192" s="105"/>
-      <c r="D192" s="103"/>
+      <c r="C192" s="110"/>
+      <c r="D192" s="108"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
@@ -47272,8 +47282,8 @@
       <c r="B193" s="2">
         <v>6</v>
       </c>
-      <c r="C193" s="105"/>
-      <c r="D193" s="103"/>
+      <c r="C193" s="110"/>
+      <c r="D193" s="108"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
@@ -47282,8 +47292,8 @@
       <c r="B194" s="2">
         <v>4</v>
       </c>
-      <c r="C194" s="105"/>
-      <c r="D194" s="103"/>
+      <c r="C194" s="110"/>
+      <c r="D194" s="108"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
@@ -47292,8 +47302,8 @@
       <c r="B195" s="2">
         <v>10</v>
       </c>
-      <c r="C195" s="105"/>
-      <c r="D195" s="103"/>
+      <c r="C195" s="110"/>
+      <c r="D195" s="108"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
@@ -47302,8 +47312,8 @@
       <c r="B196" s="2">
         <v>6</v>
       </c>
-      <c r="C196" s="105"/>
-      <c r="D196" s="103"/>
+      <c r="C196" s="110"/>
+      <c r="D196" s="108"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
@@ -47312,8 +47322,8 @@
       <c r="B197" s="2">
         <v>4</v>
       </c>
-      <c r="C197" s="105"/>
-      <c r="D197" s="103"/>
+      <c r="C197" s="110"/>
+      <c r="D197" s="108"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
@@ -47322,8 +47332,8 @@
       <c r="B198" s="2">
         <v>4</v>
       </c>
-      <c r="C198" s="105"/>
-      <c r="D198" s="103"/>
+      <c r="C198" s="110"/>
+      <c r="D198" s="108"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
@@ -47332,8 +47342,8 @@
       <c r="B199" s="2">
         <v>6</v>
       </c>
-      <c r="C199" s="105"/>
-      <c r="D199" s="103"/>
+      <c r="C199" s="110"/>
+      <c r="D199" s="108"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
@@ -47342,8 +47352,8 @@
       <c r="B200" s="2">
         <v>4</v>
       </c>
-      <c r="C200" s="105"/>
-      <c r="D200" s="103"/>
+      <c r="C200" s="110"/>
+      <c r="D200" s="108"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
@@ -47352,8 +47362,8 @@
       <c r="B201" s="2">
         <v>2</v>
       </c>
-      <c r="C201" s="105"/>
-      <c r="D201" s="103"/>
+      <c r="C201" s="110"/>
+      <c r="D201" s="108"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
@@ -47362,8 +47372,8 @@
       <c r="B202" s="2">
         <v>8</v>
       </c>
-      <c r="C202" s="105"/>
-      <c r="D202" s="103"/>
+      <c r="C202" s="110"/>
+      <c r="D202" s="108"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
@@ -47372,8 +47382,8 @@
       <c r="B203" s="2">
         <v>6</v>
       </c>
-      <c r="C203" s="105"/>
-      <c r="D203" s="103"/>
+      <c r="C203" s="110"/>
+      <c r="D203" s="108"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
@@ -47382,8 +47392,8 @@
       <c r="B204" s="2">
         <v>4</v>
       </c>
-      <c r="C204" s="105"/>
-      <c r="D204" s="103"/>
+      <c r="C204" s="110"/>
+      <c r="D204" s="108"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
@@ -47392,8 +47402,8 @@
       <c r="B205" s="2">
         <v>4</v>
       </c>
-      <c r="C205" s="105"/>
-      <c r="D205" s="103"/>
+      <c r="C205" s="110"/>
+      <c r="D205" s="108"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
@@ -47402,8 +47412,8 @@
       <c r="B206" s="2">
         <v>2</v>
       </c>
-      <c r="C206" s="105"/>
-      <c r="D206" s="103"/>
+      <c r="C206" s="110"/>
+      <c r="D206" s="108"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
@@ -47412,8 +47422,8 @@
       <c r="B207" s="2">
         <v>4</v>
       </c>
-      <c r="C207" s="105"/>
-      <c r="D207" s="103"/>
+      <c r="C207" s="110"/>
+      <c r="D207" s="108"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
@@ -47422,8 +47432,8 @@
       <c r="B208" s="2">
         <v>4</v>
       </c>
-      <c r="C208" s="105"/>
-      <c r="D208" s="103"/>
+      <c r="C208" s="110"/>
+      <c r="D208" s="108"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
@@ -47432,8 +47442,8 @@
       <c r="B209" s="2">
         <v>6</v>
       </c>
-      <c r="C209" s="105"/>
-      <c r="D209" s="103"/>
+      <c r="C209" s="110"/>
+      <c r="D209" s="108"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
@@ -47442,8 +47452,8 @@
       <c r="B210" s="2">
         <v>6</v>
       </c>
-      <c r="C210" s="105"/>
-      <c r="D210" s="103"/>
+      <c r="C210" s="110"/>
+      <c r="D210" s="108"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
@@ -47452,8 +47462,8 @@
       <c r="B211" s="2">
         <v>6</v>
       </c>
-      <c r="C211" s="105"/>
-      <c r="D211" s="103"/>
+      <c r="C211" s="110"/>
+      <c r="D211" s="108"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
@@ -47462,8 +47472,8 @@
       <c r="B212" s="2">
         <v>6</v>
       </c>
-      <c r="C212" s="105"/>
-      <c r="D212" s="103"/>
+      <c r="C212" s="110"/>
+      <c r="D212" s="108"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
@@ -47472,8 +47482,8 @@
       <c r="B213" s="2">
         <v>6</v>
       </c>
-      <c r="C213" s="95"/>
-      <c r="D213" s="103"/>
+      <c r="C213" s="84"/>
+      <c r="D213" s="108"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
@@ -47482,11 +47492,11 @@
       <c r="B214" s="2">
         <v>6</v>
       </c>
-      <c r="C214" s="104">
+      <c r="C214" s="109">
         <f>AVERAGE(B214:B244)</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="D214" s="103"/>
+      <c r="D214" s="108"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
@@ -47495,8 +47505,8 @@
       <c r="B215" s="2">
         <v>6</v>
       </c>
-      <c r="C215" s="105"/>
-      <c r="D215" s="103"/>
+      <c r="C215" s="110"/>
+      <c r="D215" s="108"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
@@ -47505,8 +47515,8 @@
       <c r="B216" s="2">
         <v>6</v>
       </c>
-      <c r="C216" s="105"/>
-      <c r="D216" s="103"/>
+      <c r="C216" s="110"/>
+      <c r="D216" s="108"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
@@ -47515,8 +47525,8 @@
       <c r="B217" s="2">
         <v>8</v>
       </c>
-      <c r="C217" s="105"/>
-      <c r="D217" s="103"/>
+      <c r="C217" s="110"/>
+      <c r="D217" s="108"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
@@ -47525,8 +47535,8 @@
       <c r="B218" s="2">
         <v>4</v>
       </c>
-      <c r="C218" s="105"/>
-      <c r="D218" s="103"/>
+      <c r="C218" s="110"/>
+      <c r="D218" s="108"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
@@ -47535,8 +47545,8 @@
       <c r="B219" s="2">
         <v>4</v>
       </c>
-      <c r="C219" s="105"/>
-      <c r="D219" s="103"/>
+      <c r="C219" s="110"/>
+      <c r="D219" s="108"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
@@ -47545,8 +47555,8 @@
       <c r="B220" s="2">
         <v>6</v>
       </c>
-      <c r="C220" s="105"/>
-      <c r="D220" s="103"/>
+      <c r="C220" s="110"/>
+      <c r="D220" s="108"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
@@ -47555,8 +47565,8 @@
       <c r="B221" s="2">
         <v>4</v>
       </c>
-      <c r="C221" s="105"/>
-      <c r="D221" s="103"/>
+      <c r="C221" s="110"/>
+      <c r="D221" s="108"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
@@ -47565,8 +47575,8 @@
       <c r="B222" s="2">
         <v>6</v>
       </c>
-      <c r="C222" s="105"/>
-      <c r="D222" s="103"/>
+      <c r="C222" s="110"/>
+      <c r="D222" s="108"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
@@ -47575,8 +47585,8 @@
       <c r="B223" s="2">
         <v>6</v>
       </c>
-      <c r="C223" s="105"/>
-      <c r="D223" s="103"/>
+      <c r="C223" s="110"/>
+      <c r="D223" s="108"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
@@ -47585,8 +47595,8 @@
       <c r="B224" s="2">
         <v>6</v>
       </c>
-      <c r="C224" s="105"/>
-      <c r="D224" s="103"/>
+      <c r="C224" s="110"/>
+      <c r="D224" s="108"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
@@ -47595,8 +47605,8 @@
       <c r="B225" s="2">
         <v>6</v>
       </c>
-      <c r="C225" s="105"/>
-      <c r="D225" s="103"/>
+      <c r="C225" s="110"/>
+      <c r="D225" s="108"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
@@ -47605,8 +47615,8 @@
       <c r="B226" s="2">
         <v>4</v>
       </c>
-      <c r="C226" s="105"/>
-      <c r="D226" s="103"/>
+      <c r="C226" s="110"/>
+      <c r="D226" s="108"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
@@ -47615,8 +47625,8 @@
       <c r="B227" s="2">
         <v>2</v>
       </c>
-      <c r="C227" s="105"/>
-      <c r="D227" s="103"/>
+      <c r="C227" s="110"/>
+      <c r="D227" s="108"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
@@ -47625,8 +47635,8 @@
       <c r="B228" s="2">
         <v>2</v>
       </c>
-      <c r="C228" s="105"/>
-      <c r="D228" s="103"/>
+      <c r="C228" s="110"/>
+      <c r="D228" s="108"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
@@ -47635,8 +47645,8 @@
       <c r="B229" s="2">
         <v>4</v>
       </c>
-      <c r="C229" s="105"/>
-      <c r="D229" s="103"/>
+      <c r="C229" s="110"/>
+      <c r="D229" s="108"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
@@ -47645,8 +47655,8 @@
       <c r="B230" s="2">
         <v>6</v>
       </c>
-      <c r="C230" s="105"/>
-      <c r="D230" s="103"/>
+      <c r="C230" s="110"/>
+      <c r="D230" s="108"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
@@ -47655,8 +47665,8 @@
       <c r="B231" s="2">
         <v>8</v>
       </c>
-      <c r="C231" s="105"/>
-      <c r="D231" s="103"/>
+      <c r="C231" s="110"/>
+      <c r="D231" s="108"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
@@ -47665,8 +47675,8 @@
       <c r="B232" s="2">
         <v>4</v>
       </c>
-      <c r="C232" s="105"/>
-      <c r="D232" s="103"/>
+      <c r="C232" s="110"/>
+      <c r="D232" s="108"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
@@ -47675,8 +47685,8 @@
       <c r="B233" s="2">
         <v>4</v>
       </c>
-      <c r="C233" s="105"/>
-      <c r="D233" s="103"/>
+      <c r="C233" s="110"/>
+      <c r="D233" s="108"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
@@ -47685,8 +47695,8 @@
       <c r="B234" s="2">
         <v>4</v>
       </c>
-      <c r="C234" s="105"/>
-      <c r="D234" s="103"/>
+      <c r="C234" s="110"/>
+      <c r="D234" s="108"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
@@ -47695,8 +47705,8 @@
       <c r="B235" s="2">
         <v>4</v>
       </c>
-      <c r="C235" s="105"/>
-      <c r="D235" s="103"/>
+      <c r="C235" s="110"/>
+      <c r="D235" s="108"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
@@ -47705,8 +47715,8 @@
       <c r="B236" s="2">
         <v>6</v>
       </c>
-      <c r="C236" s="105"/>
-      <c r="D236" s="103"/>
+      <c r="C236" s="110"/>
+      <c r="D236" s="108"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
@@ -47715,8 +47725,8 @@
       <c r="B237" s="2">
         <v>4</v>
       </c>
-      <c r="C237" s="105"/>
-      <c r="D237" s="103"/>
+      <c r="C237" s="110"/>
+      <c r="D237" s="108"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
@@ -47725,8 +47735,8 @@
       <c r="B238" s="2">
         <v>4</v>
       </c>
-      <c r="C238" s="105"/>
-      <c r="D238" s="103"/>
+      <c r="C238" s="110"/>
+      <c r="D238" s="108"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
@@ -47735,8 +47745,8 @@
       <c r="B239" s="2">
         <v>6</v>
       </c>
-      <c r="C239" s="105"/>
-      <c r="D239" s="103"/>
+      <c r="C239" s="110"/>
+      <c r="D239" s="108"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
@@ -47745,8 +47755,8 @@
       <c r="B240" s="2">
         <v>2</v>
       </c>
-      <c r="C240" s="105"/>
-      <c r="D240" s="103"/>
+      <c r="C240" s="110"/>
+      <c r="D240" s="108"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
@@ -47755,8 +47765,8 @@
       <c r="B241" s="2">
         <v>6</v>
       </c>
-      <c r="C241" s="105"/>
-      <c r="D241" s="103"/>
+      <c r="C241" s="110"/>
+      <c r="D241" s="108"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
@@ -47765,8 +47775,8 @@
       <c r="B242" s="2">
         <v>6</v>
       </c>
-      <c r="C242" s="105"/>
-      <c r="D242" s="103"/>
+      <c r="C242" s="110"/>
+      <c r="D242" s="108"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
@@ -47775,8 +47785,8 @@
       <c r="B243" s="2">
         <v>4</v>
       </c>
-      <c r="C243" s="105"/>
-      <c r="D243" s="103"/>
+      <c r="C243" s="110"/>
+      <c r="D243" s="108"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
@@ -47785,8 +47795,8 @@
       <c r="B244" s="2">
         <v>6</v>
       </c>
-      <c r="C244" s="95"/>
-      <c r="D244" s="103"/>
+      <c r="C244" s="84"/>
+      <c r="D244" s="108"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
@@ -47795,11 +47805,11 @@
       <c r="B245" s="2">
         <v>4</v>
       </c>
-      <c r="C245" s="104">
+      <c r="C245" s="109">
         <f>AVERAGE(B245:B274)</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="D245" s="103"/>
+      <c r="D245" s="108"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
@@ -47808,8 +47818,8 @@
       <c r="B246" s="2">
         <v>4</v>
       </c>
-      <c r="C246" s="105"/>
-      <c r="D246" s="103"/>
+      <c r="C246" s="110"/>
+      <c r="D246" s="108"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
@@ -47818,8 +47828,8 @@
       <c r="B247" s="2">
         <v>6</v>
       </c>
-      <c r="C247" s="105"/>
-      <c r="D247" s="103"/>
+      <c r="C247" s="110"/>
+      <c r="D247" s="108"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
@@ -47828,8 +47838,8 @@
       <c r="B248" s="2">
         <v>4</v>
       </c>
-      <c r="C248" s="105"/>
-      <c r="D248" s="103"/>
+      <c r="C248" s="110"/>
+      <c r="D248" s="108"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
@@ -47838,8 +47848,8 @@
       <c r="B249" s="2">
         <v>6</v>
       </c>
-      <c r="C249" s="105"/>
-      <c r="D249" s="103"/>
+      <c r="C249" s="110"/>
+      <c r="D249" s="108"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
@@ -47848,8 +47858,8 @@
       <c r="B250" s="2">
         <v>4</v>
       </c>
-      <c r="C250" s="105"/>
-      <c r="D250" s="103"/>
+      <c r="C250" s="110"/>
+      <c r="D250" s="108"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
@@ -47858,8 +47868,8 @@
       <c r="B251" s="2">
         <v>4</v>
       </c>
-      <c r="C251" s="105"/>
-      <c r="D251" s="103"/>
+      <c r="C251" s="110"/>
+      <c r="D251" s="108"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
@@ -47868,8 +47878,8 @@
       <c r="B252" s="2">
         <v>6</v>
       </c>
-      <c r="C252" s="105"/>
-      <c r="D252" s="103"/>
+      <c r="C252" s="110"/>
+      <c r="D252" s="108"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
@@ -47878,8 +47888,8 @@
       <c r="B253" s="2">
         <v>4</v>
       </c>
-      <c r="C253" s="105"/>
-      <c r="D253" s="103"/>
+      <c r="C253" s="110"/>
+      <c r="D253" s="108"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
@@ -47888,8 +47898,8 @@
       <c r="B254" s="2">
         <v>4</v>
       </c>
-      <c r="C254" s="105"/>
-      <c r="D254" s="103"/>
+      <c r="C254" s="110"/>
+      <c r="D254" s="108"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
@@ -47898,8 +47908,8 @@
       <c r="B255" s="2">
         <v>6</v>
       </c>
-      <c r="C255" s="105"/>
-      <c r="D255" s="103"/>
+      <c r="C255" s="110"/>
+      <c r="D255" s="108"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
@@ -47908,8 +47918,8 @@
       <c r="B256" s="2">
         <v>6</v>
       </c>
-      <c r="C256" s="105"/>
-      <c r="D256" s="103"/>
+      <c r="C256" s="110"/>
+      <c r="D256" s="108"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
@@ -47918,8 +47928,8 @@
       <c r="B257" s="2">
         <v>10</v>
       </c>
-      <c r="C257" s="105"/>
-      <c r="D257" s="103"/>
+      <c r="C257" s="110"/>
+      <c r="D257" s="108"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
@@ -47928,8 +47938,8 @@
       <c r="B258" s="2">
         <v>8</v>
       </c>
-      <c r="C258" s="105"/>
-      <c r="D258" s="103"/>
+      <c r="C258" s="110"/>
+      <c r="D258" s="108"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
@@ -47938,8 +47948,8 @@
       <c r="B259" s="2">
         <v>6</v>
       </c>
-      <c r="C259" s="105"/>
-      <c r="D259" s="103"/>
+      <c r="C259" s="110"/>
+      <c r="D259" s="108"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
@@ -47948,8 +47958,8 @@
       <c r="B260" s="2">
         <v>6</v>
       </c>
-      <c r="C260" s="105"/>
-      <c r="D260" s="103"/>
+      <c r="C260" s="110"/>
+      <c r="D260" s="108"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
@@ -47958,8 +47968,8 @@
       <c r="B261" s="2">
         <v>4</v>
       </c>
-      <c r="C261" s="105"/>
-      <c r="D261" s="103"/>
+      <c r="C261" s="110"/>
+      <c r="D261" s="108"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
@@ -47968,8 +47978,8 @@
       <c r="B262" s="2">
         <v>2</v>
       </c>
-      <c r="C262" s="105"/>
-      <c r="D262" s="103"/>
+      <c r="C262" s="110"/>
+      <c r="D262" s="108"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
@@ -47978,8 +47988,8 @@
       <c r="B263" s="2">
         <v>4</v>
       </c>
-      <c r="C263" s="105"/>
-      <c r="D263" s="103"/>
+      <c r="C263" s="110"/>
+      <c r="D263" s="108"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
@@ -47988,8 +47998,8 @@
       <c r="B264" s="2">
         <v>4</v>
       </c>
-      <c r="C264" s="105"/>
-      <c r="D264" s="103"/>
+      <c r="C264" s="110"/>
+      <c r="D264" s="108"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
@@ -47998,8 +48008,8 @@
       <c r="B265" s="2">
         <v>6</v>
       </c>
-      <c r="C265" s="105"/>
-      <c r="D265" s="103"/>
+      <c r="C265" s="110"/>
+      <c r="D265" s="108"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
@@ -48008,8 +48018,8 @@
       <c r="B266" s="2">
         <v>6</v>
       </c>
-      <c r="C266" s="105"/>
-      <c r="D266" s="103"/>
+      <c r="C266" s="110"/>
+      <c r="D266" s="108"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
@@ -48018,8 +48028,8 @@
       <c r="B267" s="2">
         <v>4</v>
       </c>
-      <c r="C267" s="105"/>
-      <c r="D267" s="103"/>
+      <c r="C267" s="110"/>
+      <c r="D267" s="108"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
@@ -48028,8 +48038,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="105"/>
-      <c r="D268" s="103"/>
+      <c r="C268" s="110"/>
+      <c r="D268" s="108"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
@@ -48038,8 +48048,8 @@
       <c r="B269" s="2">
         <v>6</v>
       </c>
-      <c r="C269" s="105"/>
-      <c r="D269" s="103"/>
+      <c r="C269" s="110"/>
+      <c r="D269" s="108"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
@@ -48048,8 +48058,8 @@
       <c r="B270" s="2">
         <v>8</v>
       </c>
-      <c r="C270" s="105"/>
-      <c r="D270" s="103"/>
+      <c r="C270" s="110"/>
+      <c r="D270" s="108"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
@@ -48058,8 +48068,8 @@
       <c r="B271" s="2">
         <v>4</v>
       </c>
-      <c r="C271" s="105"/>
-      <c r="D271" s="103"/>
+      <c r="C271" s="110"/>
+      <c r="D271" s="108"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
@@ -48068,8 +48078,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="105"/>
-      <c r="D272" s="103"/>
+      <c r="C272" s="110"/>
+      <c r="D272" s="108"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
@@ -48078,8 +48088,8 @@
       <c r="B273" s="2">
         <v>8</v>
       </c>
-      <c r="C273" s="105"/>
-      <c r="D273" s="103"/>
+      <c r="C273" s="110"/>
+      <c r="D273" s="108"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
@@ -48088,8 +48098,8 @@
       <c r="B274" s="2">
         <v>6</v>
       </c>
-      <c r="C274" s="95"/>
-      <c r="D274" s="103"/>
+      <c r="C274" s="84"/>
+      <c r="D274" s="108"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
@@ -48098,11 +48108,11 @@
       <c r="B275" s="2">
         <v>4</v>
       </c>
-      <c r="C275" s="104">
+      <c r="C275" s="109">
         <f>AVERAGE(B275:B305)</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="D275" s="103"/>
+      <c r="D275" s="108"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
@@ -48111,8 +48121,8 @@
       <c r="B276" s="2">
         <v>6</v>
       </c>
-      <c r="C276" s="105"/>
-      <c r="D276" s="103"/>
+      <c r="C276" s="110"/>
+      <c r="D276" s="108"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
@@ -48121,8 +48131,8 @@
       <c r="B277" s="2">
         <v>6</v>
       </c>
-      <c r="C277" s="105"/>
-      <c r="D277" s="103"/>
+      <c r="C277" s="110"/>
+      <c r="D277" s="108"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
@@ -48131,8 +48141,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="105"/>
-      <c r="D278" s="103"/>
+      <c r="C278" s="110"/>
+      <c r="D278" s="108"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
@@ -48141,8 +48151,8 @@
       <c r="B279" s="2">
         <v>2</v>
       </c>
-      <c r="C279" s="105"/>
-      <c r="D279" s="103"/>
+      <c r="C279" s="110"/>
+      <c r="D279" s="108"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
@@ -48151,8 +48161,8 @@
       <c r="B280" s="2">
         <v>4</v>
       </c>
-      <c r="C280" s="105"/>
-      <c r="D280" s="103"/>
+      <c r="C280" s="110"/>
+      <c r="D280" s="108"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
@@ -48161,8 +48171,8 @@
       <c r="B281" s="2">
         <v>0</v>
       </c>
-      <c r="C281" s="105"/>
-      <c r="D281" s="103"/>
+      <c r="C281" s="110"/>
+      <c r="D281" s="108"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
@@ -48171,8 +48181,8 @@
       <c r="B282" s="2">
         <v>2</v>
       </c>
-      <c r="C282" s="105"/>
-      <c r="D282" s="103"/>
+      <c r="C282" s="110"/>
+      <c r="D282" s="108"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
@@ -48181,8 +48191,8 @@
       <c r="B283" s="2">
         <v>6</v>
       </c>
-      <c r="C283" s="105"/>
-      <c r="D283" s="103"/>
+      <c r="C283" s="110"/>
+      <c r="D283" s="108"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
@@ -48191,8 +48201,8 @@
       <c r="B284" s="2">
         <v>6</v>
       </c>
-      <c r="C284" s="105"/>
-      <c r="D284" s="103"/>
+      <c r="C284" s="110"/>
+      <c r="D284" s="108"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
@@ -48201,8 +48211,8 @@
       <c r="B285" s="2">
         <v>8</v>
       </c>
-      <c r="C285" s="105"/>
-      <c r="D285" s="103"/>
+      <c r="C285" s="110"/>
+      <c r="D285" s="108"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
@@ -48211,8 +48221,8 @@
       <c r="B286" s="2">
         <v>8</v>
       </c>
-      <c r="C286" s="105"/>
-      <c r="D286" s="103"/>
+      <c r="C286" s="110"/>
+      <c r="D286" s="108"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
@@ -48221,8 +48231,8 @@
       <c r="B287" s="2">
         <v>6</v>
       </c>
-      <c r="C287" s="105"/>
-      <c r="D287" s="103"/>
+      <c r="C287" s="110"/>
+      <c r="D287" s="108"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
@@ -48231,8 +48241,8 @@
       <c r="B288" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="105"/>
-      <c r="D288" s="103"/>
+      <c r="C288" s="110"/>
+      <c r="D288" s="108"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
@@ -48241,8 +48251,8 @@
       <c r="B289" s="2">
         <v>6</v>
       </c>
-      <c r="C289" s="105"/>
-      <c r="D289" s="103"/>
+      <c r="C289" s="110"/>
+      <c r="D289" s="108"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
@@ -48251,8 +48261,8 @@
       <c r="B290" s="2">
         <v>4</v>
       </c>
-      <c r="C290" s="105"/>
-      <c r="D290" s="103"/>
+      <c r="C290" s="110"/>
+      <c r="D290" s="108"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
@@ -48261,8 +48271,8 @@
       <c r="B291" s="2">
         <v>6</v>
       </c>
-      <c r="C291" s="105"/>
-      <c r="D291" s="103"/>
+      <c r="C291" s="110"/>
+      <c r="D291" s="108"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
@@ -48271,8 +48281,8 @@
       <c r="B292" s="2">
         <v>8</v>
       </c>
-      <c r="C292" s="105"/>
-      <c r="D292" s="103"/>
+      <c r="C292" s="110"/>
+      <c r="D292" s="108"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
@@ -48281,8 +48291,8 @@
       <c r="B293" s="2">
         <v>6</v>
       </c>
-      <c r="C293" s="105"/>
-      <c r="D293" s="103"/>
+      <c r="C293" s="110"/>
+      <c r="D293" s="108"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
@@ -48291,8 +48301,8 @@
       <c r="B294" s="2">
         <v>6</v>
       </c>
-      <c r="C294" s="105"/>
-      <c r="D294" s="103"/>
+      <c r="C294" s="110"/>
+      <c r="D294" s="108"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
@@ -48301,8 +48311,8 @@
       <c r="B295" s="2">
         <v>6</v>
       </c>
-      <c r="C295" s="105"/>
-      <c r="D295" s="103"/>
+      <c r="C295" s="110"/>
+      <c r="D295" s="108"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
@@ -48311,8 +48321,8 @@
       <c r="B296" s="2">
         <v>6</v>
       </c>
-      <c r="C296" s="105"/>
-      <c r="D296" s="103"/>
+      <c r="C296" s="110"/>
+      <c r="D296" s="108"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
@@ -48321,8 +48331,8 @@
       <c r="B297" s="2">
         <v>4</v>
       </c>
-      <c r="C297" s="105"/>
-      <c r="D297" s="103"/>
+      <c r="C297" s="110"/>
+      <c r="D297" s="108"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
@@ -48331,8 +48341,8 @@
       <c r="B298" s="2">
         <v>4</v>
       </c>
-      <c r="C298" s="105"/>
-      <c r="D298" s="103"/>
+      <c r="C298" s="110"/>
+      <c r="D298" s="108"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
@@ -48341,8 +48351,8 @@
       <c r="B299" s="2">
         <v>6</v>
       </c>
-      <c r="C299" s="105"/>
-      <c r="D299" s="103"/>
+      <c r="C299" s="110"/>
+      <c r="D299" s="108"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
@@ -48351,8 +48361,8 @@
       <c r="B300" s="2">
         <v>6</v>
       </c>
-      <c r="C300" s="105"/>
-      <c r="D300" s="103"/>
+      <c r="C300" s="110"/>
+      <c r="D300" s="108"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
@@ -48361,8 +48371,8 @@
       <c r="B301" s="2">
         <v>4</v>
       </c>
-      <c r="C301" s="105"/>
-      <c r="D301" s="103"/>
+      <c r="C301" s="110"/>
+      <c r="D301" s="108"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
@@ -48371,8 +48381,8 @@
       <c r="B302" s="2">
         <v>6</v>
       </c>
-      <c r="C302" s="105"/>
-      <c r="D302" s="103"/>
+      <c r="C302" s="110"/>
+      <c r="D302" s="108"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
@@ -48381,8 +48391,8 @@
       <c r="B303" s="2">
         <v>8</v>
       </c>
-      <c r="C303" s="105"/>
-      <c r="D303" s="103"/>
+      <c r="C303" s="110"/>
+      <c r="D303" s="108"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
@@ -48391,8 +48401,8 @@
       <c r="B304" s="2">
         <v>8</v>
       </c>
-      <c r="C304" s="105"/>
-      <c r="D304" s="103"/>
+      <c r="C304" s="110"/>
+      <c r="D304" s="108"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
@@ -48401,8 +48411,8 @@
       <c r="B305" s="2">
         <v>10</v>
       </c>
-      <c r="C305" s="95"/>
-      <c r="D305" s="103"/>
+      <c r="C305" s="84"/>
+      <c r="D305" s="108"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
@@ -48411,11 +48421,11 @@
       <c r="B306" s="2">
         <v>6</v>
       </c>
-      <c r="C306" s="104">
+      <c r="C306" s="109">
         <f>AVERAGE(B306:B335)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="D306" s="103"/>
+      <c r="D306" s="108"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
@@ -48424,8 +48434,8 @@
       <c r="B307" s="2">
         <v>2</v>
       </c>
-      <c r="C307" s="105"/>
-      <c r="D307" s="103"/>
+      <c r="C307" s="110"/>
+      <c r="D307" s="108"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
@@ -48434,8 +48444,8 @@
       <c r="B308" s="2">
         <v>0</v>
       </c>
-      <c r="C308" s="105"/>
-      <c r="D308" s="103"/>
+      <c r="C308" s="110"/>
+      <c r="D308" s="108"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
@@ -48444,8 +48454,8 @@
       <c r="B309" s="2">
         <v>4</v>
       </c>
-      <c r="C309" s="105"/>
-      <c r="D309" s="103"/>
+      <c r="C309" s="110"/>
+      <c r="D309" s="108"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
@@ -48454,8 +48464,8 @@
       <c r="B310" s="2">
         <v>6</v>
       </c>
-      <c r="C310" s="105"/>
-      <c r="D310" s="103"/>
+      <c r="C310" s="110"/>
+      <c r="D310" s="108"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
@@ -48464,8 +48474,8 @@
       <c r="B311" s="2">
         <v>6</v>
       </c>
-      <c r="C311" s="105"/>
-      <c r="D311" s="103"/>
+      <c r="C311" s="110"/>
+      <c r="D311" s="108"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
@@ -48474,8 +48484,8 @@
       <c r="B312" s="2">
         <v>6</v>
       </c>
-      <c r="C312" s="105"/>
-      <c r="D312" s="103"/>
+      <c r="C312" s="110"/>
+      <c r="D312" s="108"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
@@ -48484,8 +48494,8 @@
       <c r="B313" s="2">
         <v>8</v>
       </c>
-      <c r="C313" s="105"/>
-      <c r="D313" s="103"/>
+      <c r="C313" s="110"/>
+      <c r="D313" s="108"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
@@ -48494,8 +48504,8 @@
       <c r="B314" s="2">
         <v>6</v>
       </c>
-      <c r="C314" s="105"/>
-      <c r="D314" s="103"/>
+      <c r="C314" s="110"/>
+      <c r="D314" s="108"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
@@ -48504,8 +48514,8 @@
       <c r="B315" s="2">
         <v>8</v>
       </c>
-      <c r="C315" s="105"/>
-      <c r="D315" s="103"/>
+      <c r="C315" s="110"/>
+      <c r="D315" s="108"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
@@ -48514,8 +48524,8 @@
       <c r="B316" s="2">
         <v>8</v>
       </c>
-      <c r="C316" s="105"/>
-      <c r="D316" s="103"/>
+      <c r="C316" s="110"/>
+      <c r="D316" s="108"/>
       <c r="M316" s="3"/>
       <c r="O316" s="3"/>
     </row>
@@ -48526,8 +48536,8 @@
       <c r="B317" s="2">
         <v>2</v>
       </c>
-      <c r="C317" s="105"/>
-      <c r="D317" s="103"/>
+      <c r="C317" s="110"/>
+      <c r="D317" s="108"/>
       <c r="M317" s="3"/>
       <c r="O317" s="3"/>
     </row>
@@ -48538,8 +48548,8 @@
       <c r="B318" s="2">
         <v>6</v>
       </c>
-      <c r="C318" s="105"/>
-      <c r="D318" s="103"/>
+      <c r="C318" s="110"/>
+      <c r="D318" s="108"/>
       <c r="M318" s="3"/>
       <c r="O318" s="3"/>
     </row>
@@ -48550,8 +48560,8 @@
       <c r="B319" s="2">
         <v>8</v>
       </c>
-      <c r="C319" s="105"/>
-      <c r="D319" s="103"/>
+      <c r="C319" s="110"/>
+      <c r="D319" s="108"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
@@ -48560,8 +48570,8 @@
       <c r="B320" s="2">
         <v>8</v>
       </c>
-      <c r="C320" s="105"/>
-      <c r="D320" s="103"/>
+      <c r="C320" s="110"/>
+      <c r="D320" s="108"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
@@ -48570,8 +48580,8 @@
       <c r="B321" s="2">
         <v>6</v>
       </c>
-      <c r="C321" s="105"/>
-      <c r="D321" s="103"/>
+      <c r="C321" s="110"/>
+      <c r="D321" s="108"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
@@ -48580,8 +48590,8 @@
       <c r="B322" s="2">
         <v>6</v>
       </c>
-      <c r="C322" s="105"/>
-      <c r="D322" s="103"/>
+      <c r="C322" s="110"/>
+      <c r="D322" s="108"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
@@ -48590,8 +48600,8 @@
       <c r="B323" s="2">
         <v>4</v>
       </c>
-      <c r="C323" s="105"/>
-      <c r="D323" s="103"/>
+      <c r="C323" s="110"/>
+      <c r="D323" s="108"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
@@ -48600,8 +48610,8 @@
       <c r="B324" s="2">
         <v>8</v>
       </c>
-      <c r="C324" s="105"/>
-      <c r="D324" s="103"/>
+      <c r="C324" s="110"/>
+      <c r="D324" s="108"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
@@ -48610,8 +48620,8 @@
       <c r="B325" s="2">
         <v>6</v>
       </c>
-      <c r="C325" s="105"/>
-      <c r="D325" s="103"/>
+      <c r="C325" s="110"/>
+      <c r="D325" s="108"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
@@ -48620,8 +48630,8 @@
       <c r="B326" s="2">
         <v>4</v>
       </c>
-      <c r="C326" s="105"/>
-      <c r="D326" s="103"/>
+      <c r="C326" s="110"/>
+      <c r="D326" s="108"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
@@ -48630,8 +48640,8 @@
       <c r="B327" s="2">
         <v>4</v>
       </c>
-      <c r="C327" s="105"/>
-      <c r="D327" s="103"/>
+      <c r="C327" s="110"/>
+      <c r="D327" s="108"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
@@ -48640,8 +48650,8 @@
       <c r="B328" s="2">
         <v>6</v>
       </c>
-      <c r="C328" s="105"/>
-      <c r="D328" s="103"/>
+      <c r="C328" s="110"/>
+      <c r="D328" s="108"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
@@ -48650,8 +48660,8 @@
       <c r="B329" s="2">
         <v>8</v>
       </c>
-      <c r="C329" s="105"/>
-      <c r="D329" s="103"/>
+      <c r="C329" s="110"/>
+      <c r="D329" s="108"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
@@ -48660,8 +48670,8 @@
       <c r="B330" s="2">
         <v>4</v>
       </c>
-      <c r="C330" s="105"/>
-      <c r="D330" s="103"/>
+      <c r="C330" s="110"/>
+      <c r="D330" s="108"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
@@ -48670,8 +48680,8 @@
       <c r="B331" s="2">
         <v>6</v>
       </c>
-      <c r="C331" s="105"/>
-      <c r="D331" s="103"/>
+      <c r="C331" s="110"/>
+      <c r="D331" s="108"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
@@ -48680,8 +48690,8 @@
       <c r="B332" s="2">
         <v>6</v>
       </c>
-      <c r="C332" s="105"/>
-      <c r="D332" s="103"/>
+      <c r="C332" s="110"/>
+      <c r="D332" s="108"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
@@ -48690,8 +48700,8 @@
       <c r="B333" s="2">
         <v>2</v>
       </c>
-      <c r="C333" s="105"/>
-      <c r="D333" s="103"/>
+      <c r="C333" s="110"/>
+      <c r="D333" s="108"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
@@ -48700,8 +48710,8 @@
       <c r="B334" s="2">
         <v>6</v>
       </c>
-      <c r="C334" s="105"/>
-      <c r="D334" s="103"/>
+      <c r="C334" s="110"/>
+      <c r="D334" s="108"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
@@ -48710,8 +48720,8 @@
       <c r="B335" s="2">
         <v>6</v>
       </c>
-      <c r="C335" s="95"/>
-      <c r="D335" s="103"/>
+      <c r="C335" s="84"/>
+      <c r="D335" s="108"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
@@ -48720,11 +48730,11 @@
       <c r="B336" s="2">
         <v>6</v>
       </c>
-      <c r="C336" s="104">
+      <c r="C336" s="109">
         <f>AVERAGE(B336:B366)</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="D336" s="103"/>
+      <c r="D336" s="108"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
@@ -48733,8 +48743,8 @@
       <c r="B337" s="2">
         <v>4</v>
       </c>
-      <c r="C337" s="105"/>
-      <c r="D337" s="103"/>
+      <c r="C337" s="110"/>
+      <c r="D337" s="108"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
@@ -48743,8 +48753,8 @@
       <c r="B338" s="2">
         <v>4</v>
       </c>
-      <c r="C338" s="105"/>
-      <c r="D338" s="103"/>
+      <c r="C338" s="110"/>
+      <c r="D338" s="108"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
@@ -48753,8 +48763,8 @@
       <c r="B339" s="2">
         <v>6</v>
       </c>
-      <c r="C339" s="105"/>
-      <c r="D339" s="103"/>
+      <c r="C339" s="110"/>
+      <c r="D339" s="108"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
@@ -48763,8 +48773,8 @@
       <c r="B340" s="2">
         <v>6</v>
       </c>
-      <c r="C340" s="105"/>
-      <c r="D340" s="103"/>
+      <c r="C340" s="110"/>
+      <c r="D340" s="108"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
@@ -48773,8 +48783,8 @@
       <c r="B341" s="2">
         <v>6</v>
       </c>
-      <c r="C341" s="105"/>
-      <c r="D341" s="103"/>
+      <c r="C341" s="110"/>
+      <c r="D341" s="108"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
@@ -48783,8 +48793,8 @@
       <c r="B342" s="2">
         <v>6</v>
       </c>
-      <c r="C342" s="105"/>
-      <c r="D342" s="103"/>
+      <c r="C342" s="110"/>
+      <c r="D342" s="108"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
@@ -48793,8 +48803,8 @@
       <c r="B343" s="2">
         <v>4</v>
       </c>
-      <c r="C343" s="105"/>
-      <c r="D343" s="103"/>
+      <c r="C343" s="110"/>
+      <c r="D343" s="108"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
@@ -48803,8 +48813,8 @@
       <c r="B344" s="2">
         <v>4</v>
       </c>
-      <c r="C344" s="105"/>
-      <c r="D344" s="103"/>
+      <c r="C344" s="110"/>
+      <c r="D344" s="108"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
@@ -48813,8 +48823,8 @@
       <c r="B345" s="2">
         <v>4</v>
       </c>
-      <c r="C345" s="105"/>
-      <c r="D345" s="103"/>
+      <c r="C345" s="110"/>
+      <c r="D345" s="108"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
@@ -48823,8 +48833,8 @@
       <c r="B346" s="2">
         <v>4</v>
       </c>
-      <c r="C346" s="105"/>
-      <c r="D346" s="103"/>
+      <c r="C346" s="110"/>
+      <c r="D346" s="108"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
@@ -48833,8 +48843,8 @@
       <c r="B347" s="2">
         <v>6</v>
       </c>
-      <c r="C347" s="105"/>
-      <c r="D347" s="103"/>
+      <c r="C347" s="110"/>
+      <c r="D347" s="108"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
@@ -48843,8 +48853,8 @@
       <c r="B348" s="2">
         <v>4</v>
       </c>
-      <c r="C348" s="105"/>
-      <c r="D348" s="103"/>
+      <c r="C348" s="110"/>
+      <c r="D348" s="108"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
@@ -48853,8 +48863,8 @@
       <c r="B349" s="2">
         <v>6</v>
       </c>
-      <c r="C349" s="105"/>
-      <c r="D349" s="103"/>
+      <c r="C349" s="110"/>
+      <c r="D349" s="108"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
@@ -48863,8 +48873,8 @@
       <c r="B350" s="2">
         <v>4</v>
       </c>
-      <c r="C350" s="105"/>
-      <c r="D350" s="103"/>
+      <c r="C350" s="110"/>
+      <c r="D350" s="108"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
@@ -48873,8 +48883,8 @@
       <c r="B351" s="2">
         <v>4</v>
       </c>
-      <c r="C351" s="105"/>
-      <c r="D351" s="103"/>
+      <c r="C351" s="110"/>
+      <c r="D351" s="108"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
@@ -48883,8 +48893,8 @@
       <c r="B352" s="2">
         <v>2</v>
       </c>
-      <c r="C352" s="105"/>
-      <c r="D352" s="103"/>
+      <c r="C352" s="110"/>
+      <c r="D352" s="108"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
@@ -48893,8 +48903,8 @@
       <c r="B353" s="2">
         <v>4</v>
       </c>
-      <c r="C353" s="105"/>
-      <c r="D353" s="103"/>
+      <c r="C353" s="110"/>
+      <c r="D353" s="108"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
@@ -48903,8 +48913,8 @@
       <c r="B354" s="2">
         <v>2</v>
       </c>
-      <c r="C354" s="105"/>
-      <c r="D354" s="103"/>
+      <c r="C354" s="110"/>
+      <c r="D354" s="108"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
@@ -48913,8 +48923,8 @@
       <c r="B355" s="2">
         <v>4</v>
       </c>
-      <c r="C355" s="105"/>
-      <c r="D355" s="103"/>
+      <c r="C355" s="110"/>
+      <c r="D355" s="108"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
@@ -48923,8 +48933,8 @@
       <c r="B356" s="2">
         <v>4</v>
       </c>
-      <c r="C356" s="105"/>
-      <c r="D356" s="103"/>
+      <c r="C356" s="110"/>
+      <c r="D356" s="108"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
@@ -48933,8 +48943,8 @@
       <c r="B357" s="2">
         <v>4</v>
       </c>
-      <c r="C357" s="105"/>
-      <c r="D357" s="103"/>
+      <c r="C357" s="110"/>
+      <c r="D357" s="108"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
@@ -48943,8 +48953,8 @@
       <c r="B358" s="2">
         <v>4</v>
       </c>
-      <c r="C358" s="105"/>
-      <c r="D358" s="103"/>
+      <c r="C358" s="110"/>
+      <c r="D358" s="108"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
@@ -48953,8 +48963,8 @@
       <c r="B359" s="2">
         <v>10</v>
       </c>
-      <c r="C359" s="105"/>
-      <c r="D359" s="103"/>
+      <c r="C359" s="110"/>
+      <c r="D359" s="108"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
@@ -48963,8 +48973,8 @@
       <c r="B360" s="2">
         <v>6</v>
       </c>
-      <c r="C360" s="105"/>
-      <c r="D360" s="103"/>
+      <c r="C360" s="110"/>
+      <c r="D360" s="108"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
@@ -48973,8 +48983,8 @@
       <c r="B361" s="2">
         <v>4</v>
       </c>
-      <c r="C361" s="105"/>
-      <c r="D361" s="103"/>
+      <c r="C361" s="110"/>
+      <c r="D361" s="108"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
@@ -48983,8 +48993,8 @@
       <c r="B362" s="2">
         <v>4</v>
       </c>
-      <c r="C362" s="105"/>
-      <c r="D362" s="103"/>
+      <c r="C362" s="110"/>
+      <c r="D362" s="108"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
@@ -48993,8 +49003,8 @@
       <c r="B363" s="2">
         <v>4</v>
       </c>
-      <c r="C363" s="105"/>
-      <c r="D363" s="103"/>
+      <c r="C363" s="110"/>
+      <c r="D363" s="108"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
@@ -49003,8 +49013,8 @@
       <c r="B364" s="2">
         <v>6</v>
       </c>
-      <c r="C364" s="105"/>
-      <c r="D364" s="103"/>
+      <c r="C364" s="110"/>
+      <c r="D364" s="108"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
@@ -49013,8 +49023,8 @@
       <c r="B365" s="2">
         <v>4</v>
       </c>
-      <c r="C365" s="105"/>
-      <c r="D365" s="103"/>
+      <c r="C365" s="110"/>
+      <c r="D365" s="108"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
@@ -49023,20 +49033,11 @@
       <c r="B366" s="2">
         <v>6</v>
       </c>
-      <c r="C366" s="95"/>
-      <c r="D366" s="103"/>
+      <c r="C366" s="84"/>
+      <c r="D366" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C1:C31"/>
-    <mergeCell ref="C32:C60"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="L19:L30"/>
     <mergeCell ref="C61:C91"/>
     <mergeCell ref="D1:D366"/>
     <mergeCell ref="C92:C121"/>
@@ -49048,6 +49049,15 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C1:C31"/>
+    <mergeCell ref="C32:C60"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L19:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD642F24-6B31-46CF-85F1-74539F81738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526E6E4-9403-4003-BC17-3D53F6E04F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3097,6 +3097,9 @@
                 <c:pt idx="73">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3740,7 +3743,7 @@
                   <c:v>4.7571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1800000000000006</c:v>
+                  <c:v>5.1687500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4054,7 +4057,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
@@ -15448,8 +15451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6CF7-CA58-448E-9A43-748C25428E75}">
   <dimension ref="A1:BA367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -15526,7 +15529,7 @@
       </c>
       <c r="D2" s="81">
         <f>AVERAGE(C2:C366)</f>
-        <v>4.9790476190476189</v>
+        <v>4.9752976190476188</v>
       </c>
       <c r="E2" s="62">
         <v>1</v>
@@ -15836,7 +15839,7 @@
       </c>
       <c r="N5" s="93">
         <f>AVERAGE(M5:M16)</f>
-        <v>4.9790476190476189</v>
+        <v>4.9752976190476188</v>
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -16084,7 +16087,7 @@
       </c>
       <c r="M7" s="32">
         <f>C61</f>
-        <v>5.1800000000000006</v>
+        <v>5.1687500000000002</v>
       </c>
       <c r="N7" s="94"/>
       <c r="O7" s="61">
@@ -16101,7 +16104,7 @@
       </c>
       <c r="R7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=4", B61:B91,"&lt;6")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=2", B61:B91,"&lt;4")</f>
@@ -16201,7 +16204,7 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="60" t="s">
         <v>11</v>
@@ -16512,7 +16515,7 @@
       <c r="I11" s="90"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>14</v>
@@ -16707,7 +16710,7 @@
       <c r="I13" s="91"/>
       <c r="J13" s="92">
         <f>J11/3.65</f>
-        <v>20.273972602739725</v>
+        <v>20.547945205479454</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>16</v>
@@ -20844,7 +20847,7 @@
       </c>
       <c r="C61" s="85">
         <f>AVERAGE(B61:B91)</f>
-        <v>5.1800000000000006</v>
+        <v>5.1687500000000002</v>
       </c>
       <c r="D61" s="83"/>
       <c r="E61" s="62">
@@ -22108,7 +22111,9 @@
       <c r="A76" s="1">
         <v>45732</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="2">
+        <v>5</v>
+      </c>
       <c r="C76" s="85"/>
       <c r="D76" s="83"/>
       <c r="E76" s="62">
@@ -44782,8 +44787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S366"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="63" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B59"/>
+    <sheetView topLeftCell="A274" zoomScale="63" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AADCA35-0337-4E3A-8E9C-1D4A17D2131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7539100-4E62-40BF-90E7-A497B695D31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2054,6 +2054,30 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2087,30 +2111,6 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2119,15 +2119,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2142,6 +2133,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2362,7 +2362,7 @@
                   <c:v>4.7571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1833333333333336</c:v>
+                  <c:v>5.2076923076923078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,10 +3010,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13</c:v>
@@ -6425,7 +6425,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16403,8 +16409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6CF7-CA58-448E-9A43-748C25428E75}">
   <dimension ref="A1:BA367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="49" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AQ83" sqref="AQ83"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="49" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -16453,11 +16459,11 @@
       <c r="G1" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
       <c r="AK1" t="s">
         <v>214</v>
       </c>
@@ -16475,13 +16481,13 @@
       <c r="B2" s="76">
         <v>2.5</v>
       </c>
-      <c r="C2" s="144">
+      <c r="C2" s="133">
         <f>AVERAGE(B2:B32)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="139">
+      <c r="D2" s="128">
         <f>AVERAGE(C2:C366)</f>
-        <v>4.9801587301587302</v>
+        <v>4.9882783882783883</v>
       </c>
       <c r="E2" s="62">
         <v>1</v>
@@ -16489,9 +16495,9 @@
       <c r="F2" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
       <c r="AK2" s="75">
         <v>45658</v>
       </c>
@@ -16565,8 +16571,8 @@
       <c r="B3" s="2">
         <v>2.8</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="140"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="62">
         <v>1</v>
       </c>
@@ -16647,8 +16653,8 @@
       <c r="B4" s="2">
         <v>4.8</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="140"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="62">
         <v>1</v>
       </c>
@@ -16763,8 +16769,8 @@
       <c r="B5" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="140"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="62">
         <v>1</v>
       </c>
@@ -16789,9 +16795,9 @@
         <f>C2</f>
         <v>5</v>
       </c>
-      <c r="N5" s="132">
+      <c r="N5" s="140">
         <f>AVERAGE(M5:M16)</f>
-        <v>4.9801587301587302</v>
+        <v>4.9882783882783883</v>
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -16891,8 +16897,8 @@
       <c r="B6" s="2">
         <v>6.2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="140"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="62">
         <v>1</v>
       </c>
@@ -16916,7 +16922,7 @@
         <f>C33</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="N6" s="133"/>
+      <c r="N6" s="141"/>
       <c r="O6" s="61">
         <f>COUNTIFS(B33:B60,"&gt;=10")</f>
         <v>0</v>
@@ -17015,8 +17021,8 @@
       <c r="B7" s="2">
         <v>6.1</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="140"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="62">
         <v>1</v>
       </c>
@@ -17032,16 +17038,16 @@
       </c>
       <c r="J7" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=6", B2:B366,"&lt;8")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="32">
         <f>C61</f>
-        <v>5.1833333333333336</v>
-      </c>
-      <c r="N7" s="133"/>
+        <v>5.2076923076923078</v>
+      </c>
+      <c r="N7" s="141"/>
       <c r="O7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=10")</f>
         <v>0</v>
@@ -17052,11 +17058,11 @@
       </c>
       <c r="Q7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=6", B61:B91,"&lt;8")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=4", B61:B91,"&lt;6")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=2", B61:B91,"&lt;4")</f>
@@ -17140,8 +17146,8 @@
       <c r="B8" s="2">
         <v>3.5</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="140"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="62">
         <v>1</v>
       </c>
@@ -17156,13 +17162,13 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="60" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="32"/>
-      <c r="N8" s="133"/>
+      <c r="N8" s="141"/>
       <c r="O8" s="61"/>
       <c r="P8" s="61"/>
       <c r="Q8" s="61"/>
@@ -17243,8 +17249,8 @@
       <c r="B9" s="2">
         <v>1.2</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="140"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="62">
         <v>1</v>
       </c>
@@ -17268,7 +17274,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="32"/>
-      <c r="N9" s="133"/>
+      <c r="N9" s="141"/>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="61"/>
@@ -17349,8 +17355,8 @@
       <c r="B10" s="2">
         <v>5.6</v>
       </c>
-      <c r="C10" s="145"/>
-      <c r="D10" s="140"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="62">
         <v>1</v>
       </c>
@@ -17371,7 +17377,7 @@
         <v>13</v>
       </c>
       <c r="M10" s="32"/>
-      <c r="N10" s="133"/>
+      <c r="N10" s="141"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
       <c r="Q10" s="61"/>
@@ -17452,8 +17458,8 @@
       <c r="B11" s="2">
         <v>4.3</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="140"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="62">
         <v>1</v>
       </c>
@@ -17461,19 +17467,19 @@
         <v>180</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="128" t="s">
+      <c r="H11" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="129"/>
+      <c r="I11" s="137"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="32"/>
-      <c r="N11" s="133"/>
+      <c r="N11" s="141"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="61"/>
@@ -17554,8 +17560,8 @@
       <c r="B12" s="2">
         <v>5.4</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="140"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="62">
         <v>1</v>
       </c>
@@ -17566,7 +17572,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="133"/>
+      <c r="N12" s="141"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
@@ -17647,8 +17653,8 @@
       <c r="B13" s="2">
         <v>7.2</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="140"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="62">
         <v>1</v>
       </c>
@@ -17656,19 +17662,19 @@
         <v>180</v>
       </c>
       <c r="G13" s="78"/>
-      <c r="H13" s="130" t="s">
+      <c r="H13" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131">
+      <c r="I13" s="138"/>
+      <c r="J13" s="139">
         <f>J11/3.65</f>
-        <v>22.739726027397261</v>
+        <v>23.287671232876711</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="32"/>
-      <c r="N13" s="133"/>
+      <c r="N13" s="141"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
       <c r="Q13" s="61"/>
@@ -17765,22 +17771,22 @@
       <c r="B14" s="2">
         <v>3.9</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="140"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="62">
         <v>0.8</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="139"/>
       <c r="L14" s="60" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="32"/>
-      <c r="N14" s="133"/>
+      <c r="N14" s="141"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
       <c r="Q14" s="61"/>
@@ -17882,8 +17888,8 @@
       <c r="B15" s="2">
         <v>1.5</v>
       </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="140"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="62">
         <v>1</v>
       </c>
@@ -17897,7 +17903,7 @@
         <v>18</v>
       </c>
       <c r="M15" s="32"/>
-      <c r="N15" s="133"/>
+      <c r="N15" s="141"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="61"/>
@@ -17999,8 +18005,8 @@
       <c r="B16" s="2">
         <v>5.2</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="140"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="62">
         <v>1</v>
       </c>
@@ -18011,7 +18017,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="32"/>
-      <c r="N16" s="134"/>
+      <c r="N16" s="142"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="61"/>
@@ -18113,8 +18119,8 @@
       <c r="B17" s="2">
         <v>6.5</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="140"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="62">
         <v>1</v>
       </c>
@@ -18213,8 +18219,8 @@
       <c r="B18" s="2">
         <v>2.9</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="140"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="62">
         <v>0.6</v>
       </c>
@@ -18312,8 +18318,8 @@
       <c r="B19" s="2">
         <v>3.3</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="140"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="62">
         <v>0</v>
       </c>
@@ -18412,8 +18418,8 @@
       <c r="B20" s="2">
         <v>6.2</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="140"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="62">
         <v>1</v>
       </c>
@@ -18509,8 +18515,8 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="140"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="62">
         <v>1</v>
       </c>
@@ -18607,8 +18613,8 @@
       <c r="B22" s="2">
         <v>4.3</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="140"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="62">
         <v>0</v>
       </c>
@@ -18692,8 +18698,8 @@
       <c r="B23" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="140"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="62">
         <v>0</v>
       </c>
@@ -18778,8 +18784,8 @@
       <c r="B24" s="2">
         <v>1.2</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="140"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="62">
         <v>1</v>
       </c>
@@ -18863,8 +18869,8 @@
       <c r="B25" s="2">
         <v>6.2</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="140"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="62">
         <v>1</v>
       </c>
@@ -18949,8 +18955,8 @@
       <c r="B26" s="2">
         <v>8.1</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="140"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="62">
         <v>0</v>
       </c>
@@ -19030,8 +19036,8 @@
       <c r="B27" s="2">
         <v>6.8</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="140"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="62">
         <v>0</v>
       </c>
@@ -19112,8 +19118,8 @@
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="140"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="62">
         <v>1</v>
       </c>
@@ -19193,8 +19199,8 @@
       <c r="B29" s="2">
         <v>5.8</v>
       </c>
-      <c r="C29" s="145"/>
-      <c r="D29" s="140"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="62">
         <v>1</v>
       </c>
@@ -19275,8 +19281,8 @@
       <c r="B30" s="2">
         <v>5.3</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="140"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="62">
         <v>0</v>
       </c>
@@ -19356,8 +19362,8 @@
       <c r="B31" s="2">
         <v>7.4</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="140"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="62">
         <v>1</v>
       </c>
@@ -19438,8 +19444,8 @@
       <c r="B32" s="58">
         <v>8.5</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="140"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="62">
         <v>1</v>
       </c>
@@ -19526,11 +19532,11 @@
       <c r="B33" s="51">
         <v>4.8</v>
       </c>
-      <c r="C33" s="142">
+      <c r="C33" s="131">
         <f>AVERAGE(B33:B60)</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="D33" s="141"/>
+      <c r="D33" s="130"/>
       <c r="E33" s="62">
         <v>1</v>
       </c>
@@ -19612,8 +19618,8 @@
       <c r="B34" s="2">
         <v>4.5</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="141"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="130"/>
       <c r="E34" s="62">
         <v>0</v>
       </c>
@@ -19690,8 +19696,8 @@
       <c r="B35" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="141"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="130"/>
       <c r="E35" s="62">
         <v>1</v>
       </c>
@@ -19769,8 +19775,8 @@
       <c r="B36" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="141"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="130"/>
       <c r="E36" s="62">
         <v>1</v>
       </c>
@@ -19847,8 +19853,8 @@
       <c r="B37" s="2">
         <v>3.3</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="141"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="130"/>
       <c r="E37" s="62">
         <v>0</v>
       </c>
@@ -19925,8 +19931,8 @@
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="141"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="130"/>
       <c r="E38" s="62">
         <v>1</v>
       </c>
@@ -20003,8 +20009,8 @@
       <c r="B39" s="2">
         <v>1.3</v>
       </c>
-      <c r="C39" s="143"/>
-      <c r="D39" s="141"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="130"/>
       <c r="E39" s="62">
         <v>0</v>
       </c>
@@ -20081,8 +20087,8 @@
       <c r="B40" s="2">
         <v>8.5</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="141"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="130"/>
       <c r="E40" s="62">
         <v>1</v>
       </c>
@@ -20162,8 +20168,8 @@
       <c r="B41" s="2">
         <v>4.5</v>
       </c>
-      <c r="C41" s="143"/>
-      <c r="D41" s="141"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="130"/>
       <c r="E41" s="62">
         <v>0</v>
       </c>
@@ -20240,8 +20246,8 @@
       <c r="B42" s="2">
         <v>3.8</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="141"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="130"/>
       <c r="E42" s="62">
         <v>1</v>
       </c>
@@ -20318,8 +20324,8 @@
       <c r="B43" s="2">
         <v>5.5</v>
       </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="141"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="130"/>
       <c r="E43" s="62">
         <v>1</v>
       </c>
@@ -20400,8 +20406,8 @@
       <c r="B44" s="2">
         <v>5.8</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="141"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="130"/>
       <c r="E44" s="62">
         <v>1</v>
       </c>
@@ -20482,8 +20488,8 @@
       <c r="B45" s="2">
         <v>5.5</v>
       </c>
-      <c r="C45" s="143"/>
-      <c r="D45" s="141"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="130"/>
       <c r="E45" s="62">
         <v>0</v>
       </c>
@@ -20564,8 +20570,8 @@
       <c r="B46" s="2">
         <v>0</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="141"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="130"/>
       <c r="E46" s="62">
         <v>0</v>
       </c>
@@ -20649,8 +20655,8 @@
       <c r="B47" s="2">
         <v>4.5</v>
       </c>
-      <c r="C47" s="143"/>
-      <c r="D47" s="141"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="130"/>
       <c r="E47" s="62">
         <v>1</v>
       </c>
@@ -20731,8 +20737,8 @@
       <c r="B48" s="2">
         <v>6.6</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="141"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="130"/>
       <c r="E48" s="62">
         <v>1</v>
       </c>
@@ -20813,8 +20819,8 @@
       <c r="B49" s="2">
         <v>7.5</v>
       </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="141"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="130"/>
       <c r="E49" s="62">
         <v>1</v>
       </c>
@@ -20895,8 +20901,8 @@
       <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="143"/>
-      <c r="D50" s="141"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="130"/>
       <c r="E50" s="62">
         <v>1</v>
       </c>
@@ -20977,8 +20983,8 @@
       <c r="B51" s="2">
         <v>4.8</v>
       </c>
-      <c r="C51" s="143"/>
-      <c r="D51" s="141"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="130"/>
       <c r="E51" s="62">
         <v>0</v>
       </c>
@@ -21059,8 +21065,8 @@
       <c r="B52" s="2">
         <v>6.8</v>
       </c>
-      <c r="C52" s="143"/>
-      <c r="D52" s="141"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="130"/>
       <c r="E52" s="62">
         <v>1</v>
       </c>
@@ -21141,8 +21147,8 @@
       <c r="B53" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C53" s="143"/>
-      <c r="D53" s="141"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="130"/>
       <c r="E53" s="62">
         <v>1</v>
       </c>
@@ -21223,8 +21229,8 @@
       <c r="B54" s="2">
         <v>5.5</v>
       </c>
-      <c r="C54" s="143"/>
-      <c r="D54" s="141"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="130"/>
       <c r="E54" s="62">
         <v>0</v>
       </c>
@@ -21305,8 +21311,8 @@
       <c r="B55" s="2">
         <v>4.5</v>
       </c>
-      <c r="C55" s="143"/>
-      <c r="D55" s="141"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="130"/>
       <c r="E55" s="62">
         <v>1</v>
       </c>
@@ -21387,8 +21393,8 @@
       <c r="B56" s="2">
         <v>6.5</v>
       </c>
-      <c r="C56" s="143"/>
-      <c r="D56" s="141"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="130"/>
       <c r="E56" s="62">
         <v>1</v>
       </c>
@@ -21469,8 +21475,8 @@
       <c r="B57" s="2">
         <v>4.5</v>
       </c>
-      <c r="C57" s="143"/>
-      <c r="D57" s="141"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="130"/>
       <c r="E57" s="62">
         <v>1</v>
       </c>
@@ -21551,8 +21557,8 @@
       <c r="B58" s="2">
         <v>7.5</v>
       </c>
-      <c r="C58" s="143"/>
-      <c r="D58" s="141"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="130"/>
       <c r="E58" s="62">
         <v>0</v>
       </c>
@@ -21633,8 +21639,8 @@
       <c r="B59" s="2">
         <v>5</v>
       </c>
-      <c r="C59" s="143"/>
-      <c r="D59" s="141"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="130"/>
       <c r="E59" s="62">
         <v>1</v>
       </c>
@@ -21715,8 +21721,8 @@
       <c r="B60" s="2">
         <v>5.5</v>
       </c>
-      <c r="C60" s="143"/>
-      <c r="D60" s="141"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="130"/>
       <c r="E60" s="62">
         <v>1</v>
       </c>
@@ -21797,11 +21803,11 @@
       <c r="B61" s="2">
         <v>5</v>
       </c>
-      <c r="C61" s="143">
+      <c r="C61" s="132">
         <f>AVERAGE(B61:B91)</f>
-        <v>5.1833333333333336</v>
-      </c>
-      <c r="D61" s="141"/>
+        <v>5.2076923076923078</v>
+      </c>
+      <c r="D61" s="130"/>
       <c r="E61" s="62">
         <v>0</v>
       </c>
@@ -21882,8 +21888,8 @@
       <c r="B62" s="2">
         <v>4.8</v>
       </c>
-      <c r="C62" s="143"/>
-      <c r="D62" s="141"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="130"/>
       <c r="E62" s="62">
         <v>0</v>
       </c>
@@ -21964,8 +21970,8 @@
       <c r="B63" s="2">
         <v>3</v>
       </c>
-      <c r="C63" s="143"/>
-      <c r="D63" s="141"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="130"/>
       <c r="E63" s="62">
         <v>1</v>
       </c>
@@ -22046,8 +22052,8 @@
       <c r="B64" s="2">
         <v>4</v>
       </c>
-      <c r="C64" s="143"/>
-      <c r="D64" s="141"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="130"/>
       <c r="E64" s="62">
         <v>1</v>
       </c>
@@ -22128,8 +22134,8 @@
       <c r="B65" s="2">
         <v>5</v>
       </c>
-      <c r="C65" s="143"/>
-      <c r="D65" s="141"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="130"/>
       <c r="E65" s="62">
         <v>0</v>
       </c>
@@ -22210,8 +22216,8 @@
       <c r="B66" s="2">
         <v>6.5</v>
       </c>
-      <c r="C66" s="143"/>
-      <c r="D66" s="141"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="130"/>
       <c r="E66" s="62">
         <v>0</v>
       </c>
@@ -22292,8 +22298,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="143"/>
-      <c r="D67" s="141"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="130"/>
       <c r="E67" s="62">
         <v>1</v>
       </c>
@@ -22373,8 +22379,8 @@
       <c r="B68" s="2">
         <v>6.1</v>
       </c>
-      <c r="C68" s="143"/>
-      <c r="D68" s="141"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="130"/>
       <c r="E68" s="62">
         <v>1</v>
       </c>
@@ -22454,8 +22460,8 @@
       <c r="B69" s="2">
         <v>8</v>
       </c>
-      <c r="C69" s="143"/>
-      <c r="D69" s="141"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="130"/>
       <c r="E69" s="62">
         <v>0</v>
       </c>
@@ -22535,8 +22541,8 @@
       <c r="B70" s="2">
         <v>4.5</v>
       </c>
-      <c r="C70" s="143"/>
-      <c r="D70" s="141"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="130"/>
       <c r="E70" s="62">
         <v>1</v>
       </c>
@@ -22616,8 +22622,8 @@
       <c r="B71" s="2">
         <v>7</v>
       </c>
-      <c r="C71" s="143"/>
-      <c r="D71" s="141"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="130"/>
       <c r="E71" s="62">
         <v>1</v>
       </c>
@@ -22697,8 +22703,8 @@
       <c r="B72" s="2">
         <v>4.8</v>
       </c>
-      <c r="C72" s="143"/>
-      <c r="D72" s="141"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="130"/>
       <c r="E72" s="62">
         <v>1</v>
       </c>
@@ -22778,8 +22784,8 @@
       <c r="B73" s="2">
         <v>5</v>
       </c>
-      <c r="C73" s="143"/>
-      <c r="D73" s="141"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="130"/>
       <c r="E73" s="62">
         <v>1</v>
       </c>
@@ -22859,8 +22865,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="143"/>
-      <c r="D74" s="141"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="130"/>
       <c r="E74" s="62">
         <v>0</v>
       </c>
@@ -22940,8 +22946,8 @@
       <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75" s="143"/>
-      <c r="D75" s="141"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="130"/>
       <c r="E75" s="62">
         <v>0</v>
       </c>
@@ -23021,8 +23027,8 @@
       <c r="B76" s="2">
         <v>5</v>
       </c>
-      <c r="C76" s="143"/>
-      <c r="D76" s="141"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="130"/>
       <c r="E76" s="62">
         <v>1</v>
       </c>
@@ -23102,8 +23108,8 @@
       <c r="B77" s="2">
         <v>4.2</v>
       </c>
-      <c r="C77" s="143"/>
-      <c r="D77" s="141"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="130"/>
       <c r="E77" s="62">
         <v>0</v>
       </c>
@@ -23183,8 +23189,8 @@
       <c r="B78" s="2">
         <v>5.5</v>
       </c>
-      <c r="C78" s="143"/>
-      <c r="D78" s="141"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="130"/>
       <c r="E78" s="62">
         <v>1</v>
       </c>
@@ -23264,8 +23270,8 @@
       <c r="B79" s="2">
         <v>3</v>
       </c>
-      <c r="C79" s="143"/>
-      <c r="D79" s="141"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="130"/>
       <c r="E79" s="62">
         <v>0</v>
       </c>
@@ -23345,8 +23351,8 @@
       <c r="B80" s="2">
         <v>5</v>
       </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="141"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="130"/>
       <c r="E80" s="62">
         <v>1</v>
       </c>
@@ -23426,8 +23432,8 @@
       <c r="B81" s="2">
         <v>5</v>
       </c>
-      <c r="C81" s="143"/>
-      <c r="D81" s="141"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="130"/>
       <c r="E81" s="62">
         <v>1</v>
       </c>
@@ -23507,8 +23513,8 @@
       <c r="B82" s="2">
         <v>7.5</v>
       </c>
-      <c r="C82" s="143"/>
-      <c r="D82" s="141"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="130"/>
       <c r="E82" s="62">
         <v>1</v>
       </c>
@@ -23588,8 +23594,8 @@
       <c r="B83" s="2">
         <v>7</v>
       </c>
-      <c r="C83" s="143"/>
-      <c r="D83" s="141"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="130"/>
       <c r="E83" s="62">
         <v>1</v>
       </c>
@@ -23670,10 +23676,10 @@
         <v>45740</v>
       </c>
       <c r="B84" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C84" s="143"/>
-      <c r="D84" s="141"/>
+        <v>4</v>
+      </c>
+      <c r="C84" s="132"/>
+      <c r="D84" s="130"/>
       <c r="E84" s="62">
         <v>0</v>
       </c>
@@ -23750,9 +23756,11 @@
       <c r="A85" s="1">
         <v>45741</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="143"/>
-      <c r="D85" s="141"/>
+      <c r="B85" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C85" s="132"/>
+      <c r="D85" s="130"/>
       <c r="E85" s="62">
         <v>1</v>
       </c>
@@ -23830,9 +23838,11 @@
       <c r="A86" s="1">
         <v>45742</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="141"/>
+      <c r="B86" s="2">
+        <v>6</v>
+      </c>
+      <c r="C86" s="132"/>
+      <c r="D86" s="130"/>
       <c r="E86" s="62">
         <v>1</v>
       </c>
@@ -23911,8 +23921,8 @@
         <v>45743</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="141"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="130"/>
       <c r="E87" s="62">
         <v>1</v>
       </c>
@@ -23991,8 +24001,8 @@
         <v>45744</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="141"/>
+      <c r="C88" s="132"/>
+      <c r="D88" s="130"/>
       <c r="E88" s="62">
         <v>1</v>
       </c>
@@ -24071,8 +24081,8 @@
         <v>45745</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="141"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="130"/>
       <c r="E89" s="62">
         <v>1</v>
       </c>
@@ -24151,8 +24161,8 @@
         <v>45746</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="141"/>
+      <c r="C90" s="132"/>
+      <c r="D90" s="130"/>
       <c r="E90" s="62">
         <v>1</v>
       </c>
@@ -24231,8 +24241,8 @@
         <v>45747</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="143"/>
-      <c r="D91" s="141"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="130"/>
       <c r="E91" s="62">
         <v>1</v>
       </c>
@@ -24311,8 +24321,8 @@
         <v>45748</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="141"/>
+      <c r="C92" s="132"/>
+      <c r="D92" s="130"/>
       <c r="AJ92" t="str">
         <f>TRIM(MID(SUBSTITUTE($F92, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ92)-1)*100+1, 100))</f>
         <v/>
@@ -24387,8 +24397,8 @@
         <v>45749</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="141"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="130"/>
       <c r="AJ93" t="str">
         <f>TRIM(MID(SUBSTITUTE($F93, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ93)-1)*100+1, 100))</f>
         <v/>
@@ -24463,8 +24473,8 @@
         <v>45750</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="143"/>
-      <c r="D94" s="141"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="130"/>
       <c r="AJ94" t="str">
         <f>TRIM(MID(SUBSTITUTE($F94, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ94)-1)*100+1, 100))</f>
         <v/>
@@ -24539,8 +24549,8 @@
         <v>45751</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="141"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="130"/>
       <c r="AJ95" t="str">
         <f>TRIM(MID(SUBSTITUTE($F95, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ95)-1)*100+1, 100))</f>
         <v/>
@@ -24615,8 +24625,8 @@
         <v>45752</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="143"/>
-      <c r="D96" s="141"/>
+      <c r="C96" s="132"/>
+      <c r="D96" s="130"/>
       <c r="AJ96" t="str">
         <f>TRIM(MID(SUBSTITUTE($F96, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ96)-1)*100+1, 100))</f>
         <v/>
@@ -24691,8 +24701,8 @@
         <v>45753</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="143"/>
-      <c r="D97" s="141"/>
+      <c r="C97" s="132"/>
+      <c r="D97" s="130"/>
       <c r="AJ97" t="str">
         <f>TRIM(MID(SUBSTITUTE($F97, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ97)-1)*100+1, 100))</f>
         <v/>
@@ -24767,8 +24777,8 @@
         <v>45754</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="143"/>
-      <c r="D98" s="141"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="130"/>
       <c r="AJ98" t="str">
         <f>TRIM(MID(SUBSTITUTE($F98, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ98)-1)*100+1, 100))</f>
         <v/>
@@ -24843,8 +24853,8 @@
         <v>45755</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="143"/>
-      <c r="D99" s="141"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="130"/>
       <c r="AJ99" t="str">
         <f>TRIM(MID(SUBSTITUTE($F99, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ99)-1)*100+1, 100))</f>
         <v/>
@@ -24919,8 +24929,8 @@
         <v>45756</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="143"/>
-      <c r="D100" s="141"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="130"/>
       <c r="AJ100" t="str">
         <f>TRIM(MID(SUBSTITUTE($F100, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ100)-1)*100+1, 100))</f>
         <v/>
@@ -24995,8 +25005,8 @@
         <v>45757</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="143"/>
-      <c r="D101" s="141"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="130"/>
       <c r="AJ101" t="str">
         <f>TRIM(MID(SUBSTITUTE($F101, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ101)-1)*100+1, 100))</f>
         <v/>
@@ -25071,8 +25081,8 @@
         <v>45758</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="143"/>
-      <c r="D102" s="141"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="130"/>
       <c r="AJ102" t="str">
         <f>TRIM(MID(SUBSTITUTE($F102, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ102)-1)*100+1, 100))</f>
         <v/>
@@ -25147,8 +25157,8 @@
         <v>45759</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="143"/>
-      <c r="D103" s="141"/>
+      <c r="C103" s="132"/>
+      <c r="D103" s="130"/>
       <c r="AJ103" t="str">
         <f>TRIM(MID(SUBSTITUTE($F103, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ103)-1)*100+1, 100))</f>
         <v/>
@@ -25223,8 +25233,8 @@
         <v>45760</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="143"/>
-      <c r="D104" s="141"/>
+      <c r="C104" s="132"/>
+      <c r="D104" s="130"/>
       <c r="AJ104" t="str">
         <f>TRIM(MID(SUBSTITUTE($F104, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ104)-1)*100+1, 100))</f>
         <v/>
@@ -25299,8 +25309,8 @@
         <v>45761</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="143"/>
-      <c r="D105" s="141"/>
+      <c r="C105" s="132"/>
+      <c r="D105" s="130"/>
       <c r="AJ105" t="str">
         <f>TRIM(MID(SUBSTITUTE($F105, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ105)-1)*100+1, 100))</f>
         <v/>
@@ -25375,8 +25385,8 @@
         <v>45762</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="143"/>
-      <c r="D106" s="141"/>
+      <c r="C106" s="132"/>
+      <c r="D106" s="130"/>
       <c r="AJ106" t="str">
         <f>TRIM(MID(SUBSTITUTE($F106, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ106)-1)*100+1, 100))</f>
         <v/>
@@ -25451,8 +25461,8 @@
         <v>45763</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="143"/>
-      <c r="D107" s="141"/>
+      <c r="C107" s="132"/>
+      <c r="D107" s="130"/>
       <c r="AJ107" t="str">
         <f>TRIM(MID(SUBSTITUTE($F107, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ107)-1)*100+1, 100))</f>
         <v/>
@@ -25527,8 +25537,8 @@
         <v>45764</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="143"/>
-      <c r="D108" s="141"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="130"/>
       <c r="AJ108" t="str">
         <f>TRIM(MID(SUBSTITUTE($F108, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ108)-1)*100+1, 100))</f>
         <v/>
@@ -25603,8 +25613,8 @@
         <v>45765</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="143"/>
-      <c r="D109" s="141"/>
+      <c r="C109" s="132"/>
+      <c r="D109" s="130"/>
       <c r="AJ109" t="str">
         <f>TRIM(MID(SUBSTITUTE($F109, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ109)-1)*100+1, 100))</f>
         <v/>
@@ -25679,8 +25689,8 @@
         <v>45766</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="143"/>
-      <c r="D110" s="141"/>
+      <c r="C110" s="132"/>
+      <c r="D110" s="130"/>
       <c r="AJ110" t="str">
         <f>TRIM(MID(SUBSTITUTE($F110, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ110)-1)*100+1, 100))</f>
         <v/>
@@ -25755,8 +25765,8 @@
         <v>45767</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="143"/>
-      <c r="D111" s="141"/>
+      <c r="C111" s="132"/>
+      <c r="D111" s="130"/>
       <c r="AJ111" t="str">
         <f>TRIM(MID(SUBSTITUTE($F111, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ111)-1)*100+1, 100))</f>
         <v/>
@@ -25831,8 +25841,8 @@
         <v>45768</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="143"/>
-      <c r="D112" s="141"/>
+      <c r="C112" s="132"/>
+      <c r="D112" s="130"/>
       <c r="AJ112" t="str">
         <f>TRIM(MID(SUBSTITUTE($F112, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ112)-1)*100+1, 100))</f>
         <v/>
@@ -25907,8 +25917,8 @@
         <v>45769</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="143"/>
-      <c r="D113" s="141"/>
+      <c r="C113" s="132"/>
+      <c r="D113" s="130"/>
       <c r="AJ113" t="str">
         <f>TRIM(MID(SUBSTITUTE($F113, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ113)-1)*100+1, 100))</f>
         <v/>
@@ -25983,8 +25993,8 @@
         <v>45770</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="143"/>
-      <c r="D114" s="141"/>
+      <c r="C114" s="132"/>
+      <c r="D114" s="130"/>
       <c r="AJ114" t="str">
         <f>TRIM(MID(SUBSTITUTE($F114, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ114)-1)*100+1, 100))</f>
         <v/>
@@ -26059,8 +26069,8 @@
         <v>45771</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="143"/>
-      <c r="D115" s="141"/>
+      <c r="C115" s="132"/>
+      <c r="D115" s="130"/>
       <c r="AJ115" t="str">
         <f>TRIM(MID(SUBSTITUTE($F115, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ115)-1)*100+1, 100))</f>
         <v/>
@@ -26135,8 +26145,8 @@
         <v>45772</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="143"/>
-      <c r="D116" s="141"/>
+      <c r="C116" s="132"/>
+      <c r="D116" s="130"/>
       <c r="AJ116" t="str">
         <f>TRIM(MID(SUBSTITUTE($F116, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ116)-1)*100+1, 100))</f>
         <v/>
@@ -26211,8 +26221,8 @@
         <v>45773</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="143"/>
-      <c r="D117" s="141"/>
+      <c r="C117" s="132"/>
+      <c r="D117" s="130"/>
       <c r="AJ117" t="str">
         <f>TRIM(MID(SUBSTITUTE($F117, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ117)-1)*100+1, 100))</f>
         <v/>
@@ -26287,8 +26297,8 @@
         <v>45774</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="143"/>
-      <c r="D118" s="141"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="130"/>
       <c r="AJ118" t="str">
         <f>TRIM(MID(SUBSTITUTE($F118, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ118)-1)*100+1, 100))</f>
         <v/>
@@ -26363,8 +26373,8 @@
         <v>45775</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="143"/>
-      <c r="D119" s="141"/>
+      <c r="C119" s="132"/>
+      <c r="D119" s="130"/>
       <c r="AJ119" t="str">
         <f>TRIM(MID(SUBSTITUTE($F119, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ119)-1)*100+1, 100))</f>
         <v/>
@@ -26439,8 +26449,8 @@
         <v>45776</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="143"/>
-      <c r="D120" s="141"/>
+      <c r="C120" s="132"/>
+      <c r="D120" s="130"/>
       <c r="AJ120" t="str">
         <f>TRIM(MID(SUBSTITUTE($F120, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ120)-1)*100+1, 100))</f>
         <v/>
@@ -26515,8 +26525,8 @@
         <v>45777</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="143"/>
-      <c r="D121" s="141"/>
+      <c r="C121" s="132"/>
+      <c r="D121" s="130"/>
       <c r="AJ121" t="str">
         <f>TRIM(MID(SUBSTITUTE($F121, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ121)-1)*100+1, 100))</f>
         <v/>
@@ -26591,8 +26601,8 @@
         <v>45778</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="143"/>
-      <c r="D122" s="141"/>
+      <c r="C122" s="132"/>
+      <c r="D122" s="130"/>
       <c r="AJ122" t="str">
         <f>TRIM(MID(SUBSTITUTE($F122, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ122)-1)*100+1, 100))</f>
         <v/>
@@ -26667,8 +26677,8 @@
         <v>45779</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="143"/>
-      <c r="D123" s="141"/>
+      <c r="C123" s="132"/>
+      <c r="D123" s="130"/>
       <c r="AJ123" t="str">
         <f>TRIM(MID(SUBSTITUTE($F123, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ123)-1)*100+1, 100))</f>
         <v/>
@@ -26743,8 +26753,8 @@
         <v>45780</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="143"/>
-      <c r="D124" s="141"/>
+      <c r="C124" s="132"/>
+      <c r="D124" s="130"/>
       <c r="AJ124" t="str">
         <f>TRIM(MID(SUBSTITUTE($F124, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ124)-1)*100+1, 100))</f>
         <v/>
@@ -26819,8 +26829,8 @@
         <v>45781</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="143"/>
-      <c r="D125" s="141"/>
+      <c r="C125" s="132"/>
+      <c r="D125" s="130"/>
       <c r="AJ125" t="str">
         <f>TRIM(MID(SUBSTITUTE($F125, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ125)-1)*100+1, 100))</f>
         <v/>
@@ -26895,8 +26905,8 @@
         <v>45782</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="143"/>
-      <c r="D126" s="141"/>
+      <c r="C126" s="132"/>
+      <c r="D126" s="130"/>
       <c r="AJ126" t="str">
         <f>TRIM(MID(SUBSTITUTE($F126, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ126)-1)*100+1, 100))</f>
         <v/>
@@ -26971,8 +26981,8 @@
         <v>45783</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="143"/>
-      <c r="D127" s="141"/>
+      <c r="C127" s="132"/>
+      <c r="D127" s="130"/>
       <c r="AJ127" t="str">
         <f>TRIM(MID(SUBSTITUTE($F127, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ127)-1)*100+1, 100))</f>
         <v/>
@@ -27047,8 +27057,8 @@
         <v>45784</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="143"/>
-      <c r="D128" s="141"/>
+      <c r="C128" s="132"/>
+      <c r="D128" s="130"/>
       <c r="AJ128" t="str">
         <f>TRIM(MID(SUBSTITUTE($F128, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ128)-1)*100+1, 100))</f>
         <v/>
@@ -27123,8 +27133,8 @@
         <v>45785</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="143"/>
-      <c r="D129" s="141"/>
+      <c r="C129" s="132"/>
+      <c r="D129" s="130"/>
       <c r="AJ129" t="str">
         <f>TRIM(MID(SUBSTITUTE($F129, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ129)-1)*100+1, 100))</f>
         <v/>
@@ -27199,8 +27209,8 @@
         <v>45786</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="143"/>
-      <c r="D130" s="141"/>
+      <c r="C130" s="132"/>
+      <c r="D130" s="130"/>
       <c r="AJ130" t="str">
         <f>TRIM(MID(SUBSTITUTE($F130, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ130)-1)*100+1, 100))</f>
         <v/>
@@ -27275,8 +27285,8 @@
         <v>45787</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="143"/>
-      <c r="D131" s="141"/>
+      <c r="C131" s="132"/>
+      <c r="D131" s="130"/>
       <c r="AJ131" t="str">
         <f>TRIM(MID(SUBSTITUTE($F131, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ131)-1)*100+1, 100))</f>
         <v/>
@@ -27351,8 +27361,8 @@
         <v>45788</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="143"/>
-      <c r="D132" s="141"/>
+      <c r="C132" s="132"/>
+      <c r="D132" s="130"/>
       <c r="AJ132" t="str">
         <f>TRIM(MID(SUBSTITUTE($F132, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ132)-1)*100+1, 100))</f>
         <v/>
@@ -27427,8 +27437,8 @@
         <v>45789</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="143"/>
-      <c r="D133" s="141"/>
+      <c r="C133" s="132"/>
+      <c r="D133" s="130"/>
       <c r="AJ133" t="str">
         <f>TRIM(MID(SUBSTITUTE($F133, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ133)-1)*100+1, 100))</f>
         <v/>
@@ -27503,8 +27513,8 @@
         <v>45790</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="143"/>
-      <c r="D134" s="141"/>
+      <c r="C134" s="132"/>
+      <c r="D134" s="130"/>
       <c r="AJ134" t="str">
         <f>TRIM(MID(SUBSTITUTE($F134, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ134)-1)*100+1, 100))</f>
         <v/>
@@ -27579,8 +27589,8 @@
         <v>45791</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="143"/>
-      <c r="D135" s="141"/>
+      <c r="C135" s="132"/>
+      <c r="D135" s="130"/>
       <c r="AJ135" t="str">
         <f>TRIM(MID(SUBSTITUTE($F135, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ135)-1)*100+1, 100))</f>
         <v/>
@@ -27655,8 +27665,8 @@
         <v>45792</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="143"/>
-      <c r="D136" s="141"/>
+      <c r="C136" s="132"/>
+      <c r="D136" s="130"/>
       <c r="AJ136" t="str">
         <f>TRIM(MID(SUBSTITUTE($F136, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ136)-1)*100+1, 100))</f>
         <v/>
@@ -27731,8 +27741,8 @@
         <v>45793</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="143"/>
-      <c r="D137" s="141"/>
+      <c r="C137" s="132"/>
+      <c r="D137" s="130"/>
       <c r="AJ137" t="str">
         <f>TRIM(MID(SUBSTITUTE($F137, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ137)-1)*100+1, 100))</f>
         <v/>
@@ -27807,8 +27817,8 @@
         <v>45794</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="143"/>
-      <c r="D138" s="141"/>
+      <c r="C138" s="132"/>
+      <c r="D138" s="130"/>
       <c r="AJ138" t="str">
         <f>TRIM(MID(SUBSTITUTE($F138, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ138)-1)*100+1, 100))</f>
         <v/>
@@ -27883,8 +27893,8 @@
         <v>45795</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="143"/>
-      <c r="D139" s="141"/>
+      <c r="C139" s="132"/>
+      <c r="D139" s="130"/>
       <c r="AJ139" t="str">
         <f>TRIM(MID(SUBSTITUTE($F139, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ139)-1)*100+1, 100))</f>
         <v/>
@@ -27959,8 +27969,8 @@
         <v>45796</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="143"/>
-      <c r="D140" s="141"/>
+      <c r="C140" s="132"/>
+      <c r="D140" s="130"/>
       <c r="AJ140" t="str">
         <f>TRIM(MID(SUBSTITUTE($F140, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ140)-1)*100+1, 100))</f>
         <v/>
@@ -28035,8 +28045,8 @@
         <v>45797</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="143"/>
-      <c r="D141" s="141"/>
+      <c r="C141" s="132"/>
+      <c r="D141" s="130"/>
       <c r="AJ141" t="str">
         <f>TRIM(MID(SUBSTITUTE($F141, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ141)-1)*100+1, 100))</f>
         <v/>
@@ -28111,8 +28121,8 @@
         <v>45798</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="143"/>
-      <c r="D142" s="141"/>
+      <c r="C142" s="132"/>
+      <c r="D142" s="130"/>
       <c r="AJ142" t="str">
         <f>TRIM(MID(SUBSTITUTE($F142, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ142)-1)*100+1, 100))</f>
         <v/>
@@ -28187,8 +28197,8 @@
         <v>45799</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="143"/>
-      <c r="D143" s="141"/>
+      <c r="C143" s="132"/>
+      <c r="D143" s="130"/>
       <c r="AJ143" t="str">
         <f>TRIM(MID(SUBSTITUTE($F143, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ143)-1)*100+1, 100))</f>
         <v/>
@@ -28263,8 +28273,8 @@
         <v>45800</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="143"/>
-      <c r="D144" s="141"/>
+      <c r="C144" s="132"/>
+      <c r="D144" s="130"/>
       <c r="AJ144" t="str">
         <f>TRIM(MID(SUBSTITUTE($F144, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ144)-1)*100+1, 100))</f>
         <v/>
@@ -28339,8 +28349,8 @@
         <v>45801</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="143"/>
-      <c r="D145" s="141"/>
+      <c r="C145" s="132"/>
+      <c r="D145" s="130"/>
       <c r="AJ145" t="str">
         <f>TRIM(MID(SUBSTITUTE($F145, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ145)-1)*100+1, 100))</f>
         <v/>
@@ -28415,8 +28425,8 @@
         <v>45802</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="143"/>
-      <c r="D146" s="141"/>
+      <c r="C146" s="132"/>
+      <c r="D146" s="130"/>
       <c r="AJ146" t="str">
         <f>TRIM(MID(SUBSTITUTE($F146, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ146)-1)*100+1, 100))</f>
         <v/>
@@ -28491,8 +28501,8 @@
         <v>45803</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="143"/>
-      <c r="D147" s="141"/>
+      <c r="C147" s="132"/>
+      <c r="D147" s="130"/>
       <c r="AJ147" t="str">
         <f>TRIM(MID(SUBSTITUTE($F147, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ147)-1)*100+1, 100))</f>
         <v/>
@@ -28567,8 +28577,8 @@
         <v>45804</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="143"/>
-      <c r="D148" s="141"/>
+      <c r="C148" s="132"/>
+      <c r="D148" s="130"/>
       <c r="AJ148" t="str">
         <f>TRIM(MID(SUBSTITUTE($F148, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ148)-1)*100+1, 100))</f>
         <v/>
@@ -28643,8 +28653,8 @@
         <v>45805</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="143"/>
-      <c r="D149" s="141"/>
+      <c r="C149" s="132"/>
+      <c r="D149" s="130"/>
       <c r="AJ149" t="str">
         <f>TRIM(MID(SUBSTITUTE($F149, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ149)-1)*100+1, 100))</f>
         <v/>
@@ -28719,8 +28729,8 @@
         <v>45806</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="143"/>
-      <c r="D150" s="141"/>
+      <c r="C150" s="132"/>
+      <c r="D150" s="130"/>
       <c r="AJ150" t="str">
         <f>TRIM(MID(SUBSTITUTE($F150, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ150)-1)*100+1, 100))</f>
         <v/>
@@ -28795,8 +28805,8 @@
         <v>45807</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="143"/>
-      <c r="D151" s="141"/>
+      <c r="C151" s="132"/>
+      <c r="D151" s="130"/>
       <c r="AJ151" t="str">
         <f>TRIM(MID(SUBSTITUTE($F151, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ151)-1)*100+1, 100))</f>
         <v/>
@@ -28871,8 +28881,8 @@
         <v>45808</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="143"/>
-      <c r="D152" s="141"/>
+      <c r="C152" s="132"/>
+      <c r="D152" s="130"/>
       <c r="AJ152" t="str">
         <f>TRIM(MID(SUBSTITUTE($F152, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ152)-1)*100+1, 100))</f>
         <v/>
@@ -28947,8 +28957,8 @@
         <v>45809</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="143"/>
-      <c r="D153" s="141"/>
+      <c r="C153" s="132"/>
+      <c r="D153" s="130"/>
       <c r="AJ153" t="str">
         <f>TRIM(MID(SUBSTITUTE($F153, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ153)-1)*100+1, 100))</f>
         <v/>
@@ -29023,8 +29033,8 @@
         <v>45810</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="143"/>
-      <c r="D154" s="141"/>
+      <c r="C154" s="132"/>
+      <c r="D154" s="130"/>
       <c r="AJ154" t="str">
         <f>TRIM(MID(SUBSTITUTE($F154, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ154)-1)*100+1, 100))</f>
         <v/>
@@ -29099,8 +29109,8 @@
         <v>45811</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="143"/>
-      <c r="D155" s="141"/>
+      <c r="C155" s="132"/>
+      <c r="D155" s="130"/>
       <c r="AJ155" t="str">
         <f>TRIM(MID(SUBSTITUTE($F155, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ155)-1)*100+1, 100))</f>
         <v/>
@@ -29175,8 +29185,8 @@
         <v>45812</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="143"/>
-      <c r="D156" s="141"/>
+      <c r="C156" s="132"/>
+      <c r="D156" s="130"/>
       <c r="AJ156" t="str">
         <f>TRIM(MID(SUBSTITUTE($F156, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ156)-1)*100+1, 100))</f>
         <v/>
@@ -29251,8 +29261,8 @@
         <v>45813</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="143"/>
-      <c r="D157" s="141"/>
+      <c r="C157" s="132"/>
+      <c r="D157" s="130"/>
       <c r="AJ157" t="str">
         <f>TRIM(MID(SUBSTITUTE($F157, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ157)-1)*100+1, 100))</f>
         <v/>
@@ -29327,8 +29337,8 @@
         <v>45814</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="143"/>
-      <c r="D158" s="141"/>
+      <c r="C158" s="132"/>
+      <c r="D158" s="130"/>
       <c r="AJ158" t="str">
         <f>TRIM(MID(SUBSTITUTE($F158, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ158)-1)*100+1, 100))</f>
         <v/>
@@ -29403,8 +29413,8 @@
         <v>45815</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="143"/>
-      <c r="D159" s="141"/>
+      <c r="C159" s="132"/>
+      <c r="D159" s="130"/>
       <c r="AJ159" t="str">
         <f>TRIM(MID(SUBSTITUTE($F159, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ159)-1)*100+1, 100))</f>
         <v/>
@@ -29479,8 +29489,8 @@
         <v>45816</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="143"/>
-      <c r="D160" s="141"/>
+      <c r="C160" s="132"/>
+      <c r="D160" s="130"/>
       <c r="AJ160" t="str">
         <f>TRIM(MID(SUBSTITUTE($F160, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ160)-1)*100+1, 100))</f>
         <v/>
@@ -29555,8 +29565,8 @@
         <v>45817</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="143"/>
-      <c r="D161" s="141"/>
+      <c r="C161" s="132"/>
+      <c r="D161" s="130"/>
       <c r="AJ161" t="str">
         <f>TRIM(MID(SUBSTITUTE($F161, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ161)-1)*100+1, 100))</f>
         <v/>
@@ -29631,8 +29641,8 @@
         <v>45818</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="143"/>
-      <c r="D162" s="141"/>
+      <c r="C162" s="132"/>
+      <c r="D162" s="130"/>
       <c r="AJ162" t="str">
         <f>TRIM(MID(SUBSTITUTE($F162, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ162)-1)*100+1, 100))</f>
         <v/>
@@ -29707,8 +29717,8 @@
         <v>45819</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="143"/>
-      <c r="D163" s="141"/>
+      <c r="C163" s="132"/>
+      <c r="D163" s="130"/>
       <c r="AJ163" t="str">
         <f>TRIM(MID(SUBSTITUTE($F163, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ163)-1)*100+1, 100))</f>
         <v/>
@@ -29783,8 +29793,8 @@
         <v>45820</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="143"/>
-      <c r="D164" s="141"/>
+      <c r="C164" s="132"/>
+      <c r="D164" s="130"/>
       <c r="AJ164" t="str">
         <f>TRIM(MID(SUBSTITUTE($F164, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ164)-1)*100+1, 100))</f>
         <v/>
@@ -29859,8 +29869,8 @@
         <v>45821</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="143"/>
-      <c r="D165" s="141"/>
+      <c r="C165" s="132"/>
+      <c r="D165" s="130"/>
       <c r="AJ165" t="str">
         <f>TRIM(MID(SUBSTITUTE($F165, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ165)-1)*100+1, 100))</f>
         <v/>
@@ -29935,8 +29945,8 @@
         <v>45822</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="143"/>
-      <c r="D166" s="141"/>
+      <c r="C166" s="132"/>
+      <c r="D166" s="130"/>
       <c r="AJ166" t="str">
         <f>TRIM(MID(SUBSTITUTE($F166, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ166)-1)*100+1, 100))</f>
         <v/>
@@ -30011,8 +30021,8 @@
         <v>45823</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="143"/>
-      <c r="D167" s="141"/>
+      <c r="C167" s="132"/>
+      <c r="D167" s="130"/>
       <c r="AJ167" t="str">
         <f>TRIM(MID(SUBSTITUTE($F167, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ167)-1)*100+1, 100))</f>
         <v/>
@@ -30087,8 +30097,8 @@
         <v>45824</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="143"/>
-      <c r="D168" s="141"/>
+      <c r="C168" s="132"/>
+      <c r="D168" s="130"/>
       <c r="AJ168" t="str">
         <f>TRIM(MID(SUBSTITUTE($F168, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ168)-1)*100+1, 100))</f>
         <v/>
@@ -30163,8 +30173,8 @@
         <v>45825</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="143"/>
-      <c r="D169" s="141"/>
+      <c r="C169" s="132"/>
+      <c r="D169" s="130"/>
       <c r="AJ169" t="str">
         <f>TRIM(MID(SUBSTITUTE($F169, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ169)-1)*100+1, 100))</f>
         <v/>
@@ -30239,8 +30249,8 @@
         <v>45826</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="143"/>
-      <c r="D170" s="141"/>
+      <c r="C170" s="132"/>
+      <c r="D170" s="130"/>
       <c r="AJ170" t="str">
         <f>TRIM(MID(SUBSTITUTE($F170, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ170)-1)*100+1, 100))</f>
         <v/>
@@ -30315,8 +30325,8 @@
         <v>45827</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="143"/>
-      <c r="D171" s="141"/>
+      <c r="C171" s="132"/>
+      <c r="D171" s="130"/>
       <c r="AJ171" t="str">
         <f>TRIM(MID(SUBSTITUTE($F171, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ171)-1)*100+1, 100))</f>
         <v/>
@@ -30391,8 +30401,8 @@
         <v>45828</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="143"/>
-      <c r="D172" s="141"/>
+      <c r="C172" s="132"/>
+      <c r="D172" s="130"/>
       <c r="AJ172" t="str">
         <f>TRIM(MID(SUBSTITUTE($F172, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ172)-1)*100+1, 100))</f>
         <v/>
@@ -30467,8 +30477,8 @@
         <v>45829</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="143"/>
-      <c r="D173" s="141"/>
+      <c r="C173" s="132"/>
+      <c r="D173" s="130"/>
       <c r="AJ173" t="str">
         <f>TRIM(MID(SUBSTITUTE($F173, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ173)-1)*100+1, 100))</f>
         <v/>
@@ -30543,8 +30553,8 @@
         <v>45830</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="143"/>
-      <c r="D174" s="141"/>
+      <c r="C174" s="132"/>
+      <c r="D174" s="130"/>
       <c r="AJ174" t="str">
         <f>TRIM(MID(SUBSTITUTE($F174, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ174)-1)*100+1, 100))</f>
         <v/>
@@ -30619,8 +30629,8 @@
         <v>45831</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="143"/>
-      <c r="D175" s="141"/>
+      <c r="C175" s="132"/>
+      <c r="D175" s="130"/>
       <c r="AJ175" t="str">
         <f>TRIM(MID(SUBSTITUTE($F175, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ175)-1)*100+1, 100))</f>
         <v/>
@@ -30695,8 +30705,8 @@
         <v>45832</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="143"/>
-      <c r="D176" s="141"/>
+      <c r="C176" s="132"/>
+      <c r="D176" s="130"/>
       <c r="AJ176" t="str">
         <f>TRIM(MID(SUBSTITUTE($F176, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ176)-1)*100+1, 100))</f>
         <v/>
@@ -30771,8 +30781,8 @@
         <v>45833</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="143"/>
-      <c r="D177" s="141"/>
+      <c r="C177" s="132"/>
+      <c r="D177" s="130"/>
       <c r="AJ177" t="str">
         <f>TRIM(MID(SUBSTITUTE($F177, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ177)-1)*100+1, 100))</f>
         <v/>
@@ -30847,8 +30857,8 @@
         <v>45834</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="143"/>
-      <c r="D178" s="141"/>
+      <c r="C178" s="132"/>
+      <c r="D178" s="130"/>
       <c r="AJ178" t="str">
         <f>TRIM(MID(SUBSTITUTE($F178, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ178)-1)*100+1, 100))</f>
         <v/>
@@ -30923,8 +30933,8 @@
         <v>45835</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="143"/>
-      <c r="D179" s="141"/>
+      <c r="C179" s="132"/>
+      <c r="D179" s="130"/>
       <c r="AJ179" t="str">
         <f>TRIM(MID(SUBSTITUTE($F179, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ179)-1)*100+1, 100))</f>
         <v/>
@@ -30999,8 +31009,8 @@
         <v>45836</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="143"/>
-      <c r="D180" s="141"/>
+      <c r="C180" s="132"/>
+      <c r="D180" s="130"/>
       <c r="AJ180" t="str">
         <f>TRIM(MID(SUBSTITUTE($F180, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ180)-1)*100+1, 100))</f>
         <v/>
@@ -31075,8 +31085,8 @@
         <v>45837</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="143"/>
-      <c r="D181" s="141"/>
+      <c r="C181" s="132"/>
+      <c r="D181" s="130"/>
       <c r="AJ181" t="str">
         <f>TRIM(MID(SUBSTITUTE($F181, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ181)-1)*100+1, 100))</f>
         <v/>
@@ -31151,8 +31161,8 @@
         <v>45838</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="143"/>
-      <c r="D182" s="141"/>
+      <c r="C182" s="132"/>
+      <c r="D182" s="130"/>
       <c r="AJ182" t="str">
         <f>TRIM(MID(SUBSTITUTE($F182, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ182)-1)*100+1, 100))</f>
         <v/>
@@ -31227,8 +31237,8 @@
         <v>45839</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="143"/>
-      <c r="D183" s="141"/>
+      <c r="C183" s="132"/>
+      <c r="D183" s="130"/>
       <c r="AJ183" t="str">
         <f>TRIM(MID(SUBSTITUTE($F183, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ183)-1)*100+1, 100))</f>
         <v/>
@@ -31303,8 +31313,8 @@
         <v>45840</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="143"/>
-      <c r="D184" s="141"/>
+      <c r="C184" s="132"/>
+      <c r="D184" s="130"/>
       <c r="AJ184" t="str">
         <f>TRIM(MID(SUBSTITUTE($F184, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ184)-1)*100+1, 100))</f>
         <v/>
@@ -31379,8 +31389,8 @@
         <v>45841</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="143"/>
-      <c r="D185" s="141"/>
+      <c r="C185" s="132"/>
+      <c r="D185" s="130"/>
       <c r="AJ185" t="str">
         <f>TRIM(MID(SUBSTITUTE($F185, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ185)-1)*100+1, 100))</f>
         <v/>
@@ -31455,8 +31465,8 @@
         <v>45842</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="143"/>
-      <c r="D186" s="141"/>
+      <c r="C186" s="132"/>
+      <c r="D186" s="130"/>
       <c r="AJ186" t="str">
         <f>TRIM(MID(SUBSTITUTE($F186, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ186)-1)*100+1, 100))</f>
         <v/>
@@ -31531,8 +31541,8 @@
         <v>45843</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="143"/>
-      <c r="D187" s="141"/>
+      <c r="C187" s="132"/>
+      <c r="D187" s="130"/>
       <c r="AJ187" t="str">
         <f>TRIM(MID(SUBSTITUTE($F187, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ187)-1)*100+1, 100))</f>
         <v/>
@@ -31607,8 +31617,8 @@
         <v>45844</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="143"/>
-      <c r="D188" s="141"/>
+      <c r="C188" s="132"/>
+      <c r="D188" s="130"/>
       <c r="AJ188" t="str">
         <f>TRIM(MID(SUBSTITUTE($F188, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ188)-1)*100+1, 100))</f>
         <v/>
@@ -31683,8 +31693,8 @@
         <v>45845</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="143"/>
-      <c r="D189" s="141"/>
+      <c r="C189" s="132"/>
+      <c r="D189" s="130"/>
       <c r="AJ189" t="str">
         <f>TRIM(MID(SUBSTITUTE($F189, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ189)-1)*100+1, 100))</f>
         <v/>
@@ -31759,8 +31769,8 @@
         <v>45846</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="143"/>
-      <c r="D190" s="141"/>
+      <c r="C190" s="132"/>
+      <c r="D190" s="130"/>
       <c r="AJ190" t="str">
         <f>TRIM(MID(SUBSTITUTE($F190, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ190)-1)*100+1, 100))</f>
         <v/>
@@ -31835,8 +31845,8 @@
         <v>45847</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="143"/>
-      <c r="D191" s="141"/>
+      <c r="C191" s="132"/>
+      <c r="D191" s="130"/>
       <c r="AJ191" t="str">
         <f>TRIM(MID(SUBSTITUTE($F191, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ191)-1)*100+1, 100))</f>
         <v/>
@@ -31911,8 +31921,8 @@
         <v>45848</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="143"/>
-      <c r="D192" s="141"/>
+      <c r="C192" s="132"/>
+      <c r="D192" s="130"/>
       <c r="AJ192" t="str">
         <f>TRIM(MID(SUBSTITUTE($F192, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ192)-1)*100+1, 100))</f>
         <v/>
@@ -31987,8 +31997,8 @@
         <v>45849</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="143"/>
-      <c r="D193" s="141"/>
+      <c r="C193" s="132"/>
+      <c r="D193" s="130"/>
       <c r="AJ193" t="str">
         <f>TRIM(MID(SUBSTITUTE($F193, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ193)-1)*100+1, 100))</f>
         <v/>
@@ -32063,8 +32073,8 @@
         <v>45850</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="143"/>
-      <c r="D194" s="141"/>
+      <c r="C194" s="132"/>
+      <c r="D194" s="130"/>
       <c r="AJ194" t="str">
         <f>TRIM(MID(SUBSTITUTE($F194, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ194)-1)*100+1, 100))</f>
         <v/>
@@ -32139,8 +32149,8 @@
         <v>45851</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="143"/>
-      <c r="D195" s="141"/>
+      <c r="C195" s="132"/>
+      <c r="D195" s="130"/>
       <c r="AJ195" t="str">
         <f>TRIM(MID(SUBSTITUTE($F195, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ195)-1)*100+1, 100))</f>
         <v/>
@@ -32215,8 +32225,8 @@
         <v>45852</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="143"/>
-      <c r="D196" s="141"/>
+      <c r="C196" s="132"/>
+      <c r="D196" s="130"/>
       <c r="AJ196" t="str">
         <f>TRIM(MID(SUBSTITUTE($F196, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ196)-1)*100+1, 100))</f>
         <v/>
@@ -32291,8 +32301,8 @@
         <v>45853</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="143"/>
-      <c r="D197" s="141"/>
+      <c r="C197" s="132"/>
+      <c r="D197" s="130"/>
       <c r="AJ197" t="str">
         <f>TRIM(MID(SUBSTITUTE($F197, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ197)-1)*100+1, 100))</f>
         <v/>
@@ -32367,8 +32377,8 @@
         <v>45854</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="143"/>
-      <c r="D198" s="141"/>
+      <c r="C198" s="132"/>
+      <c r="D198" s="130"/>
       <c r="AJ198" t="str">
         <f>TRIM(MID(SUBSTITUTE($F198, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ198)-1)*100+1, 100))</f>
         <v/>
@@ -32443,8 +32453,8 @@
         <v>45855</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="143"/>
-      <c r="D199" s="141"/>
+      <c r="C199" s="132"/>
+      <c r="D199" s="130"/>
       <c r="AJ199" t="str">
         <f>TRIM(MID(SUBSTITUTE($F199, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ199)-1)*100+1, 100))</f>
         <v/>
@@ -32519,8 +32529,8 @@
         <v>45856</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="143"/>
-      <c r="D200" s="141"/>
+      <c r="C200" s="132"/>
+      <c r="D200" s="130"/>
       <c r="AJ200" t="str">
         <f>TRIM(MID(SUBSTITUTE($F200, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ200)-1)*100+1, 100))</f>
         <v/>
@@ -32595,8 +32605,8 @@
         <v>45857</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="143"/>
-      <c r="D201" s="141"/>
+      <c r="C201" s="132"/>
+      <c r="D201" s="130"/>
       <c r="AJ201" t="str">
         <f>TRIM(MID(SUBSTITUTE($F201, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ201)-1)*100+1, 100))</f>
         <v/>
@@ -32671,8 +32681,8 @@
         <v>45858</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="143"/>
-      <c r="D202" s="141"/>
+      <c r="C202" s="132"/>
+      <c r="D202" s="130"/>
       <c r="AJ202" t="str">
         <f>TRIM(MID(SUBSTITUTE($F202, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ202)-1)*100+1, 100))</f>
         <v/>
@@ -32747,8 +32757,8 @@
         <v>45859</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="143"/>
-      <c r="D203" s="141"/>
+      <c r="C203" s="132"/>
+      <c r="D203" s="130"/>
       <c r="AJ203" t="str">
         <f>TRIM(MID(SUBSTITUTE($F203, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ203)-1)*100+1, 100))</f>
         <v/>
@@ -32823,8 +32833,8 @@
         <v>45860</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="143"/>
-      <c r="D204" s="141"/>
+      <c r="C204" s="132"/>
+      <c r="D204" s="130"/>
       <c r="AJ204" t="str">
         <f>TRIM(MID(SUBSTITUTE($F204, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ204)-1)*100+1, 100))</f>
         <v/>
@@ -32899,8 +32909,8 @@
         <v>45861</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="143"/>
-      <c r="D205" s="141"/>
+      <c r="C205" s="132"/>
+      <c r="D205" s="130"/>
       <c r="AJ205" t="str">
         <f>TRIM(MID(SUBSTITUTE($F205, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ205)-1)*100+1, 100))</f>
         <v/>
@@ -32975,8 +32985,8 @@
         <v>45862</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="143"/>
-      <c r="D206" s="141"/>
+      <c r="C206" s="132"/>
+      <c r="D206" s="130"/>
       <c r="AJ206" t="str">
         <f>TRIM(MID(SUBSTITUTE($F206, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ206)-1)*100+1, 100))</f>
         <v/>
@@ -33051,8 +33061,8 @@
         <v>45863</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="143"/>
-      <c r="D207" s="141"/>
+      <c r="C207" s="132"/>
+      <c r="D207" s="130"/>
       <c r="AJ207" t="str">
         <f>TRIM(MID(SUBSTITUTE($F207, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ207)-1)*100+1, 100))</f>
         <v/>
@@ -33127,8 +33137,8 @@
         <v>45864</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="143"/>
-      <c r="D208" s="141"/>
+      <c r="C208" s="132"/>
+      <c r="D208" s="130"/>
       <c r="AJ208" t="str">
         <f>TRIM(MID(SUBSTITUTE($F208, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ208)-1)*100+1, 100))</f>
         <v/>
@@ -33203,8 +33213,8 @@
         <v>45865</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="143"/>
-      <c r="D209" s="141"/>
+      <c r="C209" s="132"/>
+      <c r="D209" s="130"/>
       <c r="AJ209" t="str">
         <f>TRIM(MID(SUBSTITUTE($F209, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ209)-1)*100+1, 100))</f>
         <v/>
@@ -33279,8 +33289,8 @@
         <v>45866</v>
       </c>
       <c r="B210" s="2"/>
-      <c r="C210" s="143"/>
-      <c r="D210" s="141"/>
+      <c r="C210" s="132"/>
+      <c r="D210" s="130"/>
       <c r="AJ210" t="str">
         <f>TRIM(MID(SUBSTITUTE($F210, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ210)-1)*100+1, 100))</f>
         <v/>
@@ -33355,8 +33365,8 @@
         <v>45867</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="143"/>
-      <c r="D211" s="141"/>
+      <c r="C211" s="132"/>
+      <c r="D211" s="130"/>
       <c r="AJ211" t="str">
         <f>TRIM(MID(SUBSTITUTE($F211, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ211)-1)*100+1, 100))</f>
         <v/>
@@ -33431,8 +33441,8 @@
         <v>45868</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="143"/>
-      <c r="D212" s="141"/>
+      <c r="C212" s="132"/>
+      <c r="D212" s="130"/>
       <c r="AJ212" t="str">
         <f>TRIM(MID(SUBSTITUTE($F212, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ212)-1)*100+1, 100))</f>
         <v/>
@@ -33507,8 +33517,8 @@
         <v>45869</v>
       </c>
       <c r="B213" s="2"/>
-      <c r="C213" s="143"/>
-      <c r="D213" s="141"/>
+      <c r="C213" s="132"/>
+      <c r="D213" s="130"/>
       <c r="AJ213" t="str">
         <f>TRIM(MID(SUBSTITUTE($F213, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ213)-1)*100+1, 100))</f>
         <v/>
@@ -33583,8 +33593,8 @@
         <v>45870</v>
       </c>
       <c r="B214" s="2"/>
-      <c r="C214" s="143"/>
-      <c r="D214" s="141"/>
+      <c r="C214" s="132"/>
+      <c r="D214" s="130"/>
       <c r="AJ214" t="str">
         <f>TRIM(MID(SUBSTITUTE($F214, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ214)-1)*100+1, 100))</f>
         <v/>
@@ -33659,8 +33669,8 @@
         <v>45871</v>
       </c>
       <c r="B215" s="2"/>
-      <c r="C215" s="143"/>
-      <c r="D215" s="141"/>
+      <c r="C215" s="132"/>
+      <c r="D215" s="130"/>
       <c r="AJ215" t="str">
         <f>TRIM(MID(SUBSTITUTE($F215, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ215)-1)*100+1, 100))</f>
         <v/>
@@ -33735,8 +33745,8 @@
         <v>45872</v>
       </c>
       <c r="B216" s="2"/>
-      <c r="C216" s="143"/>
-      <c r="D216" s="141"/>
+      <c r="C216" s="132"/>
+      <c r="D216" s="130"/>
       <c r="AJ216" t="str">
         <f>TRIM(MID(SUBSTITUTE($F216, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ216)-1)*100+1, 100))</f>
         <v/>
@@ -33811,8 +33821,8 @@
         <v>45873</v>
       </c>
       <c r="B217" s="2"/>
-      <c r="C217" s="143"/>
-      <c r="D217" s="141"/>
+      <c r="C217" s="132"/>
+      <c r="D217" s="130"/>
       <c r="AJ217" t="str">
         <f>TRIM(MID(SUBSTITUTE($F217, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ217)-1)*100+1, 100))</f>
         <v/>
@@ -33887,8 +33897,8 @@
         <v>45874</v>
       </c>
       <c r="B218" s="2"/>
-      <c r="C218" s="143"/>
-      <c r="D218" s="141"/>
+      <c r="C218" s="132"/>
+      <c r="D218" s="130"/>
       <c r="AJ218" t="str">
         <f>TRIM(MID(SUBSTITUTE($F218, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ218)-1)*100+1, 100))</f>
         <v/>
@@ -33963,8 +33973,8 @@
         <v>45875</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="143"/>
-      <c r="D219" s="141"/>
+      <c r="C219" s="132"/>
+      <c r="D219" s="130"/>
       <c r="AJ219" t="str">
         <f>TRIM(MID(SUBSTITUTE($F219, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ219)-1)*100+1, 100))</f>
         <v/>
@@ -34039,8 +34049,8 @@
         <v>45876</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="143"/>
-      <c r="D220" s="141"/>
+      <c r="C220" s="132"/>
+      <c r="D220" s="130"/>
       <c r="AJ220" t="str">
         <f>TRIM(MID(SUBSTITUTE($F220, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ220)-1)*100+1, 100))</f>
         <v/>
@@ -34115,8 +34125,8 @@
         <v>45877</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="143"/>
-      <c r="D221" s="141"/>
+      <c r="C221" s="132"/>
+      <c r="D221" s="130"/>
       <c r="AJ221" t="str">
         <f>TRIM(MID(SUBSTITUTE($F221, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ221)-1)*100+1, 100))</f>
         <v/>
@@ -34191,8 +34201,8 @@
         <v>45878</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="143"/>
-      <c r="D222" s="141"/>
+      <c r="C222" s="132"/>
+      <c r="D222" s="130"/>
       <c r="AJ222" t="str">
         <f>TRIM(MID(SUBSTITUTE($F222, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ222)-1)*100+1, 100))</f>
         <v/>
@@ -34267,8 +34277,8 @@
         <v>45879</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="143"/>
-      <c r="D223" s="141"/>
+      <c r="C223" s="132"/>
+      <c r="D223" s="130"/>
       <c r="AJ223" t="str">
         <f>TRIM(MID(SUBSTITUTE($F223, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ223)-1)*100+1, 100))</f>
         <v/>
@@ -34343,8 +34353,8 @@
         <v>45880</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="143"/>
-      <c r="D224" s="141"/>
+      <c r="C224" s="132"/>
+      <c r="D224" s="130"/>
       <c r="AJ224" t="str">
         <f>TRIM(MID(SUBSTITUTE($F224, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ224)-1)*100+1, 100))</f>
         <v/>
@@ -34419,8 +34429,8 @@
         <v>45881</v>
       </c>
       <c r="B225" s="2"/>
-      <c r="C225" s="143"/>
-      <c r="D225" s="141"/>
+      <c r="C225" s="132"/>
+      <c r="D225" s="130"/>
       <c r="AJ225" t="str">
         <f>TRIM(MID(SUBSTITUTE($F225, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ225)-1)*100+1, 100))</f>
         <v/>
@@ -34495,8 +34505,8 @@
         <v>45882</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="143"/>
-      <c r="D226" s="141"/>
+      <c r="C226" s="132"/>
+      <c r="D226" s="130"/>
       <c r="AJ226" t="str">
         <f>TRIM(MID(SUBSTITUTE($F226, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ226)-1)*100+1, 100))</f>
         <v/>
@@ -34571,8 +34581,8 @@
         <v>45883</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="143"/>
-      <c r="D227" s="141"/>
+      <c r="C227" s="132"/>
+      <c r="D227" s="130"/>
       <c r="AJ227" t="str">
         <f>TRIM(MID(SUBSTITUTE($F227, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ227)-1)*100+1, 100))</f>
         <v/>
@@ -34647,8 +34657,8 @@
         <v>45884</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="143"/>
-      <c r="D228" s="141"/>
+      <c r="C228" s="132"/>
+      <c r="D228" s="130"/>
       <c r="AJ228" t="str">
         <f>TRIM(MID(SUBSTITUTE($F228, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ228)-1)*100+1, 100))</f>
         <v/>
@@ -34723,8 +34733,8 @@
         <v>45885</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="143"/>
-      <c r="D229" s="141"/>
+      <c r="C229" s="132"/>
+      <c r="D229" s="130"/>
       <c r="AJ229" t="str">
         <f>TRIM(MID(SUBSTITUTE($F229, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ229)-1)*100+1, 100))</f>
         <v/>
@@ -34799,8 +34809,8 @@
         <v>45886</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="143"/>
-      <c r="D230" s="141"/>
+      <c r="C230" s="132"/>
+      <c r="D230" s="130"/>
       <c r="AJ230" t="str">
         <f>TRIM(MID(SUBSTITUTE($F230, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ230)-1)*100+1, 100))</f>
         <v/>
@@ -34875,8 +34885,8 @@
         <v>45887</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="143"/>
-      <c r="D231" s="141"/>
+      <c r="C231" s="132"/>
+      <c r="D231" s="130"/>
       <c r="AJ231" t="str">
         <f>TRIM(MID(SUBSTITUTE($F231, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ231)-1)*100+1, 100))</f>
         <v/>
@@ -34951,8 +34961,8 @@
         <v>45888</v>
       </c>
       <c r="B232" s="2"/>
-      <c r="C232" s="143"/>
-      <c r="D232" s="141"/>
+      <c r="C232" s="132"/>
+      <c r="D232" s="130"/>
       <c r="AJ232" t="str">
         <f>TRIM(MID(SUBSTITUTE($F232, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ232)-1)*100+1, 100))</f>
         <v/>
@@ -35027,8 +35037,8 @@
         <v>45889</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="143"/>
-      <c r="D233" s="141"/>
+      <c r="C233" s="132"/>
+      <c r="D233" s="130"/>
       <c r="AJ233" t="str">
         <f>TRIM(MID(SUBSTITUTE($F233, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ233)-1)*100+1, 100))</f>
         <v/>
@@ -35103,8 +35113,8 @@
         <v>45890</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="143"/>
-      <c r="D234" s="141"/>
+      <c r="C234" s="132"/>
+      <c r="D234" s="130"/>
       <c r="AJ234" t="str">
         <f>TRIM(MID(SUBSTITUTE($F234, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ234)-1)*100+1, 100))</f>
         <v/>
@@ -35179,8 +35189,8 @@
         <v>45891</v>
       </c>
       <c r="B235" s="2"/>
-      <c r="C235" s="143"/>
-      <c r="D235" s="141"/>
+      <c r="C235" s="132"/>
+      <c r="D235" s="130"/>
       <c r="AJ235" t="str">
         <f>TRIM(MID(SUBSTITUTE($F235, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ235)-1)*100+1, 100))</f>
         <v/>
@@ -35255,8 +35265,8 @@
         <v>45892</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="143"/>
-      <c r="D236" s="141"/>
+      <c r="C236" s="132"/>
+      <c r="D236" s="130"/>
       <c r="AJ236" t="str">
         <f>TRIM(MID(SUBSTITUTE($F236, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ236)-1)*100+1, 100))</f>
         <v/>
@@ -35331,8 +35341,8 @@
         <v>45893</v>
       </c>
       <c r="B237" s="2"/>
-      <c r="C237" s="143"/>
-      <c r="D237" s="141"/>
+      <c r="C237" s="132"/>
+      <c r="D237" s="130"/>
       <c r="AJ237" t="str">
         <f>TRIM(MID(SUBSTITUTE($F237, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ237)-1)*100+1, 100))</f>
         <v/>
@@ -35407,8 +35417,8 @@
         <v>45894</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="143"/>
-      <c r="D238" s="141"/>
+      <c r="C238" s="132"/>
+      <c r="D238" s="130"/>
       <c r="AJ238" t="str">
         <f>TRIM(MID(SUBSTITUTE($F238, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ238)-1)*100+1, 100))</f>
         <v/>
@@ -35483,8 +35493,8 @@
         <v>45895</v>
       </c>
       <c r="B239" s="2"/>
-      <c r="C239" s="143"/>
-      <c r="D239" s="141"/>
+      <c r="C239" s="132"/>
+      <c r="D239" s="130"/>
       <c r="AJ239" t="str">
         <f>TRIM(MID(SUBSTITUTE($F239, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ239)-1)*100+1, 100))</f>
         <v/>
@@ -35559,8 +35569,8 @@
         <v>45896</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="143"/>
-      <c r="D240" s="141"/>
+      <c r="C240" s="132"/>
+      <c r="D240" s="130"/>
       <c r="AJ240" t="str">
         <f>TRIM(MID(SUBSTITUTE($F240, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ240)-1)*100+1, 100))</f>
         <v/>
@@ -35635,8 +35645,8 @@
         <v>45897</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="143"/>
-      <c r="D241" s="141"/>
+      <c r="C241" s="132"/>
+      <c r="D241" s="130"/>
       <c r="AJ241" t="str">
         <f>TRIM(MID(SUBSTITUTE($F241, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ241)-1)*100+1, 100))</f>
         <v/>
@@ -35711,8 +35721,8 @@
         <v>45898</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="143"/>
-      <c r="D242" s="141"/>
+      <c r="C242" s="132"/>
+      <c r="D242" s="130"/>
       <c r="AJ242" t="str">
         <f>TRIM(MID(SUBSTITUTE($F242, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ242)-1)*100+1, 100))</f>
         <v/>
@@ -35787,8 +35797,8 @@
         <v>45899</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="143"/>
-      <c r="D243" s="141"/>
+      <c r="C243" s="132"/>
+      <c r="D243" s="130"/>
       <c r="AJ243" t="str">
         <f>TRIM(MID(SUBSTITUTE($F243, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ243)-1)*100+1, 100))</f>
         <v/>
@@ -35863,8 +35873,8 @@
         <v>45900</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="143"/>
-      <c r="D244" s="141"/>
+      <c r="C244" s="132"/>
+      <c r="D244" s="130"/>
       <c r="AJ244" t="str">
         <f>TRIM(MID(SUBSTITUTE($F244, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ244)-1)*100+1, 100))</f>
         <v/>
@@ -35939,8 +35949,8 @@
         <v>45901</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="143"/>
-      <c r="D245" s="141"/>
+      <c r="C245" s="132"/>
+      <c r="D245" s="130"/>
       <c r="AJ245" t="str">
         <f>TRIM(MID(SUBSTITUTE($F245, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ245)-1)*100+1, 100))</f>
         <v/>
@@ -36015,8 +36025,8 @@
         <v>45902</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="143"/>
-      <c r="D246" s="141"/>
+      <c r="C246" s="132"/>
+      <c r="D246" s="130"/>
       <c r="AJ246" t="str">
         <f>TRIM(MID(SUBSTITUTE($F246, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ246)-1)*100+1, 100))</f>
         <v/>
@@ -36091,8 +36101,8 @@
         <v>45903</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="143"/>
-      <c r="D247" s="141"/>
+      <c r="C247" s="132"/>
+      <c r="D247" s="130"/>
       <c r="AJ247" t="str">
         <f>TRIM(MID(SUBSTITUTE($F247, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ247)-1)*100+1, 100))</f>
         <v/>
@@ -36167,8 +36177,8 @@
         <v>45904</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="143"/>
-      <c r="D248" s="141"/>
+      <c r="C248" s="132"/>
+      <c r="D248" s="130"/>
       <c r="AJ248" t="str">
         <f>TRIM(MID(SUBSTITUTE($F248, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ248)-1)*100+1, 100))</f>
         <v/>
@@ -36243,8 +36253,8 @@
         <v>45905</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="143"/>
-      <c r="D249" s="141"/>
+      <c r="C249" s="132"/>
+      <c r="D249" s="130"/>
       <c r="AJ249" t="str">
         <f>TRIM(MID(SUBSTITUTE($F249, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ249)-1)*100+1, 100))</f>
         <v/>
@@ -36319,8 +36329,8 @@
         <v>45906</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="143"/>
-      <c r="D250" s="141"/>
+      <c r="C250" s="132"/>
+      <c r="D250" s="130"/>
       <c r="AJ250" t="str">
         <f>TRIM(MID(SUBSTITUTE($F250, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ250)-1)*100+1, 100))</f>
         <v/>
@@ -36395,8 +36405,8 @@
         <v>45907</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="143"/>
-      <c r="D251" s="141"/>
+      <c r="C251" s="132"/>
+      <c r="D251" s="130"/>
       <c r="AJ251" t="str">
         <f>TRIM(MID(SUBSTITUTE($F251, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ251)-1)*100+1, 100))</f>
         <v/>
@@ -36471,8 +36481,8 @@
         <v>45908</v>
       </c>
       <c r="B252" s="2"/>
-      <c r="C252" s="143"/>
-      <c r="D252" s="141"/>
+      <c r="C252" s="132"/>
+      <c r="D252" s="130"/>
       <c r="AJ252" t="str">
         <f>TRIM(MID(SUBSTITUTE($F252, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ252)-1)*100+1, 100))</f>
         <v/>
@@ -36547,8 +36557,8 @@
         <v>45909</v>
       </c>
       <c r="B253" s="2"/>
-      <c r="C253" s="143"/>
-      <c r="D253" s="141"/>
+      <c r="C253" s="132"/>
+      <c r="D253" s="130"/>
       <c r="AJ253" t="str">
         <f>TRIM(MID(SUBSTITUTE($F253, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ253)-1)*100+1, 100))</f>
         <v/>
@@ -36623,8 +36633,8 @@
         <v>45910</v>
       </c>
       <c r="B254" s="2"/>
-      <c r="C254" s="143"/>
-      <c r="D254" s="141"/>
+      <c r="C254" s="132"/>
+      <c r="D254" s="130"/>
       <c r="AJ254" t="str">
         <f>TRIM(MID(SUBSTITUTE($F254, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ254)-1)*100+1, 100))</f>
         <v/>
@@ -36699,8 +36709,8 @@
         <v>45911</v>
       </c>
       <c r="B255" s="2"/>
-      <c r="C255" s="143"/>
-      <c r="D255" s="141"/>
+      <c r="C255" s="132"/>
+      <c r="D255" s="130"/>
       <c r="AJ255" t="str">
         <f>TRIM(MID(SUBSTITUTE($F255, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ255)-1)*100+1, 100))</f>
         <v/>
@@ -36775,8 +36785,8 @@
         <v>45912</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="143"/>
-      <c r="D256" s="141"/>
+      <c r="C256" s="132"/>
+      <c r="D256" s="130"/>
       <c r="AJ256" t="str">
         <f>TRIM(MID(SUBSTITUTE($F256, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ256)-1)*100+1, 100))</f>
         <v/>
@@ -36851,8 +36861,8 @@
         <v>45913</v>
       </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="143"/>
-      <c r="D257" s="141"/>
+      <c r="C257" s="132"/>
+      <c r="D257" s="130"/>
       <c r="AJ257" t="str">
         <f>TRIM(MID(SUBSTITUTE($F257, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ257)-1)*100+1, 100))</f>
         <v/>
@@ -36927,8 +36937,8 @@
         <v>45914</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="143"/>
-      <c r="D258" s="141"/>
+      <c r="C258" s="132"/>
+      <c r="D258" s="130"/>
       <c r="AJ258" t="str">
         <f>TRIM(MID(SUBSTITUTE($F258, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ258)-1)*100+1, 100))</f>
         <v/>
@@ -37003,8 +37013,8 @@
         <v>45915</v>
       </c>
       <c r="B259" s="2"/>
-      <c r="C259" s="143"/>
-      <c r="D259" s="141"/>
+      <c r="C259" s="132"/>
+      <c r="D259" s="130"/>
       <c r="AJ259" t="str">
         <f>TRIM(MID(SUBSTITUTE($F259, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ259)-1)*100+1, 100))</f>
         <v/>
@@ -37079,8 +37089,8 @@
         <v>45916</v>
       </c>
       <c r="B260" s="2"/>
-      <c r="C260" s="143"/>
-      <c r="D260" s="141"/>
+      <c r="C260" s="132"/>
+      <c r="D260" s="130"/>
       <c r="AJ260" t="str">
         <f>TRIM(MID(SUBSTITUTE($F260, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ260)-1)*100+1, 100))</f>
         <v/>
@@ -37155,8 +37165,8 @@
         <v>45917</v>
       </c>
       <c r="B261" s="2"/>
-      <c r="C261" s="143"/>
-      <c r="D261" s="141"/>
+      <c r="C261" s="132"/>
+      <c r="D261" s="130"/>
       <c r="AJ261" t="str">
         <f>TRIM(MID(SUBSTITUTE($F261, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ261)-1)*100+1, 100))</f>
         <v/>
@@ -37231,8 +37241,8 @@
         <v>45918</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="143"/>
-      <c r="D262" s="141"/>
+      <c r="C262" s="132"/>
+      <c r="D262" s="130"/>
       <c r="AJ262" t="str">
         <f>TRIM(MID(SUBSTITUTE($F262, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ262)-1)*100+1, 100))</f>
         <v/>
@@ -37307,8 +37317,8 @@
         <v>45919</v>
       </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="143"/>
-      <c r="D263" s="141"/>
+      <c r="C263" s="132"/>
+      <c r="D263" s="130"/>
       <c r="AJ263" t="str">
         <f>TRIM(MID(SUBSTITUTE($F263, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ263)-1)*100+1, 100))</f>
         <v/>
@@ -37383,8 +37393,8 @@
         <v>45920</v>
       </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="143"/>
-      <c r="D264" s="141"/>
+      <c r="C264" s="132"/>
+      <c r="D264" s="130"/>
       <c r="AJ264" t="str">
         <f>TRIM(MID(SUBSTITUTE($F264, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ264)-1)*100+1, 100))</f>
         <v/>
@@ -37459,8 +37469,8 @@
         <v>45921</v>
       </c>
       <c r="B265" s="2"/>
-      <c r="C265" s="143"/>
-      <c r="D265" s="141"/>
+      <c r="C265" s="132"/>
+      <c r="D265" s="130"/>
       <c r="AJ265" t="str">
         <f>TRIM(MID(SUBSTITUTE($F265, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ265)-1)*100+1, 100))</f>
         <v/>
@@ -37535,8 +37545,8 @@
         <v>45922</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="143"/>
-      <c r="D266" s="141"/>
+      <c r="C266" s="132"/>
+      <c r="D266" s="130"/>
       <c r="AJ266" t="str">
         <f>TRIM(MID(SUBSTITUTE($F266, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ266)-1)*100+1, 100))</f>
         <v/>
@@ -37611,8 +37621,8 @@
         <v>45923</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="143"/>
-      <c r="D267" s="141"/>
+      <c r="C267" s="132"/>
+      <c r="D267" s="130"/>
       <c r="AJ267" t="str">
         <f>TRIM(MID(SUBSTITUTE($F267, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ267)-1)*100+1, 100))</f>
         <v/>
@@ -37687,8 +37697,8 @@
         <v>45924</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="143"/>
-      <c r="D268" s="141"/>
+      <c r="C268" s="132"/>
+      <c r="D268" s="130"/>
       <c r="AJ268" t="str">
         <f>TRIM(MID(SUBSTITUTE($F268, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ268)-1)*100+1, 100))</f>
         <v/>
@@ -37763,8 +37773,8 @@
         <v>45925</v>
       </c>
       <c r="B269" s="2"/>
-      <c r="C269" s="143"/>
-      <c r="D269" s="141"/>
+      <c r="C269" s="132"/>
+      <c r="D269" s="130"/>
       <c r="AJ269" t="str">
         <f>TRIM(MID(SUBSTITUTE($F269, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ269)-1)*100+1, 100))</f>
         <v/>
@@ -37839,8 +37849,8 @@
         <v>45926</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270" s="143"/>
-      <c r="D270" s="141"/>
+      <c r="C270" s="132"/>
+      <c r="D270" s="130"/>
       <c r="AJ270" t="str">
         <f>TRIM(MID(SUBSTITUTE($F270, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ270)-1)*100+1, 100))</f>
         <v/>
@@ -37915,8 +37925,8 @@
         <v>45927</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="143"/>
-      <c r="D271" s="141"/>
+      <c r="C271" s="132"/>
+      <c r="D271" s="130"/>
       <c r="AJ271" t="str">
         <f>TRIM(MID(SUBSTITUTE($F271, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ271)-1)*100+1, 100))</f>
         <v/>
@@ -37991,8 +38001,8 @@
         <v>45928</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="143"/>
-      <c r="D272" s="141"/>
+      <c r="C272" s="132"/>
+      <c r="D272" s="130"/>
       <c r="AJ272" t="str">
         <f>TRIM(MID(SUBSTITUTE($F272, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ272)-1)*100+1, 100))</f>
         <v/>
@@ -38067,8 +38077,8 @@
         <v>45929</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="143"/>
-      <c r="D273" s="141"/>
+      <c r="C273" s="132"/>
+      <c r="D273" s="130"/>
       <c r="AJ273" t="str">
         <f>TRIM(MID(SUBSTITUTE($F273, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ273)-1)*100+1, 100))</f>
         <v/>
@@ -38143,8 +38153,8 @@
         <v>45930</v>
       </c>
       <c r="B274" s="2"/>
-      <c r="C274" s="143"/>
-      <c r="D274" s="141"/>
+      <c r="C274" s="132"/>
+      <c r="D274" s="130"/>
       <c r="AJ274" t="str">
         <f>TRIM(MID(SUBSTITUTE($F274, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ274)-1)*100+1, 100))</f>
         <v/>
@@ -38219,8 +38229,8 @@
         <v>45931</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="143"/>
-      <c r="D275" s="141"/>
+      <c r="C275" s="132"/>
+      <c r="D275" s="130"/>
       <c r="AJ275" t="str">
         <f>TRIM(MID(SUBSTITUTE($F275, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ275)-1)*100+1, 100))</f>
         <v/>
@@ -38295,8 +38305,8 @@
         <v>45932</v>
       </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="143"/>
-      <c r="D276" s="141"/>
+      <c r="C276" s="132"/>
+      <c r="D276" s="130"/>
       <c r="AJ276" t="str">
         <f>TRIM(MID(SUBSTITUTE($F276, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ276)-1)*100+1, 100))</f>
         <v/>
@@ -38371,8 +38381,8 @@
         <v>45933</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="143"/>
-      <c r="D277" s="141"/>
+      <c r="C277" s="132"/>
+      <c r="D277" s="130"/>
       <c r="AJ277" t="str">
         <f>TRIM(MID(SUBSTITUTE($F277, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ277)-1)*100+1, 100))</f>
         <v/>
@@ -38447,8 +38457,8 @@
         <v>45934</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="143"/>
-      <c r="D278" s="141"/>
+      <c r="C278" s="132"/>
+      <c r="D278" s="130"/>
       <c r="AJ278" t="str">
         <f>TRIM(MID(SUBSTITUTE($F278, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ278)-1)*100+1, 100))</f>
         <v/>
@@ -38523,8 +38533,8 @@
         <v>45935</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="143"/>
-      <c r="D279" s="141"/>
+      <c r="C279" s="132"/>
+      <c r="D279" s="130"/>
       <c r="AJ279" t="str">
         <f>TRIM(MID(SUBSTITUTE($F279, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ279)-1)*100+1, 100))</f>
         <v/>
@@ -38599,8 +38609,8 @@
         <v>45936</v>
       </c>
       <c r="B280" s="2"/>
-      <c r="C280" s="143"/>
-      <c r="D280" s="141"/>
+      <c r="C280" s="132"/>
+      <c r="D280" s="130"/>
       <c r="AJ280" t="str">
         <f>TRIM(MID(SUBSTITUTE($F280, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ280)-1)*100+1, 100))</f>
         <v/>
@@ -38675,8 +38685,8 @@
         <v>45937</v>
       </c>
       <c r="B281" s="2"/>
-      <c r="C281" s="143"/>
-      <c r="D281" s="141"/>
+      <c r="C281" s="132"/>
+      <c r="D281" s="130"/>
       <c r="AJ281" t="str">
         <f>TRIM(MID(SUBSTITUTE($F281, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ281)-1)*100+1, 100))</f>
         <v/>
@@ -38751,8 +38761,8 @@
         <v>45938</v>
       </c>
       <c r="B282" s="2"/>
-      <c r="C282" s="143"/>
-      <c r="D282" s="141"/>
+      <c r="C282" s="132"/>
+      <c r="D282" s="130"/>
       <c r="AJ282" t="str">
         <f>TRIM(MID(SUBSTITUTE($F282, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ282)-1)*100+1, 100))</f>
         <v/>
@@ -38827,8 +38837,8 @@
         <v>45939</v>
       </c>
       <c r="B283" s="2"/>
-      <c r="C283" s="143"/>
-      <c r="D283" s="141"/>
+      <c r="C283" s="132"/>
+      <c r="D283" s="130"/>
       <c r="AJ283" t="str">
         <f>TRIM(MID(SUBSTITUTE($F283, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ283)-1)*100+1, 100))</f>
         <v/>
@@ -38903,8 +38913,8 @@
         <v>45940</v>
       </c>
       <c r="B284" s="2"/>
-      <c r="C284" s="143"/>
-      <c r="D284" s="141"/>
+      <c r="C284" s="132"/>
+      <c r="D284" s="130"/>
       <c r="AJ284" t="str">
         <f>TRIM(MID(SUBSTITUTE($F284, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ284)-1)*100+1, 100))</f>
         <v/>
@@ -38979,8 +38989,8 @@
         <v>45941</v>
       </c>
       <c r="B285" s="2"/>
-      <c r="C285" s="143"/>
-      <c r="D285" s="141"/>
+      <c r="C285" s="132"/>
+      <c r="D285" s="130"/>
       <c r="AJ285" t="str">
         <f>TRIM(MID(SUBSTITUTE($F285, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ285)-1)*100+1, 100))</f>
         <v/>
@@ -39055,8 +39065,8 @@
         <v>45942</v>
       </c>
       <c r="B286" s="2"/>
-      <c r="C286" s="143"/>
-      <c r="D286" s="141"/>
+      <c r="C286" s="132"/>
+      <c r="D286" s="130"/>
       <c r="AJ286" t="str">
         <f>TRIM(MID(SUBSTITUTE($F286, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ286)-1)*100+1, 100))</f>
         <v/>
@@ -39131,8 +39141,8 @@
         <v>45943</v>
       </c>
       <c r="B287" s="2"/>
-      <c r="C287" s="143"/>
-      <c r="D287" s="141"/>
+      <c r="C287" s="132"/>
+      <c r="D287" s="130"/>
       <c r="AJ287" t="str">
         <f>TRIM(MID(SUBSTITUTE($F287, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ287)-1)*100+1, 100))</f>
         <v/>
@@ -39207,8 +39217,8 @@
         <v>45944</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="143"/>
-      <c r="D288" s="141"/>
+      <c r="C288" s="132"/>
+      <c r="D288" s="130"/>
       <c r="AJ288" t="str">
         <f>TRIM(MID(SUBSTITUTE($F288, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ288)-1)*100+1, 100))</f>
         <v/>
@@ -39283,8 +39293,8 @@
         <v>45945</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="143"/>
-      <c r="D289" s="141"/>
+      <c r="C289" s="132"/>
+      <c r="D289" s="130"/>
       <c r="AJ289" t="str">
         <f>TRIM(MID(SUBSTITUTE($F289, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ289)-1)*100+1, 100))</f>
         <v/>
@@ -39359,8 +39369,8 @@
         <v>45946</v>
       </c>
       <c r="B290" s="2"/>
-      <c r="C290" s="143"/>
-      <c r="D290" s="141"/>
+      <c r="C290" s="132"/>
+      <c r="D290" s="130"/>
       <c r="AJ290" t="str">
         <f>TRIM(MID(SUBSTITUTE($F290, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ290)-1)*100+1, 100))</f>
         <v/>
@@ -39435,8 +39445,8 @@
         <v>45947</v>
       </c>
       <c r="B291" s="2"/>
-      <c r="C291" s="143"/>
-      <c r="D291" s="141"/>
+      <c r="C291" s="132"/>
+      <c r="D291" s="130"/>
       <c r="AJ291" t="str">
         <f>TRIM(MID(SUBSTITUTE($F291, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ291)-1)*100+1, 100))</f>
         <v/>
@@ -39511,8 +39521,8 @@
         <v>45948</v>
       </c>
       <c r="B292" s="2"/>
-      <c r="C292" s="143"/>
-      <c r="D292" s="141"/>
+      <c r="C292" s="132"/>
+      <c r="D292" s="130"/>
       <c r="AJ292" t="str">
         <f>TRIM(MID(SUBSTITUTE($F292, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ292)-1)*100+1, 100))</f>
         <v/>
@@ -39587,8 +39597,8 @@
         <v>45949</v>
       </c>
       <c r="B293" s="2"/>
-      <c r="C293" s="143"/>
-      <c r="D293" s="141"/>
+      <c r="C293" s="132"/>
+      <c r="D293" s="130"/>
       <c r="AJ293" t="str">
         <f>TRIM(MID(SUBSTITUTE($F293, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ293)-1)*100+1, 100))</f>
         <v/>
@@ -39663,8 +39673,8 @@
         <v>45950</v>
       </c>
       <c r="B294" s="2"/>
-      <c r="C294" s="143"/>
-      <c r="D294" s="141"/>
+      <c r="C294" s="132"/>
+      <c r="D294" s="130"/>
       <c r="AJ294" t="str">
         <f>TRIM(MID(SUBSTITUTE($F294, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ294)-1)*100+1, 100))</f>
         <v/>
@@ -39739,8 +39749,8 @@
         <v>45951</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="143"/>
-      <c r="D295" s="141"/>
+      <c r="C295" s="132"/>
+      <c r="D295" s="130"/>
       <c r="AJ295" t="str">
         <f>TRIM(MID(SUBSTITUTE($F295, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ295)-1)*100+1, 100))</f>
         <v/>
@@ -39815,8 +39825,8 @@
         <v>45952</v>
       </c>
       <c r="B296" s="2"/>
-      <c r="C296" s="143"/>
-      <c r="D296" s="141"/>
+      <c r="C296" s="132"/>
+      <c r="D296" s="130"/>
       <c r="AJ296" t="str">
         <f>TRIM(MID(SUBSTITUTE($F296, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ296)-1)*100+1, 100))</f>
         <v/>
@@ -39891,8 +39901,8 @@
         <v>45953</v>
       </c>
       <c r="B297" s="2"/>
-      <c r="C297" s="143"/>
-      <c r="D297" s="141"/>
+      <c r="C297" s="132"/>
+      <c r="D297" s="130"/>
       <c r="AJ297" t="str">
         <f>TRIM(MID(SUBSTITUTE($F297, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ297)-1)*100+1, 100))</f>
         <v/>
@@ -39967,8 +39977,8 @@
         <v>45954</v>
       </c>
       <c r="B298" s="2"/>
-      <c r="C298" s="143"/>
-      <c r="D298" s="141"/>
+      <c r="C298" s="132"/>
+      <c r="D298" s="130"/>
       <c r="AJ298" t="str">
         <f>TRIM(MID(SUBSTITUTE($F298, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ298)-1)*100+1, 100))</f>
         <v/>
@@ -40043,8 +40053,8 @@
         <v>45955</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="143"/>
-      <c r="D299" s="141"/>
+      <c r="C299" s="132"/>
+      <c r="D299" s="130"/>
       <c r="AJ299" t="str">
         <f>TRIM(MID(SUBSTITUTE($F299, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ299)-1)*100+1, 100))</f>
         <v/>
@@ -40119,8 +40129,8 @@
         <v>45956</v>
       </c>
       <c r="B300" s="2"/>
-      <c r="C300" s="143"/>
-      <c r="D300" s="141"/>
+      <c r="C300" s="132"/>
+      <c r="D300" s="130"/>
       <c r="AJ300" t="str">
         <f>TRIM(MID(SUBSTITUTE($F300, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ300)-1)*100+1, 100))</f>
         <v/>
@@ -40195,8 +40205,8 @@
         <v>45957</v>
       </c>
       <c r="B301" s="2"/>
-      <c r="C301" s="143"/>
-      <c r="D301" s="141"/>
+      <c r="C301" s="132"/>
+      <c r="D301" s="130"/>
       <c r="AJ301" t="str">
         <f>TRIM(MID(SUBSTITUTE($F301, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ301)-1)*100+1, 100))</f>
         <v/>
@@ -40271,8 +40281,8 @@
         <v>45958</v>
       </c>
       <c r="B302" s="2"/>
-      <c r="C302" s="143"/>
-      <c r="D302" s="141"/>
+      <c r="C302" s="132"/>
+      <c r="D302" s="130"/>
       <c r="AJ302" t="str">
         <f>TRIM(MID(SUBSTITUTE($F302, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ302)-1)*100+1, 100))</f>
         <v/>
@@ -40347,8 +40357,8 @@
         <v>45959</v>
       </c>
       <c r="B303" s="2"/>
-      <c r="C303" s="143"/>
-      <c r="D303" s="141"/>
+      <c r="C303" s="132"/>
+      <c r="D303" s="130"/>
       <c r="AJ303" t="str">
         <f>TRIM(MID(SUBSTITUTE($F303, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ303)-1)*100+1, 100))</f>
         <v/>
@@ -40423,8 +40433,8 @@
         <v>45960</v>
       </c>
       <c r="B304" s="2"/>
-      <c r="C304" s="143"/>
-      <c r="D304" s="141"/>
+      <c r="C304" s="132"/>
+      <c r="D304" s="130"/>
       <c r="AJ304" t="str">
         <f>TRIM(MID(SUBSTITUTE($F304, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ304)-1)*100+1, 100))</f>
         <v/>
@@ -40499,8 +40509,8 @@
         <v>45961</v>
       </c>
       <c r="B305" s="2"/>
-      <c r="C305" s="143"/>
-      <c r="D305" s="141"/>
+      <c r="C305" s="132"/>
+      <c r="D305" s="130"/>
       <c r="AJ305" t="str">
         <f>TRIM(MID(SUBSTITUTE($F305, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ305)-1)*100+1, 100))</f>
         <v/>
@@ -40575,8 +40585,8 @@
         <v>45962</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="143"/>
-      <c r="D306" s="141"/>
+      <c r="C306" s="132"/>
+      <c r="D306" s="130"/>
       <c r="AJ306" t="str">
         <f>TRIM(MID(SUBSTITUTE($F306, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ306)-1)*100+1, 100))</f>
         <v/>
@@ -40651,8 +40661,8 @@
         <v>45963</v>
       </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="143"/>
-      <c r="D307" s="141"/>
+      <c r="C307" s="132"/>
+      <c r="D307" s="130"/>
       <c r="AJ307" t="str">
         <f>TRIM(MID(SUBSTITUTE($F307, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ307)-1)*100+1, 100))</f>
         <v/>
@@ -40727,8 +40737,8 @@
         <v>45964</v>
       </c>
       <c r="B308" s="2"/>
-      <c r="C308" s="143"/>
-      <c r="D308" s="141"/>
+      <c r="C308" s="132"/>
+      <c r="D308" s="130"/>
       <c r="AJ308" t="str">
         <f>TRIM(MID(SUBSTITUTE($F308, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ308)-1)*100+1, 100))</f>
         <v/>
@@ -40803,8 +40813,8 @@
         <v>45965</v>
       </c>
       <c r="B309" s="2"/>
-      <c r="C309" s="143"/>
-      <c r="D309" s="141"/>
+      <c r="C309" s="132"/>
+      <c r="D309" s="130"/>
       <c r="AJ309" t="str">
         <f>TRIM(MID(SUBSTITUTE($F309, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ309)-1)*100+1, 100))</f>
         <v/>
@@ -40879,8 +40889,8 @@
         <v>45966</v>
       </c>
       <c r="B310" s="2"/>
-      <c r="C310" s="143"/>
-      <c r="D310" s="141"/>
+      <c r="C310" s="132"/>
+      <c r="D310" s="130"/>
       <c r="AJ310" t="str">
         <f>TRIM(MID(SUBSTITUTE($F310, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ310)-1)*100+1, 100))</f>
         <v/>
@@ -40955,8 +40965,8 @@
         <v>45967</v>
       </c>
       <c r="B311" s="2"/>
-      <c r="C311" s="143"/>
-      <c r="D311" s="141"/>
+      <c r="C311" s="132"/>
+      <c r="D311" s="130"/>
       <c r="AJ311" t="str">
         <f>TRIM(MID(SUBSTITUTE($F311, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ311)-1)*100+1, 100))</f>
         <v/>
@@ -41031,8 +41041,8 @@
         <v>45968</v>
       </c>
       <c r="B312" s="2"/>
-      <c r="C312" s="143"/>
-      <c r="D312" s="141"/>
+      <c r="C312" s="132"/>
+      <c r="D312" s="130"/>
       <c r="AJ312" t="str">
         <f>TRIM(MID(SUBSTITUTE($F312, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ312)-1)*100+1, 100))</f>
         <v/>
@@ -41107,8 +41117,8 @@
         <v>45969</v>
       </c>
       <c r="B313" s="2"/>
-      <c r="C313" s="143"/>
-      <c r="D313" s="141"/>
+      <c r="C313" s="132"/>
+      <c r="D313" s="130"/>
       <c r="AJ313" t="str">
         <f>TRIM(MID(SUBSTITUTE($F313, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ313)-1)*100+1, 100))</f>
         <v/>
@@ -41183,8 +41193,8 @@
         <v>45970</v>
       </c>
       <c r="B314" s="2"/>
-      <c r="C314" s="143"/>
-      <c r="D314" s="141"/>
+      <c r="C314" s="132"/>
+      <c r="D314" s="130"/>
       <c r="AJ314" t="str">
         <f>TRIM(MID(SUBSTITUTE($F314, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ314)-1)*100+1, 100))</f>
         <v/>
@@ -41259,8 +41269,8 @@
         <v>45971</v>
       </c>
       <c r="B315" s="2"/>
-      <c r="C315" s="143"/>
-      <c r="D315" s="141"/>
+      <c r="C315" s="132"/>
+      <c r="D315" s="130"/>
       <c r="AJ315" t="str">
         <f>TRIM(MID(SUBSTITUTE($F315, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ315)-1)*100+1, 100))</f>
         <v/>
@@ -41335,8 +41345,8 @@
         <v>45972</v>
       </c>
       <c r="B316" s="2"/>
-      <c r="C316" s="143"/>
-      <c r="D316" s="141"/>
+      <c r="C316" s="132"/>
+      <c r="D316" s="130"/>
       <c r="AJ316" t="str">
         <f>TRIM(MID(SUBSTITUTE($F316, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ316)-1)*100+1, 100))</f>
         <v/>
@@ -41411,8 +41421,8 @@
         <v>45973</v>
       </c>
       <c r="B317" s="2"/>
-      <c r="C317" s="143"/>
-      <c r="D317" s="141"/>
+      <c r="C317" s="132"/>
+      <c r="D317" s="130"/>
       <c r="AJ317" t="str">
         <f>TRIM(MID(SUBSTITUTE($F317, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ317)-1)*100+1, 100))</f>
         <v/>
@@ -41487,8 +41497,8 @@
         <v>45974</v>
       </c>
       <c r="B318" s="2"/>
-      <c r="C318" s="143"/>
-      <c r="D318" s="141"/>
+      <c r="C318" s="132"/>
+      <c r="D318" s="130"/>
       <c r="AJ318" t="str">
         <f>TRIM(MID(SUBSTITUTE($F318, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ318)-1)*100+1, 100))</f>
         <v/>
@@ -41563,8 +41573,8 @@
         <v>45975</v>
       </c>
       <c r="B319" s="2"/>
-      <c r="C319" s="143"/>
-      <c r="D319" s="141"/>
+      <c r="C319" s="132"/>
+      <c r="D319" s="130"/>
       <c r="AJ319" t="str">
         <f>TRIM(MID(SUBSTITUTE($F319, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ319)-1)*100+1, 100))</f>
         <v/>
@@ -41639,8 +41649,8 @@
         <v>45976</v>
       </c>
       <c r="B320" s="2"/>
-      <c r="C320" s="143"/>
-      <c r="D320" s="141"/>
+      <c r="C320" s="132"/>
+      <c r="D320" s="130"/>
       <c r="AJ320" t="str">
         <f>TRIM(MID(SUBSTITUTE($F320, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ320)-1)*100+1, 100))</f>
         <v/>
@@ -41715,8 +41725,8 @@
         <v>45977</v>
       </c>
       <c r="B321" s="2"/>
-      <c r="C321" s="143"/>
-      <c r="D321" s="141"/>
+      <c r="C321" s="132"/>
+      <c r="D321" s="130"/>
       <c r="AJ321" t="str">
         <f>TRIM(MID(SUBSTITUTE($F321, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ321)-1)*100+1, 100))</f>
         <v/>
@@ -41791,8 +41801,8 @@
         <v>45978</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="143"/>
-      <c r="D322" s="141"/>
+      <c r="C322" s="132"/>
+      <c r="D322" s="130"/>
       <c r="AJ322" t="str">
         <f>TRIM(MID(SUBSTITUTE($F322, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ322)-1)*100+1, 100))</f>
         <v/>
@@ -41867,8 +41877,8 @@
         <v>45979</v>
       </c>
       <c r="B323" s="2"/>
-      <c r="C323" s="143"/>
-      <c r="D323" s="141"/>
+      <c r="C323" s="132"/>
+      <c r="D323" s="130"/>
       <c r="AJ323" t="str">
         <f>TRIM(MID(SUBSTITUTE($F323, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ323)-1)*100+1, 100))</f>
         <v/>
@@ -41943,8 +41953,8 @@
         <v>45980</v>
       </c>
       <c r="B324" s="2"/>
-      <c r="C324" s="143"/>
-      <c r="D324" s="141"/>
+      <c r="C324" s="132"/>
+      <c r="D324" s="130"/>
       <c r="AJ324" t="str">
         <f>TRIM(MID(SUBSTITUTE($F324, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ324)-1)*100+1, 100))</f>
         <v/>
@@ -42019,8 +42029,8 @@
         <v>45981</v>
       </c>
       <c r="B325" s="2"/>
-      <c r="C325" s="143"/>
-      <c r="D325" s="141"/>
+      <c r="C325" s="132"/>
+      <c r="D325" s="130"/>
       <c r="AJ325" t="str">
         <f>TRIM(MID(SUBSTITUTE($F325, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ325)-1)*100+1, 100))</f>
         <v/>
@@ -42095,8 +42105,8 @@
         <v>45982</v>
       </c>
       <c r="B326" s="2"/>
-      <c r="C326" s="143"/>
-      <c r="D326" s="141"/>
+      <c r="C326" s="132"/>
+      <c r="D326" s="130"/>
       <c r="AJ326" t="str">
         <f>TRIM(MID(SUBSTITUTE($F326, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ326)-1)*100+1, 100))</f>
         <v/>
@@ -42171,8 +42181,8 @@
         <v>45983</v>
       </c>
       <c r="B327" s="2"/>
-      <c r="C327" s="143"/>
-      <c r="D327" s="141"/>
+      <c r="C327" s="132"/>
+      <c r="D327" s="130"/>
       <c r="AJ327" t="str">
         <f>TRIM(MID(SUBSTITUTE($F327, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ327)-1)*100+1, 100))</f>
         <v/>
@@ -42247,8 +42257,8 @@
         <v>45984</v>
       </c>
       <c r="B328" s="2"/>
-      <c r="C328" s="143"/>
-      <c r="D328" s="141"/>
+      <c r="C328" s="132"/>
+      <c r="D328" s="130"/>
       <c r="AJ328" t="str">
         <f>TRIM(MID(SUBSTITUTE($F328, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ328)-1)*100+1, 100))</f>
         <v/>
@@ -42323,8 +42333,8 @@
         <v>45985</v>
       </c>
       <c r="B329" s="2"/>
-      <c r="C329" s="143"/>
-      <c r="D329" s="141"/>
+      <c r="C329" s="132"/>
+      <c r="D329" s="130"/>
       <c r="AJ329" t="str">
         <f>TRIM(MID(SUBSTITUTE($F329, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ329)-1)*100+1, 100))</f>
         <v/>
@@ -42399,8 +42409,8 @@
         <v>45986</v>
       </c>
       <c r="B330" s="2"/>
-      <c r="C330" s="143"/>
-      <c r="D330" s="141"/>
+      <c r="C330" s="132"/>
+      <c r="D330" s="130"/>
       <c r="AJ330" t="str">
         <f>TRIM(MID(SUBSTITUTE($F330, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ330)-1)*100+1, 100))</f>
         <v/>
@@ -42475,8 +42485,8 @@
         <v>45987</v>
       </c>
       <c r="B331" s="2"/>
-      <c r="C331" s="143"/>
-      <c r="D331" s="141"/>
+      <c r="C331" s="132"/>
+      <c r="D331" s="130"/>
       <c r="AJ331" t="str">
         <f>TRIM(MID(SUBSTITUTE($F331, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ331)-1)*100+1, 100))</f>
         <v/>
@@ -42551,8 +42561,8 @@
         <v>45988</v>
       </c>
       <c r="B332" s="2"/>
-      <c r="C332" s="143"/>
-      <c r="D332" s="141"/>
+      <c r="C332" s="132"/>
+      <c r="D332" s="130"/>
       <c r="AJ332" t="str">
         <f>TRIM(MID(SUBSTITUTE($F332, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ332)-1)*100+1, 100))</f>
         <v/>
@@ -42627,8 +42637,8 @@
         <v>45989</v>
       </c>
       <c r="B333" s="2"/>
-      <c r="C333" s="143"/>
-      <c r="D333" s="141"/>
+      <c r="C333" s="132"/>
+      <c r="D333" s="130"/>
       <c r="AJ333" t="str">
         <f>TRIM(MID(SUBSTITUTE($F333, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ333)-1)*100+1, 100))</f>
         <v/>
@@ -42703,8 +42713,8 @@
         <v>45990</v>
       </c>
       <c r="B334" s="2"/>
-      <c r="C334" s="143"/>
-      <c r="D334" s="141"/>
+      <c r="C334" s="132"/>
+      <c r="D334" s="130"/>
       <c r="AJ334" t="str">
         <f>TRIM(MID(SUBSTITUTE($F334, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ334)-1)*100+1, 100))</f>
         <v/>
@@ -42779,8 +42789,8 @@
         <v>45991</v>
       </c>
       <c r="B335" s="2"/>
-      <c r="C335" s="143"/>
-      <c r="D335" s="141"/>
+      <c r="C335" s="132"/>
+      <c r="D335" s="130"/>
       <c r="AJ335" t="str">
         <f>TRIM(MID(SUBSTITUTE($F335, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ335)-1)*100+1, 100))</f>
         <v/>
@@ -42855,8 +42865,8 @@
         <v>45992</v>
       </c>
       <c r="B336" s="2"/>
-      <c r="C336" s="143"/>
-      <c r="D336" s="141"/>
+      <c r="C336" s="132"/>
+      <c r="D336" s="130"/>
       <c r="AJ336" t="str">
         <f>TRIM(MID(SUBSTITUTE($F336, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ336)-1)*100+1, 100))</f>
         <v/>
@@ -42931,8 +42941,8 @@
         <v>45993</v>
       </c>
       <c r="B337" s="2"/>
-      <c r="C337" s="143"/>
-      <c r="D337" s="141"/>
+      <c r="C337" s="132"/>
+      <c r="D337" s="130"/>
       <c r="AJ337" t="str">
         <f>TRIM(MID(SUBSTITUTE($F337, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ337)-1)*100+1, 100))</f>
         <v/>
@@ -43007,8 +43017,8 @@
         <v>45994</v>
       </c>
       <c r="B338" s="2"/>
-      <c r="C338" s="143"/>
-      <c r="D338" s="141"/>
+      <c r="C338" s="132"/>
+      <c r="D338" s="130"/>
       <c r="AJ338" t="str">
         <f>TRIM(MID(SUBSTITUTE($F338, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ338)-1)*100+1, 100))</f>
         <v/>
@@ -43083,8 +43093,8 @@
         <v>45995</v>
       </c>
       <c r="B339" s="2"/>
-      <c r="C339" s="143"/>
-      <c r="D339" s="141"/>
+      <c r="C339" s="132"/>
+      <c r="D339" s="130"/>
       <c r="AJ339" t="str">
         <f>TRIM(MID(SUBSTITUTE($F339, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ339)-1)*100+1, 100))</f>
         <v/>
@@ -43159,8 +43169,8 @@
         <v>45996</v>
       </c>
       <c r="B340" s="2"/>
-      <c r="C340" s="143"/>
-      <c r="D340" s="141"/>
+      <c r="C340" s="132"/>
+      <c r="D340" s="130"/>
       <c r="AJ340" t="str">
         <f>TRIM(MID(SUBSTITUTE($F340, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ340)-1)*100+1, 100))</f>
         <v/>
@@ -43235,8 +43245,8 @@
         <v>45997</v>
       </c>
       <c r="B341" s="2"/>
-      <c r="C341" s="143"/>
-      <c r="D341" s="141"/>
+      <c r="C341" s="132"/>
+      <c r="D341" s="130"/>
       <c r="AJ341" t="str">
         <f>TRIM(MID(SUBSTITUTE($F341, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ341)-1)*100+1, 100))</f>
         <v/>
@@ -43311,8 +43321,8 @@
         <v>45998</v>
       </c>
       <c r="B342" s="2"/>
-      <c r="C342" s="143"/>
-      <c r="D342" s="141"/>
+      <c r="C342" s="132"/>
+      <c r="D342" s="130"/>
       <c r="AJ342" t="str">
         <f>TRIM(MID(SUBSTITUTE($F342, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ342)-1)*100+1, 100))</f>
         <v/>
@@ -43387,8 +43397,8 @@
         <v>45999</v>
       </c>
       <c r="B343" s="2"/>
-      <c r="C343" s="143"/>
-      <c r="D343" s="141"/>
+      <c r="C343" s="132"/>
+      <c r="D343" s="130"/>
       <c r="AJ343" t="str">
         <f>TRIM(MID(SUBSTITUTE($F343, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ343)-1)*100+1, 100))</f>
         <v/>
@@ -43463,8 +43473,8 @@
         <v>46000</v>
       </c>
       <c r="B344" s="2"/>
-      <c r="C344" s="143"/>
-      <c r="D344" s="141"/>
+      <c r="C344" s="132"/>
+      <c r="D344" s="130"/>
       <c r="AJ344" t="str">
         <f>TRIM(MID(SUBSTITUTE($F344, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ344)-1)*100+1, 100))</f>
         <v/>
@@ -43539,8 +43549,8 @@
         <v>46001</v>
       </c>
       <c r="B345" s="2"/>
-      <c r="C345" s="143"/>
-      <c r="D345" s="141"/>
+      <c r="C345" s="132"/>
+      <c r="D345" s="130"/>
       <c r="AJ345" t="str">
         <f>TRIM(MID(SUBSTITUTE($F345, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ345)-1)*100+1, 100))</f>
         <v/>
@@ -43615,8 +43625,8 @@
         <v>46002</v>
       </c>
       <c r="B346" s="2"/>
-      <c r="C346" s="143"/>
-      <c r="D346" s="141"/>
+      <c r="C346" s="132"/>
+      <c r="D346" s="130"/>
       <c r="AJ346" t="str">
         <f>TRIM(MID(SUBSTITUTE($F346, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ346)-1)*100+1, 100))</f>
         <v/>
@@ -43691,8 +43701,8 @@
         <v>46003</v>
       </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="143"/>
-      <c r="D347" s="141"/>
+      <c r="C347" s="132"/>
+      <c r="D347" s="130"/>
       <c r="AJ347" t="str">
         <f>TRIM(MID(SUBSTITUTE($F347, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ347)-1)*100+1, 100))</f>
         <v/>
@@ -43767,8 +43777,8 @@
         <v>46004</v>
       </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="143"/>
-      <c r="D348" s="141"/>
+      <c r="C348" s="132"/>
+      <c r="D348" s="130"/>
       <c r="AJ348" t="str">
         <f>TRIM(MID(SUBSTITUTE($F348, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ348)-1)*100+1, 100))</f>
         <v/>
@@ -43843,8 +43853,8 @@
         <v>46005</v>
       </c>
       <c r="B349" s="2"/>
-      <c r="C349" s="143"/>
-      <c r="D349" s="141"/>
+      <c r="C349" s="132"/>
+      <c r="D349" s="130"/>
       <c r="AJ349" t="str">
         <f>TRIM(MID(SUBSTITUTE($F349, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ349)-1)*100+1, 100))</f>
         <v/>
@@ -43919,8 +43929,8 @@
         <v>46006</v>
       </c>
       <c r="B350" s="2"/>
-      <c r="C350" s="143"/>
-      <c r="D350" s="141"/>
+      <c r="C350" s="132"/>
+      <c r="D350" s="130"/>
       <c r="AJ350" t="str">
         <f>TRIM(MID(SUBSTITUTE($F350, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ350)-1)*100+1, 100))</f>
         <v/>
@@ -43995,8 +44005,8 @@
         <v>46007</v>
       </c>
       <c r="B351" s="2"/>
-      <c r="C351" s="143"/>
-      <c r="D351" s="141"/>
+      <c r="C351" s="132"/>
+      <c r="D351" s="130"/>
       <c r="AJ351" t="str">
         <f>TRIM(MID(SUBSTITUTE($F351, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ351)-1)*100+1, 100))</f>
         <v/>
@@ -44071,8 +44081,8 @@
         <v>46008</v>
       </c>
       <c r="B352" s="2"/>
-      <c r="C352" s="143"/>
-      <c r="D352" s="141"/>
+      <c r="C352" s="132"/>
+      <c r="D352" s="130"/>
       <c r="AJ352" t="str">
         <f>TRIM(MID(SUBSTITUTE($F352, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ352)-1)*100+1, 100))</f>
         <v/>
@@ -44147,8 +44157,8 @@
         <v>46009</v>
       </c>
       <c r="B353" s="2"/>
-      <c r="C353" s="143"/>
-      <c r="D353" s="141"/>
+      <c r="C353" s="132"/>
+      <c r="D353" s="130"/>
       <c r="AJ353" t="str">
         <f>TRIM(MID(SUBSTITUTE($F353, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ353)-1)*100+1, 100))</f>
         <v/>
@@ -44223,8 +44233,8 @@
         <v>46010</v>
       </c>
       <c r="B354" s="2"/>
-      <c r="C354" s="143"/>
-      <c r="D354" s="141"/>
+      <c r="C354" s="132"/>
+      <c r="D354" s="130"/>
       <c r="AJ354" t="str">
         <f>TRIM(MID(SUBSTITUTE($F354, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ354)-1)*100+1, 100))</f>
         <v/>
@@ -44299,8 +44309,8 @@
         <v>46011</v>
       </c>
       <c r="B355" s="2"/>
-      <c r="C355" s="143"/>
-      <c r="D355" s="141"/>
+      <c r="C355" s="132"/>
+      <c r="D355" s="130"/>
       <c r="AJ355" t="str">
         <f>TRIM(MID(SUBSTITUTE($F355, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ355)-1)*100+1, 100))</f>
         <v/>
@@ -44375,8 +44385,8 @@
         <v>46012</v>
       </c>
       <c r="B356" s="2"/>
-      <c r="C356" s="143"/>
-      <c r="D356" s="141"/>
+      <c r="C356" s="132"/>
+      <c r="D356" s="130"/>
       <c r="AJ356" t="str">
         <f>TRIM(MID(SUBSTITUTE($F356, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ356)-1)*100+1, 100))</f>
         <v/>
@@ -44451,8 +44461,8 @@
         <v>46013</v>
       </c>
       <c r="B357" s="2"/>
-      <c r="C357" s="143"/>
-      <c r="D357" s="141"/>
+      <c r="C357" s="132"/>
+      <c r="D357" s="130"/>
       <c r="AJ357" t="str">
         <f>TRIM(MID(SUBSTITUTE($F357, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ357)-1)*100+1, 100))</f>
         <v/>
@@ -44527,8 +44537,8 @@
         <v>46014</v>
       </c>
       <c r="B358" s="2"/>
-      <c r="C358" s="143"/>
-      <c r="D358" s="141"/>
+      <c r="C358" s="132"/>
+      <c r="D358" s="130"/>
       <c r="AJ358" t="str">
         <f>TRIM(MID(SUBSTITUTE($F358, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ358)-1)*100+1, 100))</f>
         <v/>
@@ -44603,8 +44613,8 @@
         <v>46015</v>
       </c>
       <c r="B359" s="2"/>
-      <c r="C359" s="143"/>
-      <c r="D359" s="141"/>
+      <c r="C359" s="132"/>
+      <c r="D359" s="130"/>
       <c r="AJ359" t="str">
         <f>TRIM(MID(SUBSTITUTE($F359, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ359)-1)*100+1, 100))</f>
         <v/>
@@ -44679,8 +44689,8 @@
         <v>46016</v>
       </c>
       <c r="B360" s="2"/>
-      <c r="C360" s="143"/>
-      <c r="D360" s="141"/>
+      <c r="C360" s="132"/>
+      <c r="D360" s="130"/>
       <c r="AJ360" t="str">
         <f>TRIM(MID(SUBSTITUTE($F360, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ360)-1)*100+1, 100))</f>
         <v/>
@@ -44755,8 +44765,8 @@
         <v>46017</v>
       </c>
       <c r="B361" s="2"/>
-      <c r="C361" s="143"/>
-      <c r="D361" s="141"/>
+      <c r="C361" s="132"/>
+      <c r="D361" s="130"/>
       <c r="AJ361" t="str">
         <f>TRIM(MID(SUBSTITUTE($F361, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ361)-1)*100+1, 100))</f>
         <v/>
@@ -44831,8 +44841,8 @@
         <v>46018</v>
       </c>
       <c r="B362" s="2"/>
-      <c r="C362" s="143"/>
-      <c r="D362" s="141"/>
+      <c r="C362" s="132"/>
+      <c r="D362" s="130"/>
       <c r="AJ362" t="str">
         <f>TRIM(MID(SUBSTITUTE($F362, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ362)-1)*100+1, 100))</f>
         <v/>
@@ -44907,8 +44917,8 @@
         <v>46019</v>
       </c>
       <c r="B363" s="2"/>
-      <c r="C363" s="143"/>
-      <c r="D363" s="141"/>
+      <c r="C363" s="132"/>
+      <c r="D363" s="130"/>
       <c r="AJ363" t="str">
         <f>TRIM(MID(SUBSTITUTE($F363, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ363)-1)*100+1, 100))</f>
         <v/>
@@ -44983,8 +44993,8 @@
         <v>46020</v>
       </c>
       <c r="B364" s="2"/>
-      <c r="C364" s="143"/>
-      <c r="D364" s="141"/>
+      <c r="C364" s="132"/>
+      <c r="D364" s="130"/>
       <c r="AJ364" t="str">
         <f>TRIM(MID(SUBSTITUTE($F364, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ364)-1)*100+1, 100))</f>
         <v/>
@@ -45059,8 +45069,8 @@
         <v>46021</v>
       </c>
       <c r="B365" s="2"/>
-      <c r="C365" s="143"/>
-      <c r="D365" s="141"/>
+      <c r="C365" s="132"/>
+      <c r="D365" s="130"/>
       <c r="AJ365" t="str">
         <f>TRIM(MID(SUBSTITUTE($F365, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ365)-1)*100+1, 100))</f>
         <v/>
@@ -45135,8 +45145,8 @@
         <v>46022</v>
       </c>
       <c r="B366" s="2"/>
-      <c r="C366" s="143"/>
-      <c r="D366" s="141"/>
+      <c r="C366" s="132"/>
+      <c r="D366" s="130"/>
       <c r="AJ366" t="str">
         <f>TRIM(MID(SUBSTITUTE($F366, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ366)-1)*100+1, 100))</f>
         <v/>
@@ -45213,6 +45223,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N5:N16"/>
+    <mergeCell ref="H1:J2"/>
     <mergeCell ref="D2:D366"/>
     <mergeCell ref="C33:C60"/>
     <mergeCell ref="C61:C91"/>
@@ -45226,11 +45241,6 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N5:N16"/>
-    <mergeCell ref="H1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B367">
@@ -45245,8 +45255,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2 C33 C61 C92">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="C2:C366">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45257,8 +45267,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C366">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="C33 C2 C61 C92">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45365,6 +45375,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AM82:AM84">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AN2:AN32">
     <cfRule type="colorScale" priority="7">
       <colorScale>
@@ -45373,18 +45395,6 @@
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM82:AM84">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -45758,11 +45768,11 @@
       <c r="B1" s="2">
         <v>6</v>
       </c>
-      <c r="C1" s="143">
+      <c r="C1" s="132">
         <f>AVERAGE(B1:B31)</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="D1" s="150">
+      <c r="D1" s="155">
         <f>AVERAGE(B1:B366)</f>
         <v>5.1967213114754101</v>
       </c>
@@ -45774,8 +45784,8 @@
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="150"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="155"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -45784,8 +45794,8 @@
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="150"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="155"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -45794,8 +45804,8 @@
       <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="150"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="155"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -45804,8 +45814,8 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="150"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="155"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -45814,8 +45824,8 @@
       <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="150"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="155"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -45824,8 +45834,8 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="150"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="155"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -45834,8 +45844,8 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="150"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="155"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -45844,8 +45854,8 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="150"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="155"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -45854,8 +45864,8 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="150"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="155"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -45864,8 +45874,8 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="150"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="155"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -45874,8 +45884,8 @@
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="150"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="155"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -45884,8 +45894,8 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="150"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="155"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -45894,8 +45904,8 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="150"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="155"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -45904,8 +45914,8 @@
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="150"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="155"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -45914,8 +45924,8 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="150"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="155"/>
     </row>
     <row r="17" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -45924,8 +45934,8 @@
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="150"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="155"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
         <v>24</v>
@@ -45941,8 +45951,8 @@
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="150"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="155"/>
       <c r="F18" s="24" t="s">
         <v>0</v>
       </c>
@@ -45992,8 +46002,8 @@
       <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="150"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="155"/>
       <c r="F19" s="7" t="s">
         <v>1</v>
       </c>
@@ -46010,7 +46020,7 @@
         <f>C1</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="L19" s="156">
+      <c r="L19" s="153">
         <f>AVERAGE(K19:K30)</f>
         <v>5.1920096403411202</v>
       </c>
@@ -46038,7 +46048,7 @@
         <f>COUNTIF(B1:B31,G23)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="154">
+      <c r="S19" s="151">
         <f>AVERAGE(K19:K22)</f>
         <v>4.9297923618835746</v>
       </c>
@@ -46050,8 +46060,8 @@
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="150"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="155"/>
       <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
@@ -46068,7 +46078,7 @@
         <f>C32</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="L20" s="156"/>
+      <c r="L20" s="153"/>
       <c r="M20" s="21">
         <f>COUNTIF(B32:B60,G18)</f>
         <v>1</v>
@@ -46093,7 +46103,7 @@
         <f>COUNTIF(B32:B60,G23)</f>
         <v>2</v>
       </c>
-      <c r="S20" s="143"/>
+      <c r="S20" s="132"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -46102,8 +46112,8 @@
       <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="150"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="155"/>
       <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
@@ -46120,7 +46130,7 @@
         <f>C61</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="L21" s="156"/>
+      <c r="L21" s="153"/>
       <c r="M21" s="21">
         <f>COUNTIF(B61:B91,G18)</f>
         <v>0</v>
@@ -46145,7 +46155,7 @@
         <f>COUNTIF(B61:B91,G23)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="143"/>
+      <c r="S21" s="132"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -46154,8 +46164,8 @@
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="150"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="155"/>
       <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
@@ -46172,7 +46182,7 @@
         <f>C92</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="L22" s="156"/>
+      <c r="L22" s="153"/>
       <c r="M22" s="21">
         <f>COUNTIF(B92:B121,G18)</f>
         <v>0</v>
@@ -46197,7 +46207,7 @@
         <f>COUNTIF(B92:B121,G23)</f>
         <v>2</v>
       </c>
-      <c r="S22" s="143"/>
+      <c r="S22" s="132"/>
     </row>
     <row r="23" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
@@ -46206,8 +46216,8 @@
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="150"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="155"/>
       <c r="F23" s="14" t="s">
         <v>5</v>
       </c>
@@ -46224,7 +46234,7 @@
         <f>C122</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="L23" s="156"/>
+      <c r="L23" s="153"/>
       <c r="M23" s="21">
         <f>COUNTIF(B122:B152,G18)</f>
         <v>1</v>
@@ -46249,7 +46259,7 @@
         <f>COUNTIF(B122:B152,G23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="154">
+      <c r="S23" s="151">
         <f>AVERAGE(K23:K26)</f>
         <v>5.365591397849462</v>
       </c>
@@ -46261,12 +46271,12 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="150"/>
-      <c r="F24" s="128" t="s">
+      <c r="C24" s="132"/>
+      <c r="D24" s="155"/>
+      <c r="F24" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="129"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="17">
         <f>SUM(H18:H23)</f>
         <v>366</v>
@@ -46278,7 +46288,7 @@
         <f>C153</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="L24" s="156"/>
+      <c r="L24" s="153"/>
       <c r="M24" s="21">
         <f>COUNTIF(B153:B182,G18)</f>
         <v>3</v>
@@ -46303,7 +46313,7 @@
         <f>COUNTIF(B153:B182,G23)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="143"/>
+      <c r="S24" s="132"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -46312,8 +46322,8 @@
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="150"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="155"/>
       <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
@@ -46321,7 +46331,7 @@
         <f>C183</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="L25" s="156"/>
+      <c r="L25" s="153"/>
       <c r="M25" s="21">
         <f>COUNTIF(B183:B213,G18)</f>
         <v>2</v>
@@ -46346,7 +46356,7 @@
         <f>COUNTIF(B183:B213,G23)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="143"/>
+      <c r="S25" s="132"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -46355,8 +46365,8 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="150"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="155"/>
       <c r="J26" s="10" t="s">
         <v>15</v>
       </c>
@@ -46364,7 +46374,7 @@
         <f>C214</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="L26" s="156"/>
+      <c r="L26" s="153"/>
       <c r="M26" s="21">
         <f>COUNTIF(B214:B244,G18)</f>
         <v>0</v>
@@ -46389,7 +46399,7 @@
         <f>COUNTIF(B214:B244,G23)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="143"/>
+      <c r="S26" s="132"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -46398,13 +46408,13 @@
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="150"/>
-      <c r="F27" s="153" t="s">
+      <c r="C27" s="132"/>
+      <c r="D27" s="155"/>
+      <c r="F27" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
       <c r="J27" s="10" t="s">
         <v>16</v>
       </c>
@@ -46412,7 +46422,7 @@
         <f>C245</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="L27" s="156"/>
+      <c r="L27" s="153"/>
       <c r="M27" s="21">
         <f>COUNTIF(B245:B274,G18)</f>
         <v>1</v>
@@ -46437,7 +46447,7 @@
         <f>COUNTIF(B245:B274,G23)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="154">
+      <c r="S27" s="151">
         <f>AVERAGE(K27:K30)</f>
         <v>5.2806451612903231</v>
       </c>
@@ -46449,13 +46459,13 @@
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="150"/>
-      <c r="F28" s="155">
+      <c r="C28" s="132"/>
+      <c r="D28" s="155"/>
+      <c r="F28" s="152">
         <v>2024</v>
       </c>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
       <c r="J28" s="10" t="s">
         <v>17</v>
       </c>
@@ -46463,7 +46473,7 @@
         <f>C275</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="L28" s="156"/>
+      <c r="L28" s="153"/>
       <c r="M28" s="21">
         <f>COUNTIF(B275:B305,G18)</f>
         <v>1</v>
@@ -46488,7 +46498,7 @@
         <f>COUNTIF(B275:B305,G23)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="143"/>
+      <c r="S28" s="132"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -46497,8 +46507,8 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="150"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="155"/>
       <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
@@ -46506,7 +46516,7 @@
         <f>C306</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="L29" s="156"/>
+      <c r="L29" s="153"/>
       <c r="M29" s="21">
         <f>COUNTIF(B306:B335,G18)</f>
         <v>0</v>
@@ -46531,7 +46541,7 @@
         <f>COUNTIF(B306:B335,G23)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="143"/>
+      <c r="S29" s="132"/>
     </row>
     <row r="30" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
@@ -46540,8 +46550,8 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="150"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="155"/>
       <c r="J30" s="18" t="s">
         <v>19</v>
       </c>
@@ -46549,7 +46559,7 @@
         <f>C336</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="L30" s="157"/>
+      <c r="L30" s="154"/>
       <c r="M30" s="21">
         <f>COUNTIF(B336:B366,G18)</f>
         <v>1</v>
@@ -46574,7 +46584,7 @@
         <f>COUNTIF(B336:B366,G23)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="143"/>
+      <c r="S30" s="132"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -46583,8 +46593,8 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="150"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="155"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -46593,11 +46603,11 @@
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="143">
+      <c r="C32" s="132">
         <f>AVERAGE(B32:B60)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="D32" s="150"/>
+      <c r="D32" s="155"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -46606,8 +46616,8 @@
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="143"/>
-      <c r="D33" s="150"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="155"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -46616,8 +46626,8 @@
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="150"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="155"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -46626,8 +46636,8 @@
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="150"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="155"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -46636,8 +46646,8 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="150"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="155"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -46646,8 +46656,8 @@
       <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="150"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="155"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
@@ -46656,8 +46666,8 @@
       <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="150"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="155"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -46666,8 +46676,8 @@
       <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="143"/>
-      <c r="D39" s="150"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="155"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -46676,8 +46686,8 @@
       <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="150"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="155"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -46686,8 +46696,8 @@
       <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="143"/>
-      <c r="D41" s="150"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="155"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -46696,8 +46706,8 @@
       <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="150"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="155"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -46706,8 +46716,8 @@
       <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="150"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="155"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -46716,8 +46726,8 @@
       <c r="B44" s="2">
         <v>6</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="150"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="155"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
@@ -46726,8 +46736,8 @@
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="143"/>
-      <c r="D45" s="150"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="155"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -46736,8 +46746,8 @@
       <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="150"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="155"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -46746,8 +46756,8 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="143"/>
-      <c r="D47" s="150"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="155"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -46756,8 +46766,8 @@
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="150"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="155"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -46766,8 +46776,8 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="150"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="155"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -46776,8 +46786,8 @@
       <c r="B50" s="2">
         <v>4</v>
       </c>
-      <c r="C50" s="143"/>
-      <c r="D50" s="150"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="155"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -46786,8 +46796,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="143"/>
-      <c r="D51" s="150"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="155"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -46796,8 +46806,8 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="143"/>
-      <c r="D52" s="150"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="155"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -46806,8 +46816,8 @@
       <c r="B53" s="2">
         <v>2</v>
       </c>
-      <c r="C53" s="143"/>
-      <c r="D53" s="150"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="155"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -46816,8 +46826,8 @@
       <c r="B54" s="2">
         <v>4</v>
       </c>
-      <c r="C54" s="143"/>
-      <c r="D54" s="150"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="155"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -46826,8 +46836,8 @@
       <c r="B55" s="2">
         <v>4</v>
       </c>
-      <c r="C55" s="143"/>
-      <c r="D55" s="150"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="155"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -46836,8 +46846,8 @@
       <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="143"/>
-      <c r="D56" s="150"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="155"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -46846,8 +46856,8 @@
       <c r="B57" s="2">
         <v>4</v>
       </c>
-      <c r="C57" s="143"/>
-      <c r="D57" s="150"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="155"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -46856,8 +46866,8 @@
       <c r="B58" s="2">
         <v>4</v>
       </c>
-      <c r="C58" s="143"/>
-      <c r="D58" s="150"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="155"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -46866,8 +46876,8 @@
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="143"/>
-      <c r="D59" s="150"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="155"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -46876,8 +46886,8 @@
       <c r="B60" s="2">
         <v>6</v>
       </c>
-      <c r="C60" s="143"/>
-      <c r="D60" s="150"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="155"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -46886,11 +46896,11 @@
       <c r="B61" s="2">
         <v>6</v>
       </c>
-      <c r="C61" s="143">
+      <c r="C61" s="132">
         <f>AVERAGE(B61:B91)</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="D61" s="150"/>
+      <c r="D61" s="155"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
@@ -46899,8 +46909,8 @@
       <c r="B62" s="2">
         <v>6</v>
       </c>
-      <c r="C62" s="143"/>
-      <c r="D62" s="150"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="155"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -46909,8 +46919,8 @@
       <c r="B63" s="2">
         <v>8</v>
       </c>
-      <c r="C63" s="143"/>
-      <c r="D63" s="150"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="155"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
@@ -46919,8 +46929,8 @@
       <c r="B64" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="143"/>
-      <c r="D64" s="150"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="155"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
@@ -46929,8 +46939,8 @@
       <c r="B65" s="2">
         <v>4</v>
       </c>
-      <c r="C65" s="143"/>
-      <c r="D65" s="150"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="155"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -46939,8 +46949,8 @@
       <c r="B66" s="2">
         <v>4</v>
       </c>
-      <c r="C66" s="143"/>
-      <c r="D66" s="150"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="155"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -46949,8 +46959,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="143"/>
-      <c r="D67" s="150"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="155"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
@@ -46959,8 +46969,8 @@
       <c r="B68" s="2">
         <v>6</v>
       </c>
-      <c r="C68" s="143"/>
-      <c r="D68" s="150"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="155"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
@@ -46969,8 +46979,8 @@
       <c r="B69" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="143"/>
-      <c r="D69" s="150"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="155"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
@@ -46979,8 +46989,8 @@
       <c r="B70" s="2">
         <v>6</v>
       </c>
-      <c r="C70" s="143"/>
-      <c r="D70" s="150"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="155"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
@@ -46989,8 +46999,8 @@
       <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="143"/>
-      <c r="D71" s="150"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="155"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
@@ -46999,8 +47009,8 @@
       <c r="B72" s="2">
         <v>6</v>
       </c>
-      <c r="C72" s="143"/>
-      <c r="D72" s="150"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="155"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
@@ -47009,8 +47019,8 @@
       <c r="B73" s="2">
         <v>6</v>
       </c>
-      <c r="C73" s="143"/>
-      <c r="D73" s="150"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="155"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -47019,8 +47029,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="143"/>
-      <c r="D74" s="150"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="155"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -47029,8 +47039,8 @@
       <c r="B75" s="2">
         <v>6</v>
       </c>
-      <c r="C75" s="143"/>
-      <c r="D75" s="150"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="155"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -47039,8 +47049,8 @@
       <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C76" s="143"/>
-      <c r="D76" s="150"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="155"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
@@ -47049,8 +47059,8 @@
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="143"/>
-      <c r="D77" s="150"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="155"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -47059,8 +47069,8 @@
       <c r="B78" s="2">
         <v>6</v>
       </c>
-      <c r="C78" s="143"/>
-      <c r="D78" s="150"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="155"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
@@ -47069,8 +47079,8 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="143"/>
-      <c r="D79" s="150"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="155"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
@@ -47079,8 +47089,8 @@
       <c r="B80" s="2">
         <v>8</v>
       </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="150"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="155"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
@@ -47089,8 +47099,8 @@
       <c r="B81" s="2">
         <v>6</v>
       </c>
-      <c r="C81" s="143"/>
-      <c r="D81" s="150"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="155"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
@@ -47099,8 +47109,8 @@
       <c r="B82" s="2">
         <v>8</v>
       </c>
-      <c r="C82" s="143"/>
-      <c r="D82" s="150"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="155"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -47109,8 +47119,8 @@
       <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="C83" s="143"/>
-      <c r="D83" s="150"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="155"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
@@ -47119,8 +47129,8 @@
       <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="143"/>
-      <c r="D84" s="150"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="155"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -47129,8 +47139,8 @@
       <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C85" s="143"/>
-      <c r="D85" s="150"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="155"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -47139,8 +47149,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="143"/>
-      <c r="D86" s="150"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="155"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -47149,8 +47159,8 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
-      <c r="C87" s="143"/>
-      <c r="D87" s="150"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="155"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -47159,8 +47169,8 @@
       <c r="B88" s="2">
         <v>6</v>
       </c>
-      <c r="C88" s="143"/>
-      <c r="D88" s="150"/>
+      <c r="C88" s="132"/>
+      <c r="D88" s="155"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -47169,8 +47179,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="143"/>
-      <c r="D89" s="150"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="155"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -47179,8 +47189,8 @@
       <c r="B90" s="2">
         <v>6</v>
       </c>
-      <c r="C90" s="143"/>
-      <c r="D90" s="150"/>
+      <c r="C90" s="132"/>
+      <c r="D90" s="155"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -47189,8 +47199,8 @@
       <c r="B91" s="2">
         <v>6</v>
       </c>
-      <c r="C91" s="143"/>
-      <c r="D91" s="150"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="155"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -47199,11 +47209,11 @@
       <c r="B92" s="2">
         <v>4</v>
       </c>
-      <c r="C92" s="143">
+      <c r="C92" s="132">
         <f>AVERAGE(B92:B121)</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="D92" s="150"/>
+      <c r="D92" s="155"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -47212,8 +47222,8 @@
       <c r="B93" s="2">
         <v>4</v>
       </c>
-      <c r="C93" s="143"/>
-      <c r="D93" s="150"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="155"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -47222,8 +47232,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="143"/>
-      <c r="D94" s="150"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="155"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -47232,8 +47242,8 @@
       <c r="B95" s="2">
         <v>4</v>
       </c>
-      <c r="C95" s="143"/>
-      <c r="D95" s="150"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="155"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -47242,8 +47252,8 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96" s="143"/>
-      <c r="D96" s="150"/>
+      <c r="C96" s="132"/>
+      <c r="D96" s="155"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
@@ -47252,8 +47262,8 @@
       <c r="B97" s="2">
         <v>2</v>
       </c>
-      <c r="C97" s="143"/>
-      <c r="D97" s="150"/>
+      <c r="C97" s="132"/>
+      <c r="D97" s="155"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -47262,8 +47272,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="143"/>
-      <c r="D98" s="150"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="155"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -47272,8 +47282,8 @@
       <c r="B99" s="2">
         <v>4</v>
       </c>
-      <c r="C99" s="143"/>
-      <c r="D99" s="150"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="155"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
@@ -47282,8 +47292,8 @@
       <c r="B100" s="2">
         <v>6</v>
       </c>
-      <c r="C100" s="143"/>
-      <c r="D100" s="150"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="155"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -47292,8 +47302,8 @@
       <c r="B101" s="2">
         <v>2</v>
       </c>
-      <c r="C101" s="143"/>
-      <c r="D101" s="150"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="155"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
@@ -47302,8 +47312,8 @@
       <c r="B102" s="2">
         <v>0</v>
       </c>
-      <c r="C102" s="143"/>
-      <c r="D102" s="150"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="155"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
@@ -47312,8 +47322,8 @@
       <c r="B103" s="2">
         <v>6</v>
       </c>
-      <c r="C103" s="143"/>
-      <c r="D103" s="150"/>
+      <c r="C103" s="132"/>
+      <c r="D103" s="155"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
@@ -47322,8 +47332,8 @@
       <c r="B104" s="2">
         <v>6</v>
       </c>
-      <c r="C104" s="143"/>
-      <c r="D104" s="150"/>
+      <c r="C104" s="132"/>
+      <c r="D104" s="155"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
@@ -47332,8 +47342,8 @@
       <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="143"/>
-      <c r="D105" s="150"/>
+      <c r="C105" s="132"/>
+      <c r="D105" s="155"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
@@ -47342,8 +47352,8 @@
       <c r="B106" s="2">
         <v>6</v>
       </c>
-      <c r="C106" s="143"/>
-      <c r="D106" s="150"/>
+      <c r="C106" s="132"/>
+      <c r="D106" s="155"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
@@ -47352,8 +47362,8 @@
       <c r="B107" s="2">
         <v>4</v>
       </c>
-      <c r="C107" s="143"/>
-      <c r="D107" s="150"/>
+      <c r="C107" s="132"/>
+      <c r="D107" s="155"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
@@ -47362,8 +47372,8 @@
       <c r="B108" s="2">
         <v>8</v>
       </c>
-      <c r="C108" s="143"/>
-      <c r="D108" s="150"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="155"/>
       <c r="J108" s="3" t="s">
         <v>22</v>
       </c>
@@ -47375,8 +47385,8 @@
       <c r="B109" s="2">
         <v>6</v>
       </c>
-      <c r="C109" s="143"/>
-      <c r="D109" s="150"/>
+      <c r="C109" s="132"/>
+      <c r="D109" s="155"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
@@ -47385,8 +47395,8 @@
       <c r="B110" s="2">
         <v>6</v>
       </c>
-      <c r="C110" s="143"/>
-      <c r="D110" s="150"/>
+      <c r="C110" s="132"/>
+      <c r="D110" s="155"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
@@ -47395,8 +47405,8 @@
       <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C111" s="143"/>
-      <c r="D111" s="150"/>
+      <c r="C111" s="132"/>
+      <c r="D111" s="155"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
@@ -47405,8 +47415,8 @@
       <c r="B112" s="2">
         <v>6</v>
       </c>
-      <c r="C112" s="143"/>
-      <c r="D112" s="150"/>
+      <c r="C112" s="132"/>
+      <c r="D112" s="155"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
@@ -47415,8 +47425,8 @@
       <c r="B113" s="2">
         <v>6</v>
       </c>
-      <c r="C113" s="143"/>
-      <c r="D113" s="150"/>
+      <c r="C113" s="132"/>
+      <c r="D113" s="155"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
@@ -47425,8 +47435,8 @@
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" s="143"/>
-      <c r="D114" s="150"/>
+      <c r="C114" s="132"/>
+      <c r="D114" s="155"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
@@ -47435,8 +47445,8 @@
       <c r="B115" s="2">
         <v>6</v>
       </c>
-      <c r="C115" s="143"/>
-      <c r="D115" s="150"/>
+      <c r="C115" s="132"/>
+      <c r="D115" s="155"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
@@ -47445,8 +47455,8 @@
       <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="143"/>
-      <c r="D116" s="150"/>
+      <c r="C116" s="132"/>
+      <c r="D116" s="155"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
@@ -47455,8 +47465,8 @@
       <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C117" s="143"/>
-      <c r="D117" s="150"/>
+      <c r="C117" s="132"/>
+      <c r="D117" s="155"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
@@ -47465,8 +47475,8 @@
       <c r="B118" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="143"/>
-      <c r="D118" s="150"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="155"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
@@ -47475,8 +47485,8 @@
       <c r="B119" s="2">
         <v>4</v>
       </c>
-      <c r="C119" s="143"/>
-      <c r="D119" s="150"/>
+      <c r="C119" s="132"/>
+      <c r="D119" s="155"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
@@ -47485,8 +47495,8 @@
       <c r="B120" s="2">
         <v>6</v>
       </c>
-      <c r="C120" s="143"/>
-      <c r="D120" s="150"/>
+      <c r="C120" s="132"/>
+      <c r="D120" s="155"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
@@ -47495,8 +47505,8 @@
       <c r="B121" s="2">
         <v>6</v>
       </c>
-      <c r="C121" s="143"/>
-      <c r="D121" s="150"/>
+      <c r="C121" s="132"/>
+      <c r="D121" s="155"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
@@ -47505,11 +47515,11 @@
       <c r="B122" s="2">
         <v>8</v>
       </c>
-      <c r="C122" s="151">
+      <c r="C122" s="156">
         <f>AVERAGE(B122:B152)</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="D122" s="150"/>
+      <c r="D122" s="155"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
@@ -47518,8 +47528,8 @@
       <c r="B123" s="2">
         <v>6</v>
       </c>
-      <c r="C123" s="152"/>
-      <c r="D123" s="150"/>
+      <c r="C123" s="157"/>
+      <c r="D123" s="155"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
@@ -47528,8 +47538,8 @@
       <c r="B124" s="2">
         <v>6</v>
       </c>
-      <c r="C124" s="152"/>
-      <c r="D124" s="150"/>
+      <c r="C124" s="157"/>
+      <c r="D124" s="155"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
@@ -47538,8 +47548,8 @@
       <c r="B125" s="2">
         <v>10</v>
       </c>
-      <c r="C125" s="152"/>
-      <c r="D125" s="150"/>
+      <c r="C125" s="157"/>
+      <c r="D125" s="155"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
@@ -47548,8 +47558,8 @@
       <c r="B126" s="2">
         <v>6</v>
       </c>
-      <c r="C126" s="152"/>
-      <c r="D126" s="150"/>
+      <c r="C126" s="157"/>
+      <c r="D126" s="155"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
@@ -47558,8 +47568,8 @@
       <c r="B127" s="2">
         <v>4</v>
       </c>
-      <c r="C127" s="152"/>
-      <c r="D127" s="150"/>
+      <c r="C127" s="157"/>
+      <c r="D127" s="155"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
@@ -47568,8 +47578,8 @@
       <c r="B128" s="2">
         <v>6</v>
       </c>
-      <c r="C128" s="152"/>
-      <c r="D128" s="150"/>
+      <c r="C128" s="157"/>
+      <c r="D128" s="155"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
@@ -47578,8 +47588,8 @@
       <c r="B129" s="2">
         <v>6</v>
       </c>
-      <c r="C129" s="152"/>
-      <c r="D129" s="150"/>
+      <c r="C129" s="157"/>
+      <c r="D129" s="155"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
@@ -47588,8 +47598,8 @@
       <c r="B130" s="2">
         <v>6</v>
       </c>
-      <c r="C130" s="152"/>
-      <c r="D130" s="150"/>
+      <c r="C130" s="157"/>
+      <c r="D130" s="155"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
@@ -47598,8 +47608,8 @@
       <c r="B131" s="2">
         <v>8</v>
       </c>
-      <c r="C131" s="152"/>
-      <c r="D131" s="150"/>
+      <c r="C131" s="157"/>
+      <c r="D131" s="155"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
@@ -47608,8 +47618,8 @@
       <c r="B132" s="2">
         <v>8</v>
       </c>
-      <c r="C132" s="152"/>
-      <c r="D132" s="150"/>
+      <c r="C132" s="157"/>
+      <c r="D132" s="155"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
@@ -47618,8 +47628,8 @@
       <c r="B133" s="2">
         <v>6</v>
       </c>
-      <c r="C133" s="152"/>
-      <c r="D133" s="150"/>
+      <c r="C133" s="157"/>
+      <c r="D133" s="155"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
@@ -47628,8 +47638,8 @@
       <c r="B134" s="2">
         <v>6</v>
       </c>
-      <c r="C134" s="152"/>
-      <c r="D134" s="150"/>
+      <c r="C134" s="157"/>
+      <c r="D134" s="155"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
@@ -47638,8 +47648,8 @@
       <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="C135" s="152"/>
-      <c r="D135" s="150"/>
+      <c r="C135" s="157"/>
+      <c r="D135" s="155"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
@@ -47648,8 +47658,8 @@
       <c r="B136" s="2">
         <v>6</v>
       </c>
-      <c r="C136" s="152"/>
-      <c r="D136" s="150"/>
+      <c r="C136" s="157"/>
+      <c r="D136" s="155"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
@@ -47658,8 +47668,8 @@
       <c r="B137" s="2">
         <v>4</v>
       </c>
-      <c r="C137" s="152"/>
-      <c r="D137" s="150"/>
+      <c r="C137" s="157"/>
+      <c r="D137" s="155"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
@@ -47668,8 +47678,8 @@
       <c r="B138" s="2">
         <v>4</v>
       </c>
-      <c r="C138" s="152"/>
-      <c r="D138" s="150"/>
+      <c r="C138" s="157"/>
+      <c r="D138" s="155"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
@@ -47678,8 +47688,8 @@
       <c r="B139" s="2">
         <v>6</v>
       </c>
-      <c r="C139" s="152"/>
-      <c r="D139" s="150"/>
+      <c r="C139" s="157"/>
+      <c r="D139" s="155"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
@@ -47688,8 +47698,8 @@
       <c r="B140" s="2">
         <v>4</v>
       </c>
-      <c r="C140" s="152"/>
-      <c r="D140" s="150"/>
+      <c r="C140" s="157"/>
+      <c r="D140" s="155"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
@@ -47698,8 +47708,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="152"/>
-      <c r="D141" s="150"/>
+      <c r="C141" s="157"/>
+      <c r="D141" s="155"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
@@ -47708,8 +47718,8 @@
       <c r="B142" s="2">
         <v>6</v>
       </c>
-      <c r="C142" s="152"/>
-      <c r="D142" s="150"/>
+      <c r="C142" s="157"/>
+      <c r="D142" s="155"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
@@ -47718,8 +47728,8 @@
       <c r="B143" s="2">
         <v>6</v>
       </c>
-      <c r="C143" s="152"/>
-      <c r="D143" s="150"/>
+      <c r="C143" s="157"/>
+      <c r="D143" s="155"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
@@ -47728,8 +47738,8 @@
       <c r="B144" s="2">
         <v>8</v>
       </c>
-      <c r="C144" s="152"/>
-      <c r="D144" s="150"/>
+      <c r="C144" s="157"/>
+      <c r="D144" s="155"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
@@ -47738,8 +47748,8 @@
       <c r="B145" s="2">
         <v>8</v>
       </c>
-      <c r="C145" s="152"/>
-      <c r="D145" s="150"/>
+      <c r="C145" s="157"/>
+      <c r="D145" s="155"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
@@ -47748,8 +47758,8 @@
       <c r="B146" s="2">
         <v>8</v>
       </c>
-      <c r="C146" s="152"/>
-      <c r="D146" s="150"/>
+      <c r="C146" s="157"/>
+      <c r="D146" s="155"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
@@ -47758,8 +47768,8 @@
       <c r="B147" s="2">
         <v>6</v>
       </c>
-      <c r="C147" s="152"/>
-      <c r="D147" s="150"/>
+      <c r="C147" s="157"/>
+      <c r="D147" s="155"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
@@ -47768,8 +47778,8 @@
       <c r="B148" s="2">
         <v>4</v>
       </c>
-      <c r="C148" s="152"/>
-      <c r="D148" s="150"/>
+      <c r="C148" s="157"/>
+      <c r="D148" s="155"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
@@ -47778,8 +47788,8 @@
       <c r="B149" s="2">
         <v>6</v>
       </c>
-      <c r="C149" s="152"/>
-      <c r="D149" s="150"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="155"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
@@ -47788,8 +47798,8 @@
       <c r="B150" s="2">
         <v>6</v>
       </c>
-      <c r="C150" s="152"/>
-      <c r="D150" s="150"/>
+      <c r="C150" s="157"/>
+      <c r="D150" s="155"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
@@ -47798,8 +47808,8 @@
       <c r="B151" s="2">
         <v>6</v>
       </c>
-      <c r="C151" s="152"/>
-      <c r="D151" s="150"/>
+      <c r="C151" s="157"/>
+      <c r="D151" s="155"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
@@ -47808,8 +47818,8 @@
       <c r="B152" s="2">
         <v>6</v>
       </c>
-      <c r="C152" s="142"/>
-      <c r="D152" s="150"/>
+      <c r="C152" s="131"/>
+      <c r="D152" s="155"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
@@ -47818,11 +47828,11 @@
       <c r="B153" s="2">
         <v>6</v>
       </c>
-      <c r="C153" s="151">
+      <c r="C153" s="156">
         <f>AVERAGE(B153:B182)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D153" s="150"/>
+      <c r="D153" s="155"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
@@ -47831,8 +47841,8 @@
       <c r="B154" s="2">
         <v>6</v>
       </c>
-      <c r="C154" s="152"/>
-      <c r="D154" s="150"/>
+      <c r="C154" s="157"/>
+      <c r="D154" s="155"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
@@ -47841,8 +47851,8 @@
       <c r="B155" s="2">
         <v>4</v>
       </c>
-      <c r="C155" s="152"/>
-      <c r="D155" s="150"/>
+      <c r="C155" s="157"/>
+      <c r="D155" s="155"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
@@ -47851,8 +47861,8 @@
       <c r="B156" s="2">
         <v>8</v>
       </c>
-      <c r="C156" s="152"/>
-      <c r="D156" s="150"/>
+      <c r="C156" s="157"/>
+      <c r="D156" s="155"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
@@ -47861,8 +47871,8 @@
       <c r="B157" s="2">
         <v>10</v>
       </c>
-      <c r="C157" s="152"/>
-      <c r="D157" s="150"/>
+      <c r="C157" s="157"/>
+      <c r="D157" s="155"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
@@ -47871,8 +47881,8 @@
       <c r="B158" s="2">
         <v>6</v>
       </c>
-      <c r="C158" s="152"/>
-      <c r="D158" s="150"/>
+      <c r="C158" s="157"/>
+      <c r="D158" s="155"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
@@ -47881,8 +47891,8 @@
       <c r="B159" s="2">
         <v>4</v>
       </c>
-      <c r="C159" s="152"/>
-      <c r="D159" s="150"/>
+      <c r="C159" s="157"/>
+      <c r="D159" s="155"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
@@ -47891,8 +47901,8 @@
       <c r="B160" s="2">
         <v>6</v>
       </c>
-      <c r="C160" s="152"/>
-      <c r="D160" s="150"/>
+      <c r="C160" s="157"/>
+      <c r="D160" s="155"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
@@ -47901,8 +47911,8 @@
       <c r="B161" s="2">
         <v>6</v>
       </c>
-      <c r="C161" s="152"/>
-      <c r="D161" s="150"/>
+      <c r="C161" s="157"/>
+      <c r="D161" s="155"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
@@ -47911,8 +47921,8 @@
       <c r="B162" s="2">
         <v>6</v>
       </c>
-      <c r="C162" s="152"/>
-      <c r="D162" s="150"/>
+      <c r="C162" s="157"/>
+      <c r="D162" s="155"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
@@ -47921,8 +47931,8 @@
       <c r="B163" s="2">
         <v>0</v>
       </c>
-      <c r="C163" s="152"/>
-      <c r="D163" s="150"/>
+      <c r="C163" s="157"/>
+      <c r="D163" s="155"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
@@ -47931,8 +47941,8 @@
       <c r="B164" s="2">
         <v>4</v>
       </c>
-      <c r="C164" s="152"/>
-      <c r="D164" s="150"/>
+      <c r="C164" s="157"/>
+      <c r="D164" s="155"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
@@ -47941,8 +47951,8 @@
       <c r="B165" s="2">
         <v>4</v>
       </c>
-      <c r="C165" s="152"/>
-      <c r="D165" s="150"/>
+      <c r="C165" s="157"/>
+      <c r="D165" s="155"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
@@ -47951,8 +47961,8 @@
       <c r="B166" s="2">
         <v>4</v>
       </c>
-      <c r="C166" s="152"/>
-      <c r="D166" s="150"/>
+      <c r="C166" s="157"/>
+      <c r="D166" s="155"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
@@ -47961,8 +47971,8 @@
       <c r="B167" s="2">
         <v>6</v>
       </c>
-      <c r="C167" s="152"/>
-      <c r="D167" s="150"/>
+      <c r="C167" s="157"/>
+      <c r="D167" s="155"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
@@ -47971,8 +47981,8 @@
       <c r="B168" s="2">
         <v>6</v>
       </c>
-      <c r="C168" s="152"/>
-      <c r="D168" s="150"/>
+      <c r="C168" s="157"/>
+      <c r="D168" s="155"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
@@ -47981,8 +47991,8 @@
       <c r="B169" s="2">
         <v>4</v>
       </c>
-      <c r="C169" s="152"/>
-      <c r="D169" s="150"/>
+      <c r="C169" s="157"/>
+      <c r="D169" s="155"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
@@ -47991,8 +48001,8 @@
       <c r="B170" s="2">
         <v>4</v>
       </c>
-      <c r="C170" s="152"/>
-      <c r="D170" s="150"/>
+      <c r="C170" s="157"/>
+      <c r="D170" s="155"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
@@ -48001,8 +48011,8 @@
       <c r="B171" s="2">
         <v>10</v>
       </c>
-      <c r="C171" s="152"/>
-      <c r="D171" s="150"/>
+      <c r="C171" s="157"/>
+      <c r="D171" s="155"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
@@ -48011,8 +48021,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="152"/>
-      <c r="D172" s="150"/>
+      <c r="C172" s="157"/>
+      <c r="D172" s="155"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
@@ -48021,8 +48031,8 @@
       <c r="B173" s="2">
         <v>2</v>
       </c>
-      <c r="C173" s="152"/>
-      <c r="D173" s="150"/>
+      <c r="C173" s="157"/>
+      <c r="D173" s="155"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
@@ -48031,8 +48041,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="152"/>
-      <c r="D174" s="150"/>
+      <c r="C174" s="157"/>
+      <c r="D174" s="155"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
@@ -48041,8 +48051,8 @@
       <c r="B175" s="2">
         <v>4</v>
       </c>
-      <c r="C175" s="152"/>
-      <c r="D175" s="150"/>
+      <c r="C175" s="157"/>
+      <c r="D175" s="155"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
@@ -48051,8 +48061,8 @@
       <c r="B176" s="2">
         <v>6</v>
       </c>
-      <c r="C176" s="152"/>
-      <c r="D176" s="150"/>
+      <c r="C176" s="157"/>
+      <c r="D176" s="155"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
@@ -48061,8 +48071,8 @@
       <c r="B177" s="2">
         <v>4</v>
       </c>
-      <c r="C177" s="152"/>
-      <c r="D177" s="150"/>
+      <c r="C177" s="157"/>
+      <c r="D177" s="155"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
@@ -48071,8 +48081,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="152"/>
-      <c r="D178" s="150"/>
+      <c r="C178" s="157"/>
+      <c r="D178" s="155"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
@@ -48081,8 +48091,8 @@
       <c r="B179" s="2">
         <v>6</v>
       </c>
-      <c r="C179" s="152"/>
-      <c r="D179" s="150"/>
+      <c r="C179" s="157"/>
+      <c r="D179" s="155"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
@@ -48091,8 +48101,8 @@
       <c r="B180" s="2">
         <v>10</v>
       </c>
-      <c r="C180" s="152"/>
-      <c r="D180" s="150"/>
+      <c r="C180" s="157"/>
+      <c r="D180" s="155"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
@@ -48101,8 +48111,8 @@
       <c r="B181" s="2">
         <v>8</v>
       </c>
-      <c r="C181" s="152"/>
-      <c r="D181" s="150"/>
+      <c r="C181" s="157"/>
+      <c r="D181" s="155"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
@@ -48111,8 +48121,8 @@
       <c r="B182" s="2">
         <v>6</v>
       </c>
-      <c r="C182" s="142"/>
-      <c r="D182" s="150"/>
+      <c r="C182" s="131"/>
+      <c r="D182" s="155"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
@@ -48121,11 +48131,11 @@
       <c r="B183" s="2">
         <v>6</v>
       </c>
-      <c r="C183" s="151">
+      <c r="C183" s="156">
         <f>AVERAGE(B183:B213)</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="D183" s="150"/>
+      <c r="D183" s="155"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
@@ -48134,8 +48144,8 @@
       <c r="B184" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="152"/>
-      <c r="D184" s="150"/>
+      <c r="C184" s="157"/>
+      <c r="D184" s="155"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
@@ -48144,8 +48154,8 @@
       <c r="B185" s="2">
         <v>2</v>
       </c>
-      <c r="C185" s="152"/>
-      <c r="D185" s="150"/>
+      <c r="C185" s="157"/>
+      <c r="D185" s="155"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
@@ -48154,8 +48164,8 @@
       <c r="B186" s="2">
         <v>4</v>
       </c>
-      <c r="C186" s="152"/>
-      <c r="D186" s="150"/>
+      <c r="C186" s="157"/>
+      <c r="D186" s="155"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
@@ -48164,8 +48174,8 @@
       <c r="B187" s="2">
         <v>4</v>
       </c>
-      <c r="C187" s="152"/>
-      <c r="D187" s="150"/>
+      <c r="C187" s="157"/>
+      <c r="D187" s="155"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
@@ -48174,8 +48184,8 @@
       <c r="B188" s="2">
         <v>10</v>
       </c>
-      <c r="C188" s="152"/>
-      <c r="D188" s="150"/>
+      <c r="C188" s="157"/>
+      <c r="D188" s="155"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
@@ -48184,8 +48194,8 @@
       <c r="B189" s="2">
         <v>6</v>
       </c>
-      <c r="C189" s="152"/>
-      <c r="D189" s="150"/>
+      <c r="C189" s="157"/>
+      <c r="D189" s="155"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
@@ -48194,8 +48204,8 @@
       <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C190" s="152"/>
-      <c r="D190" s="150"/>
+      <c r="C190" s="157"/>
+      <c r="D190" s="155"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
@@ -48204,8 +48214,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="152"/>
-      <c r="D191" s="150"/>
+      <c r="C191" s="157"/>
+      <c r="D191" s="155"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
@@ -48214,8 +48224,8 @@
       <c r="B192" s="2">
         <v>4</v>
       </c>
-      <c r="C192" s="152"/>
-      <c r="D192" s="150"/>
+      <c r="C192" s="157"/>
+      <c r="D192" s="155"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
@@ -48224,8 +48234,8 @@
       <c r="B193" s="2">
         <v>6</v>
       </c>
-      <c r="C193" s="152"/>
-      <c r="D193" s="150"/>
+      <c r="C193" s="157"/>
+      <c r="D193" s="155"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
@@ -48234,8 +48244,8 @@
       <c r="B194" s="2">
         <v>4</v>
       </c>
-      <c r="C194" s="152"/>
-      <c r="D194" s="150"/>
+      <c r="C194" s="157"/>
+      <c r="D194" s="155"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
@@ -48244,8 +48254,8 @@
       <c r="B195" s="2">
         <v>10</v>
       </c>
-      <c r="C195" s="152"/>
-      <c r="D195" s="150"/>
+      <c r="C195" s="157"/>
+      <c r="D195" s="155"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
@@ -48254,8 +48264,8 @@
       <c r="B196" s="2">
         <v>6</v>
       </c>
-      <c r="C196" s="152"/>
-      <c r="D196" s="150"/>
+      <c r="C196" s="157"/>
+      <c r="D196" s="155"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
@@ -48264,8 +48274,8 @@
       <c r="B197" s="2">
         <v>4</v>
       </c>
-      <c r="C197" s="152"/>
-      <c r="D197" s="150"/>
+      <c r="C197" s="157"/>
+      <c r="D197" s="155"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
@@ -48274,8 +48284,8 @@
       <c r="B198" s="2">
         <v>4</v>
       </c>
-      <c r="C198" s="152"/>
-      <c r="D198" s="150"/>
+      <c r="C198" s="157"/>
+      <c r="D198" s="155"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
@@ -48284,8 +48294,8 @@
       <c r="B199" s="2">
         <v>6</v>
       </c>
-      <c r="C199" s="152"/>
-      <c r="D199" s="150"/>
+      <c r="C199" s="157"/>
+      <c r="D199" s="155"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
@@ -48294,8 +48304,8 @@
       <c r="B200" s="2">
         <v>4</v>
       </c>
-      <c r="C200" s="152"/>
-      <c r="D200" s="150"/>
+      <c r="C200" s="157"/>
+      <c r="D200" s="155"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
@@ -48304,8 +48314,8 @@
       <c r="B201" s="2">
         <v>2</v>
       </c>
-      <c r="C201" s="152"/>
-      <c r="D201" s="150"/>
+      <c r="C201" s="157"/>
+      <c r="D201" s="155"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
@@ -48314,8 +48324,8 @@
       <c r="B202" s="2">
         <v>8</v>
       </c>
-      <c r="C202" s="152"/>
-      <c r="D202" s="150"/>
+      <c r="C202" s="157"/>
+      <c r="D202" s="155"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
@@ -48324,8 +48334,8 @@
       <c r="B203" s="2">
         <v>6</v>
       </c>
-      <c r="C203" s="152"/>
-      <c r="D203" s="150"/>
+      <c r="C203" s="157"/>
+      <c r="D203" s="155"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
@@ -48334,8 +48344,8 @@
       <c r="B204" s="2">
         <v>4</v>
       </c>
-      <c r="C204" s="152"/>
-      <c r="D204" s="150"/>
+      <c r="C204" s="157"/>
+      <c r="D204" s="155"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
@@ -48344,8 +48354,8 @@
       <c r="B205" s="2">
         <v>4</v>
       </c>
-      <c r="C205" s="152"/>
-      <c r="D205" s="150"/>
+      <c r="C205" s="157"/>
+      <c r="D205" s="155"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
@@ -48354,8 +48364,8 @@
       <c r="B206" s="2">
         <v>2</v>
       </c>
-      <c r="C206" s="152"/>
-      <c r="D206" s="150"/>
+      <c r="C206" s="157"/>
+      <c r="D206" s="155"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
@@ -48364,8 +48374,8 @@
       <c r="B207" s="2">
         <v>4</v>
       </c>
-      <c r="C207" s="152"/>
-      <c r="D207" s="150"/>
+      <c r="C207" s="157"/>
+      <c r="D207" s="155"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
@@ -48374,8 +48384,8 @@
       <c r="B208" s="2">
         <v>4</v>
       </c>
-      <c r="C208" s="152"/>
-      <c r="D208" s="150"/>
+      <c r="C208" s="157"/>
+      <c r="D208" s="155"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
@@ -48384,8 +48394,8 @@
       <c r="B209" s="2">
         <v>6</v>
       </c>
-      <c r="C209" s="152"/>
-      <c r="D209" s="150"/>
+      <c r="C209" s="157"/>
+      <c r="D209" s="155"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
@@ -48394,8 +48404,8 @@
       <c r="B210" s="2">
         <v>6</v>
       </c>
-      <c r="C210" s="152"/>
-      <c r="D210" s="150"/>
+      <c r="C210" s="157"/>
+      <c r="D210" s="155"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
@@ -48404,8 +48414,8 @@
       <c r="B211" s="2">
         <v>6</v>
       </c>
-      <c r="C211" s="152"/>
-      <c r="D211" s="150"/>
+      <c r="C211" s="157"/>
+      <c r="D211" s="155"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
@@ -48414,8 +48424,8 @@
       <c r="B212" s="2">
         <v>6</v>
       </c>
-      <c r="C212" s="152"/>
-      <c r="D212" s="150"/>
+      <c r="C212" s="157"/>
+      <c r="D212" s="155"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
@@ -48424,8 +48434,8 @@
       <c r="B213" s="2">
         <v>6</v>
       </c>
-      <c r="C213" s="142"/>
-      <c r="D213" s="150"/>
+      <c r="C213" s="131"/>
+      <c r="D213" s="155"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
@@ -48434,11 +48444,11 @@
       <c r="B214" s="2">
         <v>6</v>
       </c>
-      <c r="C214" s="151">
+      <c r="C214" s="156">
         <f>AVERAGE(B214:B244)</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="D214" s="150"/>
+      <c r="D214" s="155"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
@@ -48447,8 +48457,8 @@
       <c r="B215" s="2">
         <v>6</v>
       </c>
-      <c r="C215" s="152"/>
-      <c r="D215" s="150"/>
+      <c r="C215" s="157"/>
+      <c r="D215" s="155"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
@@ -48457,8 +48467,8 @@
       <c r="B216" s="2">
         <v>6</v>
       </c>
-      <c r="C216" s="152"/>
-      <c r="D216" s="150"/>
+      <c r="C216" s="157"/>
+      <c r="D216" s="155"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
@@ -48467,8 +48477,8 @@
       <c r="B217" s="2">
         <v>8</v>
       </c>
-      <c r="C217" s="152"/>
-      <c r="D217" s="150"/>
+      <c r="C217" s="157"/>
+      <c r="D217" s="155"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
@@ -48477,8 +48487,8 @@
       <c r="B218" s="2">
         <v>4</v>
       </c>
-      <c r="C218" s="152"/>
-      <c r="D218" s="150"/>
+      <c r="C218" s="157"/>
+      <c r="D218" s="155"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
@@ -48487,8 +48497,8 @@
       <c r="B219" s="2">
         <v>4</v>
       </c>
-      <c r="C219" s="152"/>
-      <c r="D219" s="150"/>
+      <c r="C219" s="157"/>
+      <c r="D219" s="155"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
@@ -48497,8 +48507,8 @@
       <c r="B220" s="2">
         <v>6</v>
       </c>
-      <c r="C220" s="152"/>
-      <c r="D220" s="150"/>
+      <c r="C220" s="157"/>
+      <c r="D220" s="155"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
@@ -48507,8 +48517,8 @@
       <c r="B221" s="2">
         <v>4</v>
       </c>
-      <c r="C221" s="152"/>
-      <c r="D221" s="150"/>
+      <c r="C221" s="157"/>
+      <c r="D221" s="155"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
@@ -48517,8 +48527,8 @@
       <c r="B222" s="2">
         <v>6</v>
       </c>
-      <c r="C222" s="152"/>
-      <c r="D222" s="150"/>
+      <c r="C222" s="157"/>
+      <c r="D222" s="155"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
@@ -48527,8 +48537,8 @@
       <c r="B223" s="2">
         <v>6</v>
       </c>
-      <c r="C223" s="152"/>
-      <c r="D223" s="150"/>
+      <c r="C223" s="157"/>
+      <c r="D223" s="155"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
@@ -48537,8 +48547,8 @@
       <c r="B224" s="2">
         <v>6</v>
       </c>
-      <c r="C224" s="152"/>
-      <c r="D224" s="150"/>
+      <c r="C224" s="157"/>
+      <c r="D224" s="155"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
@@ -48547,8 +48557,8 @@
       <c r="B225" s="2">
         <v>6</v>
       </c>
-      <c r="C225" s="152"/>
-      <c r="D225" s="150"/>
+      <c r="C225" s="157"/>
+      <c r="D225" s="155"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
@@ -48557,8 +48567,8 @@
       <c r="B226" s="2">
         <v>4</v>
       </c>
-      <c r="C226" s="152"/>
-      <c r="D226" s="150"/>
+      <c r="C226" s="157"/>
+      <c r="D226" s="155"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
@@ -48567,8 +48577,8 @@
       <c r="B227" s="2">
         <v>2</v>
       </c>
-      <c r="C227" s="152"/>
-      <c r="D227" s="150"/>
+      <c r="C227" s="157"/>
+      <c r="D227" s="155"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
@@ -48577,8 +48587,8 @@
       <c r="B228" s="2">
         <v>2</v>
       </c>
-      <c r="C228" s="152"/>
-      <c r="D228" s="150"/>
+      <c r="C228" s="157"/>
+      <c r="D228" s="155"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
@@ -48587,8 +48597,8 @@
       <c r="B229" s="2">
         <v>4</v>
       </c>
-      <c r="C229" s="152"/>
-      <c r="D229" s="150"/>
+      <c r="C229" s="157"/>
+      <c r="D229" s="155"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
@@ -48597,8 +48607,8 @@
       <c r="B230" s="2">
         <v>6</v>
       </c>
-      <c r="C230" s="152"/>
-      <c r="D230" s="150"/>
+      <c r="C230" s="157"/>
+      <c r="D230" s="155"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
@@ -48607,8 +48617,8 @@
       <c r="B231" s="2">
         <v>8</v>
       </c>
-      <c r="C231" s="152"/>
-      <c r="D231" s="150"/>
+      <c r="C231" s="157"/>
+      <c r="D231" s="155"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
@@ -48617,8 +48627,8 @@
       <c r="B232" s="2">
         <v>4</v>
       </c>
-      <c r="C232" s="152"/>
-      <c r="D232" s="150"/>
+      <c r="C232" s="157"/>
+      <c r="D232" s="155"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
@@ -48627,8 +48637,8 @@
       <c r="B233" s="2">
         <v>4</v>
       </c>
-      <c r="C233" s="152"/>
-      <c r="D233" s="150"/>
+      <c r="C233" s="157"/>
+      <c r="D233" s="155"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
@@ -48637,8 +48647,8 @@
       <c r="B234" s="2">
         <v>4</v>
       </c>
-      <c r="C234" s="152"/>
-      <c r="D234" s="150"/>
+      <c r="C234" s="157"/>
+      <c r="D234" s="155"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
@@ -48647,8 +48657,8 @@
       <c r="B235" s="2">
         <v>4</v>
       </c>
-      <c r="C235" s="152"/>
-      <c r="D235" s="150"/>
+      <c r="C235" s="157"/>
+      <c r="D235" s="155"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
@@ -48657,8 +48667,8 @@
       <c r="B236" s="2">
         <v>6</v>
       </c>
-      <c r="C236" s="152"/>
-      <c r="D236" s="150"/>
+      <c r="C236" s="157"/>
+      <c r="D236" s="155"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
@@ -48667,8 +48677,8 @@
       <c r="B237" s="2">
         <v>4</v>
       </c>
-      <c r="C237" s="152"/>
-      <c r="D237" s="150"/>
+      <c r="C237" s="157"/>
+      <c r="D237" s="155"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
@@ -48677,8 +48687,8 @@
       <c r="B238" s="2">
         <v>4</v>
       </c>
-      <c r="C238" s="152"/>
-      <c r="D238" s="150"/>
+      <c r="C238" s="157"/>
+      <c r="D238" s="155"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
@@ -48687,8 +48697,8 @@
       <c r="B239" s="2">
         <v>6</v>
       </c>
-      <c r="C239" s="152"/>
-      <c r="D239" s="150"/>
+      <c r="C239" s="157"/>
+      <c r="D239" s="155"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
@@ -48697,8 +48707,8 @@
       <c r="B240" s="2">
         <v>2</v>
       </c>
-      <c r="C240" s="152"/>
-      <c r="D240" s="150"/>
+      <c r="C240" s="157"/>
+      <c r="D240" s="155"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
@@ -48707,8 +48717,8 @@
       <c r="B241" s="2">
         <v>6</v>
       </c>
-      <c r="C241" s="152"/>
-      <c r="D241" s="150"/>
+      <c r="C241" s="157"/>
+      <c r="D241" s="155"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
@@ -48717,8 +48727,8 @@
       <c r="B242" s="2">
         <v>6</v>
       </c>
-      <c r="C242" s="152"/>
-      <c r="D242" s="150"/>
+      <c r="C242" s="157"/>
+      <c r="D242" s="155"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
@@ -48727,8 +48737,8 @@
       <c r="B243" s="2">
         <v>4</v>
       </c>
-      <c r="C243" s="152"/>
-      <c r="D243" s="150"/>
+      <c r="C243" s="157"/>
+      <c r="D243" s="155"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
@@ -48737,8 +48747,8 @@
       <c r="B244" s="2">
         <v>6</v>
       </c>
-      <c r="C244" s="142"/>
-      <c r="D244" s="150"/>
+      <c r="C244" s="131"/>
+      <c r="D244" s="155"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
@@ -48747,11 +48757,11 @@
       <c r="B245" s="2">
         <v>4</v>
       </c>
-      <c r="C245" s="151">
+      <c r="C245" s="156">
         <f>AVERAGE(B245:B274)</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="D245" s="150"/>
+      <c r="D245" s="155"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
@@ -48760,8 +48770,8 @@
       <c r="B246" s="2">
         <v>4</v>
       </c>
-      <c r="C246" s="152"/>
-      <c r="D246" s="150"/>
+      <c r="C246" s="157"/>
+      <c r="D246" s="155"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
@@ -48770,8 +48780,8 @@
       <c r="B247" s="2">
         <v>6</v>
       </c>
-      <c r="C247" s="152"/>
-      <c r="D247" s="150"/>
+      <c r="C247" s="157"/>
+      <c r="D247" s="155"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
@@ -48780,8 +48790,8 @@
       <c r="B248" s="2">
         <v>4</v>
       </c>
-      <c r="C248" s="152"/>
-      <c r="D248" s="150"/>
+      <c r="C248" s="157"/>
+      <c r="D248" s="155"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
@@ -48790,8 +48800,8 @@
       <c r="B249" s="2">
         <v>6</v>
       </c>
-      <c r="C249" s="152"/>
-      <c r="D249" s="150"/>
+      <c r="C249" s="157"/>
+      <c r="D249" s="155"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
@@ -48800,8 +48810,8 @@
       <c r="B250" s="2">
         <v>4</v>
       </c>
-      <c r="C250" s="152"/>
-      <c r="D250" s="150"/>
+      <c r="C250" s="157"/>
+      <c r="D250" s="155"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
@@ -48810,8 +48820,8 @@
       <c r="B251" s="2">
         <v>4</v>
       </c>
-      <c r="C251" s="152"/>
-      <c r="D251" s="150"/>
+      <c r="C251" s="157"/>
+      <c r="D251" s="155"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
@@ -48820,8 +48830,8 @@
       <c r="B252" s="2">
         <v>6</v>
       </c>
-      <c r="C252" s="152"/>
-      <c r="D252" s="150"/>
+      <c r="C252" s="157"/>
+      <c r="D252" s="155"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
@@ -48830,8 +48840,8 @@
       <c r="B253" s="2">
         <v>4</v>
       </c>
-      <c r="C253" s="152"/>
-      <c r="D253" s="150"/>
+      <c r="C253" s="157"/>
+      <c r="D253" s="155"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
@@ -48840,8 +48850,8 @@
       <c r="B254" s="2">
         <v>4</v>
       </c>
-      <c r="C254" s="152"/>
-      <c r="D254" s="150"/>
+      <c r="C254" s="157"/>
+      <c r="D254" s="155"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
@@ -48850,8 +48860,8 @@
       <c r="B255" s="2">
         <v>6</v>
       </c>
-      <c r="C255" s="152"/>
-      <c r="D255" s="150"/>
+      <c r="C255" s="157"/>
+      <c r="D255" s="155"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
@@ -48860,8 +48870,8 @@
       <c r="B256" s="2">
         <v>6</v>
       </c>
-      <c r="C256" s="152"/>
-      <c r="D256" s="150"/>
+      <c r="C256" s="157"/>
+      <c r="D256" s="155"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
@@ -48870,8 +48880,8 @@
       <c r="B257" s="2">
         <v>10</v>
       </c>
-      <c r="C257" s="152"/>
-      <c r="D257" s="150"/>
+      <c r="C257" s="157"/>
+      <c r="D257" s="155"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
@@ -48880,8 +48890,8 @@
       <c r="B258" s="2">
         <v>8</v>
       </c>
-      <c r="C258" s="152"/>
-      <c r="D258" s="150"/>
+      <c r="C258" s="157"/>
+      <c r="D258" s="155"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
@@ -48890,8 +48900,8 @@
       <c r="B259" s="2">
         <v>6</v>
       </c>
-      <c r="C259" s="152"/>
-      <c r="D259" s="150"/>
+      <c r="C259" s="157"/>
+      <c r="D259" s="155"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
@@ -48900,8 +48910,8 @@
       <c r="B260" s="2">
         <v>6</v>
       </c>
-      <c r="C260" s="152"/>
-      <c r="D260" s="150"/>
+      <c r="C260" s="157"/>
+      <c r="D260" s="155"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
@@ -48910,8 +48920,8 @@
       <c r="B261" s="2">
         <v>4</v>
       </c>
-      <c r="C261" s="152"/>
-      <c r="D261" s="150"/>
+      <c r="C261" s="157"/>
+      <c r="D261" s="155"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
@@ -48920,8 +48930,8 @@
       <c r="B262" s="2">
         <v>2</v>
       </c>
-      <c r="C262" s="152"/>
-      <c r="D262" s="150"/>
+      <c r="C262" s="157"/>
+      <c r="D262" s="155"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
@@ -48930,8 +48940,8 @@
       <c r="B263" s="2">
         <v>4</v>
       </c>
-      <c r="C263" s="152"/>
-      <c r="D263" s="150"/>
+      <c r="C263" s="157"/>
+      <c r="D263" s="155"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
@@ -48940,8 +48950,8 @@
       <c r="B264" s="2">
         <v>4</v>
       </c>
-      <c r="C264" s="152"/>
-      <c r="D264" s="150"/>
+      <c r="C264" s="157"/>
+      <c r="D264" s="155"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
@@ -48950,8 +48960,8 @@
       <c r="B265" s="2">
         <v>6</v>
       </c>
-      <c r="C265" s="152"/>
-      <c r="D265" s="150"/>
+      <c r="C265" s="157"/>
+      <c r="D265" s="155"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
@@ -48960,8 +48970,8 @@
       <c r="B266" s="2">
         <v>6</v>
       </c>
-      <c r="C266" s="152"/>
-      <c r="D266" s="150"/>
+      <c r="C266" s="157"/>
+      <c r="D266" s="155"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
@@ -48970,8 +48980,8 @@
       <c r="B267" s="2">
         <v>4</v>
       </c>
-      <c r="C267" s="152"/>
-      <c r="D267" s="150"/>
+      <c r="C267" s="157"/>
+      <c r="D267" s="155"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
@@ -48980,8 +48990,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="152"/>
-      <c r="D268" s="150"/>
+      <c r="C268" s="157"/>
+      <c r="D268" s="155"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
@@ -48990,8 +49000,8 @@
       <c r="B269" s="2">
         <v>6</v>
       </c>
-      <c r="C269" s="152"/>
-      <c r="D269" s="150"/>
+      <c r="C269" s="157"/>
+      <c r="D269" s="155"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
@@ -49000,8 +49010,8 @@
       <c r="B270" s="2">
         <v>8</v>
       </c>
-      <c r="C270" s="152"/>
-      <c r="D270" s="150"/>
+      <c r="C270" s="157"/>
+      <c r="D270" s="155"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
@@ -49010,8 +49020,8 @@
       <c r="B271" s="2">
         <v>4</v>
       </c>
-      <c r="C271" s="152"/>
-      <c r="D271" s="150"/>
+      <c r="C271" s="157"/>
+      <c r="D271" s="155"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
@@ -49020,8 +49030,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="152"/>
-      <c r="D272" s="150"/>
+      <c r="C272" s="157"/>
+      <c r="D272" s="155"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
@@ -49030,8 +49040,8 @@
       <c r="B273" s="2">
         <v>8</v>
       </c>
-      <c r="C273" s="152"/>
-      <c r="D273" s="150"/>
+      <c r="C273" s="157"/>
+      <c r="D273" s="155"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
@@ -49040,8 +49050,8 @@
       <c r="B274" s="2">
         <v>6</v>
       </c>
-      <c r="C274" s="142"/>
-      <c r="D274" s="150"/>
+      <c r="C274" s="131"/>
+      <c r="D274" s="155"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
@@ -49050,11 +49060,11 @@
       <c r="B275" s="2">
         <v>4</v>
       </c>
-      <c r="C275" s="151">
+      <c r="C275" s="156">
         <f>AVERAGE(B275:B305)</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="D275" s="150"/>
+      <c r="D275" s="155"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
@@ -49063,8 +49073,8 @@
       <c r="B276" s="2">
         <v>6</v>
       </c>
-      <c r="C276" s="152"/>
-      <c r="D276" s="150"/>
+      <c r="C276" s="157"/>
+      <c r="D276" s="155"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
@@ -49073,8 +49083,8 @@
       <c r="B277" s="2">
         <v>6</v>
       </c>
-      <c r="C277" s="152"/>
-      <c r="D277" s="150"/>
+      <c r="C277" s="157"/>
+      <c r="D277" s="155"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
@@ -49083,8 +49093,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="152"/>
-      <c r="D278" s="150"/>
+      <c r="C278" s="157"/>
+      <c r="D278" s="155"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
@@ -49093,8 +49103,8 @@
       <c r="B279" s="2">
         <v>2</v>
       </c>
-      <c r="C279" s="152"/>
-      <c r="D279" s="150"/>
+      <c r="C279" s="157"/>
+      <c r="D279" s="155"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
@@ -49103,8 +49113,8 @@
       <c r="B280" s="2">
         <v>4</v>
       </c>
-      <c r="C280" s="152"/>
-      <c r="D280" s="150"/>
+      <c r="C280" s="157"/>
+      <c r="D280" s="155"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
@@ -49113,8 +49123,8 @@
       <c r="B281" s="2">
         <v>0</v>
       </c>
-      <c r="C281" s="152"/>
-      <c r="D281" s="150"/>
+      <c r="C281" s="157"/>
+      <c r="D281" s="155"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
@@ -49123,8 +49133,8 @@
       <c r="B282" s="2">
         <v>2</v>
       </c>
-      <c r="C282" s="152"/>
-      <c r="D282" s="150"/>
+      <c r="C282" s="157"/>
+      <c r="D282" s="155"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
@@ -49133,8 +49143,8 @@
       <c r="B283" s="2">
         <v>6</v>
       </c>
-      <c r="C283" s="152"/>
-      <c r="D283" s="150"/>
+      <c r="C283" s="157"/>
+      <c r="D283" s="155"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
@@ -49143,8 +49153,8 @@
       <c r="B284" s="2">
         <v>6</v>
       </c>
-      <c r="C284" s="152"/>
-      <c r="D284" s="150"/>
+      <c r="C284" s="157"/>
+      <c r="D284" s="155"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
@@ -49153,8 +49163,8 @@
       <c r="B285" s="2">
         <v>8</v>
       </c>
-      <c r="C285" s="152"/>
-      <c r="D285" s="150"/>
+      <c r="C285" s="157"/>
+      <c r="D285" s="155"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
@@ -49163,8 +49173,8 @@
       <c r="B286" s="2">
         <v>8</v>
       </c>
-      <c r="C286" s="152"/>
-      <c r="D286" s="150"/>
+      <c r="C286" s="157"/>
+      <c r="D286" s="155"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
@@ -49173,8 +49183,8 @@
       <c r="B287" s="2">
         <v>6</v>
       </c>
-      <c r="C287" s="152"/>
-      <c r="D287" s="150"/>
+      <c r="C287" s="157"/>
+      <c r="D287" s="155"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
@@ -49183,8 +49193,8 @@
       <c r="B288" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="152"/>
-      <c r="D288" s="150"/>
+      <c r="C288" s="157"/>
+      <c r="D288" s="155"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
@@ -49193,8 +49203,8 @@
       <c r="B289" s="2">
         <v>6</v>
       </c>
-      <c r="C289" s="152"/>
-      <c r="D289" s="150"/>
+      <c r="C289" s="157"/>
+      <c r="D289" s="155"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
@@ -49203,8 +49213,8 @@
       <c r="B290" s="2">
         <v>4</v>
       </c>
-      <c r="C290" s="152"/>
-      <c r="D290" s="150"/>
+      <c r="C290" s="157"/>
+      <c r="D290" s="155"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
@@ -49213,8 +49223,8 @@
       <c r="B291" s="2">
         <v>6</v>
       </c>
-      <c r="C291" s="152"/>
-      <c r="D291" s="150"/>
+      <c r="C291" s="157"/>
+      <c r="D291" s="155"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
@@ -49223,8 +49233,8 @@
       <c r="B292" s="2">
         <v>8</v>
       </c>
-      <c r="C292" s="152"/>
-      <c r="D292" s="150"/>
+      <c r="C292" s="157"/>
+      <c r="D292" s="155"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
@@ -49233,8 +49243,8 @@
       <c r="B293" s="2">
         <v>6</v>
       </c>
-      <c r="C293" s="152"/>
-      <c r="D293" s="150"/>
+      <c r="C293" s="157"/>
+      <c r="D293" s="155"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
@@ -49243,8 +49253,8 @@
       <c r="B294" s="2">
         <v>6</v>
       </c>
-      <c r="C294" s="152"/>
-      <c r="D294" s="150"/>
+      <c r="C294" s="157"/>
+      <c r="D294" s="155"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
@@ -49253,8 +49263,8 @@
       <c r="B295" s="2">
         <v>6</v>
       </c>
-      <c r="C295" s="152"/>
-      <c r="D295" s="150"/>
+      <c r="C295" s="157"/>
+      <c r="D295" s="155"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
@@ -49263,8 +49273,8 @@
       <c r="B296" s="2">
         <v>6</v>
       </c>
-      <c r="C296" s="152"/>
-      <c r="D296" s="150"/>
+      <c r="C296" s="157"/>
+      <c r="D296" s="155"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
@@ -49273,8 +49283,8 @@
       <c r="B297" s="2">
         <v>4</v>
       </c>
-      <c r="C297" s="152"/>
-      <c r="D297" s="150"/>
+      <c r="C297" s="157"/>
+      <c r="D297" s="155"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
@@ -49283,8 +49293,8 @@
       <c r="B298" s="2">
         <v>4</v>
       </c>
-      <c r="C298" s="152"/>
-      <c r="D298" s="150"/>
+      <c r="C298" s="157"/>
+      <c r="D298" s="155"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
@@ -49293,8 +49303,8 @@
       <c r="B299" s="2">
         <v>6</v>
       </c>
-      <c r="C299" s="152"/>
-      <c r="D299" s="150"/>
+      <c r="C299" s="157"/>
+      <c r="D299" s="155"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
@@ -49303,8 +49313,8 @@
       <c r="B300" s="2">
         <v>6</v>
       </c>
-      <c r="C300" s="152"/>
-      <c r="D300" s="150"/>
+      <c r="C300" s="157"/>
+      <c r="D300" s="155"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
@@ -49313,8 +49323,8 @@
       <c r="B301" s="2">
         <v>4</v>
       </c>
-      <c r="C301" s="152"/>
-      <c r="D301" s="150"/>
+      <c r="C301" s="157"/>
+      <c r="D301" s="155"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
@@ -49323,8 +49333,8 @@
       <c r="B302" s="2">
         <v>6</v>
       </c>
-      <c r="C302" s="152"/>
-      <c r="D302" s="150"/>
+      <c r="C302" s="157"/>
+      <c r="D302" s="155"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
@@ -49333,8 +49343,8 @@
       <c r="B303" s="2">
         <v>8</v>
       </c>
-      <c r="C303" s="152"/>
-      <c r="D303" s="150"/>
+      <c r="C303" s="157"/>
+      <c r="D303" s="155"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
@@ -49343,8 +49353,8 @@
       <c r="B304" s="2">
         <v>8</v>
       </c>
-      <c r="C304" s="152"/>
-      <c r="D304" s="150"/>
+      <c r="C304" s="157"/>
+      <c r="D304" s="155"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
@@ -49353,8 +49363,8 @@
       <c r="B305" s="2">
         <v>10</v>
       </c>
-      <c r="C305" s="142"/>
-      <c r="D305" s="150"/>
+      <c r="C305" s="131"/>
+      <c r="D305" s="155"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
@@ -49363,11 +49373,11 @@
       <c r="B306" s="2">
         <v>6</v>
       </c>
-      <c r="C306" s="151">
+      <c r="C306" s="156">
         <f>AVERAGE(B306:B335)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="D306" s="150"/>
+      <c r="D306" s="155"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
@@ -49376,8 +49386,8 @@
       <c r="B307" s="2">
         <v>2</v>
       </c>
-      <c r="C307" s="152"/>
-      <c r="D307" s="150"/>
+      <c r="C307" s="157"/>
+      <c r="D307" s="155"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
@@ -49386,8 +49396,8 @@
       <c r="B308" s="2">
         <v>0</v>
       </c>
-      <c r="C308" s="152"/>
-      <c r="D308" s="150"/>
+      <c r="C308" s="157"/>
+      <c r="D308" s="155"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
@@ -49396,8 +49406,8 @@
       <c r="B309" s="2">
         <v>4</v>
       </c>
-      <c r="C309" s="152"/>
-      <c r="D309" s="150"/>
+      <c r="C309" s="157"/>
+      <c r="D309" s="155"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
@@ -49406,8 +49416,8 @@
       <c r="B310" s="2">
         <v>6</v>
       </c>
-      <c r="C310" s="152"/>
-      <c r="D310" s="150"/>
+      <c r="C310" s="157"/>
+      <c r="D310" s="155"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
@@ -49416,8 +49426,8 @@
       <c r="B311" s="2">
         <v>6</v>
       </c>
-      <c r="C311" s="152"/>
-      <c r="D311" s="150"/>
+      <c r="C311" s="157"/>
+      <c r="D311" s="155"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
@@ -49426,8 +49436,8 @@
       <c r="B312" s="2">
         <v>6</v>
       </c>
-      <c r="C312" s="152"/>
-      <c r="D312" s="150"/>
+      <c r="C312" s="157"/>
+      <c r="D312" s="155"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
@@ -49436,8 +49446,8 @@
       <c r="B313" s="2">
         <v>8</v>
       </c>
-      <c r="C313" s="152"/>
-      <c r="D313" s="150"/>
+      <c r="C313" s="157"/>
+      <c r="D313" s="155"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
@@ -49446,8 +49456,8 @@
       <c r="B314" s="2">
         <v>6</v>
       </c>
-      <c r="C314" s="152"/>
-      <c r="D314" s="150"/>
+      <c r="C314" s="157"/>
+      <c r="D314" s="155"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
@@ -49456,8 +49466,8 @@
       <c r="B315" s="2">
         <v>8</v>
       </c>
-      <c r="C315" s="152"/>
-      <c r="D315" s="150"/>
+      <c r="C315" s="157"/>
+      <c r="D315" s="155"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
@@ -49466,8 +49476,8 @@
       <c r="B316" s="2">
         <v>8</v>
       </c>
-      <c r="C316" s="152"/>
-      <c r="D316" s="150"/>
+      <c r="C316" s="157"/>
+      <c r="D316" s="155"/>
       <c r="M316" s="3"/>
       <c r="O316" s="3"/>
     </row>
@@ -49478,8 +49488,8 @@
       <c r="B317" s="2">
         <v>2</v>
       </c>
-      <c r="C317" s="152"/>
-      <c r="D317" s="150"/>
+      <c r="C317" s="157"/>
+      <c r="D317" s="155"/>
       <c r="M317" s="3"/>
       <c r="O317" s="3"/>
     </row>
@@ -49490,8 +49500,8 @@
       <c r="B318" s="2">
         <v>6</v>
       </c>
-      <c r="C318" s="152"/>
-      <c r="D318" s="150"/>
+      <c r="C318" s="157"/>
+      <c r="D318" s="155"/>
       <c r="M318" s="3"/>
       <c r="O318" s="3"/>
     </row>
@@ -49502,8 +49512,8 @@
       <c r="B319" s="2">
         <v>8</v>
       </c>
-      <c r="C319" s="152"/>
-      <c r="D319" s="150"/>
+      <c r="C319" s="157"/>
+      <c r="D319" s="155"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
@@ -49512,8 +49522,8 @@
       <c r="B320" s="2">
         <v>8</v>
       </c>
-      <c r="C320" s="152"/>
-      <c r="D320" s="150"/>
+      <c r="C320" s="157"/>
+      <c r="D320" s="155"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
@@ -49522,8 +49532,8 @@
       <c r="B321" s="2">
         <v>6</v>
       </c>
-      <c r="C321" s="152"/>
-      <c r="D321" s="150"/>
+      <c r="C321" s="157"/>
+      <c r="D321" s="155"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
@@ -49532,8 +49542,8 @@
       <c r="B322" s="2">
         <v>6</v>
       </c>
-      <c r="C322" s="152"/>
-      <c r="D322" s="150"/>
+      <c r="C322" s="157"/>
+      <c r="D322" s="155"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
@@ -49542,8 +49552,8 @@
       <c r="B323" s="2">
         <v>4</v>
       </c>
-      <c r="C323" s="152"/>
-      <c r="D323" s="150"/>
+      <c r="C323" s="157"/>
+      <c r="D323" s="155"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
@@ -49552,8 +49562,8 @@
       <c r="B324" s="2">
         <v>8</v>
       </c>
-      <c r="C324" s="152"/>
-      <c r="D324" s="150"/>
+      <c r="C324" s="157"/>
+      <c r="D324" s="155"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
@@ -49562,8 +49572,8 @@
       <c r="B325" s="2">
         <v>6</v>
       </c>
-      <c r="C325" s="152"/>
-      <c r="D325" s="150"/>
+      <c r="C325" s="157"/>
+      <c r="D325" s="155"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
@@ -49572,8 +49582,8 @@
       <c r="B326" s="2">
         <v>4</v>
       </c>
-      <c r="C326" s="152"/>
-      <c r="D326" s="150"/>
+      <c r="C326" s="157"/>
+      <c r="D326" s="155"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
@@ -49582,8 +49592,8 @@
       <c r="B327" s="2">
         <v>4</v>
       </c>
-      <c r="C327" s="152"/>
-      <c r="D327" s="150"/>
+      <c r="C327" s="157"/>
+      <c r="D327" s="155"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
@@ -49592,8 +49602,8 @@
       <c r="B328" s="2">
         <v>6</v>
       </c>
-      <c r="C328" s="152"/>
-      <c r="D328" s="150"/>
+      <c r="C328" s="157"/>
+      <c r="D328" s="155"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
@@ -49602,8 +49612,8 @@
       <c r="B329" s="2">
         <v>8</v>
       </c>
-      <c r="C329" s="152"/>
-      <c r="D329" s="150"/>
+      <c r="C329" s="157"/>
+      <c r="D329" s="155"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
@@ -49612,8 +49622,8 @@
       <c r="B330" s="2">
         <v>4</v>
       </c>
-      <c r="C330" s="152"/>
-      <c r="D330" s="150"/>
+      <c r="C330" s="157"/>
+      <c r="D330" s="155"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
@@ -49622,8 +49632,8 @@
       <c r="B331" s="2">
         <v>6</v>
       </c>
-      <c r="C331" s="152"/>
-      <c r="D331" s="150"/>
+      <c r="C331" s="157"/>
+      <c r="D331" s="155"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
@@ -49632,8 +49642,8 @@
       <c r="B332" s="2">
         <v>6</v>
       </c>
-      <c r="C332" s="152"/>
-      <c r="D332" s="150"/>
+      <c r="C332" s="157"/>
+      <c r="D332" s="155"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
@@ -49642,8 +49652,8 @@
       <c r="B333" s="2">
         <v>2</v>
       </c>
-      <c r="C333" s="152"/>
-      <c r="D333" s="150"/>
+      <c r="C333" s="157"/>
+      <c r="D333" s="155"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
@@ -49652,8 +49662,8 @@
       <c r="B334" s="2">
         <v>6</v>
       </c>
-      <c r="C334" s="152"/>
-      <c r="D334" s="150"/>
+      <c r="C334" s="157"/>
+      <c r="D334" s="155"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
@@ -49662,8 +49672,8 @@
       <c r="B335" s="2">
         <v>6</v>
       </c>
-      <c r="C335" s="142"/>
-      <c r="D335" s="150"/>
+      <c r="C335" s="131"/>
+      <c r="D335" s="155"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
@@ -49672,11 +49682,11 @@
       <c r="B336" s="2">
         <v>6</v>
       </c>
-      <c r="C336" s="151">
+      <c r="C336" s="156">
         <f>AVERAGE(B336:B366)</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="D336" s="150"/>
+      <c r="D336" s="155"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
@@ -49685,8 +49695,8 @@
       <c r="B337" s="2">
         <v>4</v>
       </c>
-      <c r="C337" s="152"/>
-      <c r="D337" s="150"/>
+      <c r="C337" s="157"/>
+      <c r="D337" s="155"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
@@ -49695,8 +49705,8 @@
       <c r="B338" s="2">
         <v>4</v>
       </c>
-      <c r="C338" s="152"/>
-      <c r="D338" s="150"/>
+      <c r="C338" s="157"/>
+      <c r="D338" s="155"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
@@ -49705,8 +49715,8 @@
       <c r="B339" s="2">
         <v>6</v>
       </c>
-      <c r="C339" s="152"/>
-      <c r="D339" s="150"/>
+      <c r="C339" s="157"/>
+      <c r="D339" s="155"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
@@ -49715,8 +49725,8 @@
       <c r="B340" s="2">
         <v>6</v>
       </c>
-      <c r="C340" s="152"/>
-      <c r="D340" s="150"/>
+      <c r="C340" s="157"/>
+      <c r="D340" s="155"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
@@ -49725,8 +49735,8 @@
       <c r="B341" s="2">
         <v>6</v>
       </c>
-      <c r="C341" s="152"/>
-      <c r="D341" s="150"/>
+      <c r="C341" s="157"/>
+      <c r="D341" s="155"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
@@ -49735,8 +49745,8 @@
       <c r="B342" s="2">
         <v>6</v>
       </c>
-      <c r="C342" s="152"/>
-      <c r="D342" s="150"/>
+      <c r="C342" s="157"/>
+      <c r="D342" s="155"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
@@ -49745,8 +49755,8 @@
       <c r="B343" s="2">
         <v>4</v>
       </c>
-      <c r="C343" s="152"/>
-      <c r="D343" s="150"/>
+      <c r="C343" s="157"/>
+      <c r="D343" s="155"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
@@ -49755,8 +49765,8 @@
       <c r="B344" s="2">
         <v>4</v>
       </c>
-      <c r="C344" s="152"/>
-      <c r="D344" s="150"/>
+      <c r="C344" s="157"/>
+      <c r="D344" s="155"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
@@ -49765,8 +49775,8 @@
       <c r="B345" s="2">
         <v>4</v>
       </c>
-      <c r="C345" s="152"/>
-      <c r="D345" s="150"/>
+      <c r="C345" s="157"/>
+      <c r="D345" s="155"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
@@ -49775,8 +49785,8 @@
       <c r="B346" s="2">
         <v>4</v>
       </c>
-      <c r="C346" s="152"/>
-      <c r="D346" s="150"/>
+      <c r="C346" s="157"/>
+      <c r="D346" s="155"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
@@ -49785,8 +49795,8 @@
       <c r="B347" s="2">
         <v>6</v>
       </c>
-      <c r="C347" s="152"/>
-      <c r="D347" s="150"/>
+      <c r="C347" s="157"/>
+      <c r="D347" s="155"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
@@ -49795,8 +49805,8 @@
       <c r="B348" s="2">
         <v>4</v>
       </c>
-      <c r="C348" s="152"/>
-      <c r="D348" s="150"/>
+      <c r="C348" s="157"/>
+      <c r="D348" s="155"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
@@ -49805,8 +49815,8 @@
       <c r="B349" s="2">
         <v>6</v>
       </c>
-      <c r="C349" s="152"/>
-      <c r="D349" s="150"/>
+      <c r="C349" s="157"/>
+      <c r="D349" s="155"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
@@ -49815,8 +49825,8 @@
       <c r="B350" s="2">
         <v>4</v>
       </c>
-      <c r="C350" s="152"/>
-      <c r="D350" s="150"/>
+      <c r="C350" s="157"/>
+      <c r="D350" s="155"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
@@ -49825,8 +49835,8 @@
       <c r="B351" s="2">
         <v>4</v>
       </c>
-      <c r="C351" s="152"/>
-      <c r="D351" s="150"/>
+      <c r="C351" s="157"/>
+      <c r="D351" s="155"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
@@ -49835,8 +49845,8 @@
       <c r="B352" s="2">
         <v>2</v>
       </c>
-      <c r="C352" s="152"/>
-      <c r="D352" s="150"/>
+      <c r="C352" s="157"/>
+      <c r="D352" s="155"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
@@ -49845,8 +49855,8 @@
       <c r="B353" s="2">
         <v>4</v>
       </c>
-      <c r="C353" s="152"/>
-      <c r="D353" s="150"/>
+      <c r="C353" s="157"/>
+      <c r="D353" s="155"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
@@ -49855,8 +49865,8 @@
       <c r="B354" s="2">
         <v>2</v>
       </c>
-      <c r="C354" s="152"/>
-      <c r="D354" s="150"/>
+      <c r="C354" s="157"/>
+      <c r="D354" s="155"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
@@ -49865,8 +49875,8 @@
       <c r="B355" s="2">
         <v>4</v>
       </c>
-      <c r="C355" s="152"/>
-      <c r="D355" s="150"/>
+      <c r="C355" s="157"/>
+      <c r="D355" s="155"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
@@ -49875,8 +49885,8 @@
       <c r="B356" s="2">
         <v>4</v>
       </c>
-      <c r="C356" s="152"/>
-      <c r="D356" s="150"/>
+      <c r="C356" s="157"/>
+      <c r="D356" s="155"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
@@ -49885,8 +49895,8 @@
       <c r="B357" s="2">
         <v>4</v>
       </c>
-      <c r="C357" s="152"/>
-      <c r="D357" s="150"/>
+      <c r="C357" s="157"/>
+      <c r="D357" s="155"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
@@ -49895,8 +49905,8 @@
       <c r="B358" s="2">
         <v>4</v>
       </c>
-      <c r="C358" s="152"/>
-      <c r="D358" s="150"/>
+      <c r="C358" s="157"/>
+      <c r="D358" s="155"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
@@ -49905,8 +49915,8 @@
       <c r="B359" s="2">
         <v>10</v>
       </c>
-      <c r="C359" s="152"/>
-      <c r="D359" s="150"/>
+      <c r="C359" s="157"/>
+      <c r="D359" s="155"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
@@ -49915,8 +49925,8 @@
       <c r="B360" s="2">
         <v>6</v>
       </c>
-      <c r="C360" s="152"/>
-      <c r="D360" s="150"/>
+      <c r="C360" s="157"/>
+      <c r="D360" s="155"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
@@ -49925,8 +49935,8 @@
       <c r="B361" s="2">
         <v>4</v>
       </c>
-      <c r="C361" s="152"/>
-      <c r="D361" s="150"/>
+      <c r="C361" s="157"/>
+      <c r="D361" s="155"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
@@ -49935,8 +49945,8 @@
       <c r="B362" s="2">
         <v>4</v>
       </c>
-      <c r="C362" s="152"/>
-      <c r="D362" s="150"/>
+      <c r="C362" s="157"/>
+      <c r="D362" s="155"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
@@ -49945,8 +49955,8 @@
       <c r="B363" s="2">
         <v>4</v>
       </c>
-      <c r="C363" s="152"/>
-      <c r="D363" s="150"/>
+      <c r="C363" s="157"/>
+      <c r="D363" s="155"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
@@ -49955,8 +49965,8 @@
       <c r="B364" s="2">
         <v>6</v>
       </c>
-      <c r="C364" s="152"/>
-      <c r="D364" s="150"/>
+      <c r="C364" s="157"/>
+      <c r="D364" s="155"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
@@ -49965,8 +49975,8 @@
       <c r="B365" s="2">
         <v>4</v>
       </c>
-      <c r="C365" s="152"/>
-      <c r="D365" s="150"/>
+      <c r="C365" s="157"/>
+      <c r="D365" s="155"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
@@ -49975,20 +49985,11 @@
       <c r="B366" s="2">
         <v>6</v>
       </c>
-      <c r="C366" s="142"/>
-      <c r="D366" s="150"/>
+      <c r="C366" s="131"/>
+      <c r="D366" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C1:C31"/>
-    <mergeCell ref="C32:C60"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="L19:L30"/>
     <mergeCell ref="C61:C91"/>
     <mergeCell ref="D1:D366"/>
     <mergeCell ref="C92:C121"/>
@@ -50000,6 +50001,15 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C1:C31"/>
+    <mergeCell ref="C32:C60"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L19:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7539100-4E62-40BF-90E7-A497B695D31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32400F0-DE79-46F9-AD70-BD60CE7FFB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="269">
   <si>
     <t>Amazing Day</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t>CSK won, call with Kash and mummy</t>
+  </si>
+  <si>
+    <t>call with Kash, Gauri</t>
   </si>
 </sst>
 </file>
@@ -2054,30 +2057,6 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2111,6 +2090,30 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2119,6 +2122,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2133,15 +2145,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2362,7 +2365,7 @@
                   <c:v>4.7571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2076923076923078</c:v>
+                  <c:v>5.2074074074074073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3013,7 +3016,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13</c:v>
@@ -4750,13 +4753,13 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0</c:v>
@@ -6432,6 +6435,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16409,8 +16415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6CF7-CA58-448E-9A43-748C25428E75}">
   <dimension ref="A1:BA367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="49" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AF80" sqref="AF80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -16459,11 +16465,11 @@
       <c r="G1" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
       <c r="AK1" t="s">
         <v>214</v>
       </c>
@@ -16481,13 +16487,13 @@
       <c r="B2" s="76">
         <v>2.5</v>
       </c>
-      <c r="C2" s="133">
+      <c r="C2" s="144">
         <f>AVERAGE(B2:B32)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="128">
+      <c r="D2" s="139">
         <f>AVERAGE(C2:C366)</f>
-        <v>4.9882783882783883</v>
+        <v>4.9881834215167542</v>
       </c>
       <c r="E2" s="62">
         <v>1</v>
@@ -16495,9 +16501,9 @@
       <c r="F2" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="AK2" s="75">
         <v>45658</v>
       </c>
@@ -16571,8 +16577,8 @@
       <c r="B3" s="2">
         <v>2.8</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="129"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="140"/>
       <c r="E3" s="62">
         <v>1</v>
       </c>
@@ -16653,8 +16659,8 @@
       <c r="B4" s="2">
         <v>4.8</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="129"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="62">
         <v>1</v>
       </c>
@@ -16769,8 +16775,8 @@
       <c r="B5" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="129"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="140"/>
       <c r="E5" s="62">
         <v>1</v>
       </c>
@@ -16795,9 +16801,9 @@
         <f>C2</f>
         <v>5</v>
       </c>
-      <c r="N5" s="140">
+      <c r="N5" s="132">
         <f>AVERAGE(M5:M16)</f>
-        <v>4.9882783882783883</v>
+        <v>4.9881834215167542</v>
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -16897,8 +16903,8 @@
       <c r="B6" s="2">
         <v>6.2</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="129"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="140"/>
       <c r="E6" s="62">
         <v>1</v>
       </c>
@@ -16922,7 +16928,7 @@
         <f>C33</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="N6" s="141"/>
+      <c r="N6" s="133"/>
       <c r="O6" s="61">
         <f>COUNTIFS(B33:B60,"&gt;=10")</f>
         <v>0</v>
@@ -17021,8 +17027,8 @@
       <c r="B7" s="2">
         <v>6.1</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="129"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="140"/>
       <c r="E7" s="62">
         <v>1</v>
       </c>
@@ -17045,9 +17051,9 @@
       </c>
       <c r="M7" s="32">
         <f>C61</f>
-        <v>5.2076923076923078</v>
-      </c>
-      <c r="N7" s="141"/>
+        <v>5.2074074074074073</v>
+      </c>
+      <c r="N7" s="133"/>
       <c r="O7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=10")</f>
         <v>0</v>
@@ -17062,7 +17068,7 @@
       </c>
       <c r="R7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=4", B61:B91,"&lt;6")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=2", B61:B91,"&lt;4")</f>
@@ -17146,8 +17152,8 @@
       <c r="B8" s="2">
         <v>3.5</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="129"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="140"/>
       <c r="E8" s="62">
         <v>1</v>
       </c>
@@ -17162,13 +17168,13 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="60" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="32"/>
-      <c r="N8" s="141"/>
+      <c r="N8" s="133"/>
       <c r="O8" s="61"/>
       <c r="P8" s="61"/>
       <c r="Q8" s="61"/>
@@ -17249,8 +17255,8 @@
       <c r="B9" s="2">
         <v>1.2</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="129"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="140"/>
       <c r="E9" s="62">
         <v>1</v>
       </c>
@@ -17274,7 +17280,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="32"/>
-      <c r="N9" s="141"/>
+      <c r="N9" s="133"/>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="61"/>
@@ -17355,8 +17361,8 @@
       <c r="B10" s="2">
         <v>5.6</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="129"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="62">
         <v>1</v>
       </c>
@@ -17377,7 +17383,7 @@
         <v>13</v>
       </c>
       <c r="M10" s="32"/>
-      <c r="N10" s="141"/>
+      <c r="N10" s="133"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
       <c r="Q10" s="61"/>
@@ -17458,8 +17464,8 @@
       <c r="B11" s="2">
         <v>4.3</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="129"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="62">
         <v>1</v>
       </c>
@@ -17467,19 +17473,19 @@
         <v>180</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="136" t="s">
+      <c r="H11" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="137"/>
+      <c r="I11" s="129"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="32"/>
-      <c r="N11" s="141"/>
+      <c r="N11" s="133"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="61"/>
@@ -17560,8 +17566,8 @@
       <c r="B12" s="2">
         <v>5.4</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="129"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="62">
         <v>1</v>
       </c>
@@ -17572,7 +17578,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="141"/>
+      <c r="N12" s="133"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
@@ -17653,8 +17659,8 @@
       <c r="B13" s="2">
         <v>7.2</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="129"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="140"/>
       <c r="E13" s="62">
         <v>1</v>
       </c>
@@ -17662,19 +17668,19 @@
         <v>180</v>
       </c>
       <c r="G13" s="78"/>
-      <c r="H13" s="138" t="s">
+      <c r="H13" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="138"/>
-      <c r="J13" s="139">
+      <c r="I13" s="130"/>
+      <c r="J13" s="131">
         <f>J11/3.65</f>
-        <v>23.287671232876711</v>
+        <v>23.56164383561644</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="32"/>
-      <c r="N13" s="141"/>
+      <c r="N13" s="133"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
       <c r="Q13" s="61"/>
@@ -17771,22 +17777,22 @@
       <c r="B14" s="2">
         <v>3.9</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="129"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="140"/>
       <c r="E14" s="62">
         <v>0.8</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="139"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
       <c r="L14" s="60" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="32"/>
-      <c r="N14" s="141"/>
+      <c r="N14" s="133"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
       <c r="Q14" s="61"/>
@@ -17888,8 +17894,8 @@
       <c r="B15" s="2">
         <v>1.5</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="129"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="62">
         <v>1</v>
       </c>
@@ -17903,7 +17909,7 @@
         <v>18</v>
       </c>
       <c r="M15" s="32"/>
-      <c r="N15" s="141"/>
+      <c r="N15" s="133"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="61"/>
@@ -18005,8 +18011,8 @@
       <c r="B16" s="2">
         <v>5.2</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="129"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="140"/>
       <c r="E16" s="62">
         <v>1</v>
       </c>
@@ -18017,7 +18023,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="32"/>
-      <c r="N16" s="142"/>
+      <c r="N16" s="134"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="61"/>
@@ -18119,8 +18125,8 @@
       <c r="B17" s="2">
         <v>6.5</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="129"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="140"/>
       <c r="E17" s="62">
         <v>1</v>
       </c>
@@ -18219,8 +18225,8 @@
       <c r="B18" s="2">
         <v>2.9</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="129"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="140"/>
       <c r="E18" s="62">
         <v>0.6</v>
       </c>
@@ -18318,8 +18324,8 @@
       <c r="B19" s="2">
         <v>3.3</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="129"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="62">
         <v>0</v>
       </c>
@@ -18418,8 +18424,8 @@
       <c r="B20" s="2">
         <v>6.2</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="129"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="140"/>
       <c r="E20" s="62">
         <v>1</v>
       </c>
@@ -18515,8 +18521,8 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="129"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="140"/>
       <c r="E21" s="62">
         <v>1</v>
       </c>
@@ -18613,8 +18619,8 @@
       <c r="B22" s="2">
         <v>4.3</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="129"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="62">
         <v>0</v>
       </c>
@@ -18698,8 +18704,8 @@
       <c r="B23" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="129"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="140"/>
       <c r="E23" s="62">
         <v>0</v>
       </c>
@@ -18784,8 +18790,8 @@
       <c r="B24" s="2">
         <v>1.2</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="129"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="140"/>
       <c r="E24" s="62">
         <v>1</v>
       </c>
@@ -18869,8 +18875,8 @@
       <c r="B25" s="2">
         <v>6.2</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="129"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="140"/>
       <c r="E25" s="62">
         <v>1</v>
       </c>
@@ -18955,8 +18961,8 @@
       <c r="B26" s="2">
         <v>8.1</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="129"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="140"/>
       <c r="E26" s="62">
         <v>0</v>
       </c>
@@ -19036,8 +19042,8 @@
       <c r="B27" s="2">
         <v>6.8</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="129"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="140"/>
       <c r="E27" s="62">
         <v>0</v>
       </c>
@@ -19118,8 +19124,8 @@
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="129"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="140"/>
       <c r="E28" s="62">
         <v>1</v>
       </c>
@@ -19199,8 +19205,8 @@
       <c r="B29" s="2">
         <v>5.8</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="129"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="140"/>
       <c r="E29" s="62">
         <v>1</v>
       </c>
@@ -19281,8 +19287,8 @@
       <c r="B30" s="2">
         <v>5.3</v>
       </c>
-      <c r="C30" s="134"/>
-      <c r="D30" s="129"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="140"/>
       <c r="E30" s="62">
         <v>0</v>
       </c>
@@ -19362,8 +19368,8 @@
       <c r="B31" s="2">
         <v>7.4</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="129"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="140"/>
       <c r="E31" s="62">
         <v>1</v>
       </c>
@@ -19444,8 +19450,8 @@
       <c r="B32" s="58">
         <v>8.5</v>
       </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="129"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="140"/>
       <c r="E32" s="62">
         <v>1</v>
       </c>
@@ -19532,11 +19538,11 @@
       <c r="B33" s="51">
         <v>4.8</v>
       </c>
-      <c r="C33" s="131">
+      <c r="C33" s="142">
         <f>AVERAGE(B33:B60)</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="D33" s="130"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="62">
         <v>1</v>
       </c>
@@ -19618,8 +19624,8 @@
       <c r="B34" s="2">
         <v>4.5</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="130"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="62">
         <v>0</v>
       </c>
@@ -19696,8 +19702,8 @@
       <c r="B35" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="141"/>
       <c r="E35" s="62">
         <v>1</v>
       </c>
@@ -19775,8 +19781,8 @@
       <c r="B36" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="130"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="62">
         <v>1</v>
       </c>
@@ -19853,8 +19859,8 @@
       <c r="B37" s="2">
         <v>3.3</v>
       </c>
-      <c r="C37" s="132"/>
-      <c r="D37" s="130"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="62">
         <v>0</v>
       </c>
@@ -19931,8 +19937,8 @@
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="130"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="141"/>
       <c r="E38" s="62">
         <v>1</v>
       </c>
@@ -20009,8 +20015,8 @@
       <c r="B39" s="2">
         <v>1.3</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="130"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="62">
         <v>0</v>
       </c>
@@ -20087,8 +20093,8 @@
       <c r="B40" s="2">
         <v>8.5</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="130"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="141"/>
       <c r="E40" s="62">
         <v>1</v>
       </c>
@@ -20168,8 +20174,8 @@
       <c r="B41" s="2">
         <v>4.5</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="D41" s="130"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="141"/>
       <c r="E41" s="62">
         <v>0</v>
       </c>
@@ -20246,8 +20252,8 @@
       <c r="B42" s="2">
         <v>3.8</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="130"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="141"/>
       <c r="E42" s="62">
         <v>1</v>
       </c>
@@ -20324,8 +20330,8 @@
       <c r="B43" s="2">
         <v>5.5</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="130"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="141"/>
       <c r="E43" s="62">
         <v>1</v>
       </c>
@@ -20406,8 +20412,8 @@
       <c r="B44" s="2">
         <v>5.8</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="130"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="141"/>
       <c r="E44" s="62">
         <v>1</v>
       </c>
@@ -20488,8 +20494,8 @@
       <c r="B45" s="2">
         <v>5.5</v>
       </c>
-      <c r="C45" s="132"/>
-      <c r="D45" s="130"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="141"/>
       <c r="E45" s="62">
         <v>0</v>
       </c>
@@ -20570,8 +20576,8 @@
       <c r="B46" s="2">
         <v>0</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="130"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="141"/>
       <c r="E46" s="62">
         <v>0</v>
       </c>
@@ -20655,8 +20661,8 @@
       <c r="B47" s="2">
         <v>4.5</v>
       </c>
-      <c r="C47" s="132"/>
-      <c r="D47" s="130"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="141"/>
       <c r="E47" s="62">
         <v>1</v>
       </c>
@@ -20737,8 +20743,8 @@
       <c r="B48" s="2">
         <v>6.6</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="130"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="141"/>
       <c r="E48" s="62">
         <v>1</v>
       </c>
@@ -20819,8 +20825,8 @@
       <c r="B49" s="2">
         <v>7.5</v>
       </c>
-      <c r="C49" s="132"/>
-      <c r="D49" s="130"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="141"/>
       <c r="E49" s="62">
         <v>1</v>
       </c>
@@ -20901,8 +20907,8 @@
       <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="130"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="141"/>
       <c r="E50" s="62">
         <v>1</v>
       </c>
@@ -20983,8 +20989,8 @@
       <c r="B51" s="2">
         <v>4.8</v>
       </c>
-      <c r="C51" s="132"/>
-      <c r="D51" s="130"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="141"/>
       <c r="E51" s="62">
         <v>0</v>
       </c>
@@ -21065,8 +21071,8 @@
       <c r="B52" s="2">
         <v>6.8</v>
       </c>
-      <c r="C52" s="132"/>
-      <c r="D52" s="130"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="141"/>
       <c r="E52" s="62">
         <v>1</v>
       </c>
@@ -21147,8 +21153,8 @@
       <c r="B53" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="130"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="141"/>
       <c r="E53" s="62">
         <v>1</v>
       </c>
@@ -21229,8 +21235,8 @@
       <c r="B54" s="2">
         <v>5.5</v>
       </c>
-      <c r="C54" s="132"/>
-      <c r="D54" s="130"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="141"/>
       <c r="E54" s="62">
         <v>0</v>
       </c>
@@ -21311,8 +21317,8 @@
       <c r="B55" s="2">
         <v>4.5</v>
       </c>
-      <c r="C55" s="132"/>
-      <c r="D55" s="130"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="141"/>
       <c r="E55" s="62">
         <v>1</v>
       </c>
@@ -21393,8 +21399,8 @@
       <c r="B56" s="2">
         <v>6.5</v>
       </c>
-      <c r="C56" s="132"/>
-      <c r="D56" s="130"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="141"/>
       <c r="E56" s="62">
         <v>1</v>
       </c>
@@ -21475,8 +21481,8 @@
       <c r="B57" s="2">
         <v>4.5</v>
       </c>
-      <c r="C57" s="132"/>
-      <c r="D57" s="130"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="141"/>
       <c r="E57" s="62">
         <v>1</v>
       </c>
@@ -21557,8 +21563,8 @@
       <c r="B58" s="2">
         <v>7.5</v>
       </c>
-      <c r="C58" s="132"/>
-      <c r="D58" s="130"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="141"/>
       <c r="E58" s="62">
         <v>0</v>
       </c>
@@ -21639,8 +21645,8 @@
       <c r="B59" s="2">
         <v>5</v>
       </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="130"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="141"/>
       <c r="E59" s="62">
         <v>1</v>
       </c>
@@ -21721,8 +21727,8 @@
       <c r="B60" s="2">
         <v>5.5</v>
       </c>
-      <c r="C60" s="132"/>
-      <c r="D60" s="130"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="141"/>
       <c r="E60" s="62">
         <v>1</v>
       </c>
@@ -21803,11 +21809,11 @@
       <c r="B61" s="2">
         <v>5</v>
       </c>
-      <c r="C61" s="132">
+      <c r="C61" s="143">
         <f>AVERAGE(B61:B91)</f>
-        <v>5.2076923076923078</v>
-      </c>
-      <c r="D61" s="130"/>
+        <v>5.2074074074074073</v>
+      </c>
+      <c r="D61" s="141"/>
       <c r="E61" s="62">
         <v>0</v>
       </c>
@@ -21888,8 +21894,8 @@
       <c r="B62" s="2">
         <v>4.8</v>
       </c>
-      <c r="C62" s="132"/>
-      <c r="D62" s="130"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="141"/>
       <c r="E62" s="62">
         <v>0</v>
       </c>
@@ -21970,8 +21976,8 @@
       <c r="B63" s="2">
         <v>3</v>
       </c>
-      <c r="C63" s="132"/>
-      <c r="D63" s="130"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="141"/>
       <c r="E63" s="62">
         <v>1</v>
       </c>
@@ -22052,8 +22058,8 @@
       <c r="B64" s="2">
         <v>4</v>
       </c>
-      <c r="C64" s="132"/>
-      <c r="D64" s="130"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="141"/>
       <c r="E64" s="62">
         <v>1</v>
       </c>
@@ -22134,8 +22140,8 @@
       <c r="B65" s="2">
         <v>5</v>
       </c>
-      <c r="C65" s="132"/>
-      <c r="D65" s="130"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="141"/>
       <c r="E65" s="62">
         <v>0</v>
       </c>
@@ -22216,8 +22222,8 @@
       <c r="B66" s="2">
         <v>6.5</v>
       </c>
-      <c r="C66" s="132"/>
-      <c r="D66" s="130"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="141"/>
       <c r="E66" s="62">
         <v>0</v>
       </c>
@@ -22298,8 +22304,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="132"/>
-      <c r="D67" s="130"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="141"/>
       <c r="E67" s="62">
         <v>1</v>
       </c>
@@ -22379,8 +22385,8 @@
       <c r="B68" s="2">
         <v>6.1</v>
       </c>
-      <c r="C68" s="132"/>
-      <c r="D68" s="130"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="141"/>
       <c r="E68" s="62">
         <v>1</v>
       </c>
@@ -22460,8 +22466,8 @@
       <c r="B69" s="2">
         <v>8</v>
       </c>
-      <c r="C69" s="132"/>
-      <c r="D69" s="130"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="141"/>
       <c r="E69" s="62">
         <v>0</v>
       </c>
@@ -22541,8 +22547,8 @@
       <c r="B70" s="2">
         <v>4.5</v>
       </c>
-      <c r="C70" s="132"/>
-      <c r="D70" s="130"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="141"/>
       <c r="E70" s="62">
         <v>1</v>
       </c>
@@ -22622,8 +22628,8 @@
       <c r="B71" s="2">
         <v>7</v>
       </c>
-      <c r="C71" s="132"/>
-      <c r="D71" s="130"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="141"/>
       <c r="E71" s="62">
         <v>1</v>
       </c>
@@ -22703,8 +22709,8 @@
       <c r="B72" s="2">
         <v>4.8</v>
       </c>
-      <c r="C72" s="132"/>
-      <c r="D72" s="130"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="141"/>
       <c r="E72" s="62">
         <v>1</v>
       </c>
@@ -22784,8 +22790,8 @@
       <c r="B73" s="2">
         <v>5</v>
       </c>
-      <c r="C73" s="132"/>
-      <c r="D73" s="130"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="141"/>
       <c r="E73" s="62">
         <v>1</v>
       </c>
@@ -22865,8 +22871,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="132"/>
-      <c r="D74" s="130"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="141"/>
       <c r="E74" s="62">
         <v>0</v>
       </c>
@@ -22946,8 +22952,8 @@
       <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75" s="132"/>
-      <c r="D75" s="130"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="141"/>
       <c r="E75" s="62">
         <v>0</v>
       </c>
@@ -23027,8 +23033,8 @@
       <c r="B76" s="2">
         <v>5</v>
       </c>
-      <c r="C76" s="132"/>
-      <c r="D76" s="130"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="141"/>
       <c r="E76" s="62">
         <v>1</v>
       </c>
@@ -23108,8 +23114,8 @@
       <c r="B77" s="2">
         <v>4.2</v>
       </c>
-      <c r="C77" s="132"/>
-      <c r="D77" s="130"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="141"/>
       <c r="E77" s="62">
         <v>0</v>
       </c>
@@ -23189,8 +23195,8 @@
       <c r="B78" s="2">
         <v>5.5</v>
       </c>
-      <c r="C78" s="132"/>
-      <c r="D78" s="130"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="141"/>
       <c r="E78" s="62">
         <v>1</v>
       </c>
@@ -23270,8 +23276,8 @@
       <c r="B79" s="2">
         <v>3</v>
       </c>
-      <c r="C79" s="132"/>
-      <c r="D79" s="130"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="141"/>
       <c r="E79" s="62">
         <v>0</v>
       </c>
@@ -23351,8 +23357,8 @@
       <c r="B80" s="2">
         <v>5</v>
       </c>
-      <c r="C80" s="132"/>
-      <c r="D80" s="130"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="141"/>
       <c r="E80" s="62">
         <v>1</v>
       </c>
@@ -23432,8 +23438,8 @@
       <c r="B81" s="2">
         <v>5</v>
       </c>
-      <c r="C81" s="132"/>
-      <c r="D81" s="130"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="141"/>
       <c r="E81" s="62">
         <v>1</v>
       </c>
@@ -23513,8 +23519,8 @@
       <c r="B82" s="2">
         <v>7.5</v>
       </c>
-      <c r="C82" s="132"/>
-      <c r="D82" s="130"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="141"/>
       <c r="E82" s="62">
         <v>1</v>
       </c>
@@ -23594,8 +23600,8 @@
       <c r="B83" s="2">
         <v>7</v>
       </c>
-      <c r="C83" s="132"/>
-      <c r="D83" s="130"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="141"/>
       <c r="E83" s="62">
         <v>1</v>
       </c>
@@ -23678,8 +23684,8 @@
       <c r="B84" s="2">
         <v>4</v>
       </c>
-      <c r="C84" s="132"/>
-      <c r="D84" s="130"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="141"/>
       <c r="E84" s="62">
         <v>0</v>
       </c>
@@ -23759,8 +23765,8 @@
       <c r="B85" s="2">
         <v>5.5</v>
       </c>
-      <c r="C85" s="132"/>
-      <c r="D85" s="130"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="141"/>
       <c r="E85" s="62">
         <v>1</v>
       </c>
@@ -23777,9 +23783,8 @@
       <c r="AL85" s="2">
         <v>8</v>
       </c>
-      <c r="AM85" t="str">
-        <f>TRIM(MID(SUBSTITUTE($F85, ",", REPT(" ", 100)), (COLUMNS($AH$2:AM85)-1)*100+1, 100))</f>
-        <v/>
+      <c r="AM85" s="2">
+        <v>5.5</v>
       </c>
       <c r="AO85" t="str">
         <f>TRIM(MID(SUBSTITUTE($F85, ",", REPT(" ", 100)), (COLUMNS($AH$2:AO85)-1)*100+1, 100))</f>
@@ -23841,14 +23846,17 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="132"/>
-      <c r="D86" s="130"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="141"/>
       <c r="E86" s="62">
         <v>1</v>
       </c>
       <c r="F86" s="38" t="s">
         <v>180</v>
       </c>
+      <c r="G86" s="38" t="s">
+        <v>268</v>
+      </c>
       <c r="AJ86" t="str">
         <f>TRIM(MID(SUBSTITUTE($F86, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ86)-1)*100+1, 100))</f>
         <v/>
@@ -23859,9 +23867,8 @@
       <c r="AL86" s="2">
         <v>6</v>
       </c>
-      <c r="AM86" t="str">
-        <f>TRIM(MID(SUBSTITUTE($F86, ",", REPT(" ", 100)), (COLUMNS($AH$2:AM86)-1)*100+1, 100))</f>
-        <v/>
+      <c r="AM86" s="2">
+        <v>6</v>
       </c>
       <c r="AO86" t="str">
         <f>TRIM(MID(SUBSTITUTE($F86, ",", REPT(" ", 100)), (COLUMNS($AH$2:AO86)-1)*100+1, 100))</f>
@@ -23920,9 +23927,11 @@
       <c r="A87" s="1">
         <v>45743</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="132"/>
-      <c r="D87" s="130"/>
+      <c r="B87" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="C87" s="143"/>
+      <c r="D87" s="141"/>
       <c r="E87" s="62">
         <v>1</v>
       </c>
@@ -23939,9 +23948,8 @@
       <c r="AL87" s="2">
         <v>4</v>
       </c>
-      <c r="AM87" t="str">
-        <f>TRIM(MID(SUBSTITUTE($F87, ",", REPT(" ", 100)), (COLUMNS($AH$2:AM87)-1)*100+1, 100))</f>
-        <v/>
+      <c r="AM87" s="2">
+        <v>5.2</v>
       </c>
       <c r="AO87" t="str">
         <f>TRIM(MID(SUBSTITUTE($F87, ",", REPT(" ", 100)), (COLUMNS($AH$2:AO87)-1)*100+1, 100))</f>
@@ -24001,8 +24009,8 @@
         <v>45744</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="130"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="141"/>
       <c r="E88" s="62">
         <v>1</v>
       </c>
@@ -24081,8 +24089,8 @@
         <v>45745</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="130"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="141"/>
       <c r="E89" s="62">
         <v>1</v>
       </c>
@@ -24161,8 +24169,8 @@
         <v>45746</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="132"/>
-      <c r="D90" s="130"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="141"/>
       <c r="E90" s="62">
         <v>1</v>
       </c>
@@ -24241,8 +24249,8 @@
         <v>45747</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="132"/>
-      <c r="D91" s="130"/>
+      <c r="C91" s="143"/>
+      <c r="D91" s="141"/>
       <c r="E91" s="62">
         <v>1</v>
       </c>
@@ -24321,8 +24329,8 @@
         <v>45748</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="132"/>
-      <c r="D92" s="130"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="141"/>
       <c r="AJ92" t="str">
         <f>TRIM(MID(SUBSTITUTE($F92, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ92)-1)*100+1, 100))</f>
         <v/>
@@ -24397,8 +24405,8 @@
         <v>45749</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="132"/>
-      <c r="D93" s="130"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="141"/>
       <c r="AJ93" t="str">
         <f>TRIM(MID(SUBSTITUTE($F93, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ93)-1)*100+1, 100))</f>
         <v/>
@@ -24473,8 +24481,8 @@
         <v>45750</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="132"/>
-      <c r="D94" s="130"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="141"/>
       <c r="AJ94" t="str">
         <f>TRIM(MID(SUBSTITUTE($F94, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ94)-1)*100+1, 100))</f>
         <v/>
@@ -24549,8 +24557,8 @@
         <v>45751</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="132"/>
-      <c r="D95" s="130"/>
+      <c r="C95" s="143"/>
+      <c r="D95" s="141"/>
       <c r="AJ95" t="str">
         <f>TRIM(MID(SUBSTITUTE($F95, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ95)-1)*100+1, 100))</f>
         <v/>
@@ -24625,8 +24633,8 @@
         <v>45752</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="132"/>
-      <c r="D96" s="130"/>
+      <c r="C96" s="143"/>
+      <c r="D96" s="141"/>
       <c r="AJ96" t="str">
         <f>TRIM(MID(SUBSTITUTE($F96, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ96)-1)*100+1, 100))</f>
         <v/>
@@ -24701,8 +24709,8 @@
         <v>45753</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="132"/>
-      <c r="D97" s="130"/>
+      <c r="C97" s="143"/>
+      <c r="D97" s="141"/>
       <c r="AJ97" t="str">
         <f>TRIM(MID(SUBSTITUTE($F97, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ97)-1)*100+1, 100))</f>
         <v/>
@@ -24777,8 +24785,8 @@
         <v>45754</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="132"/>
-      <c r="D98" s="130"/>
+      <c r="C98" s="143"/>
+      <c r="D98" s="141"/>
       <c r="AJ98" t="str">
         <f>TRIM(MID(SUBSTITUTE($F98, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ98)-1)*100+1, 100))</f>
         <v/>
@@ -24853,8 +24861,8 @@
         <v>45755</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="132"/>
-      <c r="D99" s="130"/>
+      <c r="C99" s="143"/>
+      <c r="D99" s="141"/>
       <c r="AJ99" t="str">
         <f>TRIM(MID(SUBSTITUTE($F99, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ99)-1)*100+1, 100))</f>
         <v/>
@@ -24929,8 +24937,8 @@
         <v>45756</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="132"/>
-      <c r="D100" s="130"/>
+      <c r="C100" s="143"/>
+      <c r="D100" s="141"/>
       <c r="AJ100" t="str">
         <f>TRIM(MID(SUBSTITUTE($F100, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ100)-1)*100+1, 100))</f>
         <v/>
@@ -25005,8 +25013,8 @@
         <v>45757</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="132"/>
-      <c r="D101" s="130"/>
+      <c r="C101" s="143"/>
+      <c r="D101" s="141"/>
       <c r="AJ101" t="str">
         <f>TRIM(MID(SUBSTITUTE($F101, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ101)-1)*100+1, 100))</f>
         <v/>
@@ -25081,8 +25089,8 @@
         <v>45758</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="132"/>
-      <c r="D102" s="130"/>
+      <c r="C102" s="143"/>
+      <c r="D102" s="141"/>
       <c r="AJ102" t="str">
         <f>TRIM(MID(SUBSTITUTE($F102, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ102)-1)*100+1, 100))</f>
         <v/>
@@ -25157,8 +25165,8 @@
         <v>45759</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="132"/>
-      <c r="D103" s="130"/>
+      <c r="C103" s="143"/>
+      <c r="D103" s="141"/>
       <c r="AJ103" t="str">
         <f>TRIM(MID(SUBSTITUTE($F103, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ103)-1)*100+1, 100))</f>
         <v/>
@@ -25233,8 +25241,8 @@
         <v>45760</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="132"/>
-      <c r="D104" s="130"/>
+      <c r="C104" s="143"/>
+      <c r="D104" s="141"/>
       <c r="AJ104" t="str">
         <f>TRIM(MID(SUBSTITUTE($F104, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ104)-1)*100+1, 100))</f>
         <v/>
@@ -25309,8 +25317,8 @@
         <v>45761</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="132"/>
-      <c r="D105" s="130"/>
+      <c r="C105" s="143"/>
+      <c r="D105" s="141"/>
       <c r="AJ105" t="str">
         <f>TRIM(MID(SUBSTITUTE($F105, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ105)-1)*100+1, 100))</f>
         <v/>
@@ -25385,8 +25393,8 @@
         <v>45762</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="132"/>
-      <c r="D106" s="130"/>
+      <c r="C106" s="143"/>
+      <c r="D106" s="141"/>
       <c r="AJ106" t="str">
         <f>TRIM(MID(SUBSTITUTE($F106, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ106)-1)*100+1, 100))</f>
         <v/>
@@ -25461,8 +25469,8 @@
         <v>45763</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="132"/>
-      <c r="D107" s="130"/>
+      <c r="C107" s="143"/>
+      <c r="D107" s="141"/>
       <c r="AJ107" t="str">
         <f>TRIM(MID(SUBSTITUTE($F107, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ107)-1)*100+1, 100))</f>
         <v/>
@@ -25537,8 +25545,8 @@
         <v>45764</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="132"/>
-      <c r="D108" s="130"/>
+      <c r="C108" s="143"/>
+      <c r="D108" s="141"/>
       <c r="AJ108" t="str">
         <f>TRIM(MID(SUBSTITUTE($F108, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ108)-1)*100+1, 100))</f>
         <v/>
@@ -25613,8 +25621,8 @@
         <v>45765</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="132"/>
-      <c r="D109" s="130"/>
+      <c r="C109" s="143"/>
+      <c r="D109" s="141"/>
       <c r="AJ109" t="str">
         <f>TRIM(MID(SUBSTITUTE($F109, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ109)-1)*100+1, 100))</f>
         <v/>
@@ -25689,8 +25697,8 @@
         <v>45766</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="132"/>
-      <c r="D110" s="130"/>
+      <c r="C110" s="143"/>
+      <c r="D110" s="141"/>
       <c r="AJ110" t="str">
         <f>TRIM(MID(SUBSTITUTE($F110, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ110)-1)*100+1, 100))</f>
         <v/>
@@ -25765,8 +25773,8 @@
         <v>45767</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="132"/>
-      <c r="D111" s="130"/>
+      <c r="C111" s="143"/>
+      <c r="D111" s="141"/>
       <c r="AJ111" t="str">
         <f>TRIM(MID(SUBSTITUTE($F111, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ111)-1)*100+1, 100))</f>
         <v/>
@@ -25841,8 +25849,8 @@
         <v>45768</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="132"/>
-      <c r="D112" s="130"/>
+      <c r="C112" s="143"/>
+      <c r="D112" s="141"/>
       <c r="AJ112" t="str">
         <f>TRIM(MID(SUBSTITUTE($F112, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ112)-1)*100+1, 100))</f>
         <v/>
@@ -25917,8 +25925,8 @@
         <v>45769</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="132"/>
-      <c r="D113" s="130"/>
+      <c r="C113" s="143"/>
+      <c r="D113" s="141"/>
       <c r="AJ113" t="str">
         <f>TRIM(MID(SUBSTITUTE($F113, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ113)-1)*100+1, 100))</f>
         <v/>
@@ -25993,8 +26001,8 @@
         <v>45770</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="132"/>
-      <c r="D114" s="130"/>
+      <c r="C114" s="143"/>
+      <c r="D114" s="141"/>
       <c r="AJ114" t="str">
         <f>TRIM(MID(SUBSTITUTE($F114, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ114)-1)*100+1, 100))</f>
         <v/>
@@ -26069,8 +26077,8 @@
         <v>45771</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="132"/>
-      <c r="D115" s="130"/>
+      <c r="C115" s="143"/>
+      <c r="D115" s="141"/>
       <c r="AJ115" t="str">
         <f>TRIM(MID(SUBSTITUTE($F115, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ115)-1)*100+1, 100))</f>
         <v/>
@@ -26145,8 +26153,8 @@
         <v>45772</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="132"/>
-      <c r="D116" s="130"/>
+      <c r="C116" s="143"/>
+      <c r="D116" s="141"/>
       <c r="AJ116" t="str">
         <f>TRIM(MID(SUBSTITUTE($F116, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ116)-1)*100+1, 100))</f>
         <v/>
@@ -26221,8 +26229,8 @@
         <v>45773</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="132"/>
-      <c r="D117" s="130"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="141"/>
       <c r="AJ117" t="str">
         <f>TRIM(MID(SUBSTITUTE($F117, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ117)-1)*100+1, 100))</f>
         <v/>
@@ -26297,8 +26305,8 @@
         <v>45774</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="132"/>
-      <c r="D118" s="130"/>
+      <c r="C118" s="143"/>
+      <c r="D118" s="141"/>
       <c r="AJ118" t="str">
         <f>TRIM(MID(SUBSTITUTE($F118, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ118)-1)*100+1, 100))</f>
         <v/>
@@ -26373,8 +26381,8 @@
         <v>45775</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="132"/>
-      <c r="D119" s="130"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="141"/>
       <c r="AJ119" t="str">
         <f>TRIM(MID(SUBSTITUTE($F119, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ119)-1)*100+1, 100))</f>
         <v/>
@@ -26449,8 +26457,8 @@
         <v>45776</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="132"/>
-      <c r="D120" s="130"/>
+      <c r="C120" s="143"/>
+      <c r="D120" s="141"/>
       <c r="AJ120" t="str">
         <f>TRIM(MID(SUBSTITUTE($F120, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ120)-1)*100+1, 100))</f>
         <v/>
@@ -26525,8 +26533,8 @@
         <v>45777</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="132"/>
-      <c r="D121" s="130"/>
+      <c r="C121" s="143"/>
+      <c r="D121" s="141"/>
       <c r="AJ121" t="str">
         <f>TRIM(MID(SUBSTITUTE($F121, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ121)-1)*100+1, 100))</f>
         <v/>
@@ -26601,8 +26609,8 @@
         <v>45778</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="132"/>
-      <c r="D122" s="130"/>
+      <c r="C122" s="143"/>
+      <c r="D122" s="141"/>
       <c r="AJ122" t="str">
         <f>TRIM(MID(SUBSTITUTE($F122, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ122)-1)*100+1, 100))</f>
         <v/>
@@ -26677,8 +26685,8 @@
         <v>45779</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="132"/>
-      <c r="D123" s="130"/>
+      <c r="C123" s="143"/>
+      <c r="D123" s="141"/>
       <c r="AJ123" t="str">
         <f>TRIM(MID(SUBSTITUTE($F123, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ123)-1)*100+1, 100))</f>
         <v/>
@@ -26753,8 +26761,8 @@
         <v>45780</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="132"/>
-      <c r="D124" s="130"/>
+      <c r="C124" s="143"/>
+      <c r="D124" s="141"/>
       <c r="AJ124" t="str">
         <f>TRIM(MID(SUBSTITUTE($F124, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ124)-1)*100+1, 100))</f>
         <v/>
@@ -26829,8 +26837,8 @@
         <v>45781</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="132"/>
-      <c r="D125" s="130"/>
+      <c r="C125" s="143"/>
+      <c r="D125" s="141"/>
       <c r="AJ125" t="str">
         <f>TRIM(MID(SUBSTITUTE($F125, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ125)-1)*100+1, 100))</f>
         <v/>
@@ -26905,8 +26913,8 @@
         <v>45782</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="132"/>
-      <c r="D126" s="130"/>
+      <c r="C126" s="143"/>
+      <c r="D126" s="141"/>
       <c r="AJ126" t="str">
         <f>TRIM(MID(SUBSTITUTE($F126, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ126)-1)*100+1, 100))</f>
         <v/>
@@ -26981,8 +26989,8 @@
         <v>45783</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="132"/>
-      <c r="D127" s="130"/>
+      <c r="C127" s="143"/>
+      <c r="D127" s="141"/>
       <c r="AJ127" t="str">
         <f>TRIM(MID(SUBSTITUTE($F127, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ127)-1)*100+1, 100))</f>
         <v/>
@@ -27057,8 +27065,8 @@
         <v>45784</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="132"/>
-      <c r="D128" s="130"/>
+      <c r="C128" s="143"/>
+      <c r="D128" s="141"/>
       <c r="AJ128" t="str">
         <f>TRIM(MID(SUBSTITUTE($F128, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ128)-1)*100+1, 100))</f>
         <v/>
@@ -27133,8 +27141,8 @@
         <v>45785</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="132"/>
-      <c r="D129" s="130"/>
+      <c r="C129" s="143"/>
+      <c r="D129" s="141"/>
       <c r="AJ129" t="str">
         <f>TRIM(MID(SUBSTITUTE($F129, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ129)-1)*100+1, 100))</f>
         <v/>
@@ -27209,8 +27217,8 @@
         <v>45786</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="132"/>
-      <c r="D130" s="130"/>
+      <c r="C130" s="143"/>
+      <c r="D130" s="141"/>
       <c r="AJ130" t="str">
         <f>TRIM(MID(SUBSTITUTE($F130, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ130)-1)*100+1, 100))</f>
         <v/>
@@ -27285,8 +27293,8 @@
         <v>45787</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="132"/>
-      <c r="D131" s="130"/>
+      <c r="C131" s="143"/>
+      <c r="D131" s="141"/>
       <c r="AJ131" t="str">
         <f>TRIM(MID(SUBSTITUTE($F131, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ131)-1)*100+1, 100))</f>
         <v/>
@@ -27361,8 +27369,8 @@
         <v>45788</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="132"/>
-      <c r="D132" s="130"/>
+      <c r="C132" s="143"/>
+      <c r="D132" s="141"/>
       <c r="AJ132" t="str">
         <f>TRIM(MID(SUBSTITUTE($F132, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ132)-1)*100+1, 100))</f>
         <v/>
@@ -27437,8 +27445,8 @@
         <v>45789</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="132"/>
-      <c r="D133" s="130"/>
+      <c r="C133" s="143"/>
+      <c r="D133" s="141"/>
       <c r="AJ133" t="str">
         <f>TRIM(MID(SUBSTITUTE($F133, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ133)-1)*100+1, 100))</f>
         <v/>
@@ -27513,8 +27521,8 @@
         <v>45790</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="132"/>
-      <c r="D134" s="130"/>
+      <c r="C134" s="143"/>
+      <c r="D134" s="141"/>
       <c r="AJ134" t="str">
         <f>TRIM(MID(SUBSTITUTE($F134, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ134)-1)*100+1, 100))</f>
         <v/>
@@ -27589,8 +27597,8 @@
         <v>45791</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="132"/>
-      <c r="D135" s="130"/>
+      <c r="C135" s="143"/>
+      <c r="D135" s="141"/>
       <c r="AJ135" t="str">
         <f>TRIM(MID(SUBSTITUTE($F135, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ135)-1)*100+1, 100))</f>
         <v/>
@@ -27665,8 +27673,8 @@
         <v>45792</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="132"/>
-      <c r="D136" s="130"/>
+      <c r="C136" s="143"/>
+      <c r="D136" s="141"/>
       <c r="AJ136" t="str">
         <f>TRIM(MID(SUBSTITUTE($F136, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ136)-1)*100+1, 100))</f>
         <v/>
@@ -27741,8 +27749,8 @@
         <v>45793</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="132"/>
-      <c r="D137" s="130"/>
+      <c r="C137" s="143"/>
+      <c r="D137" s="141"/>
       <c r="AJ137" t="str">
         <f>TRIM(MID(SUBSTITUTE($F137, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ137)-1)*100+1, 100))</f>
         <v/>
@@ -27817,8 +27825,8 @@
         <v>45794</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="132"/>
-      <c r="D138" s="130"/>
+      <c r="C138" s="143"/>
+      <c r="D138" s="141"/>
       <c r="AJ138" t="str">
         <f>TRIM(MID(SUBSTITUTE($F138, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ138)-1)*100+1, 100))</f>
         <v/>
@@ -27893,8 +27901,8 @@
         <v>45795</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="132"/>
-      <c r="D139" s="130"/>
+      <c r="C139" s="143"/>
+      <c r="D139" s="141"/>
       <c r="AJ139" t="str">
         <f>TRIM(MID(SUBSTITUTE($F139, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ139)-1)*100+1, 100))</f>
         <v/>
@@ -27969,8 +27977,8 @@
         <v>45796</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="132"/>
-      <c r="D140" s="130"/>
+      <c r="C140" s="143"/>
+      <c r="D140" s="141"/>
       <c r="AJ140" t="str">
         <f>TRIM(MID(SUBSTITUTE($F140, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ140)-1)*100+1, 100))</f>
         <v/>
@@ -28045,8 +28053,8 @@
         <v>45797</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="132"/>
-      <c r="D141" s="130"/>
+      <c r="C141" s="143"/>
+      <c r="D141" s="141"/>
       <c r="AJ141" t="str">
         <f>TRIM(MID(SUBSTITUTE($F141, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ141)-1)*100+1, 100))</f>
         <v/>
@@ -28121,8 +28129,8 @@
         <v>45798</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="132"/>
-      <c r="D142" s="130"/>
+      <c r="C142" s="143"/>
+      <c r="D142" s="141"/>
       <c r="AJ142" t="str">
         <f>TRIM(MID(SUBSTITUTE($F142, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ142)-1)*100+1, 100))</f>
         <v/>
@@ -28197,8 +28205,8 @@
         <v>45799</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="132"/>
-      <c r="D143" s="130"/>
+      <c r="C143" s="143"/>
+      <c r="D143" s="141"/>
       <c r="AJ143" t="str">
         <f>TRIM(MID(SUBSTITUTE($F143, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ143)-1)*100+1, 100))</f>
         <v/>
@@ -28273,8 +28281,8 @@
         <v>45800</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="132"/>
-      <c r="D144" s="130"/>
+      <c r="C144" s="143"/>
+      <c r="D144" s="141"/>
       <c r="AJ144" t="str">
         <f>TRIM(MID(SUBSTITUTE($F144, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ144)-1)*100+1, 100))</f>
         <v/>
@@ -28349,8 +28357,8 @@
         <v>45801</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="132"/>
-      <c r="D145" s="130"/>
+      <c r="C145" s="143"/>
+      <c r="D145" s="141"/>
       <c r="AJ145" t="str">
         <f>TRIM(MID(SUBSTITUTE($F145, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ145)-1)*100+1, 100))</f>
         <v/>
@@ -28425,8 +28433,8 @@
         <v>45802</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="132"/>
-      <c r="D146" s="130"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="141"/>
       <c r="AJ146" t="str">
         <f>TRIM(MID(SUBSTITUTE($F146, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ146)-1)*100+1, 100))</f>
         <v/>
@@ -28501,8 +28509,8 @@
         <v>45803</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="132"/>
-      <c r="D147" s="130"/>
+      <c r="C147" s="143"/>
+      <c r="D147" s="141"/>
       <c r="AJ147" t="str">
         <f>TRIM(MID(SUBSTITUTE($F147, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ147)-1)*100+1, 100))</f>
         <v/>
@@ -28577,8 +28585,8 @@
         <v>45804</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="132"/>
-      <c r="D148" s="130"/>
+      <c r="C148" s="143"/>
+      <c r="D148" s="141"/>
       <c r="AJ148" t="str">
         <f>TRIM(MID(SUBSTITUTE($F148, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ148)-1)*100+1, 100))</f>
         <v/>
@@ -28653,8 +28661,8 @@
         <v>45805</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="132"/>
-      <c r="D149" s="130"/>
+      <c r="C149" s="143"/>
+      <c r="D149" s="141"/>
       <c r="AJ149" t="str">
         <f>TRIM(MID(SUBSTITUTE($F149, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ149)-1)*100+1, 100))</f>
         <v/>
@@ -28729,8 +28737,8 @@
         <v>45806</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="132"/>
-      <c r="D150" s="130"/>
+      <c r="C150" s="143"/>
+      <c r="D150" s="141"/>
       <c r="AJ150" t="str">
         <f>TRIM(MID(SUBSTITUTE($F150, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ150)-1)*100+1, 100))</f>
         <v/>
@@ -28805,8 +28813,8 @@
         <v>45807</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="132"/>
-      <c r="D151" s="130"/>
+      <c r="C151" s="143"/>
+      <c r="D151" s="141"/>
       <c r="AJ151" t="str">
         <f>TRIM(MID(SUBSTITUTE($F151, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ151)-1)*100+1, 100))</f>
         <v/>
@@ -28881,8 +28889,8 @@
         <v>45808</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="132"/>
-      <c r="D152" s="130"/>
+      <c r="C152" s="143"/>
+      <c r="D152" s="141"/>
       <c r="AJ152" t="str">
         <f>TRIM(MID(SUBSTITUTE($F152, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ152)-1)*100+1, 100))</f>
         <v/>
@@ -28957,8 +28965,8 @@
         <v>45809</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="132"/>
-      <c r="D153" s="130"/>
+      <c r="C153" s="143"/>
+      <c r="D153" s="141"/>
       <c r="AJ153" t="str">
         <f>TRIM(MID(SUBSTITUTE($F153, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ153)-1)*100+1, 100))</f>
         <v/>
@@ -29033,8 +29041,8 @@
         <v>45810</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="132"/>
-      <c r="D154" s="130"/>
+      <c r="C154" s="143"/>
+      <c r="D154" s="141"/>
       <c r="AJ154" t="str">
         <f>TRIM(MID(SUBSTITUTE($F154, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ154)-1)*100+1, 100))</f>
         <v/>
@@ -29109,8 +29117,8 @@
         <v>45811</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="132"/>
-      <c r="D155" s="130"/>
+      <c r="C155" s="143"/>
+      <c r="D155" s="141"/>
       <c r="AJ155" t="str">
         <f>TRIM(MID(SUBSTITUTE($F155, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ155)-1)*100+1, 100))</f>
         <v/>
@@ -29185,8 +29193,8 @@
         <v>45812</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="132"/>
-      <c r="D156" s="130"/>
+      <c r="C156" s="143"/>
+      <c r="D156" s="141"/>
       <c r="AJ156" t="str">
         <f>TRIM(MID(SUBSTITUTE($F156, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ156)-1)*100+1, 100))</f>
         <v/>
@@ -29261,8 +29269,8 @@
         <v>45813</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="132"/>
-      <c r="D157" s="130"/>
+      <c r="C157" s="143"/>
+      <c r="D157" s="141"/>
       <c r="AJ157" t="str">
         <f>TRIM(MID(SUBSTITUTE($F157, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ157)-1)*100+1, 100))</f>
         <v/>
@@ -29337,8 +29345,8 @@
         <v>45814</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="132"/>
-      <c r="D158" s="130"/>
+      <c r="C158" s="143"/>
+      <c r="D158" s="141"/>
       <c r="AJ158" t="str">
         <f>TRIM(MID(SUBSTITUTE($F158, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ158)-1)*100+1, 100))</f>
         <v/>
@@ -29413,8 +29421,8 @@
         <v>45815</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="132"/>
-      <c r="D159" s="130"/>
+      <c r="C159" s="143"/>
+      <c r="D159" s="141"/>
       <c r="AJ159" t="str">
         <f>TRIM(MID(SUBSTITUTE($F159, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ159)-1)*100+1, 100))</f>
         <v/>
@@ -29489,8 +29497,8 @@
         <v>45816</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="132"/>
-      <c r="D160" s="130"/>
+      <c r="C160" s="143"/>
+      <c r="D160" s="141"/>
       <c r="AJ160" t="str">
         <f>TRIM(MID(SUBSTITUTE($F160, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ160)-1)*100+1, 100))</f>
         <v/>
@@ -29565,8 +29573,8 @@
         <v>45817</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="132"/>
-      <c r="D161" s="130"/>
+      <c r="C161" s="143"/>
+      <c r="D161" s="141"/>
       <c r="AJ161" t="str">
         <f>TRIM(MID(SUBSTITUTE($F161, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ161)-1)*100+1, 100))</f>
         <v/>
@@ -29641,8 +29649,8 @@
         <v>45818</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="132"/>
-      <c r="D162" s="130"/>
+      <c r="C162" s="143"/>
+      <c r="D162" s="141"/>
       <c r="AJ162" t="str">
         <f>TRIM(MID(SUBSTITUTE($F162, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ162)-1)*100+1, 100))</f>
         <v/>
@@ -29717,8 +29725,8 @@
         <v>45819</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="132"/>
-      <c r="D163" s="130"/>
+      <c r="C163" s="143"/>
+      <c r="D163" s="141"/>
       <c r="AJ163" t="str">
         <f>TRIM(MID(SUBSTITUTE($F163, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ163)-1)*100+1, 100))</f>
         <v/>
@@ -29793,8 +29801,8 @@
         <v>45820</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="132"/>
-      <c r="D164" s="130"/>
+      <c r="C164" s="143"/>
+      <c r="D164" s="141"/>
       <c r="AJ164" t="str">
         <f>TRIM(MID(SUBSTITUTE($F164, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ164)-1)*100+1, 100))</f>
         <v/>
@@ -29869,8 +29877,8 @@
         <v>45821</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="132"/>
-      <c r="D165" s="130"/>
+      <c r="C165" s="143"/>
+      <c r="D165" s="141"/>
       <c r="AJ165" t="str">
         <f>TRIM(MID(SUBSTITUTE($F165, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ165)-1)*100+1, 100))</f>
         <v/>
@@ -29945,8 +29953,8 @@
         <v>45822</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="132"/>
-      <c r="D166" s="130"/>
+      <c r="C166" s="143"/>
+      <c r="D166" s="141"/>
       <c r="AJ166" t="str">
         <f>TRIM(MID(SUBSTITUTE($F166, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ166)-1)*100+1, 100))</f>
         <v/>
@@ -30021,8 +30029,8 @@
         <v>45823</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="132"/>
-      <c r="D167" s="130"/>
+      <c r="C167" s="143"/>
+      <c r="D167" s="141"/>
       <c r="AJ167" t="str">
         <f>TRIM(MID(SUBSTITUTE($F167, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ167)-1)*100+1, 100))</f>
         <v/>
@@ -30097,8 +30105,8 @@
         <v>45824</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="132"/>
-      <c r="D168" s="130"/>
+      <c r="C168" s="143"/>
+      <c r="D168" s="141"/>
       <c r="AJ168" t="str">
         <f>TRIM(MID(SUBSTITUTE($F168, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ168)-1)*100+1, 100))</f>
         <v/>
@@ -30173,8 +30181,8 @@
         <v>45825</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="132"/>
-      <c r="D169" s="130"/>
+      <c r="C169" s="143"/>
+      <c r="D169" s="141"/>
       <c r="AJ169" t="str">
         <f>TRIM(MID(SUBSTITUTE($F169, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ169)-1)*100+1, 100))</f>
         <v/>
@@ -30249,8 +30257,8 @@
         <v>45826</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="132"/>
-      <c r="D170" s="130"/>
+      <c r="C170" s="143"/>
+      <c r="D170" s="141"/>
       <c r="AJ170" t="str">
         <f>TRIM(MID(SUBSTITUTE($F170, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ170)-1)*100+1, 100))</f>
         <v/>
@@ -30325,8 +30333,8 @@
         <v>45827</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="132"/>
-      <c r="D171" s="130"/>
+      <c r="C171" s="143"/>
+      <c r="D171" s="141"/>
       <c r="AJ171" t="str">
         <f>TRIM(MID(SUBSTITUTE($F171, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ171)-1)*100+1, 100))</f>
         <v/>
@@ -30401,8 +30409,8 @@
         <v>45828</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="132"/>
-      <c r="D172" s="130"/>
+      <c r="C172" s="143"/>
+      <c r="D172" s="141"/>
       <c r="AJ172" t="str">
         <f>TRIM(MID(SUBSTITUTE($F172, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ172)-1)*100+1, 100))</f>
         <v/>
@@ -30477,8 +30485,8 @@
         <v>45829</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="132"/>
-      <c r="D173" s="130"/>
+      <c r="C173" s="143"/>
+      <c r="D173" s="141"/>
       <c r="AJ173" t="str">
         <f>TRIM(MID(SUBSTITUTE($F173, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ173)-1)*100+1, 100))</f>
         <v/>
@@ -30553,8 +30561,8 @@
         <v>45830</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="132"/>
-      <c r="D174" s="130"/>
+      <c r="C174" s="143"/>
+      <c r="D174" s="141"/>
       <c r="AJ174" t="str">
         <f>TRIM(MID(SUBSTITUTE($F174, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ174)-1)*100+1, 100))</f>
         <v/>
@@ -30629,8 +30637,8 @@
         <v>45831</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="132"/>
-      <c r="D175" s="130"/>
+      <c r="C175" s="143"/>
+      <c r="D175" s="141"/>
       <c r="AJ175" t="str">
         <f>TRIM(MID(SUBSTITUTE($F175, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ175)-1)*100+1, 100))</f>
         <v/>
@@ -30705,8 +30713,8 @@
         <v>45832</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="132"/>
-      <c r="D176" s="130"/>
+      <c r="C176" s="143"/>
+      <c r="D176" s="141"/>
       <c r="AJ176" t="str">
         <f>TRIM(MID(SUBSTITUTE($F176, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ176)-1)*100+1, 100))</f>
         <v/>
@@ -30781,8 +30789,8 @@
         <v>45833</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="132"/>
-      <c r="D177" s="130"/>
+      <c r="C177" s="143"/>
+      <c r="D177" s="141"/>
       <c r="AJ177" t="str">
         <f>TRIM(MID(SUBSTITUTE($F177, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ177)-1)*100+1, 100))</f>
         <v/>
@@ -30857,8 +30865,8 @@
         <v>45834</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="132"/>
-      <c r="D178" s="130"/>
+      <c r="C178" s="143"/>
+      <c r="D178" s="141"/>
       <c r="AJ178" t="str">
         <f>TRIM(MID(SUBSTITUTE($F178, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ178)-1)*100+1, 100))</f>
         <v/>
@@ -30933,8 +30941,8 @@
         <v>45835</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="132"/>
-      <c r="D179" s="130"/>
+      <c r="C179" s="143"/>
+      <c r="D179" s="141"/>
       <c r="AJ179" t="str">
         <f>TRIM(MID(SUBSTITUTE($F179, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ179)-1)*100+1, 100))</f>
         <v/>
@@ -31009,8 +31017,8 @@
         <v>45836</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="132"/>
-      <c r="D180" s="130"/>
+      <c r="C180" s="143"/>
+      <c r="D180" s="141"/>
       <c r="AJ180" t="str">
         <f>TRIM(MID(SUBSTITUTE($F180, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ180)-1)*100+1, 100))</f>
         <v/>
@@ -31085,8 +31093,8 @@
         <v>45837</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="132"/>
-      <c r="D181" s="130"/>
+      <c r="C181" s="143"/>
+      <c r="D181" s="141"/>
       <c r="AJ181" t="str">
         <f>TRIM(MID(SUBSTITUTE($F181, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ181)-1)*100+1, 100))</f>
         <v/>
@@ -31161,8 +31169,8 @@
         <v>45838</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="132"/>
-      <c r="D182" s="130"/>
+      <c r="C182" s="143"/>
+      <c r="D182" s="141"/>
       <c r="AJ182" t="str">
         <f>TRIM(MID(SUBSTITUTE($F182, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ182)-1)*100+1, 100))</f>
         <v/>
@@ -31237,8 +31245,8 @@
         <v>45839</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="132"/>
-      <c r="D183" s="130"/>
+      <c r="C183" s="143"/>
+      <c r="D183" s="141"/>
       <c r="AJ183" t="str">
         <f>TRIM(MID(SUBSTITUTE($F183, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ183)-1)*100+1, 100))</f>
         <v/>
@@ -31313,8 +31321,8 @@
         <v>45840</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="132"/>
-      <c r="D184" s="130"/>
+      <c r="C184" s="143"/>
+      <c r="D184" s="141"/>
       <c r="AJ184" t="str">
         <f>TRIM(MID(SUBSTITUTE($F184, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ184)-1)*100+1, 100))</f>
         <v/>
@@ -31389,8 +31397,8 @@
         <v>45841</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="132"/>
-      <c r="D185" s="130"/>
+      <c r="C185" s="143"/>
+      <c r="D185" s="141"/>
       <c r="AJ185" t="str">
         <f>TRIM(MID(SUBSTITUTE($F185, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ185)-1)*100+1, 100))</f>
         <v/>
@@ -31465,8 +31473,8 @@
         <v>45842</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="132"/>
-      <c r="D186" s="130"/>
+      <c r="C186" s="143"/>
+      <c r="D186" s="141"/>
       <c r="AJ186" t="str">
         <f>TRIM(MID(SUBSTITUTE($F186, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ186)-1)*100+1, 100))</f>
         <v/>
@@ -31541,8 +31549,8 @@
         <v>45843</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="132"/>
-      <c r="D187" s="130"/>
+      <c r="C187" s="143"/>
+      <c r="D187" s="141"/>
       <c r="AJ187" t="str">
         <f>TRIM(MID(SUBSTITUTE($F187, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ187)-1)*100+1, 100))</f>
         <v/>
@@ -31617,8 +31625,8 @@
         <v>45844</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="132"/>
-      <c r="D188" s="130"/>
+      <c r="C188" s="143"/>
+      <c r="D188" s="141"/>
       <c r="AJ188" t="str">
         <f>TRIM(MID(SUBSTITUTE($F188, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ188)-1)*100+1, 100))</f>
         <v/>
@@ -31693,8 +31701,8 @@
         <v>45845</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="132"/>
-      <c r="D189" s="130"/>
+      <c r="C189" s="143"/>
+      <c r="D189" s="141"/>
       <c r="AJ189" t="str">
         <f>TRIM(MID(SUBSTITUTE($F189, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ189)-1)*100+1, 100))</f>
         <v/>
@@ -31769,8 +31777,8 @@
         <v>45846</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="132"/>
-      <c r="D190" s="130"/>
+      <c r="C190" s="143"/>
+      <c r="D190" s="141"/>
       <c r="AJ190" t="str">
         <f>TRIM(MID(SUBSTITUTE($F190, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ190)-1)*100+1, 100))</f>
         <v/>
@@ -31845,8 +31853,8 @@
         <v>45847</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="132"/>
-      <c r="D191" s="130"/>
+      <c r="C191" s="143"/>
+      <c r="D191" s="141"/>
       <c r="AJ191" t="str">
         <f>TRIM(MID(SUBSTITUTE($F191, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ191)-1)*100+1, 100))</f>
         <v/>
@@ -31921,8 +31929,8 @@
         <v>45848</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="132"/>
-      <c r="D192" s="130"/>
+      <c r="C192" s="143"/>
+      <c r="D192" s="141"/>
       <c r="AJ192" t="str">
         <f>TRIM(MID(SUBSTITUTE($F192, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ192)-1)*100+1, 100))</f>
         <v/>
@@ -31997,8 +32005,8 @@
         <v>45849</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="132"/>
-      <c r="D193" s="130"/>
+      <c r="C193" s="143"/>
+      <c r="D193" s="141"/>
       <c r="AJ193" t="str">
         <f>TRIM(MID(SUBSTITUTE($F193, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ193)-1)*100+1, 100))</f>
         <v/>
@@ -32073,8 +32081,8 @@
         <v>45850</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="132"/>
-      <c r="D194" s="130"/>
+      <c r="C194" s="143"/>
+      <c r="D194" s="141"/>
       <c r="AJ194" t="str">
         <f>TRIM(MID(SUBSTITUTE($F194, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ194)-1)*100+1, 100))</f>
         <v/>
@@ -32149,8 +32157,8 @@
         <v>45851</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="132"/>
-      <c r="D195" s="130"/>
+      <c r="C195" s="143"/>
+      <c r="D195" s="141"/>
       <c r="AJ195" t="str">
         <f>TRIM(MID(SUBSTITUTE($F195, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ195)-1)*100+1, 100))</f>
         <v/>
@@ -32225,8 +32233,8 @@
         <v>45852</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="132"/>
-      <c r="D196" s="130"/>
+      <c r="C196" s="143"/>
+      <c r="D196" s="141"/>
       <c r="AJ196" t="str">
         <f>TRIM(MID(SUBSTITUTE($F196, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ196)-1)*100+1, 100))</f>
         <v/>
@@ -32301,8 +32309,8 @@
         <v>45853</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="132"/>
-      <c r="D197" s="130"/>
+      <c r="C197" s="143"/>
+      <c r="D197" s="141"/>
       <c r="AJ197" t="str">
         <f>TRIM(MID(SUBSTITUTE($F197, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ197)-1)*100+1, 100))</f>
         <v/>
@@ -32377,8 +32385,8 @@
         <v>45854</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="132"/>
-      <c r="D198" s="130"/>
+      <c r="C198" s="143"/>
+      <c r="D198" s="141"/>
       <c r="AJ198" t="str">
         <f>TRIM(MID(SUBSTITUTE($F198, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ198)-1)*100+1, 100))</f>
         <v/>
@@ -32453,8 +32461,8 @@
         <v>45855</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="132"/>
-      <c r="D199" s="130"/>
+      <c r="C199" s="143"/>
+      <c r="D199" s="141"/>
       <c r="AJ199" t="str">
         <f>TRIM(MID(SUBSTITUTE($F199, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ199)-1)*100+1, 100))</f>
         <v/>
@@ -32529,8 +32537,8 @@
         <v>45856</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="132"/>
-      <c r="D200" s="130"/>
+      <c r="C200" s="143"/>
+      <c r="D200" s="141"/>
       <c r="AJ200" t="str">
         <f>TRIM(MID(SUBSTITUTE($F200, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ200)-1)*100+1, 100))</f>
         <v/>
@@ -32605,8 +32613,8 @@
         <v>45857</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="132"/>
-      <c r="D201" s="130"/>
+      <c r="C201" s="143"/>
+      <c r="D201" s="141"/>
       <c r="AJ201" t="str">
         <f>TRIM(MID(SUBSTITUTE($F201, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ201)-1)*100+1, 100))</f>
         <v/>
@@ -32681,8 +32689,8 @@
         <v>45858</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="132"/>
-      <c r="D202" s="130"/>
+      <c r="C202" s="143"/>
+      <c r="D202" s="141"/>
       <c r="AJ202" t="str">
         <f>TRIM(MID(SUBSTITUTE($F202, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ202)-1)*100+1, 100))</f>
         <v/>
@@ -32757,8 +32765,8 @@
         <v>45859</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="132"/>
-      <c r="D203" s="130"/>
+      <c r="C203" s="143"/>
+      <c r="D203" s="141"/>
       <c r="AJ203" t="str">
         <f>TRIM(MID(SUBSTITUTE($F203, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ203)-1)*100+1, 100))</f>
         <v/>
@@ -32833,8 +32841,8 @@
         <v>45860</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="132"/>
-      <c r="D204" s="130"/>
+      <c r="C204" s="143"/>
+      <c r="D204" s="141"/>
       <c r="AJ204" t="str">
         <f>TRIM(MID(SUBSTITUTE($F204, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ204)-1)*100+1, 100))</f>
         <v/>
@@ -32909,8 +32917,8 @@
         <v>45861</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="132"/>
-      <c r="D205" s="130"/>
+      <c r="C205" s="143"/>
+      <c r="D205" s="141"/>
       <c r="AJ205" t="str">
         <f>TRIM(MID(SUBSTITUTE($F205, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ205)-1)*100+1, 100))</f>
         <v/>
@@ -32985,8 +32993,8 @@
         <v>45862</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="132"/>
-      <c r="D206" s="130"/>
+      <c r="C206" s="143"/>
+      <c r="D206" s="141"/>
       <c r="AJ206" t="str">
         <f>TRIM(MID(SUBSTITUTE($F206, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ206)-1)*100+1, 100))</f>
         <v/>
@@ -33061,8 +33069,8 @@
         <v>45863</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="132"/>
-      <c r="D207" s="130"/>
+      <c r="C207" s="143"/>
+      <c r="D207" s="141"/>
       <c r="AJ207" t="str">
         <f>TRIM(MID(SUBSTITUTE($F207, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ207)-1)*100+1, 100))</f>
         <v/>
@@ -33137,8 +33145,8 @@
         <v>45864</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="132"/>
-      <c r="D208" s="130"/>
+      <c r="C208" s="143"/>
+      <c r="D208" s="141"/>
       <c r="AJ208" t="str">
         <f>TRIM(MID(SUBSTITUTE($F208, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ208)-1)*100+1, 100))</f>
         <v/>
@@ -33213,8 +33221,8 @@
         <v>45865</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="132"/>
-      <c r="D209" s="130"/>
+      <c r="C209" s="143"/>
+      <c r="D209" s="141"/>
       <c r="AJ209" t="str">
         <f>TRIM(MID(SUBSTITUTE($F209, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ209)-1)*100+1, 100))</f>
         <v/>
@@ -33289,8 +33297,8 @@
         <v>45866</v>
       </c>
       <c r="B210" s="2"/>
-      <c r="C210" s="132"/>
-      <c r="D210" s="130"/>
+      <c r="C210" s="143"/>
+      <c r="D210" s="141"/>
       <c r="AJ210" t="str">
         <f>TRIM(MID(SUBSTITUTE($F210, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ210)-1)*100+1, 100))</f>
         <v/>
@@ -33365,8 +33373,8 @@
         <v>45867</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="132"/>
-      <c r="D211" s="130"/>
+      <c r="C211" s="143"/>
+      <c r="D211" s="141"/>
       <c r="AJ211" t="str">
         <f>TRIM(MID(SUBSTITUTE($F211, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ211)-1)*100+1, 100))</f>
         <v/>
@@ -33441,8 +33449,8 @@
         <v>45868</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="132"/>
-      <c r="D212" s="130"/>
+      <c r="C212" s="143"/>
+      <c r="D212" s="141"/>
       <c r="AJ212" t="str">
         <f>TRIM(MID(SUBSTITUTE($F212, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ212)-1)*100+1, 100))</f>
         <v/>
@@ -33517,8 +33525,8 @@
         <v>45869</v>
       </c>
       <c r="B213" s="2"/>
-      <c r="C213" s="132"/>
-      <c r="D213" s="130"/>
+      <c r="C213" s="143"/>
+      <c r="D213" s="141"/>
       <c r="AJ213" t="str">
         <f>TRIM(MID(SUBSTITUTE($F213, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ213)-1)*100+1, 100))</f>
         <v/>
@@ -33593,8 +33601,8 @@
         <v>45870</v>
       </c>
       <c r="B214" s="2"/>
-      <c r="C214" s="132"/>
-      <c r="D214" s="130"/>
+      <c r="C214" s="143"/>
+      <c r="D214" s="141"/>
       <c r="AJ214" t="str">
         <f>TRIM(MID(SUBSTITUTE($F214, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ214)-1)*100+1, 100))</f>
         <v/>
@@ -33669,8 +33677,8 @@
         <v>45871</v>
       </c>
       <c r="B215" s="2"/>
-      <c r="C215" s="132"/>
-      <c r="D215" s="130"/>
+      <c r="C215" s="143"/>
+      <c r="D215" s="141"/>
       <c r="AJ215" t="str">
         <f>TRIM(MID(SUBSTITUTE($F215, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ215)-1)*100+1, 100))</f>
         <v/>
@@ -33745,8 +33753,8 @@
         <v>45872</v>
       </c>
       <c r="B216" s="2"/>
-      <c r="C216" s="132"/>
-      <c r="D216" s="130"/>
+      <c r="C216" s="143"/>
+      <c r="D216" s="141"/>
       <c r="AJ216" t="str">
         <f>TRIM(MID(SUBSTITUTE($F216, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ216)-1)*100+1, 100))</f>
         <v/>
@@ -33821,8 +33829,8 @@
         <v>45873</v>
       </c>
       <c r="B217" s="2"/>
-      <c r="C217" s="132"/>
-      <c r="D217" s="130"/>
+      <c r="C217" s="143"/>
+      <c r="D217" s="141"/>
       <c r="AJ217" t="str">
         <f>TRIM(MID(SUBSTITUTE($F217, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ217)-1)*100+1, 100))</f>
         <v/>
@@ -33897,8 +33905,8 @@
         <v>45874</v>
       </c>
       <c r="B218" s="2"/>
-      <c r="C218" s="132"/>
-      <c r="D218" s="130"/>
+      <c r="C218" s="143"/>
+      <c r="D218" s="141"/>
       <c r="AJ218" t="str">
         <f>TRIM(MID(SUBSTITUTE($F218, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ218)-1)*100+1, 100))</f>
         <v/>
@@ -33973,8 +33981,8 @@
         <v>45875</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="132"/>
-      <c r="D219" s="130"/>
+      <c r="C219" s="143"/>
+      <c r="D219" s="141"/>
       <c r="AJ219" t="str">
         <f>TRIM(MID(SUBSTITUTE($F219, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ219)-1)*100+1, 100))</f>
         <v/>
@@ -34049,8 +34057,8 @@
         <v>45876</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="132"/>
-      <c r="D220" s="130"/>
+      <c r="C220" s="143"/>
+      <c r="D220" s="141"/>
       <c r="AJ220" t="str">
         <f>TRIM(MID(SUBSTITUTE($F220, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ220)-1)*100+1, 100))</f>
         <v/>
@@ -34125,8 +34133,8 @@
         <v>45877</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="132"/>
-      <c r="D221" s="130"/>
+      <c r="C221" s="143"/>
+      <c r="D221" s="141"/>
       <c r="AJ221" t="str">
         <f>TRIM(MID(SUBSTITUTE($F221, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ221)-1)*100+1, 100))</f>
         <v/>
@@ -34201,8 +34209,8 @@
         <v>45878</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="132"/>
-      <c r="D222" s="130"/>
+      <c r="C222" s="143"/>
+      <c r="D222" s="141"/>
       <c r="AJ222" t="str">
         <f>TRIM(MID(SUBSTITUTE($F222, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ222)-1)*100+1, 100))</f>
         <v/>
@@ -34277,8 +34285,8 @@
         <v>45879</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="132"/>
-      <c r="D223" s="130"/>
+      <c r="C223" s="143"/>
+      <c r="D223" s="141"/>
       <c r="AJ223" t="str">
         <f>TRIM(MID(SUBSTITUTE($F223, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ223)-1)*100+1, 100))</f>
         <v/>
@@ -34353,8 +34361,8 @@
         <v>45880</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="132"/>
-      <c r="D224" s="130"/>
+      <c r="C224" s="143"/>
+      <c r="D224" s="141"/>
       <c r="AJ224" t="str">
         <f>TRIM(MID(SUBSTITUTE($F224, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ224)-1)*100+1, 100))</f>
         <v/>
@@ -34429,8 +34437,8 @@
         <v>45881</v>
       </c>
       <c r="B225" s="2"/>
-      <c r="C225" s="132"/>
-      <c r="D225" s="130"/>
+      <c r="C225" s="143"/>
+      <c r="D225" s="141"/>
       <c r="AJ225" t="str">
         <f>TRIM(MID(SUBSTITUTE($F225, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ225)-1)*100+1, 100))</f>
         <v/>
@@ -34505,8 +34513,8 @@
         <v>45882</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="132"/>
-      <c r="D226" s="130"/>
+      <c r="C226" s="143"/>
+      <c r="D226" s="141"/>
       <c r="AJ226" t="str">
         <f>TRIM(MID(SUBSTITUTE($F226, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ226)-1)*100+1, 100))</f>
         <v/>
@@ -34581,8 +34589,8 @@
         <v>45883</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="132"/>
-      <c r="D227" s="130"/>
+      <c r="C227" s="143"/>
+      <c r="D227" s="141"/>
       <c r="AJ227" t="str">
         <f>TRIM(MID(SUBSTITUTE($F227, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ227)-1)*100+1, 100))</f>
         <v/>
@@ -34657,8 +34665,8 @@
         <v>45884</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="132"/>
-      <c r="D228" s="130"/>
+      <c r="C228" s="143"/>
+      <c r="D228" s="141"/>
       <c r="AJ228" t="str">
         <f>TRIM(MID(SUBSTITUTE($F228, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ228)-1)*100+1, 100))</f>
         <v/>
@@ -34733,8 +34741,8 @@
         <v>45885</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="132"/>
-      <c r="D229" s="130"/>
+      <c r="C229" s="143"/>
+      <c r="D229" s="141"/>
       <c r="AJ229" t="str">
         <f>TRIM(MID(SUBSTITUTE($F229, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ229)-1)*100+1, 100))</f>
         <v/>
@@ -34809,8 +34817,8 @@
         <v>45886</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="132"/>
-      <c r="D230" s="130"/>
+      <c r="C230" s="143"/>
+      <c r="D230" s="141"/>
       <c r="AJ230" t="str">
         <f>TRIM(MID(SUBSTITUTE($F230, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ230)-1)*100+1, 100))</f>
         <v/>
@@ -34885,8 +34893,8 @@
         <v>45887</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="132"/>
-      <c r="D231" s="130"/>
+      <c r="C231" s="143"/>
+      <c r="D231" s="141"/>
       <c r="AJ231" t="str">
         <f>TRIM(MID(SUBSTITUTE($F231, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ231)-1)*100+1, 100))</f>
         <v/>
@@ -34961,8 +34969,8 @@
         <v>45888</v>
       </c>
       <c r="B232" s="2"/>
-      <c r="C232" s="132"/>
-      <c r="D232" s="130"/>
+      <c r="C232" s="143"/>
+      <c r="D232" s="141"/>
       <c r="AJ232" t="str">
         <f>TRIM(MID(SUBSTITUTE($F232, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ232)-1)*100+1, 100))</f>
         <v/>
@@ -35037,8 +35045,8 @@
         <v>45889</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="132"/>
-      <c r="D233" s="130"/>
+      <c r="C233" s="143"/>
+      <c r="D233" s="141"/>
       <c r="AJ233" t="str">
         <f>TRIM(MID(SUBSTITUTE($F233, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ233)-1)*100+1, 100))</f>
         <v/>
@@ -35113,8 +35121,8 @@
         <v>45890</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="132"/>
-      <c r="D234" s="130"/>
+      <c r="C234" s="143"/>
+      <c r="D234" s="141"/>
       <c r="AJ234" t="str">
         <f>TRIM(MID(SUBSTITUTE($F234, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ234)-1)*100+1, 100))</f>
         <v/>
@@ -35189,8 +35197,8 @@
         <v>45891</v>
       </c>
       <c r="B235" s="2"/>
-      <c r="C235" s="132"/>
-      <c r="D235" s="130"/>
+      <c r="C235" s="143"/>
+      <c r="D235" s="141"/>
       <c r="AJ235" t="str">
         <f>TRIM(MID(SUBSTITUTE($F235, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ235)-1)*100+1, 100))</f>
         <v/>
@@ -35265,8 +35273,8 @@
         <v>45892</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="132"/>
-      <c r="D236" s="130"/>
+      <c r="C236" s="143"/>
+      <c r="D236" s="141"/>
       <c r="AJ236" t="str">
         <f>TRIM(MID(SUBSTITUTE($F236, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ236)-1)*100+1, 100))</f>
         <v/>
@@ -35341,8 +35349,8 @@
         <v>45893</v>
       </c>
       <c r="B237" s="2"/>
-      <c r="C237" s="132"/>
-      <c r="D237" s="130"/>
+      <c r="C237" s="143"/>
+      <c r="D237" s="141"/>
       <c r="AJ237" t="str">
         <f>TRIM(MID(SUBSTITUTE($F237, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ237)-1)*100+1, 100))</f>
         <v/>
@@ -35417,8 +35425,8 @@
         <v>45894</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="132"/>
-      <c r="D238" s="130"/>
+      <c r="C238" s="143"/>
+      <c r="D238" s="141"/>
       <c r="AJ238" t="str">
         <f>TRIM(MID(SUBSTITUTE($F238, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ238)-1)*100+1, 100))</f>
         <v/>
@@ -35493,8 +35501,8 @@
         <v>45895</v>
       </c>
       <c r="B239" s="2"/>
-      <c r="C239" s="132"/>
-      <c r="D239" s="130"/>
+      <c r="C239" s="143"/>
+      <c r="D239" s="141"/>
       <c r="AJ239" t="str">
         <f>TRIM(MID(SUBSTITUTE($F239, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ239)-1)*100+1, 100))</f>
         <v/>
@@ -35569,8 +35577,8 @@
         <v>45896</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="132"/>
-      <c r="D240" s="130"/>
+      <c r="C240" s="143"/>
+      <c r="D240" s="141"/>
       <c r="AJ240" t="str">
         <f>TRIM(MID(SUBSTITUTE($F240, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ240)-1)*100+1, 100))</f>
         <v/>
@@ -35645,8 +35653,8 @@
         <v>45897</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="132"/>
-      <c r="D241" s="130"/>
+      <c r="C241" s="143"/>
+      <c r="D241" s="141"/>
       <c r="AJ241" t="str">
         <f>TRIM(MID(SUBSTITUTE($F241, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ241)-1)*100+1, 100))</f>
         <v/>
@@ -35721,8 +35729,8 @@
         <v>45898</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="132"/>
-      <c r="D242" s="130"/>
+      <c r="C242" s="143"/>
+      <c r="D242" s="141"/>
       <c r="AJ242" t="str">
         <f>TRIM(MID(SUBSTITUTE($F242, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ242)-1)*100+1, 100))</f>
         <v/>
@@ -35797,8 +35805,8 @@
         <v>45899</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="132"/>
-      <c r="D243" s="130"/>
+      <c r="C243" s="143"/>
+      <c r="D243" s="141"/>
       <c r="AJ243" t="str">
         <f>TRIM(MID(SUBSTITUTE($F243, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ243)-1)*100+1, 100))</f>
         <v/>
@@ -35873,8 +35881,8 @@
         <v>45900</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="132"/>
-      <c r="D244" s="130"/>
+      <c r="C244" s="143"/>
+      <c r="D244" s="141"/>
       <c r="AJ244" t="str">
         <f>TRIM(MID(SUBSTITUTE($F244, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ244)-1)*100+1, 100))</f>
         <v/>
@@ -35949,8 +35957,8 @@
         <v>45901</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="132"/>
-      <c r="D245" s="130"/>
+      <c r="C245" s="143"/>
+      <c r="D245" s="141"/>
       <c r="AJ245" t="str">
         <f>TRIM(MID(SUBSTITUTE($F245, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ245)-1)*100+1, 100))</f>
         <v/>
@@ -36025,8 +36033,8 @@
         <v>45902</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="132"/>
-      <c r="D246" s="130"/>
+      <c r="C246" s="143"/>
+      <c r="D246" s="141"/>
       <c r="AJ246" t="str">
         <f>TRIM(MID(SUBSTITUTE($F246, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ246)-1)*100+1, 100))</f>
         <v/>
@@ -36101,8 +36109,8 @@
         <v>45903</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="132"/>
-      <c r="D247" s="130"/>
+      <c r="C247" s="143"/>
+      <c r="D247" s="141"/>
       <c r="AJ247" t="str">
         <f>TRIM(MID(SUBSTITUTE($F247, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ247)-1)*100+1, 100))</f>
         <v/>
@@ -36177,8 +36185,8 @@
         <v>45904</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="132"/>
-      <c r="D248" s="130"/>
+      <c r="C248" s="143"/>
+      <c r="D248" s="141"/>
       <c r="AJ248" t="str">
         <f>TRIM(MID(SUBSTITUTE($F248, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ248)-1)*100+1, 100))</f>
         <v/>
@@ -36253,8 +36261,8 @@
         <v>45905</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="132"/>
-      <c r="D249" s="130"/>
+      <c r="C249" s="143"/>
+      <c r="D249" s="141"/>
       <c r="AJ249" t="str">
         <f>TRIM(MID(SUBSTITUTE($F249, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ249)-1)*100+1, 100))</f>
         <v/>
@@ -36329,8 +36337,8 @@
         <v>45906</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="132"/>
-      <c r="D250" s="130"/>
+      <c r="C250" s="143"/>
+      <c r="D250" s="141"/>
       <c r="AJ250" t="str">
         <f>TRIM(MID(SUBSTITUTE($F250, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ250)-1)*100+1, 100))</f>
         <v/>
@@ -36405,8 +36413,8 @@
         <v>45907</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="132"/>
-      <c r="D251" s="130"/>
+      <c r="C251" s="143"/>
+      <c r="D251" s="141"/>
       <c r="AJ251" t="str">
         <f>TRIM(MID(SUBSTITUTE($F251, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ251)-1)*100+1, 100))</f>
         <v/>
@@ -36481,8 +36489,8 @@
         <v>45908</v>
       </c>
       <c r="B252" s="2"/>
-      <c r="C252" s="132"/>
-      <c r="D252" s="130"/>
+      <c r="C252" s="143"/>
+      <c r="D252" s="141"/>
       <c r="AJ252" t="str">
         <f>TRIM(MID(SUBSTITUTE($F252, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ252)-1)*100+1, 100))</f>
         <v/>
@@ -36557,8 +36565,8 @@
         <v>45909</v>
       </c>
       <c r="B253" s="2"/>
-      <c r="C253" s="132"/>
-      <c r="D253" s="130"/>
+      <c r="C253" s="143"/>
+      <c r="D253" s="141"/>
       <c r="AJ253" t="str">
         <f>TRIM(MID(SUBSTITUTE($F253, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ253)-1)*100+1, 100))</f>
         <v/>
@@ -36633,8 +36641,8 @@
         <v>45910</v>
       </c>
       <c r="B254" s="2"/>
-      <c r="C254" s="132"/>
-      <c r="D254" s="130"/>
+      <c r="C254" s="143"/>
+      <c r="D254" s="141"/>
       <c r="AJ254" t="str">
         <f>TRIM(MID(SUBSTITUTE($F254, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ254)-1)*100+1, 100))</f>
         <v/>
@@ -36709,8 +36717,8 @@
         <v>45911</v>
       </c>
       <c r="B255" s="2"/>
-      <c r="C255" s="132"/>
-      <c r="D255" s="130"/>
+      <c r="C255" s="143"/>
+      <c r="D255" s="141"/>
       <c r="AJ255" t="str">
         <f>TRIM(MID(SUBSTITUTE($F255, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ255)-1)*100+1, 100))</f>
         <v/>
@@ -36785,8 +36793,8 @@
         <v>45912</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="132"/>
-      <c r="D256" s="130"/>
+      <c r="C256" s="143"/>
+      <c r="D256" s="141"/>
       <c r="AJ256" t="str">
         <f>TRIM(MID(SUBSTITUTE($F256, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ256)-1)*100+1, 100))</f>
         <v/>
@@ -36861,8 +36869,8 @@
         <v>45913</v>
       </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="132"/>
-      <c r="D257" s="130"/>
+      <c r="C257" s="143"/>
+      <c r="D257" s="141"/>
       <c r="AJ257" t="str">
         <f>TRIM(MID(SUBSTITUTE($F257, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ257)-1)*100+1, 100))</f>
         <v/>
@@ -36937,8 +36945,8 @@
         <v>45914</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="132"/>
-      <c r="D258" s="130"/>
+      <c r="C258" s="143"/>
+      <c r="D258" s="141"/>
       <c r="AJ258" t="str">
         <f>TRIM(MID(SUBSTITUTE($F258, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ258)-1)*100+1, 100))</f>
         <v/>
@@ -37013,8 +37021,8 @@
         <v>45915</v>
       </c>
       <c r="B259" s="2"/>
-      <c r="C259" s="132"/>
-      <c r="D259" s="130"/>
+      <c r="C259" s="143"/>
+      <c r="D259" s="141"/>
       <c r="AJ259" t="str">
         <f>TRIM(MID(SUBSTITUTE($F259, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ259)-1)*100+1, 100))</f>
         <v/>
@@ -37089,8 +37097,8 @@
         <v>45916</v>
       </c>
       <c r="B260" s="2"/>
-      <c r="C260" s="132"/>
-      <c r="D260" s="130"/>
+      <c r="C260" s="143"/>
+      <c r="D260" s="141"/>
       <c r="AJ260" t="str">
         <f>TRIM(MID(SUBSTITUTE($F260, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ260)-1)*100+1, 100))</f>
         <v/>
@@ -37165,8 +37173,8 @@
         <v>45917</v>
       </c>
       <c r="B261" s="2"/>
-      <c r="C261" s="132"/>
-      <c r="D261" s="130"/>
+      <c r="C261" s="143"/>
+      <c r="D261" s="141"/>
       <c r="AJ261" t="str">
         <f>TRIM(MID(SUBSTITUTE($F261, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ261)-1)*100+1, 100))</f>
         <v/>
@@ -37241,8 +37249,8 @@
         <v>45918</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="132"/>
-      <c r="D262" s="130"/>
+      <c r="C262" s="143"/>
+      <c r="D262" s="141"/>
       <c r="AJ262" t="str">
         <f>TRIM(MID(SUBSTITUTE($F262, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ262)-1)*100+1, 100))</f>
         <v/>
@@ -37317,8 +37325,8 @@
         <v>45919</v>
       </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="132"/>
-      <c r="D263" s="130"/>
+      <c r="C263" s="143"/>
+      <c r="D263" s="141"/>
       <c r="AJ263" t="str">
         <f>TRIM(MID(SUBSTITUTE($F263, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ263)-1)*100+1, 100))</f>
         <v/>
@@ -37393,8 +37401,8 @@
         <v>45920</v>
       </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="132"/>
-      <c r="D264" s="130"/>
+      <c r="C264" s="143"/>
+      <c r="D264" s="141"/>
       <c r="AJ264" t="str">
         <f>TRIM(MID(SUBSTITUTE($F264, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ264)-1)*100+1, 100))</f>
         <v/>
@@ -37469,8 +37477,8 @@
         <v>45921</v>
       </c>
       <c r="B265" s="2"/>
-      <c r="C265" s="132"/>
-      <c r="D265" s="130"/>
+      <c r="C265" s="143"/>
+      <c r="D265" s="141"/>
       <c r="AJ265" t="str">
         <f>TRIM(MID(SUBSTITUTE($F265, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ265)-1)*100+1, 100))</f>
         <v/>
@@ -37545,8 +37553,8 @@
         <v>45922</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="132"/>
-      <c r="D266" s="130"/>
+      <c r="C266" s="143"/>
+      <c r="D266" s="141"/>
       <c r="AJ266" t="str">
         <f>TRIM(MID(SUBSTITUTE($F266, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ266)-1)*100+1, 100))</f>
         <v/>
@@ -37621,8 +37629,8 @@
         <v>45923</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="132"/>
-      <c r="D267" s="130"/>
+      <c r="C267" s="143"/>
+      <c r="D267" s="141"/>
       <c r="AJ267" t="str">
         <f>TRIM(MID(SUBSTITUTE($F267, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ267)-1)*100+1, 100))</f>
         <v/>
@@ -37697,8 +37705,8 @@
         <v>45924</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="132"/>
-      <c r="D268" s="130"/>
+      <c r="C268" s="143"/>
+      <c r="D268" s="141"/>
       <c r="AJ268" t="str">
         <f>TRIM(MID(SUBSTITUTE($F268, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ268)-1)*100+1, 100))</f>
         <v/>
@@ -37773,8 +37781,8 @@
         <v>45925</v>
       </c>
       <c r="B269" s="2"/>
-      <c r="C269" s="132"/>
-      <c r="D269" s="130"/>
+      <c r="C269" s="143"/>
+      <c r="D269" s="141"/>
       <c r="AJ269" t="str">
         <f>TRIM(MID(SUBSTITUTE($F269, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ269)-1)*100+1, 100))</f>
         <v/>
@@ -37849,8 +37857,8 @@
         <v>45926</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270" s="132"/>
-      <c r="D270" s="130"/>
+      <c r="C270" s="143"/>
+      <c r="D270" s="141"/>
       <c r="AJ270" t="str">
         <f>TRIM(MID(SUBSTITUTE($F270, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ270)-1)*100+1, 100))</f>
         <v/>
@@ -37925,8 +37933,8 @@
         <v>45927</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="132"/>
-      <c r="D271" s="130"/>
+      <c r="C271" s="143"/>
+      <c r="D271" s="141"/>
       <c r="AJ271" t="str">
         <f>TRIM(MID(SUBSTITUTE($F271, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ271)-1)*100+1, 100))</f>
         <v/>
@@ -38001,8 +38009,8 @@
         <v>45928</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="132"/>
-      <c r="D272" s="130"/>
+      <c r="C272" s="143"/>
+      <c r="D272" s="141"/>
       <c r="AJ272" t="str">
         <f>TRIM(MID(SUBSTITUTE($F272, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ272)-1)*100+1, 100))</f>
         <v/>
@@ -38077,8 +38085,8 @@
         <v>45929</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="132"/>
-      <c r="D273" s="130"/>
+      <c r="C273" s="143"/>
+      <c r="D273" s="141"/>
       <c r="AJ273" t="str">
         <f>TRIM(MID(SUBSTITUTE($F273, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ273)-1)*100+1, 100))</f>
         <v/>
@@ -38153,8 +38161,8 @@
         <v>45930</v>
       </c>
       <c r="B274" s="2"/>
-      <c r="C274" s="132"/>
-      <c r="D274" s="130"/>
+      <c r="C274" s="143"/>
+      <c r="D274" s="141"/>
       <c r="AJ274" t="str">
         <f>TRIM(MID(SUBSTITUTE($F274, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ274)-1)*100+1, 100))</f>
         <v/>
@@ -38229,8 +38237,8 @@
         <v>45931</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="132"/>
-      <c r="D275" s="130"/>
+      <c r="C275" s="143"/>
+      <c r="D275" s="141"/>
       <c r="AJ275" t="str">
         <f>TRIM(MID(SUBSTITUTE($F275, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ275)-1)*100+1, 100))</f>
         <v/>
@@ -38305,8 +38313,8 @@
         <v>45932</v>
       </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="132"/>
-      <c r="D276" s="130"/>
+      <c r="C276" s="143"/>
+      <c r="D276" s="141"/>
       <c r="AJ276" t="str">
         <f>TRIM(MID(SUBSTITUTE($F276, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ276)-1)*100+1, 100))</f>
         <v/>
@@ -38381,8 +38389,8 @@
         <v>45933</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="132"/>
-      <c r="D277" s="130"/>
+      <c r="C277" s="143"/>
+      <c r="D277" s="141"/>
       <c r="AJ277" t="str">
         <f>TRIM(MID(SUBSTITUTE($F277, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ277)-1)*100+1, 100))</f>
         <v/>
@@ -38457,8 +38465,8 @@
         <v>45934</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="132"/>
-      <c r="D278" s="130"/>
+      <c r="C278" s="143"/>
+      <c r="D278" s="141"/>
       <c r="AJ278" t="str">
         <f>TRIM(MID(SUBSTITUTE($F278, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ278)-1)*100+1, 100))</f>
         <v/>
@@ -38533,8 +38541,8 @@
         <v>45935</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="132"/>
-      <c r="D279" s="130"/>
+      <c r="C279" s="143"/>
+      <c r="D279" s="141"/>
       <c r="AJ279" t="str">
         <f>TRIM(MID(SUBSTITUTE($F279, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ279)-1)*100+1, 100))</f>
         <v/>
@@ -38609,8 +38617,8 @@
         <v>45936</v>
       </c>
       <c r="B280" s="2"/>
-      <c r="C280" s="132"/>
-      <c r="D280" s="130"/>
+      <c r="C280" s="143"/>
+      <c r="D280" s="141"/>
       <c r="AJ280" t="str">
         <f>TRIM(MID(SUBSTITUTE($F280, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ280)-1)*100+1, 100))</f>
         <v/>
@@ -38685,8 +38693,8 @@
         <v>45937</v>
       </c>
       <c r="B281" s="2"/>
-      <c r="C281" s="132"/>
-      <c r="D281" s="130"/>
+      <c r="C281" s="143"/>
+      <c r="D281" s="141"/>
       <c r="AJ281" t="str">
         <f>TRIM(MID(SUBSTITUTE($F281, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ281)-1)*100+1, 100))</f>
         <v/>
@@ -38761,8 +38769,8 @@
         <v>45938</v>
       </c>
       <c r="B282" s="2"/>
-      <c r="C282" s="132"/>
-      <c r="D282" s="130"/>
+      <c r="C282" s="143"/>
+      <c r="D282" s="141"/>
       <c r="AJ282" t="str">
         <f>TRIM(MID(SUBSTITUTE($F282, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ282)-1)*100+1, 100))</f>
         <v/>
@@ -38837,8 +38845,8 @@
         <v>45939</v>
       </c>
       <c r="B283" s="2"/>
-      <c r="C283" s="132"/>
-      <c r="D283" s="130"/>
+      <c r="C283" s="143"/>
+      <c r="D283" s="141"/>
       <c r="AJ283" t="str">
         <f>TRIM(MID(SUBSTITUTE($F283, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ283)-1)*100+1, 100))</f>
         <v/>
@@ -38913,8 +38921,8 @@
         <v>45940</v>
       </c>
       <c r="B284" s="2"/>
-      <c r="C284" s="132"/>
-      <c r="D284" s="130"/>
+      <c r="C284" s="143"/>
+      <c r="D284" s="141"/>
       <c r="AJ284" t="str">
         <f>TRIM(MID(SUBSTITUTE($F284, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ284)-1)*100+1, 100))</f>
         <v/>
@@ -38989,8 +38997,8 @@
         <v>45941</v>
       </c>
       <c r="B285" s="2"/>
-      <c r="C285" s="132"/>
-      <c r="D285" s="130"/>
+      <c r="C285" s="143"/>
+      <c r="D285" s="141"/>
       <c r="AJ285" t="str">
         <f>TRIM(MID(SUBSTITUTE($F285, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ285)-1)*100+1, 100))</f>
         <v/>
@@ -39065,8 +39073,8 @@
         <v>45942</v>
       </c>
       <c r="B286" s="2"/>
-      <c r="C286" s="132"/>
-      <c r="D286" s="130"/>
+      <c r="C286" s="143"/>
+      <c r="D286" s="141"/>
       <c r="AJ286" t="str">
         <f>TRIM(MID(SUBSTITUTE($F286, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ286)-1)*100+1, 100))</f>
         <v/>
@@ -39141,8 +39149,8 @@
         <v>45943</v>
       </c>
       <c r="B287" s="2"/>
-      <c r="C287" s="132"/>
-      <c r="D287" s="130"/>
+      <c r="C287" s="143"/>
+      <c r="D287" s="141"/>
       <c r="AJ287" t="str">
         <f>TRIM(MID(SUBSTITUTE($F287, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ287)-1)*100+1, 100))</f>
         <v/>
@@ -39217,8 +39225,8 @@
         <v>45944</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="132"/>
-      <c r="D288" s="130"/>
+      <c r="C288" s="143"/>
+      <c r="D288" s="141"/>
       <c r="AJ288" t="str">
         <f>TRIM(MID(SUBSTITUTE($F288, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ288)-1)*100+1, 100))</f>
         <v/>
@@ -39293,8 +39301,8 @@
         <v>45945</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="132"/>
-      <c r="D289" s="130"/>
+      <c r="C289" s="143"/>
+      <c r="D289" s="141"/>
       <c r="AJ289" t="str">
         <f>TRIM(MID(SUBSTITUTE($F289, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ289)-1)*100+1, 100))</f>
         <v/>
@@ -39369,8 +39377,8 @@
         <v>45946</v>
       </c>
       <c r="B290" s="2"/>
-      <c r="C290" s="132"/>
-      <c r="D290" s="130"/>
+      <c r="C290" s="143"/>
+      <c r="D290" s="141"/>
       <c r="AJ290" t="str">
         <f>TRIM(MID(SUBSTITUTE($F290, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ290)-1)*100+1, 100))</f>
         <v/>
@@ -39445,8 +39453,8 @@
         <v>45947</v>
       </c>
       <c r="B291" s="2"/>
-      <c r="C291" s="132"/>
-      <c r="D291" s="130"/>
+      <c r="C291" s="143"/>
+      <c r="D291" s="141"/>
       <c r="AJ291" t="str">
         <f>TRIM(MID(SUBSTITUTE($F291, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ291)-1)*100+1, 100))</f>
         <v/>
@@ -39521,8 +39529,8 @@
         <v>45948</v>
       </c>
       <c r="B292" s="2"/>
-      <c r="C292" s="132"/>
-      <c r="D292" s="130"/>
+      <c r="C292" s="143"/>
+      <c r="D292" s="141"/>
       <c r="AJ292" t="str">
         <f>TRIM(MID(SUBSTITUTE($F292, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ292)-1)*100+1, 100))</f>
         <v/>
@@ -39597,8 +39605,8 @@
         <v>45949</v>
       </c>
       <c r="B293" s="2"/>
-      <c r="C293" s="132"/>
-      <c r="D293" s="130"/>
+      <c r="C293" s="143"/>
+      <c r="D293" s="141"/>
       <c r="AJ293" t="str">
         <f>TRIM(MID(SUBSTITUTE($F293, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ293)-1)*100+1, 100))</f>
         <v/>
@@ -39673,8 +39681,8 @@
         <v>45950</v>
       </c>
       <c r="B294" s="2"/>
-      <c r="C294" s="132"/>
-      <c r="D294" s="130"/>
+      <c r="C294" s="143"/>
+      <c r="D294" s="141"/>
       <c r="AJ294" t="str">
         <f>TRIM(MID(SUBSTITUTE($F294, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ294)-1)*100+1, 100))</f>
         <v/>
@@ -39749,8 +39757,8 @@
         <v>45951</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="132"/>
-      <c r="D295" s="130"/>
+      <c r="C295" s="143"/>
+      <c r="D295" s="141"/>
       <c r="AJ295" t="str">
         <f>TRIM(MID(SUBSTITUTE($F295, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ295)-1)*100+1, 100))</f>
         <v/>
@@ -39825,8 +39833,8 @@
         <v>45952</v>
       </c>
       <c r="B296" s="2"/>
-      <c r="C296" s="132"/>
-      <c r="D296" s="130"/>
+      <c r="C296" s="143"/>
+      <c r="D296" s="141"/>
       <c r="AJ296" t="str">
         <f>TRIM(MID(SUBSTITUTE($F296, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ296)-1)*100+1, 100))</f>
         <v/>
@@ -39901,8 +39909,8 @@
         <v>45953</v>
       </c>
       <c r="B297" s="2"/>
-      <c r="C297" s="132"/>
-      <c r="D297" s="130"/>
+      <c r="C297" s="143"/>
+      <c r="D297" s="141"/>
       <c r="AJ297" t="str">
         <f>TRIM(MID(SUBSTITUTE($F297, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ297)-1)*100+1, 100))</f>
         <v/>
@@ -39977,8 +39985,8 @@
         <v>45954</v>
       </c>
       <c r="B298" s="2"/>
-      <c r="C298" s="132"/>
-      <c r="D298" s="130"/>
+      <c r="C298" s="143"/>
+      <c r="D298" s="141"/>
       <c r="AJ298" t="str">
         <f>TRIM(MID(SUBSTITUTE($F298, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ298)-1)*100+1, 100))</f>
         <v/>
@@ -40053,8 +40061,8 @@
         <v>45955</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="132"/>
-      <c r="D299" s="130"/>
+      <c r="C299" s="143"/>
+      <c r="D299" s="141"/>
       <c r="AJ299" t="str">
         <f>TRIM(MID(SUBSTITUTE($F299, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ299)-1)*100+1, 100))</f>
         <v/>
@@ -40129,8 +40137,8 @@
         <v>45956</v>
       </c>
       <c r="B300" s="2"/>
-      <c r="C300" s="132"/>
-      <c r="D300" s="130"/>
+      <c r="C300" s="143"/>
+      <c r="D300" s="141"/>
       <c r="AJ300" t="str">
         <f>TRIM(MID(SUBSTITUTE($F300, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ300)-1)*100+1, 100))</f>
         <v/>
@@ -40205,8 +40213,8 @@
         <v>45957</v>
       </c>
       <c r="B301" s="2"/>
-      <c r="C301" s="132"/>
-      <c r="D301" s="130"/>
+      <c r="C301" s="143"/>
+      <c r="D301" s="141"/>
       <c r="AJ301" t="str">
         <f>TRIM(MID(SUBSTITUTE($F301, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ301)-1)*100+1, 100))</f>
         <v/>
@@ -40281,8 +40289,8 @@
         <v>45958</v>
       </c>
       <c r="B302" s="2"/>
-      <c r="C302" s="132"/>
-      <c r="D302" s="130"/>
+      <c r="C302" s="143"/>
+      <c r="D302" s="141"/>
       <c r="AJ302" t="str">
         <f>TRIM(MID(SUBSTITUTE($F302, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ302)-1)*100+1, 100))</f>
         <v/>
@@ -40357,8 +40365,8 @@
         <v>45959</v>
       </c>
       <c r="B303" s="2"/>
-      <c r="C303" s="132"/>
-      <c r="D303" s="130"/>
+      <c r="C303" s="143"/>
+      <c r="D303" s="141"/>
       <c r="AJ303" t="str">
         <f>TRIM(MID(SUBSTITUTE($F303, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ303)-1)*100+1, 100))</f>
         <v/>
@@ -40433,8 +40441,8 @@
         <v>45960</v>
       </c>
       <c r="B304" s="2"/>
-      <c r="C304" s="132"/>
-      <c r="D304" s="130"/>
+      <c r="C304" s="143"/>
+      <c r="D304" s="141"/>
       <c r="AJ304" t="str">
         <f>TRIM(MID(SUBSTITUTE($F304, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ304)-1)*100+1, 100))</f>
         <v/>
@@ -40509,8 +40517,8 @@
         <v>45961</v>
       </c>
       <c r="B305" s="2"/>
-      <c r="C305" s="132"/>
-      <c r="D305" s="130"/>
+      <c r="C305" s="143"/>
+      <c r="D305" s="141"/>
       <c r="AJ305" t="str">
         <f>TRIM(MID(SUBSTITUTE($F305, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ305)-1)*100+1, 100))</f>
         <v/>
@@ -40585,8 +40593,8 @@
         <v>45962</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="132"/>
-      <c r="D306" s="130"/>
+      <c r="C306" s="143"/>
+      <c r="D306" s="141"/>
       <c r="AJ306" t="str">
         <f>TRIM(MID(SUBSTITUTE($F306, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ306)-1)*100+1, 100))</f>
         <v/>
@@ -40661,8 +40669,8 @@
         <v>45963</v>
       </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="132"/>
-      <c r="D307" s="130"/>
+      <c r="C307" s="143"/>
+      <c r="D307" s="141"/>
       <c r="AJ307" t="str">
         <f>TRIM(MID(SUBSTITUTE($F307, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ307)-1)*100+1, 100))</f>
         <v/>
@@ -40737,8 +40745,8 @@
         <v>45964</v>
       </c>
       <c r="B308" s="2"/>
-      <c r="C308" s="132"/>
-      <c r="D308" s="130"/>
+      <c r="C308" s="143"/>
+      <c r="D308" s="141"/>
       <c r="AJ308" t="str">
         <f>TRIM(MID(SUBSTITUTE($F308, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ308)-1)*100+1, 100))</f>
         <v/>
@@ -40813,8 +40821,8 @@
         <v>45965</v>
       </c>
       <c r="B309" s="2"/>
-      <c r="C309" s="132"/>
-      <c r="D309" s="130"/>
+      <c r="C309" s="143"/>
+      <c r="D309" s="141"/>
       <c r="AJ309" t="str">
         <f>TRIM(MID(SUBSTITUTE($F309, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ309)-1)*100+1, 100))</f>
         <v/>
@@ -40889,8 +40897,8 @@
         <v>45966</v>
       </c>
       <c r="B310" s="2"/>
-      <c r="C310" s="132"/>
-      <c r="D310" s="130"/>
+      <c r="C310" s="143"/>
+      <c r="D310" s="141"/>
       <c r="AJ310" t="str">
         <f>TRIM(MID(SUBSTITUTE($F310, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ310)-1)*100+1, 100))</f>
         <v/>
@@ -40965,8 +40973,8 @@
         <v>45967</v>
       </c>
       <c r="B311" s="2"/>
-      <c r="C311" s="132"/>
-      <c r="D311" s="130"/>
+      <c r="C311" s="143"/>
+      <c r="D311" s="141"/>
       <c r="AJ311" t="str">
         <f>TRIM(MID(SUBSTITUTE($F311, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ311)-1)*100+1, 100))</f>
         <v/>
@@ -41041,8 +41049,8 @@
         <v>45968</v>
       </c>
       <c r="B312" s="2"/>
-      <c r="C312" s="132"/>
-      <c r="D312" s="130"/>
+      <c r="C312" s="143"/>
+      <c r="D312" s="141"/>
       <c r="AJ312" t="str">
         <f>TRIM(MID(SUBSTITUTE($F312, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ312)-1)*100+1, 100))</f>
         <v/>
@@ -41117,8 +41125,8 @@
         <v>45969</v>
       </c>
       <c r="B313" s="2"/>
-      <c r="C313" s="132"/>
-      <c r="D313" s="130"/>
+      <c r="C313" s="143"/>
+      <c r="D313" s="141"/>
       <c r="AJ313" t="str">
         <f>TRIM(MID(SUBSTITUTE($F313, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ313)-1)*100+1, 100))</f>
         <v/>
@@ -41193,8 +41201,8 @@
         <v>45970</v>
       </c>
       <c r="B314" s="2"/>
-      <c r="C314" s="132"/>
-      <c r="D314" s="130"/>
+      <c r="C314" s="143"/>
+      <c r="D314" s="141"/>
       <c r="AJ314" t="str">
         <f>TRIM(MID(SUBSTITUTE($F314, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ314)-1)*100+1, 100))</f>
         <v/>
@@ -41269,8 +41277,8 @@
         <v>45971</v>
       </c>
       <c r="B315" s="2"/>
-      <c r="C315" s="132"/>
-      <c r="D315" s="130"/>
+      <c r="C315" s="143"/>
+      <c r="D315" s="141"/>
       <c r="AJ315" t="str">
         <f>TRIM(MID(SUBSTITUTE($F315, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ315)-1)*100+1, 100))</f>
         <v/>
@@ -41345,8 +41353,8 @@
         <v>45972</v>
       </c>
       <c r="B316" s="2"/>
-      <c r="C316" s="132"/>
-      <c r="D316" s="130"/>
+      <c r="C316" s="143"/>
+      <c r="D316" s="141"/>
       <c r="AJ316" t="str">
         <f>TRIM(MID(SUBSTITUTE($F316, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ316)-1)*100+1, 100))</f>
         <v/>
@@ -41421,8 +41429,8 @@
         <v>45973</v>
       </c>
       <c r="B317" s="2"/>
-      <c r="C317" s="132"/>
-      <c r="D317" s="130"/>
+      <c r="C317" s="143"/>
+      <c r="D317" s="141"/>
       <c r="AJ317" t="str">
         <f>TRIM(MID(SUBSTITUTE($F317, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ317)-1)*100+1, 100))</f>
         <v/>
@@ -41497,8 +41505,8 @@
         <v>45974</v>
       </c>
       <c r="B318" s="2"/>
-      <c r="C318" s="132"/>
-      <c r="D318" s="130"/>
+      <c r="C318" s="143"/>
+      <c r="D318" s="141"/>
       <c r="AJ318" t="str">
         <f>TRIM(MID(SUBSTITUTE($F318, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ318)-1)*100+1, 100))</f>
         <v/>
@@ -41573,8 +41581,8 @@
         <v>45975</v>
       </c>
       <c r="B319" s="2"/>
-      <c r="C319" s="132"/>
-      <c r="D319" s="130"/>
+      <c r="C319" s="143"/>
+      <c r="D319" s="141"/>
       <c r="AJ319" t="str">
         <f>TRIM(MID(SUBSTITUTE($F319, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ319)-1)*100+1, 100))</f>
         <v/>
@@ -41649,8 +41657,8 @@
         <v>45976</v>
       </c>
       <c r="B320" s="2"/>
-      <c r="C320" s="132"/>
-      <c r="D320" s="130"/>
+      <c r="C320" s="143"/>
+      <c r="D320" s="141"/>
       <c r="AJ320" t="str">
         <f>TRIM(MID(SUBSTITUTE($F320, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ320)-1)*100+1, 100))</f>
         <v/>
@@ -41725,8 +41733,8 @@
         <v>45977</v>
       </c>
       <c r="B321" s="2"/>
-      <c r="C321" s="132"/>
-      <c r="D321" s="130"/>
+      <c r="C321" s="143"/>
+      <c r="D321" s="141"/>
       <c r="AJ321" t="str">
         <f>TRIM(MID(SUBSTITUTE($F321, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ321)-1)*100+1, 100))</f>
         <v/>
@@ -41801,8 +41809,8 @@
         <v>45978</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="132"/>
-      <c r="D322" s="130"/>
+      <c r="C322" s="143"/>
+      <c r="D322" s="141"/>
       <c r="AJ322" t="str">
         <f>TRIM(MID(SUBSTITUTE($F322, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ322)-1)*100+1, 100))</f>
         <v/>
@@ -41877,8 +41885,8 @@
         <v>45979</v>
       </c>
       <c r="B323" s="2"/>
-      <c r="C323" s="132"/>
-      <c r="D323" s="130"/>
+      <c r="C323" s="143"/>
+      <c r="D323" s="141"/>
       <c r="AJ323" t="str">
         <f>TRIM(MID(SUBSTITUTE($F323, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ323)-1)*100+1, 100))</f>
         <v/>
@@ -41953,8 +41961,8 @@
         <v>45980</v>
       </c>
       <c r="B324" s="2"/>
-      <c r="C324" s="132"/>
-      <c r="D324" s="130"/>
+      <c r="C324" s="143"/>
+      <c r="D324" s="141"/>
       <c r="AJ324" t="str">
         <f>TRIM(MID(SUBSTITUTE($F324, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ324)-1)*100+1, 100))</f>
         <v/>
@@ -42029,8 +42037,8 @@
         <v>45981</v>
       </c>
       <c r="B325" s="2"/>
-      <c r="C325" s="132"/>
-      <c r="D325" s="130"/>
+      <c r="C325" s="143"/>
+      <c r="D325" s="141"/>
       <c r="AJ325" t="str">
         <f>TRIM(MID(SUBSTITUTE($F325, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ325)-1)*100+1, 100))</f>
         <v/>
@@ -42105,8 +42113,8 @@
         <v>45982</v>
       </c>
       <c r="B326" s="2"/>
-      <c r="C326" s="132"/>
-      <c r="D326" s="130"/>
+      <c r="C326" s="143"/>
+      <c r="D326" s="141"/>
       <c r="AJ326" t="str">
         <f>TRIM(MID(SUBSTITUTE($F326, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ326)-1)*100+1, 100))</f>
         <v/>
@@ -42181,8 +42189,8 @@
         <v>45983</v>
       </c>
       <c r="B327" s="2"/>
-      <c r="C327" s="132"/>
-      <c r="D327" s="130"/>
+      <c r="C327" s="143"/>
+      <c r="D327" s="141"/>
       <c r="AJ327" t="str">
         <f>TRIM(MID(SUBSTITUTE($F327, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ327)-1)*100+1, 100))</f>
         <v/>
@@ -42257,8 +42265,8 @@
         <v>45984</v>
       </c>
       <c r="B328" s="2"/>
-      <c r="C328" s="132"/>
-      <c r="D328" s="130"/>
+      <c r="C328" s="143"/>
+      <c r="D328" s="141"/>
       <c r="AJ328" t="str">
         <f>TRIM(MID(SUBSTITUTE($F328, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ328)-1)*100+1, 100))</f>
         <v/>
@@ -42333,8 +42341,8 @@
         <v>45985</v>
       </c>
       <c r="B329" s="2"/>
-      <c r="C329" s="132"/>
-      <c r="D329" s="130"/>
+      <c r="C329" s="143"/>
+      <c r="D329" s="141"/>
       <c r="AJ329" t="str">
         <f>TRIM(MID(SUBSTITUTE($F329, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ329)-1)*100+1, 100))</f>
         <v/>
@@ -42409,8 +42417,8 @@
         <v>45986</v>
       </c>
       <c r="B330" s="2"/>
-      <c r="C330" s="132"/>
-      <c r="D330" s="130"/>
+      <c r="C330" s="143"/>
+      <c r="D330" s="141"/>
       <c r="AJ330" t="str">
         <f>TRIM(MID(SUBSTITUTE($F330, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ330)-1)*100+1, 100))</f>
         <v/>
@@ -42485,8 +42493,8 @@
         <v>45987</v>
       </c>
       <c r="B331" s="2"/>
-      <c r="C331" s="132"/>
-      <c r="D331" s="130"/>
+      <c r="C331" s="143"/>
+      <c r="D331" s="141"/>
       <c r="AJ331" t="str">
         <f>TRIM(MID(SUBSTITUTE($F331, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ331)-1)*100+1, 100))</f>
         <v/>
@@ -42561,8 +42569,8 @@
         <v>45988</v>
       </c>
       <c r="B332" s="2"/>
-      <c r="C332" s="132"/>
-      <c r="D332" s="130"/>
+      <c r="C332" s="143"/>
+      <c r="D332" s="141"/>
       <c r="AJ332" t="str">
         <f>TRIM(MID(SUBSTITUTE($F332, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ332)-1)*100+1, 100))</f>
         <v/>
@@ -42637,8 +42645,8 @@
         <v>45989</v>
       </c>
       <c r="B333" s="2"/>
-      <c r="C333" s="132"/>
-      <c r="D333" s="130"/>
+      <c r="C333" s="143"/>
+      <c r="D333" s="141"/>
       <c r="AJ333" t="str">
         <f>TRIM(MID(SUBSTITUTE($F333, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ333)-1)*100+1, 100))</f>
         <v/>
@@ -42713,8 +42721,8 @@
         <v>45990</v>
       </c>
       <c r="B334" s="2"/>
-      <c r="C334" s="132"/>
-      <c r="D334" s="130"/>
+      <c r="C334" s="143"/>
+      <c r="D334" s="141"/>
       <c r="AJ334" t="str">
         <f>TRIM(MID(SUBSTITUTE($F334, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ334)-1)*100+1, 100))</f>
         <v/>
@@ -42789,8 +42797,8 @@
         <v>45991</v>
       </c>
       <c r="B335" s="2"/>
-      <c r="C335" s="132"/>
-      <c r="D335" s="130"/>
+      <c r="C335" s="143"/>
+      <c r="D335" s="141"/>
       <c r="AJ335" t="str">
         <f>TRIM(MID(SUBSTITUTE($F335, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ335)-1)*100+1, 100))</f>
         <v/>
@@ -42865,8 +42873,8 @@
         <v>45992</v>
       </c>
       <c r="B336" s="2"/>
-      <c r="C336" s="132"/>
-      <c r="D336" s="130"/>
+      <c r="C336" s="143"/>
+      <c r="D336" s="141"/>
       <c r="AJ336" t="str">
         <f>TRIM(MID(SUBSTITUTE($F336, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ336)-1)*100+1, 100))</f>
         <v/>
@@ -42941,8 +42949,8 @@
         <v>45993</v>
       </c>
       <c r="B337" s="2"/>
-      <c r="C337" s="132"/>
-      <c r="D337" s="130"/>
+      <c r="C337" s="143"/>
+      <c r="D337" s="141"/>
       <c r="AJ337" t="str">
         <f>TRIM(MID(SUBSTITUTE($F337, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ337)-1)*100+1, 100))</f>
         <v/>
@@ -43017,8 +43025,8 @@
         <v>45994</v>
       </c>
       <c r="B338" s="2"/>
-      <c r="C338" s="132"/>
-      <c r="D338" s="130"/>
+      <c r="C338" s="143"/>
+      <c r="D338" s="141"/>
       <c r="AJ338" t="str">
         <f>TRIM(MID(SUBSTITUTE($F338, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ338)-1)*100+1, 100))</f>
         <v/>
@@ -43093,8 +43101,8 @@
         <v>45995</v>
       </c>
       <c r="B339" s="2"/>
-      <c r="C339" s="132"/>
-      <c r="D339" s="130"/>
+      <c r="C339" s="143"/>
+      <c r="D339" s="141"/>
       <c r="AJ339" t="str">
         <f>TRIM(MID(SUBSTITUTE($F339, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ339)-1)*100+1, 100))</f>
         <v/>
@@ -43169,8 +43177,8 @@
         <v>45996</v>
       </c>
       <c r="B340" s="2"/>
-      <c r="C340" s="132"/>
-      <c r="D340" s="130"/>
+      <c r="C340" s="143"/>
+      <c r="D340" s="141"/>
       <c r="AJ340" t="str">
         <f>TRIM(MID(SUBSTITUTE($F340, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ340)-1)*100+1, 100))</f>
         <v/>
@@ -43245,8 +43253,8 @@
         <v>45997</v>
       </c>
       <c r="B341" s="2"/>
-      <c r="C341" s="132"/>
-      <c r="D341" s="130"/>
+      <c r="C341" s="143"/>
+      <c r="D341" s="141"/>
       <c r="AJ341" t="str">
         <f>TRIM(MID(SUBSTITUTE($F341, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ341)-1)*100+1, 100))</f>
         <v/>
@@ -43321,8 +43329,8 @@
         <v>45998</v>
       </c>
       <c r="B342" s="2"/>
-      <c r="C342" s="132"/>
-      <c r="D342" s="130"/>
+      <c r="C342" s="143"/>
+      <c r="D342" s="141"/>
       <c r="AJ342" t="str">
         <f>TRIM(MID(SUBSTITUTE($F342, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ342)-1)*100+1, 100))</f>
         <v/>
@@ -43397,8 +43405,8 @@
         <v>45999</v>
       </c>
       <c r="B343" s="2"/>
-      <c r="C343" s="132"/>
-      <c r="D343" s="130"/>
+      <c r="C343" s="143"/>
+      <c r="D343" s="141"/>
       <c r="AJ343" t="str">
         <f>TRIM(MID(SUBSTITUTE($F343, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ343)-1)*100+1, 100))</f>
         <v/>
@@ -43473,8 +43481,8 @@
         <v>46000</v>
       </c>
       <c r="B344" s="2"/>
-      <c r="C344" s="132"/>
-      <c r="D344" s="130"/>
+      <c r="C344" s="143"/>
+      <c r="D344" s="141"/>
       <c r="AJ344" t="str">
         <f>TRIM(MID(SUBSTITUTE($F344, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ344)-1)*100+1, 100))</f>
         <v/>
@@ -43549,8 +43557,8 @@
         <v>46001</v>
       </c>
       <c r="B345" s="2"/>
-      <c r="C345" s="132"/>
-      <c r="D345" s="130"/>
+      <c r="C345" s="143"/>
+      <c r="D345" s="141"/>
       <c r="AJ345" t="str">
         <f>TRIM(MID(SUBSTITUTE($F345, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ345)-1)*100+1, 100))</f>
         <v/>
@@ -43625,8 +43633,8 @@
         <v>46002</v>
       </c>
       <c r="B346" s="2"/>
-      <c r="C346" s="132"/>
-      <c r="D346" s="130"/>
+      <c r="C346" s="143"/>
+      <c r="D346" s="141"/>
       <c r="AJ346" t="str">
         <f>TRIM(MID(SUBSTITUTE($F346, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ346)-1)*100+1, 100))</f>
         <v/>
@@ -43701,8 +43709,8 @@
         <v>46003</v>
       </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="132"/>
-      <c r="D347" s="130"/>
+      <c r="C347" s="143"/>
+      <c r="D347" s="141"/>
       <c r="AJ347" t="str">
         <f>TRIM(MID(SUBSTITUTE($F347, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ347)-1)*100+1, 100))</f>
         <v/>
@@ -43777,8 +43785,8 @@
         <v>46004</v>
       </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="132"/>
-      <c r="D348" s="130"/>
+      <c r="C348" s="143"/>
+      <c r="D348" s="141"/>
       <c r="AJ348" t="str">
         <f>TRIM(MID(SUBSTITUTE($F348, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ348)-1)*100+1, 100))</f>
         <v/>
@@ -43853,8 +43861,8 @@
         <v>46005</v>
       </c>
       <c r="B349" s="2"/>
-      <c r="C349" s="132"/>
-      <c r="D349" s="130"/>
+      <c r="C349" s="143"/>
+      <c r="D349" s="141"/>
       <c r="AJ349" t="str">
         <f>TRIM(MID(SUBSTITUTE($F349, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ349)-1)*100+1, 100))</f>
         <v/>
@@ -43929,8 +43937,8 @@
         <v>46006</v>
       </c>
       <c r="B350" s="2"/>
-      <c r="C350" s="132"/>
-      <c r="D350" s="130"/>
+      <c r="C350" s="143"/>
+      <c r="D350" s="141"/>
       <c r="AJ350" t="str">
         <f>TRIM(MID(SUBSTITUTE($F350, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ350)-1)*100+1, 100))</f>
         <v/>
@@ -44005,8 +44013,8 @@
         <v>46007</v>
       </c>
       <c r="B351" s="2"/>
-      <c r="C351" s="132"/>
-      <c r="D351" s="130"/>
+      <c r="C351" s="143"/>
+      <c r="D351" s="141"/>
       <c r="AJ351" t="str">
         <f>TRIM(MID(SUBSTITUTE($F351, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ351)-1)*100+1, 100))</f>
         <v/>
@@ -44081,8 +44089,8 @@
         <v>46008</v>
       </c>
       <c r="B352" s="2"/>
-      <c r="C352" s="132"/>
-      <c r="D352" s="130"/>
+      <c r="C352" s="143"/>
+      <c r="D352" s="141"/>
       <c r="AJ352" t="str">
         <f>TRIM(MID(SUBSTITUTE($F352, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ352)-1)*100+1, 100))</f>
         <v/>
@@ -44157,8 +44165,8 @@
         <v>46009</v>
       </c>
       <c r="B353" s="2"/>
-      <c r="C353" s="132"/>
-      <c r="D353" s="130"/>
+      <c r="C353" s="143"/>
+      <c r="D353" s="141"/>
       <c r="AJ353" t="str">
         <f>TRIM(MID(SUBSTITUTE($F353, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ353)-1)*100+1, 100))</f>
         <v/>
@@ -44233,8 +44241,8 @@
         <v>46010</v>
       </c>
       <c r="B354" s="2"/>
-      <c r="C354" s="132"/>
-      <c r="D354" s="130"/>
+      <c r="C354" s="143"/>
+      <c r="D354" s="141"/>
       <c r="AJ354" t="str">
         <f>TRIM(MID(SUBSTITUTE($F354, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ354)-1)*100+1, 100))</f>
         <v/>
@@ -44309,8 +44317,8 @@
         <v>46011</v>
       </c>
       <c r="B355" s="2"/>
-      <c r="C355" s="132"/>
-      <c r="D355" s="130"/>
+      <c r="C355" s="143"/>
+      <c r="D355" s="141"/>
       <c r="AJ355" t="str">
         <f>TRIM(MID(SUBSTITUTE($F355, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ355)-1)*100+1, 100))</f>
         <v/>
@@ -44385,8 +44393,8 @@
         <v>46012</v>
       </c>
       <c r="B356" s="2"/>
-      <c r="C356" s="132"/>
-      <c r="D356" s="130"/>
+      <c r="C356" s="143"/>
+      <c r="D356" s="141"/>
       <c r="AJ356" t="str">
         <f>TRIM(MID(SUBSTITUTE($F356, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ356)-1)*100+1, 100))</f>
         <v/>
@@ -44461,8 +44469,8 @@
         <v>46013</v>
       </c>
       <c r="B357" s="2"/>
-      <c r="C357" s="132"/>
-      <c r="D357" s="130"/>
+      <c r="C357" s="143"/>
+      <c r="D357" s="141"/>
       <c r="AJ357" t="str">
         <f>TRIM(MID(SUBSTITUTE($F357, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ357)-1)*100+1, 100))</f>
         <v/>
@@ -44537,8 +44545,8 @@
         <v>46014</v>
       </c>
       <c r="B358" s="2"/>
-      <c r="C358" s="132"/>
-      <c r="D358" s="130"/>
+      <c r="C358" s="143"/>
+      <c r="D358" s="141"/>
       <c r="AJ358" t="str">
         <f>TRIM(MID(SUBSTITUTE($F358, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ358)-1)*100+1, 100))</f>
         <v/>
@@ -44613,8 +44621,8 @@
         <v>46015</v>
       </c>
       <c r="B359" s="2"/>
-      <c r="C359" s="132"/>
-      <c r="D359" s="130"/>
+      <c r="C359" s="143"/>
+      <c r="D359" s="141"/>
       <c r="AJ359" t="str">
         <f>TRIM(MID(SUBSTITUTE($F359, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ359)-1)*100+1, 100))</f>
         <v/>
@@ -44689,8 +44697,8 @@
         <v>46016</v>
       </c>
       <c r="B360" s="2"/>
-      <c r="C360" s="132"/>
-      <c r="D360" s="130"/>
+      <c r="C360" s="143"/>
+      <c r="D360" s="141"/>
       <c r="AJ360" t="str">
         <f>TRIM(MID(SUBSTITUTE($F360, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ360)-1)*100+1, 100))</f>
         <v/>
@@ -44765,8 +44773,8 @@
         <v>46017</v>
       </c>
       <c r="B361" s="2"/>
-      <c r="C361" s="132"/>
-      <c r="D361" s="130"/>
+      <c r="C361" s="143"/>
+      <c r="D361" s="141"/>
       <c r="AJ361" t="str">
         <f>TRIM(MID(SUBSTITUTE($F361, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ361)-1)*100+1, 100))</f>
         <v/>
@@ -44841,8 +44849,8 @@
         <v>46018</v>
       </c>
       <c r="B362" s="2"/>
-      <c r="C362" s="132"/>
-      <c r="D362" s="130"/>
+      <c r="C362" s="143"/>
+      <c r="D362" s="141"/>
       <c r="AJ362" t="str">
         <f>TRIM(MID(SUBSTITUTE($F362, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ362)-1)*100+1, 100))</f>
         <v/>
@@ -44917,8 +44925,8 @@
         <v>46019</v>
       </c>
       <c r="B363" s="2"/>
-      <c r="C363" s="132"/>
-      <c r="D363" s="130"/>
+      <c r="C363" s="143"/>
+      <c r="D363" s="141"/>
       <c r="AJ363" t="str">
         <f>TRIM(MID(SUBSTITUTE($F363, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ363)-1)*100+1, 100))</f>
         <v/>
@@ -44993,8 +45001,8 @@
         <v>46020</v>
       </c>
       <c r="B364" s="2"/>
-      <c r="C364" s="132"/>
-      <c r="D364" s="130"/>
+      <c r="C364" s="143"/>
+      <c r="D364" s="141"/>
       <c r="AJ364" t="str">
         <f>TRIM(MID(SUBSTITUTE($F364, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ364)-1)*100+1, 100))</f>
         <v/>
@@ -45069,8 +45077,8 @@
         <v>46021</v>
       </c>
       <c r="B365" s="2"/>
-      <c r="C365" s="132"/>
-      <c r="D365" s="130"/>
+      <c r="C365" s="143"/>
+      <c r="D365" s="141"/>
       <c r="AJ365" t="str">
         <f>TRIM(MID(SUBSTITUTE($F365, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ365)-1)*100+1, 100))</f>
         <v/>
@@ -45145,8 +45153,8 @@
         <v>46022</v>
       </c>
       <c r="B366" s="2"/>
-      <c r="C366" s="132"/>
-      <c r="D366" s="130"/>
+      <c r="C366" s="143"/>
+      <c r="D366" s="141"/>
       <c r="AJ366" t="str">
         <f>TRIM(MID(SUBSTITUTE($F366, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ366)-1)*100+1, 100))</f>
         <v/>
@@ -45223,11 +45231,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N5:N16"/>
-    <mergeCell ref="H1:J2"/>
     <mergeCell ref="D2:D366"/>
     <mergeCell ref="C33:C60"/>
     <mergeCell ref="C61:C91"/>
@@ -45241,9 +45244,62 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N5:N16"/>
+    <mergeCell ref="H1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B367">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2 C33 C61 C92">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C366">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M16">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -45255,8 +45311,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C366">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="AL2:AL32">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45267,8 +45323,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33 C2 C61 C92">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="AL33:AL60">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45279,20 +45335,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M16">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="AL61:AL91">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45303,7 +45347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL32">
+  <conditionalFormatting sqref="AM2:AM32">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -45315,7 +45359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL33:AL60">
+  <conditionalFormatting sqref="AM33:AM60">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -45327,7 +45371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL61:AL91">
+  <conditionalFormatting sqref="AM61:AM81">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -45339,44 +45383,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM32">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM33:AM60">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM61:AM81">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AM82:AM84">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45388,13 +45396,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2:AN32">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM85:AM87">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -45768,11 +45788,11 @@
       <c r="B1" s="2">
         <v>6</v>
       </c>
-      <c r="C1" s="132">
+      <c r="C1" s="143">
         <f>AVERAGE(B1:B31)</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="D1" s="155">
+      <c r="D1" s="150">
         <f>AVERAGE(B1:B366)</f>
         <v>5.1967213114754101</v>
       </c>
@@ -45784,8 +45804,8 @@
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="155"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="150"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -45794,8 +45814,8 @@
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="155"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -45804,8 +45824,8 @@
       <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="150"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -45814,8 +45834,8 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="155"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="150"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -45824,8 +45844,8 @@
       <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="155"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="150"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -45834,8 +45854,8 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="155"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="150"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -45844,8 +45864,8 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="155"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="150"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -45854,8 +45874,8 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="155"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="150"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -45864,8 +45884,8 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="155"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="150"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -45874,8 +45894,8 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="155"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="150"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -45884,8 +45904,8 @@
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="155"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="150"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -45894,8 +45914,8 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="155"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="150"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -45904,8 +45924,8 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="155"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="150"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -45914,8 +45934,8 @@
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="155"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="150"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -45924,8 +45944,8 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="155"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="150"/>
     </row>
     <row r="17" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -45934,8 +45954,8 @@
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="155"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="150"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
         <v>24</v>
@@ -45951,8 +45971,8 @@
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="155"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="150"/>
       <c r="F18" s="24" t="s">
         <v>0</v>
       </c>
@@ -46002,8 +46022,8 @@
       <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="155"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="150"/>
       <c r="F19" s="7" t="s">
         <v>1</v>
       </c>
@@ -46020,7 +46040,7 @@
         <f>C1</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="L19" s="153">
+      <c r="L19" s="156">
         <f>AVERAGE(K19:K30)</f>
         <v>5.1920096403411202</v>
       </c>
@@ -46048,7 +46068,7 @@
         <f>COUNTIF(B1:B31,G23)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="151">
+      <c r="S19" s="154">
         <f>AVERAGE(K19:K22)</f>
         <v>4.9297923618835746</v>
       </c>
@@ -46060,8 +46080,8 @@
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="155"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="150"/>
       <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
@@ -46078,7 +46098,7 @@
         <f>C32</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="L20" s="153"/>
+      <c r="L20" s="156"/>
       <c r="M20" s="21">
         <f>COUNTIF(B32:B60,G18)</f>
         <v>1</v>
@@ -46103,7 +46123,7 @@
         <f>COUNTIF(B32:B60,G23)</f>
         <v>2</v>
       </c>
-      <c r="S20" s="132"/>
+      <c r="S20" s="143"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -46112,8 +46132,8 @@
       <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="155"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="150"/>
       <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
@@ -46130,7 +46150,7 @@
         <f>C61</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="L21" s="153"/>
+      <c r="L21" s="156"/>
       <c r="M21" s="21">
         <f>COUNTIF(B61:B91,G18)</f>
         <v>0</v>
@@ -46155,7 +46175,7 @@
         <f>COUNTIF(B61:B91,G23)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="132"/>
+      <c r="S21" s="143"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -46164,8 +46184,8 @@
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="155"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="150"/>
       <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
@@ -46182,7 +46202,7 @@
         <f>C92</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="L22" s="153"/>
+      <c r="L22" s="156"/>
       <c r="M22" s="21">
         <f>COUNTIF(B92:B121,G18)</f>
         <v>0</v>
@@ -46207,7 +46227,7 @@
         <f>COUNTIF(B92:B121,G23)</f>
         <v>2</v>
       </c>
-      <c r="S22" s="132"/>
+      <c r="S22" s="143"/>
     </row>
     <row r="23" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
@@ -46216,8 +46236,8 @@
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="155"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="150"/>
       <c r="F23" s="14" t="s">
         <v>5</v>
       </c>
@@ -46234,7 +46254,7 @@
         <f>C122</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="L23" s="153"/>
+      <c r="L23" s="156"/>
       <c r="M23" s="21">
         <f>COUNTIF(B122:B152,G18)</f>
         <v>1</v>
@@ -46259,7 +46279,7 @@
         <f>COUNTIF(B122:B152,G23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="151">
+      <c r="S23" s="154">
         <f>AVERAGE(K23:K26)</f>
         <v>5.365591397849462</v>
       </c>
@@ -46271,12 +46291,12 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="155"/>
-      <c r="F24" s="136" t="s">
+      <c r="C24" s="143"/>
+      <c r="D24" s="150"/>
+      <c r="F24" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="129"/>
       <c r="H24" s="17">
         <f>SUM(H18:H23)</f>
         <v>366</v>
@@ -46288,7 +46308,7 @@
         <f>C153</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="L24" s="153"/>
+      <c r="L24" s="156"/>
       <c r="M24" s="21">
         <f>COUNTIF(B153:B182,G18)</f>
         <v>3</v>
@@ -46313,7 +46333,7 @@
         <f>COUNTIF(B153:B182,G23)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="132"/>
+      <c r="S24" s="143"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -46322,8 +46342,8 @@
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="155"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="150"/>
       <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
@@ -46331,7 +46351,7 @@
         <f>C183</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="L25" s="153"/>
+      <c r="L25" s="156"/>
       <c r="M25" s="21">
         <f>COUNTIF(B183:B213,G18)</f>
         <v>2</v>
@@ -46356,7 +46376,7 @@
         <f>COUNTIF(B183:B213,G23)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="132"/>
+      <c r="S25" s="143"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -46365,8 +46385,8 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="155"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="150"/>
       <c r="J26" s="10" t="s">
         <v>15</v>
       </c>
@@ -46374,7 +46394,7 @@
         <f>C214</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="L26" s="153"/>
+      <c r="L26" s="156"/>
       <c r="M26" s="21">
         <f>COUNTIF(B214:B244,G18)</f>
         <v>0</v>
@@ -46399,7 +46419,7 @@
         <f>COUNTIF(B214:B244,G23)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="132"/>
+      <c r="S26" s="143"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -46408,13 +46428,13 @@
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="155"/>
-      <c r="F27" s="150" t="s">
+      <c r="C27" s="143"/>
+      <c r="D27" s="150"/>
+      <c r="F27" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
       <c r="J27" s="10" t="s">
         <v>16</v>
       </c>
@@ -46422,7 +46442,7 @@
         <f>C245</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="L27" s="153"/>
+      <c r="L27" s="156"/>
       <c r="M27" s="21">
         <f>COUNTIF(B245:B274,G18)</f>
         <v>1</v>
@@ -46447,7 +46467,7 @@
         <f>COUNTIF(B245:B274,G23)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="151">
+      <c r="S27" s="154">
         <f>AVERAGE(K27:K30)</f>
         <v>5.2806451612903231</v>
       </c>
@@ -46459,13 +46479,13 @@
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="D28" s="155"/>
-      <c r="F28" s="152">
+      <c r="C28" s="143"/>
+      <c r="D28" s="150"/>
+      <c r="F28" s="155">
         <v>2024</v>
       </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
       <c r="J28" s="10" t="s">
         <v>17</v>
       </c>
@@ -46473,7 +46493,7 @@
         <f>C275</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="L28" s="153"/>
+      <c r="L28" s="156"/>
       <c r="M28" s="21">
         <f>COUNTIF(B275:B305,G18)</f>
         <v>1</v>
@@ -46498,7 +46518,7 @@
         <f>COUNTIF(B275:B305,G23)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="132"/>
+      <c r="S28" s="143"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -46507,8 +46527,8 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="155"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="150"/>
       <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
@@ -46516,7 +46536,7 @@
         <f>C306</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="L29" s="153"/>
+      <c r="L29" s="156"/>
       <c r="M29" s="21">
         <f>COUNTIF(B306:B335,G18)</f>
         <v>0</v>
@@ -46541,7 +46561,7 @@
         <f>COUNTIF(B306:B335,G23)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="132"/>
+      <c r="S29" s="143"/>
     </row>
     <row r="30" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
@@ -46550,8 +46570,8 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="155"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="150"/>
       <c r="J30" s="18" t="s">
         <v>19</v>
       </c>
@@ -46559,7 +46579,7 @@
         <f>C336</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="L30" s="154"/>
+      <c r="L30" s="157"/>
       <c r="M30" s="21">
         <f>COUNTIF(B336:B366,G18)</f>
         <v>1</v>
@@ -46584,7 +46604,7 @@
         <f>COUNTIF(B336:B366,G23)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="132"/>
+      <c r="S30" s="143"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -46593,8 +46613,8 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="155"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="150"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -46603,11 +46623,11 @@
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="132">
+      <c r="C32" s="143">
         <f>AVERAGE(B32:B60)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="D32" s="155"/>
+      <c r="D32" s="150"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -46616,8 +46636,8 @@
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="D33" s="155"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="150"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -46626,8 +46646,8 @@
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="155"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="150"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -46636,8 +46656,8 @@
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="155"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="150"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -46646,8 +46666,8 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="155"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="150"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -46656,8 +46676,8 @@
       <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="132"/>
-      <c r="D37" s="155"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="150"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
@@ -46666,8 +46686,8 @@
       <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="155"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="150"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -46676,8 +46696,8 @@
       <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="155"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="150"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -46686,8 +46706,8 @@
       <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="155"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="150"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -46696,8 +46716,8 @@
       <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="D41" s="155"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="150"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -46706,8 +46726,8 @@
       <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="155"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="150"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -46716,8 +46736,8 @@
       <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="155"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="150"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -46726,8 +46746,8 @@
       <c r="B44" s="2">
         <v>6</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="155"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="150"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
@@ -46736,8 +46756,8 @@
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="132"/>
-      <c r="D45" s="155"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="150"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -46746,8 +46766,8 @@
       <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="155"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="150"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -46756,8 +46776,8 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="132"/>
-      <c r="D47" s="155"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="150"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -46766,8 +46786,8 @@
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="155"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="150"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -46776,8 +46796,8 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="132"/>
-      <c r="D49" s="155"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="150"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -46786,8 +46806,8 @@
       <c r="B50" s="2">
         <v>4</v>
       </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="155"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="150"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -46796,8 +46816,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="132"/>
-      <c r="D51" s="155"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="150"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -46806,8 +46826,8 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="132"/>
-      <c r="D52" s="155"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="150"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -46816,8 +46836,8 @@
       <c r="B53" s="2">
         <v>2</v>
       </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="155"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="150"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -46826,8 +46846,8 @@
       <c r="B54" s="2">
         <v>4</v>
       </c>
-      <c r="C54" s="132"/>
-      <c r="D54" s="155"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="150"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -46836,8 +46856,8 @@
       <c r="B55" s="2">
         <v>4</v>
       </c>
-      <c r="C55" s="132"/>
-      <c r="D55" s="155"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="150"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -46846,8 +46866,8 @@
       <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="132"/>
-      <c r="D56" s="155"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="150"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -46856,8 +46876,8 @@
       <c r="B57" s="2">
         <v>4</v>
       </c>
-      <c r="C57" s="132"/>
-      <c r="D57" s="155"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="150"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -46866,8 +46886,8 @@
       <c r="B58" s="2">
         <v>4</v>
       </c>
-      <c r="C58" s="132"/>
-      <c r="D58" s="155"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="150"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -46876,8 +46896,8 @@
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="155"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="150"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -46886,8 +46906,8 @@
       <c r="B60" s="2">
         <v>6</v>
       </c>
-      <c r="C60" s="132"/>
-      <c r="D60" s="155"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="150"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -46896,11 +46916,11 @@
       <c r="B61" s="2">
         <v>6</v>
       </c>
-      <c r="C61" s="132">
+      <c r="C61" s="143">
         <f>AVERAGE(B61:B91)</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="D61" s="155"/>
+      <c r="D61" s="150"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
@@ -46909,8 +46929,8 @@
       <c r="B62" s="2">
         <v>6</v>
       </c>
-      <c r="C62" s="132"/>
-      <c r="D62" s="155"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="150"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -46919,8 +46939,8 @@
       <c r="B63" s="2">
         <v>8</v>
       </c>
-      <c r="C63" s="132"/>
-      <c r="D63" s="155"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="150"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
@@ -46929,8 +46949,8 @@
       <c r="B64" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="132"/>
-      <c r="D64" s="155"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="150"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
@@ -46939,8 +46959,8 @@
       <c r="B65" s="2">
         <v>4</v>
       </c>
-      <c r="C65" s="132"/>
-      <c r="D65" s="155"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="150"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -46949,8 +46969,8 @@
       <c r="B66" s="2">
         <v>4</v>
       </c>
-      <c r="C66" s="132"/>
-      <c r="D66" s="155"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="150"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -46959,8 +46979,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="132"/>
-      <c r="D67" s="155"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="150"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
@@ -46969,8 +46989,8 @@
       <c r="B68" s="2">
         <v>6</v>
       </c>
-      <c r="C68" s="132"/>
-      <c r="D68" s="155"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="150"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
@@ -46979,8 +46999,8 @@
       <c r="B69" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="132"/>
-      <c r="D69" s="155"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="150"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
@@ -46989,8 +47009,8 @@
       <c r="B70" s="2">
         <v>6</v>
       </c>
-      <c r="C70" s="132"/>
-      <c r="D70" s="155"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="150"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
@@ -46999,8 +47019,8 @@
       <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="132"/>
-      <c r="D71" s="155"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="150"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
@@ -47009,8 +47029,8 @@
       <c r="B72" s="2">
         <v>6</v>
       </c>
-      <c r="C72" s="132"/>
-      <c r="D72" s="155"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="150"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
@@ -47019,8 +47039,8 @@
       <c r="B73" s="2">
         <v>6</v>
       </c>
-      <c r="C73" s="132"/>
-      <c r="D73" s="155"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="150"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -47029,8 +47049,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="132"/>
-      <c r="D74" s="155"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="150"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -47039,8 +47059,8 @@
       <c r="B75" s="2">
         <v>6</v>
       </c>
-      <c r="C75" s="132"/>
-      <c r="D75" s="155"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="150"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -47049,8 +47069,8 @@
       <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C76" s="132"/>
-      <c r="D76" s="155"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="150"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
@@ -47059,8 +47079,8 @@
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="132"/>
-      <c r="D77" s="155"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="150"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -47069,8 +47089,8 @@
       <c r="B78" s="2">
         <v>6</v>
       </c>
-      <c r="C78" s="132"/>
-      <c r="D78" s="155"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="150"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
@@ -47079,8 +47099,8 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="132"/>
-      <c r="D79" s="155"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="150"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
@@ -47089,8 +47109,8 @@
       <c r="B80" s="2">
         <v>8</v>
       </c>
-      <c r="C80" s="132"/>
-      <c r="D80" s="155"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="150"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
@@ -47099,8 +47119,8 @@
       <c r="B81" s="2">
         <v>6</v>
       </c>
-      <c r="C81" s="132"/>
-      <c r="D81" s="155"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="150"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
@@ -47109,8 +47129,8 @@
       <c r="B82" s="2">
         <v>8</v>
       </c>
-      <c r="C82" s="132"/>
-      <c r="D82" s="155"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="150"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -47119,8 +47139,8 @@
       <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="C83" s="132"/>
-      <c r="D83" s="155"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="150"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
@@ -47129,8 +47149,8 @@
       <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="132"/>
-      <c r="D84" s="155"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="150"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -47139,8 +47159,8 @@
       <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C85" s="132"/>
-      <c r="D85" s="155"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="150"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -47149,8 +47169,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="132"/>
-      <c r="D86" s="155"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="150"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -47159,8 +47179,8 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
-      <c r="C87" s="132"/>
-      <c r="D87" s="155"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="150"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -47169,8 +47189,8 @@
       <c r="B88" s="2">
         <v>6</v>
       </c>
-      <c r="C88" s="132"/>
-      <c r="D88" s="155"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="150"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -47179,8 +47199,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="132"/>
-      <c r="D89" s="155"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="150"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -47189,8 +47209,8 @@
       <c r="B90" s="2">
         <v>6</v>
       </c>
-      <c r="C90" s="132"/>
-      <c r="D90" s="155"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="150"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -47199,8 +47219,8 @@
       <c r="B91" s="2">
         <v>6</v>
       </c>
-      <c r="C91" s="132"/>
-      <c r="D91" s="155"/>
+      <c r="C91" s="143"/>
+      <c r="D91" s="150"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -47209,11 +47229,11 @@
       <c r="B92" s="2">
         <v>4</v>
       </c>
-      <c r="C92" s="132">
+      <c r="C92" s="143">
         <f>AVERAGE(B92:B121)</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="D92" s="155"/>
+      <c r="D92" s="150"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -47222,8 +47242,8 @@
       <c r="B93" s="2">
         <v>4</v>
       </c>
-      <c r="C93" s="132"/>
-      <c r="D93" s="155"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="150"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -47232,8 +47252,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="132"/>
-      <c r="D94" s="155"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="150"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -47242,8 +47262,8 @@
       <c r="B95" s="2">
         <v>4</v>
       </c>
-      <c r="C95" s="132"/>
-      <c r="D95" s="155"/>
+      <c r="C95" s="143"/>
+      <c r="D95" s="150"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -47252,8 +47272,8 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96" s="132"/>
-      <c r="D96" s="155"/>
+      <c r="C96" s="143"/>
+      <c r="D96" s="150"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
@@ -47262,8 +47282,8 @@
       <c r="B97" s="2">
         <v>2</v>
       </c>
-      <c r="C97" s="132"/>
-      <c r="D97" s="155"/>
+      <c r="C97" s="143"/>
+      <c r="D97" s="150"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -47272,8 +47292,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="132"/>
-      <c r="D98" s="155"/>
+      <c r="C98" s="143"/>
+      <c r="D98" s="150"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -47282,8 +47302,8 @@
       <c r="B99" s="2">
         <v>4</v>
       </c>
-      <c r="C99" s="132"/>
-      <c r="D99" s="155"/>
+      <c r="C99" s="143"/>
+      <c r="D99" s="150"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
@@ -47292,8 +47312,8 @@
       <c r="B100" s="2">
         <v>6</v>
       </c>
-      <c r="C100" s="132"/>
-      <c r="D100" s="155"/>
+      <c r="C100" s="143"/>
+      <c r="D100" s="150"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -47302,8 +47322,8 @@
       <c r="B101" s="2">
         <v>2</v>
       </c>
-      <c r="C101" s="132"/>
-      <c r="D101" s="155"/>
+      <c r="C101" s="143"/>
+      <c r="D101" s="150"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
@@ -47312,8 +47332,8 @@
       <c r="B102" s="2">
         <v>0</v>
       </c>
-      <c r="C102" s="132"/>
-      <c r="D102" s="155"/>
+      <c r="C102" s="143"/>
+      <c r="D102" s="150"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
@@ -47322,8 +47342,8 @@
       <c r="B103" s="2">
         <v>6</v>
       </c>
-      <c r="C103" s="132"/>
-      <c r="D103" s="155"/>
+      <c r="C103" s="143"/>
+      <c r="D103" s="150"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
@@ -47332,8 +47352,8 @@
       <c r="B104" s="2">
         <v>6</v>
       </c>
-      <c r="C104" s="132"/>
-      <c r="D104" s="155"/>
+      <c r="C104" s="143"/>
+      <c r="D104" s="150"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
@@ -47342,8 +47362,8 @@
       <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="132"/>
-      <c r="D105" s="155"/>
+      <c r="C105" s="143"/>
+      <c r="D105" s="150"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
@@ -47352,8 +47372,8 @@
       <c r="B106" s="2">
         <v>6</v>
       </c>
-      <c r="C106" s="132"/>
-      <c r="D106" s="155"/>
+      <c r="C106" s="143"/>
+      <c r="D106" s="150"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
@@ -47362,8 +47382,8 @@
       <c r="B107" s="2">
         <v>4</v>
       </c>
-      <c r="C107" s="132"/>
-      <c r="D107" s="155"/>
+      <c r="C107" s="143"/>
+      <c r="D107" s="150"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
@@ -47372,8 +47392,8 @@
       <c r="B108" s="2">
         <v>8</v>
       </c>
-      <c r="C108" s="132"/>
-      <c r="D108" s="155"/>
+      <c r="C108" s="143"/>
+      <c r="D108" s="150"/>
       <c r="J108" s="3" t="s">
         <v>22</v>
       </c>
@@ -47385,8 +47405,8 @@
       <c r="B109" s="2">
         <v>6</v>
       </c>
-      <c r="C109" s="132"/>
-      <c r="D109" s="155"/>
+      <c r="C109" s="143"/>
+      <c r="D109" s="150"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
@@ -47395,8 +47415,8 @@
       <c r="B110" s="2">
         <v>6</v>
       </c>
-      <c r="C110" s="132"/>
-      <c r="D110" s="155"/>
+      <c r="C110" s="143"/>
+      <c r="D110" s="150"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
@@ -47405,8 +47425,8 @@
       <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C111" s="132"/>
-      <c r="D111" s="155"/>
+      <c r="C111" s="143"/>
+      <c r="D111" s="150"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
@@ -47415,8 +47435,8 @@
       <c r="B112" s="2">
         <v>6</v>
       </c>
-      <c r="C112" s="132"/>
-      <c r="D112" s="155"/>
+      <c r="C112" s="143"/>
+      <c r="D112" s="150"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
@@ -47425,8 +47445,8 @@
       <c r="B113" s="2">
         <v>6</v>
       </c>
-      <c r="C113" s="132"/>
-      <c r="D113" s="155"/>
+      <c r="C113" s="143"/>
+      <c r="D113" s="150"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
@@ -47435,8 +47455,8 @@
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" s="132"/>
-      <c r="D114" s="155"/>
+      <c r="C114" s="143"/>
+      <c r="D114" s="150"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
@@ -47445,8 +47465,8 @@
       <c r="B115" s="2">
         <v>6</v>
       </c>
-      <c r="C115" s="132"/>
-      <c r="D115" s="155"/>
+      <c r="C115" s="143"/>
+      <c r="D115" s="150"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
@@ -47455,8 +47475,8 @@
       <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="132"/>
-      <c r="D116" s="155"/>
+      <c r="C116" s="143"/>
+      <c r="D116" s="150"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
@@ -47465,8 +47485,8 @@
       <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C117" s="132"/>
-      <c r="D117" s="155"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="150"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
@@ -47475,8 +47495,8 @@
       <c r="B118" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="132"/>
-      <c r="D118" s="155"/>
+      <c r="C118" s="143"/>
+      <c r="D118" s="150"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
@@ -47485,8 +47505,8 @@
       <c r="B119" s="2">
         <v>4</v>
       </c>
-      <c r="C119" s="132"/>
-      <c r="D119" s="155"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="150"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
@@ -47495,8 +47515,8 @@
       <c r="B120" s="2">
         <v>6</v>
       </c>
-      <c r="C120" s="132"/>
-      <c r="D120" s="155"/>
+      <c r="C120" s="143"/>
+      <c r="D120" s="150"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
@@ -47505,8 +47525,8 @@
       <c r="B121" s="2">
         <v>6</v>
       </c>
-      <c r="C121" s="132"/>
-      <c r="D121" s="155"/>
+      <c r="C121" s="143"/>
+      <c r="D121" s="150"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
@@ -47515,11 +47535,11 @@
       <c r="B122" s="2">
         <v>8</v>
       </c>
-      <c r="C122" s="156">
+      <c r="C122" s="151">
         <f>AVERAGE(B122:B152)</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="D122" s="155"/>
+      <c r="D122" s="150"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
@@ -47528,8 +47548,8 @@
       <c r="B123" s="2">
         <v>6</v>
       </c>
-      <c r="C123" s="157"/>
-      <c r="D123" s="155"/>
+      <c r="C123" s="152"/>
+      <c r="D123" s="150"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
@@ -47538,8 +47558,8 @@
       <c r="B124" s="2">
         <v>6</v>
       </c>
-      <c r="C124" s="157"/>
-      <c r="D124" s="155"/>
+      <c r="C124" s="152"/>
+      <c r="D124" s="150"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
@@ -47548,8 +47568,8 @@
       <c r="B125" s="2">
         <v>10</v>
       </c>
-      <c r="C125" s="157"/>
-      <c r="D125" s="155"/>
+      <c r="C125" s="152"/>
+      <c r="D125" s="150"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
@@ -47558,8 +47578,8 @@
       <c r="B126" s="2">
         <v>6</v>
       </c>
-      <c r="C126" s="157"/>
-      <c r="D126" s="155"/>
+      <c r="C126" s="152"/>
+      <c r="D126" s="150"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
@@ -47568,8 +47588,8 @@
       <c r="B127" s="2">
         <v>4</v>
       </c>
-      <c r="C127" s="157"/>
-      <c r="D127" s="155"/>
+      <c r="C127" s="152"/>
+      <c r="D127" s="150"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
@@ -47578,8 +47598,8 @@
       <c r="B128" s="2">
         <v>6</v>
       </c>
-      <c r="C128" s="157"/>
-      <c r="D128" s="155"/>
+      <c r="C128" s="152"/>
+      <c r="D128" s="150"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
@@ -47588,8 +47608,8 @@
       <c r="B129" s="2">
         <v>6</v>
       </c>
-      <c r="C129" s="157"/>
-      <c r="D129" s="155"/>
+      <c r="C129" s="152"/>
+      <c r="D129" s="150"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
@@ -47598,8 +47618,8 @@
       <c r="B130" s="2">
         <v>6</v>
       </c>
-      <c r="C130" s="157"/>
-      <c r="D130" s="155"/>
+      <c r="C130" s="152"/>
+      <c r="D130" s="150"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
@@ -47608,8 +47628,8 @@
       <c r="B131" s="2">
         <v>8</v>
       </c>
-      <c r="C131" s="157"/>
-      <c r="D131" s="155"/>
+      <c r="C131" s="152"/>
+      <c r="D131" s="150"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
@@ -47618,8 +47638,8 @@
       <c r="B132" s="2">
         <v>8</v>
       </c>
-      <c r="C132" s="157"/>
-      <c r="D132" s="155"/>
+      <c r="C132" s="152"/>
+      <c r="D132" s="150"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
@@ -47628,8 +47648,8 @@
       <c r="B133" s="2">
         <v>6</v>
       </c>
-      <c r="C133" s="157"/>
-      <c r="D133" s="155"/>
+      <c r="C133" s="152"/>
+      <c r="D133" s="150"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
@@ -47638,8 +47658,8 @@
       <c r="B134" s="2">
         <v>6</v>
       </c>
-      <c r="C134" s="157"/>
-      <c r="D134" s="155"/>
+      <c r="C134" s="152"/>
+      <c r="D134" s="150"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
@@ -47648,8 +47668,8 @@
       <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="C135" s="157"/>
-      <c r="D135" s="155"/>
+      <c r="C135" s="152"/>
+      <c r="D135" s="150"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
@@ -47658,8 +47678,8 @@
       <c r="B136" s="2">
         <v>6</v>
       </c>
-      <c r="C136" s="157"/>
-      <c r="D136" s="155"/>
+      <c r="C136" s="152"/>
+      <c r="D136" s="150"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
@@ -47668,8 +47688,8 @@
       <c r="B137" s="2">
         <v>4</v>
       </c>
-      <c r="C137" s="157"/>
-      <c r="D137" s="155"/>
+      <c r="C137" s="152"/>
+      <c r="D137" s="150"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
@@ -47678,8 +47698,8 @@
       <c r="B138" s="2">
         <v>4</v>
       </c>
-      <c r="C138" s="157"/>
-      <c r="D138" s="155"/>
+      <c r="C138" s="152"/>
+      <c r="D138" s="150"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
@@ -47688,8 +47708,8 @@
       <c r="B139" s="2">
         <v>6</v>
       </c>
-      <c r="C139" s="157"/>
-      <c r="D139" s="155"/>
+      <c r="C139" s="152"/>
+      <c r="D139" s="150"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
@@ -47698,8 +47718,8 @@
       <c r="B140" s="2">
         <v>4</v>
       </c>
-      <c r="C140" s="157"/>
-      <c r="D140" s="155"/>
+      <c r="C140" s="152"/>
+      <c r="D140" s="150"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
@@ -47708,8 +47728,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="157"/>
-      <c r="D141" s="155"/>
+      <c r="C141" s="152"/>
+      <c r="D141" s="150"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
@@ -47718,8 +47738,8 @@
       <c r="B142" s="2">
         <v>6</v>
       </c>
-      <c r="C142" s="157"/>
-      <c r="D142" s="155"/>
+      <c r="C142" s="152"/>
+      <c r="D142" s="150"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
@@ -47728,8 +47748,8 @@
       <c r="B143" s="2">
         <v>6</v>
       </c>
-      <c r="C143" s="157"/>
-      <c r="D143" s="155"/>
+      <c r="C143" s="152"/>
+      <c r="D143" s="150"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
@@ -47738,8 +47758,8 @@
       <c r="B144" s="2">
         <v>8</v>
       </c>
-      <c r="C144" s="157"/>
-      <c r="D144" s="155"/>
+      <c r="C144" s="152"/>
+      <c r="D144" s="150"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
@@ -47748,8 +47768,8 @@
       <c r="B145" s="2">
         <v>8</v>
       </c>
-      <c r="C145" s="157"/>
-      <c r="D145" s="155"/>
+      <c r="C145" s="152"/>
+      <c r="D145" s="150"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
@@ -47758,8 +47778,8 @@
       <c r="B146" s="2">
         <v>8</v>
       </c>
-      <c r="C146" s="157"/>
-      <c r="D146" s="155"/>
+      <c r="C146" s="152"/>
+      <c r="D146" s="150"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
@@ -47768,8 +47788,8 @@
       <c r="B147" s="2">
         <v>6</v>
       </c>
-      <c r="C147" s="157"/>
-      <c r="D147" s="155"/>
+      <c r="C147" s="152"/>
+      <c r="D147" s="150"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
@@ -47778,8 +47798,8 @@
       <c r="B148" s="2">
         <v>4</v>
       </c>
-      <c r="C148" s="157"/>
-      <c r="D148" s="155"/>
+      <c r="C148" s="152"/>
+      <c r="D148" s="150"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
@@ -47788,8 +47808,8 @@
       <c r="B149" s="2">
         <v>6</v>
       </c>
-      <c r="C149" s="157"/>
-      <c r="D149" s="155"/>
+      <c r="C149" s="152"/>
+      <c r="D149" s="150"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
@@ -47798,8 +47818,8 @@
       <c r="B150" s="2">
         <v>6</v>
       </c>
-      <c r="C150" s="157"/>
-      <c r="D150" s="155"/>
+      <c r="C150" s="152"/>
+      <c r="D150" s="150"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
@@ -47808,8 +47828,8 @@
       <c r="B151" s="2">
         <v>6</v>
       </c>
-      <c r="C151" s="157"/>
-      <c r="D151" s="155"/>
+      <c r="C151" s="152"/>
+      <c r="D151" s="150"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
@@ -47818,8 +47838,8 @@
       <c r="B152" s="2">
         <v>6</v>
       </c>
-      <c r="C152" s="131"/>
-      <c r="D152" s="155"/>
+      <c r="C152" s="142"/>
+      <c r="D152" s="150"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
@@ -47828,11 +47848,11 @@
       <c r="B153" s="2">
         <v>6</v>
       </c>
-      <c r="C153" s="156">
+      <c r="C153" s="151">
         <f>AVERAGE(B153:B182)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D153" s="155"/>
+      <c r="D153" s="150"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
@@ -47841,8 +47861,8 @@
       <c r="B154" s="2">
         <v>6</v>
       </c>
-      <c r="C154" s="157"/>
-      <c r="D154" s="155"/>
+      <c r="C154" s="152"/>
+      <c r="D154" s="150"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
@@ -47851,8 +47871,8 @@
       <c r="B155" s="2">
         <v>4</v>
       </c>
-      <c r="C155" s="157"/>
-      <c r="D155" s="155"/>
+      <c r="C155" s="152"/>
+      <c r="D155" s="150"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
@@ -47861,8 +47881,8 @@
       <c r="B156" s="2">
         <v>8</v>
       </c>
-      <c r="C156" s="157"/>
-      <c r="D156" s="155"/>
+      <c r="C156" s="152"/>
+      <c r="D156" s="150"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
@@ -47871,8 +47891,8 @@
       <c r="B157" s="2">
         <v>10</v>
       </c>
-      <c r="C157" s="157"/>
-      <c r="D157" s="155"/>
+      <c r="C157" s="152"/>
+      <c r="D157" s="150"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
@@ -47881,8 +47901,8 @@
       <c r="B158" s="2">
         <v>6</v>
       </c>
-      <c r="C158" s="157"/>
-      <c r="D158" s="155"/>
+      <c r="C158" s="152"/>
+      <c r="D158" s="150"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
@@ -47891,8 +47911,8 @@
       <c r="B159" s="2">
         <v>4</v>
       </c>
-      <c r="C159" s="157"/>
-      <c r="D159" s="155"/>
+      <c r="C159" s="152"/>
+      <c r="D159" s="150"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
@@ -47901,8 +47921,8 @@
       <c r="B160" s="2">
         <v>6</v>
       </c>
-      <c r="C160" s="157"/>
-      <c r="D160" s="155"/>
+      <c r="C160" s="152"/>
+      <c r="D160" s="150"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
@@ -47911,8 +47931,8 @@
       <c r="B161" s="2">
         <v>6</v>
       </c>
-      <c r="C161" s="157"/>
-      <c r="D161" s="155"/>
+      <c r="C161" s="152"/>
+      <c r="D161" s="150"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
@@ -47921,8 +47941,8 @@
       <c r="B162" s="2">
         <v>6</v>
       </c>
-      <c r="C162" s="157"/>
-      <c r="D162" s="155"/>
+      <c r="C162" s="152"/>
+      <c r="D162" s="150"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
@@ -47931,8 +47951,8 @@
       <c r="B163" s="2">
         <v>0</v>
       </c>
-      <c r="C163" s="157"/>
-      <c r="D163" s="155"/>
+      <c r="C163" s="152"/>
+      <c r="D163" s="150"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
@@ -47941,8 +47961,8 @@
       <c r="B164" s="2">
         <v>4</v>
       </c>
-      <c r="C164" s="157"/>
-      <c r="D164" s="155"/>
+      <c r="C164" s="152"/>
+      <c r="D164" s="150"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
@@ -47951,8 +47971,8 @@
       <c r="B165" s="2">
         <v>4</v>
       </c>
-      <c r="C165" s="157"/>
-      <c r="D165" s="155"/>
+      <c r="C165" s="152"/>
+      <c r="D165" s="150"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
@@ -47961,8 +47981,8 @@
       <c r="B166" s="2">
         <v>4</v>
       </c>
-      <c r="C166" s="157"/>
-      <c r="D166" s="155"/>
+      <c r="C166" s="152"/>
+      <c r="D166" s="150"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
@@ -47971,8 +47991,8 @@
       <c r="B167" s="2">
         <v>6</v>
       </c>
-      <c r="C167" s="157"/>
-      <c r="D167" s="155"/>
+      <c r="C167" s="152"/>
+      <c r="D167" s="150"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
@@ -47981,8 +48001,8 @@
       <c r="B168" s="2">
         <v>6</v>
       </c>
-      <c r="C168" s="157"/>
-      <c r="D168" s="155"/>
+      <c r="C168" s="152"/>
+      <c r="D168" s="150"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
@@ -47991,8 +48011,8 @@
       <c r="B169" s="2">
         <v>4</v>
       </c>
-      <c r="C169" s="157"/>
-      <c r="D169" s="155"/>
+      <c r="C169" s="152"/>
+      <c r="D169" s="150"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
@@ -48001,8 +48021,8 @@
       <c r="B170" s="2">
         <v>4</v>
       </c>
-      <c r="C170" s="157"/>
-      <c r="D170" s="155"/>
+      <c r="C170" s="152"/>
+      <c r="D170" s="150"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
@@ -48011,8 +48031,8 @@
       <c r="B171" s="2">
         <v>10</v>
       </c>
-      <c r="C171" s="157"/>
-      <c r="D171" s="155"/>
+      <c r="C171" s="152"/>
+      <c r="D171" s="150"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
@@ -48021,8 +48041,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="157"/>
-      <c r="D172" s="155"/>
+      <c r="C172" s="152"/>
+      <c r="D172" s="150"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
@@ -48031,8 +48051,8 @@
       <c r="B173" s="2">
         <v>2</v>
       </c>
-      <c r="C173" s="157"/>
-      <c r="D173" s="155"/>
+      <c r="C173" s="152"/>
+      <c r="D173" s="150"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
@@ -48041,8 +48061,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="157"/>
-      <c r="D174" s="155"/>
+      <c r="C174" s="152"/>
+      <c r="D174" s="150"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
@@ -48051,8 +48071,8 @@
       <c r="B175" s="2">
         <v>4</v>
       </c>
-      <c r="C175" s="157"/>
-      <c r="D175" s="155"/>
+      <c r="C175" s="152"/>
+      <c r="D175" s="150"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
@@ -48061,8 +48081,8 @@
       <c r="B176" s="2">
         <v>6</v>
       </c>
-      <c r="C176" s="157"/>
-      <c r="D176" s="155"/>
+      <c r="C176" s="152"/>
+      <c r="D176" s="150"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
@@ -48071,8 +48091,8 @@
       <c r="B177" s="2">
         <v>4</v>
       </c>
-      <c r="C177" s="157"/>
-      <c r="D177" s="155"/>
+      <c r="C177" s="152"/>
+      <c r="D177" s="150"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
@@ -48081,8 +48101,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="157"/>
-      <c r="D178" s="155"/>
+      <c r="C178" s="152"/>
+      <c r="D178" s="150"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
@@ -48091,8 +48111,8 @@
       <c r="B179" s="2">
         <v>6</v>
       </c>
-      <c r="C179" s="157"/>
-      <c r="D179" s="155"/>
+      <c r="C179" s="152"/>
+      <c r="D179" s="150"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
@@ -48101,8 +48121,8 @@
       <c r="B180" s="2">
         <v>10</v>
       </c>
-      <c r="C180" s="157"/>
-      <c r="D180" s="155"/>
+      <c r="C180" s="152"/>
+      <c r="D180" s="150"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
@@ -48111,8 +48131,8 @@
       <c r="B181" s="2">
         <v>8</v>
       </c>
-      <c r="C181" s="157"/>
-      <c r="D181" s="155"/>
+      <c r="C181" s="152"/>
+      <c r="D181" s="150"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
@@ -48121,8 +48141,8 @@
       <c r="B182" s="2">
         <v>6</v>
       </c>
-      <c r="C182" s="131"/>
-      <c r="D182" s="155"/>
+      <c r="C182" s="142"/>
+      <c r="D182" s="150"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
@@ -48131,11 +48151,11 @@
       <c r="B183" s="2">
         <v>6</v>
       </c>
-      <c r="C183" s="156">
+      <c r="C183" s="151">
         <f>AVERAGE(B183:B213)</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="D183" s="155"/>
+      <c r="D183" s="150"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
@@ -48144,8 +48164,8 @@
       <c r="B184" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="157"/>
-      <c r="D184" s="155"/>
+      <c r="C184" s="152"/>
+      <c r="D184" s="150"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
@@ -48154,8 +48174,8 @@
       <c r="B185" s="2">
         <v>2</v>
       </c>
-      <c r="C185" s="157"/>
-      <c r="D185" s="155"/>
+      <c r="C185" s="152"/>
+      <c r="D185" s="150"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
@@ -48164,8 +48184,8 @@
       <c r="B186" s="2">
         <v>4</v>
       </c>
-      <c r="C186" s="157"/>
-      <c r="D186" s="155"/>
+      <c r="C186" s="152"/>
+      <c r="D186" s="150"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
@@ -48174,8 +48194,8 @@
       <c r="B187" s="2">
         <v>4</v>
       </c>
-      <c r="C187" s="157"/>
-      <c r="D187" s="155"/>
+      <c r="C187" s="152"/>
+      <c r="D187" s="150"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
@@ -48184,8 +48204,8 @@
       <c r="B188" s="2">
         <v>10</v>
       </c>
-      <c r="C188" s="157"/>
-      <c r="D188" s="155"/>
+      <c r="C188" s="152"/>
+      <c r="D188" s="150"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
@@ -48194,8 +48214,8 @@
       <c r="B189" s="2">
         <v>6</v>
       </c>
-      <c r="C189" s="157"/>
-      <c r="D189" s="155"/>
+      <c r="C189" s="152"/>
+      <c r="D189" s="150"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
@@ -48204,8 +48224,8 @@
       <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C190" s="157"/>
-      <c r="D190" s="155"/>
+      <c r="C190" s="152"/>
+      <c r="D190" s="150"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
@@ -48214,8 +48234,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="157"/>
-      <c r="D191" s="155"/>
+      <c r="C191" s="152"/>
+      <c r="D191" s="150"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
@@ -48224,8 +48244,8 @@
       <c r="B192" s="2">
         <v>4</v>
       </c>
-      <c r="C192" s="157"/>
-      <c r="D192" s="155"/>
+      <c r="C192" s="152"/>
+      <c r="D192" s="150"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
@@ -48234,8 +48254,8 @@
       <c r="B193" s="2">
         <v>6</v>
       </c>
-      <c r="C193" s="157"/>
-      <c r="D193" s="155"/>
+      <c r="C193" s="152"/>
+      <c r="D193" s="150"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
@@ -48244,8 +48264,8 @@
       <c r="B194" s="2">
         <v>4</v>
       </c>
-      <c r="C194" s="157"/>
-      <c r="D194" s="155"/>
+      <c r="C194" s="152"/>
+      <c r="D194" s="150"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
@@ -48254,8 +48274,8 @@
       <c r="B195" s="2">
         <v>10</v>
       </c>
-      <c r="C195" s="157"/>
-      <c r="D195" s="155"/>
+      <c r="C195" s="152"/>
+      <c r="D195" s="150"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
@@ -48264,8 +48284,8 @@
       <c r="B196" s="2">
         <v>6</v>
       </c>
-      <c r="C196" s="157"/>
-      <c r="D196" s="155"/>
+      <c r="C196" s="152"/>
+      <c r="D196" s="150"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
@@ -48274,8 +48294,8 @@
       <c r="B197" s="2">
         <v>4</v>
       </c>
-      <c r="C197" s="157"/>
-      <c r="D197" s="155"/>
+      <c r="C197" s="152"/>
+      <c r="D197" s="150"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
@@ -48284,8 +48304,8 @@
       <c r="B198" s="2">
         <v>4</v>
       </c>
-      <c r="C198" s="157"/>
-      <c r="D198" s="155"/>
+      <c r="C198" s="152"/>
+      <c r="D198" s="150"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
@@ -48294,8 +48314,8 @@
       <c r="B199" s="2">
         <v>6</v>
       </c>
-      <c r="C199" s="157"/>
-      <c r="D199" s="155"/>
+      <c r="C199" s="152"/>
+      <c r="D199" s="150"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
@@ -48304,8 +48324,8 @@
       <c r="B200" s="2">
         <v>4</v>
       </c>
-      <c r="C200" s="157"/>
-      <c r="D200" s="155"/>
+      <c r="C200" s="152"/>
+      <c r="D200" s="150"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
@@ -48314,8 +48334,8 @@
       <c r="B201" s="2">
         <v>2</v>
       </c>
-      <c r="C201" s="157"/>
-      <c r="D201" s="155"/>
+      <c r="C201" s="152"/>
+      <c r="D201" s="150"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
@@ -48324,8 +48344,8 @@
       <c r="B202" s="2">
         <v>8</v>
       </c>
-      <c r="C202" s="157"/>
-      <c r="D202" s="155"/>
+      <c r="C202" s="152"/>
+      <c r="D202" s="150"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
@@ -48334,8 +48354,8 @@
       <c r="B203" s="2">
         <v>6</v>
       </c>
-      <c r="C203" s="157"/>
-      <c r="D203" s="155"/>
+      <c r="C203" s="152"/>
+      <c r="D203" s="150"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
@@ -48344,8 +48364,8 @@
       <c r="B204" s="2">
         <v>4</v>
       </c>
-      <c r="C204" s="157"/>
-      <c r="D204" s="155"/>
+      <c r="C204" s="152"/>
+      <c r="D204" s="150"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
@@ -48354,8 +48374,8 @@
       <c r="B205" s="2">
         <v>4</v>
       </c>
-      <c r="C205" s="157"/>
-      <c r="D205" s="155"/>
+      <c r="C205" s="152"/>
+      <c r="D205" s="150"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
@@ -48364,8 +48384,8 @@
       <c r="B206" s="2">
         <v>2</v>
       </c>
-      <c r="C206" s="157"/>
-      <c r="D206" s="155"/>
+      <c r="C206" s="152"/>
+      <c r="D206" s="150"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
@@ -48374,8 +48394,8 @@
       <c r="B207" s="2">
         <v>4</v>
       </c>
-      <c r="C207" s="157"/>
-      <c r="D207" s="155"/>
+      <c r="C207" s="152"/>
+      <c r="D207" s="150"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
@@ -48384,8 +48404,8 @@
       <c r="B208" s="2">
         <v>4</v>
       </c>
-      <c r="C208" s="157"/>
-      <c r="D208" s="155"/>
+      <c r="C208" s="152"/>
+      <c r="D208" s="150"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
@@ -48394,8 +48414,8 @@
       <c r="B209" s="2">
         <v>6</v>
       </c>
-      <c r="C209" s="157"/>
-      <c r="D209" s="155"/>
+      <c r="C209" s="152"/>
+      <c r="D209" s="150"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
@@ -48404,8 +48424,8 @@
       <c r="B210" s="2">
         <v>6</v>
       </c>
-      <c r="C210" s="157"/>
-      <c r="D210" s="155"/>
+      <c r="C210" s="152"/>
+      <c r="D210" s="150"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
@@ -48414,8 +48434,8 @@
       <c r="B211" s="2">
         <v>6</v>
       </c>
-      <c r="C211" s="157"/>
-      <c r="D211" s="155"/>
+      <c r="C211" s="152"/>
+      <c r="D211" s="150"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
@@ -48424,8 +48444,8 @@
       <c r="B212" s="2">
         <v>6</v>
       </c>
-      <c r="C212" s="157"/>
-      <c r="D212" s="155"/>
+      <c r="C212" s="152"/>
+      <c r="D212" s="150"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
@@ -48434,8 +48454,8 @@
       <c r="B213" s="2">
         <v>6</v>
       </c>
-      <c r="C213" s="131"/>
-      <c r="D213" s="155"/>
+      <c r="C213" s="142"/>
+      <c r="D213" s="150"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
@@ -48444,11 +48464,11 @@
       <c r="B214" s="2">
         <v>6</v>
       </c>
-      <c r="C214" s="156">
+      <c r="C214" s="151">
         <f>AVERAGE(B214:B244)</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="D214" s="155"/>
+      <c r="D214" s="150"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
@@ -48457,8 +48477,8 @@
       <c r="B215" s="2">
         <v>6</v>
       </c>
-      <c r="C215" s="157"/>
-      <c r="D215" s="155"/>
+      <c r="C215" s="152"/>
+      <c r="D215" s="150"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
@@ -48467,8 +48487,8 @@
       <c r="B216" s="2">
         <v>6</v>
       </c>
-      <c r="C216" s="157"/>
-      <c r="D216" s="155"/>
+      <c r="C216" s="152"/>
+      <c r="D216" s="150"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
@@ -48477,8 +48497,8 @@
       <c r="B217" s="2">
         <v>8</v>
       </c>
-      <c r="C217" s="157"/>
-      <c r="D217" s="155"/>
+      <c r="C217" s="152"/>
+      <c r="D217" s="150"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
@@ -48487,8 +48507,8 @@
       <c r="B218" s="2">
         <v>4</v>
       </c>
-      <c r="C218" s="157"/>
-      <c r="D218" s="155"/>
+      <c r="C218" s="152"/>
+      <c r="D218" s="150"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
@@ -48497,8 +48517,8 @@
       <c r="B219" s="2">
         <v>4</v>
       </c>
-      <c r="C219" s="157"/>
-      <c r="D219" s="155"/>
+      <c r="C219" s="152"/>
+      <c r="D219" s="150"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
@@ -48507,8 +48527,8 @@
       <c r="B220" s="2">
         <v>6</v>
       </c>
-      <c r="C220" s="157"/>
-      <c r="D220" s="155"/>
+      <c r="C220" s="152"/>
+      <c r="D220" s="150"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
@@ -48517,8 +48537,8 @@
       <c r="B221" s="2">
         <v>4</v>
       </c>
-      <c r="C221" s="157"/>
-      <c r="D221" s="155"/>
+      <c r="C221" s="152"/>
+      <c r="D221" s="150"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
@@ -48527,8 +48547,8 @@
       <c r="B222" s="2">
         <v>6</v>
       </c>
-      <c r="C222" s="157"/>
-      <c r="D222" s="155"/>
+      <c r="C222" s="152"/>
+      <c r="D222" s="150"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
@@ -48537,8 +48557,8 @@
       <c r="B223" s="2">
         <v>6</v>
       </c>
-      <c r="C223" s="157"/>
-      <c r="D223" s="155"/>
+      <c r="C223" s="152"/>
+      <c r="D223" s="150"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
@@ -48547,8 +48567,8 @@
       <c r="B224" s="2">
         <v>6</v>
       </c>
-      <c r="C224" s="157"/>
-      <c r="D224" s="155"/>
+      <c r="C224" s="152"/>
+      <c r="D224" s="150"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
@@ -48557,8 +48577,8 @@
       <c r="B225" s="2">
         <v>6</v>
       </c>
-      <c r="C225" s="157"/>
-      <c r="D225" s="155"/>
+      <c r="C225" s="152"/>
+      <c r="D225" s="150"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
@@ -48567,8 +48587,8 @@
       <c r="B226" s="2">
         <v>4</v>
       </c>
-      <c r="C226" s="157"/>
-      <c r="D226" s="155"/>
+      <c r="C226" s="152"/>
+      <c r="D226" s="150"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
@@ -48577,8 +48597,8 @@
       <c r="B227" s="2">
         <v>2</v>
       </c>
-      <c r="C227" s="157"/>
-      <c r="D227" s="155"/>
+      <c r="C227" s="152"/>
+      <c r="D227" s="150"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
@@ -48587,8 +48607,8 @@
       <c r="B228" s="2">
         <v>2</v>
       </c>
-      <c r="C228" s="157"/>
-      <c r="D228" s="155"/>
+      <c r="C228" s="152"/>
+      <c r="D228" s="150"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
@@ -48597,8 +48617,8 @@
       <c r="B229" s="2">
         <v>4</v>
       </c>
-      <c r="C229" s="157"/>
-      <c r="D229" s="155"/>
+      <c r="C229" s="152"/>
+      <c r="D229" s="150"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
@@ -48607,8 +48627,8 @@
       <c r="B230" s="2">
         <v>6</v>
       </c>
-      <c r="C230" s="157"/>
-      <c r="D230" s="155"/>
+      <c r="C230" s="152"/>
+      <c r="D230" s="150"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
@@ -48617,8 +48637,8 @@
       <c r="B231" s="2">
         <v>8</v>
       </c>
-      <c r="C231" s="157"/>
-      <c r="D231" s="155"/>
+      <c r="C231" s="152"/>
+      <c r="D231" s="150"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
@@ -48627,8 +48647,8 @@
       <c r="B232" s="2">
         <v>4</v>
       </c>
-      <c r="C232" s="157"/>
-      <c r="D232" s="155"/>
+      <c r="C232" s="152"/>
+      <c r="D232" s="150"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
@@ -48637,8 +48657,8 @@
       <c r="B233" s="2">
         <v>4</v>
       </c>
-      <c r="C233" s="157"/>
-      <c r="D233" s="155"/>
+      <c r="C233" s="152"/>
+      <c r="D233" s="150"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
@@ -48647,8 +48667,8 @@
       <c r="B234" s="2">
         <v>4</v>
       </c>
-      <c r="C234" s="157"/>
-      <c r="D234" s="155"/>
+      <c r="C234" s="152"/>
+      <c r="D234" s="150"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
@@ -48657,8 +48677,8 @@
       <c r="B235" s="2">
         <v>4</v>
       </c>
-      <c r="C235" s="157"/>
-      <c r="D235" s="155"/>
+      <c r="C235" s="152"/>
+      <c r="D235" s="150"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
@@ -48667,8 +48687,8 @@
       <c r="B236" s="2">
         <v>6</v>
       </c>
-      <c r="C236" s="157"/>
-      <c r="D236" s="155"/>
+      <c r="C236" s="152"/>
+      <c r="D236" s="150"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
@@ -48677,8 +48697,8 @@
       <c r="B237" s="2">
         <v>4</v>
       </c>
-      <c r="C237" s="157"/>
-      <c r="D237" s="155"/>
+      <c r="C237" s="152"/>
+      <c r="D237" s="150"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
@@ -48687,8 +48707,8 @@
       <c r="B238" s="2">
         <v>4</v>
       </c>
-      <c r="C238" s="157"/>
-      <c r="D238" s="155"/>
+      <c r="C238" s="152"/>
+      <c r="D238" s="150"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
@@ -48697,8 +48717,8 @@
       <c r="B239" s="2">
         <v>6</v>
       </c>
-      <c r="C239" s="157"/>
-      <c r="D239" s="155"/>
+      <c r="C239" s="152"/>
+      <c r="D239" s="150"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
@@ -48707,8 +48727,8 @@
       <c r="B240" s="2">
         <v>2</v>
       </c>
-      <c r="C240" s="157"/>
-      <c r="D240" s="155"/>
+      <c r="C240" s="152"/>
+      <c r="D240" s="150"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
@@ -48717,8 +48737,8 @@
       <c r="B241" s="2">
         <v>6</v>
       </c>
-      <c r="C241" s="157"/>
-      <c r="D241" s="155"/>
+      <c r="C241" s="152"/>
+      <c r="D241" s="150"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
@@ -48727,8 +48747,8 @@
       <c r="B242" s="2">
         <v>6</v>
       </c>
-      <c r="C242" s="157"/>
-      <c r="D242" s="155"/>
+      <c r="C242" s="152"/>
+      <c r="D242" s="150"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
@@ -48737,8 +48757,8 @@
       <c r="B243" s="2">
         <v>4</v>
       </c>
-      <c r="C243" s="157"/>
-      <c r="D243" s="155"/>
+      <c r="C243" s="152"/>
+      <c r="D243" s="150"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
@@ -48747,8 +48767,8 @@
       <c r="B244" s="2">
         <v>6</v>
       </c>
-      <c r="C244" s="131"/>
-      <c r="D244" s="155"/>
+      <c r="C244" s="142"/>
+      <c r="D244" s="150"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
@@ -48757,11 +48777,11 @@
       <c r="B245" s="2">
         <v>4</v>
       </c>
-      <c r="C245" s="156">
+      <c r="C245" s="151">
         <f>AVERAGE(B245:B274)</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="D245" s="155"/>
+      <c r="D245" s="150"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
@@ -48770,8 +48790,8 @@
       <c r="B246" s="2">
         <v>4</v>
       </c>
-      <c r="C246" s="157"/>
-      <c r="D246" s="155"/>
+      <c r="C246" s="152"/>
+      <c r="D246" s="150"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
@@ -48780,8 +48800,8 @@
       <c r="B247" s="2">
         <v>6</v>
       </c>
-      <c r="C247" s="157"/>
-      <c r="D247" s="155"/>
+      <c r="C247" s="152"/>
+      <c r="D247" s="150"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
@@ -48790,8 +48810,8 @@
       <c r="B248" s="2">
         <v>4</v>
       </c>
-      <c r="C248" s="157"/>
-      <c r="D248" s="155"/>
+      <c r="C248" s="152"/>
+      <c r="D248" s="150"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
@@ -48800,8 +48820,8 @@
       <c r="B249" s="2">
         <v>6</v>
       </c>
-      <c r="C249" s="157"/>
-      <c r="D249" s="155"/>
+      <c r="C249" s="152"/>
+      <c r="D249" s="150"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
@@ -48810,8 +48830,8 @@
       <c r="B250" s="2">
         <v>4</v>
       </c>
-      <c r="C250" s="157"/>
-      <c r="D250" s="155"/>
+      <c r="C250" s="152"/>
+      <c r="D250" s="150"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
@@ -48820,8 +48840,8 @@
       <c r="B251" s="2">
         <v>4</v>
       </c>
-      <c r="C251" s="157"/>
-      <c r="D251" s="155"/>
+      <c r="C251" s="152"/>
+      <c r="D251" s="150"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
@@ -48830,8 +48850,8 @@
       <c r="B252" s="2">
         <v>6</v>
       </c>
-      <c r="C252" s="157"/>
-      <c r="D252" s="155"/>
+      <c r="C252" s="152"/>
+      <c r="D252" s="150"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
@@ -48840,8 +48860,8 @@
       <c r="B253" s="2">
         <v>4</v>
       </c>
-      <c r="C253" s="157"/>
-      <c r="D253" s="155"/>
+      <c r="C253" s="152"/>
+      <c r="D253" s="150"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
@@ -48850,8 +48870,8 @@
       <c r="B254" s="2">
         <v>4</v>
       </c>
-      <c r="C254" s="157"/>
-      <c r="D254" s="155"/>
+      <c r="C254" s="152"/>
+      <c r="D254" s="150"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
@@ -48860,8 +48880,8 @@
       <c r="B255" s="2">
         <v>6</v>
       </c>
-      <c r="C255" s="157"/>
-      <c r="D255" s="155"/>
+      <c r="C255" s="152"/>
+      <c r="D255" s="150"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
@@ -48870,8 +48890,8 @@
       <c r="B256" s="2">
         <v>6</v>
       </c>
-      <c r="C256" s="157"/>
-      <c r="D256" s="155"/>
+      <c r="C256" s="152"/>
+      <c r="D256" s="150"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
@@ -48880,8 +48900,8 @@
       <c r="B257" s="2">
         <v>10</v>
       </c>
-      <c r="C257" s="157"/>
-      <c r="D257" s="155"/>
+      <c r="C257" s="152"/>
+      <c r="D257" s="150"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
@@ -48890,8 +48910,8 @@
       <c r="B258" s="2">
         <v>8</v>
       </c>
-      <c r="C258" s="157"/>
-      <c r="D258" s="155"/>
+      <c r="C258" s="152"/>
+      <c r="D258" s="150"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
@@ -48900,8 +48920,8 @@
       <c r="B259" s="2">
         <v>6</v>
       </c>
-      <c r="C259" s="157"/>
-      <c r="D259" s="155"/>
+      <c r="C259" s="152"/>
+      <c r="D259" s="150"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
@@ -48910,8 +48930,8 @@
       <c r="B260" s="2">
         <v>6</v>
       </c>
-      <c r="C260" s="157"/>
-      <c r="D260" s="155"/>
+      <c r="C260" s="152"/>
+      <c r="D260" s="150"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
@@ -48920,8 +48940,8 @@
       <c r="B261" s="2">
         <v>4</v>
       </c>
-      <c r="C261" s="157"/>
-      <c r="D261" s="155"/>
+      <c r="C261" s="152"/>
+      <c r="D261" s="150"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
@@ -48930,8 +48950,8 @@
       <c r="B262" s="2">
         <v>2</v>
       </c>
-      <c r="C262" s="157"/>
-      <c r="D262" s="155"/>
+      <c r="C262" s="152"/>
+      <c r="D262" s="150"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
@@ -48940,8 +48960,8 @@
       <c r="B263" s="2">
         <v>4</v>
       </c>
-      <c r="C263" s="157"/>
-      <c r="D263" s="155"/>
+      <c r="C263" s="152"/>
+      <c r="D263" s="150"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
@@ -48950,8 +48970,8 @@
       <c r="B264" s="2">
         <v>4</v>
       </c>
-      <c r="C264" s="157"/>
-      <c r="D264" s="155"/>
+      <c r="C264" s="152"/>
+      <c r="D264" s="150"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
@@ -48960,8 +48980,8 @@
       <c r="B265" s="2">
         <v>6</v>
       </c>
-      <c r="C265" s="157"/>
-      <c r="D265" s="155"/>
+      <c r="C265" s="152"/>
+      <c r="D265" s="150"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
@@ -48970,8 +48990,8 @@
       <c r="B266" s="2">
         <v>6</v>
       </c>
-      <c r="C266" s="157"/>
-      <c r="D266" s="155"/>
+      <c r="C266" s="152"/>
+      <c r="D266" s="150"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
@@ -48980,8 +49000,8 @@
       <c r="B267" s="2">
         <v>4</v>
       </c>
-      <c r="C267" s="157"/>
-      <c r="D267" s="155"/>
+      <c r="C267" s="152"/>
+      <c r="D267" s="150"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
@@ -48990,8 +49010,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="157"/>
-      <c r="D268" s="155"/>
+      <c r="C268" s="152"/>
+      <c r="D268" s="150"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
@@ -49000,8 +49020,8 @@
       <c r="B269" s="2">
         <v>6</v>
       </c>
-      <c r="C269" s="157"/>
-      <c r="D269" s="155"/>
+      <c r="C269" s="152"/>
+      <c r="D269" s="150"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
@@ -49010,8 +49030,8 @@
       <c r="B270" s="2">
         <v>8</v>
       </c>
-      <c r="C270" s="157"/>
-      <c r="D270" s="155"/>
+      <c r="C270" s="152"/>
+      <c r="D270" s="150"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
@@ -49020,8 +49040,8 @@
       <c r="B271" s="2">
         <v>4</v>
       </c>
-      <c r="C271" s="157"/>
-      <c r="D271" s="155"/>
+      <c r="C271" s="152"/>
+      <c r="D271" s="150"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
@@ -49030,8 +49050,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="157"/>
-      <c r="D272" s="155"/>
+      <c r="C272" s="152"/>
+      <c r="D272" s="150"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
@@ -49040,8 +49060,8 @@
       <c r="B273" s="2">
         <v>8</v>
       </c>
-      <c r="C273" s="157"/>
-      <c r="D273" s="155"/>
+      <c r="C273" s="152"/>
+      <c r="D273" s="150"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
@@ -49050,8 +49070,8 @@
       <c r="B274" s="2">
         <v>6</v>
       </c>
-      <c r="C274" s="131"/>
-      <c r="D274" s="155"/>
+      <c r="C274" s="142"/>
+      <c r="D274" s="150"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
@@ -49060,11 +49080,11 @@
       <c r="B275" s="2">
         <v>4</v>
       </c>
-      <c r="C275" s="156">
+      <c r="C275" s="151">
         <f>AVERAGE(B275:B305)</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="D275" s="155"/>
+      <c r="D275" s="150"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
@@ -49073,8 +49093,8 @@
       <c r="B276" s="2">
         <v>6</v>
       </c>
-      <c r="C276" s="157"/>
-      <c r="D276" s="155"/>
+      <c r="C276" s="152"/>
+      <c r="D276" s="150"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
@@ -49083,8 +49103,8 @@
       <c r="B277" s="2">
         <v>6</v>
       </c>
-      <c r="C277" s="157"/>
-      <c r="D277" s="155"/>
+      <c r="C277" s="152"/>
+      <c r="D277" s="150"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
@@ -49093,8 +49113,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="157"/>
-      <c r="D278" s="155"/>
+      <c r="C278" s="152"/>
+      <c r="D278" s="150"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
@@ -49103,8 +49123,8 @@
       <c r="B279" s="2">
         <v>2</v>
       </c>
-      <c r="C279" s="157"/>
-      <c r="D279" s="155"/>
+      <c r="C279" s="152"/>
+      <c r="D279" s="150"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
@@ -49113,8 +49133,8 @@
       <c r="B280" s="2">
         <v>4</v>
       </c>
-      <c r="C280" s="157"/>
-      <c r="D280" s="155"/>
+      <c r="C280" s="152"/>
+      <c r="D280" s="150"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
@@ -49123,8 +49143,8 @@
       <c r="B281" s="2">
         <v>0</v>
       </c>
-      <c r="C281" s="157"/>
-      <c r="D281" s="155"/>
+      <c r="C281" s="152"/>
+      <c r="D281" s="150"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
@@ -49133,8 +49153,8 @@
       <c r="B282" s="2">
         <v>2</v>
       </c>
-      <c r="C282" s="157"/>
-      <c r="D282" s="155"/>
+      <c r="C282" s="152"/>
+      <c r="D282" s="150"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
@@ -49143,8 +49163,8 @@
       <c r="B283" s="2">
         <v>6</v>
       </c>
-      <c r="C283" s="157"/>
-      <c r="D283" s="155"/>
+      <c r="C283" s="152"/>
+      <c r="D283" s="150"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
@@ -49153,8 +49173,8 @@
       <c r="B284" s="2">
         <v>6</v>
       </c>
-      <c r="C284" s="157"/>
-      <c r="D284" s="155"/>
+      <c r="C284" s="152"/>
+      <c r="D284" s="150"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
@@ -49163,8 +49183,8 @@
       <c r="B285" s="2">
         <v>8</v>
       </c>
-      <c r="C285" s="157"/>
-      <c r="D285" s="155"/>
+      <c r="C285" s="152"/>
+      <c r="D285" s="150"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
@@ -49173,8 +49193,8 @@
       <c r="B286" s="2">
         <v>8</v>
       </c>
-      <c r="C286" s="157"/>
-      <c r="D286" s="155"/>
+      <c r="C286" s="152"/>
+      <c r="D286" s="150"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
@@ -49183,8 +49203,8 @@
       <c r="B287" s="2">
         <v>6</v>
       </c>
-      <c r="C287" s="157"/>
-      <c r="D287" s="155"/>
+      <c r="C287" s="152"/>
+      <c r="D287" s="150"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
@@ -49193,8 +49213,8 @@
       <c r="B288" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="157"/>
-      <c r="D288" s="155"/>
+      <c r="C288" s="152"/>
+      <c r="D288" s="150"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
@@ -49203,8 +49223,8 @@
       <c r="B289" s="2">
         <v>6</v>
       </c>
-      <c r="C289" s="157"/>
-      <c r="D289" s="155"/>
+      <c r="C289" s="152"/>
+      <c r="D289" s="150"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
@@ -49213,8 +49233,8 @@
       <c r="B290" s="2">
         <v>4</v>
       </c>
-      <c r="C290" s="157"/>
-      <c r="D290" s="155"/>
+      <c r="C290" s="152"/>
+      <c r="D290" s="150"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
@@ -49223,8 +49243,8 @@
       <c r="B291" s="2">
         <v>6</v>
       </c>
-      <c r="C291" s="157"/>
-      <c r="D291" s="155"/>
+      <c r="C291" s="152"/>
+      <c r="D291" s="150"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
@@ -49233,8 +49253,8 @@
       <c r="B292" s="2">
         <v>8</v>
       </c>
-      <c r="C292" s="157"/>
-      <c r="D292" s="155"/>
+      <c r="C292" s="152"/>
+      <c r="D292" s="150"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
@@ -49243,8 +49263,8 @@
       <c r="B293" s="2">
         <v>6</v>
       </c>
-      <c r="C293" s="157"/>
-      <c r="D293" s="155"/>
+      <c r="C293" s="152"/>
+      <c r="D293" s="150"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
@@ -49253,8 +49273,8 @@
       <c r="B294" s="2">
         <v>6</v>
       </c>
-      <c r="C294" s="157"/>
-      <c r="D294" s="155"/>
+      <c r="C294" s="152"/>
+      <c r="D294" s="150"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
@@ -49263,8 +49283,8 @@
       <c r="B295" s="2">
         <v>6</v>
       </c>
-      <c r="C295" s="157"/>
-      <c r="D295" s="155"/>
+      <c r="C295" s="152"/>
+      <c r="D295" s="150"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
@@ -49273,8 +49293,8 @@
       <c r="B296" s="2">
         <v>6</v>
       </c>
-      <c r="C296" s="157"/>
-      <c r="D296" s="155"/>
+      <c r="C296" s="152"/>
+      <c r="D296" s="150"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
@@ -49283,8 +49303,8 @@
       <c r="B297" s="2">
         <v>4</v>
       </c>
-      <c r="C297" s="157"/>
-      <c r="D297" s="155"/>
+      <c r="C297" s="152"/>
+      <c r="D297" s="150"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
@@ -49293,8 +49313,8 @@
       <c r="B298" s="2">
         <v>4</v>
       </c>
-      <c r="C298" s="157"/>
-      <c r="D298" s="155"/>
+      <c r="C298" s="152"/>
+      <c r="D298" s="150"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
@@ -49303,8 +49323,8 @@
       <c r="B299" s="2">
         <v>6</v>
       </c>
-      <c r="C299" s="157"/>
-      <c r="D299" s="155"/>
+      <c r="C299" s="152"/>
+      <c r="D299" s="150"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
@@ -49313,8 +49333,8 @@
       <c r="B300" s="2">
         <v>6</v>
       </c>
-      <c r="C300" s="157"/>
-      <c r="D300" s="155"/>
+      <c r="C300" s="152"/>
+      <c r="D300" s="150"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
@@ -49323,8 +49343,8 @@
       <c r="B301" s="2">
         <v>4</v>
       </c>
-      <c r="C301" s="157"/>
-      <c r="D301" s="155"/>
+      <c r="C301" s="152"/>
+      <c r="D301" s="150"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
@@ -49333,8 +49353,8 @@
       <c r="B302" s="2">
         <v>6</v>
       </c>
-      <c r="C302" s="157"/>
-      <c r="D302" s="155"/>
+      <c r="C302" s="152"/>
+      <c r="D302" s="150"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
@@ -49343,8 +49363,8 @@
       <c r="B303" s="2">
         <v>8</v>
       </c>
-      <c r="C303" s="157"/>
-      <c r="D303" s="155"/>
+      <c r="C303" s="152"/>
+      <c r="D303" s="150"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
@@ -49353,8 +49373,8 @@
       <c r="B304" s="2">
         <v>8</v>
       </c>
-      <c r="C304" s="157"/>
-      <c r="D304" s="155"/>
+      <c r="C304" s="152"/>
+      <c r="D304" s="150"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
@@ -49363,8 +49383,8 @@
       <c r="B305" s="2">
         <v>10</v>
       </c>
-      <c r="C305" s="131"/>
-      <c r="D305" s="155"/>
+      <c r="C305" s="142"/>
+      <c r="D305" s="150"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
@@ -49373,11 +49393,11 @@
       <c r="B306" s="2">
         <v>6</v>
       </c>
-      <c r="C306" s="156">
+      <c r="C306" s="151">
         <f>AVERAGE(B306:B335)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="D306" s="155"/>
+      <c r="D306" s="150"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
@@ -49386,8 +49406,8 @@
       <c r="B307" s="2">
         <v>2</v>
       </c>
-      <c r="C307" s="157"/>
-      <c r="D307" s="155"/>
+      <c r="C307" s="152"/>
+      <c r="D307" s="150"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
@@ -49396,8 +49416,8 @@
       <c r="B308" s="2">
         <v>0</v>
       </c>
-      <c r="C308" s="157"/>
-      <c r="D308" s="155"/>
+      <c r="C308" s="152"/>
+      <c r="D308" s="150"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
@@ -49406,8 +49426,8 @@
       <c r="B309" s="2">
         <v>4</v>
       </c>
-      <c r="C309" s="157"/>
-      <c r="D309" s="155"/>
+      <c r="C309" s="152"/>
+      <c r="D309" s="150"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
@@ -49416,8 +49436,8 @@
       <c r="B310" s="2">
         <v>6</v>
       </c>
-      <c r="C310" s="157"/>
-      <c r="D310" s="155"/>
+      <c r="C310" s="152"/>
+      <c r="D310" s="150"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
@@ -49426,8 +49446,8 @@
       <c r="B311" s="2">
         <v>6</v>
       </c>
-      <c r="C311" s="157"/>
-      <c r="D311" s="155"/>
+      <c r="C311" s="152"/>
+      <c r="D311" s="150"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
@@ -49436,8 +49456,8 @@
       <c r="B312" s="2">
         <v>6</v>
       </c>
-      <c r="C312" s="157"/>
-      <c r="D312" s="155"/>
+      <c r="C312" s="152"/>
+      <c r="D312" s="150"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
@@ -49446,8 +49466,8 @@
       <c r="B313" s="2">
         <v>8</v>
       </c>
-      <c r="C313" s="157"/>
-      <c r="D313" s="155"/>
+      <c r="C313" s="152"/>
+      <c r="D313" s="150"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
@@ -49456,8 +49476,8 @@
       <c r="B314" s="2">
         <v>6</v>
       </c>
-      <c r="C314" s="157"/>
-      <c r="D314" s="155"/>
+      <c r="C314" s="152"/>
+      <c r="D314" s="150"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
@@ -49466,8 +49486,8 @@
       <c r="B315" s="2">
         <v>8</v>
       </c>
-      <c r="C315" s="157"/>
-      <c r="D315" s="155"/>
+      <c r="C315" s="152"/>
+      <c r="D315" s="150"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
@@ -49476,8 +49496,8 @@
       <c r="B316" s="2">
         <v>8</v>
       </c>
-      <c r="C316" s="157"/>
-      <c r="D316" s="155"/>
+      <c r="C316" s="152"/>
+      <c r="D316" s="150"/>
       <c r="M316" s="3"/>
       <c r="O316" s="3"/>
     </row>
@@ -49488,8 +49508,8 @@
       <c r="B317" s="2">
         <v>2</v>
       </c>
-      <c r="C317" s="157"/>
-      <c r="D317" s="155"/>
+      <c r="C317" s="152"/>
+      <c r="D317" s="150"/>
       <c r="M317" s="3"/>
       <c r="O317" s="3"/>
     </row>
@@ -49500,8 +49520,8 @@
       <c r="B318" s="2">
         <v>6</v>
       </c>
-      <c r="C318" s="157"/>
-      <c r="D318" s="155"/>
+      <c r="C318" s="152"/>
+      <c r="D318" s="150"/>
       <c r="M318" s="3"/>
       <c r="O318" s="3"/>
     </row>
@@ -49512,8 +49532,8 @@
       <c r="B319" s="2">
         <v>8</v>
       </c>
-      <c r="C319" s="157"/>
-      <c r="D319" s="155"/>
+      <c r="C319" s="152"/>
+      <c r="D319" s="150"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
@@ -49522,8 +49542,8 @@
       <c r="B320" s="2">
         <v>8</v>
       </c>
-      <c r="C320" s="157"/>
-      <c r="D320" s="155"/>
+      <c r="C320" s="152"/>
+      <c r="D320" s="150"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
@@ -49532,8 +49552,8 @@
       <c r="B321" s="2">
         <v>6</v>
       </c>
-      <c r="C321" s="157"/>
-      <c r="D321" s="155"/>
+      <c r="C321" s="152"/>
+      <c r="D321" s="150"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
@@ -49542,8 +49562,8 @@
       <c r="B322" s="2">
         <v>6</v>
       </c>
-      <c r="C322" s="157"/>
-      <c r="D322" s="155"/>
+      <c r="C322" s="152"/>
+      <c r="D322" s="150"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
@@ -49552,8 +49572,8 @@
       <c r="B323" s="2">
         <v>4</v>
       </c>
-      <c r="C323" s="157"/>
-      <c r="D323" s="155"/>
+      <c r="C323" s="152"/>
+      <c r="D323" s="150"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
@@ -49562,8 +49582,8 @@
       <c r="B324" s="2">
         <v>8</v>
       </c>
-      <c r="C324" s="157"/>
-      <c r="D324" s="155"/>
+      <c r="C324" s="152"/>
+      <c r="D324" s="150"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
@@ -49572,8 +49592,8 @@
       <c r="B325" s="2">
         <v>6</v>
       </c>
-      <c r="C325" s="157"/>
-      <c r="D325" s="155"/>
+      <c r="C325" s="152"/>
+      <c r="D325" s="150"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
@@ -49582,8 +49602,8 @@
       <c r="B326" s="2">
         <v>4</v>
       </c>
-      <c r="C326" s="157"/>
-      <c r="D326" s="155"/>
+      <c r="C326" s="152"/>
+      <c r="D326" s="150"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
@@ -49592,8 +49612,8 @@
       <c r="B327" s="2">
         <v>4</v>
       </c>
-      <c r="C327" s="157"/>
-      <c r="D327" s="155"/>
+      <c r="C327" s="152"/>
+      <c r="D327" s="150"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
@@ -49602,8 +49622,8 @@
       <c r="B328" s="2">
         <v>6</v>
       </c>
-      <c r="C328" s="157"/>
-      <c r="D328" s="155"/>
+      <c r="C328" s="152"/>
+      <c r="D328" s="150"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
@@ -49612,8 +49632,8 @@
       <c r="B329" s="2">
         <v>8</v>
       </c>
-      <c r="C329" s="157"/>
-      <c r="D329" s="155"/>
+      <c r="C329" s="152"/>
+      <c r="D329" s="150"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
@@ -49622,8 +49642,8 @@
       <c r="B330" s="2">
         <v>4</v>
       </c>
-      <c r="C330" s="157"/>
-      <c r="D330" s="155"/>
+      <c r="C330" s="152"/>
+      <c r="D330" s="150"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
@@ -49632,8 +49652,8 @@
       <c r="B331" s="2">
         <v>6</v>
       </c>
-      <c r="C331" s="157"/>
-      <c r="D331" s="155"/>
+      <c r="C331" s="152"/>
+      <c r="D331" s="150"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
@@ -49642,8 +49662,8 @@
       <c r="B332" s="2">
         <v>6</v>
       </c>
-      <c r="C332" s="157"/>
-      <c r="D332" s="155"/>
+      <c r="C332" s="152"/>
+      <c r="D332" s="150"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
@@ -49652,8 +49672,8 @@
       <c r="B333" s="2">
         <v>2</v>
       </c>
-      <c r="C333" s="157"/>
-      <c r="D333" s="155"/>
+      <c r="C333" s="152"/>
+      <c r="D333" s="150"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
@@ -49662,8 +49682,8 @@
       <c r="B334" s="2">
         <v>6</v>
       </c>
-      <c r="C334" s="157"/>
-      <c r="D334" s="155"/>
+      <c r="C334" s="152"/>
+      <c r="D334" s="150"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
@@ -49672,8 +49692,8 @@
       <c r="B335" s="2">
         <v>6</v>
       </c>
-      <c r="C335" s="131"/>
-      <c r="D335" s="155"/>
+      <c r="C335" s="142"/>
+      <c r="D335" s="150"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
@@ -49682,11 +49702,11 @@
       <c r="B336" s="2">
         <v>6</v>
       </c>
-      <c r="C336" s="156">
+      <c r="C336" s="151">
         <f>AVERAGE(B336:B366)</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="D336" s="155"/>
+      <c r="D336" s="150"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
@@ -49695,8 +49715,8 @@
       <c r="B337" s="2">
         <v>4</v>
       </c>
-      <c r="C337" s="157"/>
-      <c r="D337" s="155"/>
+      <c r="C337" s="152"/>
+      <c r="D337" s="150"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
@@ -49705,8 +49725,8 @@
       <c r="B338" s="2">
         <v>4</v>
       </c>
-      <c r="C338" s="157"/>
-      <c r="D338" s="155"/>
+      <c r="C338" s="152"/>
+      <c r="D338" s="150"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
@@ -49715,8 +49735,8 @@
       <c r="B339" s="2">
         <v>6</v>
       </c>
-      <c r="C339" s="157"/>
-      <c r="D339" s="155"/>
+      <c r="C339" s="152"/>
+      <c r="D339" s="150"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
@@ -49725,8 +49745,8 @@
       <c r="B340" s="2">
         <v>6</v>
       </c>
-      <c r="C340" s="157"/>
-      <c r="D340" s="155"/>
+      <c r="C340" s="152"/>
+      <c r="D340" s="150"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
@@ -49735,8 +49755,8 @@
       <c r="B341" s="2">
         <v>6</v>
       </c>
-      <c r="C341" s="157"/>
-      <c r="D341" s="155"/>
+      <c r="C341" s="152"/>
+      <c r="D341" s="150"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
@@ -49745,8 +49765,8 @@
       <c r="B342" s="2">
         <v>6</v>
       </c>
-      <c r="C342" s="157"/>
-      <c r="D342" s="155"/>
+      <c r="C342" s="152"/>
+      <c r="D342" s="150"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
@@ -49755,8 +49775,8 @@
       <c r="B343" s="2">
         <v>4</v>
       </c>
-      <c r="C343" s="157"/>
-      <c r="D343" s="155"/>
+      <c r="C343" s="152"/>
+      <c r="D343" s="150"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
@@ -49765,8 +49785,8 @@
       <c r="B344" s="2">
         <v>4</v>
       </c>
-      <c r="C344" s="157"/>
-      <c r="D344" s="155"/>
+      <c r="C344" s="152"/>
+      <c r="D344" s="150"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
@@ -49775,8 +49795,8 @@
       <c r="B345" s="2">
         <v>4</v>
       </c>
-      <c r="C345" s="157"/>
-      <c r="D345" s="155"/>
+      <c r="C345" s="152"/>
+      <c r="D345" s="150"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
@@ -49785,8 +49805,8 @@
       <c r="B346" s="2">
         <v>4</v>
       </c>
-      <c r="C346" s="157"/>
-      <c r="D346" s="155"/>
+      <c r="C346" s="152"/>
+      <c r="D346" s="150"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
@@ -49795,8 +49815,8 @@
       <c r="B347" s="2">
         <v>6</v>
       </c>
-      <c r="C347" s="157"/>
-      <c r="D347" s="155"/>
+      <c r="C347" s="152"/>
+      <c r="D347" s="150"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
@@ -49805,8 +49825,8 @@
       <c r="B348" s="2">
         <v>4</v>
       </c>
-      <c r="C348" s="157"/>
-      <c r="D348" s="155"/>
+      <c r="C348" s="152"/>
+      <c r="D348" s="150"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
@@ -49815,8 +49835,8 @@
       <c r="B349" s="2">
         <v>6</v>
       </c>
-      <c r="C349" s="157"/>
-      <c r="D349" s="155"/>
+      <c r="C349" s="152"/>
+      <c r="D349" s="150"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
@@ -49825,8 +49845,8 @@
       <c r="B350" s="2">
         <v>4</v>
       </c>
-      <c r="C350" s="157"/>
-      <c r="D350" s="155"/>
+      <c r="C350" s="152"/>
+      <c r="D350" s="150"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
@@ -49835,8 +49855,8 @@
       <c r="B351" s="2">
         <v>4</v>
       </c>
-      <c r="C351" s="157"/>
-      <c r="D351" s="155"/>
+      <c r="C351" s="152"/>
+      <c r="D351" s="150"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
@@ -49845,8 +49865,8 @@
       <c r="B352" s="2">
         <v>2</v>
       </c>
-      <c r="C352" s="157"/>
-      <c r="D352" s="155"/>
+      <c r="C352" s="152"/>
+      <c r="D352" s="150"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
@@ -49855,8 +49875,8 @@
       <c r="B353" s="2">
         <v>4</v>
       </c>
-      <c r="C353" s="157"/>
-      <c r="D353" s="155"/>
+      <c r="C353" s="152"/>
+      <c r="D353" s="150"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
@@ -49865,8 +49885,8 @@
       <c r="B354" s="2">
         <v>2</v>
       </c>
-      <c r="C354" s="157"/>
-      <c r="D354" s="155"/>
+      <c r="C354" s="152"/>
+      <c r="D354" s="150"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
@@ -49875,8 +49895,8 @@
       <c r="B355" s="2">
         <v>4</v>
       </c>
-      <c r="C355" s="157"/>
-      <c r="D355" s="155"/>
+      <c r="C355" s="152"/>
+      <c r="D355" s="150"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
@@ -49885,8 +49905,8 @@
       <c r="B356" s="2">
         <v>4</v>
       </c>
-      <c r="C356" s="157"/>
-      <c r="D356" s="155"/>
+      <c r="C356" s="152"/>
+      <c r="D356" s="150"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
@@ -49895,8 +49915,8 @@
       <c r="B357" s="2">
         <v>4</v>
       </c>
-      <c r="C357" s="157"/>
-      <c r="D357" s="155"/>
+      <c r="C357" s="152"/>
+      <c r="D357" s="150"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
@@ -49905,8 +49925,8 @@
       <c r="B358" s="2">
         <v>4</v>
       </c>
-      <c r="C358" s="157"/>
-      <c r="D358" s="155"/>
+      <c r="C358" s="152"/>
+      <c r="D358" s="150"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
@@ -49915,8 +49935,8 @@
       <c r="B359" s="2">
         <v>10</v>
       </c>
-      <c r="C359" s="157"/>
-      <c r="D359" s="155"/>
+      <c r="C359" s="152"/>
+      <c r="D359" s="150"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
@@ -49925,8 +49945,8 @@
       <c r="B360" s="2">
         <v>6</v>
       </c>
-      <c r="C360" s="157"/>
-      <c r="D360" s="155"/>
+      <c r="C360" s="152"/>
+      <c r="D360" s="150"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
@@ -49935,8 +49955,8 @@
       <c r="B361" s="2">
         <v>4</v>
       </c>
-      <c r="C361" s="157"/>
-      <c r="D361" s="155"/>
+      <c r="C361" s="152"/>
+      <c r="D361" s="150"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
@@ -49945,8 +49965,8 @@
       <c r="B362" s="2">
         <v>4</v>
       </c>
-      <c r="C362" s="157"/>
-      <c r="D362" s="155"/>
+      <c r="C362" s="152"/>
+      <c r="D362" s="150"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
@@ -49955,8 +49975,8 @@
       <c r="B363" s="2">
         <v>4</v>
       </c>
-      <c r="C363" s="157"/>
-      <c r="D363" s="155"/>
+      <c r="C363" s="152"/>
+      <c r="D363" s="150"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
@@ -49965,8 +49985,8 @@
       <c r="B364" s="2">
         <v>6</v>
       </c>
-      <c r="C364" s="157"/>
-      <c r="D364" s="155"/>
+      <c r="C364" s="152"/>
+      <c r="D364" s="150"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
@@ -49975,8 +49995,8 @@
       <c r="B365" s="2">
         <v>4</v>
       </c>
-      <c r="C365" s="157"/>
-      <c r="D365" s="155"/>
+      <c r="C365" s="152"/>
+      <c r="D365" s="150"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
@@ -49985,11 +50005,20 @@
       <c r="B366" s="2">
         <v>6</v>
       </c>
-      <c r="C366" s="131"/>
-      <c r="D366" s="155"/>
+      <c r="C366" s="142"/>
+      <c r="D366" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C1:C31"/>
+    <mergeCell ref="C32:C60"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L19:L30"/>
     <mergeCell ref="C61:C91"/>
     <mergeCell ref="D1:D366"/>
     <mergeCell ref="C92:C121"/>
@@ -50001,15 +50030,6 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C1:C31"/>
-    <mergeCell ref="C32:C60"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="L19:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32400F0-DE79-46F9-AD70-BD60CE7FFB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0870BBB-CBF4-47E4-8C31-7ED824C5F1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2365,7 +2365,7 @@
                   <c:v>4.7571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2074074074074073</c:v>
+                  <c:v>5.1806451612903226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3013,10 +3013,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13</c:v>
@@ -3518,10 +3518,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3618,7 +3618,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4209,7 +4211,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4762,16 +4766,16 @@
                   <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6438,6 +6442,18 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10354,42 +10370,8 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -16415,8 +16397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6CF7-CA58-448E-9A43-748C25428E75}">
   <dimension ref="A1:BA367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF80" sqref="AF80"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -16425,7 +16407,7 @@
     <col min="4" max="4" width="12.234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.703125" style="62" customWidth="1"/>
     <col min="6" max="6" width="12.9375" style="38" customWidth="1"/>
-    <col min="7" max="7" width="6.41015625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="7.46875" style="38" customWidth="1"/>
     <col min="8" max="8" width="11.17578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.3515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.703125" bestFit="1" customWidth="1"/>
@@ -16493,7 +16475,7 @@
       </c>
       <c r="D2" s="139">
         <f>AVERAGE(C2:C366)</f>
-        <v>4.9881834215167542</v>
+        <v>4.9792626728110596</v>
       </c>
       <c r="E2" s="62">
         <v>1</v>
@@ -16803,7 +16785,7 @@
       </c>
       <c r="N5" s="132">
         <f>AVERAGE(M5:M16)</f>
-        <v>4.9881834215167542</v>
+        <v>4.9792626728110596</v>
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -17044,14 +17026,14 @@
       </c>
       <c r="J7" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=6", B2:B366,"&lt;8")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="32">
         <f>C61</f>
-        <v>5.2074074074074073</v>
+        <v>5.1806451612903226</v>
       </c>
       <c r="N7" s="133"/>
       <c r="O7" s="61">
@@ -17064,11 +17046,11 @@
       </c>
       <c r="Q7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=6", B61:B91,"&lt;8")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=4", B61:B91,"&lt;6")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=2", B61:B91,"&lt;4")</f>
@@ -17168,7 +17150,7 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L8" s="60" t="s">
         <v>11</v>
@@ -17479,7 +17461,7 @@
       <c r="I11" s="129"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>14</v>
@@ -17674,7 +17656,7 @@
       <c r="I13" s="130"/>
       <c r="J13" s="131">
         <f>J11/3.65</f>
-        <v>23.56164383561644</v>
+        <v>24.657534246575342</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>16</v>
@@ -18036,7 +18018,7 @@
       </c>
       <c r="AE16" s="31">
         <f>AVERAGE(E61:E91)*100</f>
-        <v>67.741935483870961</v>
+        <v>64.516129032258064</v>
       </c>
       <c r="AG16" t="str">
         <f>TRIM(MID(SUBSTITUTE($F37, ",", REPT(" ", 100)), (COLUMNS($AH$2:AL37)-1)*100+1, 100))</f>
@@ -21811,7 +21793,7 @@
       </c>
       <c r="C61" s="143">
         <f>AVERAGE(B61:B91)</f>
-        <v>5.2074074074074073</v>
+        <v>5.1806451612903226</v>
       </c>
       <c r="D61" s="141"/>
       <c r="E61" s="62">
@@ -24008,7 +23990,9 @@
       <c r="A88" s="1">
         <v>45744</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="2">
+        <v>4.5</v>
+      </c>
       <c r="C88" s="143"/>
       <c r="D88" s="141"/>
       <c r="E88" s="62">
@@ -24027,9 +24011,8 @@
       <c r="AL88" s="2">
         <v>6</v>
       </c>
-      <c r="AM88" t="str">
-        <f>TRIM(MID(SUBSTITUTE($F88, ",", REPT(" ", 100)), (COLUMNS($AH$2:AM88)-1)*100+1, 100))</f>
-        <v/>
+      <c r="AM88" s="2">
+        <v>4.5</v>
       </c>
       <c r="AO88" t="str">
         <f>TRIM(MID(SUBSTITUTE($F88, ",", REPT(" ", 100)), (COLUMNS($AH$2:AO88)-1)*100+1, 100))</f>
@@ -24088,11 +24071,13 @@
       <c r="A89" s="1">
         <v>45745</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="2">
+        <v>4</v>
+      </c>
       <c r="C89" s="143"/>
       <c r="D89" s="141"/>
       <c r="E89" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="38" t="s">
         <v>180</v>
@@ -24107,9 +24092,8 @@
       <c r="AL89" s="2">
         <v>4</v>
       </c>
-      <c r="AM89" t="str">
-        <f>TRIM(MID(SUBSTITUTE($F89, ",", REPT(" ", 100)), (COLUMNS($AH$2:AM89)-1)*100+1, 100))</f>
-        <v/>
+      <c r="AM89" s="2">
+        <v>4</v>
       </c>
       <c r="AO89" t="str">
         <f>TRIM(MID(SUBSTITUTE($F89, ",", REPT(" ", 100)), (COLUMNS($AH$2:AO89)-1)*100+1, 100))</f>
@@ -24168,7 +24152,9 @@
       <c r="A90" s="1">
         <v>45746</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="2">
+        <v>6.5</v>
+      </c>
       <c r="C90" s="143"/>
       <c r="D90" s="141"/>
       <c r="E90" s="62">
@@ -24187,9 +24173,8 @@
       <c r="AL90" s="2">
         <v>6</v>
       </c>
-      <c r="AM90" t="str">
-        <f>TRIM(MID(SUBSTITUTE($F90, ",", REPT(" ", 100)), (COLUMNS($AH$2:AM90)-1)*100+1, 100))</f>
-        <v/>
+      <c r="AM90" s="2">
+        <v>6.5</v>
       </c>
       <c r="AO90" t="str">
         <f>TRIM(MID(SUBSTITUTE($F90, ",", REPT(" ", 100)), (COLUMNS($AH$2:AO90)-1)*100+1, 100))</f>
@@ -24248,7 +24233,9 @@
       <c r="A91" s="1">
         <v>45747</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="2">
+        <v>5</v>
+      </c>
       <c r="C91" s="143"/>
       <c r="D91" s="141"/>
       <c r="E91" s="62">
@@ -24267,9 +24254,8 @@
       <c r="AL91" s="2">
         <v>6</v>
       </c>
-      <c r="AM91" t="str">
-        <f>TRIM(MID(SUBSTITUTE($F91, ",", REPT(" ", 100)), (COLUMNS($AH$2:AM91)-1)*100+1, 100))</f>
-        <v/>
+      <c r="AM91" s="2">
+        <v>5</v>
       </c>
       <c r="AO91" t="str">
         <f>TRIM(MID(SUBSTITUTE($F91, ",", REPT(" ", 100)), (COLUMNS($AH$2:AO91)-1)*100+1, 100))</f>
@@ -45252,6 +45238,54 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B367">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2 C33 C61 C92">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C366">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M16">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -45263,8 +45297,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2 C33 C61 C92">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="AL2:AL32">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45275,8 +45309,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C366">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="AL33:AL60">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45287,20 +45321,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M16">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="AL61:AL91">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45311,7 +45333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL32">
+  <conditionalFormatting sqref="AM2:AM32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -45323,7 +45345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL33:AL60">
+  <conditionalFormatting sqref="AM33:AM60">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -45335,7 +45357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL61:AL91">
+  <conditionalFormatting sqref="AM61:AM81">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -45347,8 +45369,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM32">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="AM82:AM84">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45359,31 +45381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM33:AM60">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM61:AM81">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM82:AM84">
+  <conditionalFormatting sqref="AM85:AM87">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -45395,19 +45393,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN32">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM85:AM87">
+  <conditionalFormatting sqref="AM88:AM91">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -45415,6 +45401,18 @@
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2:AN32">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0870BBB-CBF4-47E4-8C31-7ED824C5F1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F910F75D-520F-41D6-B6EA-D5B11B9C4BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2057,6 +2057,30 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2090,30 +2114,6 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2122,15 +2122,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2145,6 +2136,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16397,8 +16397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6CF7-CA58-448E-9A43-748C25428E75}">
   <dimension ref="A1:BA367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -16447,11 +16447,11 @@
       <c r="G1" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
       <c r="AK1" t="s">
         <v>214</v>
       </c>
@@ -16469,11 +16469,11 @@
       <c r="B2" s="76">
         <v>2.5</v>
       </c>
-      <c r="C2" s="144">
+      <c r="C2" s="133">
         <f>AVERAGE(B2:B32)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="139">
+      <c r="D2" s="128">
         <f>AVERAGE(C2:C366)</f>
         <v>4.9792626728110596</v>
       </c>
@@ -16483,9 +16483,9 @@
       <c r="F2" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
       <c r="AK2" s="75">
         <v>45658</v>
       </c>
@@ -16559,8 +16559,8 @@
       <c r="B3" s="2">
         <v>2.8</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="140"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="62">
         <v>1</v>
       </c>
@@ -16641,8 +16641,8 @@
       <c r="B4" s="2">
         <v>4.8</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="140"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="62">
         <v>1</v>
       </c>
@@ -16757,8 +16757,8 @@
       <c r="B5" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="140"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="62">
         <v>1</v>
       </c>
@@ -16783,7 +16783,7 @@
         <f>C2</f>
         <v>5</v>
       </c>
-      <c r="N5" s="132">
+      <c r="N5" s="140">
         <f>AVERAGE(M5:M16)</f>
         <v>4.9792626728110596</v>
       </c>
@@ -16885,8 +16885,8 @@
       <c r="B6" s="2">
         <v>6.2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="140"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="62">
         <v>1</v>
       </c>
@@ -16910,7 +16910,7 @@
         <f>C33</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="N6" s="133"/>
+      <c r="N6" s="141"/>
       <c r="O6" s="61">
         <f>COUNTIFS(B33:B60,"&gt;=10")</f>
         <v>0</v>
@@ -17009,8 +17009,8 @@
       <c r="B7" s="2">
         <v>6.1</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="140"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="62">
         <v>1</v>
       </c>
@@ -17035,7 +17035,7 @@
         <f>C61</f>
         <v>5.1806451612903226</v>
       </c>
-      <c r="N7" s="133"/>
+      <c r="N7" s="141"/>
       <c r="O7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=10")</f>
         <v>0</v>
@@ -17134,8 +17134,8 @@
       <c r="B8" s="2">
         <v>3.5</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="140"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="62">
         <v>1</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>11</v>
       </c>
       <c r="M8" s="32"/>
-      <c r="N8" s="133"/>
+      <c r="N8" s="141"/>
       <c r="O8" s="61"/>
       <c r="P8" s="61"/>
       <c r="Q8" s="61"/>
@@ -17237,8 +17237,8 @@
       <c r="B9" s="2">
         <v>1.2</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="140"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="62">
         <v>1</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="32"/>
-      <c r="N9" s="133"/>
+      <c r="N9" s="141"/>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="61"/>
@@ -17343,8 +17343,8 @@
       <c r="B10" s="2">
         <v>5.6</v>
       </c>
-      <c r="C10" s="145"/>
-      <c r="D10" s="140"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="62">
         <v>1</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>13</v>
       </c>
       <c r="M10" s="32"/>
-      <c r="N10" s="133"/>
+      <c r="N10" s="141"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
       <c r="Q10" s="61"/>
@@ -17446,8 +17446,8 @@
       <c r="B11" s="2">
         <v>4.3</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="140"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="62">
         <v>1</v>
       </c>
@@ -17455,10 +17455,10 @@
         <v>180</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="128" t="s">
+      <c r="H11" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="129"/>
+      <c r="I11" s="137"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
         <v>90</v>
@@ -17467,7 +17467,7 @@
         <v>14</v>
       </c>
       <c r="M11" s="32"/>
-      <c r="N11" s="133"/>
+      <c r="N11" s="141"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="61"/>
@@ -17548,8 +17548,8 @@
       <c r="B12" s="2">
         <v>5.4</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="140"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="62">
         <v>1</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="133"/>
+      <c r="N12" s="141"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
@@ -17641,8 +17641,8 @@
       <c r="B13" s="2">
         <v>7.2</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="140"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="62">
         <v>1</v>
       </c>
@@ -17650,11 +17650,11 @@
         <v>180</v>
       </c>
       <c r="G13" s="78"/>
-      <c r="H13" s="130" t="s">
+      <c r="H13" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131">
+      <c r="I13" s="138"/>
+      <c r="J13" s="139">
         <f>J11/3.65</f>
         <v>24.657534246575342</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>16</v>
       </c>
       <c r="M13" s="32"/>
-      <c r="N13" s="133"/>
+      <c r="N13" s="141"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
       <c r="Q13" s="61"/>
@@ -17759,22 +17759,22 @@
       <c r="B14" s="2">
         <v>3.9</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="140"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="62">
         <v>0.8</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="139"/>
       <c r="L14" s="60" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="32"/>
-      <c r="N14" s="133"/>
+      <c r="N14" s="141"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
       <c r="Q14" s="61"/>
@@ -17876,8 +17876,8 @@
       <c r="B15" s="2">
         <v>1.5</v>
       </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="140"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="62">
         <v>1</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>18</v>
       </c>
       <c r="M15" s="32"/>
-      <c r="N15" s="133"/>
+      <c r="N15" s="141"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="61"/>
@@ -17993,8 +17993,8 @@
       <c r="B16" s="2">
         <v>5.2</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="140"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="62">
         <v>1</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="32"/>
-      <c r="N16" s="134"/>
+      <c r="N16" s="142"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="61"/>
@@ -18107,8 +18107,8 @@
       <c r="B17" s="2">
         <v>6.5</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="140"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="62">
         <v>1</v>
       </c>
@@ -18207,8 +18207,8 @@
       <c r="B18" s="2">
         <v>2.9</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="140"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="62">
         <v>0.6</v>
       </c>
@@ -18306,8 +18306,8 @@
       <c r="B19" s="2">
         <v>3.3</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="140"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="62">
         <v>0</v>
       </c>
@@ -18406,8 +18406,8 @@
       <c r="B20" s="2">
         <v>6.2</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="140"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="62">
         <v>1</v>
       </c>
@@ -18503,8 +18503,8 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="140"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="62">
         <v>1</v>
       </c>
@@ -18601,8 +18601,8 @@
       <c r="B22" s="2">
         <v>4.3</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="140"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="62">
         <v>0</v>
       </c>
@@ -18686,8 +18686,8 @@
       <c r="B23" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="140"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="62">
         <v>0</v>
       </c>
@@ -18772,8 +18772,8 @@
       <c r="B24" s="2">
         <v>1.2</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="140"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="62">
         <v>1</v>
       </c>
@@ -18857,8 +18857,8 @@
       <c r="B25" s="2">
         <v>6.2</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="140"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="62">
         <v>1</v>
       </c>
@@ -18943,8 +18943,8 @@
       <c r="B26" s="2">
         <v>8.1</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="140"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="62">
         <v>0</v>
       </c>
@@ -19024,8 +19024,8 @@
       <c r="B27" s="2">
         <v>6.8</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="140"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="62">
         <v>0</v>
       </c>
@@ -19106,8 +19106,8 @@
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="140"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="62">
         <v>1</v>
       </c>
@@ -19187,8 +19187,8 @@
       <c r="B29" s="2">
         <v>5.8</v>
       </c>
-      <c r="C29" s="145"/>
-      <c r="D29" s="140"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="62">
         <v>1</v>
       </c>
@@ -19269,8 +19269,8 @@
       <c r="B30" s="2">
         <v>5.3</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="140"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="62">
         <v>0</v>
       </c>
@@ -19350,8 +19350,8 @@
       <c r="B31" s="2">
         <v>7.4</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="140"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="62">
         <v>1</v>
       </c>
@@ -19432,8 +19432,8 @@
       <c r="B32" s="58">
         <v>8.5</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="140"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="62">
         <v>1</v>
       </c>
@@ -19520,11 +19520,11 @@
       <c r="B33" s="51">
         <v>4.8</v>
       </c>
-      <c r="C33" s="142">
+      <c r="C33" s="131">
         <f>AVERAGE(B33:B60)</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="D33" s="141"/>
+      <c r="D33" s="130"/>
       <c r="E33" s="62">
         <v>1</v>
       </c>
@@ -19606,8 +19606,8 @@
       <c r="B34" s="2">
         <v>4.5</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="141"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="130"/>
       <c r="E34" s="62">
         <v>0</v>
       </c>
@@ -19684,8 +19684,8 @@
       <c r="B35" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="141"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="130"/>
       <c r="E35" s="62">
         <v>1</v>
       </c>
@@ -19763,8 +19763,8 @@
       <c r="B36" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="141"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="130"/>
       <c r="E36" s="62">
         <v>1</v>
       </c>
@@ -19841,8 +19841,8 @@
       <c r="B37" s="2">
         <v>3.3</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="141"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="130"/>
       <c r="E37" s="62">
         <v>0</v>
       </c>
@@ -19919,8 +19919,8 @@
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="141"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="130"/>
       <c r="E38" s="62">
         <v>1</v>
       </c>
@@ -19997,8 +19997,8 @@
       <c r="B39" s="2">
         <v>1.3</v>
       </c>
-      <c r="C39" s="143"/>
-      <c r="D39" s="141"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="130"/>
       <c r="E39" s="62">
         <v>0</v>
       </c>
@@ -20075,8 +20075,8 @@
       <c r="B40" s="2">
         <v>8.5</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="141"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="130"/>
       <c r="E40" s="62">
         <v>1</v>
       </c>
@@ -20156,8 +20156,8 @@
       <c r="B41" s="2">
         <v>4.5</v>
       </c>
-      <c r="C41" s="143"/>
-      <c r="D41" s="141"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="130"/>
       <c r="E41" s="62">
         <v>0</v>
       </c>
@@ -20234,8 +20234,8 @@
       <c r="B42" s="2">
         <v>3.8</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="141"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="130"/>
       <c r="E42" s="62">
         <v>1</v>
       </c>
@@ -20312,8 +20312,8 @@
       <c r="B43" s="2">
         <v>5.5</v>
       </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="141"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="130"/>
       <c r="E43" s="62">
         <v>1</v>
       </c>
@@ -20394,8 +20394,8 @@
       <c r="B44" s="2">
         <v>5.8</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="141"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="130"/>
       <c r="E44" s="62">
         <v>1</v>
       </c>
@@ -20476,8 +20476,8 @@
       <c r="B45" s="2">
         <v>5.5</v>
       </c>
-      <c r="C45" s="143"/>
-      <c r="D45" s="141"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="130"/>
       <c r="E45" s="62">
         <v>0</v>
       </c>
@@ -20558,8 +20558,8 @@
       <c r="B46" s="2">
         <v>0</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="141"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="130"/>
       <c r="E46" s="62">
         <v>0</v>
       </c>
@@ -20643,8 +20643,8 @@
       <c r="B47" s="2">
         <v>4.5</v>
       </c>
-      <c r="C47" s="143"/>
-      <c r="D47" s="141"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="130"/>
       <c r="E47" s="62">
         <v>1</v>
       </c>
@@ -20725,8 +20725,8 @@
       <c r="B48" s="2">
         <v>6.6</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="141"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="130"/>
       <c r="E48" s="62">
         <v>1</v>
       </c>
@@ -20807,8 +20807,8 @@
       <c r="B49" s="2">
         <v>7.5</v>
       </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="141"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="130"/>
       <c r="E49" s="62">
         <v>1</v>
       </c>
@@ -20889,8 +20889,8 @@
       <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="143"/>
-      <c r="D50" s="141"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="130"/>
       <c r="E50" s="62">
         <v>1</v>
       </c>
@@ -20971,8 +20971,8 @@
       <c r="B51" s="2">
         <v>4.8</v>
       </c>
-      <c r="C51" s="143"/>
-      <c r="D51" s="141"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="130"/>
       <c r="E51" s="62">
         <v>0</v>
       </c>
@@ -21053,8 +21053,8 @@
       <c r="B52" s="2">
         <v>6.8</v>
       </c>
-      <c r="C52" s="143"/>
-      <c r="D52" s="141"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="130"/>
       <c r="E52" s="62">
         <v>1</v>
       </c>
@@ -21135,8 +21135,8 @@
       <c r="B53" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C53" s="143"/>
-      <c r="D53" s="141"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="130"/>
       <c r="E53" s="62">
         <v>1</v>
       </c>
@@ -21217,8 +21217,8 @@
       <c r="B54" s="2">
         <v>5.5</v>
       </c>
-      <c r="C54" s="143"/>
-      <c r="D54" s="141"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="130"/>
       <c r="E54" s="62">
         <v>0</v>
       </c>
@@ -21299,8 +21299,8 @@
       <c r="B55" s="2">
         <v>4.5</v>
       </c>
-      <c r="C55" s="143"/>
-      <c r="D55" s="141"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="130"/>
       <c r="E55" s="62">
         <v>1</v>
       </c>
@@ -21381,8 +21381,8 @@
       <c r="B56" s="2">
         <v>6.5</v>
       </c>
-      <c r="C56" s="143"/>
-      <c r="D56" s="141"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="130"/>
       <c r="E56" s="62">
         <v>1</v>
       </c>
@@ -21463,8 +21463,8 @@
       <c r="B57" s="2">
         <v>4.5</v>
       </c>
-      <c r="C57" s="143"/>
-      <c r="D57" s="141"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="130"/>
       <c r="E57" s="62">
         <v>1</v>
       </c>
@@ -21545,8 +21545,8 @@
       <c r="B58" s="2">
         <v>7.5</v>
       </c>
-      <c r="C58" s="143"/>
-      <c r="D58" s="141"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="130"/>
       <c r="E58" s="62">
         <v>0</v>
       </c>
@@ -21627,8 +21627,8 @@
       <c r="B59" s="2">
         <v>5</v>
       </c>
-      <c r="C59" s="143"/>
-      <c r="D59" s="141"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="130"/>
       <c r="E59" s="62">
         <v>1</v>
       </c>
@@ -21709,8 +21709,8 @@
       <c r="B60" s="2">
         <v>5.5</v>
       </c>
-      <c r="C60" s="143"/>
-      <c r="D60" s="141"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="130"/>
       <c r="E60" s="62">
         <v>1</v>
       </c>
@@ -21791,11 +21791,11 @@
       <c r="B61" s="2">
         <v>5</v>
       </c>
-      <c r="C61" s="143">
+      <c r="C61" s="132">
         <f>AVERAGE(B61:B91)</f>
         <v>5.1806451612903226</v>
       </c>
-      <c r="D61" s="141"/>
+      <c r="D61" s="130"/>
       <c r="E61" s="62">
         <v>0</v>
       </c>
@@ -21876,8 +21876,8 @@
       <c r="B62" s="2">
         <v>4.8</v>
       </c>
-      <c r="C62" s="143"/>
-      <c r="D62" s="141"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="130"/>
       <c r="E62" s="62">
         <v>0</v>
       </c>
@@ -21958,8 +21958,8 @@
       <c r="B63" s="2">
         <v>3</v>
       </c>
-      <c r="C63" s="143"/>
-      <c r="D63" s="141"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="130"/>
       <c r="E63" s="62">
         <v>1</v>
       </c>
@@ -22040,8 +22040,8 @@
       <c r="B64" s="2">
         <v>4</v>
       </c>
-      <c r="C64" s="143"/>
-      <c r="D64" s="141"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="130"/>
       <c r="E64" s="62">
         <v>1</v>
       </c>
@@ -22122,8 +22122,8 @@
       <c r="B65" s="2">
         <v>5</v>
       </c>
-      <c r="C65" s="143"/>
-      <c r="D65" s="141"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="130"/>
       <c r="E65" s="62">
         <v>0</v>
       </c>
@@ -22204,8 +22204,8 @@
       <c r="B66" s="2">
         <v>6.5</v>
       </c>
-      <c r="C66" s="143"/>
-      <c r="D66" s="141"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="130"/>
       <c r="E66" s="62">
         <v>0</v>
       </c>
@@ -22286,8 +22286,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="143"/>
-      <c r="D67" s="141"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="130"/>
       <c r="E67" s="62">
         <v>1</v>
       </c>
@@ -22367,8 +22367,8 @@
       <c r="B68" s="2">
         <v>6.1</v>
       </c>
-      <c r="C68" s="143"/>
-      <c r="D68" s="141"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="130"/>
       <c r="E68" s="62">
         <v>1</v>
       </c>
@@ -22448,8 +22448,8 @@
       <c r="B69" s="2">
         <v>8</v>
       </c>
-      <c r="C69" s="143"/>
-      <c r="D69" s="141"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="130"/>
       <c r="E69" s="62">
         <v>0</v>
       </c>
@@ -22529,8 +22529,8 @@
       <c r="B70" s="2">
         <v>4.5</v>
       </c>
-      <c r="C70" s="143"/>
-      <c r="D70" s="141"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="130"/>
       <c r="E70" s="62">
         <v>1</v>
       </c>
@@ -22610,8 +22610,8 @@
       <c r="B71" s="2">
         <v>7</v>
       </c>
-      <c r="C71" s="143"/>
-      <c r="D71" s="141"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="130"/>
       <c r="E71" s="62">
         <v>1</v>
       </c>
@@ -22691,8 +22691,8 @@
       <c r="B72" s="2">
         <v>4.8</v>
       </c>
-      <c r="C72" s="143"/>
-      <c r="D72" s="141"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="130"/>
       <c r="E72" s="62">
         <v>1</v>
       </c>
@@ -22772,8 +22772,8 @@
       <c r="B73" s="2">
         <v>5</v>
       </c>
-      <c r="C73" s="143"/>
-      <c r="D73" s="141"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="130"/>
       <c r="E73" s="62">
         <v>1</v>
       </c>
@@ -22853,8 +22853,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="143"/>
-      <c r="D74" s="141"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="130"/>
       <c r="E74" s="62">
         <v>0</v>
       </c>
@@ -22934,8 +22934,8 @@
       <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75" s="143"/>
-      <c r="D75" s="141"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="130"/>
       <c r="E75" s="62">
         <v>0</v>
       </c>
@@ -23015,8 +23015,8 @@
       <c r="B76" s="2">
         <v>5</v>
       </c>
-      <c r="C76" s="143"/>
-      <c r="D76" s="141"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="130"/>
       <c r="E76" s="62">
         <v>1</v>
       </c>
@@ -23096,8 +23096,8 @@
       <c r="B77" s="2">
         <v>4.2</v>
       </c>
-      <c r="C77" s="143"/>
-      <c r="D77" s="141"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="130"/>
       <c r="E77" s="62">
         <v>0</v>
       </c>
@@ -23177,8 +23177,8 @@
       <c r="B78" s="2">
         <v>5.5</v>
       </c>
-      <c r="C78" s="143"/>
-      <c r="D78" s="141"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="130"/>
       <c r="E78" s="62">
         <v>1</v>
       </c>
@@ -23258,8 +23258,8 @@
       <c r="B79" s="2">
         <v>3</v>
       </c>
-      <c r="C79" s="143"/>
-      <c r="D79" s="141"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="130"/>
       <c r="E79" s="62">
         <v>0</v>
       </c>
@@ -23339,8 +23339,8 @@
       <c r="B80" s="2">
         <v>5</v>
       </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="141"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="130"/>
       <c r="E80" s="62">
         <v>1</v>
       </c>
@@ -23420,8 +23420,8 @@
       <c r="B81" s="2">
         <v>5</v>
       </c>
-      <c r="C81" s="143"/>
-      <c r="D81" s="141"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="130"/>
       <c r="E81" s="62">
         <v>1</v>
       </c>
@@ -23501,8 +23501,8 @@
       <c r="B82" s="2">
         <v>7.5</v>
       </c>
-      <c r="C82" s="143"/>
-      <c r="D82" s="141"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="130"/>
       <c r="E82" s="62">
         <v>1</v>
       </c>
@@ -23582,8 +23582,8 @@
       <c r="B83" s="2">
         <v>7</v>
       </c>
-      <c r="C83" s="143"/>
-      <c r="D83" s="141"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="130"/>
       <c r="E83" s="62">
         <v>1</v>
       </c>
@@ -23666,8 +23666,8 @@
       <c r="B84" s="2">
         <v>4</v>
       </c>
-      <c r="C84" s="143"/>
-      <c r="D84" s="141"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="130"/>
       <c r="E84" s="62">
         <v>0</v>
       </c>
@@ -23747,8 +23747,8 @@
       <c r="B85" s="2">
         <v>5.5</v>
       </c>
-      <c r="C85" s="143"/>
-      <c r="D85" s="141"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="130"/>
       <c r="E85" s="62">
         <v>1</v>
       </c>
@@ -23828,8 +23828,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="143"/>
-      <c r="D86" s="141"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="130"/>
       <c r="E86" s="62">
         <v>1</v>
       </c>
@@ -23912,8 +23912,8 @@
       <c r="B87" s="2">
         <v>5.2</v>
       </c>
-      <c r="C87" s="143"/>
-      <c r="D87" s="141"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="130"/>
       <c r="E87" s="62">
         <v>1</v>
       </c>
@@ -23993,8 +23993,8 @@
       <c r="B88" s="2">
         <v>4.5</v>
       </c>
-      <c r="C88" s="143"/>
-      <c r="D88" s="141"/>
+      <c r="C88" s="132"/>
+      <c r="D88" s="130"/>
       <c r="E88" s="62">
         <v>1</v>
       </c>
@@ -24074,8 +24074,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="143"/>
-      <c r="D89" s="141"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="130"/>
       <c r="E89" s="62">
         <v>0</v>
       </c>
@@ -24155,8 +24155,8 @@
       <c r="B90" s="2">
         <v>6.5</v>
       </c>
-      <c r="C90" s="143"/>
-      <c r="D90" s="141"/>
+      <c r="C90" s="132"/>
+      <c r="D90" s="130"/>
       <c r="E90" s="62">
         <v>1</v>
       </c>
@@ -24236,8 +24236,8 @@
       <c r="B91" s="2">
         <v>5</v>
       </c>
-      <c r="C91" s="143"/>
-      <c r="D91" s="141"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="130"/>
       <c r="E91" s="62">
         <v>1</v>
       </c>
@@ -24315,8 +24315,8 @@
         <v>45748</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="141"/>
+      <c r="C92" s="132"/>
+      <c r="D92" s="130"/>
       <c r="AJ92" t="str">
         <f>TRIM(MID(SUBSTITUTE($F92, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ92)-1)*100+1, 100))</f>
         <v/>
@@ -24391,8 +24391,8 @@
         <v>45749</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="141"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="130"/>
       <c r="AJ93" t="str">
         <f>TRIM(MID(SUBSTITUTE($F93, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ93)-1)*100+1, 100))</f>
         <v/>
@@ -24467,8 +24467,8 @@
         <v>45750</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="143"/>
-      <c r="D94" s="141"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="130"/>
       <c r="AJ94" t="str">
         <f>TRIM(MID(SUBSTITUTE($F94, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ94)-1)*100+1, 100))</f>
         <v/>
@@ -24543,8 +24543,8 @@
         <v>45751</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="141"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="130"/>
       <c r="AJ95" t="str">
         <f>TRIM(MID(SUBSTITUTE($F95, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ95)-1)*100+1, 100))</f>
         <v/>
@@ -24619,8 +24619,8 @@
         <v>45752</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="143"/>
-      <c r="D96" s="141"/>
+      <c r="C96" s="132"/>
+      <c r="D96" s="130"/>
       <c r="AJ96" t="str">
         <f>TRIM(MID(SUBSTITUTE($F96, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ96)-1)*100+1, 100))</f>
         <v/>
@@ -24695,8 +24695,8 @@
         <v>45753</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="143"/>
-      <c r="D97" s="141"/>
+      <c r="C97" s="132"/>
+      <c r="D97" s="130"/>
       <c r="AJ97" t="str">
         <f>TRIM(MID(SUBSTITUTE($F97, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ97)-1)*100+1, 100))</f>
         <v/>
@@ -24771,8 +24771,8 @@
         <v>45754</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="143"/>
-      <c r="D98" s="141"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="130"/>
       <c r="AJ98" t="str">
         <f>TRIM(MID(SUBSTITUTE($F98, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ98)-1)*100+1, 100))</f>
         <v/>
@@ -24847,8 +24847,8 @@
         <v>45755</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="143"/>
-      <c r="D99" s="141"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="130"/>
       <c r="AJ99" t="str">
         <f>TRIM(MID(SUBSTITUTE($F99, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ99)-1)*100+1, 100))</f>
         <v/>
@@ -24923,8 +24923,8 @@
         <v>45756</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="143"/>
-      <c r="D100" s="141"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="130"/>
       <c r="AJ100" t="str">
         <f>TRIM(MID(SUBSTITUTE($F100, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ100)-1)*100+1, 100))</f>
         <v/>
@@ -24999,8 +24999,8 @@
         <v>45757</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="143"/>
-      <c r="D101" s="141"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="130"/>
       <c r="AJ101" t="str">
         <f>TRIM(MID(SUBSTITUTE($F101, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ101)-1)*100+1, 100))</f>
         <v/>
@@ -25075,8 +25075,8 @@
         <v>45758</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="143"/>
-      <c r="D102" s="141"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="130"/>
       <c r="AJ102" t="str">
         <f>TRIM(MID(SUBSTITUTE($F102, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ102)-1)*100+1, 100))</f>
         <v/>
@@ -25151,8 +25151,8 @@
         <v>45759</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="143"/>
-      <c r="D103" s="141"/>
+      <c r="C103" s="132"/>
+      <c r="D103" s="130"/>
       <c r="AJ103" t="str">
         <f>TRIM(MID(SUBSTITUTE($F103, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ103)-1)*100+1, 100))</f>
         <v/>
@@ -25227,8 +25227,8 @@
         <v>45760</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="143"/>
-      <c r="D104" s="141"/>
+      <c r="C104" s="132"/>
+      <c r="D104" s="130"/>
       <c r="AJ104" t="str">
         <f>TRIM(MID(SUBSTITUTE($F104, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ104)-1)*100+1, 100))</f>
         <v/>
@@ -25303,8 +25303,8 @@
         <v>45761</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="143"/>
-      <c r="D105" s="141"/>
+      <c r="C105" s="132"/>
+      <c r="D105" s="130"/>
       <c r="AJ105" t="str">
         <f>TRIM(MID(SUBSTITUTE($F105, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ105)-1)*100+1, 100))</f>
         <v/>
@@ -25379,8 +25379,8 @@
         <v>45762</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="143"/>
-      <c r="D106" s="141"/>
+      <c r="C106" s="132"/>
+      <c r="D106" s="130"/>
       <c r="AJ106" t="str">
         <f>TRIM(MID(SUBSTITUTE($F106, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ106)-1)*100+1, 100))</f>
         <v/>
@@ -25455,8 +25455,8 @@
         <v>45763</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="143"/>
-      <c r="D107" s="141"/>
+      <c r="C107" s="132"/>
+      <c r="D107" s="130"/>
       <c r="AJ107" t="str">
         <f>TRIM(MID(SUBSTITUTE($F107, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ107)-1)*100+1, 100))</f>
         <v/>
@@ -25531,8 +25531,8 @@
         <v>45764</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="143"/>
-      <c r="D108" s="141"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="130"/>
       <c r="AJ108" t="str">
         <f>TRIM(MID(SUBSTITUTE($F108, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ108)-1)*100+1, 100))</f>
         <v/>
@@ -25607,8 +25607,8 @@
         <v>45765</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="143"/>
-      <c r="D109" s="141"/>
+      <c r="C109" s="132"/>
+      <c r="D109" s="130"/>
       <c r="AJ109" t="str">
         <f>TRIM(MID(SUBSTITUTE($F109, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ109)-1)*100+1, 100))</f>
         <v/>
@@ -25683,8 +25683,8 @@
         <v>45766</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="143"/>
-      <c r="D110" s="141"/>
+      <c r="C110" s="132"/>
+      <c r="D110" s="130"/>
       <c r="AJ110" t="str">
         <f>TRIM(MID(SUBSTITUTE($F110, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ110)-1)*100+1, 100))</f>
         <v/>
@@ -25759,8 +25759,8 @@
         <v>45767</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="143"/>
-      <c r="D111" s="141"/>
+      <c r="C111" s="132"/>
+      <c r="D111" s="130"/>
       <c r="AJ111" t="str">
         <f>TRIM(MID(SUBSTITUTE($F111, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ111)-1)*100+1, 100))</f>
         <v/>
@@ -25835,8 +25835,8 @@
         <v>45768</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="143"/>
-      <c r="D112" s="141"/>
+      <c r="C112" s="132"/>
+      <c r="D112" s="130"/>
       <c r="AJ112" t="str">
         <f>TRIM(MID(SUBSTITUTE($F112, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ112)-1)*100+1, 100))</f>
         <v/>
@@ -25911,8 +25911,8 @@
         <v>45769</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="143"/>
-      <c r="D113" s="141"/>
+      <c r="C113" s="132"/>
+      <c r="D113" s="130"/>
       <c r="AJ113" t="str">
         <f>TRIM(MID(SUBSTITUTE($F113, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ113)-1)*100+1, 100))</f>
         <v/>
@@ -25987,8 +25987,8 @@
         <v>45770</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="143"/>
-      <c r="D114" s="141"/>
+      <c r="C114" s="132"/>
+      <c r="D114" s="130"/>
       <c r="AJ114" t="str">
         <f>TRIM(MID(SUBSTITUTE($F114, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ114)-1)*100+1, 100))</f>
         <v/>
@@ -26063,8 +26063,8 @@
         <v>45771</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="143"/>
-      <c r="D115" s="141"/>
+      <c r="C115" s="132"/>
+      <c r="D115" s="130"/>
       <c r="AJ115" t="str">
         <f>TRIM(MID(SUBSTITUTE($F115, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ115)-1)*100+1, 100))</f>
         <v/>
@@ -26139,8 +26139,8 @@
         <v>45772</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="143"/>
-      <c r="D116" s="141"/>
+      <c r="C116" s="132"/>
+      <c r="D116" s="130"/>
       <c r="AJ116" t="str">
         <f>TRIM(MID(SUBSTITUTE($F116, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ116)-1)*100+1, 100))</f>
         <v/>
@@ -26215,8 +26215,8 @@
         <v>45773</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="143"/>
-      <c r="D117" s="141"/>
+      <c r="C117" s="132"/>
+      <c r="D117" s="130"/>
       <c r="AJ117" t="str">
         <f>TRIM(MID(SUBSTITUTE($F117, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ117)-1)*100+1, 100))</f>
         <v/>
@@ -26291,8 +26291,8 @@
         <v>45774</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="143"/>
-      <c r="D118" s="141"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="130"/>
       <c r="AJ118" t="str">
         <f>TRIM(MID(SUBSTITUTE($F118, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ118)-1)*100+1, 100))</f>
         <v/>
@@ -26367,8 +26367,8 @@
         <v>45775</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="143"/>
-      <c r="D119" s="141"/>
+      <c r="C119" s="132"/>
+      <c r="D119" s="130"/>
       <c r="AJ119" t="str">
         <f>TRIM(MID(SUBSTITUTE($F119, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ119)-1)*100+1, 100))</f>
         <v/>
@@ -26443,8 +26443,8 @@
         <v>45776</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="143"/>
-      <c r="D120" s="141"/>
+      <c r="C120" s="132"/>
+      <c r="D120" s="130"/>
       <c r="AJ120" t="str">
         <f>TRIM(MID(SUBSTITUTE($F120, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ120)-1)*100+1, 100))</f>
         <v/>
@@ -26519,8 +26519,8 @@
         <v>45777</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="143"/>
-      <c r="D121" s="141"/>
+      <c r="C121" s="132"/>
+      <c r="D121" s="130"/>
       <c r="AJ121" t="str">
         <f>TRIM(MID(SUBSTITUTE($F121, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ121)-1)*100+1, 100))</f>
         <v/>
@@ -26595,8 +26595,8 @@
         <v>45778</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="143"/>
-      <c r="D122" s="141"/>
+      <c r="C122" s="132"/>
+      <c r="D122" s="130"/>
       <c r="AJ122" t="str">
         <f>TRIM(MID(SUBSTITUTE($F122, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ122)-1)*100+1, 100))</f>
         <v/>
@@ -26671,8 +26671,8 @@
         <v>45779</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="143"/>
-      <c r="D123" s="141"/>
+      <c r="C123" s="132"/>
+      <c r="D123" s="130"/>
       <c r="AJ123" t="str">
         <f>TRIM(MID(SUBSTITUTE($F123, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ123)-1)*100+1, 100))</f>
         <v/>
@@ -26747,8 +26747,8 @@
         <v>45780</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="143"/>
-      <c r="D124" s="141"/>
+      <c r="C124" s="132"/>
+      <c r="D124" s="130"/>
       <c r="AJ124" t="str">
         <f>TRIM(MID(SUBSTITUTE($F124, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ124)-1)*100+1, 100))</f>
         <v/>
@@ -26823,8 +26823,8 @@
         <v>45781</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="143"/>
-      <c r="D125" s="141"/>
+      <c r="C125" s="132"/>
+      <c r="D125" s="130"/>
       <c r="AJ125" t="str">
         <f>TRIM(MID(SUBSTITUTE($F125, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ125)-1)*100+1, 100))</f>
         <v/>
@@ -26899,8 +26899,8 @@
         <v>45782</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="143"/>
-      <c r="D126" s="141"/>
+      <c r="C126" s="132"/>
+      <c r="D126" s="130"/>
       <c r="AJ126" t="str">
         <f>TRIM(MID(SUBSTITUTE($F126, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ126)-1)*100+1, 100))</f>
         <v/>
@@ -26975,8 +26975,8 @@
         <v>45783</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="143"/>
-      <c r="D127" s="141"/>
+      <c r="C127" s="132"/>
+      <c r="D127" s="130"/>
       <c r="AJ127" t="str">
         <f>TRIM(MID(SUBSTITUTE($F127, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ127)-1)*100+1, 100))</f>
         <v/>
@@ -27051,8 +27051,8 @@
         <v>45784</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="143"/>
-      <c r="D128" s="141"/>
+      <c r="C128" s="132"/>
+      <c r="D128" s="130"/>
       <c r="AJ128" t="str">
         <f>TRIM(MID(SUBSTITUTE($F128, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ128)-1)*100+1, 100))</f>
         <v/>
@@ -27127,8 +27127,8 @@
         <v>45785</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="143"/>
-      <c r="D129" s="141"/>
+      <c r="C129" s="132"/>
+      <c r="D129" s="130"/>
       <c r="AJ129" t="str">
         <f>TRIM(MID(SUBSTITUTE($F129, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ129)-1)*100+1, 100))</f>
         <v/>
@@ -27203,8 +27203,8 @@
         <v>45786</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="143"/>
-      <c r="D130" s="141"/>
+      <c r="C130" s="132"/>
+      <c r="D130" s="130"/>
       <c r="AJ130" t="str">
         <f>TRIM(MID(SUBSTITUTE($F130, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ130)-1)*100+1, 100))</f>
         <v/>
@@ -27279,8 +27279,8 @@
         <v>45787</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="143"/>
-      <c r="D131" s="141"/>
+      <c r="C131" s="132"/>
+      <c r="D131" s="130"/>
       <c r="AJ131" t="str">
         <f>TRIM(MID(SUBSTITUTE($F131, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ131)-1)*100+1, 100))</f>
         <v/>
@@ -27355,8 +27355,8 @@
         <v>45788</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="143"/>
-      <c r="D132" s="141"/>
+      <c r="C132" s="132"/>
+      <c r="D132" s="130"/>
       <c r="AJ132" t="str">
         <f>TRIM(MID(SUBSTITUTE($F132, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ132)-1)*100+1, 100))</f>
         <v/>
@@ -27431,8 +27431,8 @@
         <v>45789</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="143"/>
-      <c r="D133" s="141"/>
+      <c r="C133" s="132"/>
+      <c r="D133" s="130"/>
       <c r="AJ133" t="str">
         <f>TRIM(MID(SUBSTITUTE($F133, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ133)-1)*100+1, 100))</f>
         <v/>
@@ -27507,8 +27507,8 @@
         <v>45790</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="143"/>
-      <c r="D134" s="141"/>
+      <c r="C134" s="132"/>
+      <c r="D134" s="130"/>
       <c r="AJ134" t="str">
         <f>TRIM(MID(SUBSTITUTE($F134, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ134)-1)*100+1, 100))</f>
         <v/>
@@ -27583,8 +27583,8 @@
         <v>45791</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="143"/>
-      <c r="D135" s="141"/>
+      <c r="C135" s="132"/>
+      <c r="D135" s="130"/>
       <c r="AJ135" t="str">
         <f>TRIM(MID(SUBSTITUTE($F135, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ135)-1)*100+1, 100))</f>
         <v/>
@@ -27659,8 +27659,8 @@
         <v>45792</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="143"/>
-      <c r="D136" s="141"/>
+      <c r="C136" s="132"/>
+      <c r="D136" s="130"/>
       <c r="AJ136" t="str">
         <f>TRIM(MID(SUBSTITUTE($F136, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ136)-1)*100+1, 100))</f>
         <v/>
@@ -27735,8 +27735,8 @@
         <v>45793</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="143"/>
-      <c r="D137" s="141"/>
+      <c r="C137" s="132"/>
+      <c r="D137" s="130"/>
       <c r="AJ137" t="str">
         <f>TRIM(MID(SUBSTITUTE($F137, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ137)-1)*100+1, 100))</f>
         <v/>
@@ -27811,8 +27811,8 @@
         <v>45794</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="143"/>
-      <c r="D138" s="141"/>
+      <c r="C138" s="132"/>
+      <c r="D138" s="130"/>
       <c r="AJ138" t="str">
         <f>TRIM(MID(SUBSTITUTE($F138, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ138)-1)*100+1, 100))</f>
         <v/>
@@ -27887,8 +27887,8 @@
         <v>45795</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="143"/>
-      <c r="D139" s="141"/>
+      <c r="C139" s="132"/>
+      <c r="D139" s="130"/>
       <c r="AJ139" t="str">
         <f>TRIM(MID(SUBSTITUTE($F139, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ139)-1)*100+1, 100))</f>
         <v/>
@@ -27963,8 +27963,8 @@
         <v>45796</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="143"/>
-      <c r="D140" s="141"/>
+      <c r="C140" s="132"/>
+      <c r="D140" s="130"/>
       <c r="AJ140" t="str">
         <f>TRIM(MID(SUBSTITUTE($F140, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ140)-1)*100+1, 100))</f>
         <v/>
@@ -28039,8 +28039,8 @@
         <v>45797</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="143"/>
-      <c r="D141" s="141"/>
+      <c r="C141" s="132"/>
+      <c r="D141" s="130"/>
       <c r="AJ141" t="str">
         <f>TRIM(MID(SUBSTITUTE($F141, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ141)-1)*100+1, 100))</f>
         <v/>
@@ -28115,8 +28115,8 @@
         <v>45798</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="143"/>
-      <c r="D142" s="141"/>
+      <c r="C142" s="132"/>
+      <c r="D142" s="130"/>
       <c r="AJ142" t="str">
         <f>TRIM(MID(SUBSTITUTE($F142, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ142)-1)*100+1, 100))</f>
         <v/>
@@ -28191,8 +28191,8 @@
         <v>45799</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="143"/>
-      <c r="D143" s="141"/>
+      <c r="C143" s="132"/>
+      <c r="D143" s="130"/>
       <c r="AJ143" t="str">
         <f>TRIM(MID(SUBSTITUTE($F143, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ143)-1)*100+1, 100))</f>
         <v/>
@@ -28267,8 +28267,8 @@
         <v>45800</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="143"/>
-      <c r="D144" s="141"/>
+      <c r="C144" s="132"/>
+      <c r="D144" s="130"/>
       <c r="AJ144" t="str">
         <f>TRIM(MID(SUBSTITUTE($F144, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ144)-1)*100+1, 100))</f>
         <v/>
@@ -28343,8 +28343,8 @@
         <v>45801</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="143"/>
-      <c r="D145" s="141"/>
+      <c r="C145" s="132"/>
+      <c r="D145" s="130"/>
       <c r="AJ145" t="str">
         <f>TRIM(MID(SUBSTITUTE($F145, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ145)-1)*100+1, 100))</f>
         <v/>
@@ -28419,8 +28419,8 @@
         <v>45802</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="143"/>
-      <c r="D146" s="141"/>
+      <c r="C146" s="132"/>
+      <c r="D146" s="130"/>
       <c r="AJ146" t="str">
         <f>TRIM(MID(SUBSTITUTE($F146, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ146)-1)*100+1, 100))</f>
         <v/>
@@ -28495,8 +28495,8 @@
         <v>45803</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="143"/>
-      <c r="D147" s="141"/>
+      <c r="C147" s="132"/>
+      <c r="D147" s="130"/>
       <c r="AJ147" t="str">
         <f>TRIM(MID(SUBSTITUTE($F147, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ147)-1)*100+1, 100))</f>
         <v/>
@@ -28571,8 +28571,8 @@
         <v>45804</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="143"/>
-      <c r="D148" s="141"/>
+      <c r="C148" s="132"/>
+      <c r="D148" s="130"/>
       <c r="AJ148" t="str">
         <f>TRIM(MID(SUBSTITUTE($F148, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ148)-1)*100+1, 100))</f>
         <v/>
@@ -28647,8 +28647,8 @@
         <v>45805</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="143"/>
-      <c r="D149" s="141"/>
+      <c r="C149" s="132"/>
+      <c r="D149" s="130"/>
       <c r="AJ149" t="str">
         <f>TRIM(MID(SUBSTITUTE($F149, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ149)-1)*100+1, 100))</f>
         <v/>
@@ -28723,8 +28723,8 @@
         <v>45806</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="143"/>
-      <c r="D150" s="141"/>
+      <c r="C150" s="132"/>
+      <c r="D150" s="130"/>
       <c r="AJ150" t="str">
         <f>TRIM(MID(SUBSTITUTE($F150, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ150)-1)*100+1, 100))</f>
         <v/>
@@ -28799,8 +28799,8 @@
         <v>45807</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="143"/>
-      <c r="D151" s="141"/>
+      <c r="C151" s="132"/>
+      <c r="D151" s="130"/>
       <c r="AJ151" t="str">
         <f>TRIM(MID(SUBSTITUTE($F151, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ151)-1)*100+1, 100))</f>
         <v/>
@@ -28875,8 +28875,8 @@
         <v>45808</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="143"/>
-      <c r="D152" s="141"/>
+      <c r="C152" s="132"/>
+      <c r="D152" s="130"/>
       <c r="AJ152" t="str">
         <f>TRIM(MID(SUBSTITUTE($F152, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ152)-1)*100+1, 100))</f>
         <v/>
@@ -28951,8 +28951,8 @@
         <v>45809</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="143"/>
-      <c r="D153" s="141"/>
+      <c r="C153" s="132"/>
+      <c r="D153" s="130"/>
       <c r="AJ153" t="str">
         <f>TRIM(MID(SUBSTITUTE($F153, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ153)-1)*100+1, 100))</f>
         <v/>
@@ -29027,8 +29027,8 @@
         <v>45810</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="143"/>
-      <c r="D154" s="141"/>
+      <c r="C154" s="132"/>
+      <c r="D154" s="130"/>
       <c r="AJ154" t="str">
         <f>TRIM(MID(SUBSTITUTE($F154, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ154)-1)*100+1, 100))</f>
         <v/>
@@ -29103,8 +29103,8 @@
         <v>45811</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="143"/>
-      <c r="D155" s="141"/>
+      <c r="C155" s="132"/>
+      <c r="D155" s="130"/>
       <c r="AJ155" t="str">
         <f>TRIM(MID(SUBSTITUTE($F155, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ155)-1)*100+1, 100))</f>
         <v/>
@@ -29179,8 +29179,8 @@
         <v>45812</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="143"/>
-      <c r="D156" s="141"/>
+      <c r="C156" s="132"/>
+      <c r="D156" s="130"/>
       <c r="AJ156" t="str">
         <f>TRIM(MID(SUBSTITUTE($F156, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ156)-1)*100+1, 100))</f>
         <v/>
@@ -29255,8 +29255,8 @@
         <v>45813</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="143"/>
-      <c r="D157" s="141"/>
+      <c r="C157" s="132"/>
+      <c r="D157" s="130"/>
       <c r="AJ157" t="str">
         <f>TRIM(MID(SUBSTITUTE($F157, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ157)-1)*100+1, 100))</f>
         <v/>
@@ -29331,8 +29331,8 @@
         <v>45814</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="143"/>
-      <c r="D158" s="141"/>
+      <c r="C158" s="132"/>
+      <c r="D158" s="130"/>
       <c r="AJ158" t="str">
         <f>TRIM(MID(SUBSTITUTE($F158, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ158)-1)*100+1, 100))</f>
         <v/>
@@ -29407,8 +29407,8 @@
         <v>45815</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="143"/>
-      <c r="D159" s="141"/>
+      <c r="C159" s="132"/>
+      <c r="D159" s="130"/>
       <c r="AJ159" t="str">
         <f>TRIM(MID(SUBSTITUTE($F159, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ159)-1)*100+1, 100))</f>
         <v/>
@@ -29483,8 +29483,8 @@
         <v>45816</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="143"/>
-      <c r="D160" s="141"/>
+      <c r="C160" s="132"/>
+      <c r="D160" s="130"/>
       <c r="AJ160" t="str">
         <f>TRIM(MID(SUBSTITUTE($F160, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ160)-1)*100+1, 100))</f>
         <v/>
@@ -29559,8 +29559,8 @@
         <v>45817</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="143"/>
-      <c r="D161" s="141"/>
+      <c r="C161" s="132"/>
+      <c r="D161" s="130"/>
       <c r="AJ161" t="str">
         <f>TRIM(MID(SUBSTITUTE($F161, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ161)-1)*100+1, 100))</f>
         <v/>
@@ -29635,8 +29635,8 @@
         <v>45818</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="143"/>
-      <c r="D162" s="141"/>
+      <c r="C162" s="132"/>
+      <c r="D162" s="130"/>
       <c r="AJ162" t="str">
         <f>TRIM(MID(SUBSTITUTE($F162, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ162)-1)*100+1, 100))</f>
         <v/>
@@ -29711,8 +29711,8 @@
         <v>45819</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="143"/>
-      <c r="D163" s="141"/>
+      <c r="C163" s="132"/>
+      <c r="D163" s="130"/>
       <c r="AJ163" t="str">
         <f>TRIM(MID(SUBSTITUTE($F163, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ163)-1)*100+1, 100))</f>
         <v/>
@@ -29787,8 +29787,8 @@
         <v>45820</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="143"/>
-      <c r="D164" s="141"/>
+      <c r="C164" s="132"/>
+      <c r="D164" s="130"/>
       <c r="AJ164" t="str">
         <f>TRIM(MID(SUBSTITUTE($F164, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ164)-1)*100+1, 100))</f>
         <v/>
@@ -29863,8 +29863,8 @@
         <v>45821</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="143"/>
-      <c r="D165" s="141"/>
+      <c r="C165" s="132"/>
+      <c r="D165" s="130"/>
       <c r="AJ165" t="str">
         <f>TRIM(MID(SUBSTITUTE($F165, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ165)-1)*100+1, 100))</f>
         <v/>
@@ -29939,8 +29939,8 @@
         <v>45822</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="143"/>
-      <c r="D166" s="141"/>
+      <c r="C166" s="132"/>
+      <c r="D166" s="130"/>
       <c r="AJ166" t="str">
         <f>TRIM(MID(SUBSTITUTE($F166, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ166)-1)*100+1, 100))</f>
         <v/>
@@ -30015,8 +30015,8 @@
         <v>45823</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="143"/>
-      <c r="D167" s="141"/>
+      <c r="C167" s="132"/>
+      <c r="D167" s="130"/>
       <c r="AJ167" t="str">
         <f>TRIM(MID(SUBSTITUTE($F167, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ167)-1)*100+1, 100))</f>
         <v/>
@@ -30091,8 +30091,8 @@
         <v>45824</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="143"/>
-      <c r="D168" s="141"/>
+      <c r="C168" s="132"/>
+      <c r="D168" s="130"/>
       <c r="AJ168" t="str">
         <f>TRIM(MID(SUBSTITUTE($F168, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ168)-1)*100+1, 100))</f>
         <v/>
@@ -30167,8 +30167,8 @@
         <v>45825</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="143"/>
-      <c r="D169" s="141"/>
+      <c r="C169" s="132"/>
+      <c r="D169" s="130"/>
       <c r="AJ169" t="str">
         <f>TRIM(MID(SUBSTITUTE($F169, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ169)-1)*100+1, 100))</f>
         <v/>
@@ -30243,8 +30243,8 @@
         <v>45826</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="143"/>
-      <c r="D170" s="141"/>
+      <c r="C170" s="132"/>
+      <c r="D170" s="130"/>
       <c r="AJ170" t="str">
         <f>TRIM(MID(SUBSTITUTE($F170, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ170)-1)*100+1, 100))</f>
         <v/>
@@ -30319,8 +30319,8 @@
         <v>45827</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="143"/>
-      <c r="D171" s="141"/>
+      <c r="C171" s="132"/>
+      <c r="D171" s="130"/>
       <c r="AJ171" t="str">
         <f>TRIM(MID(SUBSTITUTE($F171, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ171)-1)*100+1, 100))</f>
         <v/>
@@ -30395,8 +30395,8 @@
         <v>45828</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="143"/>
-      <c r="D172" s="141"/>
+      <c r="C172" s="132"/>
+      <c r="D172" s="130"/>
       <c r="AJ172" t="str">
         <f>TRIM(MID(SUBSTITUTE($F172, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ172)-1)*100+1, 100))</f>
         <v/>
@@ -30471,8 +30471,8 @@
         <v>45829</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="143"/>
-      <c r="D173" s="141"/>
+      <c r="C173" s="132"/>
+      <c r="D173" s="130"/>
       <c r="AJ173" t="str">
         <f>TRIM(MID(SUBSTITUTE($F173, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ173)-1)*100+1, 100))</f>
         <v/>
@@ -30547,8 +30547,8 @@
         <v>45830</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="143"/>
-      <c r="D174" s="141"/>
+      <c r="C174" s="132"/>
+      <c r="D174" s="130"/>
       <c r="AJ174" t="str">
         <f>TRIM(MID(SUBSTITUTE($F174, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ174)-1)*100+1, 100))</f>
         <v/>
@@ -30623,8 +30623,8 @@
         <v>45831</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="143"/>
-      <c r="D175" s="141"/>
+      <c r="C175" s="132"/>
+      <c r="D175" s="130"/>
       <c r="AJ175" t="str">
         <f>TRIM(MID(SUBSTITUTE($F175, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ175)-1)*100+1, 100))</f>
         <v/>
@@ -30699,8 +30699,8 @@
         <v>45832</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="143"/>
-      <c r="D176" s="141"/>
+      <c r="C176" s="132"/>
+      <c r="D176" s="130"/>
       <c r="AJ176" t="str">
         <f>TRIM(MID(SUBSTITUTE($F176, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ176)-1)*100+1, 100))</f>
         <v/>
@@ -30775,8 +30775,8 @@
         <v>45833</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="143"/>
-      <c r="D177" s="141"/>
+      <c r="C177" s="132"/>
+      <c r="D177" s="130"/>
       <c r="AJ177" t="str">
         <f>TRIM(MID(SUBSTITUTE($F177, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ177)-1)*100+1, 100))</f>
         <v/>
@@ -30851,8 +30851,8 @@
         <v>45834</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="143"/>
-      <c r="D178" s="141"/>
+      <c r="C178" s="132"/>
+      <c r="D178" s="130"/>
       <c r="AJ178" t="str">
         <f>TRIM(MID(SUBSTITUTE($F178, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ178)-1)*100+1, 100))</f>
         <v/>
@@ -30927,8 +30927,8 @@
         <v>45835</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="143"/>
-      <c r="D179" s="141"/>
+      <c r="C179" s="132"/>
+      <c r="D179" s="130"/>
       <c r="AJ179" t="str">
         <f>TRIM(MID(SUBSTITUTE($F179, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ179)-1)*100+1, 100))</f>
         <v/>
@@ -31003,8 +31003,8 @@
         <v>45836</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="143"/>
-      <c r="D180" s="141"/>
+      <c r="C180" s="132"/>
+      <c r="D180" s="130"/>
       <c r="AJ180" t="str">
         <f>TRIM(MID(SUBSTITUTE($F180, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ180)-1)*100+1, 100))</f>
         <v/>
@@ -31079,8 +31079,8 @@
         <v>45837</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="143"/>
-      <c r="D181" s="141"/>
+      <c r="C181" s="132"/>
+      <c r="D181" s="130"/>
       <c r="AJ181" t="str">
         <f>TRIM(MID(SUBSTITUTE($F181, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ181)-1)*100+1, 100))</f>
         <v/>
@@ -31155,8 +31155,8 @@
         <v>45838</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="143"/>
-      <c r="D182" s="141"/>
+      <c r="C182" s="132"/>
+      <c r="D182" s="130"/>
       <c r="AJ182" t="str">
         <f>TRIM(MID(SUBSTITUTE($F182, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ182)-1)*100+1, 100))</f>
         <v/>
@@ -31231,8 +31231,8 @@
         <v>45839</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="143"/>
-      <c r="D183" s="141"/>
+      <c r="C183" s="132"/>
+      <c r="D183" s="130"/>
       <c r="AJ183" t="str">
         <f>TRIM(MID(SUBSTITUTE($F183, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ183)-1)*100+1, 100))</f>
         <v/>
@@ -31307,8 +31307,8 @@
         <v>45840</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="143"/>
-      <c r="D184" s="141"/>
+      <c r="C184" s="132"/>
+      <c r="D184" s="130"/>
       <c r="AJ184" t="str">
         <f>TRIM(MID(SUBSTITUTE($F184, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ184)-1)*100+1, 100))</f>
         <v/>
@@ -31383,8 +31383,8 @@
         <v>45841</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="143"/>
-      <c r="D185" s="141"/>
+      <c r="C185" s="132"/>
+      <c r="D185" s="130"/>
       <c r="AJ185" t="str">
         <f>TRIM(MID(SUBSTITUTE($F185, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ185)-1)*100+1, 100))</f>
         <v/>
@@ -31459,8 +31459,8 @@
         <v>45842</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="143"/>
-      <c r="D186" s="141"/>
+      <c r="C186" s="132"/>
+      <c r="D186" s="130"/>
       <c r="AJ186" t="str">
         <f>TRIM(MID(SUBSTITUTE($F186, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ186)-1)*100+1, 100))</f>
         <v/>
@@ -31535,8 +31535,8 @@
         <v>45843</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="143"/>
-      <c r="D187" s="141"/>
+      <c r="C187" s="132"/>
+      <c r="D187" s="130"/>
       <c r="AJ187" t="str">
         <f>TRIM(MID(SUBSTITUTE($F187, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ187)-1)*100+1, 100))</f>
         <v/>
@@ -31611,8 +31611,8 @@
         <v>45844</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="143"/>
-      <c r="D188" s="141"/>
+      <c r="C188" s="132"/>
+      <c r="D188" s="130"/>
       <c r="AJ188" t="str">
         <f>TRIM(MID(SUBSTITUTE($F188, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ188)-1)*100+1, 100))</f>
         <v/>
@@ -31687,8 +31687,8 @@
         <v>45845</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="143"/>
-      <c r="D189" s="141"/>
+      <c r="C189" s="132"/>
+      <c r="D189" s="130"/>
       <c r="AJ189" t="str">
         <f>TRIM(MID(SUBSTITUTE($F189, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ189)-1)*100+1, 100))</f>
         <v/>
@@ -31763,8 +31763,8 @@
         <v>45846</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="143"/>
-      <c r="D190" s="141"/>
+      <c r="C190" s="132"/>
+      <c r="D190" s="130"/>
       <c r="AJ190" t="str">
         <f>TRIM(MID(SUBSTITUTE($F190, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ190)-1)*100+1, 100))</f>
         <v/>
@@ -31839,8 +31839,8 @@
         <v>45847</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="143"/>
-      <c r="D191" s="141"/>
+      <c r="C191" s="132"/>
+      <c r="D191" s="130"/>
       <c r="AJ191" t="str">
         <f>TRIM(MID(SUBSTITUTE($F191, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ191)-1)*100+1, 100))</f>
         <v/>
@@ -31915,8 +31915,8 @@
         <v>45848</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="143"/>
-      <c r="D192" s="141"/>
+      <c r="C192" s="132"/>
+      <c r="D192" s="130"/>
       <c r="AJ192" t="str">
         <f>TRIM(MID(SUBSTITUTE($F192, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ192)-1)*100+1, 100))</f>
         <v/>
@@ -31991,8 +31991,8 @@
         <v>45849</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="143"/>
-      <c r="D193" s="141"/>
+      <c r="C193" s="132"/>
+      <c r="D193" s="130"/>
       <c r="AJ193" t="str">
         <f>TRIM(MID(SUBSTITUTE($F193, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ193)-1)*100+1, 100))</f>
         <v/>
@@ -32067,8 +32067,8 @@
         <v>45850</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="143"/>
-      <c r="D194" s="141"/>
+      <c r="C194" s="132"/>
+      <c r="D194" s="130"/>
       <c r="AJ194" t="str">
         <f>TRIM(MID(SUBSTITUTE($F194, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ194)-1)*100+1, 100))</f>
         <v/>
@@ -32143,8 +32143,8 @@
         <v>45851</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="143"/>
-      <c r="D195" s="141"/>
+      <c r="C195" s="132"/>
+      <c r="D195" s="130"/>
       <c r="AJ195" t="str">
         <f>TRIM(MID(SUBSTITUTE($F195, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ195)-1)*100+1, 100))</f>
         <v/>
@@ -32219,8 +32219,8 @@
         <v>45852</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="143"/>
-      <c r="D196" s="141"/>
+      <c r="C196" s="132"/>
+      <c r="D196" s="130"/>
       <c r="AJ196" t="str">
         <f>TRIM(MID(SUBSTITUTE($F196, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ196)-1)*100+1, 100))</f>
         <v/>
@@ -32295,8 +32295,8 @@
         <v>45853</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="143"/>
-      <c r="D197" s="141"/>
+      <c r="C197" s="132"/>
+      <c r="D197" s="130"/>
       <c r="AJ197" t="str">
         <f>TRIM(MID(SUBSTITUTE($F197, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ197)-1)*100+1, 100))</f>
         <v/>
@@ -32371,8 +32371,8 @@
         <v>45854</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="143"/>
-      <c r="D198" s="141"/>
+      <c r="C198" s="132"/>
+      <c r="D198" s="130"/>
       <c r="AJ198" t="str">
         <f>TRIM(MID(SUBSTITUTE($F198, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ198)-1)*100+1, 100))</f>
         <v/>
@@ -32447,8 +32447,8 @@
         <v>45855</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="143"/>
-      <c r="D199" s="141"/>
+      <c r="C199" s="132"/>
+      <c r="D199" s="130"/>
       <c r="AJ199" t="str">
         <f>TRIM(MID(SUBSTITUTE($F199, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ199)-1)*100+1, 100))</f>
         <v/>
@@ -32523,8 +32523,8 @@
         <v>45856</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="143"/>
-      <c r="D200" s="141"/>
+      <c r="C200" s="132"/>
+      <c r="D200" s="130"/>
       <c r="AJ200" t="str">
         <f>TRIM(MID(SUBSTITUTE($F200, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ200)-1)*100+1, 100))</f>
         <v/>
@@ -32599,8 +32599,8 @@
         <v>45857</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="143"/>
-      <c r="D201" s="141"/>
+      <c r="C201" s="132"/>
+      <c r="D201" s="130"/>
       <c r="AJ201" t="str">
         <f>TRIM(MID(SUBSTITUTE($F201, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ201)-1)*100+1, 100))</f>
         <v/>
@@ -32675,8 +32675,8 @@
         <v>45858</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="143"/>
-      <c r="D202" s="141"/>
+      <c r="C202" s="132"/>
+      <c r="D202" s="130"/>
       <c r="AJ202" t="str">
         <f>TRIM(MID(SUBSTITUTE($F202, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ202)-1)*100+1, 100))</f>
         <v/>
@@ -32751,8 +32751,8 @@
         <v>45859</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="143"/>
-      <c r="D203" s="141"/>
+      <c r="C203" s="132"/>
+      <c r="D203" s="130"/>
       <c r="AJ203" t="str">
         <f>TRIM(MID(SUBSTITUTE($F203, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ203)-1)*100+1, 100))</f>
         <v/>
@@ -32827,8 +32827,8 @@
         <v>45860</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="143"/>
-      <c r="D204" s="141"/>
+      <c r="C204" s="132"/>
+      <c r="D204" s="130"/>
       <c r="AJ204" t="str">
         <f>TRIM(MID(SUBSTITUTE($F204, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ204)-1)*100+1, 100))</f>
         <v/>
@@ -32903,8 +32903,8 @@
         <v>45861</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="143"/>
-      <c r="D205" s="141"/>
+      <c r="C205" s="132"/>
+      <c r="D205" s="130"/>
       <c r="AJ205" t="str">
         <f>TRIM(MID(SUBSTITUTE($F205, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ205)-1)*100+1, 100))</f>
         <v/>
@@ -32979,8 +32979,8 @@
         <v>45862</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="143"/>
-      <c r="D206" s="141"/>
+      <c r="C206" s="132"/>
+      <c r="D206" s="130"/>
       <c r="AJ206" t="str">
         <f>TRIM(MID(SUBSTITUTE($F206, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ206)-1)*100+1, 100))</f>
         <v/>
@@ -33055,8 +33055,8 @@
         <v>45863</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="143"/>
-      <c r="D207" s="141"/>
+      <c r="C207" s="132"/>
+      <c r="D207" s="130"/>
       <c r="AJ207" t="str">
         <f>TRIM(MID(SUBSTITUTE($F207, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ207)-1)*100+1, 100))</f>
         <v/>
@@ -33131,8 +33131,8 @@
         <v>45864</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="143"/>
-      <c r="D208" s="141"/>
+      <c r="C208" s="132"/>
+      <c r="D208" s="130"/>
       <c r="AJ208" t="str">
         <f>TRIM(MID(SUBSTITUTE($F208, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ208)-1)*100+1, 100))</f>
         <v/>
@@ -33207,8 +33207,8 @@
         <v>45865</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="143"/>
-      <c r="D209" s="141"/>
+      <c r="C209" s="132"/>
+      <c r="D209" s="130"/>
       <c r="AJ209" t="str">
         <f>TRIM(MID(SUBSTITUTE($F209, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ209)-1)*100+1, 100))</f>
         <v/>
@@ -33283,8 +33283,8 @@
         <v>45866</v>
       </c>
       <c r="B210" s="2"/>
-      <c r="C210" s="143"/>
-      <c r="D210" s="141"/>
+      <c r="C210" s="132"/>
+      <c r="D210" s="130"/>
       <c r="AJ210" t="str">
         <f>TRIM(MID(SUBSTITUTE($F210, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ210)-1)*100+1, 100))</f>
         <v/>
@@ -33359,8 +33359,8 @@
         <v>45867</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="143"/>
-      <c r="D211" s="141"/>
+      <c r="C211" s="132"/>
+      <c r="D211" s="130"/>
       <c r="AJ211" t="str">
         <f>TRIM(MID(SUBSTITUTE($F211, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ211)-1)*100+1, 100))</f>
         <v/>
@@ -33435,8 +33435,8 @@
         <v>45868</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="143"/>
-      <c r="D212" s="141"/>
+      <c r="C212" s="132"/>
+      <c r="D212" s="130"/>
       <c r="AJ212" t="str">
         <f>TRIM(MID(SUBSTITUTE($F212, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ212)-1)*100+1, 100))</f>
         <v/>
@@ -33511,8 +33511,8 @@
         <v>45869</v>
       </c>
       <c r="B213" s="2"/>
-      <c r="C213" s="143"/>
-      <c r="D213" s="141"/>
+      <c r="C213" s="132"/>
+      <c r="D213" s="130"/>
       <c r="AJ213" t="str">
         <f>TRIM(MID(SUBSTITUTE($F213, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ213)-1)*100+1, 100))</f>
         <v/>
@@ -33587,8 +33587,8 @@
         <v>45870</v>
       </c>
       <c r="B214" s="2"/>
-      <c r="C214" s="143"/>
-      <c r="D214" s="141"/>
+      <c r="C214" s="132"/>
+      <c r="D214" s="130"/>
       <c r="AJ214" t="str">
         <f>TRIM(MID(SUBSTITUTE($F214, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ214)-1)*100+1, 100))</f>
         <v/>
@@ -33663,8 +33663,8 @@
         <v>45871</v>
       </c>
       <c r="B215" s="2"/>
-      <c r="C215" s="143"/>
-      <c r="D215" s="141"/>
+      <c r="C215" s="132"/>
+      <c r="D215" s="130"/>
       <c r="AJ215" t="str">
         <f>TRIM(MID(SUBSTITUTE($F215, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ215)-1)*100+1, 100))</f>
         <v/>
@@ -33739,8 +33739,8 @@
         <v>45872</v>
       </c>
       <c r="B216" s="2"/>
-      <c r="C216" s="143"/>
-      <c r="D216" s="141"/>
+      <c r="C216" s="132"/>
+      <c r="D216" s="130"/>
       <c r="AJ216" t="str">
         <f>TRIM(MID(SUBSTITUTE($F216, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ216)-1)*100+1, 100))</f>
         <v/>
@@ -33815,8 +33815,8 @@
         <v>45873</v>
       </c>
       <c r="B217" s="2"/>
-      <c r="C217" s="143"/>
-      <c r="D217" s="141"/>
+      <c r="C217" s="132"/>
+      <c r="D217" s="130"/>
       <c r="AJ217" t="str">
         <f>TRIM(MID(SUBSTITUTE($F217, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ217)-1)*100+1, 100))</f>
         <v/>
@@ -33891,8 +33891,8 @@
         <v>45874</v>
       </c>
       <c r="B218" s="2"/>
-      <c r="C218" s="143"/>
-      <c r="D218" s="141"/>
+      <c r="C218" s="132"/>
+      <c r="D218" s="130"/>
       <c r="AJ218" t="str">
         <f>TRIM(MID(SUBSTITUTE($F218, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ218)-1)*100+1, 100))</f>
         <v/>
@@ -33967,8 +33967,8 @@
         <v>45875</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="143"/>
-      <c r="D219" s="141"/>
+      <c r="C219" s="132"/>
+      <c r="D219" s="130"/>
       <c r="AJ219" t="str">
         <f>TRIM(MID(SUBSTITUTE($F219, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ219)-1)*100+1, 100))</f>
         <v/>
@@ -34043,8 +34043,8 @@
         <v>45876</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="143"/>
-      <c r="D220" s="141"/>
+      <c r="C220" s="132"/>
+      <c r="D220" s="130"/>
       <c r="AJ220" t="str">
         <f>TRIM(MID(SUBSTITUTE($F220, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ220)-1)*100+1, 100))</f>
         <v/>
@@ -34119,8 +34119,8 @@
         <v>45877</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="143"/>
-      <c r="D221" s="141"/>
+      <c r="C221" s="132"/>
+      <c r="D221" s="130"/>
       <c r="AJ221" t="str">
         <f>TRIM(MID(SUBSTITUTE($F221, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ221)-1)*100+1, 100))</f>
         <v/>
@@ -34195,8 +34195,8 @@
         <v>45878</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="143"/>
-      <c r="D222" s="141"/>
+      <c r="C222" s="132"/>
+      <c r="D222" s="130"/>
       <c r="AJ222" t="str">
         <f>TRIM(MID(SUBSTITUTE($F222, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ222)-1)*100+1, 100))</f>
         <v/>
@@ -34271,8 +34271,8 @@
         <v>45879</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="143"/>
-      <c r="D223" s="141"/>
+      <c r="C223" s="132"/>
+      <c r="D223" s="130"/>
       <c r="AJ223" t="str">
         <f>TRIM(MID(SUBSTITUTE($F223, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ223)-1)*100+1, 100))</f>
         <v/>
@@ -34347,8 +34347,8 @@
         <v>45880</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="143"/>
-      <c r="D224" s="141"/>
+      <c r="C224" s="132"/>
+      <c r="D224" s="130"/>
       <c r="AJ224" t="str">
         <f>TRIM(MID(SUBSTITUTE($F224, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ224)-1)*100+1, 100))</f>
         <v/>
@@ -34423,8 +34423,8 @@
         <v>45881</v>
       </c>
       <c r="B225" s="2"/>
-      <c r="C225" s="143"/>
-      <c r="D225" s="141"/>
+      <c r="C225" s="132"/>
+      <c r="D225" s="130"/>
       <c r="AJ225" t="str">
         <f>TRIM(MID(SUBSTITUTE($F225, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ225)-1)*100+1, 100))</f>
         <v/>
@@ -34499,8 +34499,8 @@
         <v>45882</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="143"/>
-      <c r="D226" s="141"/>
+      <c r="C226" s="132"/>
+      <c r="D226" s="130"/>
       <c r="AJ226" t="str">
         <f>TRIM(MID(SUBSTITUTE($F226, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ226)-1)*100+1, 100))</f>
         <v/>
@@ -34575,8 +34575,8 @@
         <v>45883</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="143"/>
-      <c r="D227" s="141"/>
+      <c r="C227" s="132"/>
+      <c r="D227" s="130"/>
       <c r="AJ227" t="str">
         <f>TRIM(MID(SUBSTITUTE($F227, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ227)-1)*100+1, 100))</f>
         <v/>
@@ -34651,8 +34651,8 @@
         <v>45884</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="143"/>
-      <c r="D228" s="141"/>
+      <c r="C228" s="132"/>
+      <c r="D228" s="130"/>
       <c r="AJ228" t="str">
         <f>TRIM(MID(SUBSTITUTE($F228, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ228)-1)*100+1, 100))</f>
         <v/>
@@ -34727,8 +34727,8 @@
         <v>45885</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="143"/>
-      <c r="D229" s="141"/>
+      <c r="C229" s="132"/>
+      <c r="D229" s="130"/>
       <c r="AJ229" t="str">
         <f>TRIM(MID(SUBSTITUTE($F229, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ229)-1)*100+1, 100))</f>
         <v/>
@@ -34803,8 +34803,8 @@
         <v>45886</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="143"/>
-      <c r="D230" s="141"/>
+      <c r="C230" s="132"/>
+      <c r="D230" s="130"/>
       <c r="AJ230" t="str">
         <f>TRIM(MID(SUBSTITUTE($F230, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ230)-1)*100+1, 100))</f>
         <v/>
@@ -34879,8 +34879,8 @@
         <v>45887</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="143"/>
-      <c r="D231" s="141"/>
+      <c r="C231" s="132"/>
+      <c r="D231" s="130"/>
       <c r="AJ231" t="str">
         <f>TRIM(MID(SUBSTITUTE($F231, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ231)-1)*100+1, 100))</f>
         <v/>
@@ -34955,8 +34955,8 @@
         <v>45888</v>
       </c>
       <c r="B232" s="2"/>
-      <c r="C232" s="143"/>
-      <c r="D232" s="141"/>
+      <c r="C232" s="132"/>
+      <c r="D232" s="130"/>
       <c r="AJ232" t="str">
         <f>TRIM(MID(SUBSTITUTE($F232, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ232)-1)*100+1, 100))</f>
         <v/>
@@ -35031,8 +35031,8 @@
         <v>45889</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="143"/>
-      <c r="D233" s="141"/>
+      <c r="C233" s="132"/>
+      <c r="D233" s="130"/>
       <c r="AJ233" t="str">
         <f>TRIM(MID(SUBSTITUTE($F233, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ233)-1)*100+1, 100))</f>
         <v/>
@@ -35107,8 +35107,8 @@
         <v>45890</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="143"/>
-      <c r="D234" s="141"/>
+      <c r="C234" s="132"/>
+      <c r="D234" s="130"/>
       <c r="AJ234" t="str">
         <f>TRIM(MID(SUBSTITUTE($F234, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ234)-1)*100+1, 100))</f>
         <v/>
@@ -35183,8 +35183,8 @@
         <v>45891</v>
       </c>
       <c r="B235" s="2"/>
-      <c r="C235" s="143"/>
-      <c r="D235" s="141"/>
+      <c r="C235" s="132"/>
+      <c r="D235" s="130"/>
       <c r="AJ235" t="str">
         <f>TRIM(MID(SUBSTITUTE($F235, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ235)-1)*100+1, 100))</f>
         <v/>
@@ -35259,8 +35259,8 @@
         <v>45892</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="143"/>
-      <c r="D236" s="141"/>
+      <c r="C236" s="132"/>
+      <c r="D236" s="130"/>
       <c r="AJ236" t="str">
         <f>TRIM(MID(SUBSTITUTE($F236, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ236)-1)*100+1, 100))</f>
         <v/>
@@ -35335,8 +35335,8 @@
         <v>45893</v>
       </c>
       <c r="B237" s="2"/>
-      <c r="C237" s="143"/>
-      <c r="D237" s="141"/>
+      <c r="C237" s="132"/>
+      <c r="D237" s="130"/>
       <c r="AJ237" t="str">
         <f>TRIM(MID(SUBSTITUTE($F237, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ237)-1)*100+1, 100))</f>
         <v/>
@@ -35411,8 +35411,8 @@
         <v>45894</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="143"/>
-      <c r="D238" s="141"/>
+      <c r="C238" s="132"/>
+      <c r="D238" s="130"/>
       <c r="AJ238" t="str">
         <f>TRIM(MID(SUBSTITUTE($F238, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ238)-1)*100+1, 100))</f>
         <v/>
@@ -35487,8 +35487,8 @@
         <v>45895</v>
       </c>
       <c r="B239" s="2"/>
-      <c r="C239" s="143"/>
-      <c r="D239" s="141"/>
+      <c r="C239" s="132"/>
+      <c r="D239" s="130"/>
       <c r="AJ239" t="str">
         <f>TRIM(MID(SUBSTITUTE($F239, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ239)-1)*100+1, 100))</f>
         <v/>
@@ -35563,8 +35563,8 @@
         <v>45896</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="143"/>
-      <c r="D240" s="141"/>
+      <c r="C240" s="132"/>
+      <c r="D240" s="130"/>
       <c r="AJ240" t="str">
         <f>TRIM(MID(SUBSTITUTE($F240, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ240)-1)*100+1, 100))</f>
         <v/>
@@ -35639,8 +35639,8 @@
         <v>45897</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="143"/>
-      <c r="D241" s="141"/>
+      <c r="C241" s="132"/>
+      <c r="D241" s="130"/>
       <c r="AJ241" t="str">
         <f>TRIM(MID(SUBSTITUTE($F241, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ241)-1)*100+1, 100))</f>
         <v/>
@@ -35715,8 +35715,8 @@
         <v>45898</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="143"/>
-      <c r="D242" s="141"/>
+      <c r="C242" s="132"/>
+      <c r="D242" s="130"/>
       <c r="AJ242" t="str">
         <f>TRIM(MID(SUBSTITUTE($F242, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ242)-1)*100+1, 100))</f>
         <v/>
@@ -35791,8 +35791,8 @@
         <v>45899</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="143"/>
-      <c r="D243" s="141"/>
+      <c r="C243" s="132"/>
+      <c r="D243" s="130"/>
       <c r="AJ243" t="str">
         <f>TRIM(MID(SUBSTITUTE($F243, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ243)-1)*100+1, 100))</f>
         <v/>
@@ -35867,8 +35867,8 @@
         <v>45900</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="143"/>
-      <c r="D244" s="141"/>
+      <c r="C244" s="132"/>
+      <c r="D244" s="130"/>
       <c r="AJ244" t="str">
         <f>TRIM(MID(SUBSTITUTE($F244, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ244)-1)*100+1, 100))</f>
         <v/>
@@ -35943,8 +35943,8 @@
         <v>45901</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="143"/>
-      <c r="D245" s="141"/>
+      <c r="C245" s="132"/>
+      <c r="D245" s="130"/>
       <c r="AJ245" t="str">
         <f>TRIM(MID(SUBSTITUTE($F245, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ245)-1)*100+1, 100))</f>
         <v/>
@@ -36019,8 +36019,8 @@
         <v>45902</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="143"/>
-      <c r="D246" s="141"/>
+      <c r="C246" s="132"/>
+      <c r="D246" s="130"/>
       <c r="AJ246" t="str">
         <f>TRIM(MID(SUBSTITUTE($F246, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ246)-1)*100+1, 100))</f>
         <v/>
@@ -36095,8 +36095,8 @@
         <v>45903</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="143"/>
-      <c r="D247" s="141"/>
+      <c r="C247" s="132"/>
+      <c r="D247" s="130"/>
       <c r="AJ247" t="str">
         <f>TRIM(MID(SUBSTITUTE($F247, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ247)-1)*100+1, 100))</f>
         <v/>
@@ -36171,8 +36171,8 @@
         <v>45904</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="143"/>
-      <c r="D248" s="141"/>
+      <c r="C248" s="132"/>
+      <c r="D248" s="130"/>
       <c r="AJ248" t="str">
         <f>TRIM(MID(SUBSTITUTE($F248, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ248)-1)*100+1, 100))</f>
         <v/>
@@ -36247,8 +36247,8 @@
         <v>45905</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="143"/>
-      <c r="D249" s="141"/>
+      <c r="C249" s="132"/>
+      <c r="D249" s="130"/>
       <c r="AJ249" t="str">
         <f>TRIM(MID(SUBSTITUTE($F249, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ249)-1)*100+1, 100))</f>
         <v/>
@@ -36323,8 +36323,8 @@
         <v>45906</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="143"/>
-      <c r="D250" s="141"/>
+      <c r="C250" s="132"/>
+      <c r="D250" s="130"/>
       <c r="AJ250" t="str">
         <f>TRIM(MID(SUBSTITUTE($F250, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ250)-1)*100+1, 100))</f>
         <v/>
@@ -36399,8 +36399,8 @@
         <v>45907</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="143"/>
-      <c r="D251" s="141"/>
+      <c r="C251" s="132"/>
+      <c r="D251" s="130"/>
       <c r="AJ251" t="str">
         <f>TRIM(MID(SUBSTITUTE($F251, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ251)-1)*100+1, 100))</f>
         <v/>
@@ -36475,8 +36475,8 @@
         <v>45908</v>
       </c>
       <c r="B252" s="2"/>
-      <c r="C252" s="143"/>
-      <c r="D252" s="141"/>
+      <c r="C252" s="132"/>
+      <c r="D252" s="130"/>
       <c r="AJ252" t="str">
         <f>TRIM(MID(SUBSTITUTE($F252, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ252)-1)*100+1, 100))</f>
         <v/>
@@ -36551,8 +36551,8 @@
         <v>45909</v>
       </c>
       <c r="B253" s="2"/>
-      <c r="C253" s="143"/>
-      <c r="D253" s="141"/>
+      <c r="C253" s="132"/>
+      <c r="D253" s="130"/>
       <c r="AJ253" t="str">
         <f>TRIM(MID(SUBSTITUTE($F253, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ253)-1)*100+1, 100))</f>
         <v/>
@@ -36627,8 +36627,8 @@
         <v>45910</v>
       </c>
       <c r="B254" s="2"/>
-      <c r="C254" s="143"/>
-      <c r="D254" s="141"/>
+      <c r="C254" s="132"/>
+      <c r="D254" s="130"/>
       <c r="AJ254" t="str">
         <f>TRIM(MID(SUBSTITUTE($F254, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ254)-1)*100+1, 100))</f>
         <v/>
@@ -36703,8 +36703,8 @@
         <v>45911</v>
       </c>
       <c r="B255" s="2"/>
-      <c r="C255" s="143"/>
-      <c r="D255" s="141"/>
+      <c r="C255" s="132"/>
+      <c r="D255" s="130"/>
       <c r="AJ255" t="str">
         <f>TRIM(MID(SUBSTITUTE($F255, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ255)-1)*100+1, 100))</f>
         <v/>
@@ -36779,8 +36779,8 @@
         <v>45912</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="143"/>
-      <c r="D256" s="141"/>
+      <c r="C256" s="132"/>
+      <c r="D256" s="130"/>
       <c r="AJ256" t="str">
         <f>TRIM(MID(SUBSTITUTE($F256, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ256)-1)*100+1, 100))</f>
         <v/>
@@ -36855,8 +36855,8 @@
         <v>45913</v>
       </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="143"/>
-      <c r="D257" s="141"/>
+      <c r="C257" s="132"/>
+      <c r="D257" s="130"/>
       <c r="AJ257" t="str">
         <f>TRIM(MID(SUBSTITUTE($F257, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ257)-1)*100+1, 100))</f>
         <v/>
@@ -36931,8 +36931,8 @@
         <v>45914</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="143"/>
-      <c r="D258" s="141"/>
+      <c r="C258" s="132"/>
+      <c r="D258" s="130"/>
       <c r="AJ258" t="str">
         <f>TRIM(MID(SUBSTITUTE($F258, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ258)-1)*100+1, 100))</f>
         <v/>
@@ -37007,8 +37007,8 @@
         <v>45915</v>
       </c>
       <c r="B259" s="2"/>
-      <c r="C259" s="143"/>
-      <c r="D259" s="141"/>
+      <c r="C259" s="132"/>
+      <c r="D259" s="130"/>
       <c r="AJ259" t="str">
         <f>TRIM(MID(SUBSTITUTE($F259, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ259)-1)*100+1, 100))</f>
         <v/>
@@ -37083,8 +37083,8 @@
         <v>45916</v>
       </c>
       <c r="B260" s="2"/>
-      <c r="C260" s="143"/>
-      <c r="D260" s="141"/>
+      <c r="C260" s="132"/>
+      <c r="D260" s="130"/>
       <c r="AJ260" t="str">
         <f>TRIM(MID(SUBSTITUTE($F260, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ260)-1)*100+1, 100))</f>
         <v/>
@@ -37159,8 +37159,8 @@
         <v>45917</v>
       </c>
       <c r="B261" s="2"/>
-      <c r="C261" s="143"/>
-      <c r="D261" s="141"/>
+      <c r="C261" s="132"/>
+      <c r="D261" s="130"/>
       <c r="AJ261" t="str">
         <f>TRIM(MID(SUBSTITUTE($F261, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ261)-1)*100+1, 100))</f>
         <v/>
@@ -37235,8 +37235,8 @@
         <v>45918</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="143"/>
-      <c r="D262" s="141"/>
+      <c r="C262" s="132"/>
+      <c r="D262" s="130"/>
       <c r="AJ262" t="str">
         <f>TRIM(MID(SUBSTITUTE($F262, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ262)-1)*100+1, 100))</f>
         <v/>
@@ -37311,8 +37311,8 @@
         <v>45919</v>
       </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="143"/>
-      <c r="D263" s="141"/>
+      <c r="C263" s="132"/>
+      <c r="D263" s="130"/>
       <c r="AJ263" t="str">
         <f>TRIM(MID(SUBSTITUTE($F263, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ263)-1)*100+1, 100))</f>
         <v/>
@@ -37387,8 +37387,8 @@
         <v>45920</v>
       </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="143"/>
-      <c r="D264" s="141"/>
+      <c r="C264" s="132"/>
+      <c r="D264" s="130"/>
       <c r="AJ264" t="str">
         <f>TRIM(MID(SUBSTITUTE($F264, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ264)-1)*100+1, 100))</f>
         <v/>
@@ -37463,8 +37463,8 @@
         <v>45921</v>
       </c>
       <c r="B265" s="2"/>
-      <c r="C265" s="143"/>
-      <c r="D265" s="141"/>
+      <c r="C265" s="132"/>
+      <c r="D265" s="130"/>
       <c r="AJ265" t="str">
         <f>TRIM(MID(SUBSTITUTE($F265, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ265)-1)*100+1, 100))</f>
         <v/>
@@ -37539,8 +37539,8 @@
         <v>45922</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="143"/>
-      <c r="D266" s="141"/>
+      <c r="C266" s="132"/>
+      <c r="D266" s="130"/>
       <c r="AJ266" t="str">
         <f>TRIM(MID(SUBSTITUTE($F266, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ266)-1)*100+1, 100))</f>
         <v/>
@@ -37615,8 +37615,8 @@
         <v>45923</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="143"/>
-      <c r="D267" s="141"/>
+      <c r="C267" s="132"/>
+      <c r="D267" s="130"/>
       <c r="AJ267" t="str">
         <f>TRIM(MID(SUBSTITUTE($F267, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ267)-1)*100+1, 100))</f>
         <v/>
@@ -37691,8 +37691,8 @@
         <v>45924</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="143"/>
-      <c r="D268" s="141"/>
+      <c r="C268" s="132"/>
+      <c r="D268" s="130"/>
       <c r="AJ268" t="str">
         <f>TRIM(MID(SUBSTITUTE($F268, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ268)-1)*100+1, 100))</f>
         <v/>
@@ -37767,8 +37767,8 @@
         <v>45925</v>
       </c>
       <c r="B269" s="2"/>
-      <c r="C269" s="143"/>
-      <c r="D269" s="141"/>
+      <c r="C269" s="132"/>
+      <c r="D269" s="130"/>
       <c r="AJ269" t="str">
         <f>TRIM(MID(SUBSTITUTE($F269, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ269)-1)*100+1, 100))</f>
         <v/>
@@ -37843,8 +37843,8 @@
         <v>45926</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270" s="143"/>
-      <c r="D270" s="141"/>
+      <c r="C270" s="132"/>
+      <c r="D270" s="130"/>
       <c r="AJ270" t="str">
         <f>TRIM(MID(SUBSTITUTE($F270, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ270)-1)*100+1, 100))</f>
         <v/>
@@ -37919,8 +37919,8 @@
         <v>45927</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="143"/>
-      <c r="D271" s="141"/>
+      <c r="C271" s="132"/>
+      <c r="D271" s="130"/>
       <c r="AJ271" t="str">
         <f>TRIM(MID(SUBSTITUTE($F271, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ271)-1)*100+1, 100))</f>
         <v/>
@@ -37995,8 +37995,8 @@
         <v>45928</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="143"/>
-      <c r="D272" s="141"/>
+      <c r="C272" s="132"/>
+      <c r="D272" s="130"/>
       <c r="AJ272" t="str">
         <f>TRIM(MID(SUBSTITUTE($F272, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ272)-1)*100+1, 100))</f>
         <v/>
@@ -38071,8 +38071,8 @@
         <v>45929</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="143"/>
-      <c r="D273" s="141"/>
+      <c r="C273" s="132"/>
+      <c r="D273" s="130"/>
       <c r="AJ273" t="str">
         <f>TRIM(MID(SUBSTITUTE($F273, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ273)-1)*100+1, 100))</f>
         <v/>
@@ -38147,8 +38147,8 @@
         <v>45930</v>
       </c>
       <c r="B274" s="2"/>
-      <c r="C274" s="143"/>
-      <c r="D274" s="141"/>
+      <c r="C274" s="132"/>
+      <c r="D274" s="130"/>
       <c r="AJ274" t="str">
         <f>TRIM(MID(SUBSTITUTE($F274, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ274)-1)*100+1, 100))</f>
         <v/>
@@ -38223,8 +38223,8 @@
         <v>45931</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="143"/>
-      <c r="D275" s="141"/>
+      <c r="C275" s="132"/>
+      <c r="D275" s="130"/>
       <c r="AJ275" t="str">
         <f>TRIM(MID(SUBSTITUTE($F275, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ275)-1)*100+1, 100))</f>
         <v/>
@@ -38299,8 +38299,8 @@
         <v>45932</v>
       </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="143"/>
-      <c r="D276" s="141"/>
+      <c r="C276" s="132"/>
+      <c r="D276" s="130"/>
       <c r="AJ276" t="str">
         <f>TRIM(MID(SUBSTITUTE($F276, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ276)-1)*100+1, 100))</f>
         <v/>
@@ -38375,8 +38375,8 @@
         <v>45933</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="143"/>
-      <c r="D277" s="141"/>
+      <c r="C277" s="132"/>
+      <c r="D277" s="130"/>
       <c r="AJ277" t="str">
         <f>TRIM(MID(SUBSTITUTE($F277, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ277)-1)*100+1, 100))</f>
         <v/>
@@ -38451,8 +38451,8 @@
         <v>45934</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="143"/>
-      <c r="D278" s="141"/>
+      <c r="C278" s="132"/>
+      <c r="D278" s="130"/>
       <c r="AJ278" t="str">
         <f>TRIM(MID(SUBSTITUTE($F278, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ278)-1)*100+1, 100))</f>
         <v/>
@@ -38527,8 +38527,8 @@
         <v>45935</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="143"/>
-      <c r="D279" s="141"/>
+      <c r="C279" s="132"/>
+      <c r="D279" s="130"/>
       <c r="AJ279" t="str">
         <f>TRIM(MID(SUBSTITUTE($F279, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ279)-1)*100+1, 100))</f>
         <v/>
@@ -38603,8 +38603,8 @@
         <v>45936</v>
       </c>
       <c r="B280" s="2"/>
-      <c r="C280" s="143"/>
-      <c r="D280" s="141"/>
+      <c r="C280" s="132"/>
+      <c r="D280" s="130"/>
       <c r="AJ280" t="str">
         <f>TRIM(MID(SUBSTITUTE($F280, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ280)-1)*100+1, 100))</f>
         <v/>
@@ -38679,8 +38679,8 @@
         <v>45937</v>
       </c>
       <c r="B281" s="2"/>
-      <c r="C281" s="143"/>
-      <c r="D281" s="141"/>
+      <c r="C281" s="132"/>
+      <c r="D281" s="130"/>
       <c r="AJ281" t="str">
         <f>TRIM(MID(SUBSTITUTE($F281, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ281)-1)*100+1, 100))</f>
         <v/>
@@ -38755,8 +38755,8 @@
         <v>45938</v>
       </c>
       <c r="B282" s="2"/>
-      <c r="C282" s="143"/>
-      <c r="D282" s="141"/>
+      <c r="C282" s="132"/>
+      <c r="D282" s="130"/>
       <c r="AJ282" t="str">
         <f>TRIM(MID(SUBSTITUTE($F282, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ282)-1)*100+1, 100))</f>
         <v/>
@@ -38831,8 +38831,8 @@
         <v>45939</v>
       </c>
       <c r="B283" s="2"/>
-      <c r="C283" s="143"/>
-      <c r="D283" s="141"/>
+      <c r="C283" s="132"/>
+      <c r="D283" s="130"/>
       <c r="AJ283" t="str">
         <f>TRIM(MID(SUBSTITUTE($F283, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ283)-1)*100+1, 100))</f>
         <v/>
@@ -38907,8 +38907,8 @@
         <v>45940</v>
       </c>
       <c r="B284" s="2"/>
-      <c r="C284" s="143"/>
-      <c r="D284" s="141"/>
+      <c r="C284" s="132"/>
+      <c r="D284" s="130"/>
       <c r="AJ284" t="str">
         <f>TRIM(MID(SUBSTITUTE($F284, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ284)-1)*100+1, 100))</f>
         <v/>
@@ -38983,8 +38983,8 @@
         <v>45941</v>
       </c>
       <c r="B285" s="2"/>
-      <c r="C285" s="143"/>
-      <c r="D285" s="141"/>
+      <c r="C285" s="132"/>
+      <c r="D285" s="130"/>
       <c r="AJ285" t="str">
         <f>TRIM(MID(SUBSTITUTE($F285, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ285)-1)*100+1, 100))</f>
         <v/>
@@ -39059,8 +39059,8 @@
         <v>45942</v>
       </c>
       <c r="B286" s="2"/>
-      <c r="C286" s="143"/>
-      <c r="D286" s="141"/>
+      <c r="C286" s="132"/>
+      <c r="D286" s="130"/>
       <c r="AJ286" t="str">
         <f>TRIM(MID(SUBSTITUTE($F286, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ286)-1)*100+1, 100))</f>
         <v/>
@@ -39135,8 +39135,8 @@
         <v>45943</v>
       </c>
       <c r="B287" s="2"/>
-      <c r="C287" s="143"/>
-      <c r="D287" s="141"/>
+      <c r="C287" s="132"/>
+      <c r="D287" s="130"/>
       <c r="AJ287" t="str">
         <f>TRIM(MID(SUBSTITUTE($F287, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ287)-1)*100+1, 100))</f>
         <v/>
@@ -39211,8 +39211,8 @@
         <v>45944</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="143"/>
-      <c r="D288" s="141"/>
+      <c r="C288" s="132"/>
+      <c r="D288" s="130"/>
       <c r="AJ288" t="str">
         <f>TRIM(MID(SUBSTITUTE($F288, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ288)-1)*100+1, 100))</f>
         <v/>
@@ -39287,8 +39287,8 @@
         <v>45945</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="143"/>
-      <c r="D289" s="141"/>
+      <c r="C289" s="132"/>
+      <c r="D289" s="130"/>
       <c r="AJ289" t="str">
         <f>TRIM(MID(SUBSTITUTE($F289, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ289)-1)*100+1, 100))</f>
         <v/>
@@ -39363,8 +39363,8 @@
         <v>45946</v>
       </c>
       <c r="B290" s="2"/>
-      <c r="C290" s="143"/>
-      <c r="D290" s="141"/>
+      <c r="C290" s="132"/>
+      <c r="D290" s="130"/>
       <c r="AJ290" t="str">
         <f>TRIM(MID(SUBSTITUTE($F290, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ290)-1)*100+1, 100))</f>
         <v/>
@@ -39439,8 +39439,8 @@
         <v>45947</v>
       </c>
       <c r="B291" s="2"/>
-      <c r="C291" s="143"/>
-      <c r="D291" s="141"/>
+      <c r="C291" s="132"/>
+      <c r="D291" s="130"/>
       <c r="AJ291" t="str">
         <f>TRIM(MID(SUBSTITUTE($F291, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ291)-1)*100+1, 100))</f>
         <v/>
@@ -39515,8 +39515,8 @@
         <v>45948</v>
       </c>
       <c r="B292" s="2"/>
-      <c r="C292" s="143"/>
-      <c r="D292" s="141"/>
+      <c r="C292" s="132"/>
+      <c r="D292" s="130"/>
       <c r="AJ292" t="str">
         <f>TRIM(MID(SUBSTITUTE($F292, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ292)-1)*100+1, 100))</f>
         <v/>
@@ -39591,8 +39591,8 @@
         <v>45949</v>
       </c>
       <c r="B293" s="2"/>
-      <c r="C293" s="143"/>
-      <c r="D293" s="141"/>
+      <c r="C293" s="132"/>
+      <c r="D293" s="130"/>
       <c r="AJ293" t="str">
         <f>TRIM(MID(SUBSTITUTE($F293, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ293)-1)*100+1, 100))</f>
         <v/>
@@ -39667,8 +39667,8 @@
         <v>45950</v>
       </c>
       <c r="B294" s="2"/>
-      <c r="C294" s="143"/>
-      <c r="D294" s="141"/>
+      <c r="C294" s="132"/>
+      <c r="D294" s="130"/>
       <c r="AJ294" t="str">
         <f>TRIM(MID(SUBSTITUTE($F294, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ294)-1)*100+1, 100))</f>
         <v/>
@@ -39743,8 +39743,8 @@
         <v>45951</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="143"/>
-      <c r="D295" s="141"/>
+      <c r="C295" s="132"/>
+      <c r="D295" s="130"/>
       <c r="AJ295" t="str">
         <f>TRIM(MID(SUBSTITUTE($F295, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ295)-1)*100+1, 100))</f>
         <v/>
@@ -39819,8 +39819,8 @@
         <v>45952</v>
       </c>
       <c r="B296" s="2"/>
-      <c r="C296" s="143"/>
-      <c r="D296" s="141"/>
+      <c r="C296" s="132"/>
+      <c r="D296" s="130"/>
       <c r="AJ296" t="str">
         <f>TRIM(MID(SUBSTITUTE($F296, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ296)-1)*100+1, 100))</f>
         <v/>
@@ -39895,8 +39895,8 @@
         <v>45953</v>
       </c>
       <c r="B297" s="2"/>
-      <c r="C297" s="143"/>
-      <c r="D297" s="141"/>
+      <c r="C297" s="132"/>
+      <c r="D297" s="130"/>
       <c r="AJ297" t="str">
         <f>TRIM(MID(SUBSTITUTE($F297, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ297)-1)*100+1, 100))</f>
         <v/>
@@ -39971,8 +39971,8 @@
         <v>45954</v>
       </c>
       <c r="B298" s="2"/>
-      <c r="C298" s="143"/>
-      <c r="D298" s="141"/>
+      <c r="C298" s="132"/>
+      <c r="D298" s="130"/>
       <c r="AJ298" t="str">
         <f>TRIM(MID(SUBSTITUTE($F298, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ298)-1)*100+1, 100))</f>
         <v/>
@@ -40047,8 +40047,8 @@
         <v>45955</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="143"/>
-      <c r="D299" s="141"/>
+      <c r="C299" s="132"/>
+      <c r="D299" s="130"/>
       <c r="AJ299" t="str">
         <f>TRIM(MID(SUBSTITUTE($F299, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ299)-1)*100+1, 100))</f>
         <v/>
@@ -40123,8 +40123,8 @@
         <v>45956</v>
       </c>
       <c r="B300" s="2"/>
-      <c r="C300" s="143"/>
-      <c r="D300" s="141"/>
+      <c r="C300" s="132"/>
+      <c r="D300" s="130"/>
       <c r="AJ300" t="str">
         <f>TRIM(MID(SUBSTITUTE($F300, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ300)-1)*100+1, 100))</f>
         <v/>
@@ -40199,8 +40199,8 @@
         <v>45957</v>
       </c>
       <c r="B301" s="2"/>
-      <c r="C301" s="143"/>
-      <c r="D301" s="141"/>
+      <c r="C301" s="132"/>
+      <c r="D301" s="130"/>
       <c r="AJ301" t="str">
         <f>TRIM(MID(SUBSTITUTE($F301, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ301)-1)*100+1, 100))</f>
         <v/>
@@ -40275,8 +40275,8 @@
         <v>45958</v>
       </c>
       <c r="B302" s="2"/>
-      <c r="C302" s="143"/>
-      <c r="D302" s="141"/>
+      <c r="C302" s="132"/>
+      <c r="D302" s="130"/>
       <c r="AJ302" t="str">
         <f>TRIM(MID(SUBSTITUTE($F302, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ302)-1)*100+1, 100))</f>
         <v/>
@@ -40351,8 +40351,8 @@
         <v>45959</v>
       </c>
       <c r="B303" s="2"/>
-      <c r="C303" s="143"/>
-      <c r="D303" s="141"/>
+      <c r="C303" s="132"/>
+      <c r="D303" s="130"/>
       <c r="AJ303" t="str">
         <f>TRIM(MID(SUBSTITUTE($F303, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ303)-1)*100+1, 100))</f>
         <v/>
@@ -40427,8 +40427,8 @@
         <v>45960</v>
       </c>
       <c r="B304" s="2"/>
-      <c r="C304" s="143"/>
-      <c r="D304" s="141"/>
+      <c r="C304" s="132"/>
+      <c r="D304" s="130"/>
       <c r="AJ304" t="str">
         <f>TRIM(MID(SUBSTITUTE($F304, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ304)-1)*100+1, 100))</f>
         <v/>
@@ -40503,8 +40503,8 @@
         <v>45961</v>
       </c>
       <c r="B305" s="2"/>
-      <c r="C305" s="143"/>
-      <c r="D305" s="141"/>
+      <c r="C305" s="132"/>
+      <c r="D305" s="130"/>
       <c r="AJ305" t="str">
         <f>TRIM(MID(SUBSTITUTE($F305, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ305)-1)*100+1, 100))</f>
         <v/>
@@ -40579,8 +40579,8 @@
         <v>45962</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="143"/>
-      <c r="D306" s="141"/>
+      <c r="C306" s="132"/>
+      <c r="D306" s="130"/>
       <c r="AJ306" t="str">
         <f>TRIM(MID(SUBSTITUTE($F306, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ306)-1)*100+1, 100))</f>
         <v/>
@@ -40655,8 +40655,8 @@
         <v>45963</v>
       </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="143"/>
-      <c r="D307" s="141"/>
+      <c r="C307" s="132"/>
+      <c r="D307" s="130"/>
       <c r="AJ307" t="str">
         <f>TRIM(MID(SUBSTITUTE($F307, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ307)-1)*100+1, 100))</f>
         <v/>
@@ -40731,8 +40731,8 @@
         <v>45964</v>
       </c>
       <c r="B308" s="2"/>
-      <c r="C308" s="143"/>
-      <c r="D308" s="141"/>
+      <c r="C308" s="132"/>
+      <c r="D308" s="130"/>
       <c r="AJ308" t="str">
         <f>TRIM(MID(SUBSTITUTE($F308, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ308)-1)*100+1, 100))</f>
         <v/>
@@ -40807,8 +40807,8 @@
         <v>45965</v>
       </c>
       <c r="B309" s="2"/>
-      <c r="C309" s="143"/>
-      <c r="D309" s="141"/>
+      <c r="C309" s="132"/>
+      <c r="D309" s="130"/>
       <c r="AJ309" t="str">
         <f>TRIM(MID(SUBSTITUTE($F309, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ309)-1)*100+1, 100))</f>
         <v/>
@@ -40883,8 +40883,8 @@
         <v>45966</v>
       </c>
       <c r="B310" s="2"/>
-      <c r="C310" s="143"/>
-      <c r="D310" s="141"/>
+      <c r="C310" s="132"/>
+      <c r="D310" s="130"/>
       <c r="AJ310" t="str">
         <f>TRIM(MID(SUBSTITUTE($F310, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ310)-1)*100+1, 100))</f>
         <v/>
@@ -40959,8 +40959,8 @@
         <v>45967</v>
       </c>
       <c r="B311" s="2"/>
-      <c r="C311" s="143"/>
-      <c r="D311" s="141"/>
+      <c r="C311" s="132"/>
+      <c r="D311" s="130"/>
       <c r="AJ311" t="str">
         <f>TRIM(MID(SUBSTITUTE($F311, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ311)-1)*100+1, 100))</f>
         <v/>
@@ -41035,8 +41035,8 @@
         <v>45968</v>
       </c>
       <c r="B312" s="2"/>
-      <c r="C312" s="143"/>
-      <c r="D312" s="141"/>
+      <c r="C312" s="132"/>
+      <c r="D312" s="130"/>
       <c r="AJ312" t="str">
         <f>TRIM(MID(SUBSTITUTE($F312, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ312)-1)*100+1, 100))</f>
         <v/>
@@ -41111,8 +41111,8 @@
         <v>45969</v>
       </c>
       <c r="B313" s="2"/>
-      <c r="C313" s="143"/>
-      <c r="D313" s="141"/>
+      <c r="C313" s="132"/>
+      <c r="D313" s="130"/>
       <c r="AJ313" t="str">
         <f>TRIM(MID(SUBSTITUTE($F313, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ313)-1)*100+1, 100))</f>
         <v/>
@@ -41187,8 +41187,8 @@
         <v>45970</v>
       </c>
       <c r="B314" s="2"/>
-      <c r="C314" s="143"/>
-      <c r="D314" s="141"/>
+      <c r="C314" s="132"/>
+      <c r="D314" s="130"/>
       <c r="AJ314" t="str">
         <f>TRIM(MID(SUBSTITUTE($F314, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ314)-1)*100+1, 100))</f>
         <v/>
@@ -41263,8 +41263,8 @@
         <v>45971</v>
       </c>
       <c r="B315" s="2"/>
-      <c r="C315" s="143"/>
-      <c r="D315" s="141"/>
+      <c r="C315" s="132"/>
+      <c r="D315" s="130"/>
       <c r="AJ315" t="str">
         <f>TRIM(MID(SUBSTITUTE($F315, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ315)-1)*100+1, 100))</f>
         <v/>
@@ -41339,8 +41339,8 @@
         <v>45972</v>
       </c>
       <c r="B316" s="2"/>
-      <c r="C316" s="143"/>
-      <c r="D316" s="141"/>
+      <c r="C316" s="132"/>
+      <c r="D316" s="130"/>
       <c r="AJ316" t="str">
         <f>TRIM(MID(SUBSTITUTE($F316, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ316)-1)*100+1, 100))</f>
         <v/>
@@ -41415,8 +41415,8 @@
         <v>45973</v>
       </c>
       <c r="B317" s="2"/>
-      <c r="C317" s="143"/>
-      <c r="D317" s="141"/>
+      <c r="C317" s="132"/>
+      <c r="D317" s="130"/>
       <c r="AJ317" t="str">
         <f>TRIM(MID(SUBSTITUTE($F317, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ317)-1)*100+1, 100))</f>
         <v/>
@@ -41491,8 +41491,8 @@
         <v>45974</v>
       </c>
       <c r="B318" s="2"/>
-      <c r="C318" s="143"/>
-      <c r="D318" s="141"/>
+      <c r="C318" s="132"/>
+      <c r="D318" s="130"/>
       <c r="AJ318" t="str">
         <f>TRIM(MID(SUBSTITUTE($F318, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ318)-1)*100+1, 100))</f>
         <v/>
@@ -41567,8 +41567,8 @@
         <v>45975</v>
       </c>
       <c r="B319" s="2"/>
-      <c r="C319" s="143"/>
-      <c r="D319" s="141"/>
+      <c r="C319" s="132"/>
+      <c r="D319" s="130"/>
       <c r="AJ319" t="str">
         <f>TRIM(MID(SUBSTITUTE($F319, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ319)-1)*100+1, 100))</f>
         <v/>
@@ -41643,8 +41643,8 @@
         <v>45976</v>
       </c>
       <c r="B320" s="2"/>
-      <c r="C320" s="143"/>
-      <c r="D320" s="141"/>
+      <c r="C320" s="132"/>
+      <c r="D320" s="130"/>
       <c r="AJ320" t="str">
         <f>TRIM(MID(SUBSTITUTE($F320, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ320)-1)*100+1, 100))</f>
         <v/>
@@ -41719,8 +41719,8 @@
         <v>45977</v>
       </c>
       <c r="B321" s="2"/>
-      <c r="C321" s="143"/>
-      <c r="D321" s="141"/>
+      <c r="C321" s="132"/>
+      <c r="D321" s="130"/>
       <c r="AJ321" t="str">
         <f>TRIM(MID(SUBSTITUTE($F321, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ321)-1)*100+1, 100))</f>
         <v/>
@@ -41795,8 +41795,8 @@
         <v>45978</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="143"/>
-      <c r="D322" s="141"/>
+      <c r="C322" s="132"/>
+      <c r="D322" s="130"/>
       <c r="AJ322" t="str">
         <f>TRIM(MID(SUBSTITUTE($F322, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ322)-1)*100+1, 100))</f>
         <v/>
@@ -41871,8 +41871,8 @@
         <v>45979</v>
       </c>
       <c r="B323" s="2"/>
-      <c r="C323" s="143"/>
-      <c r="D323" s="141"/>
+      <c r="C323" s="132"/>
+      <c r="D323" s="130"/>
       <c r="AJ323" t="str">
         <f>TRIM(MID(SUBSTITUTE($F323, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ323)-1)*100+1, 100))</f>
         <v/>
@@ -41947,8 +41947,8 @@
         <v>45980</v>
       </c>
       <c r="B324" s="2"/>
-      <c r="C324" s="143"/>
-      <c r="D324" s="141"/>
+      <c r="C324" s="132"/>
+      <c r="D324" s="130"/>
       <c r="AJ324" t="str">
         <f>TRIM(MID(SUBSTITUTE($F324, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ324)-1)*100+1, 100))</f>
         <v/>
@@ -42023,8 +42023,8 @@
         <v>45981</v>
       </c>
       <c r="B325" s="2"/>
-      <c r="C325" s="143"/>
-      <c r="D325" s="141"/>
+      <c r="C325" s="132"/>
+      <c r="D325" s="130"/>
       <c r="AJ325" t="str">
         <f>TRIM(MID(SUBSTITUTE($F325, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ325)-1)*100+1, 100))</f>
         <v/>
@@ -42099,8 +42099,8 @@
         <v>45982</v>
       </c>
       <c r="B326" s="2"/>
-      <c r="C326" s="143"/>
-      <c r="D326" s="141"/>
+      <c r="C326" s="132"/>
+      <c r="D326" s="130"/>
       <c r="AJ326" t="str">
         <f>TRIM(MID(SUBSTITUTE($F326, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ326)-1)*100+1, 100))</f>
         <v/>
@@ -42175,8 +42175,8 @@
         <v>45983</v>
       </c>
       <c r="B327" s="2"/>
-      <c r="C327" s="143"/>
-      <c r="D327" s="141"/>
+      <c r="C327" s="132"/>
+      <c r="D327" s="130"/>
       <c r="AJ327" t="str">
         <f>TRIM(MID(SUBSTITUTE($F327, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ327)-1)*100+1, 100))</f>
         <v/>
@@ -42251,8 +42251,8 @@
         <v>45984</v>
       </c>
       <c r="B328" s="2"/>
-      <c r="C328" s="143"/>
-      <c r="D328" s="141"/>
+      <c r="C328" s="132"/>
+      <c r="D328" s="130"/>
       <c r="AJ328" t="str">
         <f>TRIM(MID(SUBSTITUTE($F328, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ328)-1)*100+1, 100))</f>
         <v/>
@@ -42327,8 +42327,8 @@
         <v>45985</v>
       </c>
       <c r="B329" s="2"/>
-      <c r="C329" s="143"/>
-      <c r="D329" s="141"/>
+      <c r="C329" s="132"/>
+      <c r="D329" s="130"/>
       <c r="AJ329" t="str">
         <f>TRIM(MID(SUBSTITUTE($F329, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ329)-1)*100+1, 100))</f>
         <v/>
@@ -42403,8 +42403,8 @@
         <v>45986</v>
       </c>
       <c r="B330" s="2"/>
-      <c r="C330" s="143"/>
-      <c r="D330" s="141"/>
+      <c r="C330" s="132"/>
+      <c r="D330" s="130"/>
       <c r="AJ330" t="str">
         <f>TRIM(MID(SUBSTITUTE($F330, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ330)-1)*100+1, 100))</f>
         <v/>
@@ -42479,8 +42479,8 @@
         <v>45987</v>
       </c>
       <c r="B331" s="2"/>
-      <c r="C331" s="143"/>
-      <c r="D331" s="141"/>
+      <c r="C331" s="132"/>
+      <c r="D331" s="130"/>
       <c r="AJ331" t="str">
         <f>TRIM(MID(SUBSTITUTE($F331, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ331)-1)*100+1, 100))</f>
         <v/>
@@ -42555,8 +42555,8 @@
         <v>45988</v>
       </c>
       <c r="B332" s="2"/>
-      <c r="C332" s="143"/>
-      <c r="D332" s="141"/>
+      <c r="C332" s="132"/>
+      <c r="D332" s="130"/>
       <c r="AJ332" t="str">
         <f>TRIM(MID(SUBSTITUTE($F332, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ332)-1)*100+1, 100))</f>
         <v/>
@@ -42631,8 +42631,8 @@
         <v>45989</v>
       </c>
       <c r="B333" s="2"/>
-      <c r="C333" s="143"/>
-      <c r="D333" s="141"/>
+      <c r="C333" s="132"/>
+      <c r="D333" s="130"/>
       <c r="AJ333" t="str">
         <f>TRIM(MID(SUBSTITUTE($F333, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ333)-1)*100+1, 100))</f>
         <v/>
@@ -42707,8 +42707,8 @@
         <v>45990</v>
       </c>
       <c r="B334" s="2"/>
-      <c r="C334" s="143"/>
-      <c r="D334" s="141"/>
+      <c r="C334" s="132"/>
+      <c r="D334" s="130"/>
       <c r="AJ334" t="str">
         <f>TRIM(MID(SUBSTITUTE($F334, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ334)-1)*100+1, 100))</f>
         <v/>
@@ -42783,8 +42783,8 @@
         <v>45991</v>
       </c>
       <c r="B335" s="2"/>
-      <c r="C335" s="143"/>
-      <c r="D335" s="141"/>
+      <c r="C335" s="132"/>
+      <c r="D335" s="130"/>
       <c r="AJ335" t="str">
         <f>TRIM(MID(SUBSTITUTE($F335, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ335)-1)*100+1, 100))</f>
         <v/>
@@ -42859,8 +42859,8 @@
         <v>45992</v>
       </c>
       <c r="B336" s="2"/>
-      <c r="C336" s="143"/>
-      <c r="D336" s="141"/>
+      <c r="C336" s="132"/>
+      <c r="D336" s="130"/>
       <c r="AJ336" t="str">
         <f>TRIM(MID(SUBSTITUTE($F336, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ336)-1)*100+1, 100))</f>
         <v/>
@@ -42935,8 +42935,8 @@
         <v>45993</v>
       </c>
       <c r="B337" s="2"/>
-      <c r="C337" s="143"/>
-      <c r="D337" s="141"/>
+      <c r="C337" s="132"/>
+      <c r="D337" s="130"/>
       <c r="AJ337" t="str">
         <f>TRIM(MID(SUBSTITUTE($F337, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ337)-1)*100+1, 100))</f>
         <v/>
@@ -43011,8 +43011,8 @@
         <v>45994</v>
       </c>
       <c r="B338" s="2"/>
-      <c r="C338" s="143"/>
-      <c r="D338" s="141"/>
+      <c r="C338" s="132"/>
+      <c r="D338" s="130"/>
       <c r="AJ338" t="str">
         <f>TRIM(MID(SUBSTITUTE($F338, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ338)-1)*100+1, 100))</f>
         <v/>
@@ -43087,8 +43087,8 @@
         <v>45995</v>
       </c>
       <c r="B339" s="2"/>
-      <c r="C339" s="143"/>
-      <c r="D339" s="141"/>
+      <c r="C339" s="132"/>
+      <c r="D339" s="130"/>
       <c r="AJ339" t="str">
         <f>TRIM(MID(SUBSTITUTE($F339, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ339)-1)*100+1, 100))</f>
         <v/>
@@ -43163,8 +43163,8 @@
         <v>45996</v>
       </c>
       <c r="B340" s="2"/>
-      <c r="C340" s="143"/>
-      <c r="D340" s="141"/>
+      <c r="C340" s="132"/>
+      <c r="D340" s="130"/>
       <c r="AJ340" t="str">
         <f>TRIM(MID(SUBSTITUTE($F340, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ340)-1)*100+1, 100))</f>
         <v/>
@@ -43239,8 +43239,8 @@
         <v>45997</v>
       </c>
       <c r="B341" s="2"/>
-      <c r="C341" s="143"/>
-      <c r="D341" s="141"/>
+      <c r="C341" s="132"/>
+      <c r="D341" s="130"/>
       <c r="AJ341" t="str">
         <f>TRIM(MID(SUBSTITUTE($F341, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ341)-1)*100+1, 100))</f>
         <v/>
@@ -43315,8 +43315,8 @@
         <v>45998</v>
       </c>
       <c r="B342" s="2"/>
-      <c r="C342" s="143"/>
-      <c r="D342" s="141"/>
+      <c r="C342" s="132"/>
+      <c r="D342" s="130"/>
       <c r="AJ342" t="str">
         <f>TRIM(MID(SUBSTITUTE($F342, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ342)-1)*100+1, 100))</f>
         <v/>
@@ -43391,8 +43391,8 @@
         <v>45999</v>
       </c>
       <c r="B343" s="2"/>
-      <c r="C343" s="143"/>
-      <c r="D343" s="141"/>
+      <c r="C343" s="132"/>
+      <c r="D343" s="130"/>
       <c r="AJ343" t="str">
         <f>TRIM(MID(SUBSTITUTE($F343, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ343)-1)*100+1, 100))</f>
         <v/>
@@ -43467,8 +43467,8 @@
         <v>46000</v>
       </c>
       <c r="B344" s="2"/>
-      <c r="C344" s="143"/>
-      <c r="D344" s="141"/>
+      <c r="C344" s="132"/>
+      <c r="D344" s="130"/>
       <c r="AJ344" t="str">
         <f>TRIM(MID(SUBSTITUTE($F344, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ344)-1)*100+1, 100))</f>
         <v/>
@@ -43543,8 +43543,8 @@
         <v>46001</v>
       </c>
       <c r="B345" s="2"/>
-      <c r="C345" s="143"/>
-      <c r="D345" s="141"/>
+      <c r="C345" s="132"/>
+      <c r="D345" s="130"/>
       <c r="AJ345" t="str">
         <f>TRIM(MID(SUBSTITUTE($F345, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ345)-1)*100+1, 100))</f>
         <v/>
@@ -43619,8 +43619,8 @@
         <v>46002</v>
       </c>
       <c r="B346" s="2"/>
-      <c r="C346" s="143"/>
-      <c r="D346" s="141"/>
+      <c r="C346" s="132"/>
+      <c r="D346" s="130"/>
       <c r="AJ346" t="str">
         <f>TRIM(MID(SUBSTITUTE($F346, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ346)-1)*100+1, 100))</f>
         <v/>
@@ -43695,8 +43695,8 @@
         <v>46003</v>
       </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="143"/>
-      <c r="D347" s="141"/>
+      <c r="C347" s="132"/>
+      <c r="D347" s="130"/>
       <c r="AJ347" t="str">
         <f>TRIM(MID(SUBSTITUTE($F347, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ347)-1)*100+1, 100))</f>
         <v/>
@@ -43771,8 +43771,8 @@
         <v>46004</v>
       </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="143"/>
-      <c r="D348" s="141"/>
+      <c r="C348" s="132"/>
+      <c r="D348" s="130"/>
       <c r="AJ348" t="str">
         <f>TRIM(MID(SUBSTITUTE($F348, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ348)-1)*100+1, 100))</f>
         <v/>
@@ -43847,8 +43847,8 @@
         <v>46005</v>
       </c>
       <c r="B349" s="2"/>
-      <c r="C349" s="143"/>
-      <c r="D349" s="141"/>
+      <c r="C349" s="132"/>
+      <c r="D349" s="130"/>
       <c r="AJ349" t="str">
         <f>TRIM(MID(SUBSTITUTE($F349, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ349)-1)*100+1, 100))</f>
         <v/>
@@ -43923,8 +43923,8 @@
         <v>46006</v>
       </c>
       <c r="B350" s="2"/>
-      <c r="C350" s="143"/>
-      <c r="D350" s="141"/>
+      <c r="C350" s="132"/>
+      <c r="D350" s="130"/>
       <c r="AJ350" t="str">
         <f>TRIM(MID(SUBSTITUTE($F350, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ350)-1)*100+1, 100))</f>
         <v/>
@@ -43999,8 +43999,8 @@
         <v>46007</v>
       </c>
       <c r="B351" s="2"/>
-      <c r="C351" s="143"/>
-      <c r="D351" s="141"/>
+      <c r="C351" s="132"/>
+      <c r="D351" s="130"/>
       <c r="AJ351" t="str">
         <f>TRIM(MID(SUBSTITUTE($F351, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ351)-1)*100+1, 100))</f>
         <v/>
@@ -44075,8 +44075,8 @@
         <v>46008</v>
       </c>
       <c r="B352" s="2"/>
-      <c r="C352" s="143"/>
-      <c r="D352" s="141"/>
+      <c r="C352" s="132"/>
+      <c r="D352" s="130"/>
       <c r="AJ352" t="str">
         <f>TRIM(MID(SUBSTITUTE($F352, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ352)-1)*100+1, 100))</f>
         <v/>
@@ -44151,8 +44151,8 @@
         <v>46009</v>
       </c>
       <c r="B353" s="2"/>
-      <c r="C353" s="143"/>
-      <c r="D353" s="141"/>
+      <c r="C353" s="132"/>
+      <c r="D353" s="130"/>
       <c r="AJ353" t="str">
         <f>TRIM(MID(SUBSTITUTE($F353, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ353)-1)*100+1, 100))</f>
         <v/>
@@ -44227,8 +44227,8 @@
         <v>46010</v>
       </c>
       <c r="B354" s="2"/>
-      <c r="C354" s="143"/>
-      <c r="D354" s="141"/>
+      <c r="C354" s="132"/>
+      <c r="D354" s="130"/>
       <c r="AJ354" t="str">
         <f>TRIM(MID(SUBSTITUTE($F354, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ354)-1)*100+1, 100))</f>
         <v/>
@@ -44303,8 +44303,8 @@
         <v>46011</v>
       </c>
       <c r="B355" s="2"/>
-      <c r="C355" s="143"/>
-      <c r="D355" s="141"/>
+      <c r="C355" s="132"/>
+      <c r="D355" s="130"/>
       <c r="AJ355" t="str">
         <f>TRIM(MID(SUBSTITUTE($F355, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ355)-1)*100+1, 100))</f>
         <v/>
@@ -44379,8 +44379,8 @@
         <v>46012</v>
       </c>
       <c r="B356" s="2"/>
-      <c r="C356" s="143"/>
-      <c r="D356" s="141"/>
+      <c r="C356" s="132"/>
+      <c r="D356" s="130"/>
       <c r="AJ356" t="str">
         <f>TRIM(MID(SUBSTITUTE($F356, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ356)-1)*100+1, 100))</f>
         <v/>
@@ -44455,8 +44455,8 @@
         <v>46013</v>
       </c>
       <c r="B357" s="2"/>
-      <c r="C357" s="143"/>
-      <c r="D357" s="141"/>
+      <c r="C357" s="132"/>
+      <c r="D357" s="130"/>
       <c r="AJ357" t="str">
         <f>TRIM(MID(SUBSTITUTE($F357, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ357)-1)*100+1, 100))</f>
         <v/>
@@ -44531,8 +44531,8 @@
         <v>46014</v>
       </c>
       <c r="B358" s="2"/>
-      <c r="C358" s="143"/>
-      <c r="D358" s="141"/>
+      <c r="C358" s="132"/>
+      <c r="D358" s="130"/>
       <c r="AJ358" t="str">
         <f>TRIM(MID(SUBSTITUTE($F358, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ358)-1)*100+1, 100))</f>
         <v/>
@@ -44607,8 +44607,8 @@
         <v>46015</v>
       </c>
       <c r="B359" s="2"/>
-      <c r="C359" s="143"/>
-      <c r="D359" s="141"/>
+      <c r="C359" s="132"/>
+      <c r="D359" s="130"/>
       <c r="AJ359" t="str">
         <f>TRIM(MID(SUBSTITUTE($F359, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ359)-1)*100+1, 100))</f>
         <v/>
@@ -44683,8 +44683,8 @@
         <v>46016</v>
       </c>
       <c r="B360" s="2"/>
-      <c r="C360" s="143"/>
-      <c r="D360" s="141"/>
+      <c r="C360" s="132"/>
+      <c r="D360" s="130"/>
       <c r="AJ360" t="str">
         <f>TRIM(MID(SUBSTITUTE($F360, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ360)-1)*100+1, 100))</f>
         <v/>
@@ -44759,8 +44759,8 @@
         <v>46017</v>
       </c>
       <c r="B361" s="2"/>
-      <c r="C361" s="143"/>
-      <c r="D361" s="141"/>
+      <c r="C361" s="132"/>
+      <c r="D361" s="130"/>
       <c r="AJ361" t="str">
         <f>TRIM(MID(SUBSTITUTE($F361, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ361)-1)*100+1, 100))</f>
         <v/>
@@ -44835,8 +44835,8 @@
         <v>46018</v>
       </c>
       <c r="B362" s="2"/>
-      <c r="C362" s="143"/>
-      <c r="D362" s="141"/>
+      <c r="C362" s="132"/>
+      <c r="D362" s="130"/>
       <c r="AJ362" t="str">
         <f>TRIM(MID(SUBSTITUTE($F362, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ362)-1)*100+1, 100))</f>
         <v/>
@@ -44911,8 +44911,8 @@
         <v>46019</v>
       </c>
       <c r="B363" s="2"/>
-      <c r="C363" s="143"/>
-      <c r="D363" s="141"/>
+      <c r="C363" s="132"/>
+      <c r="D363" s="130"/>
       <c r="AJ363" t="str">
         <f>TRIM(MID(SUBSTITUTE($F363, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ363)-1)*100+1, 100))</f>
         <v/>
@@ -44987,8 +44987,8 @@
         <v>46020</v>
       </c>
       <c r="B364" s="2"/>
-      <c r="C364" s="143"/>
-      <c r="D364" s="141"/>
+      <c r="C364" s="132"/>
+      <c r="D364" s="130"/>
       <c r="AJ364" t="str">
         <f>TRIM(MID(SUBSTITUTE($F364, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ364)-1)*100+1, 100))</f>
         <v/>
@@ -45063,8 +45063,8 @@
         <v>46021</v>
       </c>
       <c r="B365" s="2"/>
-      <c r="C365" s="143"/>
-      <c r="D365" s="141"/>
+      <c r="C365" s="132"/>
+      <c r="D365" s="130"/>
       <c r="AJ365" t="str">
         <f>TRIM(MID(SUBSTITUTE($F365, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ365)-1)*100+1, 100))</f>
         <v/>
@@ -45139,8 +45139,8 @@
         <v>46022</v>
       </c>
       <c r="B366" s="2"/>
-      <c r="C366" s="143"/>
-      <c r="D366" s="141"/>
+      <c r="C366" s="132"/>
+      <c r="D366" s="130"/>
       <c r="AJ366" t="str">
         <f>TRIM(MID(SUBSTITUTE($F366, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ366)-1)*100+1, 100))</f>
         <v/>
@@ -45217,6 +45217,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N5:N16"/>
+    <mergeCell ref="H1:J2"/>
     <mergeCell ref="D2:D366"/>
     <mergeCell ref="C33:C60"/>
     <mergeCell ref="C61:C91"/>
@@ -45230,11 +45235,6 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N5:N16"/>
-    <mergeCell ref="H1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B367">
@@ -45249,8 +45249,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2 C33 C61 C92">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="C2:C366">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45261,8 +45261,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C366">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="C33 C2 C61 C92">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45752,7 +45752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S366"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="63" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="A61" sqref="A61:B91"/>
     </sheetView>
   </sheetViews>
@@ -45786,11 +45786,11 @@
       <c r="B1" s="2">
         <v>6</v>
       </c>
-      <c r="C1" s="143">
+      <c r="C1" s="132">
         <f>AVERAGE(B1:B31)</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="D1" s="150">
+      <c r="D1" s="155">
         <f>AVERAGE(B1:B366)</f>
         <v>5.1967213114754101</v>
       </c>
@@ -45802,8 +45802,8 @@
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="150"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="155"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -45812,8 +45812,8 @@
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="150"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="155"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -45822,8 +45822,8 @@
       <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="150"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="155"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -45832,8 +45832,8 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="150"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="155"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -45842,8 +45842,8 @@
       <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="150"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="155"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -45852,8 +45852,8 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="150"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="155"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -45862,8 +45862,8 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="150"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="155"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -45872,8 +45872,8 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="150"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="155"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -45882,8 +45882,8 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="150"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="155"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -45892,8 +45892,8 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="150"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="155"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -45902,8 +45902,8 @@
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="150"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="155"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -45912,8 +45912,8 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="150"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="155"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -45922,8 +45922,8 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="150"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="155"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -45932,8 +45932,8 @@
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="150"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="155"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -45942,8 +45942,8 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="150"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="155"/>
     </row>
     <row r="17" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -45952,8 +45952,8 @@
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="150"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="155"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
         <v>24</v>
@@ -45969,8 +45969,8 @@
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="150"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="155"/>
       <c r="F18" s="24" t="s">
         <v>0</v>
       </c>
@@ -46020,8 +46020,8 @@
       <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="150"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="155"/>
       <c r="F19" s="7" t="s">
         <v>1</v>
       </c>
@@ -46038,7 +46038,7 @@
         <f>C1</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="L19" s="156">
+      <c r="L19" s="153">
         <f>AVERAGE(K19:K30)</f>
         <v>5.1920096403411202</v>
       </c>
@@ -46066,7 +46066,7 @@
         <f>COUNTIF(B1:B31,G23)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="154">
+      <c r="S19" s="151">
         <f>AVERAGE(K19:K22)</f>
         <v>4.9297923618835746</v>
       </c>
@@ -46078,8 +46078,8 @@
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="150"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="155"/>
       <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
@@ -46096,7 +46096,7 @@
         <f>C32</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="L20" s="156"/>
+      <c r="L20" s="153"/>
       <c r="M20" s="21">
         <f>COUNTIF(B32:B60,G18)</f>
         <v>1</v>
@@ -46121,7 +46121,7 @@
         <f>COUNTIF(B32:B60,G23)</f>
         <v>2</v>
       </c>
-      <c r="S20" s="143"/>
+      <c r="S20" s="132"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -46130,8 +46130,8 @@
       <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="150"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="155"/>
       <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
@@ -46148,7 +46148,7 @@
         <f>C61</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="L21" s="156"/>
+      <c r="L21" s="153"/>
       <c r="M21" s="21">
         <f>COUNTIF(B61:B91,G18)</f>
         <v>0</v>
@@ -46173,7 +46173,7 @@
         <f>COUNTIF(B61:B91,G23)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="143"/>
+      <c r="S21" s="132"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -46182,8 +46182,8 @@
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="150"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="155"/>
       <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
@@ -46200,7 +46200,7 @@
         <f>C92</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="L22" s="156"/>
+      <c r="L22" s="153"/>
       <c r="M22" s="21">
         <f>COUNTIF(B92:B121,G18)</f>
         <v>0</v>
@@ -46225,7 +46225,7 @@
         <f>COUNTIF(B92:B121,G23)</f>
         <v>2</v>
       </c>
-      <c r="S22" s="143"/>
+      <c r="S22" s="132"/>
     </row>
     <row r="23" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
@@ -46234,8 +46234,8 @@
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="150"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="155"/>
       <c r="F23" s="14" t="s">
         <v>5</v>
       </c>
@@ -46252,7 +46252,7 @@
         <f>C122</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="L23" s="156"/>
+      <c r="L23" s="153"/>
       <c r="M23" s="21">
         <f>COUNTIF(B122:B152,G18)</f>
         <v>1</v>
@@ -46277,7 +46277,7 @@
         <f>COUNTIF(B122:B152,G23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="154">
+      <c r="S23" s="151">
         <f>AVERAGE(K23:K26)</f>
         <v>5.365591397849462</v>
       </c>
@@ -46289,12 +46289,12 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="150"/>
-      <c r="F24" s="128" t="s">
+      <c r="C24" s="132"/>
+      <c r="D24" s="155"/>
+      <c r="F24" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="129"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="17">
         <f>SUM(H18:H23)</f>
         <v>366</v>
@@ -46306,7 +46306,7 @@
         <f>C153</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="L24" s="156"/>
+      <c r="L24" s="153"/>
       <c r="M24" s="21">
         <f>COUNTIF(B153:B182,G18)</f>
         <v>3</v>
@@ -46331,7 +46331,7 @@
         <f>COUNTIF(B153:B182,G23)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="143"/>
+      <c r="S24" s="132"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -46340,8 +46340,8 @@
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="150"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="155"/>
       <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
@@ -46349,7 +46349,7 @@
         <f>C183</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="L25" s="156"/>
+      <c r="L25" s="153"/>
       <c r="M25" s="21">
         <f>COUNTIF(B183:B213,G18)</f>
         <v>2</v>
@@ -46374,7 +46374,7 @@
         <f>COUNTIF(B183:B213,G23)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="143"/>
+      <c r="S25" s="132"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -46383,8 +46383,8 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="150"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="155"/>
       <c r="J26" s="10" t="s">
         <v>15</v>
       </c>
@@ -46392,7 +46392,7 @@
         <f>C214</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="L26" s="156"/>
+      <c r="L26" s="153"/>
       <c r="M26" s="21">
         <f>COUNTIF(B214:B244,G18)</f>
         <v>0</v>
@@ -46417,7 +46417,7 @@
         <f>COUNTIF(B214:B244,G23)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="143"/>
+      <c r="S26" s="132"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -46426,13 +46426,13 @@
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="150"/>
-      <c r="F27" s="153" t="s">
+      <c r="C27" s="132"/>
+      <c r="D27" s="155"/>
+      <c r="F27" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
       <c r="J27" s="10" t="s">
         <v>16</v>
       </c>
@@ -46440,7 +46440,7 @@
         <f>C245</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="L27" s="156"/>
+      <c r="L27" s="153"/>
       <c r="M27" s="21">
         <f>COUNTIF(B245:B274,G18)</f>
         <v>1</v>
@@ -46465,7 +46465,7 @@
         <f>COUNTIF(B245:B274,G23)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="154">
+      <c r="S27" s="151">
         <f>AVERAGE(K27:K30)</f>
         <v>5.2806451612903231</v>
       </c>
@@ -46477,13 +46477,13 @@
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="150"/>
-      <c r="F28" s="155">
+      <c r="C28" s="132"/>
+      <c r="D28" s="155"/>
+      <c r="F28" s="152">
         <v>2024</v>
       </c>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
       <c r="J28" s="10" t="s">
         <v>17</v>
       </c>
@@ -46491,7 +46491,7 @@
         <f>C275</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="L28" s="156"/>
+      <c r="L28" s="153"/>
       <c r="M28" s="21">
         <f>COUNTIF(B275:B305,G18)</f>
         <v>1</v>
@@ -46516,7 +46516,7 @@
         <f>COUNTIF(B275:B305,G23)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="143"/>
+      <c r="S28" s="132"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -46525,8 +46525,8 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="150"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="155"/>
       <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
@@ -46534,7 +46534,7 @@
         <f>C306</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="L29" s="156"/>
+      <c r="L29" s="153"/>
       <c r="M29" s="21">
         <f>COUNTIF(B306:B335,G18)</f>
         <v>0</v>
@@ -46559,7 +46559,7 @@
         <f>COUNTIF(B306:B335,G23)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="143"/>
+      <c r="S29" s="132"/>
     </row>
     <row r="30" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
@@ -46568,8 +46568,8 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="150"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="155"/>
       <c r="J30" s="18" t="s">
         <v>19</v>
       </c>
@@ -46577,7 +46577,7 @@
         <f>C336</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="L30" s="157"/>
+      <c r="L30" s="154"/>
       <c r="M30" s="21">
         <f>COUNTIF(B336:B366,G18)</f>
         <v>1</v>
@@ -46602,7 +46602,7 @@
         <f>COUNTIF(B336:B366,G23)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="143"/>
+      <c r="S30" s="132"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -46611,8 +46611,8 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="150"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="155"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -46621,11 +46621,11 @@
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="143">
+      <c r="C32" s="132">
         <f>AVERAGE(B32:B60)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="D32" s="150"/>
+      <c r="D32" s="155"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -46634,8 +46634,8 @@
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="143"/>
-      <c r="D33" s="150"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="155"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -46644,8 +46644,8 @@
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="150"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="155"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -46654,8 +46654,8 @@
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="150"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="155"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -46664,8 +46664,8 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="150"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="155"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -46674,8 +46674,8 @@
       <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="150"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="155"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
@@ -46684,8 +46684,8 @@
       <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="150"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="155"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -46694,8 +46694,8 @@
       <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="143"/>
-      <c r="D39" s="150"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="155"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -46704,8 +46704,8 @@
       <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="150"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="155"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -46714,8 +46714,8 @@
       <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="143"/>
-      <c r="D41" s="150"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="155"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -46724,8 +46724,8 @@
       <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="150"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="155"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -46734,8 +46734,8 @@
       <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="150"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="155"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -46744,8 +46744,8 @@
       <c r="B44" s="2">
         <v>6</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="150"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="155"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
@@ -46754,8 +46754,8 @@
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="143"/>
-      <c r="D45" s="150"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="155"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -46764,8 +46764,8 @@
       <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="150"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="155"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -46774,8 +46774,8 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="143"/>
-      <c r="D47" s="150"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="155"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -46784,8 +46784,8 @@
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="150"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="155"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -46794,8 +46794,8 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="150"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="155"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -46804,8 +46804,8 @@
       <c r="B50" s="2">
         <v>4</v>
       </c>
-      <c r="C50" s="143"/>
-      <c r="D50" s="150"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="155"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -46814,8 +46814,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="143"/>
-      <c r="D51" s="150"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="155"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -46824,8 +46824,8 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="143"/>
-      <c r="D52" s="150"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="155"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -46834,8 +46834,8 @@
       <c r="B53" s="2">
         <v>2</v>
       </c>
-      <c r="C53" s="143"/>
-      <c r="D53" s="150"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="155"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -46844,8 +46844,8 @@
       <c r="B54" s="2">
         <v>4</v>
       </c>
-      <c r="C54" s="143"/>
-      <c r="D54" s="150"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="155"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -46854,8 +46854,8 @@
       <c r="B55" s="2">
         <v>4</v>
       </c>
-      <c r="C55" s="143"/>
-      <c r="D55" s="150"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="155"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -46864,8 +46864,8 @@
       <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="143"/>
-      <c r="D56" s="150"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="155"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -46874,8 +46874,8 @@
       <c r="B57" s="2">
         <v>4</v>
       </c>
-      <c r="C57" s="143"/>
-      <c r="D57" s="150"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="155"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -46884,8 +46884,8 @@
       <c r="B58" s="2">
         <v>4</v>
       </c>
-      <c r="C58" s="143"/>
-      <c r="D58" s="150"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="155"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -46894,8 +46894,8 @@
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="143"/>
-      <c r="D59" s="150"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="155"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -46904,8 +46904,8 @@
       <c r="B60" s="2">
         <v>6</v>
       </c>
-      <c r="C60" s="143"/>
-      <c r="D60" s="150"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="155"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -46914,11 +46914,11 @@
       <c r="B61" s="2">
         <v>6</v>
       </c>
-      <c r="C61" s="143">
+      <c r="C61" s="132">
         <f>AVERAGE(B61:B91)</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="D61" s="150"/>
+      <c r="D61" s="155"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
@@ -46927,8 +46927,8 @@
       <c r="B62" s="2">
         <v>6</v>
       </c>
-      <c r="C62" s="143"/>
-      <c r="D62" s="150"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="155"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -46937,8 +46937,8 @@
       <c r="B63" s="2">
         <v>8</v>
       </c>
-      <c r="C63" s="143"/>
-      <c r="D63" s="150"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="155"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
@@ -46947,8 +46947,8 @@
       <c r="B64" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="143"/>
-      <c r="D64" s="150"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="155"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
@@ -46957,8 +46957,8 @@
       <c r="B65" s="2">
         <v>4</v>
       </c>
-      <c r="C65" s="143"/>
-      <c r="D65" s="150"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="155"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -46967,8 +46967,8 @@
       <c r="B66" s="2">
         <v>4</v>
       </c>
-      <c r="C66" s="143"/>
-      <c r="D66" s="150"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="155"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -46977,8 +46977,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="143"/>
-      <c r="D67" s="150"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="155"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
@@ -46987,8 +46987,8 @@
       <c r="B68" s="2">
         <v>6</v>
       </c>
-      <c r="C68" s="143"/>
-      <c r="D68" s="150"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="155"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
@@ -46997,8 +46997,8 @@
       <c r="B69" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="143"/>
-      <c r="D69" s="150"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="155"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
@@ -47007,8 +47007,8 @@
       <c r="B70" s="2">
         <v>6</v>
       </c>
-      <c r="C70" s="143"/>
-      <c r="D70" s="150"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="155"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
@@ -47017,8 +47017,8 @@
       <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="143"/>
-      <c r="D71" s="150"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="155"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
@@ -47027,8 +47027,8 @@
       <c r="B72" s="2">
         <v>6</v>
       </c>
-      <c r="C72" s="143"/>
-      <c r="D72" s="150"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="155"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
@@ -47037,8 +47037,8 @@
       <c r="B73" s="2">
         <v>6</v>
       </c>
-      <c r="C73" s="143"/>
-      <c r="D73" s="150"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="155"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -47047,8 +47047,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="143"/>
-      <c r="D74" s="150"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="155"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -47057,8 +47057,8 @@
       <c r="B75" s="2">
         <v>6</v>
       </c>
-      <c r="C75" s="143"/>
-      <c r="D75" s="150"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="155"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -47067,8 +47067,8 @@
       <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C76" s="143"/>
-      <c r="D76" s="150"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="155"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
@@ -47077,8 +47077,8 @@
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="143"/>
-      <c r="D77" s="150"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="155"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -47087,8 +47087,8 @@
       <c r="B78" s="2">
         <v>6</v>
       </c>
-      <c r="C78" s="143"/>
-      <c r="D78" s="150"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="155"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
@@ -47097,8 +47097,8 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="143"/>
-      <c r="D79" s="150"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="155"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
@@ -47107,8 +47107,8 @@
       <c r="B80" s="2">
         <v>8</v>
       </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="150"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="155"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
@@ -47117,8 +47117,8 @@
       <c r="B81" s="2">
         <v>6</v>
       </c>
-      <c r="C81" s="143"/>
-      <c r="D81" s="150"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="155"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
@@ -47127,8 +47127,8 @@
       <c r="B82" s="2">
         <v>8</v>
       </c>
-      <c r="C82" s="143"/>
-      <c r="D82" s="150"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="155"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -47137,8 +47137,8 @@
       <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="C83" s="143"/>
-      <c r="D83" s="150"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="155"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
@@ -47147,8 +47147,8 @@
       <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="143"/>
-      <c r="D84" s="150"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="155"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -47157,8 +47157,8 @@
       <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C85" s="143"/>
-      <c r="D85" s="150"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="155"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -47167,8 +47167,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="143"/>
-      <c r="D86" s="150"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="155"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -47177,8 +47177,8 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
-      <c r="C87" s="143"/>
-      <c r="D87" s="150"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="155"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -47187,8 +47187,8 @@
       <c r="B88" s="2">
         <v>6</v>
       </c>
-      <c r="C88" s="143"/>
-      <c r="D88" s="150"/>
+      <c r="C88" s="132"/>
+      <c r="D88" s="155"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -47197,8 +47197,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="143"/>
-      <c r="D89" s="150"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="155"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -47207,8 +47207,8 @@
       <c r="B90" s="2">
         <v>6</v>
       </c>
-      <c r="C90" s="143"/>
-      <c r="D90" s="150"/>
+      <c r="C90" s="132"/>
+      <c r="D90" s="155"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -47217,8 +47217,8 @@
       <c r="B91" s="2">
         <v>6</v>
       </c>
-      <c r="C91" s="143"/>
-      <c r="D91" s="150"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="155"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -47227,11 +47227,11 @@
       <c r="B92" s="2">
         <v>4</v>
       </c>
-      <c r="C92" s="143">
+      <c r="C92" s="132">
         <f>AVERAGE(B92:B121)</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="D92" s="150"/>
+      <c r="D92" s="155"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -47240,8 +47240,8 @@
       <c r="B93" s="2">
         <v>4</v>
       </c>
-      <c r="C93" s="143"/>
-      <c r="D93" s="150"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="155"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -47250,8 +47250,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="143"/>
-      <c r="D94" s="150"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="155"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -47260,8 +47260,8 @@
       <c r="B95" s="2">
         <v>4</v>
       </c>
-      <c r="C95" s="143"/>
-      <c r="D95" s="150"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="155"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -47270,8 +47270,8 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96" s="143"/>
-      <c r="D96" s="150"/>
+      <c r="C96" s="132"/>
+      <c r="D96" s="155"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
@@ -47280,8 +47280,8 @@
       <c r="B97" s="2">
         <v>2</v>
       </c>
-      <c r="C97" s="143"/>
-      <c r="D97" s="150"/>
+      <c r="C97" s="132"/>
+      <c r="D97" s="155"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -47290,8 +47290,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="143"/>
-      <c r="D98" s="150"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="155"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -47300,8 +47300,8 @@
       <c r="B99" s="2">
         <v>4</v>
       </c>
-      <c r="C99" s="143"/>
-      <c r="D99" s="150"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="155"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
@@ -47310,8 +47310,8 @@
       <c r="B100" s="2">
         <v>6</v>
       </c>
-      <c r="C100" s="143"/>
-      <c r="D100" s="150"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="155"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -47320,8 +47320,8 @@
       <c r="B101" s="2">
         <v>2</v>
       </c>
-      <c r="C101" s="143"/>
-      <c r="D101" s="150"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="155"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
@@ -47330,8 +47330,8 @@
       <c r="B102" s="2">
         <v>0</v>
       </c>
-      <c r="C102" s="143"/>
-      <c r="D102" s="150"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="155"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
@@ -47340,8 +47340,8 @@
       <c r="B103" s="2">
         <v>6</v>
       </c>
-      <c r="C103" s="143"/>
-      <c r="D103" s="150"/>
+      <c r="C103" s="132"/>
+      <c r="D103" s="155"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
@@ -47350,8 +47350,8 @@
       <c r="B104" s="2">
         <v>6</v>
       </c>
-      <c r="C104" s="143"/>
-      <c r="D104" s="150"/>
+      <c r="C104" s="132"/>
+      <c r="D104" s="155"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
@@ -47360,8 +47360,8 @@
       <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="143"/>
-      <c r="D105" s="150"/>
+      <c r="C105" s="132"/>
+      <c r="D105" s="155"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
@@ -47370,8 +47370,8 @@
       <c r="B106" s="2">
         <v>6</v>
       </c>
-      <c r="C106" s="143"/>
-      <c r="D106" s="150"/>
+      <c r="C106" s="132"/>
+      <c r="D106" s="155"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
@@ -47380,8 +47380,8 @@
       <c r="B107" s="2">
         <v>4</v>
       </c>
-      <c r="C107" s="143"/>
-      <c r="D107" s="150"/>
+      <c r="C107" s="132"/>
+      <c r="D107" s="155"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
@@ -47390,8 +47390,8 @@
       <c r="B108" s="2">
         <v>8</v>
       </c>
-      <c r="C108" s="143"/>
-      <c r="D108" s="150"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="155"/>
       <c r="J108" s="3" t="s">
         <v>22</v>
       </c>
@@ -47403,8 +47403,8 @@
       <c r="B109" s="2">
         <v>6</v>
       </c>
-      <c r="C109" s="143"/>
-      <c r="D109" s="150"/>
+      <c r="C109" s="132"/>
+      <c r="D109" s="155"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
@@ -47413,8 +47413,8 @@
       <c r="B110" s="2">
         <v>6</v>
       </c>
-      <c r="C110" s="143"/>
-      <c r="D110" s="150"/>
+      <c r="C110" s="132"/>
+      <c r="D110" s="155"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
@@ -47423,8 +47423,8 @@
       <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C111" s="143"/>
-      <c r="D111" s="150"/>
+      <c r="C111" s="132"/>
+      <c r="D111" s="155"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
@@ -47433,8 +47433,8 @@
       <c r="B112" s="2">
         <v>6</v>
       </c>
-      <c r="C112" s="143"/>
-      <c r="D112" s="150"/>
+      <c r="C112" s="132"/>
+      <c r="D112" s="155"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
@@ -47443,8 +47443,8 @@
       <c r="B113" s="2">
         <v>6</v>
       </c>
-      <c r="C113" s="143"/>
-      <c r="D113" s="150"/>
+      <c r="C113" s="132"/>
+      <c r="D113" s="155"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
@@ -47453,8 +47453,8 @@
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" s="143"/>
-      <c r="D114" s="150"/>
+      <c r="C114" s="132"/>
+      <c r="D114" s="155"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
@@ -47463,8 +47463,8 @@
       <c r="B115" s="2">
         <v>6</v>
       </c>
-      <c r="C115" s="143"/>
-      <c r="D115" s="150"/>
+      <c r="C115" s="132"/>
+      <c r="D115" s="155"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
@@ -47473,8 +47473,8 @@
       <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="143"/>
-      <c r="D116" s="150"/>
+      <c r="C116" s="132"/>
+      <c r="D116" s="155"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
@@ -47483,8 +47483,8 @@
       <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C117" s="143"/>
-      <c r="D117" s="150"/>
+      <c r="C117" s="132"/>
+      <c r="D117" s="155"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
@@ -47493,8 +47493,8 @@
       <c r="B118" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="143"/>
-      <c r="D118" s="150"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="155"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
@@ -47503,8 +47503,8 @@
       <c r="B119" s="2">
         <v>4</v>
       </c>
-      <c r="C119" s="143"/>
-      <c r="D119" s="150"/>
+      <c r="C119" s="132"/>
+      <c r="D119" s="155"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
@@ -47513,8 +47513,8 @@
       <c r="B120" s="2">
         <v>6</v>
       </c>
-      <c r="C120" s="143"/>
-      <c r="D120" s="150"/>
+      <c r="C120" s="132"/>
+      <c r="D120" s="155"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
@@ -47523,8 +47523,8 @@
       <c r="B121" s="2">
         <v>6</v>
       </c>
-      <c r="C121" s="143"/>
-      <c r="D121" s="150"/>
+      <c r="C121" s="132"/>
+      <c r="D121" s="155"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
@@ -47533,11 +47533,11 @@
       <c r="B122" s="2">
         <v>8</v>
       </c>
-      <c r="C122" s="151">
+      <c r="C122" s="156">
         <f>AVERAGE(B122:B152)</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="D122" s="150"/>
+      <c r="D122" s="155"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
@@ -47546,8 +47546,8 @@
       <c r="B123" s="2">
         <v>6</v>
       </c>
-      <c r="C123" s="152"/>
-      <c r="D123" s="150"/>
+      <c r="C123" s="157"/>
+      <c r="D123" s="155"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
@@ -47556,8 +47556,8 @@
       <c r="B124" s="2">
         <v>6</v>
       </c>
-      <c r="C124" s="152"/>
-      <c r="D124" s="150"/>
+      <c r="C124" s="157"/>
+      <c r="D124" s="155"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
@@ -47566,8 +47566,8 @@
       <c r="B125" s="2">
         <v>10</v>
       </c>
-      <c r="C125" s="152"/>
-      <c r="D125" s="150"/>
+      <c r="C125" s="157"/>
+      <c r="D125" s="155"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
@@ -47576,8 +47576,8 @@
       <c r="B126" s="2">
         <v>6</v>
       </c>
-      <c r="C126" s="152"/>
-      <c r="D126" s="150"/>
+      <c r="C126" s="157"/>
+      <c r="D126" s="155"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
@@ -47586,8 +47586,8 @@
       <c r="B127" s="2">
         <v>4</v>
       </c>
-      <c r="C127" s="152"/>
-      <c r="D127" s="150"/>
+      <c r="C127" s="157"/>
+      <c r="D127" s="155"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
@@ -47596,8 +47596,8 @@
       <c r="B128" s="2">
         <v>6</v>
       </c>
-      <c r="C128" s="152"/>
-      <c r="D128" s="150"/>
+      <c r="C128" s="157"/>
+      <c r="D128" s="155"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
@@ -47606,8 +47606,8 @@
       <c r="B129" s="2">
         <v>6</v>
       </c>
-      <c r="C129" s="152"/>
-      <c r="D129" s="150"/>
+      <c r="C129" s="157"/>
+      <c r="D129" s="155"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
@@ -47616,8 +47616,8 @@
       <c r="B130" s="2">
         <v>6</v>
       </c>
-      <c r="C130" s="152"/>
-      <c r="D130" s="150"/>
+      <c r="C130" s="157"/>
+      <c r="D130" s="155"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
@@ -47626,8 +47626,8 @@
       <c r="B131" s="2">
         <v>8</v>
       </c>
-      <c r="C131" s="152"/>
-      <c r="D131" s="150"/>
+      <c r="C131" s="157"/>
+      <c r="D131" s="155"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
@@ -47636,8 +47636,8 @@
       <c r="B132" s="2">
         <v>8</v>
       </c>
-      <c r="C132" s="152"/>
-      <c r="D132" s="150"/>
+      <c r="C132" s="157"/>
+      <c r="D132" s="155"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
@@ -47646,8 +47646,8 @@
       <c r="B133" s="2">
         <v>6</v>
       </c>
-      <c r="C133" s="152"/>
-      <c r="D133" s="150"/>
+      <c r="C133" s="157"/>
+      <c r="D133" s="155"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
@@ -47656,8 +47656,8 @@
       <c r="B134" s="2">
         <v>6</v>
       </c>
-      <c r="C134" s="152"/>
-      <c r="D134" s="150"/>
+      <c r="C134" s="157"/>
+      <c r="D134" s="155"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
@@ -47666,8 +47666,8 @@
       <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="C135" s="152"/>
-      <c r="D135" s="150"/>
+      <c r="C135" s="157"/>
+      <c r="D135" s="155"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
@@ -47676,8 +47676,8 @@
       <c r="B136" s="2">
         <v>6</v>
       </c>
-      <c r="C136" s="152"/>
-      <c r="D136" s="150"/>
+      <c r="C136" s="157"/>
+      <c r="D136" s="155"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
@@ -47686,8 +47686,8 @@
       <c r="B137" s="2">
         <v>4</v>
       </c>
-      <c r="C137" s="152"/>
-      <c r="D137" s="150"/>
+      <c r="C137" s="157"/>
+      <c r="D137" s="155"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
@@ -47696,8 +47696,8 @@
       <c r="B138" s="2">
         <v>4</v>
       </c>
-      <c r="C138" s="152"/>
-      <c r="D138" s="150"/>
+      <c r="C138" s="157"/>
+      <c r="D138" s="155"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
@@ -47706,8 +47706,8 @@
       <c r="B139" s="2">
         <v>6</v>
       </c>
-      <c r="C139" s="152"/>
-      <c r="D139" s="150"/>
+      <c r="C139" s="157"/>
+      <c r="D139" s="155"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
@@ -47716,8 +47716,8 @@
       <c r="B140" s="2">
         <v>4</v>
       </c>
-      <c r="C140" s="152"/>
-      <c r="D140" s="150"/>
+      <c r="C140" s="157"/>
+      <c r="D140" s="155"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
@@ -47726,8 +47726,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="152"/>
-      <c r="D141" s="150"/>
+      <c r="C141" s="157"/>
+      <c r="D141" s="155"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
@@ -47736,8 +47736,8 @@
       <c r="B142" s="2">
         <v>6</v>
       </c>
-      <c r="C142" s="152"/>
-      <c r="D142" s="150"/>
+      <c r="C142" s="157"/>
+      <c r="D142" s="155"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
@@ -47746,8 +47746,8 @@
       <c r="B143" s="2">
         <v>6</v>
       </c>
-      <c r="C143" s="152"/>
-      <c r="D143" s="150"/>
+      <c r="C143" s="157"/>
+      <c r="D143" s="155"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
@@ -47756,8 +47756,8 @@
       <c r="B144" s="2">
         <v>8</v>
       </c>
-      <c r="C144" s="152"/>
-      <c r="D144" s="150"/>
+      <c r="C144" s="157"/>
+      <c r="D144" s="155"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
@@ -47766,8 +47766,8 @@
       <c r="B145" s="2">
         <v>8</v>
       </c>
-      <c r="C145" s="152"/>
-      <c r="D145" s="150"/>
+      <c r="C145" s="157"/>
+      <c r="D145" s="155"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
@@ -47776,8 +47776,8 @@
       <c r="B146" s="2">
         <v>8</v>
       </c>
-      <c r="C146" s="152"/>
-      <c r="D146" s="150"/>
+      <c r="C146" s="157"/>
+      <c r="D146" s="155"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
@@ -47786,8 +47786,8 @@
       <c r="B147" s="2">
         <v>6</v>
       </c>
-      <c r="C147" s="152"/>
-      <c r="D147" s="150"/>
+      <c r="C147" s="157"/>
+      <c r="D147" s="155"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
@@ -47796,8 +47796,8 @@
       <c r="B148" s="2">
         <v>4</v>
       </c>
-      <c r="C148" s="152"/>
-      <c r="D148" s="150"/>
+      <c r="C148" s="157"/>
+      <c r="D148" s="155"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
@@ -47806,8 +47806,8 @@
       <c r="B149" s="2">
         <v>6</v>
       </c>
-      <c r="C149" s="152"/>
-      <c r="D149" s="150"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="155"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
@@ -47816,8 +47816,8 @@
       <c r="B150" s="2">
         <v>6</v>
       </c>
-      <c r="C150" s="152"/>
-      <c r="D150" s="150"/>
+      <c r="C150" s="157"/>
+      <c r="D150" s="155"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
@@ -47826,8 +47826,8 @@
       <c r="B151" s="2">
         <v>6</v>
       </c>
-      <c r="C151" s="152"/>
-      <c r="D151" s="150"/>
+      <c r="C151" s="157"/>
+      <c r="D151" s="155"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
@@ -47836,8 +47836,8 @@
       <c r="B152" s="2">
         <v>6</v>
       </c>
-      <c r="C152" s="142"/>
-      <c r="D152" s="150"/>
+      <c r="C152" s="131"/>
+      <c r="D152" s="155"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
@@ -47846,11 +47846,11 @@
       <c r="B153" s="2">
         <v>6</v>
       </c>
-      <c r="C153" s="151">
+      <c r="C153" s="156">
         <f>AVERAGE(B153:B182)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D153" s="150"/>
+      <c r="D153" s="155"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
@@ -47859,8 +47859,8 @@
       <c r="B154" s="2">
         <v>6</v>
       </c>
-      <c r="C154" s="152"/>
-      <c r="D154" s="150"/>
+      <c r="C154" s="157"/>
+      <c r="D154" s="155"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
@@ -47869,8 +47869,8 @@
       <c r="B155" s="2">
         <v>4</v>
       </c>
-      <c r="C155" s="152"/>
-      <c r="D155" s="150"/>
+      <c r="C155" s="157"/>
+      <c r="D155" s="155"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
@@ -47879,8 +47879,8 @@
       <c r="B156" s="2">
         <v>8</v>
       </c>
-      <c r="C156" s="152"/>
-      <c r="D156" s="150"/>
+      <c r="C156" s="157"/>
+      <c r="D156" s="155"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
@@ -47889,8 +47889,8 @@
       <c r="B157" s="2">
         <v>10</v>
       </c>
-      <c r="C157" s="152"/>
-      <c r="D157" s="150"/>
+      <c r="C157" s="157"/>
+      <c r="D157" s="155"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
@@ -47899,8 +47899,8 @@
       <c r="B158" s="2">
         <v>6</v>
       </c>
-      <c r="C158" s="152"/>
-      <c r="D158" s="150"/>
+      <c r="C158" s="157"/>
+      <c r="D158" s="155"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
@@ -47909,8 +47909,8 @@
       <c r="B159" s="2">
         <v>4</v>
       </c>
-      <c r="C159" s="152"/>
-      <c r="D159" s="150"/>
+      <c r="C159" s="157"/>
+      <c r="D159" s="155"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
@@ -47919,8 +47919,8 @@
       <c r="B160" s="2">
         <v>6</v>
       </c>
-      <c r="C160" s="152"/>
-      <c r="D160" s="150"/>
+      <c r="C160" s="157"/>
+      <c r="D160" s="155"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
@@ -47929,8 +47929,8 @@
       <c r="B161" s="2">
         <v>6</v>
       </c>
-      <c r="C161" s="152"/>
-      <c r="D161" s="150"/>
+      <c r="C161" s="157"/>
+      <c r="D161" s="155"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
@@ -47939,8 +47939,8 @@
       <c r="B162" s="2">
         <v>6</v>
       </c>
-      <c r="C162" s="152"/>
-      <c r="D162" s="150"/>
+      <c r="C162" s="157"/>
+      <c r="D162" s="155"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
@@ -47949,8 +47949,8 @@
       <c r="B163" s="2">
         <v>0</v>
       </c>
-      <c r="C163" s="152"/>
-      <c r="D163" s="150"/>
+      <c r="C163" s="157"/>
+      <c r="D163" s="155"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
@@ -47959,8 +47959,8 @@
       <c r="B164" s="2">
         <v>4</v>
       </c>
-      <c r="C164" s="152"/>
-      <c r="D164" s="150"/>
+      <c r="C164" s="157"/>
+      <c r="D164" s="155"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
@@ -47969,8 +47969,8 @@
       <c r="B165" s="2">
         <v>4</v>
       </c>
-      <c r="C165" s="152"/>
-      <c r="D165" s="150"/>
+      <c r="C165" s="157"/>
+      <c r="D165" s="155"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
@@ -47979,8 +47979,8 @@
       <c r="B166" s="2">
         <v>4</v>
       </c>
-      <c r="C166" s="152"/>
-      <c r="D166" s="150"/>
+      <c r="C166" s="157"/>
+      <c r="D166" s="155"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
@@ -47989,8 +47989,8 @@
       <c r="B167" s="2">
         <v>6</v>
       </c>
-      <c r="C167" s="152"/>
-      <c r="D167" s="150"/>
+      <c r="C167" s="157"/>
+      <c r="D167" s="155"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
@@ -47999,8 +47999,8 @@
       <c r="B168" s="2">
         <v>6</v>
       </c>
-      <c r="C168" s="152"/>
-      <c r="D168" s="150"/>
+      <c r="C168" s="157"/>
+      <c r="D168" s="155"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
@@ -48009,8 +48009,8 @@
       <c r="B169" s="2">
         <v>4</v>
       </c>
-      <c r="C169" s="152"/>
-      <c r="D169" s="150"/>
+      <c r="C169" s="157"/>
+      <c r="D169" s="155"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
@@ -48019,8 +48019,8 @@
       <c r="B170" s="2">
         <v>4</v>
       </c>
-      <c r="C170" s="152"/>
-      <c r="D170" s="150"/>
+      <c r="C170" s="157"/>
+      <c r="D170" s="155"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
@@ -48029,8 +48029,8 @@
       <c r="B171" s="2">
         <v>10</v>
       </c>
-      <c r="C171" s="152"/>
-      <c r="D171" s="150"/>
+      <c r="C171" s="157"/>
+      <c r="D171" s="155"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
@@ -48039,8 +48039,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="152"/>
-      <c r="D172" s="150"/>
+      <c r="C172" s="157"/>
+      <c r="D172" s="155"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
@@ -48049,8 +48049,8 @@
       <c r="B173" s="2">
         <v>2</v>
       </c>
-      <c r="C173" s="152"/>
-      <c r="D173" s="150"/>
+      <c r="C173" s="157"/>
+      <c r="D173" s="155"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
@@ -48059,8 +48059,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="152"/>
-      <c r="D174" s="150"/>
+      <c r="C174" s="157"/>
+      <c r="D174" s="155"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
@@ -48069,8 +48069,8 @@
       <c r="B175" s="2">
         <v>4</v>
       </c>
-      <c r="C175" s="152"/>
-      <c r="D175" s="150"/>
+      <c r="C175" s="157"/>
+      <c r="D175" s="155"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
@@ -48079,8 +48079,8 @@
       <c r="B176" s="2">
         <v>6</v>
       </c>
-      <c r="C176" s="152"/>
-      <c r="D176" s="150"/>
+      <c r="C176" s="157"/>
+      <c r="D176" s="155"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
@@ -48089,8 +48089,8 @@
       <c r="B177" s="2">
         <v>4</v>
       </c>
-      <c r="C177" s="152"/>
-      <c r="D177" s="150"/>
+      <c r="C177" s="157"/>
+      <c r="D177" s="155"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
@@ -48099,8 +48099,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="152"/>
-      <c r="D178" s="150"/>
+      <c r="C178" s="157"/>
+      <c r="D178" s="155"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
@@ -48109,8 +48109,8 @@
       <c r="B179" s="2">
         <v>6</v>
       </c>
-      <c r="C179" s="152"/>
-      <c r="D179" s="150"/>
+      <c r="C179" s="157"/>
+      <c r="D179" s="155"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
@@ -48119,8 +48119,8 @@
       <c r="B180" s="2">
         <v>10</v>
       </c>
-      <c r="C180" s="152"/>
-      <c r="D180" s="150"/>
+      <c r="C180" s="157"/>
+      <c r="D180" s="155"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
@@ -48129,8 +48129,8 @@
       <c r="B181" s="2">
         <v>8</v>
       </c>
-      <c r="C181" s="152"/>
-      <c r="D181" s="150"/>
+      <c r="C181" s="157"/>
+      <c r="D181" s="155"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
@@ -48139,8 +48139,8 @@
       <c r="B182" s="2">
         <v>6</v>
       </c>
-      <c r="C182" s="142"/>
-      <c r="D182" s="150"/>
+      <c r="C182" s="131"/>
+      <c r="D182" s="155"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
@@ -48149,11 +48149,11 @@
       <c r="B183" s="2">
         <v>6</v>
       </c>
-      <c r="C183" s="151">
+      <c r="C183" s="156">
         <f>AVERAGE(B183:B213)</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="D183" s="150"/>
+      <c r="D183" s="155"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
@@ -48162,8 +48162,8 @@
       <c r="B184" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="152"/>
-      <c r="D184" s="150"/>
+      <c r="C184" s="157"/>
+      <c r="D184" s="155"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
@@ -48172,8 +48172,8 @@
       <c r="B185" s="2">
         <v>2</v>
       </c>
-      <c r="C185" s="152"/>
-      <c r="D185" s="150"/>
+      <c r="C185" s="157"/>
+      <c r="D185" s="155"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
@@ -48182,8 +48182,8 @@
       <c r="B186" s="2">
         <v>4</v>
       </c>
-      <c r="C186" s="152"/>
-      <c r="D186" s="150"/>
+      <c r="C186" s="157"/>
+      <c r="D186" s="155"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
@@ -48192,8 +48192,8 @@
       <c r="B187" s="2">
         <v>4</v>
       </c>
-      <c r="C187" s="152"/>
-      <c r="D187" s="150"/>
+      <c r="C187" s="157"/>
+      <c r="D187" s="155"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
@@ -48202,8 +48202,8 @@
       <c r="B188" s="2">
         <v>10</v>
       </c>
-      <c r="C188" s="152"/>
-      <c r="D188" s="150"/>
+      <c r="C188" s="157"/>
+      <c r="D188" s="155"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
@@ -48212,8 +48212,8 @@
       <c r="B189" s="2">
         <v>6</v>
       </c>
-      <c r="C189" s="152"/>
-      <c r="D189" s="150"/>
+      <c r="C189" s="157"/>
+      <c r="D189" s="155"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
@@ -48222,8 +48222,8 @@
       <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C190" s="152"/>
-      <c r="D190" s="150"/>
+      <c r="C190" s="157"/>
+      <c r="D190" s="155"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
@@ -48232,8 +48232,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="152"/>
-      <c r="D191" s="150"/>
+      <c r="C191" s="157"/>
+      <c r="D191" s="155"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
@@ -48242,8 +48242,8 @@
       <c r="B192" s="2">
         <v>4</v>
       </c>
-      <c r="C192" s="152"/>
-      <c r="D192" s="150"/>
+      <c r="C192" s="157"/>
+      <c r="D192" s="155"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
@@ -48252,8 +48252,8 @@
       <c r="B193" s="2">
         <v>6</v>
       </c>
-      <c r="C193" s="152"/>
-      <c r="D193" s="150"/>
+      <c r="C193" s="157"/>
+      <c r="D193" s="155"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
@@ -48262,8 +48262,8 @@
       <c r="B194" s="2">
         <v>4</v>
       </c>
-      <c r="C194" s="152"/>
-      <c r="D194" s="150"/>
+      <c r="C194" s="157"/>
+      <c r="D194" s="155"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
@@ -48272,8 +48272,8 @@
       <c r="B195" s="2">
         <v>10</v>
       </c>
-      <c r="C195" s="152"/>
-      <c r="D195" s="150"/>
+      <c r="C195" s="157"/>
+      <c r="D195" s="155"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
@@ -48282,8 +48282,8 @@
       <c r="B196" s="2">
         <v>6</v>
       </c>
-      <c r="C196" s="152"/>
-      <c r="D196" s="150"/>
+      <c r="C196" s="157"/>
+      <c r="D196" s="155"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
@@ -48292,8 +48292,8 @@
       <c r="B197" s="2">
         <v>4</v>
       </c>
-      <c r="C197" s="152"/>
-      <c r="D197" s="150"/>
+      <c r="C197" s="157"/>
+      <c r="D197" s="155"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
@@ -48302,8 +48302,8 @@
       <c r="B198" s="2">
         <v>4</v>
       </c>
-      <c r="C198" s="152"/>
-      <c r="D198" s="150"/>
+      <c r="C198" s="157"/>
+      <c r="D198" s="155"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
@@ -48312,8 +48312,8 @@
       <c r="B199" s="2">
         <v>6</v>
       </c>
-      <c r="C199" s="152"/>
-      <c r="D199" s="150"/>
+      <c r="C199" s="157"/>
+      <c r="D199" s="155"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
@@ -48322,8 +48322,8 @@
       <c r="B200" s="2">
         <v>4</v>
       </c>
-      <c r="C200" s="152"/>
-      <c r="D200" s="150"/>
+      <c r="C200" s="157"/>
+      <c r="D200" s="155"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
@@ -48332,8 +48332,8 @@
       <c r="B201" s="2">
         <v>2</v>
       </c>
-      <c r="C201" s="152"/>
-      <c r="D201" s="150"/>
+      <c r="C201" s="157"/>
+      <c r="D201" s="155"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
@@ -48342,8 +48342,8 @@
       <c r="B202" s="2">
         <v>8</v>
       </c>
-      <c r="C202" s="152"/>
-      <c r="D202" s="150"/>
+      <c r="C202" s="157"/>
+      <c r="D202" s="155"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
@@ -48352,8 +48352,8 @@
       <c r="B203" s="2">
         <v>6</v>
       </c>
-      <c r="C203" s="152"/>
-      <c r="D203" s="150"/>
+      <c r="C203" s="157"/>
+      <c r="D203" s="155"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
@@ -48362,8 +48362,8 @@
       <c r="B204" s="2">
         <v>4</v>
       </c>
-      <c r="C204" s="152"/>
-      <c r="D204" s="150"/>
+      <c r="C204" s="157"/>
+      <c r="D204" s="155"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
@@ -48372,8 +48372,8 @@
       <c r="B205" s="2">
         <v>4</v>
       </c>
-      <c r="C205" s="152"/>
-      <c r="D205" s="150"/>
+      <c r="C205" s="157"/>
+      <c r="D205" s="155"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
@@ -48382,8 +48382,8 @@
       <c r="B206" s="2">
         <v>2</v>
       </c>
-      <c r="C206" s="152"/>
-      <c r="D206" s="150"/>
+      <c r="C206" s="157"/>
+      <c r="D206" s="155"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
@@ -48392,8 +48392,8 @@
       <c r="B207" s="2">
         <v>4</v>
       </c>
-      <c r="C207" s="152"/>
-      <c r="D207" s="150"/>
+      <c r="C207" s="157"/>
+      <c r="D207" s="155"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
@@ -48402,8 +48402,8 @@
       <c r="B208" s="2">
         <v>4</v>
       </c>
-      <c r="C208" s="152"/>
-      <c r="D208" s="150"/>
+      <c r="C208" s="157"/>
+      <c r="D208" s="155"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
@@ -48412,8 +48412,8 @@
       <c r="B209" s="2">
         <v>6</v>
       </c>
-      <c r="C209" s="152"/>
-      <c r="D209" s="150"/>
+      <c r="C209" s="157"/>
+      <c r="D209" s="155"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
@@ -48422,8 +48422,8 @@
       <c r="B210" s="2">
         <v>6</v>
       </c>
-      <c r="C210" s="152"/>
-      <c r="D210" s="150"/>
+      <c r="C210" s="157"/>
+      <c r="D210" s="155"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
@@ -48432,8 +48432,8 @@
       <c r="B211" s="2">
         <v>6</v>
       </c>
-      <c r="C211" s="152"/>
-      <c r="D211" s="150"/>
+      <c r="C211" s="157"/>
+      <c r="D211" s="155"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
@@ -48442,8 +48442,8 @@
       <c r="B212" s="2">
         <v>6</v>
       </c>
-      <c r="C212" s="152"/>
-      <c r="D212" s="150"/>
+      <c r="C212" s="157"/>
+      <c r="D212" s="155"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
@@ -48452,8 +48452,8 @@
       <c r="B213" s="2">
         <v>6</v>
       </c>
-      <c r="C213" s="142"/>
-      <c r="D213" s="150"/>
+      <c r="C213" s="131"/>
+      <c r="D213" s="155"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
@@ -48462,11 +48462,11 @@
       <c r="B214" s="2">
         <v>6</v>
       </c>
-      <c r="C214" s="151">
+      <c r="C214" s="156">
         <f>AVERAGE(B214:B244)</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="D214" s="150"/>
+      <c r="D214" s="155"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
@@ -48475,8 +48475,8 @@
       <c r="B215" s="2">
         <v>6</v>
       </c>
-      <c r="C215" s="152"/>
-      <c r="D215" s="150"/>
+      <c r="C215" s="157"/>
+      <c r="D215" s="155"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
@@ -48485,8 +48485,8 @@
       <c r="B216" s="2">
         <v>6</v>
       </c>
-      <c r="C216" s="152"/>
-      <c r="D216" s="150"/>
+      <c r="C216" s="157"/>
+      <c r="D216" s="155"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
@@ -48495,8 +48495,8 @@
       <c r="B217" s="2">
         <v>8</v>
       </c>
-      <c r="C217" s="152"/>
-      <c r="D217" s="150"/>
+      <c r="C217" s="157"/>
+      <c r="D217" s="155"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
@@ -48505,8 +48505,8 @@
       <c r="B218" s="2">
         <v>4</v>
       </c>
-      <c r="C218" s="152"/>
-      <c r="D218" s="150"/>
+      <c r="C218" s="157"/>
+      <c r="D218" s="155"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
@@ -48515,8 +48515,8 @@
       <c r="B219" s="2">
         <v>4</v>
       </c>
-      <c r="C219" s="152"/>
-      <c r="D219" s="150"/>
+      <c r="C219" s="157"/>
+      <c r="D219" s="155"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
@@ -48525,8 +48525,8 @@
       <c r="B220" s="2">
         <v>6</v>
       </c>
-      <c r="C220" s="152"/>
-      <c r="D220" s="150"/>
+      <c r="C220" s="157"/>
+      <c r="D220" s="155"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
@@ -48535,8 +48535,8 @@
       <c r="B221" s="2">
         <v>4</v>
       </c>
-      <c r="C221" s="152"/>
-      <c r="D221" s="150"/>
+      <c r="C221" s="157"/>
+      <c r="D221" s="155"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
@@ -48545,8 +48545,8 @@
       <c r="B222" s="2">
         <v>6</v>
       </c>
-      <c r="C222" s="152"/>
-      <c r="D222" s="150"/>
+      <c r="C222" s="157"/>
+      <c r="D222" s="155"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
@@ -48555,8 +48555,8 @@
       <c r="B223" s="2">
         <v>6</v>
       </c>
-      <c r="C223" s="152"/>
-      <c r="D223" s="150"/>
+      <c r="C223" s="157"/>
+      <c r="D223" s="155"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
@@ -48565,8 +48565,8 @@
       <c r="B224" s="2">
         <v>6</v>
       </c>
-      <c r="C224" s="152"/>
-      <c r="D224" s="150"/>
+      <c r="C224" s="157"/>
+      <c r="D224" s="155"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
@@ -48575,8 +48575,8 @@
       <c r="B225" s="2">
         <v>6</v>
       </c>
-      <c r="C225" s="152"/>
-      <c r="D225" s="150"/>
+      <c r="C225" s="157"/>
+      <c r="D225" s="155"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
@@ -48585,8 +48585,8 @@
       <c r="B226" s="2">
         <v>4</v>
       </c>
-      <c r="C226" s="152"/>
-      <c r="D226" s="150"/>
+      <c r="C226" s="157"/>
+      <c r="D226" s="155"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
@@ -48595,8 +48595,8 @@
       <c r="B227" s="2">
         <v>2</v>
       </c>
-      <c r="C227" s="152"/>
-      <c r="D227" s="150"/>
+      <c r="C227" s="157"/>
+      <c r="D227" s="155"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
@@ -48605,8 +48605,8 @@
       <c r="B228" s="2">
         <v>2</v>
       </c>
-      <c r="C228" s="152"/>
-      <c r="D228" s="150"/>
+      <c r="C228" s="157"/>
+      <c r="D228" s="155"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
@@ -48615,8 +48615,8 @@
       <c r="B229" s="2">
         <v>4</v>
       </c>
-      <c r="C229" s="152"/>
-      <c r="D229" s="150"/>
+      <c r="C229" s="157"/>
+      <c r="D229" s="155"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
@@ -48625,8 +48625,8 @@
       <c r="B230" s="2">
         <v>6</v>
       </c>
-      <c r="C230" s="152"/>
-      <c r="D230" s="150"/>
+      <c r="C230" s="157"/>
+      <c r="D230" s="155"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
@@ -48635,8 +48635,8 @@
       <c r="B231" s="2">
         <v>8</v>
       </c>
-      <c r="C231" s="152"/>
-      <c r="D231" s="150"/>
+      <c r="C231" s="157"/>
+      <c r="D231" s="155"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
@@ -48645,8 +48645,8 @@
       <c r="B232" s="2">
         <v>4</v>
       </c>
-      <c r="C232" s="152"/>
-      <c r="D232" s="150"/>
+      <c r="C232" s="157"/>
+      <c r="D232" s="155"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
@@ -48655,8 +48655,8 @@
       <c r="B233" s="2">
         <v>4</v>
       </c>
-      <c r="C233" s="152"/>
-      <c r="D233" s="150"/>
+      <c r="C233" s="157"/>
+      <c r="D233" s="155"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
@@ -48665,8 +48665,8 @@
       <c r="B234" s="2">
         <v>4</v>
       </c>
-      <c r="C234" s="152"/>
-      <c r="D234" s="150"/>
+      <c r="C234" s="157"/>
+      <c r="D234" s="155"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
@@ -48675,8 +48675,8 @@
       <c r="B235" s="2">
         <v>4</v>
       </c>
-      <c r="C235" s="152"/>
-      <c r="D235" s="150"/>
+      <c r="C235" s="157"/>
+      <c r="D235" s="155"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
@@ -48685,8 +48685,8 @@
       <c r="B236" s="2">
         <v>6</v>
       </c>
-      <c r="C236" s="152"/>
-      <c r="D236" s="150"/>
+      <c r="C236" s="157"/>
+      <c r="D236" s="155"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
@@ -48695,8 +48695,8 @@
       <c r="B237" s="2">
         <v>4</v>
       </c>
-      <c r="C237" s="152"/>
-      <c r="D237" s="150"/>
+      <c r="C237" s="157"/>
+      <c r="D237" s="155"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
@@ -48705,8 +48705,8 @@
       <c r="B238" s="2">
         <v>4</v>
       </c>
-      <c r="C238" s="152"/>
-      <c r="D238" s="150"/>
+      <c r="C238" s="157"/>
+      <c r="D238" s="155"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
@@ -48715,8 +48715,8 @@
       <c r="B239" s="2">
         <v>6</v>
       </c>
-      <c r="C239" s="152"/>
-      <c r="D239" s="150"/>
+      <c r="C239" s="157"/>
+      <c r="D239" s="155"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
@@ -48725,8 +48725,8 @@
       <c r="B240" s="2">
         <v>2</v>
       </c>
-      <c r="C240" s="152"/>
-      <c r="D240" s="150"/>
+      <c r="C240" s="157"/>
+      <c r="D240" s="155"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
@@ -48735,8 +48735,8 @@
       <c r="B241" s="2">
         <v>6</v>
       </c>
-      <c r="C241" s="152"/>
-      <c r="D241" s="150"/>
+      <c r="C241" s="157"/>
+      <c r="D241" s="155"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
@@ -48745,8 +48745,8 @@
       <c r="B242" s="2">
         <v>6</v>
       </c>
-      <c r="C242" s="152"/>
-      <c r="D242" s="150"/>
+      <c r="C242" s="157"/>
+      <c r="D242" s="155"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
@@ -48755,8 +48755,8 @@
       <c r="B243" s="2">
         <v>4</v>
       </c>
-      <c r="C243" s="152"/>
-      <c r="D243" s="150"/>
+      <c r="C243" s="157"/>
+      <c r="D243" s="155"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
@@ -48765,8 +48765,8 @@
       <c r="B244" s="2">
         <v>6</v>
       </c>
-      <c r="C244" s="142"/>
-      <c r="D244" s="150"/>
+      <c r="C244" s="131"/>
+      <c r="D244" s="155"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
@@ -48775,11 +48775,11 @@
       <c r="B245" s="2">
         <v>4</v>
       </c>
-      <c r="C245" s="151">
+      <c r="C245" s="156">
         <f>AVERAGE(B245:B274)</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="D245" s="150"/>
+      <c r="D245" s="155"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
@@ -48788,8 +48788,8 @@
       <c r="B246" s="2">
         <v>4</v>
       </c>
-      <c r="C246" s="152"/>
-      <c r="D246" s="150"/>
+      <c r="C246" s="157"/>
+      <c r="D246" s="155"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
@@ -48798,8 +48798,8 @@
       <c r="B247" s="2">
         <v>6</v>
       </c>
-      <c r="C247" s="152"/>
-      <c r="D247" s="150"/>
+      <c r="C247" s="157"/>
+      <c r="D247" s="155"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
@@ -48808,8 +48808,8 @@
       <c r="B248" s="2">
         <v>4</v>
       </c>
-      <c r="C248" s="152"/>
-      <c r="D248" s="150"/>
+      <c r="C248" s="157"/>
+      <c r="D248" s="155"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
@@ -48818,8 +48818,8 @@
       <c r="B249" s="2">
         <v>6</v>
       </c>
-      <c r="C249" s="152"/>
-      <c r="D249" s="150"/>
+      <c r="C249" s="157"/>
+      <c r="D249" s="155"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
@@ -48828,8 +48828,8 @@
       <c r="B250" s="2">
         <v>4</v>
       </c>
-      <c r="C250" s="152"/>
-      <c r="D250" s="150"/>
+      <c r="C250" s="157"/>
+      <c r="D250" s="155"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
@@ -48838,8 +48838,8 @@
       <c r="B251" s="2">
         <v>4</v>
       </c>
-      <c r="C251" s="152"/>
-      <c r="D251" s="150"/>
+      <c r="C251" s="157"/>
+      <c r="D251" s="155"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
@@ -48848,8 +48848,8 @@
       <c r="B252" s="2">
         <v>6</v>
       </c>
-      <c r="C252" s="152"/>
-      <c r="D252" s="150"/>
+      <c r="C252" s="157"/>
+      <c r="D252" s="155"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
@@ -48858,8 +48858,8 @@
       <c r="B253" s="2">
         <v>4</v>
       </c>
-      <c r="C253" s="152"/>
-      <c r="D253" s="150"/>
+      <c r="C253" s="157"/>
+      <c r="D253" s="155"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
@@ -48868,8 +48868,8 @@
       <c r="B254" s="2">
         <v>4</v>
       </c>
-      <c r="C254" s="152"/>
-      <c r="D254" s="150"/>
+      <c r="C254" s="157"/>
+      <c r="D254" s="155"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
@@ -48878,8 +48878,8 @@
       <c r="B255" s="2">
         <v>6</v>
       </c>
-      <c r="C255" s="152"/>
-      <c r="D255" s="150"/>
+      <c r="C255" s="157"/>
+      <c r="D255" s="155"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
@@ -48888,8 +48888,8 @@
       <c r="B256" s="2">
         <v>6</v>
       </c>
-      <c r="C256" s="152"/>
-      <c r="D256" s="150"/>
+      <c r="C256" s="157"/>
+      <c r="D256" s="155"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
@@ -48898,8 +48898,8 @@
       <c r="B257" s="2">
         <v>10</v>
       </c>
-      <c r="C257" s="152"/>
-      <c r="D257" s="150"/>
+      <c r="C257" s="157"/>
+      <c r="D257" s="155"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
@@ -48908,8 +48908,8 @@
       <c r="B258" s="2">
         <v>8</v>
       </c>
-      <c r="C258" s="152"/>
-      <c r="D258" s="150"/>
+      <c r="C258" s="157"/>
+      <c r="D258" s="155"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
@@ -48918,8 +48918,8 @@
       <c r="B259" s="2">
         <v>6</v>
       </c>
-      <c r="C259" s="152"/>
-      <c r="D259" s="150"/>
+      <c r="C259" s="157"/>
+      <c r="D259" s="155"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
@@ -48928,8 +48928,8 @@
       <c r="B260" s="2">
         <v>6</v>
       </c>
-      <c r="C260" s="152"/>
-      <c r="D260" s="150"/>
+      <c r="C260" s="157"/>
+      <c r="D260" s="155"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
@@ -48938,8 +48938,8 @@
       <c r="B261" s="2">
         <v>4</v>
       </c>
-      <c r="C261" s="152"/>
-      <c r="D261" s="150"/>
+      <c r="C261" s="157"/>
+      <c r="D261" s="155"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
@@ -48948,8 +48948,8 @@
       <c r="B262" s="2">
         <v>2</v>
       </c>
-      <c r="C262" s="152"/>
-      <c r="D262" s="150"/>
+      <c r="C262" s="157"/>
+      <c r="D262" s="155"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
@@ -48958,8 +48958,8 @@
       <c r="B263" s="2">
         <v>4</v>
       </c>
-      <c r="C263" s="152"/>
-      <c r="D263" s="150"/>
+      <c r="C263" s="157"/>
+      <c r="D263" s="155"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
@@ -48968,8 +48968,8 @@
       <c r="B264" s="2">
         <v>4</v>
       </c>
-      <c r="C264" s="152"/>
-      <c r="D264" s="150"/>
+      <c r="C264" s="157"/>
+      <c r="D264" s="155"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
@@ -48978,8 +48978,8 @@
       <c r="B265" s="2">
         <v>6</v>
       </c>
-      <c r="C265" s="152"/>
-      <c r="D265" s="150"/>
+      <c r="C265" s="157"/>
+      <c r="D265" s="155"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
@@ -48988,8 +48988,8 @@
       <c r="B266" s="2">
         <v>6</v>
       </c>
-      <c r="C266" s="152"/>
-      <c r="D266" s="150"/>
+      <c r="C266" s="157"/>
+      <c r="D266" s="155"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
@@ -48998,8 +48998,8 @@
       <c r="B267" s="2">
         <v>4</v>
       </c>
-      <c r="C267" s="152"/>
-      <c r="D267" s="150"/>
+      <c r="C267" s="157"/>
+      <c r="D267" s="155"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
@@ -49008,8 +49008,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="152"/>
-      <c r="D268" s="150"/>
+      <c r="C268" s="157"/>
+      <c r="D268" s="155"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
@@ -49018,8 +49018,8 @@
       <c r="B269" s="2">
         <v>6</v>
       </c>
-      <c r="C269" s="152"/>
-      <c r="D269" s="150"/>
+      <c r="C269" s="157"/>
+      <c r="D269" s="155"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
@@ -49028,8 +49028,8 @@
       <c r="B270" s="2">
         <v>8</v>
       </c>
-      <c r="C270" s="152"/>
-      <c r="D270" s="150"/>
+      <c r="C270" s="157"/>
+      <c r="D270" s="155"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
@@ -49038,8 +49038,8 @@
       <c r="B271" s="2">
         <v>4</v>
       </c>
-      <c r="C271" s="152"/>
-      <c r="D271" s="150"/>
+      <c r="C271" s="157"/>
+      <c r="D271" s="155"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
@@ -49048,8 +49048,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="152"/>
-      <c r="D272" s="150"/>
+      <c r="C272" s="157"/>
+      <c r="D272" s="155"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
@@ -49058,8 +49058,8 @@
       <c r="B273" s="2">
         <v>8</v>
       </c>
-      <c r="C273" s="152"/>
-      <c r="D273" s="150"/>
+      <c r="C273" s="157"/>
+      <c r="D273" s="155"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
@@ -49068,8 +49068,8 @@
       <c r="B274" s="2">
         <v>6</v>
       </c>
-      <c r="C274" s="142"/>
-      <c r="D274" s="150"/>
+      <c r="C274" s="131"/>
+      <c r="D274" s="155"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
@@ -49078,11 +49078,11 @@
       <c r="B275" s="2">
         <v>4</v>
       </c>
-      <c r="C275" s="151">
+      <c r="C275" s="156">
         <f>AVERAGE(B275:B305)</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="D275" s="150"/>
+      <c r="D275" s="155"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
@@ -49091,8 +49091,8 @@
       <c r="B276" s="2">
         <v>6</v>
       </c>
-      <c r="C276" s="152"/>
-      <c r="D276" s="150"/>
+      <c r="C276" s="157"/>
+      <c r="D276" s="155"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
@@ -49101,8 +49101,8 @@
       <c r="B277" s="2">
         <v>6</v>
       </c>
-      <c r="C277" s="152"/>
-      <c r="D277" s="150"/>
+      <c r="C277" s="157"/>
+      <c r="D277" s="155"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
@@ -49111,8 +49111,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="152"/>
-      <c r="D278" s="150"/>
+      <c r="C278" s="157"/>
+      <c r="D278" s="155"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
@@ -49121,8 +49121,8 @@
       <c r="B279" s="2">
         <v>2</v>
       </c>
-      <c r="C279" s="152"/>
-      <c r="D279" s="150"/>
+      <c r="C279" s="157"/>
+      <c r="D279" s="155"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
@@ -49131,8 +49131,8 @@
       <c r="B280" s="2">
         <v>4</v>
       </c>
-      <c r="C280" s="152"/>
-      <c r="D280" s="150"/>
+      <c r="C280" s="157"/>
+      <c r="D280" s="155"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
@@ -49141,8 +49141,8 @@
       <c r="B281" s="2">
         <v>0</v>
       </c>
-      <c r="C281" s="152"/>
-      <c r="D281" s="150"/>
+      <c r="C281" s="157"/>
+      <c r="D281" s="155"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
@@ -49151,8 +49151,8 @@
       <c r="B282" s="2">
         <v>2</v>
       </c>
-      <c r="C282" s="152"/>
-      <c r="D282" s="150"/>
+      <c r="C282" s="157"/>
+      <c r="D282" s="155"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
@@ -49161,8 +49161,8 @@
       <c r="B283" s="2">
         <v>6</v>
       </c>
-      <c r="C283" s="152"/>
-      <c r="D283" s="150"/>
+      <c r="C283" s="157"/>
+      <c r="D283" s="155"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
@@ -49171,8 +49171,8 @@
       <c r="B284" s="2">
         <v>6</v>
       </c>
-      <c r="C284" s="152"/>
-      <c r="D284" s="150"/>
+      <c r="C284" s="157"/>
+      <c r="D284" s="155"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
@@ -49181,8 +49181,8 @@
       <c r="B285" s="2">
         <v>8</v>
       </c>
-      <c r="C285" s="152"/>
-      <c r="D285" s="150"/>
+      <c r="C285" s="157"/>
+      <c r="D285" s="155"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
@@ -49191,8 +49191,8 @@
       <c r="B286" s="2">
         <v>8</v>
       </c>
-      <c r="C286" s="152"/>
-      <c r="D286" s="150"/>
+      <c r="C286" s="157"/>
+      <c r="D286" s="155"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
@@ -49201,8 +49201,8 @@
       <c r="B287" s="2">
         <v>6</v>
       </c>
-      <c r="C287" s="152"/>
-      <c r="D287" s="150"/>
+      <c r="C287" s="157"/>
+      <c r="D287" s="155"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
@@ -49211,8 +49211,8 @@
       <c r="B288" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="152"/>
-      <c r="D288" s="150"/>
+      <c r="C288" s="157"/>
+      <c r="D288" s="155"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
@@ -49221,8 +49221,8 @@
       <c r="B289" s="2">
         <v>6</v>
       </c>
-      <c r="C289" s="152"/>
-      <c r="D289" s="150"/>
+      <c r="C289" s="157"/>
+      <c r="D289" s="155"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
@@ -49231,8 +49231,8 @@
       <c r="B290" s="2">
         <v>4</v>
       </c>
-      <c r="C290" s="152"/>
-      <c r="D290" s="150"/>
+      <c r="C290" s="157"/>
+      <c r="D290" s="155"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
@@ -49241,8 +49241,8 @@
       <c r="B291" s="2">
         <v>6</v>
       </c>
-      <c r="C291" s="152"/>
-      <c r="D291" s="150"/>
+      <c r="C291" s="157"/>
+      <c r="D291" s="155"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
@@ -49251,8 +49251,8 @@
       <c r="B292" s="2">
         <v>8</v>
       </c>
-      <c r="C292" s="152"/>
-      <c r="D292" s="150"/>
+      <c r="C292" s="157"/>
+      <c r="D292" s="155"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
@@ -49261,8 +49261,8 @@
       <c r="B293" s="2">
         <v>6</v>
       </c>
-      <c r="C293" s="152"/>
-      <c r="D293" s="150"/>
+      <c r="C293" s="157"/>
+      <c r="D293" s="155"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
@@ -49271,8 +49271,8 @@
       <c r="B294" s="2">
         <v>6</v>
       </c>
-      <c r="C294" s="152"/>
-      <c r="D294" s="150"/>
+      <c r="C294" s="157"/>
+      <c r="D294" s="155"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
@@ -49281,8 +49281,8 @@
       <c r="B295" s="2">
         <v>6</v>
       </c>
-      <c r="C295" s="152"/>
-      <c r="D295" s="150"/>
+      <c r="C295" s="157"/>
+      <c r="D295" s="155"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
@@ -49291,8 +49291,8 @@
       <c r="B296" s="2">
         <v>6</v>
       </c>
-      <c r="C296" s="152"/>
-      <c r="D296" s="150"/>
+      <c r="C296" s="157"/>
+      <c r="D296" s="155"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
@@ -49301,8 +49301,8 @@
       <c r="B297" s="2">
         <v>4</v>
       </c>
-      <c r="C297" s="152"/>
-      <c r="D297" s="150"/>
+      <c r="C297" s="157"/>
+      <c r="D297" s="155"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
@@ -49311,8 +49311,8 @@
       <c r="B298" s="2">
         <v>4</v>
       </c>
-      <c r="C298" s="152"/>
-      <c r="D298" s="150"/>
+      <c r="C298" s="157"/>
+      <c r="D298" s="155"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
@@ -49321,8 +49321,8 @@
       <c r="B299" s="2">
         <v>6</v>
       </c>
-      <c r="C299" s="152"/>
-      <c r="D299" s="150"/>
+      <c r="C299" s="157"/>
+      <c r="D299" s="155"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
@@ -49331,8 +49331,8 @@
       <c r="B300" s="2">
         <v>6</v>
       </c>
-      <c r="C300" s="152"/>
-      <c r="D300" s="150"/>
+      <c r="C300" s="157"/>
+      <c r="D300" s="155"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
@@ -49341,8 +49341,8 @@
       <c r="B301" s="2">
         <v>4</v>
       </c>
-      <c r="C301" s="152"/>
-      <c r="D301" s="150"/>
+      <c r="C301" s="157"/>
+      <c r="D301" s="155"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
@@ -49351,8 +49351,8 @@
       <c r="B302" s="2">
         <v>6</v>
       </c>
-      <c r="C302" s="152"/>
-      <c r="D302" s="150"/>
+      <c r="C302" s="157"/>
+      <c r="D302" s="155"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
@@ -49361,8 +49361,8 @@
       <c r="B303" s="2">
         <v>8</v>
       </c>
-      <c r="C303" s="152"/>
-      <c r="D303" s="150"/>
+      <c r="C303" s="157"/>
+      <c r="D303" s="155"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
@@ -49371,8 +49371,8 @@
       <c r="B304" s="2">
         <v>8</v>
       </c>
-      <c r="C304" s="152"/>
-      <c r="D304" s="150"/>
+      <c r="C304" s="157"/>
+      <c r="D304" s="155"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
@@ -49381,8 +49381,8 @@
       <c r="B305" s="2">
         <v>10</v>
       </c>
-      <c r="C305" s="142"/>
-      <c r="D305" s="150"/>
+      <c r="C305" s="131"/>
+      <c r="D305" s="155"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
@@ -49391,11 +49391,11 @@
       <c r="B306" s="2">
         <v>6</v>
       </c>
-      <c r="C306" s="151">
+      <c r="C306" s="156">
         <f>AVERAGE(B306:B335)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="D306" s="150"/>
+      <c r="D306" s="155"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
@@ -49404,8 +49404,8 @@
       <c r="B307" s="2">
         <v>2</v>
       </c>
-      <c r="C307" s="152"/>
-      <c r="D307" s="150"/>
+      <c r="C307" s="157"/>
+      <c r="D307" s="155"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
@@ -49414,8 +49414,8 @@
       <c r="B308" s="2">
         <v>0</v>
       </c>
-      <c r="C308" s="152"/>
-      <c r="D308" s="150"/>
+      <c r="C308" s="157"/>
+      <c r="D308" s="155"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
@@ -49424,8 +49424,8 @@
       <c r="B309" s="2">
         <v>4</v>
       </c>
-      <c r="C309" s="152"/>
-      <c r="D309" s="150"/>
+      <c r="C309" s="157"/>
+      <c r="D309" s="155"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
@@ -49434,8 +49434,8 @@
       <c r="B310" s="2">
         <v>6</v>
       </c>
-      <c r="C310" s="152"/>
-      <c r="D310" s="150"/>
+      <c r="C310" s="157"/>
+      <c r="D310" s="155"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
@@ -49444,8 +49444,8 @@
       <c r="B311" s="2">
         <v>6</v>
       </c>
-      <c r="C311" s="152"/>
-      <c r="D311" s="150"/>
+      <c r="C311" s="157"/>
+      <c r="D311" s="155"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
@@ -49454,8 +49454,8 @@
       <c r="B312" s="2">
         <v>6</v>
       </c>
-      <c r="C312" s="152"/>
-      <c r="D312" s="150"/>
+      <c r="C312" s="157"/>
+      <c r="D312" s="155"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
@@ -49464,8 +49464,8 @@
       <c r="B313" s="2">
         <v>8</v>
       </c>
-      <c r="C313" s="152"/>
-      <c r="D313" s="150"/>
+      <c r="C313" s="157"/>
+      <c r="D313" s="155"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
@@ -49474,8 +49474,8 @@
       <c r="B314" s="2">
         <v>6</v>
       </c>
-      <c r="C314" s="152"/>
-      <c r="D314" s="150"/>
+      <c r="C314" s="157"/>
+      <c r="D314" s="155"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
@@ -49484,8 +49484,8 @@
       <c r="B315" s="2">
         <v>8</v>
       </c>
-      <c r="C315" s="152"/>
-      <c r="D315" s="150"/>
+      <c r="C315" s="157"/>
+      <c r="D315" s="155"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
@@ -49494,8 +49494,8 @@
       <c r="B316" s="2">
         <v>8</v>
       </c>
-      <c r="C316" s="152"/>
-      <c r="D316" s="150"/>
+      <c r="C316" s="157"/>
+      <c r="D316" s="155"/>
       <c r="M316" s="3"/>
       <c r="O316" s="3"/>
     </row>
@@ -49506,8 +49506,8 @@
       <c r="B317" s="2">
         <v>2</v>
       </c>
-      <c r="C317" s="152"/>
-      <c r="D317" s="150"/>
+      <c r="C317" s="157"/>
+      <c r="D317" s="155"/>
       <c r="M317" s="3"/>
       <c r="O317" s="3"/>
     </row>
@@ -49518,8 +49518,8 @@
       <c r="B318" s="2">
         <v>6</v>
       </c>
-      <c r="C318" s="152"/>
-      <c r="D318" s="150"/>
+      <c r="C318" s="157"/>
+      <c r="D318" s="155"/>
       <c r="M318" s="3"/>
       <c r="O318" s="3"/>
     </row>
@@ -49530,8 +49530,8 @@
       <c r="B319" s="2">
         <v>8</v>
       </c>
-      <c r="C319" s="152"/>
-      <c r="D319" s="150"/>
+      <c r="C319" s="157"/>
+      <c r="D319" s="155"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
@@ -49540,8 +49540,8 @@
       <c r="B320" s="2">
         <v>8</v>
       </c>
-      <c r="C320" s="152"/>
-      <c r="D320" s="150"/>
+      <c r="C320" s="157"/>
+      <c r="D320" s="155"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
@@ -49550,8 +49550,8 @@
       <c r="B321" s="2">
         <v>6</v>
       </c>
-      <c r="C321" s="152"/>
-      <c r="D321" s="150"/>
+      <c r="C321" s="157"/>
+      <c r="D321" s="155"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
@@ -49560,8 +49560,8 @@
       <c r="B322" s="2">
         <v>6</v>
       </c>
-      <c r="C322" s="152"/>
-      <c r="D322" s="150"/>
+      <c r="C322" s="157"/>
+      <c r="D322" s="155"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
@@ -49570,8 +49570,8 @@
       <c r="B323" s="2">
         <v>4</v>
       </c>
-      <c r="C323" s="152"/>
-      <c r="D323" s="150"/>
+      <c r="C323" s="157"/>
+      <c r="D323" s="155"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
@@ -49580,8 +49580,8 @@
       <c r="B324" s="2">
         <v>8</v>
       </c>
-      <c r="C324" s="152"/>
-      <c r="D324" s="150"/>
+      <c r="C324" s="157"/>
+      <c r="D324" s="155"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
@@ -49590,8 +49590,8 @@
       <c r="B325" s="2">
         <v>6</v>
       </c>
-      <c r="C325" s="152"/>
-      <c r="D325" s="150"/>
+      <c r="C325" s="157"/>
+      <c r="D325" s="155"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
@@ -49600,8 +49600,8 @@
       <c r="B326" s="2">
         <v>4</v>
       </c>
-      <c r="C326" s="152"/>
-      <c r="D326" s="150"/>
+      <c r="C326" s="157"/>
+      <c r="D326" s="155"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
@@ -49610,8 +49610,8 @@
       <c r="B327" s="2">
         <v>4</v>
       </c>
-      <c r="C327" s="152"/>
-      <c r="D327" s="150"/>
+      <c r="C327" s="157"/>
+      <c r="D327" s="155"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
@@ -49620,8 +49620,8 @@
       <c r="B328" s="2">
         <v>6</v>
       </c>
-      <c r="C328" s="152"/>
-      <c r="D328" s="150"/>
+      <c r="C328" s="157"/>
+      <c r="D328" s="155"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
@@ -49630,8 +49630,8 @@
       <c r="B329" s="2">
         <v>8</v>
       </c>
-      <c r="C329" s="152"/>
-      <c r="D329" s="150"/>
+      <c r="C329" s="157"/>
+      <c r="D329" s="155"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
@@ -49640,8 +49640,8 @@
       <c r="B330" s="2">
         <v>4</v>
       </c>
-      <c r="C330" s="152"/>
-      <c r="D330" s="150"/>
+      <c r="C330" s="157"/>
+      <c r="D330" s="155"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
@@ -49650,8 +49650,8 @@
       <c r="B331" s="2">
         <v>6</v>
       </c>
-      <c r="C331" s="152"/>
-      <c r="D331" s="150"/>
+      <c r="C331" s="157"/>
+      <c r="D331" s="155"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
@@ -49660,8 +49660,8 @@
       <c r="B332" s="2">
         <v>6</v>
       </c>
-      <c r="C332" s="152"/>
-      <c r="D332" s="150"/>
+      <c r="C332" s="157"/>
+      <c r="D332" s="155"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
@@ -49670,8 +49670,8 @@
       <c r="B333" s="2">
         <v>2</v>
       </c>
-      <c r="C333" s="152"/>
-      <c r="D333" s="150"/>
+      <c r="C333" s="157"/>
+      <c r="D333" s="155"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
@@ -49680,8 +49680,8 @@
       <c r="B334" s="2">
         <v>6</v>
       </c>
-      <c r="C334" s="152"/>
-      <c r="D334" s="150"/>
+      <c r="C334" s="157"/>
+      <c r="D334" s="155"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
@@ -49690,8 +49690,8 @@
       <c r="B335" s="2">
         <v>6</v>
       </c>
-      <c r="C335" s="142"/>
-      <c r="D335" s="150"/>
+      <c r="C335" s="131"/>
+      <c r="D335" s="155"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
@@ -49700,11 +49700,11 @@
       <c r="B336" s="2">
         <v>6</v>
       </c>
-      <c r="C336" s="151">
+      <c r="C336" s="156">
         <f>AVERAGE(B336:B366)</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="D336" s="150"/>
+      <c r="D336" s="155"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
@@ -49713,8 +49713,8 @@
       <c r="B337" s="2">
         <v>4</v>
       </c>
-      <c r="C337" s="152"/>
-      <c r="D337" s="150"/>
+      <c r="C337" s="157"/>
+      <c r="D337" s="155"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
@@ -49723,8 +49723,8 @@
       <c r="B338" s="2">
         <v>4</v>
       </c>
-      <c r="C338" s="152"/>
-      <c r="D338" s="150"/>
+      <c r="C338" s="157"/>
+      <c r="D338" s="155"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
@@ -49733,8 +49733,8 @@
       <c r="B339" s="2">
         <v>6</v>
       </c>
-      <c r="C339" s="152"/>
-      <c r="D339" s="150"/>
+      <c r="C339" s="157"/>
+      <c r="D339" s="155"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
@@ -49743,8 +49743,8 @@
       <c r="B340" s="2">
         <v>6</v>
       </c>
-      <c r="C340" s="152"/>
-      <c r="D340" s="150"/>
+      <c r="C340" s="157"/>
+      <c r="D340" s="155"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
@@ -49753,8 +49753,8 @@
       <c r="B341" s="2">
         <v>6</v>
       </c>
-      <c r="C341" s="152"/>
-      <c r="D341" s="150"/>
+      <c r="C341" s="157"/>
+      <c r="D341" s="155"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
@@ -49763,8 +49763,8 @@
       <c r="B342" s="2">
         <v>6</v>
       </c>
-      <c r="C342" s="152"/>
-      <c r="D342" s="150"/>
+      <c r="C342" s="157"/>
+      <c r="D342" s="155"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
@@ -49773,8 +49773,8 @@
       <c r="B343" s="2">
         <v>4</v>
       </c>
-      <c r="C343" s="152"/>
-      <c r="D343" s="150"/>
+      <c r="C343" s="157"/>
+      <c r="D343" s="155"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
@@ -49783,8 +49783,8 @@
       <c r="B344" s="2">
         <v>4</v>
       </c>
-      <c r="C344" s="152"/>
-      <c r="D344" s="150"/>
+      <c r="C344" s="157"/>
+      <c r="D344" s="155"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
@@ -49793,8 +49793,8 @@
       <c r="B345" s="2">
         <v>4</v>
       </c>
-      <c r="C345" s="152"/>
-      <c r="D345" s="150"/>
+      <c r="C345" s="157"/>
+      <c r="D345" s="155"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
@@ -49803,8 +49803,8 @@
       <c r="B346" s="2">
         <v>4</v>
       </c>
-      <c r="C346" s="152"/>
-      <c r="D346" s="150"/>
+      <c r="C346" s="157"/>
+      <c r="D346" s="155"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
@@ -49813,8 +49813,8 @@
       <c r="B347" s="2">
         <v>6</v>
       </c>
-      <c r="C347" s="152"/>
-      <c r="D347" s="150"/>
+      <c r="C347" s="157"/>
+      <c r="D347" s="155"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
@@ -49823,8 +49823,8 @@
       <c r="B348" s="2">
         <v>4</v>
       </c>
-      <c r="C348" s="152"/>
-      <c r="D348" s="150"/>
+      <c r="C348" s="157"/>
+      <c r="D348" s="155"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
@@ -49833,8 +49833,8 @@
       <c r="B349" s="2">
         <v>6</v>
       </c>
-      <c r="C349" s="152"/>
-      <c r="D349" s="150"/>
+      <c r="C349" s="157"/>
+      <c r="D349" s="155"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
@@ -49843,8 +49843,8 @@
       <c r="B350" s="2">
         <v>4</v>
       </c>
-      <c r="C350" s="152"/>
-      <c r="D350" s="150"/>
+      <c r="C350" s="157"/>
+      <c r="D350" s="155"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
@@ -49853,8 +49853,8 @@
       <c r="B351" s="2">
         <v>4</v>
       </c>
-      <c r="C351" s="152"/>
-      <c r="D351" s="150"/>
+      <c r="C351" s="157"/>
+      <c r="D351" s="155"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
@@ -49863,8 +49863,8 @@
       <c r="B352" s="2">
         <v>2</v>
       </c>
-      <c r="C352" s="152"/>
-      <c r="D352" s="150"/>
+      <c r="C352" s="157"/>
+      <c r="D352" s="155"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
@@ -49873,8 +49873,8 @@
       <c r="B353" s="2">
         <v>4</v>
       </c>
-      <c r="C353" s="152"/>
-      <c r="D353" s="150"/>
+      <c r="C353" s="157"/>
+      <c r="D353" s="155"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
@@ -49883,8 +49883,8 @@
       <c r="B354" s="2">
         <v>2</v>
       </c>
-      <c r="C354" s="152"/>
-      <c r="D354" s="150"/>
+      <c r="C354" s="157"/>
+      <c r="D354" s="155"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
@@ -49893,8 +49893,8 @@
       <c r="B355" s="2">
         <v>4</v>
       </c>
-      <c r="C355" s="152"/>
-      <c r="D355" s="150"/>
+      <c r="C355" s="157"/>
+      <c r="D355" s="155"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
@@ -49903,8 +49903,8 @@
       <c r="B356" s="2">
         <v>4</v>
       </c>
-      <c r="C356" s="152"/>
-      <c r="D356" s="150"/>
+      <c r="C356" s="157"/>
+      <c r="D356" s="155"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
@@ -49913,8 +49913,8 @@
       <c r="B357" s="2">
         <v>4</v>
       </c>
-      <c r="C357" s="152"/>
-      <c r="D357" s="150"/>
+      <c r="C357" s="157"/>
+      <c r="D357" s="155"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
@@ -49923,8 +49923,8 @@
       <c r="B358" s="2">
         <v>4</v>
       </c>
-      <c r="C358" s="152"/>
-      <c r="D358" s="150"/>
+      <c r="C358" s="157"/>
+      <c r="D358" s="155"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
@@ -49933,8 +49933,8 @@
       <c r="B359" s="2">
         <v>10</v>
       </c>
-      <c r="C359" s="152"/>
-      <c r="D359" s="150"/>
+      <c r="C359" s="157"/>
+      <c r="D359" s="155"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
@@ -49943,8 +49943,8 @@
       <c r="B360" s="2">
         <v>6</v>
       </c>
-      <c r="C360" s="152"/>
-      <c r="D360" s="150"/>
+      <c r="C360" s="157"/>
+      <c r="D360" s="155"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
@@ -49953,8 +49953,8 @@
       <c r="B361" s="2">
         <v>4</v>
       </c>
-      <c r="C361" s="152"/>
-      <c r="D361" s="150"/>
+      <c r="C361" s="157"/>
+      <c r="D361" s="155"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
@@ -49963,8 +49963,8 @@
       <c r="B362" s="2">
         <v>4</v>
       </c>
-      <c r="C362" s="152"/>
-      <c r="D362" s="150"/>
+      <c r="C362" s="157"/>
+      <c r="D362" s="155"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
@@ -49973,8 +49973,8 @@
       <c r="B363" s="2">
         <v>4</v>
       </c>
-      <c r="C363" s="152"/>
-      <c r="D363" s="150"/>
+      <c r="C363" s="157"/>
+      <c r="D363" s="155"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
@@ -49983,8 +49983,8 @@
       <c r="B364" s="2">
         <v>6</v>
       </c>
-      <c r="C364" s="152"/>
-      <c r="D364" s="150"/>
+      <c r="C364" s="157"/>
+      <c r="D364" s="155"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
@@ -49993,8 +49993,8 @@
       <c r="B365" s="2">
         <v>4</v>
       </c>
-      <c r="C365" s="152"/>
-      <c r="D365" s="150"/>
+      <c r="C365" s="157"/>
+      <c r="D365" s="155"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
@@ -50003,20 +50003,11 @@
       <c r="B366" s="2">
         <v>6</v>
       </c>
-      <c r="C366" s="142"/>
-      <c r="D366" s="150"/>
+      <c r="C366" s="131"/>
+      <c r="D366" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C1:C31"/>
-    <mergeCell ref="C32:C60"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="L19:L30"/>
     <mergeCell ref="C61:C91"/>
     <mergeCell ref="D1:D366"/>
     <mergeCell ref="C92:C121"/>
@@ -50028,6 +50019,15 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C1:C31"/>
+    <mergeCell ref="C32:C60"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L19:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D4E42F-6103-49A4-8F13-222378AF688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF924C7-5753-49AC-B976-5394F53047DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2547" windowWidth="14400" windowHeight="8453" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HappinessIndex2025" sheetId="7" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="272">
   <si>
     <t>Amazing Day</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>Anora</t>
+  </si>
+  <si>
+    <t>Hons</t>
   </si>
 </sst>
 </file>
@@ -2065,30 +2068,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2122,6 +2101,30 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2130,6 +2133,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2144,15 +2156,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2376,7 +2379,7 @@
                   <c:v>5.1967741935483867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.25</c:v>
+                  <c:v>3.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3454,16 +3457,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6908,6 +6911,18 @@
                 <c:pt idx="93">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7206,7 +7221,7 @@
                   <c:v>64.516129032258064</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>100</c:v>
+                  <c:v>98.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17320,8 +17335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6CF7-CA58-448E-9A43-748C25428E75}">
   <dimension ref="A1:BA367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -17370,11 +17385,11 @@
       <c r="G1" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="145" t="s">
+      <c r="H1" s="137" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="AK1" t="s">
         <v>214</v>
       </c>
@@ -17392,13 +17407,13 @@
       <c r="B2" s="76">
         <v>2.5</v>
       </c>
-      <c r="C2" s="135">
+      <c r="C2" s="146">
         <f>AVERAGE(B2:B32)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="130">
+      <c r="D2" s="141">
         <f>AVERAGE(C2:C366)</f>
-        <v>4.5509792626728105</v>
+        <v>4.6603542626728105</v>
       </c>
       <c r="E2" s="62">
         <v>1</v>
@@ -17406,9 +17421,9 @@
       <c r="F2" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="147"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
       <c r="AK2" s="75">
         <v>45658</v>
       </c>
@@ -17482,8 +17497,8 @@
       <c r="B3" s="2">
         <v>2.8</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="131"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="142"/>
       <c r="E3" s="62">
         <v>1</v>
       </c>
@@ -17564,8 +17579,8 @@
       <c r="B4" s="2">
         <v>4.8</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="131"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="62">
         <v>1</v>
       </c>
@@ -17680,8 +17695,8 @@
       <c r="B5" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="131"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="62">
         <v>1</v>
       </c>
@@ -17706,9 +17721,9 @@
         <f>C2</f>
         <v>5</v>
       </c>
-      <c r="N5" s="142">
+      <c r="N5" s="134">
         <f>AVERAGE(M5:M16)</f>
-        <v>4.5509792626728105</v>
+        <v>4.6603542626728105</v>
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -17808,8 +17823,8 @@
       <c r="B6" s="2">
         <v>6.2</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="131"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="142"/>
       <c r="E6" s="62">
         <v>1</v>
       </c>
@@ -17833,7 +17848,7 @@
         <f>C33</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="N6" s="143"/>
+      <c r="N6" s="135"/>
       <c r="O6" s="61">
         <f>COUNTIFS(B33:B60,"&gt;=10")</f>
         <v>0</v>
@@ -17932,8 +17947,8 @@
       <c r="B7" s="2">
         <v>6.1</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="131"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="142"/>
       <c r="E7" s="62">
         <v>1</v>
       </c>
@@ -17949,7 +17964,7 @@
       </c>
       <c r="J7" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=6", B2:B366,"&lt;8")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="60" t="s">
         <v>10</v>
@@ -17958,7 +17973,7 @@
         <f>C61</f>
         <v>5.1967741935483867</v>
       </c>
-      <c r="N7" s="143"/>
+      <c r="N7" s="135"/>
       <c r="O7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=10")</f>
         <v>0</v>
@@ -18057,8 +18072,8 @@
       <c r="B8" s="2">
         <v>3.5</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="131"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="62">
         <v>1</v>
       </c>
@@ -18073,16 +18088,16 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L8" s="60" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="32">
         <f>C92</f>
-        <v>3.25</v>
-      </c>
-      <c r="N8" s="143"/>
+        <v>3.6875</v>
+      </c>
+      <c r="N8" s="135"/>
       <c r="O8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=10")</f>
         <v>0</v>
@@ -18093,11 +18108,11 @@
       </c>
       <c r="Q8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=6",B92:B121,"&lt;8")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=4", B92:B121,"&lt;6")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=2", B92:B121,"&lt;4")</f>
@@ -18105,7 +18120,7 @@
       </c>
       <c r="T8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=0", B92:B121,"&lt;2")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" s="32"/>
       <c r="AK8" s="56">
@@ -18181,8 +18196,8 @@
       <c r="B9" s="2">
         <v>1.2</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="131"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="62">
         <v>1</v>
       </c>
@@ -18206,7 +18221,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="32"/>
-      <c r="N9" s="143"/>
+      <c r="N9" s="135"/>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="61"/>
@@ -18287,8 +18302,8 @@
       <c r="B10" s="2">
         <v>5.6</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="131"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="62">
         <v>1</v>
       </c>
@@ -18303,13 +18318,13 @@
       </c>
       <c r="J10" s="16">
         <f>COUNTIFS(B2:B366,"&gt;=0", B2:B366,"&lt;2")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" s="60" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="32"/>
-      <c r="N10" s="143"/>
+      <c r="N10" s="135"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
       <c r="Q10" s="61"/>
@@ -18390,8 +18405,8 @@
       <c r="B11" s="2">
         <v>4.3</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="131"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="142"/>
       <c r="E11" s="62">
         <v>1</v>
       </c>
@@ -18399,19 +18414,19 @@
         <v>180</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="138" t="s">
+      <c r="H11" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="139"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="32"/>
-      <c r="N11" s="143"/>
+      <c r="N11" s="135"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="61"/>
@@ -18492,8 +18507,8 @@
       <c r="B12" s="2">
         <v>5.4</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="131"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="142"/>
       <c r="E12" s="62">
         <v>1</v>
       </c>
@@ -18504,7 +18519,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="143"/>
+      <c r="N12" s="135"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
@@ -18585,8 +18600,8 @@
       <c r="B13" s="2">
         <v>7.2</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="131"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="142"/>
       <c r="E13" s="62">
         <v>1</v>
       </c>
@@ -18594,19 +18609,19 @@
         <v>180</v>
       </c>
       <c r="G13" s="78"/>
-      <c r="H13" s="140" t="s">
+      <c r="H13" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141">
+      <c r="I13" s="132"/>
+      <c r="J13" s="133">
         <f>J11/3.65</f>
-        <v>25.753424657534246</v>
+        <v>26.849315068493151</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="32"/>
-      <c r="N13" s="143"/>
+      <c r="N13" s="135"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
       <c r="Q13" s="61"/>
@@ -18703,22 +18718,22 @@
       <c r="B14" s="2">
         <v>3.9</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="131"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="142"/>
       <c r="E14" s="62">
         <v>0.8</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
       <c r="L14" s="60" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="32"/>
-      <c r="N14" s="143"/>
+      <c r="N14" s="135"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
       <c r="Q14" s="61"/>
@@ -18820,8 +18835,8 @@
       <c r="B15" s="2">
         <v>1.5</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="131"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="142"/>
       <c r="E15" s="62">
         <v>1</v>
       </c>
@@ -18835,7 +18850,7 @@
         <v>18</v>
       </c>
       <c r="M15" s="32"/>
-      <c r="N15" s="143"/>
+      <c r="N15" s="135"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="61"/>
@@ -18937,8 +18952,8 @@
       <c r="B16" s="2">
         <v>5.2</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="142"/>
       <c r="E16" s="62">
         <v>1</v>
       </c>
@@ -18949,7 +18964,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="32"/>
-      <c r="N16" s="144"/>
+      <c r="N16" s="136"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="61"/>
@@ -19051,8 +19066,8 @@
       <c r="B17" s="2">
         <v>6.5</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="62">
         <v>1</v>
       </c>
@@ -19065,7 +19080,7 @@
       </c>
       <c r="AE17" s="31">
         <f>AVERAGE(E92:E121)*100</f>
-        <v>100</v>
+        <v>98.75</v>
       </c>
       <c r="AG17" t="str">
         <f>TRIM(MID(SUBSTITUTE($F38, ",", REPT(" ", 100)), (COLUMNS($AH$2:AL38)-1)*100+1, 100))</f>
@@ -19154,8 +19169,8 @@
       <c r="B18" s="2">
         <v>2.9</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="131"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="142"/>
       <c r="E18" s="62">
         <v>0.6</v>
       </c>
@@ -19253,8 +19268,8 @@
       <c r="B19" s="2">
         <v>3.3</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="131"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="62">
         <v>0</v>
       </c>
@@ -19353,8 +19368,8 @@
       <c r="B20" s="2">
         <v>6.2</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="131"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="142"/>
       <c r="E20" s="62">
         <v>1</v>
       </c>
@@ -19450,8 +19465,8 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="131"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="142"/>
       <c r="E21" s="62">
         <v>1</v>
       </c>
@@ -19548,8 +19563,8 @@
       <c r="B22" s="2">
         <v>4.3</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="131"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="142"/>
       <c r="E22" s="62">
         <v>0</v>
       </c>
@@ -19633,8 +19648,8 @@
       <c r="B23" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="131"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="142"/>
       <c r="E23" s="62">
         <v>0</v>
       </c>
@@ -19719,8 +19734,8 @@
       <c r="B24" s="2">
         <v>1.2</v>
       </c>
-      <c r="C24" s="136"/>
-      <c r="D24" s="131"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="142"/>
       <c r="E24" s="62">
         <v>1</v>
       </c>
@@ -19804,8 +19819,8 @@
       <c r="B25" s="2">
         <v>6.2</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="131"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="142"/>
       <c r="E25" s="62">
         <v>1</v>
       </c>
@@ -19890,8 +19905,8 @@
       <c r="B26" s="2">
         <v>8.1</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="131"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="142"/>
       <c r="E26" s="62">
         <v>0</v>
       </c>
@@ -19971,8 +19986,8 @@
       <c r="B27" s="2">
         <v>6.8</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="131"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="142"/>
       <c r="E27" s="62">
         <v>0</v>
       </c>
@@ -20053,8 +20068,8 @@
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="131"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="142"/>
       <c r="E28" s="62">
         <v>1</v>
       </c>
@@ -20134,8 +20149,8 @@
       <c r="B29" s="2">
         <v>5.8</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="131"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="62">
         <v>1</v>
       </c>
@@ -20216,8 +20231,8 @@
       <c r="B30" s="2">
         <v>5.3</v>
       </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="131"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="142"/>
       <c r="E30" s="62">
         <v>0</v>
       </c>
@@ -20297,8 +20312,8 @@
       <c r="B31" s="2">
         <v>7.4</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="131"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="142"/>
       <c r="E31" s="62">
         <v>1</v>
       </c>
@@ -20379,8 +20394,8 @@
       <c r="B32" s="58">
         <v>8.5</v>
       </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="131"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="142"/>
       <c r="E32" s="62">
         <v>1</v>
       </c>
@@ -20467,11 +20482,11 @@
       <c r="B33" s="51">
         <v>4.8</v>
       </c>
-      <c r="C33" s="133">
+      <c r="C33" s="144">
         <f>AVERAGE(B33:B60)</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="D33" s="132"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="62">
         <v>1</v>
       </c>
@@ -20553,8 +20568,8 @@
       <c r="B34" s="2">
         <v>4.5</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="132"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="62">
         <v>0</v>
       </c>
@@ -20631,8 +20646,8 @@
       <c r="B35" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="132"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="62">
         <v>1</v>
       </c>
@@ -20710,8 +20725,8 @@
       <c r="B36" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="132"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="62">
         <v>1</v>
       </c>
@@ -20788,8 +20803,8 @@
       <c r="B37" s="2">
         <v>3.3</v>
       </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="132"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="62">
         <v>0</v>
       </c>
@@ -20866,8 +20881,8 @@
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="132"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="62">
         <v>1</v>
       </c>
@@ -20944,8 +20959,8 @@
       <c r="B39" s="2">
         <v>1.3</v>
       </c>
-      <c r="C39" s="134"/>
-      <c r="D39" s="132"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="62">
         <v>0</v>
       </c>
@@ -21022,8 +21037,8 @@
       <c r="B40" s="2">
         <v>8.5</v>
       </c>
-      <c r="C40" s="134"/>
-      <c r="D40" s="132"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="62">
         <v>1</v>
       </c>
@@ -21103,8 +21118,8 @@
       <c r="B41" s="2">
         <v>4.5</v>
       </c>
-      <c r="C41" s="134"/>
-      <c r="D41" s="132"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="62">
         <v>0</v>
       </c>
@@ -21181,8 +21196,8 @@
       <c r="B42" s="2">
         <v>3.8</v>
       </c>
-      <c r="C42" s="134"/>
-      <c r="D42" s="132"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="62">
         <v>1</v>
       </c>
@@ -21259,8 +21274,8 @@
       <c r="B43" s="2">
         <v>5.5</v>
       </c>
-      <c r="C43" s="134"/>
-      <c r="D43" s="132"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="62">
         <v>1</v>
       </c>
@@ -21341,8 +21356,8 @@
       <c r="B44" s="2">
         <v>5.8</v>
       </c>
-      <c r="C44" s="134"/>
-      <c r="D44" s="132"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="62">
         <v>1</v>
       </c>
@@ -21423,8 +21438,8 @@
       <c r="B45" s="2">
         <v>5.5</v>
       </c>
-      <c r="C45" s="134"/>
-      <c r="D45" s="132"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="62">
         <v>0</v>
       </c>
@@ -21505,8 +21520,8 @@
       <c r="B46" s="2">
         <v>0</v>
       </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="132"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="62">
         <v>0</v>
       </c>
@@ -21590,8 +21605,8 @@
       <c r="B47" s="2">
         <v>4.5</v>
       </c>
-      <c r="C47" s="134"/>
-      <c r="D47" s="132"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="62">
         <v>1</v>
       </c>
@@ -21672,8 +21687,8 @@
       <c r="B48" s="2">
         <v>6.6</v>
       </c>
-      <c r="C48" s="134"/>
-      <c r="D48" s="132"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="62">
         <v>1</v>
       </c>
@@ -21754,8 +21769,8 @@
       <c r="B49" s="2">
         <v>7.5</v>
       </c>
-      <c r="C49" s="134"/>
-      <c r="D49" s="132"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="62">
         <v>1</v>
       </c>
@@ -21836,8 +21851,8 @@
       <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="132"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="62">
         <v>1</v>
       </c>
@@ -21918,8 +21933,8 @@
       <c r="B51" s="2">
         <v>4.8</v>
       </c>
-      <c r="C51" s="134"/>
-      <c r="D51" s="132"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="62">
         <v>0</v>
       </c>
@@ -22000,8 +22015,8 @@
       <c r="B52" s="2">
         <v>6.8</v>
       </c>
-      <c r="C52" s="134"/>
-      <c r="D52" s="132"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="62">
         <v>1</v>
       </c>
@@ -22082,8 +22097,8 @@
       <c r="B53" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C53" s="134"/>
-      <c r="D53" s="132"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="62">
         <v>1</v>
       </c>
@@ -22164,8 +22179,8 @@
       <c r="B54" s="2">
         <v>5.5</v>
       </c>
-      <c r="C54" s="134"/>
-      <c r="D54" s="132"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="62">
         <v>0</v>
       </c>
@@ -22246,8 +22261,8 @@
       <c r="B55" s="2">
         <v>4.5</v>
       </c>
-      <c r="C55" s="134"/>
-      <c r="D55" s="132"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="62">
         <v>1</v>
       </c>
@@ -22328,8 +22343,8 @@
       <c r="B56" s="2">
         <v>6.5</v>
       </c>
-      <c r="C56" s="134"/>
-      <c r="D56" s="132"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="62">
         <v>1</v>
       </c>
@@ -22410,8 +22425,8 @@
       <c r="B57" s="2">
         <v>4.5</v>
       </c>
-      <c r="C57" s="134"/>
-      <c r="D57" s="132"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="62">
         <v>1</v>
       </c>
@@ -22492,8 +22507,8 @@
       <c r="B58" s="2">
         <v>7.5</v>
       </c>
-      <c r="C58" s="134"/>
-      <c r="D58" s="132"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="62">
         <v>0</v>
       </c>
@@ -22574,8 +22589,8 @@
       <c r="B59" s="2">
         <v>5</v>
       </c>
-      <c r="C59" s="134"/>
-      <c r="D59" s="132"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="62">
         <v>1</v>
       </c>
@@ -22656,8 +22671,8 @@
       <c r="B60" s="2">
         <v>5.5</v>
       </c>
-      <c r="C60" s="134"/>
-      <c r="D60" s="132"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="62">
         <v>1</v>
       </c>
@@ -22738,11 +22753,11 @@
       <c r="B61" s="2">
         <v>5</v>
       </c>
-      <c r="C61" s="134">
+      <c r="C61" s="145">
         <f>AVERAGE(B61:B91)</f>
         <v>5.1967741935483867</v>
       </c>
-      <c r="D61" s="132"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="62">
         <v>0</v>
       </c>
@@ -22823,8 +22838,8 @@
       <c r="B62" s="2">
         <v>4.8</v>
       </c>
-      <c r="C62" s="134"/>
-      <c r="D62" s="132"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="62">
         <v>0</v>
       </c>
@@ -22905,8 +22920,8 @@
       <c r="B63" s="2">
         <v>3</v>
       </c>
-      <c r="C63" s="134"/>
-      <c r="D63" s="132"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="62">
         <v>1</v>
       </c>
@@ -22987,8 +23002,8 @@
       <c r="B64" s="2">
         <v>4</v>
       </c>
-      <c r="C64" s="134"/>
-      <c r="D64" s="132"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="62">
         <v>1</v>
       </c>
@@ -23069,8 +23084,8 @@
       <c r="B65" s="2">
         <v>5</v>
       </c>
-      <c r="C65" s="134"/>
-      <c r="D65" s="132"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="143"/>
       <c r="E65" s="62">
         <v>0</v>
       </c>
@@ -23151,8 +23166,8 @@
       <c r="B66" s="2">
         <v>6.5</v>
       </c>
-      <c r="C66" s="134"/>
-      <c r="D66" s="132"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="143"/>
       <c r="E66" s="62">
         <v>0</v>
       </c>
@@ -23233,8 +23248,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="134"/>
-      <c r="D67" s="132"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="62">
         <v>1</v>
       </c>
@@ -23314,8 +23329,8 @@
       <c r="B68" s="2">
         <v>6.1</v>
       </c>
-      <c r="C68" s="134"/>
-      <c r="D68" s="132"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="62">
         <v>1</v>
       </c>
@@ -23395,8 +23410,8 @@
       <c r="B69" s="2">
         <v>8</v>
       </c>
-      <c r="C69" s="134"/>
-      <c r="D69" s="132"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="143"/>
       <c r="E69" s="62">
         <v>0</v>
       </c>
@@ -23476,8 +23491,8 @@
       <c r="B70" s="2">
         <v>4.5</v>
       </c>
-      <c r="C70" s="134"/>
-      <c r="D70" s="132"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="143"/>
       <c r="E70" s="62">
         <v>1</v>
       </c>
@@ -23557,8 +23572,8 @@
       <c r="B71" s="2">
         <v>7</v>
       </c>
-      <c r="C71" s="134"/>
-      <c r="D71" s="132"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="143"/>
       <c r="E71" s="62">
         <v>1</v>
       </c>
@@ -23638,8 +23653,8 @@
       <c r="B72" s="2">
         <v>4.8</v>
       </c>
-      <c r="C72" s="134"/>
-      <c r="D72" s="132"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="143"/>
       <c r="E72" s="62">
         <v>1</v>
       </c>
@@ -23719,8 +23734,8 @@
       <c r="B73" s="2">
         <v>5</v>
       </c>
-      <c r="C73" s="134"/>
-      <c r="D73" s="132"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="143"/>
       <c r="E73" s="62">
         <v>1</v>
       </c>
@@ -23800,8 +23815,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="134"/>
-      <c r="D74" s="132"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="143"/>
       <c r="E74" s="62">
         <v>0</v>
       </c>
@@ -23881,8 +23896,8 @@
       <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75" s="134"/>
-      <c r="D75" s="132"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="143"/>
       <c r="E75" s="62">
         <v>0</v>
       </c>
@@ -23962,8 +23977,8 @@
       <c r="B76" s="2">
         <v>5</v>
       </c>
-      <c r="C76" s="134"/>
-      <c r="D76" s="132"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="143"/>
       <c r="E76" s="62">
         <v>1</v>
       </c>
@@ -24043,8 +24058,8 @@
       <c r="B77" s="2">
         <v>4.2</v>
       </c>
-      <c r="C77" s="134"/>
-      <c r="D77" s="132"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="143"/>
       <c r="E77" s="62">
         <v>0</v>
       </c>
@@ -24124,8 +24139,8 @@
       <c r="B78" s="2">
         <v>5.5</v>
       </c>
-      <c r="C78" s="134"/>
-      <c r="D78" s="132"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="143"/>
       <c r="E78" s="62">
         <v>1</v>
       </c>
@@ -24205,8 +24220,8 @@
       <c r="B79" s="2">
         <v>3</v>
       </c>
-      <c r="C79" s="134"/>
-      <c r="D79" s="132"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="143"/>
       <c r="E79" s="62">
         <v>0</v>
       </c>
@@ -24286,8 +24301,8 @@
       <c r="B80" s="2">
         <v>5</v>
       </c>
-      <c r="C80" s="134"/>
-      <c r="D80" s="132"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="143"/>
       <c r="E80" s="62">
         <v>1</v>
       </c>
@@ -24367,8 +24382,8 @@
       <c r="B81" s="2">
         <v>5</v>
       </c>
-      <c r="C81" s="134"/>
-      <c r="D81" s="132"/>
+      <c r="C81" s="145"/>
+      <c r="D81" s="143"/>
       <c r="E81" s="62">
         <v>1</v>
       </c>
@@ -24448,8 +24463,8 @@
       <c r="B82" s="2">
         <v>7.5</v>
       </c>
-      <c r="C82" s="134"/>
-      <c r="D82" s="132"/>
+      <c r="C82" s="145"/>
+      <c r="D82" s="143"/>
       <c r="E82" s="62">
         <v>1</v>
       </c>
@@ -24529,8 +24544,8 @@
       <c r="B83" s="2">
         <v>7</v>
       </c>
-      <c r="C83" s="134"/>
-      <c r="D83" s="132"/>
+      <c r="C83" s="145"/>
+      <c r="D83" s="143"/>
       <c r="E83" s="62">
         <v>1</v>
       </c>
@@ -24613,8 +24628,8 @@
       <c r="B84" s="2">
         <v>4</v>
       </c>
-      <c r="C84" s="134"/>
-      <c r="D84" s="132"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="143"/>
       <c r="E84" s="62">
         <v>0</v>
       </c>
@@ -24694,8 +24709,8 @@
       <c r="B85" s="2">
         <v>5.5</v>
       </c>
-      <c r="C85" s="134"/>
-      <c r="D85" s="132"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="143"/>
       <c r="E85" s="62">
         <v>1</v>
       </c>
@@ -24775,8 +24790,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="134"/>
-      <c r="D86" s="132"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="143"/>
       <c r="E86" s="62">
         <v>1</v>
       </c>
@@ -24859,8 +24874,8 @@
       <c r="B87" s="2">
         <v>5.2</v>
       </c>
-      <c r="C87" s="134"/>
-      <c r="D87" s="132"/>
+      <c r="C87" s="145"/>
+      <c r="D87" s="143"/>
       <c r="E87" s="62">
         <v>1</v>
       </c>
@@ -24940,8 +24955,8 @@
       <c r="B88" s="2">
         <v>4.5</v>
       </c>
-      <c r="C88" s="134"/>
-      <c r="D88" s="132"/>
+      <c r="C88" s="145"/>
+      <c r="D88" s="143"/>
       <c r="E88" s="62">
         <v>1</v>
       </c>
@@ -25021,8 +25036,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="134"/>
-      <c r="D89" s="132"/>
+      <c r="C89" s="145"/>
+      <c r="D89" s="143"/>
       <c r="E89" s="62">
         <v>0</v>
       </c>
@@ -25102,8 +25117,8 @@
       <c r="B90" s="2">
         <v>6.5</v>
       </c>
-      <c r="C90" s="134"/>
-      <c r="D90" s="132"/>
+      <c r="C90" s="145"/>
+      <c r="D90" s="143"/>
       <c r="E90" s="62">
         <v>1</v>
       </c>
@@ -25183,8 +25198,8 @@
       <c r="B91" s="2">
         <v>5.5</v>
       </c>
-      <c r="C91" s="134"/>
-      <c r="D91" s="132"/>
+      <c r="C91" s="145"/>
+      <c r="D91" s="143"/>
       <c r="E91" s="62">
         <v>1</v>
       </c>
@@ -25264,11 +25279,11 @@
       <c r="B92" s="2">
         <v>4.8</v>
       </c>
-      <c r="C92" s="134">
+      <c r="C92" s="145">
         <f>AVERAGE(B92:B121)</f>
-        <v>3.25</v>
-      </c>
-      <c r="D92" s="132"/>
+        <v>3.6875</v>
+      </c>
+      <c r="D92" s="143"/>
       <c r="E92" s="62">
         <v>1</v>
       </c>
@@ -25351,8 +25366,8 @@
       <c r="B93" s="2">
         <v>4.2</v>
       </c>
-      <c r="C93" s="134"/>
-      <c r="D93" s="132"/>
+      <c r="C93" s="145"/>
+      <c r="D93" s="143"/>
       <c r="E93" s="62">
         <v>1</v>
       </c>
@@ -25435,8 +25450,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="134"/>
-      <c r="D94" s="132"/>
+      <c r="C94" s="145"/>
+      <c r="D94" s="143"/>
       <c r="E94" s="62">
         <v>1</v>
       </c>
@@ -25519,13 +25534,16 @@
       <c r="B95" s="2">
         <v>0</v>
       </c>
-      <c r="C95" s="134"/>
-      <c r="D95" s="132"/>
+      <c r="C95" s="145"/>
+      <c r="D95" s="143"/>
       <c r="E95" s="62">
         <v>1</v>
       </c>
       <c r="F95" s="38" t="s">
         <v>180</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="AJ95" t="str">
         <f>TRIM(MID(SUBSTITUTE($F95, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ95)-1)*100+1, 100))</f>
@@ -25600,11 +25618,19 @@
       <c r="A96" s="1">
         <v>45752</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="134"/>
-      <c r="D96" s="132"/>
+      <c r="B96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C96" s="145"/>
+      <c r="D96" s="143"/>
+      <c r="E96" s="62">
+        <v>1</v>
+      </c>
       <c r="F96" s="38" t="s">
         <v>180</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="AJ96" t="str">
         <f>TRIM(MID(SUBSTITUTE($F96, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ96)-1)*100+1, 100))</f>
@@ -25679,9 +25705,14 @@
       <c r="A97" s="1">
         <v>45753</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="134"/>
-      <c r="D97" s="132"/>
+      <c r="B97" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="C97" s="145"/>
+      <c r="D97" s="143"/>
+      <c r="E97" s="62">
+        <v>1</v>
+      </c>
       <c r="F97" s="38" t="s">
         <v>180</v>
       </c>
@@ -25758,9 +25789,14 @@
       <c r="A98" s="1">
         <v>45754</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="134"/>
-      <c r="D98" s="132"/>
+      <c r="B98" s="2">
+        <v>6</v>
+      </c>
+      <c r="C98" s="145"/>
+      <c r="D98" s="143"/>
+      <c r="E98" s="62">
+        <v>0.9</v>
+      </c>
       <c r="F98" s="38" t="s">
         <v>180</v>
       </c>
@@ -25837,9 +25873,14 @@
       <c r="A99" s="1">
         <v>45755</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="134"/>
-      <c r="D99" s="132"/>
+      <c r="B99" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="C99" s="145"/>
+      <c r="D99" s="143"/>
+      <c r="E99" s="62">
+        <v>1</v>
+      </c>
       <c r="F99" s="38" t="s">
         <v>180</v>
       </c>
@@ -25917,8 +25958,8 @@
         <v>45756</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="134"/>
-      <c r="D100" s="132"/>
+      <c r="C100" s="145"/>
+      <c r="D100" s="143"/>
       <c r="F100" s="38" t="s">
         <v>180</v>
       </c>
@@ -25996,8 +26037,8 @@
         <v>45757</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="134"/>
-      <c r="D101" s="132"/>
+      <c r="C101" s="145"/>
+      <c r="D101" s="143"/>
       <c r="F101" s="38" t="s">
         <v>180</v>
       </c>
@@ -26075,8 +26116,8 @@
         <v>45758</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="134"/>
-      <c r="D102" s="132"/>
+      <c r="C102" s="145"/>
+      <c r="D102" s="143"/>
       <c r="F102" s="38" t="s">
         <v>180</v>
       </c>
@@ -26154,8 +26195,8 @@
         <v>45759</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="134"/>
-      <c r="D103" s="132"/>
+      <c r="C103" s="145"/>
+      <c r="D103" s="143"/>
       <c r="F103" s="38" t="s">
         <v>180</v>
       </c>
@@ -26233,8 +26274,8 @@
         <v>45760</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="134"/>
-      <c r="D104" s="132"/>
+      <c r="C104" s="145"/>
+      <c r="D104" s="143"/>
       <c r="F104" s="38" t="s">
         <v>180</v>
       </c>
@@ -26312,8 +26353,8 @@
         <v>45761</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="134"/>
-      <c r="D105" s="132"/>
+      <c r="C105" s="145"/>
+      <c r="D105" s="143"/>
       <c r="F105" s="38" t="s">
         <v>180</v>
       </c>
@@ -26391,8 +26432,8 @@
         <v>45762</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="134"/>
-      <c r="D106" s="132"/>
+      <c r="C106" s="145"/>
+      <c r="D106" s="143"/>
       <c r="F106" s="38" t="s">
         <v>180</v>
       </c>
@@ -26470,8 +26511,8 @@
         <v>45763</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="134"/>
-      <c r="D107" s="132"/>
+      <c r="C107" s="145"/>
+      <c r="D107" s="143"/>
       <c r="F107" s="38" t="s">
         <v>180</v>
       </c>
@@ -26549,8 +26590,8 @@
         <v>45764</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="134"/>
-      <c r="D108" s="132"/>
+      <c r="C108" s="145"/>
+      <c r="D108" s="143"/>
       <c r="F108" s="38" t="s">
         <v>180</v>
       </c>
@@ -26628,8 +26669,8 @@
         <v>45765</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="134"/>
-      <c r="D109" s="132"/>
+      <c r="C109" s="145"/>
+      <c r="D109" s="143"/>
       <c r="F109" s="38" t="s">
         <v>180</v>
       </c>
@@ -26707,8 +26748,8 @@
         <v>45766</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="134"/>
-      <c r="D110" s="132"/>
+      <c r="C110" s="145"/>
+      <c r="D110" s="143"/>
       <c r="F110" s="38" t="s">
         <v>180</v>
       </c>
@@ -26786,8 +26827,8 @@
         <v>45767</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="134"/>
-      <c r="D111" s="132"/>
+      <c r="C111" s="145"/>
+      <c r="D111" s="143"/>
       <c r="F111" s="38" t="s">
         <v>180</v>
       </c>
@@ -26865,8 +26906,8 @@
         <v>45768</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="134"/>
-      <c r="D112" s="132"/>
+      <c r="C112" s="145"/>
+      <c r="D112" s="143"/>
       <c r="F112" s="38" t="s">
         <v>180</v>
       </c>
@@ -26944,8 +26985,8 @@
         <v>45769</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="134"/>
-      <c r="D113" s="132"/>
+      <c r="C113" s="145"/>
+      <c r="D113" s="143"/>
       <c r="F113" s="38" t="s">
         <v>180</v>
       </c>
@@ -27023,8 +27064,8 @@
         <v>45770</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="134"/>
-      <c r="D114" s="132"/>
+      <c r="C114" s="145"/>
+      <c r="D114" s="143"/>
       <c r="F114" s="38" t="s">
         <v>180</v>
       </c>
@@ -27102,8 +27143,8 @@
         <v>45771</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="134"/>
-      <c r="D115" s="132"/>
+      <c r="C115" s="145"/>
+      <c r="D115" s="143"/>
       <c r="F115" s="38" t="s">
         <v>180</v>
       </c>
@@ -27181,8 +27222,8 @@
         <v>45772</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="134"/>
-      <c r="D116" s="132"/>
+      <c r="C116" s="145"/>
+      <c r="D116" s="143"/>
       <c r="F116" s="38" t="s">
         <v>180</v>
       </c>
@@ -27260,8 +27301,8 @@
         <v>45773</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="134"/>
-      <c r="D117" s="132"/>
+      <c r="C117" s="145"/>
+      <c r="D117" s="143"/>
       <c r="F117" s="38" t="s">
         <v>180</v>
       </c>
@@ -27339,8 +27380,8 @@
         <v>45774</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="134"/>
-      <c r="D118" s="132"/>
+      <c r="C118" s="145"/>
+      <c r="D118" s="143"/>
       <c r="F118" s="38" t="s">
         <v>180</v>
       </c>
@@ -27418,8 +27459,8 @@
         <v>45775</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="134"/>
-      <c r="D119" s="132"/>
+      <c r="C119" s="145"/>
+      <c r="D119" s="143"/>
       <c r="F119" s="38" t="s">
         <v>180</v>
       </c>
@@ -27497,8 +27538,8 @@
         <v>45776</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="134"/>
-      <c r="D120" s="132"/>
+      <c r="C120" s="145"/>
+      <c r="D120" s="143"/>
       <c r="F120" s="38" t="s">
         <v>269</v>
       </c>
@@ -27576,8 +27617,8 @@
         <v>45777</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="134"/>
-      <c r="D121" s="132"/>
+      <c r="C121" s="145"/>
+      <c r="D121" s="143"/>
       <c r="F121" s="38" t="s">
         <v>198</v>
       </c>
@@ -27655,8 +27696,8 @@
         <v>45778</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="134"/>
-      <c r="D122" s="132"/>
+      <c r="C122" s="145"/>
+      <c r="D122" s="143"/>
       <c r="AJ122" t="str">
         <f>TRIM(MID(SUBSTITUTE($F122, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ122)-1)*100+1, 100))</f>
         <v/>
@@ -27731,8 +27772,8 @@
         <v>45779</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="134"/>
-      <c r="D123" s="132"/>
+      <c r="C123" s="145"/>
+      <c r="D123" s="143"/>
       <c r="AJ123" t="str">
         <f>TRIM(MID(SUBSTITUTE($F123, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ123)-1)*100+1, 100))</f>
         <v/>
@@ -27807,8 +27848,8 @@
         <v>45780</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="134"/>
-      <c r="D124" s="132"/>
+      <c r="C124" s="145"/>
+      <c r="D124" s="143"/>
       <c r="AJ124" t="str">
         <f>TRIM(MID(SUBSTITUTE($F124, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ124)-1)*100+1, 100))</f>
         <v/>
@@ -27883,8 +27924,8 @@
         <v>45781</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="134"/>
-      <c r="D125" s="132"/>
+      <c r="C125" s="145"/>
+      <c r="D125" s="143"/>
       <c r="AJ125" t="str">
         <f>TRIM(MID(SUBSTITUTE($F125, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ125)-1)*100+1, 100))</f>
         <v/>
@@ -27959,8 +28000,8 @@
         <v>45782</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="134"/>
-      <c r="D126" s="132"/>
+      <c r="C126" s="145"/>
+      <c r="D126" s="143"/>
       <c r="AJ126" t="str">
         <f>TRIM(MID(SUBSTITUTE($F126, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ126)-1)*100+1, 100))</f>
         <v/>
@@ -28035,8 +28076,8 @@
         <v>45783</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="134"/>
-      <c r="D127" s="132"/>
+      <c r="C127" s="145"/>
+      <c r="D127" s="143"/>
       <c r="AJ127" t="str">
         <f>TRIM(MID(SUBSTITUTE($F127, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ127)-1)*100+1, 100))</f>
         <v/>
@@ -28111,8 +28152,8 @@
         <v>45784</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="134"/>
-      <c r="D128" s="132"/>
+      <c r="C128" s="145"/>
+      <c r="D128" s="143"/>
       <c r="AJ128" t="str">
         <f>TRIM(MID(SUBSTITUTE($F128, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ128)-1)*100+1, 100))</f>
         <v/>
@@ -28187,8 +28228,8 @@
         <v>45785</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="134"/>
-      <c r="D129" s="132"/>
+      <c r="C129" s="145"/>
+      <c r="D129" s="143"/>
       <c r="AJ129" t="str">
         <f>TRIM(MID(SUBSTITUTE($F129, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ129)-1)*100+1, 100))</f>
         <v/>
@@ -28263,8 +28304,8 @@
         <v>45786</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="134"/>
-      <c r="D130" s="132"/>
+      <c r="C130" s="145"/>
+      <c r="D130" s="143"/>
       <c r="AJ130" t="str">
         <f>TRIM(MID(SUBSTITUTE($F130, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ130)-1)*100+1, 100))</f>
         <v/>
@@ -28339,8 +28380,8 @@
         <v>45787</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="134"/>
-      <c r="D131" s="132"/>
+      <c r="C131" s="145"/>
+      <c r="D131" s="143"/>
       <c r="AJ131" t="str">
         <f>TRIM(MID(SUBSTITUTE($F131, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ131)-1)*100+1, 100))</f>
         <v/>
@@ -28415,8 +28456,8 @@
         <v>45788</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="134"/>
-      <c r="D132" s="132"/>
+      <c r="C132" s="145"/>
+      <c r="D132" s="143"/>
       <c r="AJ132" t="str">
         <f>TRIM(MID(SUBSTITUTE($F132, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ132)-1)*100+1, 100))</f>
         <v/>
@@ -28491,8 +28532,8 @@
         <v>45789</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="134"/>
-      <c r="D133" s="132"/>
+      <c r="C133" s="145"/>
+      <c r="D133" s="143"/>
       <c r="AJ133" t="str">
         <f>TRIM(MID(SUBSTITUTE($F133, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ133)-1)*100+1, 100))</f>
         <v/>
@@ -28567,8 +28608,8 @@
         <v>45790</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="134"/>
-      <c r="D134" s="132"/>
+      <c r="C134" s="145"/>
+      <c r="D134" s="143"/>
       <c r="AJ134" t="str">
         <f>TRIM(MID(SUBSTITUTE($F134, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ134)-1)*100+1, 100))</f>
         <v/>
@@ -28643,8 +28684,8 @@
         <v>45791</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="134"/>
-      <c r="D135" s="132"/>
+      <c r="C135" s="145"/>
+      <c r="D135" s="143"/>
       <c r="AJ135" t="str">
         <f>TRIM(MID(SUBSTITUTE($F135, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ135)-1)*100+1, 100))</f>
         <v/>
@@ -28719,8 +28760,8 @@
         <v>45792</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="134"/>
-      <c r="D136" s="132"/>
+      <c r="C136" s="145"/>
+      <c r="D136" s="143"/>
       <c r="AJ136" t="str">
         <f>TRIM(MID(SUBSTITUTE($F136, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ136)-1)*100+1, 100))</f>
         <v/>
@@ -28795,8 +28836,8 @@
         <v>45793</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="134"/>
-      <c r="D137" s="132"/>
+      <c r="C137" s="145"/>
+      <c r="D137" s="143"/>
       <c r="AJ137" t="str">
         <f>TRIM(MID(SUBSTITUTE($F137, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ137)-1)*100+1, 100))</f>
         <v/>
@@ -28871,8 +28912,8 @@
         <v>45794</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="134"/>
-      <c r="D138" s="132"/>
+      <c r="C138" s="145"/>
+      <c r="D138" s="143"/>
       <c r="AJ138" t="str">
         <f>TRIM(MID(SUBSTITUTE($F138, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ138)-1)*100+1, 100))</f>
         <v/>
@@ -28947,8 +28988,8 @@
         <v>45795</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="134"/>
-      <c r="D139" s="132"/>
+      <c r="C139" s="145"/>
+      <c r="D139" s="143"/>
       <c r="AJ139" t="str">
         <f>TRIM(MID(SUBSTITUTE($F139, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ139)-1)*100+1, 100))</f>
         <v/>
@@ -29023,8 +29064,8 @@
         <v>45796</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="134"/>
-      <c r="D140" s="132"/>
+      <c r="C140" s="145"/>
+      <c r="D140" s="143"/>
       <c r="AJ140" t="str">
         <f>TRIM(MID(SUBSTITUTE($F140, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ140)-1)*100+1, 100))</f>
         <v/>
@@ -29099,8 +29140,8 @@
         <v>45797</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="134"/>
-      <c r="D141" s="132"/>
+      <c r="C141" s="145"/>
+      <c r="D141" s="143"/>
       <c r="AJ141" t="str">
         <f>TRIM(MID(SUBSTITUTE($F141, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ141)-1)*100+1, 100))</f>
         <v/>
@@ -29175,8 +29216,8 @@
         <v>45798</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="134"/>
-      <c r="D142" s="132"/>
+      <c r="C142" s="145"/>
+      <c r="D142" s="143"/>
       <c r="AJ142" t="str">
         <f>TRIM(MID(SUBSTITUTE($F142, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ142)-1)*100+1, 100))</f>
         <v/>
@@ -29251,8 +29292,8 @@
         <v>45799</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="134"/>
-      <c r="D143" s="132"/>
+      <c r="C143" s="145"/>
+      <c r="D143" s="143"/>
       <c r="AJ143" t="str">
         <f>TRIM(MID(SUBSTITUTE($F143, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ143)-1)*100+1, 100))</f>
         <v/>
@@ -29327,8 +29368,8 @@
         <v>45800</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="134"/>
-      <c r="D144" s="132"/>
+      <c r="C144" s="145"/>
+      <c r="D144" s="143"/>
       <c r="AJ144" t="str">
         <f>TRIM(MID(SUBSTITUTE($F144, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ144)-1)*100+1, 100))</f>
         <v/>
@@ -29403,8 +29444,8 @@
         <v>45801</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="134"/>
-      <c r="D145" s="132"/>
+      <c r="C145" s="145"/>
+      <c r="D145" s="143"/>
       <c r="AJ145" t="str">
         <f>TRIM(MID(SUBSTITUTE($F145, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ145)-1)*100+1, 100))</f>
         <v/>
@@ -29479,8 +29520,8 @@
         <v>45802</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="134"/>
-      <c r="D146" s="132"/>
+      <c r="C146" s="145"/>
+      <c r="D146" s="143"/>
       <c r="AJ146" t="str">
         <f>TRIM(MID(SUBSTITUTE($F146, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ146)-1)*100+1, 100))</f>
         <v/>
@@ -29555,8 +29596,8 @@
         <v>45803</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="134"/>
-      <c r="D147" s="132"/>
+      <c r="C147" s="145"/>
+      <c r="D147" s="143"/>
       <c r="AJ147" t="str">
         <f>TRIM(MID(SUBSTITUTE($F147, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ147)-1)*100+1, 100))</f>
         <v/>
@@ -29631,8 +29672,8 @@
         <v>45804</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="134"/>
-      <c r="D148" s="132"/>
+      <c r="C148" s="145"/>
+      <c r="D148" s="143"/>
       <c r="AJ148" t="str">
         <f>TRIM(MID(SUBSTITUTE($F148, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ148)-1)*100+1, 100))</f>
         <v/>
@@ -29707,8 +29748,8 @@
         <v>45805</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="134"/>
-      <c r="D149" s="132"/>
+      <c r="C149" s="145"/>
+      <c r="D149" s="143"/>
       <c r="AJ149" t="str">
         <f>TRIM(MID(SUBSTITUTE($F149, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ149)-1)*100+1, 100))</f>
         <v/>
@@ -29783,8 +29824,8 @@
         <v>45806</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="134"/>
-      <c r="D150" s="132"/>
+      <c r="C150" s="145"/>
+      <c r="D150" s="143"/>
       <c r="AJ150" t="str">
         <f>TRIM(MID(SUBSTITUTE($F150, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ150)-1)*100+1, 100))</f>
         <v/>
@@ -29859,8 +29900,8 @@
         <v>45807</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="134"/>
-      <c r="D151" s="132"/>
+      <c r="C151" s="145"/>
+      <c r="D151" s="143"/>
       <c r="AJ151" t="str">
         <f>TRIM(MID(SUBSTITUTE($F151, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ151)-1)*100+1, 100))</f>
         <v/>
@@ -29935,8 +29976,8 @@
         <v>45808</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="134"/>
-      <c r="D152" s="132"/>
+      <c r="C152" s="145"/>
+      <c r="D152" s="143"/>
       <c r="AJ152" t="str">
         <f>TRIM(MID(SUBSTITUTE($F152, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ152)-1)*100+1, 100))</f>
         <v/>
@@ -30011,8 +30052,8 @@
         <v>45809</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="134"/>
-      <c r="D153" s="132"/>
+      <c r="C153" s="145"/>
+      <c r="D153" s="143"/>
       <c r="AJ153" t="str">
         <f>TRIM(MID(SUBSTITUTE($F153, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ153)-1)*100+1, 100))</f>
         <v/>
@@ -30087,8 +30128,8 @@
         <v>45810</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="134"/>
-      <c r="D154" s="132"/>
+      <c r="C154" s="145"/>
+      <c r="D154" s="143"/>
       <c r="AJ154" t="str">
         <f>TRIM(MID(SUBSTITUTE($F154, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ154)-1)*100+1, 100))</f>
         <v/>
@@ -30163,8 +30204,8 @@
         <v>45811</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="134"/>
-      <c r="D155" s="132"/>
+      <c r="C155" s="145"/>
+      <c r="D155" s="143"/>
       <c r="AJ155" t="str">
         <f>TRIM(MID(SUBSTITUTE($F155, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ155)-1)*100+1, 100))</f>
         <v/>
@@ -30239,8 +30280,8 @@
         <v>45812</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="134"/>
-      <c r="D156" s="132"/>
+      <c r="C156" s="145"/>
+      <c r="D156" s="143"/>
       <c r="AJ156" t="str">
         <f>TRIM(MID(SUBSTITUTE($F156, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ156)-1)*100+1, 100))</f>
         <v/>
@@ -30315,8 +30356,8 @@
         <v>45813</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="134"/>
-      <c r="D157" s="132"/>
+      <c r="C157" s="145"/>
+      <c r="D157" s="143"/>
       <c r="AJ157" t="str">
         <f>TRIM(MID(SUBSTITUTE($F157, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ157)-1)*100+1, 100))</f>
         <v/>
@@ -30391,8 +30432,8 @@
         <v>45814</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="134"/>
-      <c r="D158" s="132"/>
+      <c r="C158" s="145"/>
+      <c r="D158" s="143"/>
       <c r="AJ158" t="str">
         <f>TRIM(MID(SUBSTITUTE($F158, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ158)-1)*100+1, 100))</f>
         <v/>
@@ -30467,8 +30508,8 @@
         <v>45815</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="134"/>
-      <c r="D159" s="132"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="143"/>
       <c r="AJ159" t="str">
         <f>TRIM(MID(SUBSTITUTE($F159, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ159)-1)*100+1, 100))</f>
         <v/>
@@ -30543,8 +30584,8 @@
         <v>45816</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="134"/>
-      <c r="D160" s="132"/>
+      <c r="C160" s="145"/>
+      <c r="D160" s="143"/>
       <c r="AJ160" t="str">
         <f>TRIM(MID(SUBSTITUTE($F160, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ160)-1)*100+1, 100))</f>
         <v/>
@@ -30619,8 +30660,8 @@
         <v>45817</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="134"/>
-      <c r="D161" s="132"/>
+      <c r="C161" s="145"/>
+      <c r="D161" s="143"/>
       <c r="AJ161" t="str">
         <f>TRIM(MID(SUBSTITUTE($F161, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ161)-1)*100+1, 100))</f>
         <v/>
@@ -30695,8 +30736,8 @@
         <v>45818</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="134"/>
-      <c r="D162" s="132"/>
+      <c r="C162" s="145"/>
+      <c r="D162" s="143"/>
       <c r="AJ162" t="str">
         <f>TRIM(MID(SUBSTITUTE($F162, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ162)-1)*100+1, 100))</f>
         <v/>
@@ -30771,8 +30812,8 @@
         <v>45819</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="134"/>
-      <c r="D163" s="132"/>
+      <c r="C163" s="145"/>
+      <c r="D163" s="143"/>
       <c r="AJ163" t="str">
         <f>TRIM(MID(SUBSTITUTE($F163, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ163)-1)*100+1, 100))</f>
         <v/>
@@ -30847,8 +30888,8 @@
         <v>45820</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="134"/>
-      <c r="D164" s="132"/>
+      <c r="C164" s="145"/>
+      <c r="D164" s="143"/>
       <c r="AJ164" t="str">
         <f>TRIM(MID(SUBSTITUTE($F164, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ164)-1)*100+1, 100))</f>
         <v/>
@@ -30923,8 +30964,8 @@
         <v>45821</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="134"/>
-      <c r="D165" s="132"/>
+      <c r="C165" s="145"/>
+      <c r="D165" s="143"/>
       <c r="AJ165" t="str">
         <f>TRIM(MID(SUBSTITUTE($F165, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ165)-1)*100+1, 100))</f>
         <v/>
@@ -30999,8 +31040,8 @@
         <v>45822</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="134"/>
-      <c r="D166" s="132"/>
+      <c r="C166" s="145"/>
+      <c r="D166" s="143"/>
       <c r="AJ166" t="str">
         <f>TRIM(MID(SUBSTITUTE($F166, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ166)-1)*100+1, 100))</f>
         <v/>
@@ -31075,8 +31116,8 @@
         <v>45823</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="134"/>
-      <c r="D167" s="132"/>
+      <c r="C167" s="145"/>
+      <c r="D167" s="143"/>
       <c r="AJ167" t="str">
         <f>TRIM(MID(SUBSTITUTE($F167, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ167)-1)*100+1, 100))</f>
         <v/>
@@ -31151,8 +31192,8 @@
         <v>45824</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="134"/>
-      <c r="D168" s="132"/>
+      <c r="C168" s="145"/>
+      <c r="D168" s="143"/>
       <c r="AJ168" t="str">
         <f>TRIM(MID(SUBSTITUTE($F168, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ168)-1)*100+1, 100))</f>
         <v/>
@@ -31227,8 +31268,8 @@
         <v>45825</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="134"/>
-      <c r="D169" s="132"/>
+      <c r="C169" s="145"/>
+      <c r="D169" s="143"/>
       <c r="AJ169" t="str">
         <f>TRIM(MID(SUBSTITUTE($F169, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ169)-1)*100+1, 100))</f>
         <v/>
@@ -31303,8 +31344,8 @@
         <v>45826</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="134"/>
-      <c r="D170" s="132"/>
+      <c r="C170" s="145"/>
+      <c r="D170" s="143"/>
       <c r="AJ170" t="str">
         <f>TRIM(MID(SUBSTITUTE($F170, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ170)-1)*100+1, 100))</f>
         <v/>
@@ -31379,8 +31420,8 @@
         <v>45827</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="134"/>
-      <c r="D171" s="132"/>
+      <c r="C171" s="145"/>
+      <c r="D171" s="143"/>
       <c r="AJ171" t="str">
         <f>TRIM(MID(SUBSTITUTE($F171, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ171)-1)*100+1, 100))</f>
         <v/>
@@ -31455,8 +31496,8 @@
         <v>45828</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="134"/>
-      <c r="D172" s="132"/>
+      <c r="C172" s="145"/>
+      <c r="D172" s="143"/>
       <c r="AJ172" t="str">
         <f>TRIM(MID(SUBSTITUTE($F172, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ172)-1)*100+1, 100))</f>
         <v/>
@@ -31531,8 +31572,8 @@
         <v>45829</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="134"/>
-      <c r="D173" s="132"/>
+      <c r="C173" s="145"/>
+      <c r="D173" s="143"/>
       <c r="AJ173" t="str">
         <f>TRIM(MID(SUBSTITUTE($F173, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ173)-1)*100+1, 100))</f>
         <v/>
@@ -31607,8 +31648,8 @@
         <v>45830</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="134"/>
-      <c r="D174" s="132"/>
+      <c r="C174" s="145"/>
+      <c r="D174" s="143"/>
       <c r="AJ174" t="str">
         <f>TRIM(MID(SUBSTITUTE($F174, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ174)-1)*100+1, 100))</f>
         <v/>
@@ -31683,8 +31724,8 @@
         <v>45831</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="134"/>
-      <c r="D175" s="132"/>
+      <c r="C175" s="145"/>
+      <c r="D175" s="143"/>
       <c r="AJ175" t="str">
         <f>TRIM(MID(SUBSTITUTE($F175, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ175)-1)*100+1, 100))</f>
         <v/>
@@ -31759,8 +31800,8 @@
         <v>45832</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="134"/>
-      <c r="D176" s="132"/>
+      <c r="C176" s="145"/>
+      <c r="D176" s="143"/>
       <c r="AJ176" t="str">
         <f>TRIM(MID(SUBSTITUTE($F176, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ176)-1)*100+1, 100))</f>
         <v/>
@@ -31835,8 +31876,8 @@
         <v>45833</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="134"/>
-      <c r="D177" s="132"/>
+      <c r="C177" s="145"/>
+      <c r="D177" s="143"/>
       <c r="AJ177" t="str">
         <f>TRIM(MID(SUBSTITUTE($F177, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ177)-1)*100+1, 100))</f>
         <v/>
@@ -31911,8 +31952,8 @@
         <v>45834</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="134"/>
-      <c r="D178" s="132"/>
+      <c r="C178" s="145"/>
+      <c r="D178" s="143"/>
       <c r="AJ178" t="str">
         <f>TRIM(MID(SUBSTITUTE($F178, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ178)-1)*100+1, 100))</f>
         <v/>
@@ -31987,8 +32028,8 @@
         <v>45835</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="134"/>
-      <c r="D179" s="132"/>
+      <c r="C179" s="145"/>
+      <c r="D179" s="143"/>
       <c r="AJ179" t="str">
         <f>TRIM(MID(SUBSTITUTE($F179, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ179)-1)*100+1, 100))</f>
         <v/>
@@ -32063,8 +32104,8 @@
         <v>45836</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="134"/>
-      <c r="D180" s="132"/>
+      <c r="C180" s="145"/>
+      <c r="D180" s="143"/>
       <c r="AJ180" t="str">
         <f>TRIM(MID(SUBSTITUTE($F180, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ180)-1)*100+1, 100))</f>
         <v/>
@@ -32139,8 +32180,8 @@
         <v>45837</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="134"/>
-      <c r="D181" s="132"/>
+      <c r="C181" s="145"/>
+      <c r="D181" s="143"/>
       <c r="AJ181" t="str">
         <f>TRIM(MID(SUBSTITUTE($F181, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ181)-1)*100+1, 100))</f>
         <v/>
@@ -32215,8 +32256,8 @@
         <v>45838</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="134"/>
-      <c r="D182" s="132"/>
+      <c r="C182" s="145"/>
+      <c r="D182" s="143"/>
       <c r="AJ182" t="str">
         <f>TRIM(MID(SUBSTITUTE($F182, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ182)-1)*100+1, 100))</f>
         <v/>
@@ -32291,8 +32332,8 @@
         <v>45839</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="134"/>
-      <c r="D183" s="132"/>
+      <c r="C183" s="145"/>
+      <c r="D183" s="143"/>
       <c r="AJ183" t="str">
         <f>TRIM(MID(SUBSTITUTE($F183, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ183)-1)*100+1, 100))</f>
         <v/>
@@ -32367,8 +32408,8 @@
         <v>45840</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="134"/>
-      <c r="D184" s="132"/>
+      <c r="C184" s="145"/>
+      <c r="D184" s="143"/>
       <c r="AJ184" t="str">
         <f>TRIM(MID(SUBSTITUTE($F184, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ184)-1)*100+1, 100))</f>
         <v/>
@@ -32443,8 +32484,8 @@
         <v>45841</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="134"/>
-      <c r="D185" s="132"/>
+      <c r="C185" s="145"/>
+      <c r="D185" s="143"/>
       <c r="AJ185" t="str">
         <f>TRIM(MID(SUBSTITUTE($F185, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ185)-1)*100+1, 100))</f>
         <v/>
@@ -32519,8 +32560,8 @@
         <v>45842</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="134"/>
-      <c r="D186" s="132"/>
+      <c r="C186" s="145"/>
+      <c r="D186" s="143"/>
       <c r="AJ186" t="str">
         <f>TRIM(MID(SUBSTITUTE($F186, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ186)-1)*100+1, 100))</f>
         <v/>
@@ -32595,8 +32636,8 @@
         <v>45843</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="134"/>
-      <c r="D187" s="132"/>
+      <c r="C187" s="145"/>
+      <c r="D187" s="143"/>
       <c r="AJ187" t="str">
         <f>TRIM(MID(SUBSTITUTE($F187, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ187)-1)*100+1, 100))</f>
         <v/>
@@ -32671,8 +32712,8 @@
         <v>45844</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="134"/>
-      <c r="D188" s="132"/>
+      <c r="C188" s="145"/>
+      <c r="D188" s="143"/>
       <c r="AJ188" t="str">
         <f>TRIM(MID(SUBSTITUTE($F188, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ188)-1)*100+1, 100))</f>
         <v/>
@@ -32747,8 +32788,8 @@
         <v>45845</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="134"/>
-      <c r="D189" s="132"/>
+      <c r="C189" s="145"/>
+      <c r="D189" s="143"/>
       <c r="AJ189" t="str">
         <f>TRIM(MID(SUBSTITUTE($F189, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ189)-1)*100+1, 100))</f>
         <v/>
@@ -32823,8 +32864,8 @@
         <v>45846</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="134"/>
-      <c r="D190" s="132"/>
+      <c r="C190" s="145"/>
+      <c r="D190" s="143"/>
       <c r="AJ190" t="str">
         <f>TRIM(MID(SUBSTITUTE($F190, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ190)-1)*100+1, 100))</f>
         <v/>
@@ -32899,8 +32940,8 @@
         <v>45847</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="134"/>
-      <c r="D191" s="132"/>
+      <c r="C191" s="145"/>
+      <c r="D191" s="143"/>
       <c r="AJ191" t="str">
         <f>TRIM(MID(SUBSTITUTE($F191, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ191)-1)*100+1, 100))</f>
         <v/>
@@ -32975,8 +33016,8 @@
         <v>45848</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="134"/>
-      <c r="D192" s="132"/>
+      <c r="C192" s="145"/>
+      <c r="D192" s="143"/>
       <c r="AJ192" t="str">
         <f>TRIM(MID(SUBSTITUTE($F192, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ192)-1)*100+1, 100))</f>
         <v/>
@@ -33051,8 +33092,8 @@
         <v>45849</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="134"/>
-      <c r="D193" s="132"/>
+      <c r="C193" s="145"/>
+      <c r="D193" s="143"/>
       <c r="AJ193" t="str">
         <f>TRIM(MID(SUBSTITUTE($F193, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ193)-1)*100+1, 100))</f>
         <v/>
@@ -33127,8 +33168,8 @@
         <v>45850</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="134"/>
-      <c r="D194" s="132"/>
+      <c r="C194" s="145"/>
+      <c r="D194" s="143"/>
       <c r="AJ194" t="str">
         <f>TRIM(MID(SUBSTITUTE($F194, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ194)-1)*100+1, 100))</f>
         <v/>
@@ -33203,8 +33244,8 @@
         <v>45851</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="134"/>
-      <c r="D195" s="132"/>
+      <c r="C195" s="145"/>
+      <c r="D195" s="143"/>
       <c r="AJ195" t="str">
         <f>TRIM(MID(SUBSTITUTE($F195, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ195)-1)*100+1, 100))</f>
         <v/>
@@ -33279,8 +33320,8 @@
         <v>45852</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="134"/>
-      <c r="D196" s="132"/>
+      <c r="C196" s="145"/>
+      <c r="D196" s="143"/>
       <c r="AJ196" t="str">
         <f>TRIM(MID(SUBSTITUTE($F196, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ196)-1)*100+1, 100))</f>
         <v/>
@@ -33355,8 +33396,8 @@
         <v>45853</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="134"/>
-      <c r="D197" s="132"/>
+      <c r="C197" s="145"/>
+      <c r="D197" s="143"/>
       <c r="AJ197" t="str">
         <f>TRIM(MID(SUBSTITUTE($F197, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ197)-1)*100+1, 100))</f>
         <v/>
@@ -33431,8 +33472,8 @@
         <v>45854</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="134"/>
-      <c r="D198" s="132"/>
+      <c r="C198" s="145"/>
+      <c r="D198" s="143"/>
       <c r="AJ198" t="str">
         <f>TRIM(MID(SUBSTITUTE($F198, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ198)-1)*100+1, 100))</f>
         <v/>
@@ -33507,8 +33548,8 @@
         <v>45855</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="134"/>
-      <c r="D199" s="132"/>
+      <c r="C199" s="145"/>
+      <c r="D199" s="143"/>
       <c r="AJ199" t="str">
         <f>TRIM(MID(SUBSTITUTE($F199, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ199)-1)*100+1, 100))</f>
         <v/>
@@ -33583,8 +33624,8 @@
         <v>45856</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="134"/>
-      <c r="D200" s="132"/>
+      <c r="C200" s="145"/>
+      <c r="D200" s="143"/>
       <c r="AJ200" t="str">
         <f>TRIM(MID(SUBSTITUTE($F200, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ200)-1)*100+1, 100))</f>
         <v/>
@@ -33659,8 +33700,8 @@
         <v>45857</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="134"/>
-      <c r="D201" s="132"/>
+      <c r="C201" s="145"/>
+      <c r="D201" s="143"/>
       <c r="AJ201" t="str">
         <f>TRIM(MID(SUBSTITUTE($F201, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ201)-1)*100+1, 100))</f>
         <v/>
@@ -33735,8 +33776,8 @@
         <v>45858</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="134"/>
-      <c r="D202" s="132"/>
+      <c r="C202" s="145"/>
+      <c r="D202" s="143"/>
       <c r="AJ202" t="str">
         <f>TRIM(MID(SUBSTITUTE($F202, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ202)-1)*100+1, 100))</f>
         <v/>
@@ -33811,8 +33852,8 @@
         <v>45859</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="134"/>
-      <c r="D203" s="132"/>
+      <c r="C203" s="145"/>
+      <c r="D203" s="143"/>
       <c r="AJ203" t="str">
         <f>TRIM(MID(SUBSTITUTE($F203, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ203)-1)*100+1, 100))</f>
         <v/>
@@ -33887,8 +33928,8 @@
         <v>45860</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="134"/>
-      <c r="D204" s="132"/>
+      <c r="C204" s="145"/>
+      <c r="D204" s="143"/>
       <c r="AJ204" t="str">
         <f>TRIM(MID(SUBSTITUTE($F204, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ204)-1)*100+1, 100))</f>
         <v/>
@@ -33963,8 +34004,8 @@
         <v>45861</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="134"/>
-      <c r="D205" s="132"/>
+      <c r="C205" s="145"/>
+      <c r="D205" s="143"/>
       <c r="AJ205" t="str">
         <f>TRIM(MID(SUBSTITUTE($F205, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ205)-1)*100+1, 100))</f>
         <v/>
@@ -34039,8 +34080,8 @@
         <v>45862</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="134"/>
-      <c r="D206" s="132"/>
+      <c r="C206" s="145"/>
+      <c r="D206" s="143"/>
       <c r="AJ206" t="str">
         <f>TRIM(MID(SUBSTITUTE($F206, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ206)-1)*100+1, 100))</f>
         <v/>
@@ -34115,8 +34156,8 @@
         <v>45863</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="134"/>
-      <c r="D207" s="132"/>
+      <c r="C207" s="145"/>
+      <c r="D207" s="143"/>
       <c r="AJ207" t="str">
         <f>TRIM(MID(SUBSTITUTE($F207, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ207)-1)*100+1, 100))</f>
         <v/>
@@ -34191,8 +34232,8 @@
         <v>45864</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="134"/>
-      <c r="D208" s="132"/>
+      <c r="C208" s="145"/>
+      <c r="D208" s="143"/>
       <c r="AJ208" t="str">
         <f>TRIM(MID(SUBSTITUTE($F208, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ208)-1)*100+1, 100))</f>
         <v/>
@@ -34267,8 +34308,8 @@
         <v>45865</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="134"/>
-      <c r="D209" s="132"/>
+      <c r="C209" s="145"/>
+      <c r="D209" s="143"/>
       <c r="AJ209" t="str">
         <f>TRIM(MID(SUBSTITUTE($F209, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ209)-1)*100+1, 100))</f>
         <v/>
@@ -34343,8 +34384,8 @@
         <v>45866</v>
       </c>
       <c r="B210" s="2"/>
-      <c r="C210" s="134"/>
-      <c r="D210" s="132"/>
+      <c r="C210" s="145"/>
+      <c r="D210" s="143"/>
       <c r="AJ210" t="str">
         <f>TRIM(MID(SUBSTITUTE($F210, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ210)-1)*100+1, 100))</f>
         <v/>
@@ -34419,8 +34460,8 @@
         <v>45867</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="134"/>
-      <c r="D211" s="132"/>
+      <c r="C211" s="145"/>
+      <c r="D211" s="143"/>
       <c r="AJ211" t="str">
         <f>TRIM(MID(SUBSTITUTE($F211, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ211)-1)*100+1, 100))</f>
         <v/>
@@ -34495,8 +34536,8 @@
         <v>45868</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="134"/>
-      <c r="D212" s="132"/>
+      <c r="C212" s="145"/>
+      <c r="D212" s="143"/>
       <c r="AJ212" t="str">
         <f>TRIM(MID(SUBSTITUTE($F212, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ212)-1)*100+1, 100))</f>
         <v/>
@@ -34571,8 +34612,8 @@
         <v>45869</v>
       </c>
       <c r="B213" s="2"/>
-      <c r="C213" s="134"/>
-      <c r="D213" s="132"/>
+      <c r="C213" s="145"/>
+      <c r="D213" s="143"/>
       <c r="AJ213" t="str">
         <f>TRIM(MID(SUBSTITUTE($F213, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ213)-1)*100+1, 100))</f>
         <v/>
@@ -34647,8 +34688,8 @@
         <v>45870</v>
       </c>
       <c r="B214" s="2"/>
-      <c r="C214" s="134"/>
-      <c r="D214" s="132"/>
+      <c r="C214" s="145"/>
+      <c r="D214" s="143"/>
       <c r="AJ214" t="str">
         <f>TRIM(MID(SUBSTITUTE($F214, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ214)-1)*100+1, 100))</f>
         <v/>
@@ -34723,8 +34764,8 @@
         <v>45871</v>
       </c>
       <c r="B215" s="2"/>
-      <c r="C215" s="134"/>
-      <c r="D215" s="132"/>
+      <c r="C215" s="145"/>
+      <c r="D215" s="143"/>
       <c r="AJ215" t="str">
         <f>TRIM(MID(SUBSTITUTE($F215, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ215)-1)*100+1, 100))</f>
         <v/>
@@ -34799,8 +34840,8 @@
         <v>45872</v>
       </c>
       <c r="B216" s="2"/>
-      <c r="C216" s="134"/>
-      <c r="D216" s="132"/>
+      <c r="C216" s="145"/>
+      <c r="D216" s="143"/>
       <c r="AJ216" t="str">
         <f>TRIM(MID(SUBSTITUTE($F216, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ216)-1)*100+1, 100))</f>
         <v/>
@@ -34875,8 +34916,8 @@
         <v>45873</v>
       </c>
       <c r="B217" s="2"/>
-      <c r="C217" s="134"/>
-      <c r="D217" s="132"/>
+      <c r="C217" s="145"/>
+      <c r="D217" s="143"/>
       <c r="AJ217" t="str">
         <f>TRIM(MID(SUBSTITUTE($F217, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ217)-1)*100+1, 100))</f>
         <v/>
@@ -34951,8 +34992,8 @@
         <v>45874</v>
       </c>
       <c r="B218" s="2"/>
-      <c r="C218" s="134"/>
-      <c r="D218" s="132"/>
+      <c r="C218" s="145"/>
+      <c r="D218" s="143"/>
       <c r="AJ218" t="str">
         <f>TRIM(MID(SUBSTITUTE($F218, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ218)-1)*100+1, 100))</f>
         <v/>
@@ -35027,8 +35068,8 @@
         <v>45875</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="134"/>
-      <c r="D219" s="132"/>
+      <c r="C219" s="145"/>
+      <c r="D219" s="143"/>
       <c r="AJ219" t="str">
         <f>TRIM(MID(SUBSTITUTE($F219, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ219)-1)*100+1, 100))</f>
         <v/>
@@ -35103,8 +35144,8 @@
         <v>45876</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="134"/>
-      <c r="D220" s="132"/>
+      <c r="C220" s="145"/>
+      <c r="D220" s="143"/>
       <c r="AJ220" t="str">
         <f>TRIM(MID(SUBSTITUTE($F220, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ220)-1)*100+1, 100))</f>
         <v/>
@@ -35179,8 +35220,8 @@
         <v>45877</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="134"/>
-      <c r="D221" s="132"/>
+      <c r="C221" s="145"/>
+      <c r="D221" s="143"/>
       <c r="AJ221" t="str">
         <f>TRIM(MID(SUBSTITUTE($F221, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ221)-1)*100+1, 100))</f>
         <v/>
@@ -35255,8 +35296,8 @@
         <v>45878</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="134"/>
-      <c r="D222" s="132"/>
+      <c r="C222" s="145"/>
+      <c r="D222" s="143"/>
       <c r="AJ222" t="str">
         <f>TRIM(MID(SUBSTITUTE($F222, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ222)-1)*100+1, 100))</f>
         <v/>
@@ -35331,8 +35372,8 @@
         <v>45879</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="134"/>
-      <c r="D223" s="132"/>
+      <c r="C223" s="145"/>
+      <c r="D223" s="143"/>
       <c r="AJ223" t="str">
         <f>TRIM(MID(SUBSTITUTE($F223, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ223)-1)*100+1, 100))</f>
         <v/>
@@ -35407,8 +35448,8 @@
         <v>45880</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="134"/>
-      <c r="D224" s="132"/>
+      <c r="C224" s="145"/>
+      <c r="D224" s="143"/>
       <c r="AJ224" t="str">
         <f>TRIM(MID(SUBSTITUTE($F224, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ224)-1)*100+1, 100))</f>
         <v/>
@@ -35483,8 +35524,8 @@
         <v>45881</v>
       </c>
       <c r="B225" s="2"/>
-      <c r="C225" s="134"/>
-      <c r="D225" s="132"/>
+      <c r="C225" s="145"/>
+      <c r="D225" s="143"/>
       <c r="AJ225" t="str">
         <f>TRIM(MID(SUBSTITUTE($F225, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ225)-1)*100+1, 100))</f>
         <v/>
@@ -35559,8 +35600,8 @@
         <v>45882</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="134"/>
-      <c r="D226" s="132"/>
+      <c r="C226" s="145"/>
+      <c r="D226" s="143"/>
       <c r="AJ226" t="str">
         <f>TRIM(MID(SUBSTITUTE($F226, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ226)-1)*100+1, 100))</f>
         <v/>
@@ -35635,8 +35676,8 @@
         <v>45883</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="134"/>
-      <c r="D227" s="132"/>
+      <c r="C227" s="145"/>
+      <c r="D227" s="143"/>
       <c r="AJ227" t="str">
         <f>TRIM(MID(SUBSTITUTE($F227, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ227)-1)*100+1, 100))</f>
         <v/>
@@ -35711,8 +35752,8 @@
         <v>45884</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="134"/>
-      <c r="D228" s="132"/>
+      <c r="C228" s="145"/>
+      <c r="D228" s="143"/>
       <c r="AJ228" t="str">
         <f>TRIM(MID(SUBSTITUTE($F228, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ228)-1)*100+1, 100))</f>
         <v/>
@@ -35787,8 +35828,8 @@
         <v>45885</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="134"/>
-      <c r="D229" s="132"/>
+      <c r="C229" s="145"/>
+      <c r="D229" s="143"/>
       <c r="AJ229" t="str">
         <f>TRIM(MID(SUBSTITUTE($F229, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ229)-1)*100+1, 100))</f>
         <v/>
@@ -35863,8 +35904,8 @@
         <v>45886</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="134"/>
-      <c r="D230" s="132"/>
+      <c r="C230" s="145"/>
+      <c r="D230" s="143"/>
       <c r="AJ230" t="str">
         <f>TRIM(MID(SUBSTITUTE($F230, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ230)-1)*100+1, 100))</f>
         <v/>
@@ -35939,8 +35980,8 @@
         <v>45887</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="134"/>
-      <c r="D231" s="132"/>
+      <c r="C231" s="145"/>
+      <c r="D231" s="143"/>
       <c r="AJ231" t="str">
         <f>TRIM(MID(SUBSTITUTE($F231, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ231)-1)*100+1, 100))</f>
         <v/>
@@ -36015,8 +36056,8 @@
         <v>45888</v>
       </c>
       <c r="B232" s="2"/>
-      <c r="C232" s="134"/>
-      <c r="D232" s="132"/>
+      <c r="C232" s="145"/>
+      <c r="D232" s="143"/>
       <c r="AJ232" t="str">
         <f>TRIM(MID(SUBSTITUTE($F232, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ232)-1)*100+1, 100))</f>
         <v/>
@@ -36091,8 +36132,8 @@
         <v>45889</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="134"/>
-      <c r="D233" s="132"/>
+      <c r="C233" s="145"/>
+      <c r="D233" s="143"/>
       <c r="AJ233" t="str">
         <f>TRIM(MID(SUBSTITUTE($F233, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ233)-1)*100+1, 100))</f>
         <v/>
@@ -36167,8 +36208,8 @@
         <v>45890</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="134"/>
-      <c r="D234" s="132"/>
+      <c r="C234" s="145"/>
+      <c r="D234" s="143"/>
       <c r="AJ234" t="str">
         <f>TRIM(MID(SUBSTITUTE($F234, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ234)-1)*100+1, 100))</f>
         <v/>
@@ -36243,8 +36284,8 @@
         <v>45891</v>
       </c>
       <c r="B235" s="2"/>
-      <c r="C235" s="134"/>
-      <c r="D235" s="132"/>
+      <c r="C235" s="145"/>
+      <c r="D235" s="143"/>
       <c r="AJ235" t="str">
         <f>TRIM(MID(SUBSTITUTE($F235, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ235)-1)*100+1, 100))</f>
         <v/>
@@ -36319,8 +36360,8 @@
         <v>45892</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="134"/>
-      <c r="D236" s="132"/>
+      <c r="C236" s="145"/>
+      <c r="D236" s="143"/>
       <c r="AJ236" t="str">
         <f>TRIM(MID(SUBSTITUTE($F236, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ236)-1)*100+1, 100))</f>
         <v/>
@@ -36395,8 +36436,8 @@
         <v>45893</v>
       </c>
       <c r="B237" s="2"/>
-      <c r="C237" s="134"/>
-      <c r="D237" s="132"/>
+      <c r="C237" s="145"/>
+      <c r="D237" s="143"/>
       <c r="AJ237" t="str">
         <f>TRIM(MID(SUBSTITUTE($F237, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ237)-1)*100+1, 100))</f>
         <v/>
@@ -36471,8 +36512,8 @@
         <v>45894</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="134"/>
-      <c r="D238" s="132"/>
+      <c r="C238" s="145"/>
+      <c r="D238" s="143"/>
       <c r="AJ238" t="str">
         <f>TRIM(MID(SUBSTITUTE($F238, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ238)-1)*100+1, 100))</f>
         <v/>
@@ -36547,8 +36588,8 @@
         <v>45895</v>
       </c>
       <c r="B239" s="2"/>
-      <c r="C239" s="134"/>
-      <c r="D239" s="132"/>
+      <c r="C239" s="145"/>
+      <c r="D239" s="143"/>
       <c r="AJ239" t="str">
         <f>TRIM(MID(SUBSTITUTE($F239, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ239)-1)*100+1, 100))</f>
         <v/>
@@ -36623,8 +36664,8 @@
         <v>45896</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="134"/>
-      <c r="D240" s="132"/>
+      <c r="C240" s="145"/>
+      <c r="D240" s="143"/>
       <c r="AJ240" t="str">
         <f>TRIM(MID(SUBSTITUTE($F240, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ240)-1)*100+1, 100))</f>
         <v/>
@@ -36699,8 +36740,8 @@
         <v>45897</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="134"/>
-      <c r="D241" s="132"/>
+      <c r="C241" s="145"/>
+      <c r="D241" s="143"/>
       <c r="AJ241" t="str">
         <f>TRIM(MID(SUBSTITUTE($F241, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ241)-1)*100+1, 100))</f>
         <v/>
@@ -36775,8 +36816,8 @@
         <v>45898</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="134"/>
-      <c r="D242" s="132"/>
+      <c r="C242" s="145"/>
+      <c r="D242" s="143"/>
       <c r="AJ242" t="str">
         <f>TRIM(MID(SUBSTITUTE($F242, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ242)-1)*100+1, 100))</f>
         <v/>
@@ -36851,8 +36892,8 @@
         <v>45899</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="134"/>
-      <c r="D243" s="132"/>
+      <c r="C243" s="145"/>
+      <c r="D243" s="143"/>
       <c r="AJ243" t="str">
         <f>TRIM(MID(SUBSTITUTE($F243, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ243)-1)*100+1, 100))</f>
         <v/>
@@ -36927,8 +36968,8 @@
         <v>45900</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="134"/>
-      <c r="D244" s="132"/>
+      <c r="C244" s="145"/>
+      <c r="D244" s="143"/>
       <c r="AJ244" t="str">
         <f>TRIM(MID(SUBSTITUTE($F244, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ244)-1)*100+1, 100))</f>
         <v/>
@@ -37003,8 +37044,8 @@
         <v>45901</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="134"/>
-      <c r="D245" s="132"/>
+      <c r="C245" s="145"/>
+      <c r="D245" s="143"/>
       <c r="AJ245" t="str">
         <f>TRIM(MID(SUBSTITUTE($F245, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ245)-1)*100+1, 100))</f>
         <v/>
@@ -37079,8 +37120,8 @@
         <v>45902</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="134"/>
-      <c r="D246" s="132"/>
+      <c r="C246" s="145"/>
+      <c r="D246" s="143"/>
       <c r="AJ246" t="str">
         <f>TRIM(MID(SUBSTITUTE($F246, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ246)-1)*100+1, 100))</f>
         <v/>
@@ -37155,8 +37196,8 @@
         <v>45903</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="134"/>
-      <c r="D247" s="132"/>
+      <c r="C247" s="145"/>
+      <c r="D247" s="143"/>
       <c r="AJ247" t="str">
         <f>TRIM(MID(SUBSTITUTE($F247, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ247)-1)*100+1, 100))</f>
         <v/>
@@ -37231,8 +37272,8 @@
         <v>45904</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="134"/>
-      <c r="D248" s="132"/>
+      <c r="C248" s="145"/>
+      <c r="D248" s="143"/>
       <c r="AJ248" t="str">
         <f>TRIM(MID(SUBSTITUTE($F248, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ248)-1)*100+1, 100))</f>
         <v/>
@@ -37307,8 +37348,8 @@
         <v>45905</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="134"/>
-      <c r="D249" s="132"/>
+      <c r="C249" s="145"/>
+      <c r="D249" s="143"/>
       <c r="AJ249" t="str">
         <f>TRIM(MID(SUBSTITUTE($F249, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ249)-1)*100+1, 100))</f>
         <v/>
@@ -37383,8 +37424,8 @@
         <v>45906</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="134"/>
-      <c r="D250" s="132"/>
+      <c r="C250" s="145"/>
+      <c r="D250" s="143"/>
       <c r="AJ250" t="str">
         <f>TRIM(MID(SUBSTITUTE($F250, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ250)-1)*100+1, 100))</f>
         <v/>
@@ -37459,8 +37500,8 @@
         <v>45907</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="134"/>
-      <c r="D251" s="132"/>
+      <c r="C251" s="145"/>
+      <c r="D251" s="143"/>
       <c r="AJ251" t="str">
         <f>TRIM(MID(SUBSTITUTE($F251, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ251)-1)*100+1, 100))</f>
         <v/>
@@ -37535,8 +37576,8 @@
         <v>45908</v>
       </c>
       <c r="B252" s="2"/>
-      <c r="C252" s="134"/>
-      <c r="D252" s="132"/>
+      <c r="C252" s="145"/>
+      <c r="D252" s="143"/>
       <c r="AJ252" t="str">
         <f>TRIM(MID(SUBSTITUTE($F252, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ252)-1)*100+1, 100))</f>
         <v/>
@@ -37611,8 +37652,8 @@
         <v>45909</v>
       </c>
       <c r="B253" s="2"/>
-      <c r="C253" s="134"/>
-      <c r="D253" s="132"/>
+      <c r="C253" s="145"/>
+      <c r="D253" s="143"/>
       <c r="AJ253" t="str">
         <f>TRIM(MID(SUBSTITUTE($F253, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ253)-1)*100+1, 100))</f>
         <v/>
@@ -37687,8 +37728,8 @@
         <v>45910</v>
       </c>
       <c r="B254" s="2"/>
-      <c r="C254" s="134"/>
-      <c r="D254" s="132"/>
+      <c r="C254" s="145"/>
+      <c r="D254" s="143"/>
       <c r="AJ254" t="str">
         <f>TRIM(MID(SUBSTITUTE($F254, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ254)-1)*100+1, 100))</f>
         <v/>
@@ -37763,8 +37804,8 @@
         <v>45911</v>
       </c>
       <c r="B255" s="2"/>
-      <c r="C255" s="134"/>
-      <c r="D255" s="132"/>
+      <c r="C255" s="145"/>
+      <c r="D255" s="143"/>
       <c r="AJ255" t="str">
         <f>TRIM(MID(SUBSTITUTE($F255, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ255)-1)*100+1, 100))</f>
         <v/>
@@ -37839,8 +37880,8 @@
         <v>45912</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="134"/>
-      <c r="D256" s="132"/>
+      <c r="C256" s="145"/>
+      <c r="D256" s="143"/>
       <c r="AJ256" t="str">
         <f>TRIM(MID(SUBSTITUTE($F256, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ256)-1)*100+1, 100))</f>
         <v/>
@@ -37915,8 +37956,8 @@
         <v>45913</v>
       </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="134"/>
-      <c r="D257" s="132"/>
+      <c r="C257" s="145"/>
+      <c r="D257" s="143"/>
       <c r="AJ257" t="str">
         <f>TRIM(MID(SUBSTITUTE($F257, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ257)-1)*100+1, 100))</f>
         <v/>
@@ -37991,8 +38032,8 @@
         <v>45914</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="134"/>
-      <c r="D258" s="132"/>
+      <c r="C258" s="145"/>
+      <c r="D258" s="143"/>
       <c r="AJ258" t="str">
         <f>TRIM(MID(SUBSTITUTE($F258, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ258)-1)*100+1, 100))</f>
         <v/>
@@ -38067,8 +38108,8 @@
         <v>45915</v>
       </c>
       <c r="B259" s="2"/>
-      <c r="C259" s="134"/>
-      <c r="D259" s="132"/>
+      <c r="C259" s="145"/>
+      <c r="D259" s="143"/>
       <c r="AJ259" t="str">
         <f>TRIM(MID(SUBSTITUTE($F259, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ259)-1)*100+1, 100))</f>
         <v/>
@@ -38143,8 +38184,8 @@
         <v>45916</v>
       </c>
       <c r="B260" s="2"/>
-      <c r="C260" s="134"/>
-      <c r="D260" s="132"/>
+      <c r="C260" s="145"/>
+      <c r="D260" s="143"/>
       <c r="AJ260" t="str">
         <f>TRIM(MID(SUBSTITUTE($F260, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ260)-1)*100+1, 100))</f>
         <v/>
@@ -38219,8 +38260,8 @@
         <v>45917</v>
       </c>
       <c r="B261" s="2"/>
-      <c r="C261" s="134"/>
-      <c r="D261" s="132"/>
+      <c r="C261" s="145"/>
+      <c r="D261" s="143"/>
       <c r="AJ261" t="str">
         <f>TRIM(MID(SUBSTITUTE($F261, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ261)-1)*100+1, 100))</f>
         <v/>
@@ -38295,8 +38336,8 @@
         <v>45918</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="134"/>
-      <c r="D262" s="132"/>
+      <c r="C262" s="145"/>
+      <c r="D262" s="143"/>
       <c r="AJ262" t="str">
         <f>TRIM(MID(SUBSTITUTE($F262, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ262)-1)*100+1, 100))</f>
         <v/>
@@ -38371,8 +38412,8 @@
         <v>45919</v>
       </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="134"/>
-      <c r="D263" s="132"/>
+      <c r="C263" s="145"/>
+      <c r="D263" s="143"/>
       <c r="AJ263" t="str">
         <f>TRIM(MID(SUBSTITUTE($F263, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ263)-1)*100+1, 100))</f>
         <v/>
@@ -38447,8 +38488,8 @@
         <v>45920</v>
       </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="134"/>
-      <c r="D264" s="132"/>
+      <c r="C264" s="145"/>
+      <c r="D264" s="143"/>
       <c r="AJ264" t="str">
         <f>TRIM(MID(SUBSTITUTE($F264, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ264)-1)*100+1, 100))</f>
         <v/>
@@ -38523,8 +38564,8 @@
         <v>45921</v>
       </c>
       <c r="B265" s="2"/>
-      <c r="C265" s="134"/>
-      <c r="D265" s="132"/>
+      <c r="C265" s="145"/>
+      <c r="D265" s="143"/>
       <c r="AJ265" t="str">
         <f>TRIM(MID(SUBSTITUTE($F265, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ265)-1)*100+1, 100))</f>
         <v/>
@@ -38599,8 +38640,8 @@
         <v>45922</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="134"/>
-      <c r="D266" s="132"/>
+      <c r="C266" s="145"/>
+      <c r="D266" s="143"/>
       <c r="AJ266" t="str">
         <f>TRIM(MID(SUBSTITUTE($F266, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ266)-1)*100+1, 100))</f>
         <v/>
@@ -38675,8 +38716,8 @@
         <v>45923</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="134"/>
-      <c r="D267" s="132"/>
+      <c r="C267" s="145"/>
+      <c r="D267" s="143"/>
       <c r="AJ267" t="str">
         <f>TRIM(MID(SUBSTITUTE($F267, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ267)-1)*100+1, 100))</f>
         <v/>
@@ -38751,8 +38792,8 @@
         <v>45924</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="134"/>
-      <c r="D268" s="132"/>
+      <c r="C268" s="145"/>
+      <c r="D268" s="143"/>
       <c r="AJ268" t="str">
         <f>TRIM(MID(SUBSTITUTE($F268, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ268)-1)*100+1, 100))</f>
         <v/>
@@ -38827,8 +38868,8 @@
         <v>45925</v>
       </c>
       <c r="B269" s="2"/>
-      <c r="C269" s="134"/>
-      <c r="D269" s="132"/>
+      <c r="C269" s="145"/>
+      <c r="D269" s="143"/>
       <c r="AJ269" t="str">
         <f>TRIM(MID(SUBSTITUTE($F269, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ269)-1)*100+1, 100))</f>
         <v/>
@@ -38903,8 +38944,8 @@
         <v>45926</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270" s="134"/>
-      <c r="D270" s="132"/>
+      <c r="C270" s="145"/>
+      <c r="D270" s="143"/>
       <c r="AJ270" t="str">
         <f>TRIM(MID(SUBSTITUTE($F270, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ270)-1)*100+1, 100))</f>
         <v/>
@@ -38979,8 +39020,8 @@
         <v>45927</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="134"/>
-      <c r="D271" s="132"/>
+      <c r="C271" s="145"/>
+      <c r="D271" s="143"/>
       <c r="AJ271" t="str">
         <f>TRIM(MID(SUBSTITUTE($F271, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ271)-1)*100+1, 100))</f>
         <v/>
@@ -39055,8 +39096,8 @@
         <v>45928</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="134"/>
-      <c r="D272" s="132"/>
+      <c r="C272" s="145"/>
+      <c r="D272" s="143"/>
       <c r="AJ272" t="str">
         <f>TRIM(MID(SUBSTITUTE($F272, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ272)-1)*100+1, 100))</f>
         <v/>
@@ -39131,8 +39172,8 @@
         <v>45929</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="134"/>
-      <c r="D273" s="132"/>
+      <c r="C273" s="145"/>
+      <c r="D273" s="143"/>
       <c r="AJ273" t="str">
         <f>TRIM(MID(SUBSTITUTE($F273, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ273)-1)*100+1, 100))</f>
         <v/>
@@ -39207,8 +39248,8 @@
         <v>45930</v>
       </c>
       <c r="B274" s="2"/>
-      <c r="C274" s="134"/>
-      <c r="D274" s="132"/>
+      <c r="C274" s="145"/>
+      <c r="D274" s="143"/>
       <c r="AJ274" t="str">
         <f>TRIM(MID(SUBSTITUTE($F274, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ274)-1)*100+1, 100))</f>
         <v/>
@@ -39283,8 +39324,8 @@
         <v>45931</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="134"/>
-      <c r="D275" s="132"/>
+      <c r="C275" s="145"/>
+      <c r="D275" s="143"/>
       <c r="AJ275" t="str">
         <f>TRIM(MID(SUBSTITUTE($F275, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ275)-1)*100+1, 100))</f>
         <v/>
@@ -39359,8 +39400,8 @@
         <v>45932</v>
       </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="134"/>
-      <c r="D276" s="132"/>
+      <c r="C276" s="145"/>
+      <c r="D276" s="143"/>
       <c r="AJ276" t="str">
         <f>TRIM(MID(SUBSTITUTE($F276, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ276)-1)*100+1, 100))</f>
         <v/>
@@ -39435,8 +39476,8 @@
         <v>45933</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="134"/>
-      <c r="D277" s="132"/>
+      <c r="C277" s="145"/>
+      <c r="D277" s="143"/>
       <c r="AJ277" t="str">
         <f>TRIM(MID(SUBSTITUTE($F277, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ277)-1)*100+1, 100))</f>
         <v/>
@@ -39511,8 +39552,8 @@
         <v>45934</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="134"/>
-      <c r="D278" s="132"/>
+      <c r="C278" s="145"/>
+      <c r="D278" s="143"/>
       <c r="AJ278" t="str">
         <f>TRIM(MID(SUBSTITUTE($F278, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ278)-1)*100+1, 100))</f>
         <v/>
@@ -39587,8 +39628,8 @@
         <v>45935</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="134"/>
-      <c r="D279" s="132"/>
+      <c r="C279" s="145"/>
+      <c r="D279" s="143"/>
       <c r="AJ279" t="str">
         <f>TRIM(MID(SUBSTITUTE($F279, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ279)-1)*100+1, 100))</f>
         <v/>
@@ -39663,8 +39704,8 @@
         <v>45936</v>
       </c>
       <c r="B280" s="2"/>
-      <c r="C280" s="134"/>
-      <c r="D280" s="132"/>
+      <c r="C280" s="145"/>
+      <c r="D280" s="143"/>
       <c r="AJ280" t="str">
         <f>TRIM(MID(SUBSTITUTE($F280, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ280)-1)*100+1, 100))</f>
         <v/>
@@ -39739,8 +39780,8 @@
         <v>45937</v>
       </c>
       <c r="B281" s="2"/>
-      <c r="C281" s="134"/>
-      <c r="D281" s="132"/>
+      <c r="C281" s="145"/>
+      <c r="D281" s="143"/>
       <c r="AJ281" t="str">
         <f>TRIM(MID(SUBSTITUTE($F281, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ281)-1)*100+1, 100))</f>
         <v/>
@@ -39815,8 +39856,8 @@
         <v>45938</v>
       </c>
       <c r="B282" s="2"/>
-      <c r="C282" s="134"/>
-      <c r="D282" s="132"/>
+      <c r="C282" s="145"/>
+      <c r="D282" s="143"/>
       <c r="AJ282" t="str">
         <f>TRIM(MID(SUBSTITUTE($F282, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ282)-1)*100+1, 100))</f>
         <v/>
@@ -39891,8 +39932,8 @@
         <v>45939</v>
       </c>
       <c r="B283" s="2"/>
-      <c r="C283" s="134"/>
-      <c r="D283" s="132"/>
+      <c r="C283" s="145"/>
+      <c r="D283" s="143"/>
       <c r="AJ283" t="str">
         <f>TRIM(MID(SUBSTITUTE($F283, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ283)-1)*100+1, 100))</f>
         <v/>
@@ -39967,8 +40008,8 @@
         <v>45940</v>
       </c>
       <c r="B284" s="2"/>
-      <c r="C284" s="134"/>
-      <c r="D284" s="132"/>
+      <c r="C284" s="145"/>
+      <c r="D284" s="143"/>
       <c r="AJ284" t="str">
         <f>TRIM(MID(SUBSTITUTE($F284, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ284)-1)*100+1, 100))</f>
         <v/>
@@ -40043,8 +40084,8 @@
         <v>45941</v>
       </c>
       <c r="B285" s="2"/>
-      <c r="C285" s="134"/>
-      <c r="D285" s="132"/>
+      <c r="C285" s="145"/>
+      <c r="D285" s="143"/>
       <c r="AJ285" t="str">
         <f>TRIM(MID(SUBSTITUTE($F285, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ285)-1)*100+1, 100))</f>
         <v/>
@@ -40119,8 +40160,8 @@
         <v>45942</v>
       </c>
       <c r="B286" s="2"/>
-      <c r="C286" s="134"/>
-      <c r="D286" s="132"/>
+      <c r="C286" s="145"/>
+      <c r="D286" s="143"/>
       <c r="AJ286" t="str">
         <f>TRIM(MID(SUBSTITUTE($F286, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ286)-1)*100+1, 100))</f>
         <v/>
@@ -40195,8 +40236,8 @@
         <v>45943</v>
       </c>
       <c r="B287" s="2"/>
-      <c r="C287" s="134"/>
-      <c r="D287" s="132"/>
+      <c r="C287" s="145"/>
+      <c r="D287" s="143"/>
       <c r="AJ287" t="str">
         <f>TRIM(MID(SUBSTITUTE($F287, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ287)-1)*100+1, 100))</f>
         <v/>
@@ -40271,8 +40312,8 @@
         <v>45944</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="134"/>
-      <c r="D288" s="132"/>
+      <c r="C288" s="145"/>
+      <c r="D288" s="143"/>
       <c r="AJ288" t="str">
         <f>TRIM(MID(SUBSTITUTE($F288, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ288)-1)*100+1, 100))</f>
         <v/>
@@ -40347,8 +40388,8 @@
         <v>45945</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="134"/>
-      <c r="D289" s="132"/>
+      <c r="C289" s="145"/>
+      <c r="D289" s="143"/>
       <c r="AJ289" t="str">
         <f>TRIM(MID(SUBSTITUTE($F289, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ289)-1)*100+1, 100))</f>
         <v/>
@@ -40423,8 +40464,8 @@
         <v>45946</v>
       </c>
       <c r="B290" s="2"/>
-      <c r="C290" s="134"/>
-      <c r="D290" s="132"/>
+      <c r="C290" s="145"/>
+      <c r="D290" s="143"/>
       <c r="AJ290" t="str">
         <f>TRIM(MID(SUBSTITUTE($F290, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ290)-1)*100+1, 100))</f>
         <v/>
@@ -40499,8 +40540,8 @@
         <v>45947</v>
       </c>
       <c r="B291" s="2"/>
-      <c r="C291" s="134"/>
-      <c r="D291" s="132"/>
+      <c r="C291" s="145"/>
+      <c r="D291" s="143"/>
       <c r="AJ291" t="str">
         <f>TRIM(MID(SUBSTITUTE($F291, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ291)-1)*100+1, 100))</f>
         <v/>
@@ -40575,8 +40616,8 @@
         <v>45948</v>
       </c>
       <c r="B292" s="2"/>
-      <c r="C292" s="134"/>
-      <c r="D292" s="132"/>
+      <c r="C292" s="145"/>
+      <c r="D292" s="143"/>
       <c r="AJ292" t="str">
         <f>TRIM(MID(SUBSTITUTE($F292, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ292)-1)*100+1, 100))</f>
         <v/>
@@ -40651,8 +40692,8 @@
         <v>45949</v>
       </c>
       <c r="B293" s="2"/>
-      <c r="C293" s="134"/>
-      <c r="D293" s="132"/>
+      <c r="C293" s="145"/>
+      <c r="D293" s="143"/>
       <c r="AJ293" t="str">
         <f>TRIM(MID(SUBSTITUTE($F293, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ293)-1)*100+1, 100))</f>
         <v/>
@@ -40727,8 +40768,8 @@
         <v>45950</v>
       </c>
       <c r="B294" s="2"/>
-      <c r="C294" s="134"/>
-      <c r="D294" s="132"/>
+      <c r="C294" s="145"/>
+      <c r="D294" s="143"/>
       <c r="AJ294" t="str">
         <f>TRIM(MID(SUBSTITUTE($F294, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ294)-1)*100+1, 100))</f>
         <v/>
@@ -40803,8 +40844,8 @@
         <v>45951</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="134"/>
-      <c r="D295" s="132"/>
+      <c r="C295" s="145"/>
+      <c r="D295" s="143"/>
       <c r="AJ295" t="str">
         <f>TRIM(MID(SUBSTITUTE($F295, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ295)-1)*100+1, 100))</f>
         <v/>
@@ -40879,8 +40920,8 @@
         <v>45952</v>
       </c>
       <c r="B296" s="2"/>
-      <c r="C296" s="134"/>
-      <c r="D296" s="132"/>
+      <c r="C296" s="145"/>
+      <c r="D296" s="143"/>
       <c r="AJ296" t="str">
         <f>TRIM(MID(SUBSTITUTE($F296, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ296)-1)*100+1, 100))</f>
         <v/>
@@ -40955,8 +40996,8 @@
         <v>45953</v>
       </c>
       <c r="B297" s="2"/>
-      <c r="C297" s="134"/>
-      <c r="D297" s="132"/>
+      <c r="C297" s="145"/>
+      <c r="D297" s="143"/>
       <c r="AJ297" t="str">
         <f>TRIM(MID(SUBSTITUTE($F297, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ297)-1)*100+1, 100))</f>
         <v/>
@@ -41031,8 +41072,8 @@
         <v>45954</v>
       </c>
       <c r="B298" s="2"/>
-      <c r="C298" s="134"/>
-      <c r="D298" s="132"/>
+      <c r="C298" s="145"/>
+      <c r="D298" s="143"/>
       <c r="AJ298" t="str">
         <f>TRIM(MID(SUBSTITUTE($F298, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ298)-1)*100+1, 100))</f>
         <v/>
@@ -41107,8 +41148,8 @@
         <v>45955</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="134"/>
-      <c r="D299" s="132"/>
+      <c r="C299" s="145"/>
+      <c r="D299" s="143"/>
       <c r="AJ299" t="str">
         <f>TRIM(MID(SUBSTITUTE($F299, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ299)-1)*100+1, 100))</f>
         <v/>
@@ -41183,8 +41224,8 @@
         <v>45956</v>
       </c>
       <c r="B300" s="2"/>
-      <c r="C300" s="134"/>
-      <c r="D300" s="132"/>
+      <c r="C300" s="145"/>
+      <c r="D300" s="143"/>
       <c r="AJ300" t="str">
         <f>TRIM(MID(SUBSTITUTE($F300, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ300)-1)*100+1, 100))</f>
         <v/>
@@ -41259,8 +41300,8 @@
         <v>45957</v>
       </c>
       <c r="B301" s="2"/>
-      <c r="C301" s="134"/>
-      <c r="D301" s="132"/>
+      <c r="C301" s="145"/>
+      <c r="D301" s="143"/>
       <c r="AJ301" t="str">
         <f>TRIM(MID(SUBSTITUTE($F301, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ301)-1)*100+1, 100))</f>
         <v/>
@@ -41335,8 +41376,8 @@
         <v>45958</v>
       </c>
       <c r="B302" s="2"/>
-      <c r="C302" s="134"/>
-      <c r="D302" s="132"/>
+      <c r="C302" s="145"/>
+      <c r="D302" s="143"/>
       <c r="AJ302" t="str">
         <f>TRIM(MID(SUBSTITUTE($F302, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ302)-1)*100+1, 100))</f>
         <v/>
@@ -41411,8 +41452,8 @@
         <v>45959</v>
       </c>
       <c r="B303" s="2"/>
-      <c r="C303" s="134"/>
-      <c r="D303" s="132"/>
+      <c r="C303" s="145"/>
+      <c r="D303" s="143"/>
       <c r="AJ303" t="str">
         <f>TRIM(MID(SUBSTITUTE($F303, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ303)-1)*100+1, 100))</f>
         <v/>
@@ -41487,8 +41528,8 @@
         <v>45960</v>
       </c>
       <c r="B304" s="2"/>
-      <c r="C304" s="134"/>
-      <c r="D304" s="132"/>
+      <c r="C304" s="145"/>
+      <c r="D304" s="143"/>
       <c r="AJ304" t="str">
         <f>TRIM(MID(SUBSTITUTE($F304, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ304)-1)*100+1, 100))</f>
         <v/>
@@ -41563,8 +41604,8 @@
         <v>45961</v>
       </c>
       <c r="B305" s="2"/>
-      <c r="C305" s="134"/>
-      <c r="D305" s="132"/>
+      <c r="C305" s="145"/>
+      <c r="D305" s="143"/>
       <c r="AJ305" t="str">
         <f>TRIM(MID(SUBSTITUTE($F305, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ305)-1)*100+1, 100))</f>
         <v/>
@@ -41639,8 +41680,8 @@
         <v>45962</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="134"/>
-      <c r="D306" s="132"/>
+      <c r="C306" s="145"/>
+      <c r="D306" s="143"/>
       <c r="AJ306" t="str">
         <f>TRIM(MID(SUBSTITUTE($F306, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ306)-1)*100+1, 100))</f>
         <v/>
@@ -41715,8 +41756,8 @@
         <v>45963</v>
       </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="134"/>
-      <c r="D307" s="132"/>
+      <c r="C307" s="145"/>
+      <c r="D307" s="143"/>
       <c r="AJ307" t="str">
         <f>TRIM(MID(SUBSTITUTE($F307, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ307)-1)*100+1, 100))</f>
         <v/>
@@ -41791,8 +41832,8 @@
         <v>45964</v>
       </c>
       <c r="B308" s="2"/>
-      <c r="C308" s="134"/>
-      <c r="D308" s="132"/>
+      <c r="C308" s="145"/>
+      <c r="D308" s="143"/>
       <c r="AJ308" t="str">
         <f>TRIM(MID(SUBSTITUTE($F308, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ308)-1)*100+1, 100))</f>
         <v/>
@@ -41867,8 +41908,8 @@
         <v>45965</v>
       </c>
       <c r="B309" s="2"/>
-      <c r="C309" s="134"/>
-      <c r="D309" s="132"/>
+      <c r="C309" s="145"/>
+      <c r="D309" s="143"/>
       <c r="AJ309" t="str">
         <f>TRIM(MID(SUBSTITUTE($F309, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ309)-1)*100+1, 100))</f>
         <v/>
@@ -41943,8 +41984,8 @@
         <v>45966</v>
       </c>
       <c r="B310" s="2"/>
-      <c r="C310" s="134"/>
-      <c r="D310" s="132"/>
+      <c r="C310" s="145"/>
+      <c r="D310" s="143"/>
       <c r="AJ310" t="str">
         <f>TRIM(MID(SUBSTITUTE($F310, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ310)-1)*100+1, 100))</f>
         <v/>
@@ -42019,8 +42060,8 @@
         <v>45967</v>
       </c>
       <c r="B311" s="2"/>
-      <c r="C311" s="134"/>
-      <c r="D311" s="132"/>
+      <c r="C311" s="145"/>
+      <c r="D311" s="143"/>
       <c r="AJ311" t="str">
         <f>TRIM(MID(SUBSTITUTE($F311, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ311)-1)*100+1, 100))</f>
         <v/>
@@ -42095,8 +42136,8 @@
         <v>45968</v>
       </c>
       <c r="B312" s="2"/>
-      <c r="C312" s="134"/>
-      <c r="D312" s="132"/>
+      <c r="C312" s="145"/>
+      <c r="D312" s="143"/>
       <c r="AJ312" t="str">
         <f>TRIM(MID(SUBSTITUTE($F312, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ312)-1)*100+1, 100))</f>
         <v/>
@@ -42171,8 +42212,8 @@
         <v>45969</v>
       </c>
       <c r="B313" s="2"/>
-      <c r="C313" s="134"/>
-      <c r="D313" s="132"/>
+      <c r="C313" s="145"/>
+      <c r="D313" s="143"/>
       <c r="AJ313" t="str">
         <f>TRIM(MID(SUBSTITUTE($F313, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ313)-1)*100+1, 100))</f>
         <v/>
@@ -42247,8 +42288,8 @@
         <v>45970</v>
       </c>
       <c r="B314" s="2"/>
-      <c r="C314" s="134"/>
-      <c r="D314" s="132"/>
+      <c r="C314" s="145"/>
+      <c r="D314" s="143"/>
       <c r="AJ314" t="str">
         <f>TRIM(MID(SUBSTITUTE($F314, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ314)-1)*100+1, 100))</f>
         <v/>
@@ -42323,8 +42364,8 @@
         <v>45971</v>
       </c>
       <c r="B315" s="2"/>
-      <c r="C315" s="134"/>
-      <c r="D315" s="132"/>
+      <c r="C315" s="145"/>
+      <c r="D315" s="143"/>
       <c r="AJ315" t="str">
         <f>TRIM(MID(SUBSTITUTE($F315, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ315)-1)*100+1, 100))</f>
         <v/>
@@ -42399,8 +42440,8 @@
         <v>45972</v>
       </c>
       <c r="B316" s="2"/>
-      <c r="C316" s="134"/>
-      <c r="D316" s="132"/>
+      <c r="C316" s="145"/>
+      <c r="D316" s="143"/>
       <c r="AJ316" t="str">
         <f>TRIM(MID(SUBSTITUTE($F316, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ316)-1)*100+1, 100))</f>
         <v/>
@@ -42475,8 +42516,8 @@
         <v>45973</v>
       </c>
       <c r="B317" s="2"/>
-      <c r="C317" s="134"/>
-      <c r="D317" s="132"/>
+      <c r="C317" s="145"/>
+      <c r="D317" s="143"/>
       <c r="AJ317" t="str">
         <f>TRIM(MID(SUBSTITUTE($F317, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ317)-1)*100+1, 100))</f>
         <v/>
@@ -42551,8 +42592,8 @@
         <v>45974</v>
       </c>
       <c r="B318" s="2"/>
-      <c r="C318" s="134"/>
-      <c r="D318" s="132"/>
+      <c r="C318" s="145"/>
+      <c r="D318" s="143"/>
       <c r="AJ318" t="str">
         <f>TRIM(MID(SUBSTITUTE($F318, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ318)-1)*100+1, 100))</f>
         <v/>
@@ -42627,8 +42668,8 @@
         <v>45975</v>
       </c>
       <c r="B319" s="2"/>
-      <c r="C319" s="134"/>
-      <c r="D319" s="132"/>
+      <c r="C319" s="145"/>
+      <c r="D319" s="143"/>
       <c r="AJ319" t="str">
         <f>TRIM(MID(SUBSTITUTE($F319, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ319)-1)*100+1, 100))</f>
         <v/>
@@ -42703,8 +42744,8 @@
         <v>45976</v>
       </c>
       <c r="B320" s="2"/>
-      <c r="C320" s="134"/>
-      <c r="D320" s="132"/>
+      <c r="C320" s="145"/>
+      <c r="D320" s="143"/>
       <c r="AJ320" t="str">
         <f>TRIM(MID(SUBSTITUTE($F320, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ320)-1)*100+1, 100))</f>
         <v/>
@@ -42779,8 +42820,8 @@
         <v>45977</v>
       </c>
       <c r="B321" s="2"/>
-      <c r="C321" s="134"/>
-      <c r="D321" s="132"/>
+      <c r="C321" s="145"/>
+      <c r="D321" s="143"/>
       <c r="AJ321" t="str">
         <f>TRIM(MID(SUBSTITUTE($F321, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ321)-1)*100+1, 100))</f>
         <v/>
@@ -42855,8 +42896,8 @@
         <v>45978</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="134"/>
-      <c r="D322" s="132"/>
+      <c r="C322" s="145"/>
+      <c r="D322" s="143"/>
       <c r="AJ322" t="str">
         <f>TRIM(MID(SUBSTITUTE($F322, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ322)-1)*100+1, 100))</f>
         <v/>
@@ -42931,8 +42972,8 @@
         <v>45979</v>
       </c>
       <c r="B323" s="2"/>
-      <c r="C323" s="134"/>
-      <c r="D323" s="132"/>
+      <c r="C323" s="145"/>
+      <c r="D323" s="143"/>
       <c r="AJ323" t="str">
         <f>TRIM(MID(SUBSTITUTE($F323, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ323)-1)*100+1, 100))</f>
         <v/>
@@ -43007,8 +43048,8 @@
         <v>45980</v>
       </c>
       <c r="B324" s="2"/>
-      <c r="C324" s="134"/>
-      <c r="D324" s="132"/>
+      <c r="C324" s="145"/>
+      <c r="D324" s="143"/>
       <c r="AJ324" t="str">
         <f>TRIM(MID(SUBSTITUTE($F324, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ324)-1)*100+1, 100))</f>
         <v/>
@@ -43083,8 +43124,8 @@
         <v>45981</v>
       </c>
       <c r="B325" s="2"/>
-      <c r="C325" s="134"/>
-      <c r="D325" s="132"/>
+      <c r="C325" s="145"/>
+      <c r="D325" s="143"/>
       <c r="AJ325" t="str">
         <f>TRIM(MID(SUBSTITUTE($F325, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ325)-1)*100+1, 100))</f>
         <v/>
@@ -43159,8 +43200,8 @@
         <v>45982</v>
       </c>
       <c r="B326" s="2"/>
-      <c r="C326" s="134"/>
-      <c r="D326" s="132"/>
+      <c r="C326" s="145"/>
+      <c r="D326" s="143"/>
       <c r="AJ326" t="str">
         <f>TRIM(MID(SUBSTITUTE($F326, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ326)-1)*100+1, 100))</f>
         <v/>
@@ -43235,8 +43276,8 @@
         <v>45983</v>
       </c>
       <c r="B327" s="2"/>
-      <c r="C327" s="134"/>
-      <c r="D327" s="132"/>
+      <c r="C327" s="145"/>
+      <c r="D327" s="143"/>
       <c r="AJ327" t="str">
         <f>TRIM(MID(SUBSTITUTE($F327, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ327)-1)*100+1, 100))</f>
         <v/>
@@ -43311,8 +43352,8 @@
         <v>45984</v>
       </c>
       <c r="B328" s="2"/>
-      <c r="C328" s="134"/>
-      <c r="D328" s="132"/>
+      <c r="C328" s="145"/>
+      <c r="D328" s="143"/>
       <c r="AJ328" t="str">
         <f>TRIM(MID(SUBSTITUTE($F328, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ328)-1)*100+1, 100))</f>
         <v/>
@@ -43387,8 +43428,8 @@
         <v>45985</v>
       </c>
       <c r="B329" s="2"/>
-      <c r="C329" s="134"/>
-      <c r="D329" s="132"/>
+      <c r="C329" s="145"/>
+      <c r="D329" s="143"/>
       <c r="AJ329" t="str">
         <f>TRIM(MID(SUBSTITUTE($F329, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ329)-1)*100+1, 100))</f>
         <v/>
@@ -43463,8 +43504,8 @@
         <v>45986</v>
       </c>
       <c r="B330" s="2"/>
-      <c r="C330" s="134"/>
-      <c r="D330" s="132"/>
+      <c r="C330" s="145"/>
+      <c r="D330" s="143"/>
       <c r="AJ330" t="str">
         <f>TRIM(MID(SUBSTITUTE($F330, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ330)-1)*100+1, 100))</f>
         <v/>
@@ -43539,8 +43580,8 @@
         <v>45987</v>
       </c>
       <c r="B331" s="2"/>
-      <c r="C331" s="134"/>
-      <c r="D331" s="132"/>
+      <c r="C331" s="145"/>
+      <c r="D331" s="143"/>
       <c r="AJ331" t="str">
         <f>TRIM(MID(SUBSTITUTE($F331, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ331)-1)*100+1, 100))</f>
         <v/>
@@ -43615,8 +43656,8 @@
         <v>45988</v>
       </c>
       <c r="B332" s="2"/>
-      <c r="C332" s="134"/>
-      <c r="D332" s="132"/>
+      <c r="C332" s="145"/>
+      <c r="D332" s="143"/>
       <c r="AJ332" t="str">
         <f>TRIM(MID(SUBSTITUTE($F332, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ332)-1)*100+1, 100))</f>
         <v/>
@@ -43691,8 +43732,8 @@
         <v>45989</v>
       </c>
       <c r="B333" s="2"/>
-      <c r="C333" s="134"/>
-      <c r="D333" s="132"/>
+      <c r="C333" s="145"/>
+      <c r="D333" s="143"/>
       <c r="AJ333" t="str">
         <f>TRIM(MID(SUBSTITUTE($F333, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ333)-1)*100+1, 100))</f>
         <v/>
@@ -43767,8 +43808,8 @@
         <v>45990</v>
       </c>
       <c r="B334" s="2"/>
-      <c r="C334" s="134"/>
-      <c r="D334" s="132"/>
+      <c r="C334" s="145"/>
+      <c r="D334" s="143"/>
       <c r="AJ334" t="str">
         <f>TRIM(MID(SUBSTITUTE($F334, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ334)-1)*100+1, 100))</f>
         <v/>
@@ -43843,8 +43884,8 @@
         <v>45991</v>
       </c>
       <c r="B335" s="2"/>
-      <c r="C335" s="134"/>
-      <c r="D335" s="132"/>
+      <c r="C335" s="145"/>
+      <c r="D335" s="143"/>
       <c r="AJ335" t="str">
         <f>TRIM(MID(SUBSTITUTE($F335, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ335)-1)*100+1, 100))</f>
         <v/>
@@ -43919,8 +43960,8 @@
         <v>45992</v>
       </c>
       <c r="B336" s="2"/>
-      <c r="C336" s="134"/>
-      <c r="D336" s="132"/>
+      <c r="C336" s="145"/>
+      <c r="D336" s="143"/>
       <c r="AJ336" t="str">
         <f>TRIM(MID(SUBSTITUTE($F336, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ336)-1)*100+1, 100))</f>
         <v/>
@@ -43995,8 +44036,8 @@
         <v>45993</v>
       </c>
       <c r="B337" s="2"/>
-      <c r="C337" s="134"/>
-      <c r="D337" s="132"/>
+      <c r="C337" s="145"/>
+      <c r="D337" s="143"/>
       <c r="AJ337" t="str">
         <f>TRIM(MID(SUBSTITUTE($F337, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ337)-1)*100+1, 100))</f>
         <v/>
@@ -44071,8 +44112,8 @@
         <v>45994</v>
       </c>
       <c r="B338" s="2"/>
-      <c r="C338" s="134"/>
-      <c r="D338" s="132"/>
+      <c r="C338" s="145"/>
+      <c r="D338" s="143"/>
       <c r="AJ338" t="str">
         <f>TRIM(MID(SUBSTITUTE($F338, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ338)-1)*100+1, 100))</f>
         <v/>
@@ -44147,8 +44188,8 @@
         <v>45995</v>
       </c>
       <c r="B339" s="2"/>
-      <c r="C339" s="134"/>
-      <c r="D339" s="132"/>
+      <c r="C339" s="145"/>
+      <c r="D339" s="143"/>
       <c r="AJ339" t="str">
         <f>TRIM(MID(SUBSTITUTE($F339, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ339)-1)*100+1, 100))</f>
         <v/>
@@ -44223,8 +44264,8 @@
         <v>45996</v>
       </c>
       <c r="B340" s="2"/>
-      <c r="C340" s="134"/>
-      <c r="D340" s="132"/>
+      <c r="C340" s="145"/>
+      <c r="D340" s="143"/>
       <c r="AJ340" t="str">
         <f>TRIM(MID(SUBSTITUTE($F340, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ340)-1)*100+1, 100))</f>
         <v/>
@@ -44299,8 +44340,8 @@
         <v>45997</v>
       </c>
       <c r="B341" s="2"/>
-      <c r="C341" s="134"/>
-      <c r="D341" s="132"/>
+      <c r="C341" s="145"/>
+      <c r="D341" s="143"/>
       <c r="AJ341" t="str">
         <f>TRIM(MID(SUBSTITUTE($F341, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ341)-1)*100+1, 100))</f>
         <v/>
@@ -44375,8 +44416,8 @@
         <v>45998</v>
       </c>
       <c r="B342" s="2"/>
-      <c r="C342" s="134"/>
-      <c r="D342" s="132"/>
+      <c r="C342" s="145"/>
+      <c r="D342" s="143"/>
       <c r="AJ342" t="str">
         <f>TRIM(MID(SUBSTITUTE($F342, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ342)-1)*100+1, 100))</f>
         <v/>
@@ -44451,8 +44492,8 @@
         <v>45999</v>
       </c>
       <c r="B343" s="2"/>
-      <c r="C343" s="134"/>
-      <c r="D343" s="132"/>
+      <c r="C343" s="145"/>
+      <c r="D343" s="143"/>
       <c r="AJ343" t="str">
         <f>TRIM(MID(SUBSTITUTE($F343, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ343)-1)*100+1, 100))</f>
         <v/>
@@ -44527,8 +44568,8 @@
         <v>46000</v>
       </c>
       <c r="B344" s="2"/>
-      <c r="C344" s="134"/>
-      <c r="D344" s="132"/>
+      <c r="C344" s="145"/>
+      <c r="D344" s="143"/>
       <c r="AJ344" t="str">
         <f>TRIM(MID(SUBSTITUTE($F344, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ344)-1)*100+1, 100))</f>
         <v/>
@@ -44603,8 +44644,8 @@
         <v>46001</v>
       </c>
       <c r="B345" s="2"/>
-      <c r="C345" s="134"/>
-      <c r="D345" s="132"/>
+      <c r="C345" s="145"/>
+      <c r="D345" s="143"/>
       <c r="AJ345" t="str">
         <f>TRIM(MID(SUBSTITUTE($F345, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ345)-1)*100+1, 100))</f>
         <v/>
@@ -44679,8 +44720,8 @@
         <v>46002</v>
       </c>
       <c r="B346" s="2"/>
-      <c r="C346" s="134"/>
-      <c r="D346" s="132"/>
+      <c r="C346" s="145"/>
+      <c r="D346" s="143"/>
       <c r="AJ346" t="str">
         <f>TRIM(MID(SUBSTITUTE($F346, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ346)-1)*100+1, 100))</f>
         <v/>
@@ -44755,8 +44796,8 @@
         <v>46003</v>
       </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="134"/>
-      <c r="D347" s="132"/>
+      <c r="C347" s="145"/>
+      <c r="D347" s="143"/>
       <c r="AJ347" t="str">
         <f>TRIM(MID(SUBSTITUTE($F347, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ347)-1)*100+1, 100))</f>
         <v/>
@@ -44831,8 +44872,8 @@
         <v>46004</v>
       </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="134"/>
-      <c r="D348" s="132"/>
+      <c r="C348" s="145"/>
+      <c r="D348" s="143"/>
       <c r="AJ348" t="str">
         <f>TRIM(MID(SUBSTITUTE($F348, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ348)-1)*100+1, 100))</f>
         <v/>
@@ -44907,8 +44948,8 @@
         <v>46005</v>
       </c>
       <c r="B349" s="2"/>
-      <c r="C349" s="134"/>
-      <c r="D349" s="132"/>
+      <c r="C349" s="145"/>
+      <c r="D349" s="143"/>
       <c r="AJ349" t="str">
         <f>TRIM(MID(SUBSTITUTE($F349, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ349)-1)*100+1, 100))</f>
         <v/>
@@ -44983,8 +45024,8 @@
         <v>46006</v>
       </c>
       <c r="B350" s="2"/>
-      <c r="C350" s="134"/>
-      <c r="D350" s="132"/>
+      <c r="C350" s="145"/>
+      <c r="D350" s="143"/>
       <c r="AJ350" t="str">
         <f>TRIM(MID(SUBSTITUTE($F350, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ350)-1)*100+1, 100))</f>
         <v/>
@@ -45059,8 +45100,8 @@
         <v>46007</v>
       </c>
       <c r="B351" s="2"/>
-      <c r="C351" s="134"/>
-      <c r="D351" s="132"/>
+      <c r="C351" s="145"/>
+      <c r="D351" s="143"/>
       <c r="AJ351" t="str">
         <f>TRIM(MID(SUBSTITUTE($F351, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ351)-1)*100+1, 100))</f>
         <v/>
@@ -45135,8 +45176,8 @@
         <v>46008</v>
       </c>
       <c r="B352" s="2"/>
-      <c r="C352" s="134"/>
-      <c r="D352" s="132"/>
+      <c r="C352" s="145"/>
+      <c r="D352" s="143"/>
       <c r="AJ352" t="str">
         <f>TRIM(MID(SUBSTITUTE($F352, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ352)-1)*100+1, 100))</f>
         <v/>
@@ -45211,8 +45252,8 @@
         <v>46009</v>
       </c>
       <c r="B353" s="2"/>
-      <c r="C353" s="134"/>
-      <c r="D353" s="132"/>
+      <c r="C353" s="145"/>
+      <c r="D353" s="143"/>
       <c r="AJ353" t="str">
         <f>TRIM(MID(SUBSTITUTE($F353, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ353)-1)*100+1, 100))</f>
         <v/>
@@ -45287,8 +45328,8 @@
         <v>46010</v>
       </c>
       <c r="B354" s="2"/>
-      <c r="C354" s="134"/>
-      <c r="D354" s="132"/>
+      <c r="C354" s="145"/>
+      <c r="D354" s="143"/>
       <c r="AJ354" t="str">
         <f>TRIM(MID(SUBSTITUTE($F354, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ354)-1)*100+1, 100))</f>
         <v/>
@@ -45363,8 +45404,8 @@
         <v>46011</v>
       </c>
       <c r="B355" s="2"/>
-      <c r="C355" s="134"/>
-      <c r="D355" s="132"/>
+      <c r="C355" s="145"/>
+      <c r="D355" s="143"/>
       <c r="AJ355" t="str">
         <f>TRIM(MID(SUBSTITUTE($F355, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ355)-1)*100+1, 100))</f>
         <v/>
@@ -45439,8 +45480,8 @@
         <v>46012</v>
       </c>
       <c r="B356" s="2"/>
-      <c r="C356" s="134"/>
-      <c r="D356" s="132"/>
+      <c r="C356" s="145"/>
+      <c r="D356" s="143"/>
       <c r="AJ356" t="str">
         <f>TRIM(MID(SUBSTITUTE($F356, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ356)-1)*100+1, 100))</f>
         <v/>
@@ -45515,8 +45556,8 @@
         <v>46013</v>
       </c>
       <c r="B357" s="2"/>
-      <c r="C357" s="134"/>
-      <c r="D357" s="132"/>
+      <c r="C357" s="145"/>
+      <c r="D357" s="143"/>
       <c r="AJ357" t="str">
         <f>TRIM(MID(SUBSTITUTE($F357, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ357)-1)*100+1, 100))</f>
         <v/>
@@ -45591,8 +45632,8 @@
         <v>46014</v>
       </c>
       <c r="B358" s="2"/>
-      <c r="C358" s="134"/>
-      <c r="D358" s="132"/>
+      <c r="C358" s="145"/>
+      <c r="D358" s="143"/>
       <c r="AJ358" t="str">
         <f>TRIM(MID(SUBSTITUTE($F358, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ358)-1)*100+1, 100))</f>
         <v/>
@@ -45667,8 +45708,8 @@
         <v>46015</v>
       </c>
       <c r="B359" s="2"/>
-      <c r="C359" s="134"/>
-      <c r="D359" s="132"/>
+      <c r="C359" s="145"/>
+      <c r="D359" s="143"/>
       <c r="AJ359" t="str">
         <f>TRIM(MID(SUBSTITUTE($F359, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ359)-1)*100+1, 100))</f>
         <v/>
@@ -45743,8 +45784,8 @@
         <v>46016</v>
       </c>
       <c r="B360" s="2"/>
-      <c r="C360" s="134"/>
-      <c r="D360" s="132"/>
+      <c r="C360" s="145"/>
+      <c r="D360" s="143"/>
       <c r="AJ360" t="str">
         <f>TRIM(MID(SUBSTITUTE($F360, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ360)-1)*100+1, 100))</f>
         <v/>
@@ -45819,8 +45860,8 @@
         <v>46017</v>
       </c>
       <c r="B361" s="2"/>
-      <c r="C361" s="134"/>
-      <c r="D361" s="132"/>
+      <c r="C361" s="145"/>
+      <c r="D361" s="143"/>
       <c r="AJ361" t="str">
         <f>TRIM(MID(SUBSTITUTE($F361, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ361)-1)*100+1, 100))</f>
         <v/>
@@ -45895,8 +45936,8 @@
         <v>46018</v>
       </c>
       <c r="B362" s="2"/>
-      <c r="C362" s="134"/>
-      <c r="D362" s="132"/>
+      <c r="C362" s="145"/>
+      <c r="D362" s="143"/>
       <c r="AJ362" t="str">
         <f>TRIM(MID(SUBSTITUTE($F362, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ362)-1)*100+1, 100))</f>
         <v/>
@@ -45971,8 +46012,8 @@
         <v>46019</v>
       </c>
       <c r="B363" s="2"/>
-      <c r="C363" s="134"/>
-      <c r="D363" s="132"/>
+      <c r="C363" s="145"/>
+      <c r="D363" s="143"/>
       <c r="AJ363" t="str">
         <f>TRIM(MID(SUBSTITUTE($F363, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ363)-1)*100+1, 100))</f>
         <v/>
@@ -46047,8 +46088,8 @@
         <v>46020</v>
       </c>
       <c r="B364" s="2"/>
-      <c r="C364" s="134"/>
-      <c r="D364" s="132"/>
+      <c r="C364" s="145"/>
+      <c r="D364" s="143"/>
       <c r="AJ364" t="str">
         <f>TRIM(MID(SUBSTITUTE($F364, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ364)-1)*100+1, 100))</f>
         <v/>
@@ -46123,8 +46164,8 @@
         <v>46021</v>
       </c>
       <c r="B365" s="2"/>
-      <c r="C365" s="134"/>
-      <c r="D365" s="132"/>
+      <c r="C365" s="145"/>
+      <c r="D365" s="143"/>
       <c r="AJ365" t="str">
         <f>TRIM(MID(SUBSTITUTE($F365, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ365)-1)*100+1, 100))</f>
         <v/>
@@ -46199,8 +46240,8 @@
         <v>46022</v>
       </c>
       <c r="B366" s="2"/>
-      <c r="C366" s="134"/>
-      <c r="D366" s="132"/>
+      <c r="C366" s="145"/>
+      <c r="D366" s="143"/>
       <c r="AJ366" t="str">
         <f>TRIM(MID(SUBSTITUTE($F366, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ366)-1)*100+1, 100))</f>
         <v/>
@@ -46277,11 +46318,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N5:N16"/>
-    <mergeCell ref="H1:J2"/>
     <mergeCell ref="D2:D366"/>
     <mergeCell ref="C33:C60"/>
     <mergeCell ref="C61:C91"/>
@@ -46295,6 +46331,11 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N5:N16"/>
+    <mergeCell ref="H1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B367">
@@ -46309,8 +46350,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2 C33 C61 C92">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="C2:C366">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46321,8 +46362,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C366">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="C33 C2 C61 C92">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46499,7 +46540,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -46869,11 +46910,11 @@
       <c r="B1" s="2">
         <v>6</v>
       </c>
-      <c r="C1" s="134">
+      <c r="C1" s="145">
         <f>AVERAGE(B1:B31)</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="D1" s="157">
+      <c r="D1" s="152">
         <f>AVERAGE(B1:B366)</f>
         <v>5.1967213114754101</v>
       </c>
@@ -46885,8 +46926,8 @@
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="157"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="152"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -46895,8 +46936,8 @@
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="157"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="152"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -46905,8 +46946,8 @@
       <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="152"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -46915,8 +46956,8 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="157"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="152"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -46925,8 +46966,8 @@
       <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="157"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="152"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -46935,8 +46976,8 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="157"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="152"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -46945,8 +46986,8 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="157"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="152"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -46955,8 +46996,8 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="157"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="152"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -46965,8 +47006,8 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="157"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="152"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -46975,8 +47016,8 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="157"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="152"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -46985,8 +47026,8 @@
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="157"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="152"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -46995,8 +47036,8 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="157"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="152"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -47005,8 +47046,8 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="157"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="152"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -47015,8 +47056,8 @@
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="157"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="152"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -47025,8 +47066,8 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="157"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="152"/>
     </row>
     <row r="17" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -47035,8 +47076,8 @@
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="157"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="152"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
         <v>24</v>
@@ -47052,8 +47093,8 @@
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="157"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="152"/>
       <c r="F18" s="24" t="s">
         <v>0</v>
       </c>
@@ -47103,8 +47144,8 @@
       <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="157"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="152"/>
       <c r="F19" s="7" t="s">
         <v>1</v>
       </c>
@@ -47121,7 +47162,7 @@
         <f>C1</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="L19" s="155">
+      <c r="L19" s="158">
         <f>AVERAGE(K19:K30)</f>
         <v>5.1920096403411202</v>
       </c>
@@ -47149,7 +47190,7 @@
         <f>COUNTIF(B1:B31,G23)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="153">
+      <c r="S19" s="156">
         <f>AVERAGE(K19:K22)</f>
         <v>4.9297923618835746</v>
       </c>
@@ -47161,8 +47202,8 @@
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="157"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="152"/>
       <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
@@ -47179,7 +47220,7 @@
         <f>C32</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="L20" s="155"/>
+      <c r="L20" s="158"/>
       <c r="M20" s="21">
         <f>COUNTIF(B32:B60,G18)</f>
         <v>1</v>
@@ -47204,7 +47245,7 @@
         <f>COUNTIF(B32:B60,G23)</f>
         <v>2</v>
       </c>
-      <c r="S20" s="134"/>
+      <c r="S20" s="145"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -47213,8 +47254,8 @@
       <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="157"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="152"/>
       <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
@@ -47231,7 +47272,7 @@
         <f>C61</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="L21" s="155"/>
+      <c r="L21" s="158"/>
       <c r="M21" s="21">
         <f>COUNTIF(B61:B91,G18)</f>
         <v>0</v>
@@ -47256,7 +47297,7 @@
         <f>COUNTIF(B61:B91,G23)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="134"/>
+      <c r="S21" s="145"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -47265,8 +47306,8 @@
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="157"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="152"/>
       <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
@@ -47283,7 +47324,7 @@
         <f>C92</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="L22" s="155"/>
+      <c r="L22" s="158"/>
       <c r="M22" s="21">
         <f>COUNTIF(B92:B121,G18)</f>
         <v>0</v>
@@ -47308,7 +47349,7 @@
         <f>COUNTIF(B92:B121,G23)</f>
         <v>2</v>
       </c>
-      <c r="S22" s="134"/>
+      <c r="S22" s="145"/>
     </row>
     <row r="23" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
@@ -47317,8 +47358,8 @@
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="157"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="152"/>
       <c r="F23" s="14" t="s">
         <v>5</v>
       </c>
@@ -47335,7 +47376,7 @@
         <f>C122</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="L23" s="155"/>
+      <c r="L23" s="158"/>
       <c r="M23" s="21">
         <f>COUNTIF(B122:B152,G18)</f>
         <v>1</v>
@@ -47360,7 +47401,7 @@
         <f>COUNTIF(B122:B152,G23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="153">
+      <c r="S23" s="156">
         <f>AVERAGE(K23:K26)</f>
         <v>5.365591397849462</v>
       </c>
@@ -47372,12 +47413,12 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="157"/>
-      <c r="F24" s="138" t="s">
+      <c r="C24" s="145"/>
+      <c r="D24" s="152"/>
+      <c r="F24" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="131"/>
       <c r="H24" s="17">
         <f>SUM(H18:H23)</f>
         <v>366</v>
@@ -47389,7 +47430,7 @@
         <f>C153</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="L24" s="155"/>
+      <c r="L24" s="158"/>
       <c r="M24" s="21">
         <f>COUNTIF(B153:B182,G18)</f>
         <v>3</v>
@@ -47414,7 +47455,7 @@
         <f>COUNTIF(B153:B182,G23)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="134"/>
+      <c r="S24" s="145"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -47423,8 +47464,8 @@
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="157"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="152"/>
       <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
@@ -47432,7 +47473,7 @@
         <f>C183</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="L25" s="155"/>
+      <c r="L25" s="158"/>
       <c r="M25" s="21">
         <f>COUNTIF(B183:B213,G18)</f>
         <v>2</v>
@@ -47457,7 +47498,7 @@
         <f>COUNTIF(B183:B213,G23)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="134"/>
+      <c r="S25" s="145"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -47466,8 +47507,8 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="157"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="152"/>
       <c r="J26" s="10" t="s">
         <v>15</v>
       </c>
@@ -47475,7 +47516,7 @@
         <f>C214</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="L26" s="155"/>
+      <c r="L26" s="158"/>
       <c r="M26" s="21">
         <f>COUNTIF(B214:B244,G18)</f>
         <v>0</v>
@@ -47500,7 +47541,7 @@
         <f>COUNTIF(B214:B244,G23)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="134"/>
+      <c r="S26" s="145"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -47509,13 +47550,13 @@
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="157"/>
-      <c r="F27" s="152" t="s">
+      <c r="C27" s="145"/>
+      <c r="D27" s="152"/>
+      <c r="F27" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
       <c r="J27" s="10" t="s">
         <v>16</v>
       </c>
@@ -47523,7 +47564,7 @@
         <f>C245</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="L27" s="155"/>
+      <c r="L27" s="158"/>
       <c r="M27" s="21">
         <f>COUNTIF(B245:B274,G18)</f>
         <v>1</v>
@@ -47548,7 +47589,7 @@
         <f>COUNTIF(B245:B274,G23)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="153">
+      <c r="S27" s="156">
         <f>AVERAGE(K27:K30)</f>
         <v>5.2806451612903231</v>
       </c>
@@ -47560,13 +47601,13 @@
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="157"/>
-      <c r="F28" s="154">
+      <c r="C28" s="145"/>
+      <c r="D28" s="152"/>
+      <c r="F28" s="157">
         <v>2024</v>
       </c>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
       <c r="J28" s="10" t="s">
         <v>17</v>
       </c>
@@ -47574,7 +47615,7 @@
         <f>C275</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="L28" s="155"/>
+      <c r="L28" s="158"/>
       <c r="M28" s="21">
         <f>COUNTIF(B275:B305,G18)</f>
         <v>1</v>
@@ -47599,7 +47640,7 @@
         <f>COUNTIF(B275:B305,G23)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="134"/>
+      <c r="S28" s="145"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -47608,8 +47649,8 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="157"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="152"/>
       <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
@@ -47617,7 +47658,7 @@
         <f>C306</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="L29" s="155"/>
+      <c r="L29" s="158"/>
       <c r="M29" s="21">
         <f>COUNTIF(B306:B335,G18)</f>
         <v>0</v>
@@ -47642,7 +47683,7 @@
         <f>COUNTIF(B306:B335,G23)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="134"/>
+      <c r="S29" s="145"/>
     </row>
     <row r="30" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
@@ -47651,8 +47692,8 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="134"/>
-      <c r="D30" s="157"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="152"/>
       <c r="J30" s="18" t="s">
         <v>19</v>
       </c>
@@ -47660,7 +47701,7 @@
         <f>C336</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="L30" s="156"/>
+      <c r="L30" s="159"/>
       <c r="M30" s="21">
         <f>COUNTIF(B336:B366,G18)</f>
         <v>1</v>
@@ -47685,7 +47726,7 @@
         <f>COUNTIF(B336:B366,G23)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="134"/>
+      <c r="S30" s="145"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -47694,8 +47735,8 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="157"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="152"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -47704,11 +47745,11 @@
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="134">
+      <c r="C32" s="145">
         <f>AVERAGE(B32:B60)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="D32" s="157"/>
+      <c r="D32" s="152"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -47717,8 +47758,8 @@
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="134"/>
-      <c r="D33" s="157"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="152"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -47727,8 +47768,8 @@
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="157"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="152"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -47737,8 +47778,8 @@
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="157"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="152"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -47747,8 +47788,8 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="157"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="152"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -47757,8 +47798,8 @@
       <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="157"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="152"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
@@ -47767,8 +47808,8 @@
       <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="157"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="152"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -47777,8 +47818,8 @@
       <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="134"/>
-      <c r="D39" s="157"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="152"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -47787,8 +47828,8 @@
       <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C40" s="134"/>
-      <c r="D40" s="157"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="152"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -47797,8 +47838,8 @@
       <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="134"/>
-      <c r="D41" s="157"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="152"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -47807,8 +47848,8 @@
       <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="134"/>
-      <c r="D42" s="157"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="152"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -47817,8 +47858,8 @@
       <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="134"/>
-      <c r="D43" s="157"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="152"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -47827,8 +47868,8 @@
       <c r="B44" s="2">
         <v>6</v>
       </c>
-      <c r="C44" s="134"/>
-      <c r="D44" s="157"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="152"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
@@ -47837,8 +47878,8 @@
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="134"/>
-      <c r="D45" s="157"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="152"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -47847,8 +47888,8 @@
       <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="157"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="152"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -47857,8 +47898,8 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="134"/>
-      <c r="D47" s="157"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="152"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -47867,8 +47908,8 @@
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="C48" s="134"/>
-      <c r="D48" s="157"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="152"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -47877,8 +47918,8 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="134"/>
-      <c r="D49" s="157"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="152"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -47887,8 +47928,8 @@
       <c r="B50" s="2">
         <v>4</v>
       </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="157"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="152"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -47897,8 +47938,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="134"/>
-      <c r="D51" s="157"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="152"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -47907,8 +47948,8 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="134"/>
-      <c r="D52" s="157"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="152"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -47917,8 +47958,8 @@
       <c r="B53" s="2">
         <v>2</v>
       </c>
-      <c r="C53" s="134"/>
-      <c r="D53" s="157"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="152"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -47927,8 +47968,8 @@
       <c r="B54" s="2">
         <v>4</v>
       </c>
-      <c r="C54" s="134"/>
-      <c r="D54" s="157"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="152"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -47937,8 +47978,8 @@
       <c r="B55" s="2">
         <v>4</v>
       </c>
-      <c r="C55" s="134"/>
-      <c r="D55" s="157"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="152"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -47947,8 +47988,8 @@
       <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="134"/>
-      <c r="D56" s="157"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="152"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -47957,8 +47998,8 @@
       <c r="B57" s="2">
         <v>4</v>
       </c>
-      <c r="C57" s="134"/>
-      <c r="D57" s="157"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="152"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -47967,8 +48008,8 @@
       <c r="B58" s="2">
         <v>4</v>
       </c>
-      <c r="C58" s="134"/>
-      <c r="D58" s="157"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="152"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -47977,8 +48018,8 @@
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="134"/>
-      <c r="D59" s="157"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="152"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -47987,8 +48028,8 @@
       <c r="B60" s="2">
         <v>6</v>
       </c>
-      <c r="C60" s="134"/>
-      <c r="D60" s="157"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="152"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -47997,11 +48038,11 @@
       <c r="B61" s="2">
         <v>6</v>
       </c>
-      <c r="C61" s="134">
+      <c r="C61" s="145">
         <f>AVERAGE(B61:B91)</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="D61" s="157"/>
+      <c r="D61" s="152"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
@@ -48010,8 +48051,8 @@
       <c r="B62" s="2">
         <v>6</v>
       </c>
-      <c r="C62" s="134"/>
-      <c r="D62" s="157"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="152"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -48020,8 +48061,8 @@
       <c r="B63" s="2">
         <v>8</v>
       </c>
-      <c r="C63" s="134"/>
-      <c r="D63" s="157"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="152"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
@@ -48030,8 +48071,8 @@
       <c r="B64" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="134"/>
-      <c r="D64" s="157"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="152"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
@@ -48040,8 +48081,8 @@
       <c r="B65" s="2">
         <v>4</v>
       </c>
-      <c r="C65" s="134"/>
-      <c r="D65" s="157"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="152"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -48050,8 +48091,8 @@
       <c r="B66" s="2">
         <v>4</v>
       </c>
-      <c r="C66" s="134"/>
-      <c r="D66" s="157"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="152"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -48060,8 +48101,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="134"/>
-      <c r="D67" s="157"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="152"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
@@ -48070,8 +48111,8 @@
       <c r="B68" s="2">
         <v>6</v>
       </c>
-      <c r="C68" s="134"/>
-      <c r="D68" s="157"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="152"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
@@ -48080,8 +48121,8 @@
       <c r="B69" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="134"/>
-      <c r="D69" s="157"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="152"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
@@ -48090,8 +48131,8 @@
       <c r="B70" s="2">
         <v>6</v>
       </c>
-      <c r="C70" s="134"/>
-      <c r="D70" s="157"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="152"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
@@ -48100,8 +48141,8 @@
       <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="134"/>
-      <c r="D71" s="157"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="152"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
@@ -48110,8 +48151,8 @@
       <c r="B72" s="2">
         <v>6</v>
       </c>
-      <c r="C72" s="134"/>
-      <c r="D72" s="157"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="152"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
@@ -48120,8 +48161,8 @@
       <c r="B73" s="2">
         <v>6</v>
       </c>
-      <c r="C73" s="134"/>
-      <c r="D73" s="157"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="152"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -48130,8 +48171,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="134"/>
-      <c r="D74" s="157"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="152"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -48140,8 +48181,8 @@
       <c r="B75" s="2">
         <v>6</v>
       </c>
-      <c r="C75" s="134"/>
-      <c r="D75" s="157"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="152"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -48150,8 +48191,8 @@
       <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C76" s="134"/>
-      <c r="D76" s="157"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="152"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
@@ -48160,8 +48201,8 @@
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="134"/>
-      <c r="D77" s="157"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="152"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -48170,8 +48211,8 @@
       <c r="B78" s="2">
         <v>6</v>
       </c>
-      <c r="C78" s="134"/>
-      <c r="D78" s="157"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="152"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
@@ -48180,8 +48221,8 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="134"/>
-      <c r="D79" s="157"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="152"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
@@ -48190,8 +48231,8 @@
       <c r="B80" s="2">
         <v>8</v>
       </c>
-      <c r="C80" s="134"/>
-      <c r="D80" s="157"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="152"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
@@ -48200,8 +48241,8 @@
       <c r="B81" s="2">
         <v>6</v>
       </c>
-      <c r="C81" s="134"/>
-      <c r="D81" s="157"/>
+      <c r="C81" s="145"/>
+      <c r="D81" s="152"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
@@ -48210,8 +48251,8 @@
       <c r="B82" s="2">
         <v>8</v>
       </c>
-      <c r="C82" s="134"/>
-      <c r="D82" s="157"/>
+      <c r="C82" s="145"/>
+      <c r="D82" s="152"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -48220,8 +48261,8 @@
       <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="C83" s="134"/>
-      <c r="D83" s="157"/>
+      <c r="C83" s="145"/>
+      <c r="D83" s="152"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
@@ -48230,8 +48271,8 @@
       <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="134"/>
-      <c r="D84" s="157"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="152"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -48240,8 +48281,8 @@
       <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C85" s="134"/>
-      <c r="D85" s="157"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="152"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -48250,8 +48291,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="134"/>
-      <c r="D86" s="157"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="152"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -48260,8 +48301,8 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
-      <c r="C87" s="134"/>
-      <c r="D87" s="157"/>
+      <c r="C87" s="145"/>
+      <c r="D87" s="152"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -48270,8 +48311,8 @@
       <c r="B88" s="2">
         <v>6</v>
       </c>
-      <c r="C88" s="134"/>
-      <c r="D88" s="157"/>
+      <c r="C88" s="145"/>
+      <c r="D88" s="152"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -48280,8 +48321,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="134"/>
-      <c r="D89" s="157"/>
+      <c r="C89" s="145"/>
+      <c r="D89" s="152"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -48290,8 +48331,8 @@
       <c r="B90" s="2">
         <v>6</v>
       </c>
-      <c r="C90" s="134"/>
-      <c r="D90" s="157"/>
+      <c r="C90" s="145"/>
+      <c r="D90" s="152"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -48300,8 +48341,8 @@
       <c r="B91" s="2">
         <v>6</v>
       </c>
-      <c r="C91" s="134"/>
-      <c r="D91" s="157"/>
+      <c r="C91" s="145"/>
+      <c r="D91" s="152"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -48310,11 +48351,11 @@
       <c r="B92" s="2">
         <v>4</v>
       </c>
-      <c r="C92" s="134">
+      <c r="C92" s="145">
         <f>AVERAGE(B92:B121)</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="D92" s="157"/>
+      <c r="D92" s="152"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -48323,8 +48364,8 @@
       <c r="B93" s="2">
         <v>4</v>
       </c>
-      <c r="C93" s="134"/>
-      <c r="D93" s="157"/>
+      <c r="C93" s="145"/>
+      <c r="D93" s="152"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -48333,8 +48374,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="134"/>
-      <c r="D94" s="157"/>
+      <c r="C94" s="145"/>
+      <c r="D94" s="152"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -48343,8 +48384,8 @@
       <c r="B95" s="2">
         <v>4</v>
       </c>
-      <c r="C95" s="134"/>
-      <c r="D95" s="157"/>
+      <c r="C95" s="145"/>
+      <c r="D95" s="152"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -48353,8 +48394,8 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96" s="134"/>
-      <c r="D96" s="157"/>
+      <c r="C96" s="145"/>
+      <c r="D96" s="152"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
@@ -48363,8 +48404,8 @@
       <c r="B97" s="2">
         <v>2</v>
       </c>
-      <c r="C97" s="134"/>
-      <c r="D97" s="157"/>
+      <c r="C97" s="145"/>
+      <c r="D97" s="152"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -48373,8 +48414,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="134"/>
-      <c r="D98" s="157"/>
+      <c r="C98" s="145"/>
+      <c r="D98" s="152"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -48383,8 +48424,8 @@
       <c r="B99" s="2">
         <v>4</v>
       </c>
-      <c r="C99" s="134"/>
-      <c r="D99" s="157"/>
+      <c r="C99" s="145"/>
+      <c r="D99" s="152"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
@@ -48393,8 +48434,8 @@
       <c r="B100" s="2">
         <v>6</v>
       </c>
-      <c r="C100" s="134"/>
-      <c r="D100" s="157"/>
+      <c r="C100" s="145"/>
+      <c r="D100" s="152"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -48403,8 +48444,8 @@
       <c r="B101" s="2">
         <v>2</v>
       </c>
-      <c r="C101" s="134"/>
-      <c r="D101" s="157"/>
+      <c r="C101" s="145"/>
+      <c r="D101" s="152"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
@@ -48413,8 +48454,8 @@
       <c r="B102" s="2">
         <v>0</v>
       </c>
-      <c r="C102" s="134"/>
-      <c r="D102" s="157"/>
+      <c r="C102" s="145"/>
+      <c r="D102" s="152"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
@@ -48423,8 +48464,8 @@
       <c r="B103" s="2">
         <v>6</v>
       </c>
-      <c r="C103" s="134"/>
-      <c r="D103" s="157"/>
+      <c r="C103" s="145"/>
+      <c r="D103" s="152"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
@@ -48433,8 +48474,8 @@
       <c r="B104" s="2">
         <v>6</v>
       </c>
-      <c r="C104" s="134"/>
-      <c r="D104" s="157"/>
+      <c r="C104" s="145"/>
+      <c r="D104" s="152"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
@@ -48443,8 +48484,8 @@
       <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="134"/>
-      <c r="D105" s="157"/>
+      <c r="C105" s="145"/>
+      <c r="D105" s="152"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
@@ -48453,8 +48494,8 @@
       <c r="B106" s="2">
         <v>6</v>
       </c>
-      <c r="C106" s="134"/>
-      <c r="D106" s="157"/>
+      <c r="C106" s="145"/>
+      <c r="D106" s="152"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
@@ -48463,8 +48504,8 @@
       <c r="B107" s="2">
         <v>4</v>
       </c>
-      <c r="C107" s="134"/>
-      <c r="D107" s="157"/>
+      <c r="C107" s="145"/>
+      <c r="D107" s="152"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
@@ -48473,8 +48514,8 @@
       <c r="B108" s="2">
         <v>8</v>
       </c>
-      <c r="C108" s="134"/>
-      <c r="D108" s="157"/>
+      <c r="C108" s="145"/>
+      <c r="D108" s="152"/>
       <c r="J108" s="3" t="s">
         <v>22</v>
       </c>
@@ -48486,8 +48527,8 @@
       <c r="B109" s="2">
         <v>6</v>
       </c>
-      <c r="C109" s="134"/>
-      <c r="D109" s="157"/>
+      <c r="C109" s="145"/>
+      <c r="D109" s="152"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
@@ -48496,8 +48537,8 @@
       <c r="B110" s="2">
         <v>6</v>
       </c>
-      <c r="C110" s="134"/>
-      <c r="D110" s="157"/>
+      <c r="C110" s="145"/>
+      <c r="D110" s="152"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
@@ -48506,8 +48547,8 @@
       <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C111" s="134"/>
-      <c r="D111" s="157"/>
+      <c r="C111" s="145"/>
+      <c r="D111" s="152"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
@@ -48516,8 +48557,8 @@
       <c r="B112" s="2">
         <v>6</v>
       </c>
-      <c r="C112" s="134"/>
-      <c r="D112" s="157"/>
+      <c r="C112" s="145"/>
+      <c r="D112" s="152"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
@@ -48526,8 +48567,8 @@
       <c r="B113" s="2">
         <v>6</v>
       </c>
-      <c r="C113" s="134"/>
-      <c r="D113" s="157"/>
+      <c r="C113" s="145"/>
+      <c r="D113" s="152"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
@@ -48536,8 +48577,8 @@
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" s="134"/>
-      <c r="D114" s="157"/>
+      <c r="C114" s="145"/>
+      <c r="D114" s="152"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
@@ -48546,8 +48587,8 @@
       <c r="B115" s="2">
         <v>6</v>
       </c>
-      <c r="C115" s="134"/>
-      <c r="D115" s="157"/>
+      <c r="C115" s="145"/>
+      <c r="D115" s="152"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
@@ -48556,8 +48597,8 @@
       <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="134"/>
-      <c r="D116" s="157"/>
+      <c r="C116" s="145"/>
+      <c r="D116" s="152"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
@@ -48566,8 +48607,8 @@
       <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C117" s="134"/>
-      <c r="D117" s="157"/>
+      <c r="C117" s="145"/>
+      <c r="D117" s="152"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
@@ -48576,8 +48617,8 @@
       <c r="B118" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="134"/>
-      <c r="D118" s="157"/>
+      <c r="C118" s="145"/>
+      <c r="D118" s="152"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
@@ -48586,8 +48627,8 @@
       <c r="B119" s="2">
         <v>4</v>
       </c>
-      <c r="C119" s="134"/>
-      <c r="D119" s="157"/>
+      <c r="C119" s="145"/>
+      <c r="D119" s="152"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
@@ -48596,8 +48637,8 @@
       <c r="B120" s="2">
         <v>6</v>
       </c>
-      <c r="C120" s="134"/>
-      <c r="D120" s="157"/>
+      <c r="C120" s="145"/>
+      <c r="D120" s="152"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
@@ -48606,8 +48647,8 @@
       <c r="B121" s="2">
         <v>6</v>
       </c>
-      <c r="C121" s="134"/>
-      <c r="D121" s="157"/>
+      <c r="C121" s="145"/>
+      <c r="D121" s="152"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
@@ -48616,11 +48657,11 @@
       <c r="B122" s="2">
         <v>8</v>
       </c>
-      <c r="C122" s="158">
+      <c r="C122" s="153">
         <f>AVERAGE(B122:B152)</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="D122" s="157"/>
+      <c r="D122" s="152"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
@@ -48629,8 +48670,8 @@
       <c r="B123" s="2">
         <v>6</v>
       </c>
-      <c r="C123" s="159"/>
-      <c r="D123" s="157"/>
+      <c r="C123" s="154"/>
+      <c r="D123" s="152"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
@@ -48639,8 +48680,8 @@
       <c r="B124" s="2">
         <v>6</v>
       </c>
-      <c r="C124" s="159"/>
-      <c r="D124" s="157"/>
+      <c r="C124" s="154"/>
+      <c r="D124" s="152"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
@@ -48649,8 +48690,8 @@
       <c r="B125" s="2">
         <v>10</v>
       </c>
-      <c r="C125" s="159"/>
-      <c r="D125" s="157"/>
+      <c r="C125" s="154"/>
+      <c r="D125" s="152"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
@@ -48659,8 +48700,8 @@
       <c r="B126" s="2">
         <v>6</v>
       </c>
-      <c r="C126" s="159"/>
-      <c r="D126" s="157"/>
+      <c r="C126" s="154"/>
+      <c r="D126" s="152"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
@@ -48669,8 +48710,8 @@
       <c r="B127" s="2">
         <v>4</v>
       </c>
-      <c r="C127" s="159"/>
-      <c r="D127" s="157"/>
+      <c r="C127" s="154"/>
+      <c r="D127" s="152"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
@@ -48679,8 +48720,8 @@
       <c r="B128" s="2">
         <v>6</v>
       </c>
-      <c r="C128" s="159"/>
-      <c r="D128" s="157"/>
+      <c r="C128" s="154"/>
+      <c r="D128" s="152"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
@@ -48689,8 +48730,8 @@
       <c r="B129" s="2">
         <v>6</v>
       </c>
-      <c r="C129" s="159"/>
-      <c r="D129" s="157"/>
+      <c r="C129" s="154"/>
+      <c r="D129" s="152"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
@@ -48699,8 +48740,8 @@
       <c r="B130" s="2">
         <v>6</v>
       </c>
-      <c r="C130" s="159"/>
-      <c r="D130" s="157"/>
+      <c r="C130" s="154"/>
+      <c r="D130" s="152"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
@@ -48709,8 +48750,8 @@
       <c r="B131" s="2">
         <v>8</v>
       </c>
-      <c r="C131" s="159"/>
-      <c r="D131" s="157"/>
+      <c r="C131" s="154"/>
+      <c r="D131" s="152"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
@@ -48719,8 +48760,8 @@
       <c r="B132" s="2">
         <v>8</v>
       </c>
-      <c r="C132" s="159"/>
-      <c r="D132" s="157"/>
+      <c r="C132" s="154"/>
+      <c r="D132" s="152"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
@@ -48729,8 +48770,8 @@
       <c r="B133" s="2">
         <v>6</v>
       </c>
-      <c r="C133" s="159"/>
-      <c r="D133" s="157"/>
+      <c r="C133" s="154"/>
+      <c r="D133" s="152"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
@@ -48739,8 +48780,8 @@
       <c r="B134" s="2">
         <v>6</v>
       </c>
-      <c r="C134" s="159"/>
-      <c r="D134" s="157"/>
+      <c r="C134" s="154"/>
+      <c r="D134" s="152"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
@@ -48749,8 +48790,8 @@
       <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="C135" s="159"/>
-      <c r="D135" s="157"/>
+      <c r="C135" s="154"/>
+      <c r="D135" s="152"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
@@ -48759,8 +48800,8 @@
       <c r="B136" s="2">
         <v>6</v>
       </c>
-      <c r="C136" s="159"/>
-      <c r="D136" s="157"/>
+      <c r="C136" s="154"/>
+      <c r="D136" s="152"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
@@ -48769,8 +48810,8 @@
       <c r="B137" s="2">
         <v>4</v>
       </c>
-      <c r="C137" s="159"/>
-      <c r="D137" s="157"/>
+      <c r="C137" s="154"/>
+      <c r="D137" s="152"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
@@ -48779,8 +48820,8 @@
       <c r="B138" s="2">
         <v>4</v>
       </c>
-      <c r="C138" s="159"/>
-      <c r="D138" s="157"/>
+      <c r="C138" s="154"/>
+      <c r="D138" s="152"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
@@ -48789,8 +48830,8 @@
       <c r="B139" s="2">
         <v>6</v>
       </c>
-      <c r="C139" s="159"/>
-      <c r="D139" s="157"/>
+      <c r="C139" s="154"/>
+      <c r="D139" s="152"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
@@ -48799,8 +48840,8 @@
       <c r="B140" s="2">
         <v>4</v>
       </c>
-      <c r="C140" s="159"/>
-      <c r="D140" s="157"/>
+      <c r="C140" s="154"/>
+      <c r="D140" s="152"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
@@ -48809,8 +48850,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="159"/>
-      <c r="D141" s="157"/>
+      <c r="C141" s="154"/>
+      <c r="D141" s="152"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
@@ -48819,8 +48860,8 @@
       <c r="B142" s="2">
         <v>6</v>
       </c>
-      <c r="C142" s="159"/>
-      <c r="D142" s="157"/>
+      <c r="C142" s="154"/>
+      <c r="D142" s="152"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
@@ -48829,8 +48870,8 @@
       <c r="B143" s="2">
         <v>6</v>
       </c>
-      <c r="C143" s="159"/>
-      <c r="D143" s="157"/>
+      <c r="C143" s="154"/>
+      <c r="D143" s="152"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
@@ -48839,8 +48880,8 @@
       <c r="B144" s="2">
         <v>8</v>
       </c>
-      <c r="C144" s="159"/>
-      <c r="D144" s="157"/>
+      <c r="C144" s="154"/>
+      <c r="D144" s="152"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
@@ -48849,8 +48890,8 @@
       <c r="B145" s="2">
         <v>8</v>
       </c>
-      <c r="C145" s="159"/>
-      <c r="D145" s="157"/>
+      <c r="C145" s="154"/>
+      <c r="D145" s="152"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
@@ -48859,8 +48900,8 @@
       <c r="B146" s="2">
         <v>8</v>
       </c>
-      <c r="C146" s="159"/>
-      <c r="D146" s="157"/>
+      <c r="C146" s="154"/>
+      <c r="D146" s="152"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
@@ -48869,8 +48910,8 @@
       <c r="B147" s="2">
         <v>6</v>
       </c>
-      <c r="C147" s="159"/>
-      <c r="D147" s="157"/>
+      <c r="C147" s="154"/>
+      <c r="D147" s="152"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
@@ -48879,8 +48920,8 @@
       <c r="B148" s="2">
         <v>4</v>
       </c>
-      <c r="C148" s="159"/>
-      <c r="D148" s="157"/>
+      <c r="C148" s="154"/>
+      <c r="D148" s="152"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
@@ -48889,8 +48930,8 @@
       <c r="B149" s="2">
         <v>6</v>
       </c>
-      <c r="C149" s="159"/>
-      <c r="D149" s="157"/>
+      <c r="C149" s="154"/>
+      <c r="D149" s="152"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
@@ -48899,8 +48940,8 @@
       <c r="B150" s="2">
         <v>6</v>
       </c>
-      <c r="C150" s="159"/>
-      <c r="D150" s="157"/>
+      <c r="C150" s="154"/>
+      <c r="D150" s="152"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
@@ -48909,8 +48950,8 @@
       <c r="B151" s="2">
         <v>6</v>
       </c>
-      <c r="C151" s="159"/>
-      <c r="D151" s="157"/>
+      <c r="C151" s="154"/>
+      <c r="D151" s="152"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
@@ -48919,8 +48960,8 @@
       <c r="B152" s="2">
         <v>6</v>
       </c>
-      <c r="C152" s="133"/>
-      <c r="D152" s="157"/>
+      <c r="C152" s="144"/>
+      <c r="D152" s="152"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
@@ -48929,11 +48970,11 @@
       <c r="B153" s="2">
         <v>6</v>
       </c>
-      <c r="C153" s="158">
+      <c r="C153" s="153">
         <f>AVERAGE(B153:B182)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D153" s="157"/>
+      <c r="D153" s="152"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
@@ -48942,8 +48983,8 @@
       <c r="B154" s="2">
         <v>6</v>
       </c>
-      <c r="C154" s="159"/>
-      <c r="D154" s="157"/>
+      <c r="C154" s="154"/>
+      <c r="D154" s="152"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
@@ -48952,8 +48993,8 @@
       <c r="B155" s="2">
         <v>4</v>
       </c>
-      <c r="C155" s="159"/>
-      <c r="D155" s="157"/>
+      <c r="C155" s="154"/>
+      <c r="D155" s="152"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
@@ -48962,8 +49003,8 @@
       <c r="B156" s="2">
         <v>8</v>
       </c>
-      <c r="C156" s="159"/>
-      <c r="D156" s="157"/>
+      <c r="C156" s="154"/>
+      <c r="D156" s="152"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
@@ -48972,8 +49013,8 @@
       <c r="B157" s="2">
         <v>10</v>
       </c>
-      <c r="C157" s="159"/>
-      <c r="D157" s="157"/>
+      <c r="C157" s="154"/>
+      <c r="D157" s="152"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
@@ -48982,8 +49023,8 @@
       <c r="B158" s="2">
         <v>6</v>
       </c>
-      <c r="C158" s="159"/>
-      <c r="D158" s="157"/>
+      <c r="C158" s="154"/>
+      <c r="D158" s="152"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
@@ -48992,8 +49033,8 @@
       <c r="B159" s="2">
         <v>4</v>
       </c>
-      <c r="C159" s="159"/>
-      <c r="D159" s="157"/>
+      <c r="C159" s="154"/>
+      <c r="D159" s="152"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
@@ -49002,8 +49043,8 @@
       <c r="B160" s="2">
         <v>6</v>
       </c>
-      <c r="C160" s="159"/>
-      <c r="D160" s="157"/>
+      <c r="C160" s="154"/>
+      <c r="D160" s="152"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
@@ -49012,8 +49053,8 @@
       <c r="B161" s="2">
         <v>6</v>
       </c>
-      <c r="C161" s="159"/>
-      <c r="D161" s="157"/>
+      <c r="C161" s="154"/>
+      <c r="D161" s="152"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
@@ -49022,8 +49063,8 @@
       <c r="B162" s="2">
         <v>6</v>
       </c>
-      <c r="C162" s="159"/>
-      <c r="D162" s="157"/>
+      <c r="C162" s="154"/>
+      <c r="D162" s="152"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
@@ -49032,8 +49073,8 @@
       <c r="B163" s="2">
         <v>0</v>
       </c>
-      <c r="C163" s="159"/>
-      <c r="D163" s="157"/>
+      <c r="C163" s="154"/>
+      <c r="D163" s="152"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
@@ -49042,8 +49083,8 @@
       <c r="B164" s="2">
         <v>4</v>
       </c>
-      <c r="C164" s="159"/>
-      <c r="D164" s="157"/>
+      <c r="C164" s="154"/>
+      <c r="D164" s="152"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
@@ -49052,8 +49093,8 @@
       <c r="B165" s="2">
         <v>4</v>
       </c>
-      <c r="C165" s="159"/>
-      <c r="D165" s="157"/>
+      <c r="C165" s="154"/>
+      <c r="D165" s="152"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
@@ -49062,8 +49103,8 @@
       <c r="B166" s="2">
         <v>4</v>
       </c>
-      <c r="C166" s="159"/>
-      <c r="D166" s="157"/>
+      <c r="C166" s="154"/>
+      <c r="D166" s="152"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
@@ -49072,8 +49113,8 @@
       <c r="B167" s="2">
         <v>6</v>
       </c>
-      <c r="C167" s="159"/>
-      <c r="D167" s="157"/>
+      <c r="C167" s="154"/>
+      <c r="D167" s="152"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
@@ -49082,8 +49123,8 @@
       <c r="B168" s="2">
         <v>6</v>
       </c>
-      <c r="C168" s="159"/>
-      <c r="D168" s="157"/>
+      <c r="C168" s="154"/>
+      <c r="D168" s="152"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
@@ -49092,8 +49133,8 @@
       <c r="B169" s="2">
         <v>4</v>
       </c>
-      <c r="C169" s="159"/>
-      <c r="D169" s="157"/>
+      <c r="C169" s="154"/>
+      <c r="D169" s="152"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
@@ -49102,8 +49143,8 @@
       <c r="B170" s="2">
         <v>4</v>
       </c>
-      <c r="C170" s="159"/>
-      <c r="D170" s="157"/>
+      <c r="C170" s="154"/>
+      <c r="D170" s="152"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
@@ -49112,8 +49153,8 @@
       <c r="B171" s="2">
         <v>10</v>
       </c>
-      <c r="C171" s="159"/>
-      <c r="D171" s="157"/>
+      <c r="C171" s="154"/>
+      <c r="D171" s="152"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
@@ -49122,8 +49163,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="159"/>
-      <c r="D172" s="157"/>
+      <c r="C172" s="154"/>
+      <c r="D172" s="152"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
@@ -49132,8 +49173,8 @@
       <c r="B173" s="2">
         <v>2</v>
       </c>
-      <c r="C173" s="159"/>
-      <c r="D173" s="157"/>
+      <c r="C173" s="154"/>
+      <c r="D173" s="152"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
@@ -49142,8 +49183,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="159"/>
-      <c r="D174" s="157"/>
+      <c r="C174" s="154"/>
+      <c r="D174" s="152"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
@@ -49152,8 +49193,8 @@
       <c r="B175" s="2">
         <v>4</v>
       </c>
-      <c r="C175" s="159"/>
-      <c r="D175" s="157"/>
+      <c r="C175" s="154"/>
+      <c r="D175" s="152"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
@@ -49162,8 +49203,8 @@
       <c r="B176" s="2">
         <v>6</v>
       </c>
-      <c r="C176" s="159"/>
-      <c r="D176" s="157"/>
+      <c r="C176" s="154"/>
+      <c r="D176" s="152"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
@@ -49172,8 +49213,8 @@
       <c r="B177" s="2">
         <v>4</v>
       </c>
-      <c r="C177" s="159"/>
-      <c r="D177" s="157"/>
+      <c r="C177" s="154"/>
+      <c r="D177" s="152"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
@@ -49182,8 +49223,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="159"/>
-      <c r="D178" s="157"/>
+      <c r="C178" s="154"/>
+      <c r="D178" s="152"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
@@ -49192,8 +49233,8 @@
       <c r="B179" s="2">
         <v>6</v>
       </c>
-      <c r="C179" s="159"/>
-      <c r="D179" s="157"/>
+      <c r="C179" s="154"/>
+      <c r="D179" s="152"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
@@ -49202,8 +49243,8 @@
       <c r="B180" s="2">
         <v>10</v>
       </c>
-      <c r="C180" s="159"/>
-      <c r="D180" s="157"/>
+      <c r="C180" s="154"/>
+      <c r="D180" s="152"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
@@ -49212,8 +49253,8 @@
       <c r="B181" s="2">
         <v>8</v>
       </c>
-      <c r="C181" s="159"/>
-      <c r="D181" s="157"/>
+      <c r="C181" s="154"/>
+      <c r="D181" s="152"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
@@ -49222,8 +49263,8 @@
       <c r="B182" s="2">
         <v>6</v>
       </c>
-      <c r="C182" s="133"/>
-      <c r="D182" s="157"/>
+      <c r="C182" s="144"/>
+      <c r="D182" s="152"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
@@ -49232,11 +49273,11 @@
       <c r="B183" s="2">
         <v>6</v>
       </c>
-      <c r="C183" s="158">
+      <c r="C183" s="153">
         <f>AVERAGE(B183:B213)</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="D183" s="157"/>
+      <c r="D183" s="152"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
@@ -49245,8 +49286,8 @@
       <c r="B184" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="159"/>
-      <c r="D184" s="157"/>
+      <c r="C184" s="154"/>
+      <c r="D184" s="152"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
@@ -49255,8 +49296,8 @@
       <c r="B185" s="2">
         <v>2</v>
       </c>
-      <c r="C185" s="159"/>
-      <c r="D185" s="157"/>
+      <c r="C185" s="154"/>
+      <c r="D185" s="152"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
@@ -49265,8 +49306,8 @@
       <c r="B186" s="2">
         <v>4</v>
       </c>
-      <c r="C186" s="159"/>
-      <c r="D186" s="157"/>
+      <c r="C186" s="154"/>
+      <c r="D186" s="152"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
@@ -49275,8 +49316,8 @@
       <c r="B187" s="2">
         <v>4</v>
       </c>
-      <c r="C187" s="159"/>
-      <c r="D187" s="157"/>
+      <c r="C187" s="154"/>
+      <c r="D187" s="152"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
@@ -49285,8 +49326,8 @@
       <c r="B188" s="2">
         <v>10</v>
       </c>
-      <c r="C188" s="159"/>
-      <c r="D188" s="157"/>
+      <c r="C188" s="154"/>
+      <c r="D188" s="152"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
@@ -49295,8 +49336,8 @@
       <c r="B189" s="2">
         <v>6</v>
       </c>
-      <c r="C189" s="159"/>
-      <c r="D189" s="157"/>
+      <c r="C189" s="154"/>
+      <c r="D189" s="152"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
@@ -49305,8 +49346,8 @@
       <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C190" s="159"/>
-      <c r="D190" s="157"/>
+      <c r="C190" s="154"/>
+      <c r="D190" s="152"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
@@ -49315,8 +49356,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="159"/>
-      <c r="D191" s="157"/>
+      <c r="C191" s="154"/>
+      <c r="D191" s="152"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
@@ -49325,8 +49366,8 @@
       <c r="B192" s="2">
         <v>4</v>
       </c>
-      <c r="C192" s="159"/>
-      <c r="D192" s="157"/>
+      <c r="C192" s="154"/>
+      <c r="D192" s="152"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
@@ -49335,8 +49376,8 @@
       <c r="B193" s="2">
         <v>6</v>
       </c>
-      <c r="C193" s="159"/>
-      <c r="D193" s="157"/>
+      <c r="C193" s="154"/>
+      <c r="D193" s="152"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
@@ -49345,8 +49386,8 @@
       <c r="B194" s="2">
         <v>4</v>
       </c>
-      <c r="C194" s="159"/>
-      <c r="D194" s="157"/>
+      <c r="C194" s="154"/>
+      <c r="D194" s="152"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
@@ -49355,8 +49396,8 @@
       <c r="B195" s="2">
         <v>10</v>
       </c>
-      <c r="C195" s="159"/>
-      <c r="D195" s="157"/>
+      <c r="C195" s="154"/>
+      <c r="D195" s="152"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
@@ -49365,8 +49406,8 @@
       <c r="B196" s="2">
         <v>6</v>
       </c>
-      <c r="C196" s="159"/>
-      <c r="D196" s="157"/>
+      <c r="C196" s="154"/>
+      <c r="D196" s="152"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
@@ -49375,8 +49416,8 @@
       <c r="B197" s="2">
         <v>4</v>
       </c>
-      <c r="C197" s="159"/>
-      <c r="D197" s="157"/>
+      <c r="C197" s="154"/>
+      <c r="D197" s="152"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
@@ -49385,8 +49426,8 @@
       <c r="B198" s="2">
         <v>4</v>
       </c>
-      <c r="C198" s="159"/>
-      <c r="D198" s="157"/>
+      <c r="C198" s="154"/>
+      <c r="D198" s="152"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
@@ -49395,8 +49436,8 @@
       <c r="B199" s="2">
         <v>6</v>
       </c>
-      <c r="C199" s="159"/>
-      <c r="D199" s="157"/>
+      <c r="C199" s="154"/>
+      <c r="D199" s="152"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
@@ -49405,8 +49446,8 @@
       <c r="B200" s="2">
         <v>4</v>
       </c>
-      <c r="C200" s="159"/>
-      <c r="D200" s="157"/>
+      <c r="C200" s="154"/>
+      <c r="D200" s="152"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
@@ -49415,8 +49456,8 @@
       <c r="B201" s="2">
         <v>2</v>
       </c>
-      <c r="C201" s="159"/>
-      <c r="D201" s="157"/>
+      <c r="C201" s="154"/>
+      <c r="D201" s="152"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
@@ -49425,8 +49466,8 @@
       <c r="B202" s="2">
         <v>8</v>
       </c>
-      <c r="C202" s="159"/>
-      <c r="D202" s="157"/>
+      <c r="C202" s="154"/>
+      <c r="D202" s="152"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
@@ -49435,8 +49476,8 @@
       <c r="B203" s="2">
         <v>6</v>
       </c>
-      <c r="C203" s="159"/>
-      <c r="D203" s="157"/>
+      <c r="C203" s="154"/>
+      <c r="D203" s="152"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
@@ -49445,8 +49486,8 @@
       <c r="B204" s="2">
         <v>4</v>
       </c>
-      <c r="C204" s="159"/>
-      <c r="D204" s="157"/>
+      <c r="C204" s="154"/>
+      <c r="D204" s="152"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
@@ -49455,8 +49496,8 @@
       <c r="B205" s="2">
         <v>4</v>
       </c>
-      <c r="C205" s="159"/>
-      <c r="D205" s="157"/>
+      <c r="C205" s="154"/>
+      <c r="D205" s="152"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
@@ -49465,8 +49506,8 @@
       <c r="B206" s="2">
         <v>2</v>
       </c>
-      <c r="C206" s="159"/>
-      <c r="D206" s="157"/>
+      <c r="C206" s="154"/>
+      <c r="D206" s="152"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
@@ -49475,8 +49516,8 @@
       <c r="B207" s="2">
         <v>4</v>
       </c>
-      <c r="C207" s="159"/>
-      <c r="D207" s="157"/>
+      <c r="C207" s="154"/>
+      <c r="D207" s="152"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
@@ -49485,8 +49526,8 @@
       <c r="B208" s="2">
         <v>4</v>
       </c>
-      <c r="C208" s="159"/>
-      <c r="D208" s="157"/>
+      <c r="C208" s="154"/>
+      <c r="D208" s="152"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
@@ -49495,8 +49536,8 @@
       <c r="B209" s="2">
         <v>6</v>
       </c>
-      <c r="C209" s="159"/>
-      <c r="D209" s="157"/>
+      <c r="C209" s="154"/>
+      <c r="D209" s="152"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
@@ -49505,8 +49546,8 @@
       <c r="B210" s="2">
         <v>6</v>
       </c>
-      <c r="C210" s="159"/>
-      <c r="D210" s="157"/>
+      <c r="C210" s="154"/>
+      <c r="D210" s="152"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
@@ -49515,8 +49556,8 @@
       <c r="B211" s="2">
         <v>6</v>
       </c>
-      <c r="C211" s="159"/>
-      <c r="D211" s="157"/>
+      <c r="C211" s="154"/>
+      <c r="D211" s="152"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
@@ -49525,8 +49566,8 @@
       <c r="B212" s="2">
         <v>6</v>
       </c>
-      <c r="C212" s="159"/>
-      <c r="D212" s="157"/>
+      <c r="C212" s="154"/>
+      <c r="D212" s="152"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
@@ -49535,8 +49576,8 @@
       <c r="B213" s="2">
         <v>6</v>
       </c>
-      <c r="C213" s="133"/>
-      <c r="D213" s="157"/>
+      <c r="C213" s="144"/>
+      <c r="D213" s="152"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
@@ -49545,11 +49586,11 @@
       <c r="B214" s="2">
         <v>6</v>
       </c>
-      <c r="C214" s="158">
+      <c r="C214" s="153">
         <f>AVERAGE(B214:B244)</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="D214" s="157"/>
+      <c r="D214" s="152"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
@@ -49558,8 +49599,8 @@
       <c r="B215" s="2">
         <v>6</v>
       </c>
-      <c r="C215" s="159"/>
-      <c r="D215" s="157"/>
+      <c r="C215" s="154"/>
+      <c r="D215" s="152"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
@@ -49568,8 +49609,8 @@
       <c r="B216" s="2">
         <v>6</v>
       </c>
-      <c r="C216" s="159"/>
-      <c r="D216" s="157"/>
+      <c r="C216" s="154"/>
+      <c r="D216" s="152"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
@@ -49578,8 +49619,8 @@
       <c r="B217" s="2">
         <v>8</v>
       </c>
-      <c r="C217" s="159"/>
-      <c r="D217" s="157"/>
+      <c r="C217" s="154"/>
+      <c r="D217" s="152"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
@@ -49588,8 +49629,8 @@
       <c r="B218" s="2">
         <v>4</v>
       </c>
-      <c r="C218" s="159"/>
-      <c r="D218" s="157"/>
+      <c r="C218" s="154"/>
+      <c r="D218" s="152"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
@@ -49598,8 +49639,8 @@
       <c r="B219" s="2">
         <v>4</v>
       </c>
-      <c r="C219" s="159"/>
-      <c r="D219" s="157"/>
+      <c r="C219" s="154"/>
+      <c r="D219" s="152"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
@@ -49608,8 +49649,8 @@
       <c r="B220" s="2">
         <v>6</v>
       </c>
-      <c r="C220" s="159"/>
-      <c r="D220" s="157"/>
+      <c r="C220" s="154"/>
+      <c r="D220" s="152"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
@@ -49618,8 +49659,8 @@
       <c r="B221" s="2">
         <v>4</v>
       </c>
-      <c r="C221" s="159"/>
-      <c r="D221" s="157"/>
+      <c r="C221" s="154"/>
+      <c r="D221" s="152"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
@@ -49628,8 +49669,8 @@
       <c r="B222" s="2">
         <v>6</v>
       </c>
-      <c r="C222" s="159"/>
-      <c r="D222" s="157"/>
+      <c r="C222" s="154"/>
+      <c r="D222" s="152"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
@@ -49638,8 +49679,8 @@
       <c r="B223" s="2">
         <v>6</v>
       </c>
-      <c r="C223" s="159"/>
-      <c r="D223" s="157"/>
+      <c r="C223" s="154"/>
+      <c r="D223" s="152"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
@@ -49648,8 +49689,8 @@
       <c r="B224" s="2">
         <v>6</v>
       </c>
-      <c r="C224" s="159"/>
-      <c r="D224" s="157"/>
+      <c r="C224" s="154"/>
+      <c r="D224" s="152"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
@@ -49658,8 +49699,8 @@
       <c r="B225" s="2">
         <v>6</v>
       </c>
-      <c r="C225" s="159"/>
-      <c r="D225" s="157"/>
+      <c r="C225" s="154"/>
+      <c r="D225" s="152"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
@@ -49668,8 +49709,8 @@
       <c r="B226" s="2">
         <v>4</v>
       </c>
-      <c r="C226" s="159"/>
-      <c r="D226" s="157"/>
+      <c r="C226" s="154"/>
+      <c r="D226" s="152"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
@@ -49678,8 +49719,8 @@
       <c r="B227" s="2">
         <v>2</v>
       </c>
-      <c r="C227" s="159"/>
-      <c r="D227" s="157"/>
+      <c r="C227" s="154"/>
+      <c r="D227" s="152"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
@@ -49688,8 +49729,8 @@
       <c r="B228" s="2">
         <v>2</v>
       </c>
-      <c r="C228" s="159"/>
-      <c r="D228" s="157"/>
+      <c r="C228" s="154"/>
+      <c r="D228" s="152"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
@@ -49698,8 +49739,8 @@
       <c r="B229" s="2">
         <v>4</v>
       </c>
-      <c r="C229" s="159"/>
-      <c r="D229" s="157"/>
+      <c r="C229" s="154"/>
+      <c r="D229" s="152"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
@@ -49708,8 +49749,8 @@
       <c r="B230" s="2">
         <v>6</v>
       </c>
-      <c r="C230" s="159"/>
-      <c r="D230" s="157"/>
+      <c r="C230" s="154"/>
+      <c r="D230" s="152"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
@@ -49718,8 +49759,8 @@
       <c r="B231" s="2">
         <v>8</v>
       </c>
-      <c r="C231" s="159"/>
-      <c r="D231" s="157"/>
+      <c r="C231" s="154"/>
+      <c r="D231" s="152"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
@@ -49728,8 +49769,8 @@
       <c r="B232" s="2">
         <v>4</v>
       </c>
-      <c r="C232" s="159"/>
-      <c r="D232" s="157"/>
+      <c r="C232" s="154"/>
+      <c r="D232" s="152"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
@@ -49738,8 +49779,8 @@
       <c r="B233" s="2">
         <v>4</v>
       </c>
-      <c r="C233" s="159"/>
-      <c r="D233" s="157"/>
+      <c r="C233" s="154"/>
+      <c r="D233" s="152"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
@@ -49748,8 +49789,8 @@
       <c r="B234" s="2">
         <v>4</v>
       </c>
-      <c r="C234" s="159"/>
-      <c r="D234" s="157"/>
+      <c r="C234" s="154"/>
+      <c r="D234" s="152"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
@@ -49758,8 +49799,8 @@
       <c r="B235" s="2">
         <v>4</v>
       </c>
-      <c r="C235" s="159"/>
-      <c r="D235" s="157"/>
+      <c r="C235" s="154"/>
+      <c r="D235" s="152"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
@@ -49768,8 +49809,8 @@
       <c r="B236" s="2">
         <v>6</v>
       </c>
-      <c r="C236" s="159"/>
-      <c r="D236" s="157"/>
+      <c r="C236" s="154"/>
+      <c r="D236" s="152"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
@@ -49778,8 +49819,8 @@
       <c r="B237" s="2">
         <v>4</v>
       </c>
-      <c r="C237" s="159"/>
-      <c r="D237" s="157"/>
+      <c r="C237" s="154"/>
+      <c r="D237" s="152"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
@@ -49788,8 +49829,8 @@
       <c r="B238" s="2">
         <v>4</v>
       </c>
-      <c r="C238" s="159"/>
-      <c r="D238" s="157"/>
+      <c r="C238" s="154"/>
+      <c r="D238" s="152"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
@@ -49798,8 +49839,8 @@
       <c r="B239" s="2">
         <v>6</v>
       </c>
-      <c r="C239" s="159"/>
-      <c r="D239" s="157"/>
+      <c r="C239" s="154"/>
+      <c r="D239" s="152"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
@@ -49808,8 +49849,8 @@
       <c r="B240" s="2">
         <v>2</v>
       </c>
-      <c r="C240" s="159"/>
-      <c r="D240" s="157"/>
+      <c r="C240" s="154"/>
+      <c r="D240" s="152"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
@@ -49818,8 +49859,8 @@
       <c r="B241" s="2">
         <v>6</v>
       </c>
-      <c r="C241" s="159"/>
-      <c r="D241" s="157"/>
+      <c r="C241" s="154"/>
+      <c r="D241" s="152"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
@@ -49828,8 +49869,8 @@
       <c r="B242" s="2">
         <v>6</v>
       </c>
-      <c r="C242" s="159"/>
-      <c r="D242" s="157"/>
+      <c r="C242" s="154"/>
+      <c r="D242" s="152"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
@@ -49838,8 +49879,8 @@
       <c r="B243" s="2">
         <v>4</v>
       </c>
-      <c r="C243" s="159"/>
-      <c r="D243" s="157"/>
+      <c r="C243" s="154"/>
+      <c r="D243" s="152"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
@@ -49848,8 +49889,8 @@
       <c r="B244" s="2">
         <v>6</v>
       </c>
-      <c r="C244" s="133"/>
-      <c r="D244" s="157"/>
+      <c r="C244" s="144"/>
+      <c r="D244" s="152"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
@@ -49858,11 +49899,11 @@
       <c r="B245" s="2">
         <v>4</v>
       </c>
-      <c r="C245" s="158">
+      <c r="C245" s="153">
         <f>AVERAGE(B245:B274)</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="D245" s="157"/>
+      <c r="D245" s="152"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
@@ -49871,8 +49912,8 @@
       <c r="B246" s="2">
         <v>4</v>
       </c>
-      <c r="C246" s="159"/>
-      <c r="D246" s="157"/>
+      <c r="C246" s="154"/>
+      <c r="D246" s="152"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
@@ -49881,8 +49922,8 @@
       <c r="B247" s="2">
         <v>6</v>
       </c>
-      <c r="C247" s="159"/>
-      <c r="D247" s="157"/>
+      <c r="C247" s="154"/>
+      <c r="D247" s="152"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
@@ -49891,8 +49932,8 @@
       <c r="B248" s="2">
         <v>4</v>
       </c>
-      <c r="C248" s="159"/>
-      <c r="D248" s="157"/>
+      <c r="C248" s="154"/>
+      <c r="D248" s="152"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
@@ -49901,8 +49942,8 @@
       <c r="B249" s="2">
         <v>6</v>
       </c>
-      <c r="C249" s="159"/>
-      <c r="D249" s="157"/>
+      <c r="C249" s="154"/>
+      <c r="D249" s="152"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
@@ -49911,8 +49952,8 @@
       <c r="B250" s="2">
         <v>4</v>
       </c>
-      <c r="C250" s="159"/>
-      <c r="D250" s="157"/>
+      <c r="C250" s="154"/>
+      <c r="D250" s="152"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
@@ -49921,8 +49962,8 @@
       <c r="B251" s="2">
         <v>4</v>
       </c>
-      <c r="C251" s="159"/>
-      <c r="D251" s="157"/>
+      <c r="C251" s="154"/>
+      <c r="D251" s="152"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
@@ -49931,8 +49972,8 @@
       <c r="B252" s="2">
         <v>6</v>
       </c>
-      <c r="C252" s="159"/>
-      <c r="D252" s="157"/>
+      <c r="C252" s="154"/>
+      <c r="D252" s="152"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
@@ -49941,8 +49982,8 @@
       <c r="B253" s="2">
         <v>4</v>
       </c>
-      <c r="C253" s="159"/>
-      <c r="D253" s="157"/>
+      <c r="C253" s="154"/>
+      <c r="D253" s="152"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
@@ -49951,8 +49992,8 @@
       <c r="B254" s="2">
         <v>4</v>
       </c>
-      <c r="C254" s="159"/>
-      <c r="D254" s="157"/>
+      <c r="C254" s="154"/>
+      <c r="D254" s="152"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
@@ -49961,8 +50002,8 @@
       <c r="B255" s="2">
         <v>6</v>
       </c>
-      <c r="C255" s="159"/>
-      <c r="D255" s="157"/>
+      <c r="C255" s="154"/>
+      <c r="D255" s="152"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
@@ -49971,8 +50012,8 @@
       <c r="B256" s="2">
         <v>6</v>
       </c>
-      <c r="C256" s="159"/>
-      <c r="D256" s="157"/>
+      <c r="C256" s="154"/>
+      <c r="D256" s="152"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
@@ -49981,8 +50022,8 @@
       <c r="B257" s="2">
         <v>10</v>
       </c>
-      <c r="C257" s="159"/>
-      <c r="D257" s="157"/>
+      <c r="C257" s="154"/>
+      <c r="D257" s="152"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
@@ -49991,8 +50032,8 @@
       <c r="B258" s="2">
         <v>8</v>
       </c>
-      <c r="C258" s="159"/>
-      <c r="D258" s="157"/>
+      <c r="C258" s="154"/>
+      <c r="D258" s="152"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
@@ -50001,8 +50042,8 @@
       <c r="B259" s="2">
         <v>6</v>
       </c>
-      <c r="C259" s="159"/>
-      <c r="D259" s="157"/>
+      <c r="C259" s="154"/>
+      <c r="D259" s="152"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
@@ -50011,8 +50052,8 @@
       <c r="B260" s="2">
         <v>6</v>
       </c>
-      <c r="C260" s="159"/>
-      <c r="D260" s="157"/>
+      <c r="C260" s="154"/>
+      <c r="D260" s="152"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
@@ -50021,8 +50062,8 @@
       <c r="B261" s="2">
         <v>4</v>
       </c>
-      <c r="C261" s="159"/>
-      <c r="D261" s="157"/>
+      <c r="C261" s="154"/>
+      <c r="D261" s="152"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
@@ -50031,8 +50072,8 @@
       <c r="B262" s="2">
         <v>2</v>
       </c>
-      <c r="C262" s="159"/>
-      <c r="D262" s="157"/>
+      <c r="C262" s="154"/>
+      <c r="D262" s="152"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
@@ -50041,8 +50082,8 @@
       <c r="B263" s="2">
         <v>4</v>
       </c>
-      <c r="C263" s="159"/>
-      <c r="D263" s="157"/>
+      <c r="C263" s="154"/>
+      <c r="D263" s="152"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
@@ -50051,8 +50092,8 @@
       <c r="B264" s="2">
         <v>4</v>
       </c>
-      <c r="C264" s="159"/>
-      <c r="D264" s="157"/>
+      <c r="C264" s="154"/>
+      <c r="D264" s="152"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
@@ -50061,8 +50102,8 @@
       <c r="B265" s="2">
         <v>6</v>
       </c>
-      <c r="C265" s="159"/>
-      <c r="D265" s="157"/>
+      <c r="C265" s="154"/>
+      <c r="D265" s="152"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
@@ -50071,8 +50112,8 @@
       <c r="B266" s="2">
         <v>6</v>
       </c>
-      <c r="C266" s="159"/>
-      <c r="D266" s="157"/>
+      <c r="C266" s="154"/>
+      <c r="D266" s="152"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
@@ -50081,8 +50122,8 @@
       <c r="B267" s="2">
         <v>4</v>
       </c>
-      <c r="C267" s="159"/>
-      <c r="D267" s="157"/>
+      <c r="C267" s="154"/>
+      <c r="D267" s="152"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
@@ -50091,8 +50132,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="159"/>
-      <c r="D268" s="157"/>
+      <c r="C268" s="154"/>
+      <c r="D268" s="152"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
@@ -50101,8 +50142,8 @@
       <c r="B269" s="2">
         <v>6</v>
       </c>
-      <c r="C269" s="159"/>
-      <c r="D269" s="157"/>
+      <c r="C269" s="154"/>
+      <c r="D269" s="152"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
@@ -50111,8 +50152,8 @@
       <c r="B270" s="2">
         <v>8</v>
       </c>
-      <c r="C270" s="159"/>
-      <c r="D270" s="157"/>
+      <c r="C270" s="154"/>
+      <c r="D270" s="152"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
@@ -50121,8 +50162,8 @@
       <c r="B271" s="2">
         <v>4</v>
       </c>
-      <c r="C271" s="159"/>
-      <c r="D271" s="157"/>
+      <c r="C271" s="154"/>
+      <c r="D271" s="152"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
@@ -50131,8 +50172,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="159"/>
-      <c r="D272" s="157"/>
+      <c r="C272" s="154"/>
+      <c r="D272" s="152"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
@@ -50141,8 +50182,8 @@
       <c r="B273" s="2">
         <v>8</v>
       </c>
-      <c r="C273" s="159"/>
-      <c r="D273" s="157"/>
+      <c r="C273" s="154"/>
+      <c r="D273" s="152"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
@@ -50151,8 +50192,8 @@
       <c r="B274" s="2">
         <v>6</v>
       </c>
-      <c r="C274" s="133"/>
-      <c r="D274" s="157"/>
+      <c r="C274" s="144"/>
+      <c r="D274" s="152"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
@@ -50161,11 +50202,11 @@
       <c r="B275" s="2">
         <v>4</v>
       </c>
-      <c r="C275" s="158">
+      <c r="C275" s="153">
         <f>AVERAGE(B275:B305)</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="D275" s="157"/>
+      <c r="D275" s="152"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
@@ -50174,8 +50215,8 @@
       <c r="B276" s="2">
         <v>6</v>
       </c>
-      <c r="C276" s="159"/>
-      <c r="D276" s="157"/>
+      <c r="C276" s="154"/>
+      <c r="D276" s="152"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
@@ -50184,8 +50225,8 @@
       <c r="B277" s="2">
         <v>6</v>
       </c>
-      <c r="C277" s="159"/>
-      <c r="D277" s="157"/>
+      <c r="C277" s="154"/>
+      <c r="D277" s="152"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
@@ -50194,8 +50235,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="159"/>
-      <c r="D278" s="157"/>
+      <c r="C278" s="154"/>
+      <c r="D278" s="152"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
@@ -50204,8 +50245,8 @@
       <c r="B279" s="2">
         <v>2</v>
       </c>
-      <c r="C279" s="159"/>
-      <c r="D279" s="157"/>
+      <c r="C279" s="154"/>
+      <c r="D279" s="152"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
@@ -50214,8 +50255,8 @@
       <c r="B280" s="2">
         <v>4</v>
       </c>
-      <c r="C280" s="159"/>
-      <c r="D280" s="157"/>
+      <c r="C280" s="154"/>
+      <c r="D280" s="152"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
@@ -50224,8 +50265,8 @@
       <c r="B281" s="2">
         <v>0</v>
       </c>
-      <c r="C281" s="159"/>
-      <c r="D281" s="157"/>
+      <c r="C281" s="154"/>
+      <c r="D281" s="152"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
@@ -50234,8 +50275,8 @@
       <c r="B282" s="2">
         <v>2</v>
       </c>
-      <c r="C282" s="159"/>
-      <c r="D282" s="157"/>
+      <c r="C282" s="154"/>
+      <c r="D282" s="152"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
@@ -50244,8 +50285,8 @@
       <c r="B283" s="2">
         <v>6</v>
       </c>
-      <c r="C283" s="159"/>
-      <c r="D283" s="157"/>
+      <c r="C283" s="154"/>
+      <c r="D283" s="152"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
@@ -50254,8 +50295,8 @@
       <c r="B284" s="2">
         <v>6</v>
       </c>
-      <c r="C284" s="159"/>
-      <c r="D284" s="157"/>
+      <c r="C284" s="154"/>
+      <c r="D284" s="152"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
@@ -50264,8 +50305,8 @@
       <c r="B285" s="2">
         <v>8</v>
       </c>
-      <c r="C285" s="159"/>
-      <c r="D285" s="157"/>
+      <c r="C285" s="154"/>
+      <c r="D285" s="152"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
@@ -50274,8 +50315,8 @@
       <c r="B286" s="2">
         <v>8</v>
       </c>
-      <c r="C286" s="159"/>
-      <c r="D286" s="157"/>
+      <c r="C286" s="154"/>
+      <c r="D286" s="152"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
@@ -50284,8 +50325,8 @@
       <c r="B287" s="2">
         <v>6</v>
       </c>
-      <c r="C287" s="159"/>
-      <c r="D287" s="157"/>
+      <c r="C287" s="154"/>
+      <c r="D287" s="152"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
@@ -50294,8 +50335,8 @@
       <c r="B288" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="159"/>
-      <c r="D288" s="157"/>
+      <c r="C288" s="154"/>
+      <c r="D288" s="152"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
@@ -50304,8 +50345,8 @@
       <c r="B289" s="2">
         <v>6</v>
       </c>
-      <c r="C289" s="159"/>
-      <c r="D289" s="157"/>
+      <c r="C289" s="154"/>
+      <c r="D289" s="152"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
@@ -50314,8 +50355,8 @@
       <c r="B290" s="2">
         <v>4</v>
       </c>
-      <c r="C290" s="159"/>
-      <c r="D290" s="157"/>
+      <c r="C290" s="154"/>
+      <c r="D290" s="152"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
@@ -50324,8 +50365,8 @@
       <c r="B291" s="2">
         <v>6</v>
       </c>
-      <c r="C291" s="159"/>
-      <c r="D291" s="157"/>
+      <c r="C291" s="154"/>
+      <c r="D291" s="152"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
@@ -50334,8 +50375,8 @@
       <c r="B292" s="2">
         <v>8</v>
       </c>
-      <c r="C292" s="159"/>
-      <c r="D292" s="157"/>
+      <c r="C292" s="154"/>
+      <c r="D292" s="152"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
@@ -50344,8 +50385,8 @@
       <c r="B293" s="2">
         <v>6</v>
       </c>
-      <c r="C293" s="159"/>
-      <c r="D293" s="157"/>
+      <c r="C293" s="154"/>
+      <c r="D293" s="152"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
@@ -50354,8 +50395,8 @@
       <c r="B294" s="2">
         <v>6</v>
       </c>
-      <c r="C294" s="159"/>
-      <c r="D294" s="157"/>
+      <c r="C294" s="154"/>
+      <c r="D294" s="152"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
@@ -50364,8 +50405,8 @@
       <c r="B295" s="2">
         <v>6</v>
       </c>
-      <c r="C295" s="159"/>
-      <c r="D295" s="157"/>
+      <c r="C295" s="154"/>
+      <c r="D295" s="152"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
@@ -50374,8 +50415,8 @@
       <c r="B296" s="2">
         <v>6</v>
       </c>
-      <c r="C296" s="159"/>
-      <c r="D296" s="157"/>
+      <c r="C296" s="154"/>
+      <c r="D296" s="152"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
@@ -50384,8 +50425,8 @@
       <c r="B297" s="2">
         <v>4</v>
       </c>
-      <c r="C297" s="159"/>
-      <c r="D297" s="157"/>
+      <c r="C297" s="154"/>
+      <c r="D297" s="152"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
@@ -50394,8 +50435,8 @@
       <c r="B298" s="2">
         <v>4</v>
       </c>
-      <c r="C298" s="159"/>
-      <c r="D298" s="157"/>
+      <c r="C298" s="154"/>
+      <c r="D298" s="152"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
@@ -50404,8 +50445,8 @@
       <c r="B299" s="2">
         <v>6</v>
       </c>
-      <c r="C299" s="159"/>
-      <c r="D299" s="157"/>
+      <c r="C299" s="154"/>
+      <c r="D299" s="152"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
@@ -50414,8 +50455,8 @@
       <c r="B300" s="2">
         <v>6</v>
       </c>
-      <c r="C300" s="159"/>
-      <c r="D300" s="157"/>
+      <c r="C300" s="154"/>
+      <c r="D300" s="152"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
@@ -50424,8 +50465,8 @@
       <c r="B301" s="2">
         <v>4</v>
       </c>
-      <c r="C301" s="159"/>
-      <c r="D301" s="157"/>
+      <c r="C301" s="154"/>
+      <c r="D301" s="152"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
@@ -50434,8 +50475,8 @@
       <c r="B302" s="2">
         <v>6</v>
       </c>
-      <c r="C302" s="159"/>
-      <c r="D302" s="157"/>
+      <c r="C302" s="154"/>
+      <c r="D302" s="152"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
@@ -50444,8 +50485,8 @@
       <c r="B303" s="2">
         <v>8</v>
       </c>
-      <c r="C303" s="159"/>
-      <c r="D303" s="157"/>
+      <c r="C303" s="154"/>
+      <c r="D303" s="152"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
@@ -50454,8 +50495,8 @@
       <c r="B304" s="2">
         <v>8</v>
       </c>
-      <c r="C304" s="159"/>
-      <c r="D304" s="157"/>
+      <c r="C304" s="154"/>
+      <c r="D304" s="152"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
@@ -50464,8 +50505,8 @@
       <c r="B305" s="2">
         <v>10</v>
       </c>
-      <c r="C305" s="133"/>
-      <c r="D305" s="157"/>
+      <c r="C305" s="144"/>
+      <c r="D305" s="152"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
@@ -50474,11 +50515,11 @@
       <c r="B306" s="2">
         <v>6</v>
       </c>
-      <c r="C306" s="158">
+      <c r="C306" s="153">
         <f>AVERAGE(B306:B335)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="D306" s="157"/>
+      <c r="D306" s="152"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
@@ -50487,8 +50528,8 @@
       <c r="B307" s="2">
         <v>2</v>
       </c>
-      <c r="C307" s="159"/>
-      <c r="D307" s="157"/>
+      <c r="C307" s="154"/>
+      <c r="D307" s="152"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
@@ -50497,8 +50538,8 @@
       <c r="B308" s="2">
         <v>0</v>
       </c>
-      <c r="C308" s="159"/>
-      <c r="D308" s="157"/>
+      <c r="C308" s="154"/>
+      <c r="D308" s="152"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
@@ -50507,8 +50548,8 @@
       <c r="B309" s="2">
         <v>4</v>
       </c>
-      <c r="C309" s="159"/>
-      <c r="D309" s="157"/>
+      <c r="C309" s="154"/>
+      <c r="D309" s="152"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
@@ -50517,8 +50558,8 @@
       <c r="B310" s="2">
         <v>6</v>
       </c>
-      <c r="C310" s="159"/>
-      <c r="D310" s="157"/>
+      <c r="C310" s="154"/>
+      <c r="D310" s="152"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
@@ -50527,8 +50568,8 @@
       <c r="B311" s="2">
         <v>6</v>
       </c>
-      <c r="C311" s="159"/>
-      <c r="D311" s="157"/>
+      <c r="C311" s="154"/>
+      <c r="D311" s="152"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
@@ -50537,8 +50578,8 @@
       <c r="B312" s="2">
         <v>6</v>
       </c>
-      <c r="C312" s="159"/>
-      <c r="D312" s="157"/>
+      <c r="C312" s="154"/>
+      <c r="D312" s="152"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
@@ -50547,8 +50588,8 @@
       <c r="B313" s="2">
         <v>8</v>
       </c>
-      <c r="C313" s="159"/>
-      <c r="D313" s="157"/>
+      <c r="C313" s="154"/>
+      <c r="D313" s="152"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
@@ -50557,8 +50598,8 @@
       <c r="B314" s="2">
         <v>6</v>
       </c>
-      <c r="C314" s="159"/>
-      <c r="D314" s="157"/>
+      <c r="C314" s="154"/>
+      <c r="D314" s="152"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
@@ -50567,8 +50608,8 @@
       <c r="B315" s="2">
         <v>8</v>
       </c>
-      <c r="C315" s="159"/>
-      <c r="D315" s="157"/>
+      <c r="C315" s="154"/>
+      <c r="D315" s="152"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
@@ -50577,8 +50618,8 @@
       <c r="B316" s="2">
         <v>8</v>
       </c>
-      <c r="C316" s="159"/>
-      <c r="D316" s="157"/>
+      <c r="C316" s="154"/>
+      <c r="D316" s="152"/>
       <c r="M316" s="3"/>
       <c r="O316" s="3"/>
     </row>
@@ -50589,8 +50630,8 @@
       <c r="B317" s="2">
         <v>2</v>
       </c>
-      <c r="C317" s="159"/>
-      <c r="D317" s="157"/>
+      <c r="C317" s="154"/>
+      <c r="D317" s="152"/>
       <c r="M317" s="3"/>
       <c r="O317" s="3"/>
     </row>
@@ -50601,8 +50642,8 @@
       <c r="B318" s="2">
         <v>6</v>
       </c>
-      <c r="C318" s="159"/>
-      <c r="D318" s="157"/>
+      <c r="C318" s="154"/>
+      <c r="D318" s="152"/>
       <c r="M318" s="3"/>
       <c r="O318" s="3"/>
     </row>
@@ -50613,8 +50654,8 @@
       <c r="B319" s="2">
         <v>8</v>
       </c>
-      <c r="C319" s="159"/>
-      <c r="D319" s="157"/>
+      <c r="C319" s="154"/>
+      <c r="D319" s="152"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
@@ -50623,8 +50664,8 @@
       <c r="B320" s="2">
         <v>8</v>
       </c>
-      <c r="C320" s="159"/>
-      <c r="D320" s="157"/>
+      <c r="C320" s="154"/>
+      <c r="D320" s="152"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
@@ -50633,8 +50674,8 @@
       <c r="B321" s="2">
         <v>6</v>
       </c>
-      <c r="C321" s="159"/>
-      <c r="D321" s="157"/>
+      <c r="C321" s="154"/>
+      <c r="D321" s="152"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
@@ -50643,8 +50684,8 @@
       <c r="B322" s="2">
         <v>6</v>
       </c>
-      <c r="C322" s="159"/>
-      <c r="D322" s="157"/>
+      <c r="C322" s="154"/>
+      <c r="D322" s="152"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
@@ -50653,8 +50694,8 @@
       <c r="B323" s="2">
         <v>4</v>
       </c>
-      <c r="C323" s="159"/>
-      <c r="D323" s="157"/>
+      <c r="C323" s="154"/>
+      <c r="D323" s="152"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
@@ -50663,8 +50704,8 @@
       <c r="B324" s="2">
         <v>8</v>
       </c>
-      <c r="C324" s="159"/>
-      <c r="D324" s="157"/>
+      <c r="C324" s="154"/>
+      <c r="D324" s="152"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
@@ -50673,8 +50714,8 @@
       <c r="B325" s="2">
         <v>6</v>
       </c>
-      <c r="C325" s="159"/>
-      <c r="D325" s="157"/>
+      <c r="C325" s="154"/>
+      <c r="D325" s="152"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
@@ -50683,8 +50724,8 @@
       <c r="B326" s="2">
         <v>4</v>
       </c>
-      <c r="C326" s="159"/>
-      <c r="D326" s="157"/>
+      <c r="C326" s="154"/>
+      <c r="D326" s="152"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
@@ -50693,8 +50734,8 @@
       <c r="B327" s="2">
         <v>4</v>
       </c>
-      <c r="C327" s="159"/>
-      <c r="D327" s="157"/>
+      <c r="C327" s="154"/>
+      <c r="D327" s="152"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
@@ -50703,8 +50744,8 @@
       <c r="B328" s="2">
         <v>6</v>
       </c>
-      <c r="C328" s="159"/>
-      <c r="D328" s="157"/>
+      <c r="C328" s="154"/>
+      <c r="D328" s="152"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
@@ -50713,8 +50754,8 @@
       <c r="B329" s="2">
         <v>8</v>
       </c>
-      <c r="C329" s="159"/>
-      <c r="D329" s="157"/>
+      <c r="C329" s="154"/>
+      <c r="D329" s="152"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
@@ -50723,8 +50764,8 @@
       <c r="B330" s="2">
         <v>4</v>
       </c>
-      <c r="C330" s="159"/>
-      <c r="D330" s="157"/>
+      <c r="C330" s="154"/>
+      <c r="D330" s="152"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
@@ -50733,8 +50774,8 @@
       <c r="B331" s="2">
         <v>6</v>
       </c>
-      <c r="C331" s="159"/>
-      <c r="D331" s="157"/>
+      <c r="C331" s="154"/>
+      <c r="D331" s="152"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
@@ -50743,8 +50784,8 @@
       <c r="B332" s="2">
         <v>6</v>
       </c>
-      <c r="C332" s="159"/>
-      <c r="D332" s="157"/>
+      <c r="C332" s="154"/>
+      <c r="D332" s="152"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
@@ -50753,8 +50794,8 @@
       <c r="B333" s="2">
         <v>2</v>
       </c>
-      <c r="C333" s="159"/>
-      <c r="D333" s="157"/>
+      <c r="C333" s="154"/>
+      <c r="D333" s="152"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
@@ -50763,8 +50804,8 @@
       <c r="B334" s="2">
         <v>6</v>
       </c>
-      <c r="C334" s="159"/>
-      <c r="D334" s="157"/>
+      <c r="C334" s="154"/>
+      <c r="D334" s="152"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
@@ -50773,8 +50814,8 @@
       <c r="B335" s="2">
         <v>6</v>
       </c>
-      <c r="C335" s="133"/>
-      <c r="D335" s="157"/>
+      <c r="C335" s="144"/>
+      <c r="D335" s="152"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
@@ -50783,11 +50824,11 @@
       <c r="B336" s="2">
         <v>6</v>
       </c>
-      <c r="C336" s="158">
+      <c r="C336" s="153">
         <f>AVERAGE(B336:B366)</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="D336" s="157"/>
+      <c r="D336" s="152"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
@@ -50796,8 +50837,8 @@
       <c r="B337" s="2">
         <v>4</v>
       </c>
-      <c r="C337" s="159"/>
-      <c r="D337" s="157"/>
+      <c r="C337" s="154"/>
+      <c r="D337" s="152"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
@@ -50806,8 +50847,8 @@
       <c r="B338" s="2">
         <v>4</v>
       </c>
-      <c r="C338" s="159"/>
-      <c r="D338" s="157"/>
+      <c r="C338" s="154"/>
+      <c r="D338" s="152"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
@@ -50816,8 +50857,8 @@
       <c r="B339" s="2">
         <v>6</v>
       </c>
-      <c r="C339" s="159"/>
-      <c r="D339" s="157"/>
+      <c r="C339" s="154"/>
+      <c r="D339" s="152"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
@@ -50826,8 +50867,8 @@
       <c r="B340" s="2">
         <v>6</v>
       </c>
-      <c r="C340" s="159"/>
-      <c r="D340" s="157"/>
+      <c r="C340" s="154"/>
+      <c r="D340" s="152"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
@@ -50836,8 +50877,8 @@
       <c r="B341" s="2">
         <v>6</v>
       </c>
-      <c r="C341" s="159"/>
-      <c r="D341" s="157"/>
+      <c r="C341" s="154"/>
+      <c r="D341" s="152"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
@@ -50846,8 +50887,8 @@
       <c r="B342" s="2">
         <v>6</v>
       </c>
-      <c r="C342" s="159"/>
-      <c r="D342" s="157"/>
+      <c r="C342" s="154"/>
+      <c r="D342" s="152"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
@@ -50856,8 +50897,8 @@
       <c r="B343" s="2">
         <v>4</v>
       </c>
-      <c r="C343" s="159"/>
-      <c r="D343" s="157"/>
+      <c r="C343" s="154"/>
+      <c r="D343" s="152"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
@@ -50866,8 +50907,8 @@
       <c r="B344" s="2">
         <v>4</v>
       </c>
-      <c r="C344" s="159"/>
-      <c r="D344" s="157"/>
+      <c r="C344" s="154"/>
+      <c r="D344" s="152"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
@@ -50876,8 +50917,8 @@
       <c r="B345" s="2">
         <v>4</v>
       </c>
-      <c r="C345" s="159"/>
-      <c r="D345" s="157"/>
+      <c r="C345" s="154"/>
+      <c r="D345" s="152"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
@@ -50886,8 +50927,8 @@
       <c r="B346" s="2">
         <v>4</v>
       </c>
-      <c r="C346" s="159"/>
-      <c r="D346" s="157"/>
+      <c r="C346" s="154"/>
+      <c r="D346" s="152"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
@@ -50896,8 +50937,8 @@
       <c r="B347" s="2">
         <v>6</v>
       </c>
-      <c r="C347" s="159"/>
-      <c r="D347" s="157"/>
+      <c r="C347" s="154"/>
+      <c r="D347" s="152"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
@@ -50906,8 +50947,8 @@
       <c r="B348" s="2">
         <v>4</v>
       </c>
-      <c r="C348" s="159"/>
-      <c r="D348" s="157"/>
+      <c r="C348" s="154"/>
+      <c r="D348" s="152"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
@@ -50916,8 +50957,8 @@
       <c r="B349" s="2">
         <v>6</v>
       </c>
-      <c r="C349" s="159"/>
-      <c r="D349" s="157"/>
+      <c r="C349" s="154"/>
+      <c r="D349" s="152"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
@@ -50926,8 +50967,8 @@
       <c r="B350" s="2">
         <v>4</v>
       </c>
-      <c r="C350" s="159"/>
-      <c r="D350" s="157"/>
+      <c r="C350" s="154"/>
+      <c r="D350" s="152"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
@@ -50936,8 +50977,8 @@
       <c r="B351" s="2">
         <v>4</v>
       </c>
-      <c r="C351" s="159"/>
-      <c r="D351" s="157"/>
+      <c r="C351" s="154"/>
+      <c r="D351" s="152"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
@@ -50946,8 +50987,8 @@
       <c r="B352" s="2">
         <v>2</v>
       </c>
-      <c r="C352" s="159"/>
-      <c r="D352" s="157"/>
+      <c r="C352" s="154"/>
+      <c r="D352" s="152"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
@@ -50956,8 +50997,8 @@
       <c r="B353" s="2">
         <v>4</v>
       </c>
-      <c r="C353" s="159"/>
-      <c r="D353" s="157"/>
+      <c r="C353" s="154"/>
+      <c r="D353" s="152"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
@@ -50966,8 +51007,8 @@
       <c r="B354" s="2">
         <v>2</v>
       </c>
-      <c r="C354" s="159"/>
-      <c r="D354" s="157"/>
+      <c r="C354" s="154"/>
+      <c r="D354" s="152"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
@@ -50976,8 +51017,8 @@
       <c r="B355" s="2">
         <v>4</v>
       </c>
-      <c r="C355" s="159"/>
-      <c r="D355" s="157"/>
+      <c r="C355" s="154"/>
+      <c r="D355" s="152"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
@@ -50986,8 +51027,8 @@
       <c r="B356" s="2">
         <v>4</v>
       </c>
-      <c r="C356" s="159"/>
-      <c r="D356" s="157"/>
+      <c r="C356" s="154"/>
+      <c r="D356" s="152"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
@@ -50996,8 +51037,8 @@
       <c r="B357" s="2">
         <v>4</v>
       </c>
-      <c r="C357" s="159"/>
-      <c r="D357" s="157"/>
+      <c r="C357" s="154"/>
+      <c r="D357" s="152"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
@@ -51006,8 +51047,8 @@
       <c r="B358" s="2">
         <v>4</v>
       </c>
-      <c r="C358" s="159"/>
-      <c r="D358" s="157"/>
+      <c r="C358" s="154"/>
+      <c r="D358" s="152"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
@@ -51016,8 +51057,8 @@
       <c r="B359" s="2">
         <v>10</v>
       </c>
-      <c r="C359" s="159"/>
-      <c r="D359" s="157"/>
+      <c r="C359" s="154"/>
+      <c r="D359" s="152"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
@@ -51026,8 +51067,8 @@
       <c r="B360" s="2">
         <v>6</v>
       </c>
-      <c r="C360" s="159"/>
-      <c r="D360" s="157"/>
+      <c r="C360" s="154"/>
+      <c r="D360" s="152"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
@@ -51036,8 +51077,8 @@
       <c r="B361" s="2">
         <v>4</v>
       </c>
-      <c r="C361" s="159"/>
-      <c r="D361" s="157"/>
+      <c r="C361" s="154"/>
+      <c r="D361" s="152"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
@@ -51046,8 +51087,8 @@
       <c r="B362" s="2">
         <v>4</v>
       </c>
-      <c r="C362" s="159"/>
-      <c r="D362" s="157"/>
+      <c r="C362" s="154"/>
+      <c r="D362" s="152"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
@@ -51056,8 +51097,8 @@
       <c r="B363" s="2">
         <v>4</v>
       </c>
-      <c r="C363" s="159"/>
-      <c r="D363" s="157"/>
+      <c r="C363" s="154"/>
+      <c r="D363" s="152"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
@@ -51066,8 +51107,8 @@
       <c r="B364" s="2">
         <v>6</v>
       </c>
-      <c r="C364" s="159"/>
-      <c r="D364" s="157"/>
+      <c r="C364" s="154"/>
+      <c r="D364" s="152"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
@@ -51076,8 +51117,8 @@
       <c r="B365" s="2">
         <v>4</v>
       </c>
-      <c r="C365" s="159"/>
-      <c r="D365" s="157"/>
+      <c r="C365" s="154"/>
+      <c r="D365" s="152"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
@@ -51086,11 +51127,20 @@
       <c r="B366" s="2">
         <v>6</v>
       </c>
-      <c r="C366" s="133"/>
-      <c r="D366" s="157"/>
+      <c r="C366" s="144"/>
+      <c r="D366" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C1:C31"/>
+    <mergeCell ref="C32:C60"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L19:L30"/>
     <mergeCell ref="C61:C91"/>
     <mergeCell ref="D1:D366"/>
     <mergeCell ref="C92:C121"/>
@@ -51102,15 +51152,6 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C1:C31"/>
-    <mergeCell ref="C32:C60"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="L19:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF924C7-5753-49AC-B976-5394F53047DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE39C2E-762B-4B6C-BEAF-C5EC43601984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HappinessIndex2025" sheetId="7" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="272">
   <si>
     <t>Amazing Day</t>
   </si>
@@ -2379,7 +2379,7 @@
                   <c:v>5.1967741935483867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6875</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3460,13 +3460,13 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,6 +6923,12 @@
                 <c:pt idx="97">
                   <c:v>4.8</c:v>
                 </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7221,7 +7227,7 @@
                   <c:v>64.516129032258064</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>98.75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17335,8 +17341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6CF7-CA58-448E-9A43-748C25428E75}">
   <dimension ref="A1:BA367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -17413,7 +17419,7 @@
       </c>
       <c r="D2" s="141">
         <f>AVERAGE(C2:C366)</f>
-        <v>4.6603542626728105</v>
+        <v>4.6009792626728103</v>
       </c>
       <c r="E2" s="62">
         <v>1</v>
@@ -17723,7 +17729,7 @@
       </c>
       <c r="N5" s="134">
         <f>AVERAGE(M5:M16)</f>
-        <v>4.6603542626728105</v>
+        <v>4.6009792626728103</v>
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -18088,14 +18094,14 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="60" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="32">
         <f>C92</f>
-        <v>3.6875</v>
+        <v>3.45</v>
       </c>
       <c r="N8" s="135"/>
       <c r="O8" s="61">
@@ -18112,7 +18118,7 @@
       </c>
       <c r="R8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=4", B92:B121,"&lt;6")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=2", B92:B121,"&lt;4")</f>
@@ -18120,7 +18126,7 @@
       </c>
       <c r="T8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=0", B92:B121,"&lt;2")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U8" s="32"/>
       <c r="AK8" s="56">
@@ -18318,7 +18324,7 @@
       </c>
       <c r="J10" s="16">
         <f>COUNTIFS(B2:B366,"&gt;=0", B2:B366,"&lt;2")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" s="60" t="s">
         <v>13</v>
@@ -18420,7 +18426,7 @@
       <c r="I11" s="131"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>14</v>
@@ -18615,7 +18621,7 @@
       <c r="I13" s="132"/>
       <c r="J13" s="133">
         <f>J11/3.65</f>
-        <v>26.849315068493151</v>
+        <v>27.397260273972602</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>16</v>
@@ -19080,7 +19086,7 @@
       </c>
       <c r="AE17" s="31">
         <f>AVERAGE(E92:E121)*100</f>
-        <v>98.75</v>
+        <v>99</v>
       </c>
       <c r="AG17" t="str">
         <f>TRIM(MID(SUBSTITUTE($F38, ",", REPT(" ", 100)), (COLUMNS($AH$2:AL38)-1)*100+1, 100))</f>
@@ -25281,7 +25287,7 @@
       </c>
       <c r="C92" s="145">
         <f>AVERAGE(B92:B121)</f>
-        <v>3.6875</v>
+        <v>3.45</v>
       </c>
       <c r="D92" s="143"/>
       <c r="E92" s="62">
@@ -25957,11 +25963,19 @@
       <c r="A100" s="1">
         <v>45756</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
       <c r="C100" s="145"/>
       <c r="D100" s="143"/>
+      <c r="E100" s="62">
+        <v>1</v>
+      </c>
       <c r="F100" s="38" t="s">
         <v>180</v>
+      </c>
+      <c r="G100" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="AJ100" t="str">
         <f>TRIM(MID(SUBSTITUTE($F100, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ100)-1)*100+1, 100))</f>
@@ -26036,9 +26050,14 @@
       <c r="A101" s="1">
         <v>45757</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2">
+        <v>4</v>
+      </c>
       <c r="C101" s="145"/>
       <c r="D101" s="143"/>
+      <c r="E101" s="62">
+        <v>1</v>
+      </c>
       <c r="F101" s="38" t="s">
         <v>180</v>
       </c>
@@ -52235,8 +52254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386BFEF3-7A6D-4D9D-AC05-3EB2237225CC}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE39C2E-762B-4B6C-BEAF-C5EC43601984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B6AC28-3558-47ED-83C6-B2EFA614F73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HappinessIndex2025" sheetId="7" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="273">
   <si>
     <t>Amazing Day</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>Hons</t>
+  </si>
+  <si>
+    <t>14+ First Love</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,8 +2069,30 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2101,30 +2126,6 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2133,15 +2134,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2156,6 +2148,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2218,6 +2219,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2379,7 +2381,7 @@
                   <c:v>5.1967741935483867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.45</c:v>
+                  <c:v>3.5909090909090908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3460,7 +3462,7 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13</c:v>
@@ -6929,6 +6931,9 @@
                 <c:pt idx="99">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7227,7 +7232,7 @@
                   <c:v>64.516129032258064</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>99</c:v>
+                  <c:v>99.090909090909093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17342,7 +17347,7 @@
   <dimension ref="A1:BA367"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -17391,11 +17396,11 @@
       <c r="G1" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="H1" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
       <c r="AK1" t="s">
         <v>214</v>
       </c>
@@ -17413,13 +17418,13 @@
       <c r="B2" s="76">
         <v>2.5</v>
       </c>
-      <c r="C2" s="146">
+      <c r="C2" s="133">
         <f>AVERAGE(B2:B32)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="141">
+      <c r="D2" s="128">
         <f>AVERAGE(C2:C366)</f>
-        <v>4.6009792626728103</v>
+        <v>4.636206535400083</v>
       </c>
       <c r="E2" s="62">
         <v>1</v>
@@ -17427,9 +17432,9 @@
       <c r="F2" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
       <c r="AK2" s="75">
         <v>45658</v>
       </c>
@@ -17503,8 +17508,8 @@
       <c r="B3" s="2">
         <v>2.8</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="142"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="62">
         <v>1</v>
       </c>
@@ -17585,8 +17590,8 @@
       <c r="B4" s="2">
         <v>4.8</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="142"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="62">
         <v>1</v>
       </c>
@@ -17701,8 +17706,8 @@
       <c r="B5" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="142"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="62">
         <v>1</v>
       </c>
@@ -17727,9 +17732,9 @@
         <f>C2</f>
         <v>5</v>
       </c>
-      <c r="N5" s="134">
+      <c r="N5" s="140">
         <f>AVERAGE(M5:M16)</f>
-        <v>4.6009792626728103</v>
+        <v>4.636206535400083</v>
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -17829,8 +17834,8 @@
       <c r="B6" s="2">
         <v>6.2</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="142"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="62">
         <v>1</v>
       </c>
@@ -17854,7 +17859,7 @@
         <f>C33</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="N6" s="135"/>
+      <c r="N6" s="141"/>
       <c r="O6" s="61">
         <f>COUNTIFS(B33:B60,"&gt;=10")</f>
         <v>0</v>
@@ -17953,8 +17958,8 @@
       <c r="B7" s="2">
         <v>6.1</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="142"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="62">
         <v>1</v>
       </c>
@@ -17979,7 +17984,7 @@
         <f>C61</f>
         <v>5.1967741935483867</v>
       </c>
-      <c r="N7" s="135"/>
+      <c r="N7" s="141"/>
       <c r="O7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=10")</f>
         <v>0</v>
@@ -18078,8 +18083,8 @@
       <c r="B8" s="2">
         <v>3.5</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="142"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="62">
         <v>1</v>
       </c>
@@ -18094,16 +18099,16 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="60" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="32">
         <f>C92</f>
-        <v>3.45</v>
-      </c>
-      <c r="N8" s="135"/>
+        <v>3.5909090909090908</v>
+      </c>
+      <c r="N8" s="141"/>
       <c r="O8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=10")</f>
         <v>0</v>
@@ -18118,7 +18123,7 @@
       </c>
       <c r="R8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=4", B92:B121,"&lt;6")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=2", B92:B121,"&lt;4")</f>
@@ -18202,8 +18207,8 @@
       <c r="B9" s="2">
         <v>1.2</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="62">
         <v>1</v>
       </c>
@@ -18227,7 +18232,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="32"/>
-      <c r="N9" s="135"/>
+      <c r="N9" s="141"/>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="61"/>
@@ -18308,8 +18313,8 @@
       <c r="B10" s="2">
         <v>5.6</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="142"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="62">
         <v>1</v>
       </c>
@@ -18330,7 +18335,7 @@
         <v>13</v>
       </c>
       <c r="M10" s="32"/>
-      <c r="N10" s="135"/>
+      <c r="N10" s="141"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
       <c r="Q10" s="61"/>
@@ -18411,8 +18416,8 @@
       <c r="B11" s="2">
         <v>4.3</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="142"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="62">
         <v>1</v>
       </c>
@@ -18420,19 +18425,19 @@
         <v>180</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="130" t="s">
+      <c r="H11" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="131"/>
+      <c r="I11" s="137"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="32"/>
-      <c r="N11" s="135"/>
+      <c r="N11" s="141"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="61"/>
@@ -18513,8 +18518,8 @@
       <c r="B12" s="2">
         <v>5.4</v>
       </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="142"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="62">
         <v>1</v>
       </c>
@@ -18525,7 +18530,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="135"/>
+      <c r="N12" s="141"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
@@ -18606,8 +18611,8 @@
       <c r="B13" s="2">
         <v>7.2</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="142"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="62">
         <v>1</v>
       </c>
@@ -18615,19 +18620,19 @@
         <v>180</v>
       </c>
       <c r="G13" s="78"/>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133">
+      <c r="I13" s="138"/>
+      <c r="J13" s="139">
         <f>J11/3.65</f>
-        <v>27.397260273972602</v>
+        <v>27.671232876712331</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="32"/>
-      <c r="N13" s="135"/>
+      <c r="N13" s="141"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
       <c r="Q13" s="61"/>
@@ -18724,22 +18729,22 @@
       <c r="B14" s="2">
         <v>3.9</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="142"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="62">
         <v>0.8</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="139"/>
       <c r="L14" s="60" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="32"/>
-      <c r="N14" s="135"/>
+      <c r="N14" s="141"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
       <c r="Q14" s="61"/>
@@ -18841,8 +18846,8 @@
       <c r="B15" s="2">
         <v>1.5</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="142"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="62">
         <v>1</v>
       </c>
@@ -18856,7 +18861,7 @@
         <v>18</v>
       </c>
       <c r="M15" s="32"/>
-      <c r="N15" s="135"/>
+      <c r="N15" s="141"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="61"/>
@@ -18958,8 +18963,8 @@
       <c r="B16" s="2">
         <v>5.2</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="142"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="62">
         <v>1</v>
       </c>
@@ -18970,7 +18975,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="32"/>
-      <c r="N16" s="136"/>
+      <c r="N16" s="142"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="61"/>
@@ -19072,8 +19077,8 @@
       <c r="B17" s="2">
         <v>6.5</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="142"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="62">
         <v>1</v>
       </c>
@@ -19086,7 +19091,7 @@
       </c>
       <c r="AE17" s="31">
         <f>AVERAGE(E92:E121)*100</f>
-        <v>99</v>
+        <v>99.090909090909093</v>
       </c>
       <c r="AG17" t="str">
         <f>TRIM(MID(SUBSTITUTE($F38, ",", REPT(" ", 100)), (COLUMNS($AH$2:AL38)-1)*100+1, 100))</f>
@@ -19175,8 +19180,8 @@
       <c r="B18" s="2">
         <v>2.9</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="142"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="62">
         <v>0.6</v>
       </c>
@@ -19274,8 +19279,8 @@
       <c r="B19" s="2">
         <v>3.3</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="142"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="62">
         <v>0</v>
       </c>
@@ -19374,8 +19379,8 @@
       <c r="B20" s="2">
         <v>6.2</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="142"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="62">
         <v>1</v>
       </c>
@@ -19471,8 +19476,8 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="142"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="62">
         <v>1</v>
       </c>
@@ -19569,8 +19574,8 @@
       <c r="B22" s="2">
         <v>4.3</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="142"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="62">
         <v>0</v>
       </c>
@@ -19654,8 +19659,8 @@
       <c r="B23" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="142"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="62">
         <v>0</v>
       </c>
@@ -19740,8 +19745,8 @@
       <c r="B24" s="2">
         <v>1.2</v>
       </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="142"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="62">
         <v>1</v>
       </c>
@@ -19825,8 +19830,8 @@
       <c r="B25" s="2">
         <v>6.2</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="142"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="62">
         <v>1</v>
       </c>
@@ -19911,8 +19916,8 @@
       <c r="B26" s="2">
         <v>8.1</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="142"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="62">
         <v>0</v>
       </c>
@@ -19992,8 +19997,8 @@
       <c r="B27" s="2">
         <v>6.8</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="142"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="62">
         <v>0</v>
       </c>
@@ -20074,8 +20079,8 @@
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="142"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="62">
         <v>1</v>
       </c>
@@ -20155,8 +20160,8 @@
       <c r="B29" s="2">
         <v>5.8</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="142"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="62">
         <v>1</v>
       </c>
@@ -20237,8 +20242,8 @@
       <c r="B30" s="2">
         <v>5.3</v>
       </c>
-      <c r="C30" s="147"/>
-      <c r="D30" s="142"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="62">
         <v>0</v>
       </c>
@@ -20318,8 +20323,8 @@
       <c r="B31" s="2">
         <v>7.4</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="142"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="62">
         <v>1</v>
       </c>
@@ -20400,8 +20405,8 @@
       <c r="B32" s="58">
         <v>8.5</v>
       </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="142"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="62">
         <v>1</v>
       </c>
@@ -20488,11 +20493,11 @@
       <c r="B33" s="51">
         <v>4.8</v>
       </c>
-      <c r="C33" s="144">
+      <c r="C33" s="131">
         <f>AVERAGE(B33:B60)</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="D33" s="143"/>
+      <c r="D33" s="130"/>
       <c r="E33" s="62">
         <v>1</v>
       </c>
@@ -20574,8 +20579,8 @@
       <c r="B34" s="2">
         <v>4.5</v>
       </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="143"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="130"/>
       <c r="E34" s="62">
         <v>0</v>
       </c>
@@ -20652,8 +20657,8 @@
       <c r="B35" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="143"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="130"/>
       <c r="E35" s="62">
         <v>1</v>
       </c>
@@ -20731,8 +20736,8 @@
       <c r="B36" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="143"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="130"/>
       <c r="E36" s="62">
         <v>1</v>
       </c>
@@ -20809,8 +20814,8 @@
       <c r="B37" s="2">
         <v>3.3</v>
       </c>
-      <c r="C37" s="145"/>
-      <c r="D37" s="143"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="130"/>
       <c r="E37" s="62">
         <v>0</v>
       </c>
@@ -20887,8 +20892,8 @@
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="143"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="130"/>
       <c r="E38" s="62">
         <v>1</v>
       </c>
@@ -20965,8 +20970,8 @@
       <c r="B39" s="2">
         <v>1.3</v>
       </c>
-      <c r="C39" s="145"/>
-      <c r="D39" s="143"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="130"/>
       <c r="E39" s="62">
         <v>0</v>
       </c>
@@ -21043,8 +21048,8 @@
       <c r="B40" s="2">
         <v>8.5</v>
       </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="143"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="130"/>
       <c r="E40" s="62">
         <v>1</v>
       </c>
@@ -21124,8 +21129,8 @@
       <c r="B41" s="2">
         <v>4.5</v>
       </c>
-      <c r="C41" s="145"/>
-      <c r="D41" s="143"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="130"/>
       <c r="E41" s="62">
         <v>0</v>
       </c>
@@ -21202,8 +21207,8 @@
       <c r="B42" s="2">
         <v>3.8</v>
       </c>
-      <c r="C42" s="145"/>
-      <c r="D42" s="143"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="130"/>
       <c r="E42" s="62">
         <v>1</v>
       </c>
@@ -21280,8 +21285,8 @@
       <c r="B43" s="2">
         <v>5.5</v>
       </c>
-      <c r="C43" s="145"/>
-      <c r="D43" s="143"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="130"/>
       <c r="E43" s="62">
         <v>1</v>
       </c>
@@ -21362,8 +21367,8 @@
       <c r="B44" s="2">
         <v>5.8</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="143"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="130"/>
       <c r="E44" s="62">
         <v>1</v>
       </c>
@@ -21444,8 +21449,8 @@
       <c r="B45" s="2">
         <v>5.5</v>
       </c>
-      <c r="C45" s="145"/>
-      <c r="D45" s="143"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="130"/>
       <c r="E45" s="62">
         <v>0</v>
       </c>
@@ -21526,8 +21531,8 @@
       <c r="B46" s="2">
         <v>0</v>
       </c>
-      <c r="C46" s="145"/>
-      <c r="D46" s="143"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="130"/>
       <c r="E46" s="62">
         <v>0</v>
       </c>
@@ -21611,8 +21616,8 @@
       <c r="B47" s="2">
         <v>4.5</v>
       </c>
-      <c r="C47" s="145"/>
-      <c r="D47" s="143"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="130"/>
       <c r="E47" s="62">
         <v>1</v>
       </c>
@@ -21693,8 +21698,8 @@
       <c r="B48" s="2">
         <v>6.6</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="143"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="130"/>
       <c r="E48" s="62">
         <v>1</v>
       </c>
@@ -21775,8 +21780,8 @@
       <c r="B49" s="2">
         <v>7.5</v>
       </c>
-      <c r="C49" s="145"/>
-      <c r="D49" s="143"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="130"/>
       <c r="E49" s="62">
         <v>1</v>
       </c>
@@ -21857,8 +21862,8 @@
       <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="145"/>
-      <c r="D50" s="143"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="130"/>
       <c r="E50" s="62">
         <v>1</v>
       </c>
@@ -21939,8 +21944,8 @@
       <c r="B51" s="2">
         <v>4.8</v>
       </c>
-      <c r="C51" s="145"/>
-      <c r="D51" s="143"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="130"/>
       <c r="E51" s="62">
         <v>0</v>
       </c>
@@ -22021,8 +22026,8 @@
       <c r="B52" s="2">
         <v>6.8</v>
       </c>
-      <c r="C52" s="145"/>
-      <c r="D52" s="143"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="130"/>
       <c r="E52" s="62">
         <v>1</v>
       </c>
@@ -22103,8 +22108,8 @@
       <c r="B53" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C53" s="145"/>
-      <c r="D53" s="143"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="130"/>
       <c r="E53" s="62">
         <v>1</v>
       </c>
@@ -22185,8 +22190,8 @@
       <c r="B54" s="2">
         <v>5.5</v>
       </c>
-      <c r="C54" s="145"/>
-      <c r="D54" s="143"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="130"/>
       <c r="E54" s="62">
         <v>0</v>
       </c>
@@ -22267,8 +22272,8 @@
       <c r="B55" s="2">
         <v>4.5</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="143"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="130"/>
       <c r="E55" s="62">
         <v>1</v>
       </c>
@@ -22349,8 +22354,8 @@
       <c r="B56" s="2">
         <v>6.5</v>
       </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="143"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="130"/>
       <c r="E56" s="62">
         <v>1</v>
       </c>
@@ -22431,8 +22436,8 @@
       <c r="B57" s="2">
         <v>4.5</v>
       </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="143"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="130"/>
       <c r="E57" s="62">
         <v>1</v>
       </c>
@@ -22513,8 +22518,8 @@
       <c r="B58" s="2">
         <v>7.5</v>
       </c>
-      <c r="C58" s="145"/>
-      <c r="D58" s="143"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="130"/>
       <c r="E58" s="62">
         <v>0</v>
       </c>
@@ -22595,8 +22600,8 @@
       <c r="B59" s="2">
         <v>5</v>
       </c>
-      <c r="C59" s="145"/>
-      <c r="D59" s="143"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="130"/>
       <c r="E59" s="62">
         <v>1</v>
       </c>
@@ -22677,8 +22682,8 @@
       <c r="B60" s="2">
         <v>5.5</v>
       </c>
-      <c r="C60" s="145"/>
-      <c r="D60" s="143"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="130"/>
       <c r="E60" s="62">
         <v>1</v>
       </c>
@@ -22759,11 +22764,11 @@
       <c r="B61" s="2">
         <v>5</v>
       </c>
-      <c r="C61" s="145">
+      <c r="C61" s="132">
         <f>AVERAGE(B61:B91)</f>
         <v>5.1967741935483867</v>
       </c>
-      <c r="D61" s="143"/>
+      <c r="D61" s="130"/>
       <c r="E61" s="62">
         <v>0</v>
       </c>
@@ -22844,8 +22849,8 @@
       <c r="B62" s="2">
         <v>4.8</v>
       </c>
-      <c r="C62" s="145"/>
-      <c r="D62" s="143"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="130"/>
       <c r="E62" s="62">
         <v>0</v>
       </c>
@@ -22926,8 +22931,8 @@
       <c r="B63" s="2">
         <v>3</v>
       </c>
-      <c r="C63" s="145"/>
-      <c r="D63" s="143"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="130"/>
       <c r="E63" s="62">
         <v>1</v>
       </c>
@@ -23008,8 +23013,8 @@
       <c r="B64" s="2">
         <v>4</v>
       </c>
-      <c r="C64" s="145"/>
-      <c r="D64" s="143"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="130"/>
       <c r="E64" s="62">
         <v>1</v>
       </c>
@@ -23090,8 +23095,8 @@
       <c r="B65" s="2">
         <v>5</v>
       </c>
-      <c r="C65" s="145"/>
-      <c r="D65" s="143"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="130"/>
       <c r="E65" s="62">
         <v>0</v>
       </c>
@@ -23172,8 +23177,8 @@
       <c r="B66" s="2">
         <v>6.5</v>
       </c>
-      <c r="C66" s="145"/>
-      <c r="D66" s="143"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="130"/>
       <c r="E66" s="62">
         <v>0</v>
       </c>
@@ -23254,8 +23259,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="145"/>
-      <c r="D67" s="143"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="130"/>
       <c r="E67" s="62">
         <v>1</v>
       </c>
@@ -23335,8 +23340,8 @@
       <c r="B68" s="2">
         <v>6.1</v>
       </c>
-      <c r="C68" s="145"/>
-      <c r="D68" s="143"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="130"/>
       <c r="E68" s="62">
         <v>1</v>
       </c>
@@ -23416,8 +23421,8 @@
       <c r="B69" s="2">
         <v>8</v>
       </c>
-      <c r="C69" s="145"/>
-      <c r="D69" s="143"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="130"/>
       <c r="E69" s="62">
         <v>0</v>
       </c>
@@ -23497,8 +23502,8 @@
       <c r="B70" s="2">
         <v>4.5</v>
       </c>
-      <c r="C70" s="145"/>
-      <c r="D70" s="143"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="130"/>
       <c r="E70" s="62">
         <v>1</v>
       </c>
@@ -23578,8 +23583,8 @@
       <c r="B71" s="2">
         <v>7</v>
       </c>
-      <c r="C71" s="145"/>
-      <c r="D71" s="143"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="130"/>
       <c r="E71" s="62">
         <v>1</v>
       </c>
@@ -23659,8 +23664,8 @@
       <c r="B72" s="2">
         <v>4.8</v>
       </c>
-      <c r="C72" s="145"/>
-      <c r="D72" s="143"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="130"/>
       <c r="E72" s="62">
         <v>1</v>
       </c>
@@ -23740,8 +23745,8 @@
       <c r="B73" s="2">
         <v>5</v>
       </c>
-      <c r="C73" s="145"/>
-      <c r="D73" s="143"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="130"/>
       <c r="E73" s="62">
         <v>1</v>
       </c>
@@ -23821,8 +23826,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="145"/>
-      <c r="D74" s="143"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="130"/>
       <c r="E74" s="62">
         <v>0</v>
       </c>
@@ -23902,8 +23907,8 @@
       <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75" s="145"/>
-      <c r="D75" s="143"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="130"/>
       <c r="E75" s="62">
         <v>0</v>
       </c>
@@ -23983,8 +23988,8 @@
       <c r="B76" s="2">
         <v>5</v>
       </c>
-      <c r="C76" s="145"/>
-      <c r="D76" s="143"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="130"/>
       <c r="E76" s="62">
         <v>1</v>
       </c>
@@ -24064,8 +24069,8 @@
       <c r="B77" s="2">
         <v>4.2</v>
       </c>
-      <c r="C77" s="145"/>
-      <c r="D77" s="143"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="130"/>
       <c r="E77" s="62">
         <v>0</v>
       </c>
@@ -24145,8 +24150,8 @@
       <c r="B78" s="2">
         <v>5.5</v>
       </c>
-      <c r="C78" s="145"/>
-      <c r="D78" s="143"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="130"/>
       <c r="E78" s="62">
         <v>1</v>
       </c>
@@ -24226,8 +24231,8 @@
       <c r="B79" s="2">
         <v>3</v>
       </c>
-      <c r="C79" s="145"/>
-      <c r="D79" s="143"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="130"/>
       <c r="E79" s="62">
         <v>0</v>
       </c>
@@ -24307,8 +24312,8 @@
       <c r="B80" s="2">
         <v>5</v>
       </c>
-      <c r="C80" s="145"/>
-      <c r="D80" s="143"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="130"/>
       <c r="E80" s="62">
         <v>1</v>
       </c>
@@ -24388,8 +24393,8 @@
       <c r="B81" s="2">
         <v>5</v>
       </c>
-      <c r="C81" s="145"/>
-      <c r="D81" s="143"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="130"/>
       <c r="E81" s="62">
         <v>1</v>
       </c>
@@ -24469,8 +24474,8 @@
       <c r="B82" s="2">
         <v>7.5</v>
       </c>
-      <c r="C82" s="145"/>
-      <c r="D82" s="143"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="130"/>
       <c r="E82" s="62">
         <v>1</v>
       </c>
@@ -24550,8 +24555,8 @@
       <c r="B83" s="2">
         <v>7</v>
       </c>
-      <c r="C83" s="145"/>
-      <c r="D83" s="143"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="130"/>
       <c r="E83" s="62">
         <v>1</v>
       </c>
@@ -24634,8 +24639,8 @@
       <c r="B84" s="2">
         <v>4</v>
       </c>
-      <c r="C84" s="145"/>
-      <c r="D84" s="143"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="130"/>
       <c r="E84" s="62">
         <v>0</v>
       </c>
@@ -24715,8 +24720,8 @@
       <c r="B85" s="2">
         <v>5.5</v>
       </c>
-      <c r="C85" s="145"/>
-      <c r="D85" s="143"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="130"/>
       <c r="E85" s="62">
         <v>1</v>
       </c>
@@ -24796,8 +24801,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="145"/>
-      <c r="D86" s="143"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="130"/>
       <c r="E86" s="62">
         <v>1</v>
       </c>
@@ -24880,8 +24885,8 @@
       <c r="B87" s="2">
         <v>5.2</v>
       </c>
-      <c r="C87" s="145"/>
-      <c r="D87" s="143"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="130"/>
       <c r="E87" s="62">
         <v>1</v>
       </c>
@@ -24961,8 +24966,8 @@
       <c r="B88" s="2">
         <v>4.5</v>
       </c>
-      <c r="C88" s="145"/>
-      <c r="D88" s="143"/>
+      <c r="C88" s="132"/>
+      <c r="D88" s="130"/>
       <c r="E88" s="62">
         <v>1</v>
       </c>
@@ -25042,8 +25047,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="145"/>
-      <c r="D89" s="143"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="130"/>
       <c r="E89" s="62">
         <v>0</v>
       </c>
@@ -25123,8 +25128,8 @@
       <c r="B90" s="2">
         <v>6.5</v>
       </c>
-      <c r="C90" s="145"/>
-      <c r="D90" s="143"/>
+      <c r="C90" s="132"/>
+      <c r="D90" s="130"/>
       <c r="E90" s="62">
         <v>1</v>
       </c>
@@ -25204,8 +25209,8 @@
       <c r="B91" s="2">
         <v>5.5</v>
       </c>
-      <c r="C91" s="145"/>
-      <c r="D91" s="143"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="130"/>
       <c r="E91" s="62">
         <v>1</v>
       </c>
@@ -25285,11 +25290,11 @@
       <c r="B92" s="2">
         <v>4.8</v>
       </c>
-      <c r="C92" s="145">
+      <c r="C92" s="132">
         <f>AVERAGE(B92:B121)</f>
-        <v>3.45</v>
-      </c>
-      <c r="D92" s="143"/>
+        <v>3.5909090909090908</v>
+      </c>
+      <c r="D92" s="130"/>
       <c r="E92" s="62">
         <v>1</v>
       </c>
@@ -25372,8 +25377,8 @@
       <c r="B93" s="2">
         <v>4.2</v>
       </c>
-      <c r="C93" s="145"/>
-      <c r="D93" s="143"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="130"/>
       <c r="E93" s="62">
         <v>1</v>
       </c>
@@ -25456,8 +25461,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="145"/>
-      <c r="D94" s="143"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="130"/>
       <c r="E94" s="62">
         <v>1</v>
       </c>
@@ -25540,8 +25545,8 @@
       <c r="B95" s="2">
         <v>0</v>
       </c>
-      <c r="C95" s="145"/>
-      <c r="D95" s="143"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="130"/>
       <c r="E95" s="62">
         <v>1</v>
       </c>
@@ -25627,8 +25632,8 @@
       <c r="B96" s="2">
         <v>0.5</v>
       </c>
-      <c r="C96" s="145"/>
-      <c r="D96" s="143"/>
+      <c r="C96" s="132"/>
+      <c r="D96" s="130"/>
       <c r="E96" s="62">
         <v>1</v>
       </c>
@@ -25714,8 +25719,8 @@
       <c r="B97" s="2">
         <v>5.2</v>
       </c>
-      <c r="C97" s="145"/>
-      <c r="D97" s="143"/>
+      <c r="C97" s="132"/>
+      <c r="D97" s="130"/>
       <c r="E97" s="62">
         <v>1</v>
       </c>
@@ -25798,8 +25803,8 @@
       <c r="B98" s="2">
         <v>6</v>
       </c>
-      <c r="C98" s="145"/>
-      <c r="D98" s="143"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="130"/>
       <c r="E98" s="62">
         <v>0.9</v>
       </c>
@@ -25882,8 +25887,8 @@
       <c r="B99" s="2">
         <v>4.8</v>
       </c>
-      <c r="C99" s="145"/>
-      <c r="D99" s="143"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="130"/>
       <c r="E99" s="62">
         <v>1</v>
       </c>
@@ -25966,8 +25971,8 @@
       <c r="B100" s="2">
         <v>1</v>
       </c>
-      <c r="C100" s="145"/>
-      <c r="D100" s="143"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="130"/>
       <c r="E100" s="62">
         <v>1</v>
       </c>
@@ -26053,13 +26058,16 @@
       <c r="B101" s="2">
         <v>4</v>
       </c>
-      <c r="C101" s="145"/>
-      <c r="D101" s="143"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="130"/>
       <c r="E101" s="62">
         <v>1</v>
       </c>
       <c r="F101" s="38" t="s">
         <v>180</v>
+      </c>
+      <c r="G101" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="AJ101" t="str">
         <f>TRIM(MID(SUBSTITUTE($F101, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ101)-1)*100+1, 100))</f>
@@ -26134,11 +26142,19 @@
       <c r="A102" s="1">
         <v>45758</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="145"/>
-      <c r="D102" s="143"/>
+      <c r="B102" s="2">
+        <v>5</v>
+      </c>
+      <c r="C102" s="132"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="62">
+        <v>1</v>
+      </c>
       <c r="F102" s="38" t="s">
         <v>180</v>
+      </c>
+      <c r="G102" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="AJ102" t="str">
         <f>TRIM(MID(SUBSTITUTE($F102, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ102)-1)*100+1, 100))</f>
@@ -26214,8 +26230,8 @@
         <v>45759</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="145"/>
-      <c r="D103" s="143"/>
+      <c r="C103" s="132"/>
+      <c r="D103" s="130"/>
       <c r="F103" s="38" t="s">
         <v>180</v>
       </c>
@@ -26293,8 +26309,8 @@
         <v>45760</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="145"/>
-      <c r="D104" s="143"/>
+      <c r="C104" s="132"/>
+      <c r="D104" s="130"/>
       <c r="F104" s="38" t="s">
         <v>180</v>
       </c>
@@ -26372,8 +26388,8 @@
         <v>45761</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="145"/>
-      <c r="D105" s="143"/>
+      <c r="C105" s="132"/>
+      <c r="D105" s="130"/>
       <c r="F105" s="38" t="s">
         <v>180</v>
       </c>
@@ -26451,8 +26467,8 @@
         <v>45762</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="145"/>
-      <c r="D106" s="143"/>
+      <c r="C106" s="132"/>
+      <c r="D106" s="130"/>
       <c r="F106" s="38" t="s">
         <v>180</v>
       </c>
@@ -26530,8 +26546,8 @@
         <v>45763</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="145"/>
-      <c r="D107" s="143"/>
+      <c r="C107" s="132"/>
+      <c r="D107" s="130"/>
       <c r="F107" s="38" t="s">
         <v>180</v>
       </c>
@@ -26609,8 +26625,8 @@
         <v>45764</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="145"/>
-      <c r="D108" s="143"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="130"/>
       <c r="F108" s="38" t="s">
         <v>180</v>
       </c>
@@ -26688,8 +26704,8 @@
         <v>45765</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="145"/>
-      <c r="D109" s="143"/>
+      <c r="C109" s="132"/>
+      <c r="D109" s="130"/>
       <c r="F109" s="38" t="s">
         <v>180</v>
       </c>
@@ -26767,8 +26783,8 @@
         <v>45766</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="145"/>
-      <c r="D110" s="143"/>
+      <c r="C110" s="132"/>
+      <c r="D110" s="130"/>
       <c r="F110" s="38" t="s">
         <v>180</v>
       </c>
@@ -26846,8 +26862,8 @@
         <v>45767</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="145"/>
-      <c r="D111" s="143"/>
+      <c r="C111" s="132"/>
+      <c r="D111" s="130"/>
       <c r="F111" s="38" t="s">
         <v>180</v>
       </c>
@@ -26925,8 +26941,8 @@
         <v>45768</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="145"/>
-      <c r="D112" s="143"/>
+      <c r="C112" s="132"/>
+      <c r="D112" s="130"/>
       <c r="F112" s="38" t="s">
         <v>180</v>
       </c>
@@ -27004,8 +27020,8 @@
         <v>45769</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="145"/>
-      <c r="D113" s="143"/>
+      <c r="C113" s="132"/>
+      <c r="D113" s="130"/>
       <c r="F113" s="38" t="s">
         <v>180</v>
       </c>
@@ -27083,8 +27099,8 @@
         <v>45770</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="145"/>
-      <c r="D114" s="143"/>
+      <c r="C114" s="132"/>
+      <c r="D114" s="130"/>
       <c r="F114" s="38" t="s">
         <v>180</v>
       </c>
@@ -27162,8 +27178,8 @@
         <v>45771</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="145"/>
-      <c r="D115" s="143"/>
+      <c r="C115" s="132"/>
+      <c r="D115" s="130"/>
       <c r="F115" s="38" t="s">
         <v>180</v>
       </c>
@@ -27241,8 +27257,8 @@
         <v>45772</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="145"/>
-      <c r="D116" s="143"/>
+      <c r="C116" s="132"/>
+      <c r="D116" s="130"/>
       <c r="F116" s="38" t="s">
         <v>180</v>
       </c>
@@ -27320,8 +27336,8 @@
         <v>45773</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="145"/>
-      <c r="D117" s="143"/>
+      <c r="C117" s="132"/>
+      <c r="D117" s="130"/>
       <c r="F117" s="38" t="s">
         <v>180</v>
       </c>
@@ -27399,8 +27415,8 @@
         <v>45774</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="145"/>
-      <c r="D118" s="143"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="130"/>
       <c r="F118" s="38" t="s">
         <v>180</v>
       </c>
@@ -27478,8 +27494,8 @@
         <v>45775</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="145"/>
-      <c r="D119" s="143"/>
+      <c r="C119" s="132"/>
+      <c r="D119" s="130"/>
       <c r="F119" s="38" t="s">
         <v>180</v>
       </c>
@@ -27557,8 +27573,8 @@
         <v>45776</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="145"/>
-      <c r="D120" s="143"/>
+      <c r="C120" s="132"/>
+      <c r="D120" s="130"/>
       <c r="F120" s="38" t="s">
         <v>269</v>
       </c>
@@ -27636,8 +27652,8 @@
         <v>45777</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="145"/>
-      <c r="D121" s="143"/>
+      <c r="C121" s="132"/>
+      <c r="D121" s="130"/>
       <c r="F121" s="38" t="s">
         <v>198</v>
       </c>
@@ -27715,8 +27731,8 @@
         <v>45778</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="145"/>
-      <c r="D122" s="143"/>
+      <c r="C122" s="132"/>
+      <c r="D122" s="130"/>
       <c r="AJ122" t="str">
         <f>TRIM(MID(SUBSTITUTE($F122, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ122)-1)*100+1, 100))</f>
         <v/>
@@ -27791,8 +27807,8 @@
         <v>45779</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="145"/>
-      <c r="D123" s="143"/>
+      <c r="C123" s="132"/>
+      <c r="D123" s="130"/>
       <c r="AJ123" t="str">
         <f>TRIM(MID(SUBSTITUTE($F123, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ123)-1)*100+1, 100))</f>
         <v/>
@@ -27867,8 +27883,8 @@
         <v>45780</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="145"/>
-      <c r="D124" s="143"/>
+      <c r="C124" s="132"/>
+      <c r="D124" s="130"/>
       <c r="AJ124" t="str">
         <f>TRIM(MID(SUBSTITUTE($F124, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ124)-1)*100+1, 100))</f>
         <v/>
@@ -27943,8 +27959,8 @@
         <v>45781</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="145"/>
-      <c r="D125" s="143"/>
+      <c r="C125" s="132"/>
+      <c r="D125" s="130"/>
       <c r="AJ125" t="str">
         <f>TRIM(MID(SUBSTITUTE($F125, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ125)-1)*100+1, 100))</f>
         <v/>
@@ -28019,8 +28035,8 @@
         <v>45782</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="145"/>
-      <c r="D126" s="143"/>
+      <c r="C126" s="132"/>
+      <c r="D126" s="130"/>
       <c r="AJ126" t="str">
         <f>TRIM(MID(SUBSTITUTE($F126, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ126)-1)*100+1, 100))</f>
         <v/>
@@ -28095,8 +28111,8 @@
         <v>45783</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="145"/>
-      <c r="D127" s="143"/>
+      <c r="C127" s="132"/>
+      <c r="D127" s="130"/>
       <c r="AJ127" t="str">
         <f>TRIM(MID(SUBSTITUTE($F127, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ127)-1)*100+1, 100))</f>
         <v/>
@@ -28171,8 +28187,8 @@
         <v>45784</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="145"/>
-      <c r="D128" s="143"/>
+      <c r="C128" s="132"/>
+      <c r="D128" s="130"/>
       <c r="AJ128" t="str">
         <f>TRIM(MID(SUBSTITUTE($F128, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ128)-1)*100+1, 100))</f>
         <v/>
@@ -28247,8 +28263,8 @@
         <v>45785</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="145"/>
-      <c r="D129" s="143"/>
+      <c r="C129" s="132"/>
+      <c r="D129" s="130"/>
       <c r="AJ129" t="str">
         <f>TRIM(MID(SUBSTITUTE($F129, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ129)-1)*100+1, 100))</f>
         <v/>
@@ -28323,8 +28339,8 @@
         <v>45786</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="145"/>
-      <c r="D130" s="143"/>
+      <c r="C130" s="132"/>
+      <c r="D130" s="130"/>
       <c r="AJ130" t="str">
         <f>TRIM(MID(SUBSTITUTE($F130, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ130)-1)*100+1, 100))</f>
         <v/>
@@ -28399,8 +28415,8 @@
         <v>45787</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="145"/>
-      <c r="D131" s="143"/>
+      <c r="C131" s="132"/>
+      <c r="D131" s="130"/>
       <c r="AJ131" t="str">
         <f>TRIM(MID(SUBSTITUTE($F131, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ131)-1)*100+1, 100))</f>
         <v/>
@@ -28475,8 +28491,8 @@
         <v>45788</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="145"/>
-      <c r="D132" s="143"/>
+      <c r="C132" s="132"/>
+      <c r="D132" s="130"/>
       <c r="AJ132" t="str">
         <f>TRIM(MID(SUBSTITUTE($F132, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ132)-1)*100+1, 100))</f>
         <v/>
@@ -28551,8 +28567,8 @@
         <v>45789</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="145"/>
-      <c r="D133" s="143"/>
+      <c r="C133" s="132"/>
+      <c r="D133" s="130"/>
       <c r="AJ133" t="str">
         <f>TRIM(MID(SUBSTITUTE($F133, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ133)-1)*100+1, 100))</f>
         <v/>
@@ -28627,8 +28643,8 @@
         <v>45790</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="145"/>
-      <c r="D134" s="143"/>
+      <c r="C134" s="132"/>
+      <c r="D134" s="130"/>
       <c r="AJ134" t="str">
         <f>TRIM(MID(SUBSTITUTE($F134, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ134)-1)*100+1, 100))</f>
         <v/>
@@ -28703,8 +28719,8 @@
         <v>45791</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="145"/>
-      <c r="D135" s="143"/>
+      <c r="C135" s="132"/>
+      <c r="D135" s="130"/>
       <c r="AJ135" t="str">
         <f>TRIM(MID(SUBSTITUTE($F135, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ135)-1)*100+1, 100))</f>
         <v/>
@@ -28779,8 +28795,8 @@
         <v>45792</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="145"/>
-      <c r="D136" s="143"/>
+      <c r="C136" s="132"/>
+      <c r="D136" s="130"/>
       <c r="AJ136" t="str">
         <f>TRIM(MID(SUBSTITUTE($F136, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ136)-1)*100+1, 100))</f>
         <v/>
@@ -28855,8 +28871,8 @@
         <v>45793</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="145"/>
-      <c r="D137" s="143"/>
+      <c r="C137" s="132"/>
+      <c r="D137" s="130"/>
       <c r="AJ137" t="str">
         <f>TRIM(MID(SUBSTITUTE($F137, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ137)-1)*100+1, 100))</f>
         <v/>
@@ -28931,8 +28947,8 @@
         <v>45794</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="145"/>
-      <c r="D138" s="143"/>
+      <c r="C138" s="132"/>
+      <c r="D138" s="130"/>
       <c r="AJ138" t="str">
         <f>TRIM(MID(SUBSTITUTE($F138, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ138)-1)*100+1, 100))</f>
         <v/>
@@ -29007,8 +29023,8 @@
         <v>45795</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="145"/>
-      <c r="D139" s="143"/>
+      <c r="C139" s="132"/>
+      <c r="D139" s="130"/>
       <c r="AJ139" t="str">
         <f>TRIM(MID(SUBSTITUTE($F139, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ139)-1)*100+1, 100))</f>
         <v/>
@@ -29083,8 +29099,8 @@
         <v>45796</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="145"/>
-      <c r="D140" s="143"/>
+      <c r="C140" s="132"/>
+      <c r="D140" s="130"/>
       <c r="AJ140" t="str">
         <f>TRIM(MID(SUBSTITUTE($F140, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ140)-1)*100+1, 100))</f>
         <v/>
@@ -29159,8 +29175,8 @@
         <v>45797</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="145"/>
-      <c r="D141" s="143"/>
+      <c r="C141" s="132"/>
+      <c r="D141" s="130"/>
       <c r="AJ141" t="str">
         <f>TRIM(MID(SUBSTITUTE($F141, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ141)-1)*100+1, 100))</f>
         <v/>
@@ -29235,8 +29251,8 @@
         <v>45798</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="145"/>
-      <c r="D142" s="143"/>
+      <c r="C142" s="132"/>
+      <c r="D142" s="130"/>
       <c r="AJ142" t="str">
         <f>TRIM(MID(SUBSTITUTE($F142, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ142)-1)*100+1, 100))</f>
         <v/>
@@ -29311,8 +29327,8 @@
         <v>45799</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="145"/>
-      <c r="D143" s="143"/>
+      <c r="C143" s="132"/>
+      <c r="D143" s="130"/>
       <c r="AJ143" t="str">
         <f>TRIM(MID(SUBSTITUTE($F143, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ143)-1)*100+1, 100))</f>
         <v/>
@@ -29387,8 +29403,8 @@
         <v>45800</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="145"/>
-      <c r="D144" s="143"/>
+      <c r="C144" s="132"/>
+      <c r="D144" s="130"/>
       <c r="AJ144" t="str">
         <f>TRIM(MID(SUBSTITUTE($F144, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ144)-1)*100+1, 100))</f>
         <v/>
@@ -29463,8 +29479,8 @@
         <v>45801</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="145"/>
-      <c r="D145" s="143"/>
+      <c r="C145" s="132"/>
+      <c r="D145" s="130"/>
       <c r="AJ145" t="str">
         <f>TRIM(MID(SUBSTITUTE($F145, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ145)-1)*100+1, 100))</f>
         <v/>
@@ -29539,8 +29555,8 @@
         <v>45802</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="145"/>
-      <c r="D146" s="143"/>
+      <c r="C146" s="132"/>
+      <c r="D146" s="130"/>
       <c r="AJ146" t="str">
         <f>TRIM(MID(SUBSTITUTE($F146, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ146)-1)*100+1, 100))</f>
         <v/>
@@ -29615,8 +29631,8 @@
         <v>45803</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="145"/>
-      <c r="D147" s="143"/>
+      <c r="C147" s="132"/>
+      <c r="D147" s="130"/>
       <c r="AJ147" t="str">
         <f>TRIM(MID(SUBSTITUTE($F147, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ147)-1)*100+1, 100))</f>
         <v/>
@@ -29691,8 +29707,8 @@
         <v>45804</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="145"/>
-      <c r="D148" s="143"/>
+      <c r="C148" s="132"/>
+      <c r="D148" s="130"/>
       <c r="AJ148" t="str">
         <f>TRIM(MID(SUBSTITUTE($F148, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ148)-1)*100+1, 100))</f>
         <v/>
@@ -29767,8 +29783,8 @@
         <v>45805</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="145"/>
-      <c r="D149" s="143"/>
+      <c r="C149" s="132"/>
+      <c r="D149" s="130"/>
       <c r="AJ149" t="str">
         <f>TRIM(MID(SUBSTITUTE($F149, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ149)-1)*100+1, 100))</f>
         <v/>
@@ -29843,8 +29859,8 @@
         <v>45806</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="145"/>
-      <c r="D150" s="143"/>
+      <c r="C150" s="132"/>
+      <c r="D150" s="130"/>
       <c r="AJ150" t="str">
         <f>TRIM(MID(SUBSTITUTE($F150, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ150)-1)*100+1, 100))</f>
         <v/>
@@ -29919,8 +29935,8 @@
         <v>45807</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="145"/>
-      <c r="D151" s="143"/>
+      <c r="C151" s="132"/>
+      <c r="D151" s="130"/>
       <c r="AJ151" t="str">
         <f>TRIM(MID(SUBSTITUTE($F151, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ151)-1)*100+1, 100))</f>
         <v/>
@@ -29995,8 +30011,8 @@
         <v>45808</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="145"/>
-      <c r="D152" s="143"/>
+      <c r="C152" s="132"/>
+      <c r="D152" s="130"/>
       <c r="AJ152" t="str">
         <f>TRIM(MID(SUBSTITUTE($F152, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ152)-1)*100+1, 100))</f>
         <v/>
@@ -30071,8 +30087,8 @@
         <v>45809</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="145"/>
-      <c r="D153" s="143"/>
+      <c r="C153" s="132"/>
+      <c r="D153" s="130"/>
       <c r="AJ153" t="str">
         <f>TRIM(MID(SUBSTITUTE($F153, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ153)-1)*100+1, 100))</f>
         <v/>
@@ -30147,8 +30163,8 @@
         <v>45810</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="145"/>
-      <c r="D154" s="143"/>
+      <c r="C154" s="132"/>
+      <c r="D154" s="130"/>
       <c r="AJ154" t="str">
         <f>TRIM(MID(SUBSTITUTE($F154, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ154)-1)*100+1, 100))</f>
         <v/>
@@ -30223,8 +30239,8 @@
         <v>45811</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="145"/>
-      <c r="D155" s="143"/>
+      <c r="C155" s="132"/>
+      <c r="D155" s="130"/>
       <c r="AJ155" t="str">
         <f>TRIM(MID(SUBSTITUTE($F155, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ155)-1)*100+1, 100))</f>
         <v/>
@@ -30299,8 +30315,8 @@
         <v>45812</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="145"/>
-      <c r="D156" s="143"/>
+      <c r="C156" s="132"/>
+      <c r="D156" s="130"/>
       <c r="AJ156" t="str">
         <f>TRIM(MID(SUBSTITUTE($F156, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ156)-1)*100+1, 100))</f>
         <v/>
@@ -30375,8 +30391,8 @@
         <v>45813</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="145"/>
-      <c r="D157" s="143"/>
+      <c r="C157" s="132"/>
+      <c r="D157" s="130"/>
       <c r="AJ157" t="str">
         <f>TRIM(MID(SUBSTITUTE($F157, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ157)-1)*100+1, 100))</f>
         <v/>
@@ -30451,8 +30467,8 @@
         <v>45814</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="145"/>
-      <c r="D158" s="143"/>
+      <c r="C158" s="132"/>
+      <c r="D158" s="130"/>
       <c r="AJ158" t="str">
         <f>TRIM(MID(SUBSTITUTE($F158, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ158)-1)*100+1, 100))</f>
         <v/>
@@ -30527,8 +30543,8 @@
         <v>45815</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="145"/>
-      <c r="D159" s="143"/>
+      <c r="C159" s="132"/>
+      <c r="D159" s="130"/>
       <c r="AJ159" t="str">
         <f>TRIM(MID(SUBSTITUTE($F159, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ159)-1)*100+1, 100))</f>
         <v/>
@@ -30603,8 +30619,8 @@
         <v>45816</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="145"/>
-      <c r="D160" s="143"/>
+      <c r="C160" s="132"/>
+      <c r="D160" s="130"/>
       <c r="AJ160" t="str">
         <f>TRIM(MID(SUBSTITUTE($F160, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ160)-1)*100+1, 100))</f>
         <v/>
@@ -30679,8 +30695,8 @@
         <v>45817</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="145"/>
-      <c r="D161" s="143"/>
+      <c r="C161" s="132"/>
+      <c r="D161" s="130"/>
       <c r="AJ161" t="str">
         <f>TRIM(MID(SUBSTITUTE($F161, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ161)-1)*100+1, 100))</f>
         <v/>
@@ -30755,8 +30771,8 @@
         <v>45818</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="145"/>
-      <c r="D162" s="143"/>
+      <c r="C162" s="132"/>
+      <c r="D162" s="130"/>
       <c r="AJ162" t="str">
         <f>TRIM(MID(SUBSTITUTE($F162, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ162)-1)*100+1, 100))</f>
         <v/>
@@ -30831,8 +30847,8 @@
         <v>45819</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="145"/>
-      <c r="D163" s="143"/>
+      <c r="C163" s="132"/>
+      <c r="D163" s="130"/>
       <c r="AJ163" t="str">
         <f>TRIM(MID(SUBSTITUTE($F163, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ163)-1)*100+1, 100))</f>
         <v/>
@@ -30907,8 +30923,8 @@
         <v>45820</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="145"/>
-      <c r="D164" s="143"/>
+      <c r="C164" s="132"/>
+      <c r="D164" s="130"/>
       <c r="AJ164" t="str">
         <f>TRIM(MID(SUBSTITUTE($F164, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ164)-1)*100+1, 100))</f>
         <v/>
@@ -30983,8 +30999,8 @@
         <v>45821</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="145"/>
-      <c r="D165" s="143"/>
+      <c r="C165" s="132"/>
+      <c r="D165" s="130"/>
       <c r="AJ165" t="str">
         <f>TRIM(MID(SUBSTITUTE($F165, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ165)-1)*100+1, 100))</f>
         <v/>
@@ -31059,8 +31075,8 @@
         <v>45822</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="145"/>
-      <c r="D166" s="143"/>
+      <c r="C166" s="132"/>
+      <c r="D166" s="130"/>
       <c r="AJ166" t="str">
         <f>TRIM(MID(SUBSTITUTE($F166, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ166)-1)*100+1, 100))</f>
         <v/>
@@ -31135,8 +31151,8 @@
         <v>45823</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="145"/>
-      <c r="D167" s="143"/>
+      <c r="C167" s="132"/>
+      <c r="D167" s="130"/>
       <c r="AJ167" t="str">
         <f>TRIM(MID(SUBSTITUTE($F167, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ167)-1)*100+1, 100))</f>
         <v/>
@@ -31211,8 +31227,8 @@
         <v>45824</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="145"/>
-      <c r="D168" s="143"/>
+      <c r="C168" s="132"/>
+      <c r="D168" s="130"/>
       <c r="AJ168" t="str">
         <f>TRIM(MID(SUBSTITUTE($F168, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ168)-1)*100+1, 100))</f>
         <v/>
@@ -31287,8 +31303,8 @@
         <v>45825</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="145"/>
-      <c r="D169" s="143"/>
+      <c r="C169" s="132"/>
+      <c r="D169" s="130"/>
       <c r="AJ169" t="str">
         <f>TRIM(MID(SUBSTITUTE($F169, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ169)-1)*100+1, 100))</f>
         <v/>
@@ -31363,8 +31379,8 @@
         <v>45826</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="145"/>
-      <c r="D170" s="143"/>
+      <c r="C170" s="132"/>
+      <c r="D170" s="130"/>
       <c r="AJ170" t="str">
         <f>TRIM(MID(SUBSTITUTE($F170, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ170)-1)*100+1, 100))</f>
         <v/>
@@ -31439,8 +31455,8 @@
         <v>45827</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="145"/>
-      <c r="D171" s="143"/>
+      <c r="C171" s="132"/>
+      <c r="D171" s="130"/>
       <c r="AJ171" t="str">
         <f>TRIM(MID(SUBSTITUTE($F171, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ171)-1)*100+1, 100))</f>
         <v/>
@@ -31515,8 +31531,8 @@
         <v>45828</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="145"/>
-      <c r="D172" s="143"/>
+      <c r="C172" s="132"/>
+      <c r="D172" s="130"/>
       <c r="AJ172" t="str">
         <f>TRIM(MID(SUBSTITUTE($F172, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ172)-1)*100+1, 100))</f>
         <v/>
@@ -31591,8 +31607,8 @@
         <v>45829</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="145"/>
-      <c r="D173" s="143"/>
+      <c r="C173" s="132"/>
+      <c r="D173" s="130"/>
       <c r="AJ173" t="str">
         <f>TRIM(MID(SUBSTITUTE($F173, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ173)-1)*100+1, 100))</f>
         <v/>
@@ -31667,8 +31683,8 @@
         <v>45830</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="145"/>
-      <c r="D174" s="143"/>
+      <c r="C174" s="132"/>
+      <c r="D174" s="130"/>
       <c r="AJ174" t="str">
         <f>TRIM(MID(SUBSTITUTE($F174, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ174)-1)*100+1, 100))</f>
         <v/>
@@ -31743,8 +31759,8 @@
         <v>45831</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="145"/>
-      <c r="D175" s="143"/>
+      <c r="C175" s="132"/>
+      <c r="D175" s="130"/>
       <c r="AJ175" t="str">
         <f>TRIM(MID(SUBSTITUTE($F175, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ175)-1)*100+1, 100))</f>
         <v/>
@@ -31819,8 +31835,8 @@
         <v>45832</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="145"/>
-      <c r="D176" s="143"/>
+      <c r="C176" s="132"/>
+      <c r="D176" s="130"/>
       <c r="AJ176" t="str">
         <f>TRIM(MID(SUBSTITUTE($F176, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ176)-1)*100+1, 100))</f>
         <v/>
@@ -31895,8 +31911,8 @@
         <v>45833</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="145"/>
-      <c r="D177" s="143"/>
+      <c r="C177" s="132"/>
+      <c r="D177" s="130"/>
       <c r="AJ177" t="str">
         <f>TRIM(MID(SUBSTITUTE($F177, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ177)-1)*100+1, 100))</f>
         <v/>
@@ -31971,8 +31987,8 @@
         <v>45834</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="145"/>
-      <c r="D178" s="143"/>
+      <c r="C178" s="132"/>
+      <c r="D178" s="130"/>
       <c r="AJ178" t="str">
         <f>TRIM(MID(SUBSTITUTE($F178, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ178)-1)*100+1, 100))</f>
         <v/>
@@ -32047,8 +32063,8 @@
         <v>45835</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="145"/>
-      <c r="D179" s="143"/>
+      <c r="C179" s="132"/>
+      <c r="D179" s="130"/>
       <c r="AJ179" t="str">
         <f>TRIM(MID(SUBSTITUTE($F179, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ179)-1)*100+1, 100))</f>
         <v/>
@@ -32123,8 +32139,8 @@
         <v>45836</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="145"/>
-      <c r="D180" s="143"/>
+      <c r="C180" s="132"/>
+      <c r="D180" s="130"/>
       <c r="AJ180" t="str">
         <f>TRIM(MID(SUBSTITUTE($F180, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ180)-1)*100+1, 100))</f>
         <v/>
@@ -32199,8 +32215,8 @@
         <v>45837</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="145"/>
-      <c r="D181" s="143"/>
+      <c r="C181" s="132"/>
+      <c r="D181" s="130"/>
       <c r="AJ181" t="str">
         <f>TRIM(MID(SUBSTITUTE($F181, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ181)-1)*100+1, 100))</f>
         <v/>
@@ -32275,8 +32291,8 @@
         <v>45838</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="145"/>
-      <c r="D182" s="143"/>
+      <c r="C182" s="132"/>
+      <c r="D182" s="130"/>
       <c r="AJ182" t="str">
         <f>TRIM(MID(SUBSTITUTE($F182, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ182)-1)*100+1, 100))</f>
         <v/>
@@ -32351,8 +32367,8 @@
         <v>45839</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="145"/>
-      <c r="D183" s="143"/>
+      <c r="C183" s="132"/>
+      <c r="D183" s="130"/>
       <c r="AJ183" t="str">
         <f>TRIM(MID(SUBSTITUTE($F183, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ183)-1)*100+1, 100))</f>
         <v/>
@@ -32427,8 +32443,8 @@
         <v>45840</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="145"/>
-      <c r="D184" s="143"/>
+      <c r="C184" s="132"/>
+      <c r="D184" s="130"/>
       <c r="AJ184" t="str">
         <f>TRIM(MID(SUBSTITUTE($F184, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ184)-1)*100+1, 100))</f>
         <v/>
@@ -32503,8 +32519,8 @@
         <v>45841</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="145"/>
-      <c r="D185" s="143"/>
+      <c r="C185" s="132"/>
+      <c r="D185" s="130"/>
       <c r="AJ185" t="str">
         <f>TRIM(MID(SUBSTITUTE($F185, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ185)-1)*100+1, 100))</f>
         <v/>
@@ -32579,8 +32595,8 @@
         <v>45842</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="145"/>
-      <c r="D186" s="143"/>
+      <c r="C186" s="132"/>
+      <c r="D186" s="130"/>
       <c r="AJ186" t="str">
         <f>TRIM(MID(SUBSTITUTE($F186, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ186)-1)*100+1, 100))</f>
         <v/>
@@ -32655,8 +32671,8 @@
         <v>45843</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="145"/>
-      <c r="D187" s="143"/>
+      <c r="C187" s="132"/>
+      <c r="D187" s="130"/>
       <c r="AJ187" t="str">
         <f>TRIM(MID(SUBSTITUTE($F187, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ187)-1)*100+1, 100))</f>
         <v/>
@@ -32731,8 +32747,8 @@
         <v>45844</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="145"/>
-      <c r="D188" s="143"/>
+      <c r="C188" s="132"/>
+      <c r="D188" s="130"/>
       <c r="AJ188" t="str">
         <f>TRIM(MID(SUBSTITUTE($F188, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ188)-1)*100+1, 100))</f>
         <v/>
@@ -32807,8 +32823,8 @@
         <v>45845</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="145"/>
-      <c r="D189" s="143"/>
+      <c r="C189" s="132"/>
+      <c r="D189" s="130"/>
       <c r="AJ189" t="str">
         <f>TRIM(MID(SUBSTITUTE($F189, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ189)-1)*100+1, 100))</f>
         <v/>
@@ -32883,8 +32899,8 @@
         <v>45846</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="145"/>
-      <c r="D190" s="143"/>
+      <c r="C190" s="132"/>
+      <c r="D190" s="130"/>
       <c r="AJ190" t="str">
         <f>TRIM(MID(SUBSTITUTE($F190, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ190)-1)*100+1, 100))</f>
         <v/>
@@ -32959,8 +32975,8 @@
         <v>45847</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="145"/>
-      <c r="D191" s="143"/>
+      <c r="C191" s="132"/>
+      <c r="D191" s="130"/>
       <c r="AJ191" t="str">
         <f>TRIM(MID(SUBSTITUTE($F191, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ191)-1)*100+1, 100))</f>
         <v/>
@@ -33035,8 +33051,8 @@
         <v>45848</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="145"/>
-      <c r="D192" s="143"/>
+      <c r="C192" s="132"/>
+      <c r="D192" s="130"/>
       <c r="AJ192" t="str">
         <f>TRIM(MID(SUBSTITUTE($F192, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ192)-1)*100+1, 100))</f>
         <v/>
@@ -33111,8 +33127,8 @@
         <v>45849</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="145"/>
-      <c r="D193" s="143"/>
+      <c r="C193" s="132"/>
+      <c r="D193" s="130"/>
       <c r="AJ193" t="str">
         <f>TRIM(MID(SUBSTITUTE($F193, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ193)-1)*100+1, 100))</f>
         <v/>
@@ -33187,8 +33203,8 @@
         <v>45850</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="145"/>
-      <c r="D194" s="143"/>
+      <c r="C194" s="132"/>
+      <c r="D194" s="130"/>
       <c r="AJ194" t="str">
         <f>TRIM(MID(SUBSTITUTE($F194, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ194)-1)*100+1, 100))</f>
         <v/>
@@ -33263,8 +33279,8 @@
         <v>45851</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="145"/>
-      <c r="D195" s="143"/>
+      <c r="C195" s="132"/>
+      <c r="D195" s="130"/>
       <c r="AJ195" t="str">
         <f>TRIM(MID(SUBSTITUTE($F195, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ195)-1)*100+1, 100))</f>
         <v/>
@@ -33339,8 +33355,8 @@
         <v>45852</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="145"/>
-      <c r="D196" s="143"/>
+      <c r="C196" s="132"/>
+      <c r="D196" s="130"/>
       <c r="AJ196" t="str">
         <f>TRIM(MID(SUBSTITUTE($F196, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ196)-1)*100+1, 100))</f>
         <v/>
@@ -33415,8 +33431,8 @@
         <v>45853</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="145"/>
-      <c r="D197" s="143"/>
+      <c r="C197" s="132"/>
+      <c r="D197" s="130"/>
       <c r="AJ197" t="str">
         <f>TRIM(MID(SUBSTITUTE($F197, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ197)-1)*100+1, 100))</f>
         <v/>
@@ -33491,8 +33507,8 @@
         <v>45854</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="145"/>
-      <c r="D198" s="143"/>
+      <c r="C198" s="132"/>
+      <c r="D198" s="130"/>
       <c r="AJ198" t="str">
         <f>TRIM(MID(SUBSTITUTE($F198, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ198)-1)*100+1, 100))</f>
         <v/>
@@ -33567,8 +33583,8 @@
         <v>45855</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="145"/>
-      <c r="D199" s="143"/>
+      <c r="C199" s="132"/>
+      <c r="D199" s="130"/>
       <c r="AJ199" t="str">
         <f>TRIM(MID(SUBSTITUTE($F199, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ199)-1)*100+1, 100))</f>
         <v/>
@@ -33643,8 +33659,8 @@
         <v>45856</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="145"/>
-      <c r="D200" s="143"/>
+      <c r="C200" s="132"/>
+      <c r="D200" s="130"/>
       <c r="AJ200" t="str">
         <f>TRIM(MID(SUBSTITUTE($F200, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ200)-1)*100+1, 100))</f>
         <v/>
@@ -33719,8 +33735,8 @@
         <v>45857</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="145"/>
-      <c r="D201" s="143"/>
+      <c r="C201" s="132"/>
+      <c r="D201" s="130"/>
       <c r="AJ201" t="str">
         <f>TRIM(MID(SUBSTITUTE($F201, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ201)-1)*100+1, 100))</f>
         <v/>
@@ -33795,8 +33811,8 @@
         <v>45858</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="145"/>
-      <c r="D202" s="143"/>
+      <c r="C202" s="132"/>
+      <c r="D202" s="130"/>
       <c r="AJ202" t="str">
         <f>TRIM(MID(SUBSTITUTE($F202, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ202)-1)*100+1, 100))</f>
         <v/>
@@ -33871,8 +33887,8 @@
         <v>45859</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="145"/>
-      <c r="D203" s="143"/>
+      <c r="C203" s="132"/>
+      <c r="D203" s="130"/>
       <c r="AJ203" t="str">
         <f>TRIM(MID(SUBSTITUTE($F203, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ203)-1)*100+1, 100))</f>
         <v/>
@@ -33947,8 +33963,8 @@
         <v>45860</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="145"/>
-      <c r="D204" s="143"/>
+      <c r="C204" s="132"/>
+      <c r="D204" s="130"/>
       <c r="AJ204" t="str">
         <f>TRIM(MID(SUBSTITUTE($F204, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ204)-1)*100+1, 100))</f>
         <v/>
@@ -34023,8 +34039,8 @@
         <v>45861</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="145"/>
-      <c r="D205" s="143"/>
+      <c r="C205" s="132"/>
+      <c r="D205" s="130"/>
       <c r="AJ205" t="str">
         <f>TRIM(MID(SUBSTITUTE($F205, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ205)-1)*100+1, 100))</f>
         <v/>
@@ -34099,8 +34115,8 @@
         <v>45862</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="145"/>
-      <c r="D206" s="143"/>
+      <c r="C206" s="132"/>
+      <c r="D206" s="130"/>
       <c r="AJ206" t="str">
         <f>TRIM(MID(SUBSTITUTE($F206, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ206)-1)*100+1, 100))</f>
         <v/>
@@ -34175,8 +34191,8 @@
         <v>45863</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="145"/>
-      <c r="D207" s="143"/>
+      <c r="C207" s="132"/>
+      <c r="D207" s="130"/>
       <c r="AJ207" t="str">
         <f>TRIM(MID(SUBSTITUTE($F207, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ207)-1)*100+1, 100))</f>
         <v/>
@@ -34251,8 +34267,8 @@
         <v>45864</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="145"/>
-      <c r="D208" s="143"/>
+      <c r="C208" s="132"/>
+      <c r="D208" s="130"/>
       <c r="AJ208" t="str">
         <f>TRIM(MID(SUBSTITUTE($F208, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ208)-1)*100+1, 100))</f>
         <v/>
@@ -34327,8 +34343,8 @@
         <v>45865</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="145"/>
-      <c r="D209" s="143"/>
+      <c r="C209" s="132"/>
+      <c r="D209" s="130"/>
       <c r="AJ209" t="str">
         <f>TRIM(MID(SUBSTITUTE($F209, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ209)-1)*100+1, 100))</f>
         <v/>
@@ -34403,8 +34419,8 @@
         <v>45866</v>
       </c>
       <c r="B210" s="2"/>
-      <c r="C210" s="145"/>
-      <c r="D210" s="143"/>
+      <c r="C210" s="132"/>
+      <c r="D210" s="130"/>
       <c r="AJ210" t="str">
         <f>TRIM(MID(SUBSTITUTE($F210, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ210)-1)*100+1, 100))</f>
         <v/>
@@ -34479,8 +34495,8 @@
         <v>45867</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="145"/>
-      <c r="D211" s="143"/>
+      <c r="C211" s="132"/>
+      <c r="D211" s="130"/>
       <c r="AJ211" t="str">
         <f>TRIM(MID(SUBSTITUTE($F211, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ211)-1)*100+1, 100))</f>
         <v/>
@@ -34555,8 +34571,8 @@
         <v>45868</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="145"/>
-      <c r="D212" s="143"/>
+      <c r="C212" s="132"/>
+      <c r="D212" s="130"/>
       <c r="AJ212" t="str">
         <f>TRIM(MID(SUBSTITUTE($F212, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ212)-1)*100+1, 100))</f>
         <v/>
@@ -34631,8 +34647,8 @@
         <v>45869</v>
       </c>
       <c r="B213" s="2"/>
-      <c r="C213" s="145"/>
-      <c r="D213" s="143"/>
+      <c r="C213" s="132"/>
+      <c r="D213" s="130"/>
       <c r="AJ213" t="str">
         <f>TRIM(MID(SUBSTITUTE($F213, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ213)-1)*100+1, 100))</f>
         <v/>
@@ -34707,8 +34723,8 @@
         <v>45870</v>
       </c>
       <c r="B214" s="2"/>
-      <c r="C214" s="145"/>
-      <c r="D214" s="143"/>
+      <c r="C214" s="132"/>
+      <c r="D214" s="130"/>
       <c r="AJ214" t="str">
         <f>TRIM(MID(SUBSTITUTE($F214, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ214)-1)*100+1, 100))</f>
         <v/>
@@ -34783,8 +34799,8 @@
         <v>45871</v>
       </c>
       <c r="B215" s="2"/>
-      <c r="C215" s="145"/>
-      <c r="D215" s="143"/>
+      <c r="C215" s="132"/>
+      <c r="D215" s="130"/>
       <c r="AJ215" t="str">
         <f>TRIM(MID(SUBSTITUTE($F215, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ215)-1)*100+1, 100))</f>
         <v/>
@@ -34859,8 +34875,8 @@
         <v>45872</v>
       </c>
       <c r="B216" s="2"/>
-      <c r="C216" s="145"/>
-      <c r="D216" s="143"/>
+      <c r="C216" s="132"/>
+      <c r="D216" s="130"/>
       <c r="AJ216" t="str">
         <f>TRIM(MID(SUBSTITUTE($F216, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ216)-1)*100+1, 100))</f>
         <v/>
@@ -34935,8 +34951,8 @@
         <v>45873</v>
       </c>
       <c r="B217" s="2"/>
-      <c r="C217" s="145"/>
-      <c r="D217" s="143"/>
+      <c r="C217" s="132"/>
+      <c r="D217" s="130"/>
       <c r="AJ217" t="str">
         <f>TRIM(MID(SUBSTITUTE($F217, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ217)-1)*100+1, 100))</f>
         <v/>
@@ -35011,8 +35027,8 @@
         <v>45874</v>
       </c>
       <c r="B218" s="2"/>
-      <c r="C218" s="145"/>
-      <c r="D218" s="143"/>
+      <c r="C218" s="132"/>
+      <c r="D218" s="130"/>
       <c r="AJ218" t="str">
         <f>TRIM(MID(SUBSTITUTE($F218, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ218)-1)*100+1, 100))</f>
         <v/>
@@ -35087,8 +35103,8 @@
         <v>45875</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="145"/>
-      <c r="D219" s="143"/>
+      <c r="C219" s="132"/>
+      <c r="D219" s="130"/>
       <c r="AJ219" t="str">
         <f>TRIM(MID(SUBSTITUTE($F219, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ219)-1)*100+1, 100))</f>
         <v/>
@@ -35163,8 +35179,8 @@
         <v>45876</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="145"/>
-      <c r="D220" s="143"/>
+      <c r="C220" s="132"/>
+      <c r="D220" s="130"/>
       <c r="AJ220" t="str">
         <f>TRIM(MID(SUBSTITUTE($F220, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ220)-1)*100+1, 100))</f>
         <v/>
@@ -35239,8 +35255,8 @@
         <v>45877</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="145"/>
-      <c r="D221" s="143"/>
+      <c r="C221" s="132"/>
+      <c r="D221" s="130"/>
       <c r="AJ221" t="str">
         <f>TRIM(MID(SUBSTITUTE($F221, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ221)-1)*100+1, 100))</f>
         <v/>
@@ -35315,8 +35331,8 @@
         <v>45878</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="145"/>
-      <c r="D222" s="143"/>
+      <c r="C222" s="132"/>
+      <c r="D222" s="130"/>
       <c r="AJ222" t="str">
         <f>TRIM(MID(SUBSTITUTE($F222, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ222)-1)*100+1, 100))</f>
         <v/>
@@ -35391,8 +35407,8 @@
         <v>45879</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="145"/>
-      <c r="D223" s="143"/>
+      <c r="C223" s="132"/>
+      <c r="D223" s="130"/>
       <c r="AJ223" t="str">
         <f>TRIM(MID(SUBSTITUTE($F223, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ223)-1)*100+1, 100))</f>
         <v/>
@@ -35467,8 +35483,8 @@
         <v>45880</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="145"/>
-      <c r="D224" s="143"/>
+      <c r="C224" s="132"/>
+      <c r="D224" s="130"/>
       <c r="AJ224" t="str">
         <f>TRIM(MID(SUBSTITUTE($F224, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ224)-1)*100+1, 100))</f>
         <v/>
@@ -35543,8 +35559,8 @@
         <v>45881</v>
       </c>
       <c r="B225" s="2"/>
-      <c r="C225" s="145"/>
-      <c r="D225" s="143"/>
+      <c r="C225" s="132"/>
+      <c r="D225" s="130"/>
       <c r="AJ225" t="str">
         <f>TRIM(MID(SUBSTITUTE($F225, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ225)-1)*100+1, 100))</f>
         <v/>
@@ -35619,8 +35635,8 @@
         <v>45882</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="145"/>
-      <c r="D226" s="143"/>
+      <c r="C226" s="132"/>
+      <c r="D226" s="130"/>
       <c r="AJ226" t="str">
         <f>TRIM(MID(SUBSTITUTE($F226, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ226)-1)*100+1, 100))</f>
         <v/>
@@ -35695,8 +35711,8 @@
         <v>45883</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="145"/>
-      <c r="D227" s="143"/>
+      <c r="C227" s="132"/>
+      <c r="D227" s="130"/>
       <c r="AJ227" t="str">
         <f>TRIM(MID(SUBSTITUTE($F227, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ227)-1)*100+1, 100))</f>
         <v/>
@@ -35771,8 +35787,8 @@
         <v>45884</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="145"/>
-      <c r="D228" s="143"/>
+      <c r="C228" s="132"/>
+      <c r="D228" s="130"/>
       <c r="AJ228" t="str">
         <f>TRIM(MID(SUBSTITUTE($F228, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ228)-1)*100+1, 100))</f>
         <v/>
@@ -35847,8 +35863,8 @@
         <v>45885</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="145"/>
-      <c r="D229" s="143"/>
+      <c r="C229" s="132"/>
+      <c r="D229" s="130"/>
       <c r="AJ229" t="str">
         <f>TRIM(MID(SUBSTITUTE($F229, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ229)-1)*100+1, 100))</f>
         <v/>
@@ -35923,8 +35939,8 @@
         <v>45886</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="145"/>
-      <c r="D230" s="143"/>
+      <c r="C230" s="132"/>
+      <c r="D230" s="130"/>
       <c r="AJ230" t="str">
         <f>TRIM(MID(SUBSTITUTE($F230, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ230)-1)*100+1, 100))</f>
         <v/>
@@ -35999,8 +36015,8 @@
         <v>45887</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="145"/>
-      <c r="D231" s="143"/>
+      <c r="C231" s="132"/>
+      <c r="D231" s="130"/>
       <c r="AJ231" t="str">
         <f>TRIM(MID(SUBSTITUTE($F231, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ231)-1)*100+1, 100))</f>
         <v/>
@@ -36075,8 +36091,8 @@
         <v>45888</v>
       </c>
       <c r="B232" s="2"/>
-      <c r="C232" s="145"/>
-      <c r="D232" s="143"/>
+      <c r="C232" s="132"/>
+      <c r="D232" s="130"/>
       <c r="AJ232" t="str">
         <f>TRIM(MID(SUBSTITUTE($F232, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ232)-1)*100+1, 100))</f>
         <v/>
@@ -36151,8 +36167,8 @@
         <v>45889</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="145"/>
-      <c r="D233" s="143"/>
+      <c r="C233" s="132"/>
+      <c r="D233" s="130"/>
       <c r="AJ233" t="str">
         <f>TRIM(MID(SUBSTITUTE($F233, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ233)-1)*100+1, 100))</f>
         <v/>
@@ -36227,8 +36243,8 @@
         <v>45890</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="145"/>
-      <c r="D234" s="143"/>
+      <c r="C234" s="132"/>
+      <c r="D234" s="130"/>
       <c r="AJ234" t="str">
         <f>TRIM(MID(SUBSTITUTE($F234, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ234)-1)*100+1, 100))</f>
         <v/>
@@ -36303,8 +36319,8 @@
         <v>45891</v>
       </c>
       <c r="B235" s="2"/>
-      <c r="C235" s="145"/>
-      <c r="D235" s="143"/>
+      <c r="C235" s="132"/>
+      <c r="D235" s="130"/>
       <c r="AJ235" t="str">
         <f>TRIM(MID(SUBSTITUTE($F235, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ235)-1)*100+1, 100))</f>
         <v/>
@@ -36379,8 +36395,8 @@
         <v>45892</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="145"/>
-      <c r="D236" s="143"/>
+      <c r="C236" s="132"/>
+      <c r="D236" s="130"/>
       <c r="AJ236" t="str">
         <f>TRIM(MID(SUBSTITUTE($F236, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ236)-1)*100+1, 100))</f>
         <v/>
@@ -36455,8 +36471,8 @@
         <v>45893</v>
       </c>
       <c r="B237" s="2"/>
-      <c r="C237" s="145"/>
-      <c r="D237" s="143"/>
+      <c r="C237" s="132"/>
+      <c r="D237" s="130"/>
       <c r="AJ237" t="str">
         <f>TRIM(MID(SUBSTITUTE($F237, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ237)-1)*100+1, 100))</f>
         <v/>
@@ -36531,8 +36547,8 @@
         <v>45894</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="145"/>
-      <c r="D238" s="143"/>
+      <c r="C238" s="132"/>
+      <c r="D238" s="130"/>
       <c r="AJ238" t="str">
         <f>TRIM(MID(SUBSTITUTE($F238, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ238)-1)*100+1, 100))</f>
         <v/>
@@ -36607,8 +36623,8 @@
         <v>45895</v>
       </c>
       <c r="B239" s="2"/>
-      <c r="C239" s="145"/>
-      <c r="D239" s="143"/>
+      <c r="C239" s="132"/>
+      <c r="D239" s="130"/>
       <c r="AJ239" t="str">
         <f>TRIM(MID(SUBSTITUTE($F239, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ239)-1)*100+1, 100))</f>
         <v/>
@@ -36683,8 +36699,8 @@
         <v>45896</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="145"/>
-      <c r="D240" s="143"/>
+      <c r="C240" s="132"/>
+      <c r="D240" s="130"/>
       <c r="AJ240" t="str">
         <f>TRIM(MID(SUBSTITUTE($F240, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ240)-1)*100+1, 100))</f>
         <v/>
@@ -36759,8 +36775,8 @@
         <v>45897</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="145"/>
-      <c r="D241" s="143"/>
+      <c r="C241" s="132"/>
+      <c r="D241" s="130"/>
       <c r="AJ241" t="str">
         <f>TRIM(MID(SUBSTITUTE($F241, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ241)-1)*100+1, 100))</f>
         <v/>
@@ -36835,8 +36851,8 @@
         <v>45898</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="145"/>
-      <c r="D242" s="143"/>
+      <c r="C242" s="132"/>
+      <c r="D242" s="130"/>
       <c r="AJ242" t="str">
         <f>TRIM(MID(SUBSTITUTE($F242, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ242)-1)*100+1, 100))</f>
         <v/>
@@ -36911,8 +36927,8 @@
         <v>45899</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="145"/>
-      <c r="D243" s="143"/>
+      <c r="C243" s="132"/>
+      <c r="D243" s="130"/>
       <c r="AJ243" t="str">
         <f>TRIM(MID(SUBSTITUTE($F243, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ243)-1)*100+1, 100))</f>
         <v/>
@@ -36987,8 +37003,8 @@
         <v>45900</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="145"/>
-      <c r="D244" s="143"/>
+      <c r="C244" s="132"/>
+      <c r="D244" s="130"/>
       <c r="AJ244" t="str">
         <f>TRIM(MID(SUBSTITUTE($F244, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ244)-1)*100+1, 100))</f>
         <v/>
@@ -37063,8 +37079,8 @@
         <v>45901</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="145"/>
-      <c r="D245" s="143"/>
+      <c r="C245" s="132"/>
+      <c r="D245" s="130"/>
       <c r="AJ245" t="str">
         <f>TRIM(MID(SUBSTITUTE($F245, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ245)-1)*100+1, 100))</f>
         <v/>
@@ -37139,8 +37155,8 @@
         <v>45902</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="145"/>
-      <c r="D246" s="143"/>
+      <c r="C246" s="132"/>
+      <c r="D246" s="130"/>
       <c r="AJ246" t="str">
         <f>TRIM(MID(SUBSTITUTE($F246, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ246)-1)*100+1, 100))</f>
         <v/>
@@ -37215,8 +37231,8 @@
         <v>45903</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="145"/>
-      <c r="D247" s="143"/>
+      <c r="C247" s="132"/>
+      <c r="D247" s="130"/>
       <c r="AJ247" t="str">
         <f>TRIM(MID(SUBSTITUTE($F247, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ247)-1)*100+1, 100))</f>
         <v/>
@@ -37291,8 +37307,8 @@
         <v>45904</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="145"/>
-      <c r="D248" s="143"/>
+      <c r="C248" s="132"/>
+      <c r="D248" s="130"/>
       <c r="AJ248" t="str">
         <f>TRIM(MID(SUBSTITUTE($F248, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ248)-1)*100+1, 100))</f>
         <v/>
@@ -37367,8 +37383,8 @@
         <v>45905</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="145"/>
-      <c r="D249" s="143"/>
+      <c r="C249" s="132"/>
+      <c r="D249" s="130"/>
       <c r="AJ249" t="str">
         <f>TRIM(MID(SUBSTITUTE($F249, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ249)-1)*100+1, 100))</f>
         <v/>
@@ -37443,8 +37459,8 @@
         <v>45906</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="145"/>
-      <c r="D250" s="143"/>
+      <c r="C250" s="132"/>
+      <c r="D250" s="130"/>
       <c r="AJ250" t="str">
         <f>TRIM(MID(SUBSTITUTE($F250, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ250)-1)*100+1, 100))</f>
         <v/>
@@ -37519,8 +37535,8 @@
         <v>45907</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="145"/>
-      <c r="D251" s="143"/>
+      <c r="C251" s="132"/>
+      <c r="D251" s="130"/>
       <c r="AJ251" t="str">
         <f>TRIM(MID(SUBSTITUTE($F251, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ251)-1)*100+1, 100))</f>
         <v/>
@@ -37595,8 +37611,8 @@
         <v>45908</v>
       </c>
       <c r="B252" s="2"/>
-      <c r="C252" s="145"/>
-      <c r="D252" s="143"/>
+      <c r="C252" s="132"/>
+      <c r="D252" s="130"/>
       <c r="AJ252" t="str">
         <f>TRIM(MID(SUBSTITUTE($F252, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ252)-1)*100+1, 100))</f>
         <v/>
@@ -37671,8 +37687,8 @@
         <v>45909</v>
       </c>
       <c r="B253" s="2"/>
-      <c r="C253" s="145"/>
-      <c r="D253" s="143"/>
+      <c r="C253" s="132"/>
+      <c r="D253" s="130"/>
       <c r="AJ253" t="str">
         <f>TRIM(MID(SUBSTITUTE($F253, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ253)-1)*100+1, 100))</f>
         <v/>
@@ -37747,8 +37763,8 @@
         <v>45910</v>
       </c>
       <c r="B254" s="2"/>
-      <c r="C254" s="145"/>
-      <c r="D254" s="143"/>
+      <c r="C254" s="132"/>
+      <c r="D254" s="130"/>
       <c r="AJ254" t="str">
         <f>TRIM(MID(SUBSTITUTE($F254, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ254)-1)*100+1, 100))</f>
         <v/>
@@ -37823,8 +37839,8 @@
         <v>45911</v>
       </c>
       <c r="B255" s="2"/>
-      <c r="C255" s="145"/>
-      <c r="D255" s="143"/>
+      <c r="C255" s="132"/>
+      <c r="D255" s="130"/>
       <c r="AJ255" t="str">
         <f>TRIM(MID(SUBSTITUTE($F255, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ255)-1)*100+1, 100))</f>
         <v/>
@@ -37899,8 +37915,8 @@
         <v>45912</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="145"/>
-      <c r="D256" s="143"/>
+      <c r="C256" s="132"/>
+      <c r="D256" s="130"/>
       <c r="AJ256" t="str">
         <f>TRIM(MID(SUBSTITUTE($F256, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ256)-1)*100+1, 100))</f>
         <v/>
@@ -37975,8 +37991,8 @@
         <v>45913</v>
       </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="145"/>
-      <c r="D257" s="143"/>
+      <c r="C257" s="132"/>
+      <c r="D257" s="130"/>
       <c r="AJ257" t="str">
         <f>TRIM(MID(SUBSTITUTE($F257, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ257)-1)*100+1, 100))</f>
         <v/>
@@ -38051,8 +38067,8 @@
         <v>45914</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="145"/>
-      <c r="D258" s="143"/>
+      <c r="C258" s="132"/>
+      <c r="D258" s="130"/>
       <c r="AJ258" t="str">
         <f>TRIM(MID(SUBSTITUTE($F258, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ258)-1)*100+1, 100))</f>
         <v/>
@@ -38127,8 +38143,8 @@
         <v>45915</v>
       </c>
       <c r="B259" s="2"/>
-      <c r="C259" s="145"/>
-      <c r="D259" s="143"/>
+      <c r="C259" s="132"/>
+      <c r="D259" s="130"/>
       <c r="AJ259" t="str">
         <f>TRIM(MID(SUBSTITUTE($F259, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ259)-1)*100+1, 100))</f>
         <v/>
@@ -38203,8 +38219,8 @@
         <v>45916</v>
       </c>
       <c r="B260" s="2"/>
-      <c r="C260" s="145"/>
-      <c r="D260" s="143"/>
+      <c r="C260" s="132"/>
+      <c r="D260" s="130"/>
       <c r="AJ260" t="str">
         <f>TRIM(MID(SUBSTITUTE($F260, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ260)-1)*100+1, 100))</f>
         <v/>
@@ -38279,8 +38295,8 @@
         <v>45917</v>
       </c>
       <c r="B261" s="2"/>
-      <c r="C261" s="145"/>
-      <c r="D261" s="143"/>
+      <c r="C261" s="132"/>
+      <c r="D261" s="130"/>
       <c r="AJ261" t="str">
         <f>TRIM(MID(SUBSTITUTE($F261, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ261)-1)*100+1, 100))</f>
         <v/>
@@ -38355,8 +38371,8 @@
         <v>45918</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="145"/>
-      <c r="D262" s="143"/>
+      <c r="C262" s="132"/>
+      <c r="D262" s="130"/>
       <c r="AJ262" t="str">
         <f>TRIM(MID(SUBSTITUTE($F262, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ262)-1)*100+1, 100))</f>
         <v/>
@@ -38431,8 +38447,8 @@
         <v>45919</v>
       </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="145"/>
-      <c r="D263" s="143"/>
+      <c r="C263" s="132"/>
+      <c r="D263" s="130"/>
       <c r="AJ263" t="str">
         <f>TRIM(MID(SUBSTITUTE($F263, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ263)-1)*100+1, 100))</f>
         <v/>
@@ -38507,8 +38523,8 @@
         <v>45920</v>
       </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="145"/>
-      <c r="D264" s="143"/>
+      <c r="C264" s="132"/>
+      <c r="D264" s="130"/>
       <c r="AJ264" t="str">
         <f>TRIM(MID(SUBSTITUTE($F264, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ264)-1)*100+1, 100))</f>
         <v/>
@@ -38583,8 +38599,8 @@
         <v>45921</v>
       </c>
       <c r="B265" s="2"/>
-      <c r="C265" s="145"/>
-      <c r="D265" s="143"/>
+      <c r="C265" s="132"/>
+      <c r="D265" s="130"/>
       <c r="AJ265" t="str">
         <f>TRIM(MID(SUBSTITUTE($F265, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ265)-1)*100+1, 100))</f>
         <v/>
@@ -38659,8 +38675,8 @@
         <v>45922</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="145"/>
-      <c r="D266" s="143"/>
+      <c r="C266" s="132"/>
+      <c r="D266" s="130"/>
       <c r="AJ266" t="str">
         <f>TRIM(MID(SUBSTITUTE($F266, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ266)-1)*100+1, 100))</f>
         <v/>
@@ -38735,8 +38751,8 @@
         <v>45923</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="145"/>
-      <c r="D267" s="143"/>
+      <c r="C267" s="132"/>
+      <c r="D267" s="130"/>
       <c r="AJ267" t="str">
         <f>TRIM(MID(SUBSTITUTE($F267, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ267)-1)*100+1, 100))</f>
         <v/>
@@ -38811,8 +38827,8 @@
         <v>45924</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="145"/>
-      <c r="D268" s="143"/>
+      <c r="C268" s="132"/>
+      <c r="D268" s="130"/>
       <c r="AJ268" t="str">
         <f>TRIM(MID(SUBSTITUTE($F268, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ268)-1)*100+1, 100))</f>
         <v/>
@@ -38887,8 +38903,8 @@
         <v>45925</v>
       </c>
       <c r="B269" s="2"/>
-      <c r="C269" s="145"/>
-      <c r="D269" s="143"/>
+      <c r="C269" s="132"/>
+      <c r="D269" s="130"/>
       <c r="AJ269" t="str">
         <f>TRIM(MID(SUBSTITUTE($F269, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ269)-1)*100+1, 100))</f>
         <v/>
@@ -38963,8 +38979,8 @@
         <v>45926</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270" s="145"/>
-      <c r="D270" s="143"/>
+      <c r="C270" s="132"/>
+      <c r="D270" s="130"/>
       <c r="AJ270" t="str">
         <f>TRIM(MID(SUBSTITUTE($F270, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ270)-1)*100+1, 100))</f>
         <v/>
@@ -39039,8 +39055,8 @@
         <v>45927</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="145"/>
-      <c r="D271" s="143"/>
+      <c r="C271" s="132"/>
+      <c r="D271" s="130"/>
       <c r="AJ271" t="str">
         <f>TRIM(MID(SUBSTITUTE($F271, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ271)-1)*100+1, 100))</f>
         <v/>
@@ -39115,8 +39131,8 @@
         <v>45928</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="145"/>
-      <c r="D272" s="143"/>
+      <c r="C272" s="132"/>
+      <c r="D272" s="130"/>
       <c r="AJ272" t="str">
         <f>TRIM(MID(SUBSTITUTE($F272, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ272)-1)*100+1, 100))</f>
         <v/>
@@ -39191,8 +39207,8 @@
         <v>45929</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="145"/>
-      <c r="D273" s="143"/>
+      <c r="C273" s="132"/>
+      <c r="D273" s="130"/>
       <c r="AJ273" t="str">
         <f>TRIM(MID(SUBSTITUTE($F273, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ273)-1)*100+1, 100))</f>
         <v/>
@@ -39267,8 +39283,8 @@
         <v>45930</v>
       </c>
       <c r="B274" s="2"/>
-      <c r="C274" s="145"/>
-      <c r="D274" s="143"/>
+      <c r="C274" s="132"/>
+      <c r="D274" s="130"/>
       <c r="AJ274" t="str">
         <f>TRIM(MID(SUBSTITUTE($F274, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ274)-1)*100+1, 100))</f>
         <v/>
@@ -39343,8 +39359,8 @@
         <v>45931</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="145"/>
-      <c r="D275" s="143"/>
+      <c r="C275" s="132"/>
+      <c r="D275" s="130"/>
       <c r="AJ275" t="str">
         <f>TRIM(MID(SUBSTITUTE($F275, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ275)-1)*100+1, 100))</f>
         <v/>
@@ -39419,8 +39435,8 @@
         <v>45932</v>
       </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="145"/>
-      <c r="D276" s="143"/>
+      <c r="C276" s="132"/>
+      <c r="D276" s="130"/>
       <c r="AJ276" t="str">
         <f>TRIM(MID(SUBSTITUTE($F276, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ276)-1)*100+1, 100))</f>
         <v/>
@@ -39495,8 +39511,8 @@
         <v>45933</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="145"/>
-      <c r="D277" s="143"/>
+      <c r="C277" s="132"/>
+      <c r="D277" s="130"/>
       <c r="AJ277" t="str">
         <f>TRIM(MID(SUBSTITUTE($F277, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ277)-1)*100+1, 100))</f>
         <v/>
@@ -39571,8 +39587,8 @@
         <v>45934</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="145"/>
-      <c r="D278" s="143"/>
+      <c r="C278" s="132"/>
+      <c r="D278" s="130"/>
       <c r="AJ278" t="str">
         <f>TRIM(MID(SUBSTITUTE($F278, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ278)-1)*100+1, 100))</f>
         <v/>
@@ -39647,8 +39663,8 @@
         <v>45935</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="145"/>
-      <c r="D279" s="143"/>
+      <c r="C279" s="132"/>
+      <c r="D279" s="130"/>
       <c r="AJ279" t="str">
         <f>TRIM(MID(SUBSTITUTE($F279, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ279)-1)*100+1, 100))</f>
         <v/>
@@ -39723,8 +39739,8 @@
         <v>45936</v>
       </c>
       <c r="B280" s="2"/>
-      <c r="C280" s="145"/>
-      <c r="D280" s="143"/>
+      <c r="C280" s="132"/>
+      <c r="D280" s="130"/>
       <c r="AJ280" t="str">
         <f>TRIM(MID(SUBSTITUTE($F280, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ280)-1)*100+1, 100))</f>
         <v/>
@@ -39799,8 +39815,8 @@
         <v>45937</v>
       </c>
       <c r="B281" s="2"/>
-      <c r="C281" s="145"/>
-      <c r="D281" s="143"/>
+      <c r="C281" s="132"/>
+      <c r="D281" s="130"/>
       <c r="AJ281" t="str">
         <f>TRIM(MID(SUBSTITUTE($F281, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ281)-1)*100+1, 100))</f>
         <v/>
@@ -39875,8 +39891,8 @@
         <v>45938</v>
       </c>
       <c r="B282" s="2"/>
-      <c r="C282" s="145"/>
-      <c r="D282" s="143"/>
+      <c r="C282" s="132"/>
+      <c r="D282" s="130"/>
       <c r="AJ282" t="str">
         <f>TRIM(MID(SUBSTITUTE($F282, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ282)-1)*100+1, 100))</f>
         <v/>
@@ -39951,8 +39967,8 @@
         <v>45939</v>
       </c>
       <c r="B283" s="2"/>
-      <c r="C283" s="145"/>
-      <c r="D283" s="143"/>
+      <c r="C283" s="132"/>
+      <c r="D283" s="130"/>
       <c r="AJ283" t="str">
         <f>TRIM(MID(SUBSTITUTE($F283, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ283)-1)*100+1, 100))</f>
         <v/>
@@ -40027,8 +40043,8 @@
         <v>45940</v>
       </c>
       <c r="B284" s="2"/>
-      <c r="C284" s="145"/>
-      <c r="D284" s="143"/>
+      <c r="C284" s="132"/>
+      <c r="D284" s="130"/>
       <c r="AJ284" t="str">
         <f>TRIM(MID(SUBSTITUTE($F284, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ284)-1)*100+1, 100))</f>
         <v/>
@@ -40103,8 +40119,8 @@
         <v>45941</v>
       </c>
       <c r="B285" s="2"/>
-      <c r="C285" s="145"/>
-      <c r="D285" s="143"/>
+      <c r="C285" s="132"/>
+      <c r="D285" s="130"/>
       <c r="AJ285" t="str">
         <f>TRIM(MID(SUBSTITUTE($F285, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ285)-1)*100+1, 100))</f>
         <v/>
@@ -40179,8 +40195,8 @@
         <v>45942</v>
       </c>
       <c r="B286" s="2"/>
-      <c r="C286" s="145"/>
-      <c r="D286" s="143"/>
+      <c r="C286" s="132"/>
+      <c r="D286" s="130"/>
       <c r="AJ286" t="str">
         <f>TRIM(MID(SUBSTITUTE($F286, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ286)-1)*100+1, 100))</f>
         <v/>
@@ -40255,8 +40271,8 @@
         <v>45943</v>
       </c>
       <c r="B287" s="2"/>
-      <c r="C287" s="145"/>
-      <c r="D287" s="143"/>
+      <c r="C287" s="132"/>
+      <c r="D287" s="130"/>
       <c r="AJ287" t="str">
         <f>TRIM(MID(SUBSTITUTE($F287, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ287)-1)*100+1, 100))</f>
         <v/>
@@ -40331,8 +40347,8 @@
         <v>45944</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="145"/>
-      <c r="D288" s="143"/>
+      <c r="C288" s="132"/>
+      <c r="D288" s="130"/>
       <c r="AJ288" t="str">
         <f>TRIM(MID(SUBSTITUTE($F288, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ288)-1)*100+1, 100))</f>
         <v/>
@@ -40407,8 +40423,8 @@
         <v>45945</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="145"/>
-      <c r="D289" s="143"/>
+      <c r="C289" s="132"/>
+      <c r="D289" s="130"/>
       <c r="AJ289" t="str">
         <f>TRIM(MID(SUBSTITUTE($F289, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ289)-1)*100+1, 100))</f>
         <v/>
@@ -40483,8 +40499,8 @@
         <v>45946</v>
       </c>
       <c r="B290" s="2"/>
-      <c r="C290" s="145"/>
-      <c r="D290" s="143"/>
+      <c r="C290" s="132"/>
+      <c r="D290" s="130"/>
       <c r="AJ290" t="str">
         <f>TRIM(MID(SUBSTITUTE($F290, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ290)-1)*100+1, 100))</f>
         <v/>
@@ -40559,8 +40575,8 @@
         <v>45947</v>
       </c>
       <c r="B291" s="2"/>
-      <c r="C291" s="145"/>
-      <c r="D291" s="143"/>
+      <c r="C291" s="132"/>
+      <c r="D291" s="130"/>
       <c r="AJ291" t="str">
         <f>TRIM(MID(SUBSTITUTE($F291, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ291)-1)*100+1, 100))</f>
         <v/>
@@ -40635,8 +40651,8 @@
         <v>45948</v>
       </c>
       <c r="B292" s="2"/>
-      <c r="C292" s="145"/>
-      <c r="D292" s="143"/>
+      <c r="C292" s="132"/>
+      <c r="D292" s="130"/>
       <c r="AJ292" t="str">
         <f>TRIM(MID(SUBSTITUTE($F292, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ292)-1)*100+1, 100))</f>
         <v/>
@@ -40711,8 +40727,8 @@
         <v>45949</v>
       </c>
       <c r="B293" s="2"/>
-      <c r="C293" s="145"/>
-      <c r="D293" s="143"/>
+      <c r="C293" s="132"/>
+      <c r="D293" s="130"/>
       <c r="AJ293" t="str">
         <f>TRIM(MID(SUBSTITUTE($F293, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ293)-1)*100+1, 100))</f>
         <v/>
@@ -40787,8 +40803,8 @@
         <v>45950</v>
       </c>
       <c r="B294" s="2"/>
-      <c r="C294" s="145"/>
-      <c r="D294" s="143"/>
+      <c r="C294" s="132"/>
+      <c r="D294" s="130"/>
       <c r="AJ294" t="str">
         <f>TRIM(MID(SUBSTITUTE($F294, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ294)-1)*100+1, 100))</f>
         <v/>
@@ -40863,8 +40879,8 @@
         <v>45951</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="145"/>
-      <c r="D295" s="143"/>
+      <c r="C295" s="132"/>
+      <c r="D295" s="130"/>
       <c r="AJ295" t="str">
         <f>TRIM(MID(SUBSTITUTE($F295, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ295)-1)*100+1, 100))</f>
         <v/>
@@ -40939,8 +40955,8 @@
         <v>45952</v>
       </c>
       <c r="B296" s="2"/>
-      <c r="C296" s="145"/>
-      <c r="D296" s="143"/>
+      <c r="C296" s="132"/>
+      <c r="D296" s="130"/>
       <c r="AJ296" t="str">
         <f>TRIM(MID(SUBSTITUTE($F296, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ296)-1)*100+1, 100))</f>
         <v/>
@@ -41015,8 +41031,8 @@
         <v>45953</v>
       </c>
       <c r="B297" s="2"/>
-      <c r="C297" s="145"/>
-      <c r="D297" s="143"/>
+      <c r="C297" s="132"/>
+      <c r="D297" s="130"/>
       <c r="AJ297" t="str">
         <f>TRIM(MID(SUBSTITUTE($F297, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ297)-1)*100+1, 100))</f>
         <v/>
@@ -41091,8 +41107,8 @@
         <v>45954</v>
       </c>
       <c r="B298" s="2"/>
-      <c r="C298" s="145"/>
-      <c r="D298" s="143"/>
+      <c r="C298" s="132"/>
+      <c r="D298" s="130"/>
       <c r="AJ298" t="str">
         <f>TRIM(MID(SUBSTITUTE($F298, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ298)-1)*100+1, 100))</f>
         <v/>
@@ -41167,8 +41183,8 @@
         <v>45955</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="145"/>
-      <c r="D299" s="143"/>
+      <c r="C299" s="132"/>
+      <c r="D299" s="130"/>
       <c r="AJ299" t="str">
         <f>TRIM(MID(SUBSTITUTE($F299, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ299)-1)*100+1, 100))</f>
         <v/>
@@ -41243,8 +41259,8 @@
         <v>45956</v>
       </c>
       <c r="B300" s="2"/>
-      <c r="C300" s="145"/>
-      <c r="D300" s="143"/>
+      <c r="C300" s="132"/>
+      <c r="D300" s="130"/>
       <c r="AJ300" t="str">
         <f>TRIM(MID(SUBSTITUTE($F300, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ300)-1)*100+1, 100))</f>
         <v/>
@@ -41319,8 +41335,8 @@
         <v>45957</v>
       </c>
       <c r="B301" s="2"/>
-      <c r="C301" s="145"/>
-      <c r="D301" s="143"/>
+      <c r="C301" s="132"/>
+      <c r="D301" s="130"/>
       <c r="AJ301" t="str">
         <f>TRIM(MID(SUBSTITUTE($F301, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ301)-1)*100+1, 100))</f>
         <v/>
@@ -41395,8 +41411,8 @@
         <v>45958</v>
       </c>
       <c r="B302" s="2"/>
-      <c r="C302" s="145"/>
-      <c r="D302" s="143"/>
+      <c r="C302" s="132"/>
+      <c r="D302" s="130"/>
       <c r="AJ302" t="str">
         <f>TRIM(MID(SUBSTITUTE($F302, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ302)-1)*100+1, 100))</f>
         <v/>
@@ -41471,8 +41487,8 @@
         <v>45959</v>
       </c>
       <c r="B303" s="2"/>
-      <c r="C303" s="145"/>
-      <c r="D303" s="143"/>
+      <c r="C303" s="132"/>
+      <c r="D303" s="130"/>
       <c r="AJ303" t="str">
         <f>TRIM(MID(SUBSTITUTE($F303, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ303)-1)*100+1, 100))</f>
         <v/>
@@ -41547,8 +41563,8 @@
         <v>45960</v>
       </c>
       <c r="B304" s="2"/>
-      <c r="C304" s="145"/>
-      <c r="D304" s="143"/>
+      <c r="C304" s="132"/>
+      <c r="D304" s="130"/>
       <c r="AJ304" t="str">
         <f>TRIM(MID(SUBSTITUTE($F304, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ304)-1)*100+1, 100))</f>
         <v/>
@@ -41623,8 +41639,8 @@
         <v>45961</v>
       </c>
       <c r="B305" s="2"/>
-      <c r="C305" s="145"/>
-      <c r="D305" s="143"/>
+      <c r="C305" s="132"/>
+      <c r="D305" s="130"/>
       <c r="AJ305" t="str">
         <f>TRIM(MID(SUBSTITUTE($F305, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ305)-1)*100+1, 100))</f>
         <v/>
@@ -41699,8 +41715,8 @@
         <v>45962</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="145"/>
-      <c r="D306" s="143"/>
+      <c r="C306" s="132"/>
+      <c r="D306" s="130"/>
       <c r="AJ306" t="str">
         <f>TRIM(MID(SUBSTITUTE($F306, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ306)-1)*100+1, 100))</f>
         <v/>
@@ -41775,8 +41791,8 @@
         <v>45963</v>
       </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="145"/>
-      <c r="D307" s="143"/>
+      <c r="C307" s="132"/>
+      <c r="D307" s="130"/>
       <c r="AJ307" t="str">
         <f>TRIM(MID(SUBSTITUTE($F307, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ307)-1)*100+1, 100))</f>
         <v/>
@@ -41851,8 +41867,8 @@
         <v>45964</v>
       </c>
       <c r="B308" s="2"/>
-      <c r="C308" s="145"/>
-      <c r="D308" s="143"/>
+      <c r="C308" s="132"/>
+      <c r="D308" s="130"/>
       <c r="AJ308" t="str">
         <f>TRIM(MID(SUBSTITUTE($F308, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ308)-1)*100+1, 100))</f>
         <v/>
@@ -41927,8 +41943,8 @@
         <v>45965</v>
       </c>
       <c r="B309" s="2"/>
-      <c r="C309" s="145"/>
-      <c r="D309" s="143"/>
+      <c r="C309" s="132"/>
+      <c r="D309" s="130"/>
       <c r="AJ309" t="str">
         <f>TRIM(MID(SUBSTITUTE($F309, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ309)-1)*100+1, 100))</f>
         <v/>
@@ -42003,8 +42019,8 @@
         <v>45966</v>
       </c>
       <c r="B310" s="2"/>
-      <c r="C310" s="145"/>
-      <c r="D310" s="143"/>
+      <c r="C310" s="132"/>
+      <c r="D310" s="130"/>
       <c r="AJ310" t="str">
         <f>TRIM(MID(SUBSTITUTE($F310, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ310)-1)*100+1, 100))</f>
         <v/>
@@ -42079,8 +42095,8 @@
         <v>45967</v>
       </c>
       <c r="B311" s="2"/>
-      <c r="C311" s="145"/>
-      <c r="D311" s="143"/>
+      <c r="C311" s="132"/>
+      <c r="D311" s="130"/>
       <c r="AJ311" t="str">
         <f>TRIM(MID(SUBSTITUTE($F311, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ311)-1)*100+1, 100))</f>
         <v/>
@@ -42155,8 +42171,8 @@
         <v>45968</v>
       </c>
       <c r="B312" s="2"/>
-      <c r="C312" s="145"/>
-      <c r="D312" s="143"/>
+      <c r="C312" s="132"/>
+      <c r="D312" s="130"/>
       <c r="AJ312" t="str">
         <f>TRIM(MID(SUBSTITUTE($F312, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ312)-1)*100+1, 100))</f>
         <v/>
@@ -42231,8 +42247,8 @@
         <v>45969</v>
       </c>
       <c r="B313" s="2"/>
-      <c r="C313" s="145"/>
-      <c r="D313" s="143"/>
+      <c r="C313" s="132"/>
+      <c r="D313" s="130"/>
       <c r="AJ313" t="str">
         <f>TRIM(MID(SUBSTITUTE($F313, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ313)-1)*100+1, 100))</f>
         <v/>
@@ -42307,8 +42323,8 @@
         <v>45970</v>
       </c>
       <c r="B314" s="2"/>
-      <c r="C314" s="145"/>
-      <c r="D314" s="143"/>
+      <c r="C314" s="132"/>
+      <c r="D314" s="130"/>
       <c r="AJ314" t="str">
         <f>TRIM(MID(SUBSTITUTE($F314, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ314)-1)*100+1, 100))</f>
         <v/>
@@ -42383,8 +42399,8 @@
         <v>45971</v>
       </c>
       <c r="B315" s="2"/>
-      <c r="C315" s="145"/>
-      <c r="D315" s="143"/>
+      <c r="C315" s="132"/>
+      <c r="D315" s="130"/>
       <c r="AJ315" t="str">
         <f>TRIM(MID(SUBSTITUTE($F315, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ315)-1)*100+1, 100))</f>
         <v/>
@@ -42459,8 +42475,8 @@
         <v>45972</v>
       </c>
       <c r="B316" s="2"/>
-      <c r="C316" s="145"/>
-      <c r="D316" s="143"/>
+      <c r="C316" s="132"/>
+      <c r="D316" s="130"/>
       <c r="AJ316" t="str">
         <f>TRIM(MID(SUBSTITUTE($F316, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ316)-1)*100+1, 100))</f>
         <v/>
@@ -42535,8 +42551,8 @@
         <v>45973</v>
       </c>
       <c r="B317" s="2"/>
-      <c r="C317" s="145"/>
-      <c r="D317" s="143"/>
+      <c r="C317" s="132"/>
+      <c r="D317" s="130"/>
       <c r="AJ317" t="str">
         <f>TRIM(MID(SUBSTITUTE($F317, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ317)-1)*100+1, 100))</f>
         <v/>
@@ -42611,8 +42627,8 @@
         <v>45974</v>
       </c>
       <c r="B318" s="2"/>
-      <c r="C318" s="145"/>
-      <c r="D318" s="143"/>
+      <c r="C318" s="132"/>
+      <c r="D318" s="130"/>
       <c r="AJ318" t="str">
         <f>TRIM(MID(SUBSTITUTE($F318, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ318)-1)*100+1, 100))</f>
         <v/>
@@ -42687,8 +42703,8 @@
         <v>45975</v>
       </c>
       <c r="B319" s="2"/>
-      <c r="C319" s="145"/>
-      <c r="D319" s="143"/>
+      <c r="C319" s="132"/>
+      <c r="D319" s="130"/>
       <c r="AJ319" t="str">
         <f>TRIM(MID(SUBSTITUTE($F319, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ319)-1)*100+1, 100))</f>
         <v/>
@@ -42763,8 +42779,8 @@
         <v>45976</v>
       </c>
       <c r="B320" s="2"/>
-      <c r="C320" s="145"/>
-      <c r="D320" s="143"/>
+      <c r="C320" s="132"/>
+      <c r="D320" s="130"/>
       <c r="AJ320" t="str">
         <f>TRIM(MID(SUBSTITUTE($F320, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ320)-1)*100+1, 100))</f>
         <v/>
@@ -42839,8 +42855,8 @@
         <v>45977</v>
       </c>
       <c r="B321" s="2"/>
-      <c r="C321" s="145"/>
-      <c r="D321" s="143"/>
+      <c r="C321" s="132"/>
+      <c r="D321" s="130"/>
       <c r="AJ321" t="str">
         <f>TRIM(MID(SUBSTITUTE($F321, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ321)-1)*100+1, 100))</f>
         <v/>
@@ -42915,8 +42931,8 @@
         <v>45978</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="145"/>
-      <c r="D322" s="143"/>
+      <c r="C322" s="132"/>
+      <c r="D322" s="130"/>
       <c r="AJ322" t="str">
         <f>TRIM(MID(SUBSTITUTE($F322, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ322)-1)*100+1, 100))</f>
         <v/>
@@ -42991,8 +43007,8 @@
         <v>45979</v>
       </c>
       <c r="B323" s="2"/>
-      <c r="C323" s="145"/>
-      <c r="D323" s="143"/>
+      <c r="C323" s="132"/>
+      <c r="D323" s="130"/>
       <c r="AJ323" t="str">
         <f>TRIM(MID(SUBSTITUTE($F323, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ323)-1)*100+1, 100))</f>
         <v/>
@@ -43067,8 +43083,8 @@
         <v>45980</v>
       </c>
       <c r="B324" s="2"/>
-      <c r="C324" s="145"/>
-      <c r="D324" s="143"/>
+      <c r="C324" s="132"/>
+      <c r="D324" s="130"/>
       <c r="AJ324" t="str">
         <f>TRIM(MID(SUBSTITUTE($F324, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ324)-1)*100+1, 100))</f>
         <v/>
@@ -43143,8 +43159,8 @@
         <v>45981</v>
       </c>
       <c r="B325" s="2"/>
-      <c r="C325" s="145"/>
-      <c r="D325" s="143"/>
+      <c r="C325" s="132"/>
+      <c r="D325" s="130"/>
       <c r="AJ325" t="str">
         <f>TRIM(MID(SUBSTITUTE($F325, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ325)-1)*100+1, 100))</f>
         <v/>
@@ -43219,8 +43235,8 @@
         <v>45982</v>
       </c>
       <c r="B326" s="2"/>
-      <c r="C326" s="145"/>
-      <c r="D326" s="143"/>
+      <c r="C326" s="132"/>
+      <c r="D326" s="130"/>
       <c r="AJ326" t="str">
         <f>TRIM(MID(SUBSTITUTE($F326, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ326)-1)*100+1, 100))</f>
         <v/>
@@ -43295,8 +43311,8 @@
         <v>45983</v>
       </c>
       <c r="B327" s="2"/>
-      <c r="C327" s="145"/>
-      <c r="D327" s="143"/>
+      <c r="C327" s="132"/>
+      <c r="D327" s="130"/>
       <c r="AJ327" t="str">
         <f>TRIM(MID(SUBSTITUTE($F327, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ327)-1)*100+1, 100))</f>
         <v/>
@@ -43371,8 +43387,8 @@
         <v>45984</v>
       </c>
       <c r="B328" s="2"/>
-      <c r="C328" s="145"/>
-      <c r="D328" s="143"/>
+      <c r="C328" s="132"/>
+      <c r="D328" s="130"/>
       <c r="AJ328" t="str">
         <f>TRIM(MID(SUBSTITUTE($F328, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ328)-1)*100+1, 100))</f>
         <v/>
@@ -43447,8 +43463,8 @@
         <v>45985</v>
       </c>
       <c r="B329" s="2"/>
-      <c r="C329" s="145"/>
-      <c r="D329" s="143"/>
+      <c r="C329" s="132"/>
+      <c r="D329" s="130"/>
       <c r="AJ329" t="str">
         <f>TRIM(MID(SUBSTITUTE($F329, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ329)-1)*100+1, 100))</f>
         <v/>
@@ -43523,8 +43539,8 @@
         <v>45986</v>
       </c>
       <c r="B330" s="2"/>
-      <c r="C330" s="145"/>
-      <c r="D330" s="143"/>
+      <c r="C330" s="132"/>
+      <c r="D330" s="130"/>
       <c r="AJ330" t="str">
         <f>TRIM(MID(SUBSTITUTE($F330, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ330)-1)*100+1, 100))</f>
         <v/>
@@ -43599,8 +43615,8 @@
         <v>45987</v>
       </c>
       <c r="B331" s="2"/>
-      <c r="C331" s="145"/>
-      <c r="D331" s="143"/>
+      <c r="C331" s="132"/>
+      <c r="D331" s="130"/>
       <c r="AJ331" t="str">
         <f>TRIM(MID(SUBSTITUTE($F331, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ331)-1)*100+1, 100))</f>
         <v/>
@@ -43675,8 +43691,8 @@
         <v>45988</v>
       </c>
       <c r="B332" s="2"/>
-      <c r="C332" s="145"/>
-      <c r="D332" s="143"/>
+      <c r="C332" s="132"/>
+      <c r="D332" s="130"/>
       <c r="AJ332" t="str">
         <f>TRIM(MID(SUBSTITUTE($F332, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ332)-1)*100+1, 100))</f>
         <v/>
@@ -43751,8 +43767,8 @@
         <v>45989</v>
       </c>
       <c r="B333" s="2"/>
-      <c r="C333" s="145"/>
-      <c r="D333" s="143"/>
+      <c r="C333" s="132"/>
+      <c r="D333" s="130"/>
       <c r="AJ333" t="str">
         <f>TRIM(MID(SUBSTITUTE($F333, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ333)-1)*100+1, 100))</f>
         <v/>
@@ -43827,8 +43843,8 @@
         <v>45990</v>
       </c>
       <c r="B334" s="2"/>
-      <c r="C334" s="145"/>
-      <c r="D334" s="143"/>
+      <c r="C334" s="132"/>
+      <c r="D334" s="130"/>
       <c r="AJ334" t="str">
         <f>TRIM(MID(SUBSTITUTE($F334, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ334)-1)*100+1, 100))</f>
         <v/>
@@ -43903,8 +43919,8 @@
         <v>45991</v>
       </c>
       <c r="B335" s="2"/>
-      <c r="C335" s="145"/>
-      <c r="D335" s="143"/>
+      <c r="C335" s="132"/>
+      <c r="D335" s="130"/>
       <c r="AJ335" t="str">
         <f>TRIM(MID(SUBSTITUTE($F335, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ335)-1)*100+1, 100))</f>
         <v/>
@@ -43979,8 +43995,8 @@
         <v>45992</v>
       </c>
       <c r="B336" s="2"/>
-      <c r="C336" s="145"/>
-      <c r="D336" s="143"/>
+      <c r="C336" s="132"/>
+      <c r="D336" s="130"/>
       <c r="AJ336" t="str">
         <f>TRIM(MID(SUBSTITUTE($F336, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ336)-1)*100+1, 100))</f>
         <v/>
@@ -44055,8 +44071,8 @@
         <v>45993</v>
       </c>
       <c r="B337" s="2"/>
-      <c r="C337" s="145"/>
-      <c r="D337" s="143"/>
+      <c r="C337" s="132"/>
+      <c r="D337" s="130"/>
       <c r="AJ337" t="str">
         <f>TRIM(MID(SUBSTITUTE($F337, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ337)-1)*100+1, 100))</f>
         <v/>
@@ -44131,8 +44147,8 @@
         <v>45994</v>
       </c>
       <c r="B338" s="2"/>
-      <c r="C338" s="145"/>
-      <c r="D338" s="143"/>
+      <c r="C338" s="132"/>
+      <c r="D338" s="130"/>
       <c r="AJ338" t="str">
         <f>TRIM(MID(SUBSTITUTE($F338, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ338)-1)*100+1, 100))</f>
         <v/>
@@ -44207,8 +44223,8 @@
         <v>45995</v>
       </c>
       <c r="B339" s="2"/>
-      <c r="C339" s="145"/>
-      <c r="D339" s="143"/>
+      <c r="C339" s="132"/>
+      <c r="D339" s="130"/>
       <c r="AJ339" t="str">
         <f>TRIM(MID(SUBSTITUTE($F339, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ339)-1)*100+1, 100))</f>
         <v/>
@@ -44283,8 +44299,8 @@
         <v>45996</v>
       </c>
       <c r="B340" s="2"/>
-      <c r="C340" s="145"/>
-      <c r="D340" s="143"/>
+      <c r="C340" s="132"/>
+      <c r="D340" s="130"/>
       <c r="AJ340" t="str">
         <f>TRIM(MID(SUBSTITUTE($F340, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ340)-1)*100+1, 100))</f>
         <v/>
@@ -44359,8 +44375,8 @@
         <v>45997</v>
       </c>
       <c r="B341" s="2"/>
-      <c r="C341" s="145"/>
-      <c r="D341" s="143"/>
+      <c r="C341" s="132"/>
+      <c r="D341" s="130"/>
       <c r="AJ341" t="str">
         <f>TRIM(MID(SUBSTITUTE($F341, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ341)-1)*100+1, 100))</f>
         <v/>
@@ -44435,8 +44451,8 @@
         <v>45998</v>
       </c>
       <c r="B342" s="2"/>
-      <c r="C342" s="145"/>
-      <c r="D342" s="143"/>
+      <c r="C342" s="132"/>
+      <c r="D342" s="130"/>
       <c r="AJ342" t="str">
         <f>TRIM(MID(SUBSTITUTE($F342, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ342)-1)*100+1, 100))</f>
         <v/>
@@ -44511,8 +44527,8 @@
         <v>45999</v>
       </c>
       <c r="B343" s="2"/>
-      <c r="C343" s="145"/>
-      <c r="D343" s="143"/>
+      <c r="C343" s="132"/>
+      <c r="D343" s="130"/>
       <c r="AJ343" t="str">
         <f>TRIM(MID(SUBSTITUTE($F343, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ343)-1)*100+1, 100))</f>
         <v/>
@@ -44587,8 +44603,8 @@
         <v>46000</v>
       </c>
       <c r="B344" s="2"/>
-      <c r="C344" s="145"/>
-      <c r="D344" s="143"/>
+      <c r="C344" s="132"/>
+      <c r="D344" s="130"/>
       <c r="AJ344" t="str">
         <f>TRIM(MID(SUBSTITUTE($F344, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ344)-1)*100+1, 100))</f>
         <v/>
@@ -44663,8 +44679,8 @@
         <v>46001</v>
       </c>
       <c r="B345" s="2"/>
-      <c r="C345" s="145"/>
-      <c r="D345" s="143"/>
+      <c r="C345" s="132"/>
+      <c r="D345" s="130"/>
       <c r="AJ345" t="str">
         <f>TRIM(MID(SUBSTITUTE($F345, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ345)-1)*100+1, 100))</f>
         <v/>
@@ -44739,8 +44755,8 @@
         <v>46002</v>
       </c>
       <c r="B346" s="2"/>
-      <c r="C346" s="145"/>
-      <c r="D346" s="143"/>
+      <c r="C346" s="132"/>
+      <c r="D346" s="130"/>
       <c r="AJ346" t="str">
         <f>TRIM(MID(SUBSTITUTE($F346, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ346)-1)*100+1, 100))</f>
         <v/>
@@ -44815,8 +44831,8 @@
         <v>46003</v>
       </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="145"/>
-      <c r="D347" s="143"/>
+      <c r="C347" s="132"/>
+      <c r="D347" s="130"/>
       <c r="AJ347" t="str">
         <f>TRIM(MID(SUBSTITUTE($F347, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ347)-1)*100+1, 100))</f>
         <v/>
@@ -44891,8 +44907,8 @@
         <v>46004</v>
       </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="145"/>
-      <c r="D348" s="143"/>
+      <c r="C348" s="132"/>
+      <c r="D348" s="130"/>
       <c r="AJ348" t="str">
         <f>TRIM(MID(SUBSTITUTE($F348, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ348)-1)*100+1, 100))</f>
         <v/>
@@ -44967,8 +44983,8 @@
         <v>46005</v>
       </c>
       <c r="B349" s="2"/>
-      <c r="C349" s="145"/>
-      <c r="D349" s="143"/>
+      <c r="C349" s="132"/>
+      <c r="D349" s="130"/>
       <c r="AJ349" t="str">
         <f>TRIM(MID(SUBSTITUTE($F349, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ349)-1)*100+1, 100))</f>
         <v/>
@@ -45043,8 +45059,8 @@
         <v>46006</v>
       </c>
       <c r="B350" s="2"/>
-      <c r="C350" s="145"/>
-      <c r="D350" s="143"/>
+      <c r="C350" s="132"/>
+      <c r="D350" s="130"/>
       <c r="AJ350" t="str">
         <f>TRIM(MID(SUBSTITUTE($F350, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ350)-1)*100+1, 100))</f>
         <v/>
@@ -45119,8 +45135,8 @@
         <v>46007</v>
       </c>
       <c r="B351" s="2"/>
-      <c r="C351" s="145"/>
-      <c r="D351" s="143"/>
+      <c r="C351" s="132"/>
+      <c r="D351" s="130"/>
       <c r="AJ351" t="str">
         <f>TRIM(MID(SUBSTITUTE($F351, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ351)-1)*100+1, 100))</f>
         <v/>
@@ -45195,8 +45211,8 @@
         <v>46008</v>
       </c>
       <c r="B352" s="2"/>
-      <c r="C352" s="145"/>
-      <c r="D352" s="143"/>
+      <c r="C352" s="132"/>
+      <c r="D352" s="130"/>
       <c r="AJ352" t="str">
         <f>TRIM(MID(SUBSTITUTE($F352, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ352)-1)*100+1, 100))</f>
         <v/>
@@ -45271,8 +45287,8 @@
         <v>46009</v>
       </c>
       <c r="B353" s="2"/>
-      <c r="C353" s="145"/>
-      <c r="D353" s="143"/>
+      <c r="C353" s="132"/>
+      <c r="D353" s="130"/>
       <c r="AJ353" t="str">
         <f>TRIM(MID(SUBSTITUTE($F353, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ353)-1)*100+1, 100))</f>
         <v/>
@@ -45347,8 +45363,8 @@
         <v>46010</v>
       </c>
       <c r="B354" s="2"/>
-      <c r="C354" s="145"/>
-      <c r="D354" s="143"/>
+      <c r="C354" s="132"/>
+      <c r="D354" s="130"/>
       <c r="AJ354" t="str">
         <f>TRIM(MID(SUBSTITUTE($F354, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ354)-1)*100+1, 100))</f>
         <v/>
@@ -45423,8 +45439,8 @@
         <v>46011</v>
       </c>
       <c r="B355" s="2"/>
-      <c r="C355" s="145"/>
-      <c r="D355" s="143"/>
+      <c r="C355" s="132"/>
+      <c r="D355" s="130"/>
       <c r="AJ355" t="str">
         <f>TRIM(MID(SUBSTITUTE($F355, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ355)-1)*100+1, 100))</f>
         <v/>
@@ -45499,8 +45515,8 @@
         <v>46012</v>
       </c>
       <c r="B356" s="2"/>
-      <c r="C356" s="145"/>
-      <c r="D356" s="143"/>
+      <c r="C356" s="132"/>
+      <c r="D356" s="130"/>
       <c r="AJ356" t="str">
         <f>TRIM(MID(SUBSTITUTE($F356, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ356)-1)*100+1, 100))</f>
         <v/>
@@ -45575,8 +45591,8 @@
         <v>46013</v>
       </c>
       <c r="B357" s="2"/>
-      <c r="C357" s="145"/>
-      <c r="D357" s="143"/>
+      <c r="C357" s="132"/>
+      <c r="D357" s="130"/>
       <c r="AJ357" t="str">
         <f>TRIM(MID(SUBSTITUTE($F357, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ357)-1)*100+1, 100))</f>
         <v/>
@@ -45651,8 +45667,8 @@
         <v>46014</v>
       </c>
       <c r="B358" s="2"/>
-      <c r="C358" s="145"/>
-      <c r="D358" s="143"/>
+      <c r="C358" s="132"/>
+      <c r="D358" s="130"/>
       <c r="AJ358" t="str">
         <f>TRIM(MID(SUBSTITUTE($F358, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ358)-1)*100+1, 100))</f>
         <v/>
@@ -45727,8 +45743,8 @@
         <v>46015</v>
       </c>
       <c r="B359" s="2"/>
-      <c r="C359" s="145"/>
-      <c r="D359" s="143"/>
+      <c r="C359" s="132"/>
+      <c r="D359" s="130"/>
       <c r="AJ359" t="str">
         <f>TRIM(MID(SUBSTITUTE($F359, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ359)-1)*100+1, 100))</f>
         <v/>
@@ -45803,8 +45819,8 @@
         <v>46016</v>
       </c>
       <c r="B360" s="2"/>
-      <c r="C360" s="145"/>
-      <c r="D360" s="143"/>
+      <c r="C360" s="132"/>
+      <c r="D360" s="130"/>
       <c r="AJ360" t="str">
         <f>TRIM(MID(SUBSTITUTE($F360, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ360)-1)*100+1, 100))</f>
         <v/>
@@ -45879,8 +45895,8 @@
         <v>46017</v>
       </c>
       <c r="B361" s="2"/>
-      <c r="C361" s="145"/>
-      <c r="D361" s="143"/>
+      <c r="C361" s="132"/>
+      <c r="D361" s="130"/>
       <c r="AJ361" t="str">
         <f>TRIM(MID(SUBSTITUTE($F361, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ361)-1)*100+1, 100))</f>
         <v/>
@@ -45955,8 +45971,8 @@
         <v>46018</v>
       </c>
       <c r="B362" s="2"/>
-      <c r="C362" s="145"/>
-      <c r="D362" s="143"/>
+      <c r="C362" s="132"/>
+      <c r="D362" s="130"/>
       <c r="AJ362" t="str">
         <f>TRIM(MID(SUBSTITUTE($F362, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ362)-1)*100+1, 100))</f>
         <v/>
@@ -46031,8 +46047,8 @@
         <v>46019</v>
       </c>
       <c r="B363" s="2"/>
-      <c r="C363" s="145"/>
-      <c r="D363" s="143"/>
+      <c r="C363" s="132"/>
+      <c r="D363" s="130"/>
       <c r="AJ363" t="str">
         <f>TRIM(MID(SUBSTITUTE($F363, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ363)-1)*100+1, 100))</f>
         <v/>
@@ -46107,8 +46123,8 @@
         <v>46020</v>
       </c>
       <c r="B364" s="2"/>
-      <c r="C364" s="145"/>
-      <c r="D364" s="143"/>
+      <c r="C364" s="132"/>
+      <c r="D364" s="130"/>
       <c r="AJ364" t="str">
         <f>TRIM(MID(SUBSTITUTE($F364, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ364)-1)*100+1, 100))</f>
         <v/>
@@ -46183,8 +46199,8 @@
         <v>46021</v>
       </c>
       <c r="B365" s="2"/>
-      <c r="C365" s="145"/>
-      <c r="D365" s="143"/>
+      <c r="C365" s="132"/>
+      <c r="D365" s="130"/>
       <c r="AJ365" t="str">
         <f>TRIM(MID(SUBSTITUTE($F365, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ365)-1)*100+1, 100))</f>
         <v/>
@@ -46259,8 +46275,8 @@
         <v>46022</v>
       </c>
       <c r="B366" s="2"/>
-      <c r="C366" s="145"/>
-      <c r="D366" s="143"/>
+      <c r="C366" s="132"/>
+      <c r="D366" s="130"/>
       <c r="AJ366" t="str">
         <f>TRIM(MID(SUBSTITUTE($F366, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ366)-1)*100+1, 100))</f>
         <v/>
@@ -46337,6 +46353,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N5:N16"/>
+    <mergeCell ref="H1:J2"/>
     <mergeCell ref="D2:D366"/>
     <mergeCell ref="C33:C60"/>
     <mergeCell ref="C61:C91"/>
@@ -46350,11 +46371,6 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N5:N16"/>
-    <mergeCell ref="H1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B367">
@@ -46369,8 +46385,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C366">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="C2 C33 C61 C92">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46381,8 +46397,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33 C2 C61 C92">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="C2:C366">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46556,10 +46572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323F74EC-42CB-4464-88B1-2BD27A18F753}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -46577,18 +46593,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="151" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
       <c r="I1" s="68"/>
       <c r="J1" s="65" t="s">
         <v>26</v>
@@ -46601,18 +46617,18 @@
       <c r="A2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="150"/>
+      <c r="C2" s="148"/>
       <c r="D2" s="69"/>
       <c r="E2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="150"/>
+      <c r="G2" s="148"/>
       <c r="H2" s="79" t="s">
         <v>191</v>
       </c>
@@ -46834,14 +46850,37 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E15" s="128" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="31">
         <v>6</v>
       </c>
-      <c r="H15" s="129">
+      <c r="G15" s="31"/>
+      <c r="H15" s="67">
         <v>45750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="178" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="178">
+        <v>8</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="67">
+        <v>45758</v>
       </c>
     </row>
   </sheetData>
@@ -46929,11 +46968,11 @@
       <c r="B1" s="2">
         <v>6</v>
       </c>
-      <c r="C1" s="145">
+      <c r="C1" s="132">
         <f>AVERAGE(B1:B31)</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="D1" s="152">
+      <c r="D1" s="155">
         <f>AVERAGE(B1:B366)</f>
         <v>5.1967213114754101</v>
       </c>
@@ -46945,8 +46984,8 @@
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="152"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="155"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -46955,8 +46994,8 @@
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="152"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="155"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -46965,8 +47004,8 @@
       <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="152"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="155"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -46975,8 +47014,8 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="152"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="155"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -46985,8 +47024,8 @@
       <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="152"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="155"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -46995,8 +47034,8 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="152"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="155"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -47005,8 +47044,8 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="152"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="155"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -47015,8 +47054,8 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="152"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="155"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -47025,8 +47064,8 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="145"/>
-      <c r="D10" s="152"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="155"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -47035,8 +47074,8 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="152"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="155"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -47045,8 +47084,8 @@
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="152"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="155"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -47055,8 +47094,8 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="152"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="155"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -47065,8 +47104,8 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="152"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="155"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -47075,8 +47114,8 @@
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="152"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="155"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -47085,8 +47124,8 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="152"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="155"/>
     </row>
     <row r="17" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -47095,8 +47134,8 @@
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="152"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="155"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
         <v>24</v>
@@ -47112,8 +47151,8 @@
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="152"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="155"/>
       <c r="F18" s="24" t="s">
         <v>0</v>
       </c>
@@ -47163,8 +47202,8 @@
       <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="152"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="155"/>
       <c r="F19" s="7" t="s">
         <v>1</v>
       </c>
@@ -47181,7 +47220,7 @@
         <f>C1</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="L19" s="158">
+      <c r="L19" s="153">
         <f>AVERAGE(K19:K30)</f>
         <v>5.1920096403411202</v>
       </c>
@@ -47209,7 +47248,7 @@
         <f>COUNTIF(B1:B31,G23)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="156">
+      <c r="S19" s="151">
         <f>AVERAGE(K19:K22)</f>
         <v>4.9297923618835746</v>
       </c>
@@ -47221,8 +47260,8 @@
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="152"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="155"/>
       <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
@@ -47239,7 +47278,7 @@
         <f>C32</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="L20" s="158"/>
+      <c r="L20" s="153"/>
       <c r="M20" s="21">
         <f>COUNTIF(B32:B60,G18)</f>
         <v>1</v>
@@ -47264,7 +47303,7 @@
         <f>COUNTIF(B32:B60,G23)</f>
         <v>2</v>
       </c>
-      <c r="S20" s="145"/>
+      <c r="S20" s="132"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -47273,8 +47312,8 @@
       <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="152"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="155"/>
       <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
@@ -47291,7 +47330,7 @@
         <f>C61</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="L21" s="158"/>
+      <c r="L21" s="153"/>
       <c r="M21" s="21">
         <f>COUNTIF(B61:B91,G18)</f>
         <v>0</v>
@@ -47316,7 +47355,7 @@
         <f>COUNTIF(B61:B91,G23)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="145"/>
+      <c r="S21" s="132"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -47325,8 +47364,8 @@
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="152"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="155"/>
       <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
@@ -47343,7 +47382,7 @@
         <f>C92</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="L22" s="158"/>
+      <c r="L22" s="153"/>
       <c r="M22" s="21">
         <f>COUNTIF(B92:B121,G18)</f>
         <v>0</v>
@@ -47368,7 +47407,7 @@
         <f>COUNTIF(B92:B121,G23)</f>
         <v>2</v>
       </c>
-      <c r="S22" s="145"/>
+      <c r="S22" s="132"/>
     </row>
     <row r="23" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
@@ -47377,8 +47416,8 @@
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="152"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="155"/>
       <c r="F23" s="14" t="s">
         <v>5</v>
       </c>
@@ -47395,7 +47434,7 @@
         <f>C122</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="L23" s="158"/>
+      <c r="L23" s="153"/>
       <c r="M23" s="21">
         <f>COUNTIF(B122:B152,G18)</f>
         <v>1</v>
@@ -47420,7 +47459,7 @@
         <f>COUNTIF(B122:B152,G23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="156">
+      <c r="S23" s="151">
         <f>AVERAGE(K23:K26)</f>
         <v>5.365591397849462</v>
       </c>
@@ -47432,12 +47471,12 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="152"/>
-      <c r="F24" s="130" t="s">
+      <c r="C24" s="132"/>
+      <c r="D24" s="155"/>
+      <c r="F24" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="131"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="17">
         <f>SUM(H18:H23)</f>
         <v>366</v>
@@ -47449,7 +47488,7 @@
         <f>C153</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="L24" s="158"/>
+      <c r="L24" s="153"/>
       <c r="M24" s="21">
         <f>COUNTIF(B153:B182,G18)</f>
         <v>3</v>
@@ -47474,7 +47513,7 @@
         <f>COUNTIF(B153:B182,G23)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="145"/>
+      <c r="S24" s="132"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -47483,8 +47522,8 @@
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="152"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="155"/>
       <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
@@ -47492,7 +47531,7 @@
         <f>C183</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="L25" s="158"/>
+      <c r="L25" s="153"/>
       <c r="M25" s="21">
         <f>COUNTIF(B183:B213,G18)</f>
         <v>2</v>
@@ -47517,7 +47556,7 @@
         <f>COUNTIF(B183:B213,G23)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="145"/>
+      <c r="S25" s="132"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -47526,8 +47565,8 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="152"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="155"/>
       <c r="J26" s="10" t="s">
         <v>15</v>
       </c>
@@ -47535,7 +47574,7 @@
         <f>C214</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="L26" s="158"/>
+      <c r="L26" s="153"/>
       <c r="M26" s="21">
         <f>COUNTIF(B214:B244,G18)</f>
         <v>0</v>
@@ -47560,7 +47599,7 @@
         <f>COUNTIF(B214:B244,G23)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="145"/>
+      <c r="S26" s="132"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -47569,13 +47608,13 @@
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="152"/>
-      <c r="F27" s="155" t="s">
+      <c r="C27" s="132"/>
+      <c r="D27" s="155"/>
+      <c r="F27" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
       <c r="J27" s="10" t="s">
         <v>16</v>
       </c>
@@ -47583,7 +47622,7 @@
         <f>C245</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="L27" s="158"/>
+      <c r="L27" s="153"/>
       <c r="M27" s="21">
         <f>COUNTIF(B245:B274,G18)</f>
         <v>1</v>
@@ -47608,7 +47647,7 @@
         <f>COUNTIF(B245:B274,G23)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="156">
+      <c r="S27" s="151">
         <f>AVERAGE(K27:K30)</f>
         <v>5.2806451612903231</v>
       </c>
@@ -47620,13 +47659,13 @@
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="152"/>
-      <c r="F28" s="157">
+      <c r="C28" s="132"/>
+      <c r="D28" s="155"/>
+      <c r="F28" s="152">
         <v>2024</v>
       </c>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
       <c r="J28" s="10" t="s">
         <v>17</v>
       </c>
@@ -47634,7 +47673,7 @@
         <f>C275</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="L28" s="158"/>
+      <c r="L28" s="153"/>
       <c r="M28" s="21">
         <f>COUNTIF(B275:B305,G18)</f>
         <v>1</v>
@@ -47659,7 +47698,7 @@
         <f>COUNTIF(B275:B305,G23)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="145"/>
+      <c r="S28" s="132"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -47668,8 +47707,8 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="145"/>
-      <c r="D29" s="152"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="155"/>
       <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
@@ -47677,7 +47716,7 @@
         <f>C306</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="L29" s="158"/>
+      <c r="L29" s="153"/>
       <c r="M29" s="21">
         <f>COUNTIF(B306:B335,G18)</f>
         <v>0</v>
@@ -47702,7 +47741,7 @@
         <f>COUNTIF(B306:B335,G23)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="145"/>
+      <c r="S29" s="132"/>
     </row>
     <row r="30" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
@@ -47711,8 +47750,8 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="152"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="155"/>
       <c r="J30" s="18" t="s">
         <v>19</v>
       </c>
@@ -47720,7 +47759,7 @@
         <f>C336</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="L30" s="159"/>
+      <c r="L30" s="154"/>
       <c r="M30" s="21">
         <f>COUNTIF(B336:B366,G18)</f>
         <v>1</v>
@@ -47745,7 +47784,7 @@
         <f>COUNTIF(B336:B366,G23)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="145"/>
+      <c r="S30" s="132"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -47754,8 +47793,8 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="152"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="155"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -47764,11 +47803,11 @@
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="145">
+      <c r="C32" s="132">
         <f>AVERAGE(B32:B60)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="D32" s="152"/>
+      <c r="D32" s="155"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -47777,8 +47816,8 @@
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="152"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="155"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -47787,8 +47826,8 @@
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="152"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="155"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -47797,8 +47836,8 @@
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="152"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="155"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -47807,8 +47846,8 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="152"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="155"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -47817,8 +47856,8 @@
       <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="145"/>
-      <c r="D37" s="152"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="155"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
@@ -47827,8 +47866,8 @@
       <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="152"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="155"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -47837,8 +47876,8 @@
       <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="145"/>
-      <c r="D39" s="152"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="155"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -47847,8 +47886,8 @@
       <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="152"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="155"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -47857,8 +47896,8 @@
       <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="145"/>
-      <c r="D41" s="152"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="155"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -47867,8 +47906,8 @@
       <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="145"/>
-      <c r="D42" s="152"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="155"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -47877,8 +47916,8 @@
       <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="145"/>
-      <c r="D43" s="152"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="155"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -47887,8 +47926,8 @@
       <c r="B44" s="2">
         <v>6</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="152"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="155"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
@@ -47897,8 +47936,8 @@
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="145"/>
-      <c r="D45" s="152"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="155"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -47907,8 +47946,8 @@
       <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="145"/>
-      <c r="D46" s="152"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="155"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -47917,8 +47956,8 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="145"/>
-      <c r="D47" s="152"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="155"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -47927,8 +47966,8 @@
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="152"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="155"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -47937,8 +47976,8 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="145"/>
-      <c r="D49" s="152"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="155"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -47947,8 +47986,8 @@
       <c r="B50" s="2">
         <v>4</v>
       </c>
-      <c r="C50" s="145"/>
-      <c r="D50" s="152"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="155"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -47957,8 +47996,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="145"/>
-      <c r="D51" s="152"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="155"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -47967,8 +48006,8 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="145"/>
-      <c r="D52" s="152"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="155"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -47977,8 +48016,8 @@
       <c r="B53" s="2">
         <v>2</v>
       </c>
-      <c r="C53" s="145"/>
-      <c r="D53" s="152"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="155"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -47987,8 +48026,8 @@
       <c r="B54" s="2">
         <v>4</v>
       </c>
-      <c r="C54" s="145"/>
-      <c r="D54" s="152"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="155"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -47997,8 +48036,8 @@
       <c r="B55" s="2">
         <v>4</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="152"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="155"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -48007,8 +48046,8 @@
       <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="152"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="155"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -48017,8 +48056,8 @@
       <c r="B57" s="2">
         <v>4</v>
       </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="152"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="155"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -48027,8 +48066,8 @@
       <c r="B58" s="2">
         <v>4</v>
       </c>
-      <c r="C58" s="145"/>
-      <c r="D58" s="152"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="155"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -48037,8 +48076,8 @@
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="145"/>
-      <c r="D59" s="152"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="155"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -48047,8 +48086,8 @@
       <c r="B60" s="2">
         <v>6</v>
       </c>
-      <c r="C60" s="145"/>
-      <c r="D60" s="152"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="155"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -48057,11 +48096,11 @@
       <c r="B61" s="2">
         <v>6</v>
       </c>
-      <c r="C61" s="145">
+      <c r="C61" s="132">
         <f>AVERAGE(B61:B91)</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="D61" s="152"/>
+      <c r="D61" s="155"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
@@ -48070,8 +48109,8 @@
       <c r="B62" s="2">
         <v>6</v>
       </c>
-      <c r="C62" s="145"/>
-      <c r="D62" s="152"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="155"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -48080,8 +48119,8 @@
       <c r="B63" s="2">
         <v>8</v>
       </c>
-      <c r="C63" s="145"/>
-      <c r="D63" s="152"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="155"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
@@ -48090,8 +48129,8 @@
       <c r="B64" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="145"/>
-      <c r="D64" s="152"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="155"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
@@ -48100,8 +48139,8 @@
       <c r="B65" s="2">
         <v>4</v>
       </c>
-      <c r="C65" s="145"/>
-      <c r="D65" s="152"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="155"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -48110,8 +48149,8 @@
       <c r="B66" s="2">
         <v>4</v>
       </c>
-      <c r="C66" s="145"/>
-      <c r="D66" s="152"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="155"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -48120,8 +48159,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="145"/>
-      <c r="D67" s="152"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="155"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
@@ -48130,8 +48169,8 @@
       <c r="B68" s="2">
         <v>6</v>
       </c>
-      <c r="C68" s="145"/>
-      <c r="D68" s="152"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="155"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
@@ -48140,8 +48179,8 @@
       <c r="B69" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="145"/>
-      <c r="D69" s="152"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="155"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
@@ -48150,8 +48189,8 @@
       <c r="B70" s="2">
         <v>6</v>
       </c>
-      <c r="C70" s="145"/>
-      <c r="D70" s="152"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="155"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
@@ -48160,8 +48199,8 @@
       <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="145"/>
-      <c r="D71" s="152"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="155"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
@@ -48170,8 +48209,8 @@
       <c r="B72" s="2">
         <v>6</v>
       </c>
-      <c r="C72" s="145"/>
-      <c r="D72" s="152"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="155"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
@@ -48180,8 +48219,8 @@
       <c r="B73" s="2">
         <v>6</v>
       </c>
-      <c r="C73" s="145"/>
-      <c r="D73" s="152"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="155"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -48190,8 +48229,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="145"/>
-      <c r="D74" s="152"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="155"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -48200,8 +48239,8 @@
       <c r="B75" s="2">
         <v>6</v>
       </c>
-      <c r="C75" s="145"/>
-      <c r="D75" s="152"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="155"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -48210,8 +48249,8 @@
       <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C76" s="145"/>
-      <c r="D76" s="152"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="155"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
@@ -48220,8 +48259,8 @@
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="145"/>
-      <c r="D77" s="152"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="155"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -48230,8 +48269,8 @@
       <c r="B78" s="2">
         <v>6</v>
       </c>
-      <c r="C78" s="145"/>
-      <c r="D78" s="152"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="155"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
@@ -48240,8 +48279,8 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="145"/>
-      <c r="D79" s="152"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="155"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
@@ -48250,8 +48289,8 @@
       <c r="B80" s="2">
         <v>8</v>
       </c>
-      <c r="C80" s="145"/>
-      <c r="D80" s="152"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="155"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
@@ -48260,8 +48299,8 @@
       <c r="B81" s="2">
         <v>6</v>
       </c>
-      <c r="C81" s="145"/>
-      <c r="D81" s="152"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="155"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
@@ -48270,8 +48309,8 @@
       <c r="B82" s="2">
         <v>8</v>
       </c>
-      <c r="C82" s="145"/>
-      <c r="D82" s="152"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="155"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -48280,8 +48319,8 @@
       <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="C83" s="145"/>
-      <c r="D83" s="152"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="155"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
@@ -48290,8 +48329,8 @@
       <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="145"/>
-      <c r="D84" s="152"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="155"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -48300,8 +48339,8 @@
       <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C85" s="145"/>
-      <c r="D85" s="152"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="155"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -48310,8 +48349,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="145"/>
-      <c r="D86" s="152"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="155"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -48320,8 +48359,8 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
-      <c r="C87" s="145"/>
-      <c r="D87" s="152"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="155"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -48330,8 +48369,8 @@
       <c r="B88" s="2">
         <v>6</v>
       </c>
-      <c r="C88" s="145"/>
-      <c r="D88" s="152"/>
+      <c r="C88" s="132"/>
+      <c r="D88" s="155"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -48340,8 +48379,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="145"/>
-      <c r="D89" s="152"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="155"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -48350,8 +48389,8 @@
       <c r="B90" s="2">
         <v>6</v>
       </c>
-      <c r="C90" s="145"/>
-      <c r="D90" s="152"/>
+      <c r="C90" s="132"/>
+      <c r="D90" s="155"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -48360,8 +48399,8 @@
       <c r="B91" s="2">
         <v>6</v>
       </c>
-      <c r="C91" s="145"/>
-      <c r="D91" s="152"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="155"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -48370,11 +48409,11 @@
       <c r="B92" s="2">
         <v>4</v>
       </c>
-      <c r="C92" s="145">
+      <c r="C92" s="132">
         <f>AVERAGE(B92:B121)</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="D92" s="152"/>
+      <c r="D92" s="155"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -48383,8 +48422,8 @@
       <c r="B93" s="2">
         <v>4</v>
       </c>
-      <c r="C93" s="145"/>
-      <c r="D93" s="152"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="155"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -48393,8 +48432,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="145"/>
-      <c r="D94" s="152"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="155"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -48403,8 +48442,8 @@
       <c r="B95" s="2">
         <v>4</v>
       </c>
-      <c r="C95" s="145"/>
-      <c r="D95" s="152"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="155"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -48413,8 +48452,8 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96" s="145"/>
-      <c r="D96" s="152"/>
+      <c r="C96" s="132"/>
+      <c r="D96" s="155"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
@@ -48423,8 +48462,8 @@
       <c r="B97" s="2">
         <v>2</v>
       </c>
-      <c r="C97" s="145"/>
-      <c r="D97" s="152"/>
+      <c r="C97" s="132"/>
+      <c r="D97" s="155"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -48433,8 +48472,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="145"/>
-      <c r="D98" s="152"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="155"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -48443,8 +48482,8 @@
       <c r="B99" s="2">
         <v>4</v>
       </c>
-      <c r="C99" s="145"/>
-      <c r="D99" s="152"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="155"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
@@ -48453,8 +48492,8 @@
       <c r="B100" s="2">
         <v>6</v>
       </c>
-      <c r="C100" s="145"/>
-      <c r="D100" s="152"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="155"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -48463,8 +48502,8 @@
       <c r="B101" s="2">
         <v>2</v>
       </c>
-      <c r="C101" s="145"/>
-      <c r="D101" s="152"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="155"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
@@ -48473,8 +48512,8 @@
       <c r="B102" s="2">
         <v>0</v>
       </c>
-      <c r="C102" s="145"/>
-      <c r="D102" s="152"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="155"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
@@ -48483,8 +48522,8 @@
       <c r="B103" s="2">
         <v>6</v>
       </c>
-      <c r="C103" s="145"/>
-      <c r="D103" s="152"/>
+      <c r="C103" s="132"/>
+      <c r="D103" s="155"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
@@ -48493,8 +48532,8 @@
       <c r="B104" s="2">
         <v>6</v>
       </c>
-      <c r="C104" s="145"/>
-      <c r="D104" s="152"/>
+      <c r="C104" s="132"/>
+      <c r="D104" s="155"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
@@ -48503,8 +48542,8 @@
       <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="145"/>
-      <c r="D105" s="152"/>
+      <c r="C105" s="132"/>
+      <c r="D105" s="155"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
@@ -48513,8 +48552,8 @@
       <c r="B106" s="2">
         <v>6</v>
       </c>
-      <c r="C106" s="145"/>
-      <c r="D106" s="152"/>
+      <c r="C106" s="132"/>
+      <c r="D106" s="155"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
@@ -48523,8 +48562,8 @@
       <c r="B107" s="2">
         <v>4</v>
       </c>
-      <c r="C107" s="145"/>
-      <c r="D107" s="152"/>
+      <c r="C107" s="132"/>
+      <c r="D107" s="155"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
@@ -48533,8 +48572,8 @@
       <c r="B108" s="2">
         <v>8</v>
       </c>
-      <c r="C108" s="145"/>
-      <c r="D108" s="152"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="155"/>
       <c r="J108" s="3" t="s">
         <v>22</v>
       </c>
@@ -48546,8 +48585,8 @@
       <c r="B109" s="2">
         <v>6</v>
       </c>
-      <c r="C109" s="145"/>
-      <c r="D109" s="152"/>
+      <c r="C109" s="132"/>
+      <c r="D109" s="155"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
@@ -48556,8 +48595,8 @@
       <c r="B110" s="2">
         <v>6</v>
       </c>
-      <c r="C110" s="145"/>
-      <c r="D110" s="152"/>
+      <c r="C110" s="132"/>
+      <c r="D110" s="155"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
@@ -48566,8 +48605,8 @@
       <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C111" s="145"/>
-      <c r="D111" s="152"/>
+      <c r="C111" s="132"/>
+      <c r="D111" s="155"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
@@ -48576,8 +48615,8 @@
       <c r="B112" s="2">
         <v>6</v>
       </c>
-      <c r="C112" s="145"/>
-      <c r="D112" s="152"/>
+      <c r="C112" s="132"/>
+      <c r="D112" s="155"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
@@ -48586,8 +48625,8 @@
       <c r="B113" s="2">
         <v>6</v>
       </c>
-      <c r="C113" s="145"/>
-      <c r="D113" s="152"/>
+      <c r="C113" s="132"/>
+      <c r="D113" s="155"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
@@ -48596,8 +48635,8 @@
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" s="145"/>
-      <c r="D114" s="152"/>
+      <c r="C114" s="132"/>
+      <c r="D114" s="155"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
@@ -48606,8 +48645,8 @@
       <c r="B115" s="2">
         <v>6</v>
       </c>
-      <c r="C115" s="145"/>
-      <c r="D115" s="152"/>
+      <c r="C115" s="132"/>
+      <c r="D115" s="155"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
@@ -48616,8 +48655,8 @@
       <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="145"/>
-      <c r="D116" s="152"/>
+      <c r="C116" s="132"/>
+      <c r="D116" s="155"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
@@ -48626,8 +48665,8 @@
       <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C117" s="145"/>
-      <c r="D117" s="152"/>
+      <c r="C117" s="132"/>
+      <c r="D117" s="155"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
@@ -48636,8 +48675,8 @@
       <c r="B118" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="145"/>
-      <c r="D118" s="152"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="155"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
@@ -48646,8 +48685,8 @@
       <c r="B119" s="2">
         <v>4</v>
       </c>
-      <c r="C119" s="145"/>
-      <c r="D119" s="152"/>
+      <c r="C119" s="132"/>
+      <c r="D119" s="155"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
@@ -48656,8 +48695,8 @@
       <c r="B120" s="2">
         <v>6</v>
       </c>
-      <c r="C120" s="145"/>
-      <c r="D120" s="152"/>
+      <c r="C120" s="132"/>
+      <c r="D120" s="155"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
@@ -48666,8 +48705,8 @@
       <c r="B121" s="2">
         <v>6</v>
       </c>
-      <c r="C121" s="145"/>
-      <c r="D121" s="152"/>
+      <c r="C121" s="132"/>
+      <c r="D121" s="155"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
@@ -48676,11 +48715,11 @@
       <c r="B122" s="2">
         <v>8</v>
       </c>
-      <c r="C122" s="153">
+      <c r="C122" s="156">
         <f>AVERAGE(B122:B152)</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="D122" s="152"/>
+      <c r="D122" s="155"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
@@ -48689,8 +48728,8 @@
       <c r="B123" s="2">
         <v>6</v>
       </c>
-      <c r="C123" s="154"/>
-      <c r="D123" s="152"/>
+      <c r="C123" s="157"/>
+      <c r="D123" s="155"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
@@ -48699,8 +48738,8 @@
       <c r="B124" s="2">
         <v>6</v>
       </c>
-      <c r="C124" s="154"/>
-      <c r="D124" s="152"/>
+      <c r="C124" s="157"/>
+      <c r="D124" s="155"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
@@ -48709,8 +48748,8 @@
       <c r="B125" s="2">
         <v>10</v>
       </c>
-      <c r="C125" s="154"/>
-      <c r="D125" s="152"/>
+      <c r="C125" s="157"/>
+      <c r="D125" s="155"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
@@ -48719,8 +48758,8 @@
       <c r="B126" s="2">
         <v>6</v>
       </c>
-      <c r="C126" s="154"/>
-      <c r="D126" s="152"/>
+      <c r="C126" s="157"/>
+      <c r="D126" s="155"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
@@ -48729,8 +48768,8 @@
       <c r="B127" s="2">
         <v>4</v>
       </c>
-      <c r="C127" s="154"/>
-      <c r="D127" s="152"/>
+      <c r="C127" s="157"/>
+      <c r="D127" s="155"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
@@ -48739,8 +48778,8 @@
       <c r="B128" s="2">
         <v>6</v>
       </c>
-      <c r="C128" s="154"/>
-      <c r="D128" s="152"/>
+      <c r="C128" s="157"/>
+      <c r="D128" s="155"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
@@ -48749,8 +48788,8 @@
       <c r="B129" s="2">
         <v>6</v>
       </c>
-      <c r="C129" s="154"/>
-      <c r="D129" s="152"/>
+      <c r="C129" s="157"/>
+      <c r="D129" s="155"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
@@ -48759,8 +48798,8 @@
       <c r="B130" s="2">
         <v>6</v>
       </c>
-      <c r="C130" s="154"/>
-      <c r="D130" s="152"/>
+      <c r="C130" s="157"/>
+      <c r="D130" s="155"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
@@ -48769,8 +48808,8 @@
       <c r="B131" s="2">
         <v>8</v>
       </c>
-      <c r="C131" s="154"/>
-      <c r="D131" s="152"/>
+      <c r="C131" s="157"/>
+      <c r="D131" s="155"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
@@ -48779,8 +48818,8 @@
       <c r="B132" s="2">
         <v>8</v>
       </c>
-      <c r="C132" s="154"/>
-      <c r="D132" s="152"/>
+      <c r="C132" s="157"/>
+      <c r="D132" s="155"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
@@ -48789,8 +48828,8 @@
       <c r="B133" s="2">
         <v>6</v>
       </c>
-      <c r="C133" s="154"/>
-      <c r="D133" s="152"/>
+      <c r="C133" s="157"/>
+      <c r="D133" s="155"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
@@ -48799,8 +48838,8 @@
       <c r="B134" s="2">
         <v>6</v>
       </c>
-      <c r="C134" s="154"/>
-      <c r="D134" s="152"/>
+      <c r="C134" s="157"/>
+      <c r="D134" s="155"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
@@ -48809,8 +48848,8 @@
       <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="C135" s="154"/>
-      <c r="D135" s="152"/>
+      <c r="C135" s="157"/>
+      <c r="D135" s="155"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
@@ -48819,8 +48858,8 @@
       <c r="B136" s="2">
         <v>6</v>
       </c>
-      <c r="C136" s="154"/>
-      <c r="D136" s="152"/>
+      <c r="C136" s="157"/>
+      <c r="D136" s="155"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
@@ -48829,8 +48868,8 @@
       <c r="B137" s="2">
         <v>4</v>
       </c>
-      <c r="C137" s="154"/>
-      <c r="D137" s="152"/>
+      <c r="C137" s="157"/>
+      <c r="D137" s="155"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
@@ -48839,8 +48878,8 @@
       <c r="B138" s="2">
         <v>4</v>
       </c>
-      <c r="C138" s="154"/>
-      <c r="D138" s="152"/>
+      <c r="C138" s="157"/>
+      <c r="D138" s="155"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
@@ -48849,8 +48888,8 @@
       <c r="B139" s="2">
         <v>6</v>
       </c>
-      <c r="C139" s="154"/>
-      <c r="D139" s="152"/>
+      <c r="C139" s="157"/>
+      <c r="D139" s="155"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
@@ -48859,8 +48898,8 @@
       <c r="B140" s="2">
         <v>4</v>
       </c>
-      <c r="C140" s="154"/>
-      <c r="D140" s="152"/>
+      <c r="C140" s="157"/>
+      <c r="D140" s="155"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
@@ -48869,8 +48908,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="154"/>
-      <c r="D141" s="152"/>
+      <c r="C141" s="157"/>
+      <c r="D141" s="155"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
@@ -48879,8 +48918,8 @@
       <c r="B142" s="2">
         <v>6</v>
       </c>
-      <c r="C142" s="154"/>
-      <c r="D142" s="152"/>
+      <c r="C142" s="157"/>
+      <c r="D142" s="155"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
@@ -48889,8 +48928,8 @@
       <c r="B143" s="2">
         <v>6</v>
       </c>
-      <c r="C143" s="154"/>
-      <c r="D143" s="152"/>
+      <c r="C143" s="157"/>
+      <c r="D143" s="155"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
@@ -48899,8 +48938,8 @@
       <c r="B144" s="2">
         <v>8</v>
       </c>
-      <c r="C144" s="154"/>
-      <c r="D144" s="152"/>
+      <c r="C144" s="157"/>
+      <c r="D144" s="155"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
@@ -48909,8 +48948,8 @@
       <c r="B145" s="2">
         <v>8</v>
       </c>
-      <c r="C145" s="154"/>
-      <c r="D145" s="152"/>
+      <c r="C145" s="157"/>
+      <c r="D145" s="155"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
@@ -48919,8 +48958,8 @@
       <c r="B146" s="2">
         <v>8</v>
       </c>
-      <c r="C146" s="154"/>
-      <c r="D146" s="152"/>
+      <c r="C146" s="157"/>
+      <c r="D146" s="155"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
@@ -48929,8 +48968,8 @@
       <c r="B147" s="2">
         <v>6</v>
       </c>
-      <c r="C147" s="154"/>
-      <c r="D147" s="152"/>
+      <c r="C147" s="157"/>
+      <c r="D147" s="155"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
@@ -48939,8 +48978,8 @@
       <c r="B148" s="2">
         <v>4</v>
       </c>
-      <c r="C148" s="154"/>
-      <c r="D148" s="152"/>
+      <c r="C148" s="157"/>
+      <c r="D148" s="155"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
@@ -48949,8 +48988,8 @@
       <c r="B149" s="2">
         <v>6</v>
       </c>
-      <c r="C149" s="154"/>
-      <c r="D149" s="152"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="155"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
@@ -48959,8 +48998,8 @@
       <c r="B150" s="2">
         <v>6</v>
       </c>
-      <c r="C150" s="154"/>
-      <c r="D150" s="152"/>
+      <c r="C150" s="157"/>
+      <c r="D150" s="155"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
@@ -48969,8 +49008,8 @@
       <c r="B151" s="2">
         <v>6</v>
       </c>
-      <c r="C151" s="154"/>
-      <c r="D151" s="152"/>
+      <c r="C151" s="157"/>
+      <c r="D151" s="155"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
@@ -48979,8 +49018,8 @@
       <c r="B152" s="2">
         <v>6</v>
       </c>
-      <c r="C152" s="144"/>
-      <c r="D152" s="152"/>
+      <c r="C152" s="131"/>
+      <c r="D152" s="155"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
@@ -48989,11 +49028,11 @@
       <c r="B153" s="2">
         <v>6</v>
       </c>
-      <c r="C153" s="153">
+      <c r="C153" s="156">
         <f>AVERAGE(B153:B182)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D153" s="152"/>
+      <c r="D153" s="155"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
@@ -49002,8 +49041,8 @@
       <c r="B154" s="2">
         <v>6</v>
       </c>
-      <c r="C154" s="154"/>
-      <c r="D154" s="152"/>
+      <c r="C154" s="157"/>
+      <c r="D154" s="155"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
@@ -49012,8 +49051,8 @@
       <c r="B155" s="2">
         <v>4</v>
       </c>
-      <c r="C155" s="154"/>
-      <c r="D155" s="152"/>
+      <c r="C155" s="157"/>
+      <c r="D155" s="155"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
@@ -49022,8 +49061,8 @@
       <c r="B156" s="2">
         <v>8</v>
       </c>
-      <c r="C156" s="154"/>
-      <c r="D156" s="152"/>
+      <c r="C156" s="157"/>
+      <c r="D156" s="155"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
@@ -49032,8 +49071,8 @@
       <c r="B157" s="2">
         <v>10</v>
       </c>
-      <c r="C157" s="154"/>
-      <c r="D157" s="152"/>
+      <c r="C157" s="157"/>
+      <c r="D157" s="155"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
@@ -49042,8 +49081,8 @@
       <c r="B158" s="2">
         <v>6</v>
       </c>
-      <c r="C158" s="154"/>
-      <c r="D158" s="152"/>
+      <c r="C158" s="157"/>
+      <c r="D158" s="155"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
@@ -49052,8 +49091,8 @@
       <c r="B159" s="2">
         <v>4</v>
       </c>
-      <c r="C159" s="154"/>
-      <c r="D159" s="152"/>
+      <c r="C159" s="157"/>
+      <c r="D159" s="155"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
@@ -49062,8 +49101,8 @@
       <c r="B160" s="2">
         <v>6</v>
       </c>
-      <c r="C160" s="154"/>
-      <c r="D160" s="152"/>
+      <c r="C160" s="157"/>
+      <c r="D160" s="155"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
@@ -49072,8 +49111,8 @@
       <c r="B161" s="2">
         <v>6</v>
       </c>
-      <c r="C161" s="154"/>
-      <c r="D161" s="152"/>
+      <c r="C161" s="157"/>
+      <c r="D161" s="155"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
@@ -49082,8 +49121,8 @@
       <c r="B162" s="2">
         <v>6</v>
       </c>
-      <c r="C162" s="154"/>
-      <c r="D162" s="152"/>
+      <c r="C162" s="157"/>
+      <c r="D162" s="155"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
@@ -49092,8 +49131,8 @@
       <c r="B163" s="2">
         <v>0</v>
       </c>
-      <c r="C163" s="154"/>
-      <c r="D163" s="152"/>
+      <c r="C163" s="157"/>
+      <c r="D163" s="155"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
@@ -49102,8 +49141,8 @@
       <c r="B164" s="2">
         <v>4</v>
       </c>
-      <c r="C164" s="154"/>
-      <c r="D164" s="152"/>
+      <c r="C164" s="157"/>
+      <c r="D164" s="155"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
@@ -49112,8 +49151,8 @@
       <c r="B165" s="2">
         <v>4</v>
       </c>
-      <c r="C165" s="154"/>
-      <c r="D165" s="152"/>
+      <c r="C165" s="157"/>
+      <c r="D165" s="155"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
@@ -49122,8 +49161,8 @@
       <c r="B166" s="2">
         <v>4</v>
       </c>
-      <c r="C166" s="154"/>
-      <c r="D166" s="152"/>
+      <c r="C166" s="157"/>
+      <c r="D166" s="155"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
@@ -49132,8 +49171,8 @@
       <c r="B167" s="2">
         <v>6</v>
       </c>
-      <c r="C167" s="154"/>
-      <c r="D167" s="152"/>
+      <c r="C167" s="157"/>
+      <c r="D167" s="155"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
@@ -49142,8 +49181,8 @@
       <c r="B168" s="2">
         <v>6</v>
       </c>
-      <c r="C168" s="154"/>
-      <c r="D168" s="152"/>
+      <c r="C168" s="157"/>
+      <c r="D168" s="155"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
@@ -49152,8 +49191,8 @@
       <c r="B169" s="2">
         <v>4</v>
       </c>
-      <c r="C169" s="154"/>
-      <c r="D169" s="152"/>
+      <c r="C169" s="157"/>
+      <c r="D169" s="155"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
@@ -49162,8 +49201,8 @@
       <c r="B170" s="2">
         <v>4</v>
       </c>
-      <c r="C170" s="154"/>
-      <c r="D170" s="152"/>
+      <c r="C170" s="157"/>
+      <c r="D170" s="155"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
@@ -49172,8 +49211,8 @@
       <c r="B171" s="2">
         <v>10</v>
       </c>
-      <c r="C171" s="154"/>
-      <c r="D171" s="152"/>
+      <c r="C171" s="157"/>
+      <c r="D171" s="155"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
@@ -49182,8 +49221,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="154"/>
-      <c r="D172" s="152"/>
+      <c r="C172" s="157"/>
+      <c r="D172" s="155"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
@@ -49192,8 +49231,8 @@
       <c r="B173" s="2">
         <v>2</v>
       </c>
-      <c r="C173" s="154"/>
-      <c r="D173" s="152"/>
+      <c r="C173" s="157"/>
+      <c r="D173" s="155"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
@@ -49202,8 +49241,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="154"/>
-      <c r="D174" s="152"/>
+      <c r="C174" s="157"/>
+      <c r="D174" s="155"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
@@ -49212,8 +49251,8 @@
       <c r="B175" s="2">
         <v>4</v>
       </c>
-      <c r="C175" s="154"/>
-      <c r="D175" s="152"/>
+      <c r="C175" s="157"/>
+      <c r="D175" s="155"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
@@ -49222,8 +49261,8 @@
       <c r="B176" s="2">
         <v>6</v>
       </c>
-      <c r="C176" s="154"/>
-      <c r="D176" s="152"/>
+      <c r="C176" s="157"/>
+      <c r="D176" s="155"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
@@ -49232,8 +49271,8 @@
       <c r="B177" s="2">
         <v>4</v>
       </c>
-      <c r="C177" s="154"/>
-      <c r="D177" s="152"/>
+      <c r="C177" s="157"/>
+      <c r="D177" s="155"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
@@ -49242,8 +49281,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="154"/>
-      <c r="D178" s="152"/>
+      <c r="C178" s="157"/>
+      <c r="D178" s="155"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
@@ -49252,8 +49291,8 @@
       <c r="B179" s="2">
         <v>6</v>
       </c>
-      <c r="C179" s="154"/>
-      <c r="D179" s="152"/>
+      <c r="C179" s="157"/>
+      <c r="D179" s="155"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
@@ -49262,8 +49301,8 @@
       <c r="B180" s="2">
         <v>10</v>
       </c>
-      <c r="C180" s="154"/>
-      <c r="D180" s="152"/>
+      <c r="C180" s="157"/>
+      <c r="D180" s="155"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
@@ -49272,8 +49311,8 @@
       <c r="B181" s="2">
         <v>8</v>
       </c>
-      <c r="C181" s="154"/>
-      <c r="D181" s="152"/>
+      <c r="C181" s="157"/>
+      <c r="D181" s="155"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
@@ -49282,8 +49321,8 @@
       <c r="B182" s="2">
         <v>6</v>
       </c>
-      <c r="C182" s="144"/>
-      <c r="D182" s="152"/>
+      <c r="C182" s="131"/>
+      <c r="D182" s="155"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
@@ -49292,11 +49331,11 @@
       <c r="B183" s="2">
         <v>6</v>
       </c>
-      <c r="C183" s="153">
+      <c r="C183" s="156">
         <f>AVERAGE(B183:B213)</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="D183" s="152"/>
+      <c r="D183" s="155"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
@@ -49305,8 +49344,8 @@
       <c r="B184" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="154"/>
-      <c r="D184" s="152"/>
+      <c r="C184" s="157"/>
+      <c r="D184" s="155"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
@@ -49315,8 +49354,8 @@
       <c r="B185" s="2">
         <v>2</v>
       </c>
-      <c r="C185" s="154"/>
-      <c r="D185" s="152"/>
+      <c r="C185" s="157"/>
+      <c r="D185" s="155"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
@@ -49325,8 +49364,8 @@
       <c r="B186" s="2">
         <v>4</v>
       </c>
-      <c r="C186" s="154"/>
-      <c r="D186" s="152"/>
+      <c r="C186" s="157"/>
+      <c r="D186" s="155"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
@@ -49335,8 +49374,8 @@
       <c r="B187" s="2">
         <v>4</v>
       </c>
-      <c r="C187" s="154"/>
-      <c r="D187" s="152"/>
+      <c r="C187" s="157"/>
+      <c r="D187" s="155"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
@@ -49345,8 +49384,8 @@
       <c r="B188" s="2">
         <v>10</v>
       </c>
-      <c r="C188" s="154"/>
-      <c r="D188" s="152"/>
+      <c r="C188" s="157"/>
+      <c r="D188" s="155"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
@@ -49355,8 +49394,8 @@
       <c r="B189" s="2">
         <v>6</v>
       </c>
-      <c r="C189" s="154"/>
-      <c r="D189" s="152"/>
+      <c r="C189" s="157"/>
+      <c r="D189" s="155"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
@@ -49365,8 +49404,8 @@
       <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C190" s="154"/>
-      <c r="D190" s="152"/>
+      <c r="C190" s="157"/>
+      <c r="D190" s="155"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
@@ -49375,8 +49414,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="154"/>
-      <c r="D191" s="152"/>
+      <c r="C191" s="157"/>
+      <c r="D191" s="155"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
@@ -49385,8 +49424,8 @@
       <c r="B192" s="2">
         <v>4</v>
       </c>
-      <c r="C192" s="154"/>
-      <c r="D192" s="152"/>
+      <c r="C192" s="157"/>
+      <c r="D192" s="155"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
@@ -49395,8 +49434,8 @@
       <c r="B193" s="2">
         <v>6</v>
       </c>
-      <c r="C193" s="154"/>
-      <c r="D193" s="152"/>
+      <c r="C193" s="157"/>
+      <c r="D193" s="155"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
@@ -49405,8 +49444,8 @@
       <c r="B194" s="2">
         <v>4</v>
       </c>
-      <c r="C194" s="154"/>
-      <c r="D194" s="152"/>
+      <c r="C194" s="157"/>
+      <c r="D194" s="155"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
@@ -49415,8 +49454,8 @@
       <c r="B195" s="2">
         <v>10</v>
       </c>
-      <c r="C195" s="154"/>
-      <c r="D195" s="152"/>
+      <c r="C195" s="157"/>
+      <c r="D195" s="155"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
@@ -49425,8 +49464,8 @@
       <c r="B196" s="2">
         <v>6</v>
       </c>
-      <c r="C196" s="154"/>
-      <c r="D196" s="152"/>
+      <c r="C196" s="157"/>
+      <c r="D196" s="155"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
@@ -49435,8 +49474,8 @@
       <c r="B197" s="2">
         <v>4</v>
       </c>
-      <c r="C197" s="154"/>
-      <c r="D197" s="152"/>
+      <c r="C197" s="157"/>
+      <c r="D197" s="155"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
@@ -49445,8 +49484,8 @@
       <c r="B198" s="2">
         <v>4</v>
       </c>
-      <c r="C198" s="154"/>
-      <c r="D198" s="152"/>
+      <c r="C198" s="157"/>
+      <c r="D198" s="155"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
@@ -49455,8 +49494,8 @@
       <c r="B199" s="2">
         <v>6</v>
       </c>
-      <c r="C199" s="154"/>
-      <c r="D199" s="152"/>
+      <c r="C199" s="157"/>
+      <c r="D199" s="155"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
@@ -49465,8 +49504,8 @@
       <c r="B200" s="2">
         <v>4</v>
       </c>
-      <c r="C200" s="154"/>
-      <c r="D200" s="152"/>
+      <c r="C200" s="157"/>
+      <c r="D200" s="155"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
@@ -49475,8 +49514,8 @@
       <c r="B201" s="2">
         <v>2</v>
       </c>
-      <c r="C201" s="154"/>
-      <c r="D201" s="152"/>
+      <c r="C201" s="157"/>
+      <c r="D201" s="155"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
@@ -49485,8 +49524,8 @@
       <c r="B202" s="2">
         <v>8</v>
       </c>
-      <c r="C202" s="154"/>
-      <c r="D202" s="152"/>
+      <c r="C202" s="157"/>
+      <c r="D202" s="155"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
@@ -49495,8 +49534,8 @@
       <c r="B203" s="2">
         <v>6</v>
       </c>
-      <c r="C203" s="154"/>
-      <c r="D203" s="152"/>
+      <c r="C203" s="157"/>
+      <c r="D203" s="155"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
@@ -49505,8 +49544,8 @@
       <c r="B204" s="2">
         <v>4</v>
       </c>
-      <c r="C204" s="154"/>
-      <c r="D204" s="152"/>
+      <c r="C204" s="157"/>
+      <c r="D204" s="155"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
@@ -49515,8 +49554,8 @@
       <c r="B205" s="2">
         <v>4</v>
       </c>
-      <c r="C205" s="154"/>
-      <c r="D205" s="152"/>
+      <c r="C205" s="157"/>
+      <c r="D205" s="155"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
@@ -49525,8 +49564,8 @@
       <c r="B206" s="2">
         <v>2</v>
       </c>
-      <c r="C206" s="154"/>
-      <c r="D206" s="152"/>
+      <c r="C206" s="157"/>
+      <c r="D206" s="155"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
@@ -49535,8 +49574,8 @@
       <c r="B207" s="2">
         <v>4</v>
       </c>
-      <c r="C207" s="154"/>
-      <c r="D207" s="152"/>
+      <c r="C207" s="157"/>
+      <c r="D207" s="155"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
@@ -49545,8 +49584,8 @@
       <c r="B208" s="2">
         <v>4</v>
       </c>
-      <c r="C208" s="154"/>
-      <c r="D208" s="152"/>
+      <c r="C208" s="157"/>
+      <c r="D208" s="155"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
@@ -49555,8 +49594,8 @@
       <c r="B209" s="2">
         <v>6</v>
       </c>
-      <c r="C209" s="154"/>
-      <c r="D209" s="152"/>
+      <c r="C209" s="157"/>
+      <c r="D209" s="155"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
@@ -49565,8 +49604,8 @@
       <c r="B210" s="2">
         <v>6</v>
       </c>
-      <c r="C210" s="154"/>
-      <c r="D210" s="152"/>
+      <c r="C210" s="157"/>
+      <c r="D210" s="155"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
@@ -49575,8 +49614,8 @@
       <c r="B211" s="2">
         <v>6</v>
       </c>
-      <c r="C211" s="154"/>
-      <c r="D211" s="152"/>
+      <c r="C211" s="157"/>
+      <c r="D211" s="155"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
@@ -49585,8 +49624,8 @@
       <c r="B212" s="2">
         <v>6</v>
       </c>
-      <c r="C212" s="154"/>
-      <c r="D212" s="152"/>
+      <c r="C212" s="157"/>
+      <c r="D212" s="155"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
@@ -49595,8 +49634,8 @@
       <c r="B213" s="2">
         <v>6</v>
       </c>
-      <c r="C213" s="144"/>
-      <c r="D213" s="152"/>
+      <c r="C213" s="131"/>
+      <c r="D213" s="155"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
@@ -49605,11 +49644,11 @@
       <c r="B214" s="2">
         <v>6</v>
       </c>
-      <c r="C214" s="153">
+      <c r="C214" s="156">
         <f>AVERAGE(B214:B244)</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="D214" s="152"/>
+      <c r="D214" s="155"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
@@ -49618,8 +49657,8 @@
       <c r="B215" s="2">
         <v>6</v>
       </c>
-      <c r="C215" s="154"/>
-      <c r="D215" s="152"/>
+      <c r="C215" s="157"/>
+      <c r="D215" s="155"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
@@ -49628,8 +49667,8 @@
       <c r="B216" s="2">
         <v>6</v>
       </c>
-      <c r="C216" s="154"/>
-      <c r="D216" s="152"/>
+      <c r="C216" s="157"/>
+      <c r="D216" s="155"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
@@ -49638,8 +49677,8 @@
       <c r="B217" s="2">
         <v>8</v>
       </c>
-      <c r="C217" s="154"/>
-      <c r="D217" s="152"/>
+      <c r="C217" s="157"/>
+      <c r="D217" s="155"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
@@ -49648,8 +49687,8 @@
       <c r="B218" s="2">
         <v>4</v>
       </c>
-      <c r="C218" s="154"/>
-      <c r="D218" s="152"/>
+      <c r="C218" s="157"/>
+      <c r="D218" s="155"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
@@ -49658,8 +49697,8 @@
       <c r="B219" s="2">
         <v>4</v>
       </c>
-      <c r="C219" s="154"/>
-      <c r="D219" s="152"/>
+      <c r="C219" s="157"/>
+      <c r="D219" s="155"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
@@ -49668,8 +49707,8 @@
       <c r="B220" s="2">
         <v>6</v>
       </c>
-      <c r="C220" s="154"/>
-      <c r="D220" s="152"/>
+      <c r="C220" s="157"/>
+      <c r="D220" s="155"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
@@ -49678,8 +49717,8 @@
       <c r="B221" s="2">
         <v>4</v>
       </c>
-      <c r="C221" s="154"/>
-      <c r="D221" s="152"/>
+      <c r="C221" s="157"/>
+      <c r="D221" s="155"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
@@ -49688,8 +49727,8 @@
       <c r="B222" s="2">
         <v>6</v>
       </c>
-      <c r="C222" s="154"/>
-      <c r="D222" s="152"/>
+      <c r="C222" s="157"/>
+      <c r="D222" s="155"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
@@ -49698,8 +49737,8 @@
       <c r="B223" s="2">
         <v>6</v>
       </c>
-      <c r="C223" s="154"/>
-      <c r="D223" s="152"/>
+      <c r="C223" s="157"/>
+      <c r="D223" s="155"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
@@ -49708,8 +49747,8 @@
       <c r="B224" s="2">
         <v>6</v>
       </c>
-      <c r="C224" s="154"/>
-      <c r="D224" s="152"/>
+      <c r="C224" s="157"/>
+      <c r="D224" s="155"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
@@ -49718,8 +49757,8 @@
       <c r="B225" s="2">
         <v>6</v>
       </c>
-      <c r="C225" s="154"/>
-      <c r="D225" s="152"/>
+      <c r="C225" s="157"/>
+      <c r="D225" s="155"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
@@ -49728,8 +49767,8 @@
       <c r="B226" s="2">
         <v>4</v>
       </c>
-      <c r="C226" s="154"/>
-      <c r="D226" s="152"/>
+      <c r="C226" s="157"/>
+      <c r="D226" s="155"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
@@ -49738,8 +49777,8 @@
       <c r="B227" s="2">
         <v>2</v>
       </c>
-      <c r="C227" s="154"/>
-      <c r="D227" s="152"/>
+      <c r="C227" s="157"/>
+      <c r="D227" s="155"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
@@ -49748,8 +49787,8 @@
       <c r="B228" s="2">
         <v>2</v>
       </c>
-      <c r="C228" s="154"/>
-      <c r="D228" s="152"/>
+      <c r="C228" s="157"/>
+      <c r="D228" s="155"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
@@ -49758,8 +49797,8 @@
       <c r="B229" s="2">
         <v>4</v>
       </c>
-      <c r="C229" s="154"/>
-      <c r="D229" s="152"/>
+      <c r="C229" s="157"/>
+      <c r="D229" s="155"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
@@ -49768,8 +49807,8 @@
       <c r="B230" s="2">
         <v>6</v>
       </c>
-      <c r="C230" s="154"/>
-      <c r="D230" s="152"/>
+      <c r="C230" s="157"/>
+      <c r="D230" s="155"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
@@ -49778,8 +49817,8 @@
       <c r="B231" s="2">
         <v>8</v>
       </c>
-      <c r="C231" s="154"/>
-      <c r="D231" s="152"/>
+      <c r="C231" s="157"/>
+      <c r="D231" s="155"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
@@ -49788,8 +49827,8 @@
       <c r="B232" s="2">
         <v>4</v>
       </c>
-      <c r="C232" s="154"/>
-      <c r="D232" s="152"/>
+      <c r="C232" s="157"/>
+      <c r="D232" s="155"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
@@ -49798,8 +49837,8 @@
       <c r="B233" s="2">
         <v>4</v>
       </c>
-      <c r="C233" s="154"/>
-      <c r="D233" s="152"/>
+      <c r="C233" s="157"/>
+      <c r="D233" s="155"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
@@ -49808,8 +49847,8 @@
       <c r="B234" s="2">
         <v>4</v>
       </c>
-      <c r="C234" s="154"/>
-      <c r="D234" s="152"/>
+      <c r="C234" s="157"/>
+      <c r="D234" s="155"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
@@ -49818,8 +49857,8 @@
       <c r="B235" s="2">
         <v>4</v>
       </c>
-      <c r="C235" s="154"/>
-      <c r="D235" s="152"/>
+      <c r="C235" s="157"/>
+      <c r="D235" s="155"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
@@ -49828,8 +49867,8 @@
       <c r="B236" s="2">
         <v>6</v>
       </c>
-      <c r="C236" s="154"/>
-      <c r="D236" s="152"/>
+      <c r="C236" s="157"/>
+      <c r="D236" s="155"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
@@ -49838,8 +49877,8 @@
       <c r="B237" s="2">
         <v>4</v>
       </c>
-      <c r="C237" s="154"/>
-      <c r="D237" s="152"/>
+      <c r="C237" s="157"/>
+      <c r="D237" s="155"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
@@ -49848,8 +49887,8 @@
       <c r="B238" s="2">
         <v>4</v>
       </c>
-      <c r="C238" s="154"/>
-      <c r="D238" s="152"/>
+      <c r="C238" s="157"/>
+      <c r="D238" s="155"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
@@ -49858,8 +49897,8 @@
       <c r="B239" s="2">
         <v>6</v>
       </c>
-      <c r="C239" s="154"/>
-      <c r="D239" s="152"/>
+      <c r="C239" s="157"/>
+      <c r="D239" s="155"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
@@ -49868,8 +49907,8 @@
       <c r="B240" s="2">
         <v>2</v>
       </c>
-      <c r="C240" s="154"/>
-      <c r="D240" s="152"/>
+      <c r="C240" s="157"/>
+      <c r="D240" s="155"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
@@ -49878,8 +49917,8 @@
       <c r="B241" s="2">
         <v>6</v>
       </c>
-      <c r="C241" s="154"/>
-      <c r="D241" s="152"/>
+      <c r="C241" s="157"/>
+      <c r="D241" s="155"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
@@ -49888,8 +49927,8 @@
       <c r="B242" s="2">
         <v>6</v>
       </c>
-      <c r="C242" s="154"/>
-      <c r="D242" s="152"/>
+      <c r="C242" s="157"/>
+      <c r="D242" s="155"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
@@ -49898,8 +49937,8 @@
       <c r="B243" s="2">
         <v>4</v>
       </c>
-      <c r="C243" s="154"/>
-      <c r="D243" s="152"/>
+      <c r="C243" s="157"/>
+      <c r="D243" s="155"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
@@ -49908,8 +49947,8 @@
       <c r="B244" s="2">
         <v>6</v>
       </c>
-      <c r="C244" s="144"/>
-      <c r="D244" s="152"/>
+      <c r="C244" s="131"/>
+      <c r="D244" s="155"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
@@ -49918,11 +49957,11 @@
       <c r="B245" s="2">
         <v>4</v>
       </c>
-      <c r="C245" s="153">
+      <c r="C245" s="156">
         <f>AVERAGE(B245:B274)</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="D245" s="152"/>
+      <c r="D245" s="155"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
@@ -49931,8 +49970,8 @@
       <c r="B246" s="2">
         <v>4</v>
       </c>
-      <c r="C246" s="154"/>
-      <c r="D246" s="152"/>
+      <c r="C246" s="157"/>
+      <c r="D246" s="155"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
@@ -49941,8 +49980,8 @@
       <c r="B247" s="2">
         <v>6</v>
       </c>
-      <c r="C247" s="154"/>
-      <c r="D247" s="152"/>
+      <c r="C247" s="157"/>
+      <c r="D247" s="155"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
@@ -49951,8 +49990,8 @@
       <c r="B248" s="2">
         <v>4</v>
       </c>
-      <c r="C248" s="154"/>
-      <c r="D248" s="152"/>
+      <c r="C248" s="157"/>
+      <c r="D248" s="155"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
@@ -49961,8 +50000,8 @@
       <c r="B249" s="2">
         <v>6</v>
       </c>
-      <c r="C249" s="154"/>
-      <c r="D249" s="152"/>
+      <c r="C249" s="157"/>
+      <c r="D249" s="155"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
@@ -49971,8 +50010,8 @@
       <c r="B250" s="2">
         <v>4</v>
       </c>
-      <c r="C250" s="154"/>
-      <c r="D250" s="152"/>
+      <c r="C250" s="157"/>
+      <c r="D250" s="155"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
@@ -49981,8 +50020,8 @@
       <c r="B251" s="2">
         <v>4</v>
       </c>
-      <c r="C251" s="154"/>
-      <c r="D251" s="152"/>
+      <c r="C251" s="157"/>
+      <c r="D251" s="155"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
@@ -49991,8 +50030,8 @@
       <c r="B252" s="2">
         <v>6</v>
       </c>
-      <c r="C252" s="154"/>
-      <c r="D252" s="152"/>
+      <c r="C252" s="157"/>
+      <c r="D252" s="155"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
@@ -50001,8 +50040,8 @@
       <c r="B253" s="2">
         <v>4</v>
       </c>
-      <c r="C253" s="154"/>
-      <c r="D253" s="152"/>
+      <c r="C253" s="157"/>
+      <c r="D253" s="155"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
@@ -50011,8 +50050,8 @@
       <c r="B254" s="2">
         <v>4</v>
       </c>
-      <c r="C254" s="154"/>
-      <c r="D254" s="152"/>
+      <c r="C254" s="157"/>
+      <c r="D254" s="155"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
@@ -50021,8 +50060,8 @@
       <c r="B255" s="2">
         <v>6</v>
       </c>
-      <c r="C255" s="154"/>
-      <c r="D255" s="152"/>
+      <c r="C255" s="157"/>
+      <c r="D255" s="155"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
@@ -50031,8 +50070,8 @@
       <c r="B256" s="2">
         <v>6</v>
       </c>
-      <c r="C256" s="154"/>
-      <c r="D256" s="152"/>
+      <c r="C256" s="157"/>
+      <c r="D256" s="155"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
@@ -50041,8 +50080,8 @@
       <c r="B257" s="2">
         <v>10</v>
       </c>
-      <c r="C257" s="154"/>
-      <c r="D257" s="152"/>
+      <c r="C257" s="157"/>
+      <c r="D257" s="155"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
@@ -50051,8 +50090,8 @@
       <c r="B258" s="2">
         <v>8</v>
       </c>
-      <c r="C258" s="154"/>
-      <c r="D258" s="152"/>
+      <c r="C258" s="157"/>
+      <c r="D258" s="155"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
@@ -50061,8 +50100,8 @@
       <c r="B259" s="2">
         <v>6</v>
       </c>
-      <c r="C259" s="154"/>
-      <c r="D259" s="152"/>
+      <c r="C259" s="157"/>
+      <c r="D259" s="155"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
@@ -50071,8 +50110,8 @@
       <c r="B260" s="2">
         <v>6</v>
       </c>
-      <c r="C260" s="154"/>
-      <c r="D260" s="152"/>
+      <c r="C260" s="157"/>
+      <c r="D260" s="155"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
@@ -50081,8 +50120,8 @@
       <c r="B261" s="2">
         <v>4</v>
       </c>
-      <c r="C261" s="154"/>
-      <c r="D261" s="152"/>
+      <c r="C261" s="157"/>
+      <c r="D261" s="155"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
@@ -50091,8 +50130,8 @@
       <c r="B262" s="2">
         <v>2</v>
       </c>
-      <c r="C262" s="154"/>
-      <c r="D262" s="152"/>
+      <c r="C262" s="157"/>
+      <c r="D262" s="155"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
@@ -50101,8 +50140,8 @@
       <c r="B263" s="2">
         <v>4</v>
       </c>
-      <c r="C263" s="154"/>
-      <c r="D263" s="152"/>
+      <c r="C263" s="157"/>
+      <c r="D263" s="155"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
@@ -50111,8 +50150,8 @@
       <c r="B264" s="2">
         <v>4</v>
       </c>
-      <c r="C264" s="154"/>
-      <c r="D264" s="152"/>
+      <c r="C264" s="157"/>
+      <c r="D264" s="155"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
@@ -50121,8 +50160,8 @@
       <c r="B265" s="2">
         <v>6</v>
       </c>
-      <c r="C265" s="154"/>
-      <c r="D265" s="152"/>
+      <c r="C265" s="157"/>
+      <c r="D265" s="155"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
@@ -50131,8 +50170,8 @@
       <c r="B266" s="2">
         <v>6</v>
       </c>
-      <c r="C266" s="154"/>
-      <c r="D266" s="152"/>
+      <c r="C266" s="157"/>
+      <c r="D266" s="155"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
@@ -50141,8 +50180,8 @@
       <c r="B267" s="2">
         <v>4</v>
       </c>
-      <c r="C267" s="154"/>
-      <c r="D267" s="152"/>
+      <c r="C267" s="157"/>
+      <c r="D267" s="155"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
@@ -50151,8 +50190,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="154"/>
-      <c r="D268" s="152"/>
+      <c r="C268" s="157"/>
+      <c r="D268" s="155"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
@@ -50161,8 +50200,8 @@
       <c r="B269" s="2">
         <v>6</v>
       </c>
-      <c r="C269" s="154"/>
-      <c r="D269" s="152"/>
+      <c r="C269" s="157"/>
+      <c r="D269" s="155"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
@@ -50171,8 +50210,8 @@
       <c r="B270" s="2">
         <v>8</v>
       </c>
-      <c r="C270" s="154"/>
-      <c r="D270" s="152"/>
+      <c r="C270" s="157"/>
+      <c r="D270" s="155"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
@@ -50181,8 +50220,8 @@
       <c r="B271" s="2">
         <v>4</v>
       </c>
-      <c r="C271" s="154"/>
-      <c r="D271" s="152"/>
+      <c r="C271" s="157"/>
+      <c r="D271" s="155"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
@@ -50191,8 +50230,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="154"/>
-      <c r="D272" s="152"/>
+      <c r="C272" s="157"/>
+      <c r="D272" s="155"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
@@ -50201,8 +50240,8 @@
       <c r="B273" s="2">
         <v>8</v>
       </c>
-      <c r="C273" s="154"/>
-      <c r="D273" s="152"/>
+      <c r="C273" s="157"/>
+      <c r="D273" s="155"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
@@ -50211,8 +50250,8 @@
       <c r="B274" s="2">
         <v>6</v>
       </c>
-      <c r="C274" s="144"/>
-      <c r="D274" s="152"/>
+      <c r="C274" s="131"/>
+      <c r="D274" s="155"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
@@ -50221,11 +50260,11 @@
       <c r="B275" s="2">
         <v>4</v>
       </c>
-      <c r="C275" s="153">
+      <c r="C275" s="156">
         <f>AVERAGE(B275:B305)</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="D275" s="152"/>
+      <c r="D275" s="155"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
@@ -50234,8 +50273,8 @@
       <c r="B276" s="2">
         <v>6</v>
       </c>
-      <c r="C276" s="154"/>
-      <c r="D276" s="152"/>
+      <c r="C276" s="157"/>
+      <c r="D276" s="155"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
@@ -50244,8 +50283,8 @@
       <c r="B277" s="2">
         <v>6</v>
       </c>
-      <c r="C277" s="154"/>
-      <c r="D277" s="152"/>
+      <c r="C277" s="157"/>
+      <c r="D277" s="155"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
@@ -50254,8 +50293,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="154"/>
-      <c r="D278" s="152"/>
+      <c r="C278" s="157"/>
+      <c r="D278" s="155"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
@@ -50264,8 +50303,8 @@
       <c r="B279" s="2">
         <v>2</v>
       </c>
-      <c r="C279" s="154"/>
-      <c r="D279" s="152"/>
+      <c r="C279" s="157"/>
+      <c r="D279" s="155"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
@@ -50274,8 +50313,8 @@
       <c r="B280" s="2">
         <v>4</v>
       </c>
-      <c r="C280" s="154"/>
-      <c r="D280" s="152"/>
+      <c r="C280" s="157"/>
+      <c r="D280" s="155"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
@@ -50284,8 +50323,8 @@
       <c r="B281" s="2">
         <v>0</v>
       </c>
-      <c r="C281" s="154"/>
-      <c r="D281" s="152"/>
+      <c r="C281" s="157"/>
+      <c r="D281" s="155"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
@@ -50294,8 +50333,8 @@
       <c r="B282" s="2">
         <v>2</v>
       </c>
-      <c r="C282" s="154"/>
-      <c r="D282" s="152"/>
+      <c r="C282" s="157"/>
+      <c r="D282" s="155"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
@@ -50304,8 +50343,8 @@
       <c r="B283" s="2">
         <v>6</v>
       </c>
-      <c r="C283" s="154"/>
-      <c r="D283" s="152"/>
+      <c r="C283" s="157"/>
+      <c r="D283" s="155"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
@@ -50314,8 +50353,8 @@
       <c r="B284" s="2">
         <v>6</v>
       </c>
-      <c r="C284" s="154"/>
-      <c r="D284" s="152"/>
+      <c r="C284" s="157"/>
+      <c r="D284" s="155"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
@@ -50324,8 +50363,8 @@
       <c r="B285" s="2">
         <v>8</v>
       </c>
-      <c r="C285" s="154"/>
-      <c r="D285" s="152"/>
+      <c r="C285" s="157"/>
+      <c r="D285" s="155"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
@@ -50334,8 +50373,8 @@
       <c r="B286" s="2">
         <v>8</v>
       </c>
-      <c r="C286" s="154"/>
-      <c r="D286" s="152"/>
+      <c r="C286" s="157"/>
+      <c r="D286" s="155"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
@@ -50344,8 +50383,8 @@
       <c r="B287" s="2">
         <v>6</v>
       </c>
-      <c r="C287" s="154"/>
-      <c r="D287" s="152"/>
+      <c r="C287" s="157"/>
+      <c r="D287" s="155"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
@@ -50354,8 +50393,8 @@
       <c r="B288" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="154"/>
-      <c r="D288" s="152"/>
+      <c r="C288" s="157"/>
+      <c r="D288" s="155"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
@@ -50364,8 +50403,8 @@
       <c r="B289" s="2">
         <v>6</v>
       </c>
-      <c r="C289" s="154"/>
-      <c r="D289" s="152"/>
+      <c r="C289" s="157"/>
+      <c r="D289" s="155"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
@@ -50374,8 +50413,8 @@
       <c r="B290" s="2">
         <v>4</v>
       </c>
-      <c r="C290" s="154"/>
-      <c r="D290" s="152"/>
+      <c r="C290" s="157"/>
+      <c r="D290" s="155"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
@@ -50384,8 +50423,8 @@
       <c r="B291" s="2">
         <v>6</v>
       </c>
-      <c r="C291" s="154"/>
-      <c r="D291" s="152"/>
+      <c r="C291" s="157"/>
+      <c r="D291" s="155"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
@@ -50394,8 +50433,8 @@
       <c r="B292" s="2">
         <v>8</v>
       </c>
-      <c r="C292" s="154"/>
-      <c r="D292" s="152"/>
+      <c r="C292" s="157"/>
+      <c r="D292" s="155"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
@@ -50404,8 +50443,8 @@
       <c r="B293" s="2">
         <v>6</v>
       </c>
-      <c r="C293" s="154"/>
-      <c r="D293" s="152"/>
+      <c r="C293" s="157"/>
+      <c r="D293" s="155"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
@@ -50414,8 +50453,8 @@
       <c r="B294" s="2">
         <v>6</v>
       </c>
-      <c r="C294" s="154"/>
-      <c r="D294" s="152"/>
+      <c r="C294" s="157"/>
+      <c r="D294" s="155"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
@@ -50424,8 +50463,8 @@
       <c r="B295" s="2">
         <v>6</v>
       </c>
-      <c r="C295" s="154"/>
-      <c r="D295" s="152"/>
+      <c r="C295" s="157"/>
+      <c r="D295" s="155"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
@@ -50434,8 +50473,8 @@
       <c r="B296" s="2">
         <v>6</v>
       </c>
-      <c r="C296" s="154"/>
-      <c r="D296" s="152"/>
+      <c r="C296" s="157"/>
+      <c r="D296" s="155"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
@@ -50444,8 +50483,8 @@
       <c r="B297" s="2">
         <v>4</v>
       </c>
-      <c r="C297" s="154"/>
-      <c r="D297" s="152"/>
+      <c r="C297" s="157"/>
+      <c r="D297" s="155"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
@@ -50454,8 +50493,8 @@
       <c r="B298" s="2">
         <v>4</v>
       </c>
-      <c r="C298" s="154"/>
-      <c r="D298" s="152"/>
+      <c r="C298" s="157"/>
+      <c r="D298" s="155"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
@@ -50464,8 +50503,8 @@
       <c r="B299" s="2">
         <v>6</v>
       </c>
-      <c r="C299" s="154"/>
-      <c r="D299" s="152"/>
+      <c r="C299" s="157"/>
+      <c r="D299" s="155"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
@@ -50474,8 +50513,8 @@
       <c r="B300" s="2">
         <v>6</v>
       </c>
-      <c r="C300" s="154"/>
-      <c r="D300" s="152"/>
+      <c r="C300" s="157"/>
+      <c r="D300" s="155"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
@@ -50484,8 +50523,8 @@
       <c r="B301" s="2">
         <v>4</v>
       </c>
-      <c r="C301" s="154"/>
-      <c r="D301" s="152"/>
+      <c r="C301" s="157"/>
+      <c r="D301" s="155"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
@@ -50494,8 +50533,8 @@
       <c r="B302" s="2">
         <v>6</v>
       </c>
-      <c r="C302" s="154"/>
-      <c r="D302" s="152"/>
+      <c r="C302" s="157"/>
+      <c r="D302" s="155"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
@@ -50504,8 +50543,8 @@
       <c r="B303" s="2">
         <v>8</v>
       </c>
-      <c r="C303" s="154"/>
-      <c r="D303" s="152"/>
+      <c r="C303" s="157"/>
+      <c r="D303" s="155"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
@@ -50514,8 +50553,8 @@
       <c r="B304" s="2">
         <v>8</v>
       </c>
-      <c r="C304" s="154"/>
-      <c r="D304" s="152"/>
+      <c r="C304" s="157"/>
+      <c r="D304" s="155"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
@@ -50524,8 +50563,8 @@
       <c r="B305" s="2">
         <v>10</v>
       </c>
-      <c r="C305" s="144"/>
-      <c r="D305" s="152"/>
+      <c r="C305" s="131"/>
+      <c r="D305" s="155"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
@@ -50534,11 +50573,11 @@
       <c r="B306" s="2">
         <v>6</v>
       </c>
-      <c r="C306" s="153">
+      <c r="C306" s="156">
         <f>AVERAGE(B306:B335)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="D306" s="152"/>
+      <c r="D306" s="155"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
@@ -50547,8 +50586,8 @@
       <c r="B307" s="2">
         <v>2</v>
       </c>
-      <c r="C307" s="154"/>
-      <c r="D307" s="152"/>
+      <c r="C307" s="157"/>
+      <c r="D307" s="155"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
@@ -50557,8 +50596,8 @@
       <c r="B308" s="2">
         <v>0</v>
       </c>
-      <c r="C308" s="154"/>
-      <c r="D308" s="152"/>
+      <c r="C308" s="157"/>
+      <c r="D308" s="155"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
@@ -50567,8 +50606,8 @@
       <c r="B309" s="2">
         <v>4</v>
       </c>
-      <c r="C309" s="154"/>
-      <c r="D309" s="152"/>
+      <c r="C309" s="157"/>
+      <c r="D309" s="155"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
@@ -50577,8 +50616,8 @@
       <c r="B310" s="2">
         <v>6</v>
       </c>
-      <c r="C310" s="154"/>
-      <c r="D310" s="152"/>
+      <c r="C310" s="157"/>
+      <c r="D310" s="155"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
@@ -50587,8 +50626,8 @@
       <c r="B311" s="2">
         <v>6</v>
       </c>
-      <c r="C311" s="154"/>
-      <c r="D311" s="152"/>
+      <c r="C311" s="157"/>
+      <c r="D311" s="155"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
@@ -50597,8 +50636,8 @@
       <c r="B312" s="2">
         <v>6</v>
       </c>
-      <c r="C312" s="154"/>
-      <c r="D312" s="152"/>
+      <c r="C312" s="157"/>
+      <c r="D312" s="155"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
@@ -50607,8 +50646,8 @@
       <c r="B313" s="2">
         <v>8</v>
       </c>
-      <c r="C313" s="154"/>
-      <c r="D313" s="152"/>
+      <c r="C313" s="157"/>
+      <c r="D313" s="155"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
@@ -50617,8 +50656,8 @@
       <c r="B314" s="2">
         <v>6</v>
       </c>
-      <c r="C314" s="154"/>
-      <c r="D314" s="152"/>
+      <c r="C314" s="157"/>
+      <c r="D314" s="155"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
@@ -50627,8 +50666,8 @@
       <c r="B315" s="2">
         <v>8</v>
       </c>
-      <c r="C315" s="154"/>
-      <c r="D315" s="152"/>
+      <c r="C315" s="157"/>
+      <c r="D315" s="155"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
@@ -50637,8 +50676,8 @@
       <c r="B316" s="2">
         <v>8</v>
       </c>
-      <c r="C316" s="154"/>
-      <c r="D316" s="152"/>
+      <c r="C316" s="157"/>
+      <c r="D316" s="155"/>
       <c r="M316" s="3"/>
       <c r="O316" s="3"/>
     </row>
@@ -50649,8 +50688,8 @@
       <c r="B317" s="2">
         <v>2</v>
       </c>
-      <c r="C317" s="154"/>
-      <c r="D317" s="152"/>
+      <c r="C317" s="157"/>
+      <c r="D317" s="155"/>
       <c r="M317" s="3"/>
       <c r="O317" s="3"/>
     </row>
@@ -50661,8 +50700,8 @@
       <c r="B318" s="2">
         <v>6</v>
       </c>
-      <c r="C318" s="154"/>
-      <c r="D318" s="152"/>
+      <c r="C318" s="157"/>
+      <c r="D318" s="155"/>
       <c r="M318" s="3"/>
       <c r="O318" s="3"/>
     </row>
@@ -50673,8 +50712,8 @@
       <c r="B319" s="2">
         <v>8</v>
       </c>
-      <c r="C319" s="154"/>
-      <c r="D319" s="152"/>
+      <c r="C319" s="157"/>
+      <c r="D319" s="155"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
@@ -50683,8 +50722,8 @@
       <c r="B320" s="2">
         <v>8</v>
       </c>
-      <c r="C320" s="154"/>
-      <c r="D320" s="152"/>
+      <c r="C320" s="157"/>
+      <c r="D320" s="155"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
@@ -50693,8 +50732,8 @@
       <c r="B321" s="2">
         <v>6</v>
       </c>
-      <c r="C321" s="154"/>
-      <c r="D321" s="152"/>
+      <c r="C321" s="157"/>
+      <c r="D321" s="155"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
@@ -50703,8 +50742,8 @@
       <c r="B322" s="2">
         <v>6</v>
       </c>
-      <c r="C322" s="154"/>
-      <c r="D322" s="152"/>
+      <c r="C322" s="157"/>
+      <c r="D322" s="155"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
@@ -50713,8 +50752,8 @@
       <c r="B323" s="2">
         <v>4</v>
       </c>
-      <c r="C323" s="154"/>
-      <c r="D323" s="152"/>
+      <c r="C323" s="157"/>
+      <c r="D323" s="155"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
@@ -50723,8 +50762,8 @@
       <c r="B324" s="2">
         <v>8</v>
       </c>
-      <c r="C324" s="154"/>
-      <c r="D324" s="152"/>
+      <c r="C324" s="157"/>
+      <c r="D324" s="155"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
@@ -50733,8 +50772,8 @@
       <c r="B325" s="2">
         <v>6</v>
       </c>
-      <c r="C325" s="154"/>
-      <c r="D325" s="152"/>
+      <c r="C325" s="157"/>
+      <c r="D325" s="155"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
@@ -50743,8 +50782,8 @@
       <c r="B326" s="2">
         <v>4</v>
       </c>
-      <c r="C326" s="154"/>
-      <c r="D326" s="152"/>
+      <c r="C326" s="157"/>
+      <c r="D326" s="155"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
@@ -50753,8 +50792,8 @@
       <c r="B327" s="2">
         <v>4</v>
       </c>
-      <c r="C327" s="154"/>
-      <c r="D327" s="152"/>
+      <c r="C327" s="157"/>
+      <c r="D327" s="155"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
@@ -50763,8 +50802,8 @@
       <c r="B328" s="2">
         <v>6</v>
       </c>
-      <c r="C328" s="154"/>
-      <c r="D328" s="152"/>
+      <c r="C328" s="157"/>
+      <c r="D328" s="155"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
@@ -50773,8 +50812,8 @@
       <c r="B329" s="2">
         <v>8</v>
       </c>
-      <c r="C329" s="154"/>
-      <c r="D329" s="152"/>
+      <c r="C329" s="157"/>
+      <c r="D329" s="155"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
@@ -50783,8 +50822,8 @@
       <c r="B330" s="2">
         <v>4</v>
       </c>
-      <c r="C330" s="154"/>
-      <c r="D330" s="152"/>
+      <c r="C330" s="157"/>
+      <c r="D330" s="155"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
@@ -50793,8 +50832,8 @@
       <c r="B331" s="2">
         <v>6</v>
       </c>
-      <c r="C331" s="154"/>
-      <c r="D331" s="152"/>
+      <c r="C331" s="157"/>
+      <c r="D331" s="155"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
@@ -50803,8 +50842,8 @@
       <c r="B332" s="2">
         <v>6</v>
       </c>
-      <c r="C332" s="154"/>
-      <c r="D332" s="152"/>
+      <c r="C332" s="157"/>
+      <c r="D332" s="155"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
@@ -50813,8 +50852,8 @@
       <c r="B333" s="2">
         <v>2</v>
       </c>
-      <c r="C333" s="154"/>
-      <c r="D333" s="152"/>
+      <c r="C333" s="157"/>
+      <c r="D333" s="155"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
@@ -50823,8 +50862,8 @@
       <c r="B334" s="2">
         <v>6</v>
       </c>
-      <c r="C334" s="154"/>
-      <c r="D334" s="152"/>
+      <c r="C334" s="157"/>
+      <c r="D334" s="155"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
@@ -50833,8 +50872,8 @@
       <c r="B335" s="2">
         <v>6</v>
       </c>
-      <c r="C335" s="144"/>
-      <c r="D335" s="152"/>
+      <c r="C335" s="131"/>
+      <c r="D335" s="155"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
@@ -50843,11 +50882,11 @@
       <c r="B336" s="2">
         <v>6</v>
       </c>
-      <c r="C336" s="153">
+      <c r="C336" s="156">
         <f>AVERAGE(B336:B366)</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="D336" s="152"/>
+      <c r="D336" s="155"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
@@ -50856,8 +50895,8 @@
       <c r="B337" s="2">
         <v>4</v>
       </c>
-      <c r="C337" s="154"/>
-      <c r="D337" s="152"/>
+      <c r="C337" s="157"/>
+      <c r="D337" s="155"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
@@ -50866,8 +50905,8 @@
       <c r="B338" s="2">
         <v>4</v>
       </c>
-      <c r="C338" s="154"/>
-      <c r="D338" s="152"/>
+      <c r="C338" s="157"/>
+      <c r="D338" s="155"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
@@ -50876,8 +50915,8 @@
       <c r="B339" s="2">
         <v>6</v>
       </c>
-      <c r="C339" s="154"/>
-      <c r="D339" s="152"/>
+      <c r="C339" s="157"/>
+      <c r="D339" s="155"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
@@ -50886,8 +50925,8 @@
       <c r="B340" s="2">
         <v>6</v>
       </c>
-      <c r="C340" s="154"/>
-      <c r="D340" s="152"/>
+      <c r="C340" s="157"/>
+      <c r="D340" s="155"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
@@ -50896,8 +50935,8 @@
       <c r="B341" s="2">
         <v>6</v>
       </c>
-      <c r="C341" s="154"/>
-      <c r="D341" s="152"/>
+      <c r="C341" s="157"/>
+      <c r="D341" s="155"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
@@ -50906,8 +50945,8 @@
       <c r="B342" s="2">
         <v>6</v>
       </c>
-      <c r="C342" s="154"/>
-      <c r="D342" s="152"/>
+      <c r="C342" s="157"/>
+      <c r="D342" s="155"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
@@ -50916,8 +50955,8 @@
       <c r="B343" s="2">
         <v>4</v>
       </c>
-      <c r="C343" s="154"/>
-      <c r="D343" s="152"/>
+      <c r="C343" s="157"/>
+      <c r="D343" s="155"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
@@ -50926,8 +50965,8 @@
       <c r="B344" s="2">
         <v>4</v>
       </c>
-      <c r="C344" s="154"/>
-      <c r="D344" s="152"/>
+      <c r="C344" s="157"/>
+      <c r="D344" s="155"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
@@ -50936,8 +50975,8 @@
       <c r="B345" s="2">
         <v>4</v>
       </c>
-      <c r="C345" s="154"/>
-      <c r="D345" s="152"/>
+      <c r="C345" s="157"/>
+      <c r="D345" s="155"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
@@ -50946,8 +50985,8 @@
       <c r="B346" s="2">
         <v>4</v>
       </c>
-      <c r="C346" s="154"/>
-      <c r="D346" s="152"/>
+      <c r="C346" s="157"/>
+      <c r="D346" s="155"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
@@ -50956,8 +50995,8 @@
       <c r="B347" s="2">
         <v>6</v>
       </c>
-      <c r="C347" s="154"/>
-      <c r="D347" s="152"/>
+      <c r="C347" s="157"/>
+      <c r="D347" s="155"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
@@ -50966,8 +51005,8 @@
       <c r="B348" s="2">
         <v>4</v>
       </c>
-      <c r="C348" s="154"/>
-      <c r="D348" s="152"/>
+      <c r="C348" s="157"/>
+      <c r="D348" s="155"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
@@ -50976,8 +51015,8 @@
       <c r="B349" s="2">
         <v>6</v>
       </c>
-      <c r="C349" s="154"/>
-      <c r="D349" s="152"/>
+      <c r="C349" s="157"/>
+      <c r="D349" s="155"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
@@ -50986,8 +51025,8 @@
       <c r="B350" s="2">
         <v>4</v>
       </c>
-      <c r="C350" s="154"/>
-      <c r="D350" s="152"/>
+      <c r="C350" s="157"/>
+      <c r="D350" s="155"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
@@ -50996,8 +51035,8 @@
       <c r="B351" s="2">
         <v>4</v>
       </c>
-      <c r="C351" s="154"/>
-      <c r="D351" s="152"/>
+      <c r="C351" s="157"/>
+      <c r="D351" s="155"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
@@ -51006,8 +51045,8 @@
       <c r="B352" s="2">
         <v>2</v>
       </c>
-      <c r="C352" s="154"/>
-      <c r="D352" s="152"/>
+      <c r="C352" s="157"/>
+      <c r="D352" s="155"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
@@ -51016,8 +51055,8 @@
       <c r="B353" s="2">
         <v>4</v>
       </c>
-      <c r="C353" s="154"/>
-      <c r="D353" s="152"/>
+      <c r="C353" s="157"/>
+      <c r="D353" s="155"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
@@ -51026,8 +51065,8 @@
       <c r="B354" s="2">
         <v>2</v>
       </c>
-      <c r="C354" s="154"/>
-      <c r="D354" s="152"/>
+      <c r="C354" s="157"/>
+      <c r="D354" s="155"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
@@ -51036,8 +51075,8 @@
       <c r="B355" s="2">
         <v>4</v>
       </c>
-      <c r="C355" s="154"/>
-      <c r="D355" s="152"/>
+      <c r="C355" s="157"/>
+      <c r="D355" s="155"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
@@ -51046,8 +51085,8 @@
       <c r="B356" s="2">
         <v>4</v>
       </c>
-      <c r="C356" s="154"/>
-      <c r="D356" s="152"/>
+      <c r="C356" s="157"/>
+      <c r="D356" s="155"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
@@ -51056,8 +51095,8 @@
       <c r="B357" s="2">
         <v>4</v>
       </c>
-      <c r="C357" s="154"/>
-      <c r="D357" s="152"/>
+      <c r="C357" s="157"/>
+      <c r="D357" s="155"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
@@ -51066,8 +51105,8 @@
       <c r="B358" s="2">
         <v>4</v>
       </c>
-      <c r="C358" s="154"/>
-      <c r="D358" s="152"/>
+      <c r="C358" s="157"/>
+      <c r="D358" s="155"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
@@ -51076,8 +51115,8 @@
       <c r="B359" s="2">
         <v>10</v>
       </c>
-      <c r="C359" s="154"/>
-      <c r="D359" s="152"/>
+      <c r="C359" s="157"/>
+      <c r="D359" s="155"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
@@ -51086,8 +51125,8 @@
       <c r="B360" s="2">
         <v>6</v>
       </c>
-      <c r="C360" s="154"/>
-      <c r="D360" s="152"/>
+      <c r="C360" s="157"/>
+      <c r="D360" s="155"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
@@ -51096,8 +51135,8 @@
       <c r="B361" s="2">
         <v>4</v>
       </c>
-      <c r="C361" s="154"/>
-      <c r="D361" s="152"/>
+      <c r="C361" s="157"/>
+      <c r="D361" s="155"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
@@ -51106,8 +51145,8 @@
       <c r="B362" s="2">
         <v>4</v>
       </c>
-      <c r="C362" s="154"/>
-      <c r="D362" s="152"/>
+      <c r="C362" s="157"/>
+      <c r="D362" s="155"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
@@ -51116,8 +51155,8 @@
       <c r="B363" s="2">
         <v>4</v>
       </c>
-      <c r="C363" s="154"/>
-      <c r="D363" s="152"/>
+      <c r="C363" s="157"/>
+      <c r="D363" s="155"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
@@ -51126,8 +51165,8 @@
       <c r="B364" s="2">
         <v>6</v>
       </c>
-      <c r="C364" s="154"/>
-      <c r="D364" s="152"/>
+      <c r="C364" s="157"/>
+      <c r="D364" s="155"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
@@ -51136,8 +51175,8 @@
       <c r="B365" s="2">
         <v>4</v>
       </c>
-      <c r="C365" s="154"/>
-      <c r="D365" s="152"/>
+      <c r="C365" s="157"/>
+      <c r="D365" s="155"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
@@ -51146,20 +51185,11 @@
       <c r="B366" s="2">
         <v>6</v>
       </c>
-      <c r="C366" s="144"/>
-      <c r="D366" s="152"/>
+      <c r="C366" s="131"/>
+      <c r="D366" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C1:C31"/>
-    <mergeCell ref="C32:C60"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="L19:L30"/>
     <mergeCell ref="C61:C91"/>
     <mergeCell ref="D1:D366"/>
     <mergeCell ref="C92:C121"/>
@@ -51171,6 +51201,15 @@
     <mergeCell ref="C275:C305"/>
     <mergeCell ref="C306:C335"/>
     <mergeCell ref="C336:C366"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C1:C31"/>
+    <mergeCell ref="C32:C60"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L19:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
@@ -51239,17 +51278,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="F1" s="160" t="s">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="F1" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="31" t="s">
@@ -51602,32 +51641,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="151" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="150"/>
+      <c r="C2" s="148"/>
       <c r="D2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="150" t="s">
+      <c r="E2" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="150"/>
+      <c r="F2" s="148"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
@@ -52254,7 +52293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386BFEF3-7A6D-4D9D-AC05-3EB2237225CC}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -52276,14 +52315,14 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="43"/>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
       <c r="J1" s="41"/>
@@ -52350,7 +52389,7 @@
       <c r="G3" s="41">
         <v>9000</v>
       </c>
-      <c r="H3" s="164">
+      <c r="H3" s="162">
         <f>AVERAGE(G3:G16)</f>
         <v>7820.5</v>
       </c>
@@ -52389,7 +52428,7 @@
       <c r="G4" s="41">
         <v>6807</v>
       </c>
-      <c r="H4" s="165"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="43">
         <v>2275</v>
       </c>
@@ -52425,7 +52464,7 @@
       <c r="G5" s="41">
         <v>6807</v>
       </c>
-      <c r="H5" s="165"/>
+      <c r="H5" s="163"/>
       <c r="I5" s="43">
         <v>2275</v>
       </c>
@@ -52461,7 +52500,7 @@
       <c r="G6" s="41">
         <v>6946</v>
       </c>
-      <c r="H6" s="165"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="43">
         <v>2275</v>
       </c>
@@ -52497,7 +52536,7 @@
       <c r="G7" s="41">
         <v>6946</v>
       </c>
-      <c r="H7" s="165"/>
+      <c r="H7" s="163"/>
       <c r="I7" s="43">
         <v>2275</v>
       </c>
@@ -52533,7 +52572,7 @@
       <c r="G8" s="41">
         <v>7564</v>
       </c>
-      <c r="H8" s="165"/>
+      <c r="H8" s="163"/>
       <c r="I8" s="43">
         <v>2275</v>
       </c>
@@ -52569,7 +52608,7 @@
       <c r="G9" s="41">
         <v>6355</v>
       </c>
-      <c r="H9" s="165"/>
+      <c r="H9" s="163"/>
       <c r="I9" s="43">
         <v>2275</v>
       </c>
@@ -52605,7 +52644,7 @@
       <c r="G10" s="41">
         <v>10599</v>
       </c>
-      <c r="H10" s="165"/>
+      <c r="H10" s="163"/>
       <c r="I10" s="43">
         <v>2360</v>
       </c>
@@ -52641,7 +52680,7 @@
       <c r="G11" s="41">
         <v>7214</v>
       </c>
-      <c r="H11" s="165"/>
+      <c r="H11" s="163"/>
       <c r="I11" s="43">
         <v>2275</v>
       </c>
@@ -52677,7 +52716,7 @@
       <c r="G12" s="41">
         <v>8650</v>
       </c>
-      <c r="H12" s="165"/>
+      <c r="H12" s="163"/>
       <c r="I12" s="43">
         <v>2275</v>
       </c>
@@ -52713,7 +52752,7 @@
       <c r="G13" s="41">
         <v>8650</v>
       </c>
-      <c r="H13" s="165"/>
+      <c r="H13" s="163"/>
       <c r="I13" s="43">
         <v>2275</v>
       </c>
@@ -52749,7 +52788,7 @@
       <c r="G14" s="41">
         <v>7565</v>
       </c>
-      <c r="H14" s="165"/>
+      <c r="H14" s="163"/>
       <c r="I14" s="43">
         <v>2275</v>
       </c>
@@ -52785,7 +52824,7 @@
       <c r="G15" s="41">
         <v>9218</v>
       </c>
-      <c r="H15" s="165"/>
+      <c r="H15" s="163"/>
       <c r="I15" s="43">
         <v>2275</v>
       </c>
@@ -52821,7 +52860,7 @@
       <c r="G16" s="41">
         <v>7166</v>
       </c>
-      <c r="H16" s="166"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="43">
         <v>2275</v>
       </c>
@@ -52837,13 +52876,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="43"/>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="40">
         <f>SUM(G3:G16)</f>
         <v>109487</v>
@@ -53175,7 +53214,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="165" t="s">
         <v>225</v>
       </c>
       <c r="B1" s="83" t="s">
@@ -53192,7 +53231,7 @@
       <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="168"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="85" t="s">
         <v>232</v>
       </c>
@@ -53205,7 +53244,7 @@
       <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="169"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="87" t="s">
         <v>233</v>
       </c>
@@ -53218,7 +53257,7 @@
       <c r="G3" s="115"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="168" t="s">
         <v>183</v>
       </c>
       <c r="B4" s="89" t="s">
@@ -53235,7 +53274,7 @@
       <c r="G4" s="116"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="171"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="91" t="s">
         <v>251</v>
       </c>
@@ -53250,7 +53289,7 @@
       <c r="G5" s="117"/>
     </row>
     <row r="6" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="172"/>
+      <c r="A6" s="170"/>
       <c r="B6" s="93" t="s">
         <v>265</v>
       </c>
@@ -53263,7 +53302,7 @@
       <c r="G6" s="118"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="171" t="s">
         <v>226</v>
       </c>
       <c r="B7" s="95" t="s">
@@ -53278,7 +53317,7 @@
       <c r="G7" s="119"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="174"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="97" t="s">
         <v>241</v>
       </c>
@@ -53291,7 +53330,7 @@
       <c r="G8" s="120"/>
     </row>
     <row r="9" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="175"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="99" t="s">
         <v>244</v>
       </c>
@@ -53302,7 +53341,7 @@
       <c r="G9" s="121"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="174" t="s">
         <v>227</v>
       </c>
       <c r="B10" s="101" t="s">
@@ -53319,7 +53358,7 @@
       <c r="G10" s="122"/>
     </row>
     <row r="11" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="177"/>
+      <c r="A11" s="175"/>
       <c r="B11" s="103" t="s">
         <v>188</v>
       </c>
@@ -53334,7 +53373,7 @@
       <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="176" t="s">
         <v>228</v>
       </c>
       <c r="B12" s="105" t="s">
@@ -53351,7 +53390,7 @@
       <c r="G12" s="124"/>
     </row>
     <row r="13" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="179"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="107" t="s">
         <v>258</v>
       </c>

--- a/HappinessIndex.xlsx
+++ b/HappinessIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A25\SEMVI\Trigger\Happiness-Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B6AC28-3558-47ED-83C6-B2EFA614F73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED9EF0-AE08-47C8-82A0-4E5BA0AA5B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11826" tabRatio="917" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HappinessIndex2025" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Movies2024" sheetId="4" r:id="rId5"/>
     <sheet name="FlightDetails" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
-    <sheet name="Table1" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId8"/>
+    <sheet name="Table1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FriendsList!$A$2:$D$2</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="285">
   <si>
     <t>Amazing Day</t>
   </si>
@@ -874,6 +875,42 @@
   <si>
     <t>14+ First Love</t>
   </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>DWDM</t>
+  </si>
+  <si>
+    <t>HPSC</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Honours</t>
+  </si>
+  <si>
+    <t>Total Credits</t>
+  </si>
 </sst>
 </file>
 
@@ -1104,7 +1141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1708,11 +1745,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2069,6 +2128,9 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2219,7 +2281,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2381,7 +2482,7 @@
                   <c:v>5.1967741935483867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5909090909090908</c:v>
+                  <c:v>4.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3459,10 +3560,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13</c:v>
@@ -6934,6 +7035,21 @@
                 <c:pt idx="100">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7232,7 +7348,7 @@
                   <c:v>64.516129032258064</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>99.090909090909093</c:v>
+                  <c:v>86.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17347,7 +17463,7 @@
   <dimension ref="A1:BA367"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -17396,11 +17512,11 @@
       <c r="G1" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
       <c r="AK1" t="s">
         <v>214</v>
       </c>
@@ -17418,13 +17534,13 @@
       <c r="B2" s="76">
         <v>2.5</v>
       </c>
-      <c r="C2" s="133">
+      <c r="C2" s="134">
         <f>AVERAGE(B2:B32)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="128">
+      <c r="D2" s="129">
         <f>AVERAGE(C2:C366)</f>
-        <v>4.636206535400083</v>
+        <v>4.8322292626728105</v>
       </c>
       <c r="E2" s="62">
         <v>1</v>
@@ -17432,9 +17548,9 @@
       <c r="F2" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
       <c r="AK2" s="75">
         <v>45658</v>
       </c>
@@ -17508,8 +17624,8 @@
       <c r="B3" s="2">
         <v>2.8</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="129"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="62">
         <v>1</v>
       </c>
@@ -17590,8 +17706,8 @@
       <c r="B4" s="2">
         <v>4.8</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="129"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="62">
         <v>1</v>
       </c>
@@ -17706,8 +17822,8 @@
       <c r="B5" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="129"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="62">
         <v>1</v>
       </c>
@@ -17732,9 +17848,9 @@
         <f>C2</f>
         <v>5</v>
       </c>
-      <c r="N5" s="140">
+      <c r="N5" s="141">
         <f>AVERAGE(M5:M16)</f>
-        <v>4.636206535400083</v>
+        <v>4.8322292626728105</v>
       </c>
       <c r="O5" s="61">
         <f>COUNTIFS(B2:B32,"&gt;=10")</f>
@@ -17834,8 +17950,8 @@
       <c r="B6" s="2">
         <v>6.2</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="129"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="62">
         <v>1</v>
       </c>
@@ -17859,7 +17975,7 @@
         <f>C33</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="N6" s="141"/>
+      <c r="N6" s="142"/>
       <c r="O6" s="61">
         <f>COUNTIFS(B33:B60,"&gt;=10")</f>
         <v>0</v>
@@ -17958,8 +18074,8 @@
       <c r="B7" s="2">
         <v>6.1</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="129"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="62">
         <v>1</v>
       </c>
@@ -17975,7 +18091,7 @@
       </c>
       <c r="J7" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=6", B2:B366,"&lt;8")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L7" s="60" t="s">
         <v>10</v>
@@ -17984,7 +18100,7 @@
         <f>C61</f>
         <v>5.1967741935483867</v>
       </c>
-      <c r="N7" s="141"/>
+      <c r="N7" s="142"/>
       <c r="O7" s="61">
         <f>COUNTIFS(B61:B91,"&gt;=10")</f>
         <v>0</v>
@@ -18083,8 +18199,8 @@
       <c r="B8" s="2">
         <v>3.5</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="129"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="62">
         <v>1</v>
       </c>
@@ -18099,16 +18215,16 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIFS(B2:B366,"&gt;=4", B2:B366,"&lt;6")</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="60" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="32">
         <f>C92</f>
-        <v>3.5909090909090908</v>
-      </c>
-      <c r="N8" s="141"/>
+        <v>4.375</v>
+      </c>
+      <c r="N8" s="142"/>
       <c r="O8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=10")</f>
         <v>0</v>
@@ -18119,11 +18235,11 @@
       </c>
       <c r="Q8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=6",B92:B121,"&lt;8")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=4", B92:B121,"&lt;6")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S8" s="61">
         <f>COUNTIFS(B92:B121,"&gt;=2", B92:B121,"&lt;4")</f>
@@ -18207,8 +18323,8 @@
       <c r="B9" s="2">
         <v>1.2</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="129"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="130"/>
       <c r="E9" s="62">
         <v>1</v>
       </c>
@@ -18232,7 +18348,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="32"/>
-      <c r="N9" s="141"/>
+      <c r="N9" s="142"/>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="61"/>
@@ -18313,8 +18429,8 @@
       <c r="B10" s="2">
         <v>5.6</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="129"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="62">
         <v>1</v>
       </c>
@@ -18335,7 +18451,7 @@
         <v>13</v>
       </c>
       <c r="M10" s="32"/>
-      <c r="N10" s="141"/>
+      <c r="N10" s="142"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
       <c r="Q10" s="61"/>
@@ -18416,8 +18532,8 @@
       <c r="B11" s="2">
         <v>4.3</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="129"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="62">
         <v>1</v>
       </c>
@@ -18425,19 +18541,19 @@
         <v>180</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="136" t="s">
+      <c r="H11" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="137"/>
+      <c r="I11" s="138"/>
       <c r="J11" s="17">
         <f>SUM(J5:J10)</f>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="32"/>
-      <c r="N11" s="141"/>
+      <c r="N11" s="142"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="61"/>
@@ -18518,8 +18634,8 @@
       <c r="B12" s="2">
         <v>5.4</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="129"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="62">
         <v>1</v>
       </c>
@@ -18530,7 +18646,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="141"/>
+      <c r="N12" s="142"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
@@ -18611,8 +18727,8 @@
       <c r="B13" s="2">
         <v>7.2</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="129"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="62">
         <v>1</v>
       </c>
@@ -18620,19 +18736,19 @@
         <v>180</v>
       </c>
       <c r="G13" s="78"/>
-      <c r="H13" s="138" t="s">
+      <c r="H13" s="139" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="138"/>
-      <c r="J13" s="139">
+      <c r="I13" s="139"/>
+      <c r="J13" s="140">
         <f>J11/3.65</f>
-        <v>27.671232876712331</v>
+        <v>29.041095890410961</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="32"/>
-      <c r="N13" s="141"/>
+      <c r="N13" s="142"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
       <c r="Q13" s="61"/>
@@ -18729,22 +18845,22 @@
       <c r="B14" s="2">
         <v>3.9</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="129"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="62">
         <v>0.8</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
       <c r="L14" s="60" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="32"/>
-      <c r="N14" s="141"/>
+      <c r="N14" s="142"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
       <c r="Q14" s="61"/>
@@ -18846,8 +18962,8 @@
       <c r="B15" s="2">
         <v>1.5</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="129"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="62">
         <v>1</v>
       </c>
@@ -18861,7 +18977,7 @@
         <v>18</v>
       </c>
       <c r="M15" s="32"/>
-      <c r="N15" s="141"/>
+      <c r="N15" s="142"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="61"/>
@@ -18963,8 +19079,8 @@
       <c r="B16" s="2">
         <v>5.2</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="129"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="62">
         <v>1</v>
       </c>
@@ -18975,7 +19091,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="32"/>
-      <c r="N16" s="142"/>
+      <c r="N16" s="143"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="61"/>
@@ -19077,8 +19193,8 @@
       <c r="B17" s="2">
         <v>6.5</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="129"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="62">
         <v>1</v>
       </c>
@@ -19091,7 +19207,7 @@
       </c>
       <c r="AE17" s="31">
         <f>AVERAGE(E92:E121)*100</f>
-        <v>99.090909090909093</v>
+        <v>86.875</v>
       </c>
       <c r="AG17" t="str">
         <f>TRIM(MID(SUBSTITUTE($F38, ",", REPT(" ", 100)), (COLUMNS($AH$2:AL38)-1)*100+1, 100))</f>
@@ -19180,8 +19296,8 @@
       <c r="B18" s="2">
         <v>2.9</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="129"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="62">
         <v>0.6</v>
       </c>
@@ -19279,8 +19395,8 @@
       <c r="B19" s="2">
         <v>3.3</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="129"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="62">
         <v>0</v>
       </c>
@@ -19379,8 +19495,8 @@
       <c r="B20" s="2">
         <v>6.2</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="129"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="62">
         <v>1</v>
       </c>
@@ -19476,8 +19592,8 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="129"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="62">
         <v>1</v>
       </c>
@@ -19574,8 +19690,8 @@
       <c r="B22" s="2">
         <v>4.3</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="129"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="130"/>
       <c r="E22" s="62">
         <v>0</v>
       </c>
@@ -19659,8 +19775,8 @@
       <c r="B23" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="129"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="130"/>
       <c r="E23" s="62">
         <v>0</v>
       </c>
@@ -19745,8 +19861,8 @@
       <c r="B24" s="2">
         <v>1.2</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="129"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="62">
         <v>1</v>
       </c>
@@ -19830,8 +19946,8 @@
       <c r="B25" s="2">
         <v>6.2</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="129"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="130"/>
       <c r="E25" s="62">
         <v>1</v>
       </c>
@@ -19916,8 +20032,8 @@
       <c r="B26" s="2">
         <v>8.1</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="129"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="62">
         <v>0</v>
       </c>
@@ -19997,8 +20113,8 @@
       <c r="B27" s="2">
         <v>6.8</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="129"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="62">
         <v>0</v>
       </c>
@@ -20079,8 +20195,8 @@
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="129"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="62">
         <v>1</v>
       </c>
@@ -20160,8 +20276,8 @@
       <c r="B29" s="2">
         <v>5.8</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="129"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="62">
         <v>1</v>
       </c>
@@ -20242,8 +20358,8 @@
       <c r="B30" s="2">
         <v>5.3</v>
       </c>
-      <c r="C30" s="134"/>
-      <c r="D30" s="129"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="62">
         <v>0</v>
       </c>
@@ -20323,8 +20439,8 @@
       <c r="B31" s="2">
         <v>7.4</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="129"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="130"/>
       <c r="E31" s="62">
         <v>1</v>
       </c>
@@ -20405,8 +20521,8 @@
       <c r="B32" s="58">
         <v>8.5</v>
       </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="129"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="130"/>
       <c r="E32" s="62">
         <v>1</v>
       </c>
@@ -20493,11 +20609,11 @@
       <c r="B33" s="51">
         <v>4.8</v>
       </c>
-      <c r="C33" s="131">
+      <c r="C33" s="132">
         <f>AVERAGE(B33:B60)</f>
         <v>4.7571428571428571</v>
       </c>
-      <c r="D33" s="130"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="62">
         <v>1</v>
       </c>
@@ -20579,8 +20695,8 @@
       <c r="B34" s="2">
         <v>4.5</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="130"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="131"/>
       <c r="E34" s="62">
         <v>0</v>
       </c>
@@ -20657,8 +20773,8 @@
       <c r="B35" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="131"/>
       <c r="E35" s="62">
         <v>1</v>
       </c>
@@ -20736,8 +20852,8 @@
       <c r="B36" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="130"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="131"/>
       <c r="E36" s="62">
         <v>1</v>
       </c>
@@ -20814,8 +20930,8 @@
       <c r="B37" s="2">
         <v>3.3</v>
       </c>
-      <c r="C37" s="132"/>
-      <c r="D37" s="130"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="131"/>
       <c r="E37" s="62">
         <v>0</v>
       </c>
@@ -20892,8 +21008,8 @@
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="130"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="131"/>
       <c r="E38" s="62">
         <v>1</v>
       </c>
@@ -20970,8 +21086,8 @@
       <c r="B39" s="2">
         <v>1.3</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="130"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="131"/>
       <c r="E39" s="62">
         <v>0</v>
       </c>
@@ -21048,8 +21164,8 @@
       <c r="B40" s="2">
         <v>8.5</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="130"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="131"/>
       <c r="E40" s="62">
         <v>1</v>
       </c>
@@ -21129,8 +21245,8 @@
       <c r="B41" s="2">
         <v>4.5</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="D41" s="130"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="131"/>
       <c r="E41" s="62">
         <v>0</v>
       </c>
@@ -21207,8 +21323,8 @@
       <c r="B42" s="2">
         <v>3.8</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="130"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="131"/>
       <c r="E42" s="62">
         <v>1</v>
       </c>
@@ -21285,8 +21401,8 @@
       <c r="B43" s="2">
         <v>5.5</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="130"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="131"/>
       <c r="E43" s="62">
         <v>1</v>
       </c>
@@ -21367,8 +21483,8 @@
       <c r="B44" s="2">
         <v>5.8</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="130"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="131"/>
       <c r="E44" s="62">
         <v>1</v>
       </c>
@@ -21449,8 +21565,8 @@
       <c r="B45" s="2">
         <v>5.5</v>
       </c>
-      <c r="C45" s="132"/>
-      <c r="D45" s="130"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="131"/>
       <c r="E45" s="62">
         <v>0</v>
       </c>
@@ -21531,8 +21647,8 @@
       <c r="B46" s="2">
         <v>0</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="130"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="131"/>
       <c r="E46" s="62">
         <v>0</v>
       </c>
@@ -21616,8 +21732,8 @@
       <c r="B47" s="2">
         <v>4.5</v>
       </c>
-      <c r="C47" s="132"/>
-      <c r="D47" s="130"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="131"/>
       <c r="E47" s="62">
         <v>1</v>
       </c>
@@ -21698,8 +21814,8 @@
       <c r="B48" s="2">
         <v>6.6</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="130"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="131"/>
       <c r="E48" s="62">
         <v>1</v>
       </c>
@@ -21780,8 +21896,8 @@
       <c r="B49" s="2">
         <v>7.5</v>
       </c>
-      <c r="C49" s="132"/>
-      <c r="D49" s="130"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="131"/>
       <c r="E49" s="62">
         <v>1</v>
       </c>
@@ -21862,8 +21978,8 @@
       <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="130"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="131"/>
       <c r="E50" s="62">
         <v>1</v>
       </c>
@@ -21944,8 +22060,8 @@
       <c r="B51" s="2">
         <v>4.8</v>
       </c>
-      <c r="C51" s="132"/>
-      <c r="D51" s="130"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="131"/>
       <c r="E51" s="62">
         <v>0</v>
       </c>
@@ -22026,8 +22142,8 @@
       <c r="B52" s="2">
         <v>6.8</v>
       </c>
-      <c r="C52" s="132"/>
-      <c r="D52" s="130"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="131"/>
       <c r="E52" s="62">
         <v>1</v>
       </c>
@@ -22108,8 +22224,8 @@
       <c r="B53" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="130"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="131"/>
       <c r="E53" s="62">
         <v>1</v>
       </c>
@@ -22190,8 +22306,8 @@
       <c r="B54" s="2">
         <v>5.5</v>
       </c>
-      <c r="C54" s="132"/>
-      <c r="D54" s="130"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="131"/>
       <c r="E54" s="62">
         <v>0</v>
       </c>
@@ -22272,8 +22388,8 @@
       <c r="B55" s="2">
         <v>4.5</v>
       </c>
-      <c r="C55" s="132"/>
-      <c r="D55" s="130"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="131"/>
       <c r="E55" s="62">
         <v>1</v>
       </c>
@@ -22354,8 +22470,8 @@
       <c r="B56" s="2">
         <v>6.5</v>
       </c>
-      <c r="C56" s="132"/>
-      <c r="D56" s="130"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="131"/>
       <c r="E56" s="62">
         <v>1</v>
       </c>
@@ -22436,8 +22552,8 @@
       <c r="B57" s="2">
         <v>4.5</v>
       </c>
-      <c r="C57" s="132"/>
-      <c r="D57" s="130"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="131"/>
       <c r="E57" s="62">
         <v>1</v>
       </c>
@@ -22518,8 +22634,8 @@
       <c r="B58" s="2">
         <v>7.5</v>
       </c>
-      <c r="C58" s="132"/>
-      <c r="D58" s="130"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="131"/>
       <c r="E58" s="62">
         <v>0</v>
       </c>
@@ -22600,8 +22716,8 @@
       <c r="B59" s="2">
         <v>5</v>
       </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="130"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="131"/>
       <c r="E59" s="62">
         <v>1</v>
       </c>
@@ -22682,8 +22798,8 @@
       <c r="B60" s="2">
         <v>5.5</v>
       </c>
-      <c r="C60" s="132"/>
-      <c r="D60" s="130"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="131"/>
       <c r="E60" s="62">
         <v>1</v>
       </c>
@@ -22764,11 +22880,11 @@
       <c r="B61" s="2">
         <v>5</v>
       </c>
-      <c r="C61" s="132">
+      <c r="C61" s="133">
         <f>AVERAGE(B61:B91)</f>
         <v>5.1967741935483867</v>
       </c>
-      <c r="D61" s="130"/>
+      <c r="D61" s="131"/>
       <c r="E61" s="62">
         <v>0</v>
       </c>
@@ -22849,8 +22965,8 @@
       <c r="B62" s="2">
         <v>4.8</v>
       </c>
-      <c r="C62" s="132"/>
-      <c r="D62" s="130"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="131"/>
       <c r="E62" s="62">
         <v>0</v>
       </c>
@@ -22931,8 +23047,8 @@
       <c r="B63" s="2">
         <v>3</v>
       </c>
-      <c r="C63" s="132"/>
-      <c r="D63" s="130"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="131"/>
       <c r="E63" s="62">
         <v>1</v>
       </c>
@@ -23013,8 +23129,8 @@
       <c r="B64" s="2">
         <v>4</v>
       </c>
-      <c r="C64" s="132"/>
-      <c r="D64" s="130"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="131"/>
       <c r="E64" s="62">
         <v>1</v>
       </c>
@@ -23095,8 +23211,8 @@
       <c r="B65" s="2">
         <v>5</v>
       </c>
-      <c r="C65" s="132"/>
-      <c r="D65" s="130"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="131"/>
       <c r="E65" s="62">
         <v>0</v>
       </c>
@@ -23177,8 +23293,8 @@
       <c r="B66" s="2">
         <v>6.5</v>
       </c>
-      <c r="C66" s="132"/>
-      <c r="D66" s="130"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="131"/>
       <c r="E66" s="62">
         <v>0</v>
       </c>
@@ -23259,8 +23375,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="132"/>
-      <c r="D67" s="130"/>
+      <c r="C67" s="133"/>
+      <c r="D67" s="131"/>
       <c r="E67" s="62">
         <v>1</v>
       </c>
@@ -23340,8 +23456,8 @@
       <c r="B68" s="2">
         <v>6.1</v>
       </c>
-      <c r="C68" s="132"/>
-      <c r="D68" s="130"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="131"/>
       <c r="E68" s="62">
         <v>1</v>
       </c>
@@ -23421,8 +23537,8 @@
       <c r="B69" s="2">
         <v>8</v>
       </c>
-      <c r="C69" s="132"/>
-      <c r="D69" s="130"/>
+      <c r="C69" s="133"/>
+      <c r="D69" s="131"/>
       <c r="E69" s="62">
         <v>0</v>
       </c>
@@ -23502,8 +23618,8 @@
       <c r="B70" s="2">
         <v>4.5</v>
       </c>
-      <c r="C70" s="132"/>
-      <c r="D70" s="130"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="131"/>
       <c r="E70" s="62">
         <v>1</v>
       </c>
@@ -23583,8 +23699,8 @@
       <c r="B71" s="2">
         <v>7</v>
       </c>
-      <c r="C71" s="132"/>
-      <c r="D71" s="130"/>
+      <c r="C71" s="133"/>
+      <c r="D71" s="131"/>
       <c r="E71" s="62">
         <v>1</v>
       </c>
@@ -23664,8 +23780,8 @@
       <c r="B72" s="2">
         <v>4.8</v>
       </c>
-      <c r="C72" s="132"/>
-      <c r="D72" s="130"/>
+      <c r="C72" s="133"/>
+      <c r="D72" s="131"/>
       <c r="E72" s="62">
         <v>1</v>
       </c>
@@ -23745,8 +23861,8 @@
       <c r="B73" s="2">
         <v>5</v>
       </c>
-      <c r="C73" s="132"/>
-      <c r="D73" s="130"/>
+      <c r="C73" s="133"/>
+      <c r="D73" s="131"/>
       <c r="E73" s="62">
         <v>1</v>
       </c>
@@ -23826,8 +23942,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="132"/>
-      <c r="D74" s="130"/>
+      <c r="C74" s="133"/>
+      <c r="D74" s="131"/>
       <c r="E74" s="62">
         <v>0</v>
       </c>
@@ -23907,8 +24023,8 @@
       <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75" s="132"/>
-      <c r="D75" s="130"/>
+      <c r="C75" s="133"/>
+      <c r="D75" s="131"/>
       <c r="E75" s="62">
         <v>0</v>
       </c>
@@ -23988,8 +24104,8 @@
       <c r="B76" s="2">
         <v>5</v>
       </c>
-      <c r="C76" s="132"/>
-      <c r="D76" s="130"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="131"/>
       <c r="E76" s="62">
         <v>1</v>
       </c>
@@ -24069,8 +24185,8 @@
       <c r="B77" s="2">
         <v>4.2</v>
       </c>
-      <c r="C77" s="132"/>
-      <c r="D77" s="130"/>
+      <c r="C77" s="133"/>
+      <c r="D77" s="131"/>
       <c r="E77" s="62">
         <v>0</v>
       </c>
@@ -24150,8 +24266,8 @@
       <c r="B78" s="2">
         <v>5.5</v>
       </c>
-      <c r="C78" s="132"/>
-      <c r="D78" s="130"/>
+      <c r="C78" s="133"/>
+      <c r="D78" s="131"/>
       <c r="E78" s="62">
         <v>1</v>
       </c>
@@ -24231,8 +24347,8 @@
       <c r="B79" s="2">
         <v>3</v>
       </c>
-      <c r="C79" s="132"/>
-      <c r="D79" s="130"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="131"/>
       <c r="E79" s="62">
         <v>0</v>
       </c>
@@ -24312,8 +24428,8 @@
       <c r="B80" s="2">
         <v>5</v>
       </c>
-      <c r="C80" s="132"/>
-      <c r="D80" s="130"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="131"/>
       <c r="E80" s="62">
         <v>1</v>
       </c>
@@ -24393,8 +24509,8 @@
       <c r="B81" s="2">
         <v>5</v>
       </c>
-      <c r="C81" s="132"/>
-      <c r="D81" s="130"/>
+      <c r="C81" s="133"/>
+      <c r="D81" s="131"/>
       <c r="E81" s="62">
         <v>1</v>
       </c>
@@ -24474,8 +24590,8 @@
       <c r="B82" s="2">
         <v>7.5</v>
       </c>
-      <c r="C82" s="132"/>
-      <c r="D82" s="130"/>
+      <c r="C82" s="133"/>
+      <c r="D82" s="131"/>
       <c r="E82" s="62">
         <v>1</v>
       </c>
@@ -24555,8 +24671,8 @@
       <c r="B83" s="2">
         <v>7</v>
       </c>
-      <c r="C83" s="132"/>
-      <c r="D83" s="130"/>
+      <c r="C83" s="133"/>
+      <c r="D83" s="131"/>
       <c r="E83" s="62">
         <v>1</v>
       </c>
@@ -24639,8 +24755,8 @@
       <c r="B84" s="2">
         <v>4</v>
       </c>
-      <c r="C84" s="132"/>
-      <c r="D84" s="130"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="131"/>
       <c r="E84" s="62">
         <v>0</v>
       </c>
@@ -24720,8 +24836,8 @@
       <c r="B85" s="2">
         <v>5.5</v>
       </c>
-      <c r="C85" s="132"/>
-      <c r="D85" s="130"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="131"/>
       <c r="E85" s="62">
         <v>1</v>
       </c>
@@ -24801,8 +24917,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="132"/>
-      <c r="D86" s="130"/>
+      <c r="C86" s="133"/>
+      <c r="D86" s="131"/>
       <c r="E86" s="62">
         <v>1</v>
       </c>
@@ -24885,8 +25001,8 @@
       <c r="B87" s="2">
         <v>5.2</v>
       </c>
-      <c r="C87" s="132"/>
-      <c r="D87" s="130"/>
+      <c r="C87" s="133"/>
+      <c r="D87" s="131"/>
       <c r="E87" s="62">
         <v>1</v>
       </c>
@@ -24966,8 +25082,8 @@
       <c r="B88" s="2">
         <v>4.5</v>
       </c>
-      <c r="C88" s="132"/>
-      <c r="D88" s="130"/>
+      <c r="C88" s="133"/>
+      <c r="D88" s="131"/>
       <c r="E88" s="62">
         <v>1</v>
       </c>
@@ -25047,8 +25163,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="132"/>
-      <c r="D89" s="130"/>
+      <c r="C89" s="133"/>
+      <c r="D89" s="131"/>
       <c r="E89" s="62">
         <v>0</v>
       </c>
@@ -25128,8 +25244,8 @@
       <c r="B90" s="2">
         <v>6.5</v>
       </c>
-      <c r="C90" s="132"/>
-      <c r="D90" s="130"/>
+      <c r="C90" s="133"/>
+      <c r="D90" s="131"/>
       <c r="E90" s="62">
         <v>1</v>
       </c>
@@ -25209,8 +25325,8 @@
       <c r="B91" s="2">
         <v>5.5</v>
       </c>
-      <c r="C91" s="132"/>
-      <c r="D91" s="130"/>
+      <c r="C91" s="133"/>
+      <c r="D91" s="131"/>
       <c r="E91" s="62">
         <v>1</v>
       </c>
@@ -25290,11 +25406,11 @@
       <c r="B92" s="2">
         <v>4.8</v>
       </c>
-      <c r="C92" s="132">
+      <c r="C92" s="133">
         <f>AVERAGE(B92:B121)</f>
-        <v>3.5909090909090908</v>
-      </c>
-      <c r="D92" s="130"/>
+        <v>4.375</v>
+      </c>
+      <c r="D92" s="131"/>
       <c r="E92" s="62">
         <v>1</v>
       </c>
@@ -25377,8 +25493,8 @@
       <c r="B93" s="2">
         <v>4.2</v>
       </c>
-      <c r="C93" s="132"/>
-      <c r="D93" s="130"/>
+      <c r="C93" s="133"/>
+      <c r="D93" s="131"/>
       <c r="E93" s="62">
         <v>1</v>
       </c>
@@ -25461,8 +25577,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="132"/>
-      <c r="D94" s="130"/>
+      <c r="C94" s="133"/>
+      <c r="D94" s="131"/>
       <c r="E94" s="62">
         <v>1</v>
       </c>
@@ -25545,8 +25661,8 @@
       <c r="B95" s="2">
         <v>0</v>
       </c>
-      <c r="C95" s="132"/>
-      <c r="D95" s="130"/>
+      <c r="C95" s="133"/>
+      <c r="D95" s="131"/>
       <c r="E95" s="62">
         <v>1</v>
       </c>
@@ -25632,8 +25748,8 @@
       <c r="B96" s="2">
         <v>0.5</v>
       </c>
-      <c r="C96" s="132"/>
-      <c r="D96" s="130"/>
+      <c r="C96" s="133"/>
+      <c r="D96" s="131"/>
       <c r="E96" s="62">
         <v>1</v>
       </c>
@@ -25719,8 +25835,8 @@
       <c r="B97" s="2">
         <v>5.2</v>
       </c>
-      <c r="C97" s="132"/>
-      <c r="D97" s="130"/>
+      <c r="C97" s="133"/>
+      <c r="D97" s="131"/>
       <c r="E97" s="62">
         <v>1</v>
       </c>
@@ -25803,8 +25919,8 @@
       <c r="B98" s="2">
         <v>6</v>
       </c>
-      <c r="C98" s="132"/>
-      <c r="D98" s="130"/>
+      <c r="C98" s="133"/>
+      <c r="D98" s="131"/>
       <c r="E98" s="62">
         <v>0.9</v>
       </c>
@@ -25887,8 +26003,8 @@
       <c r="B99" s="2">
         <v>4.8</v>
       </c>
-      <c r="C99" s="132"/>
-      <c r="D99" s="130"/>
+      <c r="C99" s="133"/>
+      <c r="D99" s="131"/>
       <c r="E99" s="62">
         <v>1</v>
       </c>
@@ -25971,8 +26087,8 @@
       <c r="B100" s="2">
         <v>1</v>
       </c>
-      <c r="C100" s="132"/>
-      <c r="D100" s="130"/>
+      <c r="C100" s="133"/>
+      <c r="D100" s="131"/>
       <c r="E100" s="62">
         <v>1</v>
       </c>
@@ -26058,8 +26174,8 @@
       <c r="B101" s="2">
         <v>4</v>
       </c>
-      <c r="C101" s="132"/>
-      <c r="D101" s="130"/>
+      <c r="C101" s="133"/>
+      <c r="D101" s="131"/>
       <c r="E101" s="62">
         <v>1</v>
       </c>
@@ -26145,8 +26261,8 @@
       <c r="B102" s="2">
         <v>5</v>
       </c>
-      <c r="C102" s="132"/>
-      <c r="D102" s="130"/>
+      <c r="C102" s="133"/>
+      <c r="D102" s="131"/>
       <c r="E102" s="62">
         <v>1</v>
       </c>
@@ -26229,9 +26345,14 @@
       <c r="A103" s="1">
         <v>45759</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="132"/>
-      <c r="D103" s="130"/>
+      <c r="B103" s="2">
+        <v>6</v>
+      </c>
+      <c r="C103" s="133"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="62">
+        <v>0</v>
+      </c>
       <c r="F103" s="38" t="s">
         <v>180</v>
       </c>
@@ -26308,9 +26429,14 @@
       <c r="A104" s="1">
         <v>45760</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="132"/>
-      <c r="D104" s="130"/>
+      <c r="B104" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C104" s="133"/>
+      <c r="D104" s="131"/>
+      <c r="E104" s="62">
+        <v>1</v>
+      </c>
       <c r="F104" s="38" t="s">
         <v>180</v>
       </c>
@@ -26387,9 +26513,14 @@
       <c r="A105" s="1">
         <v>45761</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="132"/>
-      <c r="D105" s="130"/>
+      <c r="B105" s="2">
+        <v>7</v>
+      </c>
+      <c r="C105" s="133"/>
+      <c r="D105" s="131"/>
+      <c r="E105" s="62">
+        <v>1</v>
+      </c>
       <c r="F105" s="38" t="s">
         <v>180</v>
       </c>
@@ -26466,9 +26597,14 @@
       <c r="A106" s="1">
         <v>45762</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="132"/>
-      <c r="D106" s="130"/>
+      <c r="B106" s="2">
+        <v>6</v>
+      </c>
+      <c r="C106" s="133"/>
+      <c r="D106" s="131"/>
+      <c r="E106" s="62">
+        <v>1</v>
+      </c>
       <c r="F106" s="38" t="s">
         <v>180</v>
       </c>
@@ -26545,9 +26681,14 @@
       <c r="A107" s="1">
         <v>45763</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="132"/>
-      <c r="D107" s="130"/>
+      <c r="B107" s="2">
+        <v>5</v>
+      </c>
+      <c r="C107" s="133"/>
+      <c r="D107" s="131"/>
+      <c r="E107" s="62">
+        <v>0</v>
+      </c>
       <c r="F107" s="38" t="s">
         <v>180</v>
       </c>
@@ -26625,8 +26766,8 @@
         <v>45764</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="132"/>
-      <c r="D108" s="130"/>
+      <c r="C108" s="133"/>
+      <c r="D108" s="131"/>
       <c r="F108" s="38" t="s">
         <v>180</v>
       </c>
@@ -26704,8 +26845,8 @@
         <v>45765</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="132"/>
-      <c r="D109" s="130"/>
+      <c r="C109" s="133"/>
+      <c r="D109" s="131"/>
       <c r="F109" s="38" t="s">
         <v>180</v>
       </c>
@@ -26783,8 +26924,8 @@
         <v>45766</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="132"/>
-      <c r="D110" s="130"/>
+      <c r="C110" s="133"/>
+      <c r="D110" s="131"/>
       <c r="F110" s="38" t="s">
         <v>180</v>
       </c>
@@ -26862,8 +27003,8 @@
         <v>45767</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="132"/>
-      <c r="D111" s="130"/>
+      <c r="C111" s="133"/>
+      <c r="D111" s="131"/>
       <c r="F111" s="38" t="s">
         <v>180</v>
       </c>
@@ -26941,8 +27082,8 @@
         <v>45768</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="132"/>
-      <c r="D112" s="130"/>
+      <c r="C112" s="133"/>
+      <c r="D112" s="131"/>
       <c r="F112" s="38" t="s">
         <v>180</v>
       </c>
@@ -27020,8 +27161,8 @@
         <v>45769</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="132"/>
-      <c r="D113" s="130"/>
+      <c r="C113" s="133"/>
+      <c r="D113" s="131"/>
       <c r="F113" s="38" t="s">
         <v>180</v>
       </c>
@@ -27099,8 +27240,8 @@
         <v>45770</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="132"/>
-      <c r="D114" s="130"/>
+      <c r="C114" s="133"/>
+      <c r="D114" s="131"/>
       <c r="F114" s="38" t="s">
         <v>180</v>
       </c>
@@ -27178,8 +27319,8 @@
         <v>45771</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="132"/>
-      <c r="D115" s="130"/>
+      <c r="C115" s="133"/>
+      <c r="D115" s="131"/>
       <c r="F115" s="38" t="s">
         <v>180</v>
       </c>
@@ -27257,8 +27398,8 @@
         <v>45772</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="132"/>
-      <c r="D116" s="130"/>
+      <c r="C116" s="133"/>
+      <c r="D116" s="131"/>
       <c r="F116" s="38" t="s">
         <v>180</v>
       </c>
@@ -27336,8 +27477,8 @@
         <v>45773</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="132"/>
-      <c r="D117" s="130"/>
+      <c r="C117" s="133"/>
+      <c r="D117" s="131"/>
       <c r="F117" s="38" t="s">
         <v>180</v>
       </c>
@@ -27415,8 +27556,8 @@
         <v>45774</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="132"/>
-      <c r="D118" s="130"/>
+      <c r="C118" s="133"/>
+      <c r="D118" s="131"/>
       <c r="F118" s="38" t="s">
         <v>180</v>
       </c>
@@ -27494,8 +27635,8 @@
         <v>45775</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="132"/>
-      <c r="D119" s="130"/>
+      <c r="C119" s="133"/>
+      <c r="D119" s="131"/>
       <c r="F119" s="38" t="s">
         <v>180</v>
       </c>
@@ -27573,8 +27714,8 @@
         <v>45776</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="132"/>
-      <c r="D120" s="130"/>
+      <c r="C120" s="133"/>
+      <c r="D120" s="131"/>
       <c r="F120" s="38" t="s">
         <v>269</v>
       </c>
@@ -27652,8 +27793,8 @@
         <v>45777</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="132"/>
-      <c r="D121" s="130"/>
+      <c r="C121" s="133"/>
+      <c r="D121" s="131"/>
       <c r="F121" s="38" t="s">
         <v>198</v>
       </c>
@@ -27731,8 +27872,8 @@
         <v>45778</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="132"/>
-      <c r="D122" s="130"/>
+      <c r="C122" s="133"/>
+      <c r="D122" s="131"/>
       <c r="AJ122" t="str">
         <f>TRIM(MID(SUBSTITUTE($F122, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ122)-1)*100+1, 100))</f>
         <v/>
@@ -27807,8 +27948,8 @@
         <v>45779</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="132"/>
-      <c r="D123" s="130"/>
+      <c r="C123" s="133"/>
+      <c r="D123" s="131"/>
       <c r="AJ123" t="str">
         <f>TRIM(MID(SUBSTITUTE($F123, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ123)-1)*100+1, 100))</f>
         <v/>
@@ -27883,8 +28024,8 @@
         <v>45780</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="132"/>
-      <c r="D124" s="130"/>
+      <c r="C124" s="133"/>
+      <c r="D124" s="131"/>
       <c r="AJ124" t="str">
         <f>TRIM(MID(SUBSTITUTE($F124, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ124)-1)*100+1, 100))</f>
         <v/>
@@ -27959,8 +28100,8 @@
         <v>45781</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="132"/>
-      <c r="D125" s="130"/>
+      <c r="C125" s="133"/>
+      <c r="D125" s="131"/>
       <c r="AJ125" t="str">
         <f>TRIM(MID(SUBSTITUTE($F125, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ125)-1)*100+1, 100))</f>
         <v/>
@@ -28035,8 +28176,8 @@
         <v>45782</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="132"/>
-      <c r="D126" s="130"/>
+      <c r="C126" s="133"/>
+      <c r="D126" s="131"/>
       <c r="AJ126" t="str">
         <f>TRIM(MID(SUBSTITUTE($F126, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ126)-1)*100+1, 100))</f>
         <v/>
@@ -28111,8 +28252,8 @@
         <v>45783</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="132"/>
-      <c r="D127" s="130"/>
+      <c r="C127" s="133"/>
+      <c r="D127" s="131"/>
       <c r="AJ127" t="str">
         <f>TRIM(MID(SUBSTITUTE($F127, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ127)-1)*100+1, 100))</f>
         <v/>
@@ -28187,8 +28328,8 @@
         <v>45784</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="132"/>
-      <c r="D128" s="130"/>
+      <c r="C128" s="133"/>
+      <c r="D128" s="131"/>
       <c r="AJ128" t="str">
         <f>TRIM(MID(SUBSTITUTE($F128, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ128)-1)*100+1, 100))</f>
         <v/>
@@ -28263,8 +28404,8 @@
         <v>45785</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="132"/>
-      <c r="D129" s="130"/>
+      <c r="C129" s="133"/>
+      <c r="D129" s="131"/>
       <c r="AJ129" t="str">
         <f>TRIM(MID(SUBSTITUTE($F129, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ129)-1)*100+1, 100))</f>
         <v/>
@@ -28339,8 +28480,8 @@
         <v>45786</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="132"/>
-      <c r="D130" s="130"/>
+      <c r="C130" s="133"/>
+      <c r="D130" s="131"/>
       <c r="AJ130" t="str">
         <f>TRIM(MID(SUBSTITUTE($F130, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ130)-1)*100+1, 100))</f>
         <v/>
@@ -28415,8 +28556,8 @@
         <v>45787</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="132"/>
-      <c r="D131" s="130"/>
+      <c r="C131" s="133"/>
+      <c r="D131" s="131"/>
       <c r="AJ131" t="str">
         <f>TRIM(MID(SUBSTITUTE($F131, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ131)-1)*100+1, 100))</f>
         <v/>
@@ -28491,8 +28632,8 @@
         <v>45788</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="132"/>
-      <c r="D132" s="130"/>
+      <c r="C132" s="133"/>
+      <c r="D132" s="131"/>
       <c r="AJ132" t="str">
         <f>TRIM(MID(SUBSTITUTE($F132, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ132)-1)*100+1, 100))</f>
         <v/>
@@ -28567,8 +28708,8 @@
         <v>45789</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="132"/>
-      <c r="D133" s="130"/>
+      <c r="C133" s="133"/>
+      <c r="D133" s="131"/>
       <c r="AJ133" t="str">
         <f>TRIM(MID(SUBSTITUTE($F133, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ133)-1)*100+1, 100))</f>
         <v/>
@@ -28643,8 +28784,8 @@
         <v>45790</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="132"/>
-      <c r="D134" s="130"/>
+      <c r="C134" s="133"/>
+      <c r="D134" s="131"/>
       <c r="AJ134" t="str">
         <f>TRIM(MID(SUBSTITUTE($F134, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ134)-1)*100+1, 100))</f>
         <v/>
@@ -28719,8 +28860,8 @@
         <v>45791</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="132"/>
-      <c r="D135" s="130"/>
+      <c r="C135" s="133"/>
+      <c r="D135" s="131"/>
       <c r="AJ135" t="str">
         <f>TRIM(MID(SUBSTITUTE($F135, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ135)-1)*100+1, 100))</f>
         <v/>
@@ -28795,8 +28936,8 @@
         <v>45792</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="132"/>
-      <c r="D136" s="130"/>
+      <c r="C136" s="133"/>
+      <c r="D136" s="131"/>
       <c r="AJ136" t="str">
         <f>TRIM(MID(SUBSTITUTE($F136, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ136)-1)*100+1, 100))</f>
         <v/>
@@ -28871,8 +29012,8 @@
         <v>45793</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="132"/>
-      <c r="D137" s="130"/>
+      <c r="C137" s="133"/>
+      <c r="D137" s="131"/>
       <c r="AJ137" t="str">
         <f>TRIM(MID(SUBSTITUTE($F137, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ137)-1)*100+1, 100))</f>
         <v/>
@@ -28947,8 +29088,8 @@
         <v>45794</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="132"/>
-      <c r="D138" s="130"/>
+      <c r="C138" s="133"/>
+      <c r="D138" s="131"/>
       <c r="AJ138" t="str">
         <f>TRIM(MID(SUBSTITUTE($F138, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ138)-1)*100+1, 100))</f>
         <v/>
@@ -29023,8 +29164,8 @@
         <v>45795</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="132"/>
-      <c r="D139" s="130"/>
+      <c r="C139" s="133"/>
+      <c r="D139" s="131"/>
       <c r="AJ139" t="str">
         <f>TRIM(MID(SUBSTITUTE($F139, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ139)-1)*100+1, 100))</f>
         <v/>
@@ -29099,8 +29240,8 @@
         <v>45796</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="132"/>
-      <c r="D140" s="130"/>
+      <c r="C140" s="133"/>
+      <c r="D140" s="131"/>
       <c r="AJ140" t="str">
         <f>TRIM(MID(SUBSTITUTE($F140, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ140)-1)*100+1, 100))</f>
         <v/>
@@ -29175,8 +29316,8 @@
         <v>45797</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="132"/>
-      <c r="D141" s="130"/>
+      <c r="C141" s="133"/>
+      <c r="D141" s="131"/>
       <c r="AJ141" t="str">
         <f>TRIM(MID(SUBSTITUTE($F141, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ141)-1)*100+1, 100))</f>
         <v/>
@@ -29251,8 +29392,8 @@
         <v>45798</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="132"/>
-      <c r="D142" s="130"/>
+      <c r="C142" s="133"/>
+      <c r="D142" s="131"/>
       <c r="AJ142" t="str">
         <f>TRIM(MID(SUBSTITUTE($F142, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ142)-1)*100+1, 100))</f>
         <v/>
@@ -29327,8 +29468,8 @@
         <v>45799</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="132"/>
-      <c r="D143" s="130"/>
+      <c r="C143" s="133"/>
+      <c r="D143" s="131"/>
       <c r="AJ143" t="str">
         <f>TRIM(MID(SUBSTITUTE($F143, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ143)-1)*100+1, 100))</f>
         <v/>
@@ -29403,8 +29544,8 @@
         <v>45800</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="132"/>
-      <c r="D144" s="130"/>
+      <c r="C144" s="133"/>
+      <c r="D144" s="131"/>
       <c r="AJ144" t="str">
         <f>TRIM(MID(SUBSTITUTE($F144, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ144)-1)*100+1, 100))</f>
         <v/>
@@ -29479,8 +29620,8 @@
         <v>45801</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="132"/>
-      <c r="D145" s="130"/>
+      <c r="C145" s="133"/>
+      <c r="D145" s="131"/>
       <c r="AJ145" t="str">
         <f>TRIM(MID(SUBSTITUTE($F145, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ145)-1)*100+1, 100))</f>
         <v/>
@@ -29555,8 +29696,8 @@
         <v>45802</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="132"/>
-      <c r="D146" s="130"/>
+      <c r="C146" s="133"/>
+      <c r="D146" s="131"/>
       <c r="AJ146" t="str">
         <f>TRIM(MID(SUBSTITUTE($F146, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ146)-1)*100+1, 100))</f>
         <v/>
@@ -29631,8 +29772,8 @@
         <v>45803</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="132"/>
-      <c r="D147" s="130"/>
+      <c r="C147" s="133"/>
+      <c r="D147" s="131"/>
       <c r="AJ147" t="str">
         <f>TRIM(MID(SUBSTITUTE($F147, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ147)-1)*100+1, 100))</f>
         <v/>
@@ -29707,8 +29848,8 @@
         <v>45804</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="132"/>
-      <c r="D148" s="130"/>
+      <c r="C148" s="133"/>
+      <c r="D148" s="131"/>
       <c r="AJ148" t="str">
         <f>TRIM(MID(SUBSTITUTE($F148, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ148)-1)*100+1, 100))</f>
         <v/>
@@ -29783,8 +29924,8 @@
         <v>45805</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="132"/>
-      <c r="D149" s="130"/>
+      <c r="C149" s="133"/>
+      <c r="D149" s="131"/>
       <c r="AJ149" t="str">
         <f>TRIM(MID(SUBSTITUTE($F149, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ149)-1)*100+1, 100))</f>
         <v/>
@@ -29859,8 +30000,8 @@
         <v>45806</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="132"/>
-      <c r="D150" s="130"/>
+      <c r="C150" s="133"/>
+      <c r="D150" s="131"/>
       <c r="AJ150" t="str">
         <f>TRIM(MID(SUBSTITUTE($F150, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ150)-1)*100+1, 100))</f>
         <v/>
@@ -29935,8 +30076,8 @@
         <v>45807</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="132"/>
-      <c r="D151" s="130"/>
+      <c r="C151" s="133"/>
+      <c r="D151" s="131"/>
       <c r="AJ151" t="str">
         <f>TRIM(MID(SUBSTITUTE($F151, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ151)-1)*100+1, 100))</f>
         <v/>
@@ -30011,8 +30152,8 @@
         <v>45808</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="132"/>
-      <c r="D152" s="130"/>
+      <c r="C152" s="133"/>
+      <c r="D152" s="131"/>
       <c r="AJ152" t="str">
         <f>TRIM(MID(SUBSTITUTE($F152, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ152)-1)*100+1, 100))</f>
         <v/>
@@ -30087,8 +30228,8 @@
         <v>45809</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="132"/>
-      <c r="D153" s="130"/>
+      <c r="C153" s="133"/>
+      <c r="D153" s="131"/>
       <c r="AJ153" t="str">
         <f>TRIM(MID(SUBSTITUTE($F153, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ153)-1)*100+1, 100))</f>
         <v/>
@@ -30163,8 +30304,8 @@
         <v>45810</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="132"/>
-      <c r="D154" s="130"/>
+      <c r="C154" s="133"/>
+      <c r="D154" s="131"/>
       <c r="AJ154" t="str">
         <f>TRIM(MID(SUBSTITUTE($F154, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ154)-1)*100+1, 100))</f>
         <v/>
@@ -30239,8 +30380,8 @@
         <v>45811</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="132"/>
-      <c r="D155" s="130"/>
+      <c r="C155" s="133"/>
+      <c r="D155" s="131"/>
       <c r="AJ155" t="str">
         <f>TRIM(MID(SUBSTITUTE($F155, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ155)-1)*100+1, 100))</f>
         <v/>
@@ -30315,8 +30456,8 @@
         <v>45812</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="132"/>
-      <c r="D156" s="130"/>
+      <c r="C156" s="133"/>
+      <c r="D156" s="131"/>
       <c r="AJ156" t="str">
         <f>TRIM(MID(SUBSTITUTE($F156, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ156)-1)*100+1, 100))</f>
         <v/>
@@ -30391,8 +30532,8 @@
         <v>45813</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="132"/>
-      <c r="D157" s="130"/>
+      <c r="C157" s="133"/>
+      <c r="D157" s="131"/>
       <c r="AJ157" t="str">
         <f>TRIM(MID(SUBSTITUTE($F157, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ157)-1)*100+1, 100))</f>
         <v/>
@@ -30467,8 +30608,8 @@
         <v>45814</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="132"/>
-      <c r="D158" s="130"/>
+      <c r="C158" s="133"/>
+      <c r="D158" s="131"/>
       <c r="AJ158" t="str">
         <f>TRIM(MID(SUBSTITUTE($F158, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ158)-1)*100+1, 100))</f>
         <v/>
@@ -30543,8 +30684,8 @@
         <v>45815</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="132"/>
-      <c r="D159" s="130"/>
+      <c r="C159" s="133"/>
+      <c r="D159" s="131"/>
       <c r="AJ159" t="str">
         <f>TRIM(MID(SUBSTITUTE($F159, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ159)-1)*100+1, 100))</f>
         <v/>
@@ -30619,8 +30760,8 @@
         <v>45816</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="132"/>
-      <c r="D160" s="130"/>
+      <c r="C160" s="133"/>
+      <c r="D160" s="131"/>
       <c r="AJ160" t="str">
         <f>TRIM(MID(SUBSTITUTE($F160, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ160)-1)*100+1, 100))</f>
         <v/>
@@ -30695,8 +30836,8 @@
         <v>45817</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="132"/>
-      <c r="D161" s="130"/>
+      <c r="C161" s="133"/>
+      <c r="D161" s="131"/>
       <c r="AJ161" t="str">
         <f>TRIM(MID(SUBSTITUTE($F161, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ161)-1)*100+1, 100))</f>
         <v/>
@@ -30771,8 +30912,8 @@
         <v>45818</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="132"/>
-      <c r="D162" s="130"/>
+      <c r="C162" s="133"/>
+      <c r="D162" s="131"/>
       <c r="AJ162" t="str">
         <f>TRIM(MID(SUBSTITUTE($F162, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ162)-1)*100+1, 100))</f>
         <v/>
@@ -30847,8 +30988,8 @@
         <v>45819</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="132"/>
-      <c r="D163" s="130"/>
+      <c r="C163" s="133"/>
+      <c r="D163" s="131"/>
       <c r="AJ163" t="str">
         <f>TRIM(MID(SUBSTITUTE($F163, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ163)-1)*100+1, 100))</f>
         <v/>
@@ -30923,8 +31064,8 @@
         <v>45820</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="132"/>
-      <c r="D164" s="130"/>
+      <c r="C164" s="133"/>
+      <c r="D164" s="131"/>
       <c r="AJ164" t="str">
         <f>TRIM(MID(SUBSTITUTE($F164, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ164)-1)*100+1, 100))</f>
         <v/>
@@ -30999,8 +31140,8 @@
         <v>45821</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="132"/>
-      <c r="D165" s="130"/>
+      <c r="C165" s="133"/>
+      <c r="D165" s="131"/>
       <c r="AJ165" t="str">
         <f>TRIM(MID(SUBSTITUTE($F165, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ165)-1)*100+1, 100))</f>
         <v/>
@@ -31075,8 +31216,8 @@
         <v>45822</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="132"/>
-      <c r="D166" s="130"/>
+      <c r="C166" s="133"/>
+      <c r="D166" s="131"/>
       <c r="AJ166" t="str">
         <f>TRIM(MID(SUBSTITUTE($F166, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ166)-1)*100+1, 100))</f>
         <v/>
@@ -31151,8 +31292,8 @@
         <v>45823</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="132"/>
-      <c r="D167" s="130"/>
+      <c r="C167" s="133"/>
+      <c r="D167" s="131"/>
       <c r="AJ167" t="str">
         <f>TRIM(MID(SUBSTITUTE($F167, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ167)-1)*100+1, 100))</f>
         <v/>
@@ -31227,8 +31368,8 @@
         <v>45824</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="132"/>
-      <c r="D168" s="130"/>
+      <c r="C168" s="133"/>
+      <c r="D168" s="131"/>
       <c r="AJ168" t="str">
         <f>TRIM(MID(SUBSTITUTE($F168, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ168)-1)*100+1, 100))</f>
         <v/>
@@ -31303,8 +31444,8 @@
         <v>45825</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="132"/>
-      <c r="D169" s="130"/>
+      <c r="C169" s="133"/>
+      <c r="D169" s="131"/>
       <c r="AJ169" t="str">
         <f>TRIM(MID(SUBSTITUTE($F169, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ169)-1)*100+1, 100))</f>
         <v/>
@@ -31379,8 +31520,8 @@
         <v>45826</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="132"/>
-      <c r="D170" s="130"/>
+      <c r="C170" s="133"/>
+      <c r="D170" s="131"/>
       <c r="AJ170" t="str">
         <f>TRIM(MID(SUBSTITUTE($F170, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ170)-1)*100+1, 100))</f>
         <v/>
@@ -31455,8 +31596,8 @@
         <v>45827</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="132"/>
-      <c r="D171" s="130"/>
+      <c r="C171" s="133"/>
+      <c r="D171" s="131"/>
       <c r="AJ171" t="str">
         <f>TRIM(MID(SUBSTITUTE($F171, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ171)-1)*100+1, 100))</f>
         <v/>
@@ -31531,8 +31672,8 @@
         <v>45828</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="132"/>
-      <c r="D172" s="130"/>
+      <c r="C172" s="133"/>
+      <c r="D172" s="131"/>
       <c r="AJ172" t="str">
         <f>TRIM(MID(SUBSTITUTE($F172, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ172)-1)*100+1, 100))</f>
         <v/>
@@ -31607,8 +31748,8 @@
         <v>45829</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="132"/>
-      <c r="D173" s="130"/>
+      <c r="C173" s="133"/>
+      <c r="D173" s="131"/>
       <c r="AJ173" t="str">
         <f>TRIM(MID(SUBSTITUTE($F173, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ173)-1)*100+1, 100))</f>
         <v/>
@@ -31683,8 +31824,8 @@
         <v>45830</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="132"/>
-      <c r="D174" s="130"/>
+      <c r="C174" s="133"/>
+      <c r="D174" s="131"/>
       <c r="AJ174" t="str">
         <f>TRIM(MID(SUBSTITUTE($F174, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ174)-1)*100+1, 100))</f>
         <v/>
@@ -31759,8 +31900,8 @@
         <v>45831</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="132"/>
-      <c r="D175" s="130"/>
+      <c r="C175" s="133"/>
+      <c r="D175" s="131"/>
       <c r="AJ175" t="str">
         <f>TRIM(MID(SUBSTITUTE($F175, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ175)-1)*100+1, 100))</f>
         <v/>
@@ -31835,8 +31976,8 @@
         <v>45832</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="132"/>
-      <c r="D176" s="130"/>
+      <c r="C176" s="133"/>
+      <c r="D176" s="131"/>
       <c r="AJ176" t="str">
         <f>TRIM(MID(SUBSTITUTE($F176, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ176)-1)*100+1, 100))</f>
         <v/>
@@ -31911,8 +32052,8 @@
         <v>45833</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="132"/>
-      <c r="D177" s="130"/>
+      <c r="C177" s="133"/>
+      <c r="D177" s="131"/>
       <c r="AJ177" t="str">
         <f>TRIM(MID(SUBSTITUTE($F177, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ177)-1)*100+1, 100))</f>
         <v/>
@@ -31987,8 +32128,8 @@
         <v>45834</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="132"/>
-      <c r="D178" s="130"/>
+      <c r="C178" s="133"/>
+      <c r="D178" s="131"/>
       <c r="AJ178" t="str">
         <f>TRIM(MID(SUBSTITUTE($F178, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ178)-1)*100+1, 100))</f>
         <v/>
@@ -32063,8 +32204,8 @@
         <v>45835</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="132"/>
-      <c r="D179" s="130"/>
+      <c r="C179" s="133"/>
+      <c r="D179" s="131"/>
       <c r="AJ179" t="str">
         <f>TRIM(MID(SUBSTITUTE($F179, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ179)-1)*100+1, 100))</f>
         <v/>
@@ -32139,8 +32280,8 @@
         <v>45836</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="132"/>
-      <c r="D180" s="130"/>
+      <c r="C180" s="133"/>
+      <c r="D180" s="131"/>
       <c r="AJ180" t="str">
         <f>TRIM(MID(SUBSTITUTE($F180, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ180)-1)*100+1, 100))</f>
         <v/>
@@ -32215,8 +32356,8 @@
         <v>45837</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="132"/>
-      <c r="D181" s="130"/>
+      <c r="C181" s="133"/>
+      <c r="D181" s="131"/>
       <c r="AJ181" t="str">
         <f>TRIM(MID(SUBSTITUTE($F181, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ181)-1)*100+1, 100))</f>
         <v/>
@@ -32291,8 +32432,8 @@
         <v>45838</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="132"/>
-      <c r="D182" s="130"/>
+      <c r="C182" s="133"/>
+      <c r="D182" s="131"/>
       <c r="AJ182" t="str">
         <f>TRIM(MID(SUBSTITUTE($F182, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ182)-1)*100+1, 100))</f>
         <v/>
@@ -32367,8 +32508,8 @@
         <v>45839</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="132"/>
-      <c r="D183" s="130"/>
+      <c r="C183" s="133"/>
+      <c r="D183" s="131"/>
       <c r="AJ183" t="str">
         <f>TRIM(MID(SUBSTITUTE($F183, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ183)-1)*100+1, 100))</f>
         <v/>
@@ -32443,8 +32584,8 @@
         <v>45840</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="132"/>
-      <c r="D184" s="130"/>
+      <c r="C184" s="133"/>
+      <c r="D184" s="131"/>
       <c r="AJ184" t="str">
         <f>TRIM(MID(SUBSTITUTE($F184, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ184)-1)*100+1, 100))</f>
         <v/>
@@ -32519,8 +32660,8 @@
         <v>45841</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="132"/>
-      <c r="D185" s="130"/>
+      <c r="C185" s="133"/>
+      <c r="D185" s="131"/>
       <c r="AJ185" t="str">
         <f>TRIM(MID(SUBSTITUTE($F185, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ185)-1)*100+1, 100))</f>
         <v/>
@@ -32595,8 +32736,8 @@
         <v>45842</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="132"/>
-      <c r="D186" s="130"/>
+      <c r="C186" s="133"/>
+      <c r="D186" s="131"/>
       <c r="AJ186" t="str">
         <f>TRIM(MID(SUBSTITUTE($F186, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ186)-1)*100+1, 100))</f>
         <v/>
@@ -32671,8 +32812,8 @@
         <v>45843</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="132"/>
-      <c r="D187" s="130"/>
+      <c r="C187" s="133"/>
+      <c r="D187" s="131"/>
       <c r="AJ187" t="str">
         <f>TRIM(MID(SUBSTITUTE($F187, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ187)-1)*100+1, 100))</f>
         <v/>
@@ -32747,8 +32888,8 @@
         <v>45844</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="132"/>
-      <c r="D188" s="130"/>
+      <c r="C188" s="133"/>
+      <c r="D188" s="131"/>
       <c r="AJ188" t="str">
         <f>TRIM(MID(SUBSTITUTE($F188, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ188)-1)*100+1, 100))</f>
         <v/>
@@ -32823,8 +32964,8 @@
         <v>45845</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="132"/>
-      <c r="D189" s="130"/>
+      <c r="C189" s="133"/>
+      <c r="D189" s="131"/>
       <c r="AJ189" t="str">
         <f>TRIM(MID(SUBSTITUTE($F189, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ189)-1)*100+1, 100))</f>
         <v/>
@@ -32899,8 +33040,8 @@
         <v>45846</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="132"/>
-      <c r="D190" s="130"/>
+      <c r="C190" s="133"/>
+      <c r="D190" s="131"/>
       <c r="AJ190" t="str">
         <f>TRIM(MID(SUBSTITUTE($F190, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ190)-1)*100+1, 100))</f>
         <v/>
@@ -32975,8 +33116,8 @@
         <v>45847</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="132"/>
-      <c r="D191" s="130"/>
+      <c r="C191" s="133"/>
+      <c r="D191" s="131"/>
       <c r="AJ191" t="str">
         <f>TRIM(MID(SUBSTITUTE($F191, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ191)-1)*100+1, 100))</f>
         <v/>
@@ -33051,8 +33192,8 @@
         <v>45848</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="132"/>
-      <c r="D192" s="130"/>
+      <c r="C192" s="133"/>
+      <c r="D192" s="131"/>
       <c r="AJ192" t="str">
         <f>TRIM(MID(SUBSTITUTE($F192, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ192)-1)*100+1, 100))</f>
         <v/>
@@ -33127,8 +33268,8 @@
         <v>45849</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="132"/>
-      <c r="D193" s="130"/>
+      <c r="C193" s="133"/>
+      <c r="D193" s="131"/>
       <c r="AJ193" t="str">
         <f>TRIM(MID(SUBSTITUTE($F193, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ193)-1)*100+1, 100))</f>
         <v/>
@@ -33203,8 +33344,8 @@
         <v>45850</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="132"/>
-      <c r="D194" s="130"/>
+      <c r="C194" s="133"/>
+      <c r="D194" s="131"/>
       <c r="AJ194" t="str">
         <f>TRIM(MID(SUBSTITUTE($F194, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ194)-1)*100+1, 100))</f>
         <v/>
@@ -33279,8 +33420,8 @@
         <v>45851</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="132"/>
-      <c r="D195" s="130"/>
+      <c r="C195" s="133"/>
+      <c r="D195" s="131"/>
       <c r="AJ195" t="str">
         <f>TRIM(MID(SUBSTITUTE($F195, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ195)-1)*100+1, 100))</f>
         <v/>
@@ -33355,8 +33496,8 @@
         <v>45852</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="132"/>
-      <c r="D196" s="130"/>
+      <c r="C196" s="133"/>
+      <c r="D196" s="131"/>
       <c r="AJ196" t="str">
         <f>TRIM(MID(SUBSTITUTE($F196, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ196)-1)*100+1, 100))</f>
         <v/>
@@ -33431,8 +33572,8 @@
         <v>45853</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="132"/>
-      <c r="D197" s="130"/>
+      <c r="C197" s="133"/>
+      <c r="D197" s="131"/>
       <c r="AJ197" t="str">
         <f>TRIM(MID(SUBSTITUTE($F197, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ197)-1)*100+1, 100))</f>
         <v/>
@@ -33507,8 +33648,8 @@
         <v>45854</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="132"/>
-      <c r="D198" s="130"/>
+      <c r="C198" s="133"/>
+      <c r="D198" s="131"/>
       <c r="AJ198" t="str">
         <f>TRIM(MID(SUBSTITUTE($F198, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ198)-1)*100+1, 100))</f>
         <v/>
@@ -33583,8 +33724,8 @@
         <v>45855</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="132"/>
-      <c r="D199" s="130"/>
+      <c r="C199" s="133"/>
+      <c r="D199" s="131"/>
       <c r="AJ199" t="str">
         <f>TRIM(MID(SUBSTITUTE($F199, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ199)-1)*100+1, 100))</f>
         <v/>
@@ -33659,8 +33800,8 @@
         <v>45856</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="132"/>
-      <c r="D200" s="130"/>
+      <c r="C200" s="133"/>
+      <c r="D200" s="131"/>
       <c r="AJ200" t="str">
         <f>TRIM(MID(SUBSTITUTE($F200, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ200)-1)*100+1, 100))</f>
         <v/>
@@ -33735,8 +33876,8 @@
         <v>45857</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="132"/>
-      <c r="D201" s="130"/>
+      <c r="C201" s="133"/>
+      <c r="D201" s="131"/>
       <c r="AJ201" t="str">
         <f>TRIM(MID(SUBSTITUTE($F201, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ201)-1)*100+1, 100))</f>
         <v/>
@@ -33811,8 +33952,8 @@
         <v>45858</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="132"/>
-      <c r="D202" s="130"/>
+      <c r="C202" s="133"/>
+      <c r="D202" s="131"/>
       <c r="AJ202" t="str">
         <f>TRIM(MID(SUBSTITUTE($F202, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ202)-1)*100+1, 100))</f>
         <v/>
@@ -33887,8 +34028,8 @@
         <v>45859</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="132"/>
-      <c r="D203" s="130"/>
+      <c r="C203" s="133"/>
+      <c r="D203" s="131"/>
       <c r="AJ203" t="str">
         <f>TRIM(MID(SUBSTITUTE($F203, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ203)-1)*100+1, 100))</f>
         <v/>
@@ -33963,8 +34104,8 @@
         <v>45860</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="132"/>
-      <c r="D204" s="130"/>
+      <c r="C204" s="133"/>
+      <c r="D204" s="131"/>
       <c r="AJ204" t="str">
         <f>TRIM(MID(SUBSTITUTE($F204, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ204)-1)*100+1, 100))</f>
         <v/>
@@ -34039,8 +34180,8 @@
         <v>45861</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="132"/>
-      <c r="D205" s="130"/>
+      <c r="C205" s="133"/>
+      <c r="D205" s="131"/>
       <c r="AJ205" t="str">
         <f>TRIM(MID(SUBSTITUTE($F205, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ205)-1)*100+1, 100))</f>
         <v/>
@@ -34115,8 +34256,8 @@
         <v>45862</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="132"/>
-      <c r="D206" s="130"/>
+      <c r="C206" s="133"/>
+      <c r="D206" s="131"/>
       <c r="AJ206" t="str">
         <f>TRIM(MID(SUBSTITUTE($F206, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ206)-1)*100+1, 100))</f>
         <v/>
@@ -34191,8 +34332,8 @@
         <v>45863</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="132"/>
-      <c r="D207" s="130"/>
+      <c r="C207" s="133"/>
+      <c r="D207" s="131"/>
       <c r="AJ207" t="str">
         <f>TRIM(MID(SUBSTITUTE($F207, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ207)-1)*100+1, 100))</f>
         <v/>
@@ -34267,8 +34408,8 @@
         <v>45864</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="132"/>
-      <c r="D208" s="130"/>
+      <c r="C208" s="133"/>
+      <c r="D208" s="131"/>
       <c r="AJ208" t="str">
         <f>TRIM(MID(SUBSTITUTE($F208, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ208)-1)*100+1, 100))</f>
         <v/>
@@ -34343,8 +34484,8 @@
         <v>45865</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="132"/>
-      <c r="D209" s="130"/>
+      <c r="C209" s="133"/>
+      <c r="D209" s="131"/>
       <c r="AJ209" t="str">
         <f>TRIM(MID(SUBSTITUTE($F209, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ209)-1)*100+1, 100))</f>
         <v/>
@@ -34419,8 +34560,8 @@
         <v>45866</v>
       </c>
       <c r="B210" s="2"/>
-      <c r="C210" s="132"/>
-      <c r="D210" s="130"/>
+      <c r="C210" s="133"/>
+      <c r="D210" s="131"/>
       <c r="AJ210" t="str">
         <f>TRIM(MID(SUBSTITUTE($F210, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ210)-1)*100+1, 100))</f>
         <v/>
@@ -34495,8 +34636,8 @@
         <v>45867</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="132"/>
-      <c r="D211" s="130"/>
+      <c r="C211" s="133"/>
+      <c r="D211" s="131"/>
       <c r="AJ211" t="str">
         <f>TRIM(MID(SUBSTITUTE($F211, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ211)-1)*100+1, 100))</f>
         <v/>
@@ -34571,8 +34712,8 @@
         <v>45868</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="132"/>
-      <c r="D212" s="130"/>
+      <c r="C212" s="133"/>
+      <c r="D212" s="131"/>
       <c r="AJ212" t="str">
         <f>TRIM(MID(SUBSTITUTE($F212, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ212)-1)*100+1, 100))</f>
         <v/>
@@ -34647,8 +34788,8 @@
         <v>45869</v>
       </c>
       <c r="B213" s="2"/>
-      <c r="C213" s="132"/>
-      <c r="D213" s="130"/>
+      <c r="C213" s="133"/>
+      <c r="D213" s="131"/>
       <c r="AJ213" t="str">
         <f>TRIM(MID(SUBSTITUTE($F213, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ213)-1)*100+1, 100))</f>
         <v/>
@@ -34723,8 +34864,8 @@
         <v>45870</v>
       </c>
       <c r="B214" s="2"/>
-      <c r="C214" s="132"/>
-      <c r="D214" s="130"/>
+      <c r="C214" s="133"/>
+      <c r="D214" s="131"/>
       <c r="AJ214" t="str">
         <f>TRIM(MID(SUBSTITUTE($F214, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ214)-1)*100+1, 100))</f>
         <v/>
@@ -34799,8 +34940,8 @@
         <v>45871</v>
       </c>
       <c r="B215" s="2"/>
-      <c r="C215" s="132"/>
-      <c r="D215" s="130"/>
+      <c r="C215" s="133"/>
+      <c r="D215" s="131"/>
       <c r="AJ215" t="str">
         <f>TRIM(MID(SUBSTITUTE($F215, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ215)-1)*100+1, 100))</f>
         <v/>
@@ -34875,8 +35016,8 @@
         <v>45872</v>
       </c>
       <c r="B216" s="2"/>
-      <c r="C216" s="132"/>
-      <c r="D216" s="130"/>
+      <c r="C216" s="133"/>
+      <c r="D216" s="131"/>
       <c r="AJ216" t="str">
         <f>TRIM(MID(SUBSTITUTE($F216, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ216)-1)*100+1, 100))</f>
         <v/>
@@ -34951,8 +35092,8 @@
         <v>45873</v>
       </c>
       <c r="B217" s="2"/>
-      <c r="C217" s="132"/>
-      <c r="D217" s="130"/>
+      <c r="C217" s="133"/>
+      <c r="D217" s="131"/>
       <c r="AJ217" t="str">
         <f>TRIM(MID(SUBSTITUTE($F217, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ217)-1)*100+1, 100))</f>
         <v/>
@@ -35027,8 +35168,8 @@
         <v>45874</v>
       </c>
       <c r="B218" s="2"/>
-      <c r="C218" s="132"/>
-      <c r="D218" s="130"/>
+      <c r="C218" s="133"/>
+      <c r="D218" s="131"/>
       <c r="AJ218" t="str">
         <f>TRIM(MID(SUBSTITUTE($F218, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ218)-1)*100+1, 100))</f>
         <v/>
@@ -35103,8 +35244,8 @@
         <v>45875</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="132"/>
-      <c r="D219" s="130"/>
+      <c r="C219" s="133"/>
+      <c r="D219" s="131"/>
       <c r="AJ219" t="str">
         <f>TRIM(MID(SUBSTITUTE($F219, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ219)-1)*100+1, 100))</f>
         <v/>
@@ -35179,8 +35320,8 @@
         <v>45876</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="132"/>
-      <c r="D220" s="130"/>
+      <c r="C220" s="133"/>
+      <c r="D220" s="131"/>
       <c r="AJ220" t="str">
         <f>TRIM(MID(SUBSTITUTE($F220, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ220)-1)*100+1, 100))</f>
         <v/>
@@ -35255,8 +35396,8 @@
         <v>45877</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="132"/>
-      <c r="D221" s="130"/>
+      <c r="C221" s="133"/>
+      <c r="D221" s="131"/>
       <c r="AJ221" t="str">
         <f>TRIM(MID(SUBSTITUTE($F221, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ221)-1)*100+1, 100))</f>
         <v/>
@@ -35331,8 +35472,8 @@
         <v>45878</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="132"/>
-      <c r="D222" s="130"/>
+      <c r="C222" s="133"/>
+      <c r="D222" s="131"/>
       <c r="AJ222" t="str">
         <f>TRIM(MID(SUBSTITUTE($F222, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ222)-1)*100+1, 100))</f>
         <v/>
@@ -35407,8 +35548,8 @@
         <v>45879</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="132"/>
-      <c r="D223" s="130"/>
+      <c r="C223" s="133"/>
+      <c r="D223" s="131"/>
       <c r="AJ223" t="str">
         <f>TRIM(MID(SUBSTITUTE($F223, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ223)-1)*100+1, 100))</f>
         <v/>
@@ -35483,8 +35624,8 @@
         <v>45880</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="132"/>
-      <c r="D224" s="130"/>
+      <c r="C224" s="133"/>
+      <c r="D224" s="131"/>
       <c r="AJ224" t="str">
         <f>TRIM(MID(SUBSTITUTE($F224, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ224)-1)*100+1, 100))</f>
         <v/>
@@ -35559,8 +35700,8 @@
         <v>45881</v>
       </c>
       <c r="B225" s="2"/>
-      <c r="C225" s="132"/>
-      <c r="D225" s="130"/>
+      <c r="C225" s="133"/>
+      <c r="D225" s="131"/>
       <c r="AJ225" t="str">
         <f>TRIM(MID(SUBSTITUTE($F225, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ225)-1)*100+1, 100))</f>
         <v/>
@@ -35635,8 +35776,8 @@
         <v>45882</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="132"/>
-      <c r="D226" s="130"/>
+      <c r="C226" s="133"/>
+      <c r="D226" s="131"/>
       <c r="AJ226" t="str">
         <f>TRIM(MID(SUBSTITUTE($F226, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ226)-1)*100+1, 100))</f>
         <v/>
@@ -35711,8 +35852,8 @@
         <v>45883</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="132"/>
-      <c r="D227" s="130"/>
+      <c r="C227" s="133"/>
+      <c r="D227" s="131"/>
       <c r="AJ227" t="str">
         <f>TRIM(MID(SUBSTITUTE($F227, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ227)-1)*100+1, 100))</f>
         <v/>
@@ -35787,8 +35928,8 @@
         <v>45884</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="132"/>
-      <c r="D228" s="130"/>
+      <c r="C228" s="133"/>
+      <c r="D228" s="131"/>
       <c r="AJ228" t="str">
         <f>TRIM(MID(SUBSTITUTE($F228, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ228)-1)*100+1, 100))</f>
         <v/>
@@ -35863,8 +36004,8 @@
         <v>45885</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="132"/>
-      <c r="D229" s="130"/>
+      <c r="C229" s="133"/>
+      <c r="D229" s="131"/>
       <c r="AJ229" t="str">
         <f>TRIM(MID(SUBSTITUTE($F229, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ229)-1)*100+1, 100))</f>
         <v/>
@@ -35939,8 +36080,8 @@
         <v>45886</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="132"/>
-      <c r="D230" s="130"/>
+      <c r="C230" s="133"/>
+      <c r="D230" s="131"/>
       <c r="AJ230" t="str">
         <f>TRIM(MID(SUBSTITUTE($F230, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ230)-1)*100+1, 100))</f>
         <v/>
@@ -36015,8 +36156,8 @@
         <v>45887</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="132"/>
-      <c r="D231" s="130"/>
+      <c r="C231" s="133"/>
+      <c r="D231" s="131"/>
       <c r="AJ231" t="str">
         <f>TRIM(MID(SUBSTITUTE($F231, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ231)-1)*100+1, 100))</f>
         <v/>
@@ -36091,8 +36232,8 @@
         <v>45888</v>
       </c>
       <c r="B232" s="2"/>
-      <c r="C232" s="132"/>
-      <c r="D232" s="130"/>
+      <c r="C232" s="133"/>
+      <c r="D232" s="131"/>
       <c r="AJ232" t="str">
         <f>TRIM(MID(SUBSTITUTE($F232, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ232)-1)*100+1, 100))</f>
         <v/>
@@ -36167,8 +36308,8 @@
         <v>45889</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="132"/>
-      <c r="D233" s="130"/>
+      <c r="C233" s="133"/>
+      <c r="D233" s="131"/>
       <c r="AJ233" t="str">
         <f>TRIM(MID(SUBSTITUTE($F233, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ233)-1)*100+1, 100))</f>
         <v/>
@@ -36243,8 +36384,8 @@
         <v>45890</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="132"/>
-      <c r="D234" s="130"/>
+      <c r="C234" s="133"/>
+      <c r="D234" s="131"/>
       <c r="AJ234" t="str">
         <f>TRIM(MID(SUBSTITUTE($F234, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ234)-1)*100+1, 100))</f>
         <v/>
@@ -36319,8 +36460,8 @@
         <v>45891</v>
       </c>
       <c r="B235" s="2"/>
-      <c r="C235" s="132"/>
-      <c r="D235" s="130"/>
+      <c r="C235" s="133"/>
+      <c r="D235" s="131"/>
       <c r="AJ235" t="str">
         <f>TRIM(MID(SUBSTITUTE($F235, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ235)-1)*100+1, 100))</f>
         <v/>
@@ -36395,8 +36536,8 @@
         <v>45892</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="132"/>
-      <c r="D236" s="130"/>
+      <c r="C236" s="133"/>
+      <c r="D236" s="131"/>
       <c r="AJ236" t="str">
         <f>TRIM(MID(SUBSTITUTE($F236, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ236)-1)*100+1, 100))</f>
         <v/>
@@ -36471,8 +36612,8 @@
         <v>45893</v>
       </c>
       <c r="B237" s="2"/>
-      <c r="C237" s="132"/>
-      <c r="D237" s="130"/>
+      <c r="C237" s="133"/>
+      <c r="D237" s="131"/>
       <c r="AJ237" t="str">
         <f>TRIM(MID(SUBSTITUTE($F237, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ237)-1)*100+1, 100))</f>
         <v/>
@@ -36547,8 +36688,8 @@
         <v>45894</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="132"/>
-      <c r="D238" s="130"/>
+      <c r="C238" s="133"/>
+      <c r="D238" s="131"/>
       <c r="AJ238" t="str">
         <f>TRIM(MID(SUBSTITUTE($F238, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ238)-1)*100+1, 100))</f>
         <v/>
@@ -36623,8 +36764,8 @@
         <v>45895</v>
       </c>
       <c r="B239" s="2"/>
-      <c r="C239" s="132"/>
-      <c r="D239" s="130"/>
+      <c r="C239" s="133"/>
+      <c r="D239" s="131"/>
       <c r="AJ239" t="str">
         <f>TRIM(MID(SUBSTITUTE($F239, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ239)-1)*100+1, 100))</f>
         <v/>
@@ -36699,8 +36840,8 @@
         <v>45896</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="132"/>
-      <c r="D240" s="130"/>
+      <c r="C240" s="133"/>
+      <c r="D240" s="131"/>
       <c r="AJ240" t="str">
         <f>TRIM(MID(SUBSTITUTE($F240, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ240)-1)*100+1, 100))</f>
         <v/>
@@ -36775,8 +36916,8 @@
         <v>45897</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="132"/>
-      <c r="D241" s="130"/>
+      <c r="C241" s="133"/>
+      <c r="D241" s="131"/>
       <c r="AJ241" t="str">
         <f>TRIM(MID(SUBSTITUTE($F241, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ241)-1)*100+1, 100))</f>
         <v/>
@@ -36851,8 +36992,8 @@
         <v>45898</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="132"/>
-      <c r="D242" s="130"/>
+      <c r="C242" s="133"/>
+      <c r="D242" s="131"/>
       <c r="AJ242" t="str">
         <f>TRIM(MID(SUBSTITUTE($F242, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ242)-1)*100+1, 100))</f>
         <v/>
@@ -36927,8 +37068,8 @@
         <v>45899</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="132"/>
-      <c r="D243" s="130"/>
+      <c r="C243" s="133"/>
+      <c r="D243" s="131"/>
       <c r="AJ243" t="str">
         <f>TRIM(MID(SUBSTITUTE($F243, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ243)-1)*100+1, 100))</f>
         <v/>
@@ -37003,8 +37144,8 @@
         <v>45900</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="132"/>
-      <c r="D244" s="130"/>
+      <c r="C244" s="133"/>
+      <c r="D244" s="131"/>
       <c r="AJ244" t="str">
         <f>TRIM(MID(SUBSTITUTE($F244, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ244)-1)*100+1, 100))</f>
         <v/>
@@ -37079,8 +37220,8 @@
         <v>45901</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="132"/>
-      <c r="D245" s="130"/>
+      <c r="C245" s="133"/>
+      <c r="D245" s="131"/>
       <c r="AJ245" t="str">
         <f>TRIM(MID(SUBSTITUTE($F245, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ245)-1)*100+1, 100))</f>
         <v/>
@@ -37155,8 +37296,8 @@
         <v>45902</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="132"/>
-      <c r="D246" s="130"/>
+      <c r="C246" s="133"/>
+      <c r="D246" s="131"/>
       <c r="AJ246" t="str">
         <f>TRIM(MID(SUBSTITUTE($F246, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ246)-1)*100+1, 100))</f>
         <v/>
@@ -37231,8 +37372,8 @@
         <v>45903</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="132"/>
-      <c r="D247" s="130"/>
+      <c r="C247" s="133"/>
+      <c r="D247" s="131"/>
       <c r="AJ247" t="str">
         <f>TRIM(MID(SUBSTITUTE($F247, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ247)-1)*100+1, 100))</f>
         <v/>
@@ -37307,8 +37448,8 @@
         <v>45904</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="132"/>
-      <c r="D248" s="130"/>
+      <c r="C248" s="133"/>
+      <c r="D248" s="131"/>
       <c r="AJ248" t="str">
         <f>TRIM(MID(SUBSTITUTE($F248, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ248)-1)*100+1, 100))</f>
         <v/>
@@ -37383,8 +37524,8 @@
         <v>45905</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="132"/>
-      <c r="D249" s="130"/>
+      <c r="C249" s="133"/>
+      <c r="D249" s="131"/>
       <c r="AJ249" t="str">
         <f>TRIM(MID(SUBSTITUTE($F249, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ249)-1)*100+1, 100))</f>
         <v/>
@@ -37459,8 +37600,8 @@
         <v>45906</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="132"/>
-      <c r="D250" s="130"/>
+      <c r="C250" s="133"/>
+      <c r="D250" s="131"/>
       <c r="AJ250" t="str">
         <f>TRIM(MID(SUBSTITUTE($F250, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ250)-1)*100+1, 100))</f>
         <v/>
@@ -37535,8 +37676,8 @@
         <v>45907</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="132"/>
-      <c r="D251" s="130"/>
+      <c r="C251" s="133"/>
+      <c r="D251" s="131"/>
       <c r="AJ251" t="str">
         <f>TRIM(MID(SUBSTITUTE($F251, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ251)-1)*100+1, 100))</f>
         <v/>
@@ -37611,8 +37752,8 @@
         <v>45908</v>
       </c>
       <c r="B252" s="2"/>
-      <c r="C252" s="132"/>
-      <c r="D252" s="130"/>
+      <c r="C252" s="133"/>
+      <c r="D252" s="131"/>
       <c r="AJ252" t="str">
         <f>TRIM(MID(SUBSTITUTE($F252, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ252)-1)*100+1, 100))</f>
         <v/>
@@ -37687,8 +37828,8 @@
         <v>45909</v>
       </c>
       <c r="B253" s="2"/>
-      <c r="C253" s="132"/>
-      <c r="D253" s="130"/>
+      <c r="C253" s="133"/>
+      <c r="D253" s="131"/>
       <c r="AJ253" t="str">
         <f>TRIM(MID(SUBSTITUTE($F253, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ253)-1)*100+1, 100))</f>
         <v/>
@@ -37763,8 +37904,8 @@
         <v>45910</v>
       </c>
       <c r="B254" s="2"/>
-      <c r="C254" s="132"/>
-      <c r="D254" s="130"/>
+      <c r="C254" s="133"/>
+      <c r="D254" s="131"/>
       <c r="AJ254" t="str">
         <f>TRIM(MID(SUBSTITUTE($F254, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ254)-1)*100+1, 100))</f>
         <v/>
@@ -37839,8 +37980,8 @@
         <v>45911</v>
       </c>
       <c r="B255" s="2"/>
-      <c r="C255" s="132"/>
-      <c r="D255" s="130"/>
+      <c r="C255" s="133"/>
+      <c r="D255" s="131"/>
       <c r="AJ255" t="str">
         <f>TRIM(MID(SUBSTITUTE($F255, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ255)-1)*100+1, 100))</f>
         <v/>
@@ -37915,8 +38056,8 @@
         <v>45912</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="132"/>
-      <c r="D256" s="130"/>
+      <c r="C256" s="133"/>
+      <c r="D256" s="131"/>
       <c r="AJ256" t="str">
         <f>TRIM(MID(SUBSTITUTE($F256, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ256)-1)*100+1, 100))</f>
         <v/>
@@ -37991,8 +38132,8 @@
         <v>45913</v>
       </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="132"/>
-      <c r="D257" s="130"/>
+      <c r="C257" s="133"/>
+      <c r="D257" s="131"/>
       <c r="AJ257" t="str">
         <f>TRIM(MID(SUBSTITUTE($F257, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ257)-1)*100+1, 100))</f>
         <v/>
@@ -38067,8 +38208,8 @@
         <v>45914</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="132"/>
-      <c r="D258" s="130"/>
+      <c r="C258" s="133"/>
+      <c r="D258" s="131"/>
       <c r="AJ258" t="str">
         <f>TRIM(MID(SUBSTITUTE($F258, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ258)-1)*100+1, 100))</f>
         <v/>
@@ -38143,8 +38284,8 @@
         <v>45915</v>
       </c>
       <c r="B259" s="2"/>
-      <c r="C259" s="132"/>
-      <c r="D259" s="130"/>
+      <c r="C259" s="133"/>
+      <c r="D259" s="131"/>
       <c r="AJ259" t="str">
         <f>TRIM(MID(SUBSTITUTE($F259, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ259)-1)*100+1, 100))</f>
         <v/>
@@ -38219,8 +38360,8 @@
         <v>45916</v>
       </c>
       <c r="B260" s="2"/>
-      <c r="C260" s="132"/>
-      <c r="D260" s="130"/>
+      <c r="C260" s="133"/>
+      <c r="D260" s="131"/>
       <c r="AJ260" t="str">
         <f>TRIM(MID(SUBSTITUTE($F260, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ260)-1)*100+1, 100))</f>
         <v/>
@@ -38295,8 +38436,8 @@
         <v>45917</v>
       </c>
       <c r="B261" s="2"/>
-      <c r="C261" s="132"/>
-      <c r="D261" s="130"/>
+      <c r="C261" s="133"/>
+      <c r="D261" s="131"/>
       <c r="AJ261" t="str">
         <f>TRIM(MID(SUBSTITUTE($F261, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ261)-1)*100+1, 100))</f>
         <v/>
@@ -38371,8 +38512,8 @@
         <v>45918</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="132"/>
-      <c r="D262" s="130"/>
+      <c r="C262" s="133"/>
+      <c r="D262" s="131"/>
       <c r="AJ262" t="str">
         <f>TRIM(MID(SUBSTITUTE($F262, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ262)-1)*100+1, 100))</f>
         <v/>
@@ -38447,8 +38588,8 @@
         <v>45919</v>
       </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="132"/>
-      <c r="D263" s="130"/>
+      <c r="C263" s="133"/>
+      <c r="D263" s="131"/>
       <c r="AJ263" t="str">
         <f>TRIM(MID(SUBSTITUTE($F263, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ263)-1)*100+1, 100))</f>
         <v/>
@@ -38523,8 +38664,8 @@
         <v>45920</v>
       </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="132"/>
-      <c r="D264" s="130"/>
+      <c r="C264" s="133"/>
+      <c r="D264" s="131"/>
       <c r="AJ264" t="str">
         <f>TRIM(MID(SUBSTITUTE($F264, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ264)-1)*100+1, 100))</f>
         <v/>
@@ -38599,8 +38740,8 @@
         <v>45921</v>
       </c>
       <c r="B265" s="2"/>
-      <c r="C265" s="132"/>
-      <c r="D265" s="130"/>
+      <c r="C265" s="133"/>
+      <c r="D265" s="131"/>
       <c r="AJ265" t="str">
         <f>TRIM(MID(SUBSTITUTE($F265, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ265)-1)*100+1, 100))</f>
         <v/>
@@ -38675,8 +38816,8 @@
         <v>45922</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="132"/>
-      <c r="D266" s="130"/>
+      <c r="C266" s="133"/>
+      <c r="D266" s="131"/>
       <c r="AJ266" t="str">
         <f>TRIM(MID(SUBSTITUTE($F266, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ266)-1)*100+1, 100))</f>
         <v/>
@@ -38751,8 +38892,8 @@
         <v>45923</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="132"/>
-      <c r="D267" s="130"/>
+      <c r="C267" s="133"/>
+      <c r="D267" s="131"/>
       <c r="AJ267" t="str">
         <f>TRIM(MID(SUBSTITUTE($F267, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ267)-1)*100+1, 100))</f>
         <v/>
@@ -38827,8 +38968,8 @@
         <v>45924</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="132"/>
-      <c r="D268" s="130"/>
+      <c r="C268" s="133"/>
+      <c r="D268" s="131"/>
       <c r="AJ268" t="str">
         <f>TRIM(MID(SUBSTITUTE($F268, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ268)-1)*100+1, 100))</f>
         <v/>
@@ -38903,8 +39044,8 @@
         <v>45925</v>
       </c>
       <c r="B269" s="2"/>
-      <c r="C269" s="132"/>
-      <c r="D269" s="130"/>
+      <c r="C269" s="133"/>
+      <c r="D269" s="131"/>
       <c r="AJ269" t="str">
         <f>TRIM(MID(SUBSTITUTE($F269, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ269)-1)*100+1, 100))</f>
         <v/>
@@ -38979,8 +39120,8 @@
         <v>45926</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270" s="132"/>
-      <c r="D270" s="130"/>
+      <c r="C270" s="133"/>
+      <c r="D270" s="131"/>
       <c r="AJ270" t="str">
         <f>TRIM(MID(SUBSTITUTE($F270, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ270)-1)*100+1, 100))</f>
         <v/>
@@ -39055,8 +39196,8 @@
         <v>45927</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="132"/>
-      <c r="D271" s="130"/>
+      <c r="C271" s="133"/>
+      <c r="D271" s="131"/>
       <c r="AJ271" t="str">
         <f>TRIM(MID(SUBSTITUTE($F271, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ271)-1)*100+1, 100))</f>
         <v/>
@@ -39131,8 +39272,8 @@
         <v>45928</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="132"/>
-      <c r="D272" s="130"/>
+      <c r="C272" s="133"/>
+      <c r="D272" s="131"/>
       <c r="AJ272" t="str">
         <f>TRIM(MID(SUBSTITUTE($F272, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ272)-1)*100+1, 100))</f>
         <v/>
@@ -39207,8 +39348,8 @@
         <v>45929</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="132"/>
-      <c r="D273" s="130"/>
+      <c r="C273" s="133"/>
+      <c r="D273" s="131"/>
       <c r="AJ273" t="str">
         <f>TRIM(MID(SUBSTITUTE($F273, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ273)-1)*100+1, 100))</f>
         <v/>
@@ -39283,8 +39424,8 @@
         <v>45930</v>
       </c>
       <c r="B274" s="2"/>
-      <c r="C274" s="132"/>
-      <c r="D274" s="130"/>
+      <c r="C274" s="133"/>
+      <c r="D274" s="131"/>
       <c r="AJ274" t="str">
         <f>TRIM(MID(SUBSTITUTE($F274, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ274)-1)*100+1, 100))</f>
         <v/>
@@ -39359,8 +39500,8 @@
         <v>45931</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="132"/>
-      <c r="D275" s="130"/>
+      <c r="C275" s="133"/>
+      <c r="D275" s="131"/>
       <c r="AJ275" t="str">
         <f>TRIM(MID(SUBSTITUTE($F275, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ275)-1)*100+1, 100))</f>
         <v/>
@@ -39435,8 +39576,8 @@
         <v>45932</v>
       </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="132"/>
-      <c r="D276" s="130"/>
+      <c r="C276" s="133"/>
+      <c r="D276" s="131"/>
       <c r="AJ276" t="str">
         <f>TRIM(MID(SUBSTITUTE($F276, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ276)-1)*100+1, 100))</f>
         <v/>
@@ -39511,8 +39652,8 @@
         <v>45933</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="132"/>
-      <c r="D277" s="130"/>
+      <c r="C277" s="133"/>
+      <c r="D277" s="131"/>
       <c r="AJ277" t="str">
         <f>TRIM(MID(SUBSTITUTE($F277, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ277)-1)*100+1, 100))</f>
         <v/>
@@ -39587,8 +39728,8 @@
         <v>45934</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="132"/>
-      <c r="D278" s="130"/>
+      <c r="C278" s="133"/>
+      <c r="D278" s="131"/>
       <c r="AJ278" t="str">
         <f>TRIM(MID(SUBSTITUTE($F278, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ278)-1)*100+1, 100))</f>
         <v/>
@@ -39663,8 +39804,8 @@
         <v>45935</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="132"/>
-      <c r="D279" s="130"/>
+      <c r="C279" s="133"/>
+      <c r="D279" s="131"/>
       <c r="AJ279" t="str">
         <f>TRIM(MID(SUBSTITUTE($F279, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ279)-1)*100+1, 100))</f>
         <v/>
@@ -39739,8 +39880,8 @@
         <v>45936</v>
       </c>
       <c r="B280" s="2"/>
-      <c r="C280" s="132"/>
-      <c r="D280" s="130"/>
+      <c r="C280" s="133"/>
+      <c r="D280" s="131"/>
       <c r="AJ280" t="str">
         <f>TRIM(MID(SUBSTITUTE($F280, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ280)-1)*100+1, 100))</f>
         <v/>
@@ -39815,8 +39956,8 @@
         <v>45937</v>
       </c>
       <c r="B281" s="2"/>
-      <c r="C281" s="132"/>
-      <c r="D281" s="130"/>
+      <c r="C281" s="133"/>
+      <c r="D281" s="131"/>
       <c r="AJ281" t="str">
         <f>TRIM(MID(SUBSTITUTE($F281, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ281)-1)*100+1, 100))</f>
         <v/>
@@ -39891,8 +40032,8 @@
         <v>45938</v>
       </c>
       <c r="B282" s="2"/>
-      <c r="C282" s="132"/>
-      <c r="D282" s="130"/>
+      <c r="C282" s="133"/>
+      <c r="D282" s="131"/>
       <c r="AJ282" t="str">
         <f>TRIM(MID(SUBSTITUTE($F282, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ282)-1)*100+1, 100))</f>
         <v/>
@@ -39967,8 +40108,8 @@
         <v>45939</v>
       </c>
       <c r="B283" s="2"/>
-      <c r="C283" s="132"/>
-      <c r="D283" s="130"/>
+      <c r="C283" s="133"/>
+      <c r="D283" s="131"/>
       <c r="AJ283" t="str">
         <f>TRIM(MID(SUBSTITUTE($F283, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ283)-1)*100+1, 100))</f>
         <v/>
@@ -40043,8 +40184,8 @@
         <v>45940</v>
       </c>
       <c r="B284" s="2"/>
-      <c r="C284" s="132"/>
-      <c r="D284" s="130"/>
+      <c r="C284" s="133"/>
+      <c r="D284" s="131"/>
       <c r="AJ284" t="str">
         <f>TRIM(MID(SUBSTITUTE($F284, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ284)-1)*100+1, 100))</f>
         <v/>
@@ -40119,8 +40260,8 @@
         <v>45941</v>
       </c>
       <c r="B285" s="2"/>
-      <c r="C285" s="132"/>
-      <c r="D285" s="130"/>
+      <c r="C285" s="133"/>
+      <c r="D285" s="131"/>
       <c r="AJ285" t="str">
         <f>TRIM(MID(SUBSTITUTE($F285, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ285)-1)*100+1, 100))</f>
         <v/>
@@ -40195,8 +40336,8 @@
         <v>45942</v>
       </c>
       <c r="B286" s="2"/>
-      <c r="C286" s="132"/>
-      <c r="D286" s="130"/>
+      <c r="C286" s="133"/>
+      <c r="D286" s="131"/>
       <c r="AJ286" t="str">
         <f>TRIM(MID(SUBSTITUTE($F286, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ286)-1)*100+1, 100))</f>
         <v/>
@@ -40271,8 +40412,8 @@
         <v>45943</v>
       </c>
       <c r="B287" s="2"/>
-      <c r="C287" s="132"/>
-      <c r="D287" s="130"/>
+      <c r="C287" s="133"/>
+      <c r="D287" s="131"/>
       <c r="AJ287" t="str">
         <f>TRIM(MID(SUBSTITUTE($F287, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ287)-1)*100+1, 100))</f>
         <v/>
@@ -40347,8 +40488,8 @@
         <v>45944</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="132"/>
-      <c r="D288" s="130"/>
+      <c r="C288" s="133"/>
+      <c r="D288" s="131"/>
       <c r="AJ288" t="str">
         <f>TRIM(MID(SUBSTITUTE($F288, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ288)-1)*100+1, 100))</f>
         <v/>
@@ -40423,8 +40564,8 @@
         <v>45945</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="132"/>
-      <c r="D289" s="130"/>
+      <c r="C289" s="133"/>
+      <c r="D289" s="131"/>
       <c r="AJ289" t="str">
         <f>TRIM(MID(SUBSTITUTE($F289, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ289)-1)*100+1, 100))</f>
         <v/>
@@ -40499,8 +40640,8 @@
         <v>45946</v>
       </c>
       <c r="B290" s="2"/>
-      <c r="C290" s="132"/>
-      <c r="D290" s="130"/>
+      <c r="C290" s="133"/>
+      <c r="D290" s="131"/>
       <c r="AJ290" t="str">
         <f>TRIM(MID(SUBSTITUTE($F290, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ290)-1)*100+1, 100))</f>
         <v/>
@@ -40575,8 +40716,8 @@
         <v>45947</v>
       </c>
       <c r="B291" s="2"/>
-      <c r="C291" s="132"/>
-      <c r="D291" s="130"/>
+      <c r="C291" s="133"/>
+      <c r="D291" s="131"/>
       <c r="AJ291" t="str">
         <f>TRIM(MID(SUBSTITUTE($F291, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ291)-1)*100+1, 100))</f>
         <v/>
@@ -40651,8 +40792,8 @@
         <v>45948</v>
       </c>
       <c r="B292" s="2"/>
-      <c r="C292" s="132"/>
-      <c r="D292" s="130"/>
+      <c r="C292" s="133"/>
+      <c r="D292" s="131"/>
       <c r="AJ292" t="str">
         <f>TRIM(MID(SUBSTITUTE($F292, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ292)-1)*100+1, 100))</f>
         <v/>
@@ -40727,8 +40868,8 @@
         <v>45949</v>
       </c>
       <c r="B293" s="2"/>
-      <c r="C293" s="132"/>
-      <c r="D293" s="130"/>
+      <c r="C293" s="133"/>
+      <c r="D293" s="131"/>
       <c r="AJ293" t="str">
         <f>TRIM(MID(SUBSTITUTE($F293, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ293)-1)*100+1, 100))</f>
         <v/>
@@ -40803,8 +40944,8 @@
         <v>45950</v>
       </c>
       <c r="B294" s="2"/>
-      <c r="C294" s="132"/>
-      <c r="D294" s="130"/>
+      <c r="C294" s="133"/>
+      <c r="D294" s="131"/>
       <c r="AJ294" t="str">
         <f>TRIM(MID(SUBSTITUTE($F294, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ294)-1)*100+1, 100))</f>
         <v/>
@@ -40879,8 +41020,8 @@
         <v>45951</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="132"/>
-      <c r="D295" s="130"/>
+      <c r="C295" s="133"/>
+      <c r="D295" s="131"/>
       <c r="AJ295" t="str">
         <f>TRIM(MID(SUBSTITUTE($F295, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ295)-1)*100+1, 100))</f>
         <v/>
@@ -40955,8 +41096,8 @@
         <v>45952</v>
       </c>
       <c r="B296" s="2"/>
-      <c r="C296" s="132"/>
-      <c r="D296" s="130"/>
+      <c r="C296" s="133"/>
+      <c r="D296" s="131"/>
       <c r="AJ296" t="str">
         <f>TRIM(MID(SUBSTITUTE($F296, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ296)-1)*100+1, 100))</f>
         <v/>
@@ -41031,8 +41172,8 @@
         <v>45953</v>
       </c>
       <c r="B297" s="2"/>
-      <c r="C297" s="132"/>
-      <c r="D297" s="130"/>
+      <c r="C297" s="133"/>
+      <c r="D297" s="131"/>
       <c r="AJ297" t="str">
         <f>TRIM(MID(SUBSTITUTE($F297, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ297)-1)*100+1, 100))</f>
         <v/>
@@ -41107,8 +41248,8 @@
         <v>45954</v>
       </c>
       <c r="B298" s="2"/>
-      <c r="C298" s="132"/>
-      <c r="D298" s="130"/>
+      <c r="C298" s="133"/>
+      <c r="D298" s="131"/>
       <c r="AJ298" t="str">
         <f>TRIM(MID(SUBSTITUTE($F298, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ298)-1)*100+1, 100))</f>
         <v/>
@@ -41183,8 +41324,8 @@
         <v>45955</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="132"/>
-      <c r="D299" s="130"/>
+      <c r="C299" s="133"/>
+      <c r="D299" s="131"/>
       <c r="AJ299" t="str">
         <f>TRIM(MID(SUBSTITUTE($F299, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ299)-1)*100+1, 100))</f>
         <v/>
@@ -41259,8 +41400,8 @@
         <v>45956</v>
       </c>
       <c r="B300" s="2"/>
-      <c r="C300" s="132"/>
-      <c r="D300" s="130"/>
+      <c r="C300" s="133"/>
+      <c r="D300" s="131"/>
       <c r="AJ300" t="str">
         <f>TRIM(MID(SUBSTITUTE($F300, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ300)-1)*100+1, 100))</f>
         <v/>
@@ -41335,8 +41476,8 @@
         <v>45957</v>
       </c>
       <c r="B301" s="2"/>
-      <c r="C301" s="132"/>
-      <c r="D301" s="130"/>
+      <c r="C301" s="133"/>
+      <c r="D301" s="131"/>
       <c r="AJ301" t="str">
         <f>TRIM(MID(SUBSTITUTE($F301, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ301)-1)*100+1, 100))</f>
         <v/>
@@ -41411,8 +41552,8 @@
         <v>45958</v>
       </c>
       <c r="B302" s="2"/>
-      <c r="C302" s="132"/>
-      <c r="D302" s="130"/>
+      <c r="C302" s="133"/>
+      <c r="D302" s="131"/>
       <c r="AJ302" t="str">
         <f>TRIM(MID(SUBSTITUTE($F302, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ302)-1)*100+1, 100))</f>
         <v/>
@@ -41487,8 +41628,8 @@
         <v>45959</v>
       </c>
       <c r="B303" s="2"/>
-      <c r="C303" s="132"/>
-      <c r="D303" s="130"/>
+      <c r="C303" s="133"/>
+      <c r="D303" s="131"/>
       <c r="AJ303" t="str">
         <f>TRIM(MID(SUBSTITUTE($F303, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ303)-1)*100+1, 100))</f>
         <v/>
@@ -41563,8 +41704,8 @@
         <v>45960</v>
       </c>
       <c r="B304" s="2"/>
-      <c r="C304" s="132"/>
-      <c r="D304" s="130"/>
+      <c r="C304" s="133"/>
+      <c r="D304" s="131"/>
       <c r="AJ304" t="str">
         <f>TRIM(MID(SUBSTITUTE($F304, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ304)-1)*100+1, 100))</f>
         <v/>
@@ -41639,8 +41780,8 @@
         <v>45961</v>
       </c>
       <c r="B305" s="2"/>
-      <c r="C305" s="132"/>
-      <c r="D305" s="130"/>
+      <c r="C305" s="133"/>
+      <c r="D305" s="131"/>
       <c r="AJ305" t="str">
         <f>TRIM(MID(SUBSTITUTE($F305, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ305)-1)*100+1, 100))</f>
         <v/>
@@ -41715,8 +41856,8 @@
         <v>45962</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="132"/>
-      <c r="D306" s="130"/>
+      <c r="C306" s="133"/>
+      <c r="D306" s="131"/>
       <c r="AJ306" t="str">
         <f>TRIM(MID(SUBSTITUTE($F306, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ306)-1)*100+1, 100))</f>
         <v/>
@@ -41791,8 +41932,8 @@
         <v>45963</v>
       </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="132"/>
-      <c r="D307" s="130"/>
+      <c r="C307" s="133"/>
+      <c r="D307" s="131"/>
       <c r="AJ307" t="str">
         <f>TRIM(MID(SUBSTITUTE($F307, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ307)-1)*100+1, 100))</f>
         <v/>
@@ -41867,8 +42008,8 @@
         <v>45964</v>
       </c>
       <c r="B308" s="2"/>
-      <c r="C308" s="132"/>
-      <c r="D308" s="130"/>
+      <c r="C308" s="133"/>
+      <c r="D308" s="131"/>
       <c r="AJ308" t="str">
         <f>TRIM(MID(SUBSTITUTE($F308, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ308)-1)*100+1, 100))</f>
         <v/>
@@ -41943,8 +42084,8 @@
         <v>45965</v>
       </c>
       <c r="B309" s="2"/>
-      <c r="C309" s="132"/>
-      <c r="D309" s="130"/>
+      <c r="C309" s="133"/>
+      <c r="D309" s="131"/>
       <c r="AJ309" t="str">
         <f>TRIM(MID(SUBSTITUTE($F309, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ309)-1)*100+1, 100))</f>
         <v/>
@@ -42019,8 +42160,8 @@
         <v>45966</v>
       </c>
       <c r="B310" s="2"/>
-      <c r="C310" s="132"/>
-      <c r="D310" s="130"/>
+      <c r="C310" s="133"/>
+      <c r="D310" s="131"/>
       <c r="AJ310" t="str">
         <f>TRIM(MID(SUBSTITUTE($F310, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ310)-1)*100+1, 100))</f>
         <v/>
@@ -42095,8 +42236,8 @@
         <v>45967</v>
       </c>
       <c r="B311" s="2"/>
-      <c r="C311" s="132"/>
-      <c r="D311" s="130"/>
+      <c r="C311" s="133"/>
+      <c r="D311" s="131"/>
       <c r="AJ311" t="str">
         <f>TRIM(MID(SUBSTITUTE($F311, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ311)-1)*100+1, 100))</f>
         <v/>
@@ -42171,8 +42312,8 @@
         <v>45968</v>
       </c>
       <c r="B312" s="2"/>
-      <c r="C312" s="132"/>
-      <c r="D312" s="130"/>
+      <c r="C312" s="133"/>
+      <c r="D312" s="131"/>
       <c r="AJ312" t="str">
         <f>TRIM(MID(SUBSTITUTE($F312, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ312)-1)*100+1, 100))</f>
         <v/>
@@ -42247,8 +42388,8 @@
         <v>45969</v>
       </c>
       <c r="B313" s="2"/>
-      <c r="C313" s="132"/>
-      <c r="D313" s="130"/>
+      <c r="C313" s="133"/>
+      <c r="D313" s="131"/>
       <c r="AJ313" t="str">
         <f>TRIM(MID(SUBSTITUTE($F313, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ313)-1)*100+1, 100))</f>
         <v/>
@@ -42323,8 +42464,8 @@
         <v>45970</v>
       </c>
       <c r="B314" s="2"/>
-      <c r="C314" s="132"/>
-      <c r="D314" s="130"/>
+      <c r="C314" s="133"/>
+      <c r="D314" s="131"/>
       <c r="AJ314" t="str">
         <f>TRIM(MID(SUBSTITUTE($F314, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ314)-1)*100+1, 100))</f>
         <v/>
@@ -42399,8 +42540,8 @@
         <v>45971</v>
       </c>
       <c r="B315" s="2"/>
-      <c r="C315" s="132"/>
-      <c r="D315" s="130"/>
+      <c r="C315" s="133"/>
+      <c r="D315" s="131"/>
       <c r="AJ315" t="str">
         <f>TRIM(MID(SUBSTITUTE($F315, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ315)-1)*100+1, 100))</f>
         <v/>
@@ -42475,8 +42616,8 @@
         <v>45972</v>
       </c>
       <c r="B316" s="2"/>
-      <c r="C316" s="132"/>
-      <c r="D316" s="130"/>
+      <c r="C316" s="133"/>
+      <c r="D316" s="131"/>
       <c r="AJ316" t="str">
         <f>TRIM(MID(SUBSTITUTE($F316, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ316)-1)*100+1, 100))</f>
         <v/>
@@ -42551,8 +42692,8 @@
         <v>45973</v>
       </c>
       <c r="B317" s="2"/>
-      <c r="C317" s="132"/>
-      <c r="D317" s="130"/>
+      <c r="C317" s="133"/>
+      <c r="D317" s="131"/>
       <c r="AJ317" t="str">
         <f>TRIM(MID(SUBSTITUTE($F317, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ317)-1)*100+1, 100))</f>
         <v/>
@@ -42627,8 +42768,8 @@
         <v>45974</v>
       </c>
       <c r="B318" s="2"/>
-      <c r="C318" s="132"/>
-      <c r="D318" s="130"/>
+      <c r="C318" s="133"/>
+      <c r="D318" s="131"/>
       <c r="AJ318" t="str">
         <f>TRIM(MID(SUBSTITUTE($F318, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ318)-1)*100+1, 100))</f>
         <v/>
@@ -42703,8 +42844,8 @@
         <v>45975</v>
       </c>
       <c r="B319" s="2"/>
-      <c r="C319" s="132"/>
-      <c r="D319" s="130"/>
+      <c r="C319" s="133"/>
+      <c r="D319" s="131"/>
       <c r="AJ319" t="str">
         <f>TRIM(MID(SUBSTITUTE($F319, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ319)-1)*100+1, 100))</f>
         <v/>
@@ -42779,8 +42920,8 @@
         <v>45976</v>
       </c>
       <c r="B320" s="2"/>
-      <c r="C320" s="132"/>
-      <c r="D320" s="130"/>
+      <c r="C320" s="133"/>
+      <c r="D320" s="131"/>
       <c r="AJ320" t="str">
         <f>TRIM(MID(SUBSTITUTE($F320, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ320)-1)*100+1, 100))</f>
         <v/>
@@ -42855,8 +42996,8 @@
         <v>45977</v>
       </c>
       <c r="B321" s="2"/>
-      <c r="C321" s="132"/>
-      <c r="D321" s="130"/>
+      <c r="C321" s="133"/>
+      <c r="D321" s="131"/>
       <c r="AJ321" t="str">
         <f>TRIM(MID(SUBSTITUTE($F321, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ321)-1)*100+1, 100))</f>
         <v/>
@@ -42931,8 +43072,8 @@
         <v>45978</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="132"/>
-      <c r="D322" s="130"/>
+      <c r="C322" s="133"/>
+      <c r="D322" s="131"/>
       <c r="AJ322" t="str">
         <f>TRIM(MID(SUBSTITUTE($F322, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ322)-1)*100+1, 100))</f>
         <v/>
@@ -43007,8 +43148,8 @@
         <v>45979</v>
       </c>
       <c r="B323" s="2"/>
-      <c r="C323" s="132"/>
-      <c r="D323" s="130"/>
+      <c r="C323" s="133"/>
+      <c r="D323" s="131"/>
       <c r="AJ323" t="str">
         <f>TRIM(MID(SUBSTITUTE($F323, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ323)-1)*100+1, 100))</f>
         <v/>
@@ -43083,8 +43224,8 @@
         <v>45980</v>
       </c>
       <c r="B324" s="2"/>
-      <c r="C324" s="132"/>
-      <c r="D324" s="130"/>
+      <c r="C324" s="133"/>
+      <c r="D324" s="131"/>
       <c r="AJ324" t="str">
         <f>TRIM(MID(SUBSTITUTE($F324, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ324)-1)*100+1, 100))</f>
         <v/>
@@ -43159,8 +43300,8 @@
         <v>45981</v>
       </c>
       <c r="B325" s="2"/>
-      <c r="C325" s="132"/>
-      <c r="D325" s="130"/>
+      <c r="C325" s="133"/>
+      <c r="D325" s="131"/>
       <c r="AJ325" t="str">
         <f>TRIM(MID(SUBSTITUTE($F325, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ325)-1)*100+1, 100))</f>
         <v/>
@@ -43235,8 +43376,8 @@
         <v>45982</v>
       </c>
       <c r="B326" s="2"/>
-      <c r="C326" s="132"/>
-      <c r="D326" s="130"/>
+      <c r="C326" s="133"/>
+      <c r="D326" s="131"/>
       <c r="AJ326" t="str">
         <f>TRIM(MID(SUBSTITUTE($F326, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ326)-1)*100+1, 100))</f>
         <v/>
@@ -43311,8 +43452,8 @@
         <v>45983</v>
       </c>
       <c r="B327" s="2"/>
-      <c r="C327" s="132"/>
-      <c r="D327" s="130"/>
+      <c r="C327" s="133"/>
+      <c r="D327" s="131"/>
       <c r="AJ327" t="str">
         <f>TRIM(MID(SUBSTITUTE($F327, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ327)-1)*100+1, 100))</f>
         <v/>
@@ -43387,8 +43528,8 @@
         <v>45984</v>
       </c>
       <c r="B328" s="2"/>
-      <c r="C328" s="132"/>
-      <c r="D328" s="130"/>
+      <c r="C328" s="133"/>
+      <c r="D328" s="131"/>
       <c r="AJ328" t="str">
         <f>TRIM(MID(SUBSTITUTE($F328, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ328)-1)*100+1, 100))</f>
         <v/>
@@ -43463,8 +43604,8 @@
         <v>45985</v>
       </c>
       <c r="B329" s="2"/>
-      <c r="C329" s="132"/>
-      <c r="D329" s="130"/>
+      <c r="C329" s="133"/>
+      <c r="D329" s="131"/>
       <c r="AJ329" t="str">
         <f>TRIM(MID(SUBSTITUTE($F329, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ329)-1)*100+1, 100))</f>
         <v/>
@@ -43539,8 +43680,8 @@
         <v>45986</v>
       </c>
       <c r="B330" s="2"/>
-      <c r="C330" s="132"/>
-      <c r="D330" s="130"/>
+      <c r="C330" s="133"/>
+      <c r="D330" s="131"/>
       <c r="AJ330" t="str">
         <f>TRIM(MID(SUBSTITUTE($F330, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ330)-1)*100+1, 100))</f>
         <v/>
@@ -43615,8 +43756,8 @@
         <v>45987</v>
       </c>
       <c r="B331" s="2"/>
-      <c r="C331" s="132"/>
-      <c r="D331" s="130"/>
+      <c r="C331" s="133"/>
+      <c r="D331" s="131"/>
       <c r="AJ331" t="str">
         <f>TRIM(MID(SUBSTITUTE($F331, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ331)-1)*100+1, 100))</f>
         <v/>
@@ -43691,8 +43832,8 @@
         <v>45988</v>
       </c>
       <c r="B332" s="2"/>
-      <c r="C332" s="132"/>
-      <c r="D332" s="130"/>
+      <c r="C332" s="133"/>
+      <c r="D332" s="131"/>
       <c r="AJ332" t="str">
         <f>TRIM(MID(SUBSTITUTE($F332, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ332)-1)*100+1, 100))</f>
         <v/>
@@ -43767,8 +43908,8 @@
         <v>45989</v>
       </c>
       <c r="B333" s="2"/>
-      <c r="C333" s="132"/>
-      <c r="D333" s="130"/>
+      <c r="C333" s="133"/>
+      <c r="D333" s="131"/>
       <c r="AJ333" t="str">
         <f>TRIM(MID(SUBSTITUTE($F333, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ333)-1)*100+1, 100))</f>
         <v/>
@@ -43843,8 +43984,8 @@
         <v>45990</v>
       </c>
       <c r="B334" s="2"/>
-      <c r="C334" s="132"/>
-      <c r="D334" s="130"/>
+      <c r="C334" s="133"/>
+      <c r="D334" s="131"/>
       <c r="AJ334" t="str">
         <f>TRIM(MID(SUBSTITUTE($F334, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ334)-1)*100+1, 100))</f>
         <v/>
@@ -43919,8 +44060,8 @@
         <v>45991</v>
       </c>
       <c r="B335" s="2"/>
-      <c r="C335" s="132"/>
-      <c r="D335" s="130"/>
+      <c r="C335" s="133"/>
+      <c r="D335" s="131"/>
       <c r="AJ335" t="str">
         <f>TRIM(MID(SUBSTITUTE($F335, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ335)-1)*100+1, 100))</f>
         <v/>
@@ -43995,8 +44136,8 @@
         <v>45992</v>
       </c>
       <c r="B336" s="2"/>
-      <c r="C336" s="132"/>
-      <c r="D336" s="130"/>
+      <c r="C336" s="133"/>
+      <c r="D336" s="131"/>
       <c r="AJ336" t="str">
         <f>TRIM(MID(SUBSTITUTE($F336, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ336)-1)*100+1, 100))</f>
         <v/>
@@ -44071,8 +44212,8 @@
         <v>45993</v>
       </c>
       <c r="B337" s="2"/>
-      <c r="C337" s="132"/>
-      <c r="D337" s="130"/>
+      <c r="C337" s="133"/>
+      <c r="D337" s="131"/>
       <c r="AJ337" t="str">
         <f>TRIM(MID(SUBSTITUTE($F337, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ337)-1)*100+1, 100))</f>
         <v/>
@@ -44147,8 +44288,8 @@
         <v>45994</v>
       </c>
       <c r="B338" s="2"/>
-      <c r="C338" s="132"/>
-      <c r="D338" s="130"/>
+      <c r="C338" s="133"/>
+      <c r="D338" s="131"/>
       <c r="AJ338" t="str">
         <f>TRIM(MID(SUBSTITUTE($F338, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ338)-1)*100+1, 100))</f>
         <v/>
@@ -44223,8 +44364,8 @@
         <v>45995</v>
       </c>
       <c r="B339" s="2"/>
-      <c r="C339" s="132"/>
-      <c r="D339" s="130"/>
+      <c r="C339" s="133"/>
+      <c r="D339" s="131"/>
       <c r="AJ339" t="str">
         <f>TRIM(MID(SUBSTITUTE($F339, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ339)-1)*100+1, 100))</f>
         <v/>
@@ -44299,8 +44440,8 @@
         <v>45996</v>
       </c>
       <c r="B340" s="2"/>
-      <c r="C340" s="132"/>
-      <c r="D340" s="130"/>
+      <c r="C340" s="133"/>
+      <c r="D340" s="131"/>
       <c r="AJ340" t="str">
         <f>TRIM(MID(SUBSTITUTE($F340, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ340)-1)*100+1, 100))</f>
         <v/>
@@ -44375,8 +44516,8 @@
         <v>45997</v>
       </c>
       <c r="B341" s="2"/>
-      <c r="C341" s="132"/>
-      <c r="D341" s="130"/>
+      <c r="C341" s="133"/>
+      <c r="D341" s="131"/>
       <c r="AJ341" t="str">
         <f>TRIM(MID(SUBSTITUTE($F341, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ341)-1)*100+1, 100))</f>
         <v/>
@@ -44451,8 +44592,8 @@
         <v>45998</v>
       </c>
       <c r="B342" s="2"/>
-      <c r="C342" s="132"/>
-      <c r="D342" s="130"/>
+      <c r="C342" s="133"/>
+      <c r="D342" s="131"/>
       <c r="AJ342" t="str">
         <f>TRIM(MID(SUBSTITUTE($F342, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ342)-1)*100+1, 100))</f>
         <v/>
@@ -44527,8 +44668,8 @@
         <v>45999</v>
       </c>
       <c r="B343" s="2"/>
-      <c r="C343" s="132"/>
-      <c r="D343" s="130"/>
+      <c r="C343" s="133"/>
+      <c r="D343" s="131"/>
       <c r="AJ343" t="str">
         <f>TRIM(MID(SUBSTITUTE($F343, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ343)-1)*100+1, 100))</f>
         <v/>
@@ -44603,8 +44744,8 @@
         <v>46000</v>
       </c>
       <c r="B344" s="2"/>
-      <c r="C344" s="132"/>
-      <c r="D344" s="130"/>
+      <c r="C344" s="133"/>
+      <c r="D344" s="131"/>
       <c r="AJ344" t="str">
         <f>TRIM(MID(SUBSTITUTE($F344, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ344)-1)*100+1, 100))</f>
         <v/>
@@ -44679,8 +44820,8 @@
         <v>46001</v>
       </c>
       <c r="B345" s="2"/>
-      <c r="C345" s="132"/>
-      <c r="D345" s="130"/>
+      <c r="C345" s="133"/>
+      <c r="D345" s="131"/>
       <c r="AJ345" t="str">
         <f>TRIM(MID(SUBSTITUTE($F345, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ345)-1)*100+1, 100))</f>
         <v/>
@@ -44755,8 +44896,8 @@
         <v>46002</v>
       </c>
       <c r="B346" s="2"/>
-      <c r="C346" s="132"/>
-      <c r="D346" s="130"/>
+      <c r="C346" s="133"/>
+      <c r="D346" s="131"/>
       <c r="AJ346" t="str">
         <f>TRIM(MID(SUBSTITUTE($F346, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ346)-1)*100+1, 100))</f>
         <v/>
@@ -44831,8 +44972,8 @@
         <v>46003</v>
       </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="132"/>
-      <c r="D347" s="130"/>
+      <c r="C347" s="133"/>
+      <c r="D347" s="131"/>
       <c r="AJ347" t="str">
         <f>TRIM(MID(SUBSTITUTE($F347, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ347)-1)*100+1, 100))</f>
         <v/>
@@ -44907,8 +45048,8 @@
         <v>46004</v>
       </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="132"/>
-      <c r="D348" s="130"/>
+      <c r="C348" s="133"/>
+      <c r="D348" s="131"/>
       <c r="AJ348" t="str">
         <f>TRIM(MID(SUBSTITUTE($F348, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ348)-1)*100+1, 100))</f>
         <v/>
@@ -44983,8 +45124,8 @@
         <v>46005</v>
       </c>
       <c r="B349" s="2"/>
-      <c r="C349" s="132"/>
-      <c r="D349" s="130"/>
+      <c r="C349" s="133"/>
+      <c r="D349" s="131"/>
       <c r="AJ349" t="str">
         <f>TRIM(MID(SUBSTITUTE($F349, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ349)-1)*100+1, 100))</f>
         <v/>
@@ -45059,8 +45200,8 @@
         <v>46006</v>
       </c>
       <c r="B350" s="2"/>
-      <c r="C350" s="132"/>
-      <c r="D350" s="130"/>
+      <c r="C350" s="133"/>
+      <c r="D350" s="131"/>
       <c r="AJ350" t="str">
         <f>TRIM(MID(SUBSTITUTE($F350, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ350)-1)*100+1, 100))</f>
         <v/>
@@ -45135,8 +45276,8 @@
         <v>46007</v>
       </c>
       <c r="B351" s="2"/>
-      <c r="C351" s="132"/>
-      <c r="D351" s="130"/>
+      <c r="C351" s="133"/>
+      <c r="D351" s="131"/>
       <c r="AJ351" t="str">
         <f>TRIM(MID(SUBSTITUTE($F351, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ351)-1)*100+1, 100))</f>
         <v/>
@@ -45211,8 +45352,8 @@
         <v>46008</v>
       </c>
       <c r="B352" s="2"/>
-      <c r="C352" s="132"/>
-      <c r="D352" s="130"/>
+      <c r="C352" s="133"/>
+      <c r="D352" s="131"/>
       <c r="AJ352" t="str">
         <f>TRIM(MID(SUBSTITUTE($F352, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ352)-1)*100+1, 100))</f>
         <v/>
@@ -45287,8 +45428,8 @@
         <v>46009</v>
       </c>
       <c r="B353" s="2"/>
-      <c r="C353" s="132"/>
-      <c r="D353" s="130"/>
+      <c r="C353" s="133"/>
+      <c r="D353" s="131"/>
       <c r="AJ353" t="str">
         <f>TRIM(MID(SUBSTITUTE($F353, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ353)-1)*100+1, 100))</f>
         <v/>
@@ -45363,8 +45504,8 @@
         <v>46010</v>
       </c>
       <c r="B354" s="2"/>
-      <c r="C354" s="132"/>
-      <c r="D354" s="130"/>
+      <c r="C354" s="133"/>
+      <c r="D354" s="131"/>
       <c r="AJ354" t="str">
         <f>TRIM(MID(SUBSTITUTE($F354, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ354)-1)*100+1, 100))</f>
         <v/>
@@ -45439,8 +45580,8 @@
         <v>46011</v>
       </c>
       <c r="B355" s="2"/>
-      <c r="C355" s="132"/>
-      <c r="D355" s="130"/>
+      <c r="C355" s="133"/>
+      <c r="D355" s="131"/>
       <c r="AJ355" t="str">
         <f>TRIM(MID(SUBSTITUTE($F355, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ355)-1)*100+1, 100))</f>
         <v/>
@@ -45515,8 +45656,8 @@
         <v>46012</v>
       </c>
       <c r="B356" s="2"/>
-      <c r="C356" s="132"/>
-      <c r="D356" s="130"/>
+      <c r="C356" s="133"/>
+      <c r="D356" s="131"/>
       <c r="AJ356" t="str">
         <f>TRIM(MID(SUBSTITUTE($F356, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ356)-1)*100+1, 100))</f>
         <v/>
@@ -45591,8 +45732,8 @@
         <v>46013</v>
       </c>
       <c r="B357" s="2"/>
-      <c r="C357" s="132"/>
-      <c r="D357" s="130"/>
+      <c r="C357" s="133"/>
+      <c r="D357" s="131"/>
       <c r="AJ357" t="str">
         <f>TRIM(MID(SUBSTITUTE($F357, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ357)-1)*100+1, 100))</f>
         <v/>
@@ -45667,8 +45808,8 @@
         <v>46014</v>
       </c>
       <c r="B358" s="2"/>
-      <c r="C358" s="132"/>
-      <c r="D358" s="130"/>
+      <c r="C358" s="133"/>
+      <c r="D358" s="131"/>
       <c r="AJ358" t="str">
         <f>TRIM(MID(SUBSTITUTE($F358, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ358)-1)*100+1, 100))</f>
         <v/>
@@ -45743,8 +45884,8 @@
         <v>46015</v>
       </c>
       <c r="B359" s="2"/>
-      <c r="C359" s="132"/>
-      <c r="D359" s="130"/>
+      <c r="C359" s="133"/>
+      <c r="D359" s="131"/>
       <c r="AJ359" t="str">
         <f>TRIM(MID(SUBSTITUTE($F359, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ359)-1)*100+1, 100))</f>
         <v/>
@@ -45819,8 +45960,8 @@
         <v>46016</v>
       </c>
       <c r="B360" s="2"/>
-      <c r="C360" s="132"/>
-      <c r="D360" s="130"/>
+      <c r="C360" s="133"/>
+      <c r="D360" s="131"/>
       <c r="AJ360" t="str">
         <f>TRIM(MID(SUBSTITUTE($F360, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ360)-1)*100+1, 100))</f>
         <v/>
@@ -45895,8 +46036,8 @@
         <v>46017</v>
       </c>
       <c r="B361" s="2"/>
-      <c r="C361" s="132"/>
-      <c r="D361" s="130"/>
+      <c r="C361" s="133"/>
+      <c r="D361" s="131"/>
       <c r="AJ361" t="str">
         <f>TRIM(MID(SUBSTITUTE($F361, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ361)-1)*100+1, 100))</f>
         <v/>
@@ -45971,8 +46112,8 @@
         <v>46018</v>
       </c>
       <c r="B362" s="2"/>
-      <c r="C362" s="132"/>
-      <c r="D362" s="130"/>
+      <c r="C362" s="133"/>
+      <c r="D362" s="131"/>
       <c r="AJ362" t="str">
         <f>TRIM(MID(SUBSTITUTE($F362, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ362)-1)*100+1, 100))</f>
         <v/>
@@ -46047,8 +46188,8 @@
         <v>46019</v>
       </c>
       <c r="B363" s="2"/>
-      <c r="C363" s="132"/>
-      <c r="D363" s="130"/>
+      <c r="C363" s="133"/>
+      <c r="D363" s="131"/>
       <c r="AJ363" t="str">
         <f>TRIM(MID(SUBSTITUTE($F363, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ363)-1)*100+1, 100))</f>
         <v/>
@@ -46123,8 +46264,8 @@
         <v>46020</v>
       </c>
       <c r="B364" s="2"/>
-      <c r="C364" s="132"/>
-      <c r="D364" s="130"/>
+      <c r="C364" s="133"/>
+      <c r="D364" s="131"/>
       <c r="AJ364" t="str">
         <f>TRIM(MID(SUBSTITUTE($F364, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ364)-1)*100+1, 100))</f>
         <v/>
@@ -46199,8 +46340,8 @@
         <v>46021</v>
       </c>
       <c r="B365" s="2"/>
-      <c r="C365" s="132"/>
-      <c r="D365" s="130"/>
+      <c r="C365" s="133"/>
+      <c r="D365" s="131"/>
       <c r="AJ365" t="str">
         <f>TRIM(MID(SUBSTITUTE($F365, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ365)-1)*100+1, 100))</f>
         <v/>
@@ -46275,8 +46416,8 @@
         <v>46022</v>
       </c>
       <c r="B366" s="2"/>
-      <c r="C366" s="132"/>
-      <c r="D366" s="130"/>
+      <c r="C366" s="133"/>
+      <c r="D366" s="131"/>
       <c r="AJ366" t="str">
         <f>TRIM(MID(SUBSTITUTE($F366, ",", REPT(" ", 100)), (COLUMNS($AH$2:AJ366)-1)*100+1, 100))</f>
         <v/>
@@ -46574,8 +46715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323F74EC-42CB-4464-88B1-2BD27A18F753}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" activeCellId="1" sqref="F17 K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -46593,18 +46734,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="149" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="68"/>
       <c r="J1" s="65" t="s">
         <v>26</v>
@@ -46617,18 +46758,18 @@
       <c r="A2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="148"/>
+      <c r="C2" s="149"/>
       <c r="D2" s="69"/>
       <c r="E2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="148"/>
+      <c r="G2" s="149"/>
       <c r="H2" s="79" t="s">
         <v>191</v>
       </c>
@@ -46870,11 +47011,11 @@
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="178" t="s">
+      <c r="E16" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="178">
-        <v>8</v>
+      <c r="F16" s="31">
+        <v>7.2</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>61</v>
@@ -46968,11 +47109,11 @@
       <c r="B1" s="2">
         <v>6</v>
       </c>
-      <c r="C1" s="132">
+      <c r="C1" s="133">
         <f>AVERAGE(B1:B31)</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="D1" s="155">
+      <c r="D1" s="156">
         <f>AVERAGE(B1:B366)</f>
         <v>5.1967213114754101</v>
       </c>
@@ -46984,8 +47125,8 @@
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="155"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="156"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -46994,8 +47135,8 @@
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="155"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="156"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -47004,8 +47145,8 @@
       <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="156"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -47014,8 +47155,8 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="155"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="156"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -47024,8 +47165,8 @@
       <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="155"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="156"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -47034,8 +47175,8 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="155"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -47044,8 +47185,8 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="155"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="156"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -47054,8 +47195,8 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="155"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="156"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -47064,8 +47205,8 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="155"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="156"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -47074,8 +47215,8 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="155"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="156"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -47084,8 +47225,8 @@
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="155"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="156"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -47094,8 +47235,8 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="155"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="156"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -47104,8 +47245,8 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="155"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="156"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -47114,8 +47255,8 @@
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="155"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="156"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -47124,8 +47265,8 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="155"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="156"/>
     </row>
     <row r="17" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -47134,8 +47275,8 @@
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="155"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="156"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
         <v>24</v>
@@ -47151,8 +47292,8 @@
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="155"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="156"/>
       <c r="F18" s="24" t="s">
         <v>0</v>
       </c>
@@ -47202,8 +47343,8 @@
       <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="155"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="156"/>
       <c r="F19" s="7" t="s">
         <v>1</v>
       </c>
@@ -47220,7 +47361,7 @@
         <f>C1</f>
         <v>5.290322580645161</v>
       </c>
-      <c r="L19" s="153">
+      <c r="L19" s="154">
         <f>AVERAGE(K19:K30)</f>
         <v>5.1920096403411202</v>
       </c>
@@ -47248,7 +47389,7 @@
         <f>COUNTIF(B1:B31,G23)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="151">
+      <c r="S19" s="152">
         <f>AVERAGE(K19:K22)</f>
         <v>4.9297923618835746</v>
       </c>
@@ -47260,8 +47401,8 @@
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="155"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="156"/>
       <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
@@ -47278,7 +47419,7 @@
         <f>C32</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="L20" s="153"/>
+      <c r="L20" s="154"/>
       <c r="M20" s="21">
         <f>COUNTIF(B32:B60,G18)</f>
         <v>1</v>
@@ -47303,7 +47444,7 @@
         <f>COUNTIF(B32:B60,G23)</f>
         <v>2</v>
       </c>
-      <c r="S20" s="132"/>
+      <c r="S20" s="133"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -47312,8 +47453,8 @@
       <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="155"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="156"/>
       <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
@@ -47330,7 +47471,7 @@
         <f>C61</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="L21" s="153"/>
+      <c r="L21" s="154"/>
       <c r="M21" s="21">
         <f>COUNTIF(B61:B91,G18)</f>
         <v>0</v>
@@ -47355,7 +47496,7 @@
         <f>COUNTIF(B61:B91,G23)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="132"/>
+      <c r="S21" s="133"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -47364,8 +47505,8 @@
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="155"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="156"/>
       <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
@@ -47382,7 +47523,7 @@
         <f>C92</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="L22" s="153"/>
+      <c r="L22" s="154"/>
       <c r="M22" s="21">
         <f>COUNTIF(B92:B121,G18)</f>
         <v>0</v>
@@ -47407,7 +47548,7 @@
         <f>COUNTIF(B92:B121,G23)</f>
         <v>2</v>
       </c>
-      <c r="S22" s="132"/>
+      <c r="S22" s="133"/>
     </row>
     <row r="23" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
@@ -47416,8 +47557,8 @@
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="155"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="156"/>
       <c r="F23" s="14" t="s">
         <v>5</v>
       </c>
@@ -47434,7 +47575,7 @@
         <f>C122</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="L23" s="153"/>
+      <c r="L23" s="154"/>
       <c r="M23" s="21">
         <f>COUNTIF(B122:B152,G18)</f>
         <v>1</v>
@@ -47459,7 +47600,7 @@
         <f>COUNTIF(B122:B152,G23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="151">
+      <c r="S23" s="152">
         <f>AVERAGE(K23:K26)</f>
         <v>5.365591397849462</v>
       </c>
@@ -47471,12 +47612,12 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="155"/>
-      <c r="F24" s="136" t="s">
+      <c r="C24" s="133"/>
+      <c r="D24" s="156"/>
+      <c r="F24" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="17">
         <f>SUM(H18:H23)</f>
         <v>366</v>
@@ -47488,7 +47629,7 @@
         <f>C153</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="L24" s="153"/>
+      <c r="L24" s="154"/>
       <c r="M24" s="21">
         <f>COUNTIF(B153:B182,G18)</f>
         <v>3</v>
@@ -47513,7 +47654,7 @@
         <f>COUNTIF(B153:B182,G23)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="132"/>
+      <c r="S24" s="133"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -47522,8 +47663,8 @@
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="155"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="156"/>
       <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
@@ -47531,7 +47672,7 @@
         <f>C183</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="L25" s="153"/>
+      <c r="L25" s="154"/>
       <c r="M25" s="21">
         <f>COUNTIF(B183:B213,G18)</f>
         <v>2</v>
@@ -47556,7 +47697,7 @@
         <f>COUNTIF(B183:B213,G23)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="132"/>
+      <c r="S25" s="133"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -47565,8 +47706,8 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="155"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="156"/>
       <c r="J26" s="10" t="s">
         <v>15</v>
       </c>
@@ -47574,7 +47715,7 @@
         <f>C214</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="L26" s="153"/>
+      <c r="L26" s="154"/>
       <c r="M26" s="21">
         <f>COUNTIF(B214:B244,G18)</f>
         <v>0</v>
@@ -47599,7 +47740,7 @@
         <f>COUNTIF(B214:B244,G23)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="132"/>
+      <c r="S26" s="133"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -47608,13 +47749,13 @@
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="155"/>
-      <c r="F27" s="150" t="s">
+      <c r="C27" s="133"/>
+      <c r="D27" s="156"/>
+      <c r="F27" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
       <c r="J27" s="10" t="s">
         <v>16</v>
       </c>
@@ -47622,7 +47763,7 @@
         <f>C245</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="L27" s="153"/>
+      <c r="L27" s="154"/>
       <c r="M27" s="21">
         <f>COUNTIF(B245:B274,G18)</f>
         <v>1</v>
@@ -47647,7 +47788,7 @@
         <f>COUNTIF(B245:B274,G23)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="151">
+      <c r="S27" s="152">
         <f>AVERAGE(K27:K30)</f>
         <v>5.2806451612903231</v>
       </c>
@@ -47659,13 +47800,13 @@
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="D28" s="155"/>
-      <c r="F28" s="152">
+      <c r="C28" s="133"/>
+      <c r="D28" s="156"/>
+      <c r="F28" s="153">
         <v>2024</v>
       </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
       <c r="J28" s="10" t="s">
         <v>17</v>
       </c>
@@ -47673,7 +47814,7 @@
         <f>C275</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="L28" s="153"/>
+      <c r="L28" s="154"/>
       <c r="M28" s="21">
         <f>COUNTIF(B275:B305,G18)</f>
         <v>1</v>
@@ -47698,7 +47839,7 @@
         <f>COUNTIF(B275:B305,G23)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="132"/>
+      <c r="S28" s="133"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -47707,8 +47848,8 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="155"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="156"/>
       <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
@@ -47716,7 +47857,7 @@
         <f>C306</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="L29" s="153"/>
+      <c r="L29" s="154"/>
       <c r="M29" s="21">
         <f>COUNTIF(B306:B335,G18)</f>
         <v>0</v>
@@ -47741,7 +47882,7 @@
         <f>COUNTIF(B306:B335,G23)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="132"/>
+      <c r="S29" s="133"/>
     </row>
     <row r="30" spans="1:19" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
@@ -47750,8 +47891,8 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="155"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="156"/>
       <c r="J30" s="18" t="s">
         <v>19</v>
       </c>
@@ -47759,7 +47900,7 @@
         <f>C336</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="L30" s="154"/>
+      <c r="L30" s="155"/>
       <c r="M30" s="21">
         <f>COUNTIF(B336:B366,G18)</f>
         <v>1</v>
@@ -47784,7 +47925,7 @@
         <f>COUNTIF(B336:B366,G23)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="132"/>
+      <c r="S30" s="133"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -47793,8 +47934,8 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="155"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="156"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -47803,11 +47944,11 @@
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="132">
+      <c r="C32" s="133">
         <f>AVERAGE(B32:B60)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="D32" s="155"/>
+      <c r="D32" s="156"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -47816,8 +47957,8 @@
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="D33" s="155"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="156"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -47826,8 +47967,8 @@
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="155"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="156"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -47836,8 +47977,8 @@
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="155"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="156"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -47846,8 +47987,8 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="155"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="156"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -47856,8 +47997,8 @@
       <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="132"/>
-      <c r="D37" s="155"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="156"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
@@ -47866,8 +48007,8 @@
       <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="155"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="156"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -47876,8 +48017,8 @@
       <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="155"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="156"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -47886,8 +48027,8 @@
       <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="155"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="156"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -47896,8 +48037,8 @@
       <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="D41" s="155"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="156"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -47906,8 +48047,8 @@
       <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="155"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="156"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -47916,8 +48057,8 @@
       <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="155"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="156"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -47926,8 +48067,8 @@
       <c r="B44" s="2">
         <v>6</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="155"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="156"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
@@ -47936,8 +48077,8 @@
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="132"/>
-      <c r="D45" s="155"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="156"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -47946,8 +48087,8 @@
       <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="155"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="156"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -47956,8 +48097,8 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="132"/>
-      <c r="D47" s="155"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="156"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -47966,8 +48107,8 @@
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="155"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="156"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -47976,8 +48117,8 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="132"/>
-      <c r="D49" s="155"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="156"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -47986,8 +48127,8 @@
       <c r="B50" s="2">
         <v>4</v>
       </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="155"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="156"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -47996,8 +48137,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="132"/>
-      <c r="D51" s="155"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="156"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -48006,8 +48147,8 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="132"/>
-      <c r="D52" s="155"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="156"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -48016,8 +48157,8 @@
       <c r="B53" s="2">
         <v>2</v>
       </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="155"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="156"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -48026,8 +48167,8 @@
       <c r="B54" s="2">
         <v>4</v>
       </c>
-      <c r="C54" s="132"/>
-      <c r="D54" s="155"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="156"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -48036,8 +48177,8 @@
       <c r="B55" s="2">
         <v>4</v>
       </c>
-      <c r="C55" s="132"/>
-      <c r="D55" s="155"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="156"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -48046,8 +48187,8 @@
       <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="132"/>
-      <c r="D56" s="155"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="156"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -48056,8 +48197,8 @@
       <c r="B57" s="2">
         <v>4</v>
       </c>
-      <c r="C57" s="132"/>
-      <c r="D57" s="155"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="156"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -48066,8 +48207,8 @@
       <c r="B58" s="2">
         <v>4</v>
       </c>
-      <c r="C58" s="132"/>
-      <c r="D58" s="155"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="156"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -48076,8 +48217,8 @@
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="155"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="156"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -48086,8 +48227,8 @@
       <c r="B60" s="2">
         <v>6</v>
       </c>
-      <c r="C60" s="132"/>
-      <c r="D60" s="155"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="156"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -48096,11 +48237,11 @@
       <c r="B61" s="2">
         <v>6</v>
       </c>
-      <c r="C61" s="132">
+      <c r="C61" s="133">
         <f>AVERAGE(B61:B91)</f>
         <v>5.5483870967741939</v>
       </c>
-      <c r="D61" s="155"/>
+      <c r="D61" s="156"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
@@ -48109,8 +48250,8 @@
       <c r="B62" s="2">
         <v>6</v>
       </c>
-      <c r="C62" s="132"/>
-      <c r="D62" s="155"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="156"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -48119,8 +48260,8 @@
       <c r="B63" s="2">
         <v>8</v>
       </c>
-      <c r="C63" s="132"/>
-      <c r="D63" s="155"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="156"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
@@ -48129,8 +48270,8 @@
       <c r="B64" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="132"/>
-      <c r="D64" s="155"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="156"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
@@ -48139,8 +48280,8 @@
       <c r="B65" s="2">
         <v>4</v>
       </c>
-      <c r="C65" s="132"/>
-      <c r="D65" s="155"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="156"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -48149,8 +48290,8 @@
       <c r="B66" s="2">
         <v>4</v>
       </c>
-      <c r="C66" s="132"/>
-      <c r="D66" s="155"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="156"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -48159,8 +48300,8 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="132"/>
-      <c r="D67" s="155"/>
+      <c r="C67" s="133"/>
+      <c r="D67" s="156"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
@@ -48169,8 +48310,8 @@
       <c r="B68" s="2">
         <v>6</v>
       </c>
-      <c r="C68" s="132"/>
-      <c r="D68" s="155"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="156"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
@@ -48179,8 +48320,8 @@
       <c r="B69" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="132"/>
-      <c r="D69" s="155"/>
+      <c r="C69" s="133"/>
+      <c r="D69" s="156"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
@@ -48189,8 +48330,8 @@
       <c r="B70" s="2">
         <v>6</v>
       </c>
-      <c r="C70" s="132"/>
-      <c r="D70" s="155"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="156"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
@@ -48199,8 +48340,8 @@
       <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="132"/>
-      <c r="D71" s="155"/>
+      <c r="C71" s="133"/>
+      <c r="D71" s="156"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
@@ -48209,8 +48350,8 @@
       <c r="B72" s="2">
         <v>6</v>
       </c>
-      <c r="C72" s="132"/>
-      <c r="D72" s="155"/>
+      <c r="C72" s="133"/>
+      <c r="D72" s="156"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
@@ -48219,8 +48360,8 @@
       <c r="B73" s="2">
         <v>6</v>
       </c>
-      <c r="C73" s="132"/>
-      <c r="D73" s="155"/>
+      <c r="C73" s="133"/>
+      <c r="D73" s="156"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -48229,8 +48370,8 @@
       <c r="B74" s="2">
         <v>4</v>
       </c>
-      <c r="C74" s="132"/>
-      <c r="D74" s="155"/>
+      <c r="C74" s="133"/>
+      <c r="D74" s="156"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -48239,8 +48380,8 @@
       <c r="B75" s="2">
         <v>6</v>
       </c>
-      <c r="C75" s="132"/>
-      <c r="D75" s="155"/>
+      <c r="C75" s="133"/>
+      <c r="D75" s="156"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -48249,8 +48390,8 @@
       <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C76" s="132"/>
-      <c r="D76" s="155"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="156"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
@@ -48259,8 +48400,8 @@
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="132"/>
-      <c r="D77" s="155"/>
+      <c r="C77" s="133"/>
+      <c r="D77" s="156"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -48269,8 +48410,8 @@
       <c r="B78" s="2">
         <v>6</v>
       </c>
-      <c r="C78" s="132"/>
-      <c r="D78" s="155"/>
+      <c r="C78" s="133"/>
+      <c r="D78" s="156"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
@@ -48279,8 +48420,8 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="132"/>
-      <c r="D79" s="155"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="156"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
@@ -48289,8 +48430,8 @@
       <c r="B80" s="2">
         <v>8</v>
       </c>
-      <c r="C80" s="132"/>
-      <c r="D80" s="155"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="156"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
@@ -48299,8 +48440,8 @@
       <c r="B81" s="2">
         <v>6</v>
       </c>
-      <c r="C81" s="132"/>
-      <c r="D81" s="155"/>
+      <c r="C81" s="133"/>
+      <c r="D81" s="156"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
@@ -48309,8 +48450,8 @@
       <c r="B82" s="2">
         <v>8</v>
       </c>
-      <c r="C82" s="132"/>
-      <c r="D82" s="155"/>
+      <c r="C82" s="133"/>
+      <c r="D82" s="156"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -48319,8 +48460,8 @@
       <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="C83" s="132"/>
-      <c r="D83" s="155"/>
+      <c r="C83" s="133"/>
+      <c r="D83" s="156"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
@@ -48329,8 +48470,8 @@
       <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="132"/>
-      <c r="D84" s="155"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="156"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -48339,8 +48480,8 @@
       <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C85" s="132"/>
-      <c r="D85" s="155"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="156"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -48349,8 +48490,8 @@
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="132"/>
-      <c r="D86" s="155"/>
+      <c r="C86" s="133"/>
+      <c r="D86" s="156"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -48359,8 +48500,8 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
-      <c r="C87" s="132"/>
-      <c r="D87" s="155"/>
+      <c r="C87" s="133"/>
+      <c r="D87" s="156"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -48369,8 +48510,8 @@
       <c r="B88" s="2">
         <v>6</v>
       </c>
-      <c r="C88" s="132"/>
-      <c r="D88" s="155"/>
+      <c r="C88" s="133"/>
+      <c r="D88" s="156"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -48379,8 +48520,8 @@
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" s="132"/>
-      <c r="D89" s="155"/>
+      <c r="C89" s="133"/>
+      <c r="D89" s="156"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -48389,8 +48530,8 @@
       <c r="B90" s="2">
         <v>6</v>
       </c>
-      <c r="C90" s="132"/>
-      <c r="D90" s="155"/>
+      <c r="C90" s="133"/>
+      <c r="D90" s="156"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -48399,8 +48540,8 @@
       <c r="B91" s="2">
         <v>6</v>
       </c>
-      <c r="C91" s="132"/>
-      <c r="D91" s="155"/>
+      <c r="C91" s="133"/>
+      <c r="D91" s="156"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -48409,11 +48550,11 @@
       <c r="B92" s="2">
         <v>4</v>
       </c>
-      <c r="C92" s="132">
+      <c r="C92" s="133">
         <f>AVERAGE(B92:B121)</f>
         <v>4.4666666666666668</v>
       </c>
-      <c r="D92" s="155"/>
+      <c r="D92" s="156"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -48422,8 +48563,8 @@
       <c r="B93" s="2">
         <v>4</v>
       </c>
-      <c r="C93" s="132"/>
-      <c r="D93" s="155"/>
+      <c r="C93" s="133"/>
+      <c r="D93" s="156"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -48432,8 +48573,8 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="132"/>
-      <c r="D94" s="155"/>
+      <c r="C94" s="133"/>
+      <c r="D94" s="156"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -48442,8 +48583,8 @@
       <c r="B95" s="2">
         <v>4</v>
       </c>
-      <c r="C95" s="132"/>
-      <c r="D95" s="155"/>
+      <c r="C95" s="133"/>
+      <c r="D95" s="156"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -48452,8 +48593,8 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96" s="132"/>
-      <c r="D96" s="155"/>
+      <c r="C96" s="133"/>
+      <c r="D96" s="156"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
@@ -48462,8 +48603,8 @@
       <c r="B97" s="2">
         <v>2</v>
       </c>
-      <c r="C97" s="132"/>
-      <c r="D97" s="155"/>
+      <c r="C97" s="133"/>
+      <c r="D97" s="156"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -48472,8 +48613,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="132"/>
-      <c r="D98" s="155"/>
+      <c r="C98" s="133"/>
+      <c r="D98" s="156"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -48482,8 +48623,8 @@
       <c r="B99" s="2">
         <v>4</v>
       </c>
-      <c r="C99" s="132"/>
-      <c r="D99" s="155"/>
+      <c r="C99" s="133"/>
+      <c r="D99" s="156"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
@@ -48492,8 +48633,8 @@
       <c r="B100" s="2">
         <v>6</v>
       </c>
-      <c r="C100" s="132"/>
-      <c r="D100" s="155"/>
+      <c r="C100" s="133"/>
+      <c r="D100" s="156"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -48502,8 +48643,8 @@
       <c r="B101" s="2">
         <v>2</v>
       </c>
-      <c r="C101" s="132"/>
-      <c r="D101" s="155"/>
+      <c r="C101" s="133"/>
+      <c r="D101" s="156"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
@@ -48512,8 +48653,8 @@
       <c r="B102" s="2">
         <v>0</v>
       </c>
-      <c r="C102" s="132"/>
-      <c r="D102" s="155"/>
+      <c r="C102" s="133"/>
+      <c r="D102" s="156"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
@@ -48522,8 +48663,8 @@
       <c r="B103" s="2">
         <v>6</v>
       </c>
-      <c r="C103" s="132"/>
-      <c r="D103" s="155"/>
+      <c r="C103" s="133"/>
+      <c r="D103" s="156"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
@@ -48532,8 +48673,8 @@
       <c r="B104" s="2">
         <v>6</v>
       </c>
-      <c r="C104" s="132"/>
-      <c r="D104" s="155"/>
+      <c r="C104" s="133"/>
+      <c r="D104" s="156"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
@@ -48542,8 +48683,8 @@
       <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="132"/>
-      <c r="D105" s="155"/>
+      <c r="C105" s="133"/>
+      <c r="D105" s="156"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
@@ -48552,8 +48693,8 @@
       <c r="B106" s="2">
         <v>6</v>
       </c>
-      <c r="C106" s="132"/>
-      <c r="D106" s="155"/>
+      <c r="C106" s="133"/>
+      <c r="D106" s="156"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
@@ -48562,8 +48703,8 @@
       <c r="B107" s="2">
         <v>4</v>
       </c>
-      <c r="C107" s="132"/>
-      <c r="D107" s="155"/>
+      <c r="C107" s="133"/>
+      <c r="D107" s="156"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
@@ -48572,8 +48713,8 @@
       <c r="B108" s="2">
         <v>8</v>
       </c>
-      <c r="C108" s="132"/>
-      <c r="D108" s="155"/>
+      <c r="C108" s="133"/>
+      <c r="D108" s="156"/>
       <c r="J108" s="3" t="s">
         <v>22</v>
       </c>
@@ -48585,8 +48726,8 @@
       <c r="B109" s="2">
         <v>6</v>
       </c>
-      <c r="C109" s="132"/>
-      <c r="D109" s="155"/>
+      <c r="C109" s="133"/>
+      <c r="D109" s="156"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
@@ -48595,8 +48736,8 @@
       <c r="B110" s="2">
         <v>6</v>
       </c>
-      <c r="C110" s="132"/>
-      <c r="D110" s="155"/>
+      <c r="C110" s="133"/>
+      <c r="D110" s="156"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
@@ -48605,8 +48746,8 @@
       <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C111" s="132"/>
-      <c r="D111" s="155"/>
+      <c r="C111" s="133"/>
+      <c r="D111" s="156"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
@@ -48615,8 +48756,8 @@
       <c r="B112" s="2">
         <v>6</v>
       </c>
-      <c r="C112" s="132"/>
-      <c r="D112" s="155"/>
+      <c r="C112" s="133"/>
+      <c r="D112" s="156"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
@@ -48625,8 +48766,8 @@
       <c r="B113" s="2">
         <v>6</v>
       </c>
-      <c r="C113" s="132"/>
-      <c r="D113" s="155"/>
+      <c r="C113" s="133"/>
+      <c r="D113" s="156"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
@@ -48635,8 +48776,8 @@
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" s="132"/>
-      <c r="D114" s="155"/>
+      <c r="C114" s="133"/>
+      <c r="D114" s="156"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
@@ -48645,8 +48786,8 @@
       <c r="B115" s="2">
         <v>6</v>
       </c>
-      <c r="C115" s="132"/>
-      <c r="D115" s="155"/>
+      <c r="C115" s="133"/>
+      <c r="D115" s="156"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
@@ -48655,8 +48796,8 @@
       <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="132"/>
-      <c r="D116" s="155"/>
+      <c r="C116" s="133"/>
+      <c r="D116" s="156"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
@@ -48665,8 +48806,8 @@
       <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C117" s="132"/>
-      <c r="D117" s="155"/>
+      <c r="C117" s="133"/>
+      <c r="D117" s="156"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
@@ -48675,8 +48816,8 @@
       <c r="B118" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="132"/>
-      <c r="D118" s="155"/>
+      <c r="C118" s="133"/>
+      <c r="D118" s="156"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
@@ -48685,8 +48826,8 @@
       <c r="B119" s="2">
         <v>4</v>
       </c>
-      <c r="C119" s="132"/>
-      <c r="D119" s="155"/>
+      <c r="C119" s="133"/>
+      <c r="D119" s="156"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
@@ -48695,8 +48836,8 @@
       <c r="B120" s="2">
         <v>6</v>
       </c>
-      <c r="C120" s="132"/>
-      <c r="D120" s="155"/>
+      <c r="C120" s="133"/>
+      <c r="D120" s="156"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
@@ -48705,8 +48846,8 @@
       <c r="B121" s="2">
         <v>6</v>
       </c>
-      <c r="C121" s="132"/>
-      <c r="D121" s="155"/>
+      <c r="C121" s="133"/>
+      <c r="D121" s="156"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
@@ -48715,11 +48856,11 @@
       <c r="B122" s="2">
         <v>8</v>
       </c>
-      <c r="C122" s="156">
+      <c r="C122" s="157">
         <f>AVERAGE(B122:B152)</f>
         <v>6.129032258064516</v>
       </c>
-      <c r="D122" s="155"/>
+      <c r="D122" s="156"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
@@ -48728,8 +48869,8 @@
       <c r="B123" s="2">
         <v>6</v>
       </c>
-      <c r="C123" s="157"/>
-      <c r="D123" s="155"/>
+      <c r="C123" s="158"/>
+      <c r="D123" s="156"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
@@ -48738,8 +48879,8 @@
       <c r="B124" s="2">
         <v>6</v>
       </c>
-      <c r="C124" s="157"/>
-      <c r="D124" s="155"/>
+      <c r="C124" s="158"/>
+      <c r="D124" s="156"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
@@ -48748,8 +48889,8 @@
       <c r="B125" s="2">
         <v>10</v>
       </c>
-      <c r="C125" s="157"/>
-      <c r="D125" s="155"/>
+      <c r="C125" s="158"/>
+      <c r="D125" s="156"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
@@ -48758,8 +48899,8 @@
       <c r="B126" s="2">
         <v>6</v>
       </c>
-      <c r="C126" s="157"/>
-      <c r="D126" s="155"/>
+      <c r="C126" s="158"/>
+      <c r="D126" s="156"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
@@ -48768,8 +48909,8 @@
       <c r="B127" s="2">
         <v>4</v>
       </c>
-      <c r="C127" s="157"/>
-      <c r="D127" s="155"/>
+      <c r="C127" s="158"/>
+      <c r="D127" s="156"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
@@ -48778,8 +48919,8 @@
       <c r="B128" s="2">
         <v>6</v>
       </c>
-      <c r="C128" s="157"/>
-      <c r="D128" s="155"/>
+      <c r="C128" s="158"/>
+      <c r="D128" s="156"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
@@ -48788,8 +48929,8 @@
       <c r="B129" s="2">
         <v>6</v>
       </c>
-      <c r="C129" s="157"/>
-      <c r="D129" s="155"/>
+      <c r="C129" s="158"/>
+      <c r="D129" s="156"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
@@ -48798,8 +48939,8 @@
       <c r="B130" s="2">
         <v>6</v>
       </c>
-      <c r="C130" s="157"/>
-      <c r="D130" s="155"/>
+      <c r="C130" s="158"/>
+      <c r="D130" s="156"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
@@ -48808,8 +48949,8 @@
       <c r="B131" s="2">
         <v>8</v>
       </c>
-      <c r="C131" s="157"/>
-      <c r="D131" s="155"/>
+      <c r="C131" s="158"/>
+      <c r="D131" s="156"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
@@ -48818,8 +48959,8 @@
       <c r="B132" s="2">
         <v>8</v>
       </c>
-      <c r="C132" s="157"/>
-      <c r="D132" s="155"/>
+      <c r="C132" s="158"/>
+      <c r="D132" s="156"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
@@ -48828,8 +48969,8 @@
       <c r="B133" s="2">
         <v>6</v>
       </c>
-      <c r="C133" s="157"/>
-      <c r="D133" s="155"/>
+      <c r="C133" s="158"/>
+      <c r="D133" s="156"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
@@ -48838,8 +48979,8 @@
       <c r="B134" s="2">
         <v>6</v>
       </c>
-      <c r="C134" s="157"/>
-      <c r="D134" s="155"/>
+      <c r="C134" s="158"/>
+      <c r="D134" s="156"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
@@ -48848,8 +48989,8 @@
       <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="C135" s="157"/>
-      <c r="D135" s="155"/>
+      <c r="C135" s="158"/>
+      <c r="D135" s="156"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
@@ -48858,8 +48999,8 @@
       <c r="B136" s="2">
         <v>6</v>
       </c>
-      <c r="C136" s="157"/>
-      <c r="D136" s="155"/>
+      <c r="C136" s="158"/>
+      <c r="D136" s="156"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
@@ -48868,8 +49009,8 @@
       <c r="B137" s="2">
         <v>4</v>
       </c>
-      <c r="C137" s="157"/>
-      <c r="D137" s="155"/>
+      <c r="C137" s="158"/>
+      <c r="D137" s="156"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
@@ -48878,8 +49019,8 @@
       <c r="B138" s="2">
         <v>4</v>
       </c>
-      <c r="C138" s="157"/>
-      <c r="D138" s="155"/>
+      <c r="C138" s="158"/>
+      <c r="D138" s="156"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
@@ -48888,8 +49029,8 @@
       <c r="B139" s="2">
         <v>6</v>
       </c>
-      <c r="C139" s="157"/>
-      <c r="D139" s="155"/>
+      <c r="C139" s="158"/>
+      <c r="D139" s="156"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
@@ -48898,8 +49039,8 @@
       <c r="B140" s="2">
         <v>4</v>
       </c>
-      <c r="C140" s="157"/>
-      <c r="D140" s="155"/>
+      <c r="C140" s="158"/>
+      <c r="D140" s="156"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
@@ -48908,8 +49049,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="157"/>
-      <c r="D141" s="155"/>
+      <c r="C141" s="158"/>
+      <c r="D141" s="156"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
@@ -48918,8 +49059,8 @@
       <c r="B142" s="2">
         <v>6</v>
       </c>
-      <c r="C142" s="157"/>
-      <c r="D142" s="155"/>
+      <c r="C142" s="158"/>
+      <c r="D142" s="156"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
@@ -48928,8 +49069,8 @@
       <c r="B143" s="2">
         <v>6</v>
       </c>
-      <c r="C143" s="157"/>
-      <c r="D143" s="155"/>
+      <c r="C143" s="158"/>
+      <c r="D143" s="156"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
@@ -48938,8 +49079,8 @@
       <c r="B144" s="2">
         <v>8</v>
       </c>
-      <c r="C144" s="157"/>
-      <c r="D144" s="155"/>
+      <c r="C144" s="158"/>
+      <c r="D144" s="156"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
@@ -48948,8 +49089,8 @@
       <c r="B145" s="2">
         <v>8</v>
       </c>
-      <c r="C145" s="157"/>
-      <c r="D145" s="155"/>
+      <c r="C145" s="158"/>
+      <c r="D145" s="156"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
@@ -48958,8 +49099,8 @@
       <c r="B146" s="2">
         <v>8</v>
       </c>
-      <c r="C146" s="157"/>
-      <c r="D146" s="155"/>
+      <c r="C146" s="158"/>
+      <c r="D146" s="156"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
@@ -48968,8 +49109,8 @@
       <c r="B147" s="2">
         <v>6</v>
       </c>
-      <c r="C147" s="157"/>
-      <c r="D147" s="155"/>
+      <c r="C147" s="158"/>
+      <c r="D147" s="156"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
@@ -48978,8 +49119,8 @@
       <c r="B148" s="2">
         <v>4</v>
       </c>
-      <c r="C148" s="157"/>
-      <c r="D148" s="155"/>
+      <c r="C148" s="158"/>
+      <c r="D148" s="156"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
@@ -48988,8 +49129,8 @@
       <c r="B149" s="2">
         <v>6</v>
       </c>
-      <c r="C149" s="157"/>
-      <c r="D149" s="155"/>
+      <c r="C149" s="158"/>
+      <c r="D149" s="156"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
@@ -48998,8 +49139,8 @@
       <c r="B150" s="2">
         <v>6</v>
       </c>
-      <c r="C150" s="157"/>
-      <c r="D150" s="155"/>
+      <c r="C150" s="158"/>
+      <c r="D150" s="156"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
@@ -49008,8 +49149,8 @@
       <c r="B151" s="2">
         <v>6</v>
       </c>
-      <c r="C151" s="157"/>
-      <c r="D151" s="155"/>
+      <c r="C151" s="158"/>
+      <c r="D151" s="156"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
@@ -49018,8 +49159,8 @@
       <c r="B152" s="2">
         <v>6</v>
       </c>
-      <c r="C152" s="131"/>
-      <c r="D152" s="155"/>
+      <c r="C152" s="132"/>
+      <c r="D152" s="156"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
@@ -49028,11 +49169,11 @@
       <c r="B153" s="2">
         <v>6</v>
       </c>
-      <c r="C153" s="156">
+      <c r="C153" s="157">
         <f>AVERAGE(B153:B182)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D153" s="155"/>
+      <c r="D153" s="156"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
@@ -49041,8 +49182,8 @@
       <c r="B154" s="2">
         <v>6</v>
       </c>
-      <c r="C154" s="157"/>
-      <c r="D154" s="155"/>
+      <c r="C154" s="158"/>
+      <c r="D154" s="156"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
@@ -49051,8 +49192,8 @@
       <c r="B155" s="2">
         <v>4</v>
       </c>
-      <c r="C155" s="157"/>
-      <c r="D155" s="155"/>
+      <c r="C155" s="158"/>
+      <c r="D155" s="156"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
@@ -49061,8 +49202,8 @@
       <c r="B156" s="2">
         <v>8</v>
       </c>
-      <c r="C156" s="157"/>
-      <c r="D156" s="155"/>
+      <c r="C156" s="158"/>
+      <c r="D156" s="156"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
@@ -49071,8 +49212,8 @@
       <c r="B157" s="2">
         <v>10</v>
       </c>
-      <c r="C157" s="157"/>
-      <c r="D157" s="155"/>
+      <c r="C157" s="158"/>
+      <c r="D157" s="156"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
@@ -49081,8 +49222,8 @@
       <c r="B158" s="2">
         <v>6</v>
       </c>
-      <c r="C158" s="157"/>
-      <c r="D158" s="155"/>
+      <c r="C158" s="158"/>
+      <c r="D158" s="156"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
@@ -49091,8 +49232,8 @@
       <c r="B159" s="2">
         <v>4</v>
       </c>
-      <c r="C159" s="157"/>
-      <c r="D159" s="155"/>
+      <c r="C159" s="158"/>
+      <c r="D159" s="156"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
@@ -49101,8 +49242,8 @@
       <c r="B160" s="2">
         <v>6</v>
       </c>
-      <c r="C160" s="157"/>
-      <c r="D160" s="155"/>
+      <c r="C160" s="158"/>
+      <c r="D160" s="156"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
@@ -49111,8 +49252,8 @@
       <c r="B161" s="2">
         <v>6</v>
       </c>
-      <c r="C161" s="157"/>
-      <c r="D161" s="155"/>
+      <c r="C161" s="158"/>
+      <c r="D161" s="156"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
@@ -49121,8 +49262,8 @@
       <c r="B162" s="2">
         <v>6</v>
       </c>
-      <c r="C162" s="157"/>
-      <c r="D162" s="155"/>
+      <c r="C162" s="158"/>
+      <c r="D162" s="156"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
@@ -49131,8 +49272,8 @@
       <c r="B163" s="2">
         <v>0</v>
       </c>
-      <c r="C163" s="157"/>
-      <c r="D163" s="155"/>
+      <c r="C163" s="158"/>
+      <c r="D163" s="156"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
@@ -49141,8 +49282,8 @@
       <c r="B164" s="2">
         <v>4</v>
       </c>
-      <c r="C164" s="157"/>
-      <c r="D164" s="155"/>
+      <c r="C164" s="158"/>
+      <c r="D164" s="156"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
@@ -49151,8 +49292,8 @@
       <c r="B165" s="2">
         <v>4</v>
       </c>
-      <c r="C165" s="157"/>
-      <c r="D165" s="155"/>
+      <c r="C165" s="158"/>
+      <c r="D165" s="156"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
@@ -49161,8 +49302,8 @@
       <c r="B166" s="2">
         <v>4</v>
       </c>
-      <c r="C166" s="157"/>
-      <c r="D166" s="155"/>
+      <c r="C166" s="158"/>
+      <c r="D166" s="156"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
@@ -49171,8 +49312,8 @@
       <c r="B167" s="2">
         <v>6</v>
       </c>
-      <c r="C167" s="157"/>
-      <c r="D167" s="155"/>
+      <c r="C167" s="158"/>
+      <c r="D167" s="156"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
@@ -49181,8 +49322,8 @@
       <c r="B168" s="2">
         <v>6</v>
       </c>
-      <c r="C168" s="157"/>
-      <c r="D168" s="155"/>
+      <c r="C168" s="158"/>
+      <c r="D168" s="156"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
@@ -49191,8 +49332,8 @@
       <c r="B169" s="2">
         <v>4</v>
       </c>
-      <c r="C169" s="157"/>
-      <c r="D169" s="155"/>
+      <c r="C169" s="158"/>
+      <c r="D169" s="156"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
@@ -49201,8 +49342,8 @@
       <c r="B170" s="2">
         <v>4</v>
       </c>
-      <c r="C170" s="157"/>
-      <c r="D170" s="155"/>
+      <c r="C170" s="158"/>
+      <c r="D170" s="156"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
@@ -49211,8 +49352,8 @@
       <c r="B171" s="2">
         <v>10</v>
       </c>
-      <c r="C171" s="157"/>
-      <c r="D171" s="155"/>
+      <c r="C171" s="158"/>
+      <c r="D171" s="156"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
@@ -49221,8 +49362,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="157"/>
-      <c r="D172" s="155"/>
+      <c r="C172" s="158"/>
+      <c r="D172" s="156"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
@@ -49231,8 +49372,8 @@
       <c r="B173" s="2">
         <v>2</v>
       </c>
-      <c r="C173" s="157"/>
-      <c r="D173" s="155"/>
+      <c r="C173" s="158"/>
+      <c r="D173" s="156"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
@@ -49241,8 +49382,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="157"/>
-      <c r="D174" s="155"/>
+      <c r="C174" s="158"/>
+      <c r="D174" s="156"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
@@ -49251,8 +49392,8 @@
       <c r="B175" s="2">
         <v>4</v>
       </c>
-      <c r="C175" s="157"/>
-      <c r="D175" s="155"/>
+      <c r="C175" s="158"/>
+      <c r="D175" s="156"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
@@ -49261,8 +49402,8 @@
       <c r="B176" s="2">
         <v>6</v>
       </c>
-      <c r="C176" s="157"/>
-      <c r="D176" s="155"/>
+      <c r="C176" s="158"/>
+      <c r="D176" s="156"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
@@ -49271,8 +49412,8 @@
       <c r="B177" s="2">
         <v>4</v>
       </c>
-      <c r="C177" s="157"/>
-      <c r="D177" s="155"/>
+      <c r="C177" s="158"/>
+      <c r="D177" s="156"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
@@ -49281,8 +49422,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="157"/>
-      <c r="D178" s="155"/>
+      <c r="C178" s="158"/>
+      <c r="D178" s="156"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
@@ -49291,8 +49432,8 @@
       <c r="B179" s="2">
         <v>6</v>
       </c>
-      <c r="C179" s="157"/>
-      <c r="D179" s="155"/>
+      <c r="C179" s="158"/>
+      <c r="D179" s="156"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
@@ -49301,8 +49442,8 @@
       <c r="B180" s="2">
         <v>10</v>
       </c>
-      <c r="C180" s="157"/>
-      <c r="D180" s="155"/>
+      <c r="C180" s="158"/>
+      <c r="D180" s="156"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
@@ -49311,8 +49452,8 @@
       <c r="B181" s="2">
         <v>8</v>
       </c>
-      <c r="C181" s="157"/>
-      <c r="D181" s="155"/>
+      <c r="C181" s="158"/>
+      <c r="D181" s="156"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
@@ -49321,8 +49462,8 @@
       <c r="B182" s="2">
         <v>6</v>
       </c>
-      <c r="C182" s="131"/>
-      <c r="D182" s="155"/>
+      <c r="C182" s="132"/>
+      <c r="D182" s="156"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
@@ -49331,11 +49472,11 @@
       <c r="B183" s="2">
         <v>6</v>
       </c>
-      <c r="C183" s="156">
+      <c r="C183" s="157">
         <f>AVERAGE(B183:B213)</f>
         <v>5.032258064516129</v>
       </c>
-      <c r="D183" s="155"/>
+      <c r="D183" s="156"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
@@ -49344,8 +49485,8 @@
       <c r="B184" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="157"/>
-      <c r="D184" s="155"/>
+      <c r="C184" s="158"/>
+      <c r="D184" s="156"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
@@ -49354,8 +49495,8 @@
       <c r="B185" s="2">
         <v>2</v>
       </c>
-      <c r="C185" s="157"/>
-      <c r="D185" s="155"/>
+      <c r="C185" s="158"/>
+      <c r="D185" s="156"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
@@ -49364,8 +49505,8 @@
       <c r="B186" s="2">
         <v>4</v>
       </c>
-      <c r="C186" s="157"/>
-      <c r="D186" s="155"/>
+      <c r="C186" s="158"/>
+      <c r="D186" s="156"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
@@ -49374,8 +49515,8 @@
       <c r="B187" s="2">
         <v>4</v>
       </c>
-      <c r="C187" s="157"/>
-      <c r="D187" s="155"/>
+      <c r="C187" s="158"/>
+      <c r="D187" s="156"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
@@ -49384,8 +49525,8 @@
       <c r="B188" s="2">
         <v>10</v>
       </c>
-      <c r="C188" s="157"/>
-      <c r="D188" s="155"/>
+      <c r="C188" s="158"/>
+      <c r="D188" s="156"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
@@ -49394,8 +49535,8 @@
       <c r="B189" s="2">
         <v>6</v>
       </c>
-      <c r="C189" s="157"/>
-      <c r="D189" s="155"/>
+      <c r="C189" s="158"/>
+      <c r="D189" s="156"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
@@ -49404,8 +49545,8 @@
       <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C190" s="157"/>
-      <c r="D190" s="155"/>
+      <c r="C190" s="158"/>
+      <c r="D190" s="156"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
@@ -49414,8 +49555,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="157"/>
-      <c r="D191" s="155"/>
+      <c r="C191" s="158"/>
+      <c r="D191" s="156"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
@@ -49424,8 +49565,8 @@
       <c r="B192" s="2">
         <v>4</v>
       </c>
-      <c r="C192" s="157"/>
-      <c r="D192" s="155"/>
+      <c r="C192" s="158"/>
+      <c r="D192" s="156"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
@@ -49434,8 +49575,8 @@
       <c r="B193" s="2">
         <v>6</v>
       </c>
-      <c r="C193" s="157"/>
-      <c r="D193" s="155"/>
+      <c r="C193" s="158"/>
+      <c r="D193" s="156"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
@@ -49444,8 +49585,8 @@
       <c r="B194" s="2">
         <v>4</v>
       </c>
-      <c r="C194" s="157"/>
-      <c r="D194" s="155"/>
+      <c r="C194" s="158"/>
+      <c r="D194" s="156"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
@@ -49454,8 +49595,8 @@
       <c r="B195" s="2">
         <v>10</v>
       </c>
-      <c r="C195" s="157"/>
-      <c r="D195" s="155"/>
+      <c r="C195" s="158"/>
+      <c r="D195" s="156"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
@@ -49464,8 +49605,8 @@
       <c r="B196" s="2">
         <v>6</v>
       </c>
-      <c r="C196" s="157"/>
-      <c r="D196" s="155"/>
+      <c r="C196" s="158"/>
+      <c r="D196" s="156"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
@@ -49474,8 +49615,8 @@
       <c r="B197" s="2">
         <v>4</v>
       </c>
-      <c r="C197" s="157"/>
-      <c r="D197" s="155"/>
+      <c r="C197" s="158"/>
+      <c r="D197" s="156"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
@@ -49484,8 +49625,8 @@
       <c r="B198" s="2">
         <v>4</v>
       </c>
-      <c r="C198" s="157"/>
-      <c r="D198" s="155"/>
+      <c r="C198" s="158"/>
+      <c r="D198" s="156"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
@@ -49494,8 +49635,8 @@
       <c r="B199" s="2">
         <v>6</v>
       </c>
-      <c r="C199" s="157"/>
-      <c r="D199" s="155"/>
+      <c r="C199" s="158"/>
+      <c r="D199" s="156"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
@@ -49504,8 +49645,8 @@
       <c r="B200" s="2">
         <v>4</v>
       </c>
-      <c r="C200" s="157"/>
-      <c r="D200" s="155"/>
+      <c r="C200" s="158"/>
+      <c r="D200" s="156"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
@@ -49514,8 +49655,8 @@
       <c r="B201" s="2">
         <v>2</v>
       </c>
-      <c r="C201" s="157"/>
-      <c r="D201" s="155"/>
+      <c r="C201" s="158"/>
+      <c r="D201" s="156"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
@@ -49524,8 +49665,8 @@
       <c r="B202" s="2">
         <v>8</v>
       </c>
-      <c r="C202" s="157"/>
-      <c r="D202" s="155"/>
+      <c r="C202" s="158"/>
+      <c r="D202" s="156"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
@@ -49534,8 +49675,8 @@
       <c r="B203" s="2">
         <v>6</v>
       </c>
-      <c r="C203" s="157"/>
-      <c r="D203" s="155"/>
+      <c r="C203" s="158"/>
+      <c r="D203" s="156"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
@@ -49544,8 +49685,8 @@
       <c r="B204" s="2">
         <v>4</v>
       </c>
-      <c r="C204" s="157"/>
-      <c r="D204" s="155"/>
+      <c r="C204" s="158"/>
+      <c r="D204" s="156"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
@@ -49554,8 +49695,8 @@
       <c r="B205" s="2">
         <v>4</v>
       </c>
-      <c r="C205" s="157"/>
-      <c r="D205" s="155"/>
+      <c r="C205" s="158"/>
+      <c r="D205" s="156"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
@@ -49564,8 +49705,8 @@
       <c r="B206" s="2">
         <v>2</v>
       </c>
-      <c r="C206" s="157"/>
-      <c r="D206" s="155"/>
+      <c r="C206" s="158"/>
+      <c r="D206" s="156"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
@@ -49574,8 +49715,8 @@
       <c r="B207" s="2">
         <v>4</v>
       </c>
-      <c r="C207" s="157"/>
-      <c r="D207" s="155"/>
+      <c r="C207" s="158"/>
+      <c r="D207" s="156"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
@@ -49584,8 +49725,8 @@
       <c r="B208" s="2">
         <v>4</v>
       </c>
-      <c r="C208" s="157"/>
-      <c r="D208" s="155"/>
+      <c r="C208" s="158"/>
+      <c r="D208" s="156"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
@@ -49594,8 +49735,8 @@
       <c r="B209" s="2">
         <v>6</v>
       </c>
-      <c r="C209" s="157"/>
-      <c r="D209" s="155"/>
+      <c r="C209" s="158"/>
+      <c r="D209" s="156"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
@@ -49604,8 +49745,8 @@
       <c r="B210" s="2">
         <v>6</v>
       </c>
-      <c r="C210" s="157"/>
-      <c r="D210" s="155"/>
+      <c r="C210" s="158"/>
+      <c r="D210" s="156"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
@@ -49614,8 +49755,8 @@
       <c r="B211" s="2">
         <v>6</v>
       </c>
-      <c r="C211" s="157"/>
-      <c r="D211" s="155"/>
+      <c r="C211" s="158"/>
+      <c r="D211" s="156"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
@@ -49624,8 +49765,8 @@
       <c r="B212" s="2">
         <v>6</v>
       </c>
-      <c r="C212" s="157"/>
-      <c r="D212" s="155"/>
+      <c r="C212" s="158"/>
+      <c r="D212" s="156"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
@@ -49634,8 +49775,8 @@
       <c r="B213" s="2">
         <v>6</v>
       </c>
-      <c r="C213" s="131"/>
-      <c r="D213" s="155"/>
+      <c r="C213" s="132"/>
+      <c r="D213" s="156"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
@@ -49644,11 +49785,11 @@
       <c r="B214" s="2">
         <v>6</v>
       </c>
-      <c r="C214" s="156">
+      <c r="C214" s="157">
         <f>AVERAGE(B214:B244)</f>
         <v>4.967741935483871</v>
       </c>
-      <c r="D214" s="155"/>
+      <c r="D214" s="156"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
@@ -49657,8 +49798,8 @@
       <c r="B215" s="2">
         <v>6</v>
       </c>
-      <c r="C215" s="157"/>
-      <c r="D215" s="155"/>
+      <c r="C215" s="158"/>
+      <c r="D215" s="156"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
@@ -49667,8 +49808,8 @@
       <c r="B216" s="2">
         <v>6</v>
       </c>
-      <c r="C216" s="157"/>
-      <c r="D216" s="155"/>
+      <c r="C216" s="158"/>
+      <c r="D216" s="156"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
@@ -49677,8 +49818,8 @@
       <c r="B217" s="2">
         <v>8</v>
       </c>
-      <c r="C217" s="157"/>
-      <c r="D217" s="155"/>
+      <c r="C217" s="158"/>
+      <c r="D217" s="156"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
@@ -49687,8 +49828,8 @@
       <c r="B218" s="2">
         <v>4</v>
       </c>
-      <c r="C218" s="157"/>
-      <c r="D218" s="155"/>
+      <c r="C218" s="158"/>
+      <c r="D218" s="156"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
@@ -49697,8 +49838,8 @@
       <c r="B219" s="2">
         <v>4</v>
       </c>
-      <c r="C219" s="157"/>
-      <c r="D219" s="155"/>
+      <c r="C219" s="158"/>
+      <c r="D219" s="156"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
@@ -49707,8 +49848,8 @@
       <c r="B220" s="2">
         <v>6</v>
       </c>
-      <c r="C220" s="157"/>
-      <c r="D220" s="155"/>
+      <c r="C220" s="158"/>
+      <c r="D220" s="156"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
@@ -49717,8 +49858,8 @@
       <c r="B221" s="2">
         <v>4</v>
       </c>
-      <c r="C221" s="157"/>
-      <c r="D221" s="155"/>
+      <c r="C221" s="158"/>
+      <c r="D221" s="156"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
@@ -49727,8 +49868,8 @@
       <c r="B222" s="2">
         <v>6</v>
       </c>
-      <c r="C222" s="157"/>
-      <c r="D222" s="155"/>
+      <c r="C222" s="158"/>
+      <c r="D222" s="156"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
@@ -49737,8 +49878,8 @@
       <c r="B223" s="2">
         <v>6</v>
       </c>
-      <c r="C223" s="157"/>
-      <c r="D223" s="155"/>
+      <c r="C223" s="158"/>
+      <c r="D223" s="156"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
@@ -49747,8 +49888,8 @@
       <c r="B224" s="2">
         <v>6</v>
       </c>
-      <c r="C224" s="157"/>
-      <c r="D224" s="155"/>
+      <c r="C224" s="158"/>
+      <c r="D224" s="156"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
@@ -49757,8 +49898,8 @@
       <c r="B225" s="2">
         <v>6</v>
       </c>
-      <c r="C225" s="157"/>
-      <c r="D225" s="155"/>
+      <c r="C225" s="158"/>
+      <c r="D225" s="156"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
@@ -49767,8 +49908,8 @@
       <c r="B226" s="2">
         <v>4</v>
       </c>
-      <c r="C226" s="157"/>
-      <c r="D226" s="155"/>
+      <c r="C226" s="158"/>
+      <c r="D226" s="156"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
@@ -49777,8 +49918,8 @@
       <c r="B227" s="2">
         <v>2</v>
       </c>
-      <c r="C227" s="157"/>
-      <c r="D227" s="155"/>
+      <c r="C227" s="158"/>
+      <c r="D227" s="156"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
@@ -49787,8 +49928,8 @@
       <c r="B228" s="2">
         <v>2</v>
       </c>
-      <c r="C228" s="157"/>
-      <c r="D228" s="155"/>
+      <c r="C228" s="158"/>
+      <c r="D228" s="156"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
@@ -49797,8 +49938,8 @@
       <c r="B229" s="2">
         <v>4</v>
       </c>
-      <c r="C229" s="157"/>
-      <c r="D229" s="155"/>
+      <c r="C229" s="158"/>
+      <c r="D229" s="156"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
@@ -49807,8 +49948,8 @@
       <c r="B230" s="2">
         <v>6</v>
       </c>
-      <c r="C230" s="157"/>
-      <c r="D230" s="155"/>
+      <c r="C230" s="158"/>
+      <c r="D230" s="156"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
@@ -49817,8 +49958,8 @@
       <c r="B231" s="2">
         <v>8</v>
       </c>
-      <c r="C231" s="157"/>
-      <c r="D231" s="155"/>
+      <c r="C231" s="158"/>
+      <c r="D231" s="156"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
@@ -49827,8 +49968,8 @@
       <c r="B232" s="2">
         <v>4</v>
       </c>
-      <c r="C232" s="157"/>
-      <c r="D232" s="155"/>
+      <c r="C232" s="158"/>
+      <c r="D232" s="156"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
@@ -49837,8 +49978,8 @@
       <c r="B233" s="2">
         <v>4</v>
       </c>
-      <c r="C233" s="157"/>
-      <c r="D233" s="155"/>
+      <c r="C233" s="158"/>
+      <c r="D233" s="156"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
@@ -49847,8 +49988,8 @@
       <c r="B234" s="2">
         <v>4</v>
       </c>
-      <c r="C234" s="157"/>
-      <c r="D234" s="155"/>
+      <c r="C234" s="158"/>
+      <c r="D234" s="156"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
@@ -49857,8 +49998,8 @@
       <c r="B235" s="2">
         <v>4</v>
       </c>
-      <c r="C235" s="157"/>
-      <c r="D235" s="155"/>
+      <c r="C235" s="158"/>
+      <c r="D235" s="156"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
@@ -49867,8 +50008,8 @@
       <c r="B236" s="2">
         <v>6</v>
       </c>
-      <c r="C236" s="157"/>
-      <c r="D236" s="155"/>
+      <c r="C236" s="158"/>
+      <c r="D236" s="156"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
@@ -49877,8 +50018,8 @@
       <c r="B237" s="2">
         <v>4</v>
       </c>
-      <c r="C237" s="157"/>
-      <c r="D237" s="155"/>
+      <c r="C237" s="158"/>
+      <c r="D237" s="156"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
@@ -49887,8 +50028,8 @@
       <c r="B238" s="2">
         <v>4</v>
       </c>
-      <c r="C238" s="157"/>
-      <c r="D238" s="155"/>
+      <c r="C238" s="158"/>
+      <c r="D238" s="156"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
@@ -49897,8 +50038,8 @@
       <c r="B239" s="2">
         <v>6</v>
       </c>
-      <c r="C239" s="157"/>
-      <c r="D239" s="155"/>
+      <c r="C239" s="158"/>
+      <c r="D239" s="156"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
@@ -49907,8 +50048,8 @@
       <c r="B240" s="2">
         <v>2</v>
       </c>
-      <c r="C240" s="157"/>
-      <c r="D240" s="155"/>
+      <c r="C240" s="158"/>
+      <c r="D240" s="156"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
@@ -49917,8 +50058,8 @@
       <c r="B241" s="2">
         <v>6</v>
       </c>
-      <c r="C241" s="157"/>
-      <c r="D241" s="155"/>
+      <c r="C241" s="158"/>
+      <c r="D241" s="156"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
@@ -49927,8 +50068,8 @@
       <c r="B242" s="2">
         <v>6</v>
       </c>
-      <c r="C242" s="157"/>
-      <c r="D242" s="155"/>
+      <c r="C242" s="158"/>
+      <c r="D242" s="156"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
@@ -49937,8 +50078,8 @@
       <c r="B243" s="2">
         <v>4</v>
       </c>
-      <c r="C243" s="157"/>
-      <c r="D243" s="155"/>
+      <c r="C243" s="158"/>
+      <c r="D243" s="156"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
@@ -49947,8 +50088,8 @@
       <c r="B244" s="2">
         <v>6</v>
       </c>
-      <c r="C244" s="131"/>
-      <c r="D244" s="155"/>
+      <c r="C244" s="132"/>
+      <c r="D244" s="156"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
@@ -49957,11 +50098,11 @@
       <c r="B245" s="2">
         <v>4</v>
       </c>
-      <c r="C245" s="156">
+      <c r="C245" s="157">
         <f>AVERAGE(B245:B274)</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="D245" s="155"/>
+      <c r="D245" s="156"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
@@ -49970,8 +50111,8 @@
       <c r="B246" s="2">
         <v>4</v>
       </c>
-      <c r="C246" s="157"/>
-      <c r="D246" s="155"/>
+      <c r="C246" s="158"/>
+      <c r="D246" s="156"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
@@ -49980,8 +50121,8 @@
       <c r="B247" s="2">
         <v>6</v>
       </c>
-      <c r="C247" s="157"/>
-      <c r="D247" s="155"/>
+      <c r="C247" s="158"/>
+      <c r="D247" s="156"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
@@ -49990,8 +50131,8 @@
       <c r="B248" s="2">
         <v>4</v>
       </c>
-      <c r="C248" s="157"/>
-      <c r="D248" s="155"/>
+      <c r="C248" s="158"/>
+      <c r="D248" s="156"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
@@ -50000,8 +50141,8 @@
       <c r="B249" s="2">
         <v>6</v>
       </c>
-      <c r="C249" s="157"/>
-      <c r="D249" s="155"/>
+      <c r="C249" s="158"/>
+      <c r="D249" s="156"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
@@ -50010,8 +50151,8 @@
       <c r="B250" s="2">
         <v>4</v>
       </c>
-      <c r="C250" s="157"/>
-      <c r="D250" s="155"/>
+      <c r="C250" s="158"/>
+      <c r="D250" s="156"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
@@ -50020,8 +50161,8 @@
       <c r="B251" s="2">
         <v>4</v>
       </c>
-      <c r="C251" s="157"/>
-      <c r="D251" s="155"/>
+      <c r="C251" s="158"/>
+      <c r="D251" s="156"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
@@ -50030,8 +50171,8 @@
       <c r="B252" s="2">
         <v>6</v>
       </c>
-      <c r="C252" s="157"/>
-      <c r="D252" s="155"/>
+      <c r="C252" s="158"/>
+      <c r="D252" s="156"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
@@ -50040,8 +50181,8 @@
       <c r="B253" s="2">
         <v>4</v>
       </c>
-      <c r="C253" s="157"/>
-      <c r="D253" s="155"/>
+      <c r="C253" s="158"/>
+      <c r="D253" s="156"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
@@ -50050,8 +50191,8 @@
       <c r="B254" s="2">
         <v>4</v>
       </c>
-      <c r="C254" s="157"/>
-      <c r="D254" s="155"/>
+      <c r="C254" s="158"/>
+      <c r="D254" s="156"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
@@ -50060,8 +50201,8 @@
       <c r="B255" s="2">
         <v>6</v>
       </c>
-      <c r="C255" s="157"/>
-      <c r="D255" s="155"/>
+      <c r="C255" s="158"/>
+      <c r="D255" s="156"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
@@ -50070,8 +50211,8 @@
       <c r="B256" s="2">
         <v>6</v>
       </c>
-      <c r="C256" s="157"/>
-      <c r="D256" s="155"/>
+      <c r="C256" s="158"/>
+      <c r="D256" s="156"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
@@ -50080,8 +50221,8 @@
       <c r="B257" s="2">
         <v>10</v>
       </c>
-      <c r="C257" s="157"/>
-      <c r="D257" s="155"/>
+      <c r="C257" s="158"/>
+      <c r="D257" s="156"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
@@ -50090,8 +50231,8 @@
       <c r="B258" s="2">
         <v>8</v>
       </c>
-      <c r="C258" s="157"/>
-      <c r="D258" s="155"/>
+      <c r="C258" s="158"/>
+      <c r="D258" s="156"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
@@ -50100,8 +50241,8 @@
       <c r="B259" s="2">
         <v>6</v>
       </c>
-      <c r="C259" s="157"/>
-      <c r="D259" s="155"/>
+      <c r="C259" s="158"/>
+      <c r="D259" s="156"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
@@ -50110,8 +50251,8 @@
       <c r="B260" s="2">
         <v>6</v>
       </c>
-      <c r="C260" s="157"/>
-      <c r="D260" s="155"/>
+      <c r="C260" s="158"/>
+      <c r="D260" s="156"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
@@ -50120,8 +50261,8 @@
       <c r="B261" s="2">
         <v>4</v>
       </c>
-      <c r="C261" s="157"/>
-      <c r="D261" s="155"/>
+      <c r="C261" s="158"/>
+      <c r="D261" s="156"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
@@ -50130,8 +50271,8 @@
       <c r="B262" s="2">
         <v>2</v>
       </c>
-      <c r="C262" s="157"/>
-      <c r="D262" s="155"/>
+      <c r="C262" s="158"/>
+      <c r="D262" s="156"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
@@ -50140,8 +50281,8 @@
       <c r="B263" s="2">
         <v>4</v>
       </c>
-      <c r="C263" s="157"/>
-      <c r="D263" s="155"/>
+      <c r="C263" s="158"/>
+      <c r="D263" s="156"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
@@ -50150,8 +50291,8 @@
       <c r="B264" s="2">
         <v>4</v>
       </c>
-      <c r="C264" s="157"/>
-      <c r="D264" s="155"/>
+      <c r="C264" s="158"/>
+      <c r="D264" s="156"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
@@ -50160,8 +50301,8 @@
       <c r="B265" s="2">
         <v>6</v>
       </c>
-      <c r="C265" s="157"/>
-      <c r="D265" s="155"/>
+      <c r="C265" s="158"/>
+      <c r="D265" s="156"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
@@ -50170,8 +50311,8 @@
       <c r="B266" s="2">
         <v>6</v>
       </c>
-      <c r="C266" s="157"/>
-      <c r="D266" s="155"/>
+      <c r="C266" s="158"/>
+      <c r="D266" s="156"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
@@ -50180,8 +50321,8 @@
       <c r="B267" s="2">
         <v>4</v>
       </c>
-      <c r="C267" s="157"/>
-      <c r="D267" s="155"/>
+      <c r="C267" s="158"/>
+      <c r="D267" s="156"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
@@ -50190,8 +50331,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="157"/>
-      <c r="D268" s="155"/>
+      <c r="C268" s="158"/>
+      <c r="D268" s="156"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
@@ -50200,8 +50341,8 @@
       <c r="B269" s="2">
         <v>6</v>
       </c>
-      <c r="C269" s="157"/>
-      <c r="D269" s="155"/>
+      <c r="C269" s="158"/>
+      <c r="D269" s="156"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
@@ -50210,8 +50351,8 @@
       <c r="B270" s="2">
         <v>8</v>
       </c>
-      <c r="C270" s="157"/>
-      <c r="D270" s="155"/>
+      <c r="C270" s="158"/>
+      <c r="D270" s="156"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
@@ -50220,8 +50361,8 @@
       <c r="B271" s="2">
         <v>4</v>
       </c>
-      <c r="C271" s="157"/>
-      <c r="D271" s="155"/>
+      <c r="C271" s="158"/>
+      <c r="D271" s="156"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
@@ -50230,8 +50371,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="157"/>
-      <c r="D272" s="155"/>
+      <c r="C272" s="158"/>
+      <c r="D272" s="156"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
@@ -50240,8 +50381,8 @@
       <c r="B273" s="2">
         <v>8</v>
       </c>
-      <c r="C273" s="157"/>
-      <c r="D273" s="155"/>
+      <c r="C273" s="158"/>
+      <c r="D273" s="156"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
@@ -50250,8 +50391,8 @@
       <c r="B274" s="2">
         <v>6</v>
       </c>
-      <c r="C274" s="131"/>
-      <c r="D274" s="155"/>
+      <c r="C274" s="132"/>
+      <c r="D274" s="156"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
@@ -50260,11 +50401,11 @@
       <c r="B275" s="2">
         <v>4</v>
       </c>
-      <c r="C275" s="156">
+      <c r="C275" s="157">
         <f>AVERAGE(B275:B305)</f>
         <v>5.612903225806452</v>
       </c>
-      <c r="D275" s="155"/>
+      <c r="D275" s="156"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
@@ -50273,8 +50414,8 @@
       <c r="B276" s="2">
         <v>6</v>
       </c>
-      <c r="C276" s="157"/>
-      <c r="D276" s="155"/>
+      <c r="C276" s="158"/>
+      <c r="D276" s="156"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
@@ -50283,8 +50424,8 @@
       <c r="B277" s="2">
         <v>6</v>
       </c>
-      <c r="C277" s="157"/>
-      <c r="D277" s="155"/>
+      <c r="C277" s="158"/>
+      <c r="D277" s="156"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
@@ -50293,8 +50434,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="157"/>
-      <c r="D278" s="155"/>
+      <c r="C278" s="158"/>
+      <c r="D278" s="156"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
@@ -50303,8 +50444,8 @@
       <c r="B279" s="2">
         <v>2</v>
       </c>
-      <c r="C279" s="157"/>
-      <c r="D279" s="155"/>
+      <c r="C279" s="158"/>
+      <c r="D279" s="156"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
@@ -50313,8 +50454,8 @@
       <c r="B280" s="2">
         <v>4</v>
       </c>
-      <c r="C280" s="157"/>
-      <c r="D280" s="155"/>
+      <c r="C280" s="158"/>
+      <c r="D280" s="156"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
@@ -50323,8 +50464,8 @@
       <c r="B281" s="2">
         <v>0</v>
       </c>
-      <c r="C281" s="157"/>
-      <c r="D281" s="155"/>
+      <c r="C281" s="158"/>
+      <c r="D281" s="156"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
@@ -50333,8 +50474,8 @@
       <c r="B282" s="2">
         <v>2</v>
       </c>
-      <c r="C282" s="157"/>
-      <c r="D282" s="155"/>
+      <c r="C282" s="158"/>
+      <c r="D282" s="156"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
@@ -50343,8 +50484,8 @@
       <c r="B283" s="2">
         <v>6</v>
       </c>
-      <c r="C283" s="157"/>
-      <c r="D283" s="155"/>
+      <c r="C283" s="158"/>
+      <c r="D283" s="156"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
@@ -50353,8 +50494,8 @@
       <c r="B284" s="2">
         <v>6</v>
       </c>
-      <c r="C284" s="157"/>
-      <c r="D284" s="155"/>
+      <c r="C284" s="158"/>
+      <c r="D284" s="156"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
@@ -50363,8 +50504,8 @@
       <c r="B285" s="2">
         <v>8</v>
       </c>
-      <c r="C285" s="157"/>
-      <c r="D285" s="155"/>
+      <c r="C285" s="158"/>
+      <c r="D285" s="156"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
@@ -50373,8 +50514,8 @@
       <c r="B286" s="2">
         <v>8</v>
       </c>
-      <c r="C286" s="157"/>
-      <c r="D286" s="155"/>
+      <c r="C286" s="158"/>
+      <c r="D286" s="156"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
@@ -50383,8 +50524,8 @@
       <c r="B287" s="2">
         <v>6</v>
       </c>
-      <c r="C287" s="157"/>
-      <c r="D287" s="155"/>
+      <c r="C287" s="158"/>
+      <c r="D287" s="156"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
@@ -50393,8 +50534,8 @@
       <c r="B288" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="157"/>
-      <c r="D288" s="155"/>
+      <c r="C288" s="158"/>
+      <c r="D288" s="156"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
@@ -50403,8 +50544,8 @@
       <c r="B289" s="2">
         <v>6</v>
       </c>
-      <c r="C289" s="157"/>
-      <c r="D289" s="155"/>
+      <c r="C289" s="158"/>
+      <c r="D289" s="156"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
@@ -50413,8 +50554,8 @@
       <c r="B290" s="2">
         <v>4</v>
       </c>
-      <c r="C290" s="157"/>
-      <c r="D290" s="155"/>
+      <c r="C290" s="158"/>
+      <c r="D290" s="156"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
@@ -50423,8 +50564,8 @@
       <c r="B291" s="2">
         <v>6</v>
       </c>
-      <c r="C291" s="157"/>
-      <c r="D291" s="155"/>
+      <c r="C291" s="158"/>
+      <c r="D291" s="156"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
@@ -50433,8 +50574,8 @@
       <c r="B292" s="2">
         <v>8</v>
       </c>
-      <c r="C292" s="157"/>
-      <c r="D292" s="155"/>
+      <c r="C292" s="158"/>
+      <c r="D292" s="156"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
@@ -50443,8 +50584,8 @@
       <c r="B293" s="2">
         <v>6</v>
       </c>
-      <c r="C293" s="157"/>
-      <c r="D293" s="155"/>
+      <c r="C293" s="158"/>
+      <c r="D293" s="156"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
@@ -50453,8 +50594,8 @@
       <c r="B294" s="2">
         <v>6</v>
       </c>
-      <c r="C294" s="157"/>
-      <c r="D294" s="155"/>
+      <c r="C294" s="158"/>
+      <c r="D294" s="156"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
@@ -50463,8 +50604,8 @@
       <c r="B295" s="2">
         <v>6</v>
       </c>
-      <c r="C295" s="157"/>
-      <c r="D295" s="155"/>
+      <c r="C295" s="158"/>
+      <c r="D295" s="156"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
@@ -50473,8 +50614,8 @@
       <c r="B296" s="2">
         <v>6</v>
       </c>
-      <c r="C296" s="157"/>
-      <c r="D296" s="155"/>
+      <c r="C296" s="158"/>
+      <c r="D296" s="156"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
@@ -50483,8 +50624,8 @@
       <c r="B297" s="2">
         <v>4</v>
       </c>
-      <c r="C297" s="157"/>
-      <c r="D297" s="155"/>
+      <c r="C297" s="158"/>
+      <c r="D297" s="156"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
@@ -50493,8 +50634,8 @@
       <c r="B298" s="2">
         <v>4</v>
       </c>
-      <c r="C298" s="157"/>
-      <c r="D298" s="155"/>
+      <c r="C298" s="158"/>
+      <c r="D298" s="156"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
@@ -50503,8 +50644,8 @@
       <c r="B299" s="2">
         <v>6</v>
       </c>
-      <c r="C299" s="157"/>
-      <c r="D299" s="155"/>
+      <c r="C299" s="158"/>
+      <c r="D299" s="156"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
@@ -50513,8 +50654,8 @@
       <c r="B300" s="2">
         <v>6</v>
       </c>
-      <c r="C300" s="157"/>
-      <c r="D300" s="155"/>
+      <c r="C300" s="158"/>
+      <c r="D300" s="156"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
@@ -50523,8 +50664,8 @@
       <c r="B301" s="2">
         <v>4</v>
       </c>
-      <c r="C301" s="157"/>
-      <c r="D301" s="155"/>
+      <c r="C301" s="158"/>
+      <c r="D301" s="156"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
@@ -50533,8 +50674,8 @@
       <c r="B302" s="2">
         <v>6</v>
       </c>
-      <c r="C302" s="157"/>
-      <c r="D302" s="155"/>
+      <c r="C302" s="158"/>
+      <c r="D302" s="156"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
@@ -50543,8 +50684,8 @@
       <c r="B303" s="2">
         <v>8</v>
       </c>
-      <c r="C303" s="157"/>
-      <c r="D303" s="155"/>
+      <c r="C303" s="158"/>
+      <c r="D303" s="156"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
@@ -50553,8 +50694,8 @@
       <c r="B304" s="2">
         <v>8</v>
       </c>
-      <c r="C304" s="157"/>
-      <c r="D304" s="155"/>
+      <c r="C304" s="158"/>
+      <c r="D304" s="156"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
@@ -50563,8 +50704,8 @@
       <c r="B305" s="2">
         <v>10</v>
       </c>
-      <c r="C305" s="131"/>
-      <c r="D305" s="155"/>
+      <c r="C305" s="132"/>
+      <c r="D305" s="156"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
@@ -50573,11 +50714,11 @@
       <c r="B306" s="2">
         <v>6</v>
       </c>
-      <c r="C306" s="156">
+      <c r="C306" s="157">
         <f>AVERAGE(B306:B335)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="D306" s="155"/>
+      <c r="D306" s="156"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
@@ -50586,8 +50727,8 @@
       <c r="B307" s="2">
         <v>2</v>
       </c>
-      <c r="C307" s="157"/>
-      <c r="D307" s="155"/>
+      <c r="C307" s="158"/>
+      <c r="D307" s="156"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
@@ -50596,8 +50737,8 @@
       <c r="B308" s="2">
         <v>0</v>
       </c>
-      <c r="C308" s="157"/>
-      <c r="D308" s="155"/>
+      <c r="C308" s="158"/>
+      <c r="D308" s="156"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
@@ -50606,8 +50747,8 @@
       <c r="B309" s="2">
         <v>4</v>
       </c>
-      <c r="C309" s="157"/>
-      <c r="D309" s="155"/>
+      <c r="C309" s="158"/>
+      <c r="D309" s="156"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
@@ -50616,8 +50757,8 @@
       <c r="B310" s="2">
         <v>6</v>
       </c>
-      <c r="C310" s="157"/>
-      <c r="D310" s="155"/>
+      <c r="C310" s="158"/>
+      <c r="D310" s="156"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
@@ -50626,8 +50767,8 @@
       <c r="B311" s="2">
         <v>6</v>
       </c>
-      <c r="C311" s="157"/>
-      <c r="D311" s="155"/>
+      <c r="C311" s="158"/>
+      <c r="D311" s="156"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
@@ -50636,8 +50777,8 @@
       <c r="B312" s="2">
         <v>6</v>
       </c>
-      <c r="C312" s="157"/>
-      <c r="D312" s="155"/>
+      <c r="C312" s="158"/>
+      <c r="D312" s="156"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
@@ -50646,8 +50787,8 @@
       <c r="B313" s="2">
         <v>8</v>
       </c>
-      <c r="C313" s="157"/>
-      <c r="D313" s="155"/>
+      <c r="C313" s="158"/>
+      <c r="D313" s="156"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
@@ -50656,8 +50797,8 @@
       <c r="B314" s="2">
         <v>6</v>
       </c>
-      <c r="C314" s="157"/>
-      <c r="D314" s="155"/>
+      <c r="C314" s="158"/>
+      <c r="D314" s="156"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
@@ -50666,8 +50807,8 @@
       <c r="B315" s="2">
         <v>8</v>
       </c>
-      <c r="C315" s="157"/>
-      <c r="D315" s="155"/>
+      <c r="C315" s="158"/>
+      <c r="D315" s="156"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
@@ -50676,8 +50817,8 @@
       <c r="B316" s="2">
         <v>8</v>
       </c>
-      <c r="C316" s="157"/>
-      <c r="D316" s="155"/>
+      <c r="C316" s="158"/>
+      <c r="D316" s="156"/>
       <c r="M316" s="3"/>
       <c r="O316" s="3"/>
     </row>
@@ -50688,8 +50829,8 @@
       <c r="B317" s="2">
         <v>2</v>
       </c>
-      <c r="C317" s="157"/>
-      <c r="D317" s="155"/>
+      <c r="C317" s="158"/>
+      <c r="D317" s="156"/>
       <c r="M317" s="3"/>
       <c r="O317" s="3"/>
     </row>
@@ -50700,8 +50841,8 @@
       <c r="B318" s="2">
         <v>6</v>
       </c>
-      <c r="C318" s="157"/>
-      <c r="D318" s="155"/>
+      <c r="C318" s="158"/>
+      <c r="D318" s="156"/>
       <c r="M318" s="3"/>
       <c r="O318" s="3"/>
     </row>
@@ -50712,8 +50853,8 @@
       <c r="B319" s="2">
         <v>8</v>
       </c>
-      <c r="C319" s="157"/>
-      <c r="D319" s="155"/>
+      <c r="C319" s="158"/>
+      <c r="D319" s="156"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
@@ -50722,8 +50863,8 @@
       <c r="B320" s="2">
         <v>8</v>
       </c>
-      <c r="C320" s="157"/>
-      <c r="D320" s="155"/>
+      <c r="C320" s="158"/>
+      <c r="D320" s="156"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
@@ -50732,8 +50873,8 @@
       <c r="B321" s="2">
         <v>6</v>
       </c>
-      <c r="C321" s="157"/>
-      <c r="D321" s="155"/>
+      <c r="C321" s="158"/>
+      <c r="D321" s="156"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
@@ -50742,8 +50883,8 @@
       <c r="B322" s="2">
         <v>6</v>
       </c>
-      <c r="C322" s="157"/>
-      <c r="D322" s="155"/>
+      <c r="C322" s="158"/>
+      <c r="D322" s="156"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
@@ -50752,8 +50893,8 @@
       <c r="B323" s="2">
         <v>4</v>
       </c>
-      <c r="C323" s="157"/>
-      <c r="D323" s="155"/>
+      <c r="C323" s="158"/>
+      <c r="D323" s="156"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
@@ -50762,8 +50903,8 @@
       <c r="B324" s="2">
         <v>8</v>
       </c>
-      <c r="C324" s="157"/>
-      <c r="D324" s="155"/>
+      <c r="C324" s="158"/>
+      <c r="D324" s="156"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
@@ -50772,8 +50913,8 @@
       <c r="B325" s="2">
         <v>6</v>
       </c>
-      <c r="C325" s="157"/>
-      <c r="D325" s="155"/>
+      <c r="C325" s="158"/>
+      <c r="D325" s="156"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
@@ -50782,8 +50923,8 @@
       <c r="B326" s="2">
         <v>4</v>
       </c>
-      <c r="C326" s="157"/>
-      <c r="D326" s="155"/>
+      <c r="C326" s="158"/>
+      <c r="D326" s="156"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
@@ -50792,8 +50933,8 @@
       <c r="B327" s="2">
         <v>4</v>
       </c>
-      <c r="C327" s="157"/>
-      <c r="D327" s="155"/>
+      <c r="C327" s="158"/>
+      <c r="D327" s="156"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
@@ -50802,8 +50943,8 @@
       <c r="B328" s="2">
         <v>6</v>
       </c>
-      <c r="C328" s="157"/>
-      <c r="D328" s="155"/>
+      <c r="C328" s="158"/>
+      <c r="D328" s="156"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
@@ -50812,8 +50953,8 @@
       <c r="B329" s="2">
         <v>8</v>
       </c>
-      <c r="C329" s="157"/>
-      <c r="D329" s="155"/>
+      <c r="C329" s="158"/>
+      <c r="D329" s="156"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
@@ -50822,8 +50963,8 @@
       <c r="B330" s="2">
         <v>4</v>
       </c>
-      <c r="C330" s="157"/>
-      <c r="D330" s="155"/>
+      <c r="C330" s="158"/>
+      <c r="D330" s="156"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
@@ -50832,8 +50973,8 @@
       <c r="B331" s="2">
         <v>6</v>
       </c>
-      <c r="C331" s="157"/>
-      <c r="D331" s="155"/>
+      <c r="C331" s="158"/>
+      <c r="D331" s="156"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
@@ -50842,8 +50983,8 @@
       <c r="B332" s="2">
         <v>6</v>
       </c>
-      <c r="C332" s="157"/>
-      <c r="D332" s="155"/>
+      <c r="C332" s="158"/>
+      <c r="D332" s="156"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
@@ -50852,8 +50993,8 @@
       <c r="B333" s="2">
         <v>2</v>
       </c>
-      <c r="C333" s="157"/>
-      <c r="D333" s="155"/>
+      <c r="C333" s="158"/>
+      <c r="D333" s="156"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
@@ -50862,8 +51003,8 @@
       <c r="B334" s="2">
         <v>6</v>
       </c>
-      <c r="C334" s="157"/>
-      <c r="D334" s="155"/>
+      <c r="C334" s="158"/>
+      <c r="D334" s="156"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
@@ -50872,8 +51013,8 @@
       <c r="B335" s="2">
         <v>6</v>
       </c>
-      <c r="C335" s="131"/>
-      <c r="D335" s="155"/>
+      <c r="C335" s="132"/>
+      <c r="D335" s="156"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
@@ -50882,11 +51023,11 @@
       <c r="B336" s="2">
         <v>6</v>
       </c>
-      <c r="C336" s="156">
+      <c r="C336" s="157">
         <f>AVERAGE(B336:B366)</f>
         <v>4.709677419354839</v>
       </c>
-      <c r="D336" s="155"/>
+      <c r="D336" s="156"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
@@ -50895,8 +51036,8 @@
       <c r="B337" s="2">
         <v>4</v>
       </c>
-      <c r="C337" s="157"/>
-      <c r="D337" s="155"/>
+      <c r="C337" s="158"/>
+      <c r="D337" s="156"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
@@ -50905,8 +51046,8 @@
       <c r="B338" s="2">
         <v>4</v>
       </c>
-      <c r="C338" s="157"/>
-      <c r="D338" s="155"/>
+      <c r="C338" s="158"/>
+      <c r="D338" s="156"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
@@ -50915,8 +51056,8 @@
       <c r="B339" s="2">
         <v>6</v>
       </c>
-      <c r="C339" s="157"/>
-      <c r="D339" s="155"/>
+      <c r="C339" s="158"/>
+      <c r="D339" s="156"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
@@ -50925,8 +51066,8 @@
       <c r="B340" s="2">
         <v>6</v>
       </c>
-      <c r="C340" s="157"/>
-      <c r="D340" s="155"/>
+      <c r="C340" s="158"/>
+      <c r="D340" s="156"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
@@ -50935,8 +51076,8 @@
       <c r="B341" s="2">
         <v>6</v>
       </c>
-      <c r="C341" s="157"/>
-      <c r="D341" s="155"/>
+      <c r="C341" s="158"/>
+      <c r="D341" s="156"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
@@ -50945,8 +51086,8 @@
       <c r="B342" s="2">
         <v>6</v>
       </c>
-      <c r="C342" s="157"/>
-      <c r="D342" s="155"/>
+      <c r="C342" s="158"/>
+      <c r="D342" s="156"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
@@ -50955,8 +51096,8 @@
       <c r="B343" s="2">
         <v>4</v>
       </c>
-      <c r="C343" s="157"/>
-      <c r="D343" s="155"/>
+      <c r="C343" s="158"/>
+      <c r="D343" s="156"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
@@ -50965,8 +51106,8 @@
       <c r="B344" s="2">
         <v>4</v>
       </c>
-      <c r="C344" s="157"/>
-      <c r="D344" s="155"/>
+      <c r="C344" s="158"/>
+      <c r="D344" s="156"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
@@ -50975,8 +51116,8 @@
       <c r="B345" s="2">
         <v>4</v>
       </c>
-      <c r="C345" s="157"/>
-      <c r="D345" s="155"/>
+      <c r="C345" s="158"/>
+      <c r="D345" s="156"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
@@ -50985,8 +51126,8 @@
       <c r="B346" s="2">
         <v>4</v>
       </c>
-      <c r="C346" s="157"/>
-      <c r="D346" s="155"/>
+      <c r="C346" s="158"/>
+      <c r="D346" s="156"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
@@ -50995,8 +51136,8 @@
       <c r="B347" s="2">
         <v>6</v>
       </c>
-      <c r="C347" s="157"/>
-      <c r="D347" s="155"/>
+      <c r="C347" s="158"/>
+      <c r="D347" s="156"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
@@ -51005,8 +51146,8 @@
       <c r="B348" s="2">
         <v>4</v>
       </c>
-      <c r="C348" s="157"/>
-      <c r="D348" s="155"/>
+      <c r="C348" s="158"/>
+      <c r="D348" s="156"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
@@ -51015,8 +51156,8 @@
       <c r="B349" s="2">
         <v>6</v>
       </c>
-      <c r="C349" s="157"/>
-      <c r="D349" s="155"/>
+      <c r="C349" s="158"/>
+      <c r="D349" s="156"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
@@ -51025,8 +51166,8 @@
       <c r="B350" s="2">
         <v>4</v>
       </c>
-      <c r="C350" s="157"/>
-      <c r="D350" s="155"/>
+      <c r="C350" s="158"/>
+      <c r="D350" s="156"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
@@ -51035,8 +51176,8 @@
       <c r="B351" s="2">
         <v>4</v>
       </c>
-      <c r="C351" s="157"/>
-      <c r="D351" s="155"/>
+      <c r="C351" s="158"/>
+      <c r="D351" s="156"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
@@ -51045,8 +51186,8 @@
       <c r="B352" s="2">
         <v>2</v>
       </c>
-      <c r="C352" s="157"/>
-      <c r="D352" s="155"/>
+      <c r="C352" s="158"/>
+      <c r="D352" s="156"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
@@ -51055,8 +51196,8 @@
       <c r="B353" s="2">
         <v>4</v>
       </c>
-      <c r="C353" s="157"/>
-      <c r="D353" s="155"/>
+      <c r="C353" s="158"/>
+      <c r="D353" s="156"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
@@ -51065,8 +51206,8 @@
       <c r="B354" s="2">
         <v>2</v>
       </c>
-      <c r="C354" s="157"/>
-      <c r="D354" s="155"/>
+      <c r="C354" s="158"/>
+      <c r="D354" s="156"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
@@ -51075,8 +51216,8 @@
       <c r="B355" s="2">
         <v>4</v>
       </c>
-      <c r="C355" s="157"/>
-      <c r="D355" s="155"/>
+      <c r="C355" s="158"/>
+      <c r="D355" s="156"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
@@ -51085,8 +51226,8 @@
       <c r="B356" s="2">
         <v>4</v>
       </c>
-      <c r="C356" s="157"/>
-      <c r="D356" s="155"/>
+      <c r="C356" s="158"/>
+      <c r="D356" s="156"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
@@ -51095,8 +51236,8 @@
       <c r="B357" s="2">
         <v>4</v>
       </c>
-      <c r="C357" s="157"/>
-      <c r="D357" s="155"/>
+      <c r="C357" s="158"/>
+      <c r="D357" s="156"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
@@ -51105,8 +51246,8 @@
       <c r="B358" s="2">
         <v>4</v>
       </c>
-      <c r="C358" s="157"/>
-      <c r="D358" s="155"/>
+      <c r="C358" s="158"/>
+      <c r="D358" s="156"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
@@ -51115,8 +51256,8 @@
       <c r="B359" s="2">
         <v>10</v>
       </c>
-      <c r="C359" s="157"/>
-      <c r="D359" s="155"/>
+      <c r="C359" s="158"/>
+      <c r="D359" s="156"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
@@ -51125,8 +51266,8 @@
       <c r="B360" s="2">
         <v>6</v>
       </c>
-      <c r="C360" s="157"/>
-      <c r="D360" s="155"/>
+      <c r="C360" s="158"/>
+      <c r="D360" s="156"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
@@ -51135,8 +51276,8 @@
       <c r="B361" s="2">
         <v>4</v>
       </c>
-      <c r="C361" s="157"/>
-      <c r="D361" s="155"/>
+      <c r="C361" s="158"/>
+      <c r="D361" s="156"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
@@ -51145,8 +51286,8 @@
       <c r="B362" s="2">
         <v>4</v>
       </c>
-      <c r="C362" s="157"/>
-      <c r="D362" s="155"/>
+      <c r="C362" s="158"/>
+      <c r="D362" s="156"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
@@ -51155,8 +51296,8 @@
       <c r="B363" s="2">
         <v>4</v>
       </c>
-      <c r="C363" s="157"/>
-      <c r="D363" s="155"/>
+      <c r="C363" s="158"/>
+      <c r="D363" s="156"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
@@ -51165,8 +51306,8 @@
       <c r="B364" s="2">
         <v>6</v>
       </c>
-      <c r="C364" s="157"/>
-      <c r="D364" s="155"/>
+      <c r="C364" s="158"/>
+      <c r="D364" s="156"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
@@ -51175,8 +51316,8 @@
       <c r="B365" s="2">
         <v>4</v>
       </c>
-      <c r="C365" s="157"/>
-      <c r="D365" s="155"/>
+      <c r="C365" s="158"/>
+      <c r="D365" s="156"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
@@ -51185,8 +51326,8 @@
       <c r="B366" s="2">
         <v>6</v>
       </c>
-      <c r="C366" s="131"/>
-      <c r="D366" s="155"/>
+      <c r="C366" s="132"/>
+      <c r="D366" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -51278,17 +51419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="F1" s="158" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="F1" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="31" t="s">
@@ -51641,32 +51782,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="149" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="148"/>
+      <c r="C2" s="149"/>
       <c r="D2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="148"/>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
@@ -52315,14 +52456,14 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="43"/>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="161" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
       <c r="J1" s="41"/>
@@ -52389,7 +52530,7 @@
       <c r="G3" s="41">
         <v>9000</v>
       </c>
-      <c r="H3" s="162">
+      <c r="H3" s="163">
         <f>AVERAGE(G3:G16)</f>
         <v>7820.5</v>
       </c>
@@ -52428,7 +52569,7 @@
       <c r="G4" s="41">
         <v>6807</v>
       </c>
-      <c r="H4" s="163"/>
+      <c r="H4" s="164"/>
       <c r="I4" s="43">
         <v>2275</v>
       </c>
@@ -52464,7 +52605,7 @@
       <c r="G5" s="41">
         <v>6807</v>
       </c>
-      <c r="H5" s="163"/>
+      <c r="H5" s="164"/>
       <c r="I5" s="43">
         <v>2275</v>
       </c>
@@ -52500,7 +52641,7 @@
       <c r="G6" s="41">
         <v>6946</v>
       </c>
-      <c r="H6" s="163"/>
+      <c r="H6" s="164"/>
       <c r="I6" s="43">
         <v>2275</v>
       </c>
@@ -52536,7 +52677,7 @@
       <c r="G7" s="41">
         <v>6946</v>
       </c>
-      <c r="H7" s="163"/>
+      <c r="H7" s="164"/>
       <c r="I7" s="43">
         <v>2275</v>
       </c>
@@ -52572,7 +52713,7 @@
       <c r="G8" s="41">
         <v>7564</v>
       </c>
-      <c r="H8" s="163"/>
+      <c r="H8" s="164"/>
       <c r="I8" s="43">
         <v>2275</v>
       </c>
@@ -52608,7 +52749,7 @@
       <c r="G9" s="41">
         <v>6355</v>
       </c>
-      <c r="H9" s="163"/>
+      <c r="H9" s="164"/>
       <c r="I9" s="43">
         <v>2275</v>
       </c>
@@ -52644,7 +52785,7 @@
       <c r="G10" s="41">
         <v>10599</v>
       </c>
-      <c r="H10" s="163"/>
+      <c r="H10" s="164"/>
       <c r="I10" s="43">
         <v>2360</v>
       </c>
@@ -52680,7 +52821,7 @@
       <c r="G11" s="41">
         <v>7214</v>
       </c>
-      <c r="H11" s="163"/>
+      <c r="H11" s="164"/>
       <c r="I11" s="43">
         <v>2275</v>
       </c>
@@ -52716,7 +52857,7 @@
       <c r="G12" s="41">
         <v>8650</v>
       </c>
-      <c r="H12" s="163"/>
+      <c r="H12" s="164"/>
       <c r="I12" s="43">
         <v>2275</v>
       </c>
@@ -52752,7 +52893,7 @@
       <c r="G13" s="41">
         <v>8650</v>
       </c>
-      <c r="H13" s="163"/>
+      <c r="H13" s="164"/>
       <c r="I13" s="43">
         <v>2275</v>
       </c>
@@ -52788,7 +52929,7 @@
       <c r="G14" s="41">
         <v>7565</v>
       </c>
-      <c r="H14" s="163"/>
+      <c r="H14" s="164"/>
       <c r="I14" s="43">
         <v>2275</v>
       </c>
@@ -52824,7 +52965,7 @@
       <c r="G15" s="41">
         <v>9218</v>
       </c>
-      <c r="H15" s="163"/>
+      <c r="H15" s="164"/>
       <c r="I15" s="43">
         <v>2275</v>
       </c>
@@ -52860,7 +53001,7 @@
       <c r="G16" s="41">
         <v>7166</v>
       </c>
-      <c r="H16" s="164"/>
+      <c r="H16" s="165"/>
       <c r="I16" s="43">
         <v>2275</v>
       </c>
@@ -52876,13 +53017,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="43"/>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
       <c r="G17" s="40">
         <f>SUM(G3:G16)</f>
         <v>109487</v>
@@ -53200,6 +53341,323 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://s